--- a/我的创作/股票/技术投资/SEAP交易系统/交易计划202112.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易计划202112.xlsx
@@ -157,11 +157,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="34">
     <font>
@@ -269,6 +269,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
@@ -283,25 +314,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -313,9 +329,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -323,6 +347,20 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -336,23 +374,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -366,17 +390,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -386,22 +402,6 @@
       <color rgb="FF3F3F76"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -438,7 +438,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -450,37 +468,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -498,7 +486,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -510,85 +576,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -606,19 +594,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -669,6 +669,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -680,17 +698,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -710,25 +717,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -749,11 +743,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -762,145 +762,145 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="34" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -2225,7 +2225,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C8" sqref="C8:D8"/>
+      <selection pane="bottomLeft" activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.82142857142857" defaultRowHeight="12.4"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易计划202112.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易计划202112.xlsx
@@ -157,11 +157,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="34">
     <font>
@@ -200,9 +200,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
       <sz val="10"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -269,18 +268,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="Helvetica Neue"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Helvetica Neue"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -300,8 +298,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -314,23 +313,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Helvetica Neue"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
@@ -345,8 +336,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -354,13 +353,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -374,32 +366,39 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F76"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Helvetica Neue"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -438,13 +437,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -456,7 +449,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -468,37 +491,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -510,67 +563,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -588,37 +587,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -673,15 +672,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -702,6 +692,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -717,17 +716,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -739,6 +727,17 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -762,152 +761,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="28" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="34" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -936,6 +935,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2225,7 +2227,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I13" sqref="I13"/>
+      <selection pane="bottomLeft" activeCell="C1" sqref="C1:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.82142857142857" defaultRowHeight="12.4"/>
@@ -2272,1172 +2274,1172 @@
       <c r="I1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="34" t="s">
+      <c r="K1" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="35" t="s">
+      <c r="L1" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="41" t="s">
+      <c r="M1" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="42"/>
-      <c r="O1" s="42"/>
-      <c r="P1" s="42"/>
-      <c r="Q1" s="42"/>
-      <c r="R1" s="42"/>
-      <c r="S1" s="42"/>
-      <c r="T1" s="42"/>
-      <c r="V1" s="46"/>
-      <c r="W1" s="46"/>
-      <c r="X1" s="46"/>
-      <c r="Y1" s="46"/>
-      <c r="Z1" s="46"/>
-      <c r="AA1" s="46"/>
-      <c r="AB1" s="46"/>
-      <c r="AC1" s="46"/>
-      <c r="AE1" s="46"/>
-      <c r="AF1" s="46"/>
-      <c r="AG1" s="46"/>
-      <c r="AH1" s="46"/>
-      <c r="AI1" s="46"/>
-      <c r="AJ1" s="46"/>
-      <c r="AK1" s="46"/>
-      <c r="AM1" s="46"/>
-      <c r="AN1" s="46"/>
-      <c r="AO1" s="46"/>
-      <c r="AP1" s="46"/>
-      <c r="AQ1" s="46"/>
-      <c r="AR1" s="46"/>
-      <c r="AS1" s="46"/>
-      <c r="AU1" s="46"/>
-      <c r="AV1" s="46"/>
-      <c r="AW1" s="46"/>
-      <c r="AX1" s="46"/>
-      <c r="AY1" s="46"/>
-      <c r="AZ1" s="46"/>
-      <c r="BA1" s="46"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="43"/>
+      <c r="P1" s="43"/>
+      <c r="Q1" s="43"/>
+      <c r="R1" s="43"/>
+      <c r="S1" s="43"/>
+      <c r="T1" s="43"/>
+      <c r="V1" s="47"/>
+      <c r="W1" s="47"/>
+      <c r="X1" s="47"/>
+      <c r="Y1" s="47"/>
+      <c r="Z1" s="47"/>
+      <c r="AA1" s="47"/>
+      <c r="AB1" s="47"/>
+      <c r="AC1" s="47"/>
+      <c r="AE1" s="47"/>
+      <c r="AF1" s="47"/>
+      <c r="AG1" s="47"/>
+      <c r="AH1" s="47"/>
+      <c r="AI1" s="47"/>
+      <c r="AJ1" s="47"/>
+      <c r="AK1" s="47"/>
+      <c r="AM1" s="47"/>
+      <c r="AN1" s="47"/>
+      <c r="AO1" s="47"/>
+      <c r="AP1" s="47"/>
+      <c r="AQ1" s="47"/>
+      <c r="AR1" s="47"/>
+      <c r="AS1" s="47"/>
+      <c r="AU1" s="47"/>
+      <c r="AV1" s="47"/>
+      <c r="AW1" s="47"/>
+      <c r="AX1" s="47"/>
+      <c r="AY1" s="47"/>
+      <c r="AZ1" s="47"/>
+      <c r="BA1" s="47"/>
     </row>
     <row r="2" ht="23.6" spans="1:53">
       <c r="A2" s="6"/>
       <c r="B2" s="7"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
       <c r="H2" s="9"/>
       <c r="I2" s="9"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="43"/>
-      <c r="N2" s="42"/>
-      <c r="O2" s="42"/>
-      <c r="P2" s="42"/>
-      <c r="Q2" s="42"/>
-      <c r="R2" s="42"/>
-      <c r="S2" s="42"/>
-      <c r="T2" s="42"/>
-      <c r="V2" s="46"/>
-      <c r="W2" s="46"/>
-      <c r="X2" s="46"/>
-      <c r="Y2" s="46"/>
-      <c r="Z2" s="46"/>
-      <c r="AA2" s="46"/>
-      <c r="AB2" s="46"/>
-      <c r="AC2" s="46"/>
-      <c r="AE2" s="46"/>
-      <c r="AF2" s="46"/>
-      <c r="AG2" s="46"/>
-      <c r="AH2" s="46"/>
-      <c r="AI2" s="46"/>
-      <c r="AJ2" s="46"/>
-      <c r="AK2" s="46"/>
-      <c r="AM2" s="46"/>
-      <c r="AN2" s="46"/>
-      <c r="AO2" s="46"/>
-      <c r="AP2" s="46"/>
-      <c r="AQ2" s="46"/>
-      <c r="AR2" s="46"/>
-      <c r="AS2" s="46"/>
-      <c r="AU2" s="46"/>
-      <c r="AV2" s="46"/>
-      <c r="AW2" s="46"/>
-      <c r="AX2" s="46"/>
-      <c r="AY2" s="46"/>
-      <c r="AZ2" s="46"/>
-      <c r="BA2" s="46"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="44"/>
+      <c r="N2" s="43"/>
+      <c r="O2" s="43"/>
+      <c r="P2" s="43"/>
+      <c r="Q2" s="43"/>
+      <c r="R2" s="43"/>
+      <c r="S2" s="43"/>
+      <c r="T2" s="43"/>
+      <c r="V2" s="47"/>
+      <c r="W2" s="47"/>
+      <c r="X2" s="47"/>
+      <c r="Y2" s="47"/>
+      <c r="Z2" s="47"/>
+      <c r="AA2" s="47"/>
+      <c r="AB2" s="47"/>
+      <c r="AC2" s="47"/>
+      <c r="AE2" s="47"/>
+      <c r="AF2" s="47"/>
+      <c r="AG2" s="47"/>
+      <c r="AH2" s="47"/>
+      <c r="AI2" s="47"/>
+      <c r="AJ2" s="47"/>
+      <c r="AK2" s="47"/>
+      <c r="AM2" s="47"/>
+      <c r="AN2" s="47"/>
+      <c r="AO2" s="47"/>
+      <c r="AP2" s="47"/>
+      <c r="AQ2" s="47"/>
+      <c r="AR2" s="47"/>
+      <c r="AS2" s="47"/>
+      <c r="AU2" s="47"/>
+      <c r="AV2" s="47"/>
+      <c r="AW2" s="47"/>
+      <c r="AX2" s="47"/>
+      <c r="AY2" s="47"/>
+      <c r="AZ2" s="47"/>
+      <c r="BA2" s="47"/>
     </row>
     <row r="3" customFormat="1" ht="23.6" spans="1:53">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="33">
+      <c r="E3" s="34">
         <v>34.12</v>
       </c>
-      <c r="F3" s="33">
+      <c r="F3" s="34">
         <v>32.53</v>
       </c>
-      <c r="G3" s="33">
+      <c r="G3" s="34">
         <v>39.33</v>
       </c>
-      <c r="H3" s="33">
+      <c r="H3" s="34">
         <f t="shared" ref="H3:H13" si="0">(E3-F3)*100</f>
         <v>159</v>
       </c>
-      <c r="I3" s="33">
+      <c r="I3" s="34">
         <f>FLOOR(1000/(E3-F3),100)</f>
         <v>600</v>
       </c>
-      <c r="J3" s="36">
+      <c r="J3" s="37">
         <f t="shared" ref="J3:J11" si="1">(G3-E3)/(E3-F3)</f>
         <v>3.27672955974844</v>
       </c>
-      <c r="K3" s="37">
+      <c r="K3" s="38">
         <f t="shared" ref="K3:K13" si="2">(E3-F3)/E3</f>
         <v>0.0466002344665884</v>
       </c>
-      <c r="L3" s="38">
+      <c r="L3" s="39">
         <f t="shared" ref="L3:L11" si="3">(G3-E3)/E3</f>
         <v>0.152696365767878</v>
       </c>
-      <c r="M3" s="26" t="s">
+      <c r="M3" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="N3" s="42"/>
-      <c r="O3" s="42"/>
-      <c r="P3" s="42"/>
-      <c r="Q3" s="42"/>
-      <c r="R3" s="42"/>
-      <c r="S3" s="42"/>
-      <c r="T3" s="42"/>
-      <c r="V3" s="46"/>
-      <c r="W3" s="46"/>
-      <c r="X3" s="46"/>
-      <c r="Y3" s="46"/>
-      <c r="Z3" s="46"/>
-      <c r="AA3" s="46"/>
-      <c r="AB3" s="46"/>
-      <c r="AC3" s="46"/>
-      <c r="AE3" s="46"/>
-      <c r="AF3" s="46"/>
-      <c r="AG3" s="46"/>
-      <c r="AH3" s="46"/>
-      <c r="AI3" s="46"/>
-      <c r="AJ3" s="46"/>
-      <c r="AK3" s="46"/>
-      <c r="AM3" s="46"/>
-      <c r="AN3" s="46"/>
-      <c r="AO3" s="46"/>
-      <c r="AP3" s="46"/>
-      <c r="AQ3" s="46"/>
-      <c r="AR3" s="46"/>
-      <c r="AS3" s="46"/>
-      <c r="AU3" s="46"/>
-      <c r="AV3" s="46"/>
-      <c r="AW3" s="46"/>
-      <c r="AX3" s="46"/>
-      <c r="AY3" s="46"/>
-      <c r="AZ3" s="46"/>
-      <c r="BA3" s="46"/>
+      <c r="N3" s="43"/>
+      <c r="O3" s="43"/>
+      <c r="P3" s="43"/>
+      <c r="Q3" s="43"/>
+      <c r="R3" s="43"/>
+      <c r="S3" s="43"/>
+      <c r="T3" s="43"/>
+      <c r="V3" s="47"/>
+      <c r="W3" s="47"/>
+      <c r="X3" s="47"/>
+      <c r="Y3" s="47"/>
+      <c r="Z3" s="47"/>
+      <c r="AA3" s="47"/>
+      <c r="AB3" s="47"/>
+      <c r="AC3" s="47"/>
+      <c r="AE3" s="47"/>
+      <c r="AF3" s="47"/>
+      <c r="AG3" s="47"/>
+      <c r="AH3" s="47"/>
+      <c r="AI3" s="47"/>
+      <c r="AJ3" s="47"/>
+      <c r="AK3" s="47"/>
+      <c r="AM3" s="47"/>
+      <c r="AN3" s="47"/>
+      <c r="AO3" s="47"/>
+      <c r="AP3" s="47"/>
+      <c r="AQ3" s="47"/>
+      <c r="AR3" s="47"/>
+      <c r="AS3" s="47"/>
+      <c r="AU3" s="47"/>
+      <c r="AV3" s="47"/>
+      <c r="AW3" s="47"/>
+      <c r="AX3" s="47"/>
+      <c r="AY3" s="47"/>
+      <c r="AZ3" s="47"/>
+      <c r="BA3" s="47"/>
     </row>
     <row r="4" customFormat="1" ht="23.6" spans="1:53">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="33">
+      <c r="E4" s="34">
         <v>32.65</v>
       </c>
-      <c r="F4" s="33">
+      <c r="F4" s="34">
         <v>30.89</v>
       </c>
-      <c r="G4" s="33">
+      <c r="G4" s="34">
         <v>36.22</v>
       </c>
-      <c r="H4" s="33">
+      <c r="H4" s="34">
         <f t="shared" si="0"/>
         <v>176</v>
       </c>
-      <c r="I4" s="33">
+      <c r="I4" s="34">
         <f>FLOOR(1000/(E4-F4),100)</f>
         <v>500</v>
       </c>
-      <c r="J4" s="36">
+      <c r="J4" s="37">
         <f t="shared" si="1"/>
         <v>2.02840909090909</v>
       </c>
-      <c r="K4" s="37">
+      <c r="K4" s="38">
         <f t="shared" si="2"/>
         <v>0.0539050535987748</v>
       </c>
-      <c r="L4" s="38">
+      <c r="L4" s="39">
         <f t="shared" si="3"/>
         <v>0.109341500765697</v>
       </c>
-      <c r="M4" s="26" t="s">
+      <c r="M4" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="N4" s="42"/>
-      <c r="O4" s="42"/>
-      <c r="P4" s="42"/>
-      <c r="Q4" s="42"/>
-      <c r="R4" s="42"/>
-      <c r="S4" s="42"/>
-      <c r="T4" s="42"/>
-      <c r="V4" s="46"/>
-      <c r="W4" s="46"/>
-      <c r="X4" s="46"/>
-      <c r="Y4" s="46"/>
-      <c r="Z4" s="46"/>
-      <c r="AA4" s="46"/>
-      <c r="AB4" s="46"/>
-      <c r="AC4" s="46"/>
-      <c r="AE4" s="46"/>
-      <c r="AF4" s="46"/>
-      <c r="AG4" s="46"/>
-      <c r="AH4" s="46"/>
-      <c r="AI4" s="46"/>
-      <c r="AJ4" s="46"/>
-      <c r="AK4" s="46"/>
-      <c r="AM4" s="46"/>
-      <c r="AN4" s="46"/>
-      <c r="AO4" s="46"/>
-      <c r="AP4" s="46"/>
-      <c r="AQ4" s="46"/>
-      <c r="AR4" s="46"/>
-      <c r="AS4" s="46"/>
-      <c r="AU4" s="46"/>
-      <c r="AV4" s="46"/>
-      <c r="AW4" s="46"/>
-      <c r="AX4" s="46"/>
-      <c r="AY4" s="46"/>
-      <c r="AZ4" s="46"/>
-      <c r="BA4" s="46"/>
+      <c r="N4" s="43"/>
+      <c r="O4" s="43"/>
+      <c r="P4" s="43"/>
+      <c r="Q4" s="43"/>
+      <c r="R4" s="43"/>
+      <c r="S4" s="43"/>
+      <c r="T4" s="43"/>
+      <c r="V4" s="47"/>
+      <c r="W4" s="47"/>
+      <c r="X4" s="47"/>
+      <c r="Y4" s="47"/>
+      <c r="Z4" s="47"/>
+      <c r="AA4" s="47"/>
+      <c r="AB4" s="47"/>
+      <c r="AC4" s="47"/>
+      <c r="AE4" s="47"/>
+      <c r="AF4" s="47"/>
+      <c r="AG4" s="47"/>
+      <c r="AH4" s="47"/>
+      <c r="AI4" s="47"/>
+      <c r="AJ4" s="47"/>
+      <c r="AK4" s="47"/>
+      <c r="AM4" s="47"/>
+      <c r="AN4" s="47"/>
+      <c r="AO4" s="47"/>
+      <c r="AP4" s="47"/>
+      <c r="AQ4" s="47"/>
+      <c r="AR4" s="47"/>
+      <c r="AS4" s="47"/>
+      <c r="AU4" s="47"/>
+      <c r="AV4" s="47"/>
+      <c r="AW4" s="47"/>
+      <c r="AX4" s="47"/>
+      <c r="AY4" s="47"/>
+      <c r="AZ4" s="47"/>
+      <c r="BA4" s="47"/>
     </row>
     <row r="5" s="1" customFormat="1" ht="36" spans="1:14">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="16">
+      <c r="B5" s="17">
         <v>44539</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="33">
+      <c r="E5" s="34">
         <v>51.15</v>
       </c>
-      <c r="F5" s="33">
+      <c r="F5" s="34">
         <v>46.61</v>
       </c>
-      <c r="G5" s="33">
+      <c r="G5" s="34">
         <v>59.59</v>
       </c>
-      <c r="H5" s="33">
+      <c r="H5" s="34">
         <f t="shared" si="0"/>
         <v>454</v>
       </c>
-      <c r="I5" s="33">
+      <c r="I5" s="34">
         <f>FLOOR(1000/(E5-F5),100)</f>
         <v>200</v>
       </c>
-      <c r="J5" s="36">
+      <c r="J5" s="37">
         <f t="shared" si="1"/>
         <v>1.85903083700441</v>
       </c>
-      <c r="K5" s="37">
+      <c r="K5" s="38">
         <f t="shared" si="2"/>
         <v>0.0887585532746823</v>
       </c>
-      <c r="L5" s="38">
+      <c r="L5" s="39">
         <f t="shared" si="3"/>
         <v>0.165004887585533</v>
       </c>
-      <c r="M5" s="44" t="s">
+      <c r="M5" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="N5" s="45"/>
+      <c r="N5" s="46"/>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:14">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="16">
+      <c r="B6" s="17">
         <v>44539</v>
       </c>
-      <c r="C6" s="18">
+      <c r="C6" s="19">
         <v>600779</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="30">
+      <c r="E6" s="31">
         <v>143.8</v>
       </c>
-      <c r="F6" s="30">
+      <c r="F6" s="31">
         <v>137.88</v>
       </c>
-      <c r="G6" s="30">
+      <c r="G6" s="31">
         <v>158.48</v>
       </c>
-      <c r="H6" s="33">
+      <c r="H6" s="34">
         <f t="shared" si="0"/>
         <v>592.000000000002</v>
       </c>
-      <c r="I6" s="33">
+      <c r="I6" s="34">
         <f t="shared" ref="I6:I13" si="4">FLOOR(1000/(E6-F6),100)</f>
         <v>100</v>
       </c>
-      <c r="J6" s="36">
+      <c r="J6" s="37">
         <f t="shared" si="1"/>
         <v>2.47972972972972</v>
       </c>
-      <c r="K6" s="37">
+      <c r="K6" s="38">
         <f t="shared" si="2"/>
         <v>0.0411682892906816</v>
       </c>
-      <c r="L6" s="38">
+      <c r="L6" s="39">
         <f t="shared" si="3"/>
         <v>0.102086230876217</v>
       </c>
-      <c r="M6" s="26" t="s">
+      <c r="M6" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="N6" s="45"/>
+      <c r="N6" s="46"/>
     </row>
     <row r="7" s="1" customFormat="1" ht="36" spans="1:14">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="16">
+      <c r="B7" s="17">
         <v>44539</v>
       </c>
-      <c r="C7" s="18">
+      <c r="C7" s="19">
         <v>600803</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="30">
+      <c r="E7" s="31">
         <v>20.44</v>
       </c>
-      <c r="F7" s="30">
+      <c r="F7" s="31">
         <v>19.09</v>
       </c>
-      <c r="G7" s="30">
+      <c r="G7" s="31">
         <v>23.43</v>
       </c>
-      <c r="H7" s="33">
+      <c r="H7" s="34">
         <f t="shared" si="0"/>
         <v>135</v>
       </c>
-      <c r="I7" s="33">
+      <c r="I7" s="34">
         <f t="shared" si="4"/>
         <v>700</v>
       </c>
-      <c r="J7" s="36">
+      <c r="J7" s="37">
         <f t="shared" si="1"/>
         <v>2.21481481481481</v>
       </c>
-      <c r="K7" s="37">
+      <c r="K7" s="38">
         <f t="shared" si="2"/>
         <v>0.0660469667318983</v>
       </c>
-      <c r="L7" s="38">
+      <c r="L7" s="39">
         <f t="shared" si="3"/>
         <v>0.146281800391389</v>
       </c>
-      <c r="M7" s="44" t="s">
+      <c r="M7" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="N7" s="45"/>
+      <c r="N7" s="46"/>
     </row>
     <row r="8" s="1" customFormat="1" spans="1:14">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="16">
+      <c r="B8" s="17">
         <v>44539</v>
       </c>
-      <c r="C8" s="20">
+      <c r="C8" s="21">
         <v>600032</v>
       </c>
-      <c r="D8" s="20" t="s">
+      <c r="D8" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="28">
+      <c r="E8" s="29">
         <v>17.19</v>
       </c>
-      <c r="F8" s="28">
+      <c r="F8" s="29">
         <v>15.5</v>
       </c>
-      <c r="G8" s="28">
+      <c r="G8" s="29">
         <v>20.72</v>
       </c>
-      <c r="H8" s="33">
+      <c r="H8" s="34">
         <f t="shared" si="0"/>
         <v>169</v>
       </c>
-      <c r="I8" s="33">
+      <c r="I8" s="34">
         <f t="shared" si="4"/>
         <v>500</v>
       </c>
-      <c r="J8" s="36">
+      <c r="J8" s="37">
         <f t="shared" si="1"/>
         <v>2.0887573964497</v>
       </c>
-      <c r="K8" s="37">
+      <c r="K8" s="38">
         <f t="shared" si="2"/>
         <v>0.0983129726585225</v>
       </c>
-      <c r="L8" s="38">
+      <c r="L8" s="39">
         <f t="shared" si="3"/>
         <v>0.205351948807446</v>
       </c>
-      <c r="M8" s="26" t="s">
+      <c r="M8" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="N8" s="45"/>
+      <c r="N8" s="46"/>
     </row>
     <row r="9" s="2" customFormat="1" spans="1:13">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="16">
+      <c r="B9" s="17">
         <v>44539</v>
       </c>
-      <c r="C9" s="21">
+      <c r="C9" s="22">
         <v>603688</v>
       </c>
-      <c r="D9" s="22" t="s">
+      <c r="D9" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="28">
+      <c r="E9" s="29">
         <v>64.3</v>
       </c>
-      <c r="F9" s="28">
+      <c r="F9" s="29">
         <v>58.51</v>
       </c>
-      <c r="G9" s="28">
+      <c r="G9" s="29">
         <v>65.72</v>
       </c>
-      <c r="H9" s="33">
+      <c r="H9" s="34">
         <f t="shared" si="0"/>
         <v>579</v>
       </c>
-      <c r="I9" s="33">
+      <c r="I9" s="34">
         <f t="shared" si="4"/>
         <v>100</v>
       </c>
-      <c r="J9" s="36">
+      <c r="J9" s="37">
         <f t="shared" si="1"/>
         <v>0.24525043177893</v>
       </c>
-      <c r="K9" s="37">
+      <c r="K9" s="38">
         <f t="shared" si="2"/>
         <v>0.0900466562986003</v>
       </c>
-      <c r="L9" s="38">
+      <c r="L9" s="39">
         <f t="shared" si="3"/>
         <v>0.0220839813374806</v>
       </c>
-      <c r="M9" s="26" t="s">
+      <c r="M9" s="27" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="10" s="2" customFormat="1" spans="1:13">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="16">
+      <c r="B10" s="17">
         <v>44539</v>
       </c>
-      <c r="C10" s="23">
+      <c r="C10" s="24">
         <v>601677</v>
       </c>
-      <c r="D10" s="24" t="s">
+      <c r="D10" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="E10" s="28">
+      <c r="E10" s="29">
         <v>39.15</v>
       </c>
-      <c r="F10" s="28">
+      <c r="F10" s="29">
         <v>35.91</v>
       </c>
-      <c r="G10" s="28">
+      <c r="G10" s="29">
         <v>44.28</v>
       </c>
-      <c r="H10" s="33">
+      <c r="H10" s="34">
         <f t="shared" si="0"/>
         <v>324</v>
       </c>
-      <c r="I10" s="33">
+      <c r="I10" s="34">
         <f t="shared" si="4"/>
         <v>300</v>
       </c>
-      <c r="J10" s="36">
+      <c r="J10" s="37">
         <f t="shared" si="1"/>
         <v>1.58333333333333</v>
       </c>
-      <c r="K10" s="37">
+      <c r="K10" s="38">
         <f t="shared" si="2"/>
         <v>0.0827586206896552</v>
       </c>
-      <c r="L10" s="38">
+      <c r="L10" s="39">
         <f t="shared" si="3"/>
         <v>0.131034482758621</v>
       </c>
-      <c r="M10" s="26" t="s">
+      <c r="M10" s="27" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" ht="13" spans="1:14">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="B11" s="16">
+      <c r="B11" s="17">
         <v>44539</v>
       </c>
-      <c r="C11" s="47" t="s">
+      <c r="C11" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="24" t="s">
+      <c r="D11" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="E11" s="28">
+      <c r="E11" s="29">
         <v>117.8</v>
       </c>
-      <c r="F11" s="28">
+      <c r="F11" s="29">
         <v>111.17</v>
       </c>
-      <c r="G11" s="28">
+      <c r="G11" s="29">
         <v>131.73</v>
       </c>
-      <c r="H11" s="33">
+      <c r="H11" s="34">
         <f t="shared" si="0"/>
         <v>663</v>
       </c>
-      <c r="I11" s="33">
+      <c r="I11" s="34">
         <f t="shared" si="4"/>
         <v>100</v>
       </c>
-      <c r="J11" s="36">
+      <c r="J11" s="37">
         <f t="shared" si="1"/>
         <v>2.10105580693816</v>
       </c>
-      <c r="K11" s="37">
+      <c r="K11" s="38">
         <f t="shared" si="2"/>
         <v>0.0562818336162988</v>
       </c>
-      <c r="L11" s="38">
+      <c r="L11" s="39">
         <f t="shared" si="3"/>
         <v>0.118251273344652</v>
       </c>
-      <c r="M11" s="26" t="s">
+      <c r="M11" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="N11" s="45"/>
+      <c r="N11" s="46"/>
     </row>
     <row r="12" s="2" customFormat="1" ht="13" spans="1:13">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="B12" s="16">
+      <c r="B12" s="17">
         <v>44542</v>
       </c>
-      <c r="C12" s="25">
+      <c r="C12" s="26">
         <v>600955</v>
       </c>
-      <c r="D12" s="26" t="s">
+      <c r="D12" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="E12" s="28">
+      <c r="E12" s="29">
         <v>49.4</v>
       </c>
-      <c r="F12" s="28">
+      <c r="F12" s="29">
         <v>46.7</v>
       </c>
-      <c r="G12" s="28" t="s">
+      <c r="G12" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="H12" s="33">
+      <c r="H12" s="34">
         <f t="shared" si="0"/>
         <v>270</v>
       </c>
-      <c r="I12" s="33">
+      <c r="I12" s="34">
         <f t="shared" si="4"/>
         <v>300</v>
       </c>
-      <c r="J12" s="36" t="s">
+      <c r="J12" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="K12" s="37">
+      <c r="K12" s="38">
         <f t="shared" si="2"/>
         <v>0.054655870445344</v>
       </c>
-      <c r="L12" s="38" t="s">
+      <c r="L12" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="M12" s="26" t="s">
+      <c r="M12" s="27" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" ht="13" spans="1:13">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="B13" s="27">
+      <c r="B13" s="28">
         <v>44542</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C13" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="14" t="s">
+      <c r="D13" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="33">
+      <c r="E13" s="34">
         <v>37.73</v>
       </c>
-      <c r="F13" s="33">
+      <c r="F13" s="34">
         <v>33.38</v>
       </c>
-      <c r="G13" s="33">
+      <c r="G13" s="34">
         <v>46.05</v>
       </c>
-      <c r="H13" s="33">
+      <c r="H13" s="34">
         <f t="shared" si="0"/>
         <v>434.999999999999</v>
       </c>
-      <c r="I13" s="33">
+      <c r="I13" s="34">
         <f t="shared" si="4"/>
         <v>200</v>
       </c>
-      <c r="J13" s="36">
+      <c r="J13" s="37">
         <f>(G13-E13)/(E13-F13)</f>
         <v>1.91264367816092</v>
       </c>
-      <c r="K13" s="37">
+      <c r="K13" s="38">
         <f t="shared" si="2"/>
         <v>0.115292870394911</v>
       </c>
-      <c r="L13" s="38">
+      <c r="L13" s="39">
         <f>(G13-E13)/E13</f>
         <v>0.220514179697853</v>
       </c>
-      <c r="M13" s="26" t="s">
+      <c r="M13" s="27" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" spans="1:13">
-      <c r="A14" s="28"/>
-      <c r="B14" s="27"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="33"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="36"/>
-      <c r="K14" s="37"/>
-      <c r="L14" s="38"/>
-      <c r="M14" s="26"/>
+      <c r="A14" s="29"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="37"/>
+      <c r="K14" s="38"/>
+      <c r="L14" s="39"/>
+      <c r="M14" s="27"/>
     </row>
     <row r="15" s="1" customFormat="1" spans="1:13">
-      <c r="A15" s="28"/>
-      <c r="B15" s="27"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="33"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="36"/>
-      <c r="K15" s="37"/>
-      <c r="L15" s="38"/>
-      <c r="M15" s="26"/>
+      <c r="A15" s="29"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="37"/>
+      <c r="K15" s="38"/>
+      <c r="L15" s="39"/>
+      <c r="M15" s="27"/>
     </row>
     <row r="16" s="1" customFormat="1" spans="1:13">
-      <c r="A16" s="28"/>
-      <c r="B16" s="27"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="33"/>
-      <c r="I16" s="28"/>
-      <c r="J16" s="36"/>
-      <c r="K16" s="37"/>
-      <c r="L16" s="38"/>
-      <c r="M16" s="26"/>
+      <c r="A16" s="29"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="37"/>
+      <c r="K16" s="38"/>
+      <c r="L16" s="39"/>
+      <c r="M16" s="27"/>
     </row>
     <row r="17" s="1" customFormat="1" spans="1:13">
-      <c r="A17" s="28"/>
-      <c r="B17" s="27"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="33"/>
-      <c r="I17" s="28"/>
-      <c r="J17" s="36"/>
-      <c r="K17" s="37"/>
-      <c r="L17" s="38"/>
-      <c r="M17" s="26"/>
+      <c r="A17" s="29"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="37"/>
+      <c r="K17" s="38"/>
+      <c r="L17" s="39"/>
+      <c r="M17" s="27"/>
     </row>
     <row r="18" s="1" customFormat="1" spans="1:13">
-      <c r="A18" s="28"/>
-      <c r="B18" s="27"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="33"/>
-      <c r="I18" s="28"/>
-      <c r="J18" s="36"/>
-      <c r="K18" s="37"/>
-      <c r="L18" s="38"/>
-      <c r="M18" s="26"/>
+      <c r="A18" s="29"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="34"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="37"/>
+      <c r="K18" s="38"/>
+      <c r="L18" s="39"/>
+      <c r="M18" s="27"/>
     </row>
     <row r="19" s="2" customFormat="1" spans="1:13">
-      <c r="A19" s="28"/>
-      <c r="B19" s="27"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="33"/>
-      <c r="I19" s="28"/>
-      <c r="J19" s="36"/>
-      <c r="K19" s="37"/>
-      <c r="L19" s="38"/>
-      <c r="M19" s="26"/>
+      <c r="A19" s="29"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="34"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="37"/>
+      <c r="K19" s="38"/>
+      <c r="L19" s="39"/>
+      <c r="M19" s="27"/>
     </row>
     <row r="20" s="2" customFormat="1" spans="1:13">
-      <c r="A20" s="28"/>
-      <c r="B20" s="27"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="33"/>
-      <c r="I20" s="28"/>
-      <c r="J20" s="36"/>
-      <c r="K20" s="37"/>
-      <c r="L20" s="38"/>
-      <c r="M20" s="26"/>
+      <c r="A20" s="29"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="34"/>
+      <c r="I20" s="29"/>
+      <c r="J20" s="37"/>
+      <c r="K20" s="38"/>
+      <c r="L20" s="39"/>
+      <c r="M20" s="27"/>
     </row>
     <row r="21" s="2" customFormat="1" spans="1:13">
-      <c r="A21" s="28"/>
-      <c r="B21" s="27"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="33"/>
-      <c r="I21" s="28"/>
-      <c r="J21" s="36"/>
-      <c r="K21" s="37"/>
-      <c r="L21" s="38"/>
-      <c r="M21" s="26"/>
+      <c r="A21" s="29"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="34"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="37"/>
+      <c r="K21" s="38"/>
+      <c r="L21" s="39"/>
+      <c r="M21" s="27"/>
     </row>
     <row r="22" s="2" customFormat="1" spans="1:13">
-      <c r="A22" s="28"/>
-      <c r="B22" s="27"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="28"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="33"/>
-      <c r="I22" s="28"/>
-      <c r="J22" s="36"/>
-      <c r="K22" s="37"/>
-      <c r="L22" s="38"/>
-      <c r="M22" s="26"/>
+      <c r="A22" s="29"/>
+      <c r="B22" s="28"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="34"/>
+      <c r="I22" s="29"/>
+      <c r="J22" s="37"/>
+      <c r="K22" s="38"/>
+      <c r="L22" s="39"/>
+      <c r="M22" s="27"/>
     </row>
     <row r="23" s="2" customFormat="1" spans="1:13">
-      <c r="A23" s="28"/>
-      <c r="B23" s="27"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="33"/>
-      <c r="I23" s="28"/>
-      <c r="J23" s="36"/>
-      <c r="K23" s="37"/>
-      <c r="L23" s="38"/>
-      <c r="M23" s="28"/>
+      <c r="A23" s="29"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="29"/>
+      <c r="J23" s="37"/>
+      <c r="K23" s="38"/>
+      <c r="L23" s="39"/>
+      <c r="M23" s="29"/>
     </row>
     <row r="24" s="2" customFormat="1" spans="1:13">
-      <c r="A24" s="28"/>
-      <c r="B24" s="27"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="28"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="28"/>
-      <c r="G24" s="28"/>
-      <c r="H24" s="33"/>
-      <c r="I24" s="28"/>
-      <c r="J24" s="36"/>
-      <c r="K24" s="37"/>
-      <c r="L24" s="38"/>
-      <c r="M24" s="28"/>
+      <c r="A24" s="29"/>
+      <c r="B24" s="28"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="34"/>
+      <c r="I24" s="29"/>
+      <c r="J24" s="37"/>
+      <c r="K24" s="38"/>
+      <c r="L24" s="39"/>
+      <c r="M24" s="29"/>
     </row>
     <row r="25" s="2" customFormat="1" spans="1:13">
-      <c r="A25" s="28"/>
-      <c r="B25" s="27"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="28"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="28"/>
-      <c r="H25" s="33"/>
-      <c r="I25" s="28"/>
-      <c r="J25" s="36"/>
-      <c r="K25" s="37"/>
-      <c r="L25" s="38"/>
-      <c r="M25" s="28"/>
+      <c r="A25" s="29"/>
+      <c r="B25" s="28"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="34"/>
+      <c r="I25" s="29"/>
+      <c r="J25" s="37"/>
+      <c r="K25" s="38"/>
+      <c r="L25" s="39"/>
+      <c r="M25" s="29"/>
     </row>
     <row r="26" s="2" customFormat="1" spans="1:13">
-      <c r="A26" s="28"/>
-      <c r="B26" s="27"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="28"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="33"/>
-      <c r="I26" s="28"/>
-      <c r="J26" s="36"/>
-      <c r="K26" s="37"/>
-      <c r="L26" s="38"/>
-      <c r="M26" s="28"/>
+      <c r="A26" s="29"/>
+      <c r="B26" s="28"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="29"/>
+      <c r="J26" s="37"/>
+      <c r="K26" s="38"/>
+      <c r="L26" s="39"/>
+      <c r="M26" s="29"/>
     </row>
     <row r="27" s="2" customFormat="1" spans="1:13">
-      <c r="A27" s="28"/>
-      <c r="B27" s="27"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="28"/>
-      <c r="F27" s="28"/>
-      <c r="G27" s="28"/>
-      <c r="H27" s="33"/>
-      <c r="I27" s="28"/>
-      <c r="J27" s="36"/>
-      <c r="K27" s="37"/>
-      <c r="L27" s="38"/>
-      <c r="M27" s="26"/>
+      <c r="A27" s="29"/>
+      <c r="B27" s="28"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="34"/>
+      <c r="I27" s="29"/>
+      <c r="J27" s="37"/>
+      <c r="K27" s="38"/>
+      <c r="L27" s="39"/>
+      <c r="M27" s="27"/>
     </row>
     <row r="28" spans="1:13">
-      <c r="A28" s="30"/>
-      <c r="B28" s="27"/>
-      <c r="C28" s="31"/>
-      <c r="D28" s="30"/>
-      <c r="E28" s="30"/>
-      <c r="F28" s="30"/>
-      <c r="G28" s="30"/>
-      <c r="H28" s="30"/>
-      <c r="I28" s="30"/>
-      <c r="J28" s="30"/>
-      <c r="K28" s="37"/>
-      <c r="L28" s="39"/>
-      <c r="M28" s="26"/>
+      <c r="A28" s="31"/>
+      <c r="B28" s="28"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="31"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="31"/>
+      <c r="G28" s="31"/>
+      <c r="H28" s="31"/>
+      <c r="I28" s="31"/>
+      <c r="J28" s="31"/>
+      <c r="K28" s="38"/>
+      <c r="L28" s="40"/>
+      <c r="M28" s="27"/>
     </row>
     <row r="29" spans="1:13">
-      <c r="A29" s="30"/>
-      <c r="B29" s="27"/>
-      <c r="C29" s="30"/>
-      <c r="D29" s="30"/>
-      <c r="E29" s="30"/>
-      <c r="F29" s="30"/>
-      <c r="G29" s="30"/>
-      <c r="H29" s="30"/>
-      <c r="I29" s="30"/>
-      <c r="J29" s="30"/>
-      <c r="K29" s="37"/>
-      <c r="L29" s="39"/>
-      <c r="M29" s="30"/>
+      <c r="A29" s="31"/>
+      <c r="B29" s="28"/>
+      <c r="C29" s="31"/>
+      <c r="D29" s="31"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="31"/>
+      <c r="G29" s="31"/>
+      <c r="H29" s="31"/>
+      <c r="I29" s="31"/>
+      <c r="J29" s="31"/>
+      <c r="K29" s="38"/>
+      <c r="L29" s="40"/>
+      <c r="M29" s="31"/>
     </row>
     <row r="30" spans="1:13">
-      <c r="A30" s="30"/>
-      <c r="B30" s="30"/>
-      <c r="C30" s="30"/>
-      <c r="D30" s="30"/>
-      <c r="E30" s="30"/>
-      <c r="F30" s="30"/>
-      <c r="G30" s="30"/>
-      <c r="H30" s="30"/>
-      <c r="I30" s="30"/>
-      <c r="J30" s="30"/>
-      <c r="K30" s="37"/>
-      <c r="L30" s="39"/>
-      <c r="M30" s="30"/>
+      <c r="A30" s="31"/>
+      <c r="B30" s="31"/>
+      <c r="C30" s="31"/>
+      <c r="D30" s="31"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="31"/>
+      <c r="G30" s="31"/>
+      <c r="H30" s="31"/>
+      <c r="I30" s="31"/>
+      <c r="J30" s="31"/>
+      <c r="K30" s="38"/>
+      <c r="L30" s="40"/>
+      <c r="M30" s="31"/>
     </row>
     <row r="31" spans="1:13">
-      <c r="A31" s="30"/>
-      <c r="B31" s="30"/>
-      <c r="C31" s="30"/>
-      <c r="D31" s="30"/>
-      <c r="E31" s="30"/>
-      <c r="F31" s="30"/>
-      <c r="G31" s="30"/>
-      <c r="H31" s="30"/>
-      <c r="I31" s="30"/>
-      <c r="J31" s="30"/>
-      <c r="K31" s="37"/>
-      <c r="L31" s="39"/>
-      <c r="M31" s="30"/>
+      <c r="A31" s="31"/>
+      <c r="B31" s="31"/>
+      <c r="C31" s="31"/>
+      <c r="D31" s="31"/>
+      <c r="E31" s="31"/>
+      <c r="F31" s="31"/>
+      <c r="G31" s="31"/>
+      <c r="H31" s="31"/>
+      <c r="I31" s="31"/>
+      <c r="J31" s="31"/>
+      <c r="K31" s="38"/>
+      <c r="L31" s="40"/>
+      <c r="M31" s="31"/>
     </row>
     <row r="32" spans="1:13">
-      <c r="A32" s="30"/>
-      <c r="B32" s="30"/>
-      <c r="C32" s="30"/>
-      <c r="D32" s="30"/>
-      <c r="E32" s="30"/>
-      <c r="F32" s="30"/>
-      <c r="G32" s="30"/>
-      <c r="H32" s="30"/>
-      <c r="I32" s="30"/>
-      <c r="J32" s="30"/>
-      <c r="K32" s="37"/>
-      <c r="L32" s="39"/>
-      <c r="M32" s="30"/>
+      <c r="A32" s="31"/>
+      <c r="B32" s="31"/>
+      <c r="C32" s="31"/>
+      <c r="D32" s="31"/>
+      <c r="E32" s="31"/>
+      <c r="F32" s="31"/>
+      <c r="G32" s="31"/>
+      <c r="H32" s="31"/>
+      <c r="I32" s="31"/>
+      <c r="J32" s="31"/>
+      <c r="K32" s="38"/>
+      <c r="L32" s="40"/>
+      <c r="M32" s="31"/>
     </row>
     <row r="33" spans="1:13">
-      <c r="A33" s="30"/>
-      <c r="B33" s="30"/>
-      <c r="C33" s="30"/>
-      <c r="D33" s="30"/>
-      <c r="E33" s="30"/>
-      <c r="F33" s="30"/>
-      <c r="G33" s="30"/>
-      <c r="H33" s="30"/>
-      <c r="I33" s="30"/>
-      <c r="J33" s="30"/>
-      <c r="K33" s="37"/>
-      <c r="L33" s="39"/>
-      <c r="M33" s="30"/>
+      <c r="A33" s="31"/>
+      <c r="B33" s="31"/>
+      <c r="C33" s="31"/>
+      <c r="D33" s="31"/>
+      <c r="E33" s="31"/>
+      <c r="F33" s="31"/>
+      <c r="G33" s="31"/>
+      <c r="H33" s="31"/>
+      <c r="I33" s="31"/>
+      <c r="J33" s="31"/>
+      <c r="K33" s="38"/>
+      <c r="L33" s="40"/>
+      <c r="M33" s="31"/>
     </row>
     <row r="34" spans="1:13">
-      <c r="A34" s="30"/>
-      <c r="B34" s="30"/>
-      <c r="C34" s="30"/>
-      <c r="D34" s="30"/>
-      <c r="E34" s="30"/>
-      <c r="F34" s="30"/>
-      <c r="G34" s="30"/>
-      <c r="H34" s="30"/>
-      <c r="I34" s="30"/>
-      <c r="J34" s="30"/>
-      <c r="K34" s="37"/>
-      <c r="L34" s="39"/>
-      <c r="M34" s="30"/>
+      <c r="A34" s="31"/>
+      <c r="B34" s="31"/>
+      <c r="C34" s="31"/>
+      <c r="D34" s="31"/>
+      <c r="E34" s="31"/>
+      <c r="F34" s="31"/>
+      <c r="G34" s="31"/>
+      <c r="H34" s="31"/>
+      <c r="I34" s="31"/>
+      <c r="J34" s="31"/>
+      <c r="K34" s="38"/>
+      <c r="L34" s="40"/>
+      <c r="M34" s="31"/>
     </row>
     <row r="35" spans="1:13">
-      <c r="A35" s="30"/>
-      <c r="B35" s="30"/>
-      <c r="C35" s="30"/>
-      <c r="D35" s="30"/>
-      <c r="E35" s="30"/>
-      <c r="F35" s="30"/>
-      <c r="G35" s="30"/>
-      <c r="H35" s="30"/>
-      <c r="I35" s="30"/>
-      <c r="J35" s="30"/>
-      <c r="K35" s="37"/>
-      <c r="L35" s="39"/>
-      <c r="M35" s="30"/>
+      <c r="A35" s="31"/>
+      <c r="B35" s="31"/>
+      <c r="C35" s="31"/>
+      <c r="D35" s="31"/>
+      <c r="E35" s="31"/>
+      <c r="F35" s="31"/>
+      <c r="G35" s="31"/>
+      <c r="H35" s="31"/>
+      <c r="I35" s="31"/>
+      <c r="J35" s="31"/>
+      <c r="K35" s="38"/>
+      <c r="L35" s="40"/>
+      <c r="M35" s="31"/>
     </row>
     <row r="36" spans="1:13">
-      <c r="A36" s="30"/>
-      <c r="B36" s="30"/>
-      <c r="C36" s="30"/>
-      <c r="D36" s="30"/>
-      <c r="E36" s="30"/>
-      <c r="F36" s="30"/>
-      <c r="G36" s="30"/>
-      <c r="H36" s="30"/>
-      <c r="I36" s="30"/>
-      <c r="J36" s="30"/>
-      <c r="K36" s="37"/>
-      <c r="L36" s="39"/>
-      <c r="M36" s="30"/>
+      <c r="A36" s="31"/>
+      <c r="B36" s="31"/>
+      <c r="C36" s="31"/>
+      <c r="D36" s="31"/>
+      <c r="E36" s="31"/>
+      <c r="F36" s="31"/>
+      <c r="G36" s="31"/>
+      <c r="H36" s="31"/>
+      <c r="I36" s="31"/>
+      <c r="J36" s="31"/>
+      <c r="K36" s="38"/>
+      <c r="L36" s="40"/>
+      <c r="M36" s="31"/>
     </row>
     <row r="37" spans="1:13">
-      <c r="A37" s="30"/>
-      <c r="B37" s="30"/>
-      <c r="C37" s="30"/>
-      <c r="D37" s="30"/>
-      <c r="E37" s="30"/>
-      <c r="F37" s="30"/>
-      <c r="G37" s="30"/>
-      <c r="H37" s="30"/>
-      <c r="I37" s="30"/>
-      <c r="J37" s="30"/>
-      <c r="K37" s="37"/>
-      <c r="L37" s="39"/>
-      <c r="M37" s="30"/>
+      <c r="A37" s="31"/>
+      <c r="B37" s="31"/>
+      <c r="C37" s="31"/>
+      <c r="D37" s="31"/>
+      <c r="E37" s="31"/>
+      <c r="F37" s="31"/>
+      <c r="G37" s="31"/>
+      <c r="H37" s="31"/>
+      <c r="I37" s="31"/>
+      <c r="J37" s="31"/>
+      <c r="K37" s="38"/>
+      <c r="L37" s="40"/>
+      <c r="M37" s="31"/>
     </row>
     <row r="38" spans="1:13">
-      <c r="A38" s="30"/>
-      <c r="B38" s="30"/>
-      <c r="C38" s="30"/>
-      <c r="D38" s="30"/>
-      <c r="E38" s="30"/>
-      <c r="F38" s="30"/>
-      <c r="G38" s="30"/>
-      <c r="H38" s="30"/>
-      <c r="I38" s="30"/>
-      <c r="J38" s="30"/>
-      <c r="K38" s="37"/>
-      <c r="L38" s="39"/>
-      <c r="M38" s="30"/>
+      <c r="A38" s="31"/>
+      <c r="B38" s="31"/>
+      <c r="C38" s="31"/>
+      <c r="D38" s="31"/>
+      <c r="E38" s="31"/>
+      <c r="F38" s="31"/>
+      <c r="G38" s="31"/>
+      <c r="H38" s="31"/>
+      <c r="I38" s="31"/>
+      <c r="J38" s="31"/>
+      <c r="K38" s="38"/>
+      <c r="L38" s="40"/>
+      <c r="M38" s="31"/>
     </row>
     <row r="39" spans="1:13">
-      <c r="A39" s="30"/>
-      <c r="B39" s="30"/>
-      <c r="C39" s="30"/>
-      <c r="D39" s="30"/>
-      <c r="E39" s="30"/>
-      <c r="F39" s="30"/>
-      <c r="G39" s="30"/>
-      <c r="H39" s="30"/>
-      <c r="I39" s="30"/>
-      <c r="J39" s="30"/>
-      <c r="K39" s="37"/>
-      <c r="L39" s="39"/>
-      <c r="M39" s="30"/>
+      <c r="A39" s="31"/>
+      <c r="B39" s="31"/>
+      <c r="C39" s="31"/>
+      <c r="D39" s="31"/>
+      <c r="E39" s="31"/>
+      <c r="F39" s="31"/>
+      <c r="G39" s="31"/>
+      <c r="H39" s="31"/>
+      <c r="I39" s="31"/>
+      <c r="J39" s="31"/>
+      <c r="K39" s="38"/>
+      <c r="L39" s="40"/>
+      <c r="M39" s="31"/>
     </row>
     <row r="40" spans="1:13">
-      <c r="A40" s="30"/>
-      <c r="B40" s="30"/>
-      <c r="C40" s="30"/>
-      <c r="D40" s="30"/>
-      <c r="E40" s="30"/>
-      <c r="F40" s="30"/>
-      <c r="G40" s="30"/>
-      <c r="H40" s="30"/>
-      <c r="I40" s="30"/>
-      <c r="J40" s="30"/>
-      <c r="K40" s="37"/>
-      <c r="L40" s="39"/>
-      <c r="M40" s="30"/>
+      <c r="A40" s="31"/>
+      <c r="B40" s="31"/>
+      <c r="C40" s="31"/>
+      <c r="D40" s="31"/>
+      <c r="E40" s="31"/>
+      <c r="F40" s="31"/>
+      <c r="G40" s="31"/>
+      <c r="H40" s="31"/>
+      <c r="I40" s="31"/>
+      <c r="J40" s="31"/>
+      <c r="K40" s="38"/>
+      <c r="L40" s="40"/>
+      <c r="M40" s="31"/>
     </row>
     <row r="41" spans="1:13">
-      <c r="A41" s="30"/>
-      <c r="B41" s="30"/>
-      <c r="C41" s="30"/>
-      <c r="D41" s="30"/>
-      <c r="E41" s="30"/>
-      <c r="F41" s="30"/>
-      <c r="G41" s="30"/>
-      <c r="H41" s="30"/>
-      <c r="I41" s="30"/>
-      <c r="J41" s="30"/>
-      <c r="K41" s="37"/>
-      <c r="L41" s="39"/>
-      <c r="M41" s="30"/>
+      <c r="A41" s="31"/>
+      <c r="B41" s="31"/>
+      <c r="C41" s="31"/>
+      <c r="D41" s="31"/>
+      <c r="E41" s="31"/>
+      <c r="F41" s="31"/>
+      <c r="G41" s="31"/>
+      <c r="H41" s="31"/>
+      <c r="I41" s="31"/>
+      <c r="J41" s="31"/>
+      <c r="K41" s="38"/>
+      <c r="L41" s="40"/>
+      <c r="M41" s="31"/>
     </row>
     <row r="42" spans="1:13">
-      <c r="A42" s="30"/>
-      <c r="B42" s="30"/>
-      <c r="C42" s="30"/>
-      <c r="D42" s="30"/>
-      <c r="E42" s="30"/>
-      <c r="F42" s="30"/>
-      <c r="G42" s="30"/>
-      <c r="H42" s="30"/>
-      <c r="I42" s="30"/>
-      <c r="J42" s="30"/>
-      <c r="K42" s="37"/>
-      <c r="L42" s="39"/>
-      <c r="M42" s="30"/>
+      <c r="A42" s="31"/>
+      <c r="B42" s="31"/>
+      <c r="C42" s="31"/>
+      <c r="D42" s="31"/>
+      <c r="E42" s="31"/>
+      <c r="F42" s="31"/>
+      <c r="G42" s="31"/>
+      <c r="H42" s="31"/>
+      <c r="I42" s="31"/>
+      <c r="J42" s="31"/>
+      <c r="K42" s="38"/>
+      <c r="L42" s="40"/>
+      <c r="M42" s="31"/>
     </row>
     <row r="43" spans="1:13">
-      <c r="A43" s="30"/>
-      <c r="B43" s="30"/>
-      <c r="C43" s="30"/>
-      <c r="D43" s="30"/>
-      <c r="E43" s="30"/>
-      <c r="F43" s="30"/>
-      <c r="G43" s="30"/>
-      <c r="H43" s="30"/>
-      <c r="I43" s="30"/>
-      <c r="J43" s="30"/>
-      <c r="K43" s="37"/>
-      <c r="L43" s="39"/>
-      <c r="M43" s="30"/>
+      <c r="A43" s="31"/>
+      <c r="B43" s="31"/>
+      <c r="C43" s="31"/>
+      <c r="D43" s="31"/>
+      <c r="E43" s="31"/>
+      <c r="F43" s="31"/>
+      <c r="G43" s="31"/>
+      <c r="H43" s="31"/>
+      <c r="I43" s="31"/>
+      <c r="J43" s="31"/>
+      <c r="K43" s="38"/>
+      <c r="L43" s="40"/>
+      <c r="M43" s="31"/>
     </row>
     <row r="44" spans="1:13">
-      <c r="A44" s="30"/>
-      <c r="B44" s="30"/>
-      <c r="C44" s="30"/>
-      <c r="D44" s="30"/>
-      <c r="E44" s="30"/>
-      <c r="F44" s="30"/>
-      <c r="G44" s="30"/>
-      <c r="H44" s="30"/>
-      <c r="I44" s="30"/>
-      <c r="J44" s="30"/>
-      <c r="K44" s="37"/>
-      <c r="L44" s="39"/>
-      <c r="M44" s="30"/>
+      <c r="A44" s="31"/>
+      <c r="B44" s="31"/>
+      <c r="C44" s="31"/>
+      <c r="D44" s="31"/>
+      <c r="E44" s="31"/>
+      <c r="F44" s="31"/>
+      <c r="G44" s="31"/>
+      <c r="H44" s="31"/>
+      <c r="I44" s="31"/>
+      <c r="J44" s="31"/>
+      <c r="K44" s="38"/>
+      <c r="L44" s="40"/>
+      <c r="M44" s="31"/>
     </row>
     <row r="45" spans="1:13">
-      <c r="A45" s="30"/>
-      <c r="B45" s="30"/>
-      <c r="C45" s="30"/>
-      <c r="D45" s="30"/>
-      <c r="E45" s="30"/>
-      <c r="F45" s="30"/>
-      <c r="G45" s="30"/>
-      <c r="H45" s="30"/>
-      <c r="I45" s="30"/>
-      <c r="J45" s="30"/>
-      <c r="K45" s="37"/>
-      <c r="L45" s="39"/>
-      <c r="M45" s="30"/>
+      <c r="A45" s="31"/>
+      <c r="B45" s="31"/>
+      <c r="C45" s="31"/>
+      <c r="D45" s="31"/>
+      <c r="E45" s="31"/>
+      <c r="F45" s="31"/>
+      <c r="G45" s="31"/>
+      <c r="H45" s="31"/>
+      <c r="I45" s="31"/>
+      <c r="J45" s="31"/>
+      <c r="K45" s="38"/>
+      <c r="L45" s="40"/>
+      <c r="M45" s="31"/>
     </row>
     <row r="46" ht="13" spans="1:13">
-      <c r="A46" s="48" t="s">
+      <c r="A46" s="49" t="s">
         <v>44</v>
       </c>
-      <c r="B46" s="30"/>
+      <c r="B46" s="31"/>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
@@ -3445,8 +3447,8 @@
       <c r="H46" s="3"/>
       <c r="I46" s="3"/>
       <c r="J46" s="3"/>
-      <c r="K46" s="40"/>
-      <c r="M46" s="30"/>
+      <c r="K46" s="41"/>
+      <c r="M46" s="31"/>
     </row>
     <row r="47" spans="1:11">
       <c r="A47" s="3"/>
@@ -3458,7 +3460,7 @@
       <c r="H47" s="3"/>
       <c r="I47" s="3"/>
       <c r="J47" s="3"/>
-      <c r="K47" s="40"/>
+      <c r="K47" s="41"/>
     </row>
     <row r="48" spans="1:11">
       <c r="A48" s="3"/>
@@ -3470,7 +3472,7 @@
       <c r="H48" s="3"/>
       <c r="I48" s="3"/>
       <c r="J48" s="3"/>
-      <c r="K48" s="40"/>
+      <c r="K48" s="41"/>
     </row>
     <row r="49" spans="1:11">
       <c r="A49" s="3"/>
@@ -3482,7 +3484,7 @@
       <c r="H49" s="3"/>
       <c r="I49" s="3"/>
       <c r="J49" s="3"/>
-      <c r="K49" s="40"/>
+      <c r="K49" s="41"/>
     </row>
     <row r="50" spans="1:11">
       <c r="A50" s="3"/>
@@ -3494,7 +3496,7 @@
       <c r="H50" s="3"/>
       <c r="I50" s="3"/>
       <c r="J50" s="3"/>
-      <c r="K50" s="40"/>
+      <c r="K50" s="41"/>
     </row>
     <row r="51" spans="1:11">
       <c r="A51" s="3"/>
@@ -3506,7 +3508,7 @@
       <c r="H51" s="3"/>
       <c r="I51" s="3"/>
       <c r="J51" s="3"/>
-      <c r="K51" s="40"/>
+      <c r="K51" s="41"/>
     </row>
     <row r="52" spans="1:11">
       <c r="A52" s="3"/>
@@ -3518,7 +3520,7 @@
       <c r="H52" s="3"/>
       <c r="I52" s="3"/>
       <c r="J52" s="3"/>
-      <c r="K52" s="40"/>
+      <c r="K52" s="41"/>
     </row>
     <row r="53" spans="1:11">
       <c r="A53" s="3"/>
@@ -3530,7 +3532,7 @@
       <c r="H53" s="3"/>
       <c r="I53" s="3"/>
       <c r="J53" s="3"/>
-      <c r="K53" s="40"/>
+      <c r="K53" s="41"/>
     </row>
     <row r="54" spans="1:11">
       <c r="A54" s="3"/>
@@ -3542,7 +3544,7 @@
       <c r="H54" s="3"/>
       <c r="I54" s="3"/>
       <c r="J54" s="3"/>
-      <c r="K54" s="40"/>
+      <c r="K54" s="41"/>
     </row>
     <row r="55" spans="1:11">
       <c r="A55" s="3"/>
@@ -3554,7 +3556,7 @@
       <c r="H55" s="3"/>
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
-      <c r="K55" s="40"/>
+      <c r="K55" s="41"/>
     </row>
     <row r="56" spans="1:11">
       <c r="A56" s="3"/>
@@ -3566,7 +3568,7 @@
       <c r="H56" s="3"/>
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
-      <c r="K56" s="40"/>
+      <c r="K56" s="41"/>
     </row>
     <row r="57" spans="1:11">
       <c r="A57" s="3"/>
@@ -3578,7 +3580,7 @@
       <c r="H57" s="3"/>
       <c r="I57" s="3"/>
       <c r="J57" s="3"/>
-      <c r="K57" s="40"/>
+      <c r="K57" s="41"/>
     </row>
     <row r="58" spans="1:11">
       <c r="A58" s="3"/>
@@ -3590,7 +3592,7 @@
       <c r="H58" s="3"/>
       <c r="I58" s="3"/>
       <c r="J58" s="3"/>
-      <c r="K58" s="40"/>
+      <c r="K58" s="41"/>
     </row>
     <row r="59" spans="1:11">
       <c r="A59" s="3"/>
@@ -3602,7 +3604,7 @@
       <c r="H59" s="3"/>
       <c r="I59" s="3"/>
       <c r="J59" s="3"/>
-      <c r="K59" s="40"/>
+      <c r="K59" s="41"/>
     </row>
     <row r="60" spans="1:11">
       <c r="A60" s="3"/>
@@ -3614,7 +3616,7 @@
       <c r="H60" s="3"/>
       <c r="I60" s="3"/>
       <c r="J60" s="3"/>
-      <c r="K60" s="40"/>
+      <c r="K60" s="41"/>
     </row>
     <row r="61" spans="1:11">
       <c r="A61" s="3"/>
@@ -3626,7 +3628,7 @@
       <c r="H61" s="3"/>
       <c r="I61" s="3"/>
       <c r="J61" s="3"/>
-      <c r="K61" s="40"/>
+      <c r="K61" s="41"/>
     </row>
     <row r="62" spans="1:11">
       <c r="A62" s="3"/>
@@ -3638,7 +3640,7 @@
       <c r="H62" s="3"/>
       <c r="I62" s="3"/>
       <c r="J62" s="3"/>
-      <c r="K62" s="40"/>
+      <c r="K62" s="41"/>
     </row>
     <row r="63" spans="1:11">
       <c r="A63" s="3"/>
@@ -3650,7 +3652,7 @@
       <c r="H63" s="3"/>
       <c r="I63" s="3"/>
       <c r="J63" s="3"/>
-      <c r="K63" s="40"/>
+      <c r="K63" s="41"/>
     </row>
     <row r="64" spans="1:11">
       <c r="A64" s="3"/>
@@ -3662,7 +3664,7 @@
       <c r="H64" s="3"/>
       <c r="I64" s="3"/>
       <c r="J64" s="3"/>
-      <c r="K64" s="40"/>
+      <c r="K64" s="41"/>
     </row>
     <row r="65" spans="1:11">
       <c r="A65" s="3"/>
@@ -3674,7 +3676,7 @@
       <c r="H65" s="3"/>
       <c r="I65" s="3"/>
       <c r="J65" s="3"/>
-      <c r="K65" s="40"/>
+      <c r="K65" s="41"/>
     </row>
     <row r="66" spans="1:11">
       <c r="A66" s="3"/>
@@ -3686,7 +3688,7 @@
       <c r="H66" s="3"/>
       <c r="I66" s="3"/>
       <c r="J66" s="3"/>
-      <c r="K66" s="40"/>
+      <c r="K66" s="41"/>
     </row>
     <row r="67" spans="1:11">
       <c r="A67" s="3"/>
@@ -3698,7 +3700,7 @@
       <c r="H67" s="3"/>
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
-      <c r="K67" s="40"/>
+      <c r="K67" s="41"/>
     </row>
     <row r="68" spans="1:11">
       <c r="A68" s="3"/>
@@ -3710,7 +3712,7 @@
       <c r="H68" s="3"/>
       <c r="I68" s="3"/>
       <c r="J68" s="3"/>
-      <c r="K68" s="40"/>
+      <c r="K68" s="41"/>
     </row>
     <row r="69" spans="1:11">
       <c r="A69" s="3"/>
@@ -3722,7 +3724,7 @@
       <c r="H69" s="3"/>
       <c r="I69" s="3"/>
       <c r="J69" s="3"/>
-      <c r="K69" s="40"/>
+      <c r="K69" s="41"/>
     </row>
     <row r="70" spans="1:11">
       <c r="A70" s="3"/>
@@ -3734,7 +3736,7 @@
       <c r="H70" s="3"/>
       <c r="I70" s="3"/>
       <c r="J70" s="3"/>
-      <c r="K70" s="40"/>
+      <c r="K70" s="41"/>
     </row>
     <row r="71" spans="1:11">
       <c r="A71" s="3"/>
@@ -3746,7 +3748,7 @@
       <c r="H71" s="3"/>
       <c r="I71" s="3"/>
       <c r="J71" s="3"/>
-      <c r="K71" s="40"/>
+      <c r="K71" s="41"/>
     </row>
     <row r="72" spans="1:11">
       <c r="A72" s="3"/>
@@ -3758,7 +3760,7 @@
       <c r="H72" s="3"/>
       <c r="I72" s="3"/>
       <c r="J72" s="3"/>
-      <c r="K72" s="40"/>
+      <c r="K72" s="41"/>
     </row>
     <row r="73" spans="1:11">
       <c r="A73" s="3"/>
@@ -3770,7 +3772,7 @@
       <c r="H73" s="3"/>
       <c r="I73" s="3"/>
       <c r="J73" s="3"/>
-      <c r="K73" s="40"/>
+      <c r="K73" s="41"/>
     </row>
     <row r="74" spans="1:11">
       <c r="A74" s="3"/>
@@ -3782,7 +3784,7 @@
       <c r="H74" s="3"/>
       <c r="I74" s="3"/>
       <c r="J74" s="3"/>
-      <c r="K74" s="40"/>
+      <c r="K74" s="41"/>
     </row>
     <row r="75" spans="1:11">
       <c r="A75" s="3"/>
@@ -3794,7 +3796,7 @@
       <c r="H75" s="3"/>
       <c r="I75" s="3"/>
       <c r="J75" s="3"/>
-      <c r="K75" s="40"/>
+      <c r="K75" s="41"/>
     </row>
     <row r="76" spans="1:11">
       <c r="A76" s="3"/>
@@ -3806,7 +3808,7 @@
       <c r="H76" s="3"/>
       <c r="I76" s="3"/>
       <c r="J76" s="3"/>
-      <c r="K76" s="40"/>
+      <c r="K76" s="41"/>
     </row>
     <row r="77" spans="1:11">
       <c r="A77" s="3"/>
@@ -3818,7 +3820,7 @@
       <c r="H77" s="3"/>
       <c r="I77" s="3"/>
       <c r="J77" s="3"/>
-      <c r="K77" s="40"/>
+      <c r="K77" s="41"/>
     </row>
     <row r="78" spans="1:11">
       <c r="A78" s="3"/>
@@ -3830,7 +3832,7 @@
       <c r="H78" s="3"/>
       <c r="I78" s="3"/>
       <c r="J78" s="3"/>
-      <c r="K78" s="40"/>
+      <c r="K78" s="41"/>
     </row>
     <row r="79" spans="1:11">
       <c r="A79" s="3"/>
@@ -3842,7 +3844,7 @@
       <c r="H79" s="3"/>
       <c r="I79" s="3"/>
       <c r="J79" s="3"/>
-      <c r="K79" s="40"/>
+      <c r="K79" s="41"/>
     </row>
     <row r="80" spans="1:11">
       <c r="A80" s="3"/>
@@ -3854,7 +3856,7 @@
       <c r="H80" s="3"/>
       <c r="I80" s="3"/>
       <c r="J80" s="3"/>
-      <c r="K80" s="40"/>
+      <c r="K80" s="41"/>
     </row>
     <row r="81" spans="1:11">
       <c r="A81" s="3"/>
@@ -3866,7 +3868,7 @@
       <c r="H81" s="3"/>
       <c r="I81" s="3"/>
       <c r="J81" s="3"/>
-      <c r="K81" s="40"/>
+      <c r="K81" s="41"/>
     </row>
     <row r="82" spans="1:11">
       <c r="A82" s="3"/>
@@ -3878,7 +3880,7 @@
       <c r="H82" s="3"/>
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
-      <c r="K82" s="40"/>
+      <c r="K82" s="41"/>
     </row>
     <row r="83" spans="1:11">
       <c r="A83" s="3"/>
@@ -3890,7 +3892,7 @@
       <c r="H83" s="3"/>
       <c r="I83" s="3"/>
       <c r="J83" s="3"/>
-      <c r="K83" s="40"/>
+      <c r="K83" s="41"/>
     </row>
     <row r="84" spans="1:11">
       <c r="A84" s="3"/>
@@ -3902,7 +3904,7 @@
       <c r="H84" s="3"/>
       <c r="I84" s="3"/>
       <c r="J84" s="3"/>
-      <c r="K84" s="40"/>
+      <c r="K84" s="41"/>
     </row>
     <row r="85" spans="1:11">
       <c r="A85" s="3"/>
@@ -3914,7 +3916,7 @@
       <c r="H85" s="3"/>
       <c r="I85" s="3"/>
       <c r="J85" s="3"/>
-      <c r="K85" s="40"/>
+      <c r="K85" s="41"/>
     </row>
     <row r="86" spans="1:11">
       <c r="A86" s="3"/>
@@ -3926,7 +3928,7 @@
       <c r="H86" s="3"/>
       <c r="I86" s="3"/>
       <c r="J86" s="3"/>
-      <c r="K86" s="40"/>
+      <c r="K86" s="41"/>
     </row>
     <row r="87" spans="1:11">
       <c r="A87" s="3"/>
@@ -3938,7 +3940,7 @@
       <c r="H87" s="3"/>
       <c r="I87" s="3"/>
       <c r="J87" s="3"/>
-      <c r="K87" s="40"/>
+      <c r="K87" s="41"/>
     </row>
     <row r="88" spans="1:11">
       <c r="A88" s="3"/>
@@ -3950,7 +3952,7 @@
       <c r="H88" s="3"/>
       <c r="I88" s="3"/>
       <c r="J88" s="3"/>
-      <c r="K88" s="40"/>
+      <c r="K88" s="41"/>
     </row>
     <row r="89" spans="1:11">
       <c r="A89" s="3"/>
@@ -3962,7 +3964,7 @@
       <c r="H89" s="3"/>
       <c r="I89" s="3"/>
       <c r="J89" s="3"/>
-      <c r="K89" s="40"/>
+      <c r="K89" s="41"/>
     </row>
     <row r="90" spans="1:11">
       <c r="A90" s="3"/>
@@ -3974,7 +3976,7 @@
       <c r="H90" s="3"/>
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
-      <c r="K90" s="40"/>
+      <c r="K90" s="41"/>
     </row>
     <row r="91" spans="1:11">
       <c r="A91" s="3"/>
@@ -3986,7 +3988,7 @@
       <c r="H91" s="3"/>
       <c r="I91" s="3"/>
       <c r="J91" s="3"/>
-      <c r="K91" s="40"/>
+      <c r="K91" s="41"/>
     </row>
     <row r="92" spans="1:11">
       <c r="A92" s="3"/>
@@ -3998,7 +4000,7 @@
       <c r="H92" s="3"/>
       <c r="I92" s="3"/>
       <c r="J92" s="3"/>
-      <c r="K92" s="40"/>
+      <c r="K92" s="41"/>
     </row>
     <row r="93" spans="1:11">
       <c r="A93" s="3"/>
@@ -4010,7 +4012,7 @@
       <c r="H93" s="3"/>
       <c r="I93" s="3"/>
       <c r="J93" s="3"/>
-      <c r="K93" s="40"/>
+      <c r="K93" s="41"/>
     </row>
     <row r="94" spans="1:11">
       <c r="A94" s="3"/>
@@ -4022,7 +4024,7 @@
       <c r="H94" s="3"/>
       <c r="I94" s="3"/>
       <c r="J94" s="3"/>
-      <c r="K94" s="40"/>
+      <c r="K94" s="41"/>
     </row>
     <row r="95" spans="1:11">
       <c r="A95" s="3"/>
@@ -4034,7 +4036,7 @@
       <c r="H95" s="3"/>
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
-      <c r="K95" s="40"/>
+      <c r="K95" s="41"/>
     </row>
     <row r="96" spans="1:11">
       <c r="A96" s="3"/>
@@ -4046,7 +4048,7 @@
       <c r="H96" s="3"/>
       <c r="I96" s="3"/>
       <c r="J96" s="3"/>
-      <c r="K96" s="40"/>
+      <c r="K96" s="41"/>
     </row>
     <row r="97" spans="1:11">
       <c r="A97" s="3"/>
@@ -4058,7 +4060,7 @@
       <c r="H97" s="3"/>
       <c r="I97" s="3"/>
       <c r="J97" s="3"/>
-      <c r="K97" s="40"/>
+      <c r="K97" s="41"/>
     </row>
     <row r="98" spans="1:11">
       <c r="A98" s="3"/>
@@ -4070,7 +4072,7 @@
       <c r="H98" s="3"/>
       <c r="I98" s="3"/>
       <c r="J98" s="3"/>
-      <c r="K98" s="40"/>
+      <c r="K98" s="41"/>
     </row>
     <row r="99" spans="1:11">
       <c r="A99" s="3"/>
@@ -4082,7 +4084,7 @@
       <c r="H99" s="3"/>
       <c r="I99" s="3"/>
       <c r="J99" s="3"/>
-      <c r="K99" s="40"/>
+      <c r="K99" s="41"/>
     </row>
     <row r="100" spans="1:11">
       <c r="A100" s="3"/>
@@ -4094,7 +4096,7 @@
       <c r="H100" s="3"/>
       <c r="I100" s="3"/>
       <c r="J100" s="3"/>
-      <c r="K100" s="40"/>
+      <c r="K100" s="41"/>
     </row>
     <row r="101" spans="1:11">
       <c r="A101" s="3"/>
@@ -4106,7 +4108,7 @@
       <c r="H101" s="3"/>
       <c r="I101" s="3"/>
       <c r="J101" s="3"/>
-      <c r="K101" s="40"/>
+      <c r="K101" s="41"/>
     </row>
     <row r="102" spans="1:11">
       <c r="A102" s="3"/>
@@ -4118,7 +4120,7 @@
       <c r="H102" s="3"/>
       <c r="I102" s="3"/>
       <c r="J102" s="3"/>
-      <c r="K102" s="40"/>
+      <c r="K102" s="41"/>
     </row>
     <row r="103" spans="1:11">
       <c r="A103" s="3"/>
@@ -4130,7 +4132,7 @@
       <c r="H103" s="3"/>
       <c r="I103" s="3"/>
       <c r="J103" s="3"/>
-      <c r="K103" s="40"/>
+      <c r="K103" s="41"/>
     </row>
     <row r="104" spans="1:11">
       <c r="A104" s="3"/>
@@ -4142,7 +4144,7 @@
       <c r="H104" s="3"/>
       <c r="I104" s="3"/>
       <c r="J104" s="3"/>
-      <c r="K104" s="40"/>
+      <c r="K104" s="41"/>
     </row>
     <row r="105" spans="1:11">
       <c r="A105" s="3"/>
@@ -4154,7 +4156,7 @@
       <c r="H105" s="3"/>
       <c r="I105" s="3"/>
       <c r="J105" s="3"/>
-      <c r="K105" s="40"/>
+      <c r="K105" s="41"/>
     </row>
     <row r="106" spans="1:11">
       <c r="A106" s="3"/>
@@ -4166,7 +4168,7 @@
       <c r="H106" s="3"/>
       <c r="I106" s="3"/>
       <c r="J106" s="3"/>
-      <c r="K106" s="40"/>
+      <c r="K106" s="41"/>
     </row>
     <row r="107" spans="1:11">
       <c r="A107" s="3"/>
@@ -4178,7 +4180,7 @@
       <c r="H107" s="3"/>
       <c r="I107" s="3"/>
       <c r="J107" s="3"/>
-      <c r="K107" s="40"/>
+      <c r="K107" s="41"/>
     </row>
     <row r="108" spans="1:11">
       <c r="A108" s="3"/>
@@ -4190,7 +4192,7 @@
       <c r="H108" s="3"/>
       <c r="I108" s="3"/>
       <c r="J108" s="3"/>
-      <c r="K108" s="40"/>
+      <c r="K108" s="41"/>
     </row>
     <row r="109" spans="1:11">
       <c r="A109" s="3"/>
@@ -4202,7 +4204,7 @@
       <c r="H109" s="3"/>
       <c r="I109" s="3"/>
       <c r="J109" s="3"/>
-      <c r="K109" s="40"/>
+      <c r="K109" s="41"/>
     </row>
     <row r="110" spans="1:11">
       <c r="A110" s="3"/>
@@ -4214,7 +4216,7 @@
       <c r="H110" s="3"/>
       <c r="I110" s="3"/>
       <c r="J110" s="3"/>
-      <c r="K110" s="40"/>
+      <c r="K110" s="41"/>
     </row>
     <row r="111" spans="1:11">
       <c r="A111" s="3"/>
@@ -4226,7 +4228,7 @@
       <c r="H111" s="3"/>
       <c r="I111" s="3"/>
       <c r="J111" s="3"/>
-      <c r="K111" s="40"/>
+      <c r="K111" s="41"/>
     </row>
     <row r="112" spans="1:11">
       <c r="A112" s="3"/>
@@ -4238,7 +4240,7 @@
       <c r="H112" s="3"/>
       <c r="I112" s="3"/>
       <c r="J112" s="3"/>
-      <c r="K112" s="40"/>
+      <c r="K112" s="41"/>
     </row>
     <row r="113" spans="1:11">
       <c r="A113" s="3"/>
@@ -4250,7 +4252,7 @@
       <c r="H113" s="3"/>
       <c r="I113" s="3"/>
       <c r="J113" s="3"/>
-      <c r="K113" s="40"/>
+      <c r="K113" s="41"/>
     </row>
     <row r="114" spans="1:11">
       <c r="A114" s="3"/>
@@ -4262,7 +4264,7 @@
       <c r="H114" s="3"/>
       <c r="I114" s="3"/>
       <c r="J114" s="3"/>
-      <c r="K114" s="40"/>
+      <c r="K114" s="41"/>
     </row>
     <row r="115" spans="1:11">
       <c r="A115" s="3"/>
@@ -4274,7 +4276,7 @@
       <c r="H115" s="3"/>
       <c r="I115" s="3"/>
       <c r="J115" s="3"/>
-      <c r="K115" s="40"/>
+      <c r="K115" s="41"/>
     </row>
     <row r="116" spans="1:11">
       <c r="A116" s="3"/>
@@ -4286,7 +4288,7 @@
       <c r="H116" s="3"/>
       <c r="I116" s="3"/>
       <c r="J116" s="3"/>
-      <c r="K116" s="40"/>
+      <c r="K116" s="41"/>
     </row>
     <row r="117" spans="1:11">
       <c r="A117" s="3"/>
@@ -4298,7 +4300,7 @@
       <c r="H117" s="3"/>
       <c r="I117" s="3"/>
       <c r="J117" s="3"/>
-      <c r="K117" s="40"/>
+      <c r="K117" s="41"/>
     </row>
     <row r="118" spans="1:11">
       <c r="A118" s="3"/>
@@ -4310,7 +4312,7 @@
       <c r="H118" s="3"/>
       <c r="I118" s="3"/>
       <c r="J118" s="3"/>
-      <c r="K118" s="40"/>
+      <c r="K118" s="41"/>
     </row>
     <row r="119" spans="1:11">
       <c r="A119" s="3"/>
@@ -4322,7 +4324,7 @@
       <c r="H119" s="3"/>
       <c r="I119" s="3"/>
       <c r="J119" s="3"/>
-      <c r="K119" s="40"/>
+      <c r="K119" s="41"/>
     </row>
     <row r="120" spans="1:11">
       <c r="A120" s="3"/>
@@ -4334,7 +4336,7 @@
       <c r="H120" s="3"/>
       <c r="I120" s="3"/>
       <c r="J120" s="3"/>
-      <c r="K120" s="40"/>
+      <c r="K120" s="41"/>
     </row>
     <row r="121" spans="1:11">
       <c r="A121" s="3"/>
@@ -4346,7 +4348,7 @@
       <c r="H121" s="3"/>
       <c r="I121" s="3"/>
       <c r="J121" s="3"/>
-      <c r="K121" s="40"/>
+      <c r="K121" s="41"/>
     </row>
     <row r="122" spans="1:11">
       <c r="A122" s="3"/>
@@ -4358,7 +4360,7 @@
       <c r="H122" s="3"/>
       <c r="I122" s="3"/>
       <c r="J122" s="3"/>
-      <c r="K122" s="40"/>
+      <c r="K122" s="41"/>
     </row>
     <row r="123" spans="1:11">
       <c r="A123" s="3"/>
@@ -4370,7 +4372,7 @@
       <c r="H123" s="3"/>
       <c r="I123" s="3"/>
       <c r="J123" s="3"/>
-      <c r="K123" s="40"/>
+      <c r="K123" s="41"/>
     </row>
     <row r="124" spans="1:11">
       <c r="A124" s="3"/>
@@ -4382,7 +4384,7 @@
       <c r="H124" s="3"/>
       <c r="I124" s="3"/>
       <c r="J124" s="3"/>
-      <c r="K124" s="40"/>
+      <c r="K124" s="41"/>
     </row>
     <row r="125" spans="1:11">
       <c r="A125" s="3"/>
@@ -4394,7 +4396,7 @@
       <c r="H125" s="3"/>
       <c r="I125" s="3"/>
       <c r="J125" s="3"/>
-      <c r="K125" s="40"/>
+      <c r="K125" s="41"/>
     </row>
     <row r="126" spans="1:11">
       <c r="A126" s="3"/>
@@ -4406,7 +4408,7 @@
       <c r="H126" s="3"/>
       <c r="I126" s="3"/>
       <c r="J126" s="3"/>
-      <c r="K126" s="40"/>
+      <c r="K126" s="41"/>
     </row>
     <row r="127" spans="1:11">
       <c r="A127" s="3"/>
@@ -4418,7 +4420,7 @@
       <c r="H127" s="3"/>
       <c r="I127" s="3"/>
       <c r="J127" s="3"/>
-      <c r="K127" s="40"/>
+      <c r="K127" s="41"/>
     </row>
     <row r="128" spans="1:11">
       <c r="A128" s="3"/>
@@ -4430,7 +4432,7 @@
       <c r="H128" s="3"/>
       <c r="I128" s="3"/>
       <c r="J128" s="3"/>
-      <c r="K128" s="40"/>
+      <c r="K128" s="41"/>
     </row>
     <row r="129" spans="1:11">
       <c r="A129" s="3"/>
@@ -4442,7 +4444,7 @@
       <c r="H129" s="3"/>
       <c r="I129" s="3"/>
       <c r="J129" s="3"/>
-      <c r="K129" s="40"/>
+      <c r="K129" s="41"/>
     </row>
     <row r="130" spans="1:11">
       <c r="A130" s="3"/>
@@ -4454,7 +4456,7 @@
       <c r="H130" s="3"/>
       <c r="I130" s="3"/>
       <c r="J130" s="3"/>
-      <c r="K130" s="40"/>
+      <c r="K130" s="41"/>
     </row>
     <row r="131" spans="1:11">
       <c r="A131" s="3"/>
@@ -4466,7 +4468,7 @@
       <c r="H131" s="3"/>
       <c r="I131" s="3"/>
       <c r="J131" s="3"/>
-      <c r="K131" s="40"/>
+      <c r="K131" s="41"/>
     </row>
     <row r="132" spans="1:11">
       <c r="A132" s="3"/>
@@ -4478,7 +4480,7 @@
       <c r="H132" s="3"/>
       <c r="I132" s="3"/>
       <c r="J132" s="3"/>
-      <c r="K132" s="40"/>
+      <c r="K132" s="41"/>
     </row>
     <row r="133" spans="1:11">
       <c r="A133" s="3"/>
@@ -4490,7 +4492,7 @@
       <c r="H133" s="3"/>
       <c r="I133" s="3"/>
       <c r="J133" s="3"/>
-      <c r="K133" s="40"/>
+      <c r="K133" s="41"/>
     </row>
     <row r="134" spans="1:11">
       <c r="A134" s="3"/>
@@ -4502,7 +4504,7 @@
       <c r="H134" s="3"/>
       <c r="I134" s="3"/>
       <c r="J134" s="3"/>
-      <c r="K134" s="40"/>
+      <c r="K134" s="41"/>
     </row>
     <row r="135" spans="1:11">
       <c r="A135" s="3"/>
@@ -4514,7 +4516,7 @@
       <c r="H135" s="3"/>
       <c r="I135" s="3"/>
       <c r="J135" s="3"/>
-      <c r="K135" s="40"/>
+      <c r="K135" s="41"/>
     </row>
     <row r="136" spans="1:11">
       <c r="A136" s="3"/>
@@ -4526,7 +4528,7 @@
       <c r="H136" s="3"/>
       <c r="I136" s="3"/>
       <c r="J136" s="3"/>
-      <c r="K136" s="40"/>
+      <c r="K136" s="41"/>
     </row>
     <row r="137" spans="1:11">
       <c r="A137" s="3"/>
@@ -4538,7 +4540,7 @@
       <c r="H137" s="3"/>
       <c r="I137" s="3"/>
       <c r="J137" s="3"/>
-      <c r="K137" s="40"/>
+      <c r="K137" s="41"/>
     </row>
     <row r="138" spans="1:11">
       <c r="A138" s="3"/>
@@ -4550,7 +4552,7 @@
       <c r="H138" s="3"/>
       <c r="I138" s="3"/>
       <c r="J138" s="3"/>
-      <c r="K138" s="40"/>
+      <c r="K138" s="41"/>
     </row>
     <row r="139" spans="1:11">
       <c r="A139" s="3"/>
@@ -4562,7 +4564,7 @@
       <c r="H139" s="3"/>
       <c r="I139" s="3"/>
       <c r="J139" s="3"/>
-      <c r="K139" s="40"/>
+      <c r="K139" s="41"/>
     </row>
     <row r="140" spans="1:11">
       <c r="A140" s="3"/>
@@ -4574,7 +4576,7 @@
       <c r="H140" s="3"/>
       <c r="I140" s="3"/>
       <c r="J140" s="3"/>
-      <c r="K140" s="40"/>
+      <c r="K140" s="41"/>
     </row>
     <row r="141" spans="1:11">
       <c r="A141" s="3"/>
@@ -4586,7 +4588,7 @@
       <c r="H141" s="3"/>
       <c r="I141" s="3"/>
       <c r="J141" s="3"/>
-      <c r="K141" s="40"/>
+      <c r="K141" s="41"/>
     </row>
     <row r="142" spans="1:11">
       <c r="A142" s="3"/>
@@ -4598,7 +4600,7 @@
       <c r="H142" s="3"/>
       <c r="I142" s="3"/>
       <c r="J142" s="3"/>
-      <c r="K142" s="40"/>
+      <c r="K142" s="41"/>
     </row>
     <row r="143" spans="1:11">
       <c r="A143" s="3"/>
@@ -4610,7 +4612,7 @@
       <c r="H143" s="3"/>
       <c r="I143" s="3"/>
       <c r="J143" s="3"/>
-      <c r="K143" s="40"/>
+      <c r="K143" s="41"/>
     </row>
     <row r="144" spans="1:11">
       <c r="A144" s="3"/>
@@ -4622,7 +4624,7 @@
       <c r="H144" s="3"/>
       <c r="I144" s="3"/>
       <c r="J144" s="3"/>
-      <c r="K144" s="40"/>
+      <c r="K144" s="41"/>
     </row>
     <row r="145" spans="1:11">
       <c r="A145" s="3"/>
@@ -4634,7 +4636,7 @@
       <c r="H145" s="3"/>
       <c r="I145" s="3"/>
       <c r="J145" s="3"/>
-      <c r="K145" s="40"/>
+      <c r="K145" s="41"/>
     </row>
     <row r="146" spans="1:11">
       <c r="A146" s="3"/>
@@ -4646,7 +4648,7 @@
       <c r="H146" s="3"/>
       <c r="I146" s="3"/>
       <c r="J146" s="3"/>
-      <c r="K146" s="40"/>
+      <c r="K146" s="41"/>
     </row>
     <row r="147" spans="1:11">
       <c r="A147" s="3"/>
@@ -4658,7 +4660,7 @@
       <c r="H147" s="3"/>
       <c r="I147" s="3"/>
       <c r="J147" s="3"/>
-      <c r="K147" s="40"/>
+      <c r="K147" s="41"/>
     </row>
     <row r="148" spans="1:11">
       <c r="A148" s="3"/>
@@ -4670,7 +4672,7 @@
       <c r="H148" s="3"/>
       <c r="I148" s="3"/>
       <c r="J148" s="3"/>
-      <c r="K148" s="40"/>
+      <c r="K148" s="41"/>
     </row>
     <row r="149" spans="1:11">
       <c r="A149" s="3"/>
@@ -4682,7 +4684,7 @@
       <c r="H149" s="3"/>
       <c r="I149" s="3"/>
       <c r="J149" s="3"/>
-      <c r="K149" s="40"/>
+      <c r="K149" s="41"/>
     </row>
     <row r="150" spans="1:11">
       <c r="A150" s="3"/>
@@ -4694,7 +4696,7 @@
       <c r="H150" s="3"/>
       <c r="I150" s="3"/>
       <c r="J150" s="3"/>
-      <c r="K150" s="40"/>
+      <c r="K150" s="41"/>
     </row>
     <row r="151" spans="1:11">
       <c r="A151" s="3"/>
@@ -4706,7 +4708,7 @@
       <c r="H151" s="3"/>
       <c r="I151" s="3"/>
       <c r="J151" s="3"/>
-      <c r="K151" s="40"/>
+      <c r="K151" s="41"/>
     </row>
     <row r="152" spans="1:11">
       <c r="A152" s="3"/>
@@ -4718,7 +4720,7 @@
       <c r="H152" s="3"/>
       <c r="I152" s="3"/>
       <c r="J152" s="3"/>
-      <c r="K152" s="40"/>
+      <c r="K152" s="41"/>
     </row>
     <row r="153" spans="1:11">
       <c r="A153" s="3"/>
@@ -4730,7 +4732,7 @@
       <c r="H153" s="3"/>
       <c r="I153" s="3"/>
       <c r="J153" s="3"/>
-      <c r="K153" s="40"/>
+      <c r="K153" s="41"/>
     </row>
     <row r="154" spans="1:11">
       <c r="A154" s="3"/>
@@ -4742,7 +4744,7 @@
       <c r="H154" s="3"/>
       <c r="I154" s="3"/>
       <c r="J154" s="3"/>
-      <c r="K154" s="40"/>
+      <c r="K154" s="41"/>
     </row>
     <row r="155" spans="1:11">
       <c r="A155" s="3"/>
@@ -4754,7 +4756,7 @@
       <c r="H155" s="3"/>
       <c r="I155" s="3"/>
       <c r="J155" s="3"/>
-      <c r="K155" s="40"/>
+      <c r="K155" s="41"/>
     </row>
     <row r="156" spans="1:11">
       <c r="A156" s="3"/>
@@ -4766,7 +4768,7 @@
       <c r="H156" s="3"/>
       <c r="I156" s="3"/>
       <c r="J156" s="3"/>
-      <c r="K156" s="40"/>
+      <c r="K156" s="41"/>
     </row>
     <row r="157" spans="1:11">
       <c r="A157" s="3"/>
@@ -4778,7 +4780,7 @@
       <c r="H157" s="3"/>
       <c r="I157" s="3"/>
       <c r="J157" s="3"/>
-      <c r="K157" s="40"/>
+      <c r="K157" s="41"/>
     </row>
     <row r="158" spans="1:11">
       <c r="A158" s="3"/>
@@ -4790,7 +4792,7 @@
       <c r="H158" s="3"/>
       <c r="I158" s="3"/>
       <c r="J158" s="3"/>
-      <c r="K158" s="40"/>
+      <c r="K158" s="41"/>
     </row>
     <row r="159" spans="1:11">
       <c r="A159" s="3"/>
@@ -4802,7 +4804,7 @@
       <c r="H159" s="3"/>
       <c r="I159" s="3"/>
       <c r="J159" s="3"/>
-      <c r="K159" s="40"/>
+      <c r="K159" s="41"/>
     </row>
     <row r="160" spans="1:11">
       <c r="A160" s="3"/>
@@ -4814,7 +4816,7 @@
       <c r="H160" s="3"/>
       <c r="I160" s="3"/>
       <c r="J160" s="3"/>
-      <c r="K160" s="40"/>
+      <c r="K160" s="41"/>
     </row>
     <row r="161" spans="1:11">
       <c r="A161" s="3"/>
@@ -4826,7 +4828,7 @@
       <c r="H161" s="3"/>
       <c r="I161" s="3"/>
       <c r="J161" s="3"/>
-      <c r="K161" s="40"/>
+      <c r="K161" s="41"/>
     </row>
     <row r="162" spans="1:11">
       <c r="A162" s="3"/>
@@ -4838,7 +4840,7 @@
       <c r="H162" s="3"/>
       <c r="I162" s="3"/>
       <c r="J162" s="3"/>
-      <c r="K162" s="40"/>
+      <c r="K162" s="41"/>
     </row>
     <row r="163" spans="1:11">
       <c r="A163" s="3"/>
@@ -4850,7 +4852,7 @@
       <c r="H163" s="3"/>
       <c r="I163" s="3"/>
       <c r="J163" s="3"/>
-      <c r="K163" s="40"/>
+      <c r="K163" s="41"/>
     </row>
     <row r="164" spans="1:11">
       <c r="A164" s="3"/>
@@ -4862,7 +4864,7 @@
       <c r="H164" s="3"/>
       <c r="I164" s="3"/>
       <c r="J164" s="3"/>
-      <c r="K164" s="40"/>
+      <c r="K164" s="41"/>
     </row>
     <row r="165" spans="1:11">
       <c r="A165" s="3"/>
@@ -4874,7 +4876,7 @@
       <c r="H165" s="3"/>
       <c r="I165" s="3"/>
       <c r="J165" s="3"/>
-      <c r="K165" s="40"/>
+      <c r="K165" s="41"/>
     </row>
     <row r="166" spans="1:11">
       <c r="A166" s="3"/>
@@ -4886,7 +4888,7 @@
       <c r="H166" s="3"/>
       <c r="I166" s="3"/>
       <c r="J166" s="3"/>
-      <c r="K166" s="40"/>
+      <c r="K166" s="41"/>
     </row>
     <row r="167" spans="1:11">
       <c r="A167" s="3"/>
@@ -4898,7 +4900,7 @@
       <c r="H167" s="3"/>
       <c r="I167" s="3"/>
       <c r="J167" s="3"/>
-      <c r="K167" s="40"/>
+      <c r="K167" s="41"/>
     </row>
     <row r="168" spans="1:11">
       <c r="A168" s="3"/>
@@ -4910,7 +4912,7 @@
       <c r="H168" s="3"/>
       <c r="I168" s="3"/>
       <c r="J168" s="3"/>
-      <c r="K168" s="40"/>
+      <c r="K168" s="41"/>
     </row>
     <row r="169" spans="1:11">
       <c r="A169" s="3"/>
@@ -4922,7 +4924,7 @@
       <c r="H169" s="3"/>
       <c r="I169" s="3"/>
       <c r="J169" s="3"/>
-      <c r="K169" s="40"/>
+      <c r="K169" s="41"/>
     </row>
     <row r="170" spans="1:11">
       <c r="A170" s="3"/>
@@ -4934,7 +4936,7 @@
       <c r="H170" s="3"/>
       <c r="I170" s="3"/>
       <c r="J170" s="3"/>
-      <c r="K170" s="40"/>
+      <c r="K170" s="41"/>
     </row>
     <row r="171" spans="1:11">
       <c r="A171" s="3"/>
@@ -4946,7 +4948,7 @@
       <c r="H171" s="3"/>
       <c r="I171" s="3"/>
       <c r="J171" s="3"/>
-      <c r="K171" s="40"/>
+      <c r="K171" s="41"/>
     </row>
     <row r="172" spans="1:11">
       <c r="A172" s="3"/>
@@ -4958,7 +4960,7 @@
       <c r="H172" s="3"/>
       <c r="I172" s="3"/>
       <c r="J172" s="3"/>
-      <c r="K172" s="40"/>
+      <c r="K172" s="41"/>
     </row>
     <row r="173" spans="1:11">
       <c r="A173" s="3"/>
@@ -4970,7 +4972,7 @@
       <c r="H173" s="3"/>
       <c r="I173" s="3"/>
       <c r="J173" s="3"/>
-      <c r="K173" s="40"/>
+      <c r="K173" s="41"/>
     </row>
     <row r="174" spans="1:11">
       <c r="A174" s="3"/>
@@ -4982,7 +4984,7 @@
       <c r="H174" s="3"/>
       <c r="I174" s="3"/>
       <c r="J174" s="3"/>
-      <c r="K174" s="40"/>
+      <c r="K174" s="41"/>
     </row>
     <row r="175" spans="1:11">
       <c r="A175" s="3"/>
@@ -4994,7 +4996,7 @@
       <c r="H175" s="3"/>
       <c r="I175" s="3"/>
       <c r="J175" s="3"/>
-      <c r="K175" s="40"/>
+      <c r="K175" s="41"/>
     </row>
     <row r="176" spans="1:11">
       <c r="A176" s="3"/>
@@ -5006,7 +5008,7 @@
       <c r="H176" s="3"/>
       <c r="I176" s="3"/>
       <c r="J176" s="3"/>
-      <c r="K176" s="40"/>
+      <c r="K176" s="41"/>
     </row>
     <row r="177" spans="1:11">
       <c r="A177" s="3"/>
@@ -5018,7 +5020,7 @@
       <c r="H177" s="3"/>
       <c r="I177" s="3"/>
       <c r="J177" s="3"/>
-      <c r="K177" s="40"/>
+      <c r="K177" s="41"/>
     </row>
     <row r="178" spans="1:11">
       <c r="A178" s="3"/>
@@ -5030,7 +5032,7 @@
       <c r="H178" s="3"/>
       <c r="I178" s="3"/>
       <c r="J178" s="3"/>
-      <c r="K178" s="40"/>
+      <c r="K178" s="41"/>
     </row>
     <row r="179" spans="1:11">
       <c r="A179" s="3"/>
@@ -5042,7 +5044,7 @@
       <c r="H179" s="3"/>
       <c r="I179" s="3"/>
       <c r="J179" s="3"/>
-      <c r="K179" s="40"/>
+      <c r="K179" s="41"/>
     </row>
     <row r="180" spans="1:11">
       <c r="A180" s="3"/>
@@ -5054,7 +5056,7 @@
       <c r="H180" s="3"/>
       <c r="I180" s="3"/>
       <c r="J180" s="3"/>
-      <c r="K180" s="40"/>
+      <c r="K180" s="41"/>
     </row>
     <row r="181" spans="1:11">
       <c r="A181" s="3"/>
@@ -5066,7 +5068,7 @@
       <c r="H181" s="3"/>
       <c r="I181" s="3"/>
       <c r="J181" s="3"/>
-      <c r="K181" s="40"/>
+      <c r="K181" s="41"/>
     </row>
     <row r="182" spans="1:11">
       <c r="A182" s="3"/>
@@ -5078,7 +5080,7 @@
       <c r="H182" s="3"/>
       <c r="I182" s="3"/>
       <c r="J182" s="3"/>
-      <c r="K182" s="40"/>
+      <c r="K182" s="41"/>
     </row>
     <row r="183" spans="1:11">
       <c r="A183" s="3"/>
@@ -5090,7 +5092,7 @@
       <c r="H183" s="3"/>
       <c r="I183" s="3"/>
       <c r="J183" s="3"/>
-      <c r="K183" s="40"/>
+      <c r="K183" s="41"/>
     </row>
     <row r="184" spans="1:11">
       <c r="A184" s="3"/>
@@ -5102,7 +5104,7 @@
       <c r="H184" s="3"/>
       <c r="I184" s="3"/>
       <c r="J184" s="3"/>
-      <c r="K184" s="40"/>
+      <c r="K184" s="41"/>
     </row>
     <row r="185" spans="1:11">
       <c r="A185" s="3"/>
@@ -5114,7 +5116,7 @@
       <c r="H185" s="3"/>
       <c r="I185" s="3"/>
       <c r="J185" s="3"/>
-      <c r="K185" s="40"/>
+      <c r="K185" s="41"/>
     </row>
     <row r="186" spans="1:11">
       <c r="A186" s="3"/>
@@ -5126,7 +5128,7 @@
       <c r="H186" s="3"/>
       <c r="I186" s="3"/>
       <c r="J186" s="3"/>
-      <c r="K186" s="40"/>
+      <c r="K186" s="41"/>
     </row>
     <row r="187" spans="1:11">
       <c r="A187" s="3"/>
@@ -5138,7 +5140,7 @@
       <c r="H187" s="3"/>
       <c r="I187" s="3"/>
       <c r="J187" s="3"/>
-      <c r="K187" s="40"/>
+      <c r="K187" s="41"/>
     </row>
     <row r="188" spans="1:11">
       <c r="A188" s="3"/>
@@ -5150,7 +5152,7 @@
       <c r="H188" s="3"/>
       <c r="I188" s="3"/>
       <c r="J188" s="3"/>
-      <c r="K188" s="40"/>
+      <c r="K188" s="41"/>
     </row>
     <row r="189" spans="1:11">
       <c r="A189" s="3"/>
@@ -5162,7 +5164,7 @@
       <c r="H189" s="3"/>
       <c r="I189" s="3"/>
       <c r="J189" s="3"/>
-      <c r="K189" s="40"/>
+      <c r="K189" s="41"/>
     </row>
     <row r="190" spans="1:11">
       <c r="A190" s="3"/>
@@ -5174,7 +5176,7 @@
       <c r="H190" s="3"/>
       <c r="I190" s="3"/>
       <c r="J190" s="3"/>
-      <c r="K190" s="40"/>
+      <c r="K190" s="41"/>
     </row>
     <row r="191" spans="1:11">
       <c r="A191" s="3"/>
@@ -5186,7 +5188,7 @@
       <c r="H191" s="3"/>
       <c r="I191" s="3"/>
       <c r="J191" s="3"/>
-      <c r="K191" s="40"/>
+      <c r="K191" s="41"/>
     </row>
     <row r="192" spans="1:11">
       <c r="A192" s="3"/>
@@ -5198,7 +5200,7 @@
       <c r="H192" s="3"/>
       <c r="I192" s="3"/>
       <c r="J192" s="3"/>
-      <c r="K192" s="40"/>
+      <c r="K192" s="41"/>
     </row>
     <row r="193" spans="1:11">
       <c r="A193" s="3"/>
@@ -5210,7 +5212,7 @@
       <c r="H193" s="3"/>
       <c r="I193" s="3"/>
       <c r="J193" s="3"/>
-      <c r="K193" s="40"/>
+      <c r="K193" s="41"/>
     </row>
     <row r="194" spans="1:11">
       <c r="A194" s="3"/>
@@ -5222,7 +5224,7 @@
       <c r="H194" s="3"/>
       <c r="I194" s="3"/>
       <c r="J194" s="3"/>
-      <c r="K194" s="40"/>
+      <c r="K194" s="41"/>
     </row>
     <row r="195" spans="1:11">
       <c r="A195" s="3"/>
@@ -5234,7 +5236,7 @@
       <c r="H195" s="3"/>
       <c r="I195" s="3"/>
       <c r="J195" s="3"/>
-      <c r="K195" s="40"/>
+      <c r="K195" s="41"/>
     </row>
     <row r="196" spans="1:11">
       <c r="A196" s="3"/>
@@ -5246,7 +5248,7 @@
       <c r="H196" s="3"/>
       <c r="I196" s="3"/>
       <c r="J196" s="3"/>
-      <c r="K196" s="40"/>
+      <c r="K196" s="41"/>
     </row>
     <row r="197" spans="1:11">
       <c r="A197" s="3"/>
@@ -5258,7 +5260,7 @@
       <c r="H197" s="3"/>
       <c r="I197" s="3"/>
       <c r="J197" s="3"/>
-      <c r="K197" s="40"/>
+      <c r="K197" s="41"/>
     </row>
     <row r="198" spans="1:11">
       <c r="A198" s="3"/>
@@ -5270,7 +5272,7 @@
       <c r="H198" s="3"/>
       <c r="I198" s="3"/>
       <c r="J198" s="3"/>
-      <c r="K198" s="40"/>
+      <c r="K198" s="41"/>
     </row>
     <row r="199" spans="1:11">
       <c r="A199" s="3"/>
@@ -5282,7 +5284,7 @@
       <c r="H199" s="3"/>
       <c r="I199" s="3"/>
       <c r="J199" s="3"/>
-      <c r="K199" s="40"/>
+      <c r="K199" s="41"/>
     </row>
     <row r="200" spans="1:11">
       <c r="A200" s="3"/>
@@ -5294,7 +5296,7 @@
       <c r="H200" s="3"/>
       <c r="I200" s="3"/>
       <c r="J200" s="3"/>
-      <c r="K200" s="40"/>
+      <c r="K200" s="41"/>
     </row>
     <row r="201" spans="1:11">
       <c r="A201" s="3"/>
@@ -5306,7 +5308,7 @@
       <c r="H201" s="3"/>
       <c r="I201" s="3"/>
       <c r="J201" s="3"/>
-      <c r="K201" s="40"/>
+      <c r="K201" s="41"/>
     </row>
     <row r="202" spans="1:11">
       <c r="A202" s="3"/>
@@ -5318,7 +5320,7 @@
       <c r="H202" s="3"/>
       <c r="I202" s="3"/>
       <c r="J202" s="3"/>
-      <c r="K202" s="40"/>
+      <c r="K202" s="41"/>
     </row>
     <row r="203" spans="1:11">
       <c r="A203" s="3"/>
@@ -5330,7 +5332,7 @@
       <c r="H203" s="3"/>
       <c r="I203" s="3"/>
       <c r="J203" s="3"/>
-      <c r="K203" s="40"/>
+      <c r="K203" s="41"/>
     </row>
     <row r="204" spans="1:11">
       <c r="A204" s="3"/>
@@ -5342,7 +5344,7 @@
       <c r="H204" s="3"/>
       <c r="I204" s="3"/>
       <c r="J204" s="3"/>
-      <c r="K204" s="40"/>
+      <c r="K204" s="41"/>
     </row>
     <row r="205" spans="1:11">
       <c r="A205" s="3"/>
@@ -5354,7 +5356,7 @@
       <c r="H205" s="3"/>
       <c r="I205" s="3"/>
       <c r="J205" s="3"/>
-      <c r="K205" s="40"/>
+      <c r="K205" s="41"/>
     </row>
     <row r="206" spans="1:11">
       <c r="A206" s="3"/>
@@ -5366,7 +5368,7 @@
       <c r="H206" s="3"/>
       <c r="I206" s="3"/>
       <c r="J206" s="3"/>
-      <c r="K206" s="40"/>
+      <c r="K206" s="41"/>
     </row>
     <row r="207" spans="1:11">
       <c r="A207" s="3"/>
@@ -5378,7 +5380,7 @@
       <c r="H207" s="3"/>
       <c r="I207" s="3"/>
       <c r="J207" s="3"/>
-      <c r="K207" s="40"/>
+      <c r="K207" s="41"/>
     </row>
     <row r="208" spans="1:11">
       <c r="A208" s="3"/>
@@ -5390,7 +5392,7 @@
       <c r="H208" s="3"/>
       <c r="I208" s="3"/>
       <c r="J208" s="3"/>
-      <c r="K208" s="40"/>
+      <c r="K208" s="41"/>
     </row>
     <row r="209" spans="1:11">
       <c r="A209" s="3"/>
@@ -5402,7 +5404,7 @@
       <c r="H209" s="3"/>
       <c r="I209" s="3"/>
       <c r="J209" s="3"/>
-      <c r="K209" s="40"/>
+      <c r="K209" s="41"/>
     </row>
     <row r="210" spans="1:11">
       <c r="A210" s="3"/>
@@ -5414,7 +5416,7 @@
       <c r="H210" s="3"/>
       <c r="I210" s="3"/>
       <c r="J210" s="3"/>
-      <c r="K210" s="40"/>
+      <c r="K210" s="41"/>
     </row>
     <row r="211" spans="1:11">
       <c r="A211" s="3"/>
@@ -5426,7 +5428,7 @@
       <c r="H211" s="3"/>
       <c r="I211" s="3"/>
       <c r="J211" s="3"/>
-      <c r="K211" s="40"/>
+      <c r="K211" s="41"/>
     </row>
     <row r="212" spans="1:11">
       <c r="A212" s="3"/>
@@ -5438,7 +5440,7 @@
       <c r="H212" s="3"/>
       <c r="I212" s="3"/>
       <c r="J212" s="3"/>
-      <c r="K212" s="40"/>
+      <c r="K212" s="41"/>
     </row>
     <row r="213" spans="1:11">
       <c r="A213" s="3"/>
@@ -5450,7 +5452,7 @@
       <c r="H213" s="3"/>
       <c r="I213" s="3"/>
       <c r="J213" s="3"/>
-      <c r="K213" s="40"/>
+      <c r="K213" s="41"/>
     </row>
     <row r="214" spans="1:11">
       <c r="A214" s="3"/>
@@ -5462,7 +5464,7 @@
       <c r="H214" s="3"/>
       <c r="I214" s="3"/>
       <c r="J214" s="3"/>
-      <c r="K214" s="40"/>
+      <c r="K214" s="41"/>
     </row>
     <row r="215" spans="1:11">
       <c r="A215" s="3"/>
@@ -5474,7 +5476,7 @@
       <c r="H215" s="3"/>
       <c r="I215" s="3"/>
       <c r="J215" s="3"/>
-      <c r="K215" s="40"/>
+      <c r="K215" s="41"/>
     </row>
     <row r="216" spans="1:11">
       <c r="A216" s="3"/>
@@ -5486,7 +5488,7 @@
       <c r="H216" s="3"/>
       <c r="I216" s="3"/>
       <c r="J216" s="3"/>
-      <c r="K216" s="40"/>
+      <c r="K216" s="41"/>
     </row>
     <row r="217" spans="1:11">
       <c r="A217" s="3"/>
@@ -5498,7 +5500,7 @@
       <c r="H217" s="3"/>
       <c r="I217" s="3"/>
       <c r="J217" s="3"/>
-      <c r="K217" s="40"/>
+      <c r="K217" s="41"/>
     </row>
     <row r="218" spans="1:11">
       <c r="A218" s="3"/>
@@ -5510,7 +5512,7 @@
       <c r="H218" s="3"/>
       <c r="I218" s="3"/>
       <c r="J218" s="3"/>
-      <c r="K218" s="40"/>
+      <c r="K218" s="41"/>
     </row>
     <row r="219" spans="1:11">
       <c r="A219" s="3"/>
@@ -5522,7 +5524,7 @@
       <c r="H219" s="3"/>
       <c r="I219" s="3"/>
       <c r="J219" s="3"/>
-      <c r="K219" s="40"/>
+      <c r="K219" s="41"/>
     </row>
     <row r="220" spans="1:11">
       <c r="A220" s="3"/>
@@ -5534,7 +5536,7 @@
       <c r="H220" s="3"/>
       <c r="I220" s="3"/>
       <c r="J220" s="3"/>
-      <c r="K220" s="40"/>
+      <c r="K220" s="41"/>
     </row>
     <row r="221" spans="1:11">
       <c r="A221" s="3"/>
@@ -5546,7 +5548,7 @@
       <c r="H221" s="3"/>
       <c r="I221" s="3"/>
       <c r="J221" s="3"/>
-      <c r="K221" s="40"/>
+      <c r="K221" s="41"/>
     </row>
     <row r="222" spans="1:11">
       <c r="A222" s="3"/>
@@ -5558,7 +5560,7 @@
       <c r="H222" s="3"/>
       <c r="I222" s="3"/>
       <c r="J222" s="3"/>
-      <c r="K222" s="40"/>
+      <c r="K222" s="41"/>
     </row>
     <row r="223" spans="1:11">
       <c r="A223" s="3"/>
@@ -5570,7 +5572,7 @@
       <c r="H223" s="3"/>
       <c r="I223" s="3"/>
       <c r="J223" s="3"/>
-      <c r="K223" s="40"/>
+      <c r="K223" s="41"/>
     </row>
     <row r="224" spans="1:11">
       <c r="A224" s="3"/>
@@ -5582,7 +5584,7 @@
       <c r="H224" s="3"/>
       <c r="I224" s="3"/>
       <c r="J224" s="3"/>
-      <c r="K224" s="40"/>
+      <c r="K224" s="41"/>
     </row>
     <row r="225" spans="1:11">
       <c r="A225" s="3"/>
@@ -5594,7 +5596,7 @@
       <c r="H225" s="3"/>
       <c r="I225" s="3"/>
       <c r="J225" s="3"/>
-      <c r="K225" s="40"/>
+      <c r="K225" s="41"/>
     </row>
     <row r="226" spans="1:11">
       <c r="A226" s="3"/>
@@ -5606,7 +5608,7 @@
       <c r="H226" s="3"/>
       <c r="I226" s="3"/>
       <c r="J226" s="3"/>
-      <c r="K226" s="40"/>
+      <c r="K226" s="41"/>
     </row>
     <row r="227" spans="1:11">
       <c r="A227" s="3"/>
@@ -5618,7 +5620,7 @@
       <c r="H227" s="3"/>
       <c r="I227" s="3"/>
       <c r="J227" s="3"/>
-      <c r="K227" s="40"/>
+      <c r="K227" s="41"/>
     </row>
     <row r="228" spans="1:11">
       <c r="A228" s="3"/>
@@ -5630,7 +5632,7 @@
       <c r="H228" s="3"/>
       <c r="I228" s="3"/>
       <c r="J228" s="3"/>
-      <c r="K228" s="40"/>
+      <c r="K228" s="41"/>
     </row>
     <row r="229" spans="1:11">
       <c r="A229" s="3"/>
@@ -5642,7 +5644,7 @@
       <c r="H229" s="3"/>
       <c r="I229" s="3"/>
       <c r="J229" s="3"/>
-      <c r="K229" s="40"/>
+      <c r="K229" s="41"/>
     </row>
     <row r="230" spans="1:11">
       <c r="A230" s="3"/>
@@ -5654,7 +5656,7 @@
       <c r="H230" s="3"/>
       <c r="I230" s="3"/>
       <c r="J230" s="3"/>
-      <c r="K230" s="40"/>
+      <c r="K230" s="41"/>
     </row>
     <row r="231" spans="1:11">
       <c r="A231" s="3"/>
@@ -5666,7 +5668,7 @@
       <c r="H231" s="3"/>
       <c r="I231" s="3"/>
       <c r="J231" s="3"/>
-      <c r="K231" s="40"/>
+      <c r="K231" s="41"/>
     </row>
     <row r="232" spans="1:11">
       <c r="A232" s="3"/>
@@ -5678,7 +5680,7 @@
       <c r="H232" s="3"/>
       <c r="I232" s="3"/>
       <c r="J232" s="3"/>
-      <c r="K232" s="40"/>
+      <c r="K232" s="41"/>
     </row>
     <row r="233" spans="1:11">
       <c r="A233" s="3"/>
@@ -5690,7 +5692,7 @@
       <c r="H233" s="3"/>
       <c r="I233" s="3"/>
       <c r="J233" s="3"/>
-      <c r="K233" s="40"/>
+      <c r="K233" s="41"/>
     </row>
     <row r="234" spans="1:11">
       <c r="A234" s="3"/>
@@ -5702,7 +5704,7 @@
       <c r="H234" s="3"/>
       <c r="I234" s="3"/>
       <c r="J234" s="3"/>
-      <c r="K234" s="40"/>
+      <c r="K234" s="41"/>
     </row>
     <row r="235" spans="1:11">
       <c r="A235" s="3"/>
@@ -5714,7 +5716,7 @@
       <c r="H235" s="3"/>
       <c r="I235" s="3"/>
       <c r="J235" s="3"/>
-      <c r="K235" s="40"/>
+      <c r="K235" s="41"/>
     </row>
     <row r="236" spans="1:11">
       <c r="A236" s="3"/>
@@ -5726,7 +5728,7 @@
       <c r="H236" s="3"/>
       <c r="I236" s="3"/>
       <c r="J236" s="3"/>
-      <c r="K236" s="40"/>
+      <c r="K236" s="41"/>
     </row>
     <row r="237" spans="1:11">
       <c r="A237" s="3"/>
@@ -5738,7 +5740,7 @@
       <c r="H237" s="3"/>
       <c r="I237" s="3"/>
       <c r="J237" s="3"/>
-      <c r="K237" s="40"/>
+      <c r="K237" s="41"/>
     </row>
     <row r="238" spans="1:11">
       <c r="A238" s="3"/>
@@ -5750,7 +5752,7 @@
       <c r="H238" s="3"/>
       <c r="I238" s="3"/>
       <c r="J238" s="3"/>
-      <c r="K238" s="40"/>
+      <c r="K238" s="41"/>
     </row>
     <row r="239" spans="1:11">
       <c r="A239" s="3"/>
@@ -5762,7 +5764,7 @@
       <c r="H239" s="3"/>
       <c r="I239" s="3"/>
       <c r="J239" s="3"/>
-      <c r="K239" s="40"/>
+      <c r="K239" s="41"/>
     </row>
     <row r="240" spans="1:11">
       <c r="A240" s="3"/>
@@ -5774,7 +5776,7 @@
       <c r="H240" s="3"/>
       <c r="I240" s="3"/>
       <c r="J240" s="3"/>
-      <c r="K240" s="40"/>
+      <c r="K240" s="41"/>
     </row>
     <row r="241" spans="1:11">
       <c r="A241" s="3"/>
@@ -5786,7 +5788,7 @@
       <c r="H241" s="3"/>
       <c r="I241" s="3"/>
       <c r="J241" s="3"/>
-      <c r="K241" s="40"/>
+      <c r="K241" s="41"/>
     </row>
     <row r="242" spans="1:11">
       <c r="A242" s="3"/>
@@ -5798,7 +5800,7 @@
       <c r="H242" s="3"/>
       <c r="I242" s="3"/>
       <c r="J242" s="3"/>
-      <c r="K242" s="40"/>
+      <c r="K242" s="41"/>
     </row>
     <row r="243" spans="1:11">
       <c r="A243" s="3"/>
@@ -5810,7 +5812,7 @@
       <c r="H243" s="3"/>
       <c r="I243" s="3"/>
       <c r="J243" s="3"/>
-      <c r="K243" s="40"/>
+      <c r="K243" s="41"/>
     </row>
     <row r="244" spans="1:11">
       <c r="A244" s="3"/>
@@ -5822,7 +5824,7 @@
       <c r="H244" s="3"/>
       <c r="I244" s="3"/>
       <c r="J244" s="3"/>
-      <c r="K244" s="40"/>
+      <c r="K244" s="41"/>
     </row>
     <row r="245" spans="1:11">
       <c r="A245" s="3"/>
@@ -5834,7 +5836,7 @@
       <c r="H245" s="3"/>
       <c r="I245" s="3"/>
       <c r="J245" s="3"/>
-      <c r="K245" s="40"/>
+      <c r="K245" s="41"/>
     </row>
     <row r="246" spans="1:11">
       <c r="A246" s="3"/>
@@ -5846,7 +5848,7 @@
       <c r="H246" s="3"/>
       <c r="I246" s="3"/>
       <c r="J246" s="3"/>
-      <c r="K246" s="40"/>
+      <c r="K246" s="41"/>
     </row>
     <row r="247" spans="1:11">
       <c r="A247" s="3"/>
@@ -5858,7 +5860,7 @@
       <c r="H247" s="3"/>
       <c r="I247" s="3"/>
       <c r="J247" s="3"/>
-      <c r="K247" s="40"/>
+      <c r="K247" s="41"/>
     </row>
     <row r="248" spans="1:11">
       <c r="A248" s="3"/>
@@ -5870,7 +5872,7 @@
       <c r="H248" s="3"/>
       <c r="I248" s="3"/>
       <c r="J248" s="3"/>
-      <c r="K248" s="40"/>
+      <c r="K248" s="41"/>
     </row>
     <row r="249" spans="1:11">
       <c r="A249" s="3"/>
@@ -5882,7 +5884,7 @@
       <c r="H249" s="3"/>
       <c r="I249" s="3"/>
       <c r="J249" s="3"/>
-      <c r="K249" s="40"/>
+      <c r="K249" s="41"/>
     </row>
     <row r="250" spans="1:11">
       <c r="A250" s="3"/>
@@ -5894,7 +5896,7 @@
       <c r="H250" s="3"/>
       <c r="I250" s="3"/>
       <c r="J250" s="3"/>
-      <c r="K250" s="40"/>
+      <c r="K250" s="41"/>
     </row>
     <row r="251" spans="1:11">
       <c r="A251" s="3"/>
@@ -5906,7 +5908,7 @@
       <c r="H251" s="3"/>
       <c r="I251" s="3"/>
       <c r="J251" s="3"/>
-      <c r="K251" s="40"/>
+      <c r="K251" s="41"/>
     </row>
     <row r="252" spans="1:11">
       <c r="A252" s="3"/>
@@ -5918,7 +5920,7 @@
       <c r="H252" s="3"/>
       <c r="I252" s="3"/>
       <c r="J252" s="3"/>
-      <c r="K252" s="40"/>
+      <c r="K252" s="41"/>
     </row>
     <row r="253" spans="1:11">
       <c r="A253" s="3"/>
@@ -5930,7 +5932,7 @@
       <c r="H253" s="3"/>
       <c r="I253" s="3"/>
       <c r="J253" s="3"/>
-      <c r="K253" s="40"/>
+      <c r="K253" s="41"/>
     </row>
     <row r="254" spans="1:11">
       <c r="A254" s="3"/>
@@ -5942,7 +5944,7 @@
       <c r="H254" s="3"/>
       <c r="I254" s="3"/>
       <c r="J254" s="3"/>
-      <c r="K254" s="40"/>
+      <c r="K254" s="41"/>
     </row>
     <row r="255" spans="1:11">
       <c r="A255" s="3"/>
@@ -5954,7 +5956,7 @@
       <c r="H255" s="3"/>
       <c r="I255" s="3"/>
       <c r="J255" s="3"/>
-      <c r="K255" s="40"/>
+      <c r="K255" s="41"/>
     </row>
     <row r="256" spans="1:11">
       <c r="A256" s="3"/>
@@ -5966,7 +5968,7 @@
       <c r="H256" s="3"/>
       <c r="I256" s="3"/>
       <c r="J256" s="3"/>
-      <c r="K256" s="40"/>
+      <c r="K256" s="41"/>
     </row>
     <row r="257" spans="1:11">
       <c r="A257" s="3"/>
@@ -5978,7 +5980,7 @@
       <c r="H257" s="3"/>
       <c r="I257" s="3"/>
       <c r="J257" s="3"/>
-      <c r="K257" s="40"/>
+      <c r="K257" s="41"/>
     </row>
     <row r="258" spans="1:11">
       <c r="A258" s="3"/>
@@ -5990,7 +5992,7 @@
       <c r="H258" s="3"/>
       <c r="I258" s="3"/>
       <c r="J258" s="3"/>
-      <c r="K258" s="40"/>
+      <c r="K258" s="41"/>
     </row>
     <row r="259" spans="1:11">
       <c r="A259" s="3"/>
@@ -6002,7 +6004,7 @@
       <c r="H259" s="3"/>
       <c r="I259" s="3"/>
       <c r="J259" s="3"/>
-      <c r="K259" s="40"/>
+      <c r="K259" s="41"/>
     </row>
     <row r="260" spans="1:11">
       <c r="A260" s="3"/>
@@ -6014,7 +6016,7 @@
       <c r="H260" s="3"/>
       <c r="I260" s="3"/>
       <c r="J260" s="3"/>
-      <c r="K260" s="40"/>
+      <c r="K260" s="41"/>
     </row>
     <row r="261" spans="1:11">
       <c r="A261" s="3"/>
@@ -6026,7 +6028,7 @@
       <c r="H261" s="3"/>
       <c r="I261" s="3"/>
       <c r="J261" s="3"/>
-      <c r="K261" s="40"/>
+      <c r="K261" s="41"/>
     </row>
     <row r="262" spans="1:11">
       <c r="A262" s="3"/>
@@ -6038,7 +6040,7 @@
       <c r="H262" s="3"/>
       <c r="I262" s="3"/>
       <c r="J262" s="3"/>
-      <c r="K262" s="40"/>
+      <c r="K262" s="41"/>
     </row>
     <row r="263" spans="1:11">
       <c r="A263" s="3"/>
@@ -6050,7 +6052,7 @@
       <c r="H263" s="3"/>
       <c r="I263" s="3"/>
       <c r="J263" s="3"/>
-      <c r="K263" s="40"/>
+      <c r="K263" s="41"/>
     </row>
     <row r="264" spans="1:11">
       <c r="A264" s="3"/>
@@ -6062,7 +6064,7 @@
       <c r="H264" s="3"/>
       <c r="I264" s="3"/>
       <c r="J264" s="3"/>
-      <c r="K264" s="40"/>
+      <c r="K264" s="41"/>
     </row>
     <row r="265" spans="1:11">
       <c r="A265" s="3"/>
@@ -6074,7 +6076,7 @@
       <c r="H265" s="3"/>
       <c r="I265" s="3"/>
       <c r="J265" s="3"/>
-      <c r="K265" s="40"/>
+      <c r="K265" s="41"/>
     </row>
     <row r="266" spans="1:11">
       <c r="A266" s="3"/>
@@ -6086,7 +6088,7 @@
       <c r="H266" s="3"/>
       <c r="I266" s="3"/>
       <c r="J266" s="3"/>
-      <c r="K266" s="40"/>
+      <c r="K266" s="41"/>
     </row>
     <row r="267" spans="1:11">
       <c r="A267" s="3"/>
@@ -6098,7 +6100,7 @@
       <c r="H267" s="3"/>
       <c r="I267" s="3"/>
       <c r="J267" s="3"/>
-      <c r="K267" s="40"/>
+      <c r="K267" s="41"/>
     </row>
     <row r="268" spans="1:11">
       <c r="A268" s="3"/>
@@ -6110,7 +6112,7 @@
       <c r="H268" s="3"/>
       <c r="I268" s="3"/>
       <c r="J268" s="3"/>
-      <c r="K268" s="40"/>
+      <c r="K268" s="41"/>
     </row>
     <row r="269" spans="1:11">
       <c r="A269" s="3"/>
@@ -6122,7 +6124,7 @@
       <c r="H269" s="3"/>
       <c r="I269" s="3"/>
       <c r="J269" s="3"/>
-      <c r="K269" s="40"/>
+      <c r="K269" s="41"/>
     </row>
     <row r="270" spans="1:11">
       <c r="A270" s="3"/>
@@ -6134,7 +6136,7 @@
       <c r="H270" s="3"/>
       <c r="I270" s="3"/>
       <c r="J270" s="3"/>
-      <c r="K270" s="40"/>
+      <c r="K270" s="41"/>
     </row>
     <row r="271" spans="1:11">
       <c r="A271" s="3"/>
@@ -6146,7 +6148,7 @@
       <c r="H271" s="3"/>
       <c r="I271" s="3"/>
       <c r="J271" s="3"/>
-      <c r="K271" s="40"/>
+      <c r="K271" s="41"/>
     </row>
     <row r="272" spans="1:11">
       <c r="A272" s="3"/>
@@ -6158,7 +6160,7 @@
       <c r="H272" s="3"/>
       <c r="I272" s="3"/>
       <c r="J272" s="3"/>
-      <c r="K272" s="40"/>
+      <c r="K272" s="41"/>
     </row>
     <row r="273" spans="1:11">
       <c r="A273" s="3"/>
@@ -6170,7 +6172,7 @@
       <c r="H273" s="3"/>
       <c r="I273" s="3"/>
       <c r="J273" s="3"/>
-      <c r="K273" s="40"/>
+      <c r="K273" s="41"/>
     </row>
     <row r="274" spans="1:11">
       <c r="A274" s="3"/>
@@ -6182,7 +6184,7 @@
       <c r="H274" s="3"/>
       <c r="I274" s="3"/>
       <c r="J274" s="3"/>
-      <c r="K274" s="40"/>
+      <c r="K274" s="41"/>
     </row>
     <row r="275" spans="1:11">
       <c r="A275" s="3"/>
@@ -6194,7 +6196,7 @@
       <c r="H275" s="3"/>
       <c r="I275" s="3"/>
       <c r="J275" s="3"/>
-      <c r="K275" s="40"/>
+      <c r="K275" s="41"/>
     </row>
     <row r="276" spans="1:11">
       <c r="A276" s="3"/>
@@ -6206,7 +6208,7 @@
       <c r="H276" s="3"/>
       <c r="I276" s="3"/>
       <c r="J276" s="3"/>
-      <c r="K276" s="40"/>
+      <c r="K276" s="41"/>
     </row>
     <row r="277" spans="1:11">
       <c r="A277" s="3"/>
@@ -6218,7 +6220,7 @@
       <c r="H277" s="3"/>
       <c r="I277" s="3"/>
       <c r="J277" s="3"/>
-      <c r="K277" s="40"/>
+      <c r="K277" s="41"/>
     </row>
     <row r="278" spans="1:11">
       <c r="A278" s="3"/>
@@ -6230,7 +6232,7 @@
       <c r="H278" s="3"/>
       <c r="I278" s="3"/>
       <c r="J278" s="3"/>
-      <c r="K278" s="40"/>
+      <c r="K278" s="41"/>
     </row>
     <row r="279" spans="1:11">
       <c r="A279" s="3"/>
@@ -6242,7 +6244,7 @@
       <c r="H279" s="3"/>
       <c r="I279" s="3"/>
       <c r="J279" s="3"/>
-      <c r="K279" s="40"/>
+      <c r="K279" s="41"/>
     </row>
     <row r="280" spans="1:11">
       <c r="A280" s="3"/>
@@ -6254,7 +6256,7 @@
       <c r="H280" s="3"/>
       <c r="I280" s="3"/>
       <c r="J280" s="3"/>
-      <c r="K280" s="40"/>
+      <c r="K280" s="41"/>
     </row>
     <row r="281" spans="1:11">
       <c r="A281" s="3"/>
@@ -6266,7 +6268,7 @@
       <c r="H281" s="3"/>
       <c r="I281" s="3"/>
       <c r="J281" s="3"/>
-      <c r="K281" s="40"/>
+      <c r="K281" s="41"/>
     </row>
     <row r="282" spans="1:11">
       <c r="A282" s="3"/>
@@ -6278,7 +6280,7 @@
       <c r="H282" s="3"/>
       <c r="I282" s="3"/>
       <c r="J282" s="3"/>
-      <c r="K282" s="40"/>
+      <c r="K282" s="41"/>
     </row>
     <row r="283" spans="1:11">
       <c r="A283" s="3"/>
@@ -6290,7 +6292,7 @@
       <c r="H283" s="3"/>
       <c r="I283" s="3"/>
       <c r="J283" s="3"/>
-      <c r="K283" s="40"/>
+      <c r="K283" s="41"/>
     </row>
     <row r="284" spans="1:11">
       <c r="A284" s="3"/>
@@ -6302,7 +6304,7 @@
       <c r="H284" s="3"/>
       <c r="I284" s="3"/>
       <c r="J284" s="3"/>
-      <c r="K284" s="40"/>
+      <c r="K284" s="41"/>
     </row>
     <row r="285" spans="1:11">
       <c r="A285" s="3"/>
@@ -6314,7 +6316,7 @@
       <c r="H285" s="3"/>
       <c r="I285" s="3"/>
       <c r="J285" s="3"/>
-      <c r="K285" s="40"/>
+      <c r="K285" s="41"/>
     </row>
     <row r="286" spans="1:11">
       <c r="A286" s="3"/>
@@ -6326,7 +6328,7 @@
       <c r="H286" s="3"/>
       <c r="I286" s="3"/>
       <c r="J286" s="3"/>
-      <c r="K286" s="40"/>
+      <c r="K286" s="41"/>
     </row>
     <row r="287" spans="1:11">
       <c r="A287" s="3"/>
@@ -6338,7 +6340,7 @@
       <c r="H287" s="3"/>
       <c r="I287" s="3"/>
       <c r="J287" s="3"/>
-      <c r="K287" s="40"/>
+      <c r="K287" s="41"/>
     </row>
     <row r="288" spans="1:11">
       <c r="A288" s="3"/>
@@ -6350,7 +6352,7 @@
       <c r="H288" s="3"/>
       <c r="I288" s="3"/>
       <c r="J288" s="3"/>
-      <c r="K288" s="40"/>
+      <c r="K288" s="41"/>
     </row>
     <row r="289" spans="1:11">
       <c r="A289" s="3"/>
@@ -6362,7 +6364,7 @@
       <c r="H289" s="3"/>
       <c r="I289" s="3"/>
       <c r="J289" s="3"/>
-      <c r="K289" s="40"/>
+      <c r="K289" s="41"/>
     </row>
     <row r="290" spans="1:11">
       <c r="A290" s="3"/>
@@ -6374,7 +6376,7 @@
       <c r="H290" s="3"/>
       <c r="I290" s="3"/>
       <c r="J290" s="3"/>
-      <c r="K290" s="40"/>
+      <c r="K290" s="41"/>
     </row>
     <row r="291" spans="1:11">
       <c r="A291" s="3"/>
@@ -6386,7 +6388,7 @@
       <c r="H291" s="3"/>
       <c r="I291" s="3"/>
       <c r="J291" s="3"/>
-      <c r="K291" s="40"/>
+      <c r="K291" s="41"/>
     </row>
     <row r="292" spans="1:11">
       <c r="A292" s="3"/>
@@ -6398,7 +6400,7 @@
       <c r="H292" s="3"/>
       <c r="I292" s="3"/>
       <c r="J292" s="3"/>
-      <c r="K292" s="40"/>
+      <c r="K292" s="41"/>
     </row>
     <row r="293" spans="1:11">
       <c r="A293" s="3"/>
@@ -6410,7 +6412,7 @@
       <c r="H293" s="3"/>
       <c r="I293" s="3"/>
       <c r="J293" s="3"/>
-      <c r="K293" s="40"/>
+      <c r="K293" s="41"/>
     </row>
     <row r="294" spans="1:11">
       <c r="A294" s="3"/>
@@ -6422,7 +6424,7 @@
       <c r="H294" s="3"/>
       <c r="I294" s="3"/>
       <c r="J294" s="3"/>
-      <c r="K294" s="40"/>
+      <c r="K294" s="41"/>
     </row>
     <row r="295" spans="1:11">
       <c r="A295" s="3"/>
@@ -6434,7 +6436,7 @@
       <c r="H295" s="3"/>
       <c r="I295" s="3"/>
       <c r="J295" s="3"/>
-      <c r="K295" s="40"/>
+      <c r="K295" s="41"/>
     </row>
     <row r="296" spans="1:11">
       <c r="A296" s="3"/>
@@ -6446,7 +6448,7 @@
       <c r="H296" s="3"/>
       <c r="I296" s="3"/>
       <c r="J296" s="3"/>
-      <c r="K296" s="40"/>
+      <c r="K296" s="41"/>
     </row>
     <row r="297" spans="1:11">
       <c r="A297" s="3"/>
@@ -6458,7 +6460,7 @@
       <c r="H297" s="3"/>
       <c r="I297" s="3"/>
       <c r="J297" s="3"/>
-      <c r="K297" s="40"/>
+      <c r="K297" s="41"/>
     </row>
     <row r="298" spans="1:11">
       <c r="A298" s="3"/>
@@ -6470,7 +6472,7 @@
       <c r="H298" s="3"/>
       <c r="I298" s="3"/>
       <c r="J298" s="3"/>
-      <c r="K298" s="40"/>
+      <c r="K298" s="41"/>
     </row>
     <row r="299" spans="1:11">
       <c r="A299" s="3"/>
@@ -6482,7 +6484,7 @@
       <c r="H299" s="3"/>
       <c r="I299" s="3"/>
       <c r="J299" s="3"/>
-      <c r="K299" s="40"/>
+      <c r="K299" s="41"/>
     </row>
     <row r="300" spans="1:11">
       <c r="A300" s="3"/>
@@ -6494,7 +6496,7 @@
       <c r="H300" s="3"/>
       <c r="I300" s="3"/>
       <c r="J300" s="3"/>
-      <c r="K300" s="40"/>
+      <c r="K300" s="41"/>
     </row>
     <row r="301" spans="1:11">
       <c r="A301" s="3"/>
@@ -6506,7 +6508,7 @@
       <c r="H301" s="3"/>
       <c r="I301" s="3"/>
       <c r="J301" s="3"/>
-      <c r="K301" s="40"/>
+      <c r="K301" s="41"/>
     </row>
     <row r="302" spans="1:11">
       <c r="A302" s="3"/>
@@ -6518,7 +6520,7 @@
       <c r="H302" s="3"/>
       <c r="I302" s="3"/>
       <c r="J302" s="3"/>
-      <c r="K302" s="40"/>
+      <c r="K302" s="41"/>
     </row>
     <row r="303" spans="1:11">
       <c r="A303" s="3"/>
@@ -6530,7 +6532,7 @@
       <c r="H303" s="3"/>
       <c r="I303" s="3"/>
       <c r="J303" s="3"/>
-      <c r="K303" s="40"/>
+      <c r="K303" s="41"/>
     </row>
     <row r="304" spans="1:11">
       <c r="A304" s="3"/>
@@ -6542,7 +6544,7 @@
       <c r="H304" s="3"/>
       <c r="I304" s="3"/>
       <c r="J304" s="3"/>
-      <c r="K304" s="40"/>
+      <c r="K304" s="41"/>
     </row>
     <row r="305" spans="1:11">
       <c r="A305" s="3"/>
@@ -6554,7 +6556,7 @@
       <c r="H305" s="3"/>
       <c r="I305" s="3"/>
       <c r="J305" s="3"/>
-      <c r="K305" s="40"/>
+      <c r="K305" s="41"/>
     </row>
     <row r="306" spans="1:11">
       <c r="A306" s="3"/>
@@ -6566,7 +6568,7 @@
       <c r="H306" s="3"/>
       <c r="I306" s="3"/>
       <c r="J306" s="3"/>
-      <c r="K306" s="40"/>
+      <c r="K306" s="41"/>
     </row>
     <row r="307" spans="1:11">
       <c r="A307" s="3"/>
@@ -6578,7 +6580,7 @@
       <c r="H307" s="3"/>
       <c r="I307" s="3"/>
       <c r="J307" s="3"/>
-      <c r="K307" s="40"/>
+      <c r="K307" s="41"/>
     </row>
     <row r="308" spans="1:11">
       <c r="A308" s="3"/>
@@ -6590,7 +6592,7 @@
       <c r="H308" s="3"/>
       <c r="I308" s="3"/>
       <c r="J308" s="3"/>
-      <c r="K308" s="40"/>
+      <c r="K308" s="41"/>
     </row>
     <row r="309" spans="1:11">
       <c r="A309" s="3"/>
@@ -6602,7 +6604,7 @@
       <c r="H309" s="3"/>
       <c r="I309" s="3"/>
       <c r="J309" s="3"/>
-      <c r="K309" s="40"/>
+      <c r="K309" s="41"/>
     </row>
     <row r="310" spans="1:11">
       <c r="A310" s="3"/>
@@ -6614,7 +6616,7 @@
       <c r="H310" s="3"/>
       <c r="I310" s="3"/>
       <c r="J310" s="3"/>
-      <c r="K310" s="40"/>
+      <c r="K310" s="41"/>
     </row>
     <row r="311" spans="1:11">
       <c r="A311" s="3"/>
@@ -6626,7 +6628,7 @@
       <c r="H311" s="3"/>
       <c r="I311" s="3"/>
       <c r="J311" s="3"/>
-      <c r="K311" s="40"/>
+      <c r="K311" s="41"/>
     </row>
     <row r="312" spans="1:11">
       <c r="A312" s="3"/>
@@ -6638,7 +6640,7 @@
       <c r="H312" s="3"/>
       <c r="I312" s="3"/>
       <c r="J312" s="3"/>
-      <c r="K312" s="40"/>
+      <c r="K312" s="41"/>
     </row>
     <row r="313" spans="1:11">
       <c r="A313" s="3"/>
@@ -6650,7 +6652,7 @@
       <c r="H313" s="3"/>
       <c r="I313" s="3"/>
       <c r="J313" s="3"/>
-      <c r="K313" s="40"/>
+      <c r="K313" s="41"/>
     </row>
     <row r="314" spans="1:11">
       <c r="A314" s="3"/>
@@ -6662,7 +6664,7 @@
       <c r="H314" s="3"/>
       <c r="I314" s="3"/>
       <c r="J314" s="3"/>
-      <c r="K314" s="40"/>
+      <c r="K314" s="41"/>
     </row>
     <row r="315" spans="1:11">
       <c r="A315" s="3"/>
@@ -6674,7 +6676,7 @@
       <c r="H315" s="3"/>
       <c r="I315" s="3"/>
       <c r="J315" s="3"/>
-      <c r="K315" s="40"/>
+      <c r="K315" s="41"/>
     </row>
     <row r="316" spans="1:11">
       <c r="A316" s="3"/>
@@ -6686,7 +6688,7 @@
       <c r="H316" s="3"/>
       <c r="I316" s="3"/>
       <c r="J316" s="3"/>
-      <c r="K316" s="40"/>
+      <c r="K316" s="41"/>
     </row>
     <row r="317" spans="1:11">
       <c r="A317" s="3"/>
@@ -6698,7 +6700,7 @@
       <c r="H317" s="3"/>
       <c r="I317" s="3"/>
       <c r="J317" s="3"/>
-      <c r="K317" s="40"/>
+      <c r="K317" s="41"/>
     </row>
     <row r="318" spans="1:11">
       <c r="A318" s="3"/>
@@ -6710,7 +6712,7 @@
       <c r="H318" s="3"/>
       <c r="I318" s="3"/>
       <c r="J318" s="3"/>
-      <c r="K318" s="40"/>
+      <c r="K318" s="41"/>
     </row>
     <row r="319" spans="1:11">
       <c r="A319" s="3"/>
@@ -6722,7 +6724,7 @@
       <c r="H319" s="3"/>
       <c r="I319" s="3"/>
       <c r="J319" s="3"/>
-      <c r="K319" s="40"/>
+      <c r="K319" s="41"/>
     </row>
     <row r="320" spans="1:11">
       <c r="A320" s="3"/>
@@ -6734,7 +6736,7 @@
       <c r="H320" s="3"/>
       <c r="I320" s="3"/>
       <c r="J320" s="3"/>
-      <c r="K320" s="40"/>
+      <c r="K320" s="41"/>
     </row>
     <row r="321" spans="1:11">
       <c r="A321" s="3"/>
@@ -6746,7 +6748,7 @@
       <c r="H321" s="3"/>
       <c r="I321" s="3"/>
       <c r="J321" s="3"/>
-      <c r="K321" s="40"/>
+      <c r="K321" s="41"/>
     </row>
     <row r="322" spans="1:11">
       <c r="A322" s="3"/>
@@ -6758,7 +6760,7 @@
       <c r="H322" s="3"/>
       <c r="I322" s="3"/>
       <c r="J322" s="3"/>
-      <c r="K322" s="40"/>
+      <c r="K322" s="41"/>
     </row>
     <row r="323" spans="1:11">
       <c r="A323" s="3"/>
@@ -6770,7 +6772,7 @@
       <c r="H323" s="3"/>
       <c r="I323" s="3"/>
       <c r="J323" s="3"/>
-      <c r="K323" s="40"/>
+      <c r="K323" s="41"/>
     </row>
     <row r="324" spans="1:11">
       <c r="A324" s="3"/>
@@ -6782,7 +6784,7 @@
       <c r="H324" s="3"/>
       <c r="I324" s="3"/>
       <c r="J324" s="3"/>
-      <c r="K324" s="40"/>
+      <c r="K324" s="41"/>
     </row>
     <row r="325" spans="1:11">
       <c r="A325" s="3"/>
@@ -6794,7 +6796,7 @@
       <c r="H325" s="3"/>
       <c r="I325" s="3"/>
       <c r="J325" s="3"/>
-      <c r="K325" s="40"/>
+      <c r="K325" s="41"/>
     </row>
     <row r="326" spans="1:11">
       <c r="A326" s="3"/>
@@ -6806,7 +6808,7 @@
       <c r="H326" s="3"/>
       <c r="I326" s="3"/>
       <c r="J326" s="3"/>
-      <c r="K326" s="40"/>
+      <c r="K326" s="41"/>
     </row>
     <row r="327" spans="1:11">
       <c r="A327" s="3"/>
@@ -6818,7 +6820,7 @@
       <c r="H327" s="3"/>
       <c r="I327" s="3"/>
       <c r="J327" s="3"/>
-      <c r="K327" s="40"/>
+      <c r="K327" s="41"/>
     </row>
     <row r="328" spans="1:11">
       <c r="A328" s="3"/>
@@ -6830,7 +6832,7 @@
       <c r="H328" s="3"/>
       <c r="I328" s="3"/>
       <c r="J328" s="3"/>
-      <c r="K328" s="40"/>
+      <c r="K328" s="41"/>
     </row>
     <row r="329" spans="1:11">
       <c r="A329" s="3"/>
@@ -6842,7 +6844,7 @@
       <c r="H329" s="3"/>
       <c r="I329" s="3"/>
       <c r="J329" s="3"/>
-      <c r="K329" s="40"/>
+      <c r="K329" s="41"/>
     </row>
     <row r="330" spans="1:11">
       <c r="A330" s="3"/>
@@ -6854,7 +6856,7 @@
       <c r="H330" s="3"/>
       <c r="I330" s="3"/>
       <c r="J330" s="3"/>
-      <c r="K330" s="40"/>
+      <c r="K330" s="41"/>
     </row>
     <row r="331" spans="1:11">
       <c r="A331" s="3"/>
@@ -6866,7 +6868,7 @@
       <c r="H331" s="3"/>
       <c r="I331" s="3"/>
       <c r="J331" s="3"/>
-      <c r="K331" s="40"/>
+      <c r="K331" s="41"/>
     </row>
     <row r="332" spans="1:11">
       <c r="A332" s="3"/>
@@ -6878,7 +6880,7 @@
       <c r="H332" s="3"/>
       <c r="I332" s="3"/>
       <c r="J332" s="3"/>
-      <c r="K332" s="40"/>
+      <c r="K332" s="41"/>
     </row>
     <row r="333" spans="1:11">
       <c r="A333" s="3"/>
@@ -6890,7 +6892,7 @@
       <c r="H333" s="3"/>
       <c r="I333" s="3"/>
       <c r="J333" s="3"/>
-      <c r="K333" s="40"/>
+      <c r="K333" s="41"/>
     </row>
     <row r="334" spans="1:11">
       <c r="A334" s="3"/>
@@ -6902,7 +6904,7 @@
       <c r="H334" s="3"/>
       <c r="I334" s="3"/>
       <c r="J334" s="3"/>
-      <c r="K334" s="40"/>
+      <c r="K334" s="41"/>
     </row>
     <row r="335" spans="1:11">
       <c r="A335" s="3"/>
@@ -6914,7 +6916,7 @@
       <c r="H335" s="3"/>
       <c r="I335" s="3"/>
       <c r="J335" s="3"/>
-      <c r="K335" s="40"/>
+      <c r="K335" s="41"/>
     </row>
     <row r="336" spans="1:11">
       <c r="A336" s="3"/>
@@ -6926,7 +6928,7 @@
       <c r="H336" s="3"/>
       <c r="I336" s="3"/>
       <c r="J336" s="3"/>
-      <c r="K336" s="40"/>
+      <c r="K336" s="41"/>
     </row>
     <row r="337" spans="1:11">
       <c r="A337" s="3"/>
@@ -6938,7 +6940,7 @@
       <c r="H337" s="3"/>
       <c r="I337" s="3"/>
       <c r="J337" s="3"/>
-      <c r="K337" s="40"/>
+      <c r="K337" s="41"/>
     </row>
     <row r="338" spans="1:11">
       <c r="A338" s="3"/>
@@ -6950,7 +6952,7 @@
       <c r="H338" s="3"/>
       <c r="I338" s="3"/>
       <c r="J338" s="3"/>
-      <c r="K338" s="40"/>
+      <c r="K338" s="41"/>
     </row>
     <row r="339" spans="1:11">
       <c r="A339" s="3"/>
@@ -6962,7 +6964,7 @@
       <c r="H339" s="3"/>
       <c r="I339" s="3"/>
       <c r="J339" s="3"/>
-      <c r="K339" s="40"/>
+      <c r="K339" s="41"/>
     </row>
     <row r="340" spans="1:11">
       <c r="A340" s="3"/>
@@ -6974,7 +6976,7 @@
       <c r="H340" s="3"/>
       <c r="I340" s="3"/>
       <c r="J340" s="3"/>
-      <c r="K340" s="40"/>
+      <c r="K340" s="41"/>
     </row>
     <row r="341" spans="1:11">
       <c r="A341" s="3"/>
@@ -6986,7 +6988,7 @@
       <c r="H341" s="3"/>
       <c r="I341" s="3"/>
       <c r="J341" s="3"/>
-      <c r="K341" s="40"/>
+      <c r="K341" s="41"/>
     </row>
     <row r="342" spans="1:11">
       <c r="A342" s="3"/>
@@ -6998,7 +7000,7 @@
       <c r="H342" s="3"/>
       <c r="I342" s="3"/>
       <c r="J342" s="3"/>
-      <c r="K342" s="40"/>
+      <c r="K342" s="41"/>
     </row>
     <row r="343" spans="1:11">
       <c r="A343" s="3"/>
@@ -7010,7 +7012,7 @@
       <c r="H343" s="3"/>
       <c r="I343" s="3"/>
       <c r="J343" s="3"/>
-      <c r="K343" s="40"/>
+      <c r="K343" s="41"/>
     </row>
     <row r="344" spans="1:11">
       <c r="A344" s="3"/>
@@ -7022,7 +7024,7 @@
       <c r="H344" s="3"/>
       <c r="I344" s="3"/>
       <c r="J344" s="3"/>
-      <c r="K344" s="40"/>
+      <c r="K344" s="41"/>
     </row>
     <row r="345" spans="1:11">
       <c r="A345" s="3"/>
@@ -7034,7 +7036,7 @@
       <c r="H345" s="3"/>
       <c r="I345" s="3"/>
       <c r="J345" s="3"/>
-      <c r="K345" s="40"/>
+      <c r="K345" s="41"/>
     </row>
     <row r="346" spans="1:11">
       <c r="A346" s="3"/>
@@ -7046,7 +7048,7 @@
       <c r="H346" s="3"/>
       <c r="I346" s="3"/>
       <c r="J346" s="3"/>
-      <c r="K346" s="40"/>
+      <c r="K346" s="41"/>
     </row>
     <row r="347" spans="1:11">
       <c r="A347" s="3"/>
@@ -7058,7 +7060,7 @@
       <c r="H347" s="3"/>
       <c r="I347" s="3"/>
       <c r="J347" s="3"/>
-      <c r="K347" s="40"/>
+      <c r="K347" s="41"/>
     </row>
     <row r="348" spans="1:11">
       <c r="A348" s="3"/>
@@ -7070,7 +7072,7 @@
       <c r="H348" s="3"/>
       <c r="I348" s="3"/>
       <c r="J348" s="3"/>
-      <c r="K348" s="40"/>
+      <c r="K348" s="41"/>
     </row>
     <row r="349" spans="1:11">
       <c r="A349" s="3"/>
@@ -7082,7 +7084,7 @@
       <c r="H349" s="3"/>
       <c r="I349" s="3"/>
       <c r="J349" s="3"/>
-      <c r="K349" s="40"/>
+      <c r="K349" s="41"/>
     </row>
     <row r="350" spans="1:11">
       <c r="A350" s="3"/>
@@ -7094,7 +7096,7 @@
       <c r="H350" s="3"/>
       <c r="I350" s="3"/>
       <c r="J350" s="3"/>
-      <c r="K350" s="40"/>
+      <c r="K350" s="41"/>
     </row>
     <row r="351" spans="1:11">
       <c r="A351" s="3"/>
@@ -7106,7 +7108,7 @@
       <c r="H351" s="3"/>
       <c r="I351" s="3"/>
       <c r="J351" s="3"/>
-      <c r="K351" s="40"/>
+      <c r="K351" s="41"/>
     </row>
     <row r="352" spans="1:11">
       <c r="A352" s="3"/>
@@ -7118,7 +7120,7 @@
       <c r="H352" s="3"/>
       <c r="I352" s="3"/>
       <c r="J352" s="3"/>
-      <c r="K352" s="40"/>
+      <c r="K352" s="41"/>
     </row>
     <row r="353" spans="1:11">
       <c r="A353" s="3"/>
@@ -7130,7 +7132,7 @@
       <c r="H353" s="3"/>
       <c r="I353" s="3"/>
       <c r="J353" s="3"/>
-      <c r="K353" s="40"/>
+      <c r="K353" s="41"/>
     </row>
     <row r="354" spans="1:11">
       <c r="A354" s="3"/>
@@ -7142,7 +7144,7 @@
       <c r="H354" s="3"/>
       <c r="I354" s="3"/>
       <c r="J354" s="3"/>
-      <c r="K354" s="40"/>
+      <c r="K354" s="41"/>
     </row>
     <row r="355" spans="1:11">
       <c r="A355" s="3"/>
@@ -7154,7 +7156,7 @@
       <c r="H355" s="3"/>
       <c r="I355" s="3"/>
       <c r="J355" s="3"/>
-      <c r="K355" s="40"/>
+      <c r="K355" s="41"/>
     </row>
     <row r="356" spans="1:11">
       <c r="A356" s="3"/>
@@ -7166,7 +7168,7 @@
       <c r="H356" s="3"/>
       <c r="I356" s="3"/>
       <c r="J356" s="3"/>
-      <c r="K356" s="40"/>
+      <c r="K356" s="41"/>
     </row>
     <row r="357" spans="1:11">
       <c r="A357" s="3"/>
@@ -7178,7 +7180,7 @@
       <c r="H357" s="3"/>
       <c r="I357" s="3"/>
       <c r="J357" s="3"/>
-      <c r="K357" s="40"/>
+      <c r="K357" s="41"/>
     </row>
     <row r="358" spans="1:11">
       <c r="A358" s="3"/>
@@ -7190,7 +7192,7 @@
       <c r="H358" s="3"/>
       <c r="I358" s="3"/>
       <c r="J358" s="3"/>
-      <c r="K358" s="40"/>
+      <c r="K358" s="41"/>
     </row>
     <row r="359" spans="1:11">
       <c r="A359" s="3"/>
@@ -7202,7 +7204,7 @@
       <c r="H359" s="3"/>
       <c r="I359" s="3"/>
       <c r="J359" s="3"/>
-      <c r="K359" s="40"/>
+      <c r="K359" s="41"/>
     </row>
     <row r="360" spans="1:11">
       <c r="A360" s="3"/>
@@ -7214,7 +7216,7 @@
       <c r="H360" s="3"/>
       <c r="I360" s="3"/>
       <c r="J360" s="3"/>
-      <c r="K360" s="40"/>
+      <c r="K360" s="41"/>
     </row>
     <row r="361" spans="1:11">
       <c r="A361" s="3"/>
@@ -7226,7 +7228,7 @@
       <c r="H361" s="3"/>
       <c r="I361" s="3"/>
       <c r="J361" s="3"/>
-      <c r="K361" s="40"/>
+      <c r="K361" s="41"/>
     </row>
     <row r="362" spans="1:11">
       <c r="A362" s="3"/>
@@ -7238,7 +7240,7 @@
       <c r="H362" s="3"/>
       <c r="I362" s="3"/>
       <c r="J362" s="3"/>
-      <c r="K362" s="40"/>
+      <c r="K362" s="41"/>
     </row>
     <row r="363" spans="1:11">
       <c r="A363" s="3"/>
@@ -7250,7 +7252,7 @@
       <c r="H363" s="3"/>
       <c r="I363" s="3"/>
       <c r="J363" s="3"/>
-      <c r="K363" s="40"/>
+      <c r="K363" s="41"/>
     </row>
     <row r="364" spans="1:11">
       <c r="A364" s="3"/>
@@ -7262,7 +7264,7 @@
       <c r="H364" s="3"/>
       <c r="I364" s="3"/>
       <c r="J364" s="3"/>
-      <c r="K364" s="40"/>
+      <c r="K364" s="41"/>
     </row>
     <row r="365" spans="1:11">
       <c r="A365" s="3"/>
@@ -7274,7 +7276,7 @@
       <c r="H365" s="3"/>
       <c r="I365" s="3"/>
       <c r="J365" s="3"/>
-      <c r="K365" s="40"/>
+      <c r="K365" s="41"/>
     </row>
     <row r="366" spans="1:11">
       <c r="A366" s="3"/>
@@ -7286,7 +7288,7 @@
       <c r="H366" s="3"/>
       <c r="I366" s="3"/>
       <c r="J366" s="3"/>
-      <c r="K366" s="40"/>
+      <c r="K366" s="41"/>
     </row>
     <row r="367" spans="1:11">
       <c r="A367" s="3"/>
@@ -7298,7 +7300,7 @@
       <c r="H367" s="3"/>
       <c r="I367" s="3"/>
       <c r="J367" s="3"/>
-      <c r="K367" s="40"/>
+      <c r="K367" s="41"/>
     </row>
     <row r="368" spans="1:11">
       <c r="A368" s="3"/>
@@ -7310,7 +7312,7 @@
       <c r="H368" s="3"/>
       <c r="I368" s="3"/>
       <c r="J368" s="3"/>
-      <c r="K368" s="40"/>
+      <c r="K368" s="41"/>
     </row>
     <row r="369" spans="1:11">
       <c r="A369" s="3"/>
@@ -7322,7 +7324,7 @@
       <c r="H369" s="3"/>
       <c r="I369" s="3"/>
       <c r="J369" s="3"/>
-      <c r="K369" s="40"/>
+      <c r="K369" s="41"/>
     </row>
     <row r="370" spans="1:11">
       <c r="A370" s="3"/>
@@ -7334,7 +7336,7 @@
       <c r="H370" s="3"/>
       <c r="I370" s="3"/>
       <c r="J370" s="3"/>
-      <c r="K370" s="40"/>
+      <c r="K370" s="41"/>
     </row>
     <row r="371" spans="1:11">
       <c r="A371" s="3"/>
@@ -7346,7 +7348,7 @@
       <c r="H371" s="3"/>
       <c r="I371" s="3"/>
       <c r="J371" s="3"/>
-      <c r="K371" s="40"/>
+      <c r="K371" s="41"/>
     </row>
     <row r="372" spans="1:11">
       <c r="A372" s="3"/>
@@ -7358,7 +7360,7 @@
       <c r="H372" s="3"/>
       <c r="I372" s="3"/>
       <c r="J372" s="3"/>
-      <c r="K372" s="40"/>
+      <c r="K372" s="41"/>
     </row>
     <row r="373" spans="1:11">
       <c r="A373" s="3"/>
@@ -7370,7 +7372,7 @@
       <c r="H373" s="3"/>
       <c r="I373" s="3"/>
       <c r="J373" s="3"/>
-      <c r="K373" s="40"/>
+      <c r="K373" s="41"/>
     </row>
     <row r="374" spans="1:11">
       <c r="A374" s="3"/>
@@ -7382,7 +7384,7 @@
       <c r="H374" s="3"/>
       <c r="I374" s="3"/>
       <c r="J374" s="3"/>
-      <c r="K374" s="40"/>
+      <c r="K374" s="41"/>
     </row>
     <row r="375" spans="1:11">
       <c r="A375" s="3"/>
@@ -7394,7 +7396,7 @@
       <c r="H375" s="3"/>
       <c r="I375" s="3"/>
       <c r="J375" s="3"/>
-      <c r="K375" s="40"/>
+      <c r="K375" s="41"/>
     </row>
     <row r="376" spans="1:11">
       <c r="A376" s="3"/>
@@ -7406,7 +7408,7 @@
       <c r="H376" s="3"/>
       <c r="I376" s="3"/>
       <c r="J376" s="3"/>
-      <c r="K376" s="40"/>
+      <c r="K376" s="41"/>
     </row>
     <row r="377" spans="1:11">
       <c r="A377" s="3"/>
@@ -7418,7 +7420,7 @@
       <c r="H377" s="3"/>
       <c r="I377" s="3"/>
       <c r="J377" s="3"/>
-      <c r="K377" s="40"/>
+      <c r="K377" s="41"/>
     </row>
     <row r="378" spans="1:11">
       <c r="A378" s="3"/>
@@ -7430,7 +7432,7 @@
       <c r="H378" s="3"/>
       <c r="I378" s="3"/>
       <c r="J378" s="3"/>
-      <c r="K378" s="40"/>
+      <c r="K378" s="41"/>
     </row>
     <row r="379" spans="1:11">
       <c r="A379" s="3"/>
@@ -7442,7 +7444,7 @@
       <c r="H379" s="3"/>
       <c r="I379" s="3"/>
       <c r="J379" s="3"/>
-      <c r="K379" s="40"/>
+      <c r="K379" s="41"/>
     </row>
     <row r="380" spans="1:11">
       <c r="A380" s="3"/>
@@ -7454,7 +7456,7 @@
       <c r="H380" s="3"/>
       <c r="I380" s="3"/>
       <c r="J380" s="3"/>
-      <c r="K380" s="40"/>
+      <c r="K380" s="41"/>
     </row>
     <row r="381" spans="1:11">
       <c r="A381" s="3"/>
@@ -7466,7 +7468,7 @@
       <c r="H381" s="3"/>
       <c r="I381" s="3"/>
       <c r="J381" s="3"/>
-      <c r="K381" s="40"/>
+      <c r="K381" s="41"/>
     </row>
     <row r="382" spans="1:11">
       <c r="A382" s="3"/>
@@ -7478,7 +7480,7 @@
       <c r="H382" s="3"/>
       <c r="I382" s="3"/>
       <c r="J382" s="3"/>
-      <c r="K382" s="40"/>
+      <c r="K382" s="41"/>
     </row>
     <row r="383" spans="1:11">
       <c r="A383" s="3"/>
@@ -7490,7 +7492,7 @@
       <c r="H383" s="3"/>
       <c r="I383" s="3"/>
       <c r="J383" s="3"/>
-      <c r="K383" s="40"/>
+      <c r="K383" s="41"/>
     </row>
     <row r="384" spans="1:11">
       <c r="A384" s="3"/>
@@ -7502,7 +7504,7 @@
       <c r="H384" s="3"/>
       <c r="I384" s="3"/>
       <c r="J384" s="3"/>
-      <c r="K384" s="40"/>
+      <c r="K384" s="41"/>
     </row>
     <row r="385" spans="1:11">
       <c r="A385" s="3"/>
@@ -7514,7 +7516,7 @@
       <c r="H385" s="3"/>
       <c r="I385" s="3"/>
       <c r="J385" s="3"/>
-      <c r="K385" s="40"/>
+      <c r="K385" s="41"/>
     </row>
     <row r="386" spans="1:11">
       <c r="A386" s="3"/>
@@ -7526,7 +7528,7 @@
       <c r="H386" s="3"/>
       <c r="I386" s="3"/>
       <c r="J386" s="3"/>
-      <c r="K386" s="40"/>
+      <c r="K386" s="41"/>
     </row>
     <row r="387" spans="1:11">
       <c r="A387" s="3"/>
@@ -7538,7 +7540,7 @@
       <c r="H387" s="3"/>
       <c r="I387" s="3"/>
       <c r="J387" s="3"/>
-      <c r="K387" s="40"/>
+      <c r="K387" s="41"/>
     </row>
     <row r="388" spans="1:11">
       <c r="A388" s="3"/>
@@ -7550,7 +7552,7 @@
       <c r="H388" s="3"/>
       <c r="I388" s="3"/>
       <c r="J388" s="3"/>
-      <c r="K388" s="40"/>
+      <c r="K388" s="41"/>
     </row>
     <row r="389" spans="1:11">
       <c r="A389" s="3"/>
@@ -7562,7 +7564,7 @@
       <c r="H389" s="3"/>
       <c r="I389" s="3"/>
       <c r="J389" s="3"/>
-      <c r="K389" s="40"/>
+      <c r="K389" s="41"/>
     </row>
     <row r="390" spans="1:11">
       <c r="A390" s="3"/>
@@ -7574,7 +7576,7 @@
       <c r="H390" s="3"/>
       <c r="I390" s="3"/>
       <c r="J390" s="3"/>
-      <c r="K390" s="40"/>
+      <c r="K390" s="41"/>
     </row>
     <row r="391" spans="1:11">
       <c r="A391" s="3"/>
@@ -7586,7 +7588,7 @@
       <c r="H391" s="3"/>
       <c r="I391" s="3"/>
       <c r="J391" s="3"/>
-      <c r="K391" s="40"/>
+      <c r="K391" s="41"/>
     </row>
     <row r="392" spans="1:11">
       <c r="A392" s="3"/>
@@ -7598,7 +7600,7 @@
       <c r="H392" s="3"/>
       <c r="I392" s="3"/>
       <c r="J392" s="3"/>
-      <c r="K392" s="40"/>
+      <c r="K392" s="41"/>
     </row>
     <row r="393" spans="1:11">
       <c r="A393" s="3"/>
@@ -7610,7 +7612,7 @@
       <c r="H393" s="3"/>
       <c r="I393" s="3"/>
       <c r="J393" s="3"/>
-      <c r="K393" s="40"/>
+      <c r="K393" s="41"/>
     </row>
     <row r="394" spans="1:11">
       <c r="A394" s="3"/>
@@ -7622,7 +7624,7 @@
       <c r="H394" s="3"/>
       <c r="I394" s="3"/>
       <c r="J394" s="3"/>
-      <c r="K394" s="40"/>
+      <c r="K394" s="41"/>
     </row>
     <row r="395" spans="1:11">
       <c r="A395" s="3"/>
@@ -7634,7 +7636,7 @@
       <c r="H395" s="3"/>
       <c r="I395" s="3"/>
       <c r="J395" s="3"/>
-      <c r="K395" s="40"/>
+      <c r="K395" s="41"/>
     </row>
     <row r="396" spans="1:11">
       <c r="A396" s="3"/>
@@ -7646,7 +7648,7 @@
       <c r="H396" s="3"/>
       <c r="I396" s="3"/>
       <c r="J396" s="3"/>
-      <c r="K396" s="40"/>
+      <c r="K396" s="41"/>
     </row>
     <row r="397" spans="1:11">
       <c r="A397" s="3"/>
@@ -7658,7 +7660,7 @@
       <c r="H397" s="3"/>
       <c r="I397" s="3"/>
       <c r="J397" s="3"/>
-      <c r="K397" s="40"/>
+      <c r="K397" s="41"/>
     </row>
     <row r="398" spans="1:11">
       <c r="A398" s="3"/>
@@ -7670,7 +7672,7 @@
       <c r="H398" s="3"/>
       <c r="I398" s="3"/>
       <c r="J398" s="3"/>
-      <c r="K398" s="40"/>
+      <c r="K398" s="41"/>
     </row>
     <row r="399" spans="1:11">
       <c r="A399" s="3"/>
@@ -7682,7 +7684,7 @@
       <c r="H399" s="3"/>
       <c r="I399" s="3"/>
       <c r="J399" s="3"/>
-      <c r="K399" s="40"/>
+      <c r="K399" s="41"/>
     </row>
     <row r="400" spans="1:11">
       <c r="A400" s="3"/>
@@ -7694,7 +7696,7 @@
       <c r="H400" s="3"/>
       <c r="I400" s="3"/>
       <c r="J400" s="3"/>
-      <c r="K400" s="40"/>
+      <c r="K400" s="41"/>
     </row>
     <row r="401" spans="1:11">
       <c r="A401" s="3"/>
@@ -7706,7 +7708,7 @@
       <c r="H401" s="3"/>
       <c r="I401" s="3"/>
       <c r="J401" s="3"/>
-      <c r="K401" s="40"/>
+      <c r="K401" s="41"/>
     </row>
     <row r="402" spans="1:11">
       <c r="A402" s="3"/>
@@ -7718,7 +7720,7 @@
       <c r="H402" s="3"/>
       <c r="I402" s="3"/>
       <c r="J402" s="3"/>
-      <c r="K402" s="40"/>
+      <c r="K402" s="41"/>
     </row>
     <row r="403" spans="1:11">
       <c r="A403" s="3"/>
@@ -7730,7 +7732,7 @@
       <c r="H403" s="3"/>
       <c r="I403" s="3"/>
       <c r="J403" s="3"/>
-      <c r="K403" s="40"/>
+      <c r="K403" s="41"/>
     </row>
     <row r="404" spans="1:11">
       <c r="A404" s="3"/>
@@ -7742,7 +7744,7 @@
       <c r="H404" s="3"/>
       <c r="I404" s="3"/>
       <c r="J404" s="3"/>
-      <c r="K404" s="40"/>
+      <c r="K404" s="41"/>
     </row>
     <row r="405" spans="1:11">
       <c r="A405" s="3"/>
@@ -7754,7 +7756,7 @@
       <c r="H405" s="3"/>
       <c r="I405" s="3"/>
       <c r="J405" s="3"/>
-      <c r="K405" s="40"/>
+      <c r="K405" s="41"/>
     </row>
     <row r="406" spans="1:11">
       <c r="A406" s="3"/>
@@ -7766,7 +7768,7 @@
       <c r="H406" s="3"/>
       <c r="I406" s="3"/>
       <c r="J406" s="3"/>
-      <c r="K406" s="40"/>
+      <c r="K406" s="41"/>
     </row>
     <row r="407" spans="1:11">
       <c r="A407" s="3"/>
@@ -7778,7 +7780,7 @@
       <c r="H407" s="3"/>
       <c r="I407" s="3"/>
       <c r="J407" s="3"/>
-      <c r="K407" s="40"/>
+      <c r="K407" s="41"/>
     </row>
     <row r="408" spans="1:11">
       <c r="A408" s="3"/>
@@ -7790,7 +7792,7 @@
       <c r="H408" s="3"/>
       <c r="I408" s="3"/>
       <c r="J408" s="3"/>
-      <c r="K408" s="40"/>
+      <c r="K408" s="41"/>
     </row>
     <row r="409" spans="1:11">
       <c r="A409" s="3"/>
@@ -7802,7 +7804,7 @@
       <c r="H409" s="3"/>
       <c r="I409" s="3"/>
       <c r="J409" s="3"/>
-      <c r="K409" s="40"/>
+      <c r="K409" s="41"/>
     </row>
     <row r="410" spans="1:11">
       <c r="A410" s="3"/>
@@ -7814,7 +7816,7 @@
       <c r="H410" s="3"/>
       <c r="I410" s="3"/>
       <c r="J410" s="3"/>
-      <c r="K410" s="40"/>
+      <c r="K410" s="41"/>
     </row>
     <row r="411" spans="1:11">
       <c r="A411" s="3"/>
@@ -7826,7 +7828,7 @@
       <c r="H411" s="3"/>
       <c r="I411" s="3"/>
       <c r="J411" s="3"/>
-      <c r="K411" s="40"/>
+      <c r="K411" s="41"/>
     </row>
     <row r="412" spans="1:11">
       <c r="A412" s="3"/>
@@ -7838,7 +7840,7 @@
       <c r="H412" s="3"/>
       <c r="I412" s="3"/>
       <c r="J412" s="3"/>
-      <c r="K412" s="40"/>
+      <c r="K412" s="41"/>
     </row>
     <row r="413" spans="1:11">
       <c r="A413" s="3"/>
@@ -7850,7 +7852,7 @@
       <c r="H413" s="3"/>
       <c r="I413" s="3"/>
       <c r="J413" s="3"/>
-      <c r="K413" s="40"/>
+      <c r="K413" s="41"/>
     </row>
     <row r="414" spans="1:11">
       <c r="A414" s="3"/>
@@ -7862,7 +7864,7 @@
       <c r="H414" s="3"/>
       <c r="I414" s="3"/>
       <c r="J414" s="3"/>
-      <c r="K414" s="40"/>
+      <c r="K414" s="41"/>
     </row>
     <row r="415" spans="1:11">
       <c r="A415" s="3"/>
@@ -7874,7 +7876,7 @@
       <c r="H415" s="3"/>
       <c r="I415" s="3"/>
       <c r="J415" s="3"/>
-      <c r="K415" s="40"/>
+      <c r="K415" s="41"/>
     </row>
     <row r="416" spans="1:11">
       <c r="A416" s="3"/>
@@ -7886,7 +7888,7 @@
       <c r="H416" s="3"/>
       <c r="I416" s="3"/>
       <c r="J416" s="3"/>
-      <c r="K416" s="40"/>
+      <c r="K416" s="41"/>
     </row>
     <row r="417" spans="1:11">
       <c r="A417" s="3"/>
@@ -7898,7 +7900,7 @@
       <c r="H417" s="3"/>
       <c r="I417" s="3"/>
       <c r="J417" s="3"/>
-      <c r="K417" s="40"/>
+      <c r="K417" s="41"/>
     </row>
     <row r="418" spans="1:11">
       <c r="A418" s="3"/>
@@ -7910,7 +7912,7 @@
       <c r="H418" s="3"/>
       <c r="I418" s="3"/>
       <c r="J418" s="3"/>
-      <c r="K418" s="40"/>
+      <c r="K418" s="41"/>
     </row>
     <row r="419" spans="1:11">
       <c r="A419" s="3"/>
@@ -7922,7 +7924,7 @@
       <c r="H419" s="3"/>
       <c r="I419" s="3"/>
       <c r="J419" s="3"/>
-      <c r="K419" s="40"/>
+      <c r="K419" s="41"/>
     </row>
     <row r="420" spans="1:11">
       <c r="A420" s="3"/>
@@ -7934,7 +7936,7 @@
       <c r="H420" s="3"/>
       <c r="I420" s="3"/>
       <c r="J420" s="3"/>
-      <c r="K420" s="40"/>
+      <c r="K420" s="41"/>
     </row>
     <row r="421" spans="1:11">
       <c r="A421" s="3"/>
@@ -7946,7 +7948,7 @@
       <c r="H421" s="3"/>
       <c r="I421" s="3"/>
       <c r="J421" s="3"/>
-      <c r="K421" s="40"/>
+      <c r="K421" s="41"/>
     </row>
     <row r="422" spans="1:11">
       <c r="A422" s="3"/>
@@ -7958,7 +7960,7 @@
       <c r="H422" s="3"/>
       <c r="I422" s="3"/>
       <c r="J422" s="3"/>
-      <c r="K422" s="40"/>
+      <c r="K422" s="41"/>
     </row>
     <row r="423" spans="1:11">
       <c r="A423" s="3"/>
@@ -7970,7 +7972,7 @@
       <c r="H423" s="3"/>
       <c r="I423" s="3"/>
       <c r="J423" s="3"/>
-      <c r="K423" s="40"/>
+      <c r="K423" s="41"/>
     </row>
     <row r="424" spans="1:11">
       <c r="A424" s="3"/>
@@ -7982,7 +7984,7 @@
       <c r="H424" s="3"/>
       <c r="I424" s="3"/>
       <c r="J424" s="3"/>
-      <c r="K424" s="40"/>
+      <c r="K424" s="41"/>
     </row>
     <row r="425" spans="1:11">
       <c r="A425" s="3"/>
@@ -7994,7 +7996,7 @@
       <c r="H425" s="3"/>
       <c r="I425" s="3"/>
       <c r="J425" s="3"/>
-      <c r="K425" s="40"/>
+      <c r="K425" s="41"/>
     </row>
     <row r="426" spans="1:11">
       <c r="A426" s="3"/>
@@ -8006,7 +8008,7 @@
       <c r="H426" s="3"/>
       <c r="I426" s="3"/>
       <c r="J426" s="3"/>
-      <c r="K426" s="40"/>
+      <c r="K426" s="41"/>
     </row>
     <row r="427" spans="1:11">
       <c r="A427" s="3"/>
@@ -8018,7 +8020,7 @@
       <c r="H427" s="3"/>
       <c r="I427" s="3"/>
       <c r="J427" s="3"/>
-      <c r="K427" s="40"/>
+      <c r="K427" s="41"/>
     </row>
     <row r="428" spans="1:11">
       <c r="A428" s="3"/>
@@ -8030,7 +8032,7 @@
       <c r="H428" s="3"/>
       <c r="I428" s="3"/>
       <c r="J428" s="3"/>
-      <c r="K428" s="40"/>
+      <c r="K428" s="41"/>
     </row>
     <row r="429" spans="1:11">
       <c r="A429" s="3"/>
@@ -8042,7 +8044,7 @@
       <c r="H429" s="3"/>
       <c r="I429" s="3"/>
       <c r="J429" s="3"/>
-      <c r="K429" s="40"/>
+      <c r="K429" s="41"/>
     </row>
     <row r="430" spans="1:11">
       <c r="A430" s="3"/>
@@ -8054,7 +8056,7 @@
       <c r="H430" s="3"/>
       <c r="I430" s="3"/>
       <c r="J430" s="3"/>
-      <c r="K430" s="40"/>
+      <c r="K430" s="41"/>
     </row>
     <row r="431" spans="1:11">
       <c r="A431" s="3"/>
@@ -8066,7 +8068,7 @@
       <c r="H431" s="3"/>
       <c r="I431" s="3"/>
       <c r="J431" s="3"/>
-      <c r="K431" s="40"/>
+      <c r="K431" s="41"/>
     </row>
     <row r="432" spans="1:11">
       <c r="A432" s="3"/>
@@ -8078,7 +8080,7 @@
       <c r="H432" s="3"/>
       <c r="I432" s="3"/>
       <c r="J432" s="3"/>
-      <c r="K432" s="40"/>
+      <c r="K432" s="41"/>
     </row>
     <row r="433" spans="1:11">
       <c r="A433" s="3"/>
@@ -8090,7 +8092,7 @@
       <c r="H433" s="3"/>
       <c r="I433" s="3"/>
       <c r="J433" s="3"/>
-      <c r="K433" s="40"/>
+      <c r="K433" s="41"/>
     </row>
     <row r="434" spans="1:11">
       <c r="A434" s="3"/>
@@ -8102,7 +8104,7 @@
       <c r="H434" s="3"/>
       <c r="I434" s="3"/>
       <c r="J434" s="3"/>
-      <c r="K434" s="40"/>
+      <c r="K434" s="41"/>
     </row>
     <row r="435" spans="1:11">
       <c r="A435" s="3"/>
@@ -8114,7 +8116,7 @@
       <c r="H435" s="3"/>
       <c r="I435" s="3"/>
       <c r="J435" s="3"/>
-      <c r="K435" s="40"/>
+      <c r="K435" s="41"/>
     </row>
     <row r="436" spans="1:11">
       <c r="A436" s="3"/>
@@ -8126,7 +8128,7 @@
       <c r="H436" s="3"/>
       <c r="I436" s="3"/>
       <c r="J436" s="3"/>
-      <c r="K436" s="40"/>
+      <c r="K436" s="41"/>
     </row>
     <row r="437" spans="1:11">
       <c r="A437" s="3"/>
@@ -8138,7 +8140,7 @@
       <c r="H437" s="3"/>
       <c r="I437" s="3"/>
       <c r="J437" s="3"/>
-      <c r="K437" s="40"/>
+      <c r="K437" s="41"/>
     </row>
     <row r="438" spans="1:11">
       <c r="A438" s="3"/>
@@ -8150,7 +8152,7 @@
       <c r="H438" s="3"/>
       <c r="I438" s="3"/>
       <c r="J438" s="3"/>
-      <c r="K438" s="40"/>
+      <c r="K438" s="41"/>
     </row>
     <row r="439" spans="1:11">
       <c r="A439" s="3"/>
@@ -8162,7 +8164,7 @@
       <c r="H439" s="3"/>
       <c r="I439" s="3"/>
       <c r="J439" s="3"/>
-      <c r="K439" s="40"/>
+      <c r="K439" s="41"/>
     </row>
     <row r="440" spans="1:11">
       <c r="A440" s="3"/>
@@ -8174,7 +8176,7 @@
       <c r="H440" s="3"/>
       <c r="I440" s="3"/>
       <c r="J440" s="3"/>
-      <c r="K440" s="40"/>
+      <c r="K440" s="41"/>
     </row>
     <row r="441" spans="1:11">
       <c r="A441" s="3"/>
@@ -8186,7 +8188,7 @@
       <c r="H441" s="3"/>
       <c r="I441" s="3"/>
       <c r="J441" s="3"/>
-      <c r="K441" s="40"/>
+      <c r="K441" s="41"/>
     </row>
     <row r="442" spans="1:11">
       <c r="A442" s="3"/>
@@ -8198,7 +8200,7 @@
       <c r="H442" s="3"/>
       <c r="I442" s="3"/>
       <c r="J442" s="3"/>
-      <c r="K442" s="40"/>
+      <c r="K442" s="41"/>
     </row>
     <row r="443" spans="1:11">
       <c r="A443" s="3"/>
@@ -8210,7 +8212,7 @@
       <c r="H443" s="3"/>
       <c r="I443" s="3"/>
       <c r="J443" s="3"/>
-      <c r="K443" s="40"/>
+      <c r="K443" s="41"/>
     </row>
     <row r="444" spans="1:11">
       <c r="A444" s="3"/>
@@ -8222,7 +8224,7 @@
       <c r="H444" s="3"/>
       <c r="I444" s="3"/>
       <c r="J444" s="3"/>
-      <c r="K444" s="40"/>
+      <c r="K444" s="41"/>
     </row>
     <row r="445" spans="1:11">
       <c r="A445" s="3"/>
@@ -8234,7 +8236,7 @@
       <c r="H445" s="3"/>
       <c r="I445" s="3"/>
       <c r="J445" s="3"/>
-      <c r="K445" s="40"/>
+      <c r="K445" s="41"/>
     </row>
     <row r="446" spans="1:11">
       <c r="A446" s="3"/>
@@ -8246,7 +8248,7 @@
       <c r="H446" s="3"/>
       <c r="I446" s="3"/>
       <c r="J446" s="3"/>
-      <c r="K446" s="40"/>
+      <c r="K446" s="41"/>
     </row>
     <row r="447" spans="1:11">
       <c r="A447" s="3"/>
@@ -8258,7 +8260,7 @@
       <c r="H447" s="3"/>
       <c r="I447" s="3"/>
       <c r="J447" s="3"/>
-      <c r="K447" s="40"/>
+      <c r="K447" s="41"/>
     </row>
     <row r="448" spans="1:11">
       <c r="A448" s="3"/>
@@ -8270,7 +8272,7 @@
       <c r="H448" s="3"/>
       <c r="I448" s="3"/>
       <c r="J448" s="3"/>
-      <c r="K448" s="40"/>
+      <c r="K448" s="41"/>
     </row>
     <row r="449" spans="1:11">
       <c r="A449" s="3"/>
@@ -8282,7 +8284,7 @@
       <c r="H449" s="3"/>
       <c r="I449" s="3"/>
       <c r="J449" s="3"/>
-      <c r="K449" s="40"/>
+      <c r="K449" s="41"/>
     </row>
     <row r="450" spans="1:11">
       <c r="A450" s="3"/>
@@ -8294,7 +8296,7 @@
       <c r="H450" s="3"/>
       <c r="I450" s="3"/>
       <c r="J450" s="3"/>
-      <c r="K450" s="40"/>
+      <c r="K450" s="41"/>
     </row>
     <row r="451" spans="1:11">
       <c r="A451" s="3"/>
@@ -8306,7 +8308,7 @@
       <c r="H451" s="3"/>
       <c r="I451" s="3"/>
       <c r="J451" s="3"/>
-      <c r="K451" s="40"/>
+      <c r="K451" s="41"/>
     </row>
     <row r="452" spans="1:11">
       <c r="A452" s="3"/>
@@ -8318,7 +8320,7 @@
       <c r="H452" s="3"/>
       <c r="I452" s="3"/>
       <c r="J452" s="3"/>
-      <c r="K452" s="40"/>
+      <c r="K452" s="41"/>
     </row>
     <row r="453" spans="1:11">
       <c r="A453" s="3"/>
@@ -8330,7 +8332,7 @@
       <c r="H453" s="3"/>
       <c r="I453" s="3"/>
       <c r="J453" s="3"/>
-      <c r="K453" s="40"/>
+      <c r="K453" s="41"/>
     </row>
     <row r="454" spans="1:11">
       <c r="A454" s="3"/>
@@ -8342,7 +8344,7 @@
       <c r="H454" s="3"/>
       <c r="I454" s="3"/>
       <c r="J454" s="3"/>
-      <c r="K454" s="40"/>
+      <c r="K454" s="41"/>
     </row>
     <row r="455" spans="1:11">
       <c r="A455" s="3"/>
@@ -8354,7 +8356,7 @@
       <c r="H455" s="3"/>
       <c r="I455" s="3"/>
       <c r="J455" s="3"/>
-      <c r="K455" s="40"/>
+      <c r="K455" s="41"/>
     </row>
     <row r="456" spans="1:11">
       <c r="A456" s="3"/>
@@ -8366,7 +8368,7 @@
       <c r="H456" s="3"/>
       <c r="I456" s="3"/>
       <c r="J456" s="3"/>
-      <c r="K456" s="40"/>
+      <c r="K456" s="41"/>
     </row>
     <row r="457" spans="1:11">
       <c r="A457" s="3"/>
@@ -8378,7 +8380,7 @@
       <c r="H457" s="3"/>
       <c r="I457" s="3"/>
       <c r="J457" s="3"/>
-      <c r="K457" s="40"/>
+      <c r="K457" s="41"/>
     </row>
     <row r="458" spans="1:11">
       <c r="A458" s="3"/>
@@ -8390,7 +8392,7 @@
       <c r="H458" s="3"/>
       <c r="I458" s="3"/>
       <c r="J458" s="3"/>
-      <c r="K458" s="40"/>
+      <c r="K458" s="41"/>
     </row>
     <row r="459" spans="1:11">
       <c r="A459" s="3"/>
@@ -8402,7 +8404,7 @@
       <c r="H459" s="3"/>
       <c r="I459" s="3"/>
       <c r="J459" s="3"/>
-      <c r="K459" s="40"/>
+      <c r="K459" s="41"/>
     </row>
     <row r="460" spans="1:11">
       <c r="A460" s="3"/>
@@ -8414,7 +8416,7 @@
       <c r="H460" s="3"/>
       <c r="I460" s="3"/>
       <c r="J460" s="3"/>
-      <c r="K460" s="40"/>
+      <c r="K460" s="41"/>
     </row>
     <row r="461" spans="1:11">
       <c r="A461" s="3"/>
@@ -8426,7 +8428,7 @@
       <c r="H461" s="3"/>
       <c r="I461" s="3"/>
       <c r="J461" s="3"/>
-      <c r="K461" s="40"/>
+      <c r="K461" s="41"/>
     </row>
     <row r="462" spans="1:11">
       <c r="A462" s="3"/>
@@ -8438,7 +8440,7 @@
       <c r="H462" s="3"/>
       <c r="I462" s="3"/>
       <c r="J462" s="3"/>
-      <c r="K462" s="40"/>
+      <c r="K462" s="41"/>
     </row>
     <row r="463" spans="1:11">
       <c r="A463" s="3"/>
@@ -8450,7 +8452,7 @@
       <c r="H463" s="3"/>
       <c r="I463" s="3"/>
       <c r="J463" s="3"/>
-      <c r="K463" s="40"/>
+      <c r="K463" s="41"/>
     </row>
     <row r="464" spans="1:2">
       <c r="A464" s="3"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易计划202112.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易计划202112.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59">
   <si>
     <t>计划编码</t>
   </si>
@@ -91,8 +91,37 @@
     <t>森特股份</t>
   </si>
   <si>
-    <t>执行失败
-(股票向反向突破，趋势发生变化，不再满足执行条件)</t>
+    <r>
+      <t>执行失败</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue Regular"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
+      <t>股票向反向突破，趋势发生变化，不再满足执行条件</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue Regular"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
   </si>
   <si>
     <t>JH_00004</t>
@@ -146,7 +175,50 @@
     <t>-</t>
   </si>
   <si>
+    <t>执行失败
+(不满足新的执行条件)</t>
+  </si>
+  <si>
     <t>JH_00011</t>
+  </si>
+  <si>
+    <t>JH_00012</t>
+  </si>
+  <si>
+    <t>002932</t>
+  </si>
+  <si>
+    <t>明德生物</t>
+  </si>
+  <si>
+    <t>JH_00013</t>
+  </si>
+  <si>
+    <t>万盛股份</t>
+  </si>
+  <si>
+    <t>JH_00014</t>
+  </si>
+  <si>
+    <t>百龙创园</t>
+  </si>
+  <si>
+    <t>JH_00015</t>
+  </si>
+  <si>
+    <t>003040</t>
+  </si>
+  <si>
+    <t>楚天龙</t>
+  </si>
+  <si>
+    <t>JH_00016</t>
+  </si>
+  <si>
+    <t>002585</t>
+  </si>
+  <si>
+    <t>双星新材</t>
   </si>
   <si>
     <t>000069</t>
@@ -156,14 +228,15 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
+  <numFmts count="6">
+    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="177" formatCode="0.00_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="34">
+  <fonts count="32">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -202,15 +275,14 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <name val="Helvetica Neue Regular"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="方正书宋_GBK"/>
-      <charset val="134"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue Regular"/>
+      <charset val="0"/>
     </font>
     <font>
       <sz val="10"/>
@@ -220,19 +292,8 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Helvetica Neue Regular"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF1E2024"/>
-      <name val="Helvetica Neue Regular"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="方正书宋_GBK"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
       <charset val="134"/>
     </font>
     <font>
@@ -243,8 +304,8 @@
     </font>
     <font>
       <sz val="10"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
+      <color rgb="FF000000"/>
+      <name val="方正书宋_GBK"/>
       <charset val="134"/>
     </font>
     <font>
@@ -761,152 +822,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="28" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -943,88 +1004,124 @@
     <xf numFmtId="49" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="10" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1033,25 +1130,34 @@
     <xf numFmtId="10" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" quotePrefix="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
@@ -2225,9 +2331,11 @@
   <dimension ref="A1:BA543"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C1" sqref="C1:C2"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.82142857142857" defaultRowHeight="12.4"/>
@@ -2277,102 +2385,102 @@
       <c r="J1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="35" t="s">
+      <c r="K1" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="36" t="s">
+      <c r="L1" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="42" t="s">
+      <c r="M1" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="43"/>
-      <c r="O1" s="43"/>
-      <c r="P1" s="43"/>
-      <c r="Q1" s="43"/>
-      <c r="R1" s="43"/>
-      <c r="S1" s="43"/>
-      <c r="T1" s="43"/>
-      <c r="V1" s="47"/>
-      <c r="W1" s="47"/>
-      <c r="X1" s="47"/>
-      <c r="Y1" s="47"/>
-      <c r="Z1" s="47"/>
-      <c r="AA1" s="47"/>
-      <c r="AB1" s="47"/>
-      <c r="AC1" s="47"/>
-      <c r="AE1" s="47"/>
-      <c r="AF1" s="47"/>
-      <c r="AG1" s="47"/>
-      <c r="AH1" s="47"/>
-      <c r="AI1" s="47"/>
-      <c r="AJ1" s="47"/>
-      <c r="AK1" s="47"/>
-      <c r="AM1" s="47"/>
-      <c r="AN1" s="47"/>
-      <c r="AO1" s="47"/>
-      <c r="AP1" s="47"/>
-      <c r="AQ1" s="47"/>
-      <c r="AR1" s="47"/>
-      <c r="AS1" s="47"/>
-      <c r="AU1" s="47"/>
-      <c r="AV1" s="47"/>
-      <c r="AW1" s="47"/>
-      <c r="AX1" s="47"/>
-      <c r="AY1" s="47"/>
-      <c r="AZ1" s="47"/>
-      <c r="BA1" s="47"/>
+      <c r="N1" s="55"/>
+      <c r="O1" s="55"/>
+      <c r="P1" s="55"/>
+      <c r="Q1" s="55"/>
+      <c r="R1" s="55"/>
+      <c r="S1" s="55"/>
+      <c r="T1" s="55"/>
+      <c r="V1" s="61"/>
+      <c r="W1" s="61"/>
+      <c r="X1" s="61"/>
+      <c r="Y1" s="61"/>
+      <c r="Z1" s="61"/>
+      <c r="AA1" s="61"/>
+      <c r="AB1" s="61"/>
+      <c r="AC1" s="61"/>
+      <c r="AE1" s="61"/>
+      <c r="AF1" s="61"/>
+      <c r="AG1" s="61"/>
+      <c r="AH1" s="61"/>
+      <c r="AI1" s="61"/>
+      <c r="AJ1" s="61"/>
+      <c r="AK1" s="61"/>
+      <c r="AM1" s="61"/>
+      <c r="AN1" s="61"/>
+      <c r="AO1" s="61"/>
+      <c r="AP1" s="61"/>
+      <c r="AQ1" s="61"/>
+      <c r="AR1" s="61"/>
+      <c r="AS1" s="61"/>
+      <c r="AU1" s="61"/>
+      <c r="AV1" s="61"/>
+      <c r="AW1" s="61"/>
+      <c r="AX1" s="61"/>
+      <c r="AY1" s="61"/>
+      <c r="AZ1" s="61"/>
+      <c r="BA1" s="61"/>
     </row>
     <row r="2" ht="23.6" spans="1:53">
       <c r="A2" s="6"/>
       <c r="B2" s="7"/>
       <c r="C2" s="10"/>
       <c r="D2" s="11"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
       <c r="H2" s="9"/>
       <c r="I2" s="9"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="44"/>
-      <c r="N2" s="43"/>
-      <c r="O2" s="43"/>
-      <c r="P2" s="43"/>
-      <c r="Q2" s="43"/>
-      <c r="R2" s="43"/>
-      <c r="S2" s="43"/>
-      <c r="T2" s="43"/>
-      <c r="V2" s="47"/>
-      <c r="W2" s="47"/>
-      <c r="X2" s="47"/>
-      <c r="Y2" s="47"/>
-      <c r="Z2" s="47"/>
-      <c r="AA2" s="47"/>
-      <c r="AB2" s="47"/>
-      <c r="AC2" s="47"/>
-      <c r="AE2" s="47"/>
-      <c r="AF2" s="47"/>
-      <c r="AG2" s="47"/>
-      <c r="AH2" s="47"/>
-      <c r="AI2" s="47"/>
-      <c r="AJ2" s="47"/>
-      <c r="AK2" s="47"/>
-      <c r="AM2" s="47"/>
-      <c r="AN2" s="47"/>
-      <c r="AO2" s="47"/>
-      <c r="AP2" s="47"/>
-      <c r="AQ2" s="47"/>
-      <c r="AR2" s="47"/>
-      <c r="AS2" s="47"/>
-      <c r="AU2" s="47"/>
-      <c r="AV2" s="47"/>
-      <c r="AW2" s="47"/>
-      <c r="AX2" s="47"/>
-      <c r="AY2" s="47"/>
-      <c r="AZ2" s="47"/>
-      <c r="BA2" s="47"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="42"/>
+      <c r="M2" s="56"/>
+      <c r="N2" s="55"/>
+      <c r="O2" s="55"/>
+      <c r="P2" s="55"/>
+      <c r="Q2" s="55"/>
+      <c r="R2" s="55"/>
+      <c r="S2" s="55"/>
+      <c r="T2" s="55"/>
+      <c r="V2" s="61"/>
+      <c r="W2" s="61"/>
+      <c r="X2" s="61"/>
+      <c r="Y2" s="61"/>
+      <c r="Z2" s="61"/>
+      <c r="AA2" s="61"/>
+      <c r="AB2" s="61"/>
+      <c r="AC2" s="61"/>
+      <c r="AE2" s="61"/>
+      <c r="AF2" s="61"/>
+      <c r="AG2" s="61"/>
+      <c r="AH2" s="61"/>
+      <c r="AI2" s="61"/>
+      <c r="AJ2" s="61"/>
+      <c r="AK2" s="61"/>
+      <c r="AM2" s="61"/>
+      <c r="AN2" s="61"/>
+      <c r="AO2" s="61"/>
+      <c r="AP2" s="61"/>
+      <c r="AQ2" s="61"/>
+      <c r="AR2" s="61"/>
+      <c r="AS2" s="61"/>
+      <c r="AU2" s="61"/>
+      <c r="AV2" s="61"/>
+      <c r="AW2" s="61"/>
+      <c r="AX2" s="61"/>
+      <c r="AY2" s="61"/>
+      <c r="AZ2" s="61"/>
+      <c r="BA2" s="61"/>
     </row>
     <row r="3" customFormat="1" ht="23.6" spans="1:53">
       <c r="A3" s="12" t="s">
@@ -2387,74 +2495,74 @@
       <c r="D3" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="34">
+      <c r="E3" s="37">
         <v>34.12</v>
       </c>
-      <c r="F3" s="34">
+      <c r="F3" s="37">
         <v>32.53</v>
       </c>
-      <c r="G3" s="34">
+      <c r="G3" s="37">
         <v>39.33</v>
       </c>
-      <c r="H3" s="34">
-        <f t="shared" ref="H3:H13" si="0">(E3-F3)*100</f>
+      <c r="H3" s="37">
+        <f t="shared" ref="H3:H18" si="0">(E3-F3)*100</f>
         <v>159</v>
       </c>
-      <c r="I3" s="34">
+      <c r="I3" s="37">
         <f>FLOOR(1000/(E3-F3),100)</f>
         <v>600</v>
       </c>
-      <c r="J3" s="37">
+      <c r="J3" s="43">
         <f t="shared" ref="J3:J11" si="1">(G3-E3)/(E3-F3)</f>
         <v>3.27672955974844</v>
       </c>
-      <c r="K3" s="38">
-        <f t="shared" ref="K3:K13" si="2">(E3-F3)/E3</f>
+      <c r="K3" s="44">
+        <f t="shared" ref="K3:K14" si="2">(E3-F3)/E3</f>
         <v>0.0466002344665884</v>
       </c>
-      <c r="L3" s="39">
+      <c r="L3" s="45">
         <f t="shared" ref="L3:L11" si="3">(G3-E3)/E3</f>
         <v>0.152696365767878</v>
       </c>
-      <c r="M3" s="27" t="s">
+      <c r="M3" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="N3" s="43"/>
-      <c r="O3" s="43"/>
-      <c r="P3" s="43"/>
-      <c r="Q3" s="43"/>
-      <c r="R3" s="43"/>
-      <c r="S3" s="43"/>
-      <c r="T3" s="43"/>
-      <c r="V3" s="47"/>
-      <c r="W3" s="47"/>
-      <c r="X3" s="47"/>
-      <c r="Y3" s="47"/>
-      <c r="Z3" s="47"/>
-      <c r="AA3" s="47"/>
-      <c r="AB3" s="47"/>
-      <c r="AC3" s="47"/>
-      <c r="AE3" s="47"/>
-      <c r="AF3" s="47"/>
-      <c r="AG3" s="47"/>
-      <c r="AH3" s="47"/>
-      <c r="AI3" s="47"/>
-      <c r="AJ3" s="47"/>
-      <c r="AK3" s="47"/>
-      <c r="AM3" s="47"/>
-      <c r="AN3" s="47"/>
-      <c r="AO3" s="47"/>
-      <c r="AP3" s="47"/>
-      <c r="AQ3" s="47"/>
-      <c r="AR3" s="47"/>
-      <c r="AS3" s="47"/>
-      <c r="AU3" s="47"/>
-      <c r="AV3" s="47"/>
-      <c r="AW3" s="47"/>
-      <c r="AX3" s="47"/>
-      <c r="AY3" s="47"/>
-      <c r="AZ3" s="47"/>
-      <c r="BA3" s="47"/>
+      <c r="N3" s="55"/>
+      <c r="O3" s="55"/>
+      <c r="P3" s="55"/>
+      <c r="Q3" s="55"/>
+      <c r="R3" s="55"/>
+      <c r="S3" s="55"/>
+      <c r="T3" s="55"/>
+      <c r="V3" s="61"/>
+      <c r="W3" s="61"/>
+      <c r="X3" s="61"/>
+      <c r="Y3" s="61"/>
+      <c r="Z3" s="61"/>
+      <c r="AA3" s="61"/>
+      <c r="AB3" s="61"/>
+      <c r="AC3" s="61"/>
+      <c r="AE3" s="61"/>
+      <c r="AF3" s="61"/>
+      <c r="AG3" s="61"/>
+      <c r="AH3" s="61"/>
+      <c r="AI3" s="61"/>
+      <c r="AJ3" s="61"/>
+      <c r="AK3" s="61"/>
+      <c r="AM3" s="61"/>
+      <c r="AN3" s="61"/>
+      <c r="AO3" s="61"/>
+      <c r="AP3" s="61"/>
+      <c r="AQ3" s="61"/>
+      <c r="AR3" s="61"/>
+      <c r="AS3" s="61"/>
+      <c r="AU3" s="61"/>
+      <c r="AV3" s="61"/>
+      <c r="AW3" s="61"/>
+      <c r="AX3" s="61"/>
+      <c r="AY3" s="61"/>
+      <c r="AZ3" s="61"/>
+      <c r="BA3" s="61"/>
     </row>
     <row r="4" customFormat="1" ht="23.6" spans="1:53">
       <c r="A4" s="12" t="s">
@@ -2463,274 +2571,274 @@
       <c r="B4" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="13" t="s">
         <v>20</v>
       </c>
       <c r="D4" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="34">
+      <c r="E4" s="37">
         <v>32.65</v>
       </c>
-      <c r="F4" s="34">
+      <c r="F4" s="37">
         <v>30.89</v>
       </c>
-      <c r="G4" s="34">
+      <c r="G4" s="37">
         <v>36.22</v>
       </c>
-      <c r="H4" s="34">
+      <c r="H4" s="37">
         <f t="shared" si="0"/>
         <v>176</v>
       </c>
-      <c r="I4" s="34">
+      <c r="I4" s="37">
         <f>FLOOR(1000/(E4-F4),100)</f>
         <v>500</v>
       </c>
-      <c r="J4" s="37">
+      <c r="J4" s="43">
         <f t="shared" si="1"/>
         <v>2.02840909090909</v>
       </c>
-      <c r="K4" s="38">
+      <c r="K4" s="44">
         <f t="shared" si="2"/>
         <v>0.0539050535987748</v>
       </c>
-      <c r="L4" s="39">
+      <c r="L4" s="45">
         <f t="shared" si="3"/>
         <v>0.109341500765697</v>
       </c>
-      <c r="M4" s="27" t="s">
+      <c r="M4" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="N4" s="43"/>
-      <c r="O4" s="43"/>
-      <c r="P4" s="43"/>
-      <c r="Q4" s="43"/>
-      <c r="R4" s="43"/>
-      <c r="S4" s="43"/>
-      <c r="T4" s="43"/>
-      <c r="V4" s="47"/>
-      <c r="W4" s="47"/>
-      <c r="X4" s="47"/>
-      <c r="Y4" s="47"/>
-      <c r="Z4" s="47"/>
-      <c r="AA4" s="47"/>
-      <c r="AB4" s="47"/>
-      <c r="AC4" s="47"/>
-      <c r="AE4" s="47"/>
-      <c r="AF4" s="47"/>
-      <c r="AG4" s="47"/>
-      <c r="AH4" s="47"/>
-      <c r="AI4" s="47"/>
-      <c r="AJ4" s="47"/>
-      <c r="AK4" s="47"/>
-      <c r="AM4" s="47"/>
-      <c r="AN4" s="47"/>
-      <c r="AO4" s="47"/>
-      <c r="AP4" s="47"/>
-      <c r="AQ4" s="47"/>
-      <c r="AR4" s="47"/>
-      <c r="AS4" s="47"/>
-      <c r="AU4" s="47"/>
-      <c r="AV4" s="47"/>
-      <c r="AW4" s="47"/>
-      <c r="AX4" s="47"/>
-      <c r="AY4" s="47"/>
-      <c r="AZ4" s="47"/>
-      <c r="BA4" s="47"/>
-    </row>
-    <row r="5" s="1" customFormat="1" ht="36" spans="1:14">
+      <c r="N4" s="55"/>
+      <c r="O4" s="55"/>
+      <c r="P4" s="55"/>
+      <c r="Q4" s="55"/>
+      <c r="R4" s="55"/>
+      <c r="S4" s="55"/>
+      <c r="T4" s="55"/>
+      <c r="V4" s="61"/>
+      <c r="W4" s="61"/>
+      <c r="X4" s="61"/>
+      <c r="Y4" s="61"/>
+      <c r="Z4" s="61"/>
+      <c r="AA4" s="61"/>
+      <c r="AB4" s="61"/>
+      <c r="AC4" s="61"/>
+      <c r="AE4" s="61"/>
+      <c r="AF4" s="61"/>
+      <c r="AG4" s="61"/>
+      <c r="AH4" s="61"/>
+      <c r="AI4" s="61"/>
+      <c r="AJ4" s="61"/>
+      <c r="AK4" s="61"/>
+      <c r="AM4" s="61"/>
+      <c r="AN4" s="61"/>
+      <c r="AO4" s="61"/>
+      <c r="AP4" s="61"/>
+      <c r="AQ4" s="61"/>
+      <c r="AR4" s="61"/>
+      <c r="AS4" s="61"/>
+      <c r="AU4" s="61"/>
+      <c r="AV4" s="61"/>
+      <c r="AW4" s="61"/>
+      <c r="AX4" s="61"/>
+      <c r="AY4" s="61"/>
+      <c r="AZ4" s="61"/>
+      <c r="BA4" s="61"/>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="38" spans="1:14">
       <c r="A5" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="17">
+      <c r="B5" s="16">
         <v>44539</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="34">
+      <c r="E5" s="37">
         <v>51.15</v>
       </c>
-      <c r="F5" s="34">
+      <c r="F5" s="37">
         <v>46.61</v>
       </c>
-      <c r="G5" s="34">
+      <c r="G5" s="37">
         <v>59.59</v>
       </c>
-      <c r="H5" s="34">
+      <c r="H5" s="37">
         <f t="shared" si="0"/>
         <v>454</v>
       </c>
-      <c r="I5" s="34">
+      <c r="I5" s="37">
         <f>FLOOR(1000/(E5-F5),100)</f>
         <v>200</v>
       </c>
-      <c r="J5" s="37">
+      <c r="J5" s="43">
         <f t="shared" si="1"/>
         <v>1.85903083700441</v>
       </c>
-      <c r="K5" s="38">
+      <c r="K5" s="44">
         <f t="shared" si="2"/>
         <v>0.0887585532746823</v>
       </c>
-      <c r="L5" s="39">
+      <c r="L5" s="45">
         <f t="shared" si="3"/>
         <v>0.165004887585533</v>
       </c>
-      <c r="M5" s="45" t="s">
+      <c r="M5" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="N5" s="46"/>
-    </row>
-    <row r="6" s="1" customFormat="1" spans="1:14">
+      <c r="N5" s="58"/>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="13" spans="1:14">
       <c r="A6" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="17">
+      <c r="B6" s="16">
         <v>44539</v>
       </c>
-      <c r="C6" s="19">
+      <c r="C6" s="18">
         <v>600779</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="D6" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="31">
+      <c r="E6" s="38">
         <v>143.8</v>
       </c>
-      <c r="F6" s="31">
+      <c r="F6" s="38">
         <v>137.88</v>
       </c>
-      <c r="G6" s="31">
+      <c r="G6" s="38">
         <v>158.48</v>
       </c>
-      <c r="H6" s="34">
+      <c r="H6" s="37">
         <f t="shared" si="0"/>
         <v>592.000000000002</v>
       </c>
-      <c r="I6" s="34">
+      <c r="I6" s="37">
         <f t="shared" ref="I6:I13" si="4">FLOOR(1000/(E6-F6),100)</f>
         <v>100</v>
       </c>
-      <c r="J6" s="37">
+      <c r="J6" s="43">
         <f t="shared" si="1"/>
         <v>2.47972972972972</v>
       </c>
-      <c r="K6" s="38">
+      <c r="K6" s="44">
         <f t="shared" si="2"/>
         <v>0.0411682892906816</v>
       </c>
-      <c r="L6" s="39">
+      <c r="L6" s="45">
         <f t="shared" si="3"/>
         <v>0.102086230876217</v>
       </c>
-      <c r="M6" s="27" t="s">
+      <c r="M6" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="N6" s="46"/>
-    </row>
-    <row r="7" s="1" customFormat="1" ht="36" spans="1:14">
+      <c r="N6" s="58"/>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="38" spans="1:14">
       <c r="A7" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="17">
+      <c r="B7" s="16">
         <v>44539</v>
       </c>
-      <c r="C7" s="19">
+      <c r="C7" s="18">
         <v>600803</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="31">
+      <c r="E7" s="38">
         <v>20.44</v>
       </c>
-      <c r="F7" s="31">
+      <c r="F7" s="38">
         <v>19.09</v>
       </c>
-      <c r="G7" s="31">
+      <c r="G7" s="38">
         <v>23.43</v>
       </c>
-      <c r="H7" s="34">
+      <c r="H7" s="37">
         <f t="shared" si="0"/>
         <v>135</v>
       </c>
-      <c r="I7" s="34">
+      <c r="I7" s="37">
         <f t="shared" si="4"/>
         <v>700</v>
       </c>
-      <c r="J7" s="37">
+      <c r="J7" s="43">
         <f t="shared" si="1"/>
         <v>2.21481481481481</v>
       </c>
-      <c r="K7" s="38">
+      <c r="K7" s="44">
         <f t="shared" si="2"/>
         <v>0.0660469667318983</v>
       </c>
-      <c r="L7" s="39">
+      <c r="L7" s="45">
         <f t="shared" si="3"/>
         <v>0.146281800391389</v>
       </c>
-      <c r="M7" s="45" t="s">
+      <c r="M7" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="N7" s="46"/>
-    </row>
-    <row r="8" s="1" customFormat="1" spans="1:14">
+      <c r="N7" s="58"/>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="13" spans="1:14">
       <c r="A8" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="17">
+      <c r="B8" s="16">
         <v>44539</v>
       </c>
-      <c r="C8" s="21">
+      <c r="C8" s="20">
         <v>600032</v>
       </c>
       <c r="D8" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="29">
+      <c r="E8" s="12">
         <v>17.19</v>
       </c>
-      <c r="F8" s="29">
+      <c r="F8" s="12">
         <v>15.5</v>
       </c>
-      <c r="G8" s="29">
+      <c r="G8" s="12">
         <v>20.72</v>
       </c>
-      <c r="H8" s="34">
+      <c r="H8" s="37">
         <f t="shared" si="0"/>
         <v>169</v>
       </c>
-      <c r="I8" s="34">
+      <c r="I8" s="37">
         <f t="shared" si="4"/>
         <v>500</v>
       </c>
-      <c r="J8" s="37">
+      <c r="J8" s="43">
         <f t="shared" si="1"/>
         <v>2.0887573964497</v>
       </c>
-      <c r="K8" s="38">
+      <c r="K8" s="44">
         <f t="shared" si="2"/>
         <v>0.0983129726585225</v>
       </c>
-      <c r="L8" s="39">
+      <c r="L8" s="45">
         <f t="shared" si="3"/>
         <v>0.205351948807446</v>
       </c>
-      <c r="M8" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="N8" s="46"/>
-    </row>
-    <row r="9" s="2" customFormat="1" spans="1:13">
+      <c r="M8" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="N8" s="58"/>
+    </row>
+    <row r="9" s="2" customFormat="1" ht="13" spans="1:13">
       <c r="A9" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="17">
+      <c r="B9" s="16">
         <v>44539</v>
       </c>
       <c r="C9" s="22">
@@ -2739,82 +2847,82 @@
       <c r="D9" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="29">
+      <c r="E9" s="12">
         <v>64.3</v>
       </c>
-      <c r="F9" s="29">
+      <c r="F9" s="12">
         <v>58.51</v>
       </c>
-      <c r="G9" s="29">
+      <c r="G9" s="12">
         <v>65.72</v>
       </c>
-      <c r="H9" s="34">
+      <c r="H9" s="37">
         <f t="shared" si="0"/>
         <v>579</v>
       </c>
-      <c r="I9" s="34">
+      <c r="I9" s="37">
         <f t="shared" si="4"/>
         <v>100</v>
       </c>
-      <c r="J9" s="37">
+      <c r="J9" s="43">
         <f t="shared" si="1"/>
         <v>0.24525043177893</v>
       </c>
-      <c r="K9" s="38">
+      <c r="K9" s="44">
         <f t="shared" si="2"/>
         <v>0.0900466562986003</v>
       </c>
-      <c r="L9" s="39">
+      <c r="L9" s="45">
         <f t="shared" si="3"/>
         <v>0.0220839813374806</v>
       </c>
-      <c r="M9" s="27" t="s">
+      <c r="M9" s="19" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" s="2" customFormat="1" spans="1:13">
+    <row r="10" s="2" customFormat="1" ht="13" spans="1:13">
       <c r="A10" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="17">
+      <c r="B10" s="16">
         <v>44539</v>
       </c>
-      <c r="C10" s="24">
+      <c r="C10" s="20">
         <v>601677</v>
       </c>
-      <c r="D10" s="25" t="s">
+      <c r="D10" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="E10" s="29">
+      <c r="E10" s="12">
         <v>39.15</v>
       </c>
-      <c r="F10" s="29">
+      <c r="F10" s="12">
         <v>35.91</v>
       </c>
-      <c r="G10" s="29">
+      <c r="G10" s="12">
         <v>44.28</v>
       </c>
-      <c r="H10" s="34">
+      <c r="H10" s="37">
         <f t="shared" si="0"/>
         <v>324</v>
       </c>
-      <c r="I10" s="34">
+      <c r="I10" s="37">
         <f t="shared" si="4"/>
         <v>300</v>
       </c>
-      <c r="J10" s="37">
+      <c r="J10" s="43">
         <f t="shared" si="1"/>
         <v>1.58333333333333</v>
       </c>
-      <c r="K10" s="38">
+      <c r="K10" s="44">
         <f t="shared" si="2"/>
         <v>0.0827586206896552</v>
       </c>
-      <c r="L10" s="39">
+      <c r="L10" s="45">
         <f t="shared" si="3"/>
         <v>0.131034482758621</v>
       </c>
-      <c r="M10" s="27" t="s">
+      <c r="M10" s="19" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2822,624 +2930,779 @@
       <c r="A11" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="B11" s="17">
+      <c r="B11" s="16">
         <v>44539</v>
       </c>
-      <c r="C11" s="48" t="s">
+      <c r="C11" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="25" t="s">
+      <c r="D11" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="E11" s="29">
+      <c r="E11" s="12">
         <v>117.8</v>
       </c>
-      <c r="F11" s="29">
+      <c r="F11" s="12">
         <v>111.17</v>
       </c>
-      <c r="G11" s="29">
+      <c r="G11" s="12">
         <v>131.73</v>
       </c>
-      <c r="H11" s="34">
+      <c r="H11" s="37">
         <f t="shared" si="0"/>
         <v>663</v>
       </c>
-      <c r="I11" s="34">
+      <c r="I11" s="37">
         <f t="shared" si="4"/>
         <v>100</v>
       </c>
-      <c r="J11" s="37">
+      <c r="J11" s="43">
         <f t="shared" si="1"/>
         <v>2.10105580693816</v>
       </c>
-      <c r="K11" s="38">
+      <c r="K11" s="44">
         <f t="shared" si="2"/>
         <v>0.0562818336162988</v>
       </c>
-      <c r="L11" s="39">
+      <c r="L11" s="45">
         <f t="shared" si="3"/>
         <v>0.118251273344652</v>
       </c>
-      <c r="M11" s="27" t="s">
+      <c r="M11" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="N11" s="46"/>
-    </row>
-    <row r="12" s="2" customFormat="1" ht="13" spans="1:13">
+      <c r="N11" s="58"/>
+    </row>
+    <row r="12" s="2" customFormat="1" ht="24" spans="1:13">
       <c r="A12" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="B12" s="17">
+      <c r="B12" s="16">
         <v>44542</v>
       </c>
-      <c r="C12" s="26">
+      <c r="C12" s="12">
         <v>600955</v>
       </c>
-      <c r="D12" s="27" t="s">
+      <c r="D12" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="E12" s="29">
+      <c r="E12" s="12">
         <v>49.4</v>
       </c>
-      <c r="F12" s="29">
+      <c r="F12" s="12">
         <v>46.7</v>
       </c>
-      <c r="G12" s="29" t="s">
+      <c r="G12" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="H12" s="34">
+      <c r="H12" s="37">
         <f t="shared" si="0"/>
         <v>270</v>
       </c>
-      <c r="I12" s="34">
+      <c r="I12" s="37">
         <f t="shared" si="4"/>
         <v>300</v>
       </c>
-      <c r="J12" s="37" t="s">
+      <c r="J12" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="K12" s="38">
+      <c r="K12" s="44">
         <f t="shared" si="2"/>
         <v>0.054655870445344</v>
       </c>
-      <c r="L12" s="39" t="s">
+      <c r="L12" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="M12" s="27" t="s">
-        <v>28</v>
+      <c r="M12" s="57" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" ht="13" spans="1:13">
       <c r="A13" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="B13" s="28">
+        <v>44</v>
+      </c>
+      <c r="B13" s="16">
         <v>44542</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="13" t="s">
         <v>20</v>
       </c>
       <c r="D13" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="34">
+      <c r="E13" s="37">
         <v>37.73</v>
       </c>
-      <c r="F13" s="34">
+      <c r="F13" s="37">
         <v>33.38</v>
       </c>
-      <c r="G13" s="34">
+      <c r="G13" s="37">
         <v>46.05</v>
       </c>
-      <c r="H13" s="34">
+      <c r="H13" s="37">
         <f t="shared" si="0"/>
         <v>434.999999999999</v>
       </c>
-      <c r="I13" s="34">
+      <c r="I13" s="37">
         <f t="shared" si="4"/>
         <v>200</v>
       </c>
-      <c r="J13" s="37">
-        <f>(G13-E13)/(E13-F13)</f>
+      <c r="J13" s="43">
+        <f t="shared" ref="J13:J18" si="5">(G13-E13)/(E13-F13)</f>
         <v>1.91264367816092</v>
       </c>
-      <c r="K13" s="38">
+      <c r="K13" s="44">
         <f t="shared" si="2"/>
         <v>0.115292870394911</v>
       </c>
-      <c r="L13" s="39">
-        <f>(G13-E13)/E13</f>
+      <c r="L13" s="45">
+        <f t="shared" ref="L13:L18" si="6">(G13-E13)/E13</f>
         <v>0.220514179697853</v>
       </c>
-      <c r="M13" s="27" t="s">
+      <c r="M13" s="19" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" s="1" customFormat="1" spans="1:13">
-      <c r="A14" s="29"/>
-      <c r="B14" s="28"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="29"/>
-      <c r="J14" s="37"/>
-      <c r="K14" s="38"/>
-      <c r="L14" s="39"/>
-      <c r="M14" s="27"/>
-    </row>
-    <row r="15" s="1" customFormat="1" spans="1:13">
-      <c r="A15" s="29"/>
-      <c r="B15" s="28"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="29"/>
-      <c r="H15" s="34"/>
-      <c r="I15" s="29"/>
-      <c r="J15" s="37"/>
-      <c r="K15" s="38"/>
-      <c r="L15" s="39"/>
-      <c r="M15" s="27"/>
-    </row>
-    <row r="16" s="1" customFormat="1" spans="1:13">
-      <c r="A16" s="29"/>
-      <c r="B16" s="28"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="34"/>
-      <c r="I16" s="29"/>
-      <c r="J16" s="37"/>
-      <c r="K16" s="38"/>
-      <c r="L16" s="39"/>
-      <c r="M16" s="27"/>
-    </row>
-    <row r="17" s="1" customFormat="1" spans="1:13">
-      <c r="A17" s="29"/>
-      <c r="B17" s="28"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="34"/>
-      <c r="I17" s="29"/>
-      <c r="J17" s="37"/>
-      <c r="K17" s="38"/>
-      <c r="L17" s="39"/>
-      <c r="M17" s="27"/>
-    </row>
-    <row r="18" s="1" customFormat="1" spans="1:13">
-      <c r="A18" s="29"/>
-      <c r="B18" s="28"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="34"/>
-      <c r="I18" s="29"/>
-      <c r="J18" s="37"/>
-      <c r="K18" s="38"/>
-      <c r="L18" s="39"/>
-      <c r="M18" s="27"/>
+    <row r="14" s="1" customFormat="1" ht="13" spans="1:13">
+      <c r="A14" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="25">
+        <v>44525</v>
+      </c>
+      <c r="C14" s="63" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" s="33">
+        <v>70.98</v>
+      </c>
+      <c r="F14" s="33">
+        <v>66.88</v>
+      </c>
+      <c r="G14" s="33">
+        <v>84.94</v>
+      </c>
+      <c r="H14" s="39">
+        <f t="shared" si="0"/>
+        <v>410.000000000001</v>
+      </c>
+      <c r="I14" s="37">
+        <f>FLOOR(1000/(E14-F14),100)</f>
+        <v>200</v>
+      </c>
+      <c r="J14" s="43">
+        <f t="shared" si="5"/>
+        <v>3.40487804878048</v>
+      </c>
+      <c r="K14" s="44">
+        <f t="shared" ref="K14:K18" si="7">(E14-F14)/E14</f>
+        <v>0.0577627500704425</v>
+      </c>
+      <c r="L14" s="46">
+        <f t="shared" si="6"/>
+        <v>0.196675119752043</v>
+      </c>
+      <c r="M14" s="59" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" s="1" customFormat="1" ht="13" spans="1:13">
+      <c r="A15" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="27">
+        <v>44529</v>
+      </c>
+      <c r="C15" s="28">
+        <v>603010</v>
+      </c>
+      <c r="D15" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" s="32">
+        <v>29.77</v>
+      </c>
+      <c r="F15" s="32">
+        <v>27.72</v>
+      </c>
+      <c r="G15" s="32">
+        <v>34.93</v>
+      </c>
+      <c r="H15" s="39">
+        <f t="shared" si="0"/>
+        <v>205</v>
+      </c>
+      <c r="I15" s="32">
+        <f t="shared" ref="I15:I17" si="8">FLOOR(300/(E15-F15),100)</f>
+        <v>100</v>
+      </c>
+      <c r="J15" s="47">
+        <f t="shared" si="5"/>
+        <v>2.51707317073171</v>
+      </c>
+      <c r="K15" s="48">
+        <f t="shared" si="7"/>
+        <v>0.0688612697346322</v>
+      </c>
+      <c r="L15" s="46">
+        <f t="shared" si="6"/>
+        <v>0.173328854551562</v>
+      </c>
+      <c r="M15" s="60" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" s="1" customFormat="1" ht="13" spans="1:13">
+      <c r="A16" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" s="25">
+        <v>44522</v>
+      </c>
+      <c r="C16" s="28">
+        <v>605016</v>
+      </c>
+      <c r="D16" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" s="33">
+        <v>30.66</v>
+      </c>
+      <c r="F16" s="33">
+        <v>29.35</v>
+      </c>
+      <c r="G16" s="33">
+        <v>38.71</v>
+      </c>
+      <c r="H16" s="40">
+        <f t="shared" si="0"/>
+        <v>131</v>
+      </c>
+      <c r="I16" s="33">
+        <f t="shared" si="8"/>
+        <v>200</v>
+      </c>
+      <c r="J16" s="49">
+        <f t="shared" si="5"/>
+        <v>6.14503816793894</v>
+      </c>
+      <c r="K16" s="50">
+        <f t="shared" si="7"/>
+        <v>0.042726679712981</v>
+      </c>
+      <c r="L16" s="51">
+        <f t="shared" si="6"/>
+        <v>0.262557077625571</v>
+      </c>
+      <c r="M16" s="59" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" s="1" customFormat="1" ht="13" spans="1:13">
+      <c r="A17" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" s="30">
+        <v>44517</v>
+      </c>
+      <c r="C17" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="E17" s="39">
+        <v>26.2</v>
+      </c>
+      <c r="F17" s="39">
+        <v>24.68</v>
+      </c>
+      <c r="G17" s="39">
+        <v>32.49</v>
+      </c>
+      <c r="H17" s="39">
+        <f t="shared" si="0"/>
+        <v>152</v>
+      </c>
+      <c r="I17" s="39">
+        <f t="shared" si="8"/>
+        <v>100</v>
+      </c>
+      <c r="J17" s="47">
+        <f t="shared" si="5"/>
+        <v>4.13815789473685</v>
+      </c>
+      <c r="K17" s="48">
+        <f t="shared" si="7"/>
+        <v>0.0580152671755725</v>
+      </c>
+      <c r="L17" s="46">
+        <f t="shared" si="6"/>
+        <v>0.240076335877863</v>
+      </c>
+      <c r="M17" s="60" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" s="1" customFormat="1" ht="13" spans="1:13">
+      <c r="A18" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B18" s="27">
+        <v>44533</v>
+      </c>
+      <c r="C18" s="63" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="E18" s="32">
+        <v>28.82</v>
+      </c>
+      <c r="F18" s="32">
+        <v>26.31</v>
+      </c>
+      <c r="G18" s="32">
+        <v>32.36</v>
+      </c>
+      <c r="H18" s="39">
+        <f t="shared" si="0"/>
+        <v>251</v>
+      </c>
+      <c r="I18" s="32">
+        <f>FLOOR(304/(E18-F18),100)</f>
+        <v>100</v>
+      </c>
+      <c r="J18" s="47">
+        <f t="shared" si="5"/>
+        <v>1.41035856573705</v>
+      </c>
+      <c r="K18" s="48">
+        <f t="shared" si="7"/>
+        <v>0.0870922970159612</v>
+      </c>
+      <c r="L18" s="46">
+        <f t="shared" si="6"/>
+        <v>0.122831367106176</v>
+      </c>
+      <c r="M18" s="60" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="19" s="2" customFormat="1" spans="1:13">
-      <c r="A19" s="29"/>
-      <c r="B19" s="28"/>
+      <c r="A19" s="32"/>
+      <c r="B19" s="27"/>
       <c r="C19" s="26"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="34"/>
-      <c r="I19" s="29"/>
-      <c r="J19" s="37"/>
-      <c r="K19" s="38"/>
-      <c r="L19" s="39"/>
-      <c r="M19" s="27"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="39"/>
+      <c r="I19" s="32"/>
+      <c r="J19" s="47"/>
+      <c r="K19" s="48"/>
+      <c r="L19" s="46"/>
+      <c r="M19" s="29"/>
     </row>
     <row r="20" s="2" customFormat="1" spans="1:13">
-      <c r="A20" s="29"/>
-      <c r="B20" s="28"/>
+      <c r="A20" s="32"/>
+      <c r="B20" s="27"/>
       <c r="C20" s="26"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="34"/>
-      <c r="I20" s="29"/>
-      <c r="J20" s="37"/>
-      <c r="K20" s="38"/>
-      <c r="L20" s="39"/>
-      <c r="M20" s="27"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="39"/>
+      <c r="I20" s="32"/>
+      <c r="J20" s="47"/>
+      <c r="K20" s="48"/>
+      <c r="L20" s="46"/>
+      <c r="M20" s="29"/>
     </row>
     <row r="21" s="2" customFormat="1" spans="1:13">
-      <c r="A21" s="29"/>
-      <c r="B21" s="28"/>
+      <c r="A21" s="32"/>
+      <c r="B21" s="27"/>
       <c r="C21" s="26"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="29"/>
-      <c r="H21" s="34"/>
-      <c r="I21" s="29"/>
-      <c r="J21" s="37"/>
-      <c r="K21" s="38"/>
-      <c r="L21" s="39"/>
-      <c r="M21" s="27"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="32"/>
+      <c r="H21" s="39"/>
+      <c r="I21" s="32"/>
+      <c r="J21" s="47"/>
+      <c r="K21" s="48"/>
+      <c r="L21" s="46"/>
+      <c r="M21" s="29"/>
     </row>
     <row r="22" s="2" customFormat="1" spans="1:13">
-      <c r="A22" s="29"/>
-      <c r="B22" s="28"/>
+      <c r="A22" s="32"/>
+      <c r="B22" s="27"/>
       <c r="C22" s="26"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="29"/>
-      <c r="G22" s="29"/>
-      <c r="H22" s="34"/>
-      <c r="I22" s="29"/>
-      <c r="J22" s="37"/>
-      <c r="K22" s="38"/>
-      <c r="L22" s="39"/>
-      <c r="M22" s="27"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="32"/>
+      <c r="H22" s="39"/>
+      <c r="I22" s="32"/>
+      <c r="J22" s="47"/>
+      <c r="K22" s="48"/>
+      <c r="L22" s="46"/>
+      <c r="M22" s="29"/>
     </row>
     <row r="23" s="2" customFormat="1" spans="1:13">
-      <c r="A23" s="29"/>
-      <c r="B23" s="28"/>
+      <c r="A23" s="32"/>
+      <c r="B23" s="27"/>
       <c r="C23" s="26"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="29"/>
-      <c r="G23" s="29"/>
-      <c r="H23" s="34"/>
-      <c r="I23" s="29"/>
-      <c r="J23" s="37"/>
-      <c r="K23" s="38"/>
-      <c r="L23" s="39"/>
-      <c r="M23" s="29"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="32"/>
+      <c r="H23" s="39"/>
+      <c r="I23" s="32"/>
+      <c r="J23" s="47"/>
+      <c r="K23" s="48"/>
+      <c r="L23" s="46"/>
+      <c r="M23" s="32"/>
     </row>
     <row r="24" s="2" customFormat="1" spans="1:13">
-      <c r="A24" s="29"/>
-      <c r="B24" s="28"/>
+      <c r="A24" s="32"/>
+      <c r="B24" s="27"/>
       <c r="C24" s="26"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="29"/>
-      <c r="H24" s="34"/>
-      <c r="I24" s="29"/>
-      <c r="J24" s="37"/>
-      <c r="K24" s="38"/>
-      <c r="L24" s="39"/>
-      <c r="M24" s="29"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="39"/>
+      <c r="I24" s="32"/>
+      <c r="J24" s="47"/>
+      <c r="K24" s="48"/>
+      <c r="L24" s="46"/>
+      <c r="M24" s="32"/>
     </row>
     <row r="25" s="2" customFormat="1" spans="1:13">
-      <c r="A25" s="29"/>
-      <c r="B25" s="28"/>
+      <c r="A25" s="32"/>
+      <c r="B25" s="27"/>
       <c r="C25" s="26"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="29"/>
-      <c r="F25" s="29"/>
-      <c r="G25" s="29"/>
-      <c r="H25" s="34"/>
-      <c r="I25" s="29"/>
-      <c r="J25" s="37"/>
-      <c r="K25" s="38"/>
-      <c r="L25" s="39"/>
-      <c r="M25" s="29"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="32"/>
+      <c r="H25" s="39"/>
+      <c r="I25" s="32"/>
+      <c r="J25" s="47"/>
+      <c r="K25" s="48"/>
+      <c r="L25" s="46"/>
+      <c r="M25" s="32"/>
     </row>
     <row r="26" s="2" customFormat="1" spans="1:13">
-      <c r="A26" s="29"/>
-      <c r="B26" s="28"/>
+      <c r="A26" s="32"/>
+      <c r="B26" s="27"/>
       <c r="C26" s="26"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="29"/>
-      <c r="F26" s="29"/>
-      <c r="G26" s="29"/>
-      <c r="H26" s="34"/>
-      <c r="I26" s="29"/>
-      <c r="J26" s="37"/>
-      <c r="K26" s="38"/>
-      <c r="L26" s="39"/>
-      <c r="M26" s="29"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="32"/>
+      <c r="H26" s="39"/>
+      <c r="I26" s="32"/>
+      <c r="J26" s="47"/>
+      <c r="K26" s="48"/>
+      <c r="L26" s="46"/>
+      <c r="M26" s="32"/>
     </row>
     <row r="27" s="2" customFormat="1" spans="1:13">
-      <c r="A27" s="29"/>
-      <c r="B27" s="28"/>
-      <c r="C27" s="30"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="29"/>
-      <c r="F27" s="29"/>
-      <c r="G27" s="29"/>
-      <c r="H27" s="34"/>
-      <c r="I27" s="29"/>
-      <c r="J27" s="37"/>
-      <c r="K27" s="38"/>
-      <c r="L27" s="39"/>
-      <c r="M27" s="27"/>
+      <c r="A27" s="32"/>
+      <c r="B27" s="27"/>
+      <c r="C27" s="33"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="32"/>
+      <c r="H27" s="39"/>
+      <c r="I27" s="32"/>
+      <c r="J27" s="47"/>
+      <c r="K27" s="48"/>
+      <c r="L27" s="46"/>
+      <c r="M27" s="29"/>
     </row>
     <row r="28" spans="1:13">
-      <c r="A28" s="31"/>
-      <c r="B28" s="28"/>
-      <c r="C28" s="32"/>
-      <c r="D28" s="31"/>
-      <c r="E28" s="31"/>
-      <c r="F28" s="31"/>
-      <c r="G28" s="31"/>
-      <c r="H28" s="31"/>
-      <c r="I28" s="31"/>
-      <c r="J28" s="31"/>
-      <c r="K28" s="38"/>
-      <c r="L28" s="40"/>
-      <c r="M28" s="27"/>
+      <c r="A28" s="34"/>
+      <c r="B28" s="27"/>
+      <c r="C28" s="35"/>
+      <c r="D28" s="34"/>
+      <c r="E28" s="34"/>
+      <c r="F28" s="34"/>
+      <c r="G28" s="34"/>
+      <c r="H28" s="34"/>
+      <c r="I28" s="34"/>
+      <c r="J28" s="34"/>
+      <c r="K28" s="48"/>
+      <c r="L28" s="52"/>
+      <c r="M28" s="29"/>
     </row>
     <row r="29" spans="1:13">
-      <c r="A29" s="31"/>
-      <c r="B29" s="28"/>
-      <c r="C29" s="31"/>
-      <c r="D29" s="31"/>
-      <c r="E29" s="31"/>
-      <c r="F29" s="31"/>
-      <c r="G29" s="31"/>
-      <c r="H29" s="31"/>
-      <c r="I29" s="31"/>
-      <c r="J29" s="31"/>
-      <c r="K29" s="38"/>
-      <c r="L29" s="40"/>
-      <c r="M29" s="31"/>
+      <c r="A29" s="34"/>
+      <c r="B29" s="27"/>
+      <c r="C29" s="34"/>
+      <c r="D29" s="34"/>
+      <c r="E29" s="34"/>
+      <c r="F29" s="34"/>
+      <c r="G29" s="34"/>
+      <c r="H29" s="34"/>
+      <c r="I29" s="34"/>
+      <c r="J29" s="34"/>
+      <c r="K29" s="48"/>
+      <c r="L29" s="52"/>
+      <c r="M29" s="34"/>
     </row>
     <row r="30" spans="1:13">
-      <c r="A30" s="31"/>
-      <c r="B30" s="31"/>
-      <c r="C30" s="31"/>
-      <c r="D30" s="31"/>
-      <c r="E30" s="31"/>
-      <c r="F30" s="31"/>
-      <c r="G30" s="31"/>
-      <c r="H30" s="31"/>
-      <c r="I30" s="31"/>
-      <c r="J30" s="31"/>
-      <c r="K30" s="38"/>
-      <c r="L30" s="40"/>
-      <c r="M30" s="31"/>
+      <c r="A30" s="34"/>
+      <c r="B30" s="34"/>
+      <c r="C30" s="34"/>
+      <c r="D30" s="34"/>
+      <c r="E30" s="34"/>
+      <c r="F30" s="34"/>
+      <c r="G30" s="34"/>
+      <c r="H30" s="34"/>
+      <c r="I30" s="34"/>
+      <c r="J30" s="34"/>
+      <c r="K30" s="48"/>
+      <c r="L30" s="52"/>
+      <c r="M30" s="34"/>
     </row>
     <row r="31" spans="1:13">
-      <c r="A31" s="31"/>
-      <c r="B31" s="31"/>
-      <c r="C31" s="31"/>
-      <c r="D31" s="31"/>
-      <c r="E31" s="31"/>
-      <c r="F31" s="31"/>
-      <c r="G31" s="31"/>
-      <c r="H31" s="31"/>
-      <c r="I31" s="31"/>
-      <c r="J31" s="31"/>
-      <c r="K31" s="38"/>
-      <c r="L31" s="40"/>
-      <c r="M31" s="31"/>
+      <c r="A31" s="34"/>
+      <c r="B31" s="34"/>
+      <c r="C31" s="34"/>
+      <c r="D31" s="34"/>
+      <c r="E31" s="34"/>
+      <c r="F31" s="34"/>
+      <c r="G31" s="34"/>
+      <c r="H31" s="34"/>
+      <c r="I31" s="34"/>
+      <c r="J31" s="34"/>
+      <c r="K31" s="48"/>
+      <c r="L31" s="52"/>
+      <c r="M31" s="34"/>
     </row>
     <row r="32" spans="1:13">
-      <c r="A32" s="31"/>
-      <c r="B32" s="31"/>
-      <c r="C32" s="31"/>
-      <c r="D32" s="31"/>
-      <c r="E32" s="31"/>
-      <c r="F32" s="31"/>
-      <c r="G32" s="31"/>
-      <c r="H32" s="31"/>
-      <c r="I32" s="31"/>
-      <c r="J32" s="31"/>
-      <c r="K32" s="38"/>
-      <c r="L32" s="40"/>
-      <c r="M32" s="31"/>
+      <c r="A32" s="34"/>
+      <c r="B32" s="34"/>
+      <c r="C32" s="34"/>
+      <c r="D32" s="34"/>
+      <c r="E32" s="34"/>
+      <c r="F32" s="34"/>
+      <c r="G32" s="34"/>
+      <c r="H32" s="34"/>
+      <c r="I32" s="34"/>
+      <c r="J32" s="34"/>
+      <c r="K32" s="48"/>
+      <c r="L32" s="52"/>
+      <c r="M32" s="34"/>
     </row>
     <row r="33" spans="1:13">
-      <c r="A33" s="31"/>
-      <c r="B33" s="31"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="31"/>
-      <c r="K33" s="38"/>
-      <c r="L33" s="40"/>
-      <c r="M33" s="31"/>
+      <c r="A33" s="34"/>
+      <c r="B33" s="34"/>
+      <c r="C33" s="34"/>
+      <c r="D33" s="34"/>
+      <c r="E33" s="34"/>
+      <c r="F33" s="34"/>
+      <c r="G33" s="34"/>
+      <c r="H33" s="34"/>
+      <c r="I33" s="34"/>
+      <c r="J33" s="34"/>
+      <c r="K33" s="48"/>
+      <c r="L33" s="52"/>
+      <c r="M33" s="34"/>
     </row>
     <row r="34" spans="1:13">
-      <c r="A34" s="31"/>
-      <c r="B34" s="31"/>
-      <c r="C34" s="31"/>
-      <c r="D34" s="31"/>
-      <c r="E34" s="31"/>
-      <c r="F34" s="31"/>
-      <c r="G34" s="31"/>
-      <c r="H34" s="31"/>
-      <c r="I34" s="31"/>
-      <c r="J34" s="31"/>
-      <c r="K34" s="38"/>
-      <c r="L34" s="40"/>
-      <c r="M34" s="31"/>
+      <c r="A34" s="34"/>
+      <c r="B34" s="34"/>
+      <c r="C34" s="34"/>
+      <c r="D34" s="34"/>
+      <c r="E34" s="34"/>
+      <c r="F34" s="34"/>
+      <c r="G34" s="34"/>
+      <c r="H34" s="34"/>
+      <c r="I34" s="34"/>
+      <c r="J34" s="34"/>
+      <c r="K34" s="48"/>
+      <c r="L34" s="52"/>
+      <c r="M34" s="34"/>
     </row>
     <row r="35" spans="1:13">
-      <c r="A35" s="31"/>
-      <c r="B35" s="31"/>
-      <c r="C35" s="31"/>
-      <c r="D35" s="31"/>
-      <c r="E35" s="31"/>
-      <c r="F35" s="31"/>
-      <c r="G35" s="31"/>
-      <c r="H35" s="31"/>
-      <c r="I35" s="31"/>
-      <c r="J35" s="31"/>
-      <c r="K35" s="38"/>
-      <c r="L35" s="40"/>
-      <c r="M35" s="31"/>
+      <c r="A35" s="34"/>
+      <c r="B35" s="34"/>
+      <c r="C35" s="34"/>
+      <c r="D35" s="34"/>
+      <c r="E35" s="34"/>
+      <c r="F35" s="34"/>
+      <c r="G35" s="34"/>
+      <c r="H35" s="34"/>
+      <c r="I35" s="34"/>
+      <c r="J35" s="34"/>
+      <c r="K35" s="48"/>
+      <c r="L35" s="52"/>
+      <c r="M35" s="34"/>
     </row>
     <row r="36" spans="1:13">
-      <c r="A36" s="31"/>
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="31"/>
-      <c r="J36" s="31"/>
-      <c r="K36" s="38"/>
-      <c r="L36" s="40"/>
-      <c r="M36" s="31"/>
+      <c r="A36" s="34"/>
+      <c r="B36" s="34"/>
+      <c r="C36" s="34"/>
+      <c r="D36" s="34"/>
+      <c r="E36" s="34"/>
+      <c r="F36" s="34"/>
+      <c r="G36" s="34"/>
+      <c r="H36" s="34"/>
+      <c r="I36" s="34"/>
+      <c r="J36" s="34"/>
+      <c r="K36" s="48"/>
+      <c r="L36" s="52"/>
+      <c r="M36" s="34"/>
     </row>
     <row r="37" spans="1:13">
-      <c r="A37" s="31"/>
-      <c r="B37" s="31"/>
-      <c r="C37" s="31"/>
-      <c r="D37" s="31"/>
-      <c r="E37" s="31"/>
-      <c r="F37" s="31"/>
-      <c r="G37" s="31"/>
-      <c r="H37" s="31"/>
-      <c r="I37" s="31"/>
-      <c r="J37" s="31"/>
-      <c r="K37" s="38"/>
-      <c r="L37" s="40"/>
-      <c r="M37" s="31"/>
+      <c r="A37" s="34"/>
+      <c r="B37" s="34"/>
+      <c r="C37" s="34"/>
+      <c r="D37" s="34"/>
+      <c r="E37" s="34"/>
+      <c r="F37" s="34"/>
+      <c r="G37" s="34"/>
+      <c r="H37" s="34"/>
+      <c r="I37" s="34"/>
+      <c r="J37" s="34"/>
+      <c r="K37" s="48"/>
+      <c r="L37" s="52"/>
+      <c r="M37" s="34"/>
     </row>
     <row r="38" spans="1:13">
-      <c r="A38" s="31"/>
-      <c r="B38" s="31"/>
-      <c r="C38" s="31"/>
-      <c r="D38" s="31"/>
-      <c r="E38" s="31"/>
-      <c r="F38" s="31"/>
-      <c r="G38" s="31"/>
-      <c r="H38" s="31"/>
-      <c r="I38" s="31"/>
-      <c r="J38" s="31"/>
-      <c r="K38" s="38"/>
-      <c r="L38" s="40"/>
-      <c r="M38" s="31"/>
+      <c r="A38" s="34"/>
+      <c r="B38" s="34"/>
+      <c r="C38" s="34"/>
+      <c r="D38" s="34"/>
+      <c r="E38" s="34"/>
+      <c r="F38" s="34"/>
+      <c r="G38" s="34"/>
+      <c r="H38" s="34"/>
+      <c r="I38" s="34"/>
+      <c r="J38" s="34"/>
+      <c r="K38" s="48"/>
+      <c r="L38" s="52"/>
+      <c r="M38" s="34"/>
     </row>
     <row r="39" spans="1:13">
-      <c r="A39" s="31"/>
-      <c r="B39" s="31"/>
-      <c r="C39" s="31"/>
-      <c r="D39" s="31"/>
-      <c r="E39" s="31"/>
-      <c r="F39" s="31"/>
-      <c r="G39" s="31"/>
-      <c r="H39" s="31"/>
-      <c r="I39" s="31"/>
-      <c r="J39" s="31"/>
-      <c r="K39" s="38"/>
-      <c r="L39" s="40"/>
-      <c r="M39" s="31"/>
+      <c r="A39" s="34"/>
+      <c r="B39" s="34"/>
+      <c r="C39" s="34"/>
+      <c r="D39" s="34"/>
+      <c r="E39" s="34"/>
+      <c r="F39" s="34"/>
+      <c r="G39" s="34"/>
+      <c r="H39" s="34"/>
+      <c r="I39" s="34"/>
+      <c r="J39" s="34"/>
+      <c r="K39" s="48"/>
+      <c r="L39" s="52"/>
+      <c r="M39" s="34"/>
     </row>
     <row r="40" spans="1:13">
-      <c r="A40" s="31"/>
-      <c r="B40" s="31"/>
-      <c r="C40" s="31"/>
-      <c r="D40" s="31"/>
-      <c r="E40" s="31"/>
-      <c r="F40" s="31"/>
-      <c r="G40" s="31"/>
-      <c r="H40" s="31"/>
-      <c r="I40" s="31"/>
-      <c r="J40" s="31"/>
-      <c r="K40" s="38"/>
-      <c r="L40" s="40"/>
-      <c r="M40" s="31"/>
+      <c r="A40" s="34"/>
+      <c r="B40" s="34"/>
+      <c r="C40" s="34"/>
+      <c r="D40" s="34"/>
+      <c r="E40" s="34"/>
+      <c r="F40" s="34"/>
+      <c r="G40" s="34"/>
+      <c r="H40" s="34"/>
+      <c r="I40" s="34"/>
+      <c r="J40" s="34"/>
+      <c r="K40" s="48"/>
+      <c r="L40" s="52"/>
+      <c r="M40" s="34"/>
     </row>
     <row r="41" spans="1:13">
-      <c r="A41" s="31"/>
-      <c r="B41" s="31"/>
-      <c r="C41" s="31"/>
-      <c r="D41" s="31"/>
-      <c r="E41" s="31"/>
-      <c r="F41" s="31"/>
-      <c r="G41" s="31"/>
-      <c r="H41" s="31"/>
-      <c r="I41" s="31"/>
-      <c r="J41" s="31"/>
-      <c r="K41" s="38"/>
-      <c r="L41" s="40"/>
-      <c r="M41" s="31"/>
+      <c r="A41" s="34"/>
+      <c r="B41" s="34"/>
+      <c r="C41" s="34"/>
+      <c r="D41" s="34"/>
+      <c r="E41" s="34"/>
+      <c r="F41" s="34"/>
+      <c r="G41" s="34"/>
+      <c r="H41" s="34"/>
+      <c r="I41" s="34"/>
+      <c r="J41" s="34"/>
+      <c r="K41" s="48"/>
+      <c r="L41" s="52"/>
+      <c r="M41" s="34"/>
     </row>
     <row r="42" spans="1:13">
-      <c r="A42" s="31"/>
-      <c r="B42" s="31"/>
-      <c r="C42" s="31"/>
-      <c r="D42" s="31"/>
-      <c r="E42" s="31"/>
-      <c r="F42" s="31"/>
-      <c r="G42" s="31"/>
-      <c r="H42" s="31"/>
-      <c r="I42" s="31"/>
-      <c r="J42" s="31"/>
-      <c r="K42" s="38"/>
-      <c r="L42" s="40"/>
-      <c r="M42" s="31"/>
+      <c r="A42" s="34"/>
+      <c r="B42" s="34"/>
+      <c r="C42" s="34"/>
+      <c r="D42" s="34"/>
+      <c r="E42" s="34"/>
+      <c r="F42" s="34"/>
+      <c r="G42" s="34"/>
+      <c r="H42" s="34"/>
+      <c r="I42" s="34"/>
+      <c r="J42" s="34"/>
+      <c r="K42" s="48"/>
+      <c r="L42" s="52"/>
+      <c r="M42" s="34"/>
     </row>
     <row r="43" spans="1:13">
-      <c r="A43" s="31"/>
-      <c r="B43" s="31"/>
-      <c r="C43" s="31"/>
-      <c r="D43" s="31"/>
-      <c r="E43" s="31"/>
-      <c r="F43" s="31"/>
-      <c r="G43" s="31"/>
-      <c r="H43" s="31"/>
-      <c r="I43" s="31"/>
-      <c r="J43" s="31"/>
-      <c r="K43" s="38"/>
-      <c r="L43" s="40"/>
-      <c r="M43" s="31"/>
+      <c r="A43" s="34"/>
+      <c r="B43" s="34"/>
+      <c r="C43" s="34"/>
+      <c r="D43" s="34"/>
+      <c r="E43" s="34"/>
+      <c r="F43" s="34"/>
+      <c r="G43" s="34"/>
+      <c r="H43" s="34"/>
+      <c r="I43" s="34"/>
+      <c r="J43" s="34"/>
+      <c r="K43" s="48"/>
+      <c r="L43" s="52"/>
+      <c r="M43" s="34"/>
     </row>
     <row r="44" spans="1:13">
-      <c r="A44" s="31"/>
-      <c r="B44" s="31"/>
-      <c r="C44" s="31"/>
-      <c r="D44" s="31"/>
-      <c r="E44" s="31"/>
-      <c r="F44" s="31"/>
-      <c r="G44" s="31"/>
-      <c r="H44" s="31"/>
-      <c r="I44" s="31"/>
-      <c r="J44" s="31"/>
-      <c r="K44" s="38"/>
-      <c r="L44" s="40"/>
-      <c r="M44" s="31"/>
+      <c r="A44" s="34"/>
+      <c r="B44" s="34"/>
+      <c r="C44" s="34"/>
+      <c r="D44" s="34"/>
+      <c r="E44" s="34"/>
+      <c r="F44" s="34"/>
+      <c r="G44" s="34"/>
+      <c r="H44" s="34"/>
+      <c r="I44" s="34"/>
+      <c r="J44" s="34"/>
+      <c r="K44" s="48"/>
+      <c r="L44" s="52"/>
+      <c r="M44" s="34"/>
     </row>
     <row r="45" spans="1:13">
-      <c r="A45" s="31"/>
-      <c r="B45" s="31"/>
-      <c r="C45" s="31"/>
-      <c r="D45" s="31"/>
-      <c r="E45" s="31"/>
-      <c r="F45" s="31"/>
-      <c r="G45" s="31"/>
-      <c r="H45" s="31"/>
-      <c r="I45" s="31"/>
-      <c r="J45" s="31"/>
-      <c r="K45" s="38"/>
-      <c r="L45" s="40"/>
-      <c r="M45" s="31"/>
+      <c r="A45" s="34"/>
+      <c r="B45" s="34"/>
+      <c r="C45" s="34"/>
+      <c r="D45" s="34"/>
+      <c r="E45" s="34"/>
+      <c r="F45" s="34"/>
+      <c r="G45" s="34"/>
+      <c r="H45" s="34"/>
+      <c r="I45" s="34"/>
+      <c r="J45" s="34"/>
+      <c r="K45" s="48"/>
+      <c r="L45" s="52"/>
+      <c r="M45" s="34"/>
     </row>
     <row r="46" ht="13" spans="1:13">
-      <c r="A46" s="49" t="s">
-        <v>44</v>
-      </c>
-      <c r="B46" s="31"/>
+      <c r="A46" s="64" t="s">
+        <v>58</v>
+      </c>
+      <c r="B46" s="34"/>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
@@ -3447,8 +3710,8 @@
       <c r="H46" s="3"/>
       <c r="I46" s="3"/>
       <c r="J46" s="3"/>
-      <c r="K46" s="41"/>
-      <c r="M46" s="31"/>
+      <c r="K46" s="53"/>
+      <c r="M46" s="34"/>
     </row>
     <row r="47" spans="1:11">
       <c r="A47" s="3"/>
@@ -3460,7 +3723,7 @@
       <c r="H47" s="3"/>
       <c r="I47" s="3"/>
       <c r="J47" s="3"/>
-      <c r="K47" s="41"/>
+      <c r="K47" s="53"/>
     </row>
     <row r="48" spans="1:11">
       <c r="A48" s="3"/>
@@ -3472,7 +3735,7 @@
       <c r="H48" s="3"/>
       <c r="I48" s="3"/>
       <c r="J48" s="3"/>
-      <c r="K48" s="41"/>
+      <c r="K48" s="53"/>
     </row>
     <row r="49" spans="1:11">
       <c r="A49" s="3"/>
@@ -3484,7 +3747,7 @@
       <c r="H49" s="3"/>
       <c r="I49" s="3"/>
       <c r="J49" s="3"/>
-      <c r="K49" s="41"/>
+      <c r="K49" s="53"/>
     </row>
     <row r="50" spans="1:11">
       <c r="A50" s="3"/>
@@ -3496,7 +3759,7 @@
       <c r="H50" s="3"/>
       <c r="I50" s="3"/>
       <c r="J50" s="3"/>
-      <c r="K50" s="41"/>
+      <c r="K50" s="53"/>
     </row>
     <row r="51" spans="1:11">
       <c r="A51" s="3"/>
@@ -3508,7 +3771,7 @@
       <c r="H51" s="3"/>
       <c r="I51" s="3"/>
       <c r="J51" s="3"/>
-      <c r="K51" s="41"/>
+      <c r="K51" s="53"/>
     </row>
     <row r="52" spans="1:11">
       <c r="A52" s="3"/>
@@ -3520,7 +3783,7 @@
       <c r="H52" s="3"/>
       <c r="I52" s="3"/>
       <c r="J52" s="3"/>
-      <c r="K52" s="41"/>
+      <c r="K52" s="53"/>
     </row>
     <row r="53" spans="1:11">
       <c r="A53" s="3"/>
@@ -3532,7 +3795,7 @@
       <c r="H53" s="3"/>
       <c r="I53" s="3"/>
       <c r="J53" s="3"/>
-      <c r="K53" s="41"/>
+      <c r="K53" s="53"/>
     </row>
     <row r="54" spans="1:11">
       <c r="A54" s="3"/>
@@ -3544,7 +3807,7 @@
       <c r="H54" s="3"/>
       <c r="I54" s="3"/>
       <c r="J54" s="3"/>
-      <c r="K54" s="41"/>
+      <c r="K54" s="53"/>
     </row>
     <row r="55" spans="1:11">
       <c r="A55" s="3"/>
@@ -3556,7 +3819,7 @@
       <c r="H55" s="3"/>
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
-      <c r="K55" s="41"/>
+      <c r="K55" s="53"/>
     </row>
     <row r="56" spans="1:11">
       <c r="A56" s="3"/>
@@ -3568,7 +3831,7 @@
       <c r="H56" s="3"/>
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
-      <c r="K56" s="41"/>
+      <c r="K56" s="53"/>
     </row>
     <row r="57" spans="1:11">
       <c r="A57" s="3"/>
@@ -3580,7 +3843,7 @@
       <c r="H57" s="3"/>
       <c r="I57" s="3"/>
       <c r="J57" s="3"/>
-      <c r="K57" s="41"/>
+      <c r="K57" s="53"/>
     </row>
     <row r="58" spans="1:11">
       <c r="A58" s="3"/>
@@ -3592,7 +3855,7 @@
       <c r="H58" s="3"/>
       <c r="I58" s="3"/>
       <c r="J58" s="3"/>
-      <c r="K58" s="41"/>
+      <c r="K58" s="53"/>
     </row>
     <row r="59" spans="1:11">
       <c r="A59" s="3"/>
@@ -3604,7 +3867,7 @@
       <c r="H59" s="3"/>
       <c r="I59" s="3"/>
       <c r="J59" s="3"/>
-      <c r="K59" s="41"/>
+      <c r="K59" s="53"/>
     </row>
     <row r="60" spans="1:11">
       <c r="A60" s="3"/>
@@ -3616,7 +3879,7 @@
       <c r="H60" s="3"/>
       <c r="I60" s="3"/>
       <c r="J60" s="3"/>
-      <c r="K60" s="41"/>
+      <c r="K60" s="53"/>
     </row>
     <row r="61" spans="1:11">
       <c r="A61" s="3"/>
@@ -3628,7 +3891,7 @@
       <c r="H61" s="3"/>
       <c r="I61" s="3"/>
       <c r="J61" s="3"/>
-      <c r="K61" s="41"/>
+      <c r="K61" s="53"/>
     </row>
     <row r="62" spans="1:11">
       <c r="A62" s="3"/>
@@ -3640,7 +3903,7 @@
       <c r="H62" s="3"/>
       <c r="I62" s="3"/>
       <c r="J62" s="3"/>
-      <c r="K62" s="41"/>
+      <c r="K62" s="53"/>
     </row>
     <row r="63" spans="1:11">
       <c r="A63" s="3"/>
@@ -3652,7 +3915,7 @@
       <c r="H63" s="3"/>
       <c r="I63" s="3"/>
       <c r="J63" s="3"/>
-      <c r="K63" s="41"/>
+      <c r="K63" s="53"/>
     </row>
     <row r="64" spans="1:11">
       <c r="A64" s="3"/>
@@ -3664,7 +3927,7 @@
       <c r="H64" s="3"/>
       <c r="I64" s="3"/>
       <c r="J64" s="3"/>
-      <c r="K64" s="41"/>
+      <c r="K64" s="53"/>
     </row>
     <row r="65" spans="1:11">
       <c r="A65" s="3"/>
@@ -3676,7 +3939,7 @@
       <c r="H65" s="3"/>
       <c r="I65" s="3"/>
       <c r="J65" s="3"/>
-      <c r="K65" s="41"/>
+      <c r="K65" s="53"/>
     </row>
     <row r="66" spans="1:11">
       <c r="A66" s="3"/>
@@ -3688,7 +3951,7 @@
       <c r="H66" s="3"/>
       <c r="I66" s="3"/>
       <c r="J66" s="3"/>
-      <c r="K66" s="41"/>
+      <c r="K66" s="53"/>
     </row>
     <row r="67" spans="1:11">
       <c r="A67" s="3"/>
@@ -3700,7 +3963,7 @@
       <c r="H67" s="3"/>
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
-      <c r="K67" s="41"/>
+      <c r="K67" s="53"/>
     </row>
     <row r="68" spans="1:11">
       <c r="A68" s="3"/>
@@ -3712,7 +3975,7 @@
       <c r="H68" s="3"/>
       <c r="I68" s="3"/>
       <c r="J68" s="3"/>
-      <c r="K68" s="41"/>
+      <c r="K68" s="53"/>
     </row>
     <row r="69" spans="1:11">
       <c r="A69" s="3"/>
@@ -3724,7 +3987,7 @@
       <c r="H69" s="3"/>
       <c r="I69" s="3"/>
       <c r="J69" s="3"/>
-      <c r="K69" s="41"/>
+      <c r="K69" s="53"/>
     </row>
     <row r="70" spans="1:11">
       <c r="A70" s="3"/>
@@ -3736,7 +3999,7 @@
       <c r="H70" s="3"/>
       <c r="I70" s="3"/>
       <c r="J70" s="3"/>
-      <c r="K70" s="41"/>
+      <c r="K70" s="53"/>
     </row>
     <row r="71" spans="1:11">
       <c r="A71" s="3"/>
@@ -3748,7 +4011,7 @@
       <c r="H71" s="3"/>
       <c r="I71" s="3"/>
       <c r="J71" s="3"/>
-      <c r="K71" s="41"/>
+      <c r="K71" s="53"/>
     </row>
     <row r="72" spans="1:11">
       <c r="A72" s="3"/>
@@ -3760,7 +4023,7 @@
       <c r="H72" s="3"/>
       <c r="I72" s="3"/>
       <c r="J72" s="3"/>
-      <c r="K72" s="41"/>
+      <c r="K72" s="53"/>
     </row>
     <row r="73" spans="1:11">
       <c r="A73" s="3"/>
@@ -3772,7 +4035,7 @@
       <c r="H73" s="3"/>
       <c r="I73" s="3"/>
       <c r="J73" s="3"/>
-      <c r="K73" s="41"/>
+      <c r="K73" s="53"/>
     </row>
     <row r="74" spans="1:11">
       <c r="A74" s="3"/>
@@ -3784,7 +4047,7 @@
       <c r="H74" s="3"/>
       <c r="I74" s="3"/>
       <c r="J74" s="3"/>
-      <c r="K74" s="41"/>
+      <c r="K74" s="53"/>
     </row>
     <row r="75" spans="1:11">
       <c r="A75" s="3"/>
@@ -3796,7 +4059,7 @@
       <c r="H75" s="3"/>
       <c r="I75" s="3"/>
       <c r="J75" s="3"/>
-      <c r="K75" s="41"/>
+      <c r="K75" s="53"/>
     </row>
     <row r="76" spans="1:11">
       <c r="A76" s="3"/>
@@ -3808,7 +4071,7 @@
       <c r="H76" s="3"/>
       <c r="I76" s="3"/>
       <c r="J76" s="3"/>
-      <c r="K76" s="41"/>
+      <c r="K76" s="53"/>
     </row>
     <row r="77" spans="1:11">
       <c r="A77" s="3"/>
@@ -3820,7 +4083,7 @@
       <c r="H77" s="3"/>
       <c r="I77" s="3"/>
       <c r="J77" s="3"/>
-      <c r="K77" s="41"/>
+      <c r="K77" s="53"/>
     </row>
     <row r="78" spans="1:11">
       <c r="A78" s="3"/>
@@ -3832,7 +4095,7 @@
       <c r="H78" s="3"/>
       <c r="I78" s="3"/>
       <c r="J78" s="3"/>
-      <c r="K78" s="41"/>
+      <c r="K78" s="53"/>
     </row>
     <row r="79" spans="1:11">
       <c r="A79" s="3"/>
@@ -3844,7 +4107,7 @@
       <c r="H79" s="3"/>
       <c r="I79" s="3"/>
       <c r="J79" s="3"/>
-      <c r="K79" s="41"/>
+      <c r="K79" s="53"/>
     </row>
     <row r="80" spans="1:11">
       <c r="A80" s="3"/>
@@ -3856,7 +4119,7 @@
       <c r="H80" s="3"/>
       <c r="I80" s="3"/>
       <c r="J80" s="3"/>
-      <c r="K80" s="41"/>
+      <c r="K80" s="53"/>
     </row>
     <row r="81" spans="1:11">
       <c r="A81" s="3"/>
@@ -3868,7 +4131,7 @@
       <c r="H81" s="3"/>
       <c r="I81" s="3"/>
       <c r="J81" s="3"/>
-      <c r="K81" s="41"/>
+      <c r="K81" s="53"/>
     </row>
     <row r="82" spans="1:11">
       <c r="A82" s="3"/>
@@ -3880,7 +4143,7 @@
       <c r="H82" s="3"/>
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
-      <c r="K82" s="41"/>
+      <c r="K82" s="53"/>
     </row>
     <row r="83" spans="1:11">
       <c r="A83" s="3"/>
@@ -3892,7 +4155,7 @@
       <c r="H83" s="3"/>
       <c r="I83" s="3"/>
       <c r="J83" s="3"/>
-      <c r="K83" s="41"/>
+      <c r="K83" s="53"/>
     </row>
     <row r="84" spans="1:11">
       <c r="A84" s="3"/>
@@ -3904,7 +4167,7 @@
       <c r="H84" s="3"/>
       <c r="I84" s="3"/>
       <c r="J84" s="3"/>
-      <c r="K84" s="41"/>
+      <c r="K84" s="53"/>
     </row>
     <row r="85" spans="1:11">
       <c r="A85" s="3"/>
@@ -3916,7 +4179,7 @@
       <c r="H85" s="3"/>
       <c r="I85" s="3"/>
       <c r="J85" s="3"/>
-      <c r="K85" s="41"/>
+      <c r="K85" s="53"/>
     </row>
     <row r="86" spans="1:11">
       <c r="A86" s="3"/>
@@ -3928,7 +4191,7 @@
       <c r="H86" s="3"/>
       <c r="I86" s="3"/>
       <c r="J86" s="3"/>
-      <c r="K86" s="41"/>
+      <c r="K86" s="53"/>
     </row>
     <row r="87" spans="1:11">
       <c r="A87" s="3"/>
@@ -3940,7 +4203,7 @@
       <c r="H87" s="3"/>
       <c r="I87" s="3"/>
       <c r="J87" s="3"/>
-      <c r="K87" s="41"/>
+      <c r="K87" s="53"/>
     </row>
     <row r="88" spans="1:11">
       <c r="A88" s="3"/>
@@ -3952,7 +4215,7 @@
       <c r="H88" s="3"/>
       <c r="I88" s="3"/>
       <c r="J88" s="3"/>
-      <c r="K88" s="41"/>
+      <c r="K88" s="53"/>
     </row>
     <row r="89" spans="1:11">
       <c r="A89" s="3"/>
@@ -3964,7 +4227,7 @@
       <c r="H89" s="3"/>
       <c r="I89" s="3"/>
       <c r="J89" s="3"/>
-      <c r="K89" s="41"/>
+      <c r="K89" s="53"/>
     </row>
     <row r="90" spans="1:11">
       <c r="A90" s="3"/>
@@ -3976,7 +4239,7 @@
       <c r="H90" s="3"/>
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
-      <c r="K90" s="41"/>
+      <c r="K90" s="53"/>
     </row>
     <row r="91" spans="1:11">
       <c r="A91" s="3"/>
@@ -3988,7 +4251,7 @@
       <c r="H91" s="3"/>
       <c r="I91" s="3"/>
       <c r="J91" s="3"/>
-      <c r="K91" s="41"/>
+      <c r="K91" s="53"/>
     </row>
     <row r="92" spans="1:11">
       <c r="A92" s="3"/>
@@ -4000,7 +4263,7 @@
       <c r="H92" s="3"/>
       <c r="I92" s="3"/>
       <c r="J92" s="3"/>
-      <c r="K92" s="41"/>
+      <c r="K92" s="53"/>
     </row>
     <row r="93" spans="1:11">
       <c r="A93" s="3"/>
@@ -4012,7 +4275,7 @@
       <c r="H93" s="3"/>
       <c r="I93" s="3"/>
       <c r="J93" s="3"/>
-      <c r="K93" s="41"/>
+      <c r="K93" s="53"/>
     </row>
     <row r="94" spans="1:11">
       <c r="A94" s="3"/>
@@ -4024,7 +4287,7 @@
       <c r="H94" s="3"/>
       <c r="I94" s="3"/>
       <c r="J94" s="3"/>
-      <c r="K94" s="41"/>
+      <c r="K94" s="53"/>
     </row>
     <row r="95" spans="1:11">
       <c r="A95" s="3"/>
@@ -4036,7 +4299,7 @@
       <c r="H95" s="3"/>
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
-      <c r="K95" s="41"/>
+      <c r="K95" s="53"/>
     </row>
     <row r="96" spans="1:11">
       <c r="A96" s="3"/>
@@ -4048,7 +4311,7 @@
       <c r="H96" s="3"/>
       <c r="I96" s="3"/>
       <c r="J96" s="3"/>
-      <c r="K96" s="41"/>
+      <c r="K96" s="53"/>
     </row>
     <row r="97" spans="1:11">
       <c r="A97" s="3"/>
@@ -4060,7 +4323,7 @@
       <c r="H97" s="3"/>
       <c r="I97" s="3"/>
       <c r="J97" s="3"/>
-      <c r="K97" s="41"/>
+      <c r="K97" s="53"/>
     </row>
     <row r="98" spans="1:11">
       <c r="A98" s="3"/>
@@ -4072,7 +4335,7 @@
       <c r="H98" s="3"/>
       <c r="I98" s="3"/>
       <c r="J98" s="3"/>
-      <c r="K98" s="41"/>
+      <c r="K98" s="53"/>
     </row>
     <row r="99" spans="1:11">
       <c r="A99" s="3"/>
@@ -4084,7 +4347,7 @@
       <c r="H99" s="3"/>
       <c r="I99" s="3"/>
       <c r="J99" s="3"/>
-      <c r="K99" s="41"/>
+      <c r="K99" s="53"/>
     </row>
     <row r="100" spans="1:11">
       <c r="A100" s="3"/>
@@ -4096,7 +4359,7 @@
       <c r="H100" s="3"/>
       <c r="I100" s="3"/>
       <c r="J100" s="3"/>
-      <c r="K100" s="41"/>
+      <c r="K100" s="53"/>
     </row>
     <row r="101" spans="1:11">
       <c r="A101" s="3"/>
@@ -4108,7 +4371,7 @@
       <c r="H101" s="3"/>
       <c r="I101" s="3"/>
       <c r="J101" s="3"/>
-      <c r="K101" s="41"/>
+      <c r="K101" s="53"/>
     </row>
     <row r="102" spans="1:11">
       <c r="A102" s="3"/>
@@ -4120,7 +4383,7 @@
       <c r="H102" s="3"/>
       <c r="I102" s="3"/>
       <c r="J102" s="3"/>
-      <c r="K102" s="41"/>
+      <c r="K102" s="53"/>
     </row>
     <row r="103" spans="1:11">
       <c r="A103" s="3"/>
@@ -4132,7 +4395,7 @@
       <c r="H103" s="3"/>
       <c r="I103" s="3"/>
       <c r="J103" s="3"/>
-      <c r="K103" s="41"/>
+      <c r="K103" s="53"/>
     </row>
     <row r="104" spans="1:11">
       <c r="A104" s="3"/>
@@ -4144,7 +4407,7 @@
       <c r="H104" s="3"/>
       <c r="I104" s="3"/>
       <c r="J104" s="3"/>
-      <c r="K104" s="41"/>
+      <c r="K104" s="53"/>
     </row>
     <row r="105" spans="1:11">
       <c r="A105" s="3"/>
@@ -4156,7 +4419,7 @@
       <c r="H105" s="3"/>
       <c r="I105" s="3"/>
       <c r="J105" s="3"/>
-      <c r="K105" s="41"/>
+      <c r="K105" s="53"/>
     </row>
     <row r="106" spans="1:11">
       <c r="A106" s="3"/>
@@ -4168,7 +4431,7 @@
       <c r="H106" s="3"/>
       <c r="I106" s="3"/>
       <c r="J106" s="3"/>
-      <c r="K106" s="41"/>
+      <c r="K106" s="53"/>
     </row>
     <row r="107" spans="1:11">
       <c r="A107" s="3"/>
@@ -4180,7 +4443,7 @@
       <c r="H107" s="3"/>
       <c r="I107" s="3"/>
       <c r="J107" s="3"/>
-      <c r="K107" s="41"/>
+      <c r="K107" s="53"/>
     </row>
     <row r="108" spans="1:11">
       <c r="A108" s="3"/>
@@ -4192,7 +4455,7 @@
       <c r="H108" s="3"/>
       <c r="I108" s="3"/>
       <c r="J108" s="3"/>
-      <c r="K108" s="41"/>
+      <c r="K108" s="53"/>
     </row>
     <row r="109" spans="1:11">
       <c r="A109" s="3"/>
@@ -4204,7 +4467,7 @@
       <c r="H109" s="3"/>
       <c r="I109" s="3"/>
       <c r="J109" s="3"/>
-      <c r="K109" s="41"/>
+      <c r="K109" s="53"/>
     </row>
     <row r="110" spans="1:11">
       <c r="A110" s="3"/>
@@ -4216,7 +4479,7 @@
       <c r="H110" s="3"/>
       <c r="I110" s="3"/>
       <c r="J110" s="3"/>
-      <c r="K110" s="41"/>
+      <c r="K110" s="53"/>
     </row>
     <row r="111" spans="1:11">
       <c r="A111" s="3"/>
@@ -4228,7 +4491,7 @@
       <c r="H111" s="3"/>
       <c r="I111" s="3"/>
       <c r="J111" s="3"/>
-      <c r="K111" s="41"/>
+      <c r="K111" s="53"/>
     </row>
     <row r="112" spans="1:11">
       <c r="A112" s="3"/>
@@ -4240,7 +4503,7 @@
       <c r="H112" s="3"/>
       <c r="I112" s="3"/>
       <c r="J112" s="3"/>
-      <c r="K112" s="41"/>
+      <c r="K112" s="53"/>
     </row>
     <row r="113" spans="1:11">
       <c r="A113" s="3"/>
@@ -4252,7 +4515,7 @@
       <c r="H113" s="3"/>
       <c r="I113" s="3"/>
       <c r="J113" s="3"/>
-      <c r="K113" s="41"/>
+      <c r="K113" s="53"/>
     </row>
     <row r="114" spans="1:11">
       <c r="A114" s="3"/>
@@ -4264,7 +4527,7 @@
       <c r="H114" s="3"/>
       <c r="I114" s="3"/>
       <c r="J114" s="3"/>
-      <c r="K114" s="41"/>
+      <c r="K114" s="53"/>
     </row>
     <row r="115" spans="1:11">
       <c r="A115" s="3"/>
@@ -4276,7 +4539,7 @@
       <c r="H115" s="3"/>
       <c r="I115" s="3"/>
       <c r="J115" s="3"/>
-      <c r="K115" s="41"/>
+      <c r="K115" s="53"/>
     </row>
     <row r="116" spans="1:11">
       <c r="A116" s="3"/>
@@ -4288,7 +4551,7 @@
       <c r="H116" s="3"/>
       <c r="I116" s="3"/>
       <c r="J116" s="3"/>
-      <c r="K116" s="41"/>
+      <c r="K116" s="53"/>
     </row>
     <row r="117" spans="1:11">
       <c r="A117" s="3"/>
@@ -4300,7 +4563,7 @@
       <c r="H117" s="3"/>
       <c r="I117" s="3"/>
       <c r="J117" s="3"/>
-      <c r="K117" s="41"/>
+      <c r="K117" s="53"/>
     </row>
     <row r="118" spans="1:11">
       <c r="A118" s="3"/>
@@ -4312,7 +4575,7 @@
       <c r="H118" s="3"/>
       <c r="I118" s="3"/>
       <c r="J118" s="3"/>
-      <c r="K118" s="41"/>
+      <c r="K118" s="53"/>
     </row>
     <row r="119" spans="1:11">
       <c r="A119" s="3"/>
@@ -4324,7 +4587,7 @@
       <c r="H119" s="3"/>
       <c r="I119" s="3"/>
       <c r="J119" s="3"/>
-      <c r="K119" s="41"/>
+      <c r="K119" s="53"/>
     </row>
     <row r="120" spans="1:11">
       <c r="A120" s="3"/>
@@ -4336,7 +4599,7 @@
       <c r="H120" s="3"/>
       <c r="I120" s="3"/>
       <c r="J120" s="3"/>
-      <c r="K120" s="41"/>
+      <c r="K120" s="53"/>
     </row>
     <row r="121" spans="1:11">
       <c r="A121" s="3"/>
@@ -4348,7 +4611,7 @@
       <c r="H121" s="3"/>
       <c r="I121" s="3"/>
       <c r="J121" s="3"/>
-      <c r="K121" s="41"/>
+      <c r="K121" s="53"/>
     </row>
     <row r="122" spans="1:11">
       <c r="A122" s="3"/>
@@ -4360,7 +4623,7 @@
       <c r="H122" s="3"/>
       <c r="I122" s="3"/>
       <c r="J122" s="3"/>
-      <c r="K122" s="41"/>
+      <c r="K122" s="53"/>
     </row>
     <row r="123" spans="1:11">
       <c r="A123" s="3"/>
@@ -4372,7 +4635,7 @@
       <c r="H123" s="3"/>
       <c r="I123" s="3"/>
       <c r="J123" s="3"/>
-      <c r="K123" s="41"/>
+      <c r="K123" s="53"/>
     </row>
     <row r="124" spans="1:11">
       <c r="A124" s="3"/>
@@ -4384,7 +4647,7 @@
       <c r="H124" s="3"/>
       <c r="I124" s="3"/>
       <c r="J124" s="3"/>
-      <c r="K124" s="41"/>
+      <c r="K124" s="53"/>
     </row>
     <row r="125" spans="1:11">
       <c r="A125" s="3"/>
@@ -4396,7 +4659,7 @@
       <c r="H125" s="3"/>
       <c r="I125" s="3"/>
       <c r="J125" s="3"/>
-      <c r="K125" s="41"/>
+      <c r="K125" s="53"/>
     </row>
     <row r="126" spans="1:11">
       <c r="A126" s="3"/>
@@ -4408,7 +4671,7 @@
       <c r="H126" s="3"/>
       <c r="I126" s="3"/>
       <c r="J126" s="3"/>
-      <c r="K126" s="41"/>
+      <c r="K126" s="53"/>
     </row>
     <row r="127" spans="1:11">
       <c r="A127" s="3"/>
@@ -4420,7 +4683,7 @@
       <c r="H127" s="3"/>
       <c r="I127" s="3"/>
       <c r="J127" s="3"/>
-      <c r="K127" s="41"/>
+      <c r="K127" s="53"/>
     </row>
     <row r="128" spans="1:11">
       <c r="A128" s="3"/>
@@ -4432,7 +4695,7 @@
       <c r="H128" s="3"/>
       <c r="I128" s="3"/>
       <c r="J128" s="3"/>
-      <c r="K128" s="41"/>
+      <c r="K128" s="53"/>
     </row>
     <row r="129" spans="1:11">
       <c r="A129" s="3"/>
@@ -4444,7 +4707,7 @@
       <c r="H129" s="3"/>
       <c r="I129" s="3"/>
       <c r="J129" s="3"/>
-      <c r="K129" s="41"/>
+      <c r="K129" s="53"/>
     </row>
     <row r="130" spans="1:11">
       <c r="A130" s="3"/>
@@ -4456,7 +4719,7 @@
       <c r="H130" s="3"/>
       <c r="I130" s="3"/>
       <c r="J130" s="3"/>
-      <c r="K130" s="41"/>
+      <c r="K130" s="53"/>
     </row>
     <row r="131" spans="1:11">
       <c r="A131" s="3"/>
@@ -4468,7 +4731,7 @@
       <c r="H131" s="3"/>
       <c r="I131" s="3"/>
       <c r="J131" s="3"/>
-      <c r="K131" s="41"/>
+      <c r="K131" s="53"/>
     </row>
     <row r="132" spans="1:11">
       <c r="A132" s="3"/>
@@ -4480,7 +4743,7 @@
       <c r="H132" s="3"/>
       <c r="I132" s="3"/>
       <c r="J132" s="3"/>
-      <c r="K132" s="41"/>
+      <c r="K132" s="53"/>
     </row>
     <row r="133" spans="1:11">
       <c r="A133" s="3"/>
@@ -4492,7 +4755,7 @@
       <c r="H133" s="3"/>
       <c r="I133" s="3"/>
       <c r="J133" s="3"/>
-      <c r="K133" s="41"/>
+      <c r="K133" s="53"/>
     </row>
     <row r="134" spans="1:11">
       <c r="A134" s="3"/>
@@ -4504,7 +4767,7 @@
       <c r="H134" s="3"/>
       <c r="I134" s="3"/>
       <c r="J134" s="3"/>
-      <c r="K134" s="41"/>
+      <c r="K134" s="53"/>
     </row>
     <row r="135" spans="1:11">
       <c r="A135" s="3"/>
@@ -4516,7 +4779,7 @@
       <c r="H135" s="3"/>
       <c r="I135" s="3"/>
       <c r="J135" s="3"/>
-      <c r="K135" s="41"/>
+      <c r="K135" s="53"/>
     </row>
     <row r="136" spans="1:11">
       <c r="A136" s="3"/>
@@ -4528,7 +4791,7 @@
       <c r="H136" s="3"/>
       <c r="I136" s="3"/>
       <c r="J136" s="3"/>
-      <c r="K136" s="41"/>
+      <c r="K136" s="53"/>
     </row>
     <row r="137" spans="1:11">
       <c r="A137" s="3"/>
@@ -4540,7 +4803,7 @@
       <c r="H137" s="3"/>
       <c r="I137" s="3"/>
       <c r="J137" s="3"/>
-      <c r="K137" s="41"/>
+      <c r="K137" s="53"/>
     </row>
     <row r="138" spans="1:11">
       <c r="A138" s="3"/>
@@ -4552,7 +4815,7 @@
       <c r="H138" s="3"/>
       <c r="I138" s="3"/>
       <c r="J138" s="3"/>
-      <c r="K138" s="41"/>
+      <c r="K138" s="53"/>
     </row>
     <row r="139" spans="1:11">
       <c r="A139" s="3"/>
@@ -4564,7 +4827,7 @@
       <c r="H139" s="3"/>
       <c r="I139" s="3"/>
       <c r="J139" s="3"/>
-      <c r="K139" s="41"/>
+      <c r="K139" s="53"/>
     </row>
     <row r="140" spans="1:11">
       <c r="A140" s="3"/>
@@ -4576,7 +4839,7 @@
       <c r="H140" s="3"/>
       <c r="I140" s="3"/>
       <c r="J140" s="3"/>
-      <c r="K140" s="41"/>
+      <c r="K140" s="53"/>
     </row>
     <row r="141" spans="1:11">
       <c r="A141" s="3"/>
@@ -4588,7 +4851,7 @@
       <c r="H141" s="3"/>
       <c r="I141" s="3"/>
       <c r="J141" s="3"/>
-      <c r="K141" s="41"/>
+      <c r="K141" s="53"/>
     </row>
     <row r="142" spans="1:11">
       <c r="A142" s="3"/>
@@ -4600,7 +4863,7 @@
       <c r="H142" s="3"/>
       <c r="I142" s="3"/>
       <c r="J142" s="3"/>
-      <c r="K142" s="41"/>
+      <c r="K142" s="53"/>
     </row>
     <row r="143" spans="1:11">
       <c r="A143" s="3"/>
@@ -4612,7 +4875,7 @@
       <c r="H143" s="3"/>
       <c r="I143" s="3"/>
       <c r="J143" s="3"/>
-      <c r="K143" s="41"/>
+      <c r="K143" s="53"/>
     </row>
     <row r="144" spans="1:11">
       <c r="A144" s="3"/>
@@ -4624,7 +4887,7 @@
       <c r="H144" s="3"/>
       <c r="I144" s="3"/>
       <c r="J144" s="3"/>
-      <c r="K144" s="41"/>
+      <c r="K144" s="53"/>
     </row>
     <row r="145" spans="1:11">
       <c r="A145" s="3"/>
@@ -4636,7 +4899,7 @@
       <c r="H145" s="3"/>
       <c r="I145" s="3"/>
       <c r="J145" s="3"/>
-      <c r="K145" s="41"/>
+      <c r="K145" s="53"/>
     </row>
     <row r="146" spans="1:11">
       <c r="A146" s="3"/>
@@ -4648,7 +4911,7 @@
       <c r="H146" s="3"/>
       <c r="I146" s="3"/>
       <c r="J146" s="3"/>
-      <c r="K146" s="41"/>
+      <c r="K146" s="53"/>
     </row>
     <row r="147" spans="1:11">
       <c r="A147" s="3"/>
@@ -4660,7 +4923,7 @@
       <c r="H147" s="3"/>
       <c r="I147" s="3"/>
       <c r="J147" s="3"/>
-      <c r="K147" s="41"/>
+      <c r="K147" s="53"/>
     </row>
     <row r="148" spans="1:11">
       <c r="A148" s="3"/>
@@ -4672,7 +4935,7 @@
       <c r="H148" s="3"/>
       <c r="I148" s="3"/>
       <c r="J148" s="3"/>
-      <c r="K148" s="41"/>
+      <c r="K148" s="53"/>
     </row>
     <row r="149" spans="1:11">
       <c r="A149" s="3"/>
@@ -4684,7 +4947,7 @@
       <c r="H149" s="3"/>
       <c r="I149" s="3"/>
       <c r="J149" s="3"/>
-      <c r="K149" s="41"/>
+      <c r="K149" s="53"/>
     </row>
     <row r="150" spans="1:11">
       <c r="A150" s="3"/>
@@ -4696,7 +4959,7 @@
       <c r="H150" s="3"/>
       <c r="I150" s="3"/>
       <c r="J150" s="3"/>
-      <c r="K150" s="41"/>
+      <c r="K150" s="53"/>
     </row>
     <row r="151" spans="1:11">
       <c r="A151" s="3"/>
@@ -4708,7 +4971,7 @@
       <c r="H151" s="3"/>
       <c r="I151" s="3"/>
       <c r="J151" s="3"/>
-      <c r="K151" s="41"/>
+      <c r="K151" s="53"/>
     </row>
     <row r="152" spans="1:11">
       <c r="A152" s="3"/>
@@ -4720,7 +4983,7 @@
       <c r="H152" s="3"/>
       <c r="I152" s="3"/>
       <c r="J152" s="3"/>
-      <c r="K152" s="41"/>
+      <c r="K152" s="53"/>
     </row>
     <row r="153" spans="1:11">
       <c r="A153" s="3"/>
@@ -4732,7 +4995,7 @@
       <c r="H153" s="3"/>
       <c r="I153" s="3"/>
       <c r="J153" s="3"/>
-      <c r="K153" s="41"/>
+      <c r="K153" s="53"/>
     </row>
     <row r="154" spans="1:11">
       <c r="A154" s="3"/>
@@ -4744,7 +5007,7 @@
       <c r="H154" s="3"/>
       <c r="I154" s="3"/>
       <c r="J154" s="3"/>
-      <c r="K154" s="41"/>
+      <c r="K154" s="53"/>
     </row>
     <row r="155" spans="1:11">
       <c r="A155" s="3"/>
@@ -4756,7 +5019,7 @@
       <c r="H155" s="3"/>
       <c r="I155" s="3"/>
       <c r="J155" s="3"/>
-      <c r="K155" s="41"/>
+      <c r="K155" s="53"/>
     </row>
     <row r="156" spans="1:11">
       <c r="A156" s="3"/>
@@ -4768,7 +5031,7 @@
       <c r="H156" s="3"/>
       <c r="I156" s="3"/>
       <c r="J156" s="3"/>
-      <c r="K156" s="41"/>
+      <c r="K156" s="53"/>
     </row>
     <row r="157" spans="1:11">
       <c r="A157" s="3"/>
@@ -4780,7 +5043,7 @@
       <c r="H157" s="3"/>
       <c r="I157" s="3"/>
       <c r="J157" s="3"/>
-      <c r="K157" s="41"/>
+      <c r="K157" s="53"/>
     </row>
     <row r="158" spans="1:11">
       <c r="A158" s="3"/>
@@ -4792,7 +5055,7 @@
       <c r="H158" s="3"/>
       <c r="I158" s="3"/>
       <c r="J158" s="3"/>
-      <c r="K158" s="41"/>
+      <c r="K158" s="53"/>
     </row>
     <row r="159" spans="1:11">
       <c r="A159" s="3"/>
@@ -4804,7 +5067,7 @@
       <c r="H159" s="3"/>
       <c r="I159" s="3"/>
       <c r="J159" s="3"/>
-      <c r="K159" s="41"/>
+      <c r="K159" s="53"/>
     </row>
     <row r="160" spans="1:11">
       <c r="A160" s="3"/>
@@ -4816,7 +5079,7 @@
       <c r="H160" s="3"/>
       <c r="I160" s="3"/>
       <c r="J160" s="3"/>
-      <c r="K160" s="41"/>
+      <c r="K160" s="53"/>
     </row>
     <row r="161" spans="1:11">
       <c r="A161" s="3"/>
@@ -4828,7 +5091,7 @@
       <c r="H161" s="3"/>
       <c r="I161" s="3"/>
       <c r="J161" s="3"/>
-      <c r="K161" s="41"/>
+      <c r="K161" s="53"/>
     </row>
     <row r="162" spans="1:11">
       <c r="A162" s="3"/>
@@ -4840,7 +5103,7 @@
       <c r="H162" s="3"/>
       <c r="I162" s="3"/>
       <c r="J162" s="3"/>
-      <c r="K162" s="41"/>
+      <c r="K162" s="53"/>
     </row>
     <row r="163" spans="1:11">
       <c r="A163" s="3"/>
@@ -4852,7 +5115,7 @@
       <c r="H163" s="3"/>
       <c r="I163" s="3"/>
       <c r="J163" s="3"/>
-      <c r="K163" s="41"/>
+      <c r="K163" s="53"/>
     </row>
     <row r="164" spans="1:11">
       <c r="A164" s="3"/>
@@ -4864,7 +5127,7 @@
       <c r="H164" s="3"/>
       <c r="I164" s="3"/>
       <c r="J164" s="3"/>
-      <c r="K164" s="41"/>
+      <c r="K164" s="53"/>
     </row>
     <row r="165" spans="1:11">
       <c r="A165" s="3"/>
@@ -4876,7 +5139,7 @@
       <c r="H165" s="3"/>
       <c r="I165" s="3"/>
       <c r="J165" s="3"/>
-      <c r="K165" s="41"/>
+      <c r="K165" s="53"/>
     </row>
     <row r="166" spans="1:11">
       <c r="A166" s="3"/>
@@ -4888,7 +5151,7 @@
       <c r="H166" s="3"/>
       <c r="I166" s="3"/>
       <c r="J166" s="3"/>
-      <c r="K166" s="41"/>
+      <c r="K166" s="53"/>
     </row>
     <row r="167" spans="1:11">
       <c r="A167" s="3"/>
@@ -4900,7 +5163,7 @@
       <c r="H167" s="3"/>
       <c r="I167" s="3"/>
       <c r="J167" s="3"/>
-      <c r="K167" s="41"/>
+      <c r="K167" s="53"/>
     </row>
     <row r="168" spans="1:11">
       <c r="A168" s="3"/>
@@ -4912,7 +5175,7 @@
       <c r="H168" s="3"/>
       <c r="I168" s="3"/>
       <c r="J168" s="3"/>
-      <c r="K168" s="41"/>
+      <c r="K168" s="53"/>
     </row>
     <row r="169" spans="1:11">
       <c r="A169" s="3"/>
@@ -4924,7 +5187,7 @@
       <c r="H169" s="3"/>
       <c r="I169" s="3"/>
       <c r="J169" s="3"/>
-      <c r="K169" s="41"/>
+      <c r="K169" s="53"/>
     </row>
     <row r="170" spans="1:11">
       <c r="A170" s="3"/>
@@ -4936,7 +5199,7 @@
       <c r="H170" s="3"/>
       <c r="I170" s="3"/>
       <c r="J170" s="3"/>
-      <c r="K170" s="41"/>
+      <c r="K170" s="53"/>
     </row>
     <row r="171" spans="1:11">
       <c r="A171" s="3"/>
@@ -4948,7 +5211,7 @@
       <c r="H171" s="3"/>
       <c r="I171" s="3"/>
       <c r="J171" s="3"/>
-      <c r="K171" s="41"/>
+      <c r="K171" s="53"/>
     </row>
     <row r="172" spans="1:11">
       <c r="A172" s="3"/>
@@ -4960,7 +5223,7 @@
       <c r="H172" s="3"/>
       <c r="I172" s="3"/>
       <c r="J172" s="3"/>
-      <c r="K172" s="41"/>
+      <c r="K172" s="53"/>
     </row>
     <row r="173" spans="1:11">
       <c r="A173" s="3"/>
@@ -4972,7 +5235,7 @@
       <c r="H173" s="3"/>
       <c r="I173" s="3"/>
       <c r="J173" s="3"/>
-      <c r="K173" s="41"/>
+      <c r="K173" s="53"/>
     </row>
     <row r="174" spans="1:11">
       <c r="A174" s="3"/>
@@ -4984,7 +5247,7 @@
       <c r="H174" s="3"/>
       <c r="I174" s="3"/>
       <c r="J174" s="3"/>
-      <c r="K174" s="41"/>
+      <c r="K174" s="53"/>
     </row>
     <row r="175" spans="1:11">
       <c r="A175" s="3"/>
@@ -4996,7 +5259,7 @@
       <c r="H175" s="3"/>
       <c r="I175" s="3"/>
       <c r="J175" s="3"/>
-      <c r="K175" s="41"/>
+      <c r="K175" s="53"/>
     </row>
     <row r="176" spans="1:11">
       <c r="A176" s="3"/>
@@ -5008,7 +5271,7 @@
       <c r="H176" s="3"/>
       <c r="I176" s="3"/>
       <c r="J176" s="3"/>
-      <c r="K176" s="41"/>
+      <c r="K176" s="53"/>
     </row>
     <row r="177" spans="1:11">
       <c r="A177" s="3"/>
@@ -5020,7 +5283,7 @@
       <c r="H177" s="3"/>
       <c r="I177" s="3"/>
       <c r="J177" s="3"/>
-      <c r="K177" s="41"/>
+      <c r="K177" s="53"/>
     </row>
     <row r="178" spans="1:11">
       <c r="A178" s="3"/>
@@ -5032,7 +5295,7 @@
       <c r="H178" s="3"/>
       <c r="I178" s="3"/>
       <c r="J178" s="3"/>
-      <c r="K178" s="41"/>
+      <c r="K178" s="53"/>
     </row>
     <row r="179" spans="1:11">
       <c r="A179" s="3"/>
@@ -5044,7 +5307,7 @@
       <c r="H179" s="3"/>
       <c r="I179" s="3"/>
       <c r="J179" s="3"/>
-      <c r="K179" s="41"/>
+      <c r="K179" s="53"/>
     </row>
     <row r="180" spans="1:11">
       <c r="A180" s="3"/>
@@ -5056,7 +5319,7 @@
       <c r="H180" s="3"/>
       <c r="I180" s="3"/>
       <c r="J180" s="3"/>
-      <c r="K180" s="41"/>
+      <c r="K180" s="53"/>
     </row>
     <row r="181" spans="1:11">
       <c r="A181" s="3"/>
@@ -5068,7 +5331,7 @@
       <c r="H181" s="3"/>
       <c r="I181" s="3"/>
       <c r="J181" s="3"/>
-      <c r="K181" s="41"/>
+      <c r="K181" s="53"/>
     </row>
     <row r="182" spans="1:11">
       <c r="A182" s="3"/>
@@ -5080,7 +5343,7 @@
       <c r="H182" s="3"/>
       <c r="I182" s="3"/>
       <c r="J182" s="3"/>
-      <c r="K182" s="41"/>
+      <c r="K182" s="53"/>
     </row>
     <row r="183" spans="1:11">
       <c r="A183" s="3"/>
@@ -5092,7 +5355,7 @@
       <c r="H183" s="3"/>
       <c r="I183" s="3"/>
       <c r="J183" s="3"/>
-      <c r="K183" s="41"/>
+      <c r="K183" s="53"/>
     </row>
     <row r="184" spans="1:11">
       <c r="A184" s="3"/>
@@ -5104,7 +5367,7 @@
       <c r="H184" s="3"/>
       <c r="I184" s="3"/>
       <c r="J184" s="3"/>
-      <c r="K184" s="41"/>
+      <c r="K184" s="53"/>
     </row>
     <row r="185" spans="1:11">
       <c r="A185" s="3"/>
@@ -5116,7 +5379,7 @@
       <c r="H185" s="3"/>
       <c r="I185" s="3"/>
       <c r="J185" s="3"/>
-      <c r="K185" s="41"/>
+      <c r="K185" s="53"/>
     </row>
     <row r="186" spans="1:11">
       <c r="A186" s="3"/>
@@ -5128,7 +5391,7 @@
       <c r="H186" s="3"/>
       <c r="I186" s="3"/>
       <c r="J186" s="3"/>
-      <c r="K186" s="41"/>
+      <c r="K186" s="53"/>
     </row>
     <row r="187" spans="1:11">
       <c r="A187" s="3"/>
@@ -5140,7 +5403,7 @@
       <c r="H187" s="3"/>
       <c r="I187" s="3"/>
       <c r="J187" s="3"/>
-      <c r="K187" s="41"/>
+      <c r="K187" s="53"/>
     </row>
     <row r="188" spans="1:11">
       <c r="A188" s="3"/>
@@ -5152,7 +5415,7 @@
       <c r="H188" s="3"/>
       <c r="I188" s="3"/>
       <c r="J188" s="3"/>
-      <c r="K188" s="41"/>
+      <c r="K188" s="53"/>
     </row>
     <row r="189" spans="1:11">
       <c r="A189" s="3"/>
@@ -5164,7 +5427,7 @@
       <c r="H189" s="3"/>
       <c r="I189" s="3"/>
       <c r="J189" s="3"/>
-      <c r="K189" s="41"/>
+      <c r="K189" s="53"/>
     </row>
     <row r="190" spans="1:11">
       <c r="A190" s="3"/>
@@ -5176,7 +5439,7 @@
       <c r="H190" s="3"/>
       <c r="I190" s="3"/>
       <c r="J190" s="3"/>
-      <c r="K190" s="41"/>
+      <c r="K190" s="53"/>
     </row>
     <row r="191" spans="1:11">
       <c r="A191" s="3"/>
@@ -5188,7 +5451,7 @@
       <c r="H191" s="3"/>
       <c r="I191" s="3"/>
       <c r="J191" s="3"/>
-      <c r="K191" s="41"/>
+      <c r="K191" s="53"/>
     </row>
     <row r="192" spans="1:11">
       <c r="A192" s="3"/>
@@ -5200,7 +5463,7 @@
       <c r="H192" s="3"/>
       <c r="I192" s="3"/>
       <c r="J192" s="3"/>
-      <c r="K192" s="41"/>
+      <c r="K192" s="53"/>
     </row>
     <row r="193" spans="1:11">
       <c r="A193" s="3"/>
@@ -5212,7 +5475,7 @@
       <c r="H193" s="3"/>
       <c r="I193" s="3"/>
       <c r="J193" s="3"/>
-      <c r="K193" s="41"/>
+      <c r="K193" s="53"/>
     </row>
     <row r="194" spans="1:11">
       <c r="A194" s="3"/>
@@ -5224,7 +5487,7 @@
       <c r="H194" s="3"/>
       <c r="I194" s="3"/>
       <c r="J194" s="3"/>
-      <c r="K194" s="41"/>
+      <c r="K194" s="53"/>
     </row>
     <row r="195" spans="1:11">
       <c r="A195" s="3"/>
@@ -5236,7 +5499,7 @@
       <c r="H195" s="3"/>
       <c r="I195" s="3"/>
       <c r="J195" s="3"/>
-      <c r="K195" s="41"/>
+      <c r="K195" s="53"/>
     </row>
     <row r="196" spans="1:11">
       <c r="A196" s="3"/>
@@ -5248,7 +5511,7 @@
       <c r="H196" s="3"/>
       <c r="I196" s="3"/>
       <c r="J196" s="3"/>
-      <c r="K196" s="41"/>
+      <c r="K196" s="53"/>
     </row>
     <row r="197" spans="1:11">
       <c r="A197" s="3"/>
@@ -5260,7 +5523,7 @@
       <c r="H197" s="3"/>
       <c r="I197" s="3"/>
       <c r="J197" s="3"/>
-      <c r="K197" s="41"/>
+      <c r="K197" s="53"/>
     </row>
     <row r="198" spans="1:11">
       <c r="A198" s="3"/>
@@ -5272,7 +5535,7 @@
       <c r="H198" s="3"/>
       <c r="I198" s="3"/>
       <c r="J198" s="3"/>
-      <c r="K198" s="41"/>
+      <c r="K198" s="53"/>
     </row>
     <row r="199" spans="1:11">
       <c r="A199" s="3"/>
@@ -5284,7 +5547,7 @@
       <c r="H199" s="3"/>
       <c r="I199" s="3"/>
       <c r="J199" s="3"/>
-      <c r="K199" s="41"/>
+      <c r="K199" s="53"/>
     </row>
     <row r="200" spans="1:11">
       <c r="A200" s="3"/>
@@ -5296,7 +5559,7 @@
       <c r="H200" s="3"/>
       <c r="I200" s="3"/>
       <c r="J200" s="3"/>
-      <c r="K200" s="41"/>
+      <c r="K200" s="53"/>
     </row>
     <row r="201" spans="1:11">
       <c r="A201" s="3"/>
@@ -5308,7 +5571,7 @@
       <c r="H201" s="3"/>
       <c r="I201" s="3"/>
       <c r="J201" s="3"/>
-      <c r="K201" s="41"/>
+      <c r="K201" s="53"/>
     </row>
     <row r="202" spans="1:11">
       <c r="A202" s="3"/>
@@ -5320,7 +5583,7 @@
       <c r="H202" s="3"/>
       <c r="I202" s="3"/>
       <c r="J202" s="3"/>
-      <c r="K202" s="41"/>
+      <c r="K202" s="53"/>
     </row>
     <row r="203" spans="1:11">
       <c r="A203" s="3"/>
@@ -5332,7 +5595,7 @@
       <c r="H203" s="3"/>
       <c r="I203" s="3"/>
       <c r="J203" s="3"/>
-      <c r="K203" s="41"/>
+      <c r="K203" s="53"/>
     </row>
     <row r="204" spans="1:11">
       <c r="A204" s="3"/>
@@ -5344,7 +5607,7 @@
       <c r="H204" s="3"/>
       <c r="I204" s="3"/>
       <c r="J204" s="3"/>
-      <c r="K204" s="41"/>
+      <c r="K204" s="53"/>
     </row>
     <row r="205" spans="1:11">
       <c r="A205" s="3"/>
@@ -5356,7 +5619,7 @@
       <c r="H205" s="3"/>
       <c r="I205" s="3"/>
       <c r="J205" s="3"/>
-      <c r="K205" s="41"/>
+      <c r="K205" s="53"/>
     </row>
     <row r="206" spans="1:11">
       <c r="A206" s="3"/>
@@ -5368,7 +5631,7 @@
       <c r="H206" s="3"/>
       <c r="I206" s="3"/>
       <c r="J206" s="3"/>
-      <c r="K206" s="41"/>
+      <c r="K206" s="53"/>
     </row>
     <row r="207" spans="1:11">
       <c r="A207" s="3"/>
@@ -5380,7 +5643,7 @@
       <c r="H207" s="3"/>
       <c r="I207" s="3"/>
       <c r="J207" s="3"/>
-      <c r="K207" s="41"/>
+      <c r="K207" s="53"/>
     </row>
     <row r="208" spans="1:11">
       <c r="A208" s="3"/>
@@ -5392,7 +5655,7 @@
       <c r="H208" s="3"/>
       <c r="I208" s="3"/>
       <c r="J208" s="3"/>
-      <c r="K208" s="41"/>
+      <c r="K208" s="53"/>
     </row>
     <row r="209" spans="1:11">
       <c r="A209" s="3"/>
@@ -5404,7 +5667,7 @@
       <c r="H209" s="3"/>
       <c r="I209" s="3"/>
       <c r="J209" s="3"/>
-      <c r="K209" s="41"/>
+      <c r="K209" s="53"/>
     </row>
     <row r="210" spans="1:11">
       <c r="A210" s="3"/>
@@ -5416,7 +5679,7 @@
       <c r="H210" s="3"/>
       <c r="I210" s="3"/>
       <c r="J210" s="3"/>
-      <c r="K210" s="41"/>
+      <c r="K210" s="53"/>
     </row>
     <row r="211" spans="1:11">
       <c r="A211" s="3"/>
@@ -5428,7 +5691,7 @@
       <c r="H211" s="3"/>
       <c r="I211" s="3"/>
       <c r="J211" s="3"/>
-      <c r="K211" s="41"/>
+      <c r="K211" s="53"/>
     </row>
     <row r="212" spans="1:11">
       <c r="A212" s="3"/>
@@ -5440,7 +5703,7 @@
       <c r="H212" s="3"/>
       <c r="I212" s="3"/>
       <c r="J212" s="3"/>
-      <c r="K212" s="41"/>
+      <c r="K212" s="53"/>
     </row>
     <row r="213" spans="1:11">
       <c r="A213" s="3"/>
@@ -5452,7 +5715,7 @@
       <c r="H213" s="3"/>
       <c r="I213" s="3"/>
       <c r="J213" s="3"/>
-      <c r="K213" s="41"/>
+      <c r="K213" s="53"/>
     </row>
     <row r="214" spans="1:11">
       <c r="A214" s="3"/>
@@ -5464,7 +5727,7 @@
       <c r="H214" s="3"/>
       <c r="I214" s="3"/>
       <c r="J214" s="3"/>
-      <c r="K214" s="41"/>
+      <c r="K214" s="53"/>
     </row>
     <row r="215" spans="1:11">
       <c r="A215" s="3"/>
@@ -5476,7 +5739,7 @@
       <c r="H215" s="3"/>
       <c r="I215" s="3"/>
       <c r="J215" s="3"/>
-      <c r="K215" s="41"/>
+      <c r="K215" s="53"/>
     </row>
     <row r="216" spans="1:11">
       <c r="A216" s="3"/>
@@ -5488,7 +5751,7 @@
       <c r="H216" s="3"/>
       <c r="I216" s="3"/>
       <c r="J216" s="3"/>
-      <c r="K216" s="41"/>
+      <c r="K216" s="53"/>
     </row>
     <row r="217" spans="1:11">
       <c r="A217" s="3"/>
@@ -5500,7 +5763,7 @@
       <c r="H217" s="3"/>
       <c r="I217" s="3"/>
       <c r="J217" s="3"/>
-      <c r="K217" s="41"/>
+      <c r="K217" s="53"/>
     </row>
     <row r="218" spans="1:11">
       <c r="A218" s="3"/>
@@ -5512,7 +5775,7 @@
       <c r="H218" s="3"/>
       <c r="I218" s="3"/>
       <c r="J218" s="3"/>
-      <c r="K218" s="41"/>
+      <c r="K218" s="53"/>
     </row>
     <row r="219" spans="1:11">
       <c r="A219" s="3"/>
@@ -5524,7 +5787,7 @@
       <c r="H219" s="3"/>
       <c r="I219" s="3"/>
       <c r="J219" s="3"/>
-      <c r="K219" s="41"/>
+      <c r="K219" s="53"/>
     </row>
     <row r="220" spans="1:11">
       <c r="A220" s="3"/>
@@ -5536,7 +5799,7 @@
       <c r="H220" s="3"/>
       <c r="I220" s="3"/>
       <c r="J220" s="3"/>
-      <c r="K220" s="41"/>
+      <c r="K220" s="53"/>
     </row>
     <row r="221" spans="1:11">
       <c r="A221" s="3"/>
@@ -5548,7 +5811,7 @@
       <c r="H221" s="3"/>
       <c r="I221" s="3"/>
       <c r="J221" s="3"/>
-      <c r="K221" s="41"/>
+      <c r="K221" s="53"/>
     </row>
     <row r="222" spans="1:11">
       <c r="A222" s="3"/>
@@ -5560,7 +5823,7 @@
       <c r="H222" s="3"/>
       <c r="I222" s="3"/>
       <c r="J222" s="3"/>
-      <c r="K222" s="41"/>
+      <c r="K222" s="53"/>
     </row>
     <row r="223" spans="1:11">
       <c r="A223" s="3"/>
@@ -5572,7 +5835,7 @@
       <c r="H223" s="3"/>
       <c r="I223" s="3"/>
       <c r="J223" s="3"/>
-      <c r="K223" s="41"/>
+      <c r="K223" s="53"/>
     </row>
     <row r="224" spans="1:11">
       <c r="A224" s="3"/>
@@ -5584,7 +5847,7 @@
       <c r="H224" s="3"/>
       <c r="I224" s="3"/>
       <c r="J224" s="3"/>
-      <c r="K224" s="41"/>
+      <c r="K224" s="53"/>
     </row>
     <row r="225" spans="1:11">
       <c r="A225" s="3"/>
@@ -5596,7 +5859,7 @@
       <c r="H225" s="3"/>
       <c r="I225" s="3"/>
       <c r="J225" s="3"/>
-      <c r="K225" s="41"/>
+      <c r="K225" s="53"/>
     </row>
     <row r="226" spans="1:11">
       <c r="A226" s="3"/>
@@ -5608,7 +5871,7 @@
       <c r="H226" s="3"/>
       <c r="I226" s="3"/>
       <c r="J226" s="3"/>
-      <c r="K226" s="41"/>
+      <c r="K226" s="53"/>
     </row>
     <row r="227" spans="1:11">
       <c r="A227" s="3"/>
@@ -5620,7 +5883,7 @@
       <c r="H227" s="3"/>
       <c r="I227" s="3"/>
       <c r="J227" s="3"/>
-      <c r="K227" s="41"/>
+      <c r="K227" s="53"/>
     </row>
     <row r="228" spans="1:11">
       <c r="A228" s="3"/>
@@ -5632,7 +5895,7 @@
       <c r="H228" s="3"/>
       <c r="I228" s="3"/>
       <c r="J228" s="3"/>
-      <c r="K228" s="41"/>
+      <c r="K228" s="53"/>
     </row>
     <row r="229" spans="1:11">
       <c r="A229" s="3"/>
@@ -5644,7 +5907,7 @@
       <c r="H229" s="3"/>
       <c r="I229" s="3"/>
       <c r="J229" s="3"/>
-      <c r="K229" s="41"/>
+      <c r="K229" s="53"/>
     </row>
     <row r="230" spans="1:11">
       <c r="A230" s="3"/>
@@ -5656,7 +5919,7 @@
       <c r="H230" s="3"/>
       <c r="I230" s="3"/>
       <c r="J230" s="3"/>
-      <c r="K230" s="41"/>
+      <c r="K230" s="53"/>
     </row>
     <row r="231" spans="1:11">
       <c r="A231" s="3"/>
@@ -5668,7 +5931,7 @@
       <c r="H231" s="3"/>
       <c r="I231" s="3"/>
       <c r="J231" s="3"/>
-      <c r="K231" s="41"/>
+      <c r="K231" s="53"/>
     </row>
     <row r="232" spans="1:11">
       <c r="A232" s="3"/>
@@ -5680,7 +5943,7 @@
       <c r="H232" s="3"/>
       <c r="I232" s="3"/>
       <c r="J232" s="3"/>
-      <c r="K232" s="41"/>
+      <c r="K232" s="53"/>
     </row>
     <row r="233" spans="1:11">
       <c r="A233" s="3"/>
@@ -5692,7 +5955,7 @@
       <c r="H233" s="3"/>
       <c r="I233" s="3"/>
       <c r="J233" s="3"/>
-      <c r="K233" s="41"/>
+      <c r="K233" s="53"/>
     </row>
     <row r="234" spans="1:11">
       <c r="A234" s="3"/>
@@ -5704,7 +5967,7 @@
       <c r="H234" s="3"/>
       <c r="I234" s="3"/>
       <c r="J234" s="3"/>
-      <c r="K234" s="41"/>
+      <c r="K234" s="53"/>
     </row>
     <row r="235" spans="1:11">
       <c r="A235" s="3"/>
@@ -5716,7 +5979,7 @@
       <c r="H235" s="3"/>
       <c r="I235" s="3"/>
       <c r="J235" s="3"/>
-      <c r="K235" s="41"/>
+      <c r="K235" s="53"/>
     </row>
     <row r="236" spans="1:11">
       <c r="A236" s="3"/>
@@ -5728,7 +5991,7 @@
       <c r="H236" s="3"/>
       <c r="I236" s="3"/>
       <c r="J236" s="3"/>
-      <c r="K236" s="41"/>
+      <c r="K236" s="53"/>
     </row>
     <row r="237" spans="1:11">
       <c r="A237" s="3"/>
@@ -5740,7 +6003,7 @@
       <c r="H237" s="3"/>
       <c r="I237" s="3"/>
       <c r="J237" s="3"/>
-      <c r="K237" s="41"/>
+      <c r="K237" s="53"/>
     </row>
     <row r="238" spans="1:11">
       <c r="A238" s="3"/>
@@ -5752,7 +6015,7 @@
       <c r="H238" s="3"/>
       <c r="I238" s="3"/>
       <c r="J238" s="3"/>
-      <c r="K238" s="41"/>
+      <c r="K238" s="53"/>
     </row>
     <row r="239" spans="1:11">
       <c r="A239" s="3"/>
@@ -5764,7 +6027,7 @@
       <c r="H239" s="3"/>
       <c r="I239" s="3"/>
       <c r="J239" s="3"/>
-      <c r="K239" s="41"/>
+      <c r="K239" s="53"/>
     </row>
     <row r="240" spans="1:11">
       <c r="A240" s="3"/>
@@ -5776,7 +6039,7 @@
       <c r="H240" s="3"/>
       <c r="I240" s="3"/>
       <c r="J240" s="3"/>
-      <c r="K240" s="41"/>
+      <c r="K240" s="53"/>
     </row>
     <row r="241" spans="1:11">
       <c r="A241" s="3"/>
@@ -5788,7 +6051,7 @@
       <c r="H241" s="3"/>
       <c r="I241" s="3"/>
       <c r="J241" s="3"/>
-      <c r="K241" s="41"/>
+      <c r="K241" s="53"/>
     </row>
     <row r="242" spans="1:11">
       <c r="A242" s="3"/>
@@ -5800,7 +6063,7 @@
       <c r="H242" s="3"/>
       <c r="I242" s="3"/>
       <c r="J242" s="3"/>
-      <c r="K242" s="41"/>
+      <c r="K242" s="53"/>
     </row>
     <row r="243" spans="1:11">
       <c r="A243" s="3"/>
@@ -5812,7 +6075,7 @@
       <c r="H243" s="3"/>
       <c r="I243" s="3"/>
       <c r="J243" s="3"/>
-      <c r="K243" s="41"/>
+      <c r="K243" s="53"/>
     </row>
     <row r="244" spans="1:11">
       <c r="A244" s="3"/>
@@ -5824,7 +6087,7 @@
       <c r="H244" s="3"/>
       <c r="I244" s="3"/>
       <c r="J244" s="3"/>
-      <c r="K244" s="41"/>
+      <c r="K244" s="53"/>
     </row>
     <row r="245" spans="1:11">
       <c r="A245" s="3"/>
@@ -5836,7 +6099,7 @@
       <c r="H245" s="3"/>
       <c r="I245" s="3"/>
       <c r="J245" s="3"/>
-      <c r="K245" s="41"/>
+      <c r="K245" s="53"/>
     </row>
     <row r="246" spans="1:11">
       <c r="A246" s="3"/>
@@ -5848,7 +6111,7 @@
       <c r="H246" s="3"/>
       <c r="I246" s="3"/>
       <c r="J246" s="3"/>
-      <c r="K246" s="41"/>
+      <c r="K246" s="53"/>
     </row>
     <row r="247" spans="1:11">
       <c r="A247" s="3"/>
@@ -5860,7 +6123,7 @@
       <c r="H247" s="3"/>
       <c r="I247" s="3"/>
       <c r="J247" s="3"/>
-      <c r="K247" s="41"/>
+      <c r="K247" s="53"/>
     </row>
     <row r="248" spans="1:11">
       <c r="A248" s="3"/>
@@ -5872,7 +6135,7 @@
       <c r="H248" s="3"/>
       <c r="I248" s="3"/>
       <c r="J248" s="3"/>
-      <c r="K248" s="41"/>
+      <c r="K248" s="53"/>
     </row>
     <row r="249" spans="1:11">
       <c r="A249" s="3"/>
@@ -5884,7 +6147,7 @@
       <c r="H249" s="3"/>
       <c r="I249" s="3"/>
       <c r="J249" s="3"/>
-      <c r="K249" s="41"/>
+      <c r="K249" s="53"/>
     </row>
     <row r="250" spans="1:11">
       <c r="A250" s="3"/>
@@ -5896,7 +6159,7 @@
       <c r="H250" s="3"/>
       <c r="I250" s="3"/>
       <c r="J250" s="3"/>
-      <c r="K250" s="41"/>
+      <c r="K250" s="53"/>
     </row>
     <row r="251" spans="1:11">
       <c r="A251" s="3"/>
@@ -5908,7 +6171,7 @@
       <c r="H251" s="3"/>
       <c r="I251" s="3"/>
       <c r="J251" s="3"/>
-      <c r="K251" s="41"/>
+      <c r="K251" s="53"/>
     </row>
     <row r="252" spans="1:11">
       <c r="A252" s="3"/>
@@ -5920,7 +6183,7 @@
       <c r="H252" s="3"/>
       <c r="I252" s="3"/>
       <c r="J252" s="3"/>
-      <c r="K252" s="41"/>
+      <c r="K252" s="53"/>
     </row>
     <row r="253" spans="1:11">
       <c r="A253" s="3"/>
@@ -5932,7 +6195,7 @@
       <c r="H253" s="3"/>
       <c r="I253" s="3"/>
       <c r="J253" s="3"/>
-      <c r="K253" s="41"/>
+      <c r="K253" s="53"/>
     </row>
     <row r="254" spans="1:11">
       <c r="A254" s="3"/>
@@ -5944,7 +6207,7 @@
       <c r="H254" s="3"/>
       <c r="I254" s="3"/>
       <c r="J254" s="3"/>
-      <c r="K254" s="41"/>
+      <c r="K254" s="53"/>
     </row>
     <row r="255" spans="1:11">
       <c r="A255" s="3"/>
@@ -5956,7 +6219,7 @@
       <c r="H255" s="3"/>
       <c r="I255" s="3"/>
       <c r="J255" s="3"/>
-      <c r="K255" s="41"/>
+      <c r="K255" s="53"/>
     </row>
     <row r="256" spans="1:11">
       <c r="A256" s="3"/>
@@ -5968,7 +6231,7 @@
       <c r="H256" s="3"/>
       <c r="I256" s="3"/>
       <c r="J256" s="3"/>
-      <c r="K256" s="41"/>
+      <c r="K256" s="53"/>
     </row>
     <row r="257" spans="1:11">
       <c r="A257" s="3"/>
@@ -5980,7 +6243,7 @@
       <c r="H257" s="3"/>
       <c r="I257" s="3"/>
       <c r="J257" s="3"/>
-      <c r="K257" s="41"/>
+      <c r="K257" s="53"/>
     </row>
     <row r="258" spans="1:11">
       <c r="A258" s="3"/>
@@ -5992,7 +6255,7 @@
       <c r="H258" s="3"/>
       <c r="I258" s="3"/>
       <c r="J258" s="3"/>
-      <c r="K258" s="41"/>
+      <c r="K258" s="53"/>
     </row>
     <row r="259" spans="1:11">
       <c r="A259" s="3"/>
@@ -6004,7 +6267,7 @@
       <c r="H259" s="3"/>
       <c r="I259" s="3"/>
       <c r="J259" s="3"/>
-      <c r="K259" s="41"/>
+      <c r="K259" s="53"/>
     </row>
     <row r="260" spans="1:11">
       <c r="A260" s="3"/>
@@ -6016,7 +6279,7 @@
       <c r="H260" s="3"/>
       <c r="I260" s="3"/>
       <c r="J260" s="3"/>
-      <c r="K260" s="41"/>
+      <c r="K260" s="53"/>
     </row>
     <row r="261" spans="1:11">
       <c r="A261" s="3"/>
@@ -6028,7 +6291,7 @@
       <c r="H261" s="3"/>
       <c r="I261" s="3"/>
       <c r="J261" s="3"/>
-      <c r="K261" s="41"/>
+      <c r="K261" s="53"/>
     </row>
     <row r="262" spans="1:11">
       <c r="A262" s="3"/>
@@ -6040,7 +6303,7 @@
       <c r="H262" s="3"/>
       <c r="I262" s="3"/>
       <c r="J262" s="3"/>
-      <c r="K262" s="41"/>
+      <c r="K262" s="53"/>
     </row>
     <row r="263" spans="1:11">
       <c r="A263" s="3"/>
@@ -6052,7 +6315,7 @@
       <c r="H263" s="3"/>
       <c r="I263" s="3"/>
       <c r="J263" s="3"/>
-      <c r="K263" s="41"/>
+      <c r="K263" s="53"/>
     </row>
     <row r="264" spans="1:11">
       <c r="A264" s="3"/>
@@ -6064,7 +6327,7 @@
       <c r="H264" s="3"/>
       <c r="I264" s="3"/>
       <c r="J264" s="3"/>
-      <c r="K264" s="41"/>
+      <c r="K264" s="53"/>
     </row>
     <row r="265" spans="1:11">
       <c r="A265" s="3"/>
@@ -6076,7 +6339,7 @@
       <c r="H265" s="3"/>
       <c r="I265" s="3"/>
       <c r="J265" s="3"/>
-      <c r="K265" s="41"/>
+      <c r="K265" s="53"/>
     </row>
     <row r="266" spans="1:11">
       <c r="A266" s="3"/>
@@ -6088,7 +6351,7 @@
       <c r="H266" s="3"/>
       <c r="I266" s="3"/>
       <c r="J266" s="3"/>
-      <c r="K266" s="41"/>
+      <c r="K266" s="53"/>
     </row>
     <row r="267" spans="1:11">
       <c r="A267" s="3"/>
@@ -6100,7 +6363,7 @@
       <c r="H267" s="3"/>
       <c r="I267" s="3"/>
       <c r="J267" s="3"/>
-      <c r="K267" s="41"/>
+      <c r="K267" s="53"/>
     </row>
     <row r="268" spans="1:11">
       <c r="A268" s="3"/>
@@ -6112,7 +6375,7 @@
       <c r="H268" s="3"/>
       <c r="I268" s="3"/>
       <c r="J268" s="3"/>
-      <c r="K268" s="41"/>
+      <c r="K268" s="53"/>
     </row>
     <row r="269" spans="1:11">
       <c r="A269" s="3"/>
@@ -6124,7 +6387,7 @@
       <c r="H269" s="3"/>
       <c r="I269" s="3"/>
       <c r="J269" s="3"/>
-      <c r="K269" s="41"/>
+      <c r="K269" s="53"/>
     </row>
     <row r="270" spans="1:11">
       <c r="A270" s="3"/>
@@ -6136,7 +6399,7 @@
       <c r="H270" s="3"/>
       <c r="I270" s="3"/>
       <c r="J270" s="3"/>
-      <c r="K270" s="41"/>
+      <c r="K270" s="53"/>
     </row>
     <row r="271" spans="1:11">
       <c r="A271" s="3"/>
@@ -6148,7 +6411,7 @@
       <c r="H271" s="3"/>
       <c r="I271" s="3"/>
       <c r="J271" s="3"/>
-      <c r="K271" s="41"/>
+      <c r="K271" s="53"/>
     </row>
     <row r="272" spans="1:11">
       <c r="A272" s="3"/>
@@ -6160,7 +6423,7 @@
       <c r="H272" s="3"/>
       <c r="I272" s="3"/>
       <c r="J272" s="3"/>
-      <c r="K272" s="41"/>
+      <c r="K272" s="53"/>
     </row>
     <row r="273" spans="1:11">
       <c r="A273" s="3"/>
@@ -6172,7 +6435,7 @@
       <c r="H273" s="3"/>
       <c r="I273" s="3"/>
       <c r="J273" s="3"/>
-      <c r="K273" s="41"/>
+      <c r="K273" s="53"/>
     </row>
     <row r="274" spans="1:11">
       <c r="A274" s="3"/>
@@ -6184,7 +6447,7 @@
       <c r="H274" s="3"/>
       <c r="I274" s="3"/>
       <c r="J274" s="3"/>
-      <c r="K274" s="41"/>
+      <c r="K274" s="53"/>
     </row>
     <row r="275" spans="1:11">
       <c r="A275" s="3"/>
@@ -6196,7 +6459,7 @@
       <c r="H275" s="3"/>
       <c r="I275" s="3"/>
       <c r="J275" s="3"/>
-      <c r="K275" s="41"/>
+      <c r="K275" s="53"/>
     </row>
     <row r="276" spans="1:11">
       <c r="A276" s="3"/>
@@ -6208,7 +6471,7 @@
       <c r="H276" s="3"/>
       <c r="I276" s="3"/>
       <c r="J276" s="3"/>
-      <c r="K276" s="41"/>
+      <c r="K276" s="53"/>
     </row>
     <row r="277" spans="1:11">
       <c r="A277" s="3"/>
@@ -6220,7 +6483,7 @@
       <c r="H277" s="3"/>
       <c r="I277" s="3"/>
       <c r="J277" s="3"/>
-      <c r="K277" s="41"/>
+      <c r="K277" s="53"/>
     </row>
     <row r="278" spans="1:11">
       <c r="A278" s="3"/>
@@ -6232,7 +6495,7 @@
       <c r="H278" s="3"/>
       <c r="I278" s="3"/>
       <c r="J278" s="3"/>
-      <c r="K278" s="41"/>
+      <c r="K278" s="53"/>
     </row>
     <row r="279" spans="1:11">
       <c r="A279" s="3"/>
@@ -6244,7 +6507,7 @@
       <c r="H279" s="3"/>
       <c r="I279" s="3"/>
       <c r="J279" s="3"/>
-      <c r="K279" s="41"/>
+      <c r="K279" s="53"/>
     </row>
     <row r="280" spans="1:11">
       <c r="A280" s="3"/>
@@ -6256,7 +6519,7 @@
       <c r="H280" s="3"/>
       <c r="I280" s="3"/>
       <c r="J280" s="3"/>
-      <c r="K280" s="41"/>
+      <c r="K280" s="53"/>
     </row>
     <row r="281" spans="1:11">
       <c r="A281" s="3"/>
@@ -6268,7 +6531,7 @@
       <c r="H281" s="3"/>
       <c r="I281" s="3"/>
       <c r="J281" s="3"/>
-      <c r="K281" s="41"/>
+      <c r="K281" s="53"/>
     </row>
     <row r="282" spans="1:11">
       <c r="A282" s="3"/>
@@ -6280,7 +6543,7 @@
       <c r="H282" s="3"/>
       <c r="I282" s="3"/>
       <c r="J282" s="3"/>
-      <c r="K282" s="41"/>
+      <c r="K282" s="53"/>
     </row>
     <row r="283" spans="1:11">
       <c r="A283" s="3"/>
@@ -6292,7 +6555,7 @@
       <c r="H283" s="3"/>
       <c r="I283" s="3"/>
       <c r="J283" s="3"/>
-      <c r="K283" s="41"/>
+      <c r="K283" s="53"/>
     </row>
     <row r="284" spans="1:11">
       <c r="A284" s="3"/>
@@ -6304,7 +6567,7 @@
       <c r="H284" s="3"/>
       <c r="I284" s="3"/>
       <c r="J284" s="3"/>
-      <c r="K284" s="41"/>
+      <c r="K284" s="53"/>
     </row>
     <row r="285" spans="1:11">
       <c r="A285" s="3"/>
@@ -6316,7 +6579,7 @@
       <c r="H285" s="3"/>
       <c r="I285" s="3"/>
       <c r="J285" s="3"/>
-      <c r="K285" s="41"/>
+      <c r="K285" s="53"/>
     </row>
     <row r="286" spans="1:11">
       <c r="A286" s="3"/>
@@ -6328,7 +6591,7 @@
       <c r="H286" s="3"/>
       <c r="I286" s="3"/>
       <c r="J286" s="3"/>
-      <c r="K286" s="41"/>
+      <c r="K286" s="53"/>
     </row>
     <row r="287" spans="1:11">
       <c r="A287" s="3"/>
@@ -6340,7 +6603,7 @@
       <c r="H287" s="3"/>
       <c r="I287" s="3"/>
       <c r="J287" s="3"/>
-      <c r="K287" s="41"/>
+      <c r="K287" s="53"/>
     </row>
     <row r="288" spans="1:11">
       <c r="A288" s="3"/>
@@ -6352,7 +6615,7 @@
       <c r="H288" s="3"/>
       <c r="I288" s="3"/>
       <c r="J288" s="3"/>
-      <c r="K288" s="41"/>
+      <c r="K288" s="53"/>
     </row>
     <row r="289" spans="1:11">
       <c r="A289" s="3"/>
@@ -6364,7 +6627,7 @@
       <c r="H289" s="3"/>
       <c r="I289" s="3"/>
       <c r="J289" s="3"/>
-      <c r="K289" s="41"/>
+      <c r="K289" s="53"/>
     </row>
     <row r="290" spans="1:11">
       <c r="A290" s="3"/>
@@ -6376,7 +6639,7 @@
       <c r="H290" s="3"/>
       <c r="I290" s="3"/>
       <c r="J290" s="3"/>
-      <c r="K290" s="41"/>
+      <c r="K290" s="53"/>
     </row>
     <row r="291" spans="1:11">
       <c r="A291" s="3"/>
@@ -6388,7 +6651,7 @@
       <c r="H291" s="3"/>
       <c r="I291" s="3"/>
       <c r="J291" s="3"/>
-      <c r="K291" s="41"/>
+      <c r="K291" s="53"/>
     </row>
     <row r="292" spans="1:11">
       <c r="A292" s="3"/>
@@ -6400,7 +6663,7 @@
       <c r="H292" s="3"/>
       <c r="I292" s="3"/>
       <c r="J292" s="3"/>
-      <c r="K292" s="41"/>
+      <c r="K292" s="53"/>
     </row>
     <row r="293" spans="1:11">
       <c r="A293" s="3"/>
@@ -6412,7 +6675,7 @@
       <c r="H293" s="3"/>
       <c r="I293" s="3"/>
       <c r="J293" s="3"/>
-      <c r="K293" s="41"/>
+      <c r="K293" s="53"/>
     </row>
     <row r="294" spans="1:11">
       <c r="A294" s="3"/>
@@ -6424,7 +6687,7 @@
       <c r="H294" s="3"/>
       <c r="I294" s="3"/>
       <c r="J294" s="3"/>
-      <c r="K294" s="41"/>
+      <c r="K294" s="53"/>
     </row>
     <row r="295" spans="1:11">
       <c r="A295" s="3"/>
@@ -6436,7 +6699,7 @@
       <c r="H295" s="3"/>
       <c r="I295" s="3"/>
       <c r="J295" s="3"/>
-      <c r="K295" s="41"/>
+      <c r="K295" s="53"/>
     </row>
     <row r="296" spans="1:11">
       <c r="A296" s="3"/>
@@ -6448,7 +6711,7 @@
       <c r="H296" s="3"/>
       <c r="I296" s="3"/>
       <c r="J296" s="3"/>
-      <c r="K296" s="41"/>
+      <c r="K296" s="53"/>
     </row>
     <row r="297" spans="1:11">
       <c r="A297" s="3"/>
@@ -6460,7 +6723,7 @@
       <c r="H297" s="3"/>
       <c r="I297" s="3"/>
       <c r="J297" s="3"/>
-      <c r="K297" s="41"/>
+      <c r="K297" s="53"/>
     </row>
     <row r="298" spans="1:11">
       <c r="A298" s="3"/>
@@ -6472,7 +6735,7 @@
       <c r="H298" s="3"/>
       <c r="I298" s="3"/>
       <c r="J298" s="3"/>
-      <c r="K298" s="41"/>
+      <c r="K298" s="53"/>
     </row>
     <row r="299" spans="1:11">
       <c r="A299" s="3"/>
@@ -6484,7 +6747,7 @@
       <c r="H299" s="3"/>
       <c r="I299" s="3"/>
       <c r="J299" s="3"/>
-      <c r="K299" s="41"/>
+      <c r="K299" s="53"/>
     </row>
     <row r="300" spans="1:11">
       <c r="A300" s="3"/>
@@ -6496,7 +6759,7 @@
       <c r="H300" s="3"/>
       <c r="I300" s="3"/>
       <c r="J300" s="3"/>
-      <c r="K300" s="41"/>
+      <c r="K300" s="53"/>
     </row>
     <row r="301" spans="1:11">
       <c r="A301" s="3"/>
@@ -6508,7 +6771,7 @@
       <c r="H301" s="3"/>
       <c r="I301" s="3"/>
       <c r="J301" s="3"/>
-      <c r="K301" s="41"/>
+      <c r="K301" s="53"/>
     </row>
     <row r="302" spans="1:11">
       <c r="A302" s="3"/>
@@ -6520,7 +6783,7 @@
       <c r="H302" s="3"/>
       <c r="I302" s="3"/>
       <c r="J302" s="3"/>
-      <c r="K302" s="41"/>
+      <c r="K302" s="53"/>
     </row>
     <row r="303" spans="1:11">
       <c r="A303" s="3"/>
@@ -6532,7 +6795,7 @@
       <c r="H303" s="3"/>
       <c r="I303" s="3"/>
       <c r="J303" s="3"/>
-      <c r="K303" s="41"/>
+      <c r="K303" s="53"/>
     </row>
     <row r="304" spans="1:11">
       <c r="A304" s="3"/>
@@ -6544,7 +6807,7 @@
       <c r="H304" s="3"/>
       <c r="I304" s="3"/>
       <c r="J304" s="3"/>
-      <c r="K304" s="41"/>
+      <c r="K304" s="53"/>
     </row>
     <row r="305" spans="1:11">
       <c r="A305" s="3"/>
@@ -6556,7 +6819,7 @@
       <c r="H305" s="3"/>
       <c r="I305" s="3"/>
       <c r="J305" s="3"/>
-      <c r="K305" s="41"/>
+      <c r="K305" s="53"/>
     </row>
     <row r="306" spans="1:11">
       <c r="A306" s="3"/>
@@ -6568,7 +6831,7 @@
       <c r="H306" s="3"/>
       <c r="I306" s="3"/>
       <c r="J306" s="3"/>
-      <c r="K306" s="41"/>
+      <c r="K306" s="53"/>
     </row>
     <row r="307" spans="1:11">
       <c r="A307" s="3"/>
@@ -6580,7 +6843,7 @@
       <c r="H307" s="3"/>
       <c r="I307" s="3"/>
       <c r="J307" s="3"/>
-      <c r="K307" s="41"/>
+      <c r="K307" s="53"/>
     </row>
     <row r="308" spans="1:11">
       <c r="A308" s="3"/>
@@ -6592,7 +6855,7 @@
       <c r="H308" s="3"/>
       <c r="I308" s="3"/>
       <c r="J308" s="3"/>
-      <c r="K308" s="41"/>
+      <c r="K308" s="53"/>
     </row>
     <row r="309" spans="1:11">
       <c r="A309" s="3"/>
@@ -6604,7 +6867,7 @@
       <c r="H309" s="3"/>
       <c r="I309" s="3"/>
       <c r="J309" s="3"/>
-      <c r="K309" s="41"/>
+      <c r="K309" s="53"/>
     </row>
     <row r="310" spans="1:11">
       <c r="A310" s="3"/>
@@ -6616,7 +6879,7 @@
       <c r="H310" s="3"/>
       <c r="I310" s="3"/>
       <c r="J310" s="3"/>
-      <c r="K310" s="41"/>
+      <c r="K310" s="53"/>
     </row>
     <row r="311" spans="1:11">
       <c r="A311" s="3"/>
@@ -6628,7 +6891,7 @@
       <c r="H311" s="3"/>
       <c r="I311" s="3"/>
       <c r="J311" s="3"/>
-      <c r="K311" s="41"/>
+      <c r="K311" s="53"/>
     </row>
     <row r="312" spans="1:11">
       <c r="A312" s="3"/>
@@ -6640,7 +6903,7 @@
       <c r="H312" s="3"/>
       <c r="I312" s="3"/>
       <c r="J312" s="3"/>
-      <c r="K312" s="41"/>
+      <c r="K312" s="53"/>
     </row>
     <row r="313" spans="1:11">
       <c r="A313" s="3"/>
@@ -6652,7 +6915,7 @@
       <c r="H313" s="3"/>
       <c r="I313" s="3"/>
       <c r="J313" s="3"/>
-      <c r="K313" s="41"/>
+      <c r="K313" s="53"/>
     </row>
     <row r="314" spans="1:11">
       <c r="A314" s="3"/>
@@ -6664,7 +6927,7 @@
       <c r="H314" s="3"/>
       <c r="I314" s="3"/>
       <c r="J314" s="3"/>
-      <c r="K314" s="41"/>
+      <c r="K314" s="53"/>
     </row>
     <row r="315" spans="1:11">
       <c r="A315" s="3"/>
@@ -6676,7 +6939,7 @@
       <c r="H315" s="3"/>
       <c r="I315" s="3"/>
       <c r="J315" s="3"/>
-      <c r="K315" s="41"/>
+      <c r="K315" s="53"/>
     </row>
     <row r="316" spans="1:11">
       <c r="A316" s="3"/>
@@ -6688,7 +6951,7 @@
       <c r="H316" s="3"/>
       <c r="I316" s="3"/>
       <c r="J316" s="3"/>
-      <c r="K316" s="41"/>
+      <c r="K316" s="53"/>
     </row>
     <row r="317" spans="1:11">
       <c r="A317" s="3"/>
@@ -6700,7 +6963,7 @@
       <c r="H317" s="3"/>
       <c r="I317" s="3"/>
       <c r="J317" s="3"/>
-      <c r="K317" s="41"/>
+      <c r="K317" s="53"/>
     </row>
     <row r="318" spans="1:11">
       <c r="A318" s="3"/>
@@ -6712,7 +6975,7 @@
       <c r="H318" s="3"/>
       <c r="I318" s="3"/>
       <c r="J318" s="3"/>
-      <c r="K318" s="41"/>
+      <c r="K318" s="53"/>
     </row>
     <row r="319" spans="1:11">
       <c r="A319" s="3"/>
@@ -6724,7 +6987,7 @@
       <c r="H319" s="3"/>
       <c r="I319" s="3"/>
       <c r="J319" s="3"/>
-      <c r="K319" s="41"/>
+      <c r="K319" s="53"/>
     </row>
     <row r="320" spans="1:11">
       <c r="A320" s="3"/>
@@ -6736,7 +6999,7 @@
       <c r="H320" s="3"/>
       <c r="I320" s="3"/>
       <c r="J320" s="3"/>
-      <c r="K320" s="41"/>
+      <c r="K320" s="53"/>
     </row>
     <row r="321" spans="1:11">
       <c r="A321" s="3"/>
@@ -6748,7 +7011,7 @@
       <c r="H321" s="3"/>
       <c r="I321" s="3"/>
       <c r="J321" s="3"/>
-      <c r="K321" s="41"/>
+      <c r="K321" s="53"/>
     </row>
     <row r="322" spans="1:11">
       <c r="A322" s="3"/>
@@ -6760,7 +7023,7 @@
       <c r="H322" s="3"/>
       <c r="I322" s="3"/>
       <c r="J322" s="3"/>
-      <c r="K322" s="41"/>
+      <c r="K322" s="53"/>
     </row>
     <row r="323" spans="1:11">
       <c r="A323" s="3"/>
@@ -6772,7 +7035,7 @@
       <c r="H323" s="3"/>
       <c r="I323" s="3"/>
       <c r="J323" s="3"/>
-      <c r="K323" s="41"/>
+      <c r="K323" s="53"/>
     </row>
     <row r="324" spans="1:11">
       <c r="A324" s="3"/>
@@ -6784,7 +7047,7 @@
       <c r="H324" s="3"/>
       <c r="I324" s="3"/>
       <c r="J324" s="3"/>
-      <c r="K324" s="41"/>
+      <c r="K324" s="53"/>
     </row>
     <row r="325" spans="1:11">
       <c r="A325" s="3"/>
@@ -6796,7 +7059,7 @@
       <c r="H325" s="3"/>
       <c r="I325" s="3"/>
       <c r="J325" s="3"/>
-      <c r="K325" s="41"/>
+      <c r="K325" s="53"/>
     </row>
     <row r="326" spans="1:11">
       <c r="A326" s="3"/>
@@ -6808,7 +7071,7 @@
       <c r="H326" s="3"/>
       <c r="I326" s="3"/>
       <c r="J326" s="3"/>
-      <c r="K326" s="41"/>
+      <c r="K326" s="53"/>
     </row>
     <row r="327" spans="1:11">
       <c r="A327" s="3"/>
@@ -6820,7 +7083,7 @@
       <c r="H327" s="3"/>
       <c r="I327" s="3"/>
       <c r="J327" s="3"/>
-      <c r="K327" s="41"/>
+      <c r="K327" s="53"/>
     </row>
     <row r="328" spans="1:11">
       <c r="A328" s="3"/>
@@ -6832,7 +7095,7 @@
       <c r="H328" s="3"/>
       <c r="I328" s="3"/>
       <c r="J328" s="3"/>
-      <c r="K328" s="41"/>
+      <c r="K328" s="53"/>
     </row>
     <row r="329" spans="1:11">
       <c r="A329" s="3"/>
@@ -6844,7 +7107,7 @@
       <c r="H329" s="3"/>
       <c r="I329" s="3"/>
       <c r="J329" s="3"/>
-      <c r="K329" s="41"/>
+      <c r="K329" s="53"/>
     </row>
     <row r="330" spans="1:11">
       <c r="A330" s="3"/>
@@ -6856,7 +7119,7 @@
       <c r="H330" s="3"/>
       <c r="I330" s="3"/>
       <c r="J330" s="3"/>
-      <c r="K330" s="41"/>
+      <c r="K330" s="53"/>
     </row>
     <row r="331" spans="1:11">
       <c r="A331" s="3"/>
@@ -6868,7 +7131,7 @@
       <c r="H331" s="3"/>
       <c r="I331" s="3"/>
       <c r="J331" s="3"/>
-      <c r="K331" s="41"/>
+      <c r="K331" s="53"/>
     </row>
     <row r="332" spans="1:11">
       <c r="A332" s="3"/>
@@ -6880,7 +7143,7 @@
       <c r="H332" s="3"/>
       <c r="I332" s="3"/>
       <c r="J332" s="3"/>
-      <c r="K332" s="41"/>
+      <c r="K332" s="53"/>
     </row>
     <row r="333" spans="1:11">
       <c r="A333" s="3"/>
@@ -6892,7 +7155,7 @@
       <c r="H333" s="3"/>
       <c r="I333" s="3"/>
       <c r="J333" s="3"/>
-      <c r="K333" s="41"/>
+      <c r="K333" s="53"/>
     </row>
     <row r="334" spans="1:11">
       <c r="A334" s="3"/>
@@ -6904,7 +7167,7 @@
       <c r="H334" s="3"/>
       <c r="I334" s="3"/>
       <c r="J334" s="3"/>
-      <c r="K334" s="41"/>
+      <c r="K334" s="53"/>
     </row>
     <row r="335" spans="1:11">
       <c r="A335" s="3"/>
@@ -6916,7 +7179,7 @@
       <c r="H335" s="3"/>
       <c r="I335" s="3"/>
       <c r="J335" s="3"/>
-      <c r="K335" s="41"/>
+      <c r="K335" s="53"/>
     </row>
     <row r="336" spans="1:11">
       <c r="A336" s="3"/>
@@ -6928,7 +7191,7 @@
       <c r="H336" s="3"/>
       <c r="I336" s="3"/>
       <c r="J336" s="3"/>
-      <c r="K336" s="41"/>
+      <c r="K336" s="53"/>
     </row>
     <row r="337" spans="1:11">
       <c r="A337" s="3"/>
@@ -6940,7 +7203,7 @@
       <c r="H337" s="3"/>
       <c r="I337" s="3"/>
       <c r="J337" s="3"/>
-      <c r="K337" s="41"/>
+      <c r="K337" s="53"/>
     </row>
     <row r="338" spans="1:11">
       <c r="A338" s="3"/>
@@ -6952,7 +7215,7 @@
       <c r="H338" s="3"/>
       <c r="I338" s="3"/>
       <c r="J338" s="3"/>
-      <c r="K338" s="41"/>
+      <c r="K338" s="53"/>
     </row>
     <row r="339" spans="1:11">
       <c r="A339" s="3"/>
@@ -6964,7 +7227,7 @@
       <c r="H339" s="3"/>
       <c r="I339" s="3"/>
       <c r="J339" s="3"/>
-      <c r="K339" s="41"/>
+      <c r="K339" s="53"/>
     </row>
     <row r="340" spans="1:11">
       <c r="A340" s="3"/>
@@ -6976,7 +7239,7 @@
       <c r="H340" s="3"/>
       <c r="I340" s="3"/>
       <c r="J340" s="3"/>
-      <c r="K340" s="41"/>
+      <c r="K340" s="53"/>
     </row>
     <row r="341" spans="1:11">
       <c r="A341" s="3"/>
@@ -6988,7 +7251,7 @@
       <c r="H341" s="3"/>
       <c r="I341" s="3"/>
       <c r="J341" s="3"/>
-      <c r="K341" s="41"/>
+      <c r="K341" s="53"/>
     </row>
     <row r="342" spans="1:11">
       <c r="A342" s="3"/>
@@ -7000,7 +7263,7 @@
       <c r="H342" s="3"/>
       <c r="I342" s="3"/>
       <c r="J342" s="3"/>
-      <c r="K342" s="41"/>
+      <c r="K342" s="53"/>
     </row>
     <row r="343" spans="1:11">
       <c r="A343" s="3"/>
@@ -7012,7 +7275,7 @@
       <c r="H343" s="3"/>
       <c r="I343" s="3"/>
       <c r="J343" s="3"/>
-      <c r="K343" s="41"/>
+      <c r="K343" s="53"/>
     </row>
     <row r="344" spans="1:11">
       <c r="A344" s="3"/>
@@ -7024,7 +7287,7 @@
       <c r="H344" s="3"/>
       <c r="I344" s="3"/>
       <c r="J344" s="3"/>
-      <c r="K344" s="41"/>
+      <c r="K344" s="53"/>
     </row>
     <row r="345" spans="1:11">
       <c r="A345" s="3"/>
@@ -7036,7 +7299,7 @@
       <c r="H345" s="3"/>
       <c r="I345" s="3"/>
       <c r="J345" s="3"/>
-      <c r="K345" s="41"/>
+      <c r="K345" s="53"/>
     </row>
     <row r="346" spans="1:11">
       <c r="A346" s="3"/>
@@ -7048,7 +7311,7 @@
       <c r="H346" s="3"/>
       <c r="I346" s="3"/>
       <c r="J346" s="3"/>
-      <c r="K346" s="41"/>
+      <c r="K346" s="53"/>
     </row>
     <row r="347" spans="1:11">
       <c r="A347" s="3"/>
@@ -7060,7 +7323,7 @@
       <c r="H347" s="3"/>
       <c r="I347" s="3"/>
       <c r="J347" s="3"/>
-      <c r="K347" s="41"/>
+      <c r="K347" s="53"/>
     </row>
     <row r="348" spans="1:11">
       <c r="A348" s="3"/>
@@ -7072,7 +7335,7 @@
       <c r="H348" s="3"/>
       <c r="I348" s="3"/>
       <c r="J348" s="3"/>
-      <c r="K348" s="41"/>
+      <c r="K348" s="53"/>
     </row>
     <row r="349" spans="1:11">
       <c r="A349" s="3"/>
@@ -7084,7 +7347,7 @@
       <c r="H349" s="3"/>
       <c r="I349" s="3"/>
       <c r="J349" s="3"/>
-      <c r="K349" s="41"/>
+      <c r="K349" s="53"/>
     </row>
     <row r="350" spans="1:11">
       <c r="A350" s="3"/>
@@ -7096,7 +7359,7 @@
       <c r="H350" s="3"/>
       <c r="I350" s="3"/>
       <c r="J350" s="3"/>
-      <c r="K350" s="41"/>
+      <c r="K350" s="53"/>
     </row>
     <row r="351" spans="1:11">
       <c r="A351" s="3"/>
@@ -7108,7 +7371,7 @@
       <c r="H351" s="3"/>
       <c r="I351" s="3"/>
       <c r="J351" s="3"/>
-      <c r="K351" s="41"/>
+      <c r="K351" s="53"/>
     </row>
     <row r="352" spans="1:11">
       <c r="A352" s="3"/>
@@ -7120,7 +7383,7 @@
       <c r="H352" s="3"/>
       <c r="I352" s="3"/>
       <c r="J352" s="3"/>
-      <c r="K352" s="41"/>
+      <c r="K352" s="53"/>
     </row>
     <row r="353" spans="1:11">
       <c r="A353" s="3"/>
@@ -7132,7 +7395,7 @@
       <c r="H353" s="3"/>
       <c r="I353" s="3"/>
       <c r="J353" s="3"/>
-      <c r="K353" s="41"/>
+      <c r="K353" s="53"/>
     </row>
     <row r="354" spans="1:11">
       <c r="A354" s="3"/>
@@ -7144,7 +7407,7 @@
       <c r="H354" s="3"/>
       <c r="I354" s="3"/>
       <c r="J354" s="3"/>
-      <c r="K354" s="41"/>
+      <c r="K354" s="53"/>
     </row>
     <row r="355" spans="1:11">
       <c r="A355" s="3"/>
@@ -7156,7 +7419,7 @@
       <c r="H355" s="3"/>
       <c r="I355" s="3"/>
       <c r="J355" s="3"/>
-      <c r="K355" s="41"/>
+      <c r="K355" s="53"/>
     </row>
     <row r="356" spans="1:11">
       <c r="A356" s="3"/>
@@ -7168,7 +7431,7 @@
       <c r="H356" s="3"/>
       <c r="I356" s="3"/>
       <c r="J356" s="3"/>
-      <c r="K356" s="41"/>
+      <c r="K356" s="53"/>
     </row>
     <row r="357" spans="1:11">
       <c r="A357" s="3"/>
@@ -7180,7 +7443,7 @@
       <c r="H357" s="3"/>
       <c r="I357" s="3"/>
       <c r="J357" s="3"/>
-      <c r="K357" s="41"/>
+      <c r="K357" s="53"/>
     </row>
     <row r="358" spans="1:11">
       <c r="A358" s="3"/>
@@ -7192,7 +7455,7 @@
       <c r="H358" s="3"/>
       <c r="I358" s="3"/>
       <c r="J358" s="3"/>
-      <c r="K358" s="41"/>
+      <c r="K358" s="53"/>
     </row>
     <row r="359" spans="1:11">
       <c r="A359" s="3"/>
@@ -7204,7 +7467,7 @@
       <c r="H359" s="3"/>
       <c r="I359" s="3"/>
       <c r="J359" s="3"/>
-      <c r="K359" s="41"/>
+      <c r="K359" s="53"/>
     </row>
     <row r="360" spans="1:11">
       <c r="A360" s="3"/>
@@ -7216,7 +7479,7 @@
       <c r="H360" s="3"/>
       <c r="I360" s="3"/>
       <c r="J360" s="3"/>
-      <c r="K360" s="41"/>
+      <c r="K360" s="53"/>
     </row>
     <row r="361" spans="1:11">
       <c r="A361" s="3"/>
@@ -7228,7 +7491,7 @@
       <c r="H361" s="3"/>
       <c r="I361" s="3"/>
       <c r="J361" s="3"/>
-      <c r="K361" s="41"/>
+      <c r="K361" s="53"/>
     </row>
     <row r="362" spans="1:11">
       <c r="A362" s="3"/>
@@ -7240,7 +7503,7 @@
       <c r="H362" s="3"/>
       <c r="I362" s="3"/>
       <c r="J362" s="3"/>
-      <c r="K362" s="41"/>
+      <c r="K362" s="53"/>
     </row>
     <row r="363" spans="1:11">
       <c r="A363" s="3"/>
@@ -7252,7 +7515,7 @@
       <c r="H363" s="3"/>
       <c r="I363" s="3"/>
       <c r="J363" s="3"/>
-      <c r="K363" s="41"/>
+      <c r="K363" s="53"/>
     </row>
     <row r="364" spans="1:11">
       <c r="A364" s="3"/>
@@ -7264,7 +7527,7 @@
       <c r="H364" s="3"/>
       <c r="I364" s="3"/>
       <c r="J364" s="3"/>
-      <c r="K364" s="41"/>
+      <c r="K364" s="53"/>
     </row>
     <row r="365" spans="1:11">
       <c r="A365" s="3"/>
@@ -7276,7 +7539,7 @@
       <c r="H365" s="3"/>
       <c r="I365" s="3"/>
       <c r="J365" s="3"/>
-      <c r="K365" s="41"/>
+      <c r="K365" s="53"/>
     </row>
     <row r="366" spans="1:11">
       <c r="A366" s="3"/>
@@ -7288,7 +7551,7 @@
       <c r="H366" s="3"/>
       <c r="I366" s="3"/>
       <c r="J366" s="3"/>
-      <c r="K366" s="41"/>
+      <c r="K366" s="53"/>
     </row>
     <row r="367" spans="1:11">
       <c r="A367" s="3"/>
@@ -7300,7 +7563,7 @@
       <c r="H367" s="3"/>
       <c r="I367" s="3"/>
       <c r="J367" s="3"/>
-      <c r="K367" s="41"/>
+      <c r="K367" s="53"/>
     </row>
     <row r="368" spans="1:11">
       <c r="A368" s="3"/>
@@ -7312,7 +7575,7 @@
       <c r="H368" s="3"/>
       <c r="I368" s="3"/>
       <c r="J368" s="3"/>
-      <c r="K368" s="41"/>
+      <c r="K368" s="53"/>
     </row>
     <row r="369" spans="1:11">
       <c r="A369" s="3"/>
@@ -7324,7 +7587,7 @@
       <c r="H369" s="3"/>
       <c r="I369" s="3"/>
       <c r="J369" s="3"/>
-      <c r="K369" s="41"/>
+      <c r="K369" s="53"/>
     </row>
     <row r="370" spans="1:11">
       <c r="A370" s="3"/>
@@ -7336,7 +7599,7 @@
       <c r="H370" s="3"/>
       <c r="I370" s="3"/>
       <c r="J370" s="3"/>
-      <c r="K370" s="41"/>
+      <c r="K370" s="53"/>
     </row>
     <row r="371" spans="1:11">
       <c r="A371" s="3"/>
@@ -7348,7 +7611,7 @@
       <c r="H371" s="3"/>
       <c r="I371" s="3"/>
       <c r="J371" s="3"/>
-      <c r="K371" s="41"/>
+      <c r="K371" s="53"/>
     </row>
     <row r="372" spans="1:11">
       <c r="A372" s="3"/>
@@ -7360,7 +7623,7 @@
       <c r="H372" s="3"/>
       <c r="I372" s="3"/>
       <c r="J372" s="3"/>
-      <c r="K372" s="41"/>
+      <c r="K372" s="53"/>
     </row>
     <row r="373" spans="1:11">
       <c r="A373" s="3"/>
@@ -7372,7 +7635,7 @@
       <c r="H373" s="3"/>
       <c r="I373" s="3"/>
       <c r="J373" s="3"/>
-      <c r="K373" s="41"/>
+      <c r="K373" s="53"/>
     </row>
     <row r="374" spans="1:11">
       <c r="A374" s="3"/>
@@ -7384,7 +7647,7 @@
       <c r="H374" s="3"/>
       <c r="I374" s="3"/>
       <c r="J374" s="3"/>
-      <c r="K374" s="41"/>
+      <c r="K374" s="53"/>
     </row>
     <row r="375" spans="1:11">
       <c r="A375" s="3"/>
@@ -7396,7 +7659,7 @@
       <c r="H375" s="3"/>
       <c r="I375" s="3"/>
       <c r="J375" s="3"/>
-      <c r="K375" s="41"/>
+      <c r="K375" s="53"/>
     </row>
     <row r="376" spans="1:11">
       <c r="A376" s="3"/>
@@ -7408,7 +7671,7 @@
       <c r="H376" s="3"/>
       <c r="I376" s="3"/>
       <c r="J376" s="3"/>
-      <c r="K376" s="41"/>
+      <c r="K376" s="53"/>
     </row>
     <row r="377" spans="1:11">
       <c r="A377" s="3"/>
@@ -7420,7 +7683,7 @@
       <c r="H377" s="3"/>
       <c r="I377" s="3"/>
       <c r="J377" s="3"/>
-      <c r="K377" s="41"/>
+      <c r="K377" s="53"/>
     </row>
     <row r="378" spans="1:11">
       <c r="A378" s="3"/>
@@ -7432,7 +7695,7 @@
       <c r="H378" s="3"/>
       <c r="I378" s="3"/>
       <c r="J378" s="3"/>
-      <c r="K378" s="41"/>
+      <c r="K378" s="53"/>
     </row>
     <row r="379" spans="1:11">
       <c r="A379" s="3"/>
@@ -7444,7 +7707,7 @@
       <c r="H379" s="3"/>
       <c r="I379" s="3"/>
       <c r="J379" s="3"/>
-      <c r="K379" s="41"/>
+      <c r="K379" s="53"/>
     </row>
     <row r="380" spans="1:11">
       <c r="A380" s="3"/>
@@ -7456,7 +7719,7 @@
       <c r="H380" s="3"/>
       <c r="I380" s="3"/>
       <c r="J380" s="3"/>
-      <c r="K380" s="41"/>
+      <c r="K380" s="53"/>
     </row>
     <row r="381" spans="1:11">
       <c r="A381" s="3"/>
@@ -7468,7 +7731,7 @@
       <c r="H381" s="3"/>
       <c r="I381" s="3"/>
       <c r="J381" s="3"/>
-      <c r="K381" s="41"/>
+      <c r="K381" s="53"/>
     </row>
     <row r="382" spans="1:11">
       <c r="A382" s="3"/>
@@ -7480,7 +7743,7 @@
       <c r="H382" s="3"/>
       <c r="I382" s="3"/>
       <c r="J382" s="3"/>
-      <c r="K382" s="41"/>
+      <c r="K382" s="53"/>
     </row>
     <row r="383" spans="1:11">
       <c r="A383" s="3"/>
@@ -7492,7 +7755,7 @@
       <c r="H383" s="3"/>
       <c r="I383" s="3"/>
       <c r="J383" s="3"/>
-      <c r="K383" s="41"/>
+      <c r="K383" s="53"/>
     </row>
     <row r="384" spans="1:11">
       <c r="A384" s="3"/>
@@ -7504,7 +7767,7 @@
       <c r="H384" s="3"/>
       <c r="I384" s="3"/>
       <c r="J384" s="3"/>
-      <c r="K384" s="41"/>
+      <c r="K384" s="53"/>
     </row>
     <row r="385" spans="1:11">
       <c r="A385" s="3"/>
@@ -7516,7 +7779,7 @@
       <c r="H385" s="3"/>
       <c r="I385" s="3"/>
       <c r="J385" s="3"/>
-      <c r="K385" s="41"/>
+      <c r="K385" s="53"/>
     </row>
     <row r="386" spans="1:11">
       <c r="A386" s="3"/>
@@ -7528,7 +7791,7 @@
       <c r="H386" s="3"/>
       <c r="I386" s="3"/>
       <c r="J386" s="3"/>
-      <c r="K386" s="41"/>
+      <c r="K386" s="53"/>
     </row>
     <row r="387" spans="1:11">
       <c r="A387" s="3"/>
@@ -7540,7 +7803,7 @@
       <c r="H387" s="3"/>
       <c r="I387" s="3"/>
       <c r="J387" s="3"/>
-      <c r="K387" s="41"/>
+      <c r="K387" s="53"/>
     </row>
     <row r="388" spans="1:11">
       <c r="A388" s="3"/>
@@ -7552,7 +7815,7 @@
       <c r="H388" s="3"/>
       <c r="I388" s="3"/>
       <c r="J388" s="3"/>
-      <c r="K388" s="41"/>
+      <c r="K388" s="53"/>
     </row>
     <row r="389" spans="1:11">
       <c r="A389" s="3"/>
@@ -7564,7 +7827,7 @@
       <c r="H389" s="3"/>
       <c r="I389" s="3"/>
       <c r="J389" s="3"/>
-      <c r="K389" s="41"/>
+      <c r="K389" s="53"/>
     </row>
     <row r="390" spans="1:11">
       <c r="A390" s="3"/>
@@ -7576,7 +7839,7 @@
       <c r="H390" s="3"/>
       <c r="I390" s="3"/>
       <c r="J390" s="3"/>
-      <c r="K390" s="41"/>
+      <c r="K390" s="53"/>
     </row>
     <row r="391" spans="1:11">
       <c r="A391" s="3"/>
@@ -7588,7 +7851,7 @@
       <c r="H391" s="3"/>
       <c r="I391" s="3"/>
       <c r="J391" s="3"/>
-      <c r="K391" s="41"/>
+      <c r="K391" s="53"/>
     </row>
     <row r="392" spans="1:11">
       <c r="A392" s="3"/>
@@ -7600,7 +7863,7 @@
       <c r="H392" s="3"/>
       <c r="I392" s="3"/>
       <c r="J392" s="3"/>
-      <c r="K392" s="41"/>
+      <c r="K392" s="53"/>
     </row>
     <row r="393" spans="1:11">
       <c r="A393" s="3"/>
@@ -7612,7 +7875,7 @@
       <c r="H393" s="3"/>
       <c r="I393" s="3"/>
       <c r="J393" s="3"/>
-      <c r="K393" s="41"/>
+      <c r="K393" s="53"/>
     </row>
     <row r="394" spans="1:11">
       <c r="A394" s="3"/>
@@ -7624,7 +7887,7 @@
       <c r="H394" s="3"/>
       <c r="I394" s="3"/>
       <c r="J394" s="3"/>
-      <c r="K394" s="41"/>
+      <c r="K394" s="53"/>
     </row>
     <row r="395" spans="1:11">
       <c r="A395" s="3"/>
@@ -7636,7 +7899,7 @@
       <c r="H395" s="3"/>
       <c r="I395" s="3"/>
       <c r="J395" s="3"/>
-      <c r="K395" s="41"/>
+      <c r="K395" s="53"/>
     </row>
     <row r="396" spans="1:11">
       <c r="A396" s="3"/>
@@ -7648,7 +7911,7 @@
       <c r="H396" s="3"/>
       <c r="I396" s="3"/>
       <c r="J396" s="3"/>
-      <c r="K396" s="41"/>
+      <c r="K396" s="53"/>
     </row>
     <row r="397" spans="1:11">
       <c r="A397" s="3"/>
@@ -7660,7 +7923,7 @@
       <c r="H397" s="3"/>
       <c r="I397" s="3"/>
       <c r="J397" s="3"/>
-      <c r="K397" s="41"/>
+      <c r="K397" s="53"/>
     </row>
     <row r="398" spans="1:11">
       <c r="A398" s="3"/>
@@ -7672,7 +7935,7 @@
       <c r="H398" s="3"/>
       <c r="I398" s="3"/>
       <c r="J398" s="3"/>
-      <c r="K398" s="41"/>
+      <c r="K398" s="53"/>
     </row>
     <row r="399" spans="1:11">
       <c r="A399" s="3"/>
@@ -7684,7 +7947,7 @@
       <c r="H399" s="3"/>
       <c r="I399" s="3"/>
       <c r="J399" s="3"/>
-      <c r="K399" s="41"/>
+      <c r="K399" s="53"/>
     </row>
     <row r="400" spans="1:11">
       <c r="A400" s="3"/>
@@ -7696,7 +7959,7 @@
       <c r="H400" s="3"/>
       <c r="I400" s="3"/>
       <c r="J400" s="3"/>
-      <c r="K400" s="41"/>
+      <c r="K400" s="53"/>
     </row>
     <row r="401" spans="1:11">
       <c r="A401" s="3"/>
@@ -7708,7 +7971,7 @@
       <c r="H401" s="3"/>
       <c r="I401" s="3"/>
       <c r="J401" s="3"/>
-      <c r="K401" s="41"/>
+      <c r="K401" s="53"/>
     </row>
     <row r="402" spans="1:11">
       <c r="A402" s="3"/>
@@ -7720,7 +7983,7 @@
       <c r="H402" s="3"/>
       <c r="I402" s="3"/>
       <c r="J402" s="3"/>
-      <c r="K402" s="41"/>
+      <c r="K402" s="53"/>
     </row>
     <row r="403" spans="1:11">
       <c r="A403" s="3"/>
@@ -7732,7 +7995,7 @@
       <c r="H403" s="3"/>
       <c r="I403" s="3"/>
       <c r="J403" s="3"/>
-      <c r="K403" s="41"/>
+      <c r="K403" s="53"/>
     </row>
     <row r="404" spans="1:11">
       <c r="A404" s="3"/>
@@ -7744,7 +8007,7 @@
       <c r="H404" s="3"/>
       <c r="I404" s="3"/>
       <c r="J404" s="3"/>
-      <c r="K404" s="41"/>
+      <c r="K404" s="53"/>
     </row>
     <row r="405" spans="1:11">
       <c r="A405" s="3"/>
@@ -7756,7 +8019,7 @@
       <c r="H405" s="3"/>
       <c r="I405" s="3"/>
       <c r="J405" s="3"/>
-      <c r="K405" s="41"/>
+      <c r="K405" s="53"/>
     </row>
     <row r="406" spans="1:11">
       <c r="A406" s="3"/>
@@ -7768,7 +8031,7 @@
       <c r="H406" s="3"/>
       <c r="I406" s="3"/>
       <c r="J406" s="3"/>
-      <c r="K406" s="41"/>
+      <c r="K406" s="53"/>
     </row>
     <row r="407" spans="1:11">
       <c r="A407" s="3"/>
@@ -7780,7 +8043,7 @@
       <c r="H407" s="3"/>
       <c r="I407" s="3"/>
       <c r="J407" s="3"/>
-      <c r="K407" s="41"/>
+      <c r="K407" s="53"/>
     </row>
     <row r="408" spans="1:11">
       <c r="A408" s="3"/>
@@ -7792,7 +8055,7 @@
       <c r="H408" s="3"/>
       <c r="I408" s="3"/>
       <c r="J408" s="3"/>
-      <c r="K408" s="41"/>
+      <c r="K408" s="53"/>
     </row>
     <row r="409" spans="1:11">
       <c r="A409" s="3"/>
@@ -7804,7 +8067,7 @@
       <c r="H409" s="3"/>
       <c r="I409" s="3"/>
       <c r="J409" s="3"/>
-      <c r="K409" s="41"/>
+      <c r="K409" s="53"/>
     </row>
     <row r="410" spans="1:11">
       <c r="A410" s="3"/>
@@ -7816,7 +8079,7 @@
       <c r="H410" s="3"/>
       <c r="I410" s="3"/>
       <c r="J410" s="3"/>
-      <c r="K410" s="41"/>
+      <c r="K410" s="53"/>
     </row>
     <row r="411" spans="1:11">
       <c r="A411" s="3"/>
@@ -7828,7 +8091,7 @@
       <c r="H411" s="3"/>
       <c r="I411" s="3"/>
       <c r="J411" s="3"/>
-      <c r="K411" s="41"/>
+      <c r="K411" s="53"/>
     </row>
     <row r="412" spans="1:11">
       <c r="A412" s="3"/>
@@ -7840,7 +8103,7 @@
       <c r="H412" s="3"/>
       <c r="I412" s="3"/>
       <c r="J412" s="3"/>
-      <c r="K412" s="41"/>
+      <c r="K412" s="53"/>
     </row>
     <row r="413" spans="1:11">
       <c r="A413" s="3"/>
@@ -7852,7 +8115,7 @@
       <c r="H413" s="3"/>
       <c r="I413" s="3"/>
       <c r="J413" s="3"/>
-      <c r="K413" s="41"/>
+      <c r="K413" s="53"/>
     </row>
     <row r="414" spans="1:11">
       <c r="A414" s="3"/>
@@ -7864,7 +8127,7 @@
       <c r="H414" s="3"/>
       <c r="I414" s="3"/>
       <c r="J414" s="3"/>
-      <c r="K414" s="41"/>
+      <c r="K414" s="53"/>
     </row>
     <row r="415" spans="1:11">
       <c r="A415" s="3"/>
@@ -7876,7 +8139,7 @@
       <c r="H415" s="3"/>
       <c r="I415" s="3"/>
       <c r="J415" s="3"/>
-      <c r="K415" s="41"/>
+      <c r="K415" s="53"/>
     </row>
     <row r="416" spans="1:11">
       <c r="A416" s="3"/>
@@ -7888,7 +8151,7 @@
       <c r="H416" s="3"/>
       <c r="I416" s="3"/>
       <c r="J416" s="3"/>
-      <c r="K416" s="41"/>
+      <c r="K416" s="53"/>
     </row>
     <row r="417" spans="1:11">
       <c r="A417" s="3"/>
@@ -7900,7 +8163,7 @@
       <c r="H417" s="3"/>
       <c r="I417" s="3"/>
       <c r="J417" s="3"/>
-      <c r="K417" s="41"/>
+      <c r="K417" s="53"/>
     </row>
     <row r="418" spans="1:11">
       <c r="A418" s="3"/>
@@ -7912,7 +8175,7 @@
       <c r="H418" s="3"/>
       <c r="I418" s="3"/>
       <c r="J418" s="3"/>
-      <c r="K418" s="41"/>
+      <c r="K418" s="53"/>
     </row>
     <row r="419" spans="1:11">
       <c r="A419" s="3"/>
@@ -7924,7 +8187,7 @@
       <c r="H419" s="3"/>
       <c r="I419" s="3"/>
       <c r="J419" s="3"/>
-      <c r="K419" s="41"/>
+      <c r="K419" s="53"/>
     </row>
     <row r="420" spans="1:11">
       <c r="A420" s="3"/>
@@ -7936,7 +8199,7 @@
       <c r="H420" s="3"/>
       <c r="I420" s="3"/>
       <c r="J420" s="3"/>
-      <c r="K420" s="41"/>
+      <c r="K420" s="53"/>
     </row>
     <row r="421" spans="1:11">
       <c r="A421" s="3"/>
@@ -7948,7 +8211,7 @@
       <c r="H421" s="3"/>
       <c r="I421" s="3"/>
       <c r="J421" s="3"/>
-      <c r="K421" s="41"/>
+      <c r="K421" s="53"/>
     </row>
     <row r="422" spans="1:11">
       <c r="A422" s="3"/>
@@ -7960,7 +8223,7 @@
       <c r="H422" s="3"/>
       <c r="I422" s="3"/>
       <c r="J422" s="3"/>
-      <c r="K422" s="41"/>
+      <c r="K422" s="53"/>
     </row>
     <row r="423" spans="1:11">
       <c r="A423" s="3"/>
@@ -7972,7 +8235,7 @@
       <c r="H423" s="3"/>
       <c r="I423" s="3"/>
       <c r="J423" s="3"/>
-      <c r="K423" s="41"/>
+      <c r="K423" s="53"/>
     </row>
     <row r="424" spans="1:11">
       <c r="A424" s="3"/>
@@ -7984,7 +8247,7 @@
       <c r="H424" s="3"/>
       <c r="I424" s="3"/>
       <c r="J424" s="3"/>
-      <c r="K424" s="41"/>
+      <c r="K424" s="53"/>
     </row>
     <row r="425" spans="1:11">
       <c r="A425" s="3"/>
@@ -7996,7 +8259,7 @@
       <c r="H425" s="3"/>
       <c r="I425" s="3"/>
       <c r="J425" s="3"/>
-      <c r="K425" s="41"/>
+      <c r="K425" s="53"/>
     </row>
     <row r="426" spans="1:11">
       <c r="A426" s="3"/>
@@ -8008,7 +8271,7 @@
       <c r="H426" s="3"/>
       <c r="I426" s="3"/>
       <c r="J426" s="3"/>
-      <c r="K426" s="41"/>
+      <c r="K426" s="53"/>
     </row>
     <row r="427" spans="1:11">
       <c r="A427" s="3"/>
@@ -8020,7 +8283,7 @@
       <c r="H427" s="3"/>
       <c r="I427" s="3"/>
       <c r="J427" s="3"/>
-      <c r="K427" s="41"/>
+      <c r="K427" s="53"/>
     </row>
     <row r="428" spans="1:11">
       <c r="A428" s="3"/>
@@ -8032,7 +8295,7 @@
       <c r="H428" s="3"/>
       <c r="I428" s="3"/>
       <c r="J428" s="3"/>
-      <c r="K428" s="41"/>
+      <c r="K428" s="53"/>
     </row>
     <row r="429" spans="1:11">
       <c r="A429" s="3"/>
@@ -8044,7 +8307,7 @@
       <c r="H429" s="3"/>
       <c r="I429" s="3"/>
       <c r="J429" s="3"/>
-      <c r="K429" s="41"/>
+      <c r="K429" s="53"/>
     </row>
     <row r="430" spans="1:11">
       <c r="A430" s="3"/>
@@ -8056,7 +8319,7 @@
       <c r="H430" s="3"/>
       <c r="I430" s="3"/>
       <c r="J430" s="3"/>
-      <c r="K430" s="41"/>
+      <c r="K430" s="53"/>
     </row>
     <row r="431" spans="1:11">
       <c r="A431" s="3"/>
@@ -8068,7 +8331,7 @@
       <c r="H431" s="3"/>
       <c r="I431" s="3"/>
       <c r="J431" s="3"/>
-      <c r="K431" s="41"/>
+      <c r="K431" s="53"/>
     </row>
     <row r="432" spans="1:11">
       <c r="A432" s="3"/>
@@ -8080,7 +8343,7 @@
       <c r="H432" s="3"/>
       <c r="I432" s="3"/>
       <c r="J432" s="3"/>
-      <c r="K432" s="41"/>
+      <c r="K432" s="53"/>
     </row>
     <row r="433" spans="1:11">
       <c r="A433" s="3"/>
@@ -8092,7 +8355,7 @@
       <c r="H433" s="3"/>
       <c r="I433" s="3"/>
       <c r="J433" s="3"/>
-      <c r="K433" s="41"/>
+      <c r="K433" s="53"/>
     </row>
     <row r="434" spans="1:11">
       <c r="A434" s="3"/>
@@ -8104,7 +8367,7 @@
       <c r="H434" s="3"/>
       <c r="I434" s="3"/>
       <c r="J434" s="3"/>
-      <c r="K434" s="41"/>
+      <c r="K434" s="53"/>
     </row>
     <row r="435" spans="1:11">
       <c r="A435" s="3"/>
@@ -8116,7 +8379,7 @@
       <c r="H435" s="3"/>
       <c r="I435" s="3"/>
       <c r="J435" s="3"/>
-      <c r="K435" s="41"/>
+      <c r="K435" s="53"/>
     </row>
     <row r="436" spans="1:11">
       <c r="A436" s="3"/>
@@ -8128,7 +8391,7 @@
       <c r="H436" s="3"/>
       <c r="I436" s="3"/>
       <c r="J436" s="3"/>
-      <c r="K436" s="41"/>
+      <c r="K436" s="53"/>
     </row>
     <row r="437" spans="1:11">
       <c r="A437" s="3"/>
@@ -8140,7 +8403,7 @@
       <c r="H437" s="3"/>
       <c r="I437" s="3"/>
       <c r="J437" s="3"/>
-      <c r="K437" s="41"/>
+      <c r="K437" s="53"/>
     </row>
     <row r="438" spans="1:11">
       <c r="A438" s="3"/>
@@ -8152,7 +8415,7 @@
       <c r="H438" s="3"/>
       <c r="I438" s="3"/>
       <c r="J438" s="3"/>
-      <c r="K438" s="41"/>
+      <c r="K438" s="53"/>
     </row>
     <row r="439" spans="1:11">
       <c r="A439" s="3"/>
@@ -8164,7 +8427,7 @@
       <c r="H439" s="3"/>
       <c r="I439" s="3"/>
       <c r="J439" s="3"/>
-      <c r="K439" s="41"/>
+      <c r="K439" s="53"/>
     </row>
     <row r="440" spans="1:11">
       <c r="A440" s="3"/>
@@ -8176,7 +8439,7 @@
       <c r="H440" s="3"/>
       <c r="I440" s="3"/>
       <c r="J440" s="3"/>
-      <c r="K440" s="41"/>
+      <c r="K440" s="53"/>
     </row>
     <row r="441" spans="1:11">
       <c r="A441" s="3"/>
@@ -8188,7 +8451,7 @@
       <c r="H441" s="3"/>
       <c r="I441" s="3"/>
       <c r="J441" s="3"/>
-      <c r="K441" s="41"/>
+      <c r="K441" s="53"/>
     </row>
     <row r="442" spans="1:11">
       <c r="A442" s="3"/>
@@ -8200,7 +8463,7 @@
       <c r="H442" s="3"/>
       <c r="I442" s="3"/>
       <c r="J442" s="3"/>
-      <c r="K442" s="41"/>
+      <c r="K442" s="53"/>
     </row>
     <row r="443" spans="1:11">
       <c r="A443" s="3"/>
@@ -8212,7 +8475,7 @@
       <c r="H443" s="3"/>
       <c r="I443" s="3"/>
       <c r="J443" s="3"/>
-      <c r="K443" s="41"/>
+      <c r="K443" s="53"/>
     </row>
     <row r="444" spans="1:11">
       <c r="A444" s="3"/>
@@ -8224,7 +8487,7 @@
       <c r="H444" s="3"/>
       <c r="I444" s="3"/>
       <c r="J444" s="3"/>
-      <c r="K444" s="41"/>
+      <c r="K444" s="53"/>
     </row>
     <row r="445" spans="1:11">
       <c r="A445" s="3"/>
@@ -8236,7 +8499,7 @@
       <c r="H445" s="3"/>
       <c r="I445" s="3"/>
       <c r="J445" s="3"/>
-      <c r="K445" s="41"/>
+      <c r="K445" s="53"/>
     </row>
     <row r="446" spans="1:11">
       <c r="A446" s="3"/>
@@ -8248,7 +8511,7 @@
       <c r="H446" s="3"/>
       <c r="I446" s="3"/>
       <c r="J446" s="3"/>
-      <c r="K446" s="41"/>
+      <c r="K446" s="53"/>
     </row>
     <row r="447" spans="1:11">
       <c r="A447" s="3"/>
@@ -8260,7 +8523,7 @@
       <c r="H447" s="3"/>
       <c r="I447" s="3"/>
       <c r="J447" s="3"/>
-      <c r="K447" s="41"/>
+      <c r="K447" s="53"/>
     </row>
     <row r="448" spans="1:11">
       <c r="A448" s="3"/>
@@ -8272,7 +8535,7 @@
       <c r="H448" s="3"/>
       <c r="I448" s="3"/>
       <c r="J448" s="3"/>
-      <c r="K448" s="41"/>
+      <c r="K448" s="53"/>
     </row>
     <row r="449" spans="1:11">
       <c r="A449" s="3"/>
@@ -8284,7 +8547,7 @@
       <c r="H449" s="3"/>
       <c r="I449" s="3"/>
       <c r="J449" s="3"/>
-      <c r="K449" s="41"/>
+      <c r="K449" s="53"/>
     </row>
     <row r="450" spans="1:11">
       <c r="A450" s="3"/>
@@ -8296,7 +8559,7 @@
       <c r="H450" s="3"/>
       <c r="I450" s="3"/>
       <c r="J450" s="3"/>
-      <c r="K450" s="41"/>
+      <c r="K450" s="53"/>
     </row>
     <row r="451" spans="1:11">
       <c r="A451" s="3"/>
@@ -8308,7 +8571,7 @@
       <c r="H451" s="3"/>
       <c r="I451" s="3"/>
       <c r="J451" s="3"/>
-      <c r="K451" s="41"/>
+      <c r="K451" s="53"/>
     </row>
     <row r="452" spans="1:11">
       <c r="A452" s="3"/>
@@ -8320,7 +8583,7 @@
       <c r="H452" s="3"/>
       <c r="I452" s="3"/>
       <c r="J452" s="3"/>
-      <c r="K452" s="41"/>
+      <c r="K452" s="53"/>
     </row>
     <row r="453" spans="1:11">
       <c r="A453" s="3"/>
@@ -8332,7 +8595,7 @@
       <c r="H453" s="3"/>
       <c r="I453" s="3"/>
       <c r="J453" s="3"/>
-      <c r="K453" s="41"/>
+      <c r="K453" s="53"/>
     </row>
     <row r="454" spans="1:11">
       <c r="A454" s="3"/>
@@ -8344,7 +8607,7 @@
       <c r="H454" s="3"/>
       <c r="I454" s="3"/>
       <c r="J454" s="3"/>
-      <c r="K454" s="41"/>
+      <c r="K454" s="53"/>
     </row>
     <row r="455" spans="1:11">
       <c r="A455" s="3"/>
@@ -8356,7 +8619,7 @@
       <c r="H455" s="3"/>
       <c r="I455" s="3"/>
       <c r="J455" s="3"/>
-      <c r="K455" s="41"/>
+      <c r="K455" s="53"/>
     </row>
     <row r="456" spans="1:11">
       <c r="A456" s="3"/>
@@ -8368,7 +8631,7 @@
       <c r="H456" s="3"/>
       <c r="I456" s="3"/>
       <c r="J456" s="3"/>
-      <c r="K456" s="41"/>
+      <c r="K456" s="53"/>
     </row>
     <row r="457" spans="1:11">
       <c r="A457" s="3"/>
@@ -8380,7 +8643,7 @@
       <c r="H457" s="3"/>
       <c r="I457" s="3"/>
       <c r="J457" s="3"/>
-      <c r="K457" s="41"/>
+      <c r="K457" s="53"/>
     </row>
     <row r="458" spans="1:11">
       <c r="A458" s="3"/>
@@ -8392,7 +8655,7 @@
       <c r="H458" s="3"/>
       <c r="I458" s="3"/>
       <c r="J458" s="3"/>
-      <c r="K458" s="41"/>
+      <c r="K458" s="53"/>
     </row>
     <row r="459" spans="1:11">
       <c r="A459" s="3"/>
@@ -8404,7 +8667,7 @@
       <c r="H459" s="3"/>
       <c r="I459" s="3"/>
       <c r="J459" s="3"/>
-      <c r="K459" s="41"/>
+      <c r="K459" s="53"/>
     </row>
     <row r="460" spans="1:11">
       <c r="A460" s="3"/>
@@ -8416,7 +8679,7 @@
       <c r="H460" s="3"/>
       <c r="I460" s="3"/>
       <c r="J460" s="3"/>
-      <c r="K460" s="41"/>
+      <c r="K460" s="53"/>
     </row>
     <row r="461" spans="1:11">
       <c r="A461" s="3"/>
@@ -8428,7 +8691,7 @@
       <c r="H461" s="3"/>
       <c r="I461" s="3"/>
       <c r="J461" s="3"/>
-      <c r="K461" s="41"/>
+      <c r="K461" s="53"/>
     </row>
     <row r="462" spans="1:11">
       <c r="A462" s="3"/>
@@ -8440,7 +8703,7 @@
       <c r="H462" s="3"/>
       <c r="I462" s="3"/>
       <c r="J462" s="3"/>
-      <c r="K462" s="41"/>
+      <c r="K462" s="53"/>
     </row>
     <row r="463" spans="1:11">
       <c r="A463" s="3"/>
@@ -8452,7 +8715,7 @@
       <c r="H463" s="3"/>
       <c r="I463" s="3"/>
       <c r="J463" s="3"/>
-      <c r="K463" s="41"/>
+      <c r="K463" s="53"/>
     </row>
     <row r="464" spans="1:2">
       <c r="A464" s="3"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易计划202112.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易计划202112.xlsx
@@ -2335,7 +2335,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A14" sqref="A14"/>
+      <selection pane="bottomRight" activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.82142857142857" defaultRowHeight="12.4"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易计划202112.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易计划202112.xlsx
@@ -236,7 +236,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="32">
+  <fonts count="33">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -297,15 +297,16 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="10"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="方正书宋_GBK"/>
+      <name val="Helvetica Neue"/>
       <charset val="134"/>
     </font>
     <font>
@@ -313,6 +314,12 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="FZShuSong-Z01"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="方正书宋_GBK"/>
       <charset val="134"/>
     </font>
     <font>
@@ -822,152 +829,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="28" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="28" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1046,34 +1053,31 @@
     <xf numFmtId="14" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1085,12 +1089,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="10" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1106,24 +1110,24 @@
     <xf numFmtId="10" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="10" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1133,10 +1137,10 @@
     <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1148,16 +1152,16 @@
     <xf numFmtId="176" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
@@ -2331,11 +2335,11 @@
   <dimension ref="A1:BA543"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D18" sqref="D18"/>
+      <selection pane="bottomRight" activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.82142857142857" defaultRowHeight="12.4"/>
@@ -2385,102 +2389,102 @@
       <c r="J1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="41" t="s">
+      <c r="K1" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="42" t="s">
+      <c r="L1" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="54" t="s">
+      <c r="M1" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="55"/>
-      <c r="O1" s="55"/>
-      <c r="P1" s="55"/>
-      <c r="Q1" s="55"/>
-      <c r="R1" s="55"/>
-      <c r="S1" s="55"/>
-      <c r="T1" s="55"/>
-      <c r="V1" s="61"/>
-      <c r="W1" s="61"/>
-      <c r="X1" s="61"/>
-      <c r="Y1" s="61"/>
-      <c r="Z1" s="61"/>
-      <c r="AA1" s="61"/>
-      <c r="AB1" s="61"/>
-      <c r="AC1" s="61"/>
-      <c r="AE1" s="61"/>
-      <c r="AF1" s="61"/>
-      <c r="AG1" s="61"/>
-      <c r="AH1" s="61"/>
-      <c r="AI1" s="61"/>
-      <c r="AJ1" s="61"/>
-      <c r="AK1" s="61"/>
-      <c r="AM1" s="61"/>
-      <c r="AN1" s="61"/>
-      <c r="AO1" s="61"/>
-      <c r="AP1" s="61"/>
-      <c r="AQ1" s="61"/>
-      <c r="AR1" s="61"/>
-      <c r="AS1" s="61"/>
-      <c r="AU1" s="61"/>
-      <c r="AV1" s="61"/>
-      <c r="AW1" s="61"/>
-      <c r="AX1" s="61"/>
-      <c r="AY1" s="61"/>
-      <c r="AZ1" s="61"/>
-      <c r="BA1" s="61"/>
+      <c r="N1" s="54"/>
+      <c r="O1" s="54"/>
+      <c r="P1" s="54"/>
+      <c r="Q1" s="54"/>
+      <c r="R1" s="54"/>
+      <c r="S1" s="54"/>
+      <c r="T1" s="54"/>
+      <c r="V1" s="60"/>
+      <c r="W1" s="60"/>
+      <c r="X1" s="60"/>
+      <c r="Y1" s="60"/>
+      <c r="Z1" s="60"/>
+      <c r="AA1" s="60"/>
+      <c r="AB1" s="60"/>
+      <c r="AC1" s="60"/>
+      <c r="AE1" s="60"/>
+      <c r="AF1" s="60"/>
+      <c r="AG1" s="60"/>
+      <c r="AH1" s="60"/>
+      <c r="AI1" s="60"/>
+      <c r="AJ1" s="60"/>
+      <c r="AK1" s="60"/>
+      <c r="AM1" s="60"/>
+      <c r="AN1" s="60"/>
+      <c r="AO1" s="60"/>
+      <c r="AP1" s="60"/>
+      <c r="AQ1" s="60"/>
+      <c r="AR1" s="60"/>
+      <c r="AS1" s="60"/>
+      <c r="AU1" s="60"/>
+      <c r="AV1" s="60"/>
+      <c r="AW1" s="60"/>
+      <c r="AX1" s="60"/>
+      <c r="AY1" s="60"/>
+      <c r="AZ1" s="60"/>
+      <c r="BA1" s="60"/>
     </row>
     <row r="2" ht="23.6" spans="1:53">
       <c r="A2" s="6"/>
       <c r="B2" s="7"/>
       <c r="C2" s="10"/>
       <c r="D2" s="11"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
       <c r="H2" s="9"/>
       <c r="I2" s="9"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="42"/>
-      <c r="M2" s="56"/>
-      <c r="N2" s="55"/>
-      <c r="O2" s="55"/>
-      <c r="P2" s="55"/>
-      <c r="Q2" s="55"/>
-      <c r="R2" s="55"/>
-      <c r="S2" s="55"/>
-      <c r="T2" s="55"/>
-      <c r="V2" s="61"/>
-      <c r="W2" s="61"/>
-      <c r="X2" s="61"/>
-      <c r="Y2" s="61"/>
-      <c r="Z2" s="61"/>
-      <c r="AA2" s="61"/>
-      <c r="AB2" s="61"/>
-      <c r="AC2" s="61"/>
-      <c r="AE2" s="61"/>
-      <c r="AF2" s="61"/>
-      <c r="AG2" s="61"/>
-      <c r="AH2" s="61"/>
-      <c r="AI2" s="61"/>
-      <c r="AJ2" s="61"/>
-      <c r="AK2" s="61"/>
-      <c r="AM2" s="61"/>
-      <c r="AN2" s="61"/>
-      <c r="AO2" s="61"/>
-      <c r="AP2" s="61"/>
-      <c r="AQ2" s="61"/>
-      <c r="AR2" s="61"/>
-      <c r="AS2" s="61"/>
-      <c r="AU2" s="61"/>
-      <c r="AV2" s="61"/>
-      <c r="AW2" s="61"/>
-      <c r="AX2" s="61"/>
-      <c r="AY2" s="61"/>
-      <c r="AZ2" s="61"/>
-      <c r="BA2" s="61"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="55"/>
+      <c r="N2" s="54"/>
+      <c r="O2" s="54"/>
+      <c r="P2" s="54"/>
+      <c r="Q2" s="54"/>
+      <c r="R2" s="54"/>
+      <c r="S2" s="54"/>
+      <c r="T2" s="54"/>
+      <c r="V2" s="60"/>
+      <c r="W2" s="60"/>
+      <c r="X2" s="60"/>
+      <c r="Y2" s="60"/>
+      <c r="Z2" s="60"/>
+      <c r="AA2" s="60"/>
+      <c r="AB2" s="60"/>
+      <c r="AC2" s="60"/>
+      <c r="AE2" s="60"/>
+      <c r="AF2" s="60"/>
+      <c r="AG2" s="60"/>
+      <c r="AH2" s="60"/>
+      <c r="AI2" s="60"/>
+      <c r="AJ2" s="60"/>
+      <c r="AK2" s="60"/>
+      <c r="AM2" s="60"/>
+      <c r="AN2" s="60"/>
+      <c r="AO2" s="60"/>
+      <c r="AP2" s="60"/>
+      <c r="AQ2" s="60"/>
+      <c r="AR2" s="60"/>
+      <c r="AS2" s="60"/>
+      <c r="AU2" s="60"/>
+      <c r="AV2" s="60"/>
+      <c r="AW2" s="60"/>
+      <c r="AX2" s="60"/>
+      <c r="AY2" s="60"/>
+      <c r="AZ2" s="60"/>
+      <c r="BA2" s="60"/>
     </row>
     <row r="3" customFormat="1" ht="23.6" spans="1:53">
       <c r="A3" s="12" t="s">
@@ -2495,74 +2499,74 @@
       <c r="D3" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="37">
+      <c r="E3" s="36">
         <v>34.12</v>
       </c>
-      <c r="F3" s="37">
+      <c r="F3" s="36">
         <v>32.53</v>
       </c>
-      <c r="G3" s="37">
+      <c r="G3" s="36">
         <v>39.33</v>
       </c>
-      <c r="H3" s="37">
+      <c r="H3" s="36">
         <f t="shared" ref="H3:H18" si="0">(E3-F3)*100</f>
         <v>159</v>
       </c>
-      <c r="I3" s="37">
+      <c r="I3" s="36">
         <f>FLOOR(1000/(E3-F3),100)</f>
         <v>600</v>
       </c>
-      <c r="J3" s="43">
+      <c r="J3" s="42">
         <f t="shared" ref="J3:J11" si="1">(G3-E3)/(E3-F3)</f>
         <v>3.27672955974844</v>
       </c>
-      <c r="K3" s="44">
+      <c r="K3" s="43">
         <f t="shared" ref="K3:K14" si="2">(E3-F3)/E3</f>
         <v>0.0466002344665884</v>
       </c>
-      <c r="L3" s="45">
+      <c r="L3" s="44">
         <f t="shared" ref="L3:L11" si="3">(G3-E3)/E3</f>
         <v>0.152696365767878</v>
       </c>
       <c r="M3" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="N3" s="55"/>
-      <c r="O3" s="55"/>
-      <c r="P3" s="55"/>
-      <c r="Q3" s="55"/>
-      <c r="R3" s="55"/>
-      <c r="S3" s="55"/>
-      <c r="T3" s="55"/>
-      <c r="V3" s="61"/>
-      <c r="W3" s="61"/>
-      <c r="X3" s="61"/>
-      <c r="Y3" s="61"/>
-      <c r="Z3" s="61"/>
-      <c r="AA3" s="61"/>
-      <c r="AB3" s="61"/>
-      <c r="AC3" s="61"/>
-      <c r="AE3" s="61"/>
-      <c r="AF3" s="61"/>
-      <c r="AG3" s="61"/>
-      <c r="AH3" s="61"/>
-      <c r="AI3" s="61"/>
-      <c r="AJ3" s="61"/>
-      <c r="AK3" s="61"/>
-      <c r="AM3" s="61"/>
-      <c r="AN3" s="61"/>
-      <c r="AO3" s="61"/>
-      <c r="AP3" s="61"/>
-      <c r="AQ3" s="61"/>
-      <c r="AR3" s="61"/>
-      <c r="AS3" s="61"/>
-      <c r="AU3" s="61"/>
-      <c r="AV3" s="61"/>
-      <c r="AW3" s="61"/>
-      <c r="AX3" s="61"/>
-      <c r="AY3" s="61"/>
-      <c r="AZ3" s="61"/>
-      <c r="BA3" s="61"/>
+      <c r="N3" s="54"/>
+      <c r="O3" s="54"/>
+      <c r="P3" s="54"/>
+      <c r="Q3" s="54"/>
+      <c r="R3" s="54"/>
+      <c r="S3" s="54"/>
+      <c r="T3" s="54"/>
+      <c r="V3" s="60"/>
+      <c r="W3" s="60"/>
+      <c r="X3" s="60"/>
+      <c r="Y3" s="60"/>
+      <c r="Z3" s="60"/>
+      <c r="AA3" s="60"/>
+      <c r="AB3" s="60"/>
+      <c r="AC3" s="60"/>
+      <c r="AE3" s="60"/>
+      <c r="AF3" s="60"/>
+      <c r="AG3" s="60"/>
+      <c r="AH3" s="60"/>
+      <c r="AI3" s="60"/>
+      <c r="AJ3" s="60"/>
+      <c r="AK3" s="60"/>
+      <c r="AM3" s="60"/>
+      <c r="AN3" s="60"/>
+      <c r="AO3" s="60"/>
+      <c r="AP3" s="60"/>
+      <c r="AQ3" s="60"/>
+      <c r="AR3" s="60"/>
+      <c r="AS3" s="60"/>
+      <c r="AU3" s="60"/>
+      <c r="AV3" s="60"/>
+      <c r="AW3" s="60"/>
+      <c r="AX3" s="60"/>
+      <c r="AY3" s="60"/>
+      <c r="AZ3" s="60"/>
+      <c r="BA3" s="60"/>
     </row>
     <row r="4" customFormat="1" ht="23.6" spans="1:53">
       <c r="A4" s="12" t="s">
@@ -2577,74 +2581,74 @@
       <c r="D4" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="37">
+      <c r="E4" s="36">
         <v>32.65</v>
       </c>
-      <c r="F4" s="37">
+      <c r="F4" s="36">
         <v>30.89</v>
       </c>
-      <c r="G4" s="37">
+      <c r="G4" s="36">
         <v>36.22</v>
       </c>
-      <c r="H4" s="37">
+      <c r="H4" s="36">
         <f t="shared" si="0"/>
         <v>176</v>
       </c>
-      <c r="I4" s="37">
+      <c r="I4" s="36">
         <f>FLOOR(1000/(E4-F4),100)</f>
         <v>500</v>
       </c>
-      <c r="J4" s="43">
+      <c r="J4" s="42">
         <f t="shared" si="1"/>
         <v>2.02840909090909</v>
       </c>
-      <c r="K4" s="44">
+      <c r="K4" s="43">
         <f t="shared" si="2"/>
         <v>0.0539050535987748</v>
       </c>
-      <c r="L4" s="45">
+      <c r="L4" s="44">
         <f t="shared" si="3"/>
         <v>0.109341500765697</v>
       </c>
       <c r="M4" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="N4" s="55"/>
-      <c r="O4" s="55"/>
-      <c r="P4" s="55"/>
-      <c r="Q4" s="55"/>
-      <c r="R4" s="55"/>
-      <c r="S4" s="55"/>
-      <c r="T4" s="55"/>
-      <c r="V4" s="61"/>
-      <c r="W4" s="61"/>
-      <c r="X4" s="61"/>
-      <c r="Y4" s="61"/>
-      <c r="Z4" s="61"/>
-      <c r="AA4" s="61"/>
-      <c r="AB4" s="61"/>
-      <c r="AC4" s="61"/>
-      <c r="AE4" s="61"/>
-      <c r="AF4" s="61"/>
-      <c r="AG4" s="61"/>
-      <c r="AH4" s="61"/>
-      <c r="AI4" s="61"/>
-      <c r="AJ4" s="61"/>
-      <c r="AK4" s="61"/>
-      <c r="AM4" s="61"/>
-      <c r="AN4" s="61"/>
-      <c r="AO4" s="61"/>
-      <c r="AP4" s="61"/>
-      <c r="AQ4" s="61"/>
-      <c r="AR4" s="61"/>
-      <c r="AS4" s="61"/>
-      <c r="AU4" s="61"/>
-      <c r="AV4" s="61"/>
-      <c r="AW4" s="61"/>
-      <c r="AX4" s="61"/>
-      <c r="AY4" s="61"/>
-      <c r="AZ4" s="61"/>
-      <c r="BA4" s="61"/>
+      <c r="N4" s="54"/>
+      <c r="O4" s="54"/>
+      <c r="P4" s="54"/>
+      <c r="Q4" s="54"/>
+      <c r="R4" s="54"/>
+      <c r="S4" s="54"/>
+      <c r="T4" s="54"/>
+      <c r="V4" s="60"/>
+      <c r="W4" s="60"/>
+      <c r="X4" s="60"/>
+      <c r="Y4" s="60"/>
+      <c r="Z4" s="60"/>
+      <c r="AA4" s="60"/>
+      <c r="AB4" s="60"/>
+      <c r="AC4" s="60"/>
+      <c r="AE4" s="60"/>
+      <c r="AF4" s="60"/>
+      <c r="AG4" s="60"/>
+      <c r="AH4" s="60"/>
+      <c r="AI4" s="60"/>
+      <c r="AJ4" s="60"/>
+      <c r="AK4" s="60"/>
+      <c r="AM4" s="60"/>
+      <c r="AN4" s="60"/>
+      <c r="AO4" s="60"/>
+      <c r="AP4" s="60"/>
+      <c r="AQ4" s="60"/>
+      <c r="AR4" s="60"/>
+      <c r="AS4" s="60"/>
+      <c r="AU4" s="60"/>
+      <c r="AV4" s="60"/>
+      <c r="AW4" s="60"/>
+      <c r="AX4" s="60"/>
+      <c r="AY4" s="60"/>
+      <c r="AZ4" s="60"/>
+      <c r="BA4" s="60"/>
     </row>
     <row r="5" s="1" customFormat="1" ht="38" spans="1:14">
       <c r="A5" s="12" t="s">
@@ -2659,39 +2663,39 @@
       <c r="D5" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="37">
+      <c r="E5" s="36">
         <v>51.15</v>
       </c>
-      <c r="F5" s="37">
+      <c r="F5" s="36">
         <v>46.61</v>
       </c>
-      <c r="G5" s="37">
+      <c r="G5" s="36">
         <v>59.59</v>
       </c>
-      <c r="H5" s="37">
+      <c r="H5" s="36">
         <f t="shared" si="0"/>
         <v>454</v>
       </c>
-      <c r="I5" s="37">
+      <c r="I5" s="36">
         <f>FLOOR(1000/(E5-F5),100)</f>
         <v>200</v>
       </c>
-      <c r="J5" s="43">
+      <c r="J5" s="42">
         <f t="shared" si="1"/>
         <v>1.85903083700441</v>
       </c>
-      <c r="K5" s="44">
+      <c r="K5" s="43">
         <f t="shared" si="2"/>
         <v>0.0887585532746823</v>
       </c>
-      <c r="L5" s="45">
+      <c r="L5" s="44">
         <f t="shared" si="3"/>
         <v>0.165004887585533</v>
       </c>
-      <c r="M5" s="57" t="s">
+      <c r="M5" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="N5" s="58"/>
+      <c r="N5" s="57"/>
     </row>
     <row r="6" s="1" customFormat="1" ht="13" spans="1:14">
       <c r="A6" s="12" t="s">
@@ -2706,39 +2710,39 @@
       <c r="D6" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="38">
+      <c r="E6" s="37">
         <v>143.8</v>
       </c>
-      <c r="F6" s="38">
+      <c r="F6" s="37">
         <v>137.88</v>
       </c>
-      <c r="G6" s="38">
+      <c r="G6" s="37">
         <v>158.48</v>
       </c>
-      <c r="H6" s="37">
+      <c r="H6" s="36">
         <f t="shared" si="0"/>
         <v>592.000000000002</v>
       </c>
-      <c r="I6" s="37">
+      <c r="I6" s="36">
         <f t="shared" ref="I6:I13" si="4">FLOOR(1000/(E6-F6),100)</f>
         <v>100</v>
       </c>
-      <c r="J6" s="43">
+      <c r="J6" s="42">
         <f t="shared" si="1"/>
         <v>2.47972972972972</v>
       </c>
-      <c r="K6" s="44">
+      <c r="K6" s="43">
         <f t="shared" si="2"/>
         <v>0.0411682892906816</v>
       </c>
-      <c r="L6" s="45">
+      <c r="L6" s="44">
         <f t="shared" si="3"/>
         <v>0.102086230876217</v>
       </c>
       <c r="M6" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="N6" s="58"/>
+      <c r="N6" s="57"/>
     </row>
     <row r="7" s="1" customFormat="1" ht="38" spans="1:14">
       <c r="A7" s="12" t="s">
@@ -2753,39 +2757,39 @@
       <c r="D7" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="38">
+      <c r="E7" s="37">
         <v>20.44</v>
       </c>
-      <c r="F7" s="38">
+      <c r="F7" s="37">
         <v>19.09</v>
       </c>
-      <c r="G7" s="38">
+      <c r="G7" s="37">
         <v>23.43</v>
       </c>
-      <c r="H7" s="37">
+      <c r="H7" s="36">
         <f t="shared" si="0"/>
         <v>135</v>
       </c>
-      <c r="I7" s="37">
+      <c r="I7" s="36">
         <f t="shared" si="4"/>
         <v>700</v>
       </c>
-      <c r="J7" s="43">
+      <c r="J7" s="42">
         <f t="shared" si="1"/>
         <v>2.21481481481481</v>
       </c>
-      <c r="K7" s="44">
+      <c r="K7" s="43">
         <f t="shared" si="2"/>
         <v>0.0660469667318983</v>
       </c>
-      <c r="L7" s="45">
+      <c r="L7" s="44">
         <f t="shared" si="3"/>
         <v>0.146281800391389</v>
       </c>
-      <c r="M7" s="57" t="s">
+      <c r="M7" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="N7" s="58"/>
+      <c r="N7" s="57"/>
     </row>
     <row r="8" s="1" customFormat="1" ht="13" spans="1:14">
       <c r="A8" s="12" t="s">
@@ -2809,30 +2813,30 @@
       <c r="G8" s="12">
         <v>20.72</v>
       </c>
-      <c r="H8" s="37">
+      <c r="H8" s="36">
         <f t="shared" si="0"/>
         <v>169</v>
       </c>
-      <c r="I8" s="37">
+      <c r="I8" s="36">
         <f t="shared" si="4"/>
         <v>500</v>
       </c>
-      <c r="J8" s="43">
+      <c r="J8" s="42">
         <f t="shared" si="1"/>
         <v>2.0887573964497</v>
       </c>
-      <c r="K8" s="44">
+      <c r="K8" s="43">
         <f t="shared" si="2"/>
         <v>0.0983129726585225</v>
       </c>
-      <c r="L8" s="45">
+      <c r="L8" s="44">
         <f t="shared" si="3"/>
         <v>0.205351948807446</v>
       </c>
       <c r="M8" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="N8" s="58"/>
+      <c r="N8" s="57"/>
     </row>
     <row r="9" s="2" customFormat="1" ht="13" spans="1:13">
       <c r="A9" s="12" t="s">
@@ -2856,23 +2860,23 @@
       <c r="G9" s="12">
         <v>65.72</v>
       </c>
-      <c r="H9" s="37">
+      <c r="H9" s="36">
         <f t="shared" si="0"/>
         <v>579</v>
       </c>
-      <c r="I9" s="37">
+      <c r="I9" s="36">
         <f t="shared" si="4"/>
         <v>100</v>
       </c>
-      <c r="J9" s="43">
+      <c r="J9" s="42">
         <f t="shared" si="1"/>
         <v>0.24525043177893</v>
       </c>
-      <c r="K9" s="44">
+      <c r="K9" s="43">
         <f t="shared" si="2"/>
         <v>0.0900466562986003</v>
       </c>
-      <c r="L9" s="45">
+      <c r="L9" s="44">
         <f t="shared" si="3"/>
         <v>0.0220839813374806</v>
       </c>
@@ -2902,23 +2906,23 @@
       <c r="G10" s="12">
         <v>44.28</v>
       </c>
-      <c r="H10" s="37">
+      <c r="H10" s="36">
         <f t="shared" si="0"/>
         <v>324</v>
       </c>
-      <c r="I10" s="37">
+      <c r="I10" s="36">
         <f t="shared" si="4"/>
         <v>300</v>
       </c>
-      <c r="J10" s="43">
+      <c r="J10" s="42">
         <f t="shared" si="1"/>
         <v>1.58333333333333</v>
       </c>
-      <c r="K10" s="44">
+      <c r="K10" s="43">
         <f t="shared" si="2"/>
         <v>0.0827586206896552</v>
       </c>
-      <c r="L10" s="45">
+      <c r="L10" s="44">
         <f t="shared" si="3"/>
         <v>0.131034482758621</v>
       </c>
@@ -2933,7 +2937,7 @@
       <c r="B11" s="16">
         <v>44539</v>
       </c>
-      <c r="C11" s="62" t="s">
+      <c r="C11" s="61" t="s">
         <v>38</v>
       </c>
       <c r="D11" s="24" t="s">
@@ -2948,30 +2952,30 @@
       <c r="G11" s="12">
         <v>131.73</v>
       </c>
-      <c r="H11" s="37">
+      <c r="H11" s="36">
         <f t="shared" si="0"/>
         <v>663</v>
       </c>
-      <c r="I11" s="37">
+      <c r="I11" s="36">
         <f t="shared" si="4"/>
         <v>100</v>
       </c>
-      <c r="J11" s="43">
+      <c r="J11" s="42">
         <f t="shared" si="1"/>
         <v>2.10105580693816</v>
       </c>
-      <c r="K11" s="44">
+      <c r="K11" s="43">
         <f t="shared" si="2"/>
         <v>0.0562818336162988</v>
       </c>
-      <c r="L11" s="45">
+      <c r="L11" s="44">
         <f t="shared" si="3"/>
         <v>0.118251273344652</v>
       </c>
       <c r="M11" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="N11" s="58"/>
+      <c r="N11" s="57"/>
     </row>
     <row r="12" s="2" customFormat="1" ht="24" spans="1:13">
       <c r="A12" s="12" t="s">
@@ -2995,25 +2999,25 @@
       <c r="G12" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="H12" s="37">
+      <c r="H12" s="36">
         <f t="shared" si="0"/>
         <v>270</v>
       </c>
-      <c r="I12" s="37">
+      <c r="I12" s="36">
         <f t="shared" si="4"/>
         <v>300</v>
       </c>
-      <c r="J12" s="43" t="s">
+      <c r="J12" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="K12" s="44">
+      <c r="K12" s="43">
         <f t="shared" si="2"/>
         <v>0.054655870445344</v>
       </c>
-      <c r="L12" s="45" t="s">
+      <c r="L12" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="M12" s="57" t="s">
+      <c r="M12" s="56" t="s">
         <v>43</v>
       </c>
     </row>
@@ -3030,32 +3034,32 @@
       <c r="D13" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="37">
+      <c r="E13" s="36">
         <v>37.73</v>
       </c>
-      <c r="F13" s="37">
+      <c r="F13" s="36">
         <v>33.38</v>
       </c>
-      <c r="G13" s="37">
+      <c r="G13" s="36">
         <v>46.05</v>
       </c>
-      <c r="H13" s="37">
+      <c r="H13" s="36">
         <f t="shared" si="0"/>
         <v>434.999999999999</v>
       </c>
-      <c r="I13" s="37">
+      <c r="I13" s="36">
         <f t="shared" si="4"/>
         <v>200</v>
       </c>
-      <c r="J13" s="43">
+      <c r="J13" s="42">
         <f t="shared" ref="J13:J18" si="5">(G13-E13)/(E13-F13)</f>
         <v>1.91264367816092</v>
       </c>
-      <c r="K13" s="44">
+      <c r="K13" s="43">
         <f t="shared" si="2"/>
         <v>0.115292870394911</v>
       </c>
-      <c r="L13" s="45">
+      <c r="L13" s="44">
         <f t="shared" ref="L13:L18" si="6">(G13-E13)/E13</f>
         <v>0.220514179697853</v>
       </c>
@@ -3070,42 +3074,42 @@
       <c r="B14" s="25">
         <v>44525</v>
       </c>
-      <c r="C14" s="63" t="s">
+      <c r="C14" s="62" t="s">
         <v>46</v>
       </c>
       <c r="D14" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="E14" s="33">
+      <c r="E14" s="26">
         <v>70.98</v>
       </c>
-      <c r="F14" s="33">
+      <c r="F14" s="26">
         <v>66.88</v>
       </c>
-      <c r="G14" s="33">
+      <c r="G14" s="26">
         <v>84.94</v>
       </c>
-      <c r="H14" s="39">
+      <c r="H14" s="38">
         <f t="shared" si="0"/>
         <v>410.000000000001</v>
       </c>
-      <c r="I14" s="37">
+      <c r="I14" s="36">
         <f>FLOOR(1000/(E14-F14),100)</f>
         <v>200</v>
       </c>
-      <c r="J14" s="43">
+      <c r="J14" s="42">
         <f t="shared" si="5"/>
         <v>3.40487804878048</v>
       </c>
-      <c r="K14" s="44">
+      <c r="K14" s="43">
         <f t="shared" ref="K14:K18" si="7">(E14-F14)/E14</f>
         <v>0.0577627500704425</v>
       </c>
-      <c r="L14" s="46">
+      <c r="L14" s="45">
         <f t="shared" si="6"/>
         <v>0.196675119752043</v>
       </c>
-      <c r="M14" s="59" t="s">
+      <c r="M14" s="58" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3113,45 +3117,45 @@
       <c r="A15" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="B15" s="27">
+      <c r="B15" s="25">
         <v>44529</v>
       </c>
-      <c r="C15" s="28">
+      <c r="C15" s="27">
         <v>603010</v>
       </c>
-      <c r="D15" s="29" t="s">
+      <c r="D15" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="E15" s="32">
+      <c r="E15" s="26">
         <v>29.77</v>
       </c>
-      <c r="F15" s="32">
+      <c r="F15" s="26">
         <v>27.72</v>
       </c>
-      <c r="G15" s="32">
+      <c r="G15" s="26">
         <v>34.93</v>
       </c>
-      <c r="H15" s="39">
+      <c r="H15" s="38">
         <f t="shared" si="0"/>
         <v>205</v>
       </c>
-      <c r="I15" s="32">
+      <c r="I15" s="26">
         <f t="shared" ref="I15:I17" si="8">FLOOR(300/(E15-F15),100)</f>
         <v>100</v>
       </c>
-      <c r="J15" s="47">
+      <c r="J15" s="46">
         <f t="shared" si="5"/>
         <v>2.51707317073171</v>
       </c>
-      <c r="K15" s="48">
+      <c r="K15" s="47">
         <f t="shared" si="7"/>
         <v>0.0688612697346322</v>
       </c>
-      <c r="L15" s="46">
+      <c r="L15" s="45">
         <f t="shared" si="6"/>
         <v>0.173328854551562</v>
       </c>
-      <c r="M15" s="60" t="s">
+      <c r="M15" s="58" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3162,42 +3166,42 @@
       <c r="B16" s="25">
         <v>44522</v>
       </c>
-      <c r="C16" s="28">
+      <c r="C16" s="27">
         <v>605016</v>
       </c>
-      <c r="D16" s="29" t="s">
+      <c r="D16" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="E16" s="33">
+      <c r="E16" s="26">
         <v>30.66</v>
       </c>
-      <c r="F16" s="33">
+      <c r="F16" s="26">
         <v>29.35</v>
       </c>
-      <c r="G16" s="33">
+      <c r="G16" s="26">
         <v>38.71</v>
       </c>
-      <c r="H16" s="40">
+      <c r="H16" s="38">
         <f t="shared" si="0"/>
         <v>131</v>
       </c>
-      <c r="I16" s="33">
+      <c r="I16" s="26">
         <f t="shared" si="8"/>
         <v>200</v>
       </c>
-      <c r="J16" s="49">
+      <c r="J16" s="46">
         <f t="shared" si="5"/>
         <v>6.14503816793894</v>
       </c>
-      <c r="K16" s="50">
+      <c r="K16" s="47">
         <f t="shared" si="7"/>
         <v>0.042726679712981</v>
       </c>
-      <c r="L16" s="51">
+      <c r="L16" s="45">
         <f t="shared" si="6"/>
         <v>0.262557077625571</v>
       </c>
-      <c r="M16" s="59" t="s">
+      <c r="M16" s="58" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3205,45 +3209,45 @@
       <c r="A17" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="B17" s="30">
+      <c r="B17" s="28">
         <v>44517</v>
       </c>
-      <c r="C17" s="31" t="s">
+      <c r="C17" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="D17" s="29" t="s">
+      <c r="D17" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="E17" s="39">
+      <c r="E17" s="38">
         <v>26.2</v>
       </c>
-      <c r="F17" s="39">
+      <c r="F17" s="38">
         <v>24.68</v>
       </c>
-      <c r="G17" s="39">
+      <c r="G17" s="38">
         <v>32.49</v>
       </c>
-      <c r="H17" s="39">
+      <c r="H17" s="38">
         <f t="shared" si="0"/>
         <v>152</v>
       </c>
-      <c r="I17" s="39">
+      <c r="I17" s="38">
         <f t="shared" si="8"/>
         <v>100</v>
       </c>
-      <c r="J17" s="47">
+      <c r="J17" s="46">
         <f t="shared" si="5"/>
         <v>4.13815789473685</v>
       </c>
-      <c r="K17" s="48">
+      <c r="K17" s="47">
         <f t="shared" si="7"/>
         <v>0.0580152671755725</v>
       </c>
-      <c r="L17" s="46">
+      <c r="L17" s="45">
         <f t="shared" si="6"/>
         <v>0.240076335877863</v>
       </c>
-      <c r="M17" s="60" t="s">
+      <c r="M17" s="58" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3251,458 +3255,458 @@
       <c r="A18" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="B18" s="27">
+      <c r="B18" s="25">
         <v>44533</v>
       </c>
-      <c r="C18" s="63" t="s">
+      <c r="C18" s="62" t="s">
         <v>56</v>
       </c>
-      <c r="D18" s="29" t="s">
+      <c r="D18" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="E18" s="32">
+      <c r="E18" s="26">
         <v>28.82</v>
       </c>
-      <c r="F18" s="32">
+      <c r="F18" s="26">
         <v>26.31</v>
       </c>
-      <c r="G18" s="32">
+      <c r="G18" s="26">
         <v>32.36</v>
       </c>
-      <c r="H18" s="39">
+      <c r="H18" s="38">
         <f t="shared" si="0"/>
         <v>251</v>
       </c>
-      <c r="I18" s="32">
+      <c r="I18" s="26">
         <f>FLOOR(304/(E18-F18),100)</f>
         <v>100</v>
       </c>
-      <c r="J18" s="47">
+      <c r="J18" s="46">
         <f t="shared" si="5"/>
         <v>1.41035856573705</v>
       </c>
-      <c r="K18" s="48">
+      <c r="K18" s="47">
         <f t="shared" si="7"/>
         <v>0.0870922970159612</v>
       </c>
-      <c r="L18" s="46">
+      <c r="L18" s="45">
         <f t="shared" si="6"/>
         <v>0.122831367106176</v>
       </c>
-      <c r="M18" s="60" t="s">
+      <c r="M18" s="58" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="19" s="2" customFormat="1" spans="1:13">
-      <c r="A19" s="32"/>
-      <c r="B19" s="27"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="32"/>
+      <c r="A19" s="30"/>
+      <c r="B19" s="31"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
       <c r="H19" s="39"/>
-      <c r="I19" s="32"/>
-      <c r="J19" s="47"/>
-      <c r="K19" s="48"/>
-      <c r="L19" s="46"/>
-      <c r="M19" s="29"/>
+      <c r="I19" s="30"/>
+      <c r="J19" s="48"/>
+      <c r="K19" s="49"/>
+      <c r="L19" s="50"/>
+      <c r="M19" s="59"/>
     </row>
     <row r="20" s="2" customFormat="1" spans="1:13">
-      <c r="A20" s="32"/>
-      <c r="B20" s="27"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="32"/>
+      <c r="A20" s="30"/>
+      <c r="B20" s="31"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="30"/>
       <c r="H20" s="39"/>
-      <c r="I20" s="32"/>
-      <c r="J20" s="47"/>
-      <c r="K20" s="48"/>
-      <c r="L20" s="46"/>
-      <c r="M20" s="29"/>
+      <c r="I20" s="30"/>
+      <c r="J20" s="48"/>
+      <c r="K20" s="49"/>
+      <c r="L20" s="50"/>
+      <c r="M20" s="59"/>
     </row>
     <row r="21" s="2" customFormat="1" spans="1:13">
-      <c r="A21" s="32"/>
-      <c r="B21" s="27"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="32"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="32"/>
-      <c r="G21" s="32"/>
+      <c r="A21" s="30"/>
+      <c r="B21" s="31"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="30"/>
       <c r="H21" s="39"/>
-      <c r="I21" s="32"/>
-      <c r="J21" s="47"/>
-      <c r="K21" s="48"/>
-      <c r="L21" s="46"/>
-      <c r="M21" s="29"/>
+      <c r="I21" s="30"/>
+      <c r="J21" s="48"/>
+      <c r="K21" s="49"/>
+      <c r="L21" s="50"/>
+      <c r="M21" s="59"/>
     </row>
     <row r="22" s="2" customFormat="1" spans="1:13">
-      <c r="A22" s="32"/>
-      <c r="B22" s="27"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="32"/>
-      <c r="E22" s="32"/>
-      <c r="F22" s="32"/>
-      <c r="G22" s="32"/>
+      <c r="A22" s="30"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="30"/>
       <c r="H22" s="39"/>
-      <c r="I22" s="32"/>
-      <c r="J22" s="47"/>
-      <c r="K22" s="48"/>
-      <c r="L22" s="46"/>
-      <c r="M22" s="29"/>
+      <c r="I22" s="30"/>
+      <c r="J22" s="48"/>
+      <c r="K22" s="49"/>
+      <c r="L22" s="50"/>
+      <c r="M22" s="59"/>
     </row>
     <row r="23" s="2" customFormat="1" spans="1:13">
-      <c r="A23" s="32"/>
-      <c r="B23" s="27"/>
-      <c r="C23" s="26"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="32"/>
+      <c r="A23" s="30"/>
+      <c r="B23" s="31"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="30"/>
       <c r="H23" s="39"/>
-      <c r="I23" s="32"/>
-      <c r="J23" s="47"/>
-      <c r="K23" s="48"/>
-      <c r="L23" s="46"/>
-      <c r="M23" s="32"/>
+      <c r="I23" s="30"/>
+      <c r="J23" s="48"/>
+      <c r="K23" s="49"/>
+      <c r="L23" s="50"/>
+      <c r="M23" s="30"/>
     </row>
     <row r="24" s="2" customFormat="1" spans="1:13">
-      <c r="A24" s="32"/>
-      <c r="B24" s="27"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="32"/>
-      <c r="E24" s="32"/>
-      <c r="F24" s="32"/>
-      <c r="G24" s="32"/>
+      <c r="A24" s="30"/>
+      <c r="B24" s="31"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="30"/>
       <c r="H24" s="39"/>
-      <c r="I24" s="32"/>
-      <c r="J24" s="47"/>
-      <c r="K24" s="48"/>
-      <c r="L24" s="46"/>
-      <c r="M24" s="32"/>
+      <c r="I24" s="30"/>
+      <c r="J24" s="48"/>
+      <c r="K24" s="49"/>
+      <c r="L24" s="50"/>
+      <c r="M24" s="30"/>
     </row>
     <row r="25" s="2" customFormat="1" spans="1:13">
-      <c r="A25" s="32"/>
-      <c r="B25" s="27"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="32"/>
+      <c r="A25" s="30"/>
+      <c r="B25" s="31"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="30"/>
       <c r="H25" s="39"/>
-      <c r="I25" s="32"/>
-      <c r="J25" s="47"/>
-      <c r="K25" s="48"/>
-      <c r="L25" s="46"/>
-      <c r="M25" s="32"/>
+      <c r="I25" s="30"/>
+      <c r="J25" s="48"/>
+      <c r="K25" s="49"/>
+      <c r="L25" s="50"/>
+      <c r="M25" s="30"/>
     </row>
     <row r="26" s="2" customFormat="1" spans="1:13">
-      <c r="A26" s="32"/>
-      <c r="B26" s="27"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="32"/>
-      <c r="G26" s="32"/>
+      <c r="A26" s="30"/>
+      <c r="B26" s="31"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="30"/>
       <c r="H26" s="39"/>
-      <c r="I26" s="32"/>
-      <c r="J26" s="47"/>
-      <c r="K26" s="48"/>
-      <c r="L26" s="46"/>
-      <c r="M26" s="32"/>
+      <c r="I26" s="30"/>
+      <c r="J26" s="48"/>
+      <c r="K26" s="49"/>
+      <c r="L26" s="50"/>
+      <c r="M26" s="30"/>
     </row>
     <row r="27" s="2" customFormat="1" spans="1:13">
-      <c r="A27" s="32"/>
-      <c r="B27" s="27"/>
-      <c r="C27" s="33"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="32"/>
+      <c r="A27" s="30"/>
+      <c r="B27" s="31"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="30"/>
       <c r="H27" s="39"/>
-      <c r="I27" s="32"/>
-      <c r="J27" s="47"/>
-      <c r="K27" s="48"/>
-      <c r="L27" s="46"/>
-      <c r="M27" s="29"/>
+      <c r="I27" s="30"/>
+      <c r="J27" s="48"/>
+      <c r="K27" s="49"/>
+      <c r="L27" s="50"/>
+      <c r="M27" s="59"/>
     </row>
     <row r="28" spans="1:13">
-      <c r="A28" s="34"/>
-      <c r="B28" s="27"/>
-      <c r="C28" s="35"/>
-      <c r="D28" s="34"/>
-      <c r="E28" s="34"/>
-      <c r="F28" s="34"/>
-      <c r="G28" s="34"/>
-      <c r="H28" s="34"/>
-      <c r="I28" s="34"/>
-      <c r="J28" s="34"/>
-      <c r="K28" s="48"/>
-      <c r="L28" s="52"/>
-      <c r="M28" s="29"/>
+      <c r="A28" s="33"/>
+      <c r="B28" s="31"/>
+      <c r="C28" s="34"/>
+      <c r="D28" s="33"/>
+      <c r="E28" s="33"/>
+      <c r="F28" s="33"/>
+      <c r="G28" s="33"/>
+      <c r="H28" s="33"/>
+      <c r="I28" s="33"/>
+      <c r="J28" s="33"/>
+      <c r="K28" s="49"/>
+      <c r="L28" s="51"/>
+      <c r="M28" s="59"/>
     </row>
     <row r="29" spans="1:13">
-      <c r="A29" s="34"/>
-      <c r="B29" s="27"/>
-      <c r="C29" s="34"/>
-      <c r="D29" s="34"/>
-      <c r="E29" s="34"/>
-      <c r="F29" s="34"/>
-      <c r="G29" s="34"/>
-      <c r="H29" s="34"/>
-      <c r="I29" s="34"/>
-      <c r="J29" s="34"/>
-      <c r="K29" s="48"/>
-      <c r="L29" s="52"/>
-      <c r="M29" s="34"/>
+      <c r="A29" s="33"/>
+      <c r="B29" s="31"/>
+      <c r="C29" s="33"/>
+      <c r="D29" s="33"/>
+      <c r="E29" s="33"/>
+      <c r="F29" s="33"/>
+      <c r="G29" s="33"/>
+      <c r="H29" s="33"/>
+      <c r="I29" s="33"/>
+      <c r="J29" s="33"/>
+      <c r="K29" s="49"/>
+      <c r="L29" s="51"/>
+      <c r="M29" s="33"/>
     </row>
     <row r="30" spans="1:13">
-      <c r="A30" s="34"/>
-      <c r="B30" s="34"/>
-      <c r="C30" s="34"/>
-      <c r="D30" s="34"/>
-      <c r="E30" s="34"/>
-      <c r="F30" s="34"/>
-      <c r="G30" s="34"/>
-      <c r="H30" s="34"/>
-      <c r="I30" s="34"/>
-      <c r="J30" s="34"/>
-      <c r="K30" s="48"/>
-      <c r="L30" s="52"/>
-      <c r="M30" s="34"/>
+      <c r="A30" s="33"/>
+      <c r="B30" s="33"/>
+      <c r="C30" s="33"/>
+      <c r="D30" s="33"/>
+      <c r="E30" s="33"/>
+      <c r="F30" s="33"/>
+      <c r="G30" s="33"/>
+      <c r="H30" s="33"/>
+      <c r="I30" s="33"/>
+      <c r="J30" s="33"/>
+      <c r="K30" s="49"/>
+      <c r="L30" s="51"/>
+      <c r="M30" s="33"/>
     </row>
     <row r="31" spans="1:13">
-      <c r="A31" s="34"/>
-      <c r="B31" s="34"/>
-      <c r="C31" s="34"/>
-      <c r="D31" s="34"/>
-      <c r="E31" s="34"/>
-      <c r="F31" s="34"/>
-      <c r="G31" s="34"/>
-      <c r="H31" s="34"/>
-      <c r="I31" s="34"/>
-      <c r="J31" s="34"/>
-      <c r="K31" s="48"/>
-      <c r="L31" s="52"/>
-      <c r="M31" s="34"/>
+      <c r="A31" s="33"/>
+      <c r="B31" s="33"/>
+      <c r="C31" s="33"/>
+      <c r="D31" s="33"/>
+      <c r="E31" s="33"/>
+      <c r="F31" s="33"/>
+      <c r="G31" s="33"/>
+      <c r="H31" s="33"/>
+      <c r="I31" s="33"/>
+      <c r="J31" s="33"/>
+      <c r="K31" s="49"/>
+      <c r="L31" s="51"/>
+      <c r="M31" s="33"/>
     </row>
     <row r="32" spans="1:13">
-      <c r="A32" s="34"/>
-      <c r="B32" s="34"/>
-      <c r="C32" s="34"/>
-      <c r="D32" s="34"/>
-      <c r="E32" s="34"/>
-      <c r="F32" s="34"/>
-      <c r="G32" s="34"/>
-      <c r="H32" s="34"/>
-      <c r="I32" s="34"/>
-      <c r="J32" s="34"/>
-      <c r="K32" s="48"/>
-      <c r="L32" s="52"/>
-      <c r="M32" s="34"/>
+      <c r="A32" s="33"/>
+      <c r="B32" s="33"/>
+      <c r="C32" s="33"/>
+      <c r="D32" s="33"/>
+      <c r="E32" s="33"/>
+      <c r="F32" s="33"/>
+      <c r="G32" s="33"/>
+      <c r="H32" s="33"/>
+      <c r="I32" s="33"/>
+      <c r="J32" s="33"/>
+      <c r="K32" s="49"/>
+      <c r="L32" s="51"/>
+      <c r="M32" s="33"/>
     </row>
     <row r="33" spans="1:13">
-      <c r="A33" s="34"/>
-      <c r="B33" s="34"/>
-      <c r="C33" s="34"/>
-      <c r="D33" s="34"/>
-      <c r="E33" s="34"/>
-      <c r="F33" s="34"/>
-      <c r="G33" s="34"/>
-      <c r="H33" s="34"/>
-      <c r="I33" s="34"/>
-      <c r="J33" s="34"/>
-      <c r="K33" s="48"/>
-      <c r="L33" s="52"/>
-      <c r="M33" s="34"/>
+      <c r="A33" s="33"/>
+      <c r="B33" s="33"/>
+      <c r="C33" s="33"/>
+      <c r="D33" s="33"/>
+      <c r="E33" s="33"/>
+      <c r="F33" s="33"/>
+      <c r="G33" s="33"/>
+      <c r="H33" s="33"/>
+      <c r="I33" s="33"/>
+      <c r="J33" s="33"/>
+      <c r="K33" s="49"/>
+      <c r="L33" s="51"/>
+      <c r="M33" s="33"/>
     </row>
     <row r="34" spans="1:13">
-      <c r="A34" s="34"/>
-      <c r="B34" s="34"/>
-      <c r="C34" s="34"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="34"/>
-      <c r="I34" s="34"/>
-      <c r="J34" s="34"/>
-      <c r="K34" s="48"/>
-      <c r="L34" s="52"/>
-      <c r="M34" s="34"/>
+      <c r="A34" s="33"/>
+      <c r="B34" s="33"/>
+      <c r="C34" s="33"/>
+      <c r="D34" s="33"/>
+      <c r="E34" s="33"/>
+      <c r="F34" s="33"/>
+      <c r="G34" s="33"/>
+      <c r="H34" s="33"/>
+      <c r="I34" s="33"/>
+      <c r="J34" s="33"/>
+      <c r="K34" s="49"/>
+      <c r="L34" s="51"/>
+      <c r="M34" s="33"/>
     </row>
     <row r="35" spans="1:13">
-      <c r="A35" s="34"/>
-      <c r="B35" s="34"/>
-      <c r="C35" s="34"/>
-      <c r="D35" s="34"/>
-      <c r="E35" s="34"/>
-      <c r="F35" s="34"/>
-      <c r="G35" s="34"/>
-      <c r="H35" s="34"/>
-      <c r="I35" s="34"/>
-      <c r="J35" s="34"/>
-      <c r="K35" s="48"/>
-      <c r="L35" s="52"/>
-      <c r="M35" s="34"/>
+      <c r="A35" s="33"/>
+      <c r="B35" s="33"/>
+      <c r="C35" s="33"/>
+      <c r="D35" s="33"/>
+      <c r="E35" s="33"/>
+      <c r="F35" s="33"/>
+      <c r="G35" s="33"/>
+      <c r="H35" s="33"/>
+      <c r="I35" s="33"/>
+      <c r="J35" s="33"/>
+      <c r="K35" s="49"/>
+      <c r="L35" s="51"/>
+      <c r="M35" s="33"/>
     </row>
     <row r="36" spans="1:13">
-      <c r="A36" s="34"/>
-      <c r="B36" s="34"/>
-      <c r="C36" s="34"/>
-      <c r="D36" s="34"/>
-      <c r="E36" s="34"/>
-      <c r="F36" s="34"/>
-      <c r="G36" s="34"/>
-      <c r="H36" s="34"/>
-      <c r="I36" s="34"/>
-      <c r="J36" s="34"/>
-      <c r="K36" s="48"/>
-      <c r="L36" s="52"/>
-      <c r="M36" s="34"/>
+      <c r="A36" s="33"/>
+      <c r="B36" s="33"/>
+      <c r="C36" s="33"/>
+      <c r="D36" s="33"/>
+      <c r="E36" s="33"/>
+      <c r="F36" s="33"/>
+      <c r="G36" s="33"/>
+      <c r="H36" s="33"/>
+      <c r="I36" s="33"/>
+      <c r="J36" s="33"/>
+      <c r="K36" s="49"/>
+      <c r="L36" s="51"/>
+      <c r="M36" s="33"/>
     </row>
     <row r="37" spans="1:13">
-      <c r="A37" s="34"/>
-      <c r="B37" s="34"/>
-      <c r="C37" s="34"/>
-      <c r="D37" s="34"/>
-      <c r="E37" s="34"/>
-      <c r="F37" s="34"/>
-      <c r="G37" s="34"/>
-      <c r="H37" s="34"/>
-      <c r="I37" s="34"/>
-      <c r="J37" s="34"/>
-      <c r="K37" s="48"/>
-      <c r="L37" s="52"/>
-      <c r="M37" s="34"/>
+      <c r="A37" s="33"/>
+      <c r="B37" s="33"/>
+      <c r="C37" s="33"/>
+      <c r="D37" s="33"/>
+      <c r="E37" s="33"/>
+      <c r="F37" s="33"/>
+      <c r="G37" s="33"/>
+      <c r="H37" s="33"/>
+      <c r="I37" s="33"/>
+      <c r="J37" s="33"/>
+      <c r="K37" s="49"/>
+      <c r="L37" s="51"/>
+      <c r="M37" s="33"/>
     </row>
     <row r="38" spans="1:13">
-      <c r="A38" s="34"/>
-      <c r="B38" s="34"/>
-      <c r="C38" s="34"/>
-      <c r="D38" s="34"/>
-      <c r="E38" s="34"/>
-      <c r="F38" s="34"/>
-      <c r="G38" s="34"/>
-      <c r="H38" s="34"/>
-      <c r="I38" s="34"/>
-      <c r="J38" s="34"/>
-      <c r="K38" s="48"/>
-      <c r="L38" s="52"/>
-      <c r="M38" s="34"/>
+      <c r="A38" s="33"/>
+      <c r="B38" s="33"/>
+      <c r="C38" s="33"/>
+      <c r="D38" s="33"/>
+      <c r="E38" s="33"/>
+      <c r="F38" s="33"/>
+      <c r="G38" s="33"/>
+      <c r="H38" s="33"/>
+      <c r="I38" s="33"/>
+      <c r="J38" s="33"/>
+      <c r="K38" s="49"/>
+      <c r="L38" s="51"/>
+      <c r="M38" s="33"/>
     </row>
     <row r="39" spans="1:13">
-      <c r="A39" s="34"/>
-      <c r="B39" s="34"/>
-      <c r="C39" s="34"/>
-      <c r="D39" s="34"/>
-      <c r="E39" s="34"/>
-      <c r="F39" s="34"/>
-      <c r="G39" s="34"/>
-      <c r="H39" s="34"/>
-      <c r="I39" s="34"/>
-      <c r="J39" s="34"/>
-      <c r="K39" s="48"/>
-      <c r="L39" s="52"/>
-      <c r="M39" s="34"/>
+      <c r="A39" s="33"/>
+      <c r="B39" s="33"/>
+      <c r="C39" s="33"/>
+      <c r="D39" s="33"/>
+      <c r="E39" s="33"/>
+      <c r="F39" s="33"/>
+      <c r="G39" s="33"/>
+      <c r="H39" s="33"/>
+      <c r="I39" s="33"/>
+      <c r="J39" s="33"/>
+      <c r="K39" s="49"/>
+      <c r="L39" s="51"/>
+      <c r="M39" s="33"/>
     </row>
     <row r="40" spans="1:13">
-      <c r="A40" s="34"/>
-      <c r="B40" s="34"/>
-      <c r="C40" s="34"/>
-      <c r="D40" s="34"/>
-      <c r="E40" s="34"/>
-      <c r="F40" s="34"/>
-      <c r="G40" s="34"/>
-      <c r="H40" s="34"/>
-      <c r="I40" s="34"/>
-      <c r="J40" s="34"/>
-      <c r="K40" s="48"/>
-      <c r="L40" s="52"/>
-      <c r="M40" s="34"/>
+      <c r="A40" s="33"/>
+      <c r="B40" s="33"/>
+      <c r="C40" s="33"/>
+      <c r="D40" s="33"/>
+      <c r="E40" s="33"/>
+      <c r="F40" s="33"/>
+      <c r="G40" s="33"/>
+      <c r="H40" s="33"/>
+      <c r="I40" s="33"/>
+      <c r="J40" s="33"/>
+      <c r="K40" s="49"/>
+      <c r="L40" s="51"/>
+      <c r="M40" s="33"/>
     </row>
     <row r="41" spans="1:13">
-      <c r="A41" s="34"/>
-      <c r="B41" s="34"/>
-      <c r="C41" s="34"/>
-      <c r="D41" s="34"/>
-      <c r="E41" s="34"/>
-      <c r="F41" s="34"/>
-      <c r="G41" s="34"/>
-      <c r="H41" s="34"/>
-      <c r="I41" s="34"/>
-      <c r="J41" s="34"/>
-      <c r="K41" s="48"/>
-      <c r="L41" s="52"/>
-      <c r="M41" s="34"/>
+      <c r="A41" s="33"/>
+      <c r="B41" s="33"/>
+      <c r="C41" s="33"/>
+      <c r="D41" s="33"/>
+      <c r="E41" s="33"/>
+      <c r="F41" s="33"/>
+      <c r="G41" s="33"/>
+      <c r="H41" s="33"/>
+      <c r="I41" s="33"/>
+      <c r="J41" s="33"/>
+      <c r="K41" s="49"/>
+      <c r="L41" s="51"/>
+      <c r="M41" s="33"/>
     </row>
     <row r="42" spans="1:13">
-      <c r="A42" s="34"/>
-      <c r="B42" s="34"/>
-      <c r="C42" s="34"/>
-      <c r="D42" s="34"/>
-      <c r="E42" s="34"/>
-      <c r="F42" s="34"/>
-      <c r="G42" s="34"/>
-      <c r="H42" s="34"/>
-      <c r="I42" s="34"/>
-      <c r="J42" s="34"/>
-      <c r="K42" s="48"/>
-      <c r="L42" s="52"/>
-      <c r="M42" s="34"/>
+      <c r="A42" s="33"/>
+      <c r="B42" s="33"/>
+      <c r="C42" s="33"/>
+      <c r="D42" s="33"/>
+      <c r="E42" s="33"/>
+      <c r="F42" s="33"/>
+      <c r="G42" s="33"/>
+      <c r="H42" s="33"/>
+      <c r="I42" s="33"/>
+      <c r="J42" s="33"/>
+      <c r="K42" s="49"/>
+      <c r="L42" s="51"/>
+      <c r="M42" s="33"/>
     </row>
     <row r="43" spans="1:13">
-      <c r="A43" s="34"/>
-      <c r="B43" s="34"/>
-      <c r="C43" s="34"/>
-      <c r="D43" s="34"/>
-      <c r="E43" s="34"/>
-      <c r="F43" s="34"/>
-      <c r="G43" s="34"/>
-      <c r="H43" s="34"/>
-      <c r="I43" s="34"/>
-      <c r="J43" s="34"/>
-      <c r="K43" s="48"/>
-      <c r="L43" s="52"/>
-      <c r="M43" s="34"/>
+      <c r="A43" s="33"/>
+      <c r="B43" s="33"/>
+      <c r="C43" s="33"/>
+      <c r="D43" s="33"/>
+      <c r="E43" s="33"/>
+      <c r="F43" s="33"/>
+      <c r="G43" s="33"/>
+      <c r="H43" s="33"/>
+      <c r="I43" s="33"/>
+      <c r="J43" s="33"/>
+      <c r="K43" s="49"/>
+      <c r="L43" s="51"/>
+      <c r="M43" s="33"/>
     </row>
     <row r="44" spans="1:13">
-      <c r="A44" s="34"/>
-      <c r="B44" s="34"/>
-      <c r="C44" s="34"/>
-      <c r="D44" s="34"/>
-      <c r="E44" s="34"/>
-      <c r="F44" s="34"/>
-      <c r="G44" s="34"/>
-      <c r="H44" s="34"/>
-      <c r="I44" s="34"/>
-      <c r="J44" s="34"/>
-      <c r="K44" s="48"/>
-      <c r="L44" s="52"/>
-      <c r="M44" s="34"/>
+      <c r="A44" s="33"/>
+      <c r="B44" s="33"/>
+      <c r="C44" s="33"/>
+      <c r="D44" s="33"/>
+      <c r="E44" s="33"/>
+      <c r="F44" s="33"/>
+      <c r="G44" s="33"/>
+      <c r="H44" s="33"/>
+      <c r="I44" s="33"/>
+      <c r="J44" s="33"/>
+      <c r="K44" s="49"/>
+      <c r="L44" s="51"/>
+      <c r="M44" s="33"/>
     </row>
     <row r="45" spans="1:13">
-      <c r="A45" s="34"/>
-      <c r="B45" s="34"/>
-      <c r="C45" s="34"/>
-      <c r="D45" s="34"/>
-      <c r="E45" s="34"/>
-      <c r="F45" s="34"/>
-      <c r="G45" s="34"/>
-      <c r="H45" s="34"/>
-      <c r="I45" s="34"/>
-      <c r="J45" s="34"/>
-      <c r="K45" s="48"/>
-      <c r="L45" s="52"/>
-      <c r="M45" s="34"/>
+      <c r="A45" s="33"/>
+      <c r="B45" s="33"/>
+      <c r="C45" s="33"/>
+      <c r="D45" s="33"/>
+      <c r="E45" s="33"/>
+      <c r="F45" s="33"/>
+      <c r="G45" s="33"/>
+      <c r="H45" s="33"/>
+      <c r="I45" s="33"/>
+      <c r="J45" s="33"/>
+      <c r="K45" s="49"/>
+      <c r="L45" s="51"/>
+      <c r="M45" s="33"/>
     </row>
     <row r="46" ht="13" spans="1:13">
-      <c r="A46" s="64" t="s">
+      <c r="A46" s="63" t="s">
         <v>58</v>
       </c>
-      <c r="B46" s="34"/>
+      <c r="B46" s="33"/>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
@@ -3710,8 +3714,8 @@
       <c r="H46" s="3"/>
       <c r="I46" s="3"/>
       <c r="J46" s="3"/>
-      <c r="K46" s="53"/>
-      <c r="M46" s="34"/>
+      <c r="K46" s="52"/>
+      <c r="M46" s="33"/>
     </row>
     <row r="47" spans="1:11">
       <c r="A47" s="3"/>
@@ -3723,7 +3727,7 @@
       <c r="H47" s="3"/>
       <c r="I47" s="3"/>
       <c r="J47" s="3"/>
-      <c r="K47" s="53"/>
+      <c r="K47" s="52"/>
     </row>
     <row r="48" spans="1:11">
       <c r="A48" s="3"/>
@@ -3735,7 +3739,7 @@
       <c r="H48" s="3"/>
       <c r="I48" s="3"/>
       <c r="J48" s="3"/>
-      <c r="K48" s="53"/>
+      <c r="K48" s="52"/>
     </row>
     <row r="49" spans="1:11">
       <c r="A49" s="3"/>
@@ -3747,7 +3751,7 @@
       <c r="H49" s="3"/>
       <c r="I49" s="3"/>
       <c r="J49" s="3"/>
-      <c r="K49" s="53"/>
+      <c r="K49" s="52"/>
     </row>
     <row r="50" spans="1:11">
       <c r="A50" s="3"/>
@@ -3759,7 +3763,7 @@
       <c r="H50" s="3"/>
       <c r="I50" s="3"/>
       <c r="J50" s="3"/>
-      <c r="K50" s="53"/>
+      <c r="K50" s="52"/>
     </row>
     <row r="51" spans="1:11">
       <c r="A51" s="3"/>
@@ -3771,7 +3775,7 @@
       <c r="H51" s="3"/>
       <c r="I51" s="3"/>
       <c r="J51" s="3"/>
-      <c r="K51" s="53"/>
+      <c r="K51" s="52"/>
     </row>
     <row r="52" spans="1:11">
       <c r="A52" s="3"/>
@@ -3783,7 +3787,7 @@
       <c r="H52" s="3"/>
       <c r="I52" s="3"/>
       <c r="J52" s="3"/>
-      <c r="K52" s="53"/>
+      <c r="K52" s="52"/>
     </row>
     <row r="53" spans="1:11">
       <c r="A53" s="3"/>
@@ -3795,7 +3799,7 @@
       <c r="H53" s="3"/>
       <c r="I53" s="3"/>
       <c r="J53" s="3"/>
-      <c r="K53" s="53"/>
+      <c r="K53" s="52"/>
     </row>
     <row r="54" spans="1:11">
       <c r="A54" s="3"/>
@@ -3807,7 +3811,7 @@
       <c r="H54" s="3"/>
       <c r="I54" s="3"/>
       <c r="J54" s="3"/>
-      <c r="K54" s="53"/>
+      <c r="K54" s="52"/>
     </row>
     <row r="55" spans="1:11">
       <c r="A55" s="3"/>
@@ -3819,7 +3823,7 @@
       <c r="H55" s="3"/>
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
-      <c r="K55" s="53"/>
+      <c r="K55" s="52"/>
     </row>
     <row r="56" spans="1:11">
       <c r="A56" s="3"/>
@@ -3831,7 +3835,7 @@
       <c r="H56" s="3"/>
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
-      <c r="K56" s="53"/>
+      <c r="K56" s="52"/>
     </row>
     <row r="57" spans="1:11">
       <c r="A57" s="3"/>
@@ -3843,7 +3847,7 @@
       <c r="H57" s="3"/>
       <c r="I57" s="3"/>
       <c r="J57" s="3"/>
-      <c r="K57" s="53"/>
+      <c r="K57" s="52"/>
     </row>
     <row r="58" spans="1:11">
       <c r="A58" s="3"/>
@@ -3855,7 +3859,7 @@
       <c r="H58" s="3"/>
       <c r="I58" s="3"/>
       <c r="J58" s="3"/>
-      <c r="K58" s="53"/>
+      <c r="K58" s="52"/>
     </row>
     <row r="59" spans="1:11">
       <c r="A59" s="3"/>
@@ -3867,7 +3871,7 @@
       <c r="H59" s="3"/>
       <c r="I59" s="3"/>
       <c r="J59" s="3"/>
-      <c r="K59" s="53"/>
+      <c r="K59" s="52"/>
     </row>
     <row r="60" spans="1:11">
       <c r="A60" s="3"/>
@@ -3879,7 +3883,7 @@
       <c r="H60" s="3"/>
       <c r="I60" s="3"/>
       <c r="J60" s="3"/>
-      <c r="K60" s="53"/>
+      <c r="K60" s="52"/>
     </row>
     <row r="61" spans="1:11">
       <c r="A61" s="3"/>
@@ -3891,7 +3895,7 @@
       <c r="H61" s="3"/>
       <c r="I61" s="3"/>
       <c r="J61" s="3"/>
-      <c r="K61" s="53"/>
+      <c r="K61" s="52"/>
     </row>
     <row r="62" spans="1:11">
       <c r="A62" s="3"/>
@@ -3903,7 +3907,7 @@
       <c r="H62" s="3"/>
       <c r="I62" s="3"/>
       <c r="J62" s="3"/>
-      <c r="K62" s="53"/>
+      <c r="K62" s="52"/>
     </row>
     <row r="63" spans="1:11">
       <c r="A63" s="3"/>
@@ -3915,7 +3919,7 @@
       <c r="H63" s="3"/>
       <c r="I63" s="3"/>
       <c r="J63" s="3"/>
-      <c r="K63" s="53"/>
+      <c r="K63" s="52"/>
     </row>
     <row r="64" spans="1:11">
       <c r="A64" s="3"/>
@@ -3927,7 +3931,7 @@
       <c r="H64" s="3"/>
       <c r="I64" s="3"/>
       <c r="J64" s="3"/>
-      <c r="K64" s="53"/>
+      <c r="K64" s="52"/>
     </row>
     <row r="65" spans="1:11">
       <c r="A65" s="3"/>
@@ -3939,7 +3943,7 @@
       <c r="H65" s="3"/>
       <c r="I65" s="3"/>
       <c r="J65" s="3"/>
-      <c r="K65" s="53"/>
+      <c r="K65" s="52"/>
     </row>
     <row r="66" spans="1:11">
       <c r="A66" s="3"/>
@@ -3951,7 +3955,7 @@
       <c r="H66" s="3"/>
       <c r="I66" s="3"/>
       <c r="J66" s="3"/>
-      <c r="K66" s="53"/>
+      <c r="K66" s="52"/>
     </row>
     <row r="67" spans="1:11">
       <c r="A67" s="3"/>
@@ -3963,7 +3967,7 @@
       <c r="H67" s="3"/>
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
-      <c r="K67" s="53"/>
+      <c r="K67" s="52"/>
     </row>
     <row r="68" spans="1:11">
       <c r="A68" s="3"/>
@@ -3975,7 +3979,7 @@
       <c r="H68" s="3"/>
       <c r="I68" s="3"/>
       <c r="J68" s="3"/>
-      <c r="K68" s="53"/>
+      <c r="K68" s="52"/>
     </row>
     <row r="69" spans="1:11">
       <c r="A69" s="3"/>
@@ -3987,7 +3991,7 @@
       <c r="H69" s="3"/>
       <c r="I69" s="3"/>
       <c r="J69" s="3"/>
-      <c r="K69" s="53"/>
+      <c r="K69" s="52"/>
     </row>
     <row r="70" spans="1:11">
       <c r="A70" s="3"/>
@@ -3999,7 +4003,7 @@
       <c r="H70" s="3"/>
       <c r="I70" s="3"/>
       <c r="J70" s="3"/>
-      <c r="K70" s="53"/>
+      <c r="K70" s="52"/>
     </row>
     <row r="71" spans="1:11">
       <c r="A71" s="3"/>
@@ -4011,7 +4015,7 @@
       <c r="H71" s="3"/>
       <c r="I71" s="3"/>
       <c r="J71" s="3"/>
-      <c r="K71" s="53"/>
+      <c r="K71" s="52"/>
     </row>
     <row r="72" spans="1:11">
       <c r="A72" s="3"/>
@@ -4023,7 +4027,7 @@
       <c r="H72" s="3"/>
       <c r="I72" s="3"/>
       <c r="J72" s="3"/>
-      <c r="K72" s="53"/>
+      <c r="K72" s="52"/>
     </row>
     <row r="73" spans="1:11">
       <c r="A73" s="3"/>
@@ -4035,7 +4039,7 @@
       <c r="H73" s="3"/>
       <c r="I73" s="3"/>
       <c r="J73" s="3"/>
-      <c r="K73" s="53"/>
+      <c r="K73" s="52"/>
     </row>
     <row r="74" spans="1:11">
       <c r="A74" s="3"/>
@@ -4047,7 +4051,7 @@
       <c r="H74" s="3"/>
       <c r="I74" s="3"/>
       <c r="J74" s="3"/>
-      <c r="K74" s="53"/>
+      <c r="K74" s="52"/>
     </row>
     <row r="75" spans="1:11">
       <c r="A75" s="3"/>
@@ -4059,7 +4063,7 @@
       <c r="H75" s="3"/>
       <c r="I75" s="3"/>
       <c r="J75" s="3"/>
-      <c r="K75" s="53"/>
+      <c r="K75" s="52"/>
     </row>
     <row r="76" spans="1:11">
       <c r="A76" s="3"/>
@@ -4071,7 +4075,7 @@
       <c r="H76" s="3"/>
       <c r="I76" s="3"/>
       <c r="J76" s="3"/>
-      <c r="K76" s="53"/>
+      <c r="K76" s="52"/>
     </row>
     <row r="77" spans="1:11">
       <c r="A77" s="3"/>
@@ -4083,7 +4087,7 @@
       <c r="H77" s="3"/>
       <c r="I77" s="3"/>
       <c r="J77" s="3"/>
-      <c r="K77" s="53"/>
+      <c r="K77" s="52"/>
     </row>
     <row r="78" spans="1:11">
       <c r="A78" s="3"/>
@@ -4095,7 +4099,7 @@
       <c r="H78" s="3"/>
       <c r="I78" s="3"/>
       <c r="J78" s="3"/>
-      <c r="K78" s="53"/>
+      <c r="K78" s="52"/>
     </row>
     <row r="79" spans="1:11">
       <c r="A79" s="3"/>
@@ -4107,7 +4111,7 @@
       <c r="H79" s="3"/>
       <c r="I79" s="3"/>
       <c r="J79" s="3"/>
-      <c r="K79" s="53"/>
+      <c r="K79" s="52"/>
     </row>
     <row r="80" spans="1:11">
       <c r="A80" s="3"/>
@@ -4119,7 +4123,7 @@
       <c r="H80" s="3"/>
       <c r="I80" s="3"/>
       <c r="J80" s="3"/>
-      <c r="K80" s="53"/>
+      <c r="K80" s="52"/>
     </row>
     <row r="81" spans="1:11">
       <c r="A81" s="3"/>
@@ -4131,7 +4135,7 @@
       <c r="H81" s="3"/>
       <c r="I81" s="3"/>
       <c r="J81" s="3"/>
-      <c r="K81" s="53"/>
+      <c r="K81" s="52"/>
     </row>
     <row r="82" spans="1:11">
       <c r="A82" s="3"/>
@@ -4143,7 +4147,7 @@
       <c r="H82" s="3"/>
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
-      <c r="K82" s="53"/>
+      <c r="K82" s="52"/>
     </row>
     <row r="83" spans="1:11">
       <c r="A83" s="3"/>
@@ -4155,7 +4159,7 @@
       <c r="H83" s="3"/>
       <c r="I83" s="3"/>
       <c r="J83" s="3"/>
-      <c r="K83" s="53"/>
+      <c r="K83" s="52"/>
     </row>
     <row r="84" spans="1:11">
       <c r="A84" s="3"/>
@@ -4167,7 +4171,7 @@
       <c r="H84" s="3"/>
       <c r="I84" s="3"/>
       <c r="J84" s="3"/>
-      <c r="K84" s="53"/>
+      <c r="K84" s="52"/>
     </row>
     <row r="85" spans="1:11">
       <c r="A85" s="3"/>
@@ -4179,7 +4183,7 @@
       <c r="H85" s="3"/>
       <c r="I85" s="3"/>
       <c r="J85" s="3"/>
-      <c r="K85" s="53"/>
+      <c r="K85" s="52"/>
     </row>
     <row r="86" spans="1:11">
       <c r="A86" s="3"/>
@@ -4191,7 +4195,7 @@
       <c r="H86" s="3"/>
       <c r="I86" s="3"/>
       <c r="J86" s="3"/>
-      <c r="K86" s="53"/>
+      <c r="K86" s="52"/>
     </row>
     <row r="87" spans="1:11">
       <c r="A87" s="3"/>
@@ -4203,7 +4207,7 @@
       <c r="H87" s="3"/>
       <c r="I87" s="3"/>
       <c r="J87" s="3"/>
-      <c r="K87" s="53"/>
+      <c r="K87" s="52"/>
     </row>
     <row r="88" spans="1:11">
       <c r="A88" s="3"/>
@@ -4215,7 +4219,7 @@
       <c r="H88" s="3"/>
       <c r="I88" s="3"/>
       <c r="J88" s="3"/>
-      <c r="K88" s="53"/>
+      <c r="K88" s="52"/>
     </row>
     <row r="89" spans="1:11">
       <c r="A89" s="3"/>
@@ -4227,7 +4231,7 @@
       <c r="H89" s="3"/>
       <c r="I89" s="3"/>
       <c r="J89" s="3"/>
-      <c r="K89" s="53"/>
+      <c r="K89" s="52"/>
     </row>
     <row r="90" spans="1:11">
       <c r="A90" s="3"/>
@@ -4239,7 +4243,7 @@
       <c r="H90" s="3"/>
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
-      <c r="K90" s="53"/>
+      <c r="K90" s="52"/>
     </row>
     <row r="91" spans="1:11">
       <c r="A91" s="3"/>
@@ -4251,7 +4255,7 @@
       <c r="H91" s="3"/>
       <c r="I91" s="3"/>
       <c r="J91" s="3"/>
-      <c r="K91" s="53"/>
+      <c r="K91" s="52"/>
     </row>
     <row r="92" spans="1:11">
       <c r="A92" s="3"/>
@@ -4263,7 +4267,7 @@
       <c r="H92" s="3"/>
       <c r="I92" s="3"/>
       <c r="J92" s="3"/>
-      <c r="K92" s="53"/>
+      <c r="K92" s="52"/>
     </row>
     <row r="93" spans="1:11">
       <c r="A93" s="3"/>
@@ -4275,7 +4279,7 @@
       <c r="H93" s="3"/>
       <c r="I93" s="3"/>
       <c r="J93" s="3"/>
-      <c r="K93" s="53"/>
+      <c r="K93" s="52"/>
     </row>
     <row r="94" spans="1:11">
       <c r="A94" s="3"/>
@@ -4287,7 +4291,7 @@
       <c r="H94" s="3"/>
       <c r="I94" s="3"/>
       <c r="J94" s="3"/>
-      <c r="K94" s="53"/>
+      <c r="K94" s="52"/>
     </row>
     <row r="95" spans="1:11">
       <c r="A95" s="3"/>
@@ -4299,7 +4303,7 @@
       <c r="H95" s="3"/>
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
-      <c r="K95" s="53"/>
+      <c r="K95" s="52"/>
     </row>
     <row r="96" spans="1:11">
       <c r="A96" s="3"/>
@@ -4311,7 +4315,7 @@
       <c r="H96" s="3"/>
       <c r="I96" s="3"/>
       <c r="J96" s="3"/>
-      <c r="K96" s="53"/>
+      <c r="K96" s="52"/>
     </row>
     <row r="97" spans="1:11">
       <c r="A97" s="3"/>
@@ -4323,7 +4327,7 @@
       <c r="H97" s="3"/>
       <c r="I97" s="3"/>
       <c r="J97" s="3"/>
-      <c r="K97" s="53"/>
+      <c r="K97" s="52"/>
     </row>
     <row r="98" spans="1:11">
       <c r="A98" s="3"/>
@@ -4335,7 +4339,7 @@
       <c r="H98" s="3"/>
       <c r="I98" s="3"/>
       <c r="J98" s="3"/>
-      <c r="K98" s="53"/>
+      <c r="K98" s="52"/>
     </row>
     <row r="99" spans="1:11">
       <c r="A99" s="3"/>
@@ -4347,7 +4351,7 @@
       <c r="H99" s="3"/>
       <c r="I99" s="3"/>
       <c r="J99" s="3"/>
-      <c r="K99" s="53"/>
+      <c r="K99" s="52"/>
     </row>
     <row r="100" spans="1:11">
       <c r="A100" s="3"/>
@@ -4359,7 +4363,7 @@
       <c r="H100" s="3"/>
       <c r="I100" s="3"/>
       <c r="J100" s="3"/>
-      <c r="K100" s="53"/>
+      <c r="K100" s="52"/>
     </row>
     <row r="101" spans="1:11">
       <c r="A101" s="3"/>
@@ -4371,7 +4375,7 @@
       <c r="H101" s="3"/>
       <c r="I101" s="3"/>
       <c r="J101" s="3"/>
-      <c r="K101" s="53"/>
+      <c r="K101" s="52"/>
     </row>
     <row r="102" spans="1:11">
       <c r="A102" s="3"/>
@@ -4383,7 +4387,7 @@
       <c r="H102" s="3"/>
       <c r="I102" s="3"/>
       <c r="J102" s="3"/>
-      <c r="K102" s="53"/>
+      <c r="K102" s="52"/>
     </row>
     <row r="103" spans="1:11">
       <c r="A103" s="3"/>
@@ -4395,7 +4399,7 @@
       <c r="H103" s="3"/>
       <c r="I103" s="3"/>
       <c r="J103" s="3"/>
-      <c r="K103" s="53"/>
+      <c r="K103" s="52"/>
     </row>
     <row r="104" spans="1:11">
       <c r="A104" s="3"/>
@@ -4407,7 +4411,7 @@
       <c r="H104" s="3"/>
       <c r="I104" s="3"/>
       <c r="J104" s="3"/>
-      <c r="K104" s="53"/>
+      <c r="K104" s="52"/>
     </row>
     <row r="105" spans="1:11">
       <c r="A105" s="3"/>
@@ -4419,7 +4423,7 @@
       <c r="H105" s="3"/>
       <c r="I105" s="3"/>
       <c r="J105" s="3"/>
-      <c r="K105" s="53"/>
+      <c r="K105" s="52"/>
     </row>
     <row r="106" spans="1:11">
       <c r="A106" s="3"/>
@@ -4431,7 +4435,7 @@
       <c r="H106" s="3"/>
       <c r="I106" s="3"/>
       <c r="J106" s="3"/>
-      <c r="K106" s="53"/>
+      <c r="K106" s="52"/>
     </row>
     <row r="107" spans="1:11">
       <c r="A107" s="3"/>
@@ -4443,7 +4447,7 @@
       <c r="H107" s="3"/>
       <c r="I107" s="3"/>
       <c r="J107" s="3"/>
-      <c r="K107" s="53"/>
+      <c r="K107" s="52"/>
     </row>
     <row r="108" spans="1:11">
       <c r="A108" s="3"/>
@@ -4455,7 +4459,7 @@
       <c r="H108" s="3"/>
       <c r="I108" s="3"/>
       <c r="J108" s="3"/>
-      <c r="K108" s="53"/>
+      <c r="K108" s="52"/>
     </row>
     <row r="109" spans="1:11">
       <c r="A109" s="3"/>
@@ -4467,7 +4471,7 @@
       <c r="H109" s="3"/>
       <c r="I109" s="3"/>
       <c r="J109" s="3"/>
-      <c r="K109" s="53"/>
+      <c r="K109" s="52"/>
     </row>
     <row r="110" spans="1:11">
       <c r="A110" s="3"/>
@@ -4479,7 +4483,7 @@
       <c r="H110" s="3"/>
       <c r="I110" s="3"/>
       <c r="J110" s="3"/>
-      <c r="K110" s="53"/>
+      <c r="K110" s="52"/>
     </row>
     <row r="111" spans="1:11">
       <c r="A111" s="3"/>
@@ -4491,7 +4495,7 @@
       <c r="H111" s="3"/>
       <c r="I111" s="3"/>
       <c r="J111" s="3"/>
-      <c r="K111" s="53"/>
+      <c r="K111" s="52"/>
     </row>
     <row r="112" spans="1:11">
       <c r="A112" s="3"/>
@@ -4503,7 +4507,7 @@
       <c r="H112" s="3"/>
       <c r="I112" s="3"/>
       <c r="J112" s="3"/>
-      <c r="K112" s="53"/>
+      <c r="K112" s="52"/>
     </row>
     <row r="113" spans="1:11">
       <c r="A113" s="3"/>
@@ -4515,7 +4519,7 @@
       <c r="H113" s="3"/>
       <c r="I113" s="3"/>
       <c r="J113" s="3"/>
-      <c r="K113" s="53"/>
+      <c r="K113" s="52"/>
     </row>
     <row r="114" spans="1:11">
       <c r="A114" s="3"/>
@@ -4527,7 +4531,7 @@
       <c r="H114" s="3"/>
       <c r="I114" s="3"/>
       <c r="J114" s="3"/>
-      <c r="K114" s="53"/>
+      <c r="K114" s="52"/>
     </row>
     <row r="115" spans="1:11">
       <c r="A115" s="3"/>
@@ -4539,7 +4543,7 @@
       <c r="H115" s="3"/>
       <c r="I115" s="3"/>
       <c r="J115" s="3"/>
-      <c r="K115" s="53"/>
+      <c r="K115" s="52"/>
     </row>
     <row r="116" spans="1:11">
       <c r="A116" s="3"/>
@@ -4551,7 +4555,7 @@
       <c r="H116" s="3"/>
       <c r="I116" s="3"/>
       <c r="J116" s="3"/>
-      <c r="K116" s="53"/>
+      <c r="K116" s="52"/>
     </row>
     <row r="117" spans="1:11">
       <c r="A117" s="3"/>
@@ -4563,7 +4567,7 @@
       <c r="H117" s="3"/>
       <c r="I117" s="3"/>
       <c r="J117" s="3"/>
-      <c r="K117" s="53"/>
+      <c r="K117" s="52"/>
     </row>
     <row r="118" spans="1:11">
       <c r="A118" s="3"/>
@@ -4575,7 +4579,7 @@
       <c r="H118" s="3"/>
       <c r="I118" s="3"/>
       <c r="J118" s="3"/>
-      <c r="K118" s="53"/>
+      <c r="K118" s="52"/>
     </row>
     <row r="119" spans="1:11">
       <c r="A119" s="3"/>
@@ -4587,7 +4591,7 @@
       <c r="H119" s="3"/>
       <c r="I119" s="3"/>
       <c r="J119" s="3"/>
-      <c r="K119" s="53"/>
+      <c r="K119" s="52"/>
     </row>
     <row r="120" spans="1:11">
       <c r="A120" s="3"/>
@@ -4599,7 +4603,7 @@
       <c r="H120" s="3"/>
       <c r="I120" s="3"/>
       <c r="J120" s="3"/>
-      <c r="K120" s="53"/>
+      <c r="K120" s="52"/>
     </row>
     <row r="121" spans="1:11">
       <c r="A121" s="3"/>
@@ -4611,7 +4615,7 @@
       <c r="H121" s="3"/>
       <c r="I121" s="3"/>
       <c r="J121" s="3"/>
-      <c r="K121" s="53"/>
+      <c r="K121" s="52"/>
     </row>
     <row r="122" spans="1:11">
       <c r="A122" s="3"/>
@@ -4623,7 +4627,7 @@
       <c r="H122" s="3"/>
       <c r="I122" s="3"/>
       <c r="J122" s="3"/>
-      <c r="K122" s="53"/>
+      <c r="K122" s="52"/>
     </row>
     <row r="123" spans="1:11">
       <c r="A123" s="3"/>
@@ -4635,7 +4639,7 @@
       <c r="H123" s="3"/>
       <c r="I123" s="3"/>
       <c r="J123" s="3"/>
-      <c r="K123" s="53"/>
+      <c r="K123" s="52"/>
     </row>
     <row r="124" spans="1:11">
       <c r="A124" s="3"/>
@@ -4647,7 +4651,7 @@
       <c r="H124" s="3"/>
       <c r="I124" s="3"/>
       <c r="J124" s="3"/>
-      <c r="K124" s="53"/>
+      <c r="K124" s="52"/>
     </row>
     <row r="125" spans="1:11">
       <c r="A125" s="3"/>
@@ -4659,7 +4663,7 @@
       <c r="H125" s="3"/>
       <c r="I125" s="3"/>
       <c r="J125" s="3"/>
-      <c r="K125" s="53"/>
+      <c r="K125" s="52"/>
     </row>
     <row r="126" spans="1:11">
       <c r="A126" s="3"/>
@@ -4671,7 +4675,7 @@
       <c r="H126" s="3"/>
       <c r="I126" s="3"/>
       <c r="J126" s="3"/>
-      <c r="K126" s="53"/>
+      <c r="K126" s="52"/>
     </row>
     <row r="127" spans="1:11">
       <c r="A127" s="3"/>
@@ -4683,7 +4687,7 @@
       <c r="H127" s="3"/>
       <c r="I127" s="3"/>
       <c r="J127" s="3"/>
-      <c r="K127" s="53"/>
+      <c r="K127" s="52"/>
     </row>
     <row r="128" spans="1:11">
       <c r="A128" s="3"/>
@@ -4695,7 +4699,7 @@
       <c r="H128" s="3"/>
       <c r="I128" s="3"/>
       <c r="J128" s="3"/>
-      <c r="K128" s="53"/>
+      <c r="K128" s="52"/>
     </row>
     <row r="129" spans="1:11">
       <c r="A129" s="3"/>
@@ -4707,7 +4711,7 @@
       <c r="H129" s="3"/>
       <c r="I129" s="3"/>
       <c r="J129" s="3"/>
-      <c r="K129" s="53"/>
+      <c r="K129" s="52"/>
     </row>
     <row r="130" spans="1:11">
       <c r="A130" s="3"/>
@@ -4719,7 +4723,7 @@
       <c r="H130" s="3"/>
       <c r="I130" s="3"/>
       <c r="J130" s="3"/>
-      <c r="K130" s="53"/>
+      <c r="K130" s="52"/>
     </row>
     <row r="131" spans="1:11">
       <c r="A131" s="3"/>
@@ -4731,7 +4735,7 @@
       <c r="H131" s="3"/>
       <c r="I131" s="3"/>
       <c r="J131" s="3"/>
-      <c r="K131" s="53"/>
+      <c r="K131" s="52"/>
     </row>
     <row r="132" spans="1:11">
       <c r="A132" s="3"/>
@@ -4743,7 +4747,7 @@
       <c r="H132" s="3"/>
       <c r="I132" s="3"/>
       <c r="J132" s="3"/>
-      <c r="K132" s="53"/>
+      <c r="K132" s="52"/>
     </row>
     <row r="133" spans="1:11">
       <c r="A133" s="3"/>
@@ -4755,7 +4759,7 @@
       <c r="H133" s="3"/>
       <c r="I133" s="3"/>
       <c r="J133" s="3"/>
-      <c r="K133" s="53"/>
+      <c r="K133" s="52"/>
     </row>
     <row r="134" spans="1:11">
       <c r="A134" s="3"/>
@@ -4767,7 +4771,7 @@
       <c r="H134" s="3"/>
       <c r="I134" s="3"/>
       <c r="J134" s="3"/>
-      <c r="K134" s="53"/>
+      <c r="K134" s="52"/>
     </row>
     <row r="135" spans="1:11">
       <c r="A135" s="3"/>
@@ -4779,7 +4783,7 @@
       <c r="H135" s="3"/>
       <c r="I135" s="3"/>
       <c r="J135" s="3"/>
-      <c r="K135" s="53"/>
+      <c r="K135" s="52"/>
     </row>
     <row r="136" spans="1:11">
       <c r="A136" s="3"/>
@@ -4791,7 +4795,7 @@
       <c r="H136" s="3"/>
       <c r="I136" s="3"/>
       <c r="J136" s="3"/>
-      <c r="K136" s="53"/>
+      <c r="K136" s="52"/>
     </row>
     <row r="137" spans="1:11">
       <c r="A137" s="3"/>
@@ -4803,7 +4807,7 @@
       <c r="H137" s="3"/>
       <c r="I137" s="3"/>
       <c r="J137" s="3"/>
-      <c r="K137" s="53"/>
+      <c r="K137" s="52"/>
     </row>
     <row r="138" spans="1:11">
       <c r="A138" s="3"/>
@@ -4815,7 +4819,7 @@
       <c r="H138" s="3"/>
       <c r="I138" s="3"/>
       <c r="J138" s="3"/>
-      <c r="K138" s="53"/>
+      <c r="K138" s="52"/>
     </row>
     <row r="139" spans="1:11">
       <c r="A139" s="3"/>
@@ -4827,7 +4831,7 @@
       <c r="H139" s="3"/>
       <c r="I139" s="3"/>
       <c r="J139" s="3"/>
-      <c r="K139" s="53"/>
+      <c r="K139" s="52"/>
     </row>
     <row r="140" spans="1:11">
       <c r="A140" s="3"/>
@@ -4839,7 +4843,7 @@
       <c r="H140" s="3"/>
       <c r="I140" s="3"/>
       <c r="J140" s="3"/>
-      <c r="K140" s="53"/>
+      <c r="K140" s="52"/>
     </row>
     <row r="141" spans="1:11">
       <c r="A141" s="3"/>
@@ -4851,7 +4855,7 @@
       <c r="H141" s="3"/>
       <c r="I141" s="3"/>
       <c r="J141" s="3"/>
-      <c r="K141" s="53"/>
+      <c r="K141" s="52"/>
     </row>
     <row r="142" spans="1:11">
       <c r="A142" s="3"/>
@@ -4863,7 +4867,7 @@
       <c r="H142" s="3"/>
       <c r="I142" s="3"/>
       <c r="J142" s="3"/>
-      <c r="K142" s="53"/>
+      <c r="K142" s="52"/>
     </row>
     <row r="143" spans="1:11">
       <c r="A143" s="3"/>
@@ -4875,7 +4879,7 @@
       <c r="H143" s="3"/>
       <c r="I143" s="3"/>
       <c r="J143" s="3"/>
-      <c r="K143" s="53"/>
+      <c r="K143" s="52"/>
     </row>
     <row r="144" spans="1:11">
       <c r="A144" s="3"/>
@@ -4887,7 +4891,7 @@
       <c r="H144" s="3"/>
       <c r="I144" s="3"/>
       <c r="J144" s="3"/>
-      <c r="K144" s="53"/>
+      <c r="K144" s="52"/>
     </row>
     <row r="145" spans="1:11">
       <c r="A145" s="3"/>
@@ -4899,7 +4903,7 @@
       <c r="H145" s="3"/>
       <c r="I145" s="3"/>
       <c r="J145" s="3"/>
-      <c r="K145" s="53"/>
+      <c r="K145" s="52"/>
     </row>
     <row r="146" spans="1:11">
       <c r="A146" s="3"/>
@@ -4911,7 +4915,7 @@
       <c r="H146" s="3"/>
       <c r="I146" s="3"/>
       <c r="J146" s="3"/>
-      <c r="K146" s="53"/>
+      <c r="K146" s="52"/>
     </row>
     <row r="147" spans="1:11">
       <c r="A147" s="3"/>
@@ -4923,7 +4927,7 @@
       <c r="H147" s="3"/>
       <c r="I147" s="3"/>
       <c r="J147" s="3"/>
-      <c r="K147" s="53"/>
+      <c r="K147" s="52"/>
     </row>
     <row r="148" spans="1:11">
       <c r="A148" s="3"/>
@@ -4935,7 +4939,7 @@
       <c r="H148" s="3"/>
       <c r="I148" s="3"/>
       <c r="J148" s="3"/>
-      <c r="K148" s="53"/>
+      <c r="K148" s="52"/>
     </row>
     <row r="149" spans="1:11">
       <c r="A149" s="3"/>
@@ -4947,7 +4951,7 @@
       <c r="H149" s="3"/>
       <c r="I149" s="3"/>
       <c r="J149" s="3"/>
-      <c r="K149" s="53"/>
+      <c r="K149" s="52"/>
     </row>
     <row r="150" spans="1:11">
       <c r="A150" s="3"/>
@@ -4959,7 +4963,7 @@
       <c r="H150" s="3"/>
       <c r="I150" s="3"/>
       <c r="J150" s="3"/>
-      <c r="K150" s="53"/>
+      <c r="K150" s="52"/>
     </row>
     <row r="151" spans="1:11">
       <c r="A151" s="3"/>
@@ -4971,7 +4975,7 @@
       <c r="H151" s="3"/>
       <c r="I151" s="3"/>
       <c r="J151" s="3"/>
-      <c r="K151" s="53"/>
+      <c r="K151" s="52"/>
     </row>
     <row r="152" spans="1:11">
       <c r="A152" s="3"/>
@@ -4983,7 +4987,7 @@
       <c r="H152" s="3"/>
       <c r="I152" s="3"/>
       <c r="J152" s="3"/>
-      <c r="K152" s="53"/>
+      <c r="K152" s="52"/>
     </row>
     <row r="153" spans="1:11">
       <c r="A153" s="3"/>
@@ -4995,7 +4999,7 @@
       <c r="H153" s="3"/>
       <c r="I153" s="3"/>
       <c r="J153" s="3"/>
-      <c r="K153" s="53"/>
+      <c r="K153" s="52"/>
     </row>
     <row r="154" spans="1:11">
       <c r="A154" s="3"/>
@@ -5007,7 +5011,7 @@
       <c r="H154" s="3"/>
       <c r="I154" s="3"/>
       <c r="J154" s="3"/>
-      <c r="K154" s="53"/>
+      <c r="K154" s="52"/>
     </row>
     <row r="155" spans="1:11">
       <c r="A155" s="3"/>
@@ -5019,7 +5023,7 @@
       <c r="H155" s="3"/>
       <c r="I155" s="3"/>
       <c r="J155" s="3"/>
-      <c r="K155" s="53"/>
+      <c r="K155" s="52"/>
     </row>
     <row r="156" spans="1:11">
       <c r="A156" s="3"/>
@@ -5031,7 +5035,7 @@
       <c r="H156" s="3"/>
       <c r="I156" s="3"/>
       <c r="J156" s="3"/>
-      <c r="K156" s="53"/>
+      <c r="K156" s="52"/>
     </row>
     <row r="157" spans="1:11">
       <c r="A157" s="3"/>
@@ -5043,7 +5047,7 @@
       <c r="H157" s="3"/>
       <c r="I157" s="3"/>
       <c r="J157" s="3"/>
-      <c r="K157" s="53"/>
+      <c r="K157" s="52"/>
     </row>
     <row r="158" spans="1:11">
       <c r="A158" s="3"/>
@@ -5055,7 +5059,7 @@
       <c r="H158" s="3"/>
       <c r="I158" s="3"/>
       <c r="J158" s="3"/>
-      <c r="K158" s="53"/>
+      <c r="K158" s="52"/>
     </row>
     <row r="159" spans="1:11">
       <c r="A159" s="3"/>
@@ -5067,7 +5071,7 @@
       <c r="H159" s="3"/>
       <c r="I159" s="3"/>
       <c r="J159" s="3"/>
-      <c r="K159" s="53"/>
+      <c r="K159" s="52"/>
     </row>
     <row r="160" spans="1:11">
       <c r="A160" s="3"/>
@@ -5079,7 +5083,7 @@
       <c r="H160" s="3"/>
       <c r="I160" s="3"/>
       <c r="J160" s="3"/>
-      <c r="K160" s="53"/>
+      <c r="K160" s="52"/>
     </row>
     <row r="161" spans="1:11">
       <c r="A161" s="3"/>
@@ -5091,7 +5095,7 @@
       <c r="H161" s="3"/>
       <c r="I161" s="3"/>
       <c r="J161" s="3"/>
-      <c r="K161" s="53"/>
+      <c r="K161" s="52"/>
     </row>
     <row r="162" spans="1:11">
       <c r="A162" s="3"/>
@@ -5103,7 +5107,7 @@
       <c r="H162" s="3"/>
       <c r="I162" s="3"/>
       <c r="J162" s="3"/>
-      <c r="K162" s="53"/>
+      <c r="K162" s="52"/>
     </row>
     <row r="163" spans="1:11">
       <c r="A163" s="3"/>
@@ -5115,7 +5119,7 @@
       <c r="H163" s="3"/>
       <c r="I163" s="3"/>
       <c r="J163" s="3"/>
-      <c r="K163" s="53"/>
+      <c r="K163" s="52"/>
     </row>
     <row r="164" spans="1:11">
       <c r="A164" s="3"/>
@@ -5127,7 +5131,7 @@
       <c r="H164" s="3"/>
       <c r="I164" s="3"/>
       <c r="J164" s="3"/>
-      <c r="K164" s="53"/>
+      <c r="K164" s="52"/>
     </row>
     <row r="165" spans="1:11">
       <c r="A165" s="3"/>
@@ -5139,7 +5143,7 @@
       <c r="H165" s="3"/>
       <c r="I165" s="3"/>
       <c r="J165" s="3"/>
-      <c r="K165" s="53"/>
+      <c r="K165" s="52"/>
     </row>
     <row r="166" spans="1:11">
       <c r="A166" s="3"/>
@@ -5151,7 +5155,7 @@
       <c r="H166" s="3"/>
       <c r="I166" s="3"/>
       <c r="J166" s="3"/>
-      <c r="K166" s="53"/>
+      <c r="K166" s="52"/>
     </row>
     <row r="167" spans="1:11">
       <c r="A167" s="3"/>
@@ -5163,7 +5167,7 @@
       <c r="H167" s="3"/>
       <c r="I167" s="3"/>
       <c r="J167" s="3"/>
-      <c r="K167" s="53"/>
+      <c r="K167" s="52"/>
     </row>
     <row r="168" spans="1:11">
       <c r="A168" s="3"/>
@@ -5175,7 +5179,7 @@
       <c r="H168" s="3"/>
       <c r="I168" s="3"/>
       <c r="J168" s="3"/>
-      <c r="K168" s="53"/>
+      <c r="K168" s="52"/>
     </row>
     <row r="169" spans="1:11">
       <c r="A169" s="3"/>
@@ -5187,7 +5191,7 @@
       <c r="H169" s="3"/>
       <c r="I169" s="3"/>
       <c r="J169" s="3"/>
-      <c r="K169" s="53"/>
+      <c r="K169" s="52"/>
     </row>
     <row r="170" spans="1:11">
       <c r="A170" s="3"/>
@@ -5199,7 +5203,7 @@
       <c r="H170" s="3"/>
       <c r="I170" s="3"/>
       <c r="J170" s="3"/>
-      <c r="K170" s="53"/>
+      <c r="K170" s="52"/>
     </row>
     <row r="171" spans="1:11">
       <c r="A171" s="3"/>
@@ -5211,7 +5215,7 @@
       <c r="H171" s="3"/>
       <c r="I171" s="3"/>
       <c r="J171" s="3"/>
-      <c r="K171" s="53"/>
+      <c r="K171" s="52"/>
     </row>
     <row r="172" spans="1:11">
       <c r="A172" s="3"/>
@@ -5223,7 +5227,7 @@
       <c r="H172" s="3"/>
       <c r="I172" s="3"/>
       <c r="J172" s="3"/>
-      <c r="K172" s="53"/>
+      <c r="K172" s="52"/>
     </row>
     <row r="173" spans="1:11">
       <c r="A173" s="3"/>
@@ -5235,7 +5239,7 @@
       <c r="H173" s="3"/>
       <c r="I173" s="3"/>
       <c r="J173" s="3"/>
-      <c r="K173" s="53"/>
+      <c r="K173" s="52"/>
     </row>
     <row r="174" spans="1:11">
       <c r="A174" s="3"/>
@@ -5247,7 +5251,7 @@
       <c r="H174" s="3"/>
       <c r="I174" s="3"/>
       <c r="J174" s="3"/>
-      <c r="K174" s="53"/>
+      <c r="K174" s="52"/>
     </row>
     <row r="175" spans="1:11">
       <c r="A175" s="3"/>
@@ -5259,7 +5263,7 @@
       <c r="H175" s="3"/>
       <c r="I175" s="3"/>
       <c r="J175" s="3"/>
-      <c r="K175" s="53"/>
+      <c r="K175" s="52"/>
     </row>
     <row r="176" spans="1:11">
       <c r="A176" s="3"/>
@@ -5271,7 +5275,7 @@
       <c r="H176" s="3"/>
       <c r="I176" s="3"/>
       <c r="J176" s="3"/>
-      <c r="K176" s="53"/>
+      <c r="K176" s="52"/>
     </row>
     <row r="177" spans="1:11">
       <c r="A177" s="3"/>
@@ -5283,7 +5287,7 @@
       <c r="H177" s="3"/>
       <c r="I177" s="3"/>
       <c r="J177" s="3"/>
-      <c r="K177" s="53"/>
+      <c r="K177" s="52"/>
     </row>
     <row r="178" spans="1:11">
       <c r="A178" s="3"/>
@@ -5295,7 +5299,7 @@
       <c r="H178" s="3"/>
       <c r="I178" s="3"/>
       <c r="J178" s="3"/>
-      <c r="K178" s="53"/>
+      <c r="K178" s="52"/>
     </row>
     <row r="179" spans="1:11">
       <c r="A179" s="3"/>
@@ -5307,7 +5311,7 @@
       <c r="H179" s="3"/>
       <c r="I179" s="3"/>
       <c r="J179" s="3"/>
-      <c r="K179" s="53"/>
+      <c r="K179" s="52"/>
     </row>
     <row r="180" spans="1:11">
       <c r="A180" s="3"/>
@@ -5319,7 +5323,7 @@
       <c r="H180" s="3"/>
       <c r="I180" s="3"/>
       <c r="J180" s="3"/>
-      <c r="K180" s="53"/>
+      <c r="K180" s="52"/>
     </row>
     <row r="181" spans="1:11">
       <c r="A181" s="3"/>
@@ -5331,7 +5335,7 @@
       <c r="H181" s="3"/>
       <c r="I181" s="3"/>
       <c r="J181" s="3"/>
-      <c r="K181" s="53"/>
+      <c r="K181" s="52"/>
     </row>
     <row r="182" spans="1:11">
       <c r="A182" s="3"/>
@@ -5343,7 +5347,7 @@
       <c r="H182" s="3"/>
       <c r="I182" s="3"/>
       <c r="J182" s="3"/>
-      <c r="K182" s="53"/>
+      <c r="K182" s="52"/>
     </row>
     <row r="183" spans="1:11">
       <c r="A183" s="3"/>
@@ -5355,7 +5359,7 @@
       <c r="H183" s="3"/>
       <c r="I183" s="3"/>
       <c r="J183" s="3"/>
-      <c r="K183" s="53"/>
+      <c r="K183" s="52"/>
     </row>
     <row r="184" spans="1:11">
       <c r="A184" s="3"/>
@@ -5367,7 +5371,7 @@
       <c r="H184" s="3"/>
       <c r="I184" s="3"/>
       <c r="J184" s="3"/>
-      <c r="K184" s="53"/>
+      <c r="K184" s="52"/>
     </row>
     <row r="185" spans="1:11">
       <c r="A185" s="3"/>
@@ -5379,7 +5383,7 @@
       <c r="H185" s="3"/>
       <c r="I185" s="3"/>
       <c r="J185" s="3"/>
-      <c r="K185" s="53"/>
+      <c r="K185" s="52"/>
     </row>
     <row r="186" spans="1:11">
       <c r="A186" s="3"/>
@@ -5391,7 +5395,7 @@
       <c r="H186" s="3"/>
       <c r="I186" s="3"/>
       <c r="J186" s="3"/>
-      <c r="K186" s="53"/>
+      <c r="K186" s="52"/>
     </row>
     <row r="187" spans="1:11">
       <c r="A187" s="3"/>
@@ -5403,7 +5407,7 @@
       <c r="H187" s="3"/>
       <c r="I187" s="3"/>
       <c r="J187" s="3"/>
-      <c r="K187" s="53"/>
+      <c r="K187" s="52"/>
     </row>
     <row r="188" spans="1:11">
       <c r="A188" s="3"/>
@@ -5415,7 +5419,7 @@
       <c r="H188" s="3"/>
       <c r="I188" s="3"/>
       <c r="J188" s="3"/>
-      <c r="K188" s="53"/>
+      <c r="K188" s="52"/>
     </row>
     <row r="189" spans="1:11">
       <c r="A189" s="3"/>
@@ -5427,7 +5431,7 @@
       <c r="H189" s="3"/>
       <c r="I189" s="3"/>
       <c r="J189" s="3"/>
-      <c r="K189" s="53"/>
+      <c r="K189" s="52"/>
     </row>
     <row r="190" spans="1:11">
       <c r="A190" s="3"/>
@@ -5439,7 +5443,7 @@
       <c r="H190" s="3"/>
       <c r="I190" s="3"/>
       <c r="J190" s="3"/>
-      <c r="K190" s="53"/>
+      <c r="K190" s="52"/>
     </row>
     <row r="191" spans="1:11">
       <c r="A191" s="3"/>
@@ -5451,7 +5455,7 @@
       <c r="H191" s="3"/>
       <c r="I191" s="3"/>
       <c r="J191" s="3"/>
-      <c r="K191" s="53"/>
+      <c r="K191" s="52"/>
     </row>
     <row r="192" spans="1:11">
       <c r="A192" s="3"/>
@@ -5463,7 +5467,7 @@
       <c r="H192" s="3"/>
       <c r="I192" s="3"/>
       <c r="J192" s="3"/>
-      <c r="K192" s="53"/>
+      <c r="K192" s="52"/>
     </row>
     <row r="193" spans="1:11">
       <c r="A193" s="3"/>
@@ -5475,7 +5479,7 @@
       <c r="H193" s="3"/>
       <c r="I193" s="3"/>
       <c r="J193" s="3"/>
-      <c r="K193" s="53"/>
+      <c r="K193" s="52"/>
     </row>
     <row r="194" spans="1:11">
       <c r="A194" s="3"/>
@@ -5487,7 +5491,7 @@
       <c r="H194" s="3"/>
       <c r="I194" s="3"/>
       <c r="J194" s="3"/>
-      <c r="K194" s="53"/>
+      <c r="K194" s="52"/>
     </row>
     <row r="195" spans="1:11">
       <c r="A195" s="3"/>
@@ -5499,7 +5503,7 @@
       <c r="H195" s="3"/>
       <c r="I195" s="3"/>
       <c r="J195" s="3"/>
-      <c r="K195" s="53"/>
+      <c r="K195" s="52"/>
     </row>
     <row r="196" spans="1:11">
       <c r="A196" s="3"/>
@@ -5511,7 +5515,7 @@
       <c r="H196" s="3"/>
       <c r="I196" s="3"/>
       <c r="J196" s="3"/>
-      <c r="K196" s="53"/>
+      <c r="K196" s="52"/>
     </row>
     <row r="197" spans="1:11">
       <c r="A197" s="3"/>
@@ -5523,7 +5527,7 @@
       <c r="H197" s="3"/>
       <c r="I197" s="3"/>
       <c r="J197" s="3"/>
-      <c r="K197" s="53"/>
+      <c r="K197" s="52"/>
     </row>
     <row r="198" spans="1:11">
       <c r="A198" s="3"/>
@@ -5535,7 +5539,7 @@
       <c r="H198" s="3"/>
       <c r="I198" s="3"/>
       <c r="J198" s="3"/>
-      <c r="K198" s="53"/>
+      <c r="K198" s="52"/>
     </row>
     <row r="199" spans="1:11">
       <c r="A199" s="3"/>
@@ -5547,7 +5551,7 @@
       <c r="H199" s="3"/>
       <c r="I199" s="3"/>
       <c r="J199" s="3"/>
-      <c r="K199" s="53"/>
+      <c r="K199" s="52"/>
     </row>
     <row r="200" spans="1:11">
       <c r="A200" s="3"/>
@@ -5559,7 +5563,7 @@
       <c r="H200" s="3"/>
       <c r="I200" s="3"/>
       <c r="J200" s="3"/>
-      <c r="K200" s="53"/>
+      <c r="K200" s="52"/>
     </row>
     <row r="201" spans="1:11">
       <c r="A201" s="3"/>
@@ -5571,7 +5575,7 @@
       <c r="H201" s="3"/>
       <c r="I201" s="3"/>
       <c r="J201" s="3"/>
-      <c r="K201" s="53"/>
+      <c r="K201" s="52"/>
     </row>
     <row r="202" spans="1:11">
       <c r="A202" s="3"/>
@@ -5583,7 +5587,7 @@
       <c r="H202" s="3"/>
       <c r="I202" s="3"/>
       <c r="J202" s="3"/>
-      <c r="K202" s="53"/>
+      <c r="K202" s="52"/>
     </row>
     <row r="203" spans="1:11">
       <c r="A203" s="3"/>
@@ -5595,7 +5599,7 @@
       <c r="H203" s="3"/>
       <c r="I203" s="3"/>
       <c r="J203" s="3"/>
-      <c r="K203" s="53"/>
+      <c r="K203" s="52"/>
     </row>
     <row r="204" spans="1:11">
       <c r="A204" s="3"/>
@@ -5607,7 +5611,7 @@
       <c r="H204" s="3"/>
       <c r="I204" s="3"/>
       <c r="J204" s="3"/>
-      <c r="K204" s="53"/>
+      <c r="K204" s="52"/>
     </row>
     <row r="205" spans="1:11">
       <c r="A205" s="3"/>
@@ -5619,7 +5623,7 @@
       <c r="H205" s="3"/>
       <c r="I205" s="3"/>
       <c r="J205" s="3"/>
-      <c r="K205" s="53"/>
+      <c r="K205" s="52"/>
     </row>
     <row r="206" spans="1:11">
       <c r="A206" s="3"/>
@@ -5631,7 +5635,7 @@
       <c r="H206" s="3"/>
       <c r="I206" s="3"/>
       <c r="J206" s="3"/>
-      <c r="K206" s="53"/>
+      <c r="K206" s="52"/>
     </row>
     <row r="207" spans="1:11">
       <c r="A207" s="3"/>
@@ -5643,7 +5647,7 @@
       <c r="H207" s="3"/>
       <c r="I207" s="3"/>
       <c r="J207" s="3"/>
-      <c r="K207" s="53"/>
+      <c r="K207" s="52"/>
     </row>
     <row r="208" spans="1:11">
       <c r="A208" s="3"/>
@@ -5655,7 +5659,7 @@
       <c r="H208" s="3"/>
       <c r="I208" s="3"/>
       <c r="J208" s="3"/>
-      <c r="K208" s="53"/>
+      <c r="K208" s="52"/>
     </row>
     <row r="209" spans="1:11">
       <c r="A209" s="3"/>
@@ -5667,7 +5671,7 @@
       <c r="H209" s="3"/>
       <c r="I209" s="3"/>
       <c r="J209" s="3"/>
-      <c r="K209" s="53"/>
+      <c r="K209" s="52"/>
     </row>
     <row r="210" spans="1:11">
       <c r="A210" s="3"/>
@@ -5679,7 +5683,7 @@
       <c r="H210" s="3"/>
       <c r="I210" s="3"/>
       <c r="J210" s="3"/>
-      <c r="K210" s="53"/>
+      <c r="K210" s="52"/>
     </row>
     <row r="211" spans="1:11">
       <c r="A211" s="3"/>
@@ -5691,7 +5695,7 @@
       <c r="H211" s="3"/>
       <c r="I211" s="3"/>
       <c r="J211" s="3"/>
-      <c r="K211" s="53"/>
+      <c r="K211" s="52"/>
     </row>
     <row r="212" spans="1:11">
       <c r="A212" s="3"/>
@@ -5703,7 +5707,7 @@
       <c r="H212" s="3"/>
       <c r="I212" s="3"/>
       <c r="J212" s="3"/>
-      <c r="K212" s="53"/>
+      <c r="K212" s="52"/>
     </row>
     <row r="213" spans="1:11">
       <c r="A213" s="3"/>
@@ -5715,7 +5719,7 @@
       <c r="H213" s="3"/>
       <c r="I213" s="3"/>
       <c r="J213" s="3"/>
-      <c r="K213" s="53"/>
+      <c r="K213" s="52"/>
     </row>
     <row r="214" spans="1:11">
       <c r="A214" s="3"/>
@@ -5727,7 +5731,7 @@
       <c r="H214" s="3"/>
       <c r="I214" s="3"/>
       <c r="J214" s="3"/>
-      <c r="K214" s="53"/>
+      <c r="K214" s="52"/>
     </row>
     <row r="215" spans="1:11">
       <c r="A215" s="3"/>
@@ -5739,7 +5743,7 @@
       <c r="H215" s="3"/>
       <c r="I215" s="3"/>
       <c r="J215" s="3"/>
-      <c r="K215" s="53"/>
+      <c r="K215" s="52"/>
     </row>
     <row r="216" spans="1:11">
       <c r="A216" s="3"/>
@@ -5751,7 +5755,7 @@
       <c r="H216" s="3"/>
       <c r="I216" s="3"/>
       <c r="J216" s="3"/>
-      <c r="K216" s="53"/>
+      <c r="K216" s="52"/>
     </row>
     <row r="217" spans="1:11">
       <c r="A217" s="3"/>
@@ -5763,7 +5767,7 @@
       <c r="H217" s="3"/>
       <c r="I217" s="3"/>
       <c r="J217" s="3"/>
-      <c r="K217" s="53"/>
+      <c r="K217" s="52"/>
     </row>
     <row r="218" spans="1:11">
       <c r="A218" s="3"/>
@@ -5775,7 +5779,7 @@
       <c r="H218" s="3"/>
       <c r="I218" s="3"/>
       <c r="J218" s="3"/>
-      <c r="K218" s="53"/>
+      <c r="K218" s="52"/>
     </row>
     <row r="219" spans="1:11">
       <c r="A219" s="3"/>
@@ -5787,7 +5791,7 @@
       <c r="H219" s="3"/>
       <c r="I219" s="3"/>
       <c r="J219" s="3"/>
-      <c r="K219" s="53"/>
+      <c r="K219" s="52"/>
     </row>
     <row r="220" spans="1:11">
       <c r="A220" s="3"/>
@@ -5799,7 +5803,7 @@
       <c r="H220" s="3"/>
       <c r="I220" s="3"/>
       <c r="J220" s="3"/>
-      <c r="K220" s="53"/>
+      <c r="K220" s="52"/>
     </row>
     <row r="221" spans="1:11">
       <c r="A221" s="3"/>
@@ -5811,7 +5815,7 @@
       <c r="H221" s="3"/>
       <c r="I221" s="3"/>
       <c r="J221" s="3"/>
-      <c r="K221" s="53"/>
+      <c r="K221" s="52"/>
     </row>
     <row r="222" spans="1:11">
       <c r="A222" s="3"/>
@@ -5823,7 +5827,7 @@
       <c r="H222" s="3"/>
       <c r="I222" s="3"/>
       <c r="J222" s="3"/>
-      <c r="K222" s="53"/>
+      <c r="K222" s="52"/>
     </row>
     <row r="223" spans="1:11">
       <c r="A223" s="3"/>
@@ -5835,7 +5839,7 @@
       <c r="H223" s="3"/>
       <c r="I223" s="3"/>
       <c r="J223" s="3"/>
-      <c r="K223" s="53"/>
+      <c r="K223" s="52"/>
     </row>
     <row r="224" spans="1:11">
       <c r="A224" s="3"/>
@@ -5847,7 +5851,7 @@
       <c r="H224" s="3"/>
       <c r="I224" s="3"/>
       <c r="J224" s="3"/>
-      <c r="K224" s="53"/>
+      <c r="K224" s="52"/>
     </row>
     <row r="225" spans="1:11">
       <c r="A225" s="3"/>
@@ -5859,7 +5863,7 @@
       <c r="H225" s="3"/>
       <c r="I225" s="3"/>
       <c r="J225" s="3"/>
-      <c r="K225" s="53"/>
+      <c r="K225" s="52"/>
     </row>
     <row r="226" spans="1:11">
       <c r="A226" s="3"/>
@@ -5871,7 +5875,7 @@
       <c r="H226" s="3"/>
       <c r="I226" s="3"/>
       <c r="J226" s="3"/>
-      <c r="K226" s="53"/>
+      <c r="K226" s="52"/>
     </row>
     <row r="227" spans="1:11">
       <c r="A227" s="3"/>
@@ -5883,7 +5887,7 @@
       <c r="H227" s="3"/>
       <c r="I227" s="3"/>
       <c r="J227" s="3"/>
-      <c r="K227" s="53"/>
+      <c r="K227" s="52"/>
     </row>
     <row r="228" spans="1:11">
       <c r="A228" s="3"/>
@@ -5895,7 +5899,7 @@
       <c r="H228" s="3"/>
       <c r="I228" s="3"/>
       <c r="J228" s="3"/>
-      <c r="K228" s="53"/>
+      <c r="K228" s="52"/>
     </row>
     <row r="229" spans="1:11">
       <c r="A229" s="3"/>
@@ -5907,7 +5911,7 @@
       <c r="H229" s="3"/>
       <c r="I229" s="3"/>
       <c r="J229" s="3"/>
-      <c r="K229" s="53"/>
+      <c r="K229" s="52"/>
     </row>
     <row r="230" spans="1:11">
       <c r="A230" s="3"/>
@@ -5919,7 +5923,7 @@
       <c r="H230" s="3"/>
       <c r="I230" s="3"/>
       <c r="J230" s="3"/>
-      <c r="K230" s="53"/>
+      <c r="K230" s="52"/>
     </row>
     <row r="231" spans="1:11">
       <c r="A231" s="3"/>
@@ -5931,7 +5935,7 @@
       <c r="H231" s="3"/>
       <c r="I231" s="3"/>
       <c r="J231" s="3"/>
-      <c r="K231" s="53"/>
+      <c r="K231" s="52"/>
     </row>
     <row r="232" spans="1:11">
       <c r="A232" s="3"/>
@@ -5943,7 +5947,7 @@
       <c r="H232" s="3"/>
       <c r="I232" s="3"/>
       <c r="J232" s="3"/>
-      <c r="K232" s="53"/>
+      <c r="K232" s="52"/>
     </row>
     <row r="233" spans="1:11">
       <c r="A233" s="3"/>
@@ -5955,7 +5959,7 @@
       <c r="H233" s="3"/>
       <c r="I233" s="3"/>
       <c r="J233" s="3"/>
-      <c r="K233" s="53"/>
+      <c r="K233" s="52"/>
     </row>
     <row r="234" spans="1:11">
       <c r="A234" s="3"/>
@@ -5967,7 +5971,7 @@
       <c r="H234" s="3"/>
       <c r="I234" s="3"/>
       <c r="J234" s="3"/>
-      <c r="K234" s="53"/>
+      <c r="K234" s="52"/>
     </row>
     <row r="235" spans="1:11">
       <c r="A235" s="3"/>
@@ -5979,7 +5983,7 @@
       <c r="H235" s="3"/>
       <c r="I235" s="3"/>
       <c r="J235" s="3"/>
-      <c r="K235" s="53"/>
+      <c r="K235" s="52"/>
     </row>
     <row r="236" spans="1:11">
       <c r="A236" s="3"/>
@@ -5991,7 +5995,7 @@
       <c r="H236" s="3"/>
       <c r="I236" s="3"/>
       <c r="J236" s="3"/>
-      <c r="K236" s="53"/>
+      <c r="K236" s="52"/>
     </row>
     <row r="237" spans="1:11">
       <c r="A237" s="3"/>
@@ -6003,7 +6007,7 @@
       <c r="H237" s="3"/>
       <c r="I237" s="3"/>
       <c r="J237" s="3"/>
-      <c r="K237" s="53"/>
+      <c r="K237" s="52"/>
     </row>
     <row r="238" spans="1:11">
       <c r="A238" s="3"/>
@@ -6015,7 +6019,7 @@
       <c r="H238" s="3"/>
       <c r="I238" s="3"/>
       <c r="J238" s="3"/>
-      <c r="K238" s="53"/>
+      <c r="K238" s="52"/>
     </row>
     <row r="239" spans="1:11">
       <c r="A239" s="3"/>
@@ -6027,7 +6031,7 @@
       <c r="H239" s="3"/>
       <c r="I239" s="3"/>
       <c r="J239" s="3"/>
-      <c r="K239" s="53"/>
+      <c r="K239" s="52"/>
     </row>
     <row r="240" spans="1:11">
       <c r="A240" s="3"/>
@@ -6039,7 +6043,7 @@
       <c r="H240" s="3"/>
       <c r="I240" s="3"/>
       <c r="J240" s="3"/>
-      <c r="K240" s="53"/>
+      <c r="K240" s="52"/>
     </row>
     <row r="241" spans="1:11">
       <c r="A241" s="3"/>
@@ -6051,7 +6055,7 @@
       <c r="H241" s="3"/>
       <c r="I241" s="3"/>
       <c r="J241" s="3"/>
-      <c r="K241" s="53"/>
+      <c r="K241" s="52"/>
     </row>
     <row r="242" spans="1:11">
       <c r="A242" s="3"/>
@@ -6063,7 +6067,7 @@
       <c r="H242" s="3"/>
       <c r="I242" s="3"/>
       <c r="J242" s="3"/>
-      <c r="K242" s="53"/>
+      <c r="K242" s="52"/>
     </row>
     <row r="243" spans="1:11">
       <c r="A243" s="3"/>
@@ -6075,7 +6079,7 @@
       <c r="H243" s="3"/>
       <c r="I243" s="3"/>
       <c r="J243" s="3"/>
-      <c r="K243" s="53"/>
+      <c r="K243" s="52"/>
     </row>
     <row r="244" spans="1:11">
       <c r="A244" s="3"/>
@@ -6087,7 +6091,7 @@
       <c r="H244" s="3"/>
       <c r="I244" s="3"/>
       <c r="J244" s="3"/>
-      <c r="K244" s="53"/>
+      <c r="K244" s="52"/>
     </row>
     <row r="245" spans="1:11">
       <c r="A245" s="3"/>
@@ -6099,7 +6103,7 @@
       <c r="H245" s="3"/>
       <c r="I245" s="3"/>
       <c r="J245" s="3"/>
-      <c r="K245" s="53"/>
+      <c r="K245" s="52"/>
     </row>
     <row r="246" spans="1:11">
       <c r="A246" s="3"/>
@@ -6111,7 +6115,7 @@
       <c r="H246" s="3"/>
       <c r="I246" s="3"/>
       <c r="J246" s="3"/>
-      <c r="K246" s="53"/>
+      <c r="K246" s="52"/>
     </row>
     <row r="247" spans="1:11">
       <c r="A247" s="3"/>
@@ -6123,7 +6127,7 @@
       <c r="H247" s="3"/>
       <c r="I247" s="3"/>
       <c r="J247" s="3"/>
-      <c r="K247" s="53"/>
+      <c r="K247" s="52"/>
     </row>
     <row r="248" spans="1:11">
       <c r="A248" s="3"/>
@@ -6135,7 +6139,7 @@
       <c r="H248" s="3"/>
       <c r="I248" s="3"/>
       <c r="J248" s="3"/>
-      <c r="K248" s="53"/>
+      <c r="K248" s="52"/>
     </row>
     <row r="249" spans="1:11">
       <c r="A249" s="3"/>
@@ -6147,7 +6151,7 @@
       <c r="H249" s="3"/>
       <c r="I249" s="3"/>
       <c r="J249" s="3"/>
-      <c r="K249" s="53"/>
+      <c r="K249" s="52"/>
     </row>
     <row r="250" spans="1:11">
       <c r="A250" s="3"/>
@@ -6159,7 +6163,7 @@
       <c r="H250" s="3"/>
       <c r="I250" s="3"/>
       <c r="J250" s="3"/>
-      <c r="K250" s="53"/>
+      <c r="K250" s="52"/>
     </row>
     <row r="251" spans="1:11">
       <c r="A251" s="3"/>
@@ -6171,7 +6175,7 @@
       <c r="H251" s="3"/>
       <c r="I251" s="3"/>
       <c r="J251" s="3"/>
-      <c r="K251" s="53"/>
+      <c r="K251" s="52"/>
     </row>
     <row r="252" spans="1:11">
       <c r="A252" s="3"/>
@@ -6183,7 +6187,7 @@
       <c r="H252" s="3"/>
       <c r="I252" s="3"/>
       <c r="J252" s="3"/>
-      <c r="K252" s="53"/>
+      <c r="K252" s="52"/>
     </row>
     <row r="253" spans="1:11">
       <c r="A253" s="3"/>
@@ -6195,7 +6199,7 @@
       <c r="H253" s="3"/>
       <c r="I253" s="3"/>
       <c r="J253" s="3"/>
-      <c r="K253" s="53"/>
+      <c r="K253" s="52"/>
     </row>
     <row r="254" spans="1:11">
       <c r="A254" s="3"/>
@@ -6207,7 +6211,7 @@
       <c r="H254" s="3"/>
       <c r="I254" s="3"/>
       <c r="J254" s="3"/>
-      <c r="K254" s="53"/>
+      <c r="K254" s="52"/>
     </row>
     <row r="255" spans="1:11">
       <c r="A255" s="3"/>
@@ -6219,7 +6223,7 @@
       <c r="H255" s="3"/>
       <c r="I255" s="3"/>
       <c r="J255" s="3"/>
-      <c r="K255" s="53"/>
+      <c r="K255" s="52"/>
     </row>
     <row r="256" spans="1:11">
       <c r="A256" s="3"/>
@@ -6231,7 +6235,7 @@
       <c r="H256" s="3"/>
       <c r="I256" s="3"/>
       <c r="J256" s="3"/>
-      <c r="K256" s="53"/>
+      <c r="K256" s="52"/>
     </row>
     <row r="257" spans="1:11">
       <c r="A257" s="3"/>
@@ -6243,7 +6247,7 @@
       <c r="H257" s="3"/>
       <c r="I257" s="3"/>
       <c r="J257" s="3"/>
-      <c r="K257" s="53"/>
+      <c r="K257" s="52"/>
     </row>
     <row r="258" spans="1:11">
       <c r="A258" s="3"/>
@@ -6255,7 +6259,7 @@
       <c r="H258" s="3"/>
       <c r="I258" s="3"/>
       <c r="J258" s="3"/>
-      <c r="K258" s="53"/>
+      <c r="K258" s="52"/>
     </row>
     <row r="259" spans="1:11">
       <c r="A259" s="3"/>
@@ -6267,7 +6271,7 @@
       <c r="H259" s="3"/>
       <c r="I259" s="3"/>
       <c r="J259" s="3"/>
-      <c r="K259" s="53"/>
+      <c r="K259" s="52"/>
     </row>
     <row r="260" spans="1:11">
       <c r="A260" s="3"/>
@@ -6279,7 +6283,7 @@
       <c r="H260" s="3"/>
       <c r="I260" s="3"/>
       <c r="J260" s="3"/>
-      <c r="K260" s="53"/>
+      <c r="K260" s="52"/>
     </row>
     <row r="261" spans="1:11">
       <c r="A261" s="3"/>
@@ -6291,7 +6295,7 @@
       <c r="H261" s="3"/>
       <c r="I261" s="3"/>
       <c r="J261" s="3"/>
-      <c r="K261" s="53"/>
+      <c r="K261" s="52"/>
     </row>
     <row r="262" spans="1:11">
       <c r="A262" s="3"/>
@@ -6303,7 +6307,7 @@
       <c r="H262" s="3"/>
       <c r="I262" s="3"/>
       <c r="J262" s="3"/>
-      <c r="K262" s="53"/>
+      <c r="K262" s="52"/>
     </row>
     <row r="263" spans="1:11">
       <c r="A263" s="3"/>
@@ -6315,7 +6319,7 @@
       <c r="H263" s="3"/>
       <c r="I263" s="3"/>
       <c r="J263" s="3"/>
-      <c r="K263" s="53"/>
+      <c r="K263" s="52"/>
     </row>
     <row r="264" spans="1:11">
       <c r="A264" s="3"/>
@@ -6327,7 +6331,7 @@
       <c r="H264" s="3"/>
       <c r="I264" s="3"/>
       <c r="J264" s="3"/>
-      <c r="K264" s="53"/>
+      <c r="K264" s="52"/>
     </row>
     <row r="265" spans="1:11">
       <c r="A265" s="3"/>
@@ -6339,7 +6343,7 @@
       <c r="H265" s="3"/>
       <c r="I265" s="3"/>
       <c r="J265" s="3"/>
-      <c r="K265" s="53"/>
+      <c r="K265" s="52"/>
     </row>
     <row r="266" spans="1:11">
       <c r="A266" s="3"/>
@@ -6351,7 +6355,7 @@
       <c r="H266" s="3"/>
       <c r="I266" s="3"/>
       <c r="J266" s="3"/>
-      <c r="K266" s="53"/>
+      <c r="K266" s="52"/>
     </row>
     <row r="267" spans="1:11">
       <c r="A267" s="3"/>
@@ -6363,7 +6367,7 @@
       <c r="H267" s="3"/>
       <c r="I267" s="3"/>
       <c r="J267" s="3"/>
-      <c r="K267" s="53"/>
+      <c r="K267" s="52"/>
     </row>
     <row r="268" spans="1:11">
       <c r="A268" s="3"/>
@@ -6375,7 +6379,7 @@
       <c r="H268" s="3"/>
       <c r="I268" s="3"/>
       <c r="J268" s="3"/>
-      <c r="K268" s="53"/>
+      <c r="K268" s="52"/>
     </row>
     <row r="269" spans="1:11">
       <c r="A269" s="3"/>
@@ -6387,7 +6391,7 @@
       <c r="H269" s="3"/>
       <c r="I269" s="3"/>
       <c r="J269" s="3"/>
-      <c r="K269" s="53"/>
+      <c r="K269" s="52"/>
     </row>
     <row r="270" spans="1:11">
       <c r="A270" s="3"/>
@@ -6399,7 +6403,7 @@
       <c r="H270" s="3"/>
       <c r="I270" s="3"/>
       <c r="J270" s="3"/>
-      <c r="K270" s="53"/>
+      <c r="K270" s="52"/>
     </row>
     <row r="271" spans="1:11">
       <c r="A271" s="3"/>
@@ -6411,7 +6415,7 @@
       <c r="H271" s="3"/>
       <c r="I271" s="3"/>
       <c r="J271" s="3"/>
-      <c r="K271" s="53"/>
+      <c r="K271" s="52"/>
     </row>
     <row r="272" spans="1:11">
       <c r="A272" s="3"/>
@@ -6423,7 +6427,7 @@
       <c r="H272" s="3"/>
       <c r="I272" s="3"/>
       <c r="J272" s="3"/>
-      <c r="K272" s="53"/>
+      <c r="K272" s="52"/>
     </row>
     <row r="273" spans="1:11">
       <c r="A273" s="3"/>
@@ -6435,7 +6439,7 @@
       <c r="H273" s="3"/>
       <c r="I273" s="3"/>
       <c r="J273" s="3"/>
-      <c r="K273" s="53"/>
+      <c r="K273" s="52"/>
     </row>
     <row r="274" spans="1:11">
       <c r="A274" s="3"/>
@@ -6447,7 +6451,7 @@
       <c r="H274" s="3"/>
       <c r="I274" s="3"/>
       <c r="J274" s="3"/>
-      <c r="K274" s="53"/>
+      <c r="K274" s="52"/>
     </row>
     <row r="275" spans="1:11">
       <c r="A275" s="3"/>
@@ -6459,7 +6463,7 @@
       <c r="H275" s="3"/>
       <c r="I275" s="3"/>
       <c r="J275" s="3"/>
-      <c r="K275" s="53"/>
+      <c r="K275" s="52"/>
     </row>
     <row r="276" spans="1:11">
       <c r="A276" s="3"/>
@@ -6471,7 +6475,7 @@
       <c r="H276" s="3"/>
       <c r="I276" s="3"/>
       <c r="J276" s="3"/>
-      <c r="K276" s="53"/>
+      <c r="K276" s="52"/>
     </row>
     <row r="277" spans="1:11">
       <c r="A277" s="3"/>
@@ -6483,7 +6487,7 @@
       <c r="H277" s="3"/>
       <c r="I277" s="3"/>
       <c r="J277" s="3"/>
-      <c r="K277" s="53"/>
+      <c r="K277" s="52"/>
     </row>
     <row r="278" spans="1:11">
       <c r="A278" s="3"/>
@@ -6495,7 +6499,7 @@
       <c r="H278" s="3"/>
       <c r="I278" s="3"/>
       <c r="J278" s="3"/>
-      <c r="K278" s="53"/>
+      <c r="K278" s="52"/>
     </row>
     <row r="279" spans="1:11">
       <c r="A279" s="3"/>
@@ -6507,7 +6511,7 @@
       <c r="H279" s="3"/>
       <c r="I279" s="3"/>
       <c r="J279" s="3"/>
-      <c r="K279" s="53"/>
+      <c r="K279" s="52"/>
     </row>
     <row r="280" spans="1:11">
       <c r="A280" s="3"/>
@@ -6519,7 +6523,7 @@
       <c r="H280" s="3"/>
       <c r="I280" s="3"/>
       <c r="J280" s="3"/>
-      <c r="K280" s="53"/>
+      <c r="K280" s="52"/>
     </row>
     <row r="281" spans="1:11">
       <c r="A281" s="3"/>
@@ -6531,7 +6535,7 @@
       <c r="H281" s="3"/>
       <c r="I281" s="3"/>
       <c r="J281" s="3"/>
-      <c r="K281" s="53"/>
+      <c r="K281" s="52"/>
     </row>
     <row r="282" spans="1:11">
       <c r="A282" s="3"/>
@@ -6543,7 +6547,7 @@
       <c r="H282" s="3"/>
       <c r="I282" s="3"/>
       <c r="J282" s="3"/>
-      <c r="K282" s="53"/>
+      <c r="K282" s="52"/>
     </row>
     <row r="283" spans="1:11">
       <c r="A283" s="3"/>
@@ -6555,7 +6559,7 @@
       <c r="H283" s="3"/>
       <c r="I283" s="3"/>
       <c r="J283" s="3"/>
-      <c r="K283" s="53"/>
+      <c r="K283" s="52"/>
     </row>
     <row r="284" spans="1:11">
       <c r="A284" s="3"/>
@@ -6567,7 +6571,7 @@
       <c r="H284" s="3"/>
       <c r="I284" s="3"/>
       <c r="J284" s="3"/>
-      <c r="K284" s="53"/>
+      <c r="K284" s="52"/>
     </row>
     <row r="285" spans="1:11">
       <c r="A285" s="3"/>
@@ -6579,7 +6583,7 @@
       <c r="H285" s="3"/>
       <c r="I285" s="3"/>
       <c r="J285" s="3"/>
-      <c r="K285" s="53"/>
+      <c r="K285" s="52"/>
     </row>
     <row r="286" spans="1:11">
       <c r="A286" s="3"/>
@@ -6591,7 +6595,7 @@
       <c r="H286" s="3"/>
       <c r="I286" s="3"/>
       <c r="J286" s="3"/>
-      <c r="K286" s="53"/>
+      <c r="K286" s="52"/>
     </row>
     <row r="287" spans="1:11">
       <c r="A287" s="3"/>
@@ -6603,7 +6607,7 @@
       <c r="H287" s="3"/>
       <c r="I287" s="3"/>
       <c r="J287" s="3"/>
-      <c r="K287" s="53"/>
+      <c r="K287" s="52"/>
     </row>
     <row r="288" spans="1:11">
       <c r="A288" s="3"/>
@@ -6615,7 +6619,7 @@
       <c r="H288" s="3"/>
       <c r="I288" s="3"/>
       <c r="J288" s="3"/>
-      <c r="K288" s="53"/>
+      <c r="K288" s="52"/>
     </row>
     <row r="289" spans="1:11">
       <c r="A289" s="3"/>
@@ -6627,7 +6631,7 @@
       <c r="H289" s="3"/>
       <c r="I289" s="3"/>
       <c r="J289" s="3"/>
-      <c r="K289" s="53"/>
+      <c r="K289" s="52"/>
     </row>
     <row r="290" spans="1:11">
       <c r="A290" s="3"/>
@@ -6639,7 +6643,7 @@
       <c r="H290" s="3"/>
       <c r="I290" s="3"/>
       <c r="J290" s="3"/>
-      <c r="K290" s="53"/>
+      <c r="K290" s="52"/>
     </row>
     <row r="291" spans="1:11">
       <c r="A291" s="3"/>
@@ -6651,7 +6655,7 @@
       <c r="H291" s="3"/>
       <c r="I291" s="3"/>
       <c r="J291" s="3"/>
-      <c r="K291" s="53"/>
+      <c r="K291" s="52"/>
     </row>
     <row r="292" spans="1:11">
       <c r="A292" s="3"/>
@@ -6663,7 +6667,7 @@
       <c r="H292" s="3"/>
       <c r="I292" s="3"/>
       <c r="J292" s="3"/>
-      <c r="K292" s="53"/>
+      <c r="K292" s="52"/>
     </row>
     <row r="293" spans="1:11">
       <c r="A293" s="3"/>
@@ -6675,7 +6679,7 @@
       <c r="H293" s="3"/>
       <c r="I293" s="3"/>
       <c r="J293" s="3"/>
-      <c r="K293" s="53"/>
+      <c r="K293" s="52"/>
     </row>
     <row r="294" spans="1:11">
       <c r="A294" s="3"/>
@@ -6687,7 +6691,7 @@
       <c r="H294" s="3"/>
       <c r="I294" s="3"/>
       <c r="J294" s="3"/>
-      <c r="K294" s="53"/>
+      <c r="K294" s="52"/>
     </row>
     <row r="295" spans="1:11">
       <c r="A295" s="3"/>
@@ -6699,7 +6703,7 @@
       <c r="H295" s="3"/>
       <c r="I295" s="3"/>
       <c r="J295" s="3"/>
-      <c r="K295" s="53"/>
+      <c r="K295" s="52"/>
     </row>
     <row r="296" spans="1:11">
       <c r="A296" s="3"/>
@@ -6711,7 +6715,7 @@
       <c r="H296" s="3"/>
       <c r="I296" s="3"/>
       <c r="J296" s="3"/>
-      <c r="K296" s="53"/>
+      <c r="K296" s="52"/>
     </row>
     <row r="297" spans="1:11">
       <c r="A297" s="3"/>
@@ -6723,7 +6727,7 @@
       <c r="H297" s="3"/>
       <c r="I297" s="3"/>
       <c r="J297" s="3"/>
-      <c r="K297" s="53"/>
+      <c r="K297" s="52"/>
     </row>
     <row r="298" spans="1:11">
       <c r="A298" s="3"/>
@@ -6735,7 +6739,7 @@
       <c r="H298" s="3"/>
       <c r="I298" s="3"/>
       <c r="J298" s="3"/>
-      <c r="K298" s="53"/>
+      <c r="K298" s="52"/>
     </row>
     <row r="299" spans="1:11">
       <c r="A299" s="3"/>
@@ -6747,7 +6751,7 @@
       <c r="H299" s="3"/>
       <c r="I299" s="3"/>
       <c r="J299" s="3"/>
-      <c r="K299" s="53"/>
+      <c r="K299" s="52"/>
     </row>
     <row r="300" spans="1:11">
       <c r="A300" s="3"/>
@@ -6759,7 +6763,7 @@
       <c r="H300" s="3"/>
       <c r="I300" s="3"/>
       <c r="J300" s="3"/>
-      <c r="K300" s="53"/>
+      <c r="K300" s="52"/>
     </row>
     <row r="301" spans="1:11">
       <c r="A301" s="3"/>
@@ -6771,7 +6775,7 @@
       <c r="H301" s="3"/>
       <c r="I301" s="3"/>
       <c r="J301" s="3"/>
-      <c r="K301" s="53"/>
+      <c r="K301" s="52"/>
     </row>
     <row r="302" spans="1:11">
       <c r="A302" s="3"/>
@@ -6783,7 +6787,7 @@
       <c r="H302" s="3"/>
       <c r="I302" s="3"/>
       <c r="J302" s="3"/>
-      <c r="K302" s="53"/>
+      <c r="K302" s="52"/>
     </row>
     <row r="303" spans="1:11">
       <c r="A303" s="3"/>
@@ -6795,7 +6799,7 @@
       <c r="H303" s="3"/>
       <c r="I303" s="3"/>
       <c r="J303" s="3"/>
-      <c r="K303" s="53"/>
+      <c r="K303" s="52"/>
     </row>
     <row r="304" spans="1:11">
       <c r="A304" s="3"/>
@@ -6807,7 +6811,7 @@
       <c r="H304" s="3"/>
       <c r="I304" s="3"/>
       <c r="J304" s="3"/>
-      <c r="K304" s="53"/>
+      <c r="K304" s="52"/>
     </row>
     <row r="305" spans="1:11">
       <c r="A305" s="3"/>
@@ -6819,7 +6823,7 @@
       <c r="H305" s="3"/>
       <c r="I305" s="3"/>
       <c r="J305" s="3"/>
-      <c r="K305" s="53"/>
+      <c r="K305" s="52"/>
     </row>
     <row r="306" spans="1:11">
       <c r="A306" s="3"/>
@@ -6831,7 +6835,7 @@
       <c r="H306" s="3"/>
       <c r="I306" s="3"/>
       <c r="J306" s="3"/>
-      <c r="K306" s="53"/>
+      <c r="K306" s="52"/>
     </row>
     <row r="307" spans="1:11">
       <c r="A307" s="3"/>
@@ -6843,7 +6847,7 @@
       <c r="H307" s="3"/>
       <c r="I307" s="3"/>
       <c r="J307" s="3"/>
-      <c r="K307" s="53"/>
+      <c r="K307" s="52"/>
     </row>
     <row r="308" spans="1:11">
       <c r="A308" s="3"/>
@@ -6855,7 +6859,7 @@
       <c r="H308" s="3"/>
       <c r="I308" s="3"/>
       <c r="J308" s="3"/>
-      <c r="K308" s="53"/>
+      <c r="K308" s="52"/>
     </row>
     <row r="309" spans="1:11">
       <c r="A309" s="3"/>
@@ -6867,7 +6871,7 @@
       <c r="H309" s="3"/>
       <c r="I309" s="3"/>
       <c r="J309" s="3"/>
-      <c r="K309" s="53"/>
+      <c r="K309" s="52"/>
     </row>
     <row r="310" spans="1:11">
       <c r="A310" s="3"/>
@@ -6879,7 +6883,7 @@
       <c r="H310" s="3"/>
       <c r="I310" s="3"/>
       <c r="J310" s="3"/>
-      <c r="K310" s="53"/>
+      <c r="K310" s="52"/>
     </row>
     <row r="311" spans="1:11">
       <c r="A311" s="3"/>
@@ -6891,7 +6895,7 @@
       <c r="H311" s="3"/>
       <c r="I311" s="3"/>
       <c r="J311" s="3"/>
-      <c r="K311" s="53"/>
+      <c r="K311" s="52"/>
     </row>
     <row r="312" spans="1:11">
       <c r="A312" s="3"/>
@@ -6903,7 +6907,7 @@
       <c r="H312" s="3"/>
       <c r="I312" s="3"/>
       <c r="J312" s="3"/>
-      <c r="K312" s="53"/>
+      <c r="K312" s="52"/>
     </row>
     <row r="313" spans="1:11">
       <c r="A313" s="3"/>
@@ -6915,7 +6919,7 @@
       <c r="H313" s="3"/>
       <c r="I313" s="3"/>
       <c r="J313" s="3"/>
-      <c r="K313" s="53"/>
+      <c r="K313" s="52"/>
     </row>
     <row r="314" spans="1:11">
       <c r="A314" s="3"/>
@@ -6927,7 +6931,7 @@
       <c r="H314" s="3"/>
       <c r="I314" s="3"/>
       <c r="J314" s="3"/>
-      <c r="K314" s="53"/>
+      <c r="K314" s="52"/>
     </row>
     <row r="315" spans="1:11">
       <c r="A315" s="3"/>
@@ -6939,7 +6943,7 @@
       <c r="H315" s="3"/>
       <c r="I315" s="3"/>
       <c r="J315" s="3"/>
-      <c r="K315" s="53"/>
+      <c r="K315" s="52"/>
     </row>
     <row r="316" spans="1:11">
       <c r="A316" s="3"/>
@@ -6951,7 +6955,7 @@
       <c r="H316" s="3"/>
       <c r="I316" s="3"/>
       <c r="J316" s="3"/>
-      <c r="K316" s="53"/>
+      <c r="K316" s="52"/>
     </row>
     <row r="317" spans="1:11">
       <c r="A317" s="3"/>
@@ -6963,7 +6967,7 @@
       <c r="H317" s="3"/>
       <c r="I317" s="3"/>
       <c r="J317" s="3"/>
-      <c r="K317" s="53"/>
+      <c r="K317" s="52"/>
     </row>
     <row r="318" spans="1:11">
       <c r="A318" s="3"/>
@@ -6975,7 +6979,7 @@
       <c r="H318" s="3"/>
       <c r="I318" s="3"/>
       <c r="J318" s="3"/>
-      <c r="K318" s="53"/>
+      <c r="K318" s="52"/>
     </row>
     <row r="319" spans="1:11">
       <c r="A319" s="3"/>
@@ -6987,7 +6991,7 @@
       <c r="H319" s="3"/>
       <c r="I319" s="3"/>
       <c r="J319" s="3"/>
-      <c r="K319" s="53"/>
+      <c r="K319" s="52"/>
     </row>
     <row r="320" spans="1:11">
       <c r="A320" s="3"/>
@@ -6999,7 +7003,7 @@
       <c r="H320" s="3"/>
       <c r="I320" s="3"/>
       <c r="J320" s="3"/>
-      <c r="K320" s="53"/>
+      <c r="K320" s="52"/>
     </row>
     <row r="321" spans="1:11">
       <c r="A321" s="3"/>
@@ -7011,7 +7015,7 @@
       <c r="H321" s="3"/>
       <c r="I321" s="3"/>
       <c r="J321" s="3"/>
-      <c r="K321" s="53"/>
+      <c r="K321" s="52"/>
     </row>
     <row r="322" spans="1:11">
       <c r="A322" s="3"/>
@@ -7023,7 +7027,7 @@
       <c r="H322" s="3"/>
       <c r="I322" s="3"/>
       <c r="J322" s="3"/>
-      <c r="K322" s="53"/>
+      <c r="K322" s="52"/>
     </row>
     <row r="323" spans="1:11">
       <c r="A323" s="3"/>
@@ -7035,7 +7039,7 @@
       <c r="H323" s="3"/>
       <c r="I323" s="3"/>
       <c r="J323" s="3"/>
-      <c r="K323" s="53"/>
+      <c r="K323" s="52"/>
     </row>
     <row r="324" spans="1:11">
       <c r="A324" s="3"/>
@@ -7047,7 +7051,7 @@
       <c r="H324" s="3"/>
       <c r="I324" s="3"/>
       <c r="J324" s="3"/>
-      <c r="K324" s="53"/>
+      <c r="K324" s="52"/>
     </row>
     <row r="325" spans="1:11">
       <c r="A325" s="3"/>
@@ -7059,7 +7063,7 @@
       <c r="H325" s="3"/>
       <c r="I325" s="3"/>
       <c r="J325" s="3"/>
-      <c r="K325" s="53"/>
+      <c r="K325" s="52"/>
     </row>
     <row r="326" spans="1:11">
       <c r="A326" s="3"/>
@@ -7071,7 +7075,7 @@
       <c r="H326" s="3"/>
       <c r="I326" s="3"/>
       <c r="J326" s="3"/>
-      <c r="K326" s="53"/>
+      <c r="K326" s="52"/>
     </row>
     <row r="327" spans="1:11">
       <c r="A327" s="3"/>
@@ -7083,7 +7087,7 @@
       <c r="H327" s="3"/>
       <c r="I327" s="3"/>
       <c r="J327" s="3"/>
-      <c r="K327" s="53"/>
+      <c r="K327" s="52"/>
     </row>
     <row r="328" spans="1:11">
       <c r="A328" s="3"/>
@@ -7095,7 +7099,7 @@
       <c r="H328" s="3"/>
       <c r="I328" s="3"/>
       <c r="J328" s="3"/>
-      <c r="K328" s="53"/>
+      <c r="K328" s="52"/>
     </row>
     <row r="329" spans="1:11">
       <c r="A329" s="3"/>
@@ -7107,7 +7111,7 @@
       <c r="H329" s="3"/>
       <c r="I329" s="3"/>
       <c r="J329" s="3"/>
-      <c r="K329" s="53"/>
+      <c r="K329" s="52"/>
     </row>
     <row r="330" spans="1:11">
       <c r="A330" s="3"/>
@@ -7119,7 +7123,7 @@
       <c r="H330" s="3"/>
       <c r="I330" s="3"/>
       <c r="J330" s="3"/>
-      <c r="K330" s="53"/>
+      <c r="K330" s="52"/>
     </row>
     <row r="331" spans="1:11">
       <c r="A331" s="3"/>
@@ -7131,7 +7135,7 @@
       <c r="H331" s="3"/>
       <c r="I331" s="3"/>
       <c r="J331" s="3"/>
-      <c r="K331" s="53"/>
+      <c r="K331" s="52"/>
     </row>
     <row r="332" spans="1:11">
       <c r="A332" s="3"/>
@@ -7143,7 +7147,7 @@
       <c r="H332" s="3"/>
       <c r="I332" s="3"/>
       <c r="J332" s="3"/>
-      <c r="K332" s="53"/>
+      <c r="K332" s="52"/>
     </row>
     <row r="333" spans="1:11">
       <c r="A333" s="3"/>
@@ -7155,7 +7159,7 @@
       <c r="H333" s="3"/>
       <c r="I333" s="3"/>
       <c r="J333" s="3"/>
-      <c r="K333" s="53"/>
+      <c r="K333" s="52"/>
     </row>
     <row r="334" spans="1:11">
       <c r="A334" s="3"/>
@@ -7167,7 +7171,7 @@
       <c r="H334" s="3"/>
       <c r="I334" s="3"/>
       <c r="J334" s="3"/>
-      <c r="K334" s="53"/>
+      <c r="K334" s="52"/>
     </row>
     <row r="335" spans="1:11">
       <c r="A335" s="3"/>
@@ -7179,7 +7183,7 @@
       <c r="H335" s="3"/>
       <c r="I335" s="3"/>
       <c r="J335" s="3"/>
-      <c r="K335" s="53"/>
+      <c r="K335" s="52"/>
     </row>
     <row r="336" spans="1:11">
       <c r="A336" s="3"/>
@@ -7191,7 +7195,7 @@
       <c r="H336" s="3"/>
       <c r="I336" s="3"/>
       <c r="J336" s="3"/>
-      <c r="K336" s="53"/>
+      <c r="K336" s="52"/>
     </row>
     <row r="337" spans="1:11">
       <c r="A337" s="3"/>
@@ -7203,7 +7207,7 @@
       <c r="H337" s="3"/>
       <c r="I337" s="3"/>
       <c r="J337" s="3"/>
-      <c r="K337" s="53"/>
+      <c r="K337" s="52"/>
     </row>
     <row r="338" spans="1:11">
       <c r="A338" s="3"/>
@@ -7215,7 +7219,7 @@
       <c r="H338" s="3"/>
       <c r="I338" s="3"/>
       <c r="J338" s="3"/>
-      <c r="K338" s="53"/>
+      <c r="K338" s="52"/>
     </row>
     <row r="339" spans="1:11">
       <c r="A339" s="3"/>
@@ -7227,7 +7231,7 @@
       <c r="H339" s="3"/>
       <c r="I339" s="3"/>
       <c r="J339" s="3"/>
-      <c r="K339" s="53"/>
+      <c r="K339" s="52"/>
     </row>
     <row r="340" spans="1:11">
       <c r="A340" s="3"/>
@@ -7239,7 +7243,7 @@
       <c r="H340" s="3"/>
       <c r="I340" s="3"/>
       <c r="J340" s="3"/>
-      <c r="K340" s="53"/>
+      <c r="K340" s="52"/>
     </row>
     <row r="341" spans="1:11">
       <c r="A341" s="3"/>
@@ -7251,7 +7255,7 @@
       <c r="H341" s="3"/>
       <c r="I341" s="3"/>
       <c r="J341" s="3"/>
-      <c r="K341" s="53"/>
+      <c r="K341" s="52"/>
     </row>
     <row r="342" spans="1:11">
       <c r="A342" s="3"/>
@@ -7263,7 +7267,7 @@
       <c r="H342" s="3"/>
       <c r="I342" s="3"/>
       <c r="J342" s="3"/>
-      <c r="K342" s="53"/>
+      <c r="K342" s="52"/>
     </row>
     <row r="343" spans="1:11">
       <c r="A343" s="3"/>
@@ -7275,7 +7279,7 @@
       <c r="H343" s="3"/>
       <c r="I343" s="3"/>
       <c r="J343" s="3"/>
-      <c r="K343" s="53"/>
+      <c r="K343" s="52"/>
     </row>
     <row r="344" spans="1:11">
       <c r="A344" s="3"/>
@@ -7287,7 +7291,7 @@
       <c r="H344" s="3"/>
       <c r="I344" s="3"/>
       <c r="J344" s="3"/>
-      <c r="K344" s="53"/>
+      <c r="K344" s="52"/>
     </row>
     <row r="345" spans="1:11">
       <c r="A345" s="3"/>
@@ -7299,7 +7303,7 @@
       <c r="H345" s="3"/>
       <c r="I345" s="3"/>
       <c r="J345" s="3"/>
-      <c r="K345" s="53"/>
+      <c r="K345" s="52"/>
     </row>
     <row r="346" spans="1:11">
       <c r="A346" s="3"/>
@@ -7311,7 +7315,7 @@
       <c r="H346" s="3"/>
       <c r="I346" s="3"/>
       <c r="J346" s="3"/>
-      <c r="K346" s="53"/>
+      <c r="K346" s="52"/>
     </row>
     <row r="347" spans="1:11">
       <c r="A347" s="3"/>
@@ -7323,7 +7327,7 @@
       <c r="H347" s="3"/>
       <c r="I347" s="3"/>
       <c r="J347" s="3"/>
-      <c r="K347" s="53"/>
+      <c r="K347" s="52"/>
     </row>
     <row r="348" spans="1:11">
       <c r="A348" s="3"/>
@@ -7335,7 +7339,7 @@
       <c r="H348" s="3"/>
       <c r="I348" s="3"/>
       <c r="J348" s="3"/>
-      <c r="K348" s="53"/>
+      <c r="K348" s="52"/>
     </row>
     <row r="349" spans="1:11">
       <c r="A349" s="3"/>
@@ -7347,7 +7351,7 @@
       <c r="H349" s="3"/>
       <c r="I349" s="3"/>
       <c r="J349" s="3"/>
-      <c r="K349" s="53"/>
+      <c r="K349" s="52"/>
     </row>
     <row r="350" spans="1:11">
       <c r="A350" s="3"/>
@@ -7359,7 +7363,7 @@
       <c r="H350" s="3"/>
       <c r="I350" s="3"/>
       <c r="J350" s="3"/>
-      <c r="K350" s="53"/>
+      <c r="K350" s="52"/>
     </row>
     <row r="351" spans="1:11">
       <c r="A351" s="3"/>
@@ -7371,7 +7375,7 @@
       <c r="H351" s="3"/>
       <c r="I351" s="3"/>
       <c r="J351" s="3"/>
-      <c r="K351" s="53"/>
+      <c r="K351" s="52"/>
     </row>
     <row r="352" spans="1:11">
       <c r="A352" s="3"/>
@@ -7383,7 +7387,7 @@
       <c r="H352" s="3"/>
       <c r="I352" s="3"/>
       <c r="J352" s="3"/>
-      <c r="K352" s="53"/>
+      <c r="K352" s="52"/>
     </row>
     <row r="353" spans="1:11">
       <c r="A353" s="3"/>
@@ -7395,7 +7399,7 @@
       <c r="H353" s="3"/>
       <c r="I353" s="3"/>
       <c r="J353" s="3"/>
-      <c r="K353" s="53"/>
+      <c r="K353" s="52"/>
     </row>
     <row r="354" spans="1:11">
       <c r="A354" s="3"/>
@@ -7407,7 +7411,7 @@
       <c r="H354" s="3"/>
       <c r="I354" s="3"/>
       <c r="J354" s="3"/>
-      <c r="K354" s="53"/>
+      <c r="K354" s="52"/>
     </row>
     <row r="355" spans="1:11">
       <c r="A355" s="3"/>
@@ -7419,7 +7423,7 @@
       <c r="H355" s="3"/>
       <c r="I355" s="3"/>
       <c r="J355" s="3"/>
-      <c r="K355" s="53"/>
+      <c r="K355" s="52"/>
     </row>
     <row r="356" spans="1:11">
       <c r="A356" s="3"/>
@@ -7431,7 +7435,7 @@
       <c r="H356" s="3"/>
       <c r="I356" s="3"/>
       <c r="J356" s="3"/>
-      <c r="K356" s="53"/>
+      <c r="K356" s="52"/>
     </row>
     <row r="357" spans="1:11">
       <c r="A357" s="3"/>
@@ -7443,7 +7447,7 @@
       <c r="H357" s="3"/>
       <c r="I357" s="3"/>
       <c r="J357" s="3"/>
-      <c r="K357" s="53"/>
+      <c r="K357" s="52"/>
     </row>
     <row r="358" spans="1:11">
       <c r="A358" s="3"/>
@@ -7455,7 +7459,7 @@
       <c r="H358" s="3"/>
       <c r="I358" s="3"/>
       <c r="J358" s="3"/>
-      <c r="K358" s="53"/>
+      <c r="K358" s="52"/>
     </row>
     <row r="359" spans="1:11">
       <c r="A359" s="3"/>
@@ -7467,7 +7471,7 @@
       <c r="H359" s="3"/>
       <c r="I359" s="3"/>
       <c r="J359" s="3"/>
-      <c r="K359" s="53"/>
+      <c r="K359" s="52"/>
     </row>
     <row r="360" spans="1:11">
       <c r="A360" s="3"/>
@@ -7479,7 +7483,7 @@
       <c r="H360" s="3"/>
       <c r="I360" s="3"/>
       <c r="J360" s="3"/>
-      <c r="K360" s="53"/>
+      <c r="K360" s="52"/>
     </row>
     <row r="361" spans="1:11">
       <c r="A361" s="3"/>
@@ -7491,7 +7495,7 @@
       <c r="H361" s="3"/>
       <c r="I361" s="3"/>
       <c r="J361" s="3"/>
-      <c r="K361" s="53"/>
+      <c r="K361" s="52"/>
     </row>
     <row r="362" spans="1:11">
       <c r="A362" s="3"/>
@@ -7503,7 +7507,7 @@
       <c r="H362" s="3"/>
       <c r="I362" s="3"/>
       <c r="J362" s="3"/>
-      <c r="K362" s="53"/>
+      <c r="K362" s="52"/>
     </row>
     <row r="363" spans="1:11">
       <c r="A363" s="3"/>
@@ -7515,7 +7519,7 @@
       <c r="H363" s="3"/>
       <c r="I363" s="3"/>
       <c r="J363" s="3"/>
-      <c r="K363" s="53"/>
+      <c r="K363" s="52"/>
     </row>
     <row r="364" spans="1:11">
       <c r="A364" s="3"/>
@@ -7527,7 +7531,7 @@
       <c r="H364" s="3"/>
       <c r="I364" s="3"/>
       <c r="J364" s="3"/>
-      <c r="K364" s="53"/>
+      <c r="K364" s="52"/>
     </row>
     <row r="365" spans="1:11">
       <c r="A365" s="3"/>
@@ -7539,7 +7543,7 @@
       <c r="H365" s="3"/>
       <c r="I365" s="3"/>
       <c r="J365" s="3"/>
-      <c r="K365" s="53"/>
+      <c r="K365" s="52"/>
     </row>
     <row r="366" spans="1:11">
       <c r="A366" s="3"/>
@@ -7551,7 +7555,7 @@
       <c r="H366" s="3"/>
       <c r="I366" s="3"/>
       <c r="J366" s="3"/>
-      <c r="K366" s="53"/>
+      <c r="K366" s="52"/>
     </row>
     <row r="367" spans="1:11">
       <c r="A367" s="3"/>
@@ -7563,7 +7567,7 @@
       <c r="H367" s="3"/>
       <c r="I367" s="3"/>
       <c r="J367" s="3"/>
-      <c r="K367" s="53"/>
+      <c r="K367" s="52"/>
     </row>
     <row r="368" spans="1:11">
       <c r="A368" s="3"/>
@@ -7575,7 +7579,7 @@
       <c r="H368" s="3"/>
       <c r="I368" s="3"/>
       <c r="J368" s="3"/>
-      <c r="K368" s="53"/>
+      <c r="K368" s="52"/>
     </row>
     <row r="369" spans="1:11">
       <c r="A369" s="3"/>
@@ -7587,7 +7591,7 @@
       <c r="H369" s="3"/>
       <c r="I369" s="3"/>
       <c r="J369" s="3"/>
-      <c r="K369" s="53"/>
+      <c r="K369" s="52"/>
     </row>
     <row r="370" spans="1:11">
       <c r="A370" s="3"/>
@@ -7599,7 +7603,7 @@
       <c r="H370" s="3"/>
       <c r="I370" s="3"/>
       <c r="J370" s="3"/>
-      <c r="K370" s="53"/>
+      <c r="K370" s="52"/>
     </row>
     <row r="371" spans="1:11">
       <c r="A371" s="3"/>
@@ -7611,7 +7615,7 @@
       <c r="H371" s="3"/>
       <c r="I371" s="3"/>
       <c r="J371" s="3"/>
-      <c r="K371" s="53"/>
+      <c r="K371" s="52"/>
     </row>
     <row r="372" spans="1:11">
       <c r="A372" s="3"/>
@@ -7623,7 +7627,7 @@
       <c r="H372" s="3"/>
       <c r="I372" s="3"/>
       <c r="J372" s="3"/>
-      <c r="K372" s="53"/>
+      <c r="K372" s="52"/>
     </row>
     <row r="373" spans="1:11">
       <c r="A373" s="3"/>
@@ -7635,7 +7639,7 @@
       <c r="H373" s="3"/>
       <c r="I373" s="3"/>
       <c r="J373" s="3"/>
-      <c r="K373" s="53"/>
+      <c r="K373" s="52"/>
     </row>
     <row r="374" spans="1:11">
       <c r="A374" s="3"/>
@@ -7647,7 +7651,7 @@
       <c r="H374" s="3"/>
       <c r="I374" s="3"/>
       <c r="J374" s="3"/>
-      <c r="K374" s="53"/>
+      <c r="K374" s="52"/>
     </row>
     <row r="375" spans="1:11">
       <c r="A375" s="3"/>
@@ -7659,7 +7663,7 @@
       <c r="H375" s="3"/>
       <c r="I375" s="3"/>
       <c r="J375" s="3"/>
-      <c r="K375" s="53"/>
+      <c r="K375" s="52"/>
     </row>
     <row r="376" spans="1:11">
       <c r="A376" s="3"/>
@@ -7671,7 +7675,7 @@
       <c r="H376" s="3"/>
       <c r="I376" s="3"/>
       <c r="J376" s="3"/>
-      <c r="K376" s="53"/>
+      <c r="K376" s="52"/>
     </row>
     <row r="377" spans="1:11">
       <c r="A377" s="3"/>
@@ -7683,7 +7687,7 @@
       <c r="H377" s="3"/>
       <c r="I377" s="3"/>
       <c r="J377" s="3"/>
-      <c r="K377" s="53"/>
+      <c r="K377" s="52"/>
     </row>
     <row r="378" spans="1:11">
       <c r="A378" s="3"/>
@@ -7695,7 +7699,7 @@
       <c r="H378" s="3"/>
       <c r="I378" s="3"/>
       <c r="J378" s="3"/>
-      <c r="K378" s="53"/>
+      <c r="K378" s="52"/>
     </row>
     <row r="379" spans="1:11">
       <c r="A379" s="3"/>
@@ -7707,7 +7711,7 @@
       <c r="H379" s="3"/>
       <c r="I379" s="3"/>
       <c r="J379" s="3"/>
-      <c r="K379" s="53"/>
+      <c r="K379" s="52"/>
     </row>
     <row r="380" spans="1:11">
       <c r="A380" s="3"/>
@@ -7719,7 +7723,7 @@
       <c r="H380" s="3"/>
       <c r="I380" s="3"/>
       <c r="J380" s="3"/>
-      <c r="K380" s="53"/>
+      <c r="K380" s="52"/>
     </row>
     <row r="381" spans="1:11">
       <c r="A381" s="3"/>
@@ -7731,7 +7735,7 @@
       <c r="H381" s="3"/>
       <c r="I381" s="3"/>
       <c r="J381" s="3"/>
-      <c r="K381" s="53"/>
+      <c r="K381" s="52"/>
     </row>
     <row r="382" spans="1:11">
       <c r="A382" s="3"/>
@@ -7743,7 +7747,7 @@
       <c r="H382" s="3"/>
       <c r="I382" s="3"/>
       <c r="J382" s="3"/>
-      <c r="K382" s="53"/>
+      <c r="K382" s="52"/>
     </row>
     <row r="383" spans="1:11">
       <c r="A383" s="3"/>
@@ -7755,7 +7759,7 @@
       <c r="H383" s="3"/>
       <c r="I383" s="3"/>
       <c r="J383" s="3"/>
-      <c r="K383" s="53"/>
+      <c r="K383" s="52"/>
     </row>
     <row r="384" spans="1:11">
       <c r="A384" s="3"/>
@@ -7767,7 +7771,7 @@
       <c r="H384" s="3"/>
       <c r="I384" s="3"/>
       <c r="J384" s="3"/>
-      <c r="K384" s="53"/>
+      <c r="K384" s="52"/>
     </row>
     <row r="385" spans="1:11">
       <c r="A385" s="3"/>
@@ -7779,7 +7783,7 @@
       <c r="H385" s="3"/>
       <c r="I385" s="3"/>
       <c r="J385" s="3"/>
-      <c r="K385" s="53"/>
+      <c r="K385" s="52"/>
     </row>
     <row r="386" spans="1:11">
       <c r="A386" s="3"/>
@@ -7791,7 +7795,7 @@
       <c r="H386" s="3"/>
       <c r="I386" s="3"/>
       <c r="J386" s="3"/>
-      <c r="K386" s="53"/>
+      <c r="K386" s="52"/>
     </row>
     <row r="387" spans="1:11">
       <c r="A387" s="3"/>
@@ -7803,7 +7807,7 @@
       <c r="H387" s="3"/>
       <c r="I387" s="3"/>
       <c r="J387" s="3"/>
-      <c r="K387" s="53"/>
+      <c r="K387" s="52"/>
     </row>
     <row r="388" spans="1:11">
       <c r="A388" s="3"/>
@@ -7815,7 +7819,7 @@
       <c r="H388" s="3"/>
       <c r="I388" s="3"/>
       <c r="J388" s="3"/>
-      <c r="K388" s="53"/>
+      <c r="K388" s="52"/>
     </row>
     <row r="389" spans="1:11">
       <c r="A389" s="3"/>
@@ -7827,7 +7831,7 @@
       <c r="H389" s="3"/>
       <c r="I389" s="3"/>
       <c r="J389" s="3"/>
-      <c r="K389" s="53"/>
+      <c r="K389" s="52"/>
     </row>
     <row r="390" spans="1:11">
       <c r="A390" s="3"/>
@@ -7839,7 +7843,7 @@
       <c r="H390" s="3"/>
       <c r="I390" s="3"/>
       <c r="J390" s="3"/>
-      <c r="K390" s="53"/>
+      <c r="K390" s="52"/>
     </row>
     <row r="391" spans="1:11">
       <c r="A391" s="3"/>
@@ -7851,7 +7855,7 @@
       <c r="H391" s="3"/>
       <c r="I391" s="3"/>
       <c r="J391" s="3"/>
-      <c r="K391" s="53"/>
+      <c r="K391" s="52"/>
     </row>
     <row r="392" spans="1:11">
       <c r="A392" s="3"/>
@@ -7863,7 +7867,7 @@
       <c r="H392" s="3"/>
       <c r="I392" s="3"/>
       <c r="J392" s="3"/>
-      <c r="K392" s="53"/>
+      <c r="K392" s="52"/>
     </row>
     <row r="393" spans="1:11">
       <c r="A393" s="3"/>
@@ -7875,7 +7879,7 @@
       <c r="H393" s="3"/>
       <c r="I393" s="3"/>
       <c r="J393" s="3"/>
-      <c r="K393" s="53"/>
+      <c r="K393" s="52"/>
     </row>
     <row r="394" spans="1:11">
       <c r="A394" s="3"/>
@@ -7887,7 +7891,7 @@
       <c r="H394" s="3"/>
       <c r="I394" s="3"/>
       <c r="J394" s="3"/>
-      <c r="K394" s="53"/>
+      <c r="K394" s="52"/>
     </row>
     <row r="395" spans="1:11">
       <c r="A395" s="3"/>
@@ -7899,7 +7903,7 @@
       <c r="H395" s="3"/>
       <c r="I395" s="3"/>
       <c r="J395" s="3"/>
-      <c r="K395" s="53"/>
+      <c r="K395" s="52"/>
     </row>
     <row r="396" spans="1:11">
       <c r="A396" s="3"/>
@@ -7911,7 +7915,7 @@
       <c r="H396" s="3"/>
       <c r="I396" s="3"/>
       <c r="J396" s="3"/>
-      <c r="K396" s="53"/>
+      <c r="K396" s="52"/>
     </row>
     <row r="397" spans="1:11">
       <c r="A397" s="3"/>
@@ -7923,7 +7927,7 @@
       <c r="H397" s="3"/>
       <c r="I397" s="3"/>
       <c r="J397" s="3"/>
-      <c r="K397" s="53"/>
+      <c r="K397" s="52"/>
     </row>
     <row r="398" spans="1:11">
       <c r="A398" s="3"/>
@@ -7935,7 +7939,7 @@
       <c r="H398" s="3"/>
       <c r="I398" s="3"/>
       <c r="J398" s="3"/>
-      <c r="K398" s="53"/>
+      <c r="K398" s="52"/>
     </row>
     <row r="399" spans="1:11">
       <c r="A399" s="3"/>
@@ -7947,7 +7951,7 @@
       <c r="H399" s="3"/>
       <c r="I399" s="3"/>
       <c r="J399" s="3"/>
-      <c r="K399" s="53"/>
+      <c r="K399" s="52"/>
     </row>
     <row r="400" spans="1:11">
       <c r="A400" s="3"/>
@@ -7959,7 +7963,7 @@
       <c r="H400" s="3"/>
       <c r="I400" s="3"/>
       <c r="J400" s="3"/>
-      <c r="K400" s="53"/>
+      <c r="K400" s="52"/>
     </row>
     <row r="401" spans="1:11">
       <c r="A401" s="3"/>
@@ -7971,7 +7975,7 @@
       <c r="H401" s="3"/>
       <c r="I401" s="3"/>
       <c r="J401" s="3"/>
-      <c r="K401" s="53"/>
+      <c r="K401" s="52"/>
     </row>
     <row r="402" spans="1:11">
       <c r="A402" s="3"/>
@@ -7983,7 +7987,7 @@
       <c r="H402" s="3"/>
       <c r="I402" s="3"/>
       <c r="J402" s="3"/>
-      <c r="K402" s="53"/>
+      <c r="K402" s="52"/>
     </row>
     <row r="403" spans="1:11">
       <c r="A403" s="3"/>
@@ -7995,7 +7999,7 @@
       <c r="H403" s="3"/>
       <c r="I403" s="3"/>
       <c r="J403" s="3"/>
-      <c r="K403" s="53"/>
+      <c r="K403" s="52"/>
     </row>
     <row r="404" spans="1:11">
       <c r="A404" s="3"/>
@@ -8007,7 +8011,7 @@
       <c r="H404" s="3"/>
       <c r="I404" s="3"/>
       <c r="J404" s="3"/>
-      <c r="K404" s="53"/>
+      <c r="K404" s="52"/>
     </row>
     <row r="405" spans="1:11">
       <c r="A405" s="3"/>
@@ -8019,7 +8023,7 @@
       <c r="H405" s="3"/>
       <c r="I405" s="3"/>
       <c r="J405" s="3"/>
-      <c r="K405" s="53"/>
+      <c r="K405" s="52"/>
     </row>
     <row r="406" spans="1:11">
       <c r="A406" s="3"/>
@@ -8031,7 +8035,7 @@
       <c r="H406" s="3"/>
       <c r="I406" s="3"/>
       <c r="J406" s="3"/>
-      <c r="K406" s="53"/>
+      <c r="K406" s="52"/>
     </row>
     <row r="407" spans="1:11">
       <c r="A407" s="3"/>
@@ -8043,7 +8047,7 @@
       <c r="H407" s="3"/>
       <c r="I407" s="3"/>
       <c r="J407" s="3"/>
-      <c r="K407" s="53"/>
+      <c r="K407" s="52"/>
     </row>
     <row r="408" spans="1:11">
       <c r="A408" s="3"/>
@@ -8055,7 +8059,7 @@
       <c r="H408" s="3"/>
       <c r="I408" s="3"/>
       <c r="J408" s="3"/>
-      <c r="K408" s="53"/>
+      <c r="K408" s="52"/>
     </row>
     <row r="409" spans="1:11">
       <c r="A409" s="3"/>
@@ -8067,7 +8071,7 @@
       <c r="H409" s="3"/>
       <c r="I409" s="3"/>
       <c r="J409" s="3"/>
-      <c r="K409" s="53"/>
+      <c r="K409" s="52"/>
     </row>
     <row r="410" spans="1:11">
       <c r="A410" s="3"/>
@@ -8079,7 +8083,7 @@
       <c r="H410" s="3"/>
       <c r="I410" s="3"/>
       <c r="J410" s="3"/>
-      <c r="K410" s="53"/>
+      <c r="K410" s="52"/>
     </row>
     <row r="411" spans="1:11">
       <c r="A411" s="3"/>
@@ -8091,7 +8095,7 @@
       <c r="H411" s="3"/>
       <c r="I411" s="3"/>
       <c r="J411" s="3"/>
-      <c r="K411" s="53"/>
+      <c r="K411" s="52"/>
     </row>
     <row r="412" spans="1:11">
       <c r="A412" s="3"/>
@@ -8103,7 +8107,7 @@
       <c r="H412" s="3"/>
       <c r="I412" s="3"/>
       <c r="J412" s="3"/>
-      <c r="K412" s="53"/>
+      <c r="K412" s="52"/>
     </row>
     <row r="413" spans="1:11">
       <c r="A413" s="3"/>
@@ -8115,7 +8119,7 @@
       <c r="H413" s="3"/>
       <c r="I413" s="3"/>
       <c r="J413" s="3"/>
-      <c r="K413" s="53"/>
+      <c r="K413" s="52"/>
     </row>
     <row r="414" spans="1:11">
       <c r="A414" s="3"/>
@@ -8127,7 +8131,7 @@
       <c r="H414" s="3"/>
       <c r="I414" s="3"/>
       <c r="J414" s="3"/>
-      <c r="K414" s="53"/>
+      <c r="K414" s="52"/>
     </row>
     <row r="415" spans="1:11">
       <c r="A415" s="3"/>
@@ -8139,7 +8143,7 @@
       <c r="H415" s="3"/>
       <c r="I415" s="3"/>
       <c r="J415" s="3"/>
-      <c r="K415" s="53"/>
+      <c r="K415" s="52"/>
     </row>
     <row r="416" spans="1:11">
       <c r="A416" s="3"/>
@@ -8151,7 +8155,7 @@
       <c r="H416" s="3"/>
       <c r="I416" s="3"/>
       <c r="J416" s="3"/>
-      <c r="K416" s="53"/>
+      <c r="K416" s="52"/>
     </row>
     <row r="417" spans="1:11">
       <c r="A417" s="3"/>
@@ -8163,7 +8167,7 @@
       <c r="H417" s="3"/>
       <c r="I417" s="3"/>
       <c r="J417" s="3"/>
-      <c r="K417" s="53"/>
+      <c r="K417" s="52"/>
     </row>
     <row r="418" spans="1:11">
       <c r="A418" s="3"/>
@@ -8175,7 +8179,7 @@
       <c r="H418" s="3"/>
       <c r="I418" s="3"/>
       <c r="J418" s="3"/>
-      <c r="K418" s="53"/>
+      <c r="K418" s="52"/>
     </row>
     <row r="419" spans="1:11">
       <c r="A419" s="3"/>
@@ -8187,7 +8191,7 @@
       <c r="H419" s="3"/>
       <c r="I419" s="3"/>
       <c r="J419" s="3"/>
-      <c r="K419" s="53"/>
+      <c r="K419" s="52"/>
     </row>
     <row r="420" spans="1:11">
       <c r="A420" s="3"/>
@@ -8199,7 +8203,7 @@
       <c r="H420" s="3"/>
       <c r="I420" s="3"/>
       <c r="J420" s="3"/>
-      <c r="K420" s="53"/>
+      <c r="K420" s="52"/>
     </row>
     <row r="421" spans="1:11">
       <c r="A421" s="3"/>
@@ -8211,7 +8215,7 @@
       <c r="H421" s="3"/>
       <c r="I421" s="3"/>
       <c r="J421" s="3"/>
-      <c r="K421" s="53"/>
+      <c r="K421" s="52"/>
     </row>
     <row r="422" spans="1:11">
       <c r="A422" s="3"/>
@@ -8223,7 +8227,7 @@
       <c r="H422" s="3"/>
       <c r="I422" s="3"/>
       <c r="J422" s="3"/>
-      <c r="K422" s="53"/>
+      <c r="K422" s="52"/>
     </row>
     <row r="423" spans="1:11">
       <c r="A423" s="3"/>
@@ -8235,7 +8239,7 @@
       <c r="H423" s="3"/>
       <c r="I423" s="3"/>
       <c r="J423" s="3"/>
-      <c r="K423" s="53"/>
+      <c r="K423" s="52"/>
     </row>
     <row r="424" spans="1:11">
       <c r="A424" s="3"/>
@@ -8247,7 +8251,7 @@
       <c r="H424" s="3"/>
       <c r="I424" s="3"/>
       <c r="J424" s="3"/>
-      <c r="K424" s="53"/>
+      <c r="K424" s="52"/>
     </row>
     <row r="425" spans="1:11">
       <c r="A425" s="3"/>
@@ -8259,7 +8263,7 @@
       <c r="H425" s="3"/>
       <c r="I425" s="3"/>
       <c r="J425" s="3"/>
-      <c r="K425" s="53"/>
+      <c r="K425" s="52"/>
     </row>
     <row r="426" spans="1:11">
       <c r="A426" s="3"/>
@@ -8271,7 +8275,7 @@
       <c r="H426" s="3"/>
       <c r="I426" s="3"/>
       <c r="J426" s="3"/>
-      <c r="K426" s="53"/>
+      <c r="K426" s="52"/>
     </row>
     <row r="427" spans="1:11">
       <c r="A427" s="3"/>
@@ -8283,7 +8287,7 @@
       <c r="H427" s="3"/>
       <c r="I427" s="3"/>
       <c r="J427" s="3"/>
-      <c r="K427" s="53"/>
+      <c r="K427" s="52"/>
     </row>
     <row r="428" spans="1:11">
       <c r="A428" s="3"/>
@@ -8295,7 +8299,7 @@
       <c r="H428" s="3"/>
       <c r="I428" s="3"/>
       <c r="J428" s="3"/>
-      <c r="K428" s="53"/>
+      <c r="K428" s="52"/>
     </row>
     <row r="429" spans="1:11">
       <c r="A429" s="3"/>
@@ -8307,7 +8311,7 @@
       <c r="H429" s="3"/>
       <c r="I429" s="3"/>
       <c r="J429" s="3"/>
-      <c r="K429" s="53"/>
+      <c r="K429" s="52"/>
     </row>
     <row r="430" spans="1:11">
       <c r="A430" s="3"/>
@@ -8319,7 +8323,7 @@
       <c r="H430" s="3"/>
       <c r="I430" s="3"/>
       <c r="J430" s="3"/>
-      <c r="K430" s="53"/>
+      <c r="K430" s="52"/>
     </row>
     <row r="431" spans="1:11">
       <c r="A431" s="3"/>
@@ -8331,7 +8335,7 @@
       <c r="H431" s="3"/>
       <c r="I431" s="3"/>
       <c r="J431" s="3"/>
-      <c r="K431" s="53"/>
+      <c r="K431" s="52"/>
     </row>
     <row r="432" spans="1:11">
       <c r="A432" s="3"/>
@@ -8343,7 +8347,7 @@
       <c r="H432" s="3"/>
       <c r="I432" s="3"/>
       <c r="J432" s="3"/>
-      <c r="K432" s="53"/>
+      <c r="K432" s="52"/>
     </row>
     <row r="433" spans="1:11">
       <c r="A433" s="3"/>
@@ -8355,7 +8359,7 @@
       <c r="H433" s="3"/>
       <c r="I433" s="3"/>
       <c r="J433" s="3"/>
-      <c r="K433" s="53"/>
+      <c r="K433" s="52"/>
     </row>
     <row r="434" spans="1:11">
       <c r="A434" s="3"/>
@@ -8367,7 +8371,7 @@
       <c r="H434" s="3"/>
       <c r="I434" s="3"/>
       <c r="J434" s="3"/>
-      <c r="K434" s="53"/>
+      <c r="K434" s="52"/>
     </row>
     <row r="435" spans="1:11">
       <c r="A435" s="3"/>
@@ -8379,7 +8383,7 @@
       <c r="H435" s="3"/>
       <c r="I435" s="3"/>
       <c r="J435" s="3"/>
-      <c r="K435" s="53"/>
+      <c r="K435" s="52"/>
     </row>
     <row r="436" spans="1:11">
       <c r="A436" s="3"/>
@@ -8391,7 +8395,7 @@
       <c r="H436" s="3"/>
       <c r="I436" s="3"/>
       <c r="J436" s="3"/>
-      <c r="K436" s="53"/>
+      <c r="K436" s="52"/>
     </row>
     <row r="437" spans="1:11">
       <c r="A437" s="3"/>
@@ -8403,7 +8407,7 @@
       <c r="H437" s="3"/>
       <c r="I437" s="3"/>
       <c r="J437" s="3"/>
-      <c r="K437" s="53"/>
+      <c r="K437" s="52"/>
     </row>
     <row r="438" spans="1:11">
       <c r="A438" s="3"/>
@@ -8415,7 +8419,7 @@
       <c r="H438" s="3"/>
       <c r="I438" s="3"/>
       <c r="J438" s="3"/>
-      <c r="K438" s="53"/>
+      <c r="K438" s="52"/>
     </row>
     <row r="439" spans="1:11">
       <c r="A439" s="3"/>
@@ -8427,7 +8431,7 @@
       <c r="H439" s="3"/>
       <c r="I439" s="3"/>
       <c r="J439" s="3"/>
-      <c r="K439" s="53"/>
+      <c r="K439" s="52"/>
     </row>
     <row r="440" spans="1:11">
       <c r="A440" s="3"/>
@@ -8439,7 +8443,7 @@
       <c r="H440" s="3"/>
       <c r="I440" s="3"/>
       <c r="J440" s="3"/>
-      <c r="K440" s="53"/>
+      <c r="K440" s="52"/>
     </row>
     <row r="441" spans="1:11">
       <c r="A441" s="3"/>
@@ -8451,7 +8455,7 @@
       <c r="H441" s="3"/>
       <c r="I441" s="3"/>
       <c r="J441" s="3"/>
-      <c r="K441" s="53"/>
+      <c r="K441" s="52"/>
     </row>
     <row r="442" spans="1:11">
       <c r="A442" s="3"/>
@@ -8463,7 +8467,7 @@
       <c r="H442" s="3"/>
       <c r="I442" s="3"/>
       <c r="J442" s="3"/>
-      <c r="K442" s="53"/>
+      <c r="K442" s="52"/>
     </row>
     <row r="443" spans="1:11">
       <c r="A443" s="3"/>
@@ -8475,7 +8479,7 @@
       <c r="H443" s="3"/>
       <c r="I443" s="3"/>
       <c r="J443" s="3"/>
-      <c r="K443" s="53"/>
+      <c r="K443" s="52"/>
     </row>
     <row r="444" spans="1:11">
       <c r="A444" s="3"/>
@@ -8487,7 +8491,7 @@
       <c r="H444" s="3"/>
       <c r="I444" s="3"/>
       <c r="J444" s="3"/>
-      <c r="K444" s="53"/>
+      <c r="K444" s="52"/>
     </row>
     <row r="445" spans="1:11">
       <c r="A445" s="3"/>
@@ -8499,7 +8503,7 @@
       <c r="H445" s="3"/>
       <c r="I445" s="3"/>
       <c r="J445" s="3"/>
-      <c r="K445" s="53"/>
+      <c r="K445" s="52"/>
     </row>
     <row r="446" spans="1:11">
       <c r="A446" s="3"/>
@@ -8511,7 +8515,7 @@
       <c r="H446" s="3"/>
       <c r="I446" s="3"/>
       <c r="J446" s="3"/>
-      <c r="K446" s="53"/>
+      <c r="K446" s="52"/>
     </row>
     <row r="447" spans="1:11">
       <c r="A447" s="3"/>
@@ -8523,7 +8527,7 @@
       <c r="H447" s="3"/>
       <c r="I447" s="3"/>
       <c r="J447" s="3"/>
-      <c r="K447" s="53"/>
+      <c r="K447" s="52"/>
     </row>
     <row r="448" spans="1:11">
       <c r="A448" s="3"/>
@@ -8535,7 +8539,7 @@
       <c r="H448" s="3"/>
       <c r="I448" s="3"/>
       <c r="J448" s="3"/>
-      <c r="K448" s="53"/>
+      <c r="K448" s="52"/>
     </row>
     <row r="449" spans="1:11">
       <c r="A449" s="3"/>
@@ -8547,7 +8551,7 @@
       <c r="H449" s="3"/>
       <c r="I449" s="3"/>
       <c r="J449" s="3"/>
-      <c r="K449" s="53"/>
+      <c r="K449" s="52"/>
     </row>
     <row r="450" spans="1:11">
       <c r="A450" s="3"/>
@@ -8559,7 +8563,7 @@
       <c r="H450" s="3"/>
       <c r="I450" s="3"/>
       <c r="J450" s="3"/>
-      <c r="K450" s="53"/>
+      <c r="K450" s="52"/>
     </row>
     <row r="451" spans="1:11">
       <c r="A451" s="3"/>
@@ -8571,7 +8575,7 @@
       <c r="H451" s="3"/>
       <c r="I451" s="3"/>
       <c r="J451" s="3"/>
-      <c r="K451" s="53"/>
+      <c r="K451" s="52"/>
     </row>
     <row r="452" spans="1:11">
       <c r="A452" s="3"/>
@@ -8583,7 +8587,7 @@
       <c r="H452" s="3"/>
       <c r="I452" s="3"/>
       <c r="J452" s="3"/>
-      <c r="K452" s="53"/>
+      <c r="K452" s="52"/>
     </row>
     <row r="453" spans="1:11">
       <c r="A453" s="3"/>
@@ -8595,7 +8599,7 @@
       <c r="H453" s="3"/>
       <c r="I453" s="3"/>
       <c r="J453" s="3"/>
-      <c r="K453" s="53"/>
+      <c r="K453" s="52"/>
     </row>
     <row r="454" spans="1:11">
       <c r="A454" s="3"/>
@@ -8607,7 +8611,7 @@
       <c r="H454" s="3"/>
       <c r="I454" s="3"/>
       <c r="J454" s="3"/>
-      <c r="K454" s="53"/>
+      <c r="K454" s="52"/>
     </row>
     <row r="455" spans="1:11">
       <c r="A455" s="3"/>
@@ -8619,7 +8623,7 @@
       <c r="H455" s="3"/>
       <c r="I455" s="3"/>
       <c r="J455" s="3"/>
-      <c r="K455" s="53"/>
+      <c r="K455" s="52"/>
     </row>
     <row r="456" spans="1:11">
       <c r="A456" s="3"/>
@@ -8631,7 +8635,7 @@
       <c r="H456" s="3"/>
       <c r="I456" s="3"/>
       <c r="J456" s="3"/>
-      <c r="K456" s="53"/>
+      <c r="K456" s="52"/>
     </row>
     <row r="457" spans="1:11">
       <c r="A457" s="3"/>
@@ -8643,7 +8647,7 @@
       <c r="H457" s="3"/>
       <c r="I457" s="3"/>
       <c r="J457" s="3"/>
-      <c r="K457" s="53"/>
+      <c r="K457" s="52"/>
     </row>
     <row r="458" spans="1:11">
       <c r="A458" s="3"/>
@@ -8655,7 +8659,7 @@
       <c r="H458" s="3"/>
       <c r="I458" s="3"/>
       <c r="J458" s="3"/>
-      <c r="K458" s="53"/>
+      <c r="K458" s="52"/>
     </row>
     <row r="459" spans="1:11">
       <c r="A459" s="3"/>
@@ -8667,7 +8671,7 @@
       <c r="H459" s="3"/>
       <c r="I459" s="3"/>
       <c r="J459" s="3"/>
-      <c r="K459" s="53"/>
+      <c r="K459" s="52"/>
     </row>
     <row r="460" spans="1:11">
       <c r="A460" s="3"/>
@@ -8679,7 +8683,7 @@
       <c r="H460" s="3"/>
       <c r="I460" s="3"/>
       <c r="J460" s="3"/>
-      <c r="K460" s="53"/>
+      <c r="K460" s="52"/>
     </row>
     <row r="461" spans="1:11">
       <c r="A461" s="3"/>
@@ -8691,7 +8695,7 @@
       <c r="H461" s="3"/>
       <c r="I461" s="3"/>
       <c r="J461" s="3"/>
-      <c r="K461" s="53"/>
+      <c r="K461" s="52"/>
     </row>
     <row r="462" spans="1:11">
       <c r="A462" s="3"/>
@@ -8703,7 +8707,7 @@
       <c r="H462" s="3"/>
       <c r="I462" s="3"/>
       <c r="J462" s="3"/>
-      <c r="K462" s="53"/>
+      <c r="K462" s="52"/>
     </row>
     <row r="463" spans="1:11">
       <c r="A463" s="3"/>
@@ -8715,7 +8719,7 @@
       <c r="H463" s="3"/>
       <c r="I463" s="3"/>
       <c r="J463" s="3"/>
-      <c r="K463" s="53"/>
+      <c r="K463" s="52"/>
     </row>
     <row r="464" spans="1:2">
       <c r="A464" s="3"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易计划202112.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易计划202112.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62">
   <si>
     <t>计划编码</t>
   </si>
@@ -92,6 +92,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
       <t>执行失败</t>
     </r>
     <r>
@@ -221,6 +227,15 @@
     <t>双星新材</t>
   </si>
   <si>
+    <t>JH_00017</t>
+  </si>
+  <si>
+    <t>2021/12/13</t>
+  </si>
+  <si>
+    <t>JH_00018</t>
+  </si>
+  <si>
     <t>000069</t>
   </si>
 </sst>
@@ -230,13 +245,13 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="0.00_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="33">
+  <fonts count="32">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -297,13 +312,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Helvetica Neue"/>
@@ -350,8 +358,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
@@ -369,36 +415,6 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -426,9 +442,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -436,21 +451,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -466,7 +466,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -511,7 +519,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -523,19 +549,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -547,19 +567,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -571,25 +609,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -601,7 +639,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -619,13 +657,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -637,55 +675,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -736,15 +744,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -756,6 +755,45 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -784,21 +822,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -809,172 +832,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="28" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="31" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1005,9 +1013,6 @@
     <xf numFmtId="49" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1029,9 +1034,6 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1056,28 +1058,22 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1113,9 +1109,6 @@
     <xf numFmtId="10" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="10" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1134,15 +1127,15 @@
     <xf numFmtId="10" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1152,10 +1145,10 @@
     <xf numFmtId="176" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" quotePrefix="1">
@@ -2335,11 +2328,11 @@
   <dimension ref="A1:BA543"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="M11" sqref="M11"/>
+      <selection pane="bottomRight" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.82142857142857" defaultRowHeight="12.4"/>
@@ -2386,1327 +2379,1358 @@
       <c r="I1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="40" t="s">
+      <c r="K1" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="41" t="s">
+      <c r="L1" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="53" t="s">
+      <c r="M1" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="54"/>
-      <c r="O1" s="54"/>
-      <c r="P1" s="54"/>
-      <c r="Q1" s="54"/>
-      <c r="R1" s="54"/>
-      <c r="S1" s="54"/>
-      <c r="T1" s="54"/>
-      <c r="V1" s="60"/>
-      <c r="W1" s="60"/>
-      <c r="X1" s="60"/>
-      <c r="Y1" s="60"/>
-      <c r="Z1" s="60"/>
-      <c r="AA1" s="60"/>
-      <c r="AB1" s="60"/>
-      <c r="AC1" s="60"/>
-      <c r="AE1" s="60"/>
-      <c r="AF1" s="60"/>
-      <c r="AG1" s="60"/>
-      <c r="AH1" s="60"/>
-      <c r="AI1" s="60"/>
-      <c r="AJ1" s="60"/>
-      <c r="AK1" s="60"/>
-      <c r="AM1" s="60"/>
-      <c r="AN1" s="60"/>
-      <c r="AO1" s="60"/>
-      <c r="AP1" s="60"/>
-      <c r="AQ1" s="60"/>
-      <c r="AR1" s="60"/>
-      <c r="AS1" s="60"/>
-      <c r="AU1" s="60"/>
-      <c r="AV1" s="60"/>
-      <c r="AW1" s="60"/>
-      <c r="AX1" s="60"/>
-      <c r="AY1" s="60"/>
-      <c r="AZ1" s="60"/>
-      <c r="BA1" s="60"/>
+      <c r="N1" s="49"/>
+      <c r="O1" s="49"/>
+      <c r="P1" s="49"/>
+      <c r="Q1" s="49"/>
+      <c r="R1" s="49"/>
+      <c r="S1" s="49"/>
+      <c r="T1" s="49"/>
+      <c r="V1" s="55"/>
+      <c r="W1" s="55"/>
+      <c r="X1" s="55"/>
+      <c r="Y1" s="55"/>
+      <c r="Z1" s="55"/>
+      <c r="AA1" s="55"/>
+      <c r="AB1" s="55"/>
+      <c r="AC1" s="55"/>
+      <c r="AE1" s="55"/>
+      <c r="AF1" s="55"/>
+      <c r="AG1" s="55"/>
+      <c r="AH1" s="55"/>
+      <c r="AI1" s="55"/>
+      <c r="AJ1" s="55"/>
+      <c r="AK1" s="55"/>
+      <c r="AM1" s="55"/>
+      <c r="AN1" s="55"/>
+      <c r="AO1" s="55"/>
+      <c r="AP1" s="55"/>
+      <c r="AQ1" s="55"/>
+      <c r="AR1" s="55"/>
+      <c r="AS1" s="55"/>
+      <c r="AU1" s="55"/>
+      <c r="AV1" s="55"/>
+      <c r="AW1" s="55"/>
+      <c r="AX1" s="55"/>
+      <c r="AY1" s="55"/>
+      <c r="AZ1" s="55"/>
+      <c r="BA1" s="55"/>
     </row>
     <row r="2" ht="23.6" spans="1:53">
       <c r="A2" s="6"/>
       <c r="B2" s="7"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
       <c r="H2" s="9"/>
       <c r="I2" s="9"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="55"/>
-      <c r="N2" s="54"/>
-      <c r="O2" s="54"/>
-      <c r="P2" s="54"/>
-      <c r="Q2" s="54"/>
-      <c r="R2" s="54"/>
-      <c r="S2" s="54"/>
-      <c r="T2" s="54"/>
-      <c r="V2" s="60"/>
-      <c r="W2" s="60"/>
-      <c r="X2" s="60"/>
-      <c r="Y2" s="60"/>
-      <c r="Z2" s="60"/>
-      <c r="AA2" s="60"/>
-      <c r="AB2" s="60"/>
-      <c r="AC2" s="60"/>
-      <c r="AE2" s="60"/>
-      <c r="AF2" s="60"/>
-      <c r="AG2" s="60"/>
-      <c r="AH2" s="60"/>
-      <c r="AI2" s="60"/>
-      <c r="AJ2" s="60"/>
-      <c r="AK2" s="60"/>
-      <c r="AM2" s="60"/>
-      <c r="AN2" s="60"/>
-      <c r="AO2" s="60"/>
-      <c r="AP2" s="60"/>
-      <c r="AQ2" s="60"/>
-      <c r="AR2" s="60"/>
-      <c r="AS2" s="60"/>
-      <c r="AU2" s="60"/>
-      <c r="AV2" s="60"/>
-      <c r="AW2" s="60"/>
-      <c r="AX2" s="60"/>
-      <c r="AY2" s="60"/>
-      <c r="AZ2" s="60"/>
-      <c r="BA2" s="60"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="50"/>
+      <c r="N2" s="49"/>
+      <c r="O2" s="49"/>
+      <c r="P2" s="49"/>
+      <c r="Q2" s="49"/>
+      <c r="R2" s="49"/>
+      <c r="S2" s="49"/>
+      <c r="T2" s="49"/>
+      <c r="V2" s="55"/>
+      <c r="W2" s="55"/>
+      <c r="X2" s="55"/>
+      <c r="Y2" s="55"/>
+      <c r="Z2" s="55"/>
+      <c r="AA2" s="55"/>
+      <c r="AB2" s="55"/>
+      <c r="AC2" s="55"/>
+      <c r="AE2" s="55"/>
+      <c r="AF2" s="55"/>
+      <c r="AG2" s="55"/>
+      <c r="AH2" s="55"/>
+      <c r="AI2" s="55"/>
+      <c r="AJ2" s="55"/>
+      <c r="AK2" s="55"/>
+      <c r="AM2" s="55"/>
+      <c r="AN2" s="55"/>
+      <c r="AO2" s="55"/>
+      <c r="AP2" s="55"/>
+      <c r="AQ2" s="55"/>
+      <c r="AR2" s="55"/>
+      <c r="AS2" s="55"/>
+      <c r="AU2" s="55"/>
+      <c r="AV2" s="55"/>
+      <c r="AW2" s="55"/>
+      <c r="AX2" s="55"/>
+      <c r="AY2" s="55"/>
+      <c r="AZ2" s="55"/>
+      <c r="BA2" s="55"/>
     </row>
     <row r="3" customFormat="1" ht="23.6" spans="1:53">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="36">
+      <c r="E3" s="32">
         <v>34.12</v>
       </c>
-      <c r="F3" s="36">
+      <c r="F3" s="32">
         <v>32.53</v>
       </c>
-      <c r="G3" s="36">
+      <c r="G3" s="32">
         <v>39.33</v>
       </c>
-      <c r="H3" s="36">
+      <c r="H3" s="32">
         <f t="shared" ref="H3:H18" si="0">(E3-F3)*100</f>
         <v>159</v>
       </c>
-      <c r="I3" s="36">
+      <c r="I3" s="32">
         <f>FLOOR(1000/(E3-F3),100)</f>
         <v>600</v>
       </c>
-      <c r="J3" s="42">
+      <c r="J3" s="38">
         <f t="shared" ref="J3:J11" si="1">(G3-E3)/(E3-F3)</f>
         <v>3.27672955974844</v>
       </c>
-      <c r="K3" s="43">
+      <c r="K3" s="39">
         <f t="shared" ref="K3:K14" si="2">(E3-F3)/E3</f>
         <v>0.0466002344665884</v>
       </c>
-      <c r="L3" s="44">
+      <c r="L3" s="40">
         <f t="shared" ref="L3:L11" si="3">(G3-E3)/E3</f>
         <v>0.152696365767878</v>
       </c>
-      <c r="M3" s="19" t="s">
+      <c r="M3" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="N3" s="54"/>
-      <c r="O3" s="54"/>
-      <c r="P3" s="54"/>
-      <c r="Q3" s="54"/>
-      <c r="R3" s="54"/>
-      <c r="S3" s="54"/>
-      <c r="T3" s="54"/>
-      <c r="V3" s="60"/>
-      <c r="W3" s="60"/>
-      <c r="X3" s="60"/>
-      <c r="Y3" s="60"/>
-      <c r="Z3" s="60"/>
-      <c r="AA3" s="60"/>
-      <c r="AB3" s="60"/>
-      <c r="AC3" s="60"/>
-      <c r="AE3" s="60"/>
-      <c r="AF3" s="60"/>
-      <c r="AG3" s="60"/>
-      <c r="AH3" s="60"/>
-      <c r="AI3" s="60"/>
-      <c r="AJ3" s="60"/>
-      <c r="AK3" s="60"/>
-      <c r="AM3" s="60"/>
-      <c r="AN3" s="60"/>
-      <c r="AO3" s="60"/>
-      <c r="AP3" s="60"/>
-      <c r="AQ3" s="60"/>
-      <c r="AR3" s="60"/>
-      <c r="AS3" s="60"/>
-      <c r="AU3" s="60"/>
-      <c r="AV3" s="60"/>
-      <c r="AW3" s="60"/>
-      <c r="AX3" s="60"/>
-      <c r="AY3" s="60"/>
-      <c r="AZ3" s="60"/>
-      <c r="BA3" s="60"/>
+      <c r="N3" s="49"/>
+      <c r="O3" s="49"/>
+      <c r="P3" s="49"/>
+      <c r="Q3" s="49"/>
+      <c r="R3" s="49"/>
+      <c r="S3" s="49"/>
+      <c r="T3" s="49"/>
+      <c r="V3" s="55"/>
+      <c r="W3" s="55"/>
+      <c r="X3" s="55"/>
+      <c r="Y3" s="55"/>
+      <c r="Z3" s="55"/>
+      <c r="AA3" s="55"/>
+      <c r="AB3" s="55"/>
+      <c r="AC3" s="55"/>
+      <c r="AE3" s="55"/>
+      <c r="AF3" s="55"/>
+      <c r="AG3" s="55"/>
+      <c r="AH3" s="55"/>
+      <c r="AI3" s="55"/>
+      <c r="AJ3" s="55"/>
+      <c r="AK3" s="55"/>
+      <c r="AM3" s="55"/>
+      <c r="AN3" s="55"/>
+      <c r="AO3" s="55"/>
+      <c r="AP3" s="55"/>
+      <c r="AQ3" s="55"/>
+      <c r="AR3" s="55"/>
+      <c r="AS3" s="55"/>
+      <c r="AU3" s="55"/>
+      <c r="AV3" s="55"/>
+      <c r="AW3" s="55"/>
+      <c r="AX3" s="55"/>
+      <c r="AY3" s="55"/>
+      <c r="AZ3" s="55"/>
+      <c r="BA3" s="55"/>
     </row>
     <row r="4" customFormat="1" ht="23.6" spans="1:53">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="36">
+      <c r="E4" s="32">
         <v>32.65</v>
       </c>
-      <c r="F4" s="36">
+      <c r="F4" s="32">
         <v>30.89</v>
       </c>
-      <c r="G4" s="36">
+      <c r="G4" s="32">
         <v>36.22</v>
       </c>
-      <c r="H4" s="36">
+      <c r="H4" s="32">
         <f t="shared" si="0"/>
         <v>176</v>
       </c>
-      <c r="I4" s="36">
+      <c r="I4" s="32">
         <f>FLOOR(1000/(E4-F4),100)</f>
         <v>500</v>
       </c>
-      <c r="J4" s="42">
+      <c r="J4" s="38">
         <f t="shared" si="1"/>
         <v>2.02840909090909</v>
       </c>
-      <c r="K4" s="43">
+      <c r="K4" s="39">
         <f t="shared" si="2"/>
         <v>0.0539050535987748</v>
       </c>
-      <c r="L4" s="44">
+      <c r="L4" s="40">
         <f t="shared" si="3"/>
         <v>0.109341500765697</v>
       </c>
-      <c r="M4" s="19" t="s">
+      <c r="M4" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="N4" s="54"/>
-      <c r="O4" s="54"/>
-      <c r="P4" s="54"/>
-      <c r="Q4" s="54"/>
-      <c r="R4" s="54"/>
-      <c r="S4" s="54"/>
-      <c r="T4" s="54"/>
-      <c r="V4" s="60"/>
-      <c r="W4" s="60"/>
-      <c r="X4" s="60"/>
-      <c r="Y4" s="60"/>
-      <c r="Z4" s="60"/>
-      <c r="AA4" s="60"/>
-      <c r="AB4" s="60"/>
-      <c r="AC4" s="60"/>
-      <c r="AE4" s="60"/>
-      <c r="AF4" s="60"/>
-      <c r="AG4" s="60"/>
-      <c r="AH4" s="60"/>
-      <c r="AI4" s="60"/>
-      <c r="AJ4" s="60"/>
-      <c r="AK4" s="60"/>
-      <c r="AM4" s="60"/>
-      <c r="AN4" s="60"/>
-      <c r="AO4" s="60"/>
-      <c r="AP4" s="60"/>
-      <c r="AQ4" s="60"/>
-      <c r="AR4" s="60"/>
-      <c r="AS4" s="60"/>
-      <c r="AU4" s="60"/>
-      <c r="AV4" s="60"/>
-      <c r="AW4" s="60"/>
-      <c r="AX4" s="60"/>
-      <c r="AY4" s="60"/>
-      <c r="AZ4" s="60"/>
-      <c r="BA4" s="60"/>
+      <c r="N4" s="49"/>
+      <c r="O4" s="49"/>
+      <c r="P4" s="49"/>
+      <c r="Q4" s="49"/>
+      <c r="R4" s="49"/>
+      <c r="S4" s="49"/>
+      <c r="T4" s="49"/>
+      <c r="V4" s="55"/>
+      <c r="W4" s="55"/>
+      <c r="X4" s="55"/>
+      <c r="Y4" s="55"/>
+      <c r="Z4" s="55"/>
+      <c r="AA4" s="55"/>
+      <c r="AB4" s="55"/>
+      <c r="AC4" s="55"/>
+      <c r="AE4" s="55"/>
+      <c r="AF4" s="55"/>
+      <c r="AG4" s="55"/>
+      <c r="AH4" s="55"/>
+      <c r="AI4" s="55"/>
+      <c r="AJ4" s="55"/>
+      <c r="AK4" s="55"/>
+      <c r="AM4" s="55"/>
+      <c r="AN4" s="55"/>
+      <c r="AO4" s="55"/>
+      <c r="AP4" s="55"/>
+      <c r="AQ4" s="55"/>
+      <c r="AR4" s="55"/>
+      <c r="AS4" s="55"/>
+      <c r="AU4" s="55"/>
+      <c r="AV4" s="55"/>
+      <c r="AW4" s="55"/>
+      <c r="AX4" s="55"/>
+      <c r="AY4" s="55"/>
+      <c r="AZ4" s="55"/>
+      <c r="BA4" s="55"/>
     </row>
     <row r="5" s="1" customFormat="1" ht="38" spans="1:14">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="16">
+      <c r="B5" s="15">
         <v>44539</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="36">
+      <c r="E5" s="32">
         <v>51.15</v>
       </c>
-      <c r="F5" s="36">
+      <c r="F5" s="32">
         <v>46.61</v>
       </c>
-      <c r="G5" s="36">
+      <c r="G5" s="32">
         <v>59.59</v>
       </c>
-      <c r="H5" s="36">
+      <c r="H5" s="32">
         <f t="shared" si="0"/>
         <v>454</v>
       </c>
-      <c r="I5" s="36">
-        <f>FLOOR(1000/(E5-F5),100)</f>
+      <c r="I5" s="32">
+        <f t="shared" ref="I5:I19" si="4">FLOOR(1000/(E5-F5),100)</f>
         <v>200</v>
       </c>
-      <c r="J5" s="42">
+      <c r="J5" s="38">
         <f t="shared" si="1"/>
         <v>1.85903083700441</v>
       </c>
-      <c r="K5" s="43">
+      <c r="K5" s="39">
         <f t="shared" si="2"/>
         <v>0.0887585532746823</v>
       </c>
-      <c r="L5" s="44">
+      <c r="L5" s="40">
         <f t="shared" si="3"/>
         <v>0.165004887585533</v>
       </c>
-      <c r="M5" s="56" t="s">
+      <c r="M5" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="N5" s="57"/>
+      <c r="N5" s="52"/>
     </row>
     <row r="6" s="1" customFormat="1" ht="13" spans="1:14">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="16">
+      <c r="B6" s="15">
         <v>44539</v>
       </c>
-      <c r="C6" s="18">
+      <c r="C6" s="11">
         <v>600779</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="37">
+      <c r="E6" s="33">
         <v>143.8</v>
       </c>
-      <c r="F6" s="37">
+      <c r="F6" s="33">
         <v>137.88</v>
       </c>
-      <c r="G6" s="37">
+      <c r="G6" s="33">
         <v>158.48</v>
       </c>
-      <c r="H6" s="36">
+      <c r="H6" s="32">
         <f t="shared" si="0"/>
         <v>592.000000000002</v>
       </c>
-      <c r="I6" s="36">
-        <f t="shared" ref="I6:I13" si="4">FLOOR(1000/(E6-F6),100)</f>
+      <c r="I6" s="32">
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
-      <c r="J6" s="42">
+      <c r="J6" s="38">
         <f t="shared" si="1"/>
         <v>2.47972972972972</v>
       </c>
-      <c r="K6" s="43">
+      <c r="K6" s="39">
         <f t="shared" si="2"/>
         <v>0.0411682892906816</v>
       </c>
-      <c r="L6" s="44">
+      <c r="L6" s="40">
         <f t="shared" si="3"/>
         <v>0.102086230876217</v>
       </c>
-      <c r="M6" s="19" t="s">
+      <c r="M6" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="N6" s="57"/>
+      <c r="N6" s="52"/>
     </row>
     <row r="7" s="1" customFormat="1" ht="38" spans="1:14">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="16">
+      <c r="B7" s="15">
         <v>44539</v>
       </c>
-      <c r="C7" s="18">
+      <c r="C7" s="11">
         <v>600803</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="37">
+      <c r="E7" s="33">
         <v>20.44</v>
       </c>
-      <c r="F7" s="37">
+      <c r="F7" s="33">
         <v>19.09</v>
       </c>
-      <c r="G7" s="37">
+      <c r="G7" s="33">
         <v>23.43</v>
       </c>
-      <c r="H7" s="36">
+      <c r="H7" s="32">
         <f t="shared" si="0"/>
         <v>135</v>
       </c>
-      <c r="I7" s="36">
+      <c r="I7" s="32">
         <f t="shared" si="4"/>
         <v>700</v>
       </c>
-      <c r="J7" s="42">
+      <c r="J7" s="38">
         <f t="shared" si="1"/>
         <v>2.21481481481481</v>
       </c>
-      <c r="K7" s="43">
+      <c r="K7" s="39">
         <f t="shared" si="2"/>
         <v>0.0660469667318983</v>
       </c>
-      <c r="L7" s="44">
+      <c r="L7" s="40">
         <f t="shared" si="3"/>
         <v>0.146281800391389</v>
       </c>
-      <c r="M7" s="56" t="s">
+      <c r="M7" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="N7" s="57"/>
+      <c r="N7" s="52"/>
     </row>
     <row r="8" s="1" customFormat="1" ht="13" spans="1:14">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="16">
+      <c r="B8" s="15">
         <v>44539</v>
       </c>
-      <c r="C8" s="20">
+      <c r="C8" s="18">
         <v>600032</v>
       </c>
-      <c r="D8" s="21" t="s">
+      <c r="D8" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="11">
         <v>17.19</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F8" s="11">
         <v>15.5</v>
       </c>
-      <c r="G8" s="12">
+      <c r="G8" s="11">
         <v>20.72</v>
       </c>
-      <c r="H8" s="36">
+      <c r="H8" s="32">
         <f t="shared" si="0"/>
         <v>169</v>
       </c>
-      <c r="I8" s="36">
+      <c r="I8" s="32">
         <f t="shared" si="4"/>
         <v>500</v>
       </c>
-      <c r="J8" s="42">
+      <c r="J8" s="38">
         <f t="shared" si="1"/>
         <v>2.0887573964497</v>
       </c>
-      <c r="K8" s="43">
+      <c r="K8" s="39">
         <f t="shared" si="2"/>
         <v>0.0983129726585225</v>
       </c>
-      <c r="L8" s="44">
+      <c r="L8" s="40">
         <f t="shared" si="3"/>
         <v>0.205351948807446</v>
       </c>
-      <c r="M8" s="19" t="s">
+      <c r="M8" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="N8" s="57"/>
+      <c r="N8" s="52"/>
     </row>
     <row r="9" s="2" customFormat="1" ht="13" spans="1:13">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="16">
+      <c r="B9" s="15">
         <v>44539</v>
       </c>
-      <c r="C9" s="22">
+      <c r="C9" s="20">
         <v>603688</v>
       </c>
-      <c r="D9" s="23" t="s">
+      <c r="D9" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E9" s="11">
         <v>64.3</v>
       </c>
-      <c r="F9" s="12">
+      <c r="F9" s="11">
         <v>58.51</v>
       </c>
-      <c r="G9" s="12">
+      <c r="G9" s="11">
         <v>65.72</v>
       </c>
-      <c r="H9" s="36">
+      <c r="H9" s="32">
         <f t="shared" si="0"/>
         <v>579</v>
       </c>
-      <c r="I9" s="36">
+      <c r="I9" s="32">
         <f t="shared" si="4"/>
         <v>100</v>
       </c>
-      <c r="J9" s="42">
+      <c r="J9" s="38">
         <f t="shared" si="1"/>
         <v>0.24525043177893</v>
       </c>
-      <c r="K9" s="43">
+      <c r="K9" s="39">
         <f t="shared" si="2"/>
         <v>0.0900466562986003</v>
       </c>
-      <c r="L9" s="44">
+      <c r="L9" s="40">
         <f t="shared" si="3"/>
         <v>0.0220839813374806</v>
       </c>
-      <c r="M9" s="19" t="s">
+      <c r="M9" s="17" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="10" s="2" customFormat="1" ht="13" spans="1:13">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="16">
+      <c r="B10" s="15">
         <v>44539</v>
       </c>
-      <c r="C10" s="20">
+      <c r="C10" s="18">
         <v>601677</v>
       </c>
-      <c r="D10" s="24" t="s">
+      <c r="D10" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E10" s="11">
         <v>39.15</v>
       </c>
-      <c r="F10" s="12">
+      <c r="F10" s="11">
         <v>35.91</v>
       </c>
-      <c r="G10" s="12">
+      <c r="G10" s="11">
         <v>44.28</v>
       </c>
-      <c r="H10" s="36">
+      <c r="H10" s="32">
         <f t="shared" si="0"/>
         <v>324</v>
       </c>
-      <c r="I10" s="36">
+      <c r="I10" s="32">
         <f t="shared" si="4"/>
         <v>300</v>
       </c>
-      <c r="J10" s="42">
+      <c r="J10" s="38">
         <f t="shared" si="1"/>
         <v>1.58333333333333</v>
       </c>
-      <c r="K10" s="43">
+      <c r="K10" s="39">
         <f t="shared" si="2"/>
         <v>0.0827586206896552</v>
       </c>
-      <c r="L10" s="44">
+      <c r="L10" s="40">
         <f t="shared" si="3"/>
         <v>0.131034482758621</v>
       </c>
-      <c r="M10" s="19" t="s">
+      <c r="M10" s="17" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" ht="13" spans="1:14">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B11" s="16">
+      <c r="B11" s="15">
         <v>44539</v>
       </c>
-      <c r="C11" s="61" t="s">
+      <c r="C11" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="24" t="s">
+      <c r="D11" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E11" s="11">
         <v>117.8</v>
       </c>
-      <c r="F11" s="12">
+      <c r="F11" s="11">
         <v>111.17</v>
       </c>
-      <c r="G11" s="12">
+      <c r="G11" s="11">
         <v>131.73</v>
       </c>
-      <c r="H11" s="36">
+      <c r="H11" s="32">
         <f t="shared" si="0"/>
         <v>663</v>
       </c>
-      <c r="I11" s="36">
+      <c r="I11" s="32">
         <f t="shared" si="4"/>
         <v>100</v>
       </c>
-      <c r="J11" s="42">
+      <c r="J11" s="38">
         <f t="shared" si="1"/>
         <v>2.10105580693816</v>
       </c>
-      <c r="K11" s="43">
+      <c r="K11" s="39">
         <f t="shared" si="2"/>
         <v>0.0562818336162988</v>
       </c>
-      <c r="L11" s="44">
+      <c r="L11" s="40">
         <f t="shared" si="3"/>
         <v>0.118251273344652</v>
       </c>
-      <c r="M11" s="19" t="s">
+      <c r="M11" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="N11" s="57"/>
+      <c r="N11" s="52"/>
     </row>
     <row r="12" s="2" customFormat="1" ht="24" spans="1:13">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="B12" s="16">
+      <c r="B12" s="15">
         <v>44542</v>
       </c>
-      <c r="C12" s="12">
+      <c r="C12" s="11">
         <v>600955</v>
       </c>
-      <c r="D12" s="19" t="s">
+      <c r="D12" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="E12" s="12">
+      <c r="E12" s="11">
         <v>49.4</v>
       </c>
-      <c r="F12" s="12">
+      <c r="F12" s="11">
         <v>46.7</v>
       </c>
-      <c r="G12" s="12" t="s">
+      <c r="G12" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="H12" s="36">
+      <c r="H12" s="32">
         <f t="shared" si="0"/>
         <v>270</v>
       </c>
-      <c r="I12" s="36">
+      <c r="I12" s="32">
         <f t="shared" si="4"/>
         <v>300</v>
       </c>
-      <c r="J12" s="42" t="s">
+      <c r="J12" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="K12" s="43">
+      <c r="K12" s="39">
         <f t="shared" si="2"/>
         <v>0.054655870445344</v>
       </c>
-      <c r="L12" s="44" t="s">
+      <c r="L12" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="M12" s="56" t="s">
+      <c r="M12" s="51" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" ht="13" spans="1:13">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="B13" s="16">
+      <c r="B13" s="15">
         <v>44542</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="15" t="s">
+      <c r="D13" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="36">
+      <c r="E13" s="32">
         <v>37.73</v>
       </c>
-      <c r="F13" s="36">
-        <v>33.38</v>
-      </c>
-      <c r="G13" s="36">
+      <c r="F13" s="32">
+        <v>34.68</v>
+      </c>
+      <c r="G13" s="32">
         <v>46.05</v>
       </c>
-      <c r="H13" s="36">
+      <c r="H13" s="32">
         <f t="shared" si="0"/>
-        <v>434.999999999999</v>
-      </c>
-      <c r="I13" s="36">
+        <v>305</v>
+      </c>
+      <c r="I13" s="32">
+        <f t="shared" si="4"/>
+        <v>300</v>
+      </c>
+      <c r="J13" s="38">
+        <f>(G13-E13)/(E13-F13)</f>
+        <v>2.72786885245902</v>
+      </c>
+      <c r="K13" s="39">
+        <f t="shared" si="2"/>
+        <v>0.0808375298171216</v>
+      </c>
+      <c r="L13" s="40">
+        <f t="shared" ref="L13:L18" si="5">(G13-E13)/E13</f>
+        <v>0.220514179697853</v>
+      </c>
+      <c r="M13" s="17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" s="1" customFormat="1" ht="13" spans="1:13">
+      <c r="A14" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="23">
+        <v>44525</v>
+      </c>
+      <c r="C14" s="57" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" s="24">
+        <v>70.98</v>
+      </c>
+      <c r="F14" s="24">
+        <v>66.88</v>
+      </c>
+      <c r="G14" s="24">
+        <v>84.94</v>
+      </c>
+      <c r="H14" s="34">
+        <f t="shared" si="0"/>
+        <v>410.000000000001</v>
+      </c>
+      <c r="I14" s="32">
         <f t="shared" si="4"/>
         <v>200</v>
       </c>
-      <c r="J13" s="42">
-        <f t="shared" ref="J13:J18" si="5">(G13-E13)/(E13-F13)</f>
-        <v>1.91264367816092</v>
-      </c>
-      <c r="K13" s="43">
-        <f t="shared" si="2"/>
-        <v>0.115292870394911</v>
-      </c>
-      <c r="L13" s="44">
-        <f t="shared" ref="L13:L18" si="6">(G13-E13)/E13</f>
-        <v>0.220514179697853</v>
-      </c>
-      <c r="M13" s="19" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" s="1" customFormat="1" ht="13" spans="1:13">
-      <c r="A14" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="B14" s="25">
-        <v>44525</v>
-      </c>
-      <c r="C14" s="62" t="s">
-        <v>46</v>
-      </c>
-      <c r="D14" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="E14" s="26">
-        <v>70.98</v>
-      </c>
-      <c r="F14" s="26">
-        <v>66.88</v>
-      </c>
-      <c r="G14" s="26">
-        <v>84.94</v>
-      </c>
-      <c r="H14" s="38">
-        <f t="shared" si="0"/>
-        <v>410.000000000001</v>
-      </c>
-      <c r="I14" s="36">
-        <f>FLOOR(1000/(E14-F14),100)</f>
-        <v>200</v>
-      </c>
-      <c r="J14" s="42">
-        <f t="shared" si="5"/>
+      <c r="J14" s="38">
+        <f t="shared" ref="J14:J19" si="6">(G14-E14)/(E14-F14)</f>
         <v>3.40487804878048</v>
       </c>
-      <c r="K14" s="43">
+      <c r="K14" s="39">
         <f t="shared" ref="K14:K18" si="7">(E14-F14)/E14</f>
         <v>0.0577627500704425</v>
       </c>
-      <c r="L14" s="45">
-        <f t="shared" si="6"/>
+      <c r="L14" s="41">
+        <f t="shared" si="5"/>
         <v>0.196675119752043</v>
       </c>
-      <c r="M14" s="58" t="s">
+      <c r="M14" s="53" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" ht="13" spans="1:13">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="B15" s="25">
+      <c r="B15" s="23">
         <v>44529</v>
       </c>
-      <c r="C15" s="27">
+      <c r="C15" s="24">
         <v>603010</v>
       </c>
-      <c r="D15" s="19" t="s">
+      <c r="D15" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="E15" s="26">
+      <c r="E15" s="24">
         <v>29.77</v>
       </c>
-      <c r="F15" s="26">
+      <c r="F15" s="24">
         <v>27.72</v>
       </c>
-      <c r="G15" s="26">
+      <c r="G15" s="24">
         <v>34.93</v>
       </c>
-      <c r="H15" s="38">
+      <c r="H15" s="34">
         <f t="shared" si="0"/>
         <v>205</v>
       </c>
-      <c r="I15" s="26">
-        <f t="shared" ref="I15:I17" si="8">FLOOR(300/(E15-F15),100)</f>
-        <v>100</v>
-      </c>
-      <c r="J15" s="46">
-        <f t="shared" si="5"/>
+      <c r="I15" s="32">
+        <f t="shared" si="4"/>
+        <v>400</v>
+      </c>
+      <c r="J15" s="38">
+        <f t="shared" si="6"/>
         <v>2.51707317073171</v>
       </c>
-      <c r="K15" s="47">
+      <c r="K15" s="42">
         <f t="shared" si="7"/>
         <v>0.0688612697346322</v>
       </c>
-      <c r="L15" s="45">
-        <f t="shared" si="6"/>
+      <c r="L15" s="41">
+        <f t="shared" si="5"/>
         <v>0.173328854551562</v>
       </c>
-      <c r="M15" s="58" t="s">
+      <c r="M15" s="53" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" ht="13" spans="1:13">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="B16" s="25">
+      <c r="B16" s="23">
         <v>44522</v>
       </c>
-      <c r="C16" s="27">
+      <c r="C16" s="24">
         <v>605016</v>
       </c>
-      <c r="D16" s="19" t="s">
+      <c r="D16" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="E16" s="26">
+      <c r="E16" s="24">
         <v>30.66</v>
       </c>
-      <c r="F16" s="26">
+      <c r="F16" s="24">
         <v>29.35</v>
       </c>
-      <c r="G16" s="26">
+      <c r="G16" s="24">
         <v>38.71</v>
       </c>
-      <c r="H16" s="38">
+      <c r="H16" s="34">
         <f t="shared" si="0"/>
         <v>131</v>
       </c>
-      <c r="I16" s="26">
-        <f t="shared" si="8"/>
-        <v>200</v>
-      </c>
-      <c r="J16" s="46">
-        <f t="shared" si="5"/>
+      <c r="I16" s="32">
+        <f t="shared" si="4"/>
+        <v>700</v>
+      </c>
+      <c r="J16" s="38">
+        <f t="shared" si="6"/>
         <v>6.14503816793894</v>
       </c>
-      <c r="K16" s="47">
+      <c r="K16" s="42">
         <f t="shared" si="7"/>
         <v>0.042726679712981</v>
       </c>
-      <c r="L16" s="45">
-        <f t="shared" si="6"/>
+      <c r="L16" s="41">
+        <f t="shared" si="5"/>
         <v>0.262557077625571</v>
       </c>
-      <c r="M16" s="58" t="s">
+      <c r="M16" s="53" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" ht="13" spans="1:13">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="B17" s="28">
+      <c r="B17" s="23">
         <v>44517</v>
       </c>
-      <c r="C17" s="29" t="s">
+      <c r="C17" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="D17" s="19" t="s">
+      <c r="D17" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="E17" s="38">
+      <c r="E17" s="34">
         <v>26.2</v>
       </c>
-      <c r="F17" s="38">
+      <c r="F17" s="34">
         <v>24.68</v>
       </c>
-      <c r="G17" s="38">
+      <c r="G17" s="34">
         <v>32.49</v>
       </c>
-      <c r="H17" s="38">
+      <c r="H17" s="34">
         <f t="shared" si="0"/>
         <v>152</v>
       </c>
-      <c r="I17" s="38">
-        <f t="shared" si="8"/>
-        <v>100</v>
-      </c>
-      <c r="J17" s="46">
-        <f t="shared" si="5"/>
+      <c r="I17" s="32">
+        <f t="shared" si="4"/>
+        <v>600</v>
+      </c>
+      <c r="J17" s="38">
+        <f t="shared" si="6"/>
         <v>4.13815789473685</v>
       </c>
-      <c r="K17" s="47">
+      <c r="K17" s="42">
         <f t="shared" si="7"/>
         <v>0.0580152671755725</v>
       </c>
-      <c r="L17" s="45">
-        <f t="shared" si="6"/>
+      <c r="L17" s="41">
+        <f t="shared" si="5"/>
         <v>0.240076335877863</v>
       </c>
-      <c r="M17" s="58" t="s">
+      <c r="M17" s="53" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" ht="13" spans="1:13">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="B18" s="25">
+      <c r="B18" s="23">
         <v>44533</v>
       </c>
-      <c r="C18" s="62" t="s">
+      <c r="C18" s="57" t="s">
         <v>56</v>
       </c>
-      <c r="D18" s="19" t="s">
+      <c r="D18" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="E18" s="26">
+      <c r="E18" s="24">
         <v>28.82</v>
       </c>
-      <c r="F18" s="26">
+      <c r="F18" s="24">
         <v>26.31</v>
       </c>
-      <c r="G18" s="26">
+      <c r="G18" s="24">
         <v>32.36</v>
       </c>
-      <c r="H18" s="38">
+      <c r="H18" s="34">
         <f t="shared" si="0"/>
         <v>251</v>
       </c>
-      <c r="I18" s="26">
-        <f>FLOOR(304/(E18-F18),100)</f>
-        <v>100</v>
-      </c>
-      <c r="J18" s="46">
-        <f t="shared" si="5"/>
+      <c r="I18" s="32">
+        <f t="shared" si="4"/>
+        <v>300</v>
+      </c>
+      <c r="J18" s="38">
+        <f t="shared" si="6"/>
         <v>1.41035856573705</v>
       </c>
-      <c r="K18" s="47">
+      <c r="K18" s="42">
         <f t="shared" si="7"/>
         <v>0.0870922970159612</v>
       </c>
-      <c r="L18" s="45">
+      <c r="L18" s="41">
+        <f t="shared" si="5"/>
+        <v>0.122831367106176</v>
+      </c>
+      <c r="M18" s="53" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" s="2" customFormat="1" ht="13" spans="1:13">
+      <c r="A19" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" s="28">
+        <v>38.89</v>
+      </c>
+      <c r="F19" s="28">
+        <v>36.65</v>
+      </c>
+      <c r="G19" s="28">
+        <v>40.7</v>
+      </c>
+      <c r="H19" s="34">
+        <f>(E19-F19)*100</f>
+        <v>224</v>
+      </c>
+      <c r="I19" s="32">
+        <f t="shared" si="4"/>
+        <v>400</v>
+      </c>
+      <c r="J19" s="38">
         <f t="shared" si="6"/>
-        <v>0.122831367106176</v>
-      </c>
-      <c r="M18" s="58" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" s="2" customFormat="1" spans="1:13">
-      <c r="A19" s="30"/>
-      <c r="B19" s="31"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="39"/>
-      <c r="I19" s="30"/>
-      <c r="J19" s="48"/>
-      <c r="K19" s="49"/>
-      <c r="L19" s="50"/>
-      <c r="M19" s="59"/>
-    </row>
-    <row r="20" s="2" customFormat="1" spans="1:13">
-      <c r="A20" s="30"/>
-      <c r="B20" s="31"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="30"/>
-      <c r="H20" s="39"/>
-      <c r="I20" s="30"/>
-      <c r="J20" s="48"/>
-      <c r="K20" s="49"/>
-      <c r="L20" s="50"/>
-      <c r="M20" s="59"/>
+        <v>0.808035714285715</v>
+      </c>
+      <c r="K19" s="42">
+        <f>(E19-F19)/E19</f>
+        <v>0.0575983543327334</v>
+      </c>
+      <c r="L19" s="41">
+        <f>(G19-E19)/E19</f>
+        <v>0.0465415273849319</v>
+      </c>
+      <c r="M19" s="54"/>
+    </row>
+    <row r="20" s="2" customFormat="1" ht="13" spans="1:13">
+      <c r="A20" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="B20" s="26"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="35"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="43"/>
+      <c r="K20" s="44"/>
+      <c r="L20" s="45"/>
+      <c r="M20" s="54"/>
     </row>
     <row r="21" s="2" customFormat="1" spans="1:13">
-      <c r="A21" s="30"/>
-      <c r="B21" s="31"/>
-      <c r="C21" s="32"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="30"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="30"/>
-      <c r="H21" s="39"/>
-      <c r="I21" s="30"/>
-      <c r="J21" s="48"/>
-      <c r="K21" s="49"/>
-      <c r="L21" s="50"/>
-      <c r="M21" s="59"/>
+      <c r="A21" s="28"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="35"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="43"/>
+      <c r="K21" s="44"/>
+      <c r="L21" s="45"/>
+      <c r="M21" s="54"/>
     </row>
     <row r="22" s="2" customFormat="1" spans="1:13">
-      <c r="A22" s="30"/>
-      <c r="B22" s="31"/>
-      <c r="C22" s="32"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="30"/>
-      <c r="F22" s="30"/>
-      <c r="G22" s="30"/>
-      <c r="H22" s="39"/>
-      <c r="I22" s="30"/>
-      <c r="J22" s="48"/>
-      <c r="K22" s="49"/>
-      <c r="L22" s="50"/>
-      <c r="M22" s="59"/>
+      <c r="A22" s="28"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="35"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="43"/>
+      <c r="K22" s="44"/>
+      <c r="L22" s="45"/>
+      <c r="M22" s="54"/>
     </row>
     <row r="23" s="2" customFormat="1" spans="1:13">
-      <c r="A23" s="30"/>
-      <c r="B23" s="31"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="30"/>
-      <c r="F23" s="30"/>
-      <c r="G23" s="30"/>
-      <c r="H23" s="39"/>
-      <c r="I23" s="30"/>
-      <c r="J23" s="48"/>
-      <c r="K23" s="49"/>
-      <c r="L23" s="50"/>
-      <c r="M23" s="30"/>
+      <c r="A23" s="28"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="35"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="43"/>
+      <c r="K23" s="44"/>
+      <c r="L23" s="45"/>
+      <c r="M23" s="28"/>
     </row>
     <row r="24" s="2" customFormat="1" spans="1:13">
-      <c r="A24" s="30"/>
-      <c r="B24" s="31"/>
-      <c r="C24" s="32"/>
-      <c r="D24" s="30"/>
-      <c r="E24" s="30"/>
-      <c r="F24" s="30"/>
-      <c r="G24" s="30"/>
-      <c r="H24" s="39"/>
-      <c r="I24" s="30"/>
-      <c r="J24" s="48"/>
-      <c r="K24" s="49"/>
-      <c r="L24" s="50"/>
-      <c r="M24" s="30"/>
+      <c r="A24" s="28"/>
+      <c r="B24" s="26"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="35"/>
+      <c r="I24" s="28"/>
+      <c r="J24" s="43"/>
+      <c r="K24" s="44"/>
+      <c r="L24" s="45"/>
+      <c r="M24" s="28"/>
     </row>
     <row r="25" s="2" customFormat="1" spans="1:13">
-      <c r="A25" s="30"/>
-      <c r="B25" s="31"/>
-      <c r="C25" s="32"/>
-      <c r="D25" s="30"/>
-      <c r="E25" s="30"/>
-      <c r="F25" s="30"/>
-      <c r="G25" s="30"/>
-      <c r="H25" s="39"/>
-      <c r="I25" s="30"/>
-      <c r="J25" s="48"/>
-      <c r="K25" s="49"/>
-      <c r="L25" s="50"/>
-      <c r="M25" s="30"/>
+      <c r="A25" s="28"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="35"/>
+      <c r="I25" s="28"/>
+      <c r="J25" s="43"/>
+      <c r="K25" s="44"/>
+      <c r="L25" s="45"/>
+      <c r="M25" s="28"/>
     </row>
     <row r="26" s="2" customFormat="1" spans="1:13">
-      <c r="A26" s="30"/>
-      <c r="B26" s="31"/>
-      <c r="C26" s="32"/>
-      <c r="D26" s="30"/>
-      <c r="E26" s="30"/>
-      <c r="F26" s="30"/>
-      <c r="G26" s="30"/>
-      <c r="H26" s="39"/>
-      <c r="I26" s="30"/>
-      <c r="J26" s="48"/>
-      <c r="K26" s="49"/>
-      <c r="L26" s="50"/>
-      <c r="M26" s="30"/>
+      <c r="A26" s="28"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="35"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="43"/>
+      <c r="K26" s="44"/>
+      <c r="L26" s="45"/>
+      <c r="M26" s="28"/>
     </row>
     <row r="27" s="2" customFormat="1" spans="1:13">
-      <c r="A27" s="30"/>
-      <c r="B27" s="31"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="30"/>
-      <c r="G27" s="30"/>
-      <c r="H27" s="39"/>
-      <c r="I27" s="30"/>
-      <c r="J27" s="48"/>
-      <c r="K27" s="49"/>
-      <c r="L27" s="50"/>
-      <c r="M27" s="59"/>
+      <c r="A27" s="28"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="28"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="35"/>
+      <c r="I27" s="28"/>
+      <c r="J27" s="43"/>
+      <c r="K27" s="44"/>
+      <c r="L27" s="45"/>
+      <c r="M27" s="54"/>
     </row>
     <row r="28" spans="1:13">
-      <c r="A28" s="33"/>
-      <c r="B28" s="31"/>
-      <c r="C28" s="34"/>
-      <c r="D28" s="33"/>
-      <c r="E28" s="33"/>
-      <c r="F28" s="33"/>
-      <c r="G28" s="33"/>
-      <c r="H28" s="33"/>
-      <c r="I28" s="33"/>
-      <c r="J28" s="33"/>
-      <c r="K28" s="49"/>
-      <c r="L28" s="51"/>
-      <c r="M28" s="59"/>
+      <c r="A28" s="29"/>
+      <c r="B28" s="26"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="29"/>
+      <c r="H28" s="29"/>
+      <c r="I28" s="29"/>
+      <c r="J28" s="29"/>
+      <c r="K28" s="44"/>
+      <c r="L28" s="46"/>
+      <c r="M28" s="54"/>
     </row>
     <row r="29" spans="1:13">
-      <c r="A29" s="33"/>
-      <c r="B29" s="31"/>
-      <c r="C29" s="33"/>
-      <c r="D29" s="33"/>
-      <c r="E29" s="33"/>
-      <c r="F29" s="33"/>
-      <c r="G29" s="33"/>
-      <c r="H29" s="33"/>
-      <c r="I29" s="33"/>
-      <c r="J29" s="33"/>
-      <c r="K29" s="49"/>
-      <c r="L29" s="51"/>
-      <c r="M29" s="33"/>
+      <c r="A29" s="29"/>
+      <c r="B29" s="26"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="29"/>
+      <c r="H29" s="29"/>
+      <c r="I29" s="29"/>
+      <c r="J29" s="29"/>
+      <c r="K29" s="44"/>
+      <c r="L29" s="46"/>
+      <c r="M29" s="29"/>
     </row>
     <row r="30" spans="1:13">
-      <c r="A30" s="33"/>
-      <c r="B30" s="33"/>
-      <c r="C30" s="33"/>
-      <c r="D30" s="33"/>
-      <c r="E30" s="33"/>
-      <c r="F30" s="33"/>
-      <c r="G30" s="33"/>
-      <c r="H30" s="33"/>
-      <c r="I30" s="33"/>
-      <c r="J30" s="33"/>
-      <c r="K30" s="49"/>
-      <c r="L30" s="51"/>
-      <c r="M30" s="33"/>
+      <c r="A30" s="29"/>
+      <c r="B30" s="29"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="29"/>
+      <c r="E30" s="29"/>
+      <c r="F30" s="29"/>
+      <c r="G30" s="29"/>
+      <c r="H30" s="29"/>
+      <c r="I30" s="29"/>
+      <c r="J30" s="29"/>
+      <c r="K30" s="44"/>
+      <c r="L30" s="46"/>
+      <c r="M30" s="29"/>
     </row>
     <row r="31" spans="1:13">
-      <c r="A31" s="33"/>
-      <c r="B31" s="33"/>
-      <c r="C31" s="33"/>
-      <c r="D31" s="33"/>
-      <c r="E31" s="33"/>
-      <c r="F31" s="33"/>
-      <c r="G31" s="33"/>
-      <c r="H31" s="33"/>
-      <c r="I31" s="33"/>
-      <c r="J31" s="33"/>
-      <c r="K31" s="49"/>
-      <c r="L31" s="51"/>
-      <c r="M31" s="33"/>
+      <c r="A31" s="29"/>
+      <c r="B31" s="29"/>
+      <c r="C31" s="29"/>
+      <c r="D31" s="29"/>
+      <c r="E31" s="29"/>
+      <c r="F31" s="29"/>
+      <c r="G31" s="29"/>
+      <c r="H31" s="29"/>
+      <c r="I31" s="29"/>
+      <c r="J31" s="29"/>
+      <c r="K31" s="44"/>
+      <c r="L31" s="46"/>
+      <c r="M31" s="29"/>
     </row>
     <row r="32" spans="1:13">
-      <c r="A32" s="33"/>
-      <c r="B32" s="33"/>
-      <c r="C32" s="33"/>
-      <c r="D32" s="33"/>
-      <c r="E32" s="33"/>
-      <c r="F32" s="33"/>
-      <c r="G32" s="33"/>
-      <c r="H32" s="33"/>
-      <c r="I32" s="33"/>
-      <c r="J32" s="33"/>
-      <c r="K32" s="49"/>
-      <c r="L32" s="51"/>
-      <c r="M32" s="33"/>
+      <c r="A32" s="29"/>
+      <c r="B32" s="29"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="29"/>
+      <c r="E32" s="29"/>
+      <c r="F32" s="29"/>
+      <c r="G32" s="29"/>
+      <c r="H32" s="29"/>
+      <c r="I32" s="29"/>
+      <c r="J32" s="29"/>
+      <c r="K32" s="44"/>
+      <c r="L32" s="46"/>
+      <c r="M32" s="29"/>
     </row>
     <row r="33" spans="1:13">
-      <c r="A33" s="33"/>
-      <c r="B33" s="33"/>
-      <c r="C33" s="33"/>
-      <c r="D33" s="33"/>
-      <c r="E33" s="33"/>
-      <c r="F33" s="33"/>
-      <c r="G33" s="33"/>
-      <c r="H33" s="33"/>
-      <c r="I33" s="33"/>
-      <c r="J33" s="33"/>
-      <c r="K33" s="49"/>
-      <c r="L33" s="51"/>
-      <c r="M33" s="33"/>
+      <c r="A33" s="29"/>
+      <c r="B33" s="29"/>
+      <c r="C33" s="29"/>
+      <c r="D33" s="29"/>
+      <c r="E33" s="29"/>
+      <c r="F33" s="29"/>
+      <c r="G33" s="29"/>
+      <c r="H33" s="29"/>
+      <c r="I33" s="29"/>
+      <c r="J33" s="29"/>
+      <c r="K33" s="44"/>
+      <c r="L33" s="46"/>
+      <c r="M33" s="29"/>
     </row>
     <row r="34" spans="1:13">
-      <c r="A34" s="33"/>
-      <c r="B34" s="33"/>
-      <c r="C34" s="33"/>
-      <c r="D34" s="33"/>
-      <c r="E34" s="33"/>
-      <c r="F34" s="33"/>
-      <c r="G34" s="33"/>
-      <c r="H34" s="33"/>
-      <c r="I34" s="33"/>
-      <c r="J34" s="33"/>
-      <c r="K34" s="49"/>
-      <c r="L34" s="51"/>
-      <c r="M34" s="33"/>
+      <c r="A34" s="29"/>
+      <c r="B34" s="29"/>
+      <c r="C34" s="29"/>
+      <c r="D34" s="29"/>
+      <c r="E34" s="29"/>
+      <c r="F34" s="29"/>
+      <c r="G34" s="29"/>
+      <c r="H34" s="29"/>
+      <c r="I34" s="29"/>
+      <c r="J34" s="29"/>
+      <c r="K34" s="44"/>
+      <c r="L34" s="46"/>
+      <c r="M34" s="29"/>
     </row>
     <row r="35" spans="1:13">
-      <c r="A35" s="33"/>
-      <c r="B35" s="33"/>
-      <c r="C35" s="33"/>
-      <c r="D35" s="33"/>
-      <c r="E35" s="33"/>
-      <c r="F35" s="33"/>
-      <c r="G35" s="33"/>
-      <c r="H35" s="33"/>
-      <c r="I35" s="33"/>
-      <c r="J35" s="33"/>
-      <c r="K35" s="49"/>
-      <c r="L35" s="51"/>
-      <c r="M35" s="33"/>
+      <c r="A35" s="29"/>
+      <c r="B35" s="29"/>
+      <c r="C35" s="29"/>
+      <c r="D35" s="29"/>
+      <c r="E35" s="29"/>
+      <c r="F35" s="29"/>
+      <c r="G35" s="29"/>
+      <c r="H35" s="29"/>
+      <c r="I35" s="29"/>
+      <c r="J35" s="29"/>
+      <c r="K35" s="44"/>
+      <c r="L35" s="46"/>
+      <c r="M35" s="29"/>
     </row>
     <row r="36" spans="1:13">
-      <c r="A36" s="33"/>
-      <c r="B36" s="33"/>
-      <c r="C36" s="33"/>
-      <c r="D36" s="33"/>
-      <c r="E36" s="33"/>
-      <c r="F36" s="33"/>
-      <c r="G36" s="33"/>
-      <c r="H36" s="33"/>
-      <c r="I36" s="33"/>
-      <c r="J36" s="33"/>
-      <c r="K36" s="49"/>
-      <c r="L36" s="51"/>
-      <c r="M36" s="33"/>
+      <c r="A36" s="29"/>
+      <c r="B36" s="29"/>
+      <c r="C36" s="29"/>
+      <c r="D36" s="29"/>
+      <c r="E36" s="29"/>
+      <c r="F36" s="29"/>
+      <c r="G36" s="29"/>
+      <c r="H36" s="29"/>
+      <c r="I36" s="29"/>
+      <c r="J36" s="29"/>
+      <c r="K36" s="44"/>
+      <c r="L36" s="46"/>
+      <c r="M36" s="29"/>
     </row>
     <row r="37" spans="1:13">
-      <c r="A37" s="33"/>
-      <c r="B37" s="33"/>
-      <c r="C37" s="33"/>
-      <c r="D37" s="33"/>
-      <c r="E37" s="33"/>
-      <c r="F37" s="33"/>
-      <c r="G37" s="33"/>
-      <c r="H37" s="33"/>
-      <c r="I37" s="33"/>
-      <c r="J37" s="33"/>
-      <c r="K37" s="49"/>
-      <c r="L37" s="51"/>
-      <c r="M37" s="33"/>
+      <c r="A37" s="29"/>
+      <c r="B37" s="29"/>
+      <c r="C37" s="29"/>
+      <c r="D37" s="29"/>
+      <c r="E37" s="29"/>
+      <c r="F37" s="29"/>
+      <c r="G37" s="29"/>
+      <c r="H37" s="29"/>
+      <c r="I37" s="29"/>
+      <c r="J37" s="29"/>
+      <c r="K37" s="44"/>
+      <c r="L37" s="46"/>
+      <c r="M37" s="29"/>
     </row>
     <row r="38" spans="1:13">
-      <c r="A38" s="33"/>
-      <c r="B38" s="33"/>
-      <c r="C38" s="33"/>
-      <c r="D38" s="33"/>
-      <c r="E38" s="33"/>
-      <c r="F38" s="33"/>
-      <c r="G38" s="33"/>
-      <c r="H38" s="33"/>
-      <c r="I38" s="33"/>
-      <c r="J38" s="33"/>
-      <c r="K38" s="49"/>
-      <c r="L38" s="51"/>
-      <c r="M38" s="33"/>
+      <c r="A38" s="29"/>
+      <c r="B38" s="29"/>
+      <c r="C38" s="29"/>
+      <c r="D38" s="29"/>
+      <c r="E38" s="29"/>
+      <c r="F38" s="29"/>
+      <c r="G38" s="29"/>
+      <c r="H38" s="29"/>
+      <c r="I38" s="29"/>
+      <c r="J38" s="29"/>
+      <c r="K38" s="44"/>
+      <c r="L38" s="46"/>
+      <c r="M38" s="29"/>
     </row>
     <row r="39" spans="1:13">
-      <c r="A39" s="33"/>
-      <c r="B39" s="33"/>
-      <c r="C39" s="33"/>
-      <c r="D39" s="33"/>
-      <c r="E39" s="33"/>
-      <c r="F39" s="33"/>
-      <c r="G39" s="33"/>
-      <c r="H39" s="33"/>
-      <c r="I39" s="33"/>
-      <c r="J39" s="33"/>
-      <c r="K39" s="49"/>
-      <c r="L39" s="51"/>
-      <c r="M39" s="33"/>
+      <c r="A39" s="29"/>
+      <c r="B39" s="29"/>
+      <c r="C39" s="29"/>
+      <c r="D39" s="29"/>
+      <c r="E39" s="29"/>
+      <c r="F39" s="29"/>
+      <c r="G39" s="29"/>
+      <c r="H39" s="29"/>
+      <c r="I39" s="29"/>
+      <c r="J39" s="29"/>
+      <c r="K39" s="44"/>
+      <c r="L39" s="46"/>
+      <c r="M39" s="29"/>
     </row>
     <row r="40" spans="1:13">
-      <c r="A40" s="33"/>
-      <c r="B40" s="33"/>
-      <c r="C40" s="33"/>
-      <c r="D40" s="33"/>
-      <c r="E40" s="33"/>
-      <c r="F40" s="33"/>
-      <c r="G40" s="33"/>
-      <c r="H40" s="33"/>
-      <c r="I40" s="33"/>
-      <c r="J40" s="33"/>
-      <c r="K40" s="49"/>
-      <c r="L40" s="51"/>
-      <c r="M40" s="33"/>
+      <c r="A40" s="29"/>
+      <c r="B40" s="29"/>
+      <c r="C40" s="29"/>
+      <c r="D40" s="29"/>
+      <c r="E40" s="29"/>
+      <c r="F40" s="29"/>
+      <c r="G40" s="29"/>
+      <c r="H40" s="29"/>
+      <c r="I40" s="29"/>
+      <c r="J40" s="29"/>
+      <c r="K40" s="44"/>
+      <c r="L40" s="46"/>
+      <c r="M40" s="29"/>
     </row>
     <row r="41" spans="1:13">
-      <c r="A41" s="33"/>
-      <c r="B41" s="33"/>
-      <c r="C41" s="33"/>
-      <c r="D41" s="33"/>
-      <c r="E41" s="33"/>
-      <c r="F41" s="33"/>
-      <c r="G41" s="33"/>
-      <c r="H41" s="33"/>
-      <c r="I41" s="33"/>
-      <c r="J41" s="33"/>
-      <c r="K41" s="49"/>
-      <c r="L41" s="51"/>
-      <c r="M41" s="33"/>
+      <c r="A41" s="29"/>
+      <c r="B41" s="29"/>
+      <c r="C41" s="29"/>
+      <c r="D41" s="29"/>
+      <c r="E41" s="29"/>
+      <c r="F41" s="29"/>
+      <c r="G41" s="29"/>
+      <c r="H41" s="29"/>
+      <c r="I41" s="29"/>
+      <c r="J41" s="29"/>
+      <c r="K41" s="44"/>
+      <c r="L41" s="46"/>
+      <c r="M41" s="29"/>
     </row>
     <row r="42" spans="1:13">
-      <c r="A42" s="33"/>
-      <c r="B42" s="33"/>
-      <c r="C42" s="33"/>
-      <c r="D42" s="33"/>
-      <c r="E42" s="33"/>
-      <c r="F42" s="33"/>
-      <c r="G42" s="33"/>
-      <c r="H42" s="33"/>
-      <c r="I42" s="33"/>
-      <c r="J42" s="33"/>
-      <c r="K42" s="49"/>
-      <c r="L42" s="51"/>
-      <c r="M42" s="33"/>
+      <c r="A42" s="29"/>
+      <c r="B42" s="29"/>
+      <c r="C42" s="29"/>
+      <c r="D42" s="29"/>
+      <c r="E42" s="29"/>
+      <c r="F42" s="29"/>
+      <c r="G42" s="29"/>
+      <c r="H42" s="29"/>
+      <c r="I42" s="29"/>
+      <c r="J42" s="29"/>
+      <c r="K42" s="44"/>
+      <c r="L42" s="46"/>
+      <c r="M42" s="29"/>
     </row>
     <row r="43" spans="1:13">
-      <c r="A43" s="33"/>
-      <c r="B43" s="33"/>
-      <c r="C43" s="33"/>
-      <c r="D43" s="33"/>
-      <c r="E43" s="33"/>
-      <c r="F43" s="33"/>
-      <c r="G43" s="33"/>
-      <c r="H43" s="33"/>
-      <c r="I43" s="33"/>
-      <c r="J43" s="33"/>
-      <c r="K43" s="49"/>
-      <c r="L43" s="51"/>
-      <c r="M43" s="33"/>
+      <c r="A43" s="29"/>
+      <c r="B43" s="29"/>
+      <c r="C43" s="29"/>
+      <c r="D43" s="29"/>
+      <c r="E43" s="29"/>
+      <c r="F43" s="29"/>
+      <c r="G43" s="29"/>
+      <c r="H43" s="29"/>
+      <c r="I43" s="29"/>
+      <c r="J43" s="29"/>
+      <c r="K43" s="44"/>
+      <c r="L43" s="46"/>
+      <c r="M43" s="29"/>
     </row>
     <row r="44" spans="1:13">
-      <c r="A44" s="33"/>
-      <c r="B44" s="33"/>
-      <c r="C44" s="33"/>
-      <c r="D44" s="33"/>
-      <c r="E44" s="33"/>
-      <c r="F44" s="33"/>
-      <c r="G44" s="33"/>
-      <c r="H44" s="33"/>
-      <c r="I44" s="33"/>
-      <c r="J44" s="33"/>
-      <c r="K44" s="49"/>
-      <c r="L44" s="51"/>
-      <c r="M44" s="33"/>
+      <c r="A44" s="29"/>
+      <c r="B44" s="29"/>
+      <c r="C44" s="29"/>
+      <c r="D44" s="29"/>
+      <c r="E44" s="29"/>
+      <c r="F44" s="29"/>
+      <c r="G44" s="29"/>
+      <c r="H44" s="29"/>
+      <c r="I44" s="29"/>
+      <c r="J44" s="29"/>
+      <c r="K44" s="44"/>
+      <c r="L44" s="46"/>
+      <c r="M44" s="29"/>
     </row>
     <row r="45" spans="1:13">
-      <c r="A45" s="33"/>
-      <c r="B45" s="33"/>
-      <c r="C45" s="33"/>
-      <c r="D45" s="33"/>
-      <c r="E45" s="33"/>
-      <c r="F45" s="33"/>
-      <c r="G45" s="33"/>
-      <c r="H45" s="33"/>
-      <c r="I45" s="33"/>
-      <c r="J45" s="33"/>
-      <c r="K45" s="49"/>
-      <c r="L45" s="51"/>
-      <c r="M45" s="33"/>
+      <c r="A45" s="29"/>
+      <c r="B45" s="29"/>
+      <c r="C45" s="29"/>
+      <c r="D45" s="29"/>
+      <c r="E45" s="29"/>
+      <c r="F45" s="29"/>
+      <c r="G45" s="29"/>
+      <c r="H45" s="29"/>
+      <c r="I45" s="29"/>
+      <c r="J45" s="29"/>
+      <c r="K45" s="44"/>
+      <c r="L45" s="46"/>
+      <c r="M45" s="29"/>
     </row>
     <row r="46" ht="13" spans="1:13">
-      <c r="A46" s="63" t="s">
-        <v>58</v>
-      </c>
-      <c r="B46" s="33"/>
+      <c r="A46" s="58" t="s">
+        <v>61</v>
+      </c>
+      <c r="B46" s="29"/>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
@@ -3714,8 +3738,8 @@
       <c r="H46" s="3"/>
       <c r="I46" s="3"/>
       <c r="J46" s="3"/>
-      <c r="K46" s="52"/>
-      <c r="M46" s="33"/>
+      <c r="K46" s="47"/>
+      <c r="M46" s="29"/>
     </row>
     <row r="47" spans="1:11">
       <c r="A47" s="3"/>
@@ -3727,7 +3751,7 @@
       <c r="H47" s="3"/>
       <c r="I47" s="3"/>
       <c r="J47" s="3"/>
-      <c r="K47" s="52"/>
+      <c r="K47" s="47"/>
     </row>
     <row r="48" spans="1:11">
       <c r="A48" s="3"/>
@@ -3739,7 +3763,7 @@
       <c r="H48" s="3"/>
       <c r="I48" s="3"/>
       <c r="J48" s="3"/>
-      <c r="K48" s="52"/>
+      <c r="K48" s="47"/>
     </row>
     <row r="49" spans="1:11">
       <c r="A49" s="3"/>
@@ -3751,7 +3775,7 @@
       <c r="H49" s="3"/>
       <c r="I49" s="3"/>
       <c r="J49" s="3"/>
-      <c r="K49" s="52"/>
+      <c r="K49" s="47"/>
     </row>
     <row r="50" spans="1:11">
       <c r="A50" s="3"/>
@@ -3763,7 +3787,7 @@
       <c r="H50" s="3"/>
       <c r="I50" s="3"/>
       <c r="J50" s="3"/>
-      <c r="K50" s="52"/>
+      <c r="K50" s="47"/>
     </row>
     <row r="51" spans="1:11">
       <c r="A51" s="3"/>
@@ -3775,7 +3799,7 @@
       <c r="H51" s="3"/>
       <c r="I51" s="3"/>
       <c r="J51" s="3"/>
-      <c r="K51" s="52"/>
+      <c r="K51" s="47"/>
     </row>
     <row r="52" spans="1:11">
       <c r="A52" s="3"/>
@@ -3787,7 +3811,7 @@
       <c r="H52" s="3"/>
       <c r="I52" s="3"/>
       <c r="J52" s="3"/>
-      <c r="K52" s="52"/>
+      <c r="K52" s="47"/>
     </row>
     <row r="53" spans="1:11">
       <c r="A53" s="3"/>
@@ -3799,7 +3823,7 @@
       <c r="H53" s="3"/>
       <c r="I53" s="3"/>
       <c r="J53" s="3"/>
-      <c r="K53" s="52"/>
+      <c r="K53" s="47"/>
     </row>
     <row r="54" spans="1:11">
       <c r="A54" s="3"/>
@@ -3811,7 +3835,7 @@
       <c r="H54" s="3"/>
       <c r="I54" s="3"/>
       <c r="J54" s="3"/>
-      <c r="K54" s="52"/>
+      <c r="K54" s="47"/>
     </row>
     <row r="55" spans="1:11">
       <c r="A55" s="3"/>
@@ -3823,7 +3847,7 @@
       <c r="H55" s="3"/>
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
-      <c r="K55" s="52"/>
+      <c r="K55" s="47"/>
     </row>
     <row r="56" spans="1:11">
       <c r="A56" s="3"/>
@@ -3835,7 +3859,7 @@
       <c r="H56" s="3"/>
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
-      <c r="K56" s="52"/>
+      <c r="K56" s="47"/>
     </row>
     <row r="57" spans="1:11">
       <c r="A57" s="3"/>
@@ -3847,7 +3871,7 @@
       <c r="H57" s="3"/>
       <c r="I57" s="3"/>
       <c r="J57" s="3"/>
-      <c r="K57" s="52"/>
+      <c r="K57" s="47"/>
     </row>
     <row r="58" spans="1:11">
       <c r="A58" s="3"/>
@@ -3859,7 +3883,7 @@
       <c r="H58" s="3"/>
       <c r="I58" s="3"/>
       <c r="J58" s="3"/>
-      <c r="K58" s="52"/>
+      <c r="K58" s="47"/>
     </row>
     <row r="59" spans="1:11">
       <c r="A59" s="3"/>
@@ -3871,7 +3895,7 @@
       <c r="H59" s="3"/>
       <c r="I59" s="3"/>
       <c r="J59" s="3"/>
-      <c r="K59" s="52"/>
+      <c r="K59" s="47"/>
     </row>
     <row r="60" spans="1:11">
       <c r="A60" s="3"/>
@@ -3883,7 +3907,7 @@
       <c r="H60" s="3"/>
       <c r="I60" s="3"/>
       <c r="J60" s="3"/>
-      <c r="K60" s="52"/>
+      <c r="K60" s="47"/>
     </row>
     <row r="61" spans="1:11">
       <c r="A61" s="3"/>
@@ -3895,7 +3919,7 @@
       <c r="H61" s="3"/>
       <c r="I61" s="3"/>
       <c r="J61" s="3"/>
-      <c r="K61" s="52"/>
+      <c r="K61" s="47"/>
     </row>
     <row r="62" spans="1:11">
       <c r="A62" s="3"/>
@@ -3907,7 +3931,7 @@
       <c r="H62" s="3"/>
       <c r="I62" s="3"/>
       <c r="J62" s="3"/>
-      <c r="K62" s="52"/>
+      <c r="K62" s="47"/>
     </row>
     <row r="63" spans="1:11">
       <c r="A63" s="3"/>
@@ -3919,7 +3943,7 @@
       <c r="H63" s="3"/>
       <c r="I63" s="3"/>
       <c r="J63" s="3"/>
-      <c r="K63" s="52"/>
+      <c r="K63" s="47"/>
     </row>
     <row r="64" spans="1:11">
       <c r="A64" s="3"/>
@@ -3931,7 +3955,7 @@
       <c r="H64" s="3"/>
       <c r="I64" s="3"/>
       <c r="J64" s="3"/>
-      <c r="K64" s="52"/>
+      <c r="K64" s="47"/>
     </row>
     <row r="65" spans="1:11">
       <c r="A65" s="3"/>
@@ -3943,7 +3967,7 @@
       <c r="H65" s="3"/>
       <c r="I65" s="3"/>
       <c r="J65" s="3"/>
-      <c r="K65" s="52"/>
+      <c r="K65" s="47"/>
     </row>
     <row r="66" spans="1:11">
       <c r="A66" s="3"/>
@@ -3955,7 +3979,7 @@
       <c r="H66" s="3"/>
       <c r="I66" s="3"/>
       <c r="J66" s="3"/>
-      <c r="K66" s="52"/>
+      <c r="K66" s="47"/>
     </row>
     <row r="67" spans="1:11">
       <c r="A67" s="3"/>
@@ -3967,7 +3991,7 @@
       <c r="H67" s="3"/>
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
-      <c r="K67" s="52"/>
+      <c r="K67" s="47"/>
     </row>
     <row r="68" spans="1:11">
       <c r="A68" s="3"/>
@@ -3979,7 +4003,7 @@
       <c r="H68" s="3"/>
       <c r="I68" s="3"/>
       <c r="J68" s="3"/>
-      <c r="K68" s="52"/>
+      <c r="K68" s="47"/>
     </row>
     <row r="69" spans="1:11">
       <c r="A69" s="3"/>
@@ -3991,7 +4015,7 @@
       <c r="H69" s="3"/>
       <c r="I69" s="3"/>
       <c r="J69" s="3"/>
-      <c r="K69" s="52"/>
+      <c r="K69" s="47"/>
     </row>
     <row r="70" spans="1:11">
       <c r="A70" s="3"/>
@@ -4003,7 +4027,7 @@
       <c r="H70" s="3"/>
       <c r="I70" s="3"/>
       <c r="J70" s="3"/>
-      <c r="K70" s="52"/>
+      <c r="K70" s="47"/>
     </row>
     <row r="71" spans="1:11">
       <c r="A71" s="3"/>
@@ -4015,7 +4039,7 @@
       <c r="H71" s="3"/>
       <c r="I71" s="3"/>
       <c r="J71" s="3"/>
-      <c r="K71" s="52"/>
+      <c r="K71" s="47"/>
     </row>
     <row r="72" spans="1:11">
       <c r="A72" s="3"/>
@@ -4027,7 +4051,7 @@
       <c r="H72" s="3"/>
       <c r="I72" s="3"/>
       <c r="J72" s="3"/>
-      <c r="K72" s="52"/>
+      <c r="K72" s="47"/>
     </row>
     <row r="73" spans="1:11">
       <c r="A73" s="3"/>
@@ -4039,7 +4063,7 @@
       <c r="H73" s="3"/>
       <c r="I73" s="3"/>
       <c r="J73" s="3"/>
-      <c r="K73" s="52"/>
+      <c r="K73" s="47"/>
     </row>
     <row r="74" spans="1:11">
       <c r="A74" s="3"/>
@@ -4051,7 +4075,7 @@
       <c r="H74" s="3"/>
       <c r="I74" s="3"/>
       <c r="J74" s="3"/>
-      <c r="K74" s="52"/>
+      <c r="K74" s="47"/>
     </row>
     <row r="75" spans="1:11">
       <c r="A75" s="3"/>
@@ -4063,7 +4087,7 @@
       <c r="H75" s="3"/>
       <c r="I75" s="3"/>
       <c r="J75" s="3"/>
-      <c r="K75" s="52"/>
+      <c r="K75" s="47"/>
     </row>
     <row r="76" spans="1:11">
       <c r="A76" s="3"/>
@@ -4075,7 +4099,7 @@
       <c r="H76" s="3"/>
       <c r="I76" s="3"/>
       <c r="J76" s="3"/>
-      <c r="K76" s="52"/>
+      <c r="K76" s="47"/>
     </row>
     <row r="77" spans="1:11">
       <c r="A77" s="3"/>
@@ -4087,7 +4111,7 @@
       <c r="H77" s="3"/>
       <c r="I77" s="3"/>
       <c r="J77" s="3"/>
-      <c r="K77" s="52"/>
+      <c r="K77" s="47"/>
     </row>
     <row r="78" spans="1:11">
       <c r="A78" s="3"/>
@@ -4099,7 +4123,7 @@
       <c r="H78" s="3"/>
       <c r="I78" s="3"/>
       <c r="J78" s="3"/>
-      <c r="K78" s="52"/>
+      <c r="K78" s="47"/>
     </row>
     <row r="79" spans="1:11">
       <c r="A79" s="3"/>
@@ -4111,7 +4135,7 @@
       <c r="H79" s="3"/>
       <c r="I79" s="3"/>
       <c r="J79" s="3"/>
-      <c r="K79" s="52"/>
+      <c r="K79" s="47"/>
     </row>
     <row r="80" spans="1:11">
       <c r="A80" s="3"/>
@@ -4123,7 +4147,7 @@
       <c r="H80" s="3"/>
       <c r="I80" s="3"/>
       <c r="J80" s="3"/>
-      <c r="K80" s="52"/>
+      <c r="K80" s="47"/>
     </row>
     <row r="81" spans="1:11">
       <c r="A81" s="3"/>
@@ -4135,7 +4159,7 @@
       <c r="H81" s="3"/>
       <c r="I81" s="3"/>
       <c r="J81" s="3"/>
-      <c r="K81" s="52"/>
+      <c r="K81" s="47"/>
     </row>
     <row r="82" spans="1:11">
       <c r="A82" s="3"/>
@@ -4147,7 +4171,7 @@
       <c r="H82" s="3"/>
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
-      <c r="K82" s="52"/>
+      <c r="K82" s="47"/>
     </row>
     <row r="83" spans="1:11">
       <c r="A83" s="3"/>
@@ -4159,7 +4183,7 @@
       <c r="H83" s="3"/>
       <c r="I83" s="3"/>
       <c r="J83" s="3"/>
-      <c r="K83" s="52"/>
+      <c r="K83" s="47"/>
     </row>
     <row r="84" spans="1:11">
       <c r="A84" s="3"/>
@@ -4171,7 +4195,7 @@
       <c r="H84" s="3"/>
       <c r="I84" s="3"/>
       <c r="J84" s="3"/>
-      <c r="K84" s="52"/>
+      <c r="K84" s="47"/>
     </row>
     <row r="85" spans="1:11">
       <c r="A85" s="3"/>
@@ -4183,7 +4207,7 @@
       <c r="H85" s="3"/>
       <c r="I85" s="3"/>
       <c r="J85" s="3"/>
-      <c r="K85" s="52"/>
+      <c r="K85" s="47"/>
     </row>
     <row r="86" spans="1:11">
       <c r="A86" s="3"/>
@@ -4195,7 +4219,7 @@
       <c r="H86" s="3"/>
       <c r="I86" s="3"/>
       <c r="J86" s="3"/>
-      <c r="K86" s="52"/>
+      <c r="K86" s="47"/>
     </row>
     <row r="87" spans="1:11">
       <c r="A87" s="3"/>
@@ -4207,7 +4231,7 @@
       <c r="H87" s="3"/>
       <c r="I87" s="3"/>
       <c r="J87" s="3"/>
-      <c r="K87" s="52"/>
+      <c r="K87" s="47"/>
     </row>
     <row r="88" spans="1:11">
       <c r="A88" s="3"/>
@@ -4219,7 +4243,7 @@
       <c r="H88" s="3"/>
       <c r="I88" s="3"/>
       <c r="J88" s="3"/>
-      <c r="K88" s="52"/>
+      <c r="K88" s="47"/>
     </row>
     <row r="89" spans="1:11">
       <c r="A89" s="3"/>
@@ -4231,7 +4255,7 @@
       <c r="H89" s="3"/>
       <c r="I89" s="3"/>
       <c r="J89" s="3"/>
-      <c r="K89" s="52"/>
+      <c r="K89" s="47"/>
     </row>
     <row r="90" spans="1:11">
       <c r="A90" s="3"/>
@@ -4243,7 +4267,7 @@
       <c r="H90" s="3"/>
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
-      <c r="K90" s="52"/>
+      <c r="K90" s="47"/>
     </row>
     <row r="91" spans="1:11">
       <c r="A91" s="3"/>
@@ -4255,7 +4279,7 @@
       <c r="H91" s="3"/>
       <c r="I91" s="3"/>
       <c r="J91" s="3"/>
-      <c r="K91" s="52"/>
+      <c r="K91" s="47"/>
     </row>
     <row r="92" spans="1:11">
       <c r="A92" s="3"/>
@@ -4267,7 +4291,7 @@
       <c r="H92" s="3"/>
       <c r="I92" s="3"/>
       <c r="J92" s="3"/>
-      <c r="K92" s="52"/>
+      <c r="K92" s="47"/>
     </row>
     <row r="93" spans="1:11">
       <c r="A93" s="3"/>
@@ -4279,7 +4303,7 @@
       <c r="H93" s="3"/>
       <c r="I93" s="3"/>
       <c r="J93" s="3"/>
-      <c r="K93" s="52"/>
+      <c r="K93" s="47"/>
     </row>
     <row r="94" spans="1:11">
       <c r="A94" s="3"/>
@@ -4291,7 +4315,7 @@
       <c r="H94" s="3"/>
       <c r="I94" s="3"/>
       <c r="J94" s="3"/>
-      <c r="K94" s="52"/>
+      <c r="K94" s="47"/>
     </row>
     <row r="95" spans="1:11">
       <c r="A95" s="3"/>
@@ -4303,7 +4327,7 @@
       <c r="H95" s="3"/>
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
-      <c r="K95" s="52"/>
+      <c r="K95" s="47"/>
     </row>
     <row r="96" spans="1:11">
       <c r="A96" s="3"/>
@@ -4315,7 +4339,7 @@
       <c r="H96" s="3"/>
       <c r="I96" s="3"/>
       <c r="J96" s="3"/>
-      <c r="K96" s="52"/>
+      <c r="K96" s="47"/>
     </row>
     <row r="97" spans="1:11">
       <c r="A97" s="3"/>
@@ -4327,7 +4351,7 @@
       <c r="H97" s="3"/>
       <c r="I97" s="3"/>
       <c r="J97" s="3"/>
-      <c r="K97" s="52"/>
+      <c r="K97" s="47"/>
     </row>
     <row r="98" spans="1:11">
       <c r="A98" s="3"/>
@@ -4339,7 +4363,7 @@
       <c r="H98" s="3"/>
       <c r="I98" s="3"/>
       <c r="J98" s="3"/>
-      <c r="K98" s="52"/>
+      <c r="K98" s="47"/>
     </row>
     <row r="99" spans="1:11">
       <c r="A99" s="3"/>
@@ -4351,7 +4375,7 @@
       <c r="H99" s="3"/>
       <c r="I99" s="3"/>
       <c r="J99" s="3"/>
-      <c r="K99" s="52"/>
+      <c r="K99" s="47"/>
     </row>
     <row r="100" spans="1:11">
       <c r="A100" s="3"/>
@@ -4363,7 +4387,7 @@
       <c r="H100" s="3"/>
       <c r="I100" s="3"/>
       <c r="J100" s="3"/>
-      <c r="K100" s="52"/>
+      <c r="K100" s="47"/>
     </row>
     <row r="101" spans="1:11">
       <c r="A101" s="3"/>
@@ -4375,7 +4399,7 @@
       <c r="H101" s="3"/>
       <c r="I101" s="3"/>
       <c r="J101" s="3"/>
-      <c r="K101" s="52"/>
+      <c r="K101" s="47"/>
     </row>
     <row r="102" spans="1:11">
       <c r="A102" s="3"/>
@@ -4387,7 +4411,7 @@
       <c r="H102" s="3"/>
       <c r="I102" s="3"/>
       <c r="J102" s="3"/>
-      <c r="K102" s="52"/>
+      <c r="K102" s="47"/>
     </row>
     <row r="103" spans="1:11">
       <c r="A103" s="3"/>
@@ -4399,7 +4423,7 @@
       <c r="H103" s="3"/>
       <c r="I103" s="3"/>
       <c r="J103" s="3"/>
-      <c r="K103" s="52"/>
+      <c r="K103" s="47"/>
     </row>
     <row r="104" spans="1:11">
       <c r="A104" s="3"/>
@@ -4411,7 +4435,7 @@
       <c r="H104" s="3"/>
       <c r="I104" s="3"/>
       <c r="J104" s="3"/>
-      <c r="K104" s="52"/>
+      <c r="K104" s="47"/>
     </row>
     <row r="105" spans="1:11">
       <c r="A105" s="3"/>
@@ -4423,7 +4447,7 @@
       <c r="H105" s="3"/>
       <c r="I105" s="3"/>
       <c r="J105" s="3"/>
-      <c r="K105" s="52"/>
+      <c r="K105" s="47"/>
     </row>
     <row r="106" spans="1:11">
       <c r="A106" s="3"/>
@@ -4435,7 +4459,7 @@
       <c r="H106" s="3"/>
       <c r="I106" s="3"/>
       <c r="J106" s="3"/>
-      <c r="K106" s="52"/>
+      <c r="K106" s="47"/>
     </row>
     <row r="107" spans="1:11">
       <c r="A107" s="3"/>
@@ -4447,7 +4471,7 @@
       <c r="H107" s="3"/>
       <c r="I107" s="3"/>
       <c r="J107" s="3"/>
-      <c r="K107" s="52"/>
+      <c r="K107" s="47"/>
     </row>
     <row r="108" spans="1:11">
       <c r="A108" s="3"/>
@@ -4459,7 +4483,7 @@
       <c r="H108" s="3"/>
       <c r="I108" s="3"/>
       <c r="J108" s="3"/>
-      <c r="K108" s="52"/>
+      <c r="K108" s="47"/>
     </row>
     <row r="109" spans="1:11">
       <c r="A109" s="3"/>
@@ -4471,7 +4495,7 @@
       <c r="H109" s="3"/>
       <c r="I109" s="3"/>
       <c r="J109" s="3"/>
-      <c r="K109" s="52"/>
+      <c r="K109" s="47"/>
     </row>
     <row r="110" spans="1:11">
       <c r="A110" s="3"/>
@@ -4483,7 +4507,7 @@
       <c r="H110" s="3"/>
       <c r="I110" s="3"/>
       <c r="J110" s="3"/>
-      <c r="K110" s="52"/>
+      <c r="K110" s="47"/>
     </row>
     <row r="111" spans="1:11">
       <c r="A111" s="3"/>
@@ -4495,7 +4519,7 @@
       <c r="H111" s="3"/>
       <c r="I111" s="3"/>
       <c r="J111" s="3"/>
-      <c r="K111" s="52"/>
+      <c r="K111" s="47"/>
     </row>
     <row r="112" spans="1:11">
       <c r="A112" s="3"/>
@@ -4507,7 +4531,7 @@
       <c r="H112" s="3"/>
       <c r="I112" s="3"/>
       <c r="J112" s="3"/>
-      <c r="K112" s="52"/>
+      <c r="K112" s="47"/>
     </row>
     <row r="113" spans="1:11">
       <c r="A113" s="3"/>
@@ -4519,7 +4543,7 @@
       <c r="H113" s="3"/>
       <c r="I113" s="3"/>
       <c r="J113" s="3"/>
-      <c r="K113" s="52"/>
+      <c r="K113" s="47"/>
     </row>
     <row r="114" spans="1:11">
       <c r="A114" s="3"/>
@@ -4531,7 +4555,7 @@
       <c r="H114" s="3"/>
       <c r="I114" s="3"/>
       <c r="J114" s="3"/>
-      <c r="K114" s="52"/>
+      <c r="K114" s="47"/>
     </row>
     <row r="115" spans="1:11">
       <c r="A115" s="3"/>
@@ -4543,7 +4567,7 @@
       <c r="H115" s="3"/>
       <c r="I115" s="3"/>
       <c r="J115" s="3"/>
-      <c r="K115" s="52"/>
+      <c r="K115" s="47"/>
     </row>
     <row r="116" spans="1:11">
       <c r="A116" s="3"/>
@@ -4555,7 +4579,7 @@
       <c r="H116" s="3"/>
       <c r="I116" s="3"/>
       <c r="J116" s="3"/>
-      <c r="K116" s="52"/>
+      <c r="K116" s="47"/>
     </row>
     <row r="117" spans="1:11">
       <c r="A117" s="3"/>
@@ -4567,7 +4591,7 @@
       <c r="H117" s="3"/>
       <c r="I117" s="3"/>
       <c r="J117" s="3"/>
-      <c r="K117" s="52"/>
+      <c r="K117" s="47"/>
     </row>
     <row r="118" spans="1:11">
       <c r="A118" s="3"/>
@@ -4579,7 +4603,7 @@
       <c r="H118" s="3"/>
       <c r="I118" s="3"/>
       <c r="J118" s="3"/>
-      <c r="K118" s="52"/>
+      <c r="K118" s="47"/>
     </row>
     <row r="119" spans="1:11">
       <c r="A119" s="3"/>
@@ -4591,7 +4615,7 @@
       <c r="H119" s="3"/>
       <c r="I119" s="3"/>
       <c r="J119" s="3"/>
-      <c r="K119" s="52"/>
+      <c r="K119" s="47"/>
     </row>
     <row r="120" spans="1:11">
       <c r="A120" s="3"/>
@@ -4603,7 +4627,7 @@
       <c r="H120" s="3"/>
       <c r="I120" s="3"/>
       <c r="J120" s="3"/>
-      <c r="K120" s="52"/>
+      <c r="K120" s="47"/>
     </row>
     <row r="121" spans="1:11">
       <c r="A121" s="3"/>
@@ -4615,7 +4639,7 @@
       <c r="H121" s="3"/>
       <c r="I121" s="3"/>
       <c r="J121" s="3"/>
-      <c r="K121" s="52"/>
+      <c r="K121" s="47"/>
     </row>
     <row r="122" spans="1:11">
       <c r="A122" s="3"/>
@@ -4627,7 +4651,7 @@
       <c r="H122" s="3"/>
       <c r="I122" s="3"/>
       <c r="J122" s="3"/>
-      <c r="K122" s="52"/>
+      <c r="K122" s="47"/>
     </row>
     <row r="123" spans="1:11">
       <c r="A123" s="3"/>
@@ -4639,7 +4663,7 @@
       <c r="H123" s="3"/>
       <c r="I123" s="3"/>
       <c r="J123" s="3"/>
-      <c r="K123" s="52"/>
+      <c r="K123" s="47"/>
     </row>
     <row r="124" spans="1:11">
       <c r="A124" s="3"/>
@@ -4651,7 +4675,7 @@
       <c r="H124" s="3"/>
       <c r="I124" s="3"/>
       <c r="J124" s="3"/>
-      <c r="K124" s="52"/>
+      <c r="K124" s="47"/>
     </row>
     <row r="125" spans="1:11">
       <c r="A125" s="3"/>
@@ -4663,7 +4687,7 @@
       <c r="H125" s="3"/>
       <c r="I125" s="3"/>
       <c r="J125" s="3"/>
-      <c r="K125" s="52"/>
+      <c r="K125" s="47"/>
     </row>
     <row r="126" spans="1:11">
       <c r="A126" s="3"/>
@@ -4675,7 +4699,7 @@
       <c r="H126" s="3"/>
       <c r="I126" s="3"/>
       <c r="J126" s="3"/>
-      <c r="K126" s="52"/>
+      <c r="K126" s="47"/>
     </row>
     <row r="127" spans="1:11">
       <c r="A127" s="3"/>
@@ -4687,7 +4711,7 @@
       <c r="H127" s="3"/>
       <c r="I127" s="3"/>
       <c r="J127" s="3"/>
-      <c r="K127" s="52"/>
+      <c r="K127" s="47"/>
     </row>
     <row r="128" spans="1:11">
       <c r="A128" s="3"/>
@@ -4699,7 +4723,7 @@
       <c r="H128" s="3"/>
       <c r="I128" s="3"/>
       <c r="J128" s="3"/>
-      <c r="K128" s="52"/>
+      <c r="K128" s="47"/>
     </row>
     <row r="129" spans="1:11">
       <c r="A129" s="3"/>
@@ -4711,7 +4735,7 @@
       <c r="H129" s="3"/>
       <c r="I129" s="3"/>
       <c r="J129" s="3"/>
-      <c r="K129" s="52"/>
+      <c r="K129" s="47"/>
     </row>
     <row r="130" spans="1:11">
       <c r="A130" s="3"/>
@@ -4723,7 +4747,7 @@
       <c r="H130" s="3"/>
       <c r="I130" s="3"/>
       <c r="J130" s="3"/>
-      <c r="K130" s="52"/>
+      <c r="K130" s="47"/>
     </row>
     <row r="131" spans="1:11">
       <c r="A131" s="3"/>
@@ -4735,7 +4759,7 @@
       <c r="H131" s="3"/>
       <c r="I131" s="3"/>
       <c r="J131" s="3"/>
-      <c r="K131" s="52"/>
+      <c r="K131" s="47"/>
     </row>
     <row r="132" spans="1:11">
       <c r="A132" s="3"/>
@@ -4747,7 +4771,7 @@
       <c r="H132" s="3"/>
       <c r="I132" s="3"/>
       <c r="J132" s="3"/>
-      <c r="K132" s="52"/>
+      <c r="K132" s="47"/>
     </row>
     <row r="133" spans="1:11">
       <c r="A133" s="3"/>
@@ -4759,7 +4783,7 @@
       <c r="H133" s="3"/>
       <c r="I133" s="3"/>
       <c r="J133" s="3"/>
-      <c r="K133" s="52"/>
+      <c r="K133" s="47"/>
     </row>
     <row r="134" spans="1:11">
       <c r="A134" s="3"/>
@@ -4771,7 +4795,7 @@
       <c r="H134" s="3"/>
       <c r="I134" s="3"/>
       <c r="J134" s="3"/>
-      <c r="K134" s="52"/>
+      <c r="K134" s="47"/>
     </row>
     <row r="135" spans="1:11">
       <c r="A135" s="3"/>
@@ -4783,7 +4807,7 @@
       <c r="H135" s="3"/>
       <c r="I135" s="3"/>
       <c r="J135" s="3"/>
-      <c r="K135" s="52"/>
+      <c r="K135" s="47"/>
     </row>
     <row r="136" spans="1:11">
       <c r="A136" s="3"/>
@@ -4795,7 +4819,7 @@
       <c r="H136" s="3"/>
       <c r="I136" s="3"/>
       <c r="J136" s="3"/>
-      <c r="K136" s="52"/>
+      <c r="K136" s="47"/>
     </row>
     <row r="137" spans="1:11">
       <c r="A137" s="3"/>
@@ -4807,7 +4831,7 @@
       <c r="H137" s="3"/>
       <c r="I137" s="3"/>
       <c r="J137" s="3"/>
-      <c r="K137" s="52"/>
+      <c r="K137" s="47"/>
     </row>
     <row r="138" spans="1:11">
       <c r="A138" s="3"/>
@@ -4819,7 +4843,7 @@
       <c r="H138" s="3"/>
       <c r="I138" s="3"/>
       <c r="J138" s="3"/>
-      <c r="K138" s="52"/>
+      <c r="K138" s="47"/>
     </row>
     <row r="139" spans="1:11">
       <c r="A139" s="3"/>
@@ -4831,7 +4855,7 @@
       <c r="H139" s="3"/>
       <c r="I139" s="3"/>
       <c r="J139" s="3"/>
-      <c r="K139" s="52"/>
+      <c r="K139" s="47"/>
     </row>
     <row r="140" spans="1:11">
       <c r="A140" s="3"/>
@@ -4843,7 +4867,7 @@
       <c r="H140" s="3"/>
       <c r="I140" s="3"/>
       <c r="J140" s="3"/>
-      <c r="K140" s="52"/>
+      <c r="K140" s="47"/>
     </row>
     <row r="141" spans="1:11">
       <c r="A141" s="3"/>
@@ -4855,7 +4879,7 @@
       <c r="H141" s="3"/>
       <c r="I141" s="3"/>
       <c r="J141" s="3"/>
-      <c r="K141" s="52"/>
+      <c r="K141" s="47"/>
     </row>
     <row r="142" spans="1:11">
       <c r="A142" s="3"/>
@@ -4867,7 +4891,7 @@
       <c r="H142" s="3"/>
       <c r="I142" s="3"/>
       <c r="J142" s="3"/>
-      <c r="K142" s="52"/>
+      <c r="K142" s="47"/>
     </row>
     <row r="143" spans="1:11">
       <c r="A143" s="3"/>
@@ -4879,7 +4903,7 @@
       <c r="H143" s="3"/>
       <c r="I143" s="3"/>
       <c r="J143" s="3"/>
-      <c r="K143" s="52"/>
+      <c r="K143" s="47"/>
     </row>
     <row r="144" spans="1:11">
       <c r="A144" s="3"/>
@@ -4891,7 +4915,7 @@
       <c r="H144" s="3"/>
       <c r="I144" s="3"/>
       <c r="J144" s="3"/>
-      <c r="K144" s="52"/>
+      <c r="K144" s="47"/>
     </row>
     <row r="145" spans="1:11">
       <c r="A145" s="3"/>
@@ -4903,7 +4927,7 @@
       <c r="H145" s="3"/>
       <c r="I145" s="3"/>
       <c r="J145" s="3"/>
-      <c r="K145" s="52"/>
+      <c r="K145" s="47"/>
     </row>
     <row r="146" spans="1:11">
       <c r="A146" s="3"/>
@@ -4915,7 +4939,7 @@
       <c r="H146" s="3"/>
       <c r="I146" s="3"/>
       <c r="J146" s="3"/>
-      <c r="K146" s="52"/>
+      <c r="K146" s="47"/>
     </row>
     <row r="147" spans="1:11">
       <c r="A147" s="3"/>
@@ -4927,7 +4951,7 @@
       <c r="H147" s="3"/>
       <c r="I147" s="3"/>
       <c r="J147" s="3"/>
-      <c r="K147" s="52"/>
+      <c r="K147" s="47"/>
     </row>
     <row r="148" spans="1:11">
       <c r="A148" s="3"/>
@@ -4939,7 +4963,7 @@
       <c r="H148" s="3"/>
       <c r="I148" s="3"/>
       <c r="J148" s="3"/>
-      <c r="K148" s="52"/>
+      <c r="K148" s="47"/>
     </row>
     <row r="149" spans="1:11">
       <c r="A149" s="3"/>
@@ -4951,7 +4975,7 @@
       <c r="H149" s="3"/>
       <c r="I149" s="3"/>
       <c r="J149" s="3"/>
-      <c r="K149" s="52"/>
+      <c r="K149" s="47"/>
     </row>
     <row r="150" spans="1:11">
       <c r="A150" s="3"/>
@@ -4963,7 +4987,7 @@
       <c r="H150" s="3"/>
       <c r="I150" s="3"/>
       <c r="J150" s="3"/>
-      <c r="K150" s="52"/>
+      <c r="K150" s="47"/>
     </row>
     <row r="151" spans="1:11">
       <c r="A151" s="3"/>
@@ -4975,7 +4999,7 @@
       <c r="H151" s="3"/>
       <c r="I151" s="3"/>
       <c r="J151" s="3"/>
-      <c r="K151" s="52"/>
+      <c r="K151" s="47"/>
     </row>
     <row r="152" spans="1:11">
       <c r="A152" s="3"/>
@@ -4987,7 +5011,7 @@
       <c r="H152" s="3"/>
       <c r="I152" s="3"/>
       <c r="J152" s="3"/>
-      <c r="K152" s="52"/>
+      <c r="K152" s="47"/>
     </row>
     <row r="153" spans="1:11">
       <c r="A153" s="3"/>
@@ -4999,7 +5023,7 @@
       <c r="H153" s="3"/>
       <c r="I153" s="3"/>
       <c r="J153" s="3"/>
-      <c r="K153" s="52"/>
+      <c r="K153" s="47"/>
     </row>
     <row r="154" spans="1:11">
       <c r="A154" s="3"/>
@@ -5011,7 +5035,7 @@
       <c r="H154" s="3"/>
       <c r="I154" s="3"/>
       <c r="J154" s="3"/>
-      <c r="K154" s="52"/>
+      <c r="K154" s="47"/>
     </row>
     <row r="155" spans="1:11">
       <c r="A155" s="3"/>
@@ -5023,7 +5047,7 @@
       <c r="H155" s="3"/>
       <c r="I155" s="3"/>
       <c r="J155" s="3"/>
-      <c r="K155" s="52"/>
+      <c r="K155" s="47"/>
     </row>
     <row r="156" spans="1:11">
       <c r="A156" s="3"/>
@@ -5035,7 +5059,7 @@
       <c r="H156" s="3"/>
       <c r="I156" s="3"/>
       <c r="J156" s="3"/>
-      <c r="K156" s="52"/>
+      <c r="K156" s="47"/>
     </row>
     <row r="157" spans="1:11">
       <c r="A157" s="3"/>
@@ -5047,7 +5071,7 @@
       <c r="H157" s="3"/>
       <c r="I157" s="3"/>
       <c r="J157" s="3"/>
-      <c r="K157" s="52"/>
+      <c r="K157" s="47"/>
     </row>
     <row r="158" spans="1:11">
       <c r="A158" s="3"/>
@@ -5059,7 +5083,7 @@
       <c r="H158" s="3"/>
       <c r="I158" s="3"/>
       <c r="J158" s="3"/>
-      <c r="K158" s="52"/>
+      <c r="K158" s="47"/>
     </row>
     <row r="159" spans="1:11">
       <c r="A159" s="3"/>
@@ -5071,7 +5095,7 @@
       <c r="H159" s="3"/>
       <c r="I159" s="3"/>
       <c r="J159" s="3"/>
-      <c r="K159" s="52"/>
+      <c r="K159" s="47"/>
     </row>
     <row r="160" spans="1:11">
       <c r="A160" s="3"/>
@@ -5083,7 +5107,7 @@
       <c r="H160" s="3"/>
       <c r="I160" s="3"/>
       <c r="J160" s="3"/>
-      <c r="K160" s="52"/>
+      <c r="K160" s="47"/>
     </row>
     <row r="161" spans="1:11">
       <c r="A161" s="3"/>
@@ -5095,7 +5119,7 @@
       <c r="H161" s="3"/>
       <c r="I161" s="3"/>
       <c r="J161" s="3"/>
-      <c r="K161" s="52"/>
+      <c r="K161" s="47"/>
     </row>
     <row r="162" spans="1:11">
       <c r="A162" s="3"/>
@@ -5107,7 +5131,7 @@
       <c r="H162" s="3"/>
       <c r="I162" s="3"/>
       <c r="J162" s="3"/>
-      <c r="K162" s="52"/>
+      <c r="K162" s="47"/>
     </row>
     <row r="163" spans="1:11">
       <c r="A163" s="3"/>
@@ -5119,7 +5143,7 @@
       <c r="H163" s="3"/>
       <c r="I163" s="3"/>
       <c r="J163" s="3"/>
-      <c r="K163" s="52"/>
+      <c r="K163" s="47"/>
     </row>
     <row r="164" spans="1:11">
       <c r="A164" s="3"/>
@@ -5131,7 +5155,7 @@
       <c r="H164" s="3"/>
       <c r="I164" s="3"/>
       <c r="J164" s="3"/>
-      <c r="K164" s="52"/>
+      <c r="K164" s="47"/>
     </row>
     <row r="165" spans="1:11">
       <c r="A165" s="3"/>
@@ -5143,7 +5167,7 @@
       <c r="H165" s="3"/>
       <c r="I165" s="3"/>
       <c r="J165" s="3"/>
-      <c r="K165" s="52"/>
+      <c r="K165" s="47"/>
     </row>
     <row r="166" spans="1:11">
       <c r="A166" s="3"/>
@@ -5155,7 +5179,7 @@
       <c r="H166" s="3"/>
       <c r="I166" s="3"/>
       <c r="J166" s="3"/>
-      <c r="K166" s="52"/>
+      <c r="K166" s="47"/>
     </row>
     <row r="167" spans="1:11">
       <c r="A167" s="3"/>
@@ -5167,7 +5191,7 @@
       <c r="H167" s="3"/>
       <c r="I167" s="3"/>
       <c r="J167" s="3"/>
-      <c r="K167" s="52"/>
+      <c r="K167" s="47"/>
     </row>
     <row r="168" spans="1:11">
       <c r="A168" s="3"/>
@@ -5179,7 +5203,7 @@
       <c r="H168" s="3"/>
       <c r="I168" s="3"/>
       <c r="J168" s="3"/>
-      <c r="K168" s="52"/>
+      <c r="K168" s="47"/>
     </row>
     <row r="169" spans="1:11">
       <c r="A169" s="3"/>
@@ -5191,7 +5215,7 @@
       <c r="H169" s="3"/>
       <c r="I169" s="3"/>
       <c r="J169" s="3"/>
-      <c r="K169" s="52"/>
+      <c r="K169" s="47"/>
     </row>
     <row r="170" spans="1:11">
       <c r="A170" s="3"/>
@@ -5203,7 +5227,7 @@
       <c r="H170" s="3"/>
       <c r="I170" s="3"/>
       <c r="J170" s="3"/>
-      <c r="K170" s="52"/>
+      <c r="K170" s="47"/>
     </row>
     <row r="171" spans="1:11">
       <c r="A171" s="3"/>
@@ -5215,7 +5239,7 @@
       <c r="H171" s="3"/>
       <c r="I171" s="3"/>
       <c r="J171" s="3"/>
-      <c r="K171" s="52"/>
+      <c r="K171" s="47"/>
     </row>
     <row r="172" spans="1:11">
       <c r="A172" s="3"/>
@@ -5227,7 +5251,7 @@
       <c r="H172" s="3"/>
       <c r="I172" s="3"/>
       <c r="J172" s="3"/>
-      <c r="K172" s="52"/>
+      <c r="K172" s="47"/>
     </row>
     <row r="173" spans="1:11">
       <c r="A173" s="3"/>
@@ -5239,7 +5263,7 @@
       <c r="H173" s="3"/>
       <c r="I173" s="3"/>
       <c r="J173" s="3"/>
-      <c r="K173" s="52"/>
+      <c r="K173" s="47"/>
     </row>
     <row r="174" spans="1:11">
       <c r="A174" s="3"/>
@@ -5251,7 +5275,7 @@
       <c r="H174" s="3"/>
       <c r="I174" s="3"/>
       <c r="J174" s="3"/>
-      <c r="K174" s="52"/>
+      <c r="K174" s="47"/>
     </row>
     <row r="175" spans="1:11">
       <c r="A175" s="3"/>
@@ -5263,7 +5287,7 @@
       <c r="H175" s="3"/>
       <c r="I175" s="3"/>
       <c r="J175" s="3"/>
-      <c r="K175" s="52"/>
+      <c r="K175" s="47"/>
     </row>
     <row r="176" spans="1:11">
       <c r="A176" s="3"/>
@@ -5275,7 +5299,7 @@
       <c r="H176" s="3"/>
       <c r="I176" s="3"/>
       <c r="J176" s="3"/>
-      <c r="K176" s="52"/>
+      <c r="K176" s="47"/>
     </row>
     <row r="177" spans="1:11">
       <c r="A177" s="3"/>
@@ -5287,7 +5311,7 @@
       <c r="H177" s="3"/>
       <c r="I177" s="3"/>
       <c r="J177" s="3"/>
-      <c r="K177" s="52"/>
+      <c r="K177" s="47"/>
     </row>
     <row r="178" spans="1:11">
       <c r="A178" s="3"/>
@@ -5299,7 +5323,7 @@
       <c r="H178" s="3"/>
       <c r="I178" s="3"/>
       <c r="J178" s="3"/>
-      <c r="K178" s="52"/>
+      <c r="K178" s="47"/>
     </row>
     <row r="179" spans="1:11">
       <c r="A179" s="3"/>
@@ -5311,7 +5335,7 @@
       <c r="H179" s="3"/>
       <c r="I179" s="3"/>
       <c r="J179" s="3"/>
-      <c r="K179" s="52"/>
+      <c r="K179" s="47"/>
     </row>
     <row r="180" spans="1:11">
       <c r="A180" s="3"/>
@@ -5323,7 +5347,7 @@
       <c r="H180" s="3"/>
       <c r="I180" s="3"/>
       <c r="J180" s="3"/>
-      <c r="K180" s="52"/>
+      <c r="K180" s="47"/>
     </row>
     <row r="181" spans="1:11">
       <c r="A181" s="3"/>
@@ -5335,7 +5359,7 @@
       <c r="H181" s="3"/>
       <c r="I181" s="3"/>
       <c r="J181" s="3"/>
-      <c r="K181" s="52"/>
+      <c r="K181" s="47"/>
     </row>
     <row r="182" spans="1:11">
       <c r="A182" s="3"/>
@@ -5347,7 +5371,7 @@
       <c r="H182" s="3"/>
       <c r="I182" s="3"/>
       <c r="J182" s="3"/>
-      <c r="K182" s="52"/>
+      <c r="K182" s="47"/>
     </row>
     <row r="183" spans="1:11">
       <c r="A183" s="3"/>
@@ -5359,7 +5383,7 @@
       <c r="H183" s="3"/>
       <c r="I183" s="3"/>
       <c r="J183" s="3"/>
-      <c r="K183" s="52"/>
+      <c r="K183" s="47"/>
     </row>
     <row r="184" spans="1:11">
       <c r="A184" s="3"/>
@@ -5371,7 +5395,7 @@
       <c r="H184" s="3"/>
       <c r="I184" s="3"/>
       <c r="J184" s="3"/>
-      <c r="K184" s="52"/>
+      <c r="K184" s="47"/>
     </row>
     <row r="185" spans="1:11">
       <c r="A185" s="3"/>
@@ -5383,7 +5407,7 @@
       <c r="H185" s="3"/>
       <c r="I185" s="3"/>
       <c r="J185" s="3"/>
-      <c r="K185" s="52"/>
+      <c r="K185" s="47"/>
     </row>
     <row r="186" spans="1:11">
       <c r="A186" s="3"/>
@@ -5395,7 +5419,7 @@
       <c r="H186" s="3"/>
       <c r="I186" s="3"/>
       <c r="J186" s="3"/>
-      <c r="K186" s="52"/>
+      <c r="K186" s="47"/>
     </row>
     <row r="187" spans="1:11">
       <c r="A187" s="3"/>
@@ -5407,7 +5431,7 @@
       <c r="H187" s="3"/>
       <c r="I187" s="3"/>
       <c r="J187" s="3"/>
-      <c r="K187" s="52"/>
+      <c r="K187" s="47"/>
     </row>
     <row r="188" spans="1:11">
       <c r="A188" s="3"/>
@@ -5419,7 +5443,7 @@
       <c r="H188" s="3"/>
       <c r="I188" s="3"/>
       <c r="J188" s="3"/>
-      <c r="K188" s="52"/>
+      <c r="K188" s="47"/>
     </row>
     <row r="189" spans="1:11">
       <c r="A189" s="3"/>
@@ -5431,7 +5455,7 @@
       <c r="H189" s="3"/>
       <c r="I189" s="3"/>
       <c r="J189" s="3"/>
-      <c r="K189" s="52"/>
+      <c r="K189" s="47"/>
     </row>
     <row r="190" spans="1:11">
       <c r="A190" s="3"/>
@@ -5443,7 +5467,7 @@
       <c r="H190" s="3"/>
       <c r="I190" s="3"/>
       <c r="J190" s="3"/>
-      <c r="K190" s="52"/>
+      <c r="K190" s="47"/>
     </row>
     <row r="191" spans="1:11">
       <c r="A191" s="3"/>
@@ -5455,7 +5479,7 @@
       <c r="H191" s="3"/>
       <c r="I191" s="3"/>
       <c r="J191" s="3"/>
-      <c r="K191" s="52"/>
+      <c r="K191" s="47"/>
     </row>
     <row r="192" spans="1:11">
       <c r="A192" s="3"/>
@@ -5467,7 +5491,7 @@
       <c r="H192" s="3"/>
       <c r="I192" s="3"/>
       <c r="J192" s="3"/>
-      <c r="K192" s="52"/>
+      <c r="K192" s="47"/>
     </row>
     <row r="193" spans="1:11">
       <c r="A193" s="3"/>
@@ -5479,7 +5503,7 @@
       <c r="H193" s="3"/>
       <c r="I193" s="3"/>
       <c r="J193" s="3"/>
-      <c r="K193" s="52"/>
+      <c r="K193" s="47"/>
     </row>
     <row r="194" spans="1:11">
       <c r="A194" s="3"/>
@@ -5491,7 +5515,7 @@
       <c r="H194" s="3"/>
       <c r="I194" s="3"/>
       <c r="J194" s="3"/>
-      <c r="K194" s="52"/>
+      <c r="K194" s="47"/>
     </row>
     <row r="195" spans="1:11">
       <c r="A195" s="3"/>
@@ -5503,7 +5527,7 @@
       <c r="H195" s="3"/>
       <c r="I195" s="3"/>
       <c r="J195" s="3"/>
-      <c r="K195" s="52"/>
+      <c r="K195" s="47"/>
     </row>
     <row r="196" spans="1:11">
       <c r="A196" s="3"/>
@@ -5515,7 +5539,7 @@
       <c r="H196" s="3"/>
       <c r="I196" s="3"/>
       <c r="J196" s="3"/>
-      <c r="K196" s="52"/>
+      <c r="K196" s="47"/>
     </row>
     <row r="197" spans="1:11">
       <c r="A197" s="3"/>
@@ -5527,7 +5551,7 @@
       <c r="H197" s="3"/>
       <c r="I197" s="3"/>
       <c r="J197" s="3"/>
-      <c r="K197" s="52"/>
+      <c r="K197" s="47"/>
     </row>
     <row r="198" spans="1:11">
       <c r="A198" s="3"/>
@@ -5539,7 +5563,7 @@
       <c r="H198" s="3"/>
       <c r="I198" s="3"/>
       <c r="J198" s="3"/>
-      <c r="K198" s="52"/>
+      <c r="K198" s="47"/>
     </row>
     <row r="199" spans="1:11">
       <c r="A199" s="3"/>
@@ -5551,7 +5575,7 @@
       <c r="H199" s="3"/>
       <c r="I199" s="3"/>
       <c r="J199" s="3"/>
-      <c r="K199" s="52"/>
+      <c r="K199" s="47"/>
     </row>
     <row r="200" spans="1:11">
       <c r="A200" s="3"/>
@@ -5563,7 +5587,7 @@
       <c r="H200" s="3"/>
       <c r="I200" s="3"/>
       <c r="J200" s="3"/>
-      <c r="K200" s="52"/>
+      <c r="K200" s="47"/>
     </row>
     <row r="201" spans="1:11">
       <c r="A201" s="3"/>
@@ -5575,7 +5599,7 @@
       <c r="H201" s="3"/>
       <c r="I201" s="3"/>
       <c r="J201" s="3"/>
-      <c r="K201" s="52"/>
+      <c r="K201" s="47"/>
     </row>
     <row r="202" spans="1:11">
       <c r="A202" s="3"/>
@@ -5587,7 +5611,7 @@
       <c r="H202" s="3"/>
       <c r="I202" s="3"/>
       <c r="J202" s="3"/>
-      <c r="K202" s="52"/>
+      <c r="K202" s="47"/>
     </row>
     <row r="203" spans="1:11">
       <c r="A203" s="3"/>
@@ -5599,7 +5623,7 @@
       <c r="H203" s="3"/>
       <c r="I203" s="3"/>
       <c r="J203" s="3"/>
-      <c r="K203" s="52"/>
+      <c r="K203" s="47"/>
     </row>
     <row r="204" spans="1:11">
       <c r="A204" s="3"/>
@@ -5611,7 +5635,7 @@
       <c r="H204" s="3"/>
       <c r="I204" s="3"/>
       <c r="J204" s="3"/>
-      <c r="K204" s="52"/>
+      <c r="K204" s="47"/>
     </row>
     <row r="205" spans="1:11">
       <c r="A205" s="3"/>
@@ -5623,7 +5647,7 @@
       <c r="H205" s="3"/>
       <c r="I205" s="3"/>
       <c r="J205" s="3"/>
-      <c r="K205" s="52"/>
+      <c r="K205" s="47"/>
     </row>
     <row r="206" spans="1:11">
       <c r="A206" s="3"/>
@@ -5635,7 +5659,7 @@
       <c r="H206" s="3"/>
       <c r="I206" s="3"/>
       <c r="J206" s="3"/>
-      <c r="K206" s="52"/>
+      <c r="K206" s="47"/>
     </row>
     <row r="207" spans="1:11">
       <c r="A207" s="3"/>
@@ -5647,7 +5671,7 @@
       <c r="H207" s="3"/>
       <c r="I207" s="3"/>
       <c r="J207" s="3"/>
-      <c r="K207" s="52"/>
+      <c r="K207" s="47"/>
     </row>
     <row r="208" spans="1:11">
       <c r="A208" s="3"/>
@@ -5659,7 +5683,7 @@
       <c r="H208" s="3"/>
       <c r="I208" s="3"/>
       <c r="J208" s="3"/>
-      <c r="K208" s="52"/>
+      <c r="K208" s="47"/>
     </row>
     <row r="209" spans="1:11">
       <c r="A209" s="3"/>
@@ -5671,7 +5695,7 @@
       <c r="H209" s="3"/>
       <c r="I209" s="3"/>
       <c r="J209" s="3"/>
-      <c r="K209" s="52"/>
+      <c r="K209" s="47"/>
     </row>
     <row r="210" spans="1:11">
       <c r="A210" s="3"/>
@@ -5683,7 +5707,7 @@
       <c r="H210" s="3"/>
       <c r="I210" s="3"/>
       <c r="J210" s="3"/>
-      <c r="K210" s="52"/>
+      <c r="K210" s="47"/>
     </row>
     <row r="211" spans="1:11">
       <c r="A211" s="3"/>
@@ -5695,7 +5719,7 @@
       <c r="H211" s="3"/>
       <c r="I211" s="3"/>
       <c r="J211" s="3"/>
-      <c r="K211" s="52"/>
+      <c r="K211" s="47"/>
     </row>
     <row r="212" spans="1:11">
       <c r="A212" s="3"/>
@@ -5707,7 +5731,7 @@
       <c r="H212" s="3"/>
       <c r="I212" s="3"/>
       <c r="J212" s="3"/>
-      <c r="K212" s="52"/>
+      <c r="K212" s="47"/>
     </row>
     <row r="213" spans="1:11">
       <c r="A213" s="3"/>
@@ -5719,7 +5743,7 @@
       <c r="H213" s="3"/>
       <c r="I213" s="3"/>
       <c r="J213" s="3"/>
-      <c r="K213" s="52"/>
+      <c r="K213" s="47"/>
     </row>
     <row r="214" spans="1:11">
       <c r="A214" s="3"/>
@@ -5731,7 +5755,7 @@
       <c r="H214" s="3"/>
       <c r="I214" s="3"/>
       <c r="J214" s="3"/>
-      <c r="K214" s="52"/>
+      <c r="K214" s="47"/>
     </row>
     <row r="215" spans="1:11">
       <c r="A215" s="3"/>
@@ -5743,7 +5767,7 @@
       <c r="H215" s="3"/>
       <c r="I215" s="3"/>
       <c r="J215" s="3"/>
-      <c r="K215" s="52"/>
+      <c r="K215" s="47"/>
     </row>
     <row r="216" spans="1:11">
       <c r="A216" s="3"/>
@@ -5755,7 +5779,7 @@
       <c r="H216" s="3"/>
       <c r="I216" s="3"/>
       <c r="J216" s="3"/>
-      <c r="K216" s="52"/>
+      <c r="K216" s="47"/>
     </row>
     <row r="217" spans="1:11">
       <c r="A217" s="3"/>
@@ -5767,7 +5791,7 @@
       <c r="H217" s="3"/>
       <c r="I217" s="3"/>
       <c r="J217" s="3"/>
-      <c r="K217" s="52"/>
+      <c r="K217" s="47"/>
     </row>
     <row r="218" spans="1:11">
       <c r="A218" s="3"/>
@@ -5779,7 +5803,7 @@
       <c r="H218" s="3"/>
       <c r="I218" s="3"/>
       <c r="J218" s="3"/>
-      <c r="K218" s="52"/>
+      <c r="K218" s="47"/>
     </row>
     <row r="219" spans="1:11">
       <c r="A219" s="3"/>
@@ -5791,7 +5815,7 @@
       <c r="H219" s="3"/>
       <c r="I219" s="3"/>
       <c r="J219" s="3"/>
-      <c r="K219" s="52"/>
+      <c r="K219" s="47"/>
     </row>
     <row r="220" spans="1:11">
       <c r="A220" s="3"/>
@@ -5803,7 +5827,7 @@
       <c r="H220" s="3"/>
       <c r="I220" s="3"/>
       <c r="J220" s="3"/>
-      <c r="K220" s="52"/>
+      <c r="K220" s="47"/>
     </row>
     <row r="221" spans="1:11">
       <c r="A221" s="3"/>
@@ -5815,7 +5839,7 @@
       <c r="H221" s="3"/>
       <c r="I221" s="3"/>
       <c r="J221" s="3"/>
-      <c r="K221" s="52"/>
+      <c r="K221" s="47"/>
     </row>
     <row r="222" spans="1:11">
       <c r="A222" s="3"/>
@@ -5827,7 +5851,7 @@
       <c r="H222" s="3"/>
       <c r="I222" s="3"/>
       <c r="J222" s="3"/>
-      <c r="K222" s="52"/>
+      <c r="K222" s="47"/>
     </row>
     <row r="223" spans="1:11">
       <c r="A223" s="3"/>
@@ -5839,7 +5863,7 @@
       <c r="H223" s="3"/>
       <c r="I223" s="3"/>
       <c r="J223" s="3"/>
-      <c r="K223" s="52"/>
+      <c r="K223" s="47"/>
     </row>
     <row r="224" spans="1:11">
       <c r="A224" s="3"/>
@@ -5851,7 +5875,7 @@
       <c r="H224" s="3"/>
       <c r="I224" s="3"/>
       <c r="J224" s="3"/>
-      <c r="K224" s="52"/>
+      <c r="K224" s="47"/>
     </row>
     <row r="225" spans="1:11">
       <c r="A225" s="3"/>
@@ -5863,7 +5887,7 @@
       <c r="H225" s="3"/>
       <c r="I225" s="3"/>
       <c r="J225" s="3"/>
-      <c r="K225" s="52"/>
+      <c r="K225" s="47"/>
     </row>
     <row r="226" spans="1:11">
       <c r="A226" s="3"/>
@@ -5875,7 +5899,7 @@
       <c r="H226" s="3"/>
       <c r="I226" s="3"/>
       <c r="J226" s="3"/>
-      <c r="K226" s="52"/>
+      <c r="K226" s="47"/>
     </row>
     <row r="227" spans="1:11">
       <c r="A227" s="3"/>
@@ -5887,7 +5911,7 @@
       <c r="H227" s="3"/>
       <c r="I227" s="3"/>
       <c r="J227" s="3"/>
-      <c r="K227" s="52"/>
+      <c r="K227" s="47"/>
     </row>
     <row r="228" spans="1:11">
       <c r="A228" s="3"/>
@@ -5899,7 +5923,7 @@
       <c r="H228" s="3"/>
       <c r="I228" s="3"/>
       <c r="J228" s="3"/>
-      <c r="K228" s="52"/>
+      <c r="K228" s="47"/>
     </row>
     <row r="229" spans="1:11">
       <c r="A229" s="3"/>
@@ -5911,7 +5935,7 @@
       <c r="H229" s="3"/>
       <c r="I229" s="3"/>
       <c r="J229" s="3"/>
-      <c r="K229" s="52"/>
+      <c r="K229" s="47"/>
     </row>
     <row r="230" spans="1:11">
       <c r="A230" s="3"/>
@@ -5923,7 +5947,7 @@
       <c r="H230" s="3"/>
       <c r="I230" s="3"/>
       <c r="J230" s="3"/>
-      <c r="K230" s="52"/>
+      <c r="K230" s="47"/>
     </row>
     <row r="231" spans="1:11">
       <c r="A231" s="3"/>
@@ -5935,7 +5959,7 @@
       <c r="H231" s="3"/>
       <c r="I231" s="3"/>
       <c r="J231" s="3"/>
-      <c r="K231" s="52"/>
+      <c r="K231" s="47"/>
     </row>
     <row r="232" spans="1:11">
       <c r="A232" s="3"/>
@@ -5947,7 +5971,7 @@
       <c r="H232" s="3"/>
       <c r="I232" s="3"/>
       <c r="J232" s="3"/>
-      <c r="K232" s="52"/>
+      <c r="K232" s="47"/>
     </row>
     <row r="233" spans="1:11">
       <c r="A233" s="3"/>
@@ -5959,7 +5983,7 @@
       <c r="H233" s="3"/>
       <c r="I233" s="3"/>
       <c r="J233" s="3"/>
-      <c r="K233" s="52"/>
+      <c r="K233" s="47"/>
     </row>
     <row r="234" spans="1:11">
       <c r="A234" s="3"/>
@@ -5971,7 +5995,7 @@
       <c r="H234" s="3"/>
       <c r="I234" s="3"/>
       <c r="J234" s="3"/>
-      <c r="K234" s="52"/>
+      <c r="K234" s="47"/>
     </row>
     <row r="235" spans="1:11">
       <c r="A235" s="3"/>
@@ -5983,7 +6007,7 @@
       <c r="H235" s="3"/>
       <c r="I235" s="3"/>
       <c r="J235" s="3"/>
-      <c r="K235" s="52"/>
+      <c r="K235" s="47"/>
     </row>
     <row r="236" spans="1:11">
       <c r="A236" s="3"/>
@@ -5995,7 +6019,7 @@
       <c r="H236" s="3"/>
       <c r="I236" s="3"/>
       <c r="J236" s="3"/>
-      <c r="K236" s="52"/>
+      <c r="K236" s="47"/>
     </row>
     <row r="237" spans="1:11">
       <c r="A237" s="3"/>
@@ -6007,7 +6031,7 @@
       <c r="H237" s="3"/>
       <c r="I237" s="3"/>
       <c r="J237" s="3"/>
-      <c r="K237" s="52"/>
+      <c r="K237" s="47"/>
     </row>
     <row r="238" spans="1:11">
       <c r="A238" s="3"/>
@@ -6019,7 +6043,7 @@
       <c r="H238" s="3"/>
       <c r="I238" s="3"/>
       <c r="J238" s="3"/>
-      <c r="K238" s="52"/>
+      <c r="K238" s="47"/>
     </row>
     <row r="239" spans="1:11">
       <c r="A239" s="3"/>
@@ -6031,7 +6055,7 @@
       <c r="H239" s="3"/>
       <c r="I239" s="3"/>
       <c r="J239" s="3"/>
-      <c r="K239" s="52"/>
+      <c r="K239" s="47"/>
     </row>
     <row r="240" spans="1:11">
       <c r="A240" s="3"/>
@@ -6043,7 +6067,7 @@
       <c r="H240" s="3"/>
       <c r="I240" s="3"/>
       <c r="J240" s="3"/>
-      <c r="K240" s="52"/>
+      <c r="K240" s="47"/>
     </row>
     <row r="241" spans="1:11">
       <c r="A241" s="3"/>
@@ -6055,7 +6079,7 @@
       <c r="H241" s="3"/>
       <c r="I241" s="3"/>
       <c r="J241" s="3"/>
-      <c r="K241" s="52"/>
+      <c r="K241" s="47"/>
     </row>
     <row r="242" spans="1:11">
       <c r="A242" s="3"/>
@@ -6067,7 +6091,7 @@
       <c r="H242" s="3"/>
       <c r="I242" s="3"/>
       <c r="J242" s="3"/>
-      <c r="K242" s="52"/>
+      <c r="K242" s="47"/>
     </row>
     <row r="243" spans="1:11">
       <c r="A243" s="3"/>
@@ -6079,7 +6103,7 @@
       <c r="H243" s="3"/>
       <c r="I243" s="3"/>
       <c r="J243" s="3"/>
-      <c r="K243" s="52"/>
+      <c r="K243" s="47"/>
     </row>
     <row r="244" spans="1:11">
       <c r="A244" s="3"/>
@@ -6091,7 +6115,7 @@
       <c r="H244" s="3"/>
       <c r="I244" s="3"/>
       <c r="J244" s="3"/>
-      <c r="K244" s="52"/>
+      <c r="K244" s="47"/>
     </row>
     <row r="245" spans="1:11">
       <c r="A245" s="3"/>
@@ -6103,7 +6127,7 @@
       <c r="H245" s="3"/>
       <c r="I245" s="3"/>
       <c r="J245" s="3"/>
-      <c r="K245" s="52"/>
+      <c r="K245" s="47"/>
     </row>
     <row r="246" spans="1:11">
       <c r="A246" s="3"/>
@@ -6115,7 +6139,7 @@
       <c r="H246" s="3"/>
       <c r="I246" s="3"/>
       <c r="J246" s="3"/>
-      <c r="K246" s="52"/>
+      <c r="K246" s="47"/>
     </row>
     <row r="247" spans="1:11">
       <c r="A247" s="3"/>
@@ -6127,7 +6151,7 @@
       <c r="H247" s="3"/>
       <c r="I247" s="3"/>
       <c r="J247" s="3"/>
-      <c r="K247" s="52"/>
+      <c r="K247" s="47"/>
     </row>
     <row r="248" spans="1:11">
       <c r="A248" s="3"/>
@@ -6139,7 +6163,7 @@
       <c r="H248" s="3"/>
       <c r="I248" s="3"/>
       <c r="J248" s="3"/>
-      <c r="K248" s="52"/>
+      <c r="K248" s="47"/>
     </row>
     <row r="249" spans="1:11">
       <c r="A249" s="3"/>
@@ -6151,7 +6175,7 @@
       <c r="H249" s="3"/>
       <c r="I249" s="3"/>
       <c r="J249" s="3"/>
-      <c r="K249" s="52"/>
+      <c r="K249" s="47"/>
     </row>
     <row r="250" spans="1:11">
       <c r="A250" s="3"/>
@@ -6163,7 +6187,7 @@
       <c r="H250" s="3"/>
       <c r="I250" s="3"/>
       <c r="J250" s="3"/>
-      <c r="K250" s="52"/>
+      <c r="K250" s="47"/>
     </row>
     <row r="251" spans="1:11">
       <c r="A251" s="3"/>
@@ -6175,7 +6199,7 @@
       <c r="H251" s="3"/>
       <c r="I251" s="3"/>
       <c r="J251" s="3"/>
-      <c r="K251" s="52"/>
+      <c r="K251" s="47"/>
     </row>
     <row r="252" spans="1:11">
       <c r="A252" s="3"/>
@@ -6187,7 +6211,7 @@
       <c r="H252" s="3"/>
       <c r="I252" s="3"/>
       <c r="J252" s="3"/>
-      <c r="K252" s="52"/>
+      <c r="K252" s="47"/>
     </row>
     <row r="253" spans="1:11">
       <c r="A253" s="3"/>
@@ -6199,7 +6223,7 @@
       <c r="H253" s="3"/>
       <c r="I253" s="3"/>
       <c r="J253" s="3"/>
-      <c r="K253" s="52"/>
+      <c r="K253" s="47"/>
     </row>
     <row r="254" spans="1:11">
       <c r="A254" s="3"/>
@@ -6211,7 +6235,7 @@
       <c r="H254" s="3"/>
       <c r="I254" s="3"/>
       <c r="J254" s="3"/>
-      <c r="K254" s="52"/>
+      <c r="K254" s="47"/>
     </row>
     <row r="255" spans="1:11">
       <c r="A255" s="3"/>
@@ -6223,7 +6247,7 @@
       <c r="H255" s="3"/>
       <c r="I255" s="3"/>
       <c r="J255" s="3"/>
-      <c r="K255" s="52"/>
+      <c r="K255" s="47"/>
     </row>
     <row r="256" spans="1:11">
       <c r="A256" s="3"/>
@@ -6235,7 +6259,7 @@
       <c r="H256" s="3"/>
       <c r="I256" s="3"/>
       <c r="J256" s="3"/>
-      <c r="K256" s="52"/>
+      <c r="K256" s="47"/>
     </row>
     <row r="257" spans="1:11">
       <c r="A257" s="3"/>
@@ -6247,7 +6271,7 @@
       <c r="H257" s="3"/>
       <c r="I257" s="3"/>
       <c r="J257" s="3"/>
-      <c r="K257" s="52"/>
+      <c r="K257" s="47"/>
     </row>
     <row r="258" spans="1:11">
       <c r="A258" s="3"/>
@@ -6259,7 +6283,7 @@
       <c r="H258" s="3"/>
       <c r="I258" s="3"/>
       <c r="J258" s="3"/>
-      <c r="K258" s="52"/>
+      <c r="K258" s="47"/>
     </row>
     <row r="259" spans="1:11">
       <c r="A259" s="3"/>
@@ -6271,7 +6295,7 @@
       <c r="H259" s="3"/>
       <c r="I259" s="3"/>
       <c r="J259" s="3"/>
-      <c r="K259" s="52"/>
+      <c r="K259" s="47"/>
     </row>
     <row r="260" spans="1:11">
       <c r="A260" s="3"/>
@@ -6283,7 +6307,7 @@
       <c r="H260" s="3"/>
       <c r="I260" s="3"/>
       <c r="J260" s="3"/>
-      <c r="K260" s="52"/>
+      <c r="K260" s="47"/>
     </row>
     <row r="261" spans="1:11">
       <c r="A261" s="3"/>
@@ -6295,7 +6319,7 @@
       <c r="H261" s="3"/>
       <c r="I261" s="3"/>
       <c r="J261" s="3"/>
-      <c r="K261" s="52"/>
+      <c r="K261" s="47"/>
     </row>
     <row r="262" spans="1:11">
       <c r="A262" s="3"/>
@@ -6307,7 +6331,7 @@
       <c r="H262" s="3"/>
       <c r="I262" s="3"/>
       <c r="J262" s="3"/>
-      <c r="K262" s="52"/>
+      <c r="K262" s="47"/>
     </row>
     <row r="263" spans="1:11">
       <c r="A263" s="3"/>
@@ -6319,7 +6343,7 @@
       <c r="H263" s="3"/>
       <c r="I263" s="3"/>
       <c r="J263" s="3"/>
-      <c r="K263" s="52"/>
+      <c r="K263" s="47"/>
     </row>
     <row r="264" spans="1:11">
       <c r="A264" s="3"/>
@@ -6331,7 +6355,7 @@
       <c r="H264" s="3"/>
       <c r="I264" s="3"/>
       <c r="J264" s="3"/>
-      <c r="K264" s="52"/>
+      <c r="K264" s="47"/>
     </row>
     <row r="265" spans="1:11">
       <c r="A265" s="3"/>
@@ -6343,7 +6367,7 @@
       <c r="H265" s="3"/>
       <c r="I265" s="3"/>
       <c r="J265" s="3"/>
-      <c r="K265" s="52"/>
+      <c r="K265" s="47"/>
     </row>
     <row r="266" spans="1:11">
       <c r="A266" s="3"/>
@@ -6355,7 +6379,7 @@
       <c r="H266" s="3"/>
       <c r="I266" s="3"/>
       <c r="J266" s="3"/>
-      <c r="K266" s="52"/>
+      <c r="K266" s="47"/>
     </row>
     <row r="267" spans="1:11">
       <c r="A267" s="3"/>
@@ -6367,7 +6391,7 @@
       <c r="H267" s="3"/>
       <c r="I267" s="3"/>
       <c r="J267" s="3"/>
-      <c r="K267" s="52"/>
+      <c r="K267" s="47"/>
     </row>
     <row r="268" spans="1:11">
       <c r="A268" s="3"/>
@@ -6379,7 +6403,7 @@
       <c r="H268" s="3"/>
       <c r="I268" s="3"/>
       <c r="J268" s="3"/>
-      <c r="K268" s="52"/>
+      <c r="K268" s="47"/>
     </row>
     <row r="269" spans="1:11">
       <c r="A269" s="3"/>
@@ -6391,7 +6415,7 @@
       <c r="H269" s="3"/>
       <c r="I269" s="3"/>
       <c r="J269" s="3"/>
-      <c r="K269" s="52"/>
+      <c r="K269" s="47"/>
     </row>
     <row r="270" spans="1:11">
       <c r="A270" s="3"/>
@@ -6403,7 +6427,7 @@
       <c r="H270" s="3"/>
       <c r="I270" s="3"/>
       <c r="J270" s="3"/>
-      <c r="K270" s="52"/>
+      <c r="K270" s="47"/>
     </row>
     <row r="271" spans="1:11">
       <c r="A271" s="3"/>
@@ -6415,7 +6439,7 @@
       <c r="H271" s="3"/>
       <c r="I271" s="3"/>
       <c r="J271" s="3"/>
-      <c r="K271" s="52"/>
+      <c r="K271" s="47"/>
     </row>
     <row r="272" spans="1:11">
       <c r="A272" s="3"/>
@@ -6427,7 +6451,7 @@
       <c r="H272" s="3"/>
       <c r="I272" s="3"/>
       <c r="J272" s="3"/>
-      <c r="K272" s="52"/>
+      <c r="K272" s="47"/>
     </row>
     <row r="273" spans="1:11">
       <c r="A273" s="3"/>
@@ -6439,7 +6463,7 @@
       <c r="H273" s="3"/>
       <c r="I273" s="3"/>
       <c r="J273" s="3"/>
-      <c r="K273" s="52"/>
+      <c r="K273" s="47"/>
     </row>
     <row r="274" spans="1:11">
       <c r="A274" s="3"/>
@@ -6451,7 +6475,7 @@
       <c r="H274" s="3"/>
       <c r="I274" s="3"/>
       <c r="J274" s="3"/>
-      <c r="K274" s="52"/>
+      <c r="K274" s="47"/>
     </row>
     <row r="275" spans="1:11">
       <c r="A275" s="3"/>
@@ -6463,7 +6487,7 @@
       <c r="H275" s="3"/>
       <c r="I275" s="3"/>
       <c r="J275" s="3"/>
-      <c r="K275" s="52"/>
+      <c r="K275" s="47"/>
     </row>
     <row r="276" spans="1:11">
       <c r="A276" s="3"/>
@@ -6475,7 +6499,7 @@
       <c r="H276" s="3"/>
       <c r="I276" s="3"/>
       <c r="J276" s="3"/>
-      <c r="K276" s="52"/>
+      <c r="K276" s="47"/>
     </row>
     <row r="277" spans="1:11">
       <c r="A277" s="3"/>
@@ -6487,7 +6511,7 @@
       <c r="H277" s="3"/>
       <c r="I277" s="3"/>
       <c r="J277" s="3"/>
-      <c r="K277" s="52"/>
+      <c r="K277" s="47"/>
     </row>
     <row r="278" spans="1:11">
       <c r="A278" s="3"/>
@@ -6499,7 +6523,7 @@
       <c r="H278" s="3"/>
       <c r="I278" s="3"/>
       <c r="J278" s="3"/>
-      <c r="K278" s="52"/>
+      <c r="K278" s="47"/>
     </row>
     <row r="279" spans="1:11">
       <c r="A279" s="3"/>
@@ -6511,7 +6535,7 @@
       <c r="H279" s="3"/>
       <c r="I279" s="3"/>
       <c r="J279" s="3"/>
-      <c r="K279" s="52"/>
+      <c r="K279" s="47"/>
     </row>
     <row r="280" spans="1:11">
       <c r="A280" s="3"/>
@@ -6523,7 +6547,7 @@
       <c r="H280" s="3"/>
       <c r="I280" s="3"/>
       <c r="J280" s="3"/>
-      <c r="K280" s="52"/>
+      <c r="K280" s="47"/>
     </row>
     <row r="281" spans="1:11">
       <c r="A281" s="3"/>
@@ -6535,7 +6559,7 @@
       <c r="H281" s="3"/>
       <c r="I281" s="3"/>
       <c r="J281" s="3"/>
-      <c r="K281" s="52"/>
+      <c r="K281" s="47"/>
     </row>
     <row r="282" spans="1:11">
       <c r="A282" s="3"/>
@@ -6547,7 +6571,7 @@
       <c r="H282" s="3"/>
       <c r="I282" s="3"/>
       <c r="J282" s="3"/>
-      <c r="K282" s="52"/>
+      <c r="K282" s="47"/>
     </row>
     <row r="283" spans="1:11">
       <c r="A283" s="3"/>
@@ -6559,7 +6583,7 @@
       <c r="H283" s="3"/>
       <c r="I283" s="3"/>
       <c r="J283" s="3"/>
-      <c r="K283" s="52"/>
+      <c r="K283" s="47"/>
     </row>
     <row r="284" spans="1:11">
       <c r="A284" s="3"/>
@@ -6571,7 +6595,7 @@
       <c r="H284" s="3"/>
       <c r="I284" s="3"/>
       <c r="J284" s="3"/>
-      <c r="K284" s="52"/>
+      <c r="K284" s="47"/>
     </row>
     <row r="285" spans="1:11">
       <c r="A285" s="3"/>
@@ -6583,7 +6607,7 @@
       <c r="H285" s="3"/>
       <c r="I285" s="3"/>
       <c r="J285" s="3"/>
-      <c r="K285" s="52"/>
+      <c r="K285" s="47"/>
     </row>
     <row r="286" spans="1:11">
       <c r="A286" s="3"/>
@@ -6595,7 +6619,7 @@
       <c r="H286" s="3"/>
       <c r="I286" s="3"/>
       <c r="J286" s="3"/>
-      <c r="K286" s="52"/>
+      <c r="K286" s="47"/>
     </row>
     <row r="287" spans="1:11">
       <c r="A287" s="3"/>
@@ -6607,7 +6631,7 @@
       <c r="H287" s="3"/>
       <c r="I287" s="3"/>
       <c r="J287" s="3"/>
-      <c r="K287" s="52"/>
+      <c r="K287" s="47"/>
     </row>
     <row r="288" spans="1:11">
       <c r="A288" s="3"/>
@@ -6619,7 +6643,7 @@
       <c r="H288" s="3"/>
       <c r="I288" s="3"/>
       <c r="J288" s="3"/>
-      <c r="K288" s="52"/>
+      <c r="K288" s="47"/>
     </row>
     <row r="289" spans="1:11">
       <c r="A289" s="3"/>
@@ -6631,7 +6655,7 @@
       <c r="H289" s="3"/>
       <c r="I289" s="3"/>
       <c r="J289" s="3"/>
-      <c r="K289" s="52"/>
+      <c r="K289" s="47"/>
     </row>
     <row r="290" spans="1:11">
       <c r="A290" s="3"/>
@@ -6643,7 +6667,7 @@
       <c r="H290" s="3"/>
       <c r="I290" s="3"/>
       <c r="J290" s="3"/>
-      <c r="K290" s="52"/>
+      <c r="K290" s="47"/>
     </row>
     <row r="291" spans="1:11">
       <c r="A291" s="3"/>
@@ -6655,7 +6679,7 @@
       <c r="H291" s="3"/>
       <c r="I291" s="3"/>
       <c r="J291" s="3"/>
-      <c r="K291" s="52"/>
+      <c r="K291" s="47"/>
     </row>
     <row r="292" spans="1:11">
       <c r="A292" s="3"/>
@@ -6667,7 +6691,7 @@
       <c r="H292" s="3"/>
       <c r="I292" s="3"/>
       <c r="J292" s="3"/>
-      <c r="K292" s="52"/>
+      <c r="K292" s="47"/>
     </row>
     <row r="293" spans="1:11">
       <c r="A293" s="3"/>
@@ -6679,7 +6703,7 @@
       <c r="H293" s="3"/>
       <c r="I293" s="3"/>
       <c r="J293" s="3"/>
-      <c r="K293" s="52"/>
+      <c r="K293" s="47"/>
     </row>
     <row r="294" spans="1:11">
       <c r="A294" s="3"/>
@@ -6691,7 +6715,7 @@
       <c r="H294" s="3"/>
       <c r="I294" s="3"/>
       <c r="J294" s="3"/>
-      <c r="K294" s="52"/>
+      <c r="K294" s="47"/>
     </row>
     <row r="295" spans="1:11">
       <c r="A295" s="3"/>
@@ -6703,7 +6727,7 @@
       <c r="H295" s="3"/>
       <c r="I295" s="3"/>
       <c r="J295" s="3"/>
-      <c r="K295" s="52"/>
+      <c r="K295" s="47"/>
     </row>
     <row r="296" spans="1:11">
       <c r="A296" s="3"/>
@@ -6715,7 +6739,7 @@
       <c r="H296" s="3"/>
       <c r="I296" s="3"/>
       <c r="J296" s="3"/>
-      <c r="K296" s="52"/>
+      <c r="K296" s="47"/>
     </row>
     <row r="297" spans="1:11">
       <c r="A297" s="3"/>
@@ -6727,7 +6751,7 @@
       <c r="H297" s="3"/>
       <c r="I297" s="3"/>
       <c r="J297" s="3"/>
-      <c r="K297" s="52"/>
+      <c r="K297" s="47"/>
     </row>
     <row r="298" spans="1:11">
       <c r="A298" s="3"/>
@@ -6739,7 +6763,7 @@
       <c r="H298" s="3"/>
       <c r="I298" s="3"/>
       <c r="J298" s="3"/>
-      <c r="K298" s="52"/>
+      <c r="K298" s="47"/>
     </row>
     <row r="299" spans="1:11">
       <c r="A299" s="3"/>
@@ -6751,7 +6775,7 @@
       <c r="H299" s="3"/>
       <c r="I299" s="3"/>
       <c r="J299" s="3"/>
-      <c r="K299" s="52"/>
+      <c r="K299" s="47"/>
     </row>
     <row r="300" spans="1:11">
       <c r="A300" s="3"/>
@@ -6763,7 +6787,7 @@
       <c r="H300" s="3"/>
       <c r="I300" s="3"/>
       <c r="J300" s="3"/>
-      <c r="K300" s="52"/>
+      <c r="K300" s="47"/>
     </row>
     <row r="301" spans="1:11">
       <c r="A301" s="3"/>
@@ -6775,7 +6799,7 @@
       <c r="H301" s="3"/>
       <c r="I301" s="3"/>
       <c r="J301" s="3"/>
-      <c r="K301" s="52"/>
+      <c r="K301" s="47"/>
     </row>
     <row r="302" spans="1:11">
       <c r="A302" s="3"/>
@@ -6787,7 +6811,7 @@
       <c r="H302" s="3"/>
       <c r="I302" s="3"/>
       <c r="J302" s="3"/>
-      <c r="K302" s="52"/>
+      <c r="K302" s="47"/>
     </row>
     <row r="303" spans="1:11">
       <c r="A303" s="3"/>
@@ -6799,7 +6823,7 @@
       <c r="H303" s="3"/>
       <c r="I303" s="3"/>
       <c r="J303" s="3"/>
-      <c r="K303" s="52"/>
+      <c r="K303" s="47"/>
     </row>
     <row r="304" spans="1:11">
       <c r="A304" s="3"/>
@@ -6811,7 +6835,7 @@
       <c r="H304" s="3"/>
       <c r="I304" s="3"/>
       <c r="J304" s="3"/>
-      <c r="K304" s="52"/>
+      <c r="K304" s="47"/>
     </row>
     <row r="305" spans="1:11">
       <c r="A305" s="3"/>
@@ -6823,7 +6847,7 @@
       <c r="H305" s="3"/>
       <c r="I305" s="3"/>
       <c r="J305" s="3"/>
-      <c r="K305" s="52"/>
+      <c r="K305" s="47"/>
     </row>
     <row r="306" spans="1:11">
       <c r="A306" s="3"/>
@@ -6835,7 +6859,7 @@
       <c r="H306" s="3"/>
       <c r="I306" s="3"/>
       <c r="J306" s="3"/>
-      <c r="K306" s="52"/>
+      <c r="K306" s="47"/>
     </row>
     <row r="307" spans="1:11">
       <c r="A307" s="3"/>
@@ -6847,7 +6871,7 @@
       <c r="H307" s="3"/>
       <c r="I307" s="3"/>
       <c r="J307" s="3"/>
-      <c r="K307" s="52"/>
+      <c r="K307" s="47"/>
     </row>
     <row r="308" spans="1:11">
       <c r="A308" s="3"/>
@@ -6859,7 +6883,7 @@
       <c r="H308" s="3"/>
       <c r="I308" s="3"/>
       <c r="J308" s="3"/>
-      <c r="K308" s="52"/>
+      <c r="K308" s="47"/>
     </row>
     <row r="309" spans="1:11">
       <c r="A309" s="3"/>
@@ -6871,7 +6895,7 @@
       <c r="H309" s="3"/>
       <c r="I309" s="3"/>
       <c r="J309" s="3"/>
-      <c r="K309" s="52"/>
+      <c r="K309" s="47"/>
     </row>
     <row r="310" spans="1:11">
       <c r="A310" s="3"/>
@@ -6883,7 +6907,7 @@
       <c r="H310" s="3"/>
       <c r="I310" s="3"/>
       <c r="J310" s="3"/>
-      <c r="K310" s="52"/>
+      <c r="K310" s="47"/>
     </row>
     <row r="311" spans="1:11">
       <c r="A311" s="3"/>
@@ -6895,7 +6919,7 @@
       <c r="H311" s="3"/>
       <c r="I311" s="3"/>
       <c r="J311" s="3"/>
-      <c r="K311" s="52"/>
+      <c r="K311" s="47"/>
     </row>
     <row r="312" spans="1:11">
       <c r="A312" s="3"/>
@@ -6907,7 +6931,7 @@
       <c r="H312" s="3"/>
       <c r="I312" s="3"/>
       <c r="J312" s="3"/>
-      <c r="K312" s="52"/>
+      <c r="K312" s="47"/>
     </row>
     <row r="313" spans="1:11">
       <c r="A313" s="3"/>
@@ -6919,7 +6943,7 @@
       <c r="H313" s="3"/>
       <c r="I313" s="3"/>
       <c r="J313" s="3"/>
-      <c r="K313" s="52"/>
+      <c r="K313" s="47"/>
     </row>
     <row r="314" spans="1:11">
       <c r="A314" s="3"/>
@@ -6931,7 +6955,7 @@
       <c r="H314" s="3"/>
       <c r="I314" s="3"/>
       <c r="J314" s="3"/>
-      <c r="K314" s="52"/>
+      <c r="K314" s="47"/>
     </row>
     <row r="315" spans="1:11">
       <c r="A315" s="3"/>
@@ -6943,7 +6967,7 @@
       <c r="H315" s="3"/>
       <c r="I315" s="3"/>
       <c r="J315" s="3"/>
-      <c r="K315" s="52"/>
+      <c r="K315" s="47"/>
     </row>
     <row r="316" spans="1:11">
       <c r="A316" s="3"/>
@@ -6955,7 +6979,7 @@
       <c r="H316" s="3"/>
       <c r="I316" s="3"/>
       <c r="J316" s="3"/>
-      <c r="K316" s="52"/>
+      <c r="K316" s="47"/>
     </row>
     <row r="317" spans="1:11">
       <c r="A317" s="3"/>
@@ -6967,7 +6991,7 @@
       <c r="H317" s="3"/>
       <c r="I317" s="3"/>
       <c r="J317" s="3"/>
-      <c r="K317" s="52"/>
+      <c r="K317" s="47"/>
     </row>
     <row r="318" spans="1:11">
       <c r="A318" s="3"/>
@@ -6979,7 +7003,7 @@
       <c r="H318" s="3"/>
       <c r="I318" s="3"/>
       <c r="J318" s="3"/>
-      <c r="K318" s="52"/>
+      <c r="K318" s="47"/>
     </row>
     <row r="319" spans="1:11">
       <c r="A319" s="3"/>
@@ -6991,7 +7015,7 @@
       <c r="H319" s="3"/>
       <c r="I319" s="3"/>
       <c r="J319" s="3"/>
-      <c r="K319" s="52"/>
+      <c r="K319" s="47"/>
     </row>
     <row r="320" spans="1:11">
       <c r="A320" s="3"/>
@@ -7003,7 +7027,7 @@
       <c r="H320" s="3"/>
       <c r="I320" s="3"/>
       <c r="J320" s="3"/>
-      <c r="K320" s="52"/>
+      <c r="K320" s="47"/>
     </row>
     <row r="321" spans="1:11">
       <c r="A321" s="3"/>
@@ -7015,7 +7039,7 @@
       <c r="H321" s="3"/>
       <c r="I321" s="3"/>
       <c r="J321" s="3"/>
-      <c r="K321" s="52"/>
+      <c r="K321" s="47"/>
     </row>
     <row r="322" spans="1:11">
       <c r="A322" s="3"/>
@@ -7027,7 +7051,7 @@
       <c r="H322" s="3"/>
       <c r="I322" s="3"/>
       <c r="J322" s="3"/>
-      <c r="K322" s="52"/>
+      <c r="K322" s="47"/>
     </row>
     <row r="323" spans="1:11">
       <c r="A323" s="3"/>
@@ -7039,7 +7063,7 @@
       <c r="H323" s="3"/>
       <c r="I323" s="3"/>
       <c r="J323" s="3"/>
-      <c r="K323" s="52"/>
+      <c r="K323" s="47"/>
     </row>
     <row r="324" spans="1:11">
       <c r="A324" s="3"/>
@@ -7051,7 +7075,7 @@
       <c r="H324" s="3"/>
       <c r="I324" s="3"/>
       <c r="J324" s="3"/>
-      <c r="K324" s="52"/>
+      <c r="K324" s="47"/>
     </row>
     <row r="325" spans="1:11">
       <c r="A325" s="3"/>
@@ -7063,7 +7087,7 @@
       <c r="H325" s="3"/>
       <c r="I325" s="3"/>
       <c r="J325" s="3"/>
-      <c r="K325" s="52"/>
+      <c r="K325" s="47"/>
     </row>
     <row r="326" spans="1:11">
       <c r="A326" s="3"/>
@@ -7075,7 +7099,7 @@
       <c r="H326" s="3"/>
       <c r="I326" s="3"/>
       <c r="J326" s="3"/>
-      <c r="K326" s="52"/>
+      <c r="K326" s="47"/>
     </row>
     <row r="327" spans="1:11">
       <c r="A327" s="3"/>
@@ -7087,7 +7111,7 @@
       <c r="H327" s="3"/>
       <c r="I327" s="3"/>
       <c r="J327" s="3"/>
-      <c r="K327" s="52"/>
+      <c r="K327" s="47"/>
     </row>
     <row r="328" spans="1:11">
       <c r="A328" s="3"/>
@@ -7099,7 +7123,7 @@
       <c r="H328" s="3"/>
       <c r="I328" s="3"/>
       <c r="J328" s="3"/>
-      <c r="K328" s="52"/>
+      <c r="K328" s="47"/>
     </row>
     <row r="329" spans="1:11">
       <c r="A329" s="3"/>
@@ -7111,7 +7135,7 @@
       <c r="H329" s="3"/>
       <c r="I329" s="3"/>
       <c r="J329" s="3"/>
-      <c r="K329" s="52"/>
+      <c r="K329" s="47"/>
     </row>
     <row r="330" spans="1:11">
       <c r="A330" s="3"/>
@@ -7123,7 +7147,7 @@
       <c r="H330" s="3"/>
       <c r="I330" s="3"/>
       <c r="J330" s="3"/>
-      <c r="K330" s="52"/>
+      <c r="K330" s="47"/>
     </row>
     <row r="331" spans="1:11">
       <c r="A331" s="3"/>
@@ -7135,7 +7159,7 @@
       <c r="H331" s="3"/>
       <c r="I331" s="3"/>
       <c r="J331" s="3"/>
-      <c r="K331" s="52"/>
+      <c r="K331" s="47"/>
     </row>
     <row r="332" spans="1:11">
       <c r="A332" s="3"/>
@@ -7147,7 +7171,7 @@
       <c r="H332" s="3"/>
       <c r="I332" s="3"/>
       <c r="J332" s="3"/>
-      <c r="K332" s="52"/>
+      <c r="K332" s="47"/>
     </row>
     <row r="333" spans="1:11">
       <c r="A333" s="3"/>
@@ -7159,7 +7183,7 @@
       <c r="H333" s="3"/>
       <c r="I333" s="3"/>
       <c r="J333" s="3"/>
-      <c r="K333" s="52"/>
+      <c r="K333" s="47"/>
     </row>
     <row r="334" spans="1:11">
       <c r="A334" s="3"/>
@@ -7171,7 +7195,7 @@
       <c r="H334" s="3"/>
       <c r="I334" s="3"/>
       <c r="J334" s="3"/>
-      <c r="K334" s="52"/>
+      <c r="K334" s="47"/>
     </row>
     <row r="335" spans="1:11">
       <c r="A335" s="3"/>
@@ -7183,7 +7207,7 @@
       <c r="H335" s="3"/>
       <c r="I335" s="3"/>
       <c r="J335" s="3"/>
-      <c r="K335" s="52"/>
+      <c r="K335" s="47"/>
     </row>
     <row r="336" spans="1:11">
       <c r="A336" s="3"/>
@@ -7195,7 +7219,7 @@
       <c r="H336" s="3"/>
       <c r="I336" s="3"/>
       <c r="J336" s="3"/>
-      <c r="K336" s="52"/>
+      <c r="K336" s="47"/>
     </row>
     <row r="337" spans="1:11">
       <c r="A337" s="3"/>
@@ -7207,7 +7231,7 @@
       <c r="H337" s="3"/>
       <c r="I337" s="3"/>
       <c r="J337" s="3"/>
-      <c r="K337" s="52"/>
+      <c r="K337" s="47"/>
     </row>
     <row r="338" spans="1:11">
       <c r="A338" s="3"/>
@@ -7219,7 +7243,7 @@
       <c r="H338" s="3"/>
       <c r="I338" s="3"/>
       <c r="J338" s="3"/>
-      <c r="K338" s="52"/>
+      <c r="K338" s="47"/>
     </row>
     <row r="339" spans="1:11">
       <c r="A339" s="3"/>
@@ -7231,7 +7255,7 @@
       <c r="H339" s="3"/>
       <c r="I339" s="3"/>
       <c r="J339" s="3"/>
-      <c r="K339" s="52"/>
+      <c r="K339" s="47"/>
     </row>
     <row r="340" spans="1:11">
       <c r="A340" s="3"/>
@@ -7243,7 +7267,7 @@
       <c r="H340" s="3"/>
       <c r="I340" s="3"/>
       <c r="J340" s="3"/>
-      <c r="K340" s="52"/>
+      <c r="K340" s="47"/>
     </row>
     <row r="341" spans="1:11">
       <c r="A341" s="3"/>
@@ -7255,7 +7279,7 @@
       <c r="H341" s="3"/>
       <c r="I341" s="3"/>
       <c r="J341" s="3"/>
-      <c r="K341" s="52"/>
+      <c r="K341" s="47"/>
     </row>
     <row r="342" spans="1:11">
       <c r="A342" s="3"/>
@@ -7267,7 +7291,7 @@
       <c r="H342" s="3"/>
       <c r="I342" s="3"/>
       <c r="J342" s="3"/>
-      <c r="K342" s="52"/>
+      <c r="K342" s="47"/>
     </row>
     <row r="343" spans="1:11">
       <c r="A343" s="3"/>
@@ -7279,7 +7303,7 @@
       <c r="H343" s="3"/>
       <c r="I343" s="3"/>
       <c r="J343" s="3"/>
-      <c r="K343" s="52"/>
+      <c r="K343" s="47"/>
     </row>
     <row r="344" spans="1:11">
       <c r="A344" s="3"/>
@@ -7291,7 +7315,7 @@
       <c r="H344" s="3"/>
       <c r="I344" s="3"/>
       <c r="J344" s="3"/>
-      <c r="K344" s="52"/>
+      <c r="K344" s="47"/>
     </row>
     <row r="345" spans="1:11">
       <c r="A345" s="3"/>
@@ -7303,7 +7327,7 @@
       <c r="H345" s="3"/>
       <c r="I345" s="3"/>
       <c r="J345" s="3"/>
-      <c r="K345" s="52"/>
+      <c r="K345" s="47"/>
     </row>
     <row r="346" spans="1:11">
       <c r="A346" s="3"/>
@@ -7315,7 +7339,7 @@
       <c r="H346" s="3"/>
       <c r="I346" s="3"/>
       <c r="J346" s="3"/>
-      <c r="K346" s="52"/>
+      <c r="K346" s="47"/>
     </row>
     <row r="347" spans="1:11">
       <c r="A347" s="3"/>
@@ -7327,7 +7351,7 @@
       <c r="H347" s="3"/>
       <c r="I347" s="3"/>
       <c r="J347" s="3"/>
-      <c r="K347" s="52"/>
+      <c r="K347" s="47"/>
     </row>
     <row r="348" spans="1:11">
       <c r="A348" s="3"/>
@@ -7339,7 +7363,7 @@
       <c r="H348" s="3"/>
       <c r="I348" s="3"/>
       <c r="J348" s="3"/>
-      <c r="K348" s="52"/>
+      <c r="K348" s="47"/>
     </row>
     <row r="349" spans="1:11">
       <c r="A349" s="3"/>
@@ -7351,7 +7375,7 @@
       <c r="H349" s="3"/>
       <c r="I349" s="3"/>
       <c r="J349" s="3"/>
-      <c r="K349" s="52"/>
+      <c r="K349" s="47"/>
     </row>
     <row r="350" spans="1:11">
       <c r="A350" s="3"/>
@@ -7363,7 +7387,7 @@
       <c r="H350" s="3"/>
       <c r="I350" s="3"/>
       <c r="J350" s="3"/>
-      <c r="K350" s="52"/>
+      <c r="K350" s="47"/>
     </row>
     <row r="351" spans="1:11">
       <c r="A351" s="3"/>
@@ -7375,7 +7399,7 @@
       <c r="H351" s="3"/>
       <c r="I351" s="3"/>
       <c r="J351" s="3"/>
-      <c r="K351" s="52"/>
+      <c r="K351" s="47"/>
     </row>
     <row r="352" spans="1:11">
       <c r="A352" s="3"/>
@@ -7387,7 +7411,7 @@
       <c r="H352" s="3"/>
       <c r="I352" s="3"/>
       <c r="J352" s="3"/>
-      <c r="K352" s="52"/>
+      <c r="K352" s="47"/>
     </row>
     <row r="353" spans="1:11">
       <c r="A353" s="3"/>
@@ -7399,7 +7423,7 @@
       <c r="H353" s="3"/>
       <c r="I353" s="3"/>
       <c r="J353" s="3"/>
-      <c r="K353" s="52"/>
+      <c r="K353" s="47"/>
     </row>
     <row r="354" spans="1:11">
       <c r="A354" s="3"/>
@@ -7411,7 +7435,7 @@
       <c r="H354" s="3"/>
       <c r="I354" s="3"/>
       <c r="J354" s="3"/>
-      <c r="K354" s="52"/>
+      <c r="K354" s="47"/>
     </row>
     <row r="355" spans="1:11">
       <c r="A355" s="3"/>
@@ -7423,7 +7447,7 @@
       <c r="H355" s="3"/>
       <c r="I355" s="3"/>
       <c r="J355" s="3"/>
-      <c r="K355" s="52"/>
+      <c r="K355" s="47"/>
     </row>
     <row r="356" spans="1:11">
       <c r="A356" s="3"/>
@@ -7435,7 +7459,7 @@
       <c r="H356" s="3"/>
       <c r="I356" s="3"/>
       <c r="J356" s="3"/>
-      <c r="K356" s="52"/>
+      <c r="K356" s="47"/>
     </row>
     <row r="357" spans="1:11">
       <c r="A357" s="3"/>
@@ -7447,7 +7471,7 @@
       <c r="H357" s="3"/>
       <c r="I357" s="3"/>
       <c r="J357" s="3"/>
-      <c r="K357" s="52"/>
+      <c r="K357" s="47"/>
     </row>
     <row r="358" spans="1:11">
       <c r="A358" s="3"/>
@@ -7459,7 +7483,7 @@
       <c r="H358" s="3"/>
       <c r="I358" s="3"/>
       <c r="J358" s="3"/>
-      <c r="K358" s="52"/>
+      <c r="K358" s="47"/>
     </row>
     <row r="359" spans="1:11">
       <c r="A359" s="3"/>
@@ -7471,7 +7495,7 @@
       <c r="H359" s="3"/>
       <c r="I359" s="3"/>
       <c r="J359" s="3"/>
-      <c r="K359" s="52"/>
+      <c r="K359" s="47"/>
     </row>
     <row r="360" spans="1:11">
       <c r="A360" s="3"/>
@@ -7483,7 +7507,7 @@
       <c r="H360" s="3"/>
       <c r="I360" s="3"/>
       <c r="J360" s="3"/>
-      <c r="K360" s="52"/>
+      <c r="K360" s="47"/>
     </row>
     <row r="361" spans="1:11">
       <c r="A361" s="3"/>
@@ -7495,7 +7519,7 @@
       <c r="H361" s="3"/>
       <c r="I361" s="3"/>
       <c r="J361" s="3"/>
-      <c r="K361" s="52"/>
+      <c r="K361" s="47"/>
     </row>
     <row r="362" spans="1:11">
       <c r="A362" s="3"/>
@@ -7507,7 +7531,7 @@
       <c r="H362" s="3"/>
       <c r="I362" s="3"/>
       <c r="J362" s="3"/>
-      <c r="K362" s="52"/>
+      <c r="K362" s="47"/>
     </row>
     <row r="363" spans="1:11">
       <c r="A363" s="3"/>
@@ -7519,7 +7543,7 @@
       <c r="H363" s="3"/>
       <c r="I363" s="3"/>
       <c r="J363" s="3"/>
-      <c r="K363" s="52"/>
+      <c r="K363" s="47"/>
     </row>
     <row r="364" spans="1:11">
       <c r="A364" s="3"/>
@@ -7531,7 +7555,7 @@
       <c r="H364" s="3"/>
       <c r="I364" s="3"/>
       <c r="J364" s="3"/>
-      <c r="K364" s="52"/>
+      <c r="K364" s="47"/>
     </row>
     <row r="365" spans="1:11">
       <c r="A365" s="3"/>
@@ -7543,7 +7567,7 @@
       <c r="H365" s="3"/>
       <c r="I365" s="3"/>
       <c r="J365" s="3"/>
-      <c r="K365" s="52"/>
+      <c r="K365" s="47"/>
     </row>
     <row r="366" spans="1:11">
       <c r="A366" s="3"/>
@@ -7555,7 +7579,7 @@
       <c r="H366" s="3"/>
       <c r="I366" s="3"/>
       <c r="J366" s="3"/>
-      <c r="K366" s="52"/>
+      <c r="K366" s="47"/>
     </row>
     <row r="367" spans="1:11">
       <c r="A367" s="3"/>
@@ -7567,7 +7591,7 @@
       <c r="H367" s="3"/>
       <c r="I367" s="3"/>
       <c r="J367" s="3"/>
-      <c r="K367" s="52"/>
+      <c r="K367" s="47"/>
     </row>
     <row r="368" spans="1:11">
       <c r="A368" s="3"/>
@@ -7579,7 +7603,7 @@
       <c r="H368" s="3"/>
       <c r="I368" s="3"/>
       <c r="J368" s="3"/>
-      <c r="K368" s="52"/>
+      <c r="K368" s="47"/>
     </row>
     <row r="369" spans="1:11">
       <c r="A369" s="3"/>
@@ -7591,7 +7615,7 @@
       <c r="H369" s="3"/>
       <c r="I369" s="3"/>
       <c r="J369" s="3"/>
-      <c r="K369" s="52"/>
+      <c r="K369" s="47"/>
     </row>
     <row r="370" spans="1:11">
       <c r="A370" s="3"/>
@@ -7603,7 +7627,7 @@
       <c r="H370" s="3"/>
       <c r="I370" s="3"/>
       <c r="J370" s="3"/>
-      <c r="K370" s="52"/>
+      <c r="K370" s="47"/>
     </row>
     <row r="371" spans="1:11">
       <c r="A371" s="3"/>
@@ -7615,7 +7639,7 @@
       <c r="H371" s="3"/>
       <c r="I371" s="3"/>
       <c r="J371" s="3"/>
-      <c r="K371" s="52"/>
+      <c r="K371" s="47"/>
     </row>
     <row r="372" spans="1:11">
       <c r="A372" s="3"/>
@@ -7627,7 +7651,7 @@
       <c r="H372" s="3"/>
       <c r="I372" s="3"/>
       <c r="J372" s="3"/>
-      <c r="K372" s="52"/>
+      <c r="K372" s="47"/>
     </row>
     <row r="373" spans="1:11">
       <c r="A373" s="3"/>
@@ -7639,7 +7663,7 @@
       <c r="H373" s="3"/>
       <c r="I373" s="3"/>
       <c r="J373" s="3"/>
-      <c r="K373" s="52"/>
+      <c r="K373" s="47"/>
     </row>
     <row r="374" spans="1:11">
       <c r="A374" s="3"/>
@@ -7651,7 +7675,7 @@
       <c r="H374" s="3"/>
       <c r="I374" s="3"/>
       <c r="J374" s="3"/>
-      <c r="K374" s="52"/>
+      <c r="K374" s="47"/>
     </row>
     <row r="375" spans="1:11">
       <c r="A375" s="3"/>
@@ -7663,7 +7687,7 @@
       <c r="H375" s="3"/>
       <c r="I375" s="3"/>
       <c r="J375" s="3"/>
-      <c r="K375" s="52"/>
+      <c r="K375" s="47"/>
     </row>
     <row r="376" spans="1:11">
       <c r="A376" s="3"/>
@@ -7675,7 +7699,7 @@
       <c r="H376" s="3"/>
       <c r="I376" s="3"/>
       <c r="J376" s="3"/>
-      <c r="K376" s="52"/>
+      <c r="K376" s="47"/>
     </row>
     <row r="377" spans="1:11">
       <c r="A377" s="3"/>
@@ -7687,7 +7711,7 @@
       <c r="H377" s="3"/>
       <c r="I377" s="3"/>
       <c r="J377" s="3"/>
-      <c r="K377" s="52"/>
+      <c r="K377" s="47"/>
     </row>
     <row r="378" spans="1:11">
       <c r="A378" s="3"/>
@@ -7699,7 +7723,7 @@
       <c r="H378" s="3"/>
       <c r="I378" s="3"/>
       <c r="J378" s="3"/>
-      <c r="K378" s="52"/>
+      <c r="K378" s="47"/>
     </row>
     <row r="379" spans="1:11">
       <c r="A379" s="3"/>
@@ -7711,7 +7735,7 @@
       <c r="H379" s="3"/>
       <c r="I379" s="3"/>
       <c r="J379" s="3"/>
-      <c r="K379" s="52"/>
+      <c r="K379" s="47"/>
     </row>
     <row r="380" spans="1:11">
       <c r="A380" s="3"/>
@@ -7723,7 +7747,7 @@
       <c r="H380" s="3"/>
       <c r="I380" s="3"/>
       <c r="J380" s="3"/>
-      <c r="K380" s="52"/>
+      <c r="K380" s="47"/>
     </row>
     <row r="381" spans="1:11">
       <c r="A381" s="3"/>
@@ -7735,7 +7759,7 @@
       <c r="H381" s="3"/>
       <c r="I381" s="3"/>
       <c r="J381" s="3"/>
-      <c r="K381" s="52"/>
+      <c r="K381" s="47"/>
     </row>
     <row r="382" spans="1:11">
       <c r="A382" s="3"/>
@@ -7747,7 +7771,7 @@
       <c r="H382" s="3"/>
       <c r="I382" s="3"/>
       <c r="J382" s="3"/>
-      <c r="K382" s="52"/>
+      <c r="K382" s="47"/>
     </row>
     <row r="383" spans="1:11">
       <c r="A383" s="3"/>
@@ -7759,7 +7783,7 @@
       <c r="H383" s="3"/>
       <c r="I383" s="3"/>
       <c r="J383" s="3"/>
-      <c r="K383" s="52"/>
+      <c r="K383" s="47"/>
     </row>
     <row r="384" spans="1:11">
       <c r="A384" s="3"/>
@@ -7771,7 +7795,7 @@
       <c r="H384" s="3"/>
       <c r="I384" s="3"/>
       <c r="J384" s="3"/>
-      <c r="K384" s="52"/>
+      <c r="K384" s="47"/>
     </row>
     <row r="385" spans="1:11">
       <c r="A385" s="3"/>
@@ -7783,7 +7807,7 @@
       <c r="H385" s="3"/>
       <c r="I385" s="3"/>
       <c r="J385" s="3"/>
-      <c r="K385" s="52"/>
+      <c r="K385" s="47"/>
     </row>
     <row r="386" spans="1:11">
       <c r="A386" s="3"/>
@@ -7795,7 +7819,7 @@
       <c r="H386" s="3"/>
       <c r="I386" s="3"/>
       <c r="J386" s="3"/>
-      <c r="K386" s="52"/>
+      <c r="K386" s="47"/>
     </row>
     <row r="387" spans="1:11">
       <c r="A387" s="3"/>
@@ -7807,7 +7831,7 @@
       <c r="H387" s="3"/>
       <c r="I387" s="3"/>
       <c r="J387" s="3"/>
-      <c r="K387" s="52"/>
+      <c r="K387" s="47"/>
     </row>
     <row r="388" spans="1:11">
       <c r="A388" s="3"/>
@@ -7819,7 +7843,7 @@
       <c r="H388" s="3"/>
       <c r="I388" s="3"/>
       <c r="J388" s="3"/>
-      <c r="K388" s="52"/>
+      <c r="K388" s="47"/>
     </row>
     <row r="389" spans="1:11">
       <c r="A389" s="3"/>
@@ -7831,7 +7855,7 @@
       <c r="H389" s="3"/>
       <c r="I389" s="3"/>
       <c r="J389" s="3"/>
-      <c r="K389" s="52"/>
+      <c r="K389" s="47"/>
     </row>
     <row r="390" spans="1:11">
       <c r="A390" s="3"/>
@@ -7843,7 +7867,7 @@
       <c r="H390" s="3"/>
       <c r="I390" s="3"/>
       <c r="J390" s="3"/>
-      <c r="K390" s="52"/>
+      <c r="K390" s="47"/>
     </row>
     <row r="391" spans="1:11">
       <c r="A391" s="3"/>
@@ -7855,7 +7879,7 @@
       <c r="H391" s="3"/>
       <c r="I391" s="3"/>
       <c r="J391" s="3"/>
-      <c r="K391" s="52"/>
+      <c r="K391" s="47"/>
     </row>
     <row r="392" spans="1:11">
       <c r="A392" s="3"/>
@@ -7867,7 +7891,7 @@
       <c r="H392" s="3"/>
       <c r="I392" s="3"/>
       <c r="J392" s="3"/>
-      <c r="K392" s="52"/>
+      <c r="K392" s="47"/>
     </row>
     <row r="393" spans="1:11">
       <c r="A393" s="3"/>
@@ -7879,7 +7903,7 @@
       <c r="H393" s="3"/>
       <c r="I393" s="3"/>
       <c r="J393" s="3"/>
-      <c r="K393" s="52"/>
+      <c r="K393" s="47"/>
     </row>
     <row r="394" spans="1:11">
       <c r="A394" s="3"/>
@@ -7891,7 +7915,7 @@
       <c r="H394" s="3"/>
       <c r="I394" s="3"/>
       <c r="J394" s="3"/>
-      <c r="K394" s="52"/>
+      <c r="K394" s="47"/>
     </row>
     <row r="395" spans="1:11">
       <c r="A395" s="3"/>
@@ -7903,7 +7927,7 @@
       <c r="H395" s="3"/>
       <c r="I395" s="3"/>
       <c r="J395" s="3"/>
-      <c r="K395" s="52"/>
+      <c r="K395" s="47"/>
     </row>
     <row r="396" spans="1:11">
       <c r="A396" s="3"/>
@@ -7915,7 +7939,7 @@
       <c r="H396" s="3"/>
       <c r="I396" s="3"/>
       <c r="J396" s="3"/>
-      <c r="K396" s="52"/>
+      <c r="K396" s="47"/>
     </row>
     <row r="397" spans="1:11">
       <c r="A397" s="3"/>
@@ -7927,7 +7951,7 @@
       <c r="H397" s="3"/>
       <c r="I397" s="3"/>
       <c r="J397" s="3"/>
-      <c r="K397" s="52"/>
+      <c r="K397" s="47"/>
     </row>
     <row r="398" spans="1:11">
       <c r="A398" s="3"/>
@@ -7939,7 +7963,7 @@
       <c r="H398" s="3"/>
       <c r="I398" s="3"/>
       <c r="J398" s="3"/>
-      <c r="K398" s="52"/>
+      <c r="K398" s="47"/>
     </row>
     <row r="399" spans="1:11">
       <c r="A399" s="3"/>
@@ -7951,7 +7975,7 @@
       <c r="H399" s="3"/>
       <c r="I399" s="3"/>
       <c r="J399" s="3"/>
-      <c r="K399" s="52"/>
+      <c r="K399" s="47"/>
     </row>
     <row r="400" spans="1:11">
       <c r="A400" s="3"/>
@@ -7963,7 +7987,7 @@
       <c r="H400" s="3"/>
       <c r="I400" s="3"/>
       <c r="J400" s="3"/>
-      <c r="K400" s="52"/>
+      <c r="K400" s="47"/>
     </row>
     <row r="401" spans="1:11">
       <c r="A401" s="3"/>
@@ -7975,7 +7999,7 @@
       <c r="H401" s="3"/>
       <c r="I401" s="3"/>
       <c r="J401" s="3"/>
-      <c r="K401" s="52"/>
+      <c r="K401" s="47"/>
     </row>
     <row r="402" spans="1:11">
       <c r="A402" s="3"/>
@@ -7987,7 +8011,7 @@
       <c r="H402" s="3"/>
       <c r="I402" s="3"/>
       <c r="J402" s="3"/>
-      <c r="K402" s="52"/>
+      <c r="K402" s="47"/>
     </row>
     <row r="403" spans="1:11">
       <c r="A403" s="3"/>
@@ -7999,7 +8023,7 @@
       <c r="H403" s="3"/>
       <c r="I403" s="3"/>
       <c r="J403" s="3"/>
-      <c r="K403" s="52"/>
+      <c r="K403" s="47"/>
     </row>
     <row r="404" spans="1:11">
       <c r="A404" s="3"/>
@@ -8011,7 +8035,7 @@
       <c r="H404" s="3"/>
       <c r="I404" s="3"/>
       <c r="J404" s="3"/>
-      <c r="K404" s="52"/>
+      <c r="K404" s="47"/>
     </row>
     <row r="405" spans="1:11">
       <c r="A405" s="3"/>
@@ -8023,7 +8047,7 @@
       <c r="H405" s="3"/>
       <c r="I405" s="3"/>
       <c r="J405" s="3"/>
-      <c r="K405" s="52"/>
+      <c r="K405" s="47"/>
     </row>
     <row r="406" spans="1:11">
       <c r="A406" s="3"/>
@@ -8035,7 +8059,7 @@
       <c r="H406" s="3"/>
       <c r="I406" s="3"/>
       <c r="J406" s="3"/>
-      <c r="K406" s="52"/>
+      <c r="K406" s="47"/>
     </row>
     <row r="407" spans="1:11">
       <c r="A407" s="3"/>
@@ -8047,7 +8071,7 @@
       <c r="H407" s="3"/>
       <c r="I407" s="3"/>
       <c r="J407" s="3"/>
-      <c r="K407" s="52"/>
+      <c r="K407" s="47"/>
     </row>
     <row r="408" spans="1:11">
       <c r="A408" s="3"/>
@@ -8059,7 +8083,7 @@
       <c r="H408" s="3"/>
       <c r="I408" s="3"/>
       <c r="J408" s="3"/>
-      <c r="K408" s="52"/>
+      <c r="K408" s="47"/>
     </row>
     <row r="409" spans="1:11">
       <c r="A409" s="3"/>
@@ -8071,7 +8095,7 @@
       <c r="H409" s="3"/>
       <c r="I409" s="3"/>
       <c r="J409" s="3"/>
-      <c r="K409" s="52"/>
+      <c r="K409" s="47"/>
     </row>
     <row r="410" spans="1:11">
       <c r="A410" s="3"/>
@@ -8083,7 +8107,7 @@
       <c r="H410" s="3"/>
       <c r="I410" s="3"/>
       <c r="J410" s="3"/>
-      <c r="K410" s="52"/>
+      <c r="K410" s="47"/>
     </row>
     <row r="411" spans="1:11">
       <c r="A411" s="3"/>
@@ -8095,7 +8119,7 @@
       <c r="H411" s="3"/>
       <c r="I411" s="3"/>
       <c r="J411" s="3"/>
-      <c r="K411" s="52"/>
+      <c r="K411" s="47"/>
     </row>
     <row r="412" spans="1:11">
       <c r="A412" s="3"/>
@@ -8107,7 +8131,7 @@
       <c r="H412" s="3"/>
       <c r="I412" s="3"/>
       <c r="J412" s="3"/>
-      <c r="K412" s="52"/>
+      <c r="K412" s="47"/>
     </row>
     <row r="413" spans="1:11">
       <c r="A413" s="3"/>
@@ -8119,7 +8143,7 @@
       <c r="H413" s="3"/>
       <c r="I413" s="3"/>
       <c r="J413" s="3"/>
-      <c r="K413" s="52"/>
+      <c r="K413" s="47"/>
     </row>
     <row r="414" spans="1:11">
       <c r="A414" s="3"/>
@@ -8131,7 +8155,7 @@
       <c r="H414" s="3"/>
       <c r="I414" s="3"/>
       <c r="J414" s="3"/>
-      <c r="K414" s="52"/>
+      <c r="K414" s="47"/>
     </row>
     <row r="415" spans="1:11">
       <c r="A415" s="3"/>
@@ -8143,7 +8167,7 @@
       <c r="H415" s="3"/>
       <c r="I415" s="3"/>
       <c r="J415" s="3"/>
-      <c r="K415" s="52"/>
+      <c r="K415" s="47"/>
     </row>
     <row r="416" spans="1:11">
       <c r="A416" s="3"/>
@@ -8155,7 +8179,7 @@
       <c r="H416" s="3"/>
       <c r="I416" s="3"/>
       <c r="J416" s="3"/>
-      <c r="K416" s="52"/>
+      <c r="K416" s="47"/>
     </row>
     <row r="417" spans="1:11">
       <c r="A417" s="3"/>
@@ -8167,7 +8191,7 @@
       <c r="H417" s="3"/>
       <c r="I417" s="3"/>
       <c r="J417" s="3"/>
-      <c r="K417" s="52"/>
+      <c r="K417" s="47"/>
     </row>
     <row r="418" spans="1:11">
       <c r="A418" s="3"/>
@@ -8179,7 +8203,7 @@
       <c r="H418" s="3"/>
       <c r="I418" s="3"/>
       <c r="J418" s="3"/>
-      <c r="K418" s="52"/>
+      <c r="K418" s="47"/>
     </row>
     <row r="419" spans="1:11">
       <c r="A419" s="3"/>
@@ -8191,7 +8215,7 @@
       <c r="H419" s="3"/>
       <c r="I419" s="3"/>
       <c r="J419" s="3"/>
-      <c r="K419" s="52"/>
+      <c r="K419" s="47"/>
     </row>
     <row r="420" spans="1:11">
       <c r="A420" s="3"/>
@@ -8203,7 +8227,7 @@
       <c r="H420" s="3"/>
       <c r="I420" s="3"/>
       <c r="J420" s="3"/>
-      <c r="K420" s="52"/>
+      <c r="K420" s="47"/>
     </row>
     <row r="421" spans="1:11">
       <c r="A421" s="3"/>
@@ -8215,7 +8239,7 @@
       <c r="H421" s="3"/>
       <c r="I421" s="3"/>
       <c r="J421" s="3"/>
-      <c r="K421" s="52"/>
+      <c r="K421" s="47"/>
     </row>
     <row r="422" spans="1:11">
       <c r="A422" s="3"/>
@@ -8227,7 +8251,7 @@
       <c r="H422" s="3"/>
       <c r="I422" s="3"/>
       <c r="J422" s="3"/>
-      <c r="K422" s="52"/>
+      <c r="K422" s="47"/>
     </row>
     <row r="423" spans="1:11">
       <c r="A423" s="3"/>
@@ -8239,7 +8263,7 @@
       <c r="H423" s="3"/>
       <c r="I423" s="3"/>
       <c r="J423" s="3"/>
-      <c r="K423" s="52"/>
+      <c r="K423" s="47"/>
     </row>
     <row r="424" spans="1:11">
       <c r="A424" s="3"/>
@@ -8251,7 +8275,7 @@
       <c r="H424" s="3"/>
       <c r="I424" s="3"/>
       <c r="J424" s="3"/>
-      <c r="K424" s="52"/>
+      <c r="K424" s="47"/>
     </row>
     <row r="425" spans="1:11">
       <c r="A425" s="3"/>
@@ -8263,7 +8287,7 @@
       <c r="H425" s="3"/>
       <c r="I425" s="3"/>
       <c r="J425" s="3"/>
-      <c r="K425" s="52"/>
+      <c r="K425" s="47"/>
     </row>
     <row r="426" spans="1:11">
       <c r="A426" s="3"/>
@@ -8275,7 +8299,7 @@
       <c r="H426" s="3"/>
       <c r="I426" s="3"/>
       <c r="J426" s="3"/>
-      <c r="K426" s="52"/>
+      <c r="K426" s="47"/>
     </row>
     <row r="427" spans="1:11">
       <c r="A427" s="3"/>
@@ -8287,7 +8311,7 @@
       <c r="H427" s="3"/>
       <c r="I427" s="3"/>
       <c r="J427" s="3"/>
-      <c r="K427" s="52"/>
+      <c r="K427" s="47"/>
     </row>
     <row r="428" spans="1:11">
       <c r="A428" s="3"/>
@@ -8299,7 +8323,7 @@
       <c r="H428" s="3"/>
       <c r="I428" s="3"/>
       <c r="J428" s="3"/>
-      <c r="K428" s="52"/>
+      <c r="K428" s="47"/>
     </row>
     <row r="429" spans="1:11">
       <c r="A429" s="3"/>
@@ -8311,7 +8335,7 @@
       <c r="H429" s="3"/>
       <c r="I429" s="3"/>
       <c r="J429" s="3"/>
-      <c r="K429" s="52"/>
+      <c r="K429" s="47"/>
     </row>
     <row r="430" spans="1:11">
       <c r="A430" s="3"/>
@@ -8323,7 +8347,7 @@
       <c r="H430" s="3"/>
       <c r="I430" s="3"/>
       <c r="J430" s="3"/>
-      <c r="K430" s="52"/>
+      <c r="K430" s="47"/>
     </row>
     <row r="431" spans="1:11">
       <c r="A431" s="3"/>
@@ -8335,7 +8359,7 @@
       <c r="H431" s="3"/>
       <c r="I431" s="3"/>
       <c r="J431" s="3"/>
-      <c r="K431" s="52"/>
+      <c r="K431" s="47"/>
     </row>
     <row r="432" spans="1:11">
       <c r="A432" s="3"/>
@@ -8347,7 +8371,7 @@
       <c r="H432" s="3"/>
       <c r="I432" s="3"/>
       <c r="J432" s="3"/>
-      <c r="K432" s="52"/>
+      <c r="K432" s="47"/>
     </row>
     <row r="433" spans="1:11">
       <c r="A433" s="3"/>
@@ -8359,7 +8383,7 @@
       <c r="H433" s="3"/>
       <c r="I433" s="3"/>
       <c r="J433" s="3"/>
-      <c r="K433" s="52"/>
+      <c r="K433" s="47"/>
     </row>
     <row r="434" spans="1:11">
       <c r="A434" s="3"/>
@@ -8371,7 +8395,7 @@
       <c r="H434" s="3"/>
       <c r="I434" s="3"/>
       <c r="J434" s="3"/>
-      <c r="K434" s="52"/>
+      <c r="K434" s="47"/>
     </row>
     <row r="435" spans="1:11">
       <c r="A435" s="3"/>
@@ -8383,7 +8407,7 @@
       <c r="H435" s="3"/>
       <c r="I435" s="3"/>
       <c r="J435" s="3"/>
-      <c r="K435" s="52"/>
+      <c r="K435" s="47"/>
     </row>
     <row r="436" spans="1:11">
       <c r="A436" s="3"/>
@@ -8395,7 +8419,7 @@
       <c r="H436" s="3"/>
       <c r="I436" s="3"/>
       <c r="J436" s="3"/>
-      <c r="K436" s="52"/>
+      <c r="K436" s="47"/>
     </row>
     <row r="437" spans="1:11">
       <c r="A437" s="3"/>
@@ -8407,7 +8431,7 @@
       <c r="H437" s="3"/>
       <c r="I437" s="3"/>
       <c r="J437" s="3"/>
-      <c r="K437" s="52"/>
+      <c r="K437" s="47"/>
     </row>
     <row r="438" spans="1:11">
       <c r="A438" s="3"/>
@@ -8419,7 +8443,7 @@
       <c r="H438" s="3"/>
       <c r="I438" s="3"/>
       <c r="J438" s="3"/>
-      <c r="K438" s="52"/>
+      <c r="K438" s="47"/>
     </row>
     <row r="439" spans="1:11">
       <c r="A439" s="3"/>
@@ -8431,7 +8455,7 @@
       <c r="H439" s="3"/>
       <c r="I439" s="3"/>
       <c r="J439" s="3"/>
-      <c r="K439" s="52"/>
+      <c r="K439" s="47"/>
     </row>
     <row r="440" spans="1:11">
       <c r="A440" s="3"/>
@@ -8443,7 +8467,7 @@
       <c r="H440" s="3"/>
       <c r="I440" s="3"/>
       <c r="J440" s="3"/>
-      <c r="K440" s="52"/>
+      <c r="K440" s="47"/>
     </row>
     <row r="441" spans="1:11">
       <c r="A441" s="3"/>
@@ -8455,7 +8479,7 @@
       <c r="H441" s="3"/>
       <c r="I441" s="3"/>
       <c r="J441" s="3"/>
-      <c r="K441" s="52"/>
+      <c r="K441" s="47"/>
     </row>
     <row r="442" spans="1:11">
       <c r="A442" s="3"/>
@@ -8467,7 +8491,7 @@
       <c r="H442" s="3"/>
       <c r="I442" s="3"/>
       <c r="J442" s="3"/>
-      <c r="K442" s="52"/>
+      <c r="K442" s="47"/>
     </row>
     <row r="443" spans="1:11">
       <c r="A443" s="3"/>
@@ -8479,7 +8503,7 @@
       <c r="H443" s="3"/>
       <c r="I443" s="3"/>
       <c r="J443" s="3"/>
-      <c r="K443" s="52"/>
+      <c r="K443" s="47"/>
     </row>
     <row r="444" spans="1:11">
       <c r="A444" s="3"/>
@@ -8491,7 +8515,7 @@
       <c r="H444" s="3"/>
       <c r="I444" s="3"/>
       <c r="J444" s="3"/>
-      <c r="K444" s="52"/>
+      <c r="K444" s="47"/>
     </row>
     <row r="445" spans="1:11">
       <c r="A445" s="3"/>
@@ -8503,7 +8527,7 @@
       <c r="H445" s="3"/>
       <c r="I445" s="3"/>
       <c r="J445" s="3"/>
-      <c r="K445" s="52"/>
+      <c r="K445" s="47"/>
     </row>
     <row r="446" spans="1:11">
       <c r="A446" s="3"/>
@@ -8515,7 +8539,7 @@
       <c r="H446" s="3"/>
       <c r="I446" s="3"/>
       <c r="J446" s="3"/>
-      <c r="K446" s="52"/>
+      <c r="K446" s="47"/>
     </row>
     <row r="447" spans="1:11">
       <c r="A447" s="3"/>
@@ -8527,7 +8551,7 @@
       <c r="H447" s="3"/>
       <c r="I447" s="3"/>
       <c r="J447" s="3"/>
-      <c r="K447" s="52"/>
+      <c r="K447" s="47"/>
     </row>
     <row r="448" spans="1:11">
       <c r="A448" s="3"/>
@@ -8539,7 +8563,7 @@
       <c r="H448" s="3"/>
       <c r="I448" s="3"/>
       <c r="J448" s="3"/>
-      <c r="K448" s="52"/>
+      <c r="K448" s="47"/>
     </row>
     <row r="449" spans="1:11">
       <c r="A449" s="3"/>
@@ -8551,7 +8575,7 @@
       <c r="H449" s="3"/>
       <c r="I449" s="3"/>
       <c r="J449" s="3"/>
-      <c r="K449" s="52"/>
+      <c r="K449" s="47"/>
     </row>
     <row r="450" spans="1:11">
       <c r="A450" s="3"/>
@@ -8563,7 +8587,7 @@
       <c r="H450" s="3"/>
       <c r="I450" s="3"/>
       <c r="J450" s="3"/>
-      <c r="K450" s="52"/>
+      <c r="K450" s="47"/>
     </row>
     <row r="451" spans="1:11">
       <c r="A451" s="3"/>
@@ -8575,7 +8599,7 @@
       <c r="H451" s="3"/>
       <c r="I451" s="3"/>
       <c r="J451" s="3"/>
-      <c r="K451" s="52"/>
+      <c r="K451" s="47"/>
     </row>
     <row r="452" spans="1:11">
       <c r="A452" s="3"/>
@@ -8587,7 +8611,7 @@
       <c r="H452" s="3"/>
       <c r="I452" s="3"/>
       <c r="J452" s="3"/>
-      <c r="K452" s="52"/>
+      <c r="K452" s="47"/>
     </row>
     <row r="453" spans="1:11">
       <c r="A453" s="3"/>
@@ -8599,7 +8623,7 @@
       <c r="H453" s="3"/>
       <c r="I453" s="3"/>
       <c r="J453" s="3"/>
-      <c r="K453" s="52"/>
+      <c r="K453" s="47"/>
     </row>
     <row r="454" spans="1:11">
       <c r="A454" s="3"/>
@@ -8611,7 +8635,7 @@
       <c r="H454" s="3"/>
       <c r="I454" s="3"/>
       <c r="J454" s="3"/>
-      <c r="K454" s="52"/>
+      <c r="K454" s="47"/>
     </row>
     <row r="455" spans="1:11">
       <c r="A455" s="3"/>
@@ -8623,7 +8647,7 @@
       <c r="H455" s="3"/>
       <c r="I455" s="3"/>
       <c r="J455" s="3"/>
-      <c r="K455" s="52"/>
+      <c r="K455" s="47"/>
     </row>
     <row r="456" spans="1:11">
       <c r="A456" s="3"/>
@@ -8635,7 +8659,7 @@
       <c r="H456" s="3"/>
       <c r="I456" s="3"/>
       <c r="J456" s="3"/>
-      <c r="K456" s="52"/>
+      <c r="K456" s="47"/>
     </row>
     <row r="457" spans="1:11">
       <c r="A457" s="3"/>
@@ -8647,7 +8671,7 @@
       <c r="H457" s="3"/>
       <c r="I457" s="3"/>
       <c r="J457" s="3"/>
-      <c r="K457" s="52"/>
+      <c r="K457" s="47"/>
     </row>
     <row r="458" spans="1:11">
       <c r="A458" s="3"/>
@@ -8659,7 +8683,7 @@
       <c r="H458" s="3"/>
       <c r="I458" s="3"/>
       <c r="J458" s="3"/>
-      <c r="K458" s="52"/>
+      <c r="K458" s="47"/>
     </row>
     <row r="459" spans="1:11">
       <c r="A459" s="3"/>
@@ -8671,7 +8695,7 @@
       <c r="H459" s="3"/>
       <c r="I459" s="3"/>
       <c r="J459" s="3"/>
-      <c r="K459" s="52"/>
+      <c r="K459" s="47"/>
     </row>
     <row r="460" spans="1:11">
       <c r="A460" s="3"/>
@@ -8683,7 +8707,7 @@
       <c r="H460" s="3"/>
       <c r="I460" s="3"/>
       <c r="J460" s="3"/>
-      <c r="K460" s="52"/>
+      <c r="K460" s="47"/>
     </row>
     <row r="461" spans="1:11">
       <c r="A461" s="3"/>
@@ -8695,7 +8719,7 @@
       <c r="H461" s="3"/>
       <c r="I461" s="3"/>
       <c r="J461" s="3"/>
-      <c r="K461" s="52"/>
+      <c r="K461" s="47"/>
     </row>
     <row r="462" spans="1:11">
       <c r="A462" s="3"/>
@@ -8707,7 +8731,7 @@
       <c r="H462" s="3"/>
       <c r="I462" s="3"/>
       <c r="J462" s="3"/>
-      <c r="K462" s="52"/>
+      <c r="K462" s="47"/>
     </row>
     <row r="463" spans="1:11">
       <c r="A463" s="3"/>
@@ -8719,7 +8743,7 @@
       <c r="H463" s="3"/>
       <c r="I463" s="3"/>
       <c r="J463" s="3"/>
-      <c r="K463" s="52"/>
+      <c r="K463" s="47"/>
     </row>
     <row r="464" spans="1:2">
       <c r="A464" s="3"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易计划202112.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易计划202112.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64">
   <si>
     <t>计划编码</t>
   </si>
@@ -236,6 +236,12 @@
     <t>JH_00018</t>
   </si>
   <si>
+    <t>002892</t>
+  </si>
+  <si>
+    <t>科力尔</t>
+  </si>
+  <si>
     <t>000069</t>
   </si>
 </sst>
@@ -245,13 +251,13 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="0.00_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="0.00_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="32">
+  <fonts count="34">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -313,6 +319,16 @@
     </font>
     <font>
       <sz val="10"/>
+      <name val="Helvetica Neue Regular"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="方正书宋_GBK"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
@@ -338,23 +354,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Helvetica Neue"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -366,7 +376,7 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
@@ -375,7 +385,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -385,6 +395,13 @@
       <color rgb="FFFF0000"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -404,11 +421,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Helvetica Neue"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -429,21 +446,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -456,17 +467,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -519,25 +535,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -549,67 +661,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -627,31 +679,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -663,37 +697,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -738,71 +754,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -824,6 +777,69 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -837,152 +853,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="31" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1064,16 +1080,22 @@
     <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1127,13 +1149,13 @@
     <xf numFmtId="10" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1145,10 +1167,10 @@
     <xf numFmtId="176" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" quotePrefix="1">
@@ -2328,11 +2350,11 @@
   <dimension ref="A1:BA543"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D12" sqref="D12"/>
+      <selection pane="bottomRight" activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.82142857142857" defaultRowHeight="12.4"/>
@@ -2382,102 +2404,102 @@
       <c r="J1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="36" t="s">
+      <c r="K1" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="37" t="s">
+      <c r="L1" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="48" t="s">
+      <c r="M1" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="49"/>
-      <c r="O1" s="49"/>
-      <c r="P1" s="49"/>
-      <c r="Q1" s="49"/>
-      <c r="R1" s="49"/>
-      <c r="S1" s="49"/>
-      <c r="T1" s="49"/>
-      <c r="V1" s="55"/>
-      <c r="W1" s="55"/>
-      <c r="X1" s="55"/>
-      <c r="Y1" s="55"/>
-      <c r="Z1" s="55"/>
-      <c r="AA1" s="55"/>
-      <c r="AB1" s="55"/>
-      <c r="AC1" s="55"/>
-      <c r="AE1" s="55"/>
-      <c r="AF1" s="55"/>
-      <c r="AG1" s="55"/>
-      <c r="AH1" s="55"/>
-      <c r="AI1" s="55"/>
-      <c r="AJ1" s="55"/>
-      <c r="AK1" s="55"/>
-      <c r="AM1" s="55"/>
-      <c r="AN1" s="55"/>
-      <c r="AO1" s="55"/>
-      <c r="AP1" s="55"/>
-      <c r="AQ1" s="55"/>
-      <c r="AR1" s="55"/>
-      <c r="AS1" s="55"/>
-      <c r="AU1" s="55"/>
-      <c r="AV1" s="55"/>
-      <c r="AW1" s="55"/>
-      <c r="AX1" s="55"/>
-      <c r="AY1" s="55"/>
-      <c r="AZ1" s="55"/>
-      <c r="BA1" s="55"/>
+      <c r="N1" s="51"/>
+      <c r="O1" s="51"/>
+      <c r="P1" s="51"/>
+      <c r="Q1" s="51"/>
+      <c r="R1" s="51"/>
+      <c r="S1" s="51"/>
+      <c r="T1" s="51"/>
+      <c r="V1" s="57"/>
+      <c r="W1" s="57"/>
+      <c r="X1" s="57"/>
+      <c r="Y1" s="57"/>
+      <c r="Z1" s="57"/>
+      <c r="AA1" s="57"/>
+      <c r="AB1" s="57"/>
+      <c r="AC1" s="57"/>
+      <c r="AE1" s="57"/>
+      <c r="AF1" s="57"/>
+      <c r="AG1" s="57"/>
+      <c r="AH1" s="57"/>
+      <c r="AI1" s="57"/>
+      <c r="AJ1" s="57"/>
+      <c r="AK1" s="57"/>
+      <c r="AM1" s="57"/>
+      <c r="AN1" s="57"/>
+      <c r="AO1" s="57"/>
+      <c r="AP1" s="57"/>
+      <c r="AQ1" s="57"/>
+      <c r="AR1" s="57"/>
+      <c r="AS1" s="57"/>
+      <c r="AU1" s="57"/>
+      <c r="AV1" s="57"/>
+      <c r="AW1" s="57"/>
+      <c r="AX1" s="57"/>
+      <c r="AY1" s="57"/>
+      <c r="AZ1" s="57"/>
+      <c r="BA1" s="57"/>
     </row>
     <row r="2" ht="23.6" spans="1:53">
       <c r="A2" s="6"/>
       <c r="B2" s="7"/>
       <c r="C2" s="8"/>
       <c r="D2" s="10"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
       <c r="H2" s="9"/>
       <c r="I2" s="9"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="50"/>
-      <c r="N2" s="49"/>
-      <c r="O2" s="49"/>
-      <c r="P2" s="49"/>
-      <c r="Q2" s="49"/>
-      <c r="R2" s="49"/>
-      <c r="S2" s="49"/>
-      <c r="T2" s="49"/>
-      <c r="V2" s="55"/>
-      <c r="W2" s="55"/>
-      <c r="X2" s="55"/>
-      <c r="Y2" s="55"/>
-      <c r="Z2" s="55"/>
-      <c r="AA2" s="55"/>
-      <c r="AB2" s="55"/>
-      <c r="AC2" s="55"/>
-      <c r="AE2" s="55"/>
-      <c r="AF2" s="55"/>
-      <c r="AG2" s="55"/>
-      <c r="AH2" s="55"/>
-      <c r="AI2" s="55"/>
-      <c r="AJ2" s="55"/>
-      <c r="AK2" s="55"/>
-      <c r="AM2" s="55"/>
-      <c r="AN2" s="55"/>
-      <c r="AO2" s="55"/>
-      <c r="AP2" s="55"/>
-      <c r="AQ2" s="55"/>
-      <c r="AR2" s="55"/>
-      <c r="AS2" s="55"/>
-      <c r="AU2" s="55"/>
-      <c r="AV2" s="55"/>
-      <c r="AW2" s="55"/>
-      <c r="AX2" s="55"/>
-      <c r="AY2" s="55"/>
-      <c r="AZ2" s="55"/>
-      <c r="BA2" s="55"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="52"/>
+      <c r="N2" s="51"/>
+      <c r="O2" s="51"/>
+      <c r="P2" s="51"/>
+      <c r="Q2" s="51"/>
+      <c r="R2" s="51"/>
+      <c r="S2" s="51"/>
+      <c r="T2" s="51"/>
+      <c r="V2" s="57"/>
+      <c r="W2" s="57"/>
+      <c r="X2" s="57"/>
+      <c r="Y2" s="57"/>
+      <c r="Z2" s="57"/>
+      <c r="AA2" s="57"/>
+      <c r="AB2" s="57"/>
+      <c r="AC2" s="57"/>
+      <c r="AE2" s="57"/>
+      <c r="AF2" s="57"/>
+      <c r="AG2" s="57"/>
+      <c r="AH2" s="57"/>
+      <c r="AI2" s="57"/>
+      <c r="AJ2" s="57"/>
+      <c r="AK2" s="57"/>
+      <c r="AM2" s="57"/>
+      <c r="AN2" s="57"/>
+      <c r="AO2" s="57"/>
+      <c r="AP2" s="57"/>
+      <c r="AQ2" s="57"/>
+      <c r="AR2" s="57"/>
+      <c r="AS2" s="57"/>
+      <c r="AU2" s="57"/>
+      <c r="AV2" s="57"/>
+      <c r="AW2" s="57"/>
+      <c r="AX2" s="57"/>
+      <c r="AY2" s="57"/>
+      <c r="AZ2" s="57"/>
+      <c r="BA2" s="57"/>
     </row>
     <row r="3" customFormat="1" ht="23.6" spans="1:53">
       <c r="A3" s="11" t="s">
@@ -2492,74 +2514,74 @@
       <c r="D3" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="32">
+      <c r="E3" s="34">
         <v>34.12</v>
       </c>
-      <c r="F3" s="32">
+      <c r="F3" s="34">
         <v>32.53</v>
       </c>
-      <c r="G3" s="32">
+      <c r="G3" s="34">
         <v>39.33</v>
       </c>
-      <c r="H3" s="32">
-        <f t="shared" ref="H3:H18" si="0">(E3-F3)*100</f>
+      <c r="H3" s="34">
+        <f t="shared" ref="H3:H19" si="0">(E3-F3)*100</f>
         <v>159</v>
       </c>
-      <c r="I3" s="32">
+      <c r="I3" s="34">
         <f>FLOOR(1000/(E3-F3),100)</f>
         <v>600</v>
       </c>
-      <c r="J3" s="38">
+      <c r="J3" s="40">
         <f t="shared" ref="J3:J11" si="1">(G3-E3)/(E3-F3)</f>
         <v>3.27672955974844</v>
       </c>
-      <c r="K3" s="39">
+      <c r="K3" s="41">
         <f t="shared" ref="K3:K14" si="2">(E3-F3)/E3</f>
         <v>0.0466002344665884</v>
       </c>
-      <c r="L3" s="40">
+      <c r="L3" s="42">
         <f t="shared" ref="L3:L11" si="3">(G3-E3)/E3</f>
         <v>0.152696365767878</v>
       </c>
       <c r="M3" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="N3" s="49"/>
-      <c r="O3" s="49"/>
-      <c r="P3" s="49"/>
-      <c r="Q3" s="49"/>
-      <c r="R3" s="49"/>
-      <c r="S3" s="49"/>
-      <c r="T3" s="49"/>
-      <c r="V3" s="55"/>
-      <c r="W3" s="55"/>
-      <c r="X3" s="55"/>
-      <c r="Y3" s="55"/>
-      <c r="Z3" s="55"/>
-      <c r="AA3" s="55"/>
-      <c r="AB3" s="55"/>
-      <c r="AC3" s="55"/>
-      <c r="AE3" s="55"/>
-      <c r="AF3" s="55"/>
-      <c r="AG3" s="55"/>
-      <c r="AH3" s="55"/>
-      <c r="AI3" s="55"/>
-      <c r="AJ3" s="55"/>
-      <c r="AK3" s="55"/>
-      <c r="AM3" s="55"/>
-      <c r="AN3" s="55"/>
-      <c r="AO3" s="55"/>
-      <c r="AP3" s="55"/>
-      <c r="AQ3" s="55"/>
-      <c r="AR3" s="55"/>
-      <c r="AS3" s="55"/>
-      <c r="AU3" s="55"/>
-      <c r="AV3" s="55"/>
-      <c r="AW3" s="55"/>
-      <c r="AX3" s="55"/>
-      <c r="AY3" s="55"/>
-      <c r="AZ3" s="55"/>
-      <c r="BA3" s="55"/>
+      <c r="N3" s="51"/>
+      <c r="O3" s="51"/>
+      <c r="P3" s="51"/>
+      <c r="Q3" s="51"/>
+      <c r="R3" s="51"/>
+      <c r="S3" s="51"/>
+      <c r="T3" s="51"/>
+      <c r="V3" s="57"/>
+      <c r="W3" s="57"/>
+      <c r="X3" s="57"/>
+      <c r="Y3" s="57"/>
+      <c r="Z3" s="57"/>
+      <c r="AA3" s="57"/>
+      <c r="AB3" s="57"/>
+      <c r="AC3" s="57"/>
+      <c r="AE3" s="57"/>
+      <c r="AF3" s="57"/>
+      <c r="AG3" s="57"/>
+      <c r="AH3" s="57"/>
+      <c r="AI3" s="57"/>
+      <c r="AJ3" s="57"/>
+      <c r="AK3" s="57"/>
+      <c r="AM3" s="57"/>
+      <c r="AN3" s="57"/>
+      <c r="AO3" s="57"/>
+      <c r="AP3" s="57"/>
+      <c r="AQ3" s="57"/>
+      <c r="AR3" s="57"/>
+      <c r="AS3" s="57"/>
+      <c r="AU3" s="57"/>
+      <c r="AV3" s="57"/>
+      <c r="AW3" s="57"/>
+      <c r="AX3" s="57"/>
+      <c r="AY3" s="57"/>
+      <c r="AZ3" s="57"/>
+      <c r="BA3" s="57"/>
     </row>
     <row r="4" customFormat="1" ht="23.6" spans="1:53">
       <c r="A4" s="11" t="s">
@@ -2574,74 +2596,74 @@
       <c r="D4" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="32">
+      <c r="E4" s="34">
         <v>32.65</v>
       </c>
-      <c r="F4" s="32">
+      <c r="F4" s="34">
         <v>30.89</v>
       </c>
-      <c r="G4" s="32">
+      <c r="G4" s="34">
         <v>36.22</v>
       </c>
-      <c r="H4" s="32">
+      <c r="H4" s="34">
         <f t="shared" si="0"/>
         <v>176</v>
       </c>
-      <c r="I4" s="32">
+      <c r="I4" s="34">
         <f>FLOOR(1000/(E4-F4),100)</f>
         <v>500</v>
       </c>
-      <c r="J4" s="38">
+      <c r="J4" s="40">
         <f t="shared" si="1"/>
         <v>2.02840909090909</v>
       </c>
-      <c r="K4" s="39">
+      <c r="K4" s="41">
         <f t="shared" si="2"/>
         <v>0.0539050535987748</v>
       </c>
-      <c r="L4" s="40">
+      <c r="L4" s="42">
         <f t="shared" si="3"/>
         <v>0.109341500765697</v>
       </c>
       <c r="M4" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="N4" s="49"/>
-      <c r="O4" s="49"/>
-      <c r="P4" s="49"/>
-      <c r="Q4" s="49"/>
-      <c r="R4" s="49"/>
-      <c r="S4" s="49"/>
-      <c r="T4" s="49"/>
-      <c r="V4" s="55"/>
-      <c r="W4" s="55"/>
-      <c r="X4" s="55"/>
-      <c r="Y4" s="55"/>
-      <c r="Z4" s="55"/>
-      <c r="AA4" s="55"/>
-      <c r="AB4" s="55"/>
-      <c r="AC4" s="55"/>
-      <c r="AE4" s="55"/>
-      <c r="AF4" s="55"/>
-      <c r="AG4" s="55"/>
-      <c r="AH4" s="55"/>
-      <c r="AI4" s="55"/>
-      <c r="AJ4" s="55"/>
-      <c r="AK4" s="55"/>
-      <c r="AM4" s="55"/>
-      <c r="AN4" s="55"/>
-      <c r="AO4" s="55"/>
-      <c r="AP4" s="55"/>
-      <c r="AQ4" s="55"/>
-      <c r="AR4" s="55"/>
-      <c r="AS4" s="55"/>
-      <c r="AU4" s="55"/>
-      <c r="AV4" s="55"/>
-      <c r="AW4" s="55"/>
-      <c r="AX4" s="55"/>
-      <c r="AY4" s="55"/>
-      <c r="AZ4" s="55"/>
-      <c r="BA4" s="55"/>
+      <c r="N4" s="51"/>
+      <c r="O4" s="51"/>
+      <c r="P4" s="51"/>
+      <c r="Q4" s="51"/>
+      <c r="R4" s="51"/>
+      <c r="S4" s="51"/>
+      <c r="T4" s="51"/>
+      <c r="V4" s="57"/>
+      <c r="W4" s="57"/>
+      <c r="X4" s="57"/>
+      <c r="Y4" s="57"/>
+      <c r="Z4" s="57"/>
+      <c r="AA4" s="57"/>
+      <c r="AB4" s="57"/>
+      <c r="AC4" s="57"/>
+      <c r="AE4" s="57"/>
+      <c r="AF4" s="57"/>
+      <c r="AG4" s="57"/>
+      <c r="AH4" s="57"/>
+      <c r="AI4" s="57"/>
+      <c r="AJ4" s="57"/>
+      <c r="AK4" s="57"/>
+      <c r="AM4" s="57"/>
+      <c r="AN4" s="57"/>
+      <c r="AO4" s="57"/>
+      <c r="AP4" s="57"/>
+      <c r="AQ4" s="57"/>
+      <c r="AR4" s="57"/>
+      <c r="AS4" s="57"/>
+      <c r="AU4" s="57"/>
+      <c r="AV4" s="57"/>
+      <c r="AW4" s="57"/>
+      <c r="AX4" s="57"/>
+      <c r="AY4" s="57"/>
+      <c r="AZ4" s="57"/>
+      <c r="BA4" s="57"/>
     </row>
     <row r="5" s="1" customFormat="1" ht="38" spans="1:14">
       <c r="A5" s="11" t="s">
@@ -2656,39 +2678,39 @@
       <c r="D5" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="32">
+      <c r="E5" s="34">
         <v>51.15</v>
       </c>
-      <c r="F5" s="32">
+      <c r="F5" s="34">
         <v>46.61</v>
       </c>
-      <c r="G5" s="32">
+      <c r="G5" s="34">
         <v>59.59</v>
       </c>
-      <c r="H5" s="32">
+      <c r="H5" s="34">
         <f t="shared" si="0"/>
         <v>454</v>
       </c>
-      <c r="I5" s="32">
+      <c r="I5" s="34">
         <f t="shared" ref="I5:I19" si="4">FLOOR(1000/(E5-F5),100)</f>
         <v>200</v>
       </c>
-      <c r="J5" s="38">
+      <c r="J5" s="40">
         <f t="shared" si="1"/>
         <v>1.85903083700441</v>
       </c>
-      <c r="K5" s="39">
+      <c r="K5" s="41">
         <f t="shared" si="2"/>
         <v>0.0887585532746823</v>
       </c>
-      <c r="L5" s="40">
+      <c r="L5" s="42">
         <f t="shared" si="3"/>
         <v>0.165004887585533</v>
       </c>
-      <c r="M5" s="51" t="s">
+      <c r="M5" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="N5" s="52"/>
+      <c r="N5" s="54"/>
     </row>
     <row r="6" s="1" customFormat="1" ht="13" spans="1:14">
       <c r="A6" s="11" t="s">
@@ -2703,39 +2725,39 @@
       <c r="D6" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="33">
+      <c r="E6" s="35">
         <v>143.8</v>
       </c>
-      <c r="F6" s="33">
+      <c r="F6" s="35">
         <v>137.88</v>
       </c>
-      <c r="G6" s="33">
+      <c r="G6" s="35">
         <v>158.48</v>
       </c>
-      <c r="H6" s="32">
+      <c r="H6" s="34">
         <f t="shared" si="0"/>
         <v>592.000000000002</v>
       </c>
-      <c r="I6" s="32">
+      <c r="I6" s="34">
         <f t="shared" si="4"/>
         <v>100</v>
       </c>
-      <c r="J6" s="38">
+      <c r="J6" s="40">
         <f t="shared" si="1"/>
         <v>2.47972972972972</v>
       </c>
-      <c r="K6" s="39">
+      <c r="K6" s="41">
         <f t="shared" si="2"/>
         <v>0.0411682892906816</v>
       </c>
-      <c r="L6" s="40">
+      <c r="L6" s="42">
         <f t="shared" si="3"/>
         <v>0.102086230876217</v>
       </c>
       <c r="M6" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="N6" s="52"/>
+      <c r="N6" s="54"/>
     </row>
     <row r="7" s="1" customFormat="1" ht="38" spans="1:14">
       <c r="A7" s="11" t="s">
@@ -2750,39 +2772,39 @@
       <c r="D7" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="33">
+      <c r="E7" s="35">
         <v>20.44</v>
       </c>
-      <c r="F7" s="33">
+      <c r="F7" s="35">
         <v>19.09</v>
       </c>
-      <c r="G7" s="33">
+      <c r="G7" s="35">
         <v>23.43</v>
       </c>
-      <c r="H7" s="32">
+      <c r="H7" s="34">
         <f t="shared" si="0"/>
         <v>135</v>
       </c>
-      <c r="I7" s="32">
+      <c r="I7" s="34">
         <f t="shared" si="4"/>
         <v>700</v>
       </c>
-      <c r="J7" s="38">
+      <c r="J7" s="40">
         <f t="shared" si="1"/>
         <v>2.21481481481481</v>
       </c>
-      <c r="K7" s="39">
+      <c r="K7" s="41">
         <f t="shared" si="2"/>
         <v>0.0660469667318983</v>
       </c>
-      <c r="L7" s="40">
+      <c r="L7" s="42">
         <f t="shared" si="3"/>
         <v>0.146281800391389</v>
       </c>
-      <c r="M7" s="51" t="s">
+      <c r="M7" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="N7" s="52"/>
+      <c r="N7" s="54"/>
     </row>
     <row r="8" s="1" customFormat="1" ht="13" spans="1:14">
       <c r="A8" s="11" t="s">
@@ -2806,30 +2828,30 @@
       <c r="G8" s="11">
         <v>20.72</v>
       </c>
-      <c r="H8" s="32">
+      <c r="H8" s="34">
         <f t="shared" si="0"/>
         <v>169</v>
       </c>
-      <c r="I8" s="32">
+      <c r="I8" s="34">
         <f t="shared" si="4"/>
         <v>500</v>
       </c>
-      <c r="J8" s="38">
+      <c r="J8" s="40">
         <f t="shared" si="1"/>
         <v>2.0887573964497</v>
       </c>
-      <c r="K8" s="39">
+      <c r="K8" s="41">
         <f t="shared" si="2"/>
         <v>0.0983129726585225</v>
       </c>
-      <c r="L8" s="40">
+      <c r="L8" s="42">
         <f t="shared" si="3"/>
         <v>0.205351948807446</v>
       </c>
       <c r="M8" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="N8" s="52"/>
+      <c r="N8" s="54"/>
     </row>
     <row r="9" s="2" customFormat="1" ht="13" spans="1:13">
       <c r="A9" s="11" t="s">
@@ -2853,23 +2875,23 @@
       <c r="G9" s="11">
         <v>65.72</v>
       </c>
-      <c r="H9" s="32">
+      <c r="H9" s="34">
         <f t="shared" si="0"/>
         <v>579</v>
       </c>
-      <c r="I9" s="32">
+      <c r="I9" s="34">
         <f t="shared" si="4"/>
         <v>100</v>
       </c>
-      <c r="J9" s="38">
+      <c r="J9" s="40">
         <f t="shared" si="1"/>
         <v>0.24525043177893</v>
       </c>
-      <c r="K9" s="39">
+      <c r="K9" s="41">
         <f t="shared" si="2"/>
         <v>0.0900466562986003</v>
       </c>
-      <c r="L9" s="40">
+      <c r="L9" s="42">
         <f t="shared" si="3"/>
         <v>0.0220839813374806</v>
       </c>
@@ -2899,23 +2921,23 @@
       <c r="G10" s="11">
         <v>44.28</v>
       </c>
-      <c r="H10" s="32">
+      <c r="H10" s="34">
         <f t="shared" si="0"/>
         <v>324</v>
       </c>
-      <c r="I10" s="32">
+      <c r="I10" s="34">
         <f t="shared" si="4"/>
         <v>300</v>
       </c>
-      <c r="J10" s="38">
+      <c r="J10" s="40">
         <f t="shared" si="1"/>
         <v>1.58333333333333</v>
       </c>
-      <c r="K10" s="39">
+      <c r="K10" s="41">
         <f t="shared" si="2"/>
         <v>0.0827586206896552</v>
       </c>
-      <c r="L10" s="40">
+      <c r="L10" s="42">
         <f t="shared" si="3"/>
         <v>0.131034482758621</v>
       </c>
@@ -2930,7 +2952,7 @@
       <c r="B11" s="15">
         <v>44539</v>
       </c>
-      <c r="C11" s="56" t="s">
+      <c r="C11" s="58" t="s">
         <v>38</v>
       </c>
       <c r="D11" s="22" t="s">
@@ -2945,30 +2967,30 @@
       <c r="G11" s="11">
         <v>131.73</v>
       </c>
-      <c r="H11" s="32">
+      <c r="H11" s="34">
         <f t="shared" si="0"/>
         <v>663</v>
       </c>
-      <c r="I11" s="32">
+      <c r="I11" s="34">
         <f t="shared" si="4"/>
         <v>100</v>
       </c>
-      <c r="J11" s="38">
+      <c r="J11" s="40">
         <f t="shared" si="1"/>
         <v>2.10105580693816</v>
       </c>
-      <c r="K11" s="39">
+      <c r="K11" s="41">
         <f t="shared" si="2"/>
         <v>0.0562818336162988</v>
       </c>
-      <c r="L11" s="40">
+      <c r="L11" s="42">
         <f t="shared" si="3"/>
         <v>0.118251273344652</v>
       </c>
       <c r="M11" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="N11" s="52"/>
+      <c r="N11" s="54"/>
     </row>
     <row r="12" s="2" customFormat="1" ht="24" spans="1:13">
       <c r="A12" s="11" t="s">
@@ -2992,25 +3014,25 @@
       <c r="G12" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="H12" s="32">
+      <c r="H12" s="34">
         <f t="shared" si="0"/>
         <v>270</v>
       </c>
-      <c r="I12" s="32">
+      <c r="I12" s="34">
         <f t="shared" si="4"/>
         <v>300</v>
       </c>
-      <c r="J12" s="38" t="s">
+      <c r="J12" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="K12" s="39">
+      <c r="K12" s="41">
         <f t="shared" si="2"/>
         <v>0.054655870445344</v>
       </c>
-      <c r="L12" s="40" t="s">
+      <c r="L12" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="M12" s="51" t="s">
+      <c r="M12" s="53" t="s">
         <v>43</v>
       </c>
     </row>
@@ -3027,33 +3049,33 @@
       <c r="D13" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="32">
+      <c r="E13" s="34">
         <v>37.73</v>
       </c>
-      <c r="F13" s="32">
+      <c r="F13" s="34">
         <v>34.68</v>
       </c>
-      <c r="G13" s="32">
+      <c r="G13" s="34">
         <v>46.05</v>
       </c>
-      <c r="H13" s="32">
+      <c r="H13" s="34">
         <f t="shared" si="0"/>
         <v>305</v>
       </c>
-      <c r="I13" s="32">
+      <c r="I13" s="34">
         <f t="shared" si="4"/>
         <v>300</v>
       </c>
-      <c r="J13" s="38">
+      <c r="J13" s="40">
         <f>(G13-E13)/(E13-F13)</f>
         <v>2.72786885245902</v>
       </c>
-      <c r="K13" s="39">
+      <c r="K13" s="41">
         <f t="shared" si="2"/>
         <v>0.0808375298171216</v>
       </c>
-      <c r="L13" s="40">
-        <f t="shared" ref="L13:L18" si="5">(G13-E13)/E13</f>
+      <c r="L13" s="42">
+        <f t="shared" ref="L13:L19" si="5">(G13-E13)/E13</f>
         <v>0.220514179697853</v>
       </c>
       <c r="M13" s="17" t="s">
@@ -3067,7 +3089,7 @@
       <c r="B14" s="23">
         <v>44525</v>
       </c>
-      <c r="C14" s="57" t="s">
+      <c r="C14" s="59" t="s">
         <v>46</v>
       </c>
       <c r="D14" s="17" t="s">
@@ -3082,27 +3104,27 @@
       <c r="G14" s="24">
         <v>84.94</v>
       </c>
-      <c r="H14" s="34">
+      <c r="H14" s="36">
         <f t="shared" si="0"/>
         <v>410.000000000001</v>
       </c>
-      <c r="I14" s="32">
+      <c r="I14" s="34">
         <f t="shared" si="4"/>
         <v>200</v>
       </c>
-      <c r="J14" s="38">
+      <c r="J14" s="40">
         <f t="shared" ref="J14:J19" si="6">(G14-E14)/(E14-F14)</f>
         <v>3.40487804878048</v>
       </c>
-      <c r="K14" s="39">
-        <f t="shared" ref="K14:K18" si="7">(E14-F14)/E14</f>
+      <c r="K14" s="41">
+        <f t="shared" ref="K14:K19" si="7">(E14-F14)/E14</f>
         <v>0.0577627500704425</v>
       </c>
-      <c r="L14" s="41">
+      <c r="L14" s="43">
         <f t="shared" si="5"/>
         <v>0.196675119752043</v>
       </c>
-      <c r="M14" s="53" t="s">
+      <c r="M14" s="55" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3128,27 +3150,27 @@
       <c r="G15" s="24">
         <v>34.93</v>
       </c>
-      <c r="H15" s="34">
+      <c r="H15" s="36">
         <f t="shared" si="0"/>
         <v>205</v>
       </c>
-      <c r="I15" s="32">
+      <c r="I15" s="34">
         <f t="shared" si="4"/>
         <v>400</v>
       </c>
-      <c r="J15" s="38">
+      <c r="J15" s="40">
         <f t="shared" si="6"/>
         <v>2.51707317073171</v>
       </c>
-      <c r="K15" s="42">
+      <c r="K15" s="44">
         <f t="shared" si="7"/>
         <v>0.0688612697346322</v>
       </c>
-      <c r="L15" s="41">
+      <c r="L15" s="43">
         <f t="shared" si="5"/>
         <v>0.173328854551562</v>
       </c>
-      <c r="M15" s="53" t="s">
+      <c r="M15" s="55" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3174,27 +3196,27 @@
       <c r="G16" s="24">
         <v>38.71</v>
       </c>
-      <c r="H16" s="34">
+      <c r="H16" s="36">
         <f t="shared" si="0"/>
         <v>131</v>
       </c>
-      <c r="I16" s="32">
+      <c r="I16" s="34">
         <f t="shared" si="4"/>
         <v>700</v>
       </c>
-      <c r="J16" s="38">
+      <c r="J16" s="40">
         <f t="shared" si="6"/>
         <v>6.14503816793894</v>
       </c>
-      <c r="K16" s="42">
+      <c r="K16" s="44">
         <f t="shared" si="7"/>
         <v>0.042726679712981</v>
       </c>
-      <c r="L16" s="41">
+      <c r="L16" s="43">
         <f t="shared" si="5"/>
         <v>0.262557077625571</v>
       </c>
-      <c r="M16" s="53" t="s">
+      <c r="M16" s="55" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3211,36 +3233,36 @@
       <c r="D17" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="E17" s="34">
+      <c r="E17" s="36">
         <v>26.2</v>
       </c>
-      <c r="F17" s="34">
+      <c r="F17" s="36">
         <v>24.68</v>
       </c>
-      <c r="G17" s="34">
+      <c r="G17" s="36">
         <v>32.49</v>
       </c>
-      <c r="H17" s="34">
+      <c r="H17" s="36">
         <f t="shared" si="0"/>
         <v>152</v>
       </c>
-      <c r="I17" s="32">
+      <c r="I17" s="34">
         <f t="shared" si="4"/>
         <v>600</v>
       </c>
-      <c r="J17" s="38">
+      <c r="J17" s="40">
         <f t="shared" si="6"/>
         <v>4.13815789473685</v>
       </c>
-      <c r="K17" s="42">
+      <c r="K17" s="44">
         <f t="shared" si="7"/>
         <v>0.0580152671755725</v>
       </c>
-      <c r="L17" s="41">
+      <c r="L17" s="43">
         <f t="shared" si="5"/>
         <v>0.240076335877863</v>
       </c>
-      <c r="M17" s="53" t="s">
+      <c r="M17" s="55" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3251,7 +3273,7 @@
       <c r="B18" s="23">
         <v>44533</v>
       </c>
-      <c r="C18" s="57" t="s">
+      <c r="C18" s="59" t="s">
         <v>56</v>
       </c>
       <c r="D18" s="17" t="s">
@@ -3266,27 +3288,27 @@
       <c r="G18" s="24">
         <v>32.36</v>
       </c>
-      <c r="H18" s="34">
+      <c r="H18" s="36">
         <f t="shared" si="0"/>
         <v>251</v>
       </c>
-      <c r="I18" s="32">
+      <c r="I18" s="34">
         <f t="shared" si="4"/>
         <v>300</v>
       </c>
-      <c r="J18" s="38">
+      <c r="J18" s="40">
         <f t="shared" si="6"/>
         <v>1.41035856573705</v>
       </c>
-      <c r="K18" s="42">
+      <c r="K18" s="44">
         <f t="shared" si="7"/>
         <v>0.0870922970159612</v>
       </c>
-      <c r="L18" s="41">
+      <c r="L18" s="43">
         <f t="shared" si="5"/>
         <v>0.122831367106176</v>
       </c>
-      <c r="M18" s="53" t="s">
+      <c r="M18" s="55" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3303,434 +3325,465 @@
       <c r="D19" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E19" s="28">
+      <c r="E19" s="29">
         <v>38.89</v>
       </c>
-      <c r="F19" s="28">
+      <c r="F19" s="29">
         <v>36.65</v>
       </c>
-      <c r="G19" s="28">
+      <c r="G19" s="29">
         <v>40.7</v>
       </c>
-      <c r="H19" s="34">
-        <f>(E19-F19)*100</f>
+      <c r="H19" s="36">
+        <f t="shared" si="0"/>
         <v>224</v>
       </c>
-      <c r="I19" s="32">
+      <c r="I19" s="34">
         <f t="shared" si="4"/>
         <v>400</v>
       </c>
-      <c r="J19" s="38">
+      <c r="J19" s="40">
         <f t="shared" si="6"/>
         <v>0.808035714285715</v>
       </c>
-      <c r="K19" s="42">
-        <f>(E19-F19)/E19</f>
+      <c r="K19" s="44">
+        <f t="shared" si="7"/>
         <v>0.0575983543327334</v>
       </c>
-      <c r="L19" s="41">
-        <f>(G19-E19)/E19</f>
+      <c r="L19" s="43">
+        <f t="shared" si="5"/>
         <v>0.0465415273849319</v>
       </c>
-      <c r="M19" s="54"/>
+      <c r="M19" s="55" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="20" s="2" customFormat="1" ht="13" spans="1:13">
       <c r="A20" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="B20" s="26"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="35"/>
-      <c r="I20" s="28"/>
-      <c r="J20" s="43"/>
-      <c r="K20" s="44"/>
-      <c r="L20" s="45"/>
-      <c r="M20" s="54"/>
+      <c r="B20" s="26">
+        <v>44545</v>
+      </c>
+      <c r="C20" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="D20" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="E20" s="29">
+        <v>27.73</v>
+      </c>
+      <c r="F20" s="29">
+        <v>25.3</v>
+      </c>
+      <c r="G20" s="29">
+        <v>31.94</v>
+      </c>
+      <c r="H20" s="36">
+        <f>(E20-F20)*100</f>
+        <v>243</v>
+      </c>
+      <c r="I20" s="34">
+        <f>FLOOR(1000/(E20-F20),100)</f>
+        <v>400</v>
+      </c>
+      <c r="J20" s="40">
+        <f>(G20-E20)/(E20-F20)</f>
+        <v>1.73251028806584</v>
+      </c>
+      <c r="K20" s="44">
+        <f>(E20-F20)/E20</f>
+        <v>0.0876307248467364</v>
+      </c>
+      <c r="L20" s="43">
+        <f>(G20-E20)/E20</f>
+        <v>0.151821132347638</v>
+      </c>
+      <c r="M20" s="56" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="21" s="2" customFormat="1" spans="1:13">
-      <c r="A21" s="28"/>
+      <c r="A21" s="29"/>
       <c r="B21" s="26"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="35"/>
-      <c r="I21" s="28"/>
-      <c r="J21" s="43"/>
-      <c r="K21" s="44"/>
-      <c r="L21" s="45"/>
-      <c r="M21" s="54"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="37"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="45"/>
+      <c r="K21" s="46"/>
+      <c r="L21" s="47"/>
+      <c r="M21" s="56"/>
     </row>
     <row r="22" s="2" customFormat="1" spans="1:13">
-      <c r="A22" s="28"/>
+      <c r="A22" s="29"/>
       <c r="B22" s="26"/>
-      <c r="C22" s="27"/>
-      <c r="D22" s="28"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="35"/>
-      <c r="I22" s="28"/>
-      <c r="J22" s="43"/>
-      <c r="K22" s="44"/>
-      <c r="L22" s="45"/>
-      <c r="M22" s="54"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="37"/>
+      <c r="I22" s="29"/>
+      <c r="J22" s="45"/>
+      <c r="K22" s="46"/>
+      <c r="L22" s="47"/>
+      <c r="M22" s="56"/>
     </row>
     <row r="23" s="2" customFormat="1" spans="1:13">
-      <c r="A23" s="28"/>
+      <c r="A23" s="29"/>
       <c r="B23" s="26"/>
-      <c r="C23" s="27"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="35"/>
-      <c r="I23" s="28"/>
-      <c r="J23" s="43"/>
-      <c r="K23" s="44"/>
-      <c r="L23" s="45"/>
-      <c r="M23" s="28"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="37"/>
+      <c r="I23" s="29"/>
+      <c r="J23" s="45"/>
+      <c r="K23" s="46"/>
+      <c r="L23" s="47"/>
+      <c r="M23" s="29"/>
     </row>
     <row r="24" s="2" customFormat="1" spans="1:13">
-      <c r="A24" s="28"/>
+      <c r="A24" s="29"/>
       <c r="B24" s="26"/>
-      <c r="C24" s="27"/>
-      <c r="D24" s="28"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="28"/>
-      <c r="G24" s="28"/>
-      <c r="H24" s="35"/>
-      <c r="I24" s="28"/>
-      <c r="J24" s="43"/>
-      <c r="K24" s="44"/>
-      <c r="L24" s="45"/>
-      <c r="M24" s="28"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="37"/>
+      <c r="I24" s="29"/>
+      <c r="J24" s="45"/>
+      <c r="K24" s="46"/>
+      <c r="L24" s="47"/>
+      <c r="M24" s="29"/>
     </row>
     <row r="25" s="2" customFormat="1" spans="1:13">
-      <c r="A25" s="28"/>
+      <c r="A25" s="29"/>
       <c r="B25" s="26"/>
-      <c r="C25" s="27"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="28"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="28"/>
-      <c r="H25" s="35"/>
-      <c r="I25" s="28"/>
-      <c r="J25" s="43"/>
-      <c r="K25" s="44"/>
-      <c r="L25" s="45"/>
-      <c r="M25" s="28"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="37"/>
+      <c r="I25" s="29"/>
+      <c r="J25" s="45"/>
+      <c r="K25" s="46"/>
+      <c r="L25" s="47"/>
+      <c r="M25" s="29"/>
     </row>
     <row r="26" s="2" customFormat="1" spans="1:13">
-      <c r="A26" s="28"/>
+      <c r="A26" s="29"/>
       <c r="B26" s="26"/>
-      <c r="C26" s="27"/>
-      <c r="D26" s="28"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="35"/>
-      <c r="I26" s="28"/>
-      <c r="J26" s="43"/>
-      <c r="K26" s="44"/>
-      <c r="L26" s="45"/>
-      <c r="M26" s="28"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="37"/>
+      <c r="I26" s="29"/>
+      <c r="J26" s="45"/>
+      <c r="K26" s="46"/>
+      <c r="L26" s="47"/>
+      <c r="M26" s="29"/>
     </row>
     <row r="27" s="2" customFormat="1" spans="1:13">
-      <c r="A27" s="28"/>
+      <c r="A27" s="29"/>
       <c r="B27" s="26"/>
       <c r="C27" s="24"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="28"/>
-      <c r="F27" s="28"/>
-      <c r="G27" s="28"/>
-      <c r="H27" s="35"/>
-      <c r="I27" s="28"/>
-      <c r="J27" s="43"/>
-      <c r="K27" s="44"/>
-      <c r="L27" s="45"/>
-      <c r="M27" s="54"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="37"/>
+      <c r="I27" s="29"/>
+      <c r="J27" s="45"/>
+      <c r="K27" s="46"/>
+      <c r="L27" s="47"/>
+      <c r="M27" s="56"/>
     </row>
     <row r="28" spans="1:13">
-      <c r="A28" s="29"/>
+      <c r="A28" s="31"/>
       <c r="B28" s="26"/>
-      <c r="C28" s="30"/>
-      <c r="D28" s="29"/>
-      <c r="E28" s="29"/>
-      <c r="F28" s="29"/>
-      <c r="G28" s="29"/>
-      <c r="H28" s="29"/>
-      <c r="I28" s="29"/>
-      <c r="J28" s="29"/>
-      <c r="K28" s="44"/>
-      <c r="L28" s="46"/>
-      <c r="M28" s="54"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="31"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="31"/>
+      <c r="G28" s="31"/>
+      <c r="H28" s="31"/>
+      <c r="I28" s="31"/>
+      <c r="J28" s="31"/>
+      <c r="K28" s="46"/>
+      <c r="L28" s="48"/>
+      <c r="M28" s="56"/>
     </row>
     <row r="29" spans="1:13">
-      <c r="A29" s="29"/>
+      <c r="A29" s="31"/>
       <c r="B29" s="26"/>
-      <c r="C29" s="29"/>
-      <c r="D29" s="29"/>
-      <c r="E29" s="29"/>
-      <c r="F29" s="29"/>
-      <c r="G29" s="29"/>
-      <c r="H29" s="29"/>
-      <c r="I29" s="29"/>
-      <c r="J29" s="29"/>
-      <c r="K29" s="44"/>
-      <c r="L29" s="46"/>
-      <c r="M29" s="29"/>
+      <c r="C29" s="31"/>
+      <c r="D29" s="31"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="31"/>
+      <c r="G29" s="31"/>
+      <c r="H29" s="31"/>
+      <c r="I29" s="31"/>
+      <c r="J29" s="31"/>
+      <c r="K29" s="46"/>
+      <c r="L29" s="48"/>
+      <c r="M29" s="31"/>
     </row>
     <row r="30" spans="1:13">
-      <c r="A30" s="29"/>
-      <c r="B30" s="29"/>
-      <c r="C30" s="29"/>
-      <c r="D30" s="29"/>
-      <c r="E30" s="29"/>
-      <c r="F30" s="29"/>
-      <c r="G30" s="29"/>
-      <c r="H30" s="29"/>
-      <c r="I30" s="29"/>
-      <c r="J30" s="29"/>
-      <c r="K30" s="44"/>
-      <c r="L30" s="46"/>
-      <c r="M30" s="29"/>
+      <c r="A30" s="31"/>
+      <c r="B30" s="31"/>
+      <c r="C30" s="31"/>
+      <c r="D30" s="31"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="31"/>
+      <c r="G30" s="31"/>
+      <c r="H30" s="31"/>
+      <c r="I30" s="31"/>
+      <c r="J30" s="31"/>
+      <c r="K30" s="46"/>
+      <c r="L30" s="48"/>
+      <c r="M30" s="31"/>
     </row>
     <row r="31" spans="1:13">
-      <c r="A31" s="29"/>
-      <c r="B31" s="29"/>
-      <c r="C31" s="29"/>
-      <c r="D31" s="29"/>
-      <c r="E31" s="29"/>
-      <c r="F31" s="29"/>
-      <c r="G31" s="29"/>
-      <c r="H31" s="29"/>
-      <c r="I31" s="29"/>
-      <c r="J31" s="29"/>
-      <c r="K31" s="44"/>
-      <c r="L31" s="46"/>
-      <c r="M31" s="29"/>
+      <c r="A31" s="31"/>
+      <c r="B31" s="31"/>
+      <c r="C31" s="31"/>
+      <c r="D31" s="31"/>
+      <c r="E31" s="31"/>
+      <c r="F31" s="31"/>
+      <c r="G31" s="31"/>
+      <c r="H31" s="31"/>
+      <c r="I31" s="31"/>
+      <c r="J31" s="31"/>
+      <c r="K31" s="46"/>
+      <c r="L31" s="48"/>
+      <c r="M31" s="31"/>
     </row>
     <row r="32" spans="1:13">
-      <c r="A32" s="29"/>
-      <c r="B32" s="29"/>
-      <c r="C32" s="29"/>
-      <c r="D32" s="29"/>
-      <c r="E32" s="29"/>
-      <c r="F32" s="29"/>
-      <c r="G32" s="29"/>
-      <c r="H32" s="29"/>
-      <c r="I32" s="29"/>
-      <c r="J32" s="29"/>
-      <c r="K32" s="44"/>
-      <c r="L32" s="46"/>
-      <c r="M32" s="29"/>
+      <c r="A32" s="31"/>
+      <c r="B32" s="31"/>
+      <c r="C32" s="31"/>
+      <c r="D32" s="31"/>
+      <c r="E32" s="31"/>
+      <c r="F32" s="31"/>
+      <c r="G32" s="31"/>
+      <c r="H32" s="31"/>
+      <c r="I32" s="31"/>
+      <c r="J32" s="31"/>
+      <c r="K32" s="46"/>
+      <c r="L32" s="48"/>
+      <c r="M32" s="31"/>
     </row>
     <row r="33" spans="1:13">
-      <c r="A33" s="29"/>
-      <c r="B33" s="29"/>
-      <c r="C33" s="29"/>
-      <c r="D33" s="29"/>
-      <c r="E33" s="29"/>
-      <c r="F33" s="29"/>
-      <c r="G33" s="29"/>
-      <c r="H33" s="29"/>
-      <c r="I33" s="29"/>
-      <c r="J33" s="29"/>
-      <c r="K33" s="44"/>
-      <c r="L33" s="46"/>
-      <c r="M33" s="29"/>
+      <c r="A33" s="31"/>
+      <c r="B33" s="31"/>
+      <c r="C33" s="31"/>
+      <c r="D33" s="31"/>
+      <c r="E33" s="31"/>
+      <c r="F33" s="31"/>
+      <c r="G33" s="31"/>
+      <c r="H33" s="31"/>
+      <c r="I33" s="31"/>
+      <c r="J33" s="31"/>
+      <c r="K33" s="46"/>
+      <c r="L33" s="48"/>
+      <c r="M33" s="31"/>
     </row>
     <row r="34" spans="1:13">
-      <c r="A34" s="29"/>
-      <c r="B34" s="29"/>
-      <c r="C34" s="29"/>
-      <c r="D34" s="29"/>
-      <c r="E34" s="29"/>
-      <c r="F34" s="29"/>
-      <c r="G34" s="29"/>
-      <c r="H34" s="29"/>
-      <c r="I34" s="29"/>
-      <c r="J34" s="29"/>
-      <c r="K34" s="44"/>
-      <c r="L34" s="46"/>
-      <c r="M34" s="29"/>
+      <c r="A34" s="31"/>
+      <c r="B34" s="31"/>
+      <c r="C34" s="31"/>
+      <c r="D34" s="31"/>
+      <c r="E34" s="31"/>
+      <c r="F34" s="31"/>
+      <c r="G34" s="31"/>
+      <c r="H34" s="31"/>
+      <c r="I34" s="31"/>
+      <c r="J34" s="31"/>
+      <c r="K34" s="46"/>
+      <c r="L34" s="48"/>
+      <c r="M34" s="31"/>
     </row>
     <row r="35" spans="1:13">
-      <c r="A35" s="29"/>
-      <c r="B35" s="29"/>
-      <c r="C35" s="29"/>
-      <c r="D35" s="29"/>
-      <c r="E35" s="29"/>
-      <c r="F35" s="29"/>
-      <c r="G35" s="29"/>
-      <c r="H35" s="29"/>
-      <c r="I35" s="29"/>
-      <c r="J35" s="29"/>
-      <c r="K35" s="44"/>
-      <c r="L35" s="46"/>
-      <c r="M35" s="29"/>
+      <c r="A35" s="31"/>
+      <c r="B35" s="31"/>
+      <c r="C35" s="31"/>
+      <c r="D35" s="31"/>
+      <c r="E35" s="31"/>
+      <c r="F35" s="31"/>
+      <c r="G35" s="31"/>
+      <c r="H35" s="31"/>
+      <c r="I35" s="31"/>
+      <c r="J35" s="31"/>
+      <c r="K35" s="46"/>
+      <c r="L35" s="48"/>
+      <c r="M35" s="31"/>
     </row>
     <row r="36" spans="1:13">
-      <c r="A36" s="29"/>
-      <c r="B36" s="29"/>
-      <c r="C36" s="29"/>
-      <c r="D36" s="29"/>
-      <c r="E36" s="29"/>
-      <c r="F36" s="29"/>
-      <c r="G36" s="29"/>
-      <c r="H36" s="29"/>
-      <c r="I36" s="29"/>
-      <c r="J36" s="29"/>
-      <c r="K36" s="44"/>
-      <c r="L36" s="46"/>
-      <c r="M36" s="29"/>
+      <c r="A36" s="31"/>
+      <c r="B36" s="31"/>
+      <c r="C36" s="31"/>
+      <c r="D36" s="31"/>
+      <c r="E36" s="31"/>
+      <c r="F36" s="31"/>
+      <c r="G36" s="31"/>
+      <c r="H36" s="31"/>
+      <c r="I36" s="31"/>
+      <c r="J36" s="31"/>
+      <c r="K36" s="46"/>
+      <c r="L36" s="48"/>
+      <c r="M36" s="31"/>
     </row>
     <row r="37" spans="1:13">
-      <c r="A37" s="29"/>
-      <c r="B37" s="29"/>
-      <c r="C37" s="29"/>
-      <c r="D37" s="29"/>
-      <c r="E37" s="29"/>
-      <c r="F37" s="29"/>
-      <c r="G37" s="29"/>
-      <c r="H37" s="29"/>
-      <c r="I37" s="29"/>
-      <c r="J37" s="29"/>
-      <c r="K37" s="44"/>
-      <c r="L37" s="46"/>
-      <c r="M37" s="29"/>
+      <c r="A37" s="31"/>
+      <c r="B37" s="31"/>
+      <c r="C37" s="31"/>
+      <c r="D37" s="31"/>
+      <c r="E37" s="31"/>
+      <c r="F37" s="31"/>
+      <c r="G37" s="31"/>
+      <c r="H37" s="31"/>
+      <c r="I37" s="31"/>
+      <c r="J37" s="31"/>
+      <c r="K37" s="46"/>
+      <c r="L37" s="48"/>
+      <c r="M37" s="31"/>
     </row>
     <row r="38" spans="1:13">
-      <c r="A38" s="29"/>
-      <c r="B38" s="29"/>
-      <c r="C38" s="29"/>
-      <c r="D38" s="29"/>
-      <c r="E38" s="29"/>
-      <c r="F38" s="29"/>
-      <c r="G38" s="29"/>
-      <c r="H38" s="29"/>
-      <c r="I38" s="29"/>
-      <c r="J38" s="29"/>
-      <c r="K38" s="44"/>
-      <c r="L38" s="46"/>
-      <c r="M38" s="29"/>
+      <c r="A38" s="31"/>
+      <c r="B38" s="31"/>
+      <c r="C38" s="31"/>
+      <c r="D38" s="31"/>
+      <c r="E38" s="31"/>
+      <c r="F38" s="31"/>
+      <c r="G38" s="31"/>
+      <c r="H38" s="31"/>
+      <c r="I38" s="31"/>
+      <c r="J38" s="31"/>
+      <c r="K38" s="46"/>
+      <c r="L38" s="48"/>
+      <c r="M38" s="31"/>
     </row>
     <row r="39" spans="1:13">
-      <c r="A39" s="29"/>
-      <c r="B39" s="29"/>
-      <c r="C39" s="29"/>
-      <c r="D39" s="29"/>
-      <c r="E39" s="29"/>
-      <c r="F39" s="29"/>
-      <c r="G39" s="29"/>
-      <c r="H39" s="29"/>
-      <c r="I39" s="29"/>
-      <c r="J39" s="29"/>
-      <c r="K39" s="44"/>
-      <c r="L39" s="46"/>
-      <c r="M39" s="29"/>
+      <c r="A39" s="31"/>
+      <c r="B39" s="31"/>
+      <c r="C39" s="31"/>
+      <c r="D39" s="31"/>
+      <c r="E39" s="31"/>
+      <c r="F39" s="31"/>
+      <c r="G39" s="31"/>
+      <c r="H39" s="31"/>
+      <c r="I39" s="31"/>
+      <c r="J39" s="31"/>
+      <c r="K39" s="46"/>
+      <c r="L39" s="48"/>
+      <c r="M39" s="31"/>
     </row>
     <row r="40" spans="1:13">
-      <c r="A40" s="29"/>
-      <c r="B40" s="29"/>
-      <c r="C40" s="29"/>
-      <c r="D40" s="29"/>
-      <c r="E40" s="29"/>
-      <c r="F40" s="29"/>
-      <c r="G40" s="29"/>
-      <c r="H40" s="29"/>
-      <c r="I40" s="29"/>
-      <c r="J40" s="29"/>
-      <c r="K40" s="44"/>
-      <c r="L40" s="46"/>
-      <c r="M40" s="29"/>
+      <c r="A40" s="31"/>
+      <c r="B40" s="31"/>
+      <c r="C40" s="31"/>
+      <c r="D40" s="31"/>
+      <c r="E40" s="31"/>
+      <c r="F40" s="31"/>
+      <c r="G40" s="31"/>
+      <c r="H40" s="31"/>
+      <c r="I40" s="31"/>
+      <c r="J40" s="31"/>
+      <c r="K40" s="46"/>
+      <c r="L40" s="48"/>
+      <c r="M40" s="31"/>
     </row>
     <row r="41" spans="1:13">
-      <c r="A41" s="29"/>
-      <c r="B41" s="29"/>
-      <c r="C41" s="29"/>
-      <c r="D41" s="29"/>
-      <c r="E41" s="29"/>
-      <c r="F41" s="29"/>
-      <c r="G41" s="29"/>
-      <c r="H41" s="29"/>
-      <c r="I41" s="29"/>
-      <c r="J41" s="29"/>
-      <c r="K41" s="44"/>
-      <c r="L41" s="46"/>
-      <c r="M41" s="29"/>
+      <c r="A41" s="31"/>
+      <c r="B41" s="31"/>
+      <c r="C41" s="31"/>
+      <c r="D41" s="31"/>
+      <c r="E41" s="31"/>
+      <c r="F41" s="31"/>
+      <c r="G41" s="31"/>
+      <c r="H41" s="31"/>
+      <c r="I41" s="31"/>
+      <c r="J41" s="31"/>
+      <c r="K41" s="46"/>
+      <c r="L41" s="48"/>
+      <c r="M41" s="31"/>
     </row>
     <row r="42" spans="1:13">
-      <c r="A42" s="29"/>
-      <c r="B42" s="29"/>
-      <c r="C42" s="29"/>
-      <c r="D42" s="29"/>
-      <c r="E42" s="29"/>
-      <c r="F42" s="29"/>
-      <c r="G42" s="29"/>
-      <c r="H42" s="29"/>
-      <c r="I42" s="29"/>
-      <c r="J42" s="29"/>
-      <c r="K42" s="44"/>
-      <c r="L42" s="46"/>
-      <c r="M42" s="29"/>
+      <c r="A42" s="31"/>
+      <c r="B42" s="31"/>
+      <c r="C42" s="31"/>
+      <c r="D42" s="31"/>
+      <c r="E42" s="31"/>
+      <c r="F42" s="31"/>
+      <c r="G42" s="31"/>
+      <c r="H42" s="31"/>
+      <c r="I42" s="31"/>
+      <c r="J42" s="31"/>
+      <c r="K42" s="46"/>
+      <c r="L42" s="48"/>
+      <c r="M42" s="31"/>
     </row>
     <row r="43" spans="1:13">
-      <c r="A43" s="29"/>
-      <c r="B43" s="29"/>
-      <c r="C43" s="29"/>
-      <c r="D43" s="29"/>
-      <c r="E43" s="29"/>
-      <c r="F43" s="29"/>
-      <c r="G43" s="29"/>
-      <c r="H43" s="29"/>
-      <c r="I43" s="29"/>
-      <c r="J43" s="29"/>
-      <c r="K43" s="44"/>
-      <c r="L43" s="46"/>
-      <c r="M43" s="29"/>
+      <c r="A43" s="31"/>
+      <c r="B43" s="31"/>
+      <c r="C43" s="31"/>
+      <c r="D43" s="31"/>
+      <c r="E43" s="31"/>
+      <c r="F43" s="31"/>
+      <c r="G43" s="31"/>
+      <c r="H43" s="31"/>
+      <c r="I43" s="31"/>
+      <c r="J43" s="31"/>
+      <c r="K43" s="46"/>
+      <c r="L43" s="48"/>
+      <c r="M43" s="31"/>
     </row>
     <row r="44" spans="1:13">
-      <c r="A44" s="29"/>
-      <c r="B44" s="29"/>
-      <c r="C44" s="29"/>
-      <c r="D44" s="29"/>
-      <c r="E44" s="29"/>
-      <c r="F44" s="29"/>
-      <c r="G44" s="29"/>
-      <c r="H44" s="29"/>
-      <c r="I44" s="29"/>
-      <c r="J44" s="29"/>
-      <c r="K44" s="44"/>
-      <c r="L44" s="46"/>
-      <c r="M44" s="29"/>
+      <c r="A44" s="31"/>
+      <c r="B44" s="31"/>
+      <c r="C44" s="31"/>
+      <c r="D44" s="31"/>
+      <c r="E44" s="31"/>
+      <c r="F44" s="31"/>
+      <c r="G44" s="31"/>
+      <c r="H44" s="31"/>
+      <c r="I44" s="31"/>
+      <c r="J44" s="31"/>
+      <c r="K44" s="46"/>
+      <c r="L44" s="48"/>
+      <c r="M44" s="31"/>
     </row>
     <row r="45" spans="1:13">
-      <c r="A45" s="29"/>
-      <c r="B45" s="29"/>
-      <c r="C45" s="29"/>
-      <c r="D45" s="29"/>
-      <c r="E45" s="29"/>
-      <c r="F45" s="29"/>
-      <c r="G45" s="29"/>
-      <c r="H45" s="29"/>
-      <c r="I45" s="29"/>
-      <c r="J45" s="29"/>
-      <c r="K45" s="44"/>
-      <c r="L45" s="46"/>
-      <c r="M45" s="29"/>
+      <c r="A45" s="31"/>
+      <c r="B45" s="31"/>
+      <c r="C45" s="31"/>
+      <c r="D45" s="31"/>
+      <c r="E45" s="31"/>
+      <c r="F45" s="31"/>
+      <c r="G45" s="31"/>
+      <c r="H45" s="31"/>
+      <c r="I45" s="31"/>
+      <c r="J45" s="31"/>
+      <c r="K45" s="46"/>
+      <c r="L45" s="48"/>
+      <c r="M45" s="31"/>
     </row>
     <row r="46" ht="13" spans="1:13">
-      <c r="A46" s="58" t="s">
-        <v>61</v>
-      </c>
-      <c r="B46" s="29"/>
+      <c r="A46" s="60" t="s">
+        <v>63</v>
+      </c>
+      <c r="B46" s="31"/>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
@@ -3738,8 +3791,8 @@
       <c r="H46" s="3"/>
       <c r="I46" s="3"/>
       <c r="J46" s="3"/>
-      <c r="K46" s="47"/>
-      <c r="M46" s="29"/>
+      <c r="K46" s="49"/>
+      <c r="M46" s="31"/>
     </row>
     <row r="47" spans="1:11">
       <c r="A47" s="3"/>
@@ -3751,7 +3804,7 @@
       <c r="H47" s="3"/>
       <c r="I47" s="3"/>
       <c r="J47" s="3"/>
-      <c r="K47" s="47"/>
+      <c r="K47" s="49"/>
     </row>
     <row r="48" spans="1:11">
       <c r="A48" s="3"/>
@@ -3763,7 +3816,7 @@
       <c r="H48" s="3"/>
       <c r="I48" s="3"/>
       <c r="J48" s="3"/>
-      <c r="K48" s="47"/>
+      <c r="K48" s="49"/>
     </row>
     <row r="49" spans="1:11">
       <c r="A49" s="3"/>
@@ -3775,7 +3828,7 @@
       <c r="H49" s="3"/>
       <c r="I49" s="3"/>
       <c r="J49" s="3"/>
-      <c r="K49" s="47"/>
+      <c r="K49" s="49"/>
     </row>
     <row r="50" spans="1:11">
       <c r="A50" s="3"/>
@@ -3787,7 +3840,7 @@
       <c r="H50" s="3"/>
       <c r="I50" s="3"/>
       <c r="J50" s="3"/>
-      <c r="K50" s="47"/>
+      <c r="K50" s="49"/>
     </row>
     <row r="51" spans="1:11">
       <c r="A51" s="3"/>
@@ -3799,7 +3852,7 @@
       <c r="H51" s="3"/>
       <c r="I51" s="3"/>
       <c r="J51" s="3"/>
-      <c r="K51" s="47"/>
+      <c r="K51" s="49"/>
     </row>
     <row r="52" spans="1:11">
       <c r="A52" s="3"/>
@@ -3811,7 +3864,7 @@
       <c r="H52" s="3"/>
       <c r="I52" s="3"/>
       <c r="J52" s="3"/>
-      <c r="K52" s="47"/>
+      <c r="K52" s="49"/>
     </row>
     <row r="53" spans="1:11">
       <c r="A53" s="3"/>
@@ -3823,7 +3876,7 @@
       <c r="H53" s="3"/>
       <c r="I53" s="3"/>
       <c r="J53" s="3"/>
-      <c r="K53" s="47"/>
+      <c r="K53" s="49"/>
     </row>
     <row r="54" spans="1:11">
       <c r="A54" s="3"/>
@@ -3835,7 +3888,7 @@
       <c r="H54" s="3"/>
       <c r="I54" s="3"/>
       <c r="J54" s="3"/>
-      <c r="K54" s="47"/>
+      <c r="K54" s="49"/>
     </row>
     <row r="55" spans="1:11">
       <c r="A55" s="3"/>
@@ -3847,7 +3900,7 @@
       <c r="H55" s="3"/>
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
-      <c r="K55" s="47"/>
+      <c r="K55" s="49"/>
     </row>
     <row r="56" spans="1:11">
       <c r="A56" s="3"/>
@@ -3859,7 +3912,7 @@
       <c r="H56" s="3"/>
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
-      <c r="K56" s="47"/>
+      <c r="K56" s="49"/>
     </row>
     <row r="57" spans="1:11">
       <c r="A57" s="3"/>
@@ -3871,7 +3924,7 @@
       <c r="H57" s="3"/>
       <c r="I57" s="3"/>
       <c r="J57" s="3"/>
-      <c r="K57" s="47"/>
+      <c r="K57" s="49"/>
     </row>
     <row r="58" spans="1:11">
       <c r="A58" s="3"/>
@@ -3883,7 +3936,7 @@
       <c r="H58" s="3"/>
       <c r="I58" s="3"/>
       <c r="J58" s="3"/>
-      <c r="K58" s="47"/>
+      <c r="K58" s="49"/>
     </row>
     <row r="59" spans="1:11">
       <c r="A59" s="3"/>
@@ -3895,7 +3948,7 @@
       <c r="H59" s="3"/>
       <c r="I59" s="3"/>
       <c r="J59" s="3"/>
-      <c r="K59" s="47"/>
+      <c r="K59" s="49"/>
     </row>
     <row r="60" spans="1:11">
       <c r="A60" s="3"/>
@@ -3907,7 +3960,7 @@
       <c r="H60" s="3"/>
       <c r="I60" s="3"/>
       <c r="J60" s="3"/>
-      <c r="K60" s="47"/>
+      <c r="K60" s="49"/>
     </row>
     <row r="61" spans="1:11">
       <c r="A61" s="3"/>
@@ -3919,7 +3972,7 @@
       <c r="H61" s="3"/>
       <c r="I61" s="3"/>
       <c r="J61" s="3"/>
-      <c r="K61" s="47"/>
+      <c r="K61" s="49"/>
     </row>
     <row r="62" spans="1:11">
       <c r="A62" s="3"/>
@@ -3931,7 +3984,7 @@
       <c r="H62" s="3"/>
       <c r="I62" s="3"/>
       <c r="J62" s="3"/>
-      <c r="K62" s="47"/>
+      <c r="K62" s="49"/>
     </row>
     <row r="63" spans="1:11">
       <c r="A63" s="3"/>
@@ -3943,7 +3996,7 @@
       <c r="H63" s="3"/>
       <c r="I63" s="3"/>
       <c r="J63" s="3"/>
-      <c r="K63" s="47"/>
+      <c r="K63" s="49"/>
     </row>
     <row r="64" spans="1:11">
       <c r="A64" s="3"/>
@@ -3955,7 +4008,7 @@
       <c r="H64" s="3"/>
       <c r="I64" s="3"/>
       <c r="J64" s="3"/>
-      <c r="K64" s="47"/>
+      <c r="K64" s="49"/>
     </row>
     <row r="65" spans="1:11">
       <c r="A65" s="3"/>
@@ -3967,7 +4020,7 @@
       <c r="H65" s="3"/>
       <c r="I65" s="3"/>
       <c r="J65" s="3"/>
-      <c r="K65" s="47"/>
+      <c r="K65" s="49"/>
     </row>
     <row r="66" spans="1:11">
       <c r="A66" s="3"/>
@@ -3979,7 +4032,7 @@
       <c r="H66" s="3"/>
       <c r="I66" s="3"/>
       <c r="J66" s="3"/>
-      <c r="K66" s="47"/>
+      <c r="K66" s="49"/>
     </row>
     <row r="67" spans="1:11">
       <c r="A67" s="3"/>
@@ -3991,7 +4044,7 @@
       <c r="H67" s="3"/>
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
-      <c r="K67" s="47"/>
+      <c r="K67" s="49"/>
     </row>
     <row r="68" spans="1:11">
       <c r="A68" s="3"/>
@@ -4003,7 +4056,7 @@
       <c r="H68" s="3"/>
       <c r="I68" s="3"/>
       <c r="J68" s="3"/>
-      <c r="K68" s="47"/>
+      <c r="K68" s="49"/>
     </row>
     <row r="69" spans="1:11">
       <c r="A69" s="3"/>
@@ -4015,7 +4068,7 @@
       <c r="H69" s="3"/>
       <c r="I69" s="3"/>
       <c r="J69" s="3"/>
-      <c r="K69" s="47"/>
+      <c r="K69" s="49"/>
     </row>
     <row r="70" spans="1:11">
       <c r="A70" s="3"/>
@@ -4027,7 +4080,7 @@
       <c r="H70" s="3"/>
       <c r="I70" s="3"/>
       <c r="J70" s="3"/>
-      <c r="K70" s="47"/>
+      <c r="K70" s="49"/>
     </row>
     <row r="71" spans="1:11">
       <c r="A71" s="3"/>
@@ -4039,7 +4092,7 @@
       <c r="H71" s="3"/>
       <c r="I71" s="3"/>
       <c r="J71" s="3"/>
-      <c r="K71" s="47"/>
+      <c r="K71" s="49"/>
     </row>
     <row r="72" spans="1:11">
       <c r="A72" s="3"/>
@@ -4051,7 +4104,7 @@
       <c r="H72" s="3"/>
       <c r="I72" s="3"/>
       <c r="J72" s="3"/>
-      <c r="K72" s="47"/>
+      <c r="K72" s="49"/>
     </row>
     <row r="73" spans="1:11">
       <c r="A73" s="3"/>
@@ -4063,7 +4116,7 @@
       <c r="H73" s="3"/>
       <c r="I73" s="3"/>
       <c r="J73" s="3"/>
-      <c r="K73" s="47"/>
+      <c r="K73" s="49"/>
     </row>
     <row r="74" spans="1:11">
       <c r="A74" s="3"/>
@@ -4075,7 +4128,7 @@
       <c r="H74" s="3"/>
       <c r="I74" s="3"/>
       <c r="J74" s="3"/>
-      <c r="K74" s="47"/>
+      <c r="K74" s="49"/>
     </row>
     <row r="75" spans="1:11">
       <c r="A75" s="3"/>
@@ -4087,7 +4140,7 @@
       <c r="H75" s="3"/>
       <c r="I75" s="3"/>
       <c r="J75" s="3"/>
-      <c r="K75" s="47"/>
+      <c r="K75" s="49"/>
     </row>
     <row r="76" spans="1:11">
       <c r="A76" s="3"/>
@@ -4099,7 +4152,7 @@
       <c r="H76" s="3"/>
       <c r="I76" s="3"/>
       <c r="J76" s="3"/>
-      <c r="K76" s="47"/>
+      <c r="K76" s="49"/>
     </row>
     <row r="77" spans="1:11">
       <c r="A77" s="3"/>
@@ -4111,7 +4164,7 @@
       <c r="H77" s="3"/>
       <c r="I77" s="3"/>
       <c r="J77" s="3"/>
-      <c r="K77" s="47"/>
+      <c r="K77" s="49"/>
     </row>
     <row r="78" spans="1:11">
       <c r="A78" s="3"/>
@@ -4123,7 +4176,7 @@
       <c r="H78" s="3"/>
       <c r="I78" s="3"/>
       <c r="J78" s="3"/>
-      <c r="K78" s="47"/>
+      <c r="K78" s="49"/>
     </row>
     <row r="79" spans="1:11">
       <c r="A79" s="3"/>
@@ -4135,7 +4188,7 @@
       <c r="H79" s="3"/>
       <c r="I79" s="3"/>
       <c r="J79" s="3"/>
-      <c r="K79" s="47"/>
+      <c r="K79" s="49"/>
     </row>
     <row r="80" spans="1:11">
       <c r="A80" s="3"/>
@@ -4147,7 +4200,7 @@
       <c r="H80" s="3"/>
       <c r="I80" s="3"/>
       <c r="J80" s="3"/>
-      <c r="K80" s="47"/>
+      <c r="K80" s="49"/>
     </row>
     <row r="81" spans="1:11">
       <c r="A81" s="3"/>
@@ -4159,7 +4212,7 @@
       <c r="H81" s="3"/>
       <c r="I81" s="3"/>
       <c r="J81" s="3"/>
-      <c r="K81" s="47"/>
+      <c r="K81" s="49"/>
     </row>
     <row r="82" spans="1:11">
       <c r="A82" s="3"/>
@@ -4171,7 +4224,7 @@
       <c r="H82" s="3"/>
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
-      <c r="K82" s="47"/>
+      <c r="K82" s="49"/>
     </row>
     <row r="83" spans="1:11">
       <c r="A83" s="3"/>
@@ -4183,7 +4236,7 @@
       <c r="H83" s="3"/>
       <c r="I83" s="3"/>
       <c r="J83" s="3"/>
-      <c r="K83" s="47"/>
+      <c r="K83" s="49"/>
     </row>
     <row r="84" spans="1:11">
       <c r="A84" s="3"/>
@@ -4195,7 +4248,7 @@
       <c r="H84" s="3"/>
       <c r="I84" s="3"/>
       <c r="J84" s="3"/>
-      <c r="K84" s="47"/>
+      <c r="K84" s="49"/>
     </row>
     <row r="85" spans="1:11">
       <c r="A85" s="3"/>
@@ -4207,7 +4260,7 @@
       <c r="H85" s="3"/>
       <c r="I85" s="3"/>
       <c r="J85" s="3"/>
-      <c r="K85" s="47"/>
+      <c r="K85" s="49"/>
     </row>
     <row r="86" spans="1:11">
       <c r="A86" s="3"/>
@@ -4219,7 +4272,7 @@
       <c r="H86" s="3"/>
       <c r="I86" s="3"/>
       <c r="J86" s="3"/>
-      <c r="K86" s="47"/>
+      <c r="K86" s="49"/>
     </row>
     <row r="87" spans="1:11">
       <c r="A87" s="3"/>
@@ -4231,7 +4284,7 @@
       <c r="H87" s="3"/>
       <c r="I87" s="3"/>
       <c r="J87" s="3"/>
-      <c r="K87" s="47"/>
+      <c r="K87" s="49"/>
     </row>
     <row r="88" spans="1:11">
       <c r="A88" s="3"/>
@@ -4243,7 +4296,7 @@
       <c r="H88" s="3"/>
       <c r="I88" s="3"/>
       <c r="J88" s="3"/>
-      <c r="K88" s="47"/>
+      <c r="K88" s="49"/>
     </row>
     <row r="89" spans="1:11">
       <c r="A89" s="3"/>
@@ -4255,7 +4308,7 @@
       <c r="H89" s="3"/>
       <c r="I89" s="3"/>
       <c r="J89" s="3"/>
-      <c r="K89" s="47"/>
+      <c r="K89" s="49"/>
     </row>
     <row r="90" spans="1:11">
       <c r="A90" s="3"/>
@@ -4267,7 +4320,7 @@
       <c r="H90" s="3"/>
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
-      <c r="K90" s="47"/>
+      <c r="K90" s="49"/>
     </row>
     <row r="91" spans="1:11">
       <c r="A91" s="3"/>
@@ -4279,7 +4332,7 @@
       <c r="H91" s="3"/>
       <c r="I91" s="3"/>
       <c r="J91" s="3"/>
-      <c r="K91" s="47"/>
+      <c r="K91" s="49"/>
     </row>
     <row r="92" spans="1:11">
       <c r="A92" s="3"/>
@@ -4291,7 +4344,7 @@
       <c r="H92" s="3"/>
       <c r="I92" s="3"/>
       <c r="J92" s="3"/>
-      <c r="K92" s="47"/>
+      <c r="K92" s="49"/>
     </row>
     <row r="93" spans="1:11">
       <c r="A93" s="3"/>
@@ -4303,7 +4356,7 @@
       <c r="H93" s="3"/>
       <c r="I93" s="3"/>
       <c r="J93" s="3"/>
-      <c r="K93" s="47"/>
+      <c r="K93" s="49"/>
     </row>
     <row r="94" spans="1:11">
       <c r="A94" s="3"/>
@@ -4315,7 +4368,7 @@
       <c r="H94" s="3"/>
       <c r="I94" s="3"/>
       <c r="J94" s="3"/>
-      <c r="K94" s="47"/>
+      <c r="K94" s="49"/>
     </row>
     <row r="95" spans="1:11">
       <c r="A95" s="3"/>
@@ -4327,7 +4380,7 @@
       <c r="H95" s="3"/>
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
-      <c r="K95" s="47"/>
+      <c r="K95" s="49"/>
     </row>
     <row r="96" spans="1:11">
       <c r="A96" s="3"/>
@@ -4339,7 +4392,7 @@
       <c r="H96" s="3"/>
       <c r="I96" s="3"/>
       <c r="J96" s="3"/>
-      <c r="K96" s="47"/>
+      <c r="K96" s="49"/>
     </row>
     <row r="97" spans="1:11">
       <c r="A97" s="3"/>
@@ -4351,7 +4404,7 @@
       <c r="H97" s="3"/>
       <c r="I97" s="3"/>
       <c r="J97" s="3"/>
-      <c r="K97" s="47"/>
+      <c r="K97" s="49"/>
     </row>
     <row r="98" spans="1:11">
       <c r="A98" s="3"/>
@@ -4363,7 +4416,7 @@
       <c r="H98" s="3"/>
       <c r="I98" s="3"/>
       <c r="J98" s="3"/>
-      <c r="K98" s="47"/>
+      <c r="K98" s="49"/>
     </row>
     <row r="99" spans="1:11">
       <c r="A99" s="3"/>
@@ -4375,7 +4428,7 @@
       <c r="H99" s="3"/>
       <c r="I99" s="3"/>
       <c r="J99" s="3"/>
-      <c r="K99" s="47"/>
+      <c r="K99" s="49"/>
     </row>
     <row r="100" spans="1:11">
       <c r="A100" s="3"/>
@@ -4387,7 +4440,7 @@
       <c r="H100" s="3"/>
       <c r="I100" s="3"/>
       <c r="J100" s="3"/>
-      <c r="K100" s="47"/>
+      <c r="K100" s="49"/>
     </row>
     <row r="101" spans="1:11">
       <c r="A101" s="3"/>
@@ -4399,7 +4452,7 @@
       <c r="H101" s="3"/>
       <c r="I101" s="3"/>
       <c r="J101" s="3"/>
-      <c r="K101" s="47"/>
+      <c r="K101" s="49"/>
     </row>
     <row r="102" spans="1:11">
       <c r="A102" s="3"/>
@@ -4411,7 +4464,7 @@
       <c r="H102" s="3"/>
       <c r="I102" s="3"/>
       <c r="J102" s="3"/>
-      <c r="K102" s="47"/>
+      <c r="K102" s="49"/>
     </row>
     <row r="103" spans="1:11">
       <c r="A103" s="3"/>
@@ -4423,7 +4476,7 @@
       <c r="H103" s="3"/>
       <c r="I103" s="3"/>
       <c r="J103" s="3"/>
-      <c r="K103" s="47"/>
+      <c r="K103" s="49"/>
     </row>
     <row r="104" spans="1:11">
       <c r="A104" s="3"/>
@@ -4435,7 +4488,7 @@
       <c r="H104" s="3"/>
       <c r="I104" s="3"/>
       <c r="J104" s="3"/>
-      <c r="K104" s="47"/>
+      <c r="K104" s="49"/>
     </row>
     <row r="105" spans="1:11">
       <c r="A105" s="3"/>
@@ -4447,7 +4500,7 @@
       <c r="H105" s="3"/>
       <c r="I105" s="3"/>
       <c r="J105" s="3"/>
-      <c r="K105" s="47"/>
+      <c r="K105" s="49"/>
     </row>
     <row r="106" spans="1:11">
       <c r="A106" s="3"/>
@@ -4459,7 +4512,7 @@
       <c r="H106" s="3"/>
       <c r="I106" s="3"/>
       <c r="J106" s="3"/>
-      <c r="K106" s="47"/>
+      <c r="K106" s="49"/>
     </row>
     <row r="107" spans="1:11">
       <c r="A107" s="3"/>
@@ -4471,7 +4524,7 @@
       <c r="H107" s="3"/>
       <c r="I107" s="3"/>
       <c r="J107" s="3"/>
-      <c r="K107" s="47"/>
+      <c r="K107" s="49"/>
     </row>
     <row r="108" spans="1:11">
       <c r="A108" s="3"/>
@@ -4483,7 +4536,7 @@
       <c r="H108" s="3"/>
       <c r="I108" s="3"/>
       <c r="J108" s="3"/>
-      <c r="K108" s="47"/>
+      <c r="K108" s="49"/>
     </row>
     <row r="109" spans="1:11">
       <c r="A109" s="3"/>
@@ -4495,7 +4548,7 @@
       <c r="H109" s="3"/>
       <c r="I109" s="3"/>
       <c r="J109" s="3"/>
-      <c r="K109" s="47"/>
+      <c r="K109" s="49"/>
     </row>
     <row r="110" spans="1:11">
       <c r="A110" s="3"/>
@@ -4507,7 +4560,7 @@
       <c r="H110" s="3"/>
       <c r="I110" s="3"/>
       <c r="J110" s="3"/>
-      <c r="K110" s="47"/>
+      <c r="K110" s="49"/>
     </row>
     <row r="111" spans="1:11">
       <c r="A111" s="3"/>
@@ -4519,7 +4572,7 @@
       <c r="H111" s="3"/>
       <c r="I111" s="3"/>
       <c r="J111" s="3"/>
-      <c r="K111" s="47"/>
+      <c r="K111" s="49"/>
     </row>
     <row r="112" spans="1:11">
       <c r="A112" s="3"/>
@@ -4531,7 +4584,7 @@
       <c r="H112" s="3"/>
       <c r="I112" s="3"/>
       <c r="J112" s="3"/>
-      <c r="K112" s="47"/>
+      <c r="K112" s="49"/>
     </row>
     <row r="113" spans="1:11">
       <c r="A113" s="3"/>
@@ -4543,7 +4596,7 @@
       <c r="H113" s="3"/>
       <c r="I113" s="3"/>
       <c r="J113" s="3"/>
-      <c r="K113" s="47"/>
+      <c r="K113" s="49"/>
     </row>
     <row r="114" spans="1:11">
       <c r="A114" s="3"/>
@@ -4555,7 +4608,7 @@
       <c r="H114" s="3"/>
       <c r="I114" s="3"/>
       <c r="J114" s="3"/>
-      <c r="K114" s="47"/>
+      <c r="K114" s="49"/>
     </row>
     <row r="115" spans="1:11">
       <c r="A115" s="3"/>
@@ -4567,7 +4620,7 @@
       <c r="H115" s="3"/>
       <c r="I115" s="3"/>
       <c r="J115" s="3"/>
-      <c r="K115" s="47"/>
+      <c r="K115" s="49"/>
     </row>
     <row r="116" spans="1:11">
       <c r="A116" s="3"/>
@@ -4579,7 +4632,7 @@
       <c r="H116" s="3"/>
       <c r="I116" s="3"/>
       <c r="J116" s="3"/>
-      <c r="K116" s="47"/>
+      <c r="K116" s="49"/>
     </row>
     <row r="117" spans="1:11">
       <c r="A117" s="3"/>
@@ -4591,7 +4644,7 @@
       <c r="H117" s="3"/>
       <c r="I117" s="3"/>
       <c r="J117" s="3"/>
-      <c r="K117" s="47"/>
+      <c r="K117" s="49"/>
     </row>
     <row r="118" spans="1:11">
       <c r="A118" s="3"/>
@@ -4603,7 +4656,7 @@
       <c r="H118" s="3"/>
       <c r="I118" s="3"/>
       <c r="J118" s="3"/>
-      <c r="K118" s="47"/>
+      <c r="K118" s="49"/>
     </row>
     <row r="119" spans="1:11">
       <c r="A119" s="3"/>
@@ -4615,7 +4668,7 @@
       <c r="H119" s="3"/>
       <c r="I119" s="3"/>
       <c r="J119" s="3"/>
-      <c r="K119" s="47"/>
+      <c r="K119" s="49"/>
     </row>
     <row r="120" spans="1:11">
       <c r="A120" s="3"/>
@@ -4627,7 +4680,7 @@
       <c r="H120" s="3"/>
       <c r="I120" s="3"/>
       <c r="J120" s="3"/>
-      <c r="K120" s="47"/>
+      <c r="K120" s="49"/>
     </row>
     <row r="121" spans="1:11">
       <c r="A121" s="3"/>
@@ -4639,7 +4692,7 @@
       <c r="H121" s="3"/>
       <c r="I121" s="3"/>
       <c r="J121" s="3"/>
-      <c r="K121" s="47"/>
+      <c r="K121" s="49"/>
     </row>
     <row r="122" spans="1:11">
       <c r="A122" s="3"/>
@@ -4651,7 +4704,7 @@
       <c r="H122" s="3"/>
       <c r="I122" s="3"/>
       <c r="J122" s="3"/>
-      <c r="K122" s="47"/>
+      <c r="K122" s="49"/>
     </row>
     <row r="123" spans="1:11">
       <c r="A123" s="3"/>
@@ -4663,7 +4716,7 @@
       <c r="H123" s="3"/>
       <c r="I123" s="3"/>
       <c r="J123" s="3"/>
-      <c r="K123" s="47"/>
+      <c r="K123" s="49"/>
     </row>
     <row r="124" spans="1:11">
       <c r="A124" s="3"/>
@@ -4675,7 +4728,7 @@
       <c r="H124" s="3"/>
       <c r="I124" s="3"/>
       <c r="J124" s="3"/>
-      <c r="K124" s="47"/>
+      <c r="K124" s="49"/>
     </row>
     <row r="125" spans="1:11">
       <c r="A125" s="3"/>
@@ -4687,7 +4740,7 @@
       <c r="H125" s="3"/>
       <c r="I125" s="3"/>
       <c r="J125" s="3"/>
-      <c r="K125" s="47"/>
+      <c r="K125" s="49"/>
     </row>
     <row r="126" spans="1:11">
       <c r="A126" s="3"/>
@@ -4699,7 +4752,7 @@
       <c r="H126" s="3"/>
       <c r="I126" s="3"/>
       <c r="J126" s="3"/>
-      <c r="K126" s="47"/>
+      <c r="K126" s="49"/>
     </row>
     <row r="127" spans="1:11">
       <c r="A127" s="3"/>
@@ -4711,7 +4764,7 @@
       <c r="H127" s="3"/>
       <c r="I127" s="3"/>
       <c r="J127" s="3"/>
-      <c r="K127" s="47"/>
+      <c r="K127" s="49"/>
     </row>
     <row r="128" spans="1:11">
       <c r="A128" s="3"/>
@@ -4723,7 +4776,7 @@
       <c r="H128" s="3"/>
       <c r="I128" s="3"/>
       <c r="J128" s="3"/>
-      <c r="K128" s="47"/>
+      <c r="K128" s="49"/>
     </row>
     <row r="129" spans="1:11">
       <c r="A129" s="3"/>
@@ -4735,7 +4788,7 @@
       <c r="H129" s="3"/>
       <c r="I129" s="3"/>
       <c r="J129" s="3"/>
-      <c r="K129" s="47"/>
+      <c r="K129" s="49"/>
     </row>
     <row r="130" spans="1:11">
       <c r="A130" s="3"/>
@@ -4747,7 +4800,7 @@
       <c r="H130" s="3"/>
       <c r="I130" s="3"/>
       <c r="J130" s="3"/>
-      <c r="K130" s="47"/>
+      <c r="K130" s="49"/>
     </row>
     <row r="131" spans="1:11">
       <c r="A131" s="3"/>
@@ -4759,7 +4812,7 @@
       <c r="H131" s="3"/>
       <c r="I131" s="3"/>
       <c r="J131" s="3"/>
-      <c r="K131" s="47"/>
+      <c r="K131" s="49"/>
     </row>
     <row r="132" spans="1:11">
       <c r="A132" s="3"/>
@@ -4771,7 +4824,7 @@
       <c r="H132" s="3"/>
       <c r="I132" s="3"/>
       <c r="J132" s="3"/>
-      <c r="K132" s="47"/>
+      <c r="K132" s="49"/>
     </row>
     <row r="133" spans="1:11">
       <c r="A133" s="3"/>
@@ -4783,7 +4836,7 @@
       <c r="H133" s="3"/>
       <c r="I133" s="3"/>
       <c r="J133" s="3"/>
-      <c r="K133" s="47"/>
+      <c r="K133" s="49"/>
     </row>
     <row r="134" spans="1:11">
       <c r="A134" s="3"/>
@@ -4795,7 +4848,7 @@
       <c r="H134" s="3"/>
       <c r="I134" s="3"/>
       <c r="J134" s="3"/>
-      <c r="K134" s="47"/>
+      <c r="K134" s="49"/>
     </row>
     <row r="135" spans="1:11">
       <c r="A135" s="3"/>
@@ -4807,7 +4860,7 @@
       <c r="H135" s="3"/>
       <c r="I135" s="3"/>
       <c r="J135" s="3"/>
-      <c r="K135" s="47"/>
+      <c r="K135" s="49"/>
     </row>
     <row r="136" spans="1:11">
       <c r="A136" s="3"/>
@@ -4819,7 +4872,7 @@
       <c r="H136" s="3"/>
       <c r="I136" s="3"/>
       <c r="J136" s="3"/>
-      <c r="K136" s="47"/>
+      <c r="K136" s="49"/>
     </row>
     <row r="137" spans="1:11">
       <c r="A137" s="3"/>
@@ -4831,7 +4884,7 @@
       <c r="H137" s="3"/>
       <c r="I137" s="3"/>
       <c r="J137" s="3"/>
-      <c r="K137" s="47"/>
+      <c r="K137" s="49"/>
     </row>
     <row r="138" spans="1:11">
       <c r="A138" s="3"/>
@@ -4843,7 +4896,7 @@
       <c r="H138" s="3"/>
       <c r="I138" s="3"/>
       <c r="J138" s="3"/>
-      <c r="K138" s="47"/>
+      <c r="K138" s="49"/>
     </row>
     <row r="139" spans="1:11">
       <c r="A139" s="3"/>
@@ -4855,7 +4908,7 @@
       <c r="H139" s="3"/>
       <c r="I139" s="3"/>
       <c r="J139" s="3"/>
-      <c r="K139" s="47"/>
+      <c r="K139" s="49"/>
     </row>
     <row r="140" spans="1:11">
       <c r="A140" s="3"/>
@@ -4867,7 +4920,7 @@
       <c r="H140" s="3"/>
       <c r="I140" s="3"/>
       <c r="J140" s="3"/>
-      <c r="K140" s="47"/>
+      <c r="K140" s="49"/>
     </row>
     <row r="141" spans="1:11">
       <c r="A141" s="3"/>
@@ -4879,7 +4932,7 @@
       <c r="H141" s="3"/>
       <c r="I141" s="3"/>
       <c r="J141" s="3"/>
-      <c r="K141" s="47"/>
+      <c r="K141" s="49"/>
     </row>
     <row r="142" spans="1:11">
       <c r="A142" s="3"/>
@@ -4891,7 +4944,7 @@
       <c r="H142" s="3"/>
       <c r="I142" s="3"/>
       <c r="J142" s="3"/>
-      <c r="K142" s="47"/>
+      <c r="K142" s="49"/>
     </row>
     <row r="143" spans="1:11">
       <c r="A143" s="3"/>
@@ -4903,7 +4956,7 @@
       <c r="H143" s="3"/>
       <c r="I143" s="3"/>
       <c r="J143" s="3"/>
-      <c r="K143" s="47"/>
+      <c r="K143" s="49"/>
     </row>
     <row r="144" spans="1:11">
       <c r="A144" s="3"/>
@@ -4915,7 +4968,7 @@
       <c r="H144" s="3"/>
       <c r="I144" s="3"/>
       <c r="J144" s="3"/>
-      <c r="K144" s="47"/>
+      <c r="K144" s="49"/>
     </row>
     <row r="145" spans="1:11">
       <c r="A145" s="3"/>
@@ -4927,7 +4980,7 @@
       <c r="H145" s="3"/>
       <c r="I145" s="3"/>
       <c r="J145" s="3"/>
-      <c r="K145" s="47"/>
+      <c r="K145" s="49"/>
     </row>
     <row r="146" spans="1:11">
       <c r="A146" s="3"/>
@@ -4939,7 +4992,7 @@
       <c r="H146" s="3"/>
       <c r="I146" s="3"/>
       <c r="J146" s="3"/>
-      <c r="K146" s="47"/>
+      <c r="K146" s="49"/>
     </row>
     <row r="147" spans="1:11">
       <c r="A147" s="3"/>
@@ -4951,7 +5004,7 @@
       <c r="H147" s="3"/>
       <c r="I147" s="3"/>
       <c r="J147" s="3"/>
-      <c r="K147" s="47"/>
+      <c r="K147" s="49"/>
     </row>
     <row r="148" spans="1:11">
       <c r="A148" s="3"/>
@@ -4963,7 +5016,7 @@
       <c r="H148" s="3"/>
       <c r="I148" s="3"/>
       <c r="J148" s="3"/>
-      <c r="K148" s="47"/>
+      <c r="K148" s="49"/>
     </row>
     <row r="149" spans="1:11">
       <c r="A149" s="3"/>
@@ -4975,7 +5028,7 @@
       <c r="H149" s="3"/>
       <c r="I149" s="3"/>
       <c r="J149" s="3"/>
-      <c r="K149" s="47"/>
+      <c r="K149" s="49"/>
     </row>
     <row r="150" spans="1:11">
       <c r="A150" s="3"/>
@@ -4987,7 +5040,7 @@
       <c r="H150" s="3"/>
       <c r="I150" s="3"/>
       <c r="J150" s="3"/>
-      <c r="K150" s="47"/>
+      <c r="K150" s="49"/>
     </row>
     <row r="151" spans="1:11">
       <c r="A151" s="3"/>
@@ -4999,7 +5052,7 @@
       <c r="H151" s="3"/>
       <c r="I151" s="3"/>
       <c r="J151" s="3"/>
-      <c r="K151" s="47"/>
+      <c r="K151" s="49"/>
     </row>
     <row r="152" spans="1:11">
       <c r="A152" s="3"/>
@@ -5011,7 +5064,7 @@
       <c r="H152" s="3"/>
       <c r="I152" s="3"/>
       <c r="J152" s="3"/>
-      <c r="K152" s="47"/>
+      <c r="K152" s="49"/>
     </row>
     <row r="153" spans="1:11">
       <c r="A153" s="3"/>
@@ -5023,7 +5076,7 @@
       <c r="H153" s="3"/>
       <c r="I153" s="3"/>
       <c r="J153" s="3"/>
-      <c r="K153" s="47"/>
+      <c r="K153" s="49"/>
     </row>
     <row r="154" spans="1:11">
       <c r="A154" s="3"/>
@@ -5035,7 +5088,7 @@
       <c r="H154" s="3"/>
       <c r="I154" s="3"/>
       <c r="J154" s="3"/>
-      <c r="K154" s="47"/>
+      <c r="K154" s="49"/>
     </row>
     <row r="155" spans="1:11">
       <c r="A155" s="3"/>
@@ -5047,7 +5100,7 @@
       <c r="H155" s="3"/>
       <c r="I155" s="3"/>
       <c r="J155" s="3"/>
-      <c r="K155" s="47"/>
+      <c r="K155" s="49"/>
     </row>
     <row r="156" spans="1:11">
       <c r="A156" s="3"/>
@@ -5059,7 +5112,7 @@
       <c r="H156" s="3"/>
       <c r="I156" s="3"/>
       <c r="J156" s="3"/>
-      <c r="K156" s="47"/>
+      <c r="K156" s="49"/>
     </row>
     <row r="157" spans="1:11">
       <c r="A157" s="3"/>
@@ -5071,7 +5124,7 @@
       <c r="H157" s="3"/>
       <c r="I157" s="3"/>
       <c r="J157" s="3"/>
-      <c r="K157" s="47"/>
+      <c r="K157" s="49"/>
     </row>
     <row r="158" spans="1:11">
       <c r="A158" s="3"/>
@@ -5083,7 +5136,7 @@
       <c r="H158" s="3"/>
       <c r="I158" s="3"/>
       <c r="J158" s="3"/>
-      <c r="K158" s="47"/>
+      <c r="K158" s="49"/>
     </row>
     <row r="159" spans="1:11">
       <c r="A159" s="3"/>
@@ -5095,7 +5148,7 @@
       <c r="H159" s="3"/>
       <c r="I159" s="3"/>
       <c r="J159" s="3"/>
-      <c r="K159" s="47"/>
+      <c r="K159" s="49"/>
     </row>
     <row r="160" spans="1:11">
       <c r="A160" s="3"/>
@@ -5107,7 +5160,7 @@
       <c r="H160" s="3"/>
       <c r="I160" s="3"/>
       <c r="J160" s="3"/>
-      <c r="K160" s="47"/>
+      <c r="K160" s="49"/>
     </row>
     <row r="161" spans="1:11">
       <c r="A161" s="3"/>
@@ -5119,7 +5172,7 @@
       <c r="H161" s="3"/>
       <c r="I161" s="3"/>
       <c r="J161" s="3"/>
-      <c r="K161" s="47"/>
+      <c r="K161" s="49"/>
     </row>
     <row r="162" spans="1:11">
       <c r="A162" s="3"/>
@@ -5131,7 +5184,7 @@
       <c r="H162" s="3"/>
       <c r="I162" s="3"/>
       <c r="J162" s="3"/>
-      <c r="K162" s="47"/>
+      <c r="K162" s="49"/>
     </row>
     <row r="163" spans="1:11">
       <c r="A163" s="3"/>
@@ -5143,7 +5196,7 @@
       <c r="H163" s="3"/>
       <c r="I163" s="3"/>
       <c r="J163" s="3"/>
-      <c r="K163" s="47"/>
+      <c r="K163" s="49"/>
     </row>
     <row r="164" spans="1:11">
       <c r="A164" s="3"/>
@@ -5155,7 +5208,7 @@
       <c r="H164" s="3"/>
       <c r="I164" s="3"/>
       <c r="J164" s="3"/>
-      <c r="K164" s="47"/>
+      <c r="K164" s="49"/>
     </row>
     <row r="165" spans="1:11">
       <c r="A165" s="3"/>
@@ -5167,7 +5220,7 @@
       <c r="H165" s="3"/>
       <c r="I165" s="3"/>
       <c r="J165" s="3"/>
-      <c r="K165" s="47"/>
+      <c r="K165" s="49"/>
     </row>
     <row r="166" spans="1:11">
       <c r="A166" s="3"/>
@@ -5179,7 +5232,7 @@
       <c r="H166" s="3"/>
       <c r="I166" s="3"/>
       <c r="J166" s="3"/>
-      <c r="K166" s="47"/>
+      <c r="K166" s="49"/>
     </row>
     <row r="167" spans="1:11">
       <c r="A167" s="3"/>
@@ -5191,7 +5244,7 @@
       <c r="H167" s="3"/>
       <c r="I167" s="3"/>
       <c r="J167" s="3"/>
-      <c r="K167" s="47"/>
+      <c r="K167" s="49"/>
     </row>
     <row r="168" spans="1:11">
       <c r="A168" s="3"/>
@@ -5203,7 +5256,7 @@
       <c r="H168" s="3"/>
       <c r="I168" s="3"/>
       <c r="J168" s="3"/>
-      <c r="K168" s="47"/>
+      <c r="K168" s="49"/>
     </row>
     <row r="169" spans="1:11">
       <c r="A169" s="3"/>
@@ -5215,7 +5268,7 @@
       <c r="H169" s="3"/>
       <c r="I169" s="3"/>
       <c r="J169" s="3"/>
-      <c r="K169" s="47"/>
+      <c r="K169" s="49"/>
     </row>
     <row r="170" spans="1:11">
       <c r="A170" s="3"/>
@@ -5227,7 +5280,7 @@
       <c r="H170" s="3"/>
       <c r="I170" s="3"/>
       <c r="J170" s="3"/>
-      <c r="K170" s="47"/>
+      <c r="K170" s="49"/>
     </row>
     <row r="171" spans="1:11">
       <c r="A171" s="3"/>
@@ -5239,7 +5292,7 @@
       <c r="H171" s="3"/>
       <c r="I171" s="3"/>
       <c r="J171" s="3"/>
-      <c r="K171" s="47"/>
+      <c r="K171" s="49"/>
     </row>
     <row r="172" spans="1:11">
       <c r="A172" s="3"/>
@@ -5251,7 +5304,7 @@
       <c r="H172" s="3"/>
       <c r="I172" s="3"/>
       <c r="J172" s="3"/>
-      <c r="K172" s="47"/>
+      <c r="K172" s="49"/>
     </row>
     <row r="173" spans="1:11">
       <c r="A173" s="3"/>
@@ -5263,7 +5316,7 @@
       <c r="H173" s="3"/>
       <c r="I173" s="3"/>
       <c r="J173" s="3"/>
-      <c r="K173" s="47"/>
+      <c r="K173" s="49"/>
     </row>
     <row r="174" spans="1:11">
       <c r="A174" s="3"/>
@@ -5275,7 +5328,7 @@
       <c r="H174" s="3"/>
       <c r="I174" s="3"/>
       <c r="J174" s="3"/>
-      <c r="K174" s="47"/>
+      <c r="K174" s="49"/>
     </row>
     <row r="175" spans="1:11">
       <c r="A175" s="3"/>
@@ -5287,7 +5340,7 @@
       <c r="H175" s="3"/>
       <c r="I175" s="3"/>
       <c r="J175" s="3"/>
-      <c r="K175" s="47"/>
+      <c r="K175" s="49"/>
     </row>
     <row r="176" spans="1:11">
       <c r="A176" s="3"/>
@@ -5299,7 +5352,7 @@
       <c r="H176" s="3"/>
       <c r="I176" s="3"/>
       <c r="J176" s="3"/>
-      <c r="K176" s="47"/>
+      <c r="K176" s="49"/>
     </row>
     <row r="177" spans="1:11">
       <c r="A177" s="3"/>
@@ -5311,7 +5364,7 @@
       <c r="H177" s="3"/>
       <c r="I177" s="3"/>
       <c r="J177" s="3"/>
-      <c r="K177" s="47"/>
+      <c r="K177" s="49"/>
     </row>
     <row r="178" spans="1:11">
       <c r="A178" s="3"/>
@@ -5323,7 +5376,7 @@
       <c r="H178" s="3"/>
       <c r="I178" s="3"/>
       <c r="J178" s="3"/>
-      <c r="K178" s="47"/>
+      <c r="K178" s="49"/>
     </row>
     <row r="179" spans="1:11">
       <c r="A179" s="3"/>
@@ -5335,7 +5388,7 @@
       <c r="H179" s="3"/>
       <c r="I179" s="3"/>
       <c r="J179" s="3"/>
-      <c r="K179" s="47"/>
+      <c r="K179" s="49"/>
     </row>
     <row r="180" spans="1:11">
       <c r="A180" s="3"/>
@@ -5347,7 +5400,7 @@
       <c r="H180" s="3"/>
       <c r="I180" s="3"/>
       <c r="J180" s="3"/>
-      <c r="K180" s="47"/>
+      <c r="K180" s="49"/>
     </row>
     <row r="181" spans="1:11">
       <c r="A181" s="3"/>
@@ -5359,7 +5412,7 @@
       <c r="H181" s="3"/>
       <c r="I181" s="3"/>
       <c r="J181" s="3"/>
-      <c r="K181" s="47"/>
+      <c r="K181" s="49"/>
     </row>
     <row r="182" spans="1:11">
       <c r="A182" s="3"/>
@@ -5371,7 +5424,7 @@
       <c r="H182" s="3"/>
       <c r="I182" s="3"/>
       <c r="J182" s="3"/>
-      <c r="K182" s="47"/>
+      <c r="K182" s="49"/>
     </row>
     <row r="183" spans="1:11">
       <c r="A183" s="3"/>
@@ -5383,7 +5436,7 @@
       <c r="H183" s="3"/>
       <c r="I183" s="3"/>
       <c r="J183" s="3"/>
-      <c r="K183" s="47"/>
+      <c r="K183" s="49"/>
     </row>
     <row r="184" spans="1:11">
       <c r="A184" s="3"/>
@@ -5395,7 +5448,7 @@
       <c r="H184" s="3"/>
       <c r="I184" s="3"/>
       <c r="J184" s="3"/>
-      <c r="K184" s="47"/>
+      <c r="K184" s="49"/>
     </row>
     <row r="185" spans="1:11">
       <c r="A185" s="3"/>
@@ -5407,7 +5460,7 @@
       <c r="H185" s="3"/>
       <c r="I185" s="3"/>
       <c r="J185" s="3"/>
-      <c r="K185" s="47"/>
+      <c r="K185" s="49"/>
     </row>
     <row r="186" spans="1:11">
       <c r="A186" s="3"/>
@@ -5419,7 +5472,7 @@
       <c r="H186" s="3"/>
       <c r="I186" s="3"/>
       <c r="J186" s="3"/>
-      <c r="K186" s="47"/>
+      <c r="K186" s="49"/>
     </row>
     <row r="187" spans="1:11">
       <c r="A187" s="3"/>
@@ -5431,7 +5484,7 @@
       <c r="H187" s="3"/>
       <c r="I187" s="3"/>
       <c r="J187" s="3"/>
-      <c r="K187" s="47"/>
+      <c r="K187" s="49"/>
     </row>
     <row r="188" spans="1:11">
       <c r="A188" s="3"/>
@@ -5443,7 +5496,7 @@
       <c r="H188" s="3"/>
       <c r="I188" s="3"/>
       <c r="J188" s="3"/>
-      <c r="K188" s="47"/>
+      <c r="K188" s="49"/>
     </row>
     <row r="189" spans="1:11">
       <c r="A189" s="3"/>
@@ -5455,7 +5508,7 @@
       <c r="H189" s="3"/>
       <c r="I189" s="3"/>
       <c r="J189" s="3"/>
-      <c r="K189" s="47"/>
+      <c r="K189" s="49"/>
     </row>
     <row r="190" spans="1:11">
       <c r="A190" s="3"/>
@@ -5467,7 +5520,7 @@
       <c r="H190" s="3"/>
       <c r="I190" s="3"/>
       <c r="J190" s="3"/>
-      <c r="K190" s="47"/>
+      <c r="K190" s="49"/>
     </row>
     <row r="191" spans="1:11">
       <c r="A191" s="3"/>
@@ -5479,7 +5532,7 @@
       <c r="H191" s="3"/>
       <c r="I191" s="3"/>
       <c r="J191" s="3"/>
-      <c r="K191" s="47"/>
+      <c r="K191" s="49"/>
     </row>
     <row r="192" spans="1:11">
       <c r="A192" s="3"/>
@@ -5491,7 +5544,7 @@
       <c r="H192" s="3"/>
       <c r="I192" s="3"/>
       <c r="J192" s="3"/>
-      <c r="K192" s="47"/>
+      <c r="K192" s="49"/>
     </row>
     <row r="193" spans="1:11">
       <c r="A193" s="3"/>
@@ -5503,7 +5556,7 @@
       <c r="H193" s="3"/>
       <c r="I193" s="3"/>
       <c r="J193" s="3"/>
-      <c r="K193" s="47"/>
+      <c r="K193" s="49"/>
     </row>
     <row r="194" spans="1:11">
       <c r="A194" s="3"/>
@@ -5515,7 +5568,7 @@
       <c r="H194" s="3"/>
       <c r="I194" s="3"/>
       <c r="J194" s="3"/>
-      <c r="K194" s="47"/>
+      <c r="K194" s="49"/>
     </row>
     <row r="195" spans="1:11">
       <c r="A195" s="3"/>
@@ -5527,7 +5580,7 @@
       <c r="H195" s="3"/>
       <c r="I195" s="3"/>
       <c r="J195" s="3"/>
-      <c r="K195" s="47"/>
+      <c r="K195" s="49"/>
     </row>
     <row r="196" spans="1:11">
       <c r="A196" s="3"/>
@@ -5539,7 +5592,7 @@
       <c r="H196" s="3"/>
       <c r="I196" s="3"/>
       <c r="J196" s="3"/>
-      <c r="K196" s="47"/>
+      <c r="K196" s="49"/>
     </row>
     <row r="197" spans="1:11">
       <c r="A197" s="3"/>
@@ -5551,7 +5604,7 @@
       <c r="H197" s="3"/>
       <c r="I197" s="3"/>
       <c r="J197" s="3"/>
-      <c r="K197" s="47"/>
+      <c r="K197" s="49"/>
     </row>
     <row r="198" spans="1:11">
       <c r="A198" s="3"/>
@@ -5563,7 +5616,7 @@
       <c r="H198" s="3"/>
       <c r="I198" s="3"/>
       <c r="J198" s="3"/>
-      <c r="K198" s="47"/>
+      <c r="K198" s="49"/>
     </row>
     <row r="199" spans="1:11">
       <c r="A199" s="3"/>
@@ -5575,7 +5628,7 @@
       <c r="H199" s="3"/>
       <c r="I199" s="3"/>
       <c r="J199" s="3"/>
-      <c r="K199" s="47"/>
+      <c r="K199" s="49"/>
     </row>
     <row r="200" spans="1:11">
       <c r="A200" s="3"/>
@@ -5587,7 +5640,7 @@
       <c r="H200" s="3"/>
       <c r="I200" s="3"/>
       <c r="J200" s="3"/>
-      <c r="K200" s="47"/>
+      <c r="K200" s="49"/>
     </row>
     <row r="201" spans="1:11">
       <c r="A201" s="3"/>
@@ -5599,7 +5652,7 @@
       <c r="H201" s="3"/>
       <c r="I201" s="3"/>
       <c r="J201" s="3"/>
-      <c r="K201" s="47"/>
+      <c r="K201" s="49"/>
     </row>
     <row r="202" spans="1:11">
       <c r="A202" s="3"/>
@@ -5611,7 +5664,7 @@
       <c r="H202" s="3"/>
       <c r="I202" s="3"/>
       <c r="J202" s="3"/>
-      <c r="K202" s="47"/>
+      <c r="K202" s="49"/>
     </row>
     <row r="203" spans="1:11">
       <c r="A203" s="3"/>
@@ -5623,7 +5676,7 @@
       <c r="H203" s="3"/>
       <c r="I203" s="3"/>
       <c r="J203" s="3"/>
-      <c r="K203" s="47"/>
+      <c r="K203" s="49"/>
     </row>
     <row r="204" spans="1:11">
       <c r="A204" s="3"/>
@@ -5635,7 +5688,7 @@
       <c r="H204" s="3"/>
       <c r="I204" s="3"/>
       <c r="J204" s="3"/>
-      <c r="K204" s="47"/>
+      <c r="K204" s="49"/>
     </row>
     <row r="205" spans="1:11">
       <c r="A205" s="3"/>
@@ -5647,7 +5700,7 @@
       <c r="H205" s="3"/>
       <c r="I205" s="3"/>
       <c r="J205" s="3"/>
-      <c r="K205" s="47"/>
+      <c r="K205" s="49"/>
     </row>
     <row r="206" spans="1:11">
       <c r="A206" s="3"/>
@@ -5659,7 +5712,7 @@
       <c r="H206" s="3"/>
       <c r="I206" s="3"/>
       <c r="J206" s="3"/>
-      <c r="K206" s="47"/>
+      <c r="K206" s="49"/>
     </row>
     <row r="207" spans="1:11">
       <c r="A207" s="3"/>
@@ -5671,7 +5724,7 @@
       <c r="H207" s="3"/>
       <c r="I207" s="3"/>
       <c r="J207" s="3"/>
-      <c r="K207" s="47"/>
+      <c r="K207" s="49"/>
     </row>
     <row r="208" spans="1:11">
       <c r="A208" s="3"/>
@@ -5683,7 +5736,7 @@
       <c r="H208" s="3"/>
       <c r="I208" s="3"/>
       <c r="J208" s="3"/>
-      <c r="K208" s="47"/>
+      <c r="K208" s="49"/>
     </row>
     <row r="209" spans="1:11">
       <c r="A209" s="3"/>
@@ -5695,7 +5748,7 @@
       <c r="H209" s="3"/>
       <c r="I209" s="3"/>
       <c r="J209" s="3"/>
-      <c r="K209" s="47"/>
+      <c r="K209" s="49"/>
     </row>
     <row r="210" spans="1:11">
       <c r="A210" s="3"/>
@@ -5707,7 +5760,7 @@
       <c r="H210" s="3"/>
       <c r="I210" s="3"/>
       <c r="J210" s="3"/>
-      <c r="K210" s="47"/>
+      <c r="K210" s="49"/>
     </row>
     <row r="211" spans="1:11">
       <c r="A211" s="3"/>
@@ -5719,7 +5772,7 @@
       <c r="H211" s="3"/>
       <c r="I211" s="3"/>
       <c r="J211" s="3"/>
-      <c r="K211" s="47"/>
+      <c r="K211" s="49"/>
     </row>
     <row r="212" spans="1:11">
       <c r="A212" s="3"/>
@@ -5731,7 +5784,7 @@
       <c r="H212" s="3"/>
       <c r="I212" s="3"/>
       <c r="J212" s="3"/>
-      <c r="K212" s="47"/>
+      <c r="K212" s="49"/>
     </row>
     <row r="213" spans="1:11">
       <c r="A213" s="3"/>
@@ -5743,7 +5796,7 @@
       <c r="H213" s="3"/>
       <c r="I213" s="3"/>
       <c r="J213" s="3"/>
-      <c r="K213" s="47"/>
+      <c r="K213" s="49"/>
     </row>
     <row r="214" spans="1:11">
       <c r="A214" s="3"/>
@@ -5755,7 +5808,7 @@
       <c r="H214" s="3"/>
       <c r="I214" s="3"/>
       <c r="J214" s="3"/>
-      <c r="K214" s="47"/>
+      <c r="K214" s="49"/>
     </row>
     <row r="215" spans="1:11">
       <c r="A215" s="3"/>
@@ -5767,7 +5820,7 @@
       <c r="H215" s="3"/>
       <c r="I215" s="3"/>
       <c r="J215" s="3"/>
-      <c r="K215" s="47"/>
+      <c r="K215" s="49"/>
     </row>
     <row r="216" spans="1:11">
       <c r="A216" s="3"/>
@@ -5779,7 +5832,7 @@
       <c r="H216" s="3"/>
       <c r="I216" s="3"/>
       <c r="J216" s="3"/>
-      <c r="K216" s="47"/>
+      <c r="K216" s="49"/>
     </row>
     <row r="217" spans="1:11">
       <c r="A217" s="3"/>
@@ -5791,7 +5844,7 @@
       <c r="H217" s="3"/>
       <c r="I217" s="3"/>
       <c r="J217" s="3"/>
-      <c r="K217" s="47"/>
+      <c r="K217" s="49"/>
     </row>
     <row r="218" spans="1:11">
       <c r="A218" s="3"/>
@@ -5803,7 +5856,7 @@
       <c r="H218" s="3"/>
       <c r="I218" s="3"/>
       <c r="J218" s="3"/>
-      <c r="K218" s="47"/>
+      <c r="K218" s="49"/>
     </row>
     <row r="219" spans="1:11">
       <c r="A219" s="3"/>
@@ -5815,7 +5868,7 @@
       <c r="H219" s="3"/>
       <c r="I219" s="3"/>
       <c r="J219" s="3"/>
-      <c r="K219" s="47"/>
+      <c r="K219" s="49"/>
     </row>
     <row r="220" spans="1:11">
       <c r="A220" s="3"/>
@@ -5827,7 +5880,7 @@
       <c r="H220" s="3"/>
       <c r="I220" s="3"/>
       <c r="J220" s="3"/>
-      <c r="K220" s="47"/>
+      <c r="K220" s="49"/>
     </row>
     <row r="221" spans="1:11">
       <c r="A221" s="3"/>
@@ -5839,7 +5892,7 @@
       <c r="H221" s="3"/>
       <c r="I221" s="3"/>
       <c r="J221" s="3"/>
-      <c r="K221" s="47"/>
+      <c r="K221" s="49"/>
     </row>
     <row r="222" spans="1:11">
       <c r="A222" s="3"/>
@@ -5851,7 +5904,7 @@
       <c r="H222" s="3"/>
       <c r="I222" s="3"/>
       <c r="J222" s="3"/>
-      <c r="K222" s="47"/>
+      <c r="K222" s="49"/>
     </row>
     <row r="223" spans="1:11">
       <c r="A223" s="3"/>
@@ -5863,7 +5916,7 @@
       <c r="H223" s="3"/>
       <c r="I223" s="3"/>
       <c r="J223" s="3"/>
-      <c r="K223" s="47"/>
+      <c r="K223" s="49"/>
     </row>
     <row r="224" spans="1:11">
       <c r="A224" s="3"/>
@@ -5875,7 +5928,7 @@
       <c r="H224" s="3"/>
       <c r="I224" s="3"/>
       <c r="J224" s="3"/>
-      <c r="K224" s="47"/>
+      <c r="K224" s="49"/>
     </row>
     <row r="225" spans="1:11">
       <c r="A225" s="3"/>
@@ -5887,7 +5940,7 @@
       <c r="H225" s="3"/>
       <c r="I225" s="3"/>
       <c r="J225" s="3"/>
-      <c r="K225" s="47"/>
+      <c r="K225" s="49"/>
     </row>
     <row r="226" spans="1:11">
       <c r="A226" s="3"/>
@@ -5899,7 +5952,7 @@
       <c r="H226" s="3"/>
       <c r="I226" s="3"/>
       <c r="J226" s="3"/>
-      <c r="K226" s="47"/>
+      <c r="K226" s="49"/>
     </row>
     <row r="227" spans="1:11">
       <c r="A227" s="3"/>
@@ -5911,7 +5964,7 @@
       <c r="H227" s="3"/>
       <c r="I227" s="3"/>
       <c r="J227" s="3"/>
-      <c r="K227" s="47"/>
+      <c r="K227" s="49"/>
     </row>
     <row r="228" spans="1:11">
       <c r="A228" s="3"/>
@@ -5923,7 +5976,7 @@
       <c r="H228" s="3"/>
       <c r="I228" s="3"/>
       <c r="J228" s="3"/>
-      <c r="K228" s="47"/>
+      <c r="K228" s="49"/>
     </row>
     <row r="229" spans="1:11">
       <c r="A229" s="3"/>
@@ -5935,7 +5988,7 @@
       <c r="H229" s="3"/>
       <c r="I229" s="3"/>
       <c r="J229" s="3"/>
-      <c r="K229" s="47"/>
+      <c r="K229" s="49"/>
     </row>
     <row r="230" spans="1:11">
       <c r="A230" s="3"/>
@@ -5947,7 +6000,7 @@
       <c r="H230" s="3"/>
       <c r="I230" s="3"/>
       <c r="J230" s="3"/>
-      <c r="K230" s="47"/>
+      <c r="K230" s="49"/>
     </row>
     <row r="231" spans="1:11">
       <c r="A231" s="3"/>
@@ -5959,7 +6012,7 @@
       <c r="H231" s="3"/>
       <c r="I231" s="3"/>
       <c r="J231" s="3"/>
-      <c r="K231" s="47"/>
+      <c r="K231" s="49"/>
     </row>
     <row r="232" spans="1:11">
       <c r="A232" s="3"/>
@@ -5971,7 +6024,7 @@
       <c r="H232" s="3"/>
       <c r="I232" s="3"/>
       <c r="J232" s="3"/>
-      <c r="K232" s="47"/>
+      <c r="K232" s="49"/>
     </row>
     <row r="233" spans="1:11">
       <c r="A233" s="3"/>
@@ -5983,7 +6036,7 @@
       <c r="H233" s="3"/>
       <c r="I233" s="3"/>
       <c r="J233" s="3"/>
-      <c r="K233" s="47"/>
+      <c r="K233" s="49"/>
     </row>
     <row r="234" spans="1:11">
       <c r="A234" s="3"/>
@@ -5995,7 +6048,7 @@
       <c r="H234" s="3"/>
       <c r="I234" s="3"/>
       <c r="J234" s="3"/>
-      <c r="K234" s="47"/>
+      <c r="K234" s="49"/>
     </row>
     <row r="235" spans="1:11">
       <c r="A235" s="3"/>
@@ -6007,7 +6060,7 @@
       <c r="H235" s="3"/>
       <c r="I235" s="3"/>
       <c r="J235" s="3"/>
-      <c r="K235" s="47"/>
+      <c r="K235" s="49"/>
     </row>
     <row r="236" spans="1:11">
       <c r="A236" s="3"/>
@@ -6019,7 +6072,7 @@
       <c r="H236" s="3"/>
       <c r="I236" s="3"/>
       <c r="J236" s="3"/>
-      <c r="K236" s="47"/>
+      <c r="K236" s="49"/>
     </row>
     <row r="237" spans="1:11">
       <c r="A237" s="3"/>
@@ -6031,7 +6084,7 @@
       <c r="H237" s="3"/>
       <c r="I237" s="3"/>
       <c r="J237" s="3"/>
-      <c r="K237" s="47"/>
+      <c r="K237" s="49"/>
     </row>
     <row r="238" spans="1:11">
       <c r="A238" s="3"/>
@@ -6043,7 +6096,7 @@
       <c r="H238" s="3"/>
       <c r="I238" s="3"/>
       <c r="J238" s="3"/>
-      <c r="K238" s="47"/>
+      <c r="K238" s="49"/>
     </row>
     <row r="239" spans="1:11">
       <c r="A239" s="3"/>
@@ -6055,7 +6108,7 @@
       <c r="H239" s="3"/>
       <c r="I239" s="3"/>
       <c r="J239" s="3"/>
-      <c r="K239" s="47"/>
+      <c r="K239" s="49"/>
     </row>
     <row r="240" spans="1:11">
       <c r="A240" s="3"/>
@@ -6067,7 +6120,7 @@
       <c r="H240" s="3"/>
       <c r="I240" s="3"/>
       <c r="J240" s="3"/>
-      <c r="K240" s="47"/>
+      <c r="K240" s="49"/>
     </row>
     <row r="241" spans="1:11">
       <c r="A241" s="3"/>
@@ -6079,7 +6132,7 @@
       <c r="H241" s="3"/>
       <c r="I241" s="3"/>
       <c r="J241" s="3"/>
-      <c r="K241" s="47"/>
+      <c r="K241" s="49"/>
     </row>
     <row r="242" spans="1:11">
       <c r="A242" s="3"/>
@@ -6091,7 +6144,7 @@
       <c r="H242" s="3"/>
       <c r="I242" s="3"/>
       <c r="J242" s="3"/>
-      <c r="K242" s="47"/>
+      <c r="K242" s="49"/>
     </row>
     <row r="243" spans="1:11">
       <c r="A243" s="3"/>
@@ -6103,7 +6156,7 @@
       <c r="H243" s="3"/>
       <c r="I243" s="3"/>
       <c r="J243" s="3"/>
-      <c r="K243" s="47"/>
+      <c r="K243" s="49"/>
     </row>
     <row r="244" spans="1:11">
       <c r="A244" s="3"/>
@@ -6115,7 +6168,7 @@
       <c r="H244" s="3"/>
       <c r="I244" s="3"/>
       <c r="J244" s="3"/>
-      <c r="K244" s="47"/>
+      <c r="K244" s="49"/>
     </row>
     <row r="245" spans="1:11">
       <c r="A245" s="3"/>
@@ -6127,7 +6180,7 @@
       <c r="H245" s="3"/>
       <c r="I245" s="3"/>
       <c r="J245" s="3"/>
-      <c r="K245" s="47"/>
+      <c r="K245" s="49"/>
     </row>
     <row r="246" spans="1:11">
       <c r="A246" s="3"/>
@@ -6139,7 +6192,7 @@
       <c r="H246" s="3"/>
       <c r="I246" s="3"/>
       <c r="J246" s="3"/>
-      <c r="K246" s="47"/>
+      <c r="K246" s="49"/>
     </row>
     <row r="247" spans="1:11">
       <c r="A247" s="3"/>
@@ -6151,7 +6204,7 @@
       <c r="H247" s="3"/>
       <c r="I247" s="3"/>
       <c r="J247" s="3"/>
-      <c r="K247" s="47"/>
+      <c r="K247" s="49"/>
     </row>
     <row r="248" spans="1:11">
       <c r="A248" s="3"/>
@@ -6163,7 +6216,7 @@
       <c r="H248" s="3"/>
       <c r="I248" s="3"/>
       <c r="J248" s="3"/>
-      <c r="K248" s="47"/>
+      <c r="K248" s="49"/>
     </row>
     <row r="249" spans="1:11">
       <c r="A249" s="3"/>
@@ -6175,7 +6228,7 @@
       <c r="H249" s="3"/>
       <c r="I249" s="3"/>
       <c r="J249" s="3"/>
-      <c r="K249" s="47"/>
+      <c r="K249" s="49"/>
     </row>
     <row r="250" spans="1:11">
       <c r="A250" s="3"/>
@@ -6187,7 +6240,7 @@
       <c r="H250" s="3"/>
       <c r="I250" s="3"/>
       <c r="J250" s="3"/>
-      <c r="K250" s="47"/>
+      <c r="K250" s="49"/>
     </row>
     <row r="251" spans="1:11">
       <c r="A251" s="3"/>
@@ -6199,7 +6252,7 @@
       <c r="H251" s="3"/>
       <c r="I251" s="3"/>
       <c r="J251" s="3"/>
-      <c r="K251" s="47"/>
+      <c r="K251" s="49"/>
     </row>
     <row r="252" spans="1:11">
       <c r="A252" s="3"/>
@@ -6211,7 +6264,7 @@
       <c r="H252" s="3"/>
       <c r="I252" s="3"/>
       <c r="J252" s="3"/>
-      <c r="K252" s="47"/>
+      <c r="K252" s="49"/>
     </row>
     <row r="253" spans="1:11">
       <c r="A253" s="3"/>
@@ -6223,7 +6276,7 @@
       <c r="H253" s="3"/>
       <c r="I253" s="3"/>
       <c r="J253" s="3"/>
-      <c r="K253" s="47"/>
+      <c r="K253" s="49"/>
     </row>
     <row r="254" spans="1:11">
       <c r="A254" s="3"/>
@@ -6235,7 +6288,7 @@
       <c r="H254" s="3"/>
       <c r="I254" s="3"/>
       <c r="J254" s="3"/>
-      <c r="K254" s="47"/>
+      <c r="K254" s="49"/>
     </row>
     <row r="255" spans="1:11">
       <c r="A255" s="3"/>
@@ -6247,7 +6300,7 @@
       <c r="H255" s="3"/>
       <c r="I255" s="3"/>
       <c r="J255" s="3"/>
-      <c r="K255" s="47"/>
+      <c r="K255" s="49"/>
     </row>
     <row r="256" spans="1:11">
       <c r="A256" s="3"/>
@@ -6259,7 +6312,7 @@
       <c r="H256" s="3"/>
       <c r="I256" s="3"/>
       <c r="J256" s="3"/>
-      <c r="K256" s="47"/>
+      <c r="K256" s="49"/>
     </row>
     <row r="257" spans="1:11">
       <c r="A257" s="3"/>
@@ -6271,7 +6324,7 @@
       <c r="H257" s="3"/>
       <c r="I257" s="3"/>
       <c r="J257" s="3"/>
-      <c r="K257" s="47"/>
+      <c r="K257" s="49"/>
     </row>
     <row r="258" spans="1:11">
       <c r="A258" s="3"/>
@@ -6283,7 +6336,7 @@
       <c r="H258" s="3"/>
       <c r="I258" s="3"/>
       <c r="J258" s="3"/>
-      <c r="K258" s="47"/>
+      <c r="K258" s="49"/>
     </row>
     <row r="259" spans="1:11">
       <c r="A259" s="3"/>
@@ -6295,7 +6348,7 @@
       <c r="H259" s="3"/>
       <c r="I259" s="3"/>
       <c r="J259" s="3"/>
-      <c r="K259" s="47"/>
+      <c r="K259" s="49"/>
     </row>
     <row r="260" spans="1:11">
       <c r="A260" s="3"/>
@@ -6307,7 +6360,7 @@
       <c r="H260" s="3"/>
       <c r="I260" s="3"/>
       <c r="J260" s="3"/>
-      <c r="K260" s="47"/>
+      <c r="K260" s="49"/>
     </row>
     <row r="261" spans="1:11">
       <c r="A261" s="3"/>
@@ -6319,7 +6372,7 @@
       <c r="H261" s="3"/>
       <c r="I261" s="3"/>
       <c r="J261" s="3"/>
-      <c r="K261" s="47"/>
+      <c r="K261" s="49"/>
     </row>
     <row r="262" spans="1:11">
       <c r="A262" s="3"/>
@@ -6331,7 +6384,7 @@
       <c r="H262" s="3"/>
       <c r="I262" s="3"/>
       <c r="J262" s="3"/>
-      <c r="K262" s="47"/>
+      <c r="K262" s="49"/>
     </row>
     <row r="263" spans="1:11">
       <c r="A263" s="3"/>
@@ -6343,7 +6396,7 @@
       <c r="H263" s="3"/>
       <c r="I263" s="3"/>
       <c r="J263" s="3"/>
-      <c r="K263" s="47"/>
+      <c r="K263" s="49"/>
     </row>
     <row r="264" spans="1:11">
       <c r="A264" s="3"/>
@@ -6355,7 +6408,7 @@
       <c r="H264" s="3"/>
       <c r="I264" s="3"/>
       <c r="J264" s="3"/>
-      <c r="K264" s="47"/>
+      <c r="K264" s="49"/>
     </row>
     <row r="265" spans="1:11">
       <c r="A265" s="3"/>
@@ -6367,7 +6420,7 @@
       <c r="H265" s="3"/>
       <c r="I265" s="3"/>
       <c r="J265" s="3"/>
-      <c r="K265" s="47"/>
+      <c r="K265" s="49"/>
     </row>
     <row r="266" spans="1:11">
       <c r="A266" s="3"/>
@@ -6379,7 +6432,7 @@
       <c r="H266" s="3"/>
       <c r="I266" s="3"/>
       <c r="J266" s="3"/>
-      <c r="K266" s="47"/>
+      <c r="K266" s="49"/>
     </row>
     <row r="267" spans="1:11">
       <c r="A267" s="3"/>
@@ -6391,7 +6444,7 @@
       <c r="H267" s="3"/>
       <c r="I267" s="3"/>
       <c r="J267" s="3"/>
-      <c r="K267" s="47"/>
+      <c r="K267" s="49"/>
     </row>
     <row r="268" spans="1:11">
       <c r="A268" s="3"/>
@@ -6403,7 +6456,7 @@
       <c r="H268" s="3"/>
       <c r="I268" s="3"/>
       <c r="J268" s="3"/>
-      <c r="K268" s="47"/>
+      <c r="K268" s="49"/>
     </row>
     <row r="269" spans="1:11">
       <c r="A269" s="3"/>
@@ -6415,7 +6468,7 @@
       <c r="H269" s="3"/>
       <c r="I269" s="3"/>
       <c r="J269" s="3"/>
-      <c r="K269" s="47"/>
+      <c r="K269" s="49"/>
     </row>
     <row r="270" spans="1:11">
       <c r="A270" s="3"/>
@@ -6427,7 +6480,7 @@
       <c r="H270" s="3"/>
       <c r="I270" s="3"/>
       <c r="J270" s="3"/>
-      <c r="K270" s="47"/>
+      <c r="K270" s="49"/>
     </row>
     <row r="271" spans="1:11">
       <c r="A271" s="3"/>
@@ -6439,7 +6492,7 @@
       <c r="H271" s="3"/>
       <c r="I271" s="3"/>
       <c r="J271" s="3"/>
-      <c r="K271" s="47"/>
+      <c r="K271" s="49"/>
     </row>
     <row r="272" spans="1:11">
       <c r="A272" s="3"/>
@@ -6451,7 +6504,7 @@
       <c r="H272" s="3"/>
       <c r="I272" s="3"/>
       <c r="J272" s="3"/>
-      <c r="K272" s="47"/>
+      <c r="K272" s="49"/>
     </row>
     <row r="273" spans="1:11">
       <c r="A273" s="3"/>
@@ -6463,7 +6516,7 @@
       <c r="H273" s="3"/>
       <c r="I273" s="3"/>
       <c r="J273" s="3"/>
-      <c r="K273" s="47"/>
+      <c r="K273" s="49"/>
     </row>
     <row r="274" spans="1:11">
       <c r="A274" s="3"/>
@@ -6475,7 +6528,7 @@
       <c r="H274" s="3"/>
       <c r="I274" s="3"/>
       <c r="J274" s="3"/>
-      <c r="K274" s="47"/>
+      <c r="K274" s="49"/>
     </row>
     <row r="275" spans="1:11">
       <c r="A275" s="3"/>
@@ -6487,7 +6540,7 @@
       <c r="H275" s="3"/>
       <c r="I275" s="3"/>
       <c r="J275" s="3"/>
-      <c r="K275" s="47"/>
+      <c r="K275" s="49"/>
     </row>
     <row r="276" spans="1:11">
       <c r="A276" s="3"/>
@@ -6499,7 +6552,7 @@
       <c r="H276" s="3"/>
       <c r="I276" s="3"/>
       <c r="J276" s="3"/>
-      <c r="K276" s="47"/>
+      <c r="K276" s="49"/>
     </row>
     <row r="277" spans="1:11">
       <c r="A277" s="3"/>
@@ -6511,7 +6564,7 @@
       <c r="H277" s="3"/>
       <c r="I277" s="3"/>
       <c r="J277" s="3"/>
-      <c r="K277" s="47"/>
+      <c r="K277" s="49"/>
     </row>
     <row r="278" spans="1:11">
       <c r="A278" s="3"/>
@@ -6523,7 +6576,7 @@
       <c r="H278" s="3"/>
       <c r="I278" s="3"/>
       <c r="J278" s="3"/>
-      <c r="K278" s="47"/>
+      <c r="K278" s="49"/>
     </row>
     <row r="279" spans="1:11">
       <c r="A279" s="3"/>
@@ -6535,7 +6588,7 @@
       <c r="H279" s="3"/>
       <c r="I279" s="3"/>
       <c r="J279" s="3"/>
-      <c r="K279" s="47"/>
+      <c r="K279" s="49"/>
     </row>
     <row r="280" spans="1:11">
       <c r="A280" s="3"/>
@@ -6547,7 +6600,7 @@
       <c r="H280" s="3"/>
       <c r="I280" s="3"/>
       <c r="J280" s="3"/>
-      <c r="K280" s="47"/>
+      <c r="K280" s="49"/>
     </row>
     <row r="281" spans="1:11">
       <c r="A281" s="3"/>
@@ -6559,7 +6612,7 @@
       <c r="H281" s="3"/>
       <c r="I281" s="3"/>
       <c r="J281" s="3"/>
-      <c r="K281" s="47"/>
+      <c r="K281" s="49"/>
     </row>
     <row r="282" spans="1:11">
       <c r="A282" s="3"/>
@@ -6571,7 +6624,7 @@
       <c r="H282" s="3"/>
       <c r="I282" s="3"/>
       <c r="J282" s="3"/>
-      <c r="K282" s="47"/>
+      <c r="K282" s="49"/>
     </row>
     <row r="283" spans="1:11">
       <c r="A283" s="3"/>
@@ -6583,7 +6636,7 @@
       <c r="H283" s="3"/>
       <c r="I283" s="3"/>
       <c r="J283" s="3"/>
-      <c r="K283" s="47"/>
+      <c r="K283" s="49"/>
     </row>
     <row r="284" spans="1:11">
       <c r="A284" s="3"/>
@@ -6595,7 +6648,7 @@
       <c r="H284" s="3"/>
       <c r="I284" s="3"/>
       <c r="J284" s="3"/>
-      <c r="K284" s="47"/>
+      <c r="K284" s="49"/>
     </row>
     <row r="285" spans="1:11">
       <c r="A285" s="3"/>
@@ -6607,7 +6660,7 @@
       <c r="H285" s="3"/>
       <c r="I285" s="3"/>
       <c r="J285" s="3"/>
-      <c r="K285" s="47"/>
+      <c r="K285" s="49"/>
     </row>
     <row r="286" spans="1:11">
       <c r="A286" s="3"/>
@@ -6619,7 +6672,7 @@
       <c r="H286" s="3"/>
       <c r="I286" s="3"/>
       <c r="J286" s="3"/>
-      <c r="K286" s="47"/>
+      <c r="K286" s="49"/>
     </row>
     <row r="287" spans="1:11">
       <c r="A287" s="3"/>
@@ -6631,7 +6684,7 @@
       <c r="H287" s="3"/>
       <c r="I287" s="3"/>
       <c r="J287" s="3"/>
-      <c r="K287" s="47"/>
+      <c r="K287" s="49"/>
     </row>
     <row r="288" spans="1:11">
       <c r="A288" s="3"/>
@@ -6643,7 +6696,7 @@
       <c r="H288" s="3"/>
       <c r="I288" s="3"/>
       <c r="J288" s="3"/>
-      <c r="K288" s="47"/>
+      <c r="K288" s="49"/>
     </row>
     <row r="289" spans="1:11">
       <c r="A289" s="3"/>
@@ -6655,7 +6708,7 @@
       <c r="H289" s="3"/>
       <c r="I289" s="3"/>
       <c r="J289" s="3"/>
-      <c r="K289" s="47"/>
+      <c r="K289" s="49"/>
     </row>
     <row r="290" spans="1:11">
       <c r="A290" s="3"/>
@@ -6667,7 +6720,7 @@
       <c r="H290" s="3"/>
       <c r="I290" s="3"/>
       <c r="J290" s="3"/>
-      <c r="K290" s="47"/>
+      <c r="K290" s="49"/>
     </row>
     <row r="291" spans="1:11">
       <c r="A291" s="3"/>
@@ -6679,7 +6732,7 @@
       <c r="H291" s="3"/>
       <c r="I291" s="3"/>
       <c r="J291" s="3"/>
-      <c r="K291" s="47"/>
+      <c r="K291" s="49"/>
     </row>
     <row r="292" spans="1:11">
       <c r="A292" s="3"/>
@@ -6691,7 +6744,7 @@
       <c r="H292" s="3"/>
       <c r="I292" s="3"/>
       <c r="J292" s="3"/>
-      <c r="K292" s="47"/>
+      <c r="K292" s="49"/>
     </row>
     <row r="293" spans="1:11">
       <c r="A293" s="3"/>
@@ -6703,7 +6756,7 @@
       <c r="H293" s="3"/>
       <c r="I293" s="3"/>
       <c r="J293" s="3"/>
-      <c r="K293" s="47"/>
+      <c r="K293" s="49"/>
     </row>
     <row r="294" spans="1:11">
       <c r="A294" s="3"/>
@@ -6715,7 +6768,7 @@
       <c r="H294" s="3"/>
       <c r="I294" s="3"/>
       <c r="J294" s="3"/>
-      <c r="K294" s="47"/>
+      <c r="K294" s="49"/>
     </row>
     <row r="295" spans="1:11">
       <c r="A295" s="3"/>
@@ -6727,7 +6780,7 @@
       <c r="H295" s="3"/>
       <c r="I295" s="3"/>
       <c r="J295" s="3"/>
-      <c r="K295" s="47"/>
+      <c r="K295" s="49"/>
     </row>
     <row r="296" spans="1:11">
       <c r="A296" s="3"/>
@@ -6739,7 +6792,7 @@
       <c r="H296" s="3"/>
       <c r="I296" s="3"/>
       <c r="J296" s="3"/>
-      <c r="K296" s="47"/>
+      <c r="K296" s="49"/>
     </row>
     <row r="297" spans="1:11">
       <c r="A297" s="3"/>
@@ -6751,7 +6804,7 @@
       <c r="H297" s="3"/>
       <c r="I297" s="3"/>
       <c r="J297" s="3"/>
-      <c r="K297" s="47"/>
+      <c r="K297" s="49"/>
     </row>
     <row r="298" spans="1:11">
       <c r="A298" s="3"/>
@@ -6763,7 +6816,7 @@
       <c r="H298" s="3"/>
       <c r="I298" s="3"/>
       <c r="J298" s="3"/>
-      <c r="K298" s="47"/>
+      <c r="K298" s="49"/>
     </row>
     <row r="299" spans="1:11">
       <c r="A299" s="3"/>
@@ -6775,7 +6828,7 @@
       <c r="H299" s="3"/>
       <c r="I299" s="3"/>
       <c r="J299" s="3"/>
-      <c r="K299" s="47"/>
+      <c r="K299" s="49"/>
     </row>
     <row r="300" spans="1:11">
       <c r="A300" s="3"/>
@@ -6787,7 +6840,7 @@
       <c r="H300" s="3"/>
       <c r="I300" s="3"/>
       <c r="J300" s="3"/>
-      <c r="K300" s="47"/>
+      <c r="K300" s="49"/>
     </row>
     <row r="301" spans="1:11">
       <c r="A301" s="3"/>
@@ -6799,7 +6852,7 @@
       <c r="H301" s="3"/>
       <c r="I301" s="3"/>
       <c r="J301" s="3"/>
-      <c r="K301" s="47"/>
+      <c r="K301" s="49"/>
     </row>
     <row r="302" spans="1:11">
       <c r="A302" s="3"/>
@@ -6811,7 +6864,7 @@
       <c r="H302" s="3"/>
       <c r="I302" s="3"/>
       <c r="J302" s="3"/>
-      <c r="K302" s="47"/>
+      <c r="K302" s="49"/>
     </row>
     <row r="303" spans="1:11">
       <c r="A303" s="3"/>
@@ -6823,7 +6876,7 @@
       <c r="H303" s="3"/>
       <c r="I303" s="3"/>
       <c r="J303" s="3"/>
-      <c r="K303" s="47"/>
+      <c r="K303" s="49"/>
     </row>
     <row r="304" spans="1:11">
       <c r="A304" s="3"/>
@@ -6835,7 +6888,7 @@
       <c r="H304" s="3"/>
       <c r="I304" s="3"/>
       <c r="J304" s="3"/>
-      <c r="K304" s="47"/>
+      <c r="K304" s="49"/>
     </row>
     <row r="305" spans="1:11">
       <c r="A305" s="3"/>
@@ -6847,7 +6900,7 @@
       <c r="H305" s="3"/>
       <c r="I305" s="3"/>
       <c r="J305" s="3"/>
-      <c r="K305" s="47"/>
+      <c r="K305" s="49"/>
     </row>
     <row r="306" spans="1:11">
       <c r="A306" s="3"/>
@@ -6859,7 +6912,7 @@
       <c r="H306" s="3"/>
       <c r="I306" s="3"/>
       <c r="J306" s="3"/>
-      <c r="K306" s="47"/>
+      <c r="K306" s="49"/>
     </row>
     <row r="307" spans="1:11">
       <c r="A307" s="3"/>
@@ -6871,7 +6924,7 @@
       <c r="H307" s="3"/>
       <c r="I307" s="3"/>
       <c r="J307" s="3"/>
-      <c r="K307" s="47"/>
+      <c r="K307" s="49"/>
     </row>
     <row r="308" spans="1:11">
       <c r="A308" s="3"/>
@@ -6883,7 +6936,7 @@
       <c r="H308" s="3"/>
       <c r="I308" s="3"/>
       <c r="J308" s="3"/>
-      <c r="K308" s="47"/>
+      <c r="K308" s="49"/>
     </row>
     <row r="309" spans="1:11">
       <c r="A309" s="3"/>
@@ -6895,7 +6948,7 @@
       <c r="H309" s="3"/>
       <c r="I309" s="3"/>
       <c r="J309" s="3"/>
-      <c r="K309" s="47"/>
+      <c r="K309" s="49"/>
     </row>
     <row r="310" spans="1:11">
       <c r="A310" s="3"/>
@@ -6907,7 +6960,7 @@
       <c r="H310" s="3"/>
       <c r="I310" s="3"/>
       <c r="J310" s="3"/>
-      <c r="K310" s="47"/>
+      <c r="K310" s="49"/>
     </row>
     <row r="311" spans="1:11">
       <c r="A311" s="3"/>
@@ -6919,7 +6972,7 @@
       <c r="H311" s="3"/>
       <c r="I311" s="3"/>
       <c r="J311" s="3"/>
-      <c r="K311" s="47"/>
+      <c r="K311" s="49"/>
     </row>
     <row r="312" spans="1:11">
       <c r="A312" s="3"/>
@@ -6931,7 +6984,7 @@
       <c r="H312" s="3"/>
       <c r="I312" s="3"/>
       <c r="J312" s="3"/>
-      <c r="K312" s="47"/>
+      <c r="K312" s="49"/>
     </row>
     <row r="313" spans="1:11">
       <c r="A313" s="3"/>
@@ -6943,7 +6996,7 @@
       <c r="H313" s="3"/>
       <c r="I313" s="3"/>
       <c r="J313" s="3"/>
-      <c r="K313" s="47"/>
+      <c r="K313" s="49"/>
     </row>
     <row r="314" spans="1:11">
       <c r="A314" s="3"/>
@@ -6955,7 +7008,7 @@
       <c r="H314" s="3"/>
       <c r="I314" s="3"/>
       <c r="J314" s="3"/>
-      <c r="K314" s="47"/>
+      <c r="K314" s="49"/>
     </row>
     <row r="315" spans="1:11">
       <c r="A315" s="3"/>
@@ -6967,7 +7020,7 @@
       <c r="H315" s="3"/>
       <c r="I315" s="3"/>
       <c r="J315" s="3"/>
-      <c r="K315" s="47"/>
+      <c r="K315" s="49"/>
     </row>
     <row r="316" spans="1:11">
       <c r="A316" s="3"/>
@@ -6979,7 +7032,7 @@
       <c r="H316" s="3"/>
       <c r="I316" s="3"/>
       <c r="J316" s="3"/>
-      <c r="K316" s="47"/>
+      <c r="K316" s="49"/>
     </row>
     <row r="317" spans="1:11">
       <c r="A317" s="3"/>
@@ -6991,7 +7044,7 @@
       <c r="H317" s="3"/>
       <c r="I317" s="3"/>
       <c r="J317" s="3"/>
-      <c r="K317" s="47"/>
+      <c r="K317" s="49"/>
     </row>
     <row r="318" spans="1:11">
       <c r="A318" s="3"/>
@@ -7003,7 +7056,7 @@
       <c r="H318" s="3"/>
       <c r="I318" s="3"/>
       <c r="J318" s="3"/>
-      <c r="K318" s="47"/>
+      <c r="K318" s="49"/>
     </row>
     <row r="319" spans="1:11">
       <c r="A319" s="3"/>
@@ -7015,7 +7068,7 @@
       <c r="H319" s="3"/>
       <c r="I319" s="3"/>
       <c r="J319" s="3"/>
-      <c r="K319" s="47"/>
+      <c r="K319" s="49"/>
     </row>
     <row r="320" spans="1:11">
       <c r="A320" s="3"/>
@@ -7027,7 +7080,7 @@
       <c r="H320" s="3"/>
       <c r="I320" s="3"/>
       <c r="J320" s="3"/>
-      <c r="K320" s="47"/>
+      <c r="K320" s="49"/>
     </row>
     <row r="321" spans="1:11">
       <c r="A321" s="3"/>
@@ -7039,7 +7092,7 @@
       <c r="H321" s="3"/>
       <c r="I321" s="3"/>
       <c r="J321" s="3"/>
-      <c r="K321" s="47"/>
+      <c r="K321" s="49"/>
     </row>
     <row r="322" spans="1:11">
       <c r="A322" s="3"/>
@@ -7051,7 +7104,7 @@
       <c r="H322" s="3"/>
       <c r="I322" s="3"/>
       <c r="J322" s="3"/>
-      <c r="K322" s="47"/>
+      <c r="K322" s="49"/>
     </row>
     <row r="323" spans="1:11">
       <c r="A323" s="3"/>
@@ -7063,7 +7116,7 @@
       <c r="H323" s="3"/>
       <c r="I323" s="3"/>
       <c r="J323" s="3"/>
-      <c r="K323" s="47"/>
+      <c r="K323" s="49"/>
     </row>
     <row r="324" spans="1:11">
       <c r="A324" s="3"/>
@@ -7075,7 +7128,7 @@
       <c r="H324" s="3"/>
       <c r="I324" s="3"/>
       <c r="J324" s="3"/>
-      <c r="K324" s="47"/>
+      <c r="K324" s="49"/>
     </row>
     <row r="325" spans="1:11">
       <c r="A325" s="3"/>
@@ -7087,7 +7140,7 @@
       <c r="H325" s="3"/>
       <c r="I325" s="3"/>
       <c r="J325" s="3"/>
-      <c r="K325" s="47"/>
+      <c r="K325" s="49"/>
     </row>
     <row r="326" spans="1:11">
       <c r="A326" s="3"/>
@@ -7099,7 +7152,7 @@
       <c r="H326" s="3"/>
       <c r="I326" s="3"/>
       <c r="J326" s="3"/>
-      <c r="K326" s="47"/>
+      <c r="K326" s="49"/>
     </row>
     <row r="327" spans="1:11">
       <c r="A327" s="3"/>
@@ -7111,7 +7164,7 @@
       <c r="H327" s="3"/>
       <c r="I327" s="3"/>
       <c r="J327" s="3"/>
-      <c r="K327" s="47"/>
+      <c r="K327" s="49"/>
     </row>
     <row r="328" spans="1:11">
       <c r="A328" s="3"/>
@@ -7123,7 +7176,7 @@
       <c r="H328" s="3"/>
       <c r="I328" s="3"/>
       <c r="J328" s="3"/>
-      <c r="K328" s="47"/>
+      <c r="K328" s="49"/>
     </row>
     <row r="329" spans="1:11">
       <c r="A329" s="3"/>
@@ -7135,7 +7188,7 @@
       <c r="H329" s="3"/>
       <c r="I329" s="3"/>
       <c r="J329" s="3"/>
-      <c r="K329" s="47"/>
+      <c r="K329" s="49"/>
     </row>
     <row r="330" spans="1:11">
       <c r="A330" s="3"/>
@@ -7147,7 +7200,7 @@
       <c r="H330" s="3"/>
       <c r="I330" s="3"/>
       <c r="J330" s="3"/>
-      <c r="K330" s="47"/>
+      <c r="K330" s="49"/>
     </row>
     <row r="331" spans="1:11">
       <c r="A331" s="3"/>
@@ -7159,7 +7212,7 @@
       <c r="H331" s="3"/>
       <c r="I331" s="3"/>
       <c r="J331" s="3"/>
-      <c r="K331" s="47"/>
+      <c r="K331" s="49"/>
     </row>
     <row r="332" spans="1:11">
       <c r="A332" s="3"/>
@@ -7171,7 +7224,7 @@
       <c r="H332" s="3"/>
       <c r="I332" s="3"/>
       <c r="J332" s="3"/>
-      <c r="K332" s="47"/>
+      <c r="K332" s="49"/>
     </row>
     <row r="333" spans="1:11">
       <c r="A333" s="3"/>
@@ -7183,7 +7236,7 @@
       <c r="H333" s="3"/>
       <c r="I333" s="3"/>
       <c r="J333" s="3"/>
-      <c r="K333" s="47"/>
+      <c r="K333" s="49"/>
     </row>
     <row r="334" spans="1:11">
       <c r="A334" s="3"/>
@@ -7195,7 +7248,7 @@
       <c r="H334" s="3"/>
       <c r="I334" s="3"/>
       <c r="J334" s="3"/>
-      <c r="K334" s="47"/>
+      <c r="K334" s="49"/>
     </row>
     <row r="335" spans="1:11">
       <c r="A335" s="3"/>
@@ -7207,7 +7260,7 @@
       <c r="H335" s="3"/>
       <c r="I335" s="3"/>
       <c r="J335" s="3"/>
-      <c r="K335" s="47"/>
+      <c r="K335" s="49"/>
     </row>
     <row r="336" spans="1:11">
       <c r="A336" s="3"/>
@@ -7219,7 +7272,7 @@
       <c r="H336" s="3"/>
       <c r="I336" s="3"/>
       <c r="J336" s="3"/>
-      <c r="K336" s="47"/>
+      <c r="K336" s="49"/>
     </row>
     <row r="337" spans="1:11">
       <c r="A337" s="3"/>
@@ -7231,7 +7284,7 @@
       <c r="H337" s="3"/>
       <c r="I337" s="3"/>
       <c r="J337" s="3"/>
-      <c r="K337" s="47"/>
+      <c r="K337" s="49"/>
     </row>
     <row r="338" spans="1:11">
       <c r="A338" s="3"/>
@@ -7243,7 +7296,7 @@
       <c r="H338" s="3"/>
       <c r="I338" s="3"/>
       <c r="J338" s="3"/>
-      <c r="K338" s="47"/>
+      <c r="K338" s="49"/>
     </row>
     <row r="339" spans="1:11">
       <c r="A339" s="3"/>
@@ -7255,7 +7308,7 @@
       <c r="H339" s="3"/>
       <c r="I339" s="3"/>
       <c r="J339" s="3"/>
-      <c r="K339" s="47"/>
+      <c r="K339" s="49"/>
     </row>
     <row r="340" spans="1:11">
       <c r="A340" s="3"/>
@@ -7267,7 +7320,7 @@
       <c r="H340" s="3"/>
       <c r="I340" s="3"/>
       <c r="J340" s="3"/>
-      <c r="K340" s="47"/>
+      <c r="K340" s="49"/>
     </row>
     <row r="341" spans="1:11">
       <c r="A341" s="3"/>
@@ -7279,7 +7332,7 @@
       <c r="H341" s="3"/>
       <c r="I341" s="3"/>
       <c r="J341" s="3"/>
-      <c r="K341" s="47"/>
+      <c r="K341" s="49"/>
     </row>
     <row r="342" spans="1:11">
       <c r="A342" s="3"/>
@@ -7291,7 +7344,7 @@
       <c r="H342" s="3"/>
       <c r="I342" s="3"/>
       <c r="J342" s="3"/>
-      <c r="K342" s="47"/>
+      <c r="K342" s="49"/>
     </row>
     <row r="343" spans="1:11">
       <c r="A343" s="3"/>
@@ -7303,7 +7356,7 @@
       <c r="H343" s="3"/>
       <c r="I343" s="3"/>
       <c r="J343" s="3"/>
-      <c r="K343" s="47"/>
+      <c r="K343" s="49"/>
     </row>
     <row r="344" spans="1:11">
       <c r="A344" s="3"/>
@@ -7315,7 +7368,7 @@
       <c r="H344" s="3"/>
       <c r="I344" s="3"/>
       <c r="J344" s="3"/>
-      <c r="K344" s="47"/>
+      <c r="K344" s="49"/>
     </row>
     <row r="345" spans="1:11">
       <c r="A345" s="3"/>
@@ -7327,7 +7380,7 @@
       <c r="H345" s="3"/>
       <c r="I345" s="3"/>
       <c r="J345" s="3"/>
-      <c r="K345" s="47"/>
+      <c r="K345" s="49"/>
     </row>
     <row r="346" spans="1:11">
       <c r="A346" s="3"/>
@@ -7339,7 +7392,7 @@
       <c r="H346" s="3"/>
       <c r="I346" s="3"/>
       <c r="J346" s="3"/>
-      <c r="K346" s="47"/>
+      <c r="K346" s="49"/>
     </row>
     <row r="347" spans="1:11">
       <c r="A347" s="3"/>
@@ -7351,7 +7404,7 @@
       <c r="H347" s="3"/>
       <c r="I347" s="3"/>
       <c r="J347" s="3"/>
-      <c r="K347" s="47"/>
+      <c r="K347" s="49"/>
     </row>
     <row r="348" spans="1:11">
       <c r="A348" s="3"/>
@@ -7363,7 +7416,7 @@
       <c r="H348" s="3"/>
       <c r="I348" s="3"/>
       <c r="J348" s="3"/>
-      <c r="K348" s="47"/>
+      <c r="K348" s="49"/>
     </row>
     <row r="349" spans="1:11">
       <c r="A349" s="3"/>
@@ -7375,7 +7428,7 @@
       <c r="H349" s="3"/>
       <c r="I349" s="3"/>
       <c r="J349" s="3"/>
-      <c r="K349" s="47"/>
+      <c r="K349" s="49"/>
     </row>
     <row r="350" spans="1:11">
       <c r="A350" s="3"/>
@@ -7387,7 +7440,7 @@
       <c r="H350" s="3"/>
       <c r="I350" s="3"/>
       <c r="J350" s="3"/>
-      <c r="K350" s="47"/>
+      <c r="K350" s="49"/>
     </row>
     <row r="351" spans="1:11">
       <c r="A351" s="3"/>
@@ -7399,7 +7452,7 @@
       <c r="H351" s="3"/>
       <c r="I351" s="3"/>
       <c r="J351" s="3"/>
-      <c r="K351" s="47"/>
+      <c r="K351" s="49"/>
     </row>
     <row r="352" spans="1:11">
       <c r="A352" s="3"/>
@@ -7411,7 +7464,7 @@
       <c r="H352" s="3"/>
       <c r="I352" s="3"/>
       <c r="J352" s="3"/>
-      <c r="K352" s="47"/>
+      <c r="K352" s="49"/>
     </row>
     <row r="353" spans="1:11">
       <c r="A353" s="3"/>
@@ -7423,7 +7476,7 @@
       <c r="H353" s="3"/>
       <c r="I353" s="3"/>
       <c r="J353" s="3"/>
-      <c r="K353" s="47"/>
+      <c r="K353" s="49"/>
     </row>
     <row r="354" spans="1:11">
       <c r="A354" s="3"/>
@@ -7435,7 +7488,7 @@
       <c r="H354" s="3"/>
       <c r="I354" s="3"/>
       <c r="J354" s="3"/>
-      <c r="K354" s="47"/>
+      <c r="K354" s="49"/>
     </row>
     <row r="355" spans="1:11">
       <c r="A355" s="3"/>
@@ -7447,7 +7500,7 @@
       <c r="H355" s="3"/>
       <c r="I355" s="3"/>
       <c r="J355" s="3"/>
-      <c r="K355" s="47"/>
+      <c r="K355" s="49"/>
     </row>
     <row r="356" spans="1:11">
       <c r="A356" s="3"/>
@@ -7459,7 +7512,7 @@
       <c r="H356" s="3"/>
       <c r="I356" s="3"/>
       <c r="J356" s="3"/>
-      <c r="K356" s="47"/>
+      <c r="K356" s="49"/>
     </row>
     <row r="357" spans="1:11">
       <c r="A357" s="3"/>
@@ -7471,7 +7524,7 @@
       <c r="H357" s="3"/>
       <c r="I357" s="3"/>
       <c r="J357" s="3"/>
-      <c r="K357" s="47"/>
+      <c r="K357" s="49"/>
     </row>
     <row r="358" spans="1:11">
       <c r="A358" s="3"/>
@@ -7483,7 +7536,7 @@
       <c r="H358" s="3"/>
       <c r="I358" s="3"/>
       <c r="J358" s="3"/>
-      <c r="K358" s="47"/>
+      <c r="K358" s="49"/>
     </row>
     <row r="359" spans="1:11">
       <c r="A359" s="3"/>
@@ -7495,7 +7548,7 @@
       <c r="H359" s="3"/>
       <c r="I359" s="3"/>
       <c r="J359" s="3"/>
-      <c r="K359" s="47"/>
+      <c r="K359" s="49"/>
     </row>
     <row r="360" spans="1:11">
       <c r="A360" s="3"/>
@@ -7507,7 +7560,7 @@
       <c r="H360" s="3"/>
       <c r="I360" s="3"/>
       <c r="J360" s="3"/>
-      <c r="K360" s="47"/>
+      <c r="K360" s="49"/>
     </row>
     <row r="361" spans="1:11">
       <c r="A361" s="3"/>
@@ -7519,7 +7572,7 @@
       <c r="H361" s="3"/>
       <c r="I361" s="3"/>
       <c r="J361" s="3"/>
-      <c r="K361" s="47"/>
+      <c r="K361" s="49"/>
     </row>
     <row r="362" spans="1:11">
       <c r="A362" s="3"/>
@@ -7531,7 +7584,7 @@
       <c r="H362" s="3"/>
       <c r="I362" s="3"/>
       <c r="J362" s="3"/>
-      <c r="K362" s="47"/>
+      <c r="K362" s="49"/>
     </row>
     <row r="363" spans="1:11">
       <c r="A363" s="3"/>
@@ -7543,7 +7596,7 @@
       <c r="H363" s="3"/>
       <c r="I363" s="3"/>
       <c r="J363" s="3"/>
-      <c r="K363" s="47"/>
+      <c r="K363" s="49"/>
     </row>
     <row r="364" spans="1:11">
       <c r="A364" s="3"/>
@@ -7555,7 +7608,7 @@
       <c r="H364" s="3"/>
       <c r="I364" s="3"/>
       <c r="J364" s="3"/>
-      <c r="K364" s="47"/>
+      <c r="K364" s="49"/>
     </row>
     <row r="365" spans="1:11">
       <c r="A365" s="3"/>
@@ -7567,7 +7620,7 @@
       <c r="H365" s="3"/>
       <c r="I365" s="3"/>
       <c r="J365" s="3"/>
-      <c r="K365" s="47"/>
+      <c r="K365" s="49"/>
     </row>
     <row r="366" spans="1:11">
       <c r="A366" s="3"/>
@@ -7579,7 +7632,7 @@
       <c r="H366" s="3"/>
       <c r="I366" s="3"/>
       <c r="J366" s="3"/>
-      <c r="K366" s="47"/>
+      <c r="K366" s="49"/>
     </row>
     <row r="367" spans="1:11">
       <c r="A367" s="3"/>
@@ -7591,7 +7644,7 @@
       <c r="H367" s="3"/>
       <c r="I367" s="3"/>
       <c r="J367" s="3"/>
-      <c r="K367" s="47"/>
+      <c r="K367" s="49"/>
     </row>
     <row r="368" spans="1:11">
       <c r="A368" s="3"/>
@@ -7603,7 +7656,7 @@
       <c r="H368" s="3"/>
       <c r="I368" s="3"/>
       <c r="J368" s="3"/>
-      <c r="K368" s="47"/>
+      <c r="K368" s="49"/>
     </row>
     <row r="369" spans="1:11">
       <c r="A369" s="3"/>
@@ -7615,7 +7668,7 @@
       <c r="H369" s="3"/>
       <c r="I369" s="3"/>
       <c r="J369" s="3"/>
-      <c r="K369" s="47"/>
+      <c r="K369" s="49"/>
     </row>
     <row r="370" spans="1:11">
       <c r="A370" s="3"/>
@@ -7627,7 +7680,7 @@
       <c r="H370" s="3"/>
       <c r="I370" s="3"/>
       <c r="J370" s="3"/>
-      <c r="K370" s="47"/>
+      <c r="K370" s="49"/>
     </row>
     <row r="371" spans="1:11">
       <c r="A371" s="3"/>
@@ -7639,7 +7692,7 @@
       <c r="H371" s="3"/>
       <c r="I371" s="3"/>
       <c r="J371" s="3"/>
-      <c r="K371" s="47"/>
+      <c r="K371" s="49"/>
     </row>
     <row r="372" spans="1:11">
       <c r="A372" s="3"/>
@@ -7651,7 +7704,7 @@
       <c r="H372" s="3"/>
       <c r="I372" s="3"/>
       <c r="J372" s="3"/>
-      <c r="K372" s="47"/>
+      <c r="K372" s="49"/>
     </row>
     <row r="373" spans="1:11">
       <c r="A373" s="3"/>
@@ -7663,7 +7716,7 @@
       <c r="H373" s="3"/>
       <c r="I373" s="3"/>
       <c r="J373" s="3"/>
-      <c r="K373" s="47"/>
+      <c r="K373" s="49"/>
     </row>
     <row r="374" spans="1:11">
       <c r="A374" s="3"/>
@@ -7675,7 +7728,7 @@
       <c r="H374" s="3"/>
       <c r="I374" s="3"/>
       <c r="J374" s="3"/>
-      <c r="K374" s="47"/>
+      <c r="K374" s="49"/>
     </row>
     <row r="375" spans="1:11">
       <c r="A375" s="3"/>
@@ -7687,7 +7740,7 @@
       <c r="H375" s="3"/>
       <c r="I375" s="3"/>
       <c r="J375" s="3"/>
-      <c r="K375" s="47"/>
+      <c r="K375" s="49"/>
     </row>
     <row r="376" spans="1:11">
       <c r="A376" s="3"/>
@@ -7699,7 +7752,7 @@
       <c r="H376" s="3"/>
       <c r="I376" s="3"/>
       <c r="J376" s="3"/>
-      <c r="K376" s="47"/>
+      <c r="K376" s="49"/>
     </row>
     <row r="377" spans="1:11">
       <c r="A377" s="3"/>
@@ -7711,7 +7764,7 @@
       <c r="H377" s="3"/>
       <c r="I377" s="3"/>
       <c r="J377" s="3"/>
-      <c r="K377" s="47"/>
+      <c r="K377" s="49"/>
     </row>
     <row r="378" spans="1:11">
       <c r="A378" s="3"/>
@@ -7723,7 +7776,7 @@
       <c r="H378" s="3"/>
       <c r="I378" s="3"/>
       <c r="J378" s="3"/>
-      <c r="K378" s="47"/>
+      <c r="K378" s="49"/>
     </row>
     <row r="379" spans="1:11">
       <c r="A379" s="3"/>
@@ -7735,7 +7788,7 @@
       <c r="H379" s="3"/>
       <c r="I379" s="3"/>
       <c r="J379" s="3"/>
-      <c r="K379" s="47"/>
+      <c r="K379" s="49"/>
     </row>
     <row r="380" spans="1:11">
       <c r="A380" s="3"/>
@@ -7747,7 +7800,7 @@
       <c r="H380" s="3"/>
       <c r="I380" s="3"/>
       <c r="J380" s="3"/>
-      <c r="K380" s="47"/>
+      <c r="K380" s="49"/>
     </row>
     <row r="381" spans="1:11">
       <c r="A381" s="3"/>
@@ -7759,7 +7812,7 @@
       <c r="H381" s="3"/>
       <c r="I381" s="3"/>
       <c r="J381" s="3"/>
-      <c r="K381" s="47"/>
+      <c r="K381" s="49"/>
     </row>
     <row r="382" spans="1:11">
       <c r="A382" s="3"/>
@@ -7771,7 +7824,7 @@
       <c r="H382" s="3"/>
       <c r="I382" s="3"/>
       <c r="J382" s="3"/>
-      <c r="K382" s="47"/>
+      <c r="K382" s="49"/>
     </row>
     <row r="383" spans="1:11">
       <c r="A383" s="3"/>
@@ -7783,7 +7836,7 @@
       <c r="H383" s="3"/>
       <c r="I383" s="3"/>
       <c r="J383" s="3"/>
-      <c r="K383" s="47"/>
+      <c r="K383" s="49"/>
     </row>
     <row r="384" spans="1:11">
       <c r="A384" s="3"/>
@@ -7795,7 +7848,7 @@
       <c r="H384" s="3"/>
       <c r="I384" s="3"/>
       <c r="J384" s="3"/>
-      <c r="K384" s="47"/>
+      <c r="K384" s="49"/>
     </row>
     <row r="385" spans="1:11">
       <c r="A385" s="3"/>
@@ -7807,7 +7860,7 @@
       <c r="H385" s="3"/>
       <c r="I385" s="3"/>
       <c r="J385" s="3"/>
-      <c r="K385" s="47"/>
+      <c r="K385" s="49"/>
     </row>
     <row r="386" spans="1:11">
       <c r="A386" s="3"/>
@@ -7819,7 +7872,7 @@
       <c r="H386" s="3"/>
       <c r="I386" s="3"/>
       <c r="J386" s="3"/>
-      <c r="K386" s="47"/>
+      <c r="K386" s="49"/>
     </row>
     <row r="387" spans="1:11">
       <c r="A387" s="3"/>
@@ -7831,7 +7884,7 @@
       <c r="H387" s="3"/>
       <c r="I387" s="3"/>
       <c r="J387" s="3"/>
-      <c r="K387" s="47"/>
+      <c r="K387" s="49"/>
     </row>
     <row r="388" spans="1:11">
       <c r="A388" s="3"/>
@@ -7843,7 +7896,7 @@
       <c r="H388" s="3"/>
       <c r="I388" s="3"/>
       <c r="J388" s="3"/>
-      <c r="K388" s="47"/>
+      <c r="K388" s="49"/>
     </row>
     <row r="389" spans="1:11">
       <c r="A389" s="3"/>
@@ -7855,7 +7908,7 @@
       <c r="H389" s="3"/>
       <c r="I389" s="3"/>
       <c r="J389" s="3"/>
-      <c r="K389" s="47"/>
+      <c r="K389" s="49"/>
     </row>
     <row r="390" spans="1:11">
       <c r="A390" s="3"/>
@@ -7867,7 +7920,7 @@
       <c r="H390" s="3"/>
       <c r="I390" s="3"/>
       <c r="J390" s="3"/>
-      <c r="K390" s="47"/>
+      <c r="K390" s="49"/>
     </row>
     <row r="391" spans="1:11">
       <c r="A391" s="3"/>
@@ -7879,7 +7932,7 @@
       <c r="H391" s="3"/>
       <c r="I391" s="3"/>
       <c r="J391" s="3"/>
-      <c r="K391" s="47"/>
+      <c r="K391" s="49"/>
     </row>
     <row r="392" spans="1:11">
       <c r="A392" s="3"/>
@@ -7891,7 +7944,7 @@
       <c r="H392" s="3"/>
       <c r="I392" s="3"/>
       <c r="J392" s="3"/>
-      <c r="K392" s="47"/>
+      <c r="K392" s="49"/>
     </row>
     <row r="393" spans="1:11">
       <c r="A393" s="3"/>
@@ -7903,7 +7956,7 @@
       <c r="H393" s="3"/>
       <c r="I393" s="3"/>
       <c r="J393" s="3"/>
-      <c r="K393" s="47"/>
+      <c r="K393" s="49"/>
     </row>
     <row r="394" spans="1:11">
       <c r="A394" s="3"/>
@@ -7915,7 +7968,7 @@
       <c r="H394" s="3"/>
       <c r="I394" s="3"/>
       <c r="J394" s="3"/>
-      <c r="K394" s="47"/>
+      <c r="K394" s="49"/>
     </row>
     <row r="395" spans="1:11">
       <c r="A395" s="3"/>
@@ -7927,7 +7980,7 @@
       <c r="H395" s="3"/>
       <c r="I395" s="3"/>
       <c r="J395" s="3"/>
-      <c r="K395" s="47"/>
+      <c r="K395" s="49"/>
     </row>
     <row r="396" spans="1:11">
       <c r="A396" s="3"/>
@@ -7939,7 +7992,7 @@
       <c r="H396" s="3"/>
       <c r="I396" s="3"/>
       <c r="J396" s="3"/>
-      <c r="K396" s="47"/>
+      <c r="K396" s="49"/>
     </row>
     <row r="397" spans="1:11">
       <c r="A397" s="3"/>
@@ -7951,7 +8004,7 @@
       <c r="H397" s="3"/>
       <c r="I397" s="3"/>
       <c r="J397" s="3"/>
-      <c r="K397" s="47"/>
+      <c r="K397" s="49"/>
     </row>
     <row r="398" spans="1:11">
       <c r="A398" s="3"/>
@@ -7963,7 +8016,7 @@
       <c r="H398" s="3"/>
       <c r="I398" s="3"/>
       <c r="J398" s="3"/>
-      <c r="K398" s="47"/>
+      <c r="K398" s="49"/>
     </row>
     <row r="399" spans="1:11">
       <c r="A399" s="3"/>
@@ -7975,7 +8028,7 @@
       <c r="H399" s="3"/>
       <c r="I399" s="3"/>
       <c r="J399" s="3"/>
-      <c r="K399" s="47"/>
+      <c r="K399" s="49"/>
     </row>
     <row r="400" spans="1:11">
       <c r="A400" s="3"/>
@@ -7987,7 +8040,7 @@
       <c r="H400" s="3"/>
       <c r="I400" s="3"/>
       <c r="J400" s="3"/>
-      <c r="K400" s="47"/>
+      <c r="K400" s="49"/>
     </row>
     <row r="401" spans="1:11">
       <c r="A401" s="3"/>
@@ -7999,7 +8052,7 @@
       <c r="H401" s="3"/>
       <c r="I401" s="3"/>
       <c r="J401" s="3"/>
-      <c r="K401" s="47"/>
+      <c r="K401" s="49"/>
     </row>
     <row r="402" spans="1:11">
       <c r="A402" s="3"/>
@@ -8011,7 +8064,7 @@
       <c r="H402" s="3"/>
       <c r="I402" s="3"/>
       <c r="J402" s="3"/>
-      <c r="K402" s="47"/>
+      <c r="K402" s="49"/>
     </row>
     <row r="403" spans="1:11">
       <c r="A403" s="3"/>
@@ -8023,7 +8076,7 @@
       <c r="H403" s="3"/>
       <c r="I403" s="3"/>
       <c r="J403" s="3"/>
-      <c r="K403" s="47"/>
+      <c r="K403" s="49"/>
     </row>
     <row r="404" spans="1:11">
       <c r="A404" s="3"/>
@@ -8035,7 +8088,7 @@
       <c r="H404" s="3"/>
       <c r="I404" s="3"/>
       <c r="J404" s="3"/>
-      <c r="K404" s="47"/>
+      <c r="K404" s="49"/>
     </row>
     <row r="405" spans="1:11">
       <c r="A405" s="3"/>
@@ -8047,7 +8100,7 @@
       <c r="H405" s="3"/>
       <c r="I405" s="3"/>
       <c r="J405" s="3"/>
-      <c r="K405" s="47"/>
+      <c r="K405" s="49"/>
     </row>
     <row r="406" spans="1:11">
       <c r="A406" s="3"/>
@@ -8059,7 +8112,7 @@
       <c r="H406" s="3"/>
       <c r="I406" s="3"/>
       <c r="J406" s="3"/>
-      <c r="K406" s="47"/>
+      <c r="K406" s="49"/>
     </row>
     <row r="407" spans="1:11">
       <c r="A407" s="3"/>
@@ -8071,7 +8124,7 @@
       <c r="H407" s="3"/>
       <c r="I407" s="3"/>
       <c r="J407" s="3"/>
-      <c r="K407" s="47"/>
+      <c r="K407" s="49"/>
     </row>
     <row r="408" spans="1:11">
       <c r="A408" s="3"/>
@@ -8083,7 +8136,7 @@
       <c r="H408" s="3"/>
       <c r="I408" s="3"/>
       <c r="J408" s="3"/>
-      <c r="K408" s="47"/>
+      <c r="K408" s="49"/>
     </row>
     <row r="409" spans="1:11">
       <c r="A409" s="3"/>
@@ -8095,7 +8148,7 @@
       <c r="H409" s="3"/>
       <c r="I409" s="3"/>
       <c r="J409" s="3"/>
-      <c r="K409" s="47"/>
+      <c r="K409" s="49"/>
     </row>
     <row r="410" spans="1:11">
       <c r="A410" s="3"/>
@@ -8107,7 +8160,7 @@
       <c r="H410" s="3"/>
       <c r="I410" s="3"/>
       <c r="J410" s="3"/>
-      <c r="K410" s="47"/>
+      <c r="K410" s="49"/>
     </row>
     <row r="411" spans="1:11">
       <c r="A411" s="3"/>
@@ -8119,7 +8172,7 @@
       <c r="H411" s="3"/>
       <c r="I411" s="3"/>
       <c r="J411" s="3"/>
-      <c r="K411" s="47"/>
+      <c r="K411" s="49"/>
     </row>
     <row r="412" spans="1:11">
       <c r="A412" s="3"/>
@@ -8131,7 +8184,7 @@
       <c r="H412" s="3"/>
       <c r="I412" s="3"/>
       <c r="J412" s="3"/>
-      <c r="K412" s="47"/>
+      <c r="K412" s="49"/>
     </row>
     <row r="413" spans="1:11">
       <c r="A413" s="3"/>
@@ -8143,7 +8196,7 @@
       <c r="H413" s="3"/>
       <c r="I413" s="3"/>
       <c r="J413" s="3"/>
-      <c r="K413" s="47"/>
+      <c r="K413" s="49"/>
     </row>
     <row r="414" spans="1:11">
       <c r="A414" s="3"/>
@@ -8155,7 +8208,7 @@
       <c r="H414" s="3"/>
       <c r="I414" s="3"/>
       <c r="J414" s="3"/>
-      <c r="K414" s="47"/>
+      <c r="K414" s="49"/>
     </row>
     <row r="415" spans="1:11">
       <c r="A415" s="3"/>
@@ -8167,7 +8220,7 @@
       <c r="H415" s="3"/>
       <c r="I415" s="3"/>
       <c r="J415" s="3"/>
-      <c r="K415" s="47"/>
+      <c r="K415" s="49"/>
     </row>
     <row r="416" spans="1:11">
       <c r="A416" s="3"/>
@@ -8179,7 +8232,7 @@
       <c r="H416" s="3"/>
       <c r="I416" s="3"/>
       <c r="J416" s="3"/>
-      <c r="K416" s="47"/>
+      <c r="K416" s="49"/>
     </row>
     <row r="417" spans="1:11">
       <c r="A417" s="3"/>
@@ -8191,7 +8244,7 @@
       <c r="H417" s="3"/>
       <c r="I417" s="3"/>
       <c r="J417" s="3"/>
-      <c r="K417" s="47"/>
+      <c r="K417" s="49"/>
     </row>
     <row r="418" spans="1:11">
       <c r="A418" s="3"/>
@@ -8203,7 +8256,7 @@
       <c r="H418" s="3"/>
       <c r="I418" s="3"/>
       <c r="J418" s="3"/>
-      <c r="K418" s="47"/>
+      <c r="K418" s="49"/>
     </row>
     <row r="419" spans="1:11">
       <c r="A419" s="3"/>
@@ -8215,7 +8268,7 @@
       <c r="H419" s="3"/>
       <c r="I419" s="3"/>
       <c r="J419" s="3"/>
-      <c r="K419" s="47"/>
+      <c r="K419" s="49"/>
     </row>
     <row r="420" spans="1:11">
       <c r="A420" s="3"/>
@@ -8227,7 +8280,7 @@
       <c r="H420" s="3"/>
       <c r="I420" s="3"/>
       <c r="J420" s="3"/>
-      <c r="K420" s="47"/>
+      <c r="K420" s="49"/>
     </row>
     <row r="421" spans="1:11">
       <c r="A421" s="3"/>
@@ -8239,7 +8292,7 @@
       <c r="H421" s="3"/>
       <c r="I421" s="3"/>
       <c r="J421" s="3"/>
-      <c r="K421" s="47"/>
+      <c r="K421" s="49"/>
     </row>
     <row r="422" spans="1:11">
       <c r="A422" s="3"/>
@@ -8251,7 +8304,7 @@
       <c r="H422" s="3"/>
       <c r="I422" s="3"/>
       <c r="J422" s="3"/>
-      <c r="K422" s="47"/>
+      <c r="K422" s="49"/>
     </row>
     <row r="423" spans="1:11">
       <c r="A423" s="3"/>
@@ -8263,7 +8316,7 @@
       <c r="H423" s="3"/>
       <c r="I423" s="3"/>
       <c r="J423" s="3"/>
-      <c r="K423" s="47"/>
+      <c r="K423" s="49"/>
     </row>
     <row r="424" spans="1:11">
       <c r="A424" s="3"/>
@@ -8275,7 +8328,7 @@
       <c r="H424" s="3"/>
       <c r="I424" s="3"/>
       <c r="J424" s="3"/>
-      <c r="K424" s="47"/>
+      <c r="K424" s="49"/>
     </row>
     <row r="425" spans="1:11">
       <c r="A425" s="3"/>
@@ -8287,7 +8340,7 @@
       <c r="H425" s="3"/>
       <c r="I425" s="3"/>
       <c r="J425" s="3"/>
-      <c r="K425" s="47"/>
+      <c r="K425" s="49"/>
     </row>
     <row r="426" spans="1:11">
       <c r="A426" s="3"/>
@@ -8299,7 +8352,7 @@
       <c r="H426" s="3"/>
       <c r="I426" s="3"/>
       <c r="J426" s="3"/>
-      <c r="K426" s="47"/>
+      <c r="K426" s="49"/>
     </row>
     <row r="427" spans="1:11">
       <c r="A427" s="3"/>
@@ -8311,7 +8364,7 @@
       <c r="H427" s="3"/>
       <c r="I427" s="3"/>
       <c r="J427" s="3"/>
-      <c r="K427" s="47"/>
+      <c r="K427" s="49"/>
     </row>
     <row r="428" spans="1:11">
       <c r="A428" s="3"/>
@@ -8323,7 +8376,7 @@
       <c r="H428" s="3"/>
       <c r="I428" s="3"/>
       <c r="J428" s="3"/>
-      <c r="K428" s="47"/>
+      <c r="K428" s="49"/>
     </row>
     <row r="429" spans="1:11">
       <c r="A429" s="3"/>
@@ -8335,7 +8388,7 @@
       <c r="H429" s="3"/>
       <c r="I429" s="3"/>
       <c r="J429" s="3"/>
-      <c r="K429" s="47"/>
+      <c r="K429" s="49"/>
     </row>
     <row r="430" spans="1:11">
       <c r="A430" s="3"/>
@@ -8347,7 +8400,7 @@
       <c r="H430" s="3"/>
       <c r="I430" s="3"/>
       <c r="J430" s="3"/>
-      <c r="K430" s="47"/>
+      <c r="K430" s="49"/>
     </row>
     <row r="431" spans="1:11">
       <c r="A431" s="3"/>
@@ -8359,7 +8412,7 @@
       <c r="H431" s="3"/>
       <c r="I431" s="3"/>
       <c r="J431" s="3"/>
-      <c r="K431" s="47"/>
+      <c r="K431" s="49"/>
     </row>
     <row r="432" spans="1:11">
       <c r="A432" s="3"/>
@@ -8371,7 +8424,7 @@
       <c r="H432" s="3"/>
       <c r="I432" s="3"/>
       <c r="J432" s="3"/>
-      <c r="K432" s="47"/>
+      <c r="K432" s="49"/>
     </row>
     <row r="433" spans="1:11">
       <c r="A433" s="3"/>
@@ -8383,7 +8436,7 @@
       <c r="H433" s="3"/>
       <c r="I433" s="3"/>
       <c r="J433" s="3"/>
-      <c r="K433" s="47"/>
+      <c r="K433" s="49"/>
     </row>
     <row r="434" spans="1:11">
       <c r="A434" s="3"/>
@@ -8395,7 +8448,7 @@
       <c r="H434" s="3"/>
       <c r="I434" s="3"/>
       <c r="J434" s="3"/>
-      <c r="K434" s="47"/>
+      <c r="K434" s="49"/>
     </row>
     <row r="435" spans="1:11">
       <c r="A435" s="3"/>
@@ -8407,7 +8460,7 @@
       <c r="H435" s="3"/>
       <c r="I435" s="3"/>
       <c r="J435" s="3"/>
-      <c r="K435" s="47"/>
+      <c r="K435" s="49"/>
     </row>
     <row r="436" spans="1:11">
       <c r="A436" s="3"/>
@@ -8419,7 +8472,7 @@
       <c r="H436" s="3"/>
       <c r="I436" s="3"/>
       <c r="J436" s="3"/>
-      <c r="K436" s="47"/>
+      <c r="K436" s="49"/>
     </row>
     <row r="437" spans="1:11">
       <c r="A437" s="3"/>
@@ -8431,7 +8484,7 @@
       <c r="H437" s="3"/>
       <c r="I437" s="3"/>
       <c r="J437" s="3"/>
-      <c r="K437" s="47"/>
+      <c r="K437" s="49"/>
     </row>
     <row r="438" spans="1:11">
       <c r="A438" s="3"/>
@@ -8443,7 +8496,7 @@
       <c r="H438" s="3"/>
       <c r="I438" s="3"/>
       <c r="J438" s="3"/>
-      <c r="K438" s="47"/>
+      <c r="K438" s="49"/>
     </row>
     <row r="439" spans="1:11">
       <c r="A439" s="3"/>
@@ -8455,7 +8508,7 @@
       <c r="H439" s="3"/>
       <c r="I439" s="3"/>
       <c r="J439" s="3"/>
-      <c r="K439" s="47"/>
+      <c r="K439" s="49"/>
     </row>
     <row r="440" spans="1:11">
       <c r="A440" s="3"/>
@@ -8467,7 +8520,7 @@
       <c r="H440" s="3"/>
       <c r="I440" s="3"/>
       <c r="J440" s="3"/>
-      <c r="K440" s="47"/>
+      <c r="K440" s="49"/>
     </row>
     <row r="441" spans="1:11">
       <c r="A441" s="3"/>
@@ -8479,7 +8532,7 @@
       <c r="H441" s="3"/>
       <c r="I441" s="3"/>
       <c r="J441" s="3"/>
-      <c r="K441" s="47"/>
+      <c r="K441" s="49"/>
     </row>
     <row r="442" spans="1:11">
       <c r="A442" s="3"/>
@@ -8491,7 +8544,7 @@
       <c r="H442" s="3"/>
       <c r="I442" s="3"/>
       <c r="J442" s="3"/>
-      <c r="K442" s="47"/>
+      <c r="K442" s="49"/>
     </row>
     <row r="443" spans="1:11">
       <c r="A443" s="3"/>
@@ -8503,7 +8556,7 @@
       <c r="H443" s="3"/>
       <c r="I443" s="3"/>
       <c r="J443" s="3"/>
-      <c r="K443" s="47"/>
+      <c r="K443" s="49"/>
     </row>
     <row r="444" spans="1:11">
       <c r="A444" s="3"/>
@@ -8515,7 +8568,7 @@
       <c r="H444" s="3"/>
       <c r="I444" s="3"/>
       <c r="J444" s="3"/>
-      <c r="K444" s="47"/>
+      <c r="K444" s="49"/>
     </row>
     <row r="445" spans="1:11">
       <c r="A445" s="3"/>
@@ -8527,7 +8580,7 @@
       <c r="H445" s="3"/>
       <c r="I445" s="3"/>
       <c r="J445" s="3"/>
-      <c r="K445" s="47"/>
+      <c r="K445" s="49"/>
     </row>
     <row r="446" spans="1:11">
       <c r="A446" s="3"/>
@@ -8539,7 +8592,7 @@
       <c r="H446" s="3"/>
       <c r="I446" s="3"/>
       <c r="J446" s="3"/>
-      <c r="K446" s="47"/>
+      <c r="K446" s="49"/>
     </row>
     <row r="447" spans="1:11">
       <c r="A447" s="3"/>
@@ -8551,7 +8604,7 @@
       <c r="H447" s="3"/>
       <c r="I447" s="3"/>
       <c r="J447" s="3"/>
-      <c r="K447" s="47"/>
+      <c r="K447" s="49"/>
     </row>
     <row r="448" spans="1:11">
       <c r="A448" s="3"/>
@@ -8563,7 +8616,7 @@
       <c r="H448" s="3"/>
       <c r="I448" s="3"/>
       <c r="J448" s="3"/>
-      <c r="K448" s="47"/>
+      <c r="K448" s="49"/>
     </row>
     <row r="449" spans="1:11">
       <c r="A449" s="3"/>
@@ -8575,7 +8628,7 @@
       <c r="H449" s="3"/>
       <c r="I449" s="3"/>
       <c r="J449" s="3"/>
-      <c r="K449" s="47"/>
+      <c r="K449" s="49"/>
     </row>
     <row r="450" spans="1:11">
       <c r="A450" s="3"/>
@@ -8587,7 +8640,7 @@
       <c r="H450" s="3"/>
       <c r="I450" s="3"/>
       <c r="J450" s="3"/>
-      <c r="K450" s="47"/>
+      <c r="K450" s="49"/>
     </row>
     <row r="451" spans="1:11">
       <c r="A451" s="3"/>
@@ -8599,7 +8652,7 @@
       <c r="H451" s="3"/>
       <c r="I451" s="3"/>
       <c r="J451" s="3"/>
-      <c r="K451" s="47"/>
+      <c r="K451" s="49"/>
     </row>
     <row r="452" spans="1:11">
       <c r="A452" s="3"/>
@@ -8611,7 +8664,7 @@
       <c r="H452" s="3"/>
       <c r="I452" s="3"/>
       <c r="J452" s="3"/>
-      <c r="K452" s="47"/>
+      <c r="K452" s="49"/>
     </row>
     <row r="453" spans="1:11">
       <c r="A453" s="3"/>
@@ -8623,7 +8676,7 @@
       <c r="H453" s="3"/>
       <c r="I453" s="3"/>
       <c r="J453" s="3"/>
-      <c r="K453" s="47"/>
+      <c r="K453" s="49"/>
     </row>
     <row r="454" spans="1:11">
       <c r="A454" s="3"/>
@@ -8635,7 +8688,7 @@
       <c r="H454" s="3"/>
       <c r="I454" s="3"/>
       <c r="J454" s="3"/>
-      <c r="K454" s="47"/>
+      <c r="K454" s="49"/>
     </row>
     <row r="455" spans="1:11">
       <c r="A455" s="3"/>
@@ -8647,7 +8700,7 @@
       <c r="H455" s="3"/>
       <c r="I455" s="3"/>
       <c r="J455" s="3"/>
-      <c r="K455" s="47"/>
+      <c r="K455" s="49"/>
     </row>
     <row r="456" spans="1:11">
       <c r="A456" s="3"/>
@@ -8659,7 +8712,7 @@
       <c r="H456" s="3"/>
       <c r="I456" s="3"/>
       <c r="J456" s="3"/>
-      <c r="K456" s="47"/>
+      <c r="K456" s="49"/>
     </row>
     <row r="457" spans="1:11">
       <c r="A457" s="3"/>
@@ -8671,7 +8724,7 @@
       <c r="H457" s="3"/>
       <c r="I457" s="3"/>
       <c r="J457" s="3"/>
-      <c r="K457" s="47"/>
+      <c r="K457" s="49"/>
     </row>
     <row r="458" spans="1:11">
       <c r="A458" s="3"/>
@@ -8683,7 +8736,7 @@
       <c r="H458" s="3"/>
       <c r="I458" s="3"/>
       <c r="J458" s="3"/>
-      <c r="K458" s="47"/>
+      <c r="K458" s="49"/>
     </row>
     <row r="459" spans="1:11">
       <c r="A459" s="3"/>
@@ -8695,7 +8748,7 @@
       <c r="H459" s="3"/>
       <c r="I459" s="3"/>
       <c r="J459" s="3"/>
-      <c r="K459" s="47"/>
+      <c r="K459" s="49"/>
     </row>
     <row r="460" spans="1:11">
       <c r="A460" s="3"/>
@@ -8707,7 +8760,7 @@
       <c r="H460" s="3"/>
       <c r="I460" s="3"/>
       <c r="J460" s="3"/>
-      <c r="K460" s="47"/>
+      <c r="K460" s="49"/>
     </row>
     <row r="461" spans="1:11">
       <c r="A461" s="3"/>
@@ -8719,7 +8772,7 @@
       <c r="H461" s="3"/>
       <c r="I461" s="3"/>
       <c r="J461" s="3"/>
-      <c r="K461" s="47"/>
+      <c r="K461" s="49"/>
     </row>
     <row r="462" spans="1:11">
       <c r="A462" s="3"/>
@@ -8731,7 +8784,7 @@
       <c r="H462" s="3"/>
       <c r="I462" s="3"/>
       <c r="J462" s="3"/>
-      <c r="K462" s="47"/>
+      <c r="K462" s="49"/>
     </row>
     <row r="463" spans="1:11">
       <c r="A463" s="3"/>
@@ -8743,7 +8796,7 @@
       <c r="H463" s="3"/>
       <c r="I463" s="3"/>
       <c r="J463" s="3"/>
-      <c r="K463" s="47"/>
+      <c r="K463" s="49"/>
     </row>
     <row r="464" spans="1:2">
       <c r="A464" s="3"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易计划202112.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易计划202112.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66">
   <si>
     <t>计划编码</t>
   </si>
@@ -242,6 +242,12 @@
     <t>科力尔</t>
   </si>
   <si>
+    <t>JH_00019</t>
+  </si>
+  <si>
+    <t>金开新能</t>
+  </si>
+  <si>
     <t>000069</t>
   </si>
 </sst>
@@ -251,13 +257,13 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="0.00_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="34">
+  <fonts count="35">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -329,6 +335,12 @@
     </font>
     <font>
       <sz val="10"/>
+      <color rgb="FF1E2024"/>
+      <name val="Helvetica Neue Regular"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
@@ -354,9 +366,31 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -375,6 +409,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -385,47 +426,16 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -446,7 +456,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -454,7 +464,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -467,22 +477,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
       <name val="Helvetica Neue"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -490,7 +502,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -535,7 +547,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -547,7 +679,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -565,37 +703,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -607,109 +715,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -754,23 +766,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -779,22 +776,18 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -815,6 +808,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -829,22 +837,26 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -853,152 +865,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1086,16 +1098,19 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1149,15 +1164,15 @@
     <xf numFmtId="10" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1167,10 +1182,10 @@
     <xf numFmtId="176" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" quotePrefix="1">
@@ -2354,7 +2369,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H19" sqref="H19"/>
+      <selection pane="bottomRight" activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.82142857142857" defaultRowHeight="12.4"/>
@@ -2404,102 +2419,102 @@
       <c r="J1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="38" t="s">
+      <c r="K1" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="39" t="s">
+      <c r="L1" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="50" t="s">
+      <c r="M1" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="51"/>
-      <c r="O1" s="51"/>
-      <c r="P1" s="51"/>
-      <c r="Q1" s="51"/>
-      <c r="R1" s="51"/>
-      <c r="S1" s="51"/>
-      <c r="T1" s="51"/>
-      <c r="V1" s="57"/>
-      <c r="W1" s="57"/>
-      <c r="X1" s="57"/>
-      <c r="Y1" s="57"/>
-      <c r="Z1" s="57"/>
-      <c r="AA1" s="57"/>
-      <c r="AB1" s="57"/>
-      <c r="AC1" s="57"/>
-      <c r="AE1" s="57"/>
-      <c r="AF1" s="57"/>
-      <c r="AG1" s="57"/>
-      <c r="AH1" s="57"/>
-      <c r="AI1" s="57"/>
-      <c r="AJ1" s="57"/>
-      <c r="AK1" s="57"/>
-      <c r="AM1" s="57"/>
-      <c r="AN1" s="57"/>
-      <c r="AO1" s="57"/>
-      <c r="AP1" s="57"/>
-      <c r="AQ1" s="57"/>
-      <c r="AR1" s="57"/>
-      <c r="AS1" s="57"/>
-      <c r="AU1" s="57"/>
-      <c r="AV1" s="57"/>
-      <c r="AW1" s="57"/>
-      <c r="AX1" s="57"/>
-      <c r="AY1" s="57"/>
-      <c r="AZ1" s="57"/>
-      <c r="BA1" s="57"/>
+      <c r="N1" s="52"/>
+      <c r="O1" s="52"/>
+      <c r="P1" s="52"/>
+      <c r="Q1" s="52"/>
+      <c r="R1" s="52"/>
+      <c r="S1" s="52"/>
+      <c r="T1" s="52"/>
+      <c r="V1" s="58"/>
+      <c r="W1" s="58"/>
+      <c r="X1" s="58"/>
+      <c r="Y1" s="58"/>
+      <c r="Z1" s="58"/>
+      <c r="AA1" s="58"/>
+      <c r="AB1" s="58"/>
+      <c r="AC1" s="58"/>
+      <c r="AE1" s="58"/>
+      <c r="AF1" s="58"/>
+      <c r="AG1" s="58"/>
+      <c r="AH1" s="58"/>
+      <c r="AI1" s="58"/>
+      <c r="AJ1" s="58"/>
+      <c r="AK1" s="58"/>
+      <c r="AM1" s="58"/>
+      <c r="AN1" s="58"/>
+      <c r="AO1" s="58"/>
+      <c r="AP1" s="58"/>
+      <c r="AQ1" s="58"/>
+      <c r="AR1" s="58"/>
+      <c r="AS1" s="58"/>
+      <c r="AU1" s="58"/>
+      <c r="AV1" s="58"/>
+      <c r="AW1" s="58"/>
+      <c r="AX1" s="58"/>
+      <c r="AY1" s="58"/>
+      <c r="AZ1" s="58"/>
+      <c r="BA1" s="58"/>
     </row>
     <row r="2" ht="23.6" spans="1:53">
       <c r="A2" s="6"/>
       <c r="B2" s="7"/>
       <c r="C2" s="8"/>
       <c r="D2" s="10"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
       <c r="H2" s="9"/>
       <c r="I2" s="9"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="39"/>
-      <c r="M2" s="52"/>
-      <c r="N2" s="51"/>
-      <c r="O2" s="51"/>
-      <c r="P2" s="51"/>
-      <c r="Q2" s="51"/>
-      <c r="R2" s="51"/>
-      <c r="S2" s="51"/>
-      <c r="T2" s="51"/>
-      <c r="V2" s="57"/>
-      <c r="W2" s="57"/>
-      <c r="X2" s="57"/>
-      <c r="Y2" s="57"/>
-      <c r="Z2" s="57"/>
-      <c r="AA2" s="57"/>
-      <c r="AB2" s="57"/>
-      <c r="AC2" s="57"/>
-      <c r="AE2" s="57"/>
-      <c r="AF2" s="57"/>
-      <c r="AG2" s="57"/>
-      <c r="AH2" s="57"/>
-      <c r="AI2" s="57"/>
-      <c r="AJ2" s="57"/>
-      <c r="AK2" s="57"/>
-      <c r="AM2" s="57"/>
-      <c r="AN2" s="57"/>
-      <c r="AO2" s="57"/>
-      <c r="AP2" s="57"/>
-      <c r="AQ2" s="57"/>
-      <c r="AR2" s="57"/>
-      <c r="AS2" s="57"/>
-      <c r="AU2" s="57"/>
-      <c r="AV2" s="57"/>
-      <c r="AW2" s="57"/>
-      <c r="AX2" s="57"/>
-      <c r="AY2" s="57"/>
-      <c r="AZ2" s="57"/>
-      <c r="BA2" s="57"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="53"/>
+      <c r="N2" s="52"/>
+      <c r="O2" s="52"/>
+      <c r="P2" s="52"/>
+      <c r="Q2" s="52"/>
+      <c r="R2" s="52"/>
+      <c r="S2" s="52"/>
+      <c r="T2" s="52"/>
+      <c r="V2" s="58"/>
+      <c r="W2" s="58"/>
+      <c r="X2" s="58"/>
+      <c r="Y2" s="58"/>
+      <c r="Z2" s="58"/>
+      <c r="AA2" s="58"/>
+      <c r="AB2" s="58"/>
+      <c r="AC2" s="58"/>
+      <c r="AE2" s="58"/>
+      <c r="AF2" s="58"/>
+      <c r="AG2" s="58"/>
+      <c r="AH2" s="58"/>
+      <c r="AI2" s="58"/>
+      <c r="AJ2" s="58"/>
+      <c r="AK2" s="58"/>
+      <c r="AM2" s="58"/>
+      <c r="AN2" s="58"/>
+      <c r="AO2" s="58"/>
+      <c r="AP2" s="58"/>
+      <c r="AQ2" s="58"/>
+      <c r="AR2" s="58"/>
+      <c r="AS2" s="58"/>
+      <c r="AU2" s="58"/>
+      <c r="AV2" s="58"/>
+      <c r="AW2" s="58"/>
+      <c r="AX2" s="58"/>
+      <c r="AY2" s="58"/>
+      <c r="AZ2" s="58"/>
+      <c r="BA2" s="58"/>
     </row>
     <row r="3" customFormat="1" ht="23.6" spans="1:53">
       <c r="A3" s="11" t="s">
@@ -2514,74 +2529,74 @@
       <c r="D3" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="34">
+      <c r="E3" s="35">
         <v>34.12</v>
       </c>
-      <c r="F3" s="34">
+      <c r="F3" s="35">
         <v>32.53</v>
       </c>
-      <c r="G3" s="34">
+      <c r="G3" s="35">
         <v>39.33</v>
       </c>
-      <c r="H3" s="34">
-        <f t="shared" ref="H3:H19" si="0">(E3-F3)*100</f>
+      <c r="H3" s="35">
+        <f t="shared" ref="H3:H20" si="0">(E3-F3)*100</f>
         <v>159</v>
       </c>
-      <c r="I3" s="34">
+      <c r="I3" s="35">
         <f>FLOOR(1000/(E3-F3),100)</f>
         <v>600</v>
       </c>
-      <c r="J3" s="40">
+      <c r="J3" s="41">
         <f t="shared" ref="J3:J11" si="1">(G3-E3)/(E3-F3)</f>
         <v>3.27672955974844</v>
       </c>
-      <c r="K3" s="41">
+      <c r="K3" s="42">
         <f t="shared" ref="K3:K14" si="2">(E3-F3)/E3</f>
         <v>0.0466002344665884</v>
       </c>
-      <c r="L3" s="42">
+      <c r="L3" s="43">
         <f t="shared" ref="L3:L11" si="3">(G3-E3)/E3</f>
         <v>0.152696365767878</v>
       </c>
       <c r="M3" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="N3" s="51"/>
-      <c r="O3" s="51"/>
-      <c r="P3" s="51"/>
-      <c r="Q3" s="51"/>
-      <c r="R3" s="51"/>
-      <c r="S3" s="51"/>
-      <c r="T3" s="51"/>
-      <c r="V3" s="57"/>
-      <c r="W3" s="57"/>
-      <c r="X3" s="57"/>
-      <c r="Y3" s="57"/>
-      <c r="Z3" s="57"/>
-      <c r="AA3" s="57"/>
-      <c r="AB3" s="57"/>
-      <c r="AC3" s="57"/>
-      <c r="AE3" s="57"/>
-      <c r="AF3" s="57"/>
-      <c r="AG3" s="57"/>
-      <c r="AH3" s="57"/>
-      <c r="AI3" s="57"/>
-      <c r="AJ3" s="57"/>
-      <c r="AK3" s="57"/>
-      <c r="AM3" s="57"/>
-      <c r="AN3" s="57"/>
-      <c r="AO3" s="57"/>
-      <c r="AP3" s="57"/>
-      <c r="AQ3" s="57"/>
-      <c r="AR3" s="57"/>
-      <c r="AS3" s="57"/>
-      <c r="AU3" s="57"/>
-      <c r="AV3" s="57"/>
-      <c r="AW3" s="57"/>
-      <c r="AX3" s="57"/>
-      <c r="AY3" s="57"/>
-      <c r="AZ3" s="57"/>
-      <c r="BA3" s="57"/>
+      <c r="N3" s="52"/>
+      <c r="O3" s="52"/>
+      <c r="P3" s="52"/>
+      <c r="Q3" s="52"/>
+      <c r="R3" s="52"/>
+      <c r="S3" s="52"/>
+      <c r="T3" s="52"/>
+      <c r="V3" s="58"/>
+      <c r="W3" s="58"/>
+      <c r="X3" s="58"/>
+      <c r="Y3" s="58"/>
+      <c r="Z3" s="58"/>
+      <c r="AA3" s="58"/>
+      <c r="AB3" s="58"/>
+      <c r="AC3" s="58"/>
+      <c r="AE3" s="58"/>
+      <c r="AF3" s="58"/>
+      <c r="AG3" s="58"/>
+      <c r="AH3" s="58"/>
+      <c r="AI3" s="58"/>
+      <c r="AJ3" s="58"/>
+      <c r="AK3" s="58"/>
+      <c r="AM3" s="58"/>
+      <c r="AN3" s="58"/>
+      <c r="AO3" s="58"/>
+      <c r="AP3" s="58"/>
+      <c r="AQ3" s="58"/>
+      <c r="AR3" s="58"/>
+      <c r="AS3" s="58"/>
+      <c r="AU3" s="58"/>
+      <c r="AV3" s="58"/>
+      <c r="AW3" s="58"/>
+      <c r="AX3" s="58"/>
+      <c r="AY3" s="58"/>
+      <c r="AZ3" s="58"/>
+      <c r="BA3" s="58"/>
     </row>
     <row r="4" customFormat="1" ht="23.6" spans="1:53">
       <c r="A4" s="11" t="s">
@@ -2596,74 +2611,74 @@
       <c r="D4" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="34">
+      <c r="E4" s="35">
         <v>32.65</v>
       </c>
-      <c r="F4" s="34">
+      <c r="F4" s="35">
         <v>30.89</v>
       </c>
-      <c r="G4" s="34">
+      <c r="G4" s="35">
         <v>36.22</v>
       </c>
-      <c r="H4" s="34">
+      <c r="H4" s="35">
         <f t="shared" si="0"/>
         <v>176</v>
       </c>
-      <c r="I4" s="34">
+      <c r="I4" s="35">
         <f>FLOOR(1000/(E4-F4),100)</f>
         <v>500</v>
       </c>
-      <c r="J4" s="40">
+      <c r="J4" s="41">
         <f t="shared" si="1"/>
         <v>2.02840909090909</v>
       </c>
-      <c r="K4" s="41">
+      <c r="K4" s="42">
         <f t="shared" si="2"/>
         <v>0.0539050535987748</v>
       </c>
-      <c r="L4" s="42">
+      <c r="L4" s="43">
         <f t="shared" si="3"/>
         <v>0.109341500765697</v>
       </c>
       <c r="M4" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="N4" s="51"/>
-      <c r="O4" s="51"/>
-      <c r="P4" s="51"/>
-      <c r="Q4" s="51"/>
-      <c r="R4" s="51"/>
-      <c r="S4" s="51"/>
-      <c r="T4" s="51"/>
-      <c r="V4" s="57"/>
-      <c r="W4" s="57"/>
-      <c r="X4" s="57"/>
-      <c r="Y4" s="57"/>
-      <c r="Z4" s="57"/>
-      <c r="AA4" s="57"/>
-      <c r="AB4" s="57"/>
-      <c r="AC4" s="57"/>
-      <c r="AE4" s="57"/>
-      <c r="AF4" s="57"/>
-      <c r="AG4" s="57"/>
-      <c r="AH4" s="57"/>
-      <c r="AI4" s="57"/>
-      <c r="AJ4" s="57"/>
-      <c r="AK4" s="57"/>
-      <c r="AM4" s="57"/>
-      <c r="AN4" s="57"/>
-      <c r="AO4" s="57"/>
-      <c r="AP4" s="57"/>
-      <c r="AQ4" s="57"/>
-      <c r="AR4" s="57"/>
-      <c r="AS4" s="57"/>
-      <c r="AU4" s="57"/>
-      <c r="AV4" s="57"/>
-      <c r="AW4" s="57"/>
-      <c r="AX4" s="57"/>
-      <c r="AY4" s="57"/>
-      <c r="AZ4" s="57"/>
-      <c r="BA4" s="57"/>
+      <c r="N4" s="52"/>
+      <c r="O4" s="52"/>
+      <c r="P4" s="52"/>
+      <c r="Q4" s="52"/>
+      <c r="R4" s="52"/>
+      <c r="S4" s="52"/>
+      <c r="T4" s="52"/>
+      <c r="V4" s="58"/>
+      <c r="W4" s="58"/>
+      <c r="X4" s="58"/>
+      <c r="Y4" s="58"/>
+      <c r="Z4" s="58"/>
+      <c r="AA4" s="58"/>
+      <c r="AB4" s="58"/>
+      <c r="AC4" s="58"/>
+      <c r="AE4" s="58"/>
+      <c r="AF4" s="58"/>
+      <c r="AG4" s="58"/>
+      <c r="AH4" s="58"/>
+      <c r="AI4" s="58"/>
+      <c r="AJ4" s="58"/>
+      <c r="AK4" s="58"/>
+      <c r="AM4" s="58"/>
+      <c r="AN4" s="58"/>
+      <c r="AO4" s="58"/>
+      <c r="AP4" s="58"/>
+      <c r="AQ4" s="58"/>
+      <c r="AR4" s="58"/>
+      <c r="AS4" s="58"/>
+      <c r="AU4" s="58"/>
+      <c r="AV4" s="58"/>
+      <c r="AW4" s="58"/>
+      <c r="AX4" s="58"/>
+      <c r="AY4" s="58"/>
+      <c r="AZ4" s="58"/>
+      <c r="BA4" s="58"/>
     </row>
     <row r="5" s="1" customFormat="1" ht="38" spans="1:14">
       <c r="A5" s="11" t="s">
@@ -2678,39 +2693,39 @@
       <c r="D5" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="34">
+      <c r="E5" s="35">
         <v>51.15</v>
       </c>
-      <c r="F5" s="34">
+      <c r="F5" s="35">
         <v>46.61</v>
       </c>
-      <c r="G5" s="34">
+      <c r="G5" s="35">
         <v>59.59</v>
       </c>
-      <c r="H5" s="34">
+      <c r="H5" s="35">
         <f t="shared" si="0"/>
         <v>454</v>
       </c>
-      <c r="I5" s="34">
-        <f t="shared" ref="I5:I19" si="4">FLOOR(1000/(E5-F5),100)</f>
+      <c r="I5" s="35">
+        <f t="shared" ref="I5:I20" si="4">FLOOR(1000/(E5-F5),100)</f>
         <v>200</v>
       </c>
-      <c r="J5" s="40">
+      <c r="J5" s="41">
         <f t="shared" si="1"/>
         <v>1.85903083700441</v>
       </c>
-      <c r="K5" s="41">
+      <c r="K5" s="42">
         <f t="shared" si="2"/>
         <v>0.0887585532746823</v>
       </c>
-      <c r="L5" s="42">
+      <c r="L5" s="43">
         <f t="shared" si="3"/>
         <v>0.165004887585533</v>
       </c>
-      <c r="M5" s="53" t="s">
+      <c r="M5" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="N5" s="54"/>
+      <c r="N5" s="55"/>
     </row>
     <row r="6" s="1" customFormat="1" ht="13" spans="1:14">
       <c r="A6" s="11" t="s">
@@ -2725,39 +2740,39 @@
       <c r="D6" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="35">
+      <c r="E6" s="36">
         <v>143.8</v>
       </c>
-      <c r="F6" s="35">
+      <c r="F6" s="36">
         <v>137.88</v>
       </c>
-      <c r="G6" s="35">
+      <c r="G6" s="36">
         <v>158.48</v>
       </c>
-      <c r="H6" s="34">
+      <c r="H6" s="35">
         <f t="shared" si="0"/>
         <v>592.000000000002</v>
       </c>
-      <c r="I6" s="34">
+      <c r="I6" s="35">
         <f t="shared" si="4"/>
         <v>100</v>
       </c>
-      <c r="J6" s="40">
+      <c r="J6" s="41">
         <f t="shared" si="1"/>
         <v>2.47972972972972</v>
       </c>
-      <c r="K6" s="41">
+      <c r="K6" s="42">
         <f t="shared" si="2"/>
         <v>0.0411682892906816</v>
       </c>
-      <c r="L6" s="42">
+      <c r="L6" s="43">
         <f t="shared" si="3"/>
         <v>0.102086230876217</v>
       </c>
       <c r="M6" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="N6" s="54"/>
+      <c r="N6" s="55"/>
     </row>
     <row r="7" s="1" customFormat="1" ht="38" spans="1:14">
       <c r="A7" s="11" t="s">
@@ -2772,39 +2787,39 @@
       <c r="D7" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="35">
+      <c r="E7" s="36">
         <v>20.44</v>
       </c>
-      <c r="F7" s="35">
+      <c r="F7" s="36">
         <v>19.09</v>
       </c>
-      <c r="G7" s="35">
+      <c r="G7" s="36">
         <v>23.43</v>
       </c>
-      <c r="H7" s="34">
+      <c r="H7" s="35">
         <f t="shared" si="0"/>
         <v>135</v>
       </c>
-      <c r="I7" s="34">
+      <c r="I7" s="35">
         <f t="shared" si="4"/>
         <v>700</v>
       </c>
-      <c r="J7" s="40">
+      <c r="J7" s="41">
         <f t="shared" si="1"/>
         <v>2.21481481481481</v>
       </c>
-      <c r="K7" s="41">
+      <c r="K7" s="42">
         <f t="shared" si="2"/>
         <v>0.0660469667318983</v>
       </c>
-      <c r="L7" s="42">
+      <c r="L7" s="43">
         <f t="shared" si="3"/>
         <v>0.146281800391389</v>
       </c>
-      <c r="M7" s="53" t="s">
+      <c r="M7" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="N7" s="54"/>
+      <c r="N7" s="55"/>
     </row>
     <row r="8" s="1" customFormat="1" ht="13" spans="1:14">
       <c r="A8" s="11" t="s">
@@ -2828,30 +2843,30 @@
       <c r="G8" s="11">
         <v>20.72</v>
       </c>
-      <c r="H8" s="34">
+      <c r="H8" s="35">
         <f t="shared" si="0"/>
         <v>169</v>
       </c>
-      <c r="I8" s="34">
+      <c r="I8" s="35">
         <f t="shared" si="4"/>
         <v>500</v>
       </c>
-      <c r="J8" s="40">
+      <c r="J8" s="41">
         <f t="shared" si="1"/>
         <v>2.0887573964497</v>
       </c>
-      <c r="K8" s="41">
+      <c r="K8" s="42">
         <f t="shared" si="2"/>
         <v>0.0983129726585225</v>
       </c>
-      <c r="L8" s="42">
+      <c r="L8" s="43">
         <f t="shared" si="3"/>
         <v>0.205351948807446</v>
       </c>
       <c r="M8" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="N8" s="54"/>
+      <c r="N8" s="55"/>
     </row>
     <row r="9" s="2" customFormat="1" ht="13" spans="1:13">
       <c r="A9" s="11" t="s">
@@ -2875,23 +2890,23 @@
       <c r="G9" s="11">
         <v>65.72</v>
       </c>
-      <c r="H9" s="34">
+      <c r="H9" s="35">
         <f t="shared" si="0"/>
         <v>579</v>
       </c>
-      <c r="I9" s="34">
+      <c r="I9" s="35">
         <f t="shared" si="4"/>
         <v>100</v>
       </c>
-      <c r="J9" s="40">
+      <c r="J9" s="41">
         <f t="shared" si="1"/>
         <v>0.24525043177893</v>
       </c>
-      <c r="K9" s="41">
+      <c r="K9" s="42">
         <f t="shared" si="2"/>
         <v>0.0900466562986003</v>
       </c>
-      <c r="L9" s="42">
+      <c r="L9" s="43">
         <f t="shared" si="3"/>
         <v>0.0220839813374806</v>
       </c>
@@ -2921,23 +2936,23 @@
       <c r="G10" s="11">
         <v>44.28</v>
       </c>
-      <c r="H10" s="34">
+      <c r="H10" s="35">
         <f t="shared" si="0"/>
         <v>324</v>
       </c>
-      <c r="I10" s="34">
+      <c r="I10" s="35">
         <f t="shared" si="4"/>
         <v>300</v>
       </c>
-      <c r="J10" s="40">
+      <c r="J10" s="41">
         <f t="shared" si="1"/>
         <v>1.58333333333333</v>
       </c>
-      <c r="K10" s="41">
+      <c r="K10" s="42">
         <f t="shared" si="2"/>
         <v>0.0827586206896552</v>
       </c>
-      <c r="L10" s="42">
+      <c r="L10" s="43">
         <f t="shared" si="3"/>
         <v>0.131034482758621</v>
       </c>
@@ -2952,7 +2967,7 @@
       <c r="B11" s="15">
         <v>44539</v>
       </c>
-      <c r="C11" s="58" t="s">
+      <c r="C11" s="59" t="s">
         <v>38</v>
       </c>
       <c r="D11" s="22" t="s">
@@ -2967,30 +2982,30 @@
       <c r="G11" s="11">
         <v>131.73</v>
       </c>
-      <c r="H11" s="34">
+      <c r="H11" s="35">
         <f t="shared" si="0"/>
         <v>663</v>
       </c>
-      <c r="I11" s="34">
+      <c r="I11" s="35">
         <f t="shared" si="4"/>
         <v>100</v>
       </c>
-      <c r="J11" s="40">
+      <c r="J11" s="41">
         <f t="shared" si="1"/>
         <v>2.10105580693816</v>
       </c>
-      <c r="K11" s="41">
+      <c r="K11" s="42">
         <f t="shared" si="2"/>
         <v>0.0562818336162988</v>
       </c>
-      <c r="L11" s="42">
+      <c r="L11" s="43">
         <f t="shared" si="3"/>
         <v>0.118251273344652</v>
       </c>
       <c r="M11" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="N11" s="54"/>
+      <c r="N11" s="55"/>
     </row>
     <row r="12" s="2" customFormat="1" ht="24" spans="1:13">
       <c r="A12" s="11" t="s">
@@ -3014,25 +3029,25 @@
       <c r="G12" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="H12" s="34">
+      <c r="H12" s="35">
         <f t="shared" si="0"/>
         <v>270</v>
       </c>
-      <c r="I12" s="34">
+      <c r="I12" s="35">
         <f t="shared" si="4"/>
         <v>300</v>
       </c>
-      <c r="J12" s="40" t="s">
+      <c r="J12" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="K12" s="41">
+      <c r="K12" s="42">
         <f t="shared" si="2"/>
         <v>0.054655870445344</v>
       </c>
-      <c r="L12" s="42" t="s">
+      <c r="L12" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="M12" s="53" t="s">
+      <c r="M12" s="54" t="s">
         <v>43</v>
       </c>
     </row>
@@ -3049,33 +3064,33 @@
       <c r="D13" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="34">
+      <c r="E13" s="35">
         <v>37.73</v>
       </c>
-      <c r="F13" s="34">
+      <c r="F13" s="35">
         <v>34.68</v>
       </c>
-      <c r="G13" s="34">
+      <c r="G13" s="35">
         <v>46.05</v>
       </c>
-      <c r="H13" s="34">
+      <c r="H13" s="35">
         <f t="shared" si="0"/>
         <v>305</v>
       </c>
-      <c r="I13" s="34">
+      <c r="I13" s="35">
         <f t="shared" si="4"/>
         <v>300</v>
       </c>
-      <c r="J13" s="40">
+      <c r="J13" s="41">
         <f>(G13-E13)/(E13-F13)</f>
         <v>2.72786885245902</v>
       </c>
-      <c r="K13" s="41">
+      <c r="K13" s="42">
         <f t="shared" si="2"/>
         <v>0.0808375298171216</v>
       </c>
-      <c r="L13" s="42">
-        <f t="shared" ref="L13:L19" si="5">(G13-E13)/E13</f>
+      <c r="L13" s="43">
+        <f t="shared" ref="L13:L20" si="5">(G13-E13)/E13</f>
         <v>0.220514179697853</v>
       </c>
       <c r="M13" s="17" t="s">
@@ -3089,7 +3104,7 @@
       <c r="B14" s="23">
         <v>44525</v>
       </c>
-      <c r="C14" s="59" t="s">
+      <c r="C14" s="60" t="s">
         <v>46</v>
       </c>
       <c r="D14" s="17" t="s">
@@ -3104,27 +3119,27 @@
       <c r="G14" s="24">
         <v>84.94</v>
       </c>
-      <c r="H14" s="36">
+      <c r="H14" s="37">
         <f t="shared" si="0"/>
         <v>410.000000000001</v>
       </c>
-      <c r="I14" s="34">
+      <c r="I14" s="35">
         <f t="shared" si="4"/>
         <v>200</v>
       </c>
-      <c r="J14" s="40">
-        <f t="shared" ref="J14:J19" si="6">(G14-E14)/(E14-F14)</f>
+      <c r="J14" s="41">
+        <f t="shared" ref="J14:J20" si="6">(G14-E14)/(E14-F14)</f>
         <v>3.40487804878048</v>
       </c>
-      <c r="K14" s="41">
-        <f t="shared" ref="K14:K19" si="7">(E14-F14)/E14</f>
+      <c r="K14" s="42">
+        <f t="shared" ref="K14:K20" si="7">(E14-F14)/E14</f>
         <v>0.0577627500704425</v>
       </c>
-      <c r="L14" s="43">
+      <c r="L14" s="44">
         <f t="shared" si="5"/>
         <v>0.196675119752043</v>
       </c>
-      <c r="M14" s="55" t="s">
+      <c r="M14" s="56" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3150,27 +3165,27 @@
       <c r="G15" s="24">
         <v>34.93</v>
       </c>
-      <c r="H15" s="36">
+      <c r="H15" s="37">
         <f t="shared" si="0"/>
         <v>205</v>
       </c>
-      <c r="I15" s="34">
+      <c r="I15" s="35">
         <f t="shared" si="4"/>
         <v>400</v>
       </c>
-      <c r="J15" s="40">
+      <c r="J15" s="41">
         <f t="shared" si="6"/>
         <v>2.51707317073171</v>
       </c>
-      <c r="K15" s="44">
+      <c r="K15" s="45">
         <f t="shared" si="7"/>
         <v>0.0688612697346322</v>
       </c>
-      <c r="L15" s="43">
+      <c r="L15" s="44">
         <f t="shared" si="5"/>
         <v>0.173328854551562</v>
       </c>
-      <c r="M15" s="55" t="s">
+      <c r="M15" s="56" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3196,27 +3211,27 @@
       <c r="G16" s="24">
         <v>38.71</v>
       </c>
-      <c r="H16" s="36">
+      <c r="H16" s="37">
         <f t="shared" si="0"/>
         <v>131</v>
       </c>
-      <c r="I16" s="34">
+      <c r="I16" s="35">
         <f t="shared" si="4"/>
         <v>700</v>
       </c>
-      <c r="J16" s="40">
+      <c r="J16" s="41">
         <f t="shared" si="6"/>
         <v>6.14503816793894</v>
       </c>
-      <c r="K16" s="44">
+      <c r="K16" s="45">
         <f t="shared" si="7"/>
         <v>0.042726679712981</v>
       </c>
-      <c r="L16" s="43">
+      <c r="L16" s="44">
         <f t="shared" si="5"/>
         <v>0.262557077625571</v>
       </c>
-      <c r="M16" s="55" t="s">
+      <c r="M16" s="56" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3233,36 +3248,36 @@
       <c r="D17" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="E17" s="36">
+      <c r="E17" s="37">
         <v>26.2</v>
       </c>
-      <c r="F17" s="36">
+      <c r="F17" s="37">
         <v>24.68</v>
       </c>
-      <c r="G17" s="36">
+      <c r="G17" s="37">
         <v>32.49</v>
       </c>
-      <c r="H17" s="36">
+      <c r="H17" s="37">
         <f t="shared" si="0"/>
         <v>152</v>
       </c>
-      <c r="I17" s="34">
+      <c r="I17" s="35">
         <f t="shared" si="4"/>
         <v>600</v>
       </c>
-      <c r="J17" s="40">
+      <c r="J17" s="41">
         <f t="shared" si="6"/>
         <v>4.13815789473685</v>
       </c>
-      <c r="K17" s="44">
+      <c r="K17" s="45">
         <f t="shared" si="7"/>
         <v>0.0580152671755725</v>
       </c>
-      <c r="L17" s="43">
+      <c r="L17" s="44">
         <f t="shared" si="5"/>
         <v>0.240076335877863</v>
       </c>
-      <c r="M17" s="55" t="s">
+      <c r="M17" s="56" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3273,7 +3288,7 @@
       <c r="B18" s="23">
         <v>44533</v>
       </c>
-      <c r="C18" s="59" t="s">
+      <c r="C18" s="60" t="s">
         <v>56</v>
       </c>
       <c r="D18" s="17" t="s">
@@ -3288,27 +3303,27 @@
       <c r="G18" s="24">
         <v>32.36</v>
       </c>
-      <c r="H18" s="36">
+      <c r="H18" s="37">
         <f t="shared" si="0"/>
         <v>251</v>
       </c>
-      <c r="I18" s="34">
+      <c r="I18" s="35">
         <f t="shared" si="4"/>
         <v>300</v>
       </c>
-      <c r="J18" s="40">
+      <c r="J18" s="41">
         <f t="shared" si="6"/>
         <v>1.41035856573705</v>
       </c>
-      <c r="K18" s="44">
+      <c r="K18" s="45">
         <f t="shared" si="7"/>
         <v>0.0870922970159612</v>
       </c>
-      <c r="L18" s="43">
+      <c r="L18" s="44">
         <f t="shared" si="5"/>
         <v>0.122831367106176</v>
       </c>
-      <c r="M18" s="55" t="s">
+      <c r="M18" s="56" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3325,36 +3340,36 @@
       <c r="D19" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E19" s="29">
+      <c r="E19" s="30">
         <v>38.89</v>
       </c>
-      <c r="F19" s="29">
+      <c r="F19" s="30">
         <v>36.65</v>
       </c>
-      <c r="G19" s="29">
+      <c r="G19" s="30">
         <v>40.7</v>
       </c>
-      <c r="H19" s="36">
+      <c r="H19" s="37">
         <f t="shared" si="0"/>
         <v>224</v>
       </c>
-      <c r="I19" s="34">
+      <c r="I19" s="35">
         <f t="shared" si="4"/>
         <v>400</v>
       </c>
-      <c r="J19" s="40">
+      <c r="J19" s="41">
         <f t="shared" si="6"/>
         <v>0.808035714285715</v>
       </c>
-      <c r="K19" s="44">
+      <c r="K19" s="45">
         <f t="shared" si="7"/>
         <v>0.0575983543327334</v>
       </c>
-      <c r="L19" s="43">
+      <c r="L19" s="44">
         <f t="shared" si="5"/>
         <v>0.0465415273849319</v>
       </c>
-      <c r="M19" s="55" t="s">
+      <c r="M19" s="56" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3371,419 +3386,450 @@
       <c r="D20" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="E20" s="29">
+      <c r="E20" s="30">
         <v>27.73</v>
       </c>
-      <c r="F20" s="29">
+      <c r="F20" s="30">
         <v>25.3</v>
       </c>
-      <c r="G20" s="29">
+      <c r="G20" s="30">
         <v>31.94</v>
       </c>
-      <c r="H20" s="36">
-        <f>(E20-F20)*100</f>
+      <c r="H20" s="37">
+        <f t="shared" si="0"/>
         <v>243</v>
       </c>
-      <c r="I20" s="34">
-        <f>FLOOR(1000/(E20-F20),100)</f>
+      <c r="I20" s="35">
+        <f t="shared" si="4"/>
         <v>400</v>
       </c>
-      <c r="J20" s="40">
-        <f>(G20-E20)/(E20-F20)</f>
+      <c r="J20" s="41">
+        <f t="shared" si="6"/>
         <v>1.73251028806584</v>
       </c>
-      <c r="K20" s="44">
-        <f>(E20-F20)/E20</f>
+      <c r="K20" s="45">
+        <f t="shared" si="7"/>
         <v>0.0876307248467364</v>
       </c>
-      <c r="L20" s="43">
-        <f>(G20-E20)/E20</f>
+      <c r="L20" s="44">
+        <f t="shared" si="5"/>
         <v>0.151821132347638</v>
       </c>
-      <c r="M20" s="56" t="s">
+      <c r="M20" s="57" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="21" s="2" customFormat="1" spans="1:13">
-      <c r="A21" s="29"/>
-      <c r="B21" s="26"/>
-      <c r="C21" s="30"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="29"/>
-      <c r="H21" s="37"/>
-      <c r="I21" s="29"/>
-      <c r="J21" s="45"/>
-      <c r="K21" s="46"/>
-      <c r="L21" s="47"/>
-      <c r="M21" s="56"/>
+    <row r="21" s="2" customFormat="1" ht="13" spans="1:13">
+      <c r="A21" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="B21" s="26">
+        <v>44545</v>
+      </c>
+      <c r="C21" s="29">
+        <v>600821</v>
+      </c>
+      <c r="D21" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="E21" s="30">
+        <v>11.75</v>
+      </c>
+      <c r="F21" s="30">
+        <v>10.9</v>
+      </c>
+      <c r="G21" s="30">
+        <v>14.54</v>
+      </c>
+      <c r="H21" s="37">
+        <f>(E21-F21)*100</f>
+        <v>85</v>
+      </c>
+      <c r="I21" s="35">
+        <f>FLOOR(1000/(E21-F21),100)</f>
+        <v>1100</v>
+      </c>
+      <c r="J21" s="41">
+        <f>(G21-E21)/(E21-F21)</f>
+        <v>3.28235294117647</v>
+      </c>
+      <c r="K21" s="45">
+        <f>(E21-F21)/E21</f>
+        <v>0.0723404255319149</v>
+      </c>
+      <c r="L21" s="44">
+        <f>(G21-E21)/E21</f>
+        <v>0.237446808510638</v>
+      </c>
+      <c r="M21" s="57" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="22" s="2" customFormat="1" spans="1:13">
-      <c r="A22" s="29"/>
+      <c r="A22" s="30"/>
       <c r="B22" s="26"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="29"/>
-      <c r="G22" s="29"/>
-      <c r="H22" s="37"/>
-      <c r="I22" s="29"/>
-      <c r="J22" s="45"/>
-      <c r="K22" s="46"/>
-      <c r="L22" s="47"/>
-      <c r="M22" s="56"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="30"/>
+      <c r="H22" s="38"/>
+      <c r="I22" s="30"/>
+      <c r="J22" s="46"/>
+      <c r="K22" s="47"/>
+      <c r="L22" s="48"/>
+      <c r="M22" s="57"/>
     </row>
     <row r="23" s="2" customFormat="1" spans="1:13">
-      <c r="A23" s="29"/>
+      <c r="A23" s="30"/>
       <c r="B23" s="26"/>
-      <c r="C23" s="30"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="29"/>
-      <c r="G23" s="29"/>
-      <c r="H23" s="37"/>
-      <c r="I23" s="29"/>
-      <c r="J23" s="45"/>
-      <c r="K23" s="46"/>
-      <c r="L23" s="47"/>
-      <c r="M23" s="29"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="38"/>
+      <c r="I23" s="30"/>
+      <c r="J23" s="46"/>
+      <c r="K23" s="47"/>
+      <c r="L23" s="48"/>
+      <c r="M23" s="30"/>
     </row>
     <row r="24" s="2" customFormat="1" spans="1:13">
-      <c r="A24" s="29"/>
+      <c r="A24" s="30"/>
       <c r="B24" s="26"/>
-      <c r="C24" s="30"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="29"/>
-      <c r="H24" s="37"/>
-      <c r="I24" s="29"/>
-      <c r="J24" s="45"/>
-      <c r="K24" s="46"/>
-      <c r="L24" s="47"/>
-      <c r="M24" s="29"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="30"/>
+      <c r="H24" s="38"/>
+      <c r="I24" s="30"/>
+      <c r="J24" s="46"/>
+      <c r="K24" s="47"/>
+      <c r="L24" s="48"/>
+      <c r="M24" s="30"/>
     </row>
     <row r="25" s="2" customFormat="1" spans="1:13">
-      <c r="A25" s="29"/>
+      <c r="A25" s="30"/>
       <c r="B25" s="26"/>
-      <c r="C25" s="30"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="29"/>
-      <c r="F25" s="29"/>
-      <c r="G25" s="29"/>
-      <c r="H25" s="37"/>
-      <c r="I25" s="29"/>
-      <c r="J25" s="45"/>
-      <c r="K25" s="46"/>
-      <c r="L25" s="47"/>
-      <c r="M25" s="29"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="30"/>
+      <c r="H25" s="38"/>
+      <c r="I25" s="30"/>
+      <c r="J25" s="46"/>
+      <c r="K25" s="47"/>
+      <c r="L25" s="48"/>
+      <c r="M25" s="30"/>
     </row>
     <row r="26" s="2" customFormat="1" spans="1:13">
-      <c r="A26" s="29"/>
+      <c r="A26" s="30"/>
       <c r="B26" s="26"/>
-      <c r="C26" s="30"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="29"/>
-      <c r="F26" s="29"/>
-      <c r="G26" s="29"/>
-      <c r="H26" s="37"/>
-      <c r="I26" s="29"/>
-      <c r="J26" s="45"/>
-      <c r="K26" s="46"/>
-      <c r="L26" s="47"/>
-      <c r="M26" s="29"/>
+      <c r="C26" s="31"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="30"/>
+      <c r="H26" s="38"/>
+      <c r="I26" s="30"/>
+      <c r="J26" s="46"/>
+      <c r="K26" s="47"/>
+      <c r="L26" s="48"/>
+      <c r="M26" s="30"/>
     </row>
     <row r="27" s="2" customFormat="1" spans="1:13">
-      <c r="A27" s="29"/>
+      <c r="A27" s="30"/>
       <c r="B27" s="26"/>
       <c r="C27" s="24"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="29"/>
-      <c r="F27" s="29"/>
-      <c r="G27" s="29"/>
-      <c r="H27" s="37"/>
-      <c r="I27" s="29"/>
-      <c r="J27" s="45"/>
-      <c r="K27" s="46"/>
-      <c r="L27" s="47"/>
-      <c r="M27" s="56"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="30"/>
+      <c r="H27" s="38"/>
+      <c r="I27" s="30"/>
+      <c r="J27" s="46"/>
+      <c r="K27" s="47"/>
+      <c r="L27" s="48"/>
+      <c r="M27" s="57"/>
     </row>
     <row r="28" spans="1:13">
-      <c r="A28" s="31"/>
+      <c r="A28" s="32"/>
       <c r="B28" s="26"/>
-      <c r="C28" s="32"/>
-      <c r="D28" s="31"/>
-      <c r="E28" s="31"/>
-      <c r="F28" s="31"/>
-      <c r="G28" s="31"/>
-      <c r="H28" s="31"/>
-      <c r="I28" s="31"/>
-      <c r="J28" s="31"/>
-      <c r="K28" s="46"/>
-      <c r="L28" s="48"/>
-      <c r="M28" s="56"/>
+      <c r="C28" s="33"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="32"/>
+      <c r="H28" s="32"/>
+      <c r="I28" s="32"/>
+      <c r="J28" s="32"/>
+      <c r="K28" s="47"/>
+      <c r="L28" s="49"/>
+      <c r="M28" s="57"/>
     </row>
     <row r="29" spans="1:13">
-      <c r="A29" s="31"/>
+      <c r="A29" s="32"/>
       <c r="B29" s="26"/>
-      <c r="C29" s="31"/>
-      <c r="D29" s="31"/>
-      <c r="E29" s="31"/>
-      <c r="F29" s="31"/>
-      <c r="G29" s="31"/>
-      <c r="H29" s="31"/>
-      <c r="I29" s="31"/>
-      <c r="J29" s="31"/>
-      <c r="K29" s="46"/>
-      <c r="L29" s="48"/>
-      <c r="M29" s="31"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="32"/>
+      <c r="F29" s="32"/>
+      <c r="G29" s="32"/>
+      <c r="H29" s="32"/>
+      <c r="I29" s="32"/>
+      <c r="J29" s="32"/>
+      <c r="K29" s="47"/>
+      <c r="L29" s="49"/>
+      <c r="M29" s="32"/>
     </row>
     <row r="30" spans="1:13">
-      <c r="A30" s="31"/>
-      <c r="B30" s="31"/>
-      <c r="C30" s="31"/>
-      <c r="D30" s="31"/>
-      <c r="E30" s="31"/>
-      <c r="F30" s="31"/>
-      <c r="G30" s="31"/>
-      <c r="H30" s="31"/>
-      <c r="I30" s="31"/>
-      <c r="J30" s="31"/>
-      <c r="K30" s="46"/>
-      <c r="L30" s="48"/>
-      <c r="M30" s="31"/>
+      <c r="A30" s="32"/>
+      <c r="B30" s="32"/>
+      <c r="C30" s="32"/>
+      <c r="D30" s="32"/>
+      <c r="E30" s="32"/>
+      <c r="F30" s="32"/>
+      <c r="G30" s="32"/>
+      <c r="H30" s="32"/>
+      <c r="I30" s="32"/>
+      <c r="J30" s="32"/>
+      <c r="K30" s="47"/>
+      <c r="L30" s="49"/>
+      <c r="M30" s="32"/>
     </row>
     <row r="31" spans="1:13">
-      <c r="A31" s="31"/>
-      <c r="B31" s="31"/>
-      <c r="C31" s="31"/>
-      <c r="D31" s="31"/>
-      <c r="E31" s="31"/>
-      <c r="F31" s="31"/>
-      <c r="G31" s="31"/>
-      <c r="H31" s="31"/>
-      <c r="I31" s="31"/>
-      <c r="J31" s="31"/>
-      <c r="K31" s="46"/>
-      <c r="L31" s="48"/>
-      <c r="M31" s="31"/>
+      <c r="A31" s="32"/>
+      <c r="B31" s="32"/>
+      <c r="C31" s="32"/>
+      <c r="D31" s="32"/>
+      <c r="E31" s="32"/>
+      <c r="F31" s="32"/>
+      <c r="G31" s="32"/>
+      <c r="H31" s="32"/>
+      <c r="I31" s="32"/>
+      <c r="J31" s="32"/>
+      <c r="K31" s="47"/>
+      <c r="L31" s="49"/>
+      <c r="M31" s="32"/>
     </row>
     <row r="32" spans="1:13">
-      <c r="A32" s="31"/>
-      <c r="B32" s="31"/>
-      <c r="C32" s="31"/>
-      <c r="D32" s="31"/>
-      <c r="E32" s="31"/>
-      <c r="F32" s="31"/>
-      <c r="G32" s="31"/>
-      <c r="H32" s="31"/>
-      <c r="I32" s="31"/>
-      <c r="J32" s="31"/>
-      <c r="K32" s="46"/>
-      <c r="L32" s="48"/>
-      <c r="M32" s="31"/>
+      <c r="A32" s="32"/>
+      <c r="B32" s="32"/>
+      <c r="C32" s="32"/>
+      <c r="D32" s="32"/>
+      <c r="E32" s="32"/>
+      <c r="F32" s="32"/>
+      <c r="G32" s="32"/>
+      <c r="H32" s="32"/>
+      <c r="I32" s="32"/>
+      <c r="J32" s="32"/>
+      <c r="K32" s="47"/>
+      <c r="L32" s="49"/>
+      <c r="M32" s="32"/>
     </row>
     <row r="33" spans="1:13">
-      <c r="A33" s="31"/>
-      <c r="B33" s="31"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="31"/>
-      <c r="K33" s="46"/>
-      <c r="L33" s="48"/>
-      <c r="M33" s="31"/>
+      <c r="A33" s="32"/>
+      <c r="B33" s="32"/>
+      <c r="C33" s="32"/>
+      <c r="D33" s="32"/>
+      <c r="E33" s="32"/>
+      <c r="F33" s="32"/>
+      <c r="G33" s="32"/>
+      <c r="H33" s="32"/>
+      <c r="I33" s="32"/>
+      <c r="J33" s="32"/>
+      <c r="K33" s="47"/>
+      <c r="L33" s="49"/>
+      <c r="M33" s="32"/>
     </row>
     <row r="34" spans="1:13">
-      <c r="A34" s="31"/>
-      <c r="B34" s="31"/>
-      <c r="C34" s="31"/>
-      <c r="D34" s="31"/>
-      <c r="E34" s="31"/>
-      <c r="F34" s="31"/>
-      <c r="G34" s="31"/>
-      <c r="H34" s="31"/>
-      <c r="I34" s="31"/>
-      <c r="J34" s="31"/>
-      <c r="K34" s="46"/>
-      <c r="L34" s="48"/>
-      <c r="M34" s="31"/>
+      <c r="A34" s="32"/>
+      <c r="B34" s="32"/>
+      <c r="C34" s="32"/>
+      <c r="D34" s="32"/>
+      <c r="E34" s="32"/>
+      <c r="F34" s="32"/>
+      <c r="G34" s="32"/>
+      <c r="H34" s="32"/>
+      <c r="I34" s="32"/>
+      <c r="J34" s="32"/>
+      <c r="K34" s="47"/>
+      <c r="L34" s="49"/>
+      <c r="M34" s="32"/>
     </row>
     <row r="35" spans="1:13">
-      <c r="A35" s="31"/>
-      <c r="B35" s="31"/>
-      <c r="C35" s="31"/>
-      <c r="D35" s="31"/>
-      <c r="E35" s="31"/>
-      <c r="F35" s="31"/>
-      <c r="G35" s="31"/>
-      <c r="H35" s="31"/>
-      <c r="I35" s="31"/>
-      <c r="J35" s="31"/>
-      <c r="K35" s="46"/>
-      <c r="L35" s="48"/>
-      <c r="M35" s="31"/>
+      <c r="A35" s="32"/>
+      <c r="B35" s="32"/>
+      <c r="C35" s="32"/>
+      <c r="D35" s="32"/>
+      <c r="E35" s="32"/>
+      <c r="F35" s="32"/>
+      <c r="G35" s="32"/>
+      <c r="H35" s="32"/>
+      <c r="I35" s="32"/>
+      <c r="J35" s="32"/>
+      <c r="K35" s="47"/>
+      <c r="L35" s="49"/>
+      <c r="M35" s="32"/>
     </row>
     <row r="36" spans="1:13">
-      <c r="A36" s="31"/>
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="31"/>
-      <c r="J36" s="31"/>
-      <c r="K36" s="46"/>
-      <c r="L36" s="48"/>
-      <c r="M36" s="31"/>
+      <c r="A36" s="32"/>
+      <c r="B36" s="32"/>
+      <c r="C36" s="32"/>
+      <c r="D36" s="32"/>
+      <c r="E36" s="32"/>
+      <c r="F36" s="32"/>
+      <c r="G36" s="32"/>
+      <c r="H36" s="32"/>
+      <c r="I36" s="32"/>
+      <c r="J36" s="32"/>
+      <c r="K36" s="47"/>
+      <c r="L36" s="49"/>
+      <c r="M36" s="32"/>
     </row>
     <row r="37" spans="1:13">
-      <c r="A37" s="31"/>
-      <c r="B37" s="31"/>
-      <c r="C37" s="31"/>
-      <c r="D37" s="31"/>
-      <c r="E37" s="31"/>
-      <c r="F37" s="31"/>
-      <c r="G37" s="31"/>
-      <c r="H37" s="31"/>
-      <c r="I37" s="31"/>
-      <c r="J37" s="31"/>
-      <c r="K37" s="46"/>
-      <c r="L37" s="48"/>
-      <c r="M37" s="31"/>
+      <c r="A37" s="32"/>
+      <c r="B37" s="32"/>
+      <c r="C37" s="32"/>
+      <c r="D37" s="32"/>
+      <c r="E37" s="32"/>
+      <c r="F37" s="32"/>
+      <c r="G37" s="32"/>
+      <c r="H37" s="32"/>
+      <c r="I37" s="32"/>
+      <c r="J37" s="32"/>
+      <c r="K37" s="47"/>
+      <c r="L37" s="49"/>
+      <c r="M37" s="32"/>
     </row>
     <row r="38" spans="1:13">
-      <c r="A38" s="31"/>
-      <c r="B38" s="31"/>
-      <c r="C38" s="31"/>
-      <c r="D38" s="31"/>
-      <c r="E38" s="31"/>
-      <c r="F38" s="31"/>
-      <c r="G38" s="31"/>
-      <c r="H38" s="31"/>
-      <c r="I38" s="31"/>
-      <c r="J38" s="31"/>
-      <c r="K38" s="46"/>
-      <c r="L38" s="48"/>
-      <c r="M38" s="31"/>
+      <c r="A38" s="32"/>
+      <c r="B38" s="32"/>
+      <c r="C38" s="32"/>
+      <c r="D38" s="32"/>
+      <c r="E38" s="32"/>
+      <c r="F38" s="32"/>
+      <c r="G38" s="32"/>
+      <c r="H38" s="32"/>
+      <c r="I38" s="32"/>
+      <c r="J38" s="32"/>
+      <c r="K38" s="47"/>
+      <c r="L38" s="49"/>
+      <c r="M38" s="32"/>
     </row>
     <row r="39" spans="1:13">
-      <c r="A39" s="31"/>
-      <c r="B39" s="31"/>
-      <c r="C39" s="31"/>
-      <c r="D39" s="31"/>
-      <c r="E39" s="31"/>
-      <c r="F39" s="31"/>
-      <c r="G39" s="31"/>
-      <c r="H39" s="31"/>
-      <c r="I39" s="31"/>
-      <c r="J39" s="31"/>
-      <c r="K39" s="46"/>
-      <c r="L39" s="48"/>
-      <c r="M39" s="31"/>
+      <c r="A39" s="32"/>
+      <c r="B39" s="32"/>
+      <c r="C39" s="32"/>
+      <c r="D39" s="32"/>
+      <c r="E39" s="32"/>
+      <c r="F39" s="32"/>
+      <c r="G39" s="32"/>
+      <c r="H39" s="32"/>
+      <c r="I39" s="32"/>
+      <c r="J39" s="32"/>
+      <c r="K39" s="47"/>
+      <c r="L39" s="49"/>
+      <c r="M39" s="32"/>
     </row>
     <row r="40" spans="1:13">
-      <c r="A40" s="31"/>
-      <c r="B40" s="31"/>
-      <c r="C40" s="31"/>
-      <c r="D40" s="31"/>
-      <c r="E40" s="31"/>
-      <c r="F40" s="31"/>
-      <c r="G40" s="31"/>
-      <c r="H40" s="31"/>
-      <c r="I40" s="31"/>
-      <c r="J40" s="31"/>
-      <c r="K40" s="46"/>
-      <c r="L40" s="48"/>
-      <c r="M40" s="31"/>
+      <c r="A40" s="32"/>
+      <c r="B40" s="32"/>
+      <c r="C40" s="32"/>
+      <c r="D40" s="32"/>
+      <c r="E40" s="32"/>
+      <c r="F40" s="32"/>
+      <c r="G40" s="32"/>
+      <c r="H40" s="32"/>
+      <c r="I40" s="32"/>
+      <c r="J40" s="32"/>
+      <c r="K40" s="47"/>
+      <c r="L40" s="49"/>
+      <c r="M40" s="32"/>
     </row>
     <row r="41" spans="1:13">
-      <c r="A41" s="31"/>
-      <c r="B41" s="31"/>
-      <c r="C41" s="31"/>
-      <c r="D41" s="31"/>
-      <c r="E41" s="31"/>
-      <c r="F41" s="31"/>
-      <c r="G41" s="31"/>
-      <c r="H41" s="31"/>
-      <c r="I41" s="31"/>
-      <c r="J41" s="31"/>
-      <c r="K41" s="46"/>
-      <c r="L41" s="48"/>
-      <c r="M41" s="31"/>
+      <c r="A41" s="32"/>
+      <c r="B41" s="32"/>
+      <c r="C41" s="32"/>
+      <c r="D41" s="32"/>
+      <c r="E41" s="32"/>
+      <c r="F41" s="32"/>
+      <c r="G41" s="32"/>
+      <c r="H41" s="32"/>
+      <c r="I41" s="32"/>
+      <c r="J41" s="32"/>
+      <c r="K41" s="47"/>
+      <c r="L41" s="49"/>
+      <c r="M41" s="32"/>
     </row>
     <row r="42" spans="1:13">
-      <c r="A42" s="31"/>
-      <c r="B42" s="31"/>
-      <c r="C42" s="31"/>
-      <c r="D42" s="31"/>
-      <c r="E42" s="31"/>
-      <c r="F42" s="31"/>
-      <c r="G42" s="31"/>
-      <c r="H42" s="31"/>
-      <c r="I42" s="31"/>
-      <c r="J42" s="31"/>
-      <c r="K42" s="46"/>
-      <c r="L42" s="48"/>
-      <c r="M42" s="31"/>
+      <c r="A42" s="32"/>
+      <c r="B42" s="32"/>
+      <c r="C42" s="32"/>
+      <c r="D42" s="32"/>
+      <c r="E42" s="32"/>
+      <c r="F42" s="32"/>
+      <c r="G42" s="32"/>
+      <c r="H42" s="32"/>
+      <c r="I42" s="32"/>
+      <c r="J42" s="32"/>
+      <c r="K42" s="47"/>
+      <c r="L42" s="49"/>
+      <c r="M42" s="32"/>
     </row>
     <row r="43" spans="1:13">
-      <c r="A43" s="31"/>
-      <c r="B43" s="31"/>
-      <c r="C43" s="31"/>
-      <c r="D43" s="31"/>
-      <c r="E43" s="31"/>
-      <c r="F43" s="31"/>
-      <c r="G43" s="31"/>
-      <c r="H43" s="31"/>
-      <c r="I43" s="31"/>
-      <c r="J43" s="31"/>
-      <c r="K43" s="46"/>
-      <c r="L43" s="48"/>
-      <c r="M43" s="31"/>
+      <c r="A43" s="32"/>
+      <c r="B43" s="32"/>
+      <c r="C43" s="32"/>
+      <c r="D43" s="32"/>
+      <c r="E43" s="32"/>
+      <c r="F43" s="32"/>
+      <c r="G43" s="32"/>
+      <c r="H43" s="32"/>
+      <c r="I43" s="32"/>
+      <c r="J43" s="32"/>
+      <c r="K43" s="47"/>
+      <c r="L43" s="49"/>
+      <c r="M43" s="32"/>
     </row>
     <row r="44" spans="1:13">
-      <c r="A44" s="31"/>
-      <c r="B44" s="31"/>
-      <c r="C44" s="31"/>
-      <c r="D44" s="31"/>
-      <c r="E44" s="31"/>
-      <c r="F44" s="31"/>
-      <c r="G44" s="31"/>
-      <c r="H44" s="31"/>
-      <c r="I44" s="31"/>
-      <c r="J44" s="31"/>
-      <c r="K44" s="46"/>
-      <c r="L44" s="48"/>
-      <c r="M44" s="31"/>
+      <c r="A44" s="32"/>
+      <c r="B44" s="32"/>
+      <c r="C44" s="32"/>
+      <c r="D44" s="32"/>
+      <c r="E44" s="32"/>
+      <c r="F44" s="32"/>
+      <c r="G44" s="32"/>
+      <c r="H44" s="32"/>
+      <c r="I44" s="32"/>
+      <c r="J44" s="32"/>
+      <c r="K44" s="47"/>
+      <c r="L44" s="49"/>
+      <c r="M44" s="32"/>
     </row>
     <row r="45" spans="1:13">
-      <c r="A45" s="31"/>
-      <c r="B45" s="31"/>
-      <c r="C45" s="31"/>
-      <c r="D45" s="31"/>
-      <c r="E45" s="31"/>
-      <c r="F45" s="31"/>
-      <c r="G45" s="31"/>
-      <c r="H45" s="31"/>
-      <c r="I45" s="31"/>
-      <c r="J45" s="31"/>
-      <c r="K45" s="46"/>
-      <c r="L45" s="48"/>
-      <c r="M45" s="31"/>
+      <c r="A45" s="32"/>
+      <c r="B45" s="32"/>
+      <c r="C45" s="32"/>
+      <c r="D45" s="32"/>
+      <c r="E45" s="32"/>
+      <c r="F45" s="32"/>
+      <c r="G45" s="32"/>
+      <c r="H45" s="32"/>
+      <c r="I45" s="32"/>
+      <c r="J45" s="32"/>
+      <c r="K45" s="47"/>
+      <c r="L45" s="49"/>
+      <c r="M45" s="32"/>
     </row>
     <row r="46" ht="13" spans="1:13">
-      <c r="A46" s="60" t="s">
-        <v>63</v>
-      </c>
-      <c r="B46" s="31"/>
+      <c r="A46" s="61" t="s">
+        <v>65</v>
+      </c>
+      <c r="B46" s="32"/>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
@@ -3791,8 +3837,8 @@
       <c r="H46" s="3"/>
       <c r="I46" s="3"/>
       <c r="J46" s="3"/>
-      <c r="K46" s="49"/>
-      <c r="M46" s="31"/>
+      <c r="K46" s="50"/>
+      <c r="M46" s="32"/>
     </row>
     <row r="47" spans="1:11">
       <c r="A47" s="3"/>
@@ -3804,7 +3850,7 @@
       <c r="H47" s="3"/>
       <c r="I47" s="3"/>
       <c r="J47" s="3"/>
-      <c r="K47" s="49"/>
+      <c r="K47" s="50"/>
     </row>
     <row r="48" spans="1:11">
       <c r="A48" s="3"/>
@@ -3816,7 +3862,7 @@
       <c r="H48" s="3"/>
       <c r="I48" s="3"/>
       <c r="J48" s="3"/>
-      <c r="K48" s="49"/>
+      <c r="K48" s="50"/>
     </row>
     <row r="49" spans="1:11">
       <c r="A49" s="3"/>
@@ -3828,7 +3874,7 @@
       <c r="H49" s="3"/>
       <c r="I49" s="3"/>
       <c r="J49" s="3"/>
-      <c r="K49" s="49"/>
+      <c r="K49" s="50"/>
     </row>
     <row r="50" spans="1:11">
       <c r="A50" s="3"/>
@@ -3840,7 +3886,7 @@
       <c r="H50" s="3"/>
       <c r="I50" s="3"/>
       <c r="J50" s="3"/>
-      <c r="K50" s="49"/>
+      <c r="K50" s="50"/>
     </row>
     <row r="51" spans="1:11">
       <c r="A51" s="3"/>
@@ -3852,7 +3898,7 @@
       <c r="H51" s="3"/>
       <c r="I51" s="3"/>
       <c r="J51" s="3"/>
-      <c r="K51" s="49"/>
+      <c r="K51" s="50"/>
     </row>
     <row r="52" spans="1:11">
       <c r="A52" s="3"/>
@@ -3864,7 +3910,7 @@
       <c r="H52" s="3"/>
       <c r="I52" s="3"/>
       <c r="J52" s="3"/>
-      <c r="K52" s="49"/>
+      <c r="K52" s="50"/>
     </row>
     <row r="53" spans="1:11">
       <c r="A53" s="3"/>
@@ -3876,7 +3922,7 @@
       <c r="H53" s="3"/>
       <c r="I53" s="3"/>
       <c r="J53" s="3"/>
-      <c r="K53" s="49"/>
+      <c r="K53" s="50"/>
     </row>
     <row r="54" spans="1:11">
       <c r="A54" s="3"/>
@@ -3888,7 +3934,7 @@
       <c r="H54" s="3"/>
       <c r="I54" s="3"/>
       <c r="J54" s="3"/>
-      <c r="K54" s="49"/>
+      <c r="K54" s="50"/>
     </row>
     <row r="55" spans="1:11">
       <c r="A55" s="3"/>
@@ -3900,7 +3946,7 @@
       <c r="H55" s="3"/>
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
-      <c r="K55" s="49"/>
+      <c r="K55" s="50"/>
     </row>
     <row r="56" spans="1:11">
       <c r="A56" s="3"/>
@@ -3912,7 +3958,7 @@
       <c r="H56" s="3"/>
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
-      <c r="K56" s="49"/>
+      <c r="K56" s="50"/>
     </row>
     <row r="57" spans="1:11">
       <c r="A57" s="3"/>
@@ -3924,7 +3970,7 @@
       <c r="H57" s="3"/>
       <c r="I57" s="3"/>
       <c r="J57" s="3"/>
-      <c r="K57" s="49"/>
+      <c r="K57" s="50"/>
     </row>
     <row r="58" spans="1:11">
       <c r="A58" s="3"/>
@@ -3936,7 +3982,7 @@
       <c r="H58" s="3"/>
       <c r="I58" s="3"/>
       <c r="J58" s="3"/>
-      <c r="K58" s="49"/>
+      <c r="K58" s="50"/>
     </row>
     <row r="59" spans="1:11">
       <c r="A59" s="3"/>
@@ -3948,7 +3994,7 @@
       <c r="H59" s="3"/>
       <c r="I59" s="3"/>
       <c r="J59" s="3"/>
-      <c r="K59" s="49"/>
+      <c r="K59" s="50"/>
     </row>
     <row r="60" spans="1:11">
       <c r="A60" s="3"/>
@@ -3960,7 +4006,7 @@
       <c r="H60" s="3"/>
       <c r="I60" s="3"/>
       <c r="J60" s="3"/>
-      <c r="K60" s="49"/>
+      <c r="K60" s="50"/>
     </row>
     <row r="61" spans="1:11">
       <c r="A61" s="3"/>
@@ -3972,7 +4018,7 @@
       <c r="H61" s="3"/>
       <c r="I61" s="3"/>
       <c r="J61" s="3"/>
-      <c r="K61" s="49"/>
+      <c r="K61" s="50"/>
     </row>
     <row r="62" spans="1:11">
       <c r="A62" s="3"/>
@@ -3984,7 +4030,7 @@
       <c r="H62" s="3"/>
       <c r="I62" s="3"/>
       <c r="J62" s="3"/>
-      <c r="K62" s="49"/>
+      <c r="K62" s="50"/>
     </row>
     <row r="63" spans="1:11">
       <c r="A63" s="3"/>
@@ -3996,7 +4042,7 @@
       <c r="H63" s="3"/>
       <c r="I63" s="3"/>
       <c r="J63" s="3"/>
-      <c r="K63" s="49"/>
+      <c r="K63" s="50"/>
     </row>
     <row r="64" spans="1:11">
       <c r="A64" s="3"/>
@@ -4008,7 +4054,7 @@
       <c r="H64" s="3"/>
       <c r="I64" s="3"/>
       <c r="J64" s="3"/>
-      <c r="K64" s="49"/>
+      <c r="K64" s="50"/>
     </row>
     <row r="65" spans="1:11">
       <c r="A65" s="3"/>
@@ -4020,7 +4066,7 @@
       <c r="H65" s="3"/>
       <c r="I65" s="3"/>
       <c r="J65" s="3"/>
-      <c r="K65" s="49"/>
+      <c r="K65" s="50"/>
     </row>
     <row r="66" spans="1:11">
       <c r="A66" s="3"/>
@@ -4032,7 +4078,7 @@
       <c r="H66" s="3"/>
       <c r="I66" s="3"/>
       <c r="J66" s="3"/>
-      <c r="K66" s="49"/>
+      <c r="K66" s="50"/>
     </row>
     <row r="67" spans="1:11">
       <c r="A67" s="3"/>
@@ -4044,7 +4090,7 @@
       <c r="H67" s="3"/>
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
-      <c r="K67" s="49"/>
+      <c r="K67" s="50"/>
     </row>
     <row r="68" spans="1:11">
       <c r="A68" s="3"/>
@@ -4056,7 +4102,7 @@
       <c r="H68" s="3"/>
       <c r="I68" s="3"/>
       <c r="J68" s="3"/>
-      <c r="K68" s="49"/>
+      <c r="K68" s="50"/>
     </row>
     <row r="69" spans="1:11">
       <c r="A69" s="3"/>
@@ -4068,7 +4114,7 @@
       <c r="H69" s="3"/>
       <c r="I69" s="3"/>
       <c r="J69" s="3"/>
-      <c r="K69" s="49"/>
+      <c r="K69" s="50"/>
     </row>
     <row r="70" spans="1:11">
       <c r="A70" s="3"/>
@@ -4080,7 +4126,7 @@
       <c r="H70" s="3"/>
       <c r="I70" s="3"/>
       <c r="J70" s="3"/>
-      <c r="K70" s="49"/>
+      <c r="K70" s="50"/>
     </row>
     <row r="71" spans="1:11">
       <c r="A71" s="3"/>
@@ -4092,7 +4138,7 @@
       <c r="H71" s="3"/>
       <c r="I71" s="3"/>
       <c r="J71" s="3"/>
-      <c r="K71" s="49"/>
+      <c r="K71" s="50"/>
     </row>
     <row r="72" spans="1:11">
       <c r="A72" s="3"/>
@@ -4104,7 +4150,7 @@
       <c r="H72" s="3"/>
       <c r="I72" s="3"/>
       <c r="J72" s="3"/>
-      <c r="K72" s="49"/>
+      <c r="K72" s="50"/>
     </row>
     <row r="73" spans="1:11">
       <c r="A73" s="3"/>
@@ -4116,7 +4162,7 @@
       <c r="H73" s="3"/>
       <c r="I73" s="3"/>
       <c r="J73" s="3"/>
-      <c r="K73" s="49"/>
+      <c r="K73" s="50"/>
     </row>
     <row r="74" spans="1:11">
       <c r="A74" s="3"/>
@@ -4128,7 +4174,7 @@
       <c r="H74" s="3"/>
       <c r="I74" s="3"/>
       <c r="J74" s="3"/>
-      <c r="K74" s="49"/>
+      <c r="K74" s="50"/>
     </row>
     <row r="75" spans="1:11">
       <c r="A75" s="3"/>
@@ -4140,7 +4186,7 @@
       <c r="H75" s="3"/>
       <c r="I75" s="3"/>
       <c r="J75" s="3"/>
-      <c r="K75" s="49"/>
+      <c r="K75" s="50"/>
     </row>
     <row r="76" spans="1:11">
       <c r="A76" s="3"/>
@@ -4152,7 +4198,7 @@
       <c r="H76" s="3"/>
       <c r="I76" s="3"/>
       <c r="J76" s="3"/>
-      <c r="K76" s="49"/>
+      <c r="K76" s="50"/>
     </row>
     <row r="77" spans="1:11">
       <c r="A77" s="3"/>
@@ -4164,7 +4210,7 @@
       <c r="H77" s="3"/>
       <c r="I77" s="3"/>
       <c r="J77" s="3"/>
-      <c r="K77" s="49"/>
+      <c r="K77" s="50"/>
     </row>
     <row r="78" spans="1:11">
       <c r="A78" s="3"/>
@@ -4176,7 +4222,7 @@
       <c r="H78" s="3"/>
       <c r="I78" s="3"/>
       <c r="J78" s="3"/>
-      <c r="K78" s="49"/>
+      <c r="K78" s="50"/>
     </row>
     <row r="79" spans="1:11">
       <c r="A79" s="3"/>
@@ -4188,7 +4234,7 @@
       <c r="H79" s="3"/>
       <c r="I79" s="3"/>
       <c r="J79" s="3"/>
-      <c r="K79" s="49"/>
+      <c r="K79" s="50"/>
     </row>
     <row r="80" spans="1:11">
       <c r="A80" s="3"/>
@@ -4200,7 +4246,7 @@
       <c r="H80" s="3"/>
       <c r="I80" s="3"/>
       <c r="J80" s="3"/>
-      <c r="K80" s="49"/>
+      <c r="K80" s="50"/>
     </row>
     <row r="81" spans="1:11">
       <c r="A81" s="3"/>
@@ -4212,7 +4258,7 @@
       <c r="H81" s="3"/>
       <c r="I81" s="3"/>
       <c r="J81" s="3"/>
-      <c r="K81" s="49"/>
+      <c r="K81" s="50"/>
     </row>
     <row r="82" spans="1:11">
       <c r="A82" s="3"/>
@@ -4224,7 +4270,7 @@
       <c r="H82" s="3"/>
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
-      <c r="K82" s="49"/>
+      <c r="K82" s="50"/>
     </row>
     <row r="83" spans="1:11">
       <c r="A83" s="3"/>
@@ -4236,7 +4282,7 @@
       <c r="H83" s="3"/>
       <c r="I83" s="3"/>
       <c r="J83" s="3"/>
-      <c r="K83" s="49"/>
+      <c r="K83" s="50"/>
     </row>
     <row r="84" spans="1:11">
       <c r="A84" s="3"/>
@@ -4248,7 +4294,7 @@
       <c r="H84" s="3"/>
       <c r="I84" s="3"/>
       <c r="J84" s="3"/>
-      <c r="K84" s="49"/>
+      <c r="K84" s="50"/>
     </row>
     <row r="85" spans="1:11">
       <c r="A85" s="3"/>
@@ -4260,7 +4306,7 @@
       <c r="H85" s="3"/>
       <c r="I85" s="3"/>
       <c r="J85" s="3"/>
-      <c r="K85" s="49"/>
+      <c r="K85" s="50"/>
     </row>
     <row r="86" spans="1:11">
       <c r="A86" s="3"/>
@@ -4272,7 +4318,7 @@
       <c r="H86" s="3"/>
       <c r="I86" s="3"/>
       <c r="J86" s="3"/>
-      <c r="K86" s="49"/>
+      <c r="K86" s="50"/>
     </row>
     <row r="87" spans="1:11">
       <c r="A87" s="3"/>
@@ -4284,7 +4330,7 @@
       <c r="H87" s="3"/>
       <c r="I87" s="3"/>
       <c r="J87" s="3"/>
-      <c r="K87" s="49"/>
+      <c r="K87" s="50"/>
     </row>
     <row r="88" spans="1:11">
       <c r="A88" s="3"/>
@@ -4296,7 +4342,7 @@
       <c r="H88" s="3"/>
       <c r="I88" s="3"/>
       <c r="J88" s="3"/>
-      <c r="K88" s="49"/>
+      <c r="K88" s="50"/>
     </row>
     <row r="89" spans="1:11">
       <c r="A89" s="3"/>
@@ -4308,7 +4354,7 @@
       <c r="H89" s="3"/>
       <c r="I89" s="3"/>
       <c r="J89" s="3"/>
-      <c r="K89" s="49"/>
+      <c r="K89" s="50"/>
     </row>
     <row r="90" spans="1:11">
       <c r="A90" s="3"/>
@@ -4320,7 +4366,7 @@
       <c r="H90" s="3"/>
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
-      <c r="K90" s="49"/>
+      <c r="K90" s="50"/>
     </row>
     <row r="91" spans="1:11">
       <c r="A91" s="3"/>
@@ -4332,7 +4378,7 @@
       <c r="H91" s="3"/>
       <c r="I91" s="3"/>
       <c r="J91" s="3"/>
-      <c r="K91" s="49"/>
+      <c r="K91" s="50"/>
     </row>
     <row r="92" spans="1:11">
       <c r="A92" s="3"/>
@@ -4344,7 +4390,7 @@
       <c r="H92" s="3"/>
       <c r="I92" s="3"/>
       <c r="J92" s="3"/>
-      <c r="K92" s="49"/>
+      <c r="K92" s="50"/>
     </row>
     <row r="93" spans="1:11">
       <c r="A93" s="3"/>
@@ -4356,7 +4402,7 @@
       <c r="H93" s="3"/>
       <c r="I93" s="3"/>
       <c r="J93" s="3"/>
-      <c r="K93" s="49"/>
+      <c r="K93" s="50"/>
     </row>
     <row r="94" spans="1:11">
       <c r="A94" s="3"/>
@@ -4368,7 +4414,7 @@
       <c r="H94" s="3"/>
       <c r="I94" s="3"/>
       <c r="J94" s="3"/>
-      <c r="K94" s="49"/>
+      <c r="K94" s="50"/>
     </row>
     <row r="95" spans="1:11">
       <c r="A95" s="3"/>
@@ -4380,7 +4426,7 @@
       <c r="H95" s="3"/>
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
-      <c r="K95" s="49"/>
+      <c r="K95" s="50"/>
     </row>
     <row r="96" spans="1:11">
       <c r="A96" s="3"/>
@@ -4392,7 +4438,7 @@
       <c r="H96" s="3"/>
       <c r="I96" s="3"/>
       <c r="J96" s="3"/>
-      <c r="K96" s="49"/>
+      <c r="K96" s="50"/>
     </row>
     <row r="97" spans="1:11">
       <c r="A97" s="3"/>
@@ -4404,7 +4450,7 @@
       <c r="H97" s="3"/>
       <c r="I97" s="3"/>
       <c r="J97" s="3"/>
-      <c r="K97" s="49"/>
+      <c r="K97" s="50"/>
     </row>
     <row r="98" spans="1:11">
       <c r="A98" s="3"/>
@@ -4416,7 +4462,7 @@
       <c r="H98" s="3"/>
       <c r="I98" s="3"/>
       <c r="J98" s="3"/>
-      <c r="K98" s="49"/>
+      <c r="K98" s="50"/>
     </row>
     <row r="99" spans="1:11">
       <c r="A99" s="3"/>
@@ -4428,7 +4474,7 @@
       <c r="H99" s="3"/>
       <c r="I99" s="3"/>
       <c r="J99" s="3"/>
-      <c r="K99" s="49"/>
+      <c r="K99" s="50"/>
     </row>
     <row r="100" spans="1:11">
       <c r="A100" s="3"/>
@@ -4440,7 +4486,7 @@
       <c r="H100" s="3"/>
       <c r="I100" s="3"/>
       <c r="J100" s="3"/>
-      <c r="K100" s="49"/>
+      <c r="K100" s="50"/>
     </row>
     <row r="101" spans="1:11">
       <c r="A101" s="3"/>
@@ -4452,7 +4498,7 @@
       <c r="H101" s="3"/>
       <c r="I101" s="3"/>
       <c r="J101" s="3"/>
-      <c r="K101" s="49"/>
+      <c r="K101" s="50"/>
     </row>
     <row r="102" spans="1:11">
       <c r="A102" s="3"/>
@@ -4464,7 +4510,7 @@
       <c r="H102" s="3"/>
       <c r="I102" s="3"/>
       <c r="J102" s="3"/>
-      <c r="K102" s="49"/>
+      <c r="K102" s="50"/>
     </row>
     <row r="103" spans="1:11">
       <c r="A103" s="3"/>
@@ -4476,7 +4522,7 @@
       <c r="H103" s="3"/>
       <c r="I103" s="3"/>
       <c r="J103" s="3"/>
-      <c r="K103" s="49"/>
+      <c r="K103" s="50"/>
     </row>
     <row r="104" spans="1:11">
       <c r="A104" s="3"/>
@@ -4488,7 +4534,7 @@
       <c r="H104" s="3"/>
       <c r="I104" s="3"/>
       <c r="J104" s="3"/>
-      <c r="K104" s="49"/>
+      <c r="K104" s="50"/>
     </row>
     <row r="105" spans="1:11">
       <c r="A105" s="3"/>
@@ -4500,7 +4546,7 @@
       <c r="H105" s="3"/>
       <c r="I105" s="3"/>
       <c r="J105" s="3"/>
-      <c r="K105" s="49"/>
+      <c r="K105" s="50"/>
     </row>
     <row r="106" spans="1:11">
       <c r="A106" s="3"/>
@@ -4512,7 +4558,7 @@
       <c r="H106" s="3"/>
       <c r="I106" s="3"/>
       <c r="J106" s="3"/>
-      <c r="K106" s="49"/>
+      <c r="K106" s="50"/>
     </row>
     <row r="107" spans="1:11">
       <c r="A107" s="3"/>
@@ -4524,7 +4570,7 @@
       <c r="H107" s="3"/>
       <c r="I107" s="3"/>
       <c r="J107" s="3"/>
-      <c r="K107" s="49"/>
+      <c r="K107" s="50"/>
     </row>
     <row r="108" spans="1:11">
       <c r="A108" s="3"/>
@@ -4536,7 +4582,7 @@
       <c r="H108" s="3"/>
       <c r="I108" s="3"/>
       <c r="J108" s="3"/>
-      <c r="K108" s="49"/>
+      <c r="K108" s="50"/>
     </row>
     <row r="109" spans="1:11">
       <c r="A109" s="3"/>
@@ -4548,7 +4594,7 @@
       <c r="H109" s="3"/>
       <c r="I109" s="3"/>
       <c r="J109" s="3"/>
-      <c r="K109" s="49"/>
+      <c r="K109" s="50"/>
     </row>
     <row r="110" spans="1:11">
       <c r="A110" s="3"/>
@@ -4560,7 +4606,7 @@
       <c r="H110" s="3"/>
       <c r="I110" s="3"/>
       <c r="J110" s="3"/>
-      <c r="K110" s="49"/>
+      <c r="K110" s="50"/>
     </row>
     <row r="111" spans="1:11">
       <c r="A111" s="3"/>
@@ -4572,7 +4618,7 @@
       <c r="H111" s="3"/>
       <c r="I111" s="3"/>
       <c r="J111" s="3"/>
-      <c r="K111" s="49"/>
+      <c r="K111" s="50"/>
     </row>
     <row r="112" spans="1:11">
       <c r="A112" s="3"/>
@@ -4584,7 +4630,7 @@
       <c r="H112" s="3"/>
       <c r="I112" s="3"/>
       <c r="J112" s="3"/>
-      <c r="K112" s="49"/>
+      <c r="K112" s="50"/>
     </row>
     <row r="113" spans="1:11">
       <c r="A113" s="3"/>
@@ -4596,7 +4642,7 @@
       <c r="H113" s="3"/>
       <c r="I113" s="3"/>
       <c r="J113" s="3"/>
-      <c r="K113" s="49"/>
+      <c r="K113" s="50"/>
     </row>
     <row r="114" spans="1:11">
       <c r="A114" s="3"/>
@@ -4608,7 +4654,7 @@
       <c r="H114" s="3"/>
       <c r="I114" s="3"/>
       <c r="J114" s="3"/>
-      <c r="K114" s="49"/>
+      <c r="K114" s="50"/>
     </row>
     <row r="115" spans="1:11">
       <c r="A115" s="3"/>
@@ -4620,7 +4666,7 @@
       <c r="H115" s="3"/>
       <c r="I115" s="3"/>
       <c r="J115" s="3"/>
-      <c r="K115" s="49"/>
+      <c r="K115" s="50"/>
     </row>
     <row r="116" spans="1:11">
       <c r="A116" s="3"/>
@@ -4632,7 +4678,7 @@
       <c r="H116" s="3"/>
       <c r="I116" s="3"/>
       <c r="J116" s="3"/>
-      <c r="K116" s="49"/>
+      <c r="K116" s="50"/>
     </row>
     <row r="117" spans="1:11">
       <c r="A117" s="3"/>
@@ -4644,7 +4690,7 @@
       <c r="H117" s="3"/>
       <c r="I117" s="3"/>
       <c r="J117" s="3"/>
-      <c r="K117" s="49"/>
+      <c r="K117" s="50"/>
     </row>
     <row r="118" spans="1:11">
       <c r="A118" s="3"/>
@@ -4656,7 +4702,7 @@
       <c r="H118" s="3"/>
       <c r="I118" s="3"/>
       <c r="J118" s="3"/>
-      <c r="K118" s="49"/>
+      <c r="K118" s="50"/>
     </row>
     <row r="119" spans="1:11">
       <c r="A119" s="3"/>
@@ -4668,7 +4714,7 @@
       <c r="H119" s="3"/>
       <c r="I119" s="3"/>
       <c r="J119" s="3"/>
-      <c r="K119" s="49"/>
+      <c r="K119" s="50"/>
     </row>
     <row r="120" spans="1:11">
       <c r="A120" s="3"/>
@@ -4680,7 +4726,7 @@
       <c r="H120" s="3"/>
       <c r="I120" s="3"/>
       <c r="J120" s="3"/>
-      <c r="K120" s="49"/>
+      <c r="K120" s="50"/>
     </row>
     <row r="121" spans="1:11">
       <c r="A121" s="3"/>
@@ -4692,7 +4738,7 @@
       <c r="H121" s="3"/>
       <c r="I121" s="3"/>
       <c r="J121" s="3"/>
-      <c r="K121" s="49"/>
+      <c r="K121" s="50"/>
     </row>
     <row r="122" spans="1:11">
       <c r="A122" s="3"/>
@@ -4704,7 +4750,7 @@
       <c r="H122" s="3"/>
       <c r="I122" s="3"/>
       <c r="J122" s="3"/>
-      <c r="K122" s="49"/>
+      <c r="K122" s="50"/>
     </row>
     <row r="123" spans="1:11">
       <c r="A123" s="3"/>
@@ -4716,7 +4762,7 @@
       <c r="H123" s="3"/>
       <c r="I123" s="3"/>
       <c r="J123" s="3"/>
-      <c r="K123" s="49"/>
+      <c r="K123" s="50"/>
     </row>
     <row r="124" spans="1:11">
       <c r="A124" s="3"/>
@@ -4728,7 +4774,7 @@
       <c r="H124" s="3"/>
       <c r="I124" s="3"/>
       <c r="J124" s="3"/>
-      <c r="K124" s="49"/>
+      <c r="K124" s="50"/>
     </row>
     <row r="125" spans="1:11">
       <c r="A125" s="3"/>
@@ -4740,7 +4786,7 @@
       <c r="H125" s="3"/>
       <c r="I125" s="3"/>
       <c r="J125" s="3"/>
-      <c r="K125" s="49"/>
+      <c r="K125" s="50"/>
     </row>
     <row r="126" spans="1:11">
       <c r="A126" s="3"/>
@@ -4752,7 +4798,7 @@
       <c r="H126" s="3"/>
       <c r="I126" s="3"/>
       <c r="J126" s="3"/>
-      <c r="K126" s="49"/>
+      <c r="K126" s="50"/>
     </row>
     <row r="127" spans="1:11">
       <c r="A127" s="3"/>
@@ -4764,7 +4810,7 @@
       <c r="H127" s="3"/>
       <c r="I127" s="3"/>
       <c r="J127" s="3"/>
-      <c r="K127" s="49"/>
+      <c r="K127" s="50"/>
     </row>
     <row r="128" spans="1:11">
       <c r="A128" s="3"/>
@@ -4776,7 +4822,7 @@
       <c r="H128" s="3"/>
       <c r="I128" s="3"/>
       <c r="J128" s="3"/>
-      <c r="K128" s="49"/>
+      <c r="K128" s="50"/>
     </row>
     <row r="129" spans="1:11">
       <c r="A129" s="3"/>
@@ -4788,7 +4834,7 @@
       <c r="H129" s="3"/>
       <c r="I129" s="3"/>
       <c r="J129" s="3"/>
-      <c r="K129" s="49"/>
+      <c r="K129" s="50"/>
     </row>
     <row r="130" spans="1:11">
       <c r="A130" s="3"/>
@@ -4800,7 +4846,7 @@
       <c r="H130" s="3"/>
       <c r="I130" s="3"/>
       <c r="J130" s="3"/>
-      <c r="K130" s="49"/>
+      <c r="K130" s="50"/>
     </row>
     <row r="131" spans="1:11">
       <c r="A131" s="3"/>
@@ -4812,7 +4858,7 @@
       <c r="H131" s="3"/>
       <c r="I131" s="3"/>
       <c r="J131" s="3"/>
-      <c r="K131" s="49"/>
+      <c r="K131" s="50"/>
     </row>
     <row r="132" spans="1:11">
       <c r="A132" s="3"/>
@@ -4824,7 +4870,7 @@
       <c r="H132" s="3"/>
       <c r="I132" s="3"/>
       <c r="J132" s="3"/>
-      <c r="K132" s="49"/>
+      <c r="K132" s="50"/>
     </row>
     <row r="133" spans="1:11">
       <c r="A133" s="3"/>
@@ -4836,7 +4882,7 @@
       <c r="H133" s="3"/>
       <c r="I133" s="3"/>
       <c r="J133" s="3"/>
-      <c r="K133" s="49"/>
+      <c r="K133" s="50"/>
     </row>
     <row r="134" spans="1:11">
       <c r="A134" s="3"/>
@@ -4848,7 +4894,7 @@
       <c r="H134" s="3"/>
       <c r="I134" s="3"/>
       <c r="J134" s="3"/>
-      <c r="K134" s="49"/>
+      <c r="K134" s="50"/>
     </row>
     <row r="135" spans="1:11">
       <c r="A135" s="3"/>
@@ -4860,7 +4906,7 @@
       <c r="H135" s="3"/>
       <c r="I135" s="3"/>
       <c r="J135" s="3"/>
-      <c r="K135" s="49"/>
+      <c r="K135" s="50"/>
     </row>
     <row r="136" spans="1:11">
       <c r="A136" s="3"/>
@@ -4872,7 +4918,7 @@
       <c r="H136" s="3"/>
       <c r="I136" s="3"/>
       <c r="J136" s="3"/>
-      <c r="K136" s="49"/>
+      <c r="K136" s="50"/>
     </row>
     <row r="137" spans="1:11">
       <c r="A137" s="3"/>
@@ -4884,7 +4930,7 @@
       <c r="H137" s="3"/>
       <c r="I137" s="3"/>
       <c r="J137" s="3"/>
-      <c r="K137" s="49"/>
+      <c r="K137" s="50"/>
     </row>
     <row r="138" spans="1:11">
       <c r="A138" s="3"/>
@@ -4896,7 +4942,7 @@
       <c r="H138" s="3"/>
       <c r="I138" s="3"/>
       <c r="J138" s="3"/>
-      <c r="K138" s="49"/>
+      <c r="K138" s="50"/>
     </row>
     <row r="139" spans="1:11">
       <c r="A139" s="3"/>
@@ -4908,7 +4954,7 @@
       <c r="H139" s="3"/>
       <c r="I139" s="3"/>
       <c r="J139" s="3"/>
-      <c r="K139" s="49"/>
+      <c r="K139" s="50"/>
     </row>
     <row r="140" spans="1:11">
       <c r="A140" s="3"/>
@@ -4920,7 +4966,7 @@
       <c r="H140" s="3"/>
       <c r="I140" s="3"/>
       <c r="J140" s="3"/>
-      <c r="K140" s="49"/>
+      <c r="K140" s="50"/>
     </row>
     <row r="141" spans="1:11">
       <c r="A141" s="3"/>
@@ -4932,7 +4978,7 @@
       <c r="H141" s="3"/>
       <c r="I141" s="3"/>
       <c r="J141" s="3"/>
-      <c r="K141" s="49"/>
+      <c r="K141" s="50"/>
     </row>
     <row r="142" spans="1:11">
       <c r="A142" s="3"/>
@@ -4944,7 +4990,7 @@
       <c r="H142" s="3"/>
       <c r="I142" s="3"/>
       <c r="J142" s="3"/>
-      <c r="K142" s="49"/>
+      <c r="K142" s="50"/>
     </row>
     <row r="143" spans="1:11">
       <c r="A143" s="3"/>
@@ -4956,7 +5002,7 @@
       <c r="H143" s="3"/>
       <c r="I143" s="3"/>
       <c r="J143" s="3"/>
-      <c r="K143" s="49"/>
+      <c r="K143" s="50"/>
     </row>
     <row r="144" spans="1:11">
       <c r="A144" s="3"/>
@@ -4968,7 +5014,7 @@
       <c r="H144" s="3"/>
       <c r="I144" s="3"/>
       <c r="J144" s="3"/>
-      <c r="K144" s="49"/>
+      <c r="K144" s="50"/>
     </row>
     <row r="145" spans="1:11">
       <c r="A145" s="3"/>
@@ -4980,7 +5026,7 @@
       <c r="H145" s="3"/>
       <c r="I145" s="3"/>
       <c r="J145" s="3"/>
-      <c r="K145" s="49"/>
+      <c r="K145" s="50"/>
     </row>
     <row r="146" spans="1:11">
       <c r="A146" s="3"/>
@@ -4992,7 +5038,7 @@
       <c r="H146" s="3"/>
       <c r="I146" s="3"/>
       <c r="J146" s="3"/>
-      <c r="K146" s="49"/>
+      <c r="K146" s="50"/>
     </row>
     <row r="147" spans="1:11">
       <c r="A147" s="3"/>
@@ -5004,7 +5050,7 @@
       <c r="H147" s="3"/>
       <c r="I147" s="3"/>
       <c r="J147" s="3"/>
-      <c r="K147" s="49"/>
+      <c r="K147" s="50"/>
     </row>
     <row r="148" spans="1:11">
       <c r="A148" s="3"/>
@@ -5016,7 +5062,7 @@
       <c r="H148" s="3"/>
       <c r="I148" s="3"/>
       <c r="J148" s="3"/>
-      <c r="K148" s="49"/>
+      <c r="K148" s="50"/>
     </row>
     <row r="149" spans="1:11">
       <c r="A149" s="3"/>
@@ -5028,7 +5074,7 @@
       <c r="H149" s="3"/>
       <c r="I149" s="3"/>
       <c r="J149" s="3"/>
-      <c r="K149" s="49"/>
+      <c r="K149" s="50"/>
     </row>
     <row r="150" spans="1:11">
       <c r="A150" s="3"/>
@@ -5040,7 +5086,7 @@
       <c r="H150" s="3"/>
       <c r="I150" s="3"/>
       <c r="J150" s="3"/>
-      <c r="K150" s="49"/>
+      <c r="K150" s="50"/>
     </row>
     <row r="151" spans="1:11">
       <c r="A151" s="3"/>
@@ -5052,7 +5098,7 @@
       <c r="H151" s="3"/>
       <c r="I151" s="3"/>
       <c r="J151" s="3"/>
-      <c r="K151" s="49"/>
+      <c r="K151" s="50"/>
     </row>
     <row r="152" spans="1:11">
       <c r="A152" s="3"/>
@@ -5064,7 +5110,7 @@
       <c r="H152" s="3"/>
       <c r="I152" s="3"/>
       <c r="J152" s="3"/>
-      <c r="K152" s="49"/>
+      <c r="K152" s="50"/>
     </row>
     <row r="153" spans="1:11">
       <c r="A153" s="3"/>
@@ -5076,7 +5122,7 @@
       <c r="H153" s="3"/>
       <c r="I153" s="3"/>
       <c r="J153" s="3"/>
-      <c r="K153" s="49"/>
+      <c r="K153" s="50"/>
     </row>
     <row r="154" spans="1:11">
       <c r="A154" s="3"/>
@@ -5088,7 +5134,7 @@
       <c r="H154" s="3"/>
       <c r="I154" s="3"/>
       <c r="J154" s="3"/>
-      <c r="K154" s="49"/>
+      <c r="K154" s="50"/>
     </row>
     <row r="155" spans="1:11">
       <c r="A155" s="3"/>
@@ -5100,7 +5146,7 @@
       <c r="H155" s="3"/>
       <c r="I155" s="3"/>
       <c r="J155" s="3"/>
-      <c r="K155" s="49"/>
+      <c r="K155" s="50"/>
     </row>
     <row r="156" spans="1:11">
       <c r="A156" s="3"/>
@@ -5112,7 +5158,7 @@
       <c r="H156" s="3"/>
       <c r="I156" s="3"/>
       <c r="J156" s="3"/>
-      <c r="K156" s="49"/>
+      <c r="K156" s="50"/>
     </row>
     <row r="157" spans="1:11">
       <c r="A157" s="3"/>
@@ -5124,7 +5170,7 @@
       <c r="H157" s="3"/>
       <c r="I157" s="3"/>
       <c r="J157" s="3"/>
-      <c r="K157" s="49"/>
+      <c r="K157" s="50"/>
     </row>
     <row r="158" spans="1:11">
       <c r="A158" s="3"/>
@@ -5136,7 +5182,7 @@
       <c r="H158" s="3"/>
       <c r="I158" s="3"/>
       <c r="J158" s="3"/>
-      <c r="K158" s="49"/>
+      <c r="K158" s="50"/>
     </row>
     <row r="159" spans="1:11">
       <c r="A159" s="3"/>
@@ -5148,7 +5194,7 @@
       <c r="H159" s="3"/>
       <c r="I159" s="3"/>
       <c r="J159" s="3"/>
-      <c r="K159" s="49"/>
+      <c r="K159" s="50"/>
     </row>
     <row r="160" spans="1:11">
       <c r="A160" s="3"/>
@@ -5160,7 +5206,7 @@
       <c r="H160" s="3"/>
       <c r="I160" s="3"/>
       <c r="J160" s="3"/>
-      <c r="K160" s="49"/>
+      <c r="K160" s="50"/>
     </row>
     <row r="161" spans="1:11">
       <c r="A161" s="3"/>
@@ -5172,7 +5218,7 @@
       <c r="H161" s="3"/>
       <c r="I161" s="3"/>
       <c r="J161" s="3"/>
-      <c r="K161" s="49"/>
+      <c r="K161" s="50"/>
     </row>
     <row r="162" spans="1:11">
       <c r="A162" s="3"/>
@@ -5184,7 +5230,7 @@
       <c r="H162" s="3"/>
       <c r="I162" s="3"/>
       <c r="J162" s="3"/>
-      <c r="K162" s="49"/>
+      <c r="K162" s="50"/>
     </row>
     <row r="163" spans="1:11">
       <c r="A163" s="3"/>
@@ -5196,7 +5242,7 @@
       <c r="H163" s="3"/>
       <c r="I163" s="3"/>
       <c r="J163" s="3"/>
-      <c r="K163" s="49"/>
+      <c r="K163" s="50"/>
     </row>
     <row r="164" spans="1:11">
       <c r="A164" s="3"/>
@@ -5208,7 +5254,7 @@
       <c r="H164" s="3"/>
       <c r="I164" s="3"/>
       <c r="J164" s="3"/>
-      <c r="K164" s="49"/>
+      <c r="K164" s="50"/>
     </row>
     <row r="165" spans="1:11">
       <c r="A165" s="3"/>
@@ -5220,7 +5266,7 @@
       <c r="H165" s="3"/>
       <c r="I165" s="3"/>
       <c r="J165" s="3"/>
-      <c r="K165" s="49"/>
+      <c r="K165" s="50"/>
     </row>
     <row r="166" spans="1:11">
       <c r="A166" s="3"/>
@@ -5232,7 +5278,7 @@
       <c r="H166" s="3"/>
       <c r="I166" s="3"/>
       <c r="J166" s="3"/>
-      <c r="K166" s="49"/>
+      <c r="K166" s="50"/>
     </row>
     <row r="167" spans="1:11">
       <c r="A167" s="3"/>
@@ -5244,7 +5290,7 @@
       <c r="H167" s="3"/>
       <c r="I167" s="3"/>
       <c r="J167" s="3"/>
-      <c r="K167" s="49"/>
+      <c r="K167" s="50"/>
     </row>
     <row r="168" spans="1:11">
       <c r="A168" s="3"/>
@@ -5256,7 +5302,7 @@
       <c r="H168" s="3"/>
       <c r="I168" s="3"/>
       <c r="J168" s="3"/>
-      <c r="K168" s="49"/>
+      <c r="K168" s="50"/>
     </row>
     <row r="169" spans="1:11">
       <c r="A169" s="3"/>
@@ -5268,7 +5314,7 @@
       <c r="H169" s="3"/>
       <c r="I169" s="3"/>
       <c r="J169" s="3"/>
-      <c r="K169" s="49"/>
+      <c r="K169" s="50"/>
     </row>
     <row r="170" spans="1:11">
       <c r="A170" s="3"/>
@@ -5280,7 +5326,7 @@
       <c r="H170" s="3"/>
       <c r="I170" s="3"/>
       <c r="J170" s="3"/>
-      <c r="K170" s="49"/>
+      <c r="K170" s="50"/>
     </row>
     <row r="171" spans="1:11">
       <c r="A171" s="3"/>
@@ -5292,7 +5338,7 @@
       <c r="H171" s="3"/>
       <c r="I171" s="3"/>
       <c r="J171" s="3"/>
-      <c r="K171" s="49"/>
+      <c r="K171" s="50"/>
     </row>
     <row r="172" spans="1:11">
       <c r="A172" s="3"/>
@@ -5304,7 +5350,7 @@
       <c r="H172" s="3"/>
       <c r="I172" s="3"/>
       <c r="J172" s="3"/>
-      <c r="K172" s="49"/>
+      <c r="K172" s="50"/>
     </row>
     <row r="173" spans="1:11">
       <c r="A173" s="3"/>
@@ -5316,7 +5362,7 @@
       <c r="H173" s="3"/>
       <c r="I173" s="3"/>
       <c r="J173" s="3"/>
-      <c r="K173" s="49"/>
+      <c r="K173" s="50"/>
     </row>
     <row r="174" spans="1:11">
       <c r="A174" s="3"/>
@@ -5328,7 +5374,7 @@
       <c r="H174" s="3"/>
       <c r="I174" s="3"/>
       <c r="J174" s="3"/>
-      <c r="K174" s="49"/>
+      <c r="K174" s="50"/>
     </row>
     <row r="175" spans="1:11">
       <c r="A175" s="3"/>
@@ -5340,7 +5386,7 @@
       <c r="H175" s="3"/>
       <c r="I175" s="3"/>
       <c r="J175" s="3"/>
-      <c r="K175" s="49"/>
+      <c r="K175" s="50"/>
     </row>
     <row r="176" spans="1:11">
       <c r="A176" s="3"/>
@@ -5352,7 +5398,7 @@
       <c r="H176" s="3"/>
       <c r="I176" s="3"/>
       <c r="J176" s="3"/>
-      <c r="K176" s="49"/>
+      <c r="K176" s="50"/>
     </row>
     <row r="177" spans="1:11">
       <c r="A177" s="3"/>
@@ -5364,7 +5410,7 @@
       <c r="H177" s="3"/>
       <c r="I177" s="3"/>
       <c r="J177" s="3"/>
-      <c r="K177" s="49"/>
+      <c r="K177" s="50"/>
     </row>
     <row r="178" spans="1:11">
       <c r="A178" s="3"/>
@@ -5376,7 +5422,7 @@
       <c r="H178" s="3"/>
       <c r="I178" s="3"/>
       <c r="J178" s="3"/>
-      <c r="K178" s="49"/>
+      <c r="K178" s="50"/>
     </row>
     <row r="179" spans="1:11">
       <c r="A179" s="3"/>
@@ -5388,7 +5434,7 @@
       <c r="H179" s="3"/>
       <c r="I179" s="3"/>
       <c r="J179" s="3"/>
-      <c r="K179" s="49"/>
+      <c r="K179" s="50"/>
     </row>
     <row r="180" spans="1:11">
       <c r="A180" s="3"/>
@@ -5400,7 +5446,7 @@
       <c r="H180" s="3"/>
       <c r="I180" s="3"/>
       <c r="J180" s="3"/>
-      <c r="K180" s="49"/>
+      <c r="K180" s="50"/>
     </row>
     <row r="181" spans="1:11">
       <c r="A181" s="3"/>
@@ -5412,7 +5458,7 @@
       <c r="H181" s="3"/>
       <c r="I181" s="3"/>
       <c r="J181" s="3"/>
-      <c r="K181" s="49"/>
+      <c r="K181" s="50"/>
     </row>
     <row r="182" spans="1:11">
       <c r="A182" s="3"/>
@@ -5424,7 +5470,7 @@
       <c r="H182" s="3"/>
       <c r="I182" s="3"/>
       <c r="J182" s="3"/>
-      <c r="K182" s="49"/>
+      <c r="K182" s="50"/>
     </row>
     <row r="183" spans="1:11">
       <c r="A183" s="3"/>
@@ -5436,7 +5482,7 @@
       <c r="H183" s="3"/>
       <c r="I183" s="3"/>
       <c r="J183" s="3"/>
-      <c r="K183" s="49"/>
+      <c r="K183" s="50"/>
     </row>
     <row r="184" spans="1:11">
       <c r="A184" s="3"/>
@@ -5448,7 +5494,7 @@
       <c r="H184" s="3"/>
       <c r="I184" s="3"/>
       <c r="J184" s="3"/>
-      <c r="K184" s="49"/>
+      <c r="K184" s="50"/>
     </row>
     <row r="185" spans="1:11">
       <c r="A185" s="3"/>
@@ -5460,7 +5506,7 @@
       <c r="H185" s="3"/>
       <c r="I185" s="3"/>
       <c r="J185" s="3"/>
-      <c r="K185" s="49"/>
+      <c r="K185" s="50"/>
     </row>
     <row r="186" spans="1:11">
       <c r="A186" s="3"/>
@@ -5472,7 +5518,7 @@
       <c r="H186" s="3"/>
       <c r="I186" s="3"/>
       <c r="J186" s="3"/>
-      <c r="K186" s="49"/>
+      <c r="K186" s="50"/>
     </row>
     <row r="187" spans="1:11">
       <c r="A187" s="3"/>
@@ -5484,7 +5530,7 @@
       <c r="H187" s="3"/>
       <c r="I187" s="3"/>
       <c r="J187" s="3"/>
-      <c r="K187" s="49"/>
+      <c r="K187" s="50"/>
     </row>
     <row r="188" spans="1:11">
       <c r="A188" s="3"/>
@@ -5496,7 +5542,7 @@
       <c r="H188" s="3"/>
       <c r="I188" s="3"/>
       <c r="J188" s="3"/>
-      <c r="K188" s="49"/>
+      <c r="K188" s="50"/>
     </row>
     <row r="189" spans="1:11">
       <c r="A189" s="3"/>
@@ -5508,7 +5554,7 @@
       <c r="H189" s="3"/>
       <c r="I189" s="3"/>
       <c r="J189" s="3"/>
-      <c r="K189" s="49"/>
+      <c r="K189" s="50"/>
     </row>
     <row r="190" spans="1:11">
       <c r="A190" s="3"/>
@@ -5520,7 +5566,7 @@
       <c r="H190" s="3"/>
       <c r="I190" s="3"/>
       <c r="J190" s="3"/>
-      <c r="K190" s="49"/>
+      <c r="K190" s="50"/>
     </row>
     <row r="191" spans="1:11">
       <c r="A191" s="3"/>
@@ -5532,7 +5578,7 @@
       <c r="H191" s="3"/>
       <c r="I191" s="3"/>
       <c r="J191" s="3"/>
-      <c r="K191" s="49"/>
+      <c r="K191" s="50"/>
     </row>
     <row r="192" spans="1:11">
       <c r="A192" s="3"/>
@@ -5544,7 +5590,7 @@
       <c r="H192" s="3"/>
       <c r="I192" s="3"/>
       <c r="J192" s="3"/>
-      <c r="K192" s="49"/>
+      <c r="K192" s="50"/>
     </row>
     <row r="193" spans="1:11">
       <c r="A193" s="3"/>
@@ -5556,7 +5602,7 @@
       <c r="H193" s="3"/>
       <c r="I193" s="3"/>
       <c r="J193" s="3"/>
-      <c r="K193" s="49"/>
+      <c r="K193" s="50"/>
     </row>
     <row r="194" spans="1:11">
       <c r="A194" s="3"/>
@@ -5568,7 +5614,7 @@
       <c r="H194" s="3"/>
       <c r="I194" s="3"/>
       <c r="J194" s="3"/>
-      <c r="K194" s="49"/>
+      <c r="K194" s="50"/>
     </row>
     <row r="195" spans="1:11">
       <c r="A195" s="3"/>
@@ -5580,7 +5626,7 @@
       <c r="H195" s="3"/>
       <c r="I195" s="3"/>
       <c r="J195" s="3"/>
-      <c r="K195" s="49"/>
+      <c r="K195" s="50"/>
     </row>
     <row r="196" spans="1:11">
       <c r="A196" s="3"/>
@@ -5592,7 +5638,7 @@
       <c r="H196" s="3"/>
       <c r="I196" s="3"/>
       <c r="J196" s="3"/>
-      <c r="K196" s="49"/>
+      <c r="K196" s="50"/>
     </row>
     <row r="197" spans="1:11">
       <c r="A197" s="3"/>
@@ -5604,7 +5650,7 @@
       <c r="H197" s="3"/>
       <c r="I197" s="3"/>
       <c r="J197" s="3"/>
-      <c r="K197" s="49"/>
+      <c r="K197" s="50"/>
     </row>
     <row r="198" spans="1:11">
       <c r="A198" s="3"/>
@@ -5616,7 +5662,7 @@
       <c r="H198" s="3"/>
       <c r="I198" s="3"/>
       <c r="J198" s="3"/>
-      <c r="K198" s="49"/>
+      <c r="K198" s="50"/>
     </row>
     <row r="199" spans="1:11">
       <c r="A199" s="3"/>
@@ -5628,7 +5674,7 @@
       <c r="H199" s="3"/>
       <c r="I199" s="3"/>
       <c r="J199" s="3"/>
-      <c r="K199" s="49"/>
+      <c r="K199" s="50"/>
     </row>
     <row r="200" spans="1:11">
       <c r="A200" s="3"/>
@@ -5640,7 +5686,7 @@
       <c r="H200" s="3"/>
       <c r="I200" s="3"/>
       <c r="J200" s="3"/>
-      <c r="K200" s="49"/>
+      <c r="K200" s="50"/>
     </row>
     <row r="201" spans="1:11">
       <c r="A201" s="3"/>
@@ -5652,7 +5698,7 @@
       <c r="H201" s="3"/>
       <c r="I201" s="3"/>
       <c r="J201" s="3"/>
-      <c r="K201" s="49"/>
+      <c r="K201" s="50"/>
     </row>
     <row r="202" spans="1:11">
       <c r="A202" s="3"/>
@@ -5664,7 +5710,7 @@
       <c r="H202" s="3"/>
       <c r="I202" s="3"/>
       <c r="J202" s="3"/>
-      <c r="K202" s="49"/>
+      <c r="K202" s="50"/>
     </row>
     <row r="203" spans="1:11">
       <c r="A203" s="3"/>
@@ -5676,7 +5722,7 @@
       <c r="H203" s="3"/>
       <c r="I203" s="3"/>
       <c r="J203" s="3"/>
-      <c r="K203" s="49"/>
+      <c r="K203" s="50"/>
     </row>
     <row r="204" spans="1:11">
       <c r="A204" s="3"/>
@@ -5688,7 +5734,7 @@
       <c r="H204" s="3"/>
       <c r="I204" s="3"/>
       <c r="J204" s="3"/>
-      <c r="K204" s="49"/>
+      <c r="K204" s="50"/>
     </row>
     <row r="205" spans="1:11">
       <c r="A205" s="3"/>
@@ -5700,7 +5746,7 @@
       <c r="H205" s="3"/>
       <c r="I205" s="3"/>
       <c r="J205" s="3"/>
-      <c r="K205" s="49"/>
+      <c r="K205" s="50"/>
     </row>
     <row r="206" spans="1:11">
       <c r="A206" s="3"/>
@@ -5712,7 +5758,7 @@
       <c r="H206" s="3"/>
       <c r="I206" s="3"/>
       <c r="J206" s="3"/>
-      <c r="K206" s="49"/>
+      <c r="K206" s="50"/>
     </row>
     <row r="207" spans="1:11">
       <c r="A207" s="3"/>
@@ -5724,7 +5770,7 @@
       <c r="H207" s="3"/>
       <c r="I207" s="3"/>
       <c r="J207" s="3"/>
-      <c r="K207" s="49"/>
+      <c r="K207" s="50"/>
     </row>
     <row r="208" spans="1:11">
       <c r="A208" s="3"/>
@@ -5736,7 +5782,7 @@
       <c r="H208" s="3"/>
       <c r="I208" s="3"/>
       <c r="J208" s="3"/>
-      <c r="K208" s="49"/>
+      <c r="K208" s="50"/>
     </row>
     <row r="209" spans="1:11">
       <c r="A209" s="3"/>
@@ -5748,7 +5794,7 @@
       <c r="H209" s="3"/>
       <c r="I209" s="3"/>
       <c r="J209" s="3"/>
-      <c r="K209" s="49"/>
+      <c r="K209" s="50"/>
     </row>
     <row r="210" spans="1:11">
       <c r="A210" s="3"/>
@@ -5760,7 +5806,7 @@
       <c r="H210" s="3"/>
       <c r="I210" s="3"/>
       <c r="J210" s="3"/>
-      <c r="K210" s="49"/>
+      <c r="K210" s="50"/>
     </row>
     <row r="211" spans="1:11">
       <c r="A211" s="3"/>
@@ -5772,7 +5818,7 @@
       <c r="H211" s="3"/>
       <c r="I211" s="3"/>
       <c r="J211" s="3"/>
-      <c r="K211" s="49"/>
+      <c r="K211" s="50"/>
     </row>
     <row r="212" spans="1:11">
       <c r="A212" s="3"/>
@@ -5784,7 +5830,7 @@
       <c r="H212" s="3"/>
       <c r="I212" s="3"/>
       <c r="J212" s="3"/>
-      <c r="K212" s="49"/>
+      <c r="K212" s="50"/>
     </row>
     <row r="213" spans="1:11">
       <c r="A213" s="3"/>
@@ -5796,7 +5842,7 @@
       <c r="H213" s="3"/>
       <c r="I213" s="3"/>
       <c r="J213" s="3"/>
-      <c r="K213" s="49"/>
+      <c r="K213" s="50"/>
     </row>
     <row r="214" spans="1:11">
       <c r="A214" s="3"/>
@@ -5808,7 +5854,7 @@
       <c r="H214" s="3"/>
       <c r="I214" s="3"/>
       <c r="J214" s="3"/>
-      <c r="K214" s="49"/>
+      <c r="K214" s="50"/>
     </row>
     <row r="215" spans="1:11">
       <c r="A215" s="3"/>
@@ -5820,7 +5866,7 @@
       <c r="H215" s="3"/>
       <c r="I215" s="3"/>
       <c r="J215" s="3"/>
-      <c r="K215" s="49"/>
+      <c r="K215" s="50"/>
     </row>
     <row r="216" spans="1:11">
       <c r="A216" s="3"/>
@@ -5832,7 +5878,7 @@
       <c r="H216" s="3"/>
       <c r="I216" s="3"/>
       <c r="J216" s="3"/>
-      <c r="K216" s="49"/>
+      <c r="K216" s="50"/>
     </row>
     <row r="217" spans="1:11">
       <c r="A217" s="3"/>
@@ -5844,7 +5890,7 @@
       <c r="H217" s="3"/>
       <c r="I217" s="3"/>
       <c r="J217" s="3"/>
-      <c r="K217" s="49"/>
+      <c r="K217" s="50"/>
     </row>
     <row r="218" spans="1:11">
       <c r="A218" s="3"/>
@@ -5856,7 +5902,7 @@
       <c r="H218" s="3"/>
       <c r="I218" s="3"/>
       <c r="J218" s="3"/>
-      <c r="K218" s="49"/>
+      <c r="K218" s="50"/>
     </row>
     <row r="219" spans="1:11">
       <c r="A219" s="3"/>
@@ -5868,7 +5914,7 @@
       <c r="H219" s="3"/>
       <c r="I219" s="3"/>
       <c r="J219" s="3"/>
-      <c r="K219" s="49"/>
+      <c r="K219" s="50"/>
     </row>
     <row r="220" spans="1:11">
       <c r="A220" s="3"/>
@@ -5880,7 +5926,7 @@
       <c r="H220" s="3"/>
       <c r="I220" s="3"/>
       <c r="J220" s="3"/>
-      <c r="K220" s="49"/>
+      <c r="K220" s="50"/>
     </row>
     <row r="221" spans="1:11">
       <c r="A221" s="3"/>
@@ -5892,7 +5938,7 @@
       <c r="H221" s="3"/>
       <c r="I221" s="3"/>
       <c r="J221" s="3"/>
-      <c r="K221" s="49"/>
+      <c r="K221" s="50"/>
     </row>
     <row r="222" spans="1:11">
       <c r="A222" s="3"/>
@@ -5904,7 +5950,7 @@
       <c r="H222" s="3"/>
       <c r="I222" s="3"/>
       <c r="J222" s="3"/>
-      <c r="K222" s="49"/>
+      <c r="K222" s="50"/>
     </row>
     <row r="223" spans="1:11">
       <c r="A223" s="3"/>
@@ -5916,7 +5962,7 @@
       <c r="H223" s="3"/>
       <c r="I223" s="3"/>
       <c r="J223" s="3"/>
-      <c r="K223" s="49"/>
+      <c r="K223" s="50"/>
     </row>
     <row r="224" spans="1:11">
       <c r="A224" s="3"/>
@@ -5928,7 +5974,7 @@
       <c r="H224" s="3"/>
       <c r="I224" s="3"/>
       <c r="J224" s="3"/>
-      <c r="K224" s="49"/>
+      <c r="K224" s="50"/>
     </row>
     <row r="225" spans="1:11">
       <c r="A225" s="3"/>
@@ -5940,7 +5986,7 @@
       <c r="H225" s="3"/>
       <c r="I225" s="3"/>
       <c r="J225" s="3"/>
-      <c r="K225" s="49"/>
+      <c r="K225" s="50"/>
     </row>
     <row r="226" spans="1:11">
       <c r="A226" s="3"/>
@@ -5952,7 +5998,7 @@
       <c r="H226" s="3"/>
       <c r="I226" s="3"/>
       <c r="J226" s="3"/>
-      <c r="K226" s="49"/>
+      <c r="K226" s="50"/>
     </row>
     <row r="227" spans="1:11">
       <c r="A227" s="3"/>
@@ -5964,7 +6010,7 @@
       <c r="H227" s="3"/>
       <c r="I227" s="3"/>
       <c r="J227" s="3"/>
-      <c r="K227" s="49"/>
+      <c r="K227" s="50"/>
     </row>
     <row r="228" spans="1:11">
       <c r="A228" s="3"/>
@@ -5976,7 +6022,7 @@
       <c r="H228" s="3"/>
       <c r="I228" s="3"/>
       <c r="J228" s="3"/>
-      <c r="K228" s="49"/>
+      <c r="K228" s="50"/>
     </row>
     <row r="229" spans="1:11">
       <c r="A229" s="3"/>
@@ -5988,7 +6034,7 @@
       <c r="H229" s="3"/>
       <c r="I229" s="3"/>
       <c r="J229" s="3"/>
-      <c r="K229" s="49"/>
+      <c r="K229" s="50"/>
     </row>
     <row r="230" spans="1:11">
       <c r="A230" s="3"/>
@@ -6000,7 +6046,7 @@
       <c r="H230" s="3"/>
       <c r="I230" s="3"/>
       <c r="J230" s="3"/>
-      <c r="K230" s="49"/>
+      <c r="K230" s="50"/>
     </row>
     <row r="231" spans="1:11">
       <c r="A231" s="3"/>
@@ -6012,7 +6058,7 @@
       <c r="H231" s="3"/>
       <c r="I231" s="3"/>
       <c r="J231" s="3"/>
-      <c r="K231" s="49"/>
+      <c r="K231" s="50"/>
     </row>
     <row r="232" spans="1:11">
       <c r="A232" s="3"/>
@@ -6024,7 +6070,7 @@
       <c r="H232" s="3"/>
       <c r="I232" s="3"/>
       <c r="J232" s="3"/>
-      <c r="K232" s="49"/>
+      <c r="K232" s="50"/>
     </row>
     <row r="233" spans="1:11">
       <c r="A233" s="3"/>
@@ -6036,7 +6082,7 @@
       <c r="H233" s="3"/>
       <c r="I233" s="3"/>
       <c r="J233" s="3"/>
-      <c r="K233" s="49"/>
+      <c r="K233" s="50"/>
     </row>
     <row r="234" spans="1:11">
       <c r="A234" s="3"/>
@@ -6048,7 +6094,7 @@
       <c r="H234" s="3"/>
       <c r="I234" s="3"/>
       <c r="J234" s="3"/>
-      <c r="K234" s="49"/>
+      <c r="K234" s="50"/>
     </row>
     <row r="235" spans="1:11">
       <c r="A235" s="3"/>
@@ -6060,7 +6106,7 @@
       <c r="H235" s="3"/>
       <c r="I235" s="3"/>
       <c r="J235" s="3"/>
-      <c r="K235" s="49"/>
+      <c r="K235" s="50"/>
     </row>
     <row r="236" spans="1:11">
       <c r="A236" s="3"/>
@@ -6072,7 +6118,7 @@
       <c r="H236" s="3"/>
       <c r="I236" s="3"/>
       <c r="J236" s="3"/>
-      <c r="K236" s="49"/>
+      <c r="K236" s="50"/>
     </row>
     <row r="237" spans="1:11">
       <c r="A237" s="3"/>
@@ -6084,7 +6130,7 @@
       <c r="H237" s="3"/>
       <c r="I237" s="3"/>
       <c r="J237" s="3"/>
-      <c r="K237" s="49"/>
+      <c r="K237" s="50"/>
     </row>
     <row r="238" spans="1:11">
       <c r="A238" s="3"/>
@@ -6096,7 +6142,7 @@
       <c r="H238" s="3"/>
       <c r="I238" s="3"/>
       <c r="J238" s="3"/>
-      <c r="K238" s="49"/>
+      <c r="K238" s="50"/>
     </row>
     <row r="239" spans="1:11">
       <c r="A239" s="3"/>
@@ -6108,7 +6154,7 @@
       <c r="H239" s="3"/>
       <c r="I239" s="3"/>
       <c r="J239" s="3"/>
-      <c r="K239" s="49"/>
+      <c r="K239" s="50"/>
     </row>
     <row r="240" spans="1:11">
       <c r="A240" s="3"/>
@@ -6120,7 +6166,7 @@
       <c r="H240" s="3"/>
       <c r="I240" s="3"/>
       <c r="J240" s="3"/>
-      <c r="K240" s="49"/>
+      <c r="K240" s="50"/>
     </row>
     <row r="241" spans="1:11">
       <c r="A241" s="3"/>
@@ -6132,7 +6178,7 @@
       <c r="H241" s="3"/>
       <c r="I241" s="3"/>
       <c r="J241" s="3"/>
-      <c r="K241" s="49"/>
+      <c r="K241" s="50"/>
     </row>
     <row r="242" spans="1:11">
       <c r="A242" s="3"/>
@@ -6144,7 +6190,7 @@
       <c r="H242" s="3"/>
       <c r="I242" s="3"/>
       <c r="J242" s="3"/>
-      <c r="K242" s="49"/>
+      <c r="K242" s="50"/>
     </row>
     <row r="243" spans="1:11">
       <c r="A243" s="3"/>
@@ -6156,7 +6202,7 @@
       <c r="H243" s="3"/>
       <c r="I243" s="3"/>
       <c r="J243" s="3"/>
-      <c r="K243" s="49"/>
+      <c r="K243" s="50"/>
     </row>
     <row r="244" spans="1:11">
       <c r="A244" s="3"/>
@@ -6168,7 +6214,7 @@
       <c r="H244" s="3"/>
       <c r="I244" s="3"/>
       <c r="J244" s="3"/>
-      <c r="K244" s="49"/>
+      <c r="K244" s="50"/>
     </row>
     <row r="245" spans="1:11">
       <c r="A245" s="3"/>
@@ -6180,7 +6226,7 @@
       <c r="H245" s="3"/>
       <c r="I245" s="3"/>
       <c r="J245" s="3"/>
-      <c r="K245" s="49"/>
+      <c r="K245" s="50"/>
     </row>
     <row r="246" spans="1:11">
       <c r="A246" s="3"/>
@@ -6192,7 +6238,7 @@
       <c r="H246" s="3"/>
       <c r="I246" s="3"/>
       <c r="J246" s="3"/>
-      <c r="K246" s="49"/>
+      <c r="K246" s="50"/>
     </row>
     <row r="247" spans="1:11">
       <c r="A247" s="3"/>
@@ -6204,7 +6250,7 @@
       <c r="H247" s="3"/>
       <c r="I247" s="3"/>
       <c r="J247" s="3"/>
-      <c r="K247" s="49"/>
+      <c r="K247" s="50"/>
     </row>
     <row r="248" spans="1:11">
       <c r="A248" s="3"/>
@@ -6216,7 +6262,7 @@
       <c r="H248" s="3"/>
       <c r="I248" s="3"/>
       <c r="J248" s="3"/>
-      <c r="K248" s="49"/>
+      <c r="K248" s="50"/>
     </row>
     <row r="249" spans="1:11">
       <c r="A249" s="3"/>
@@ -6228,7 +6274,7 @@
       <c r="H249" s="3"/>
       <c r="I249" s="3"/>
       <c r="J249" s="3"/>
-      <c r="K249" s="49"/>
+      <c r="K249" s="50"/>
     </row>
     <row r="250" spans="1:11">
       <c r="A250" s="3"/>
@@ -6240,7 +6286,7 @@
       <c r="H250" s="3"/>
       <c r="I250" s="3"/>
       <c r="J250" s="3"/>
-      <c r="K250" s="49"/>
+      <c r="K250" s="50"/>
     </row>
     <row r="251" spans="1:11">
       <c r="A251" s="3"/>
@@ -6252,7 +6298,7 @@
       <c r="H251" s="3"/>
       <c r="I251" s="3"/>
       <c r="J251" s="3"/>
-      <c r="K251" s="49"/>
+      <c r="K251" s="50"/>
     </row>
     <row r="252" spans="1:11">
       <c r="A252" s="3"/>
@@ -6264,7 +6310,7 @@
       <c r="H252" s="3"/>
       <c r="I252" s="3"/>
       <c r="J252" s="3"/>
-      <c r="K252" s="49"/>
+      <c r="K252" s="50"/>
     </row>
     <row r="253" spans="1:11">
       <c r="A253" s="3"/>
@@ -6276,7 +6322,7 @@
       <c r="H253" s="3"/>
       <c r="I253" s="3"/>
       <c r="J253" s="3"/>
-      <c r="K253" s="49"/>
+      <c r="K253" s="50"/>
     </row>
     <row r="254" spans="1:11">
       <c r="A254" s="3"/>
@@ -6288,7 +6334,7 @@
       <c r="H254" s="3"/>
       <c r="I254" s="3"/>
       <c r="J254" s="3"/>
-      <c r="K254" s="49"/>
+      <c r="K254" s="50"/>
     </row>
     <row r="255" spans="1:11">
       <c r="A255" s="3"/>
@@ -6300,7 +6346,7 @@
       <c r="H255" s="3"/>
       <c r="I255" s="3"/>
       <c r="J255" s="3"/>
-      <c r="K255" s="49"/>
+      <c r="K255" s="50"/>
     </row>
     <row r="256" spans="1:11">
       <c r="A256" s="3"/>
@@ -6312,7 +6358,7 @@
       <c r="H256" s="3"/>
       <c r="I256" s="3"/>
       <c r="J256" s="3"/>
-      <c r="K256" s="49"/>
+      <c r="K256" s="50"/>
     </row>
     <row r="257" spans="1:11">
       <c r="A257" s="3"/>
@@ -6324,7 +6370,7 @@
       <c r="H257" s="3"/>
       <c r="I257" s="3"/>
       <c r="J257" s="3"/>
-      <c r="K257" s="49"/>
+      <c r="K257" s="50"/>
     </row>
     <row r="258" spans="1:11">
       <c r="A258" s="3"/>
@@ -6336,7 +6382,7 @@
       <c r="H258" s="3"/>
       <c r="I258" s="3"/>
       <c r="J258" s="3"/>
-      <c r="K258" s="49"/>
+      <c r="K258" s="50"/>
     </row>
     <row r="259" spans="1:11">
       <c r="A259" s="3"/>
@@ -6348,7 +6394,7 @@
       <c r="H259" s="3"/>
       <c r="I259" s="3"/>
       <c r="J259" s="3"/>
-      <c r="K259" s="49"/>
+      <c r="K259" s="50"/>
     </row>
     <row r="260" spans="1:11">
       <c r="A260" s="3"/>
@@ -6360,7 +6406,7 @@
       <c r="H260" s="3"/>
       <c r="I260" s="3"/>
       <c r="J260" s="3"/>
-      <c r="K260" s="49"/>
+      <c r="K260" s="50"/>
     </row>
     <row r="261" spans="1:11">
       <c r="A261" s="3"/>
@@ -6372,7 +6418,7 @@
       <c r="H261" s="3"/>
       <c r="I261" s="3"/>
       <c r="J261" s="3"/>
-      <c r="K261" s="49"/>
+      <c r="K261" s="50"/>
     </row>
     <row r="262" spans="1:11">
       <c r="A262" s="3"/>
@@ -6384,7 +6430,7 @@
       <c r="H262" s="3"/>
       <c r="I262" s="3"/>
       <c r="J262" s="3"/>
-      <c r="K262" s="49"/>
+      <c r="K262" s="50"/>
     </row>
     <row r="263" spans="1:11">
       <c r="A263" s="3"/>
@@ -6396,7 +6442,7 @@
       <c r="H263" s="3"/>
       <c r="I263" s="3"/>
       <c r="J263" s="3"/>
-      <c r="K263" s="49"/>
+      <c r="K263" s="50"/>
     </row>
     <row r="264" spans="1:11">
       <c r="A264" s="3"/>
@@ -6408,7 +6454,7 @@
       <c r="H264" s="3"/>
       <c r="I264" s="3"/>
       <c r="J264" s="3"/>
-      <c r="K264" s="49"/>
+      <c r="K264" s="50"/>
     </row>
     <row r="265" spans="1:11">
       <c r="A265" s="3"/>
@@ -6420,7 +6466,7 @@
       <c r="H265" s="3"/>
       <c r="I265" s="3"/>
       <c r="J265" s="3"/>
-      <c r="K265" s="49"/>
+      <c r="K265" s="50"/>
     </row>
     <row r="266" spans="1:11">
       <c r="A266" s="3"/>
@@ -6432,7 +6478,7 @@
       <c r="H266" s="3"/>
       <c r="I266" s="3"/>
       <c r="J266" s="3"/>
-      <c r="K266" s="49"/>
+      <c r="K266" s="50"/>
     </row>
     <row r="267" spans="1:11">
       <c r="A267" s="3"/>
@@ -6444,7 +6490,7 @@
       <c r="H267" s="3"/>
       <c r="I267" s="3"/>
       <c r="J267" s="3"/>
-      <c r="K267" s="49"/>
+      <c r="K267" s="50"/>
     </row>
     <row r="268" spans="1:11">
       <c r="A268" s="3"/>
@@ -6456,7 +6502,7 @@
       <c r="H268" s="3"/>
       <c r="I268" s="3"/>
       <c r="J268" s="3"/>
-      <c r="K268" s="49"/>
+      <c r="K268" s="50"/>
     </row>
     <row r="269" spans="1:11">
       <c r="A269" s="3"/>
@@ -6468,7 +6514,7 @@
       <c r="H269" s="3"/>
       <c r="I269" s="3"/>
       <c r="J269" s="3"/>
-      <c r="K269" s="49"/>
+      <c r="K269" s="50"/>
     </row>
     <row r="270" spans="1:11">
       <c r="A270" s="3"/>
@@ -6480,7 +6526,7 @@
       <c r="H270" s="3"/>
       <c r="I270" s="3"/>
       <c r="J270" s="3"/>
-      <c r="K270" s="49"/>
+      <c r="K270" s="50"/>
     </row>
     <row r="271" spans="1:11">
       <c r="A271" s="3"/>
@@ -6492,7 +6538,7 @@
       <c r="H271" s="3"/>
       <c r="I271" s="3"/>
       <c r="J271" s="3"/>
-      <c r="K271" s="49"/>
+      <c r="K271" s="50"/>
     </row>
     <row r="272" spans="1:11">
       <c r="A272" s="3"/>
@@ -6504,7 +6550,7 @@
       <c r="H272" s="3"/>
       <c r="I272" s="3"/>
       <c r="J272" s="3"/>
-      <c r="K272" s="49"/>
+      <c r="K272" s="50"/>
     </row>
     <row r="273" spans="1:11">
       <c r="A273" s="3"/>
@@ -6516,7 +6562,7 @@
       <c r="H273" s="3"/>
       <c r="I273" s="3"/>
       <c r="J273" s="3"/>
-      <c r="K273" s="49"/>
+      <c r="K273" s="50"/>
     </row>
     <row r="274" spans="1:11">
       <c r="A274" s="3"/>
@@ -6528,7 +6574,7 @@
       <c r="H274" s="3"/>
       <c r="I274" s="3"/>
       <c r="J274" s="3"/>
-      <c r="K274" s="49"/>
+      <c r="K274" s="50"/>
     </row>
     <row r="275" spans="1:11">
       <c r="A275" s="3"/>
@@ -6540,7 +6586,7 @@
       <c r="H275" s="3"/>
       <c r="I275" s="3"/>
       <c r="J275" s="3"/>
-      <c r="K275" s="49"/>
+      <c r="K275" s="50"/>
     </row>
     <row r="276" spans="1:11">
       <c r="A276" s="3"/>
@@ -6552,7 +6598,7 @@
       <c r="H276" s="3"/>
       <c r="I276" s="3"/>
       <c r="J276" s="3"/>
-      <c r="K276" s="49"/>
+      <c r="K276" s="50"/>
     </row>
     <row r="277" spans="1:11">
       <c r="A277" s="3"/>
@@ -6564,7 +6610,7 @@
       <c r="H277" s="3"/>
       <c r="I277" s="3"/>
       <c r="J277" s="3"/>
-      <c r="K277" s="49"/>
+      <c r="K277" s="50"/>
     </row>
     <row r="278" spans="1:11">
       <c r="A278" s="3"/>
@@ -6576,7 +6622,7 @@
       <c r="H278" s="3"/>
       <c r="I278" s="3"/>
       <c r="J278" s="3"/>
-      <c r="K278" s="49"/>
+      <c r="K278" s="50"/>
     </row>
     <row r="279" spans="1:11">
       <c r="A279" s="3"/>
@@ -6588,7 +6634,7 @@
       <c r="H279" s="3"/>
       <c r="I279" s="3"/>
       <c r="J279" s="3"/>
-      <c r="K279" s="49"/>
+      <c r="K279" s="50"/>
     </row>
     <row r="280" spans="1:11">
       <c r="A280" s="3"/>
@@ -6600,7 +6646,7 @@
       <c r="H280" s="3"/>
       <c r="I280" s="3"/>
       <c r="J280" s="3"/>
-      <c r="K280" s="49"/>
+      <c r="K280" s="50"/>
     </row>
     <row r="281" spans="1:11">
       <c r="A281" s="3"/>
@@ -6612,7 +6658,7 @@
       <c r="H281" s="3"/>
       <c r="I281" s="3"/>
       <c r="J281" s="3"/>
-      <c r="K281" s="49"/>
+      <c r="K281" s="50"/>
     </row>
     <row r="282" spans="1:11">
       <c r="A282" s="3"/>
@@ -6624,7 +6670,7 @@
       <c r="H282" s="3"/>
       <c r="I282" s="3"/>
       <c r="J282" s="3"/>
-      <c r="K282" s="49"/>
+      <c r="K282" s="50"/>
     </row>
     <row r="283" spans="1:11">
       <c r="A283" s="3"/>
@@ -6636,7 +6682,7 @@
       <c r="H283" s="3"/>
       <c r="I283" s="3"/>
       <c r="J283" s="3"/>
-      <c r="K283" s="49"/>
+      <c r="K283" s="50"/>
     </row>
     <row r="284" spans="1:11">
       <c r="A284" s="3"/>
@@ -6648,7 +6694,7 @@
       <c r="H284" s="3"/>
       <c r="I284" s="3"/>
       <c r="J284" s="3"/>
-      <c r="K284" s="49"/>
+      <c r="K284" s="50"/>
     </row>
     <row r="285" spans="1:11">
       <c r="A285" s="3"/>
@@ -6660,7 +6706,7 @@
       <c r="H285" s="3"/>
       <c r="I285" s="3"/>
       <c r="J285" s="3"/>
-      <c r="K285" s="49"/>
+      <c r="K285" s="50"/>
     </row>
     <row r="286" spans="1:11">
       <c r="A286" s="3"/>
@@ -6672,7 +6718,7 @@
       <c r="H286" s="3"/>
       <c r="I286" s="3"/>
       <c r="J286" s="3"/>
-      <c r="K286" s="49"/>
+      <c r="K286" s="50"/>
     </row>
     <row r="287" spans="1:11">
       <c r="A287" s="3"/>
@@ -6684,7 +6730,7 @@
       <c r="H287" s="3"/>
       <c r="I287" s="3"/>
       <c r="J287" s="3"/>
-      <c r="K287" s="49"/>
+      <c r="K287" s="50"/>
     </row>
     <row r="288" spans="1:11">
       <c r="A288" s="3"/>
@@ -6696,7 +6742,7 @@
       <c r="H288" s="3"/>
       <c r="I288" s="3"/>
       <c r="J288" s="3"/>
-      <c r="K288" s="49"/>
+      <c r="K288" s="50"/>
     </row>
     <row r="289" spans="1:11">
       <c r="A289" s="3"/>
@@ -6708,7 +6754,7 @@
       <c r="H289" s="3"/>
       <c r="I289" s="3"/>
       <c r="J289" s="3"/>
-      <c r="K289" s="49"/>
+      <c r="K289" s="50"/>
     </row>
     <row r="290" spans="1:11">
       <c r="A290" s="3"/>
@@ -6720,7 +6766,7 @@
       <c r="H290" s="3"/>
       <c r="I290" s="3"/>
       <c r="J290" s="3"/>
-      <c r="K290" s="49"/>
+      <c r="K290" s="50"/>
     </row>
     <row r="291" spans="1:11">
       <c r="A291" s="3"/>
@@ -6732,7 +6778,7 @@
       <c r="H291" s="3"/>
       <c r="I291" s="3"/>
       <c r="J291" s="3"/>
-      <c r="K291" s="49"/>
+      <c r="K291" s="50"/>
     </row>
     <row r="292" spans="1:11">
       <c r="A292" s="3"/>
@@ -6744,7 +6790,7 @@
       <c r="H292" s="3"/>
       <c r="I292" s="3"/>
       <c r="J292" s="3"/>
-      <c r="K292" s="49"/>
+      <c r="K292" s="50"/>
     </row>
     <row r="293" spans="1:11">
       <c r="A293" s="3"/>
@@ -6756,7 +6802,7 @@
       <c r="H293" s="3"/>
       <c r="I293" s="3"/>
       <c r="J293" s="3"/>
-      <c r="K293" s="49"/>
+      <c r="K293" s="50"/>
     </row>
     <row r="294" spans="1:11">
       <c r="A294" s="3"/>
@@ -6768,7 +6814,7 @@
       <c r="H294" s="3"/>
       <c r="I294" s="3"/>
       <c r="J294" s="3"/>
-      <c r="K294" s="49"/>
+      <c r="K294" s="50"/>
     </row>
     <row r="295" spans="1:11">
       <c r="A295" s="3"/>
@@ -6780,7 +6826,7 @@
       <c r="H295" s="3"/>
       <c r="I295" s="3"/>
       <c r="J295" s="3"/>
-      <c r="K295" s="49"/>
+      <c r="K295" s="50"/>
     </row>
     <row r="296" spans="1:11">
       <c r="A296" s="3"/>
@@ -6792,7 +6838,7 @@
       <c r="H296" s="3"/>
       <c r="I296" s="3"/>
       <c r="J296" s="3"/>
-      <c r="K296" s="49"/>
+      <c r="K296" s="50"/>
     </row>
     <row r="297" spans="1:11">
       <c r="A297" s="3"/>
@@ -6804,7 +6850,7 @@
       <c r="H297" s="3"/>
       <c r="I297" s="3"/>
       <c r="J297" s="3"/>
-      <c r="K297" s="49"/>
+      <c r="K297" s="50"/>
     </row>
     <row r="298" spans="1:11">
       <c r="A298" s="3"/>
@@ -6816,7 +6862,7 @@
       <c r="H298" s="3"/>
       <c r="I298" s="3"/>
       <c r="J298" s="3"/>
-      <c r="K298" s="49"/>
+      <c r="K298" s="50"/>
     </row>
     <row r="299" spans="1:11">
       <c r="A299" s="3"/>
@@ -6828,7 +6874,7 @@
       <c r="H299" s="3"/>
       <c r="I299" s="3"/>
       <c r="J299" s="3"/>
-      <c r="K299" s="49"/>
+      <c r="K299" s="50"/>
     </row>
     <row r="300" spans="1:11">
       <c r="A300" s="3"/>
@@ -6840,7 +6886,7 @@
       <c r="H300" s="3"/>
       <c r="I300" s="3"/>
       <c r="J300" s="3"/>
-      <c r="K300" s="49"/>
+      <c r="K300" s="50"/>
     </row>
     <row r="301" spans="1:11">
       <c r="A301" s="3"/>
@@ -6852,7 +6898,7 @@
       <c r="H301" s="3"/>
       <c r="I301" s="3"/>
       <c r="J301" s="3"/>
-      <c r="K301" s="49"/>
+      <c r="K301" s="50"/>
     </row>
     <row r="302" spans="1:11">
       <c r="A302" s="3"/>
@@ -6864,7 +6910,7 @@
       <c r="H302" s="3"/>
       <c r="I302" s="3"/>
       <c r="J302" s="3"/>
-      <c r="K302" s="49"/>
+      <c r="K302" s="50"/>
     </row>
     <row r="303" spans="1:11">
       <c r="A303" s="3"/>
@@ -6876,7 +6922,7 @@
       <c r="H303" s="3"/>
       <c r="I303" s="3"/>
       <c r="J303" s="3"/>
-      <c r="K303" s="49"/>
+      <c r="K303" s="50"/>
     </row>
     <row r="304" spans="1:11">
       <c r="A304" s="3"/>
@@ -6888,7 +6934,7 @@
       <c r="H304" s="3"/>
       <c r="I304" s="3"/>
       <c r="J304" s="3"/>
-      <c r="K304" s="49"/>
+      <c r="K304" s="50"/>
     </row>
     <row r="305" spans="1:11">
       <c r="A305" s="3"/>
@@ -6900,7 +6946,7 @@
       <c r="H305" s="3"/>
       <c r="I305" s="3"/>
       <c r="J305" s="3"/>
-      <c r="K305" s="49"/>
+      <c r="K305" s="50"/>
     </row>
     <row r="306" spans="1:11">
       <c r="A306" s="3"/>
@@ -6912,7 +6958,7 @@
       <c r="H306" s="3"/>
       <c r="I306" s="3"/>
       <c r="J306" s="3"/>
-      <c r="K306" s="49"/>
+      <c r="K306" s="50"/>
     </row>
     <row r="307" spans="1:11">
       <c r="A307" s="3"/>
@@ -6924,7 +6970,7 @@
       <c r="H307" s="3"/>
       <c r="I307" s="3"/>
       <c r="J307" s="3"/>
-      <c r="K307" s="49"/>
+      <c r="K307" s="50"/>
     </row>
     <row r="308" spans="1:11">
       <c r="A308" s="3"/>
@@ -6936,7 +6982,7 @@
       <c r="H308" s="3"/>
       <c r="I308" s="3"/>
       <c r="J308" s="3"/>
-      <c r="K308" s="49"/>
+      <c r="K308" s="50"/>
     </row>
     <row r="309" spans="1:11">
       <c r="A309" s="3"/>
@@ -6948,7 +6994,7 @@
       <c r="H309" s="3"/>
       <c r="I309" s="3"/>
       <c r="J309" s="3"/>
-      <c r="K309" s="49"/>
+      <c r="K309" s="50"/>
     </row>
     <row r="310" spans="1:11">
       <c r="A310" s="3"/>
@@ -6960,7 +7006,7 @@
       <c r="H310" s="3"/>
       <c r="I310" s="3"/>
       <c r="J310" s="3"/>
-      <c r="K310" s="49"/>
+      <c r="K310" s="50"/>
     </row>
     <row r="311" spans="1:11">
       <c r="A311" s="3"/>
@@ -6972,7 +7018,7 @@
       <c r="H311" s="3"/>
       <c r="I311" s="3"/>
       <c r="J311" s="3"/>
-      <c r="K311" s="49"/>
+      <c r="K311" s="50"/>
     </row>
     <row r="312" spans="1:11">
       <c r="A312" s="3"/>
@@ -6984,7 +7030,7 @@
       <c r="H312" s="3"/>
       <c r="I312" s="3"/>
       <c r="J312" s="3"/>
-      <c r="K312" s="49"/>
+      <c r="K312" s="50"/>
     </row>
     <row r="313" spans="1:11">
       <c r="A313" s="3"/>
@@ -6996,7 +7042,7 @@
       <c r="H313" s="3"/>
       <c r="I313" s="3"/>
       <c r="J313" s="3"/>
-      <c r="K313" s="49"/>
+      <c r="K313" s="50"/>
     </row>
     <row r="314" spans="1:11">
       <c r="A314" s="3"/>
@@ -7008,7 +7054,7 @@
       <c r="H314" s="3"/>
       <c r="I314" s="3"/>
       <c r="J314" s="3"/>
-      <c r="K314" s="49"/>
+      <c r="K314" s="50"/>
     </row>
     <row r="315" spans="1:11">
       <c r="A315" s="3"/>
@@ -7020,7 +7066,7 @@
       <c r="H315" s="3"/>
       <c r="I315" s="3"/>
       <c r="J315" s="3"/>
-      <c r="K315" s="49"/>
+      <c r="K315" s="50"/>
     </row>
     <row r="316" spans="1:11">
       <c r="A316" s="3"/>
@@ -7032,7 +7078,7 @@
       <c r="H316" s="3"/>
       <c r="I316" s="3"/>
       <c r="J316" s="3"/>
-      <c r="K316" s="49"/>
+      <c r="K316" s="50"/>
     </row>
     <row r="317" spans="1:11">
       <c r="A317" s="3"/>
@@ -7044,7 +7090,7 @@
       <c r="H317" s="3"/>
       <c r="I317" s="3"/>
       <c r="J317" s="3"/>
-      <c r="K317" s="49"/>
+      <c r="K317" s="50"/>
     </row>
     <row r="318" spans="1:11">
       <c r="A318" s="3"/>
@@ -7056,7 +7102,7 @@
       <c r="H318" s="3"/>
       <c r="I318" s="3"/>
       <c r="J318" s="3"/>
-      <c r="K318" s="49"/>
+      <c r="K318" s="50"/>
     </row>
     <row r="319" spans="1:11">
       <c r="A319" s="3"/>
@@ -7068,7 +7114,7 @@
       <c r="H319" s="3"/>
       <c r="I319" s="3"/>
       <c r="J319" s="3"/>
-      <c r="K319" s="49"/>
+      <c r="K319" s="50"/>
     </row>
     <row r="320" spans="1:11">
       <c r="A320" s="3"/>
@@ -7080,7 +7126,7 @@
       <c r="H320" s="3"/>
       <c r="I320" s="3"/>
       <c r="J320" s="3"/>
-      <c r="K320" s="49"/>
+      <c r="K320" s="50"/>
     </row>
     <row r="321" spans="1:11">
       <c r="A321" s="3"/>
@@ -7092,7 +7138,7 @@
       <c r="H321" s="3"/>
       <c r="I321" s="3"/>
       <c r="J321" s="3"/>
-      <c r="K321" s="49"/>
+      <c r="K321" s="50"/>
     </row>
     <row r="322" spans="1:11">
       <c r="A322" s="3"/>
@@ -7104,7 +7150,7 @@
       <c r="H322" s="3"/>
       <c r="I322" s="3"/>
       <c r="J322" s="3"/>
-      <c r="K322" s="49"/>
+      <c r="K322" s="50"/>
     </row>
     <row r="323" spans="1:11">
       <c r="A323" s="3"/>
@@ -7116,7 +7162,7 @@
       <c r="H323" s="3"/>
       <c r="I323" s="3"/>
       <c r="J323" s="3"/>
-      <c r="K323" s="49"/>
+      <c r="K323" s="50"/>
     </row>
     <row r="324" spans="1:11">
       <c r="A324" s="3"/>
@@ -7128,7 +7174,7 @@
       <c r="H324" s="3"/>
       <c r="I324" s="3"/>
       <c r="J324" s="3"/>
-      <c r="K324" s="49"/>
+      <c r="K324" s="50"/>
     </row>
     <row r="325" spans="1:11">
       <c r="A325" s="3"/>
@@ -7140,7 +7186,7 @@
       <c r="H325" s="3"/>
       <c r="I325" s="3"/>
       <c r="J325" s="3"/>
-      <c r="K325" s="49"/>
+      <c r="K325" s="50"/>
     </row>
     <row r="326" spans="1:11">
       <c r="A326" s="3"/>
@@ -7152,7 +7198,7 @@
       <c r="H326" s="3"/>
       <c r="I326" s="3"/>
       <c r="J326" s="3"/>
-      <c r="K326" s="49"/>
+      <c r="K326" s="50"/>
     </row>
     <row r="327" spans="1:11">
       <c r="A327" s="3"/>
@@ -7164,7 +7210,7 @@
       <c r="H327" s="3"/>
       <c r="I327" s="3"/>
       <c r="J327" s="3"/>
-      <c r="K327" s="49"/>
+      <c r="K327" s="50"/>
     </row>
     <row r="328" spans="1:11">
       <c r="A328" s="3"/>
@@ -7176,7 +7222,7 @@
       <c r="H328" s="3"/>
       <c r="I328" s="3"/>
       <c r="J328" s="3"/>
-      <c r="K328" s="49"/>
+      <c r="K328" s="50"/>
     </row>
     <row r="329" spans="1:11">
       <c r="A329" s="3"/>
@@ -7188,7 +7234,7 @@
       <c r="H329" s="3"/>
       <c r="I329" s="3"/>
       <c r="J329" s="3"/>
-      <c r="K329" s="49"/>
+      <c r="K329" s="50"/>
     </row>
     <row r="330" spans="1:11">
       <c r="A330" s="3"/>
@@ -7200,7 +7246,7 @@
       <c r="H330" s="3"/>
       <c r="I330" s="3"/>
       <c r="J330" s="3"/>
-      <c r="K330" s="49"/>
+      <c r="K330" s="50"/>
     </row>
     <row r="331" spans="1:11">
       <c r="A331" s="3"/>
@@ -7212,7 +7258,7 @@
       <c r="H331" s="3"/>
       <c r="I331" s="3"/>
       <c r="J331" s="3"/>
-      <c r="K331" s="49"/>
+      <c r="K331" s="50"/>
     </row>
     <row r="332" spans="1:11">
       <c r="A332" s="3"/>
@@ -7224,7 +7270,7 @@
       <c r="H332" s="3"/>
       <c r="I332" s="3"/>
       <c r="J332" s="3"/>
-      <c r="K332" s="49"/>
+      <c r="K332" s="50"/>
     </row>
     <row r="333" spans="1:11">
       <c r="A333" s="3"/>
@@ -7236,7 +7282,7 @@
       <c r="H333" s="3"/>
       <c r="I333" s="3"/>
       <c r="J333" s="3"/>
-      <c r="K333" s="49"/>
+      <c r="K333" s="50"/>
     </row>
     <row r="334" spans="1:11">
       <c r="A334" s="3"/>
@@ -7248,7 +7294,7 @@
       <c r="H334" s="3"/>
       <c r="I334" s="3"/>
       <c r="J334" s="3"/>
-      <c r="K334" s="49"/>
+      <c r="K334" s="50"/>
     </row>
     <row r="335" spans="1:11">
       <c r="A335" s="3"/>
@@ -7260,7 +7306,7 @@
       <c r="H335" s="3"/>
       <c r="I335" s="3"/>
       <c r="J335" s="3"/>
-      <c r="K335" s="49"/>
+      <c r="K335" s="50"/>
     </row>
     <row r="336" spans="1:11">
       <c r="A336" s="3"/>
@@ -7272,7 +7318,7 @@
       <c r="H336" s="3"/>
       <c r="I336" s="3"/>
       <c r="J336" s="3"/>
-      <c r="K336" s="49"/>
+      <c r="K336" s="50"/>
     </row>
     <row r="337" spans="1:11">
       <c r="A337" s="3"/>
@@ -7284,7 +7330,7 @@
       <c r="H337" s="3"/>
       <c r="I337" s="3"/>
       <c r="J337" s="3"/>
-      <c r="K337" s="49"/>
+      <c r="K337" s="50"/>
     </row>
     <row r="338" spans="1:11">
       <c r="A338" s="3"/>
@@ -7296,7 +7342,7 @@
       <c r="H338" s="3"/>
       <c r="I338" s="3"/>
       <c r="J338" s="3"/>
-      <c r="K338" s="49"/>
+      <c r="K338" s="50"/>
     </row>
     <row r="339" spans="1:11">
       <c r="A339" s="3"/>
@@ -7308,7 +7354,7 @@
       <c r="H339" s="3"/>
       <c r="I339" s="3"/>
       <c r="J339" s="3"/>
-      <c r="K339" s="49"/>
+      <c r="K339" s="50"/>
     </row>
     <row r="340" spans="1:11">
       <c r="A340" s="3"/>
@@ -7320,7 +7366,7 @@
       <c r="H340" s="3"/>
       <c r="I340" s="3"/>
       <c r="J340" s="3"/>
-      <c r="K340" s="49"/>
+      <c r="K340" s="50"/>
     </row>
     <row r="341" spans="1:11">
       <c r="A341" s="3"/>
@@ -7332,7 +7378,7 @@
       <c r="H341" s="3"/>
       <c r="I341" s="3"/>
       <c r="J341" s="3"/>
-      <c r="K341" s="49"/>
+      <c r="K341" s="50"/>
     </row>
     <row r="342" spans="1:11">
       <c r="A342" s="3"/>
@@ -7344,7 +7390,7 @@
       <c r="H342" s="3"/>
       <c r="I342" s="3"/>
       <c r="J342" s="3"/>
-      <c r="K342" s="49"/>
+      <c r="K342" s="50"/>
     </row>
     <row r="343" spans="1:11">
       <c r="A343" s="3"/>
@@ -7356,7 +7402,7 @@
       <c r="H343" s="3"/>
       <c r="I343" s="3"/>
       <c r="J343" s="3"/>
-      <c r="K343" s="49"/>
+      <c r="K343" s="50"/>
     </row>
     <row r="344" spans="1:11">
       <c r="A344" s="3"/>
@@ -7368,7 +7414,7 @@
       <c r="H344" s="3"/>
       <c r="I344" s="3"/>
       <c r="J344" s="3"/>
-      <c r="K344" s="49"/>
+      <c r="K344" s="50"/>
     </row>
     <row r="345" spans="1:11">
       <c r="A345" s="3"/>
@@ -7380,7 +7426,7 @@
       <c r="H345" s="3"/>
       <c r="I345" s="3"/>
       <c r="J345" s="3"/>
-      <c r="K345" s="49"/>
+      <c r="K345" s="50"/>
     </row>
     <row r="346" spans="1:11">
       <c r="A346" s="3"/>
@@ -7392,7 +7438,7 @@
       <c r="H346" s="3"/>
       <c r="I346" s="3"/>
       <c r="J346" s="3"/>
-      <c r="K346" s="49"/>
+      <c r="K346" s="50"/>
     </row>
     <row r="347" spans="1:11">
       <c r="A347" s="3"/>
@@ -7404,7 +7450,7 @@
       <c r="H347" s="3"/>
       <c r="I347" s="3"/>
       <c r="J347" s="3"/>
-      <c r="K347" s="49"/>
+      <c r="K347" s="50"/>
     </row>
     <row r="348" spans="1:11">
       <c r="A348" s="3"/>
@@ -7416,7 +7462,7 @@
       <c r="H348" s="3"/>
       <c r="I348" s="3"/>
       <c r="J348" s="3"/>
-      <c r="K348" s="49"/>
+      <c r="K348" s="50"/>
     </row>
     <row r="349" spans="1:11">
       <c r="A349" s="3"/>
@@ -7428,7 +7474,7 @@
       <c r="H349" s="3"/>
       <c r="I349" s="3"/>
       <c r="J349" s="3"/>
-      <c r="K349" s="49"/>
+      <c r="K349" s="50"/>
     </row>
     <row r="350" spans="1:11">
       <c r="A350" s="3"/>
@@ -7440,7 +7486,7 @@
       <c r="H350" s="3"/>
       <c r="I350" s="3"/>
       <c r="J350" s="3"/>
-      <c r="K350" s="49"/>
+      <c r="K350" s="50"/>
     </row>
     <row r="351" spans="1:11">
       <c r="A351" s="3"/>
@@ -7452,7 +7498,7 @@
       <c r="H351" s="3"/>
       <c r="I351" s="3"/>
       <c r="J351" s="3"/>
-      <c r="K351" s="49"/>
+      <c r="K351" s="50"/>
     </row>
     <row r="352" spans="1:11">
       <c r="A352" s="3"/>
@@ -7464,7 +7510,7 @@
       <c r="H352" s="3"/>
       <c r="I352" s="3"/>
       <c r="J352" s="3"/>
-      <c r="K352" s="49"/>
+      <c r="K352" s="50"/>
     </row>
     <row r="353" spans="1:11">
       <c r="A353" s="3"/>
@@ -7476,7 +7522,7 @@
       <c r="H353" s="3"/>
       <c r="I353" s="3"/>
       <c r="J353" s="3"/>
-      <c r="K353" s="49"/>
+      <c r="K353" s="50"/>
     </row>
     <row r="354" spans="1:11">
       <c r="A354" s="3"/>
@@ -7488,7 +7534,7 @@
       <c r="H354" s="3"/>
       <c r="I354" s="3"/>
       <c r="J354" s="3"/>
-      <c r="K354" s="49"/>
+      <c r="K354" s="50"/>
     </row>
     <row r="355" spans="1:11">
       <c r="A355" s="3"/>
@@ -7500,7 +7546,7 @@
       <c r="H355" s="3"/>
       <c r="I355" s="3"/>
       <c r="J355" s="3"/>
-      <c r="K355" s="49"/>
+      <c r="K355" s="50"/>
     </row>
     <row r="356" spans="1:11">
       <c r="A356" s="3"/>
@@ -7512,7 +7558,7 @@
       <c r="H356" s="3"/>
       <c r="I356" s="3"/>
       <c r="J356" s="3"/>
-      <c r="K356" s="49"/>
+      <c r="K356" s="50"/>
     </row>
     <row r="357" spans="1:11">
       <c r="A357" s="3"/>
@@ -7524,7 +7570,7 @@
       <c r="H357" s="3"/>
       <c r="I357" s="3"/>
       <c r="J357" s="3"/>
-      <c r="K357" s="49"/>
+      <c r="K357" s="50"/>
     </row>
     <row r="358" spans="1:11">
       <c r="A358" s="3"/>
@@ -7536,7 +7582,7 @@
       <c r="H358" s="3"/>
       <c r="I358" s="3"/>
       <c r="J358" s="3"/>
-      <c r="K358" s="49"/>
+      <c r="K358" s="50"/>
     </row>
     <row r="359" spans="1:11">
       <c r="A359" s="3"/>
@@ -7548,7 +7594,7 @@
       <c r="H359" s="3"/>
       <c r="I359" s="3"/>
       <c r="J359" s="3"/>
-      <c r="K359" s="49"/>
+      <c r="K359" s="50"/>
     </row>
     <row r="360" spans="1:11">
       <c r="A360" s="3"/>
@@ -7560,7 +7606,7 @@
       <c r="H360" s="3"/>
       <c r="I360" s="3"/>
       <c r="J360" s="3"/>
-      <c r="K360" s="49"/>
+      <c r="K360" s="50"/>
     </row>
     <row r="361" spans="1:11">
       <c r="A361" s="3"/>
@@ -7572,7 +7618,7 @@
       <c r="H361" s="3"/>
       <c r="I361" s="3"/>
       <c r="J361" s="3"/>
-      <c r="K361" s="49"/>
+      <c r="K361" s="50"/>
     </row>
     <row r="362" spans="1:11">
       <c r="A362" s="3"/>
@@ -7584,7 +7630,7 @@
       <c r="H362" s="3"/>
       <c r="I362" s="3"/>
       <c r="J362" s="3"/>
-      <c r="K362" s="49"/>
+      <c r="K362" s="50"/>
     </row>
     <row r="363" spans="1:11">
       <c r="A363" s="3"/>
@@ -7596,7 +7642,7 @@
       <c r="H363" s="3"/>
       <c r="I363" s="3"/>
       <c r="J363" s="3"/>
-      <c r="K363" s="49"/>
+      <c r="K363" s="50"/>
     </row>
     <row r="364" spans="1:11">
       <c r="A364" s="3"/>
@@ -7608,7 +7654,7 @@
       <c r="H364" s="3"/>
       <c r="I364" s="3"/>
       <c r="J364" s="3"/>
-      <c r="K364" s="49"/>
+      <c r="K364" s="50"/>
     </row>
     <row r="365" spans="1:11">
       <c r="A365" s="3"/>
@@ -7620,7 +7666,7 @@
       <c r="H365" s="3"/>
       <c r="I365" s="3"/>
       <c r="J365" s="3"/>
-      <c r="K365" s="49"/>
+      <c r="K365" s="50"/>
     </row>
     <row r="366" spans="1:11">
       <c r="A366" s="3"/>
@@ -7632,7 +7678,7 @@
       <c r="H366" s="3"/>
       <c r="I366" s="3"/>
       <c r="J366" s="3"/>
-      <c r="K366" s="49"/>
+      <c r="K366" s="50"/>
     </row>
     <row r="367" spans="1:11">
       <c r="A367" s="3"/>
@@ -7644,7 +7690,7 @@
       <c r="H367" s="3"/>
       <c r="I367" s="3"/>
       <c r="J367" s="3"/>
-      <c r="K367" s="49"/>
+      <c r="K367" s="50"/>
     </row>
     <row r="368" spans="1:11">
       <c r="A368" s="3"/>
@@ -7656,7 +7702,7 @@
       <c r="H368" s="3"/>
       <c r="I368" s="3"/>
       <c r="J368" s="3"/>
-      <c r="K368" s="49"/>
+      <c r="K368" s="50"/>
     </row>
     <row r="369" spans="1:11">
       <c r="A369" s="3"/>
@@ -7668,7 +7714,7 @@
       <c r="H369" s="3"/>
       <c r="I369" s="3"/>
       <c r="J369" s="3"/>
-      <c r="K369" s="49"/>
+      <c r="K369" s="50"/>
     </row>
     <row r="370" spans="1:11">
       <c r="A370" s="3"/>
@@ -7680,7 +7726,7 @@
       <c r="H370" s="3"/>
       <c r="I370" s="3"/>
       <c r="J370" s="3"/>
-      <c r="K370" s="49"/>
+      <c r="K370" s="50"/>
     </row>
     <row r="371" spans="1:11">
       <c r="A371" s="3"/>
@@ -7692,7 +7738,7 @@
       <c r="H371" s="3"/>
       <c r="I371" s="3"/>
       <c r="J371" s="3"/>
-      <c r="K371" s="49"/>
+      <c r="K371" s="50"/>
     </row>
     <row r="372" spans="1:11">
       <c r="A372" s="3"/>
@@ -7704,7 +7750,7 @@
       <c r="H372" s="3"/>
       <c r="I372" s="3"/>
       <c r="J372" s="3"/>
-      <c r="K372" s="49"/>
+      <c r="K372" s="50"/>
     </row>
     <row r="373" spans="1:11">
       <c r="A373" s="3"/>
@@ -7716,7 +7762,7 @@
       <c r="H373" s="3"/>
       <c r="I373" s="3"/>
       <c r="J373" s="3"/>
-      <c r="K373" s="49"/>
+      <c r="K373" s="50"/>
     </row>
     <row r="374" spans="1:11">
       <c r="A374" s="3"/>
@@ -7728,7 +7774,7 @@
       <c r="H374" s="3"/>
       <c r="I374" s="3"/>
       <c r="J374" s="3"/>
-      <c r="K374" s="49"/>
+      <c r="K374" s="50"/>
     </row>
     <row r="375" spans="1:11">
       <c r="A375" s="3"/>
@@ -7740,7 +7786,7 @@
       <c r="H375" s="3"/>
       <c r="I375" s="3"/>
       <c r="J375" s="3"/>
-      <c r="K375" s="49"/>
+      <c r="K375" s="50"/>
     </row>
     <row r="376" spans="1:11">
       <c r="A376" s="3"/>
@@ -7752,7 +7798,7 @@
       <c r="H376" s="3"/>
       <c r="I376" s="3"/>
       <c r="J376" s="3"/>
-      <c r="K376" s="49"/>
+      <c r="K376" s="50"/>
     </row>
     <row r="377" spans="1:11">
       <c r="A377" s="3"/>
@@ -7764,7 +7810,7 @@
       <c r="H377" s="3"/>
       <c r="I377" s="3"/>
       <c r="J377" s="3"/>
-      <c r="K377" s="49"/>
+      <c r="K377" s="50"/>
     </row>
     <row r="378" spans="1:11">
       <c r="A378" s="3"/>
@@ -7776,7 +7822,7 @@
       <c r="H378" s="3"/>
       <c r="I378" s="3"/>
       <c r="J378" s="3"/>
-      <c r="K378" s="49"/>
+      <c r="K378" s="50"/>
     </row>
     <row r="379" spans="1:11">
       <c r="A379" s="3"/>
@@ -7788,7 +7834,7 @@
       <c r="H379" s="3"/>
       <c r="I379" s="3"/>
       <c r="J379" s="3"/>
-      <c r="K379" s="49"/>
+      <c r="K379" s="50"/>
     </row>
     <row r="380" spans="1:11">
       <c r="A380" s="3"/>
@@ -7800,7 +7846,7 @@
       <c r="H380" s="3"/>
       <c r="I380" s="3"/>
       <c r="J380" s="3"/>
-      <c r="K380" s="49"/>
+      <c r="K380" s="50"/>
     </row>
     <row r="381" spans="1:11">
       <c r="A381" s="3"/>
@@ -7812,7 +7858,7 @@
       <c r="H381" s="3"/>
       <c r="I381" s="3"/>
       <c r="J381" s="3"/>
-      <c r="K381" s="49"/>
+      <c r="K381" s="50"/>
     </row>
     <row r="382" spans="1:11">
       <c r="A382" s="3"/>
@@ -7824,7 +7870,7 @@
       <c r="H382" s="3"/>
       <c r="I382" s="3"/>
       <c r="J382" s="3"/>
-      <c r="K382" s="49"/>
+      <c r="K382" s="50"/>
     </row>
     <row r="383" spans="1:11">
       <c r="A383" s="3"/>
@@ -7836,7 +7882,7 @@
       <c r="H383" s="3"/>
       <c r="I383" s="3"/>
       <c r="J383" s="3"/>
-      <c r="K383" s="49"/>
+      <c r="K383" s="50"/>
     </row>
     <row r="384" spans="1:11">
       <c r="A384" s="3"/>
@@ -7848,7 +7894,7 @@
       <c r="H384" s="3"/>
       <c r="I384" s="3"/>
       <c r="J384" s="3"/>
-      <c r="K384" s="49"/>
+      <c r="K384" s="50"/>
     </row>
     <row r="385" spans="1:11">
       <c r="A385" s="3"/>
@@ -7860,7 +7906,7 @@
       <c r="H385" s="3"/>
       <c r="I385" s="3"/>
       <c r="J385" s="3"/>
-      <c r="K385" s="49"/>
+      <c r="K385" s="50"/>
     </row>
     <row r="386" spans="1:11">
       <c r="A386" s="3"/>
@@ -7872,7 +7918,7 @@
       <c r="H386" s="3"/>
       <c r="I386" s="3"/>
       <c r="J386" s="3"/>
-      <c r="K386" s="49"/>
+      <c r="K386" s="50"/>
     </row>
     <row r="387" spans="1:11">
       <c r="A387" s="3"/>
@@ -7884,7 +7930,7 @@
       <c r="H387" s="3"/>
       <c r="I387" s="3"/>
       <c r="J387" s="3"/>
-      <c r="K387" s="49"/>
+      <c r="K387" s="50"/>
     </row>
     <row r="388" spans="1:11">
       <c r="A388" s="3"/>
@@ -7896,7 +7942,7 @@
       <c r="H388" s="3"/>
       <c r="I388" s="3"/>
       <c r="J388" s="3"/>
-      <c r="K388" s="49"/>
+      <c r="K388" s="50"/>
     </row>
     <row r="389" spans="1:11">
       <c r="A389" s="3"/>
@@ -7908,7 +7954,7 @@
       <c r="H389" s="3"/>
       <c r="I389" s="3"/>
       <c r="J389" s="3"/>
-      <c r="K389" s="49"/>
+      <c r="K389" s="50"/>
     </row>
     <row r="390" spans="1:11">
       <c r="A390" s="3"/>
@@ -7920,7 +7966,7 @@
       <c r="H390" s="3"/>
       <c r="I390" s="3"/>
       <c r="J390" s="3"/>
-      <c r="K390" s="49"/>
+      <c r="K390" s="50"/>
     </row>
     <row r="391" spans="1:11">
       <c r="A391" s="3"/>
@@ -7932,7 +7978,7 @@
       <c r="H391" s="3"/>
       <c r="I391" s="3"/>
       <c r="J391" s="3"/>
-      <c r="K391" s="49"/>
+      <c r="K391" s="50"/>
     </row>
     <row r="392" spans="1:11">
       <c r="A392" s="3"/>
@@ -7944,7 +7990,7 @@
       <c r="H392" s="3"/>
       <c r="I392" s="3"/>
       <c r="J392" s="3"/>
-      <c r="K392" s="49"/>
+      <c r="K392" s="50"/>
     </row>
     <row r="393" spans="1:11">
       <c r="A393" s="3"/>
@@ -7956,7 +8002,7 @@
       <c r="H393" s="3"/>
       <c r="I393" s="3"/>
       <c r="J393" s="3"/>
-      <c r="K393" s="49"/>
+      <c r="K393" s="50"/>
     </row>
     <row r="394" spans="1:11">
       <c r="A394" s="3"/>
@@ -7968,7 +8014,7 @@
       <c r="H394" s="3"/>
       <c r="I394" s="3"/>
       <c r="J394" s="3"/>
-      <c r="K394" s="49"/>
+      <c r="K394" s="50"/>
     </row>
     <row r="395" spans="1:11">
       <c r="A395" s="3"/>
@@ -7980,7 +8026,7 @@
       <c r="H395" s="3"/>
       <c r="I395" s="3"/>
       <c r="J395" s="3"/>
-      <c r="K395" s="49"/>
+      <c r="K395" s="50"/>
     </row>
     <row r="396" spans="1:11">
       <c r="A396" s="3"/>
@@ -7992,7 +8038,7 @@
       <c r="H396" s="3"/>
       <c r="I396" s="3"/>
       <c r="J396" s="3"/>
-      <c r="K396" s="49"/>
+      <c r="K396" s="50"/>
     </row>
     <row r="397" spans="1:11">
       <c r="A397" s="3"/>
@@ -8004,7 +8050,7 @@
       <c r="H397" s="3"/>
       <c r="I397" s="3"/>
       <c r="J397" s="3"/>
-      <c r="K397" s="49"/>
+      <c r="K397" s="50"/>
     </row>
     <row r="398" spans="1:11">
       <c r="A398" s="3"/>
@@ -8016,7 +8062,7 @@
       <c r="H398" s="3"/>
       <c r="I398" s="3"/>
       <c r="J398" s="3"/>
-      <c r="K398" s="49"/>
+      <c r="K398" s="50"/>
     </row>
     <row r="399" spans="1:11">
       <c r="A399" s="3"/>
@@ -8028,7 +8074,7 @@
       <c r="H399" s="3"/>
       <c r="I399" s="3"/>
       <c r="J399" s="3"/>
-      <c r="K399" s="49"/>
+      <c r="K399" s="50"/>
     </row>
     <row r="400" spans="1:11">
       <c r="A400" s="3"/>
@@ -8040,7 +8086,7 @@
       <c r="H400" s="3"/>
       <c r="I400" s="3"/>
       <c r="J400" s="3"/>
-      <c r="K400" s="49"/>
+      <c r="K400" s="50"/>
     </row>
     <row r="401" spans="1:11">
       <c r="A401" s="3"/>
@@ -8052,7 +8098,7 @@
       <c r="H401" s="3"/>
       <c r="I401" s="3"/>
       <c r="J401" s="3"/>
-      <c r="K401" s="49"/>
+      <c r="K401" s="50"/>
     </row>
     <row r="402" spans="1:11">
       <c r="A402" s="3"/>
@@ -8064,7 +8110,7 @@
       <c r="H402" s="3"/>
       <c r="I402" s="3"/>
       <c r="J402" s="3"/>
-      <c r="K402" s="49"/>
+      <c r="K402" s="50"/>
     </row>
     <row r="403" spans="1:11">
       <c r="A403" s="3"/>
@@ -8076,7 +8122,7 @@
       <c r="H403" s="3"/>
       <c r="I403" s="3"/>
       <c r="J403" s="3"/>
-      <c r="K403" s="49"/>
+      <c r="K403" s="50"/>
     </row>
     <row r="404" spans="1:11">
       <c r="A404" s="3"/>
@@ -8088,7 +8134,7 @@
       <c r="H404" s="3"/>
       <c r="I404" s="3"/>
       <c r="J404" s="3"/>
-      <c r="K404" s="49"/>
+      <c r="K404" s="50"/>
     </row>
     <row r="405" spans="1:11">
       <c r="A405" s="3"/>
@@ -8100,7 +8146,7 @@
       <c r="H405" s="3"/>
       <c r="I405" s="3"/>
       <c r="J405" s="3"/>
-      <c r="K405" s="49"/>
+      <c r="K405" s="50"/>
     </row>
     <row r="406" spans="1:11">
       <c r="A406" s="3"/>
@@ -8112,7 +8158,7 @@
       <c r="H406" s="3"/>
       <c r="I406" s="3"/>
       <c r="J406" s="3"/>
-      <c r="K406" s="49"/>
+      <c r="K406" s="50"/>
     </row>
     <row r="407" spans="1:11">
       <c r="A407" s="3"/>
@@ -8124,7 +8170,7 @@
       <c r="H407" s="3"/>
       <c r="I407" s="3"/>
       <c r="J407" s="3"/>
-      <c r="K407" s="49"/>
+      <c r="K407" s="50"/>
     </row>
     <row r="408" spans="1:11">
       <c r="A408" s="3"/>
@@ -8136,7 +8182,7 @@
       <c r="H408" s="3"/>
       <c r="I408" s="3"/>
       <c r="J408" s="3"/>
-      <c r="K408" s="49"/>
+      <c r="K408" s="50"/>
     </row>
     <row r="409" spans="1:11">
       <c r="A409" s="3"/>
@@ -8148,7 +8194,7 @@
       <c r="H409" s="3"/>
       <c r="I409" s="3"/>
       <c r="J409" s="3"/>
-      <c r="K409" s="49"/>
+      <c r="K409" s="50"/>
     </row>
     <row r="410" spans="1:11">
       <c r="A410" s="3"/>
@@ -8160,7 +8206,7 @@
       <c r="H410" s="3"/>
       <c r="I410" s="3"/>
       <c r="J410" s="3"/>
-      <c r="K410" s="49"/>
+      <c r="K410" s="50"/>
     </row>
     <row r="411" spans="1:11">
       <c r="A411" s="3"/>
@@ -8172,7 +8218,7 @@
       <c r="H411" s="3"/>
       <c r="I411" s="3"/>
       <c r="J411" s="3"/>
-      <c r="K411" s="49"/>
+      <c r="K411" s="50"/>
     </row>
     <row r="412" spans="1:11">
       <c r="A412" s="3"/>
@@ -8184,7 +8230,7 @@
       <c r="H412" s="3"/>
       <c r="I412" s="3"/>
       <c r="J412" s="3"/>
-      <c r="K412" s="49"/>
+      <c r="K412" s="50"/>
     </row>
     <row r="413" spans="1:11">
       <c r="A413" s="3"/>
@@ -8196,7 +8242,7 @@
       <c r="H413" s="3"/>
       <c r="I413" s="3"/>
       <c r="J413" s="3"/>
-      <c r="K413" s="49"/>
+      <c r="K413" s="50"/>
     </row>
     <row r="414" spans="1:11">
       <c r="A414" s="3"/>
@@ -8208,7 +8254,7 @@
       <c r="H414" s="3"/>
       <c r="I414" s="3"/>
       <c r="J414" s="3"/>
-      <c r="K414" s="49"/>
+      <c r="K414" s="50"/>
     </row>
     <row r="415" spans="1:11">
       <c r="A415" s="3"/>
@@ -8220,7 +8266,7 @@
       <c r="H415" s="3"/>
       <c r="I415" s="3"/>
       <c r="J415" s="3"/>
-      <c r="K415" s="49"/>
+      <c r="K415" s="50"/>
     </row>
     <row r="416" spans="1:11">
       <c r="A416" s="3"/>
@@ -8232,7 +8278,7 @@
       <c r="H416" s="3"/>
       <c r="I416" s="3"/>
       <c r="J416" s="3"/>
-      <c r="K416" s="49"/>
+      <c r="K416" s="50"/>
     </row>
     <row r="417" spans="1:11">
       <c r="A417" s="3"/>
@@ -8244,7 +8290,7 @@
       <c r="H417" s="3"/>
       <c r="I417" s="3"/>
       <c r="J417" s="3"/>
-      <c r="K417" s="49"/>
+      <c r="K417" s="50"/>
     </row>
     <row r="418" spans="1:11">
       <c r="A418" s="3"/>
@@ -8256,7 +8302,7 @@
       <c r="H418" s="3"/>
       <c r="I418" s="3"/>
       <c r="J418" s="3"/>
-      <c r="K418" s="49"/>
+      <c r="K418" s="50"/>
     </row>
     <row r="419" spans="1:11">
       <c r="A419" s="3"/>
@@ -8268,7 +8314,7 @@
       <c r="H419" s="3"/>
       <c r="I419" s="3"/>
       <c r="J419" s="3"/>
-      <c r="K419" s="49"/>
+      <c r="K419" s="50"/>
     </row>
     <row r="420" spans="1:11">
       <c r="A420" s="3"/>
@@ -8280,7 +8326,7 @@
       <c r="H420" s="3"/>
       <c r="I420" s="3"/>
       <c r="J420" s="3"/>
-      <c r="K420" s="49"/>
+      <c r="K420" s="50"/>
     </row>
     <row r="421" spans="1:11">
       <c r="A421" s="3"/>
@@ -8292,7 +8338,7 @@
       <c r="H421" s="3"/>
       <c r="I421" s="3"/>
       <c r="J421" s="3"/>
-      <c r="K421" s="49"/>
+      <c r="K421" s="50"/>
     </row>
     <row r="422" spans="1:11">
       <c r="A422" s="3"/>
@@ -8304,7 +8350,7 @@
       <c r="H422" s="3"/>
       <c r="I422" s="3"/>
       <c r="J422" s="3"/>
-      <c r="K422" s="49"/>
+      <c r="K422" s="50"/>
     </row>
     <row r="423" spans="1:11">
       <c r="A423" s="3"/>
@@ -8316,7 +8362,7 @@
       <c r="H423" s="3"/>
       <c r="I423" s="3"/>
       <c r="J423" s="3"/>
-      <c r="K423" s="49"/>
+      <c r="K423" s="50"/>
     </row>
     <row r="424" spans="1:11">
       <c r="A424" s="3"/>
@@ -8328,7 +8374,7 @@
       <c r="H424" s="3"/>
       <c r="I424" s="3"/>
       <c r="J424" s="3"/>
-      <c r="K424" s="49"/>
+      <c r="K424" s="50"/>
     </row>
     <row r="425" spans="1:11">
       <c r="A425" s="3"/>
@@ -8340,7 +8386,7 @@
       <c r="H425" s="3"/>
       <c r="I425" s="3"/>
       <c r="J425" s="3"/>
-      <c r="K425" s="49"/>
+      <c r="K425" s="50"/>
     </row>
     <row r="426" spans="1:11">
       <c r="A426" s="3"/>
@@ -8352,7 +8398,7 @@
       <c r="H426" s="3"/>
       <c r="I426" s="3"/>
       <c r="J426" s="3"/>
-      <c r="K426" s="49"/>
+      <c r="K426" s="50"/>
     </row>
     <row r="427" spans="1:11">
       <c r="A427" s="3"/>
@@ -8364,7 +8410,7 @@
       <c r="H427" s="3"/>
       <c r="I427" s="3"/>
       <c r="J427" s="3"/>
-      <c r="K427" s="49"/>
+      <c r="K427" s="50"/>
     </row>
     <row r="428" spans="1:11">
       <c r="A428" s="3"/>
@@ -8376,7 +8422,7 @@
       <c r="H428" s="3"/>
       <c r="I428" s="3"/>
       <c r="J428" s="3"/>
-      <c r="K428" s="49"/>
+      <c r="K428" s="50"/>
     </row>
     <row r="429" spans="1:11">
       <c r="A429" s="3"/>
@@ -8388,7 +8434,7 @@
       <c r="H429" s="3"/>
       <c r="I429" s="3"/>
       <c r="J429" s="3"/>
-      <c r="K429" s="49"/>
+      <c r="K429" s="50"/>
     </row>
     <row r="430" spans="1:11">
       <c r="A430" s="3"/>
@@ -8400,7 +8446,7 @@
       <c r="H430" s="3"/>
       <c r="I430" s="3"/>
       <c r="J430" s="3"/>
-      <c r="K430" s="49"/>
+      <c r="K430" s="50"/>
     </row>
     <row r="431" spans="1:11">
       <c r="A431" s="3"/>
@@ -8412,7 +8458,7 @@
       <c r="H431" s="3"/>
       <c r="I431" s="3"/>
       <c r="J431" s="3"/>
-      <c r="K431" s="49"/>
+      <c r="K431" s="50"/>
     </row>
     <row r="432" spans="1:11">
       <c r="A432" s="3"/>
@@ -8424,7 +8470,7 @@
       <c r="H432" s="3"/>
       <c r="I432" s="3"/>
       <c r="J432" s="3"/>
-      <c r="K432" s="49"/>
+      <c r="K432" s="50"/>
     </row>
     <row r="433" spans="1:11">
       <c r="A433" s="3"/>
@@ -8436,7 +8482,7 @@
       <c r="H433" s="3"/>
       <c r="I433" s="3"/>
       <c r="J433" s="3"/>
-      <c r="K433" s="49"/>
+      <c r="K433" s="50"/>
     </row>
     <row r="434" spans="1:11">
       <c r="A434" s="3"/>
@@ -8448,7 +8494,7 @@
       <c r="H434" s="3"/>
       <c r="I434" s="3"/>
       <c r="J434" s="3"/>
-      <c r="K434" s="49"/>
+      <c r="K434" s="50"/>
     </row>
     <row r="435" spans="1:11">
       <c r="A435" s="3"/>
@@ -8460,7 +8506,7 @@
       <c r="H435" s="3"/>
       <c r="I435" s="3"/>
       <c r="J435" s="3"/>
-      <c r="K435" s="49"/>
+      <c r="K435" s="50"/>
     </row>
     <row r="436" spans="1:11">
       <c r="A436" s="3"/>
@@ -8472,7 +8518,7 @@
       <c r="H436" s="3"/>
       <c r="I436" s="3"/>
       <c r="J436" s="3"/>
-      <c r="K436" s="49"/>
+      <c r="K436" s="50"/>
     </row>
     <row r="437" spans="1:11">
       <c r="A437" s="3"/>
@@ -8484,7 +8530,7 @@
       <c r="H437" s="3"/>
       <c r="I437" s="3"/>
       <c r="J437" s="3"/>
-      <c r="K437" s="49"/>
+      <c r="K437" s="50"/>
     </row>
     <row r="438" spans="1:11">
       <c r="A438" s="3"/>
@@ -8496,7 +8542,7 @@
       <c r="H438" s="3"/>
       <c r="I438" s="3"/>
       <c r="J438" s="3"/>
-      <c r="K438" s="49"/>
+      <c r="K438" s="50"/>
     </row>
     <row r="439" spans="1:11">
       <c r="A439" s="3"/>
@@ -8508,7 +8554,7 @@
       <c r="H439" s="3"/>
       <c r="I439" s="3"/>
       <c r="J439" s="3"/>
-      <c r="K439" s="49"/>
+      <c r="K439" s="50"/>
     </row>
     <row r="440" spans="1:11">
       <c r="A440" s="3"/>
@@ -8520,7 +8566,7 @@
       <c r="H440" s="3"/>
       <c r="I440" s="3"/>
       <c r="J440" s="3"/>
-      <c r="K440" s="49"/>
+      <c r="K440" s="50"/>
     </row>
     <row r="441" spans="1:11">
       <c r="A441" s="3"/>
@@ -8532,7 +8578,7 @@
       <c r="H441" s="3"/>
       <c r="I441" s="3"/>
       <c r="J441" s="3"/>
-      <c r="K441" s="49"/>
+      <c r="K441" s="50"/>
     </row>
     <row r="442" spans="1:11">
       <c r="A442" s="3"/>
@@ -8544,7 +8590,7 @@
       <c r="H442" s="3"/>
       <c r="I442" s="3"/>
       <c r="J442" s="3"/>
-      <c r="K442" s="49"/>
+      <c r="K442" s="50"/>
     </row>
     <row r="443" spans="1:11">
       <c r="A443" s="3"/>
@@ -8556,7 +8602,7 @@
       <c r="H443" s="3"/>
       <c r="I443" s="3"/>
       <c r="J443" s="3"/>
-      <c r="K443" s="49"/>
+      <c r="K443" s="50"/>
     </row>
     <row r="444" spans="1:11">
       <c r="A444" s="3"/>
@@ -8568,7 +8614,7 @@
       <c r="H444" s="3"/>
       <c r="I444" s="3"/>
       <c r="J444" s="3"/>
-      <c r="K444" s="49"/>
+      <c r="K444" s="50"/>
     </row>
     <row r="445" spans="1:11">
       <c r="A445" s="3"/>
@@ -8580,7 +8626,7 @@
       <c r="H445" s="3"/>
       <c r="I445" s="3"/>
       <c r="J445" s="3"/>
-      <c r="K445" s="49"/>
+      <c r="K445" s="50"/>
     </row>
     <row r="446" spans="1:11">
       <c r="A446" s="3"/>
@@ -8592,7 +8638,7 @@
       <c r="H446" s="3"/>
       <c r="I446" s="3"/>
       <c r="J446" s="3"/>
-      <c r="K446" s="49"/>
+      <c r="K446" s="50"/>
     </row>
     <row r="447" spans="1:11">
       <c r="A447" s="3"/>
@@ -8604,7 +8650,7 @@
       <c r="H447" s="3"/>
       <c r="I447" s="3"/>
       <c r="J447" s="3"/>
-      <c r="K447" s="49"/>
+      <c r="K447" s="50"/>
     </row>
     <row r="448" spans="1:11">
       <c r="A448" s="3"/>
@@ -8616,7 +8662,7 @@
       <c r="H448" s="3"/>
       <c r="I448" s="3"/>
       <c r="J448" s="3"/>
-      <c r="K448" s="49"/>
+      <c r="K448" s="50"/>
     </row>
     <row r="449" spans="1:11">
       <c r="A449" s="3"/>
@@ -8628,7 +8674,7 @@
       <c r="H449" s="3"/>
       <c r="I449" s="3"/>
       <c r="J449" s="3"/>
-      <c r="K449" s="49"/>
+      <c r="K449" s="50"/>
     </row>
     <row r="450" spans="1:11">
       <c r="A450" s="3"/>
@@ -8640,7 +8686,7 @@
       <c r="H450" s="3"/>
       <c r="I450" s="3"/>
       <c r="J450" s="3"/>
-      <c r="K450" s="49"/>
+      <c r="K450" s="50"/>
     </row>
     <row r="451" spans="1:11">
       <c r="A451" s="3"/>
@@ -8652,7 +8698,7 @@
       <c r="H451" s="3"/>
       <c r="I451" s="3"/>
       <c r="J451" s="3"/>
-      <c r="K451" s="49"/>
+      <c r="K451" s="50"/>
     </row>
     <row r="452" spans="1:11">
       <c r="A452" s="3"/>
@@ -8664,7 +8710,7 @@
       <c r="H452" s="3"/>
       <c r="I452" s="3"/>
       <c r="J452" s="3"/>
-      <c r="K452" s="49"/>
+      <c r="K452" s="50"/>
     </row>
     <row r="453" spans="1:11">
       <c r="A453" s="3"/>
@@ -8676,7 +8722,7 @@
       <c r="H453" s="3"/>
       <c r="I453" s="3"/>
       <c r="J453" s="3"/>
-      <c r="K453" s="49"/>
+      <c r="K453" s="50"/>
     </row>
     <row r="454" spans="1:11">
       <c r="A454" s="3"/>
@@ -8688,7 +8734,7 @@
       <c r="H454" s="3"/>
       <c r="I454" s="3"/>
       <c r="J454" s="3"/>
-      <c r="K454" s="49"/>
+      <c r="K454" s="50"/>
     </row>
     <row r="455" spans="1:11">
       <c r="A455" s="3"/>
@@ -8700,7 +8746,7 @@
       <c r="H455" s="3"/>
       <c r="I455" s="3"/>
       <c r="J455" s="3"/>
-      <c r="K455" s="49"/>
+      <c r="K455" s="50"/>
     </row>
     <row r="456" spans="1:11">
       <c r="A456" s="3"/>
@@ -8712,7 +8758,7 @@
       <c r="H456" s="3"/>
       <c r="I456" s="3"/>
       <c r="J456" s="3"/>
-      <c r="K456" s="49"/>
+      <c r="K456" s="50"/>
     </row>
     <row r="457" spans="1:11">
       <c r="A457" s="3"/>
@@ -8724,7 +8770,7 @@
       <c r="H457" s="3"/>
       <c r="I457" s="3"/>
       <c r="J457" s="3"/>
-      <c r="K457" s="49"/>
+      <c r="K457" s="50"/>
     </row>
     <row r="458" spans="1:11">
       <c r="A458" s="3"/>
@@ -8736,7 +8782,7 @@
       <c r="H458" s="3"/>
       <c r="I458" s="3"/>
       <c r="J458" s="3"/>
-      <c r="K458" s="49"/>
+      <c r="K458" s="50"/>
     </row>
     <row r="459" spans="1:11">
       <c r="A459" s="3"/>
@@ -8748,7 +8794,7 @@
       <c r="H459" s="3"/>
       <c r="I459" s="3"/>
       <c r="J459" s="3"/>
-      <c r="K459" s="49"/>
+      <c r="K459" s="50"/>
     </row>
     <row r="460" spans="1:11">
       <c r="A460" s="3"/>
@@ -8760,7 +8806,7 @@
       <c r="H460" s="3"/>
       <c r="I460" s="3"/>
       <c r="J460" s="3"/>
-      <c r="K460" s="49"/>
+      <c r="K460" s="50"/>
     </row>
     <row r="461" spans="1:11">
       <c r="A461" s="3"/>
@@ -8772,7 +8818,7 @@
       <c r="H461" s="3"/>
       <c r="I461" s="3"/>
       <c r="J461" s="3"/>
-      <c r="K461" s="49"/>
+      <c r="K461" s="50"/>
     </row>
     <row r="462" spans="1:11">
       <c r="A462" s="3"/>
@@ -8784,7 +8830,7 @@
       <c r="H462" s="3"/>
       <c r="I462" s="3"/>
       <c r="J462" s="3"/>
-      <c r="K462" s="49"/>
+      <c r="K462" s="50"/>
     </row>
     <row r="463" spans="1:11">
       <c r="A463" s="3"/>
@@ -8796,7 +8842,7 @@
       <c r="H463" s="3"/>
       <c r="I463" s="3"/>
       <c r="J463" s="3"/>
-      <c r="K463" s="49"/>
+      <c r="K463" s="50"/>
     </row>
     <row r="464" spans="1:2">
       <c r="A464" s="3"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易计划202112.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易计划202112.xlsx
@@ -2369,7 +2369,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="M21" sqref="M21"/>
+      <selection pane="bottomRight" activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.82142857142857" defaultRowHeight="12.4"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易计划202112.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易计划202112.xlsx
@@ -2369,7 +2369,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F13" sqref="F13"/>
+      <selection pane="bottomRight" activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.82142857142857" defaultRowHeight="12.4"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易计划202112.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易计划202112.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67">
   <si>
     <t>计划编码</t>
   </si>
@@ -246,6 +246,9 @@
   </si>
   <si>
     <t>金开新能</t>
+  </si>
+  <si>
+    <t>JH_00020</t>
   </si>
   <si>
     <t>000069</t>
@@ -1010,7 +1013,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1101,6 +1104,9 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1193,6 +1199,9 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" quotePrefix="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2365,11 +2374,11 @@
   <dimension ref="A1:BA543"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H20" sqref="H20"/>
+      <selection pane="bottomRight" activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.82142857142857" defaultRowHeight="12.4"/>
@@ -2419,102 +2428,102 @@
       <c r="J1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="39" t="s">
+      <c r="K1" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="40" t="s">
+      <c r="L1" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="51" t="s">
+      <c r="M1" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="52"/>
-      <c r="O1" s="52"/>
-      <c r="P1" s="52"/>
-      <c r="Q1" s="52"/>
-      <c r="R1" s="52"/>
-      <c r="S1" s="52"/>
-      <c r="T1" s="52"/>
-      <c r="V1" s="58"/>
-      <c r="W1" s="58"/>
-      <c r="X1" s="58"/>
-      <c r="Y1" s="58"/>
-      <c r="Z1" s="58"/>
-      <c r="AA1" s="58"/>
-      <c r="AB1" s="58"/>
-      <c r="AC1" s="58"/>
-      <c r="AE1" s="58"/>
-      <c r="AF1" s="58"/>
-      <c r="AG1" s="58"/>
-      <c r="AH1" s="58"/>
-      <c r="AI1" s="58"/>
-      <c r="AJ1" s="58"/>
-      <c r="AK1" s="58"/>
-      <c r="AM1" s="58"/>
-      <c r="AN1" s="58"/>
-      <c r="AO1" s="58"/>
-      <c r="AP1" s="58"/>
-      <c r="AQ1" s="58"/>
-      <c r="AR1" s="58"/>
-      <c r="AS1" s="58"/>
-      <c r="AU1" s="58"/>
-      <c r="AV1" s="58"/>
-      <c r="AW1" s="58"/>
-      <c r="AX1" s="58"/>
-      <c r="AY1" s="58"/>
-      <c r="AZ1" s="58"/>
-      <c r="BA1" s="58"/>
+      <c r="N1" s="53"/>
+      <c r="O1" s="53"/>
+      <c r="P1" s="53"/>
+      <c r="Q1" s="53"/>
+      <c r="R1" s="53"/>
+      <c r="S1" s="53"/>
+      <c r="T1" s="53"/>
+      <c r="V1" s="59"/>
+      <c r="W1" s="59"/>
+      <c r="X1" s="59"/>
+      <c r="Y1" s="59"/>
+      <c r="Z1" s="59"/>
+      <c r="AA1" s="59"/>
+      <c r="AB1" s="59"/>
+      <c r="AC1" s="59"/>
+      <c r="AE1" s="59"/>
+      <c r="AF1" s="59"/>
+      <c r="AG1" s="59"/>
+      <c r="AH1" s="59"/>
+      <c r="AI1" s="59"/>
+      <c r="AJ1" s="59"/>
+      <c r="AK1" s="59"/>
+      <c r="AM1" s="59"/>
+      <c r="AN1" s="59"/>
+      <c r="AO1" s="59"/>
+      <c r="AP1" s="59"/>
+      <c r="AQ1" s="59"/>
+      <c r="AR1" s="59"/>
+      <c r="AS1" s="59"/>
+      <c r="AU1" s="59"/>
+      <c r="AV1" s="59"/>
+      <c r="AW1" s="59"/>
+      <c r="AX1" s="59"/>
+      <c r="AY1" s="59"/>
+      <c r="AZ1" s="59"/>
+      <c r="BA1" s="59"/>
     </row>
     <row r="2" ht="23.6" spans="1:53">
       <c r="A2" s="6"/>
       <c r="B2" s="7"/>
       <c r="C2" s="8"/>
       <c r="D2" s="10"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
       <c r="H2" s="9"/>
       <c r="I2" s="9"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="53"/>
-      <c r="N2" s="52"/>
-      <c r="O2" s="52"/>
-      <c r="P2" s="52"/>
-      <c r="Q2" s="52"/>
-      <c r="R2" s="52"/>
-      <c r="S2" s="52"/>
-      <c r="T2" s="52"/>
-      <c r="V2" s="58"/>
-      <c r="W2" s="58"/>
-      <c r="X2" s="58"/>
-      <c r="Y2" s="58"/>
-      <c r="Z2" s="58"/>
-      <c r="AA2" s="58"/>
-      <c r="AB2" s="58"/>
-      <c r="AC2" s="58"/>
-      <c r="AE2" s="58"/>
-      <c r="AF2" s="58"/>
-      <c r="AG2" s="58"/>
-      <c r="AH2" s="58"/>
-      <c r="AI2" s="58"/>
-      <c r="AJ2" s="58"/>
-      <c r="AK2" s="58"/>
-      <c r="AM2" s="58"/>
-      <c r="AN2" s="58"/>
-      <c r="AO2" s="58"/>
-      <c r="AP2" s="58"/>
-      <c r="AQ2" s="58"/>
-      <c r="AR2" s="58"/>
-      <c r="AS2" s="58"/>
-      <c r="AU2" s="58"/>
-      <c r="AV2" s="58"/>
-      <c r="AW2" s="58"/>
-      <c r="AX2" s="58"/>
-      <c r="AY2" s="58"/>
-      <c r="AZ2" s="58"/>
-      <c r="BA2" s="58"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="54"/>
+      <c r="N2" s="53"/>
+      <c r="O2" s="53"/>
+      <c r="P2" s="53"/>
+      <c r="Q2" s="53"/>
+      <c r="R2" s="53"/>
+      <c r="S2" s="53"/>
+      <c r="T2" s="53"/>
+      <c r="V2" s="59"/>
+      <c r="W2" s="59"/>
+      <c r="X2" s="59"/>
+      <c r="Y2" s="59"/>
+      <c r="Z2" s="59"/>
+      <c r="AA2" s="59"/>
+      <c r="AB2" s="59"/>
+      <c r="AC2" s="59"/>
+      <c r="AE2" s="59"/>
+      <c r="AF2" s="59"/>
+      <c r="AG2" s="59"/>
+      <c r="AH2" s="59"/>
+      <c r="AI2" s="59"/>
+      <c r="AJ2" s="59"/>
+      <c r="AK2" s="59"/>
+      <c r="AM2" s="59"/>
+      <c r="AN2" s="59"/>
+      <c r="AO2" s="59"/>
+      <c r="AP2" s="59"/>
+      <c r="AQ2" s="59"/>
+      <c r="AR2" s="59"/>
+      <c r="AS2" s="59"/>
+      <c r="AU2" s="59"/>
+      <c r="AV2" s="59"/>
+      <c r="AW2" s="59"/>
+      <c r="AX2" s="59"/>
+      <c r="AY2" s="59"/>
+      <c r="AZ2" s="59"/>
+      <c r="BA2" s="59"/>
     </row>
     <row r="3" customFormat="1" ht="23.6" spans="1:53">
       <c r="A3" s="11" t="s">
@@ -2529,74 +2538,74 @@
       <c r="D3" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="35">
+      <c r="E3" s="36">
         <v>34.12</v>
       </c>
-      <c r="F3" s="35">
+      <c r="F3" s="36">
         <v>32.53</v>
       </c>
-      <c r="G3" s="35">
+      <c r="G3" s="36">
         <v>39.33</v>
       </c>
-      <c r="H3" s="35">
+      <c r="H3" s="36">
         <f t="shared" ref="H3:H20" si="0">(E3-F3)*100</f>
         <v>159</v>
       </c>
-      <c r="I3" s="35">
+      <c r="I3" s="36">
         <f>FLOOR(1000/(E3-F3),100)</f>
         <v>600</v>
       </c>
-      <c r="J3" s="41">
+      <c r="J3" s="42">
         <f t="shared" ref="J3:J11" si="1">(G3-E3)/(E3-F3)</f>
         <v>3.27672955974844</v>
       </c>
-      <c r="K3" s="42">
+      <c r="K3" s="43">
         <f t="shared" ref="K3:K14" si="2">(E3-F3)/E3</f>
         <v>0.0466002344665884</v>
       </c>
-      <c r="L3" s="43">
+      <c r="L3" s="44">
         <f t="shared" ref="L3:L11" si="3">(G3-E3)/E3</f>
         <v>0.152696365767878</v>
       </c>
       <c r="M3" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="N3" s="52"/>
-      <c r="O3" s="52"/>
-      <c r="P3" s="52"/>
-      <c r="Q3" s="52"/>
-      <c r="R3" s="52"/>
-      <c r="S3" s="52"/>
-      <c r="T3" s="52"/>
-      <c r="V3" s="58"/>
-      <c r="W3" s="58"/>
-      <c r="X3" s="58"/>
-      <c r="Y3" s="58"/>
-      <c r="Z3" s="58"/>
-      <c r="AA3" s="58"/>
-      <c r="AB3" s="58"/>
-      <c r="AC3" s="58"/>
-      <c r="AE3" s="58"/>
-      <c r="AF3" s="58"/>
-      <c r="AG3" s="58"/>
-      <c r="AH3" s="58"/>
-      <c r="AI3" s="58"/>
-      <c r="AJ3" s="58"/>
-      <c r="AK3" s="58"/>
-      <c r="AM3" s="58"/>
-      <c r="AN3" s="58"/>
-      <c r="AO3" s="58"/>
-      <c r="AP3" s="58"/>
-      <c r="AQ3" s="58"/>
-      <c r="AR3" s="58"/>
-      <c r="AS3" s="58"/>
-      <c r="AU3" s="58"/>
-      <c r="AV3" s="58"/>
-      <c r="AW3" s="58"/>
-      <c r="AX3" s="58"/>
-      <c r="AY3" s="58"/>
-      <c r="AZ3" s="58"/>
-      <c r="BA3" s="58"/>
+      <c r="N3" s="53"/>
+      <c r="O3" s="53"/>
+      <c r="P3" s="53"/>
+      <c r="Q3" s="53"/>
+      <c r="R3" s="53"/>
+      <c r="S3" s="53"/>
+      <c r="T3" s="53"/>
+      <c r="V3" s="59"/>
+      <c r="W3" s="59"/>
+      <c r="X3" s="59"/>
+      <c r="Y3" s="59"/>
+      <c r="Z3" s="59"/>
+      <c r="AA3" s="59"/>
+      <c r="AB3" s="59"/>
+      <c r="AC3" s="59"/>
+      <c r="AE3" s="59"/>
+      <c r="AF3" s="59"/>
+      <c r="AG3" s="59"/>
+      <c r="AH3" s="59"/>
+      <c r="AI3" s="59"/>
+      <c r="AJ3" s="59"/>
+      <c r="AK3" s="59"/>
+      <c r="AM3" s="59"/>
+      <c r="AN3" s="59"/>
+      <c r="AO3" s="59"/>
+      <c r="AP3" s="59"/>
+      <c r="AQ3" s="59"/>
+      <c r="AR3" s="59"/>
+      <c r="AS3" s="59"/>
+      <c r="AU3" s="59"/>
+      <c r="AV3" s="59"/>
+      <c r="AW3" s="59"/>
+      <c r="AX3" s="59"/>
+      <c r="AY3" s="59"/>
+      <c r="AZ3" s="59"/>
+      <c r="BA3" s="59"/>
     </row>
     <row r="4" customFormat="1" ht="23.6" spans="1:53">
       <c r="A4" s="11" t="s">
@@ -2611,74 +2620,74 @@
       <c r="D4" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="35">
+      <c r="E4" s="36">
         <v>32.65</v>
       </c>
-      <c r="F4" s="35">
+      <c r="F4" s="36">
         <v>30.89</v>
       </c>
-      <c r="G4" s="35">
+      <c r="G4" s="36">
         <v>36.22</v>
       </c>
-      <c r="H4" s="35">
+      <c r="H4" s="36">
         <f t="shared" si="0"/>
         <v>176</v>
       </c>
-      <c r="I4" s="35">
+      <c r="I4" s="36">
         <f>FLOOR(1000/(E4-F4),100)</f>
         <v>500</v>
       </c>
-      <c r="J4" s="41">
+      <c r="J4" s="42">
         <f t="shared" si="1"/>
         <v>2.02840909090909</v>
       </c>
-      <c r="K4" s="42">
+      <c r="K4" s="43">
         <f t="shared" si="2"/>
         <v>0.0539050535987748</v>
       </c>
-      <c r="L4" s="43">
+      <c r="L4" s="44">
         <f t="shared" si="3"/>
         <v>0.109341500765697</v>
       </c>
       <c r="M4" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="N4" s="52"/>
-      <c r="O4" s="52"/>
-      <c r="P4" s="52"/>
-      <c r="Q4" s="52"/>
-      <c r="R4" s="52"/>
-      <c r="S4" s="52"/>
-      <c r="T4" s="52"/>
-      <c r="V4" s="58"/>
-      <c r="W4" s="58"/>
-      <c r="X4" s="58"/>
-      <c r="Y4" s="58"/>
-      <c r="Z4" s="58"/>
-      <c r="AA4" s="58"/>
-      <c r="AB4" s="58"/>
-      <c r="AC4" s="58"/>
-      <c r="AE4" s="58"/>
-      <c r="AF4" s="58"/>
-      <c r="AG4" s="58"/>
-      <c r="AH4" s="58"/>
-      <c r="AI4" s="58"/>
-      <c r="AJ4" s="58"/>
-      <c r="AK4" s="58"/>
-      <c r="AM4" s="58"/>
-      <c r="AN4" s="58"/>
-      <c r="AO4" s="58"/>
-      <c r="AP4" s="58"/>
-      <c r="AQ4" s="58"/>
-      <c r="AR4" s="58"/>
-      <c r="AS4" s="58"/>
-      <c r="AU4" s="58"/>
-      <c r="AV4" s="58"/>
-      <c r="AW4" s="58"/>
-      <c r="AX4" s="58"/>
-      <c r="AY4" s="58"/>
-      <c r="AZ4" s="58"/>
-      <c r="BA4" s="58"/>
+      <c r="N4" s="53"/>
+      <c r="O4" s="53"/>
+      <c r="P4" s="53"/>
+      <c r="Q4" s="53"/>
+      <c r="R4" s="53"/>
+      <c r="S4" s="53"/>
+      <c r="T4" s="53"/>
+      <c r="V4" s="59"/>
+      <c r="W4" s="59"/>
+      <c r="X4" s="59"/>
+      <c r="Y4" s="59"/>
+      <c r="Z4" s="59"/>
+      <c r="AA4" s="59"/>
+      <c r="AB4" s="59"/>
+      <c r="AC4" s="59"/>
+      <c r="AE4" s="59"/>
+      <c r="AF4" s="59"/>
+      <c r="AG4" s="59"/>
+      <c r="AH4" s="59"/>
+      <c r="AI4" s="59"/>
+      <c r="AJ4" s="59"/>
+      <c r="AK4" s="59"/>
+      <c r="AM4" s="59"/>
+      <c r="AN4" s="59"/>
+      <c r="AO4" s="59"/>
+      <c r="AP4" s="59"/>
+      <c r="AQ4" s="59"/>
+      <c r="AR4" s="59"/>
+      <c r="AS4" s="59"/>
+      <c r="AU4" s="59"/>
+      <c r="AV4" s="59"/>
+      <c r="AW4" s="59"/>
+      <c r="AX4" s="59"/>
+      <c r="AY4" s="59"/>
+      <c r="AZ4" s="59"/>
+      <c r="BA4" s="59"/>
     </row>
     <row r="5" s="1" customFormat="1" ht="38" spans="1:14">
       <c r="A5" s="11" t="s">
@@ -2693,39 +2702,39 @@
       <c r="D5" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="35">
+      <c r="E5" s="36">
         <v>51.15</v>
       </c>
-      <c r="F5" s="35">
+      <c r="F5" s="36">
         <v>46.61</v>
       </c>
-      <c r="G5" s="35">
+      <c r="G5" s="36">
         <v>59.59</v>
       </c>
-      <c r="H5" s="35">
+      <c r="H5" s="36">
         <f t="shared" si="0"/>
         <v>454</v>
       </c>
-      <c r="I5" s="35">
+      <c r="I5" s="36">
         <f t="shared" ref="I5:I20" si="4">FLOOR(1000/(E5-F5),100)</f>
         <v>200</v>
       </c>
-      <c r="J5" s="41">
+      <c r="J5" s="42">
         <f t="shared" si="1"/>
         <v>1.85903083700441</v>
       </c>
-      <c r="K5" s="42">
+      <c r="K5" s="43">
         <f t="shared" si="2"/>
         <v>0.0887585532746823</v>
       </c>
-      <c r="L5" s="43">
+      <c r="L5" s="44">
         <f t="shared" si="3"/>
         <v>0.165004887585533</v>
       </c>
-      <c r="M5" s="54" t="s">
+      <c r="M5" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="N5" s="55"/>
+      <c r="N5" s="56"/>
     </row>
     <row r="6" s="1" customFormat="1" ht="13" spans="1:14">
       <c r="A6" s="11" t="s">
@@ -2740,39 +2749,39 @@
       <c r="D6" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="36">
+      <c r="E6" s="37">
         <v>143.8</v>
       </c>
-      <c r="F6" s="36">
+      <c r="F6" s="37">
         <v>137.88</v>
       </c>
-      <c r="G6" s="36">
+      <c r="G6" s="37">
         <v>158.48</v>
       </c>
-      <c r="H6" s="35">
+      <c r="H6" s="36">
         <f t="shared" si="0"/>
         <v>592.000000000002</v>
       </c>
-      <c r="I6" s="35">
+      <c r="I6" s="36">
         <f t="shared" si="4"/>
         <v>100</v>
       </c>
-      <c r="J6" s="41">
+      <c r="J6" s="42">
         <f t="shared" si="1"/>
         <v>2.47972972972972</v>
       </c>
-      <c r="K6" s="42">
+      <c r="K6" s="43">
         <f t="shared" si="2"/>
         <v>0.0411682892906816</v>
       </c>
-      <c r="L6" s="43">
+      <c r="L6" s="44">
         <f t="shared" si="3"/>
         <v>0.102086230876217</v>
       </c>
       <c r="M6" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="N6" s="55"/>
+      <c r="N6" s="56"/>
     </row>
     <row r="7" s="1" customFormat="1" ht="38" spans="1:14">
       <c r="A7" s="11" t="s">
@@ -2787,39 +2796,39 @@
       <c r="D7" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="36">
+      <c r="E7" s="37">
         <v>20.44</v>
       </c>
-      <c r="F7" s="36">
+      <c r="F7" s="37">
         <v>19.09</v>
       </c>
-      <c r="G7" s="36">
+      <c r="G7" s="37">
         <v>23.43</v>
       </c>
-      <c r="H7" s="35">
+      <c r="H7" s="36">
         <f t="shared" si="0"/>
         <v>135</v>
       </c>
-      <c r="I7" s="35">
+      <c r="I7" s="36">
         <f t="shared" si="4"/>
         <v>700</v>
       </c>
-      <c r="J7" s="41">
+      <c r="J7" s="42">
         <f t="shared" si="1"/>
         <v>2.21481481481481</v>
       </c>
-      <c r="K7" s="42">
+      <c r="K7" s="43">
         <f t="shared" si="2"/>
         <v>0.0660469667318983</v>
       </c>
-      <c r="L7" s="43">
+      <c r="L7" s="44">
         <f t="shared" si="3"/>
         <v>0.146281800391389</v>
       </c>
-      <c r="M7" s="54" t="s">
+      <c r="M7" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="N7" s="55"/>
+      <c r="N7" s="56"/>
     </row>
     <row r="8" s="1" customFormat="1" ht="13" spans="1:14">
       <c r="A8" s="11" t="s">
@@ -2843,30 +2852,30 @@
       <c r="G8" s="11">
         <v>20.72</v>
       </c>
-      <c r="H8" s="35">
+      <c r="H8" s="36">
         <f t="shared" si="0"/>
         <v>169</v>
       </c>
-      <c r="I8" s="35">
+      <c r="I8" s="36">
         <f t="shared" si="4"/>
         <v>500</v>
       </c>
-      <c r="J8" s="41">
+      <c r="J8" s="42">
         <f t="shared" si="1"/>
         <v>2.0887573964497</v>
       </c>
-      <c r="K8" s="42">
+      <c r="K8" s="43">
         <f t="shared" si="2"/>
         <v>0.0983129726585225</v>
       </c>
-      <c r="L8" s="43">
+      <c r="L8" s="44">
         <f t="shared" si="3"/>
         <v>0.205351948807446</v>
       </c>
       <c r="M8" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="N8" s="55"/>
+      <c r="N8" s="56"/>
     </row>
     <row r="9" s="2" customFormat="1" ht="13" spans="1:13">
       <c r="A9" s="11" t="s">
@@ -2890,23 +2899,23 @@
       <c r="G9" s="11">
         <v>65.72</v>
       </c>
-      <c r="H9" s="35">
+      <c r="H9" s="36">
         <f t="shared" si="0"/>
         <v>579</v>
       </c>
-      <c r="I9" s="35">
+      <c r="I9" s="36">
         <f t="shared" si="4"/>
         <v>100</v>
       </c>
-      <c r="J9" s="41">
+      <c r="J9" s="42">
         <f t="shared" si="1"/>
         <v>0.24525043177893</v>
       </c>
-      <c r="K9" s="42">
+      <c r="K9" s="43">
         <f t="shared" si="2"/>
         <v>0.0900466562986003</v>
       </c>
-      <c r="L9" s="43">
+      <c r="L9" s="44">
         <f t="shared" si="3"/>
         <v>0.0220839813374806</v>
       </c>
@@ -2936,23 +2945,23 @@
       <c r="G10" s="11">
         <v>44.28</v>
       </c>
-      <c r="H10" s="35">
+      <c r="H10" s="36">
         <f t="shared" si="0"/>
         <v>324</v>
       </c>
-      <c r="I10" s="35">
+      <c r="I10" s="36">
         <f t="shared" si="4"/>
         <v>300</v>
       </c>
-      <c r="J10" s="41">
+      <c r="J10" s="42">
         <f t="shared" si="1"/>
         <v>1.58333333333333</v>
       </c>
-      <c r="K10" s="42">
+      <c r="K10" s="43">
         <f t="shared" si="2"/>
         <v>0.0827586206896552</v>
       </c>
-      <c r="L10" s="43">
+      <c r="L10" s="44">
         <f t="shared" si="3"/>
         <v>0.131034482758621</v>
       </c>
@@ -2967,7 +2976,7 @@
       <c r="B11" s="15">
         <v>44539</v>
       </c>
-      <c r="C11" s="59" t="s">
+      <c r="C11" s="60" t="s">
         <v>38</v>
       </c>
       <c r="D11" s="22" t="s">
@@ -2982,30 +2991,30 @@
       <c r="G11" s="11">
         <v>131.73</v>
       </c>
-      <c r="H11" s="35">
+      <c r="H11" s="36">
         <f t="shared" si="0"/>
         <v>663</v>
       </c>
-      <c r="I11" s="35">
+      <c r="I11" s="36">
         <f t="shared" si="4"/>
         <v>100</v>
       </c>
-      <c r="J11" s="41">
+      <c r="J11" s="42">
         <f t="shared" si="1"/>
         <v>2.10105580693816</v>
       </c>
-      <c r="K11" s="42">
+      <c r="K11" s="43">
         <f t="shared" si="2"/>
         <v>0.0562818336162988</v>
       </c>
-      <c r="L11" s="43">
+      <c r="L11" s="44">
         <f t="shared" si="3"/>
         <v>0.118251273344652</v>
       </c>
       <c r="M11" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="N11" s="55"/>
+      <c r="N11" s="56"/>
     </row>
     <row r="12" s="2" customFormat="1" ht="24" spans="1:13">
       <c r="A12" s="11" t="s">
@@ -3029,25 +3038,25 @@
       <c r="G12" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="H12" s="35">
+      <c r="H12" s="36">
         <f t="shared" si="0"/>
         <v>270</v>
       </c>
-      <c r="I12" s="35">
+      <c r="I12" s="36">
         <f t="shared" si="4"/>
         <v>300</v>
       </c>
-      <c r="J12" s="41" t="s">
+      <c r="J12" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="K12" s="42">
+      <c r="K12" s="43">
         <f t="shared" si="2"/>
         <v>0.054655870445344</v>
       </c>
-      <c r="L12" s="43" t="s">
+      <c r="L12" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="M12" s="54" t="s">
+      <c r="M12" s="55" t="s">
         <v>43</v>
       </c>
     </row>
@@ -3064,32 +3073,32 @@
       <c r="D13" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="35">
+      <c r="E13" s="36">
         <v>37.73</v>
       </c>
-      <c r="F13" s="35">
+      <c r="F13" s="36">
         <v>34.68</v>
       </c>
-      <c r="G13" s="35">
+      <c r="G13" s="36">
         <v>46.05</v>
       </c>
-      <c r="H13" s="35">
+      <c r="H13" s="36">
         <f t="shared" si="0"/>
         <v>305</v>
       </c>
-      <c r="I13" s="35">
+      <c r="I13" s="36">
         <f t="shared" si="4"/>
         <v>300</v>
       </c>
-      <c r="J13" s="41">
+      <c r="J13" s="42">
         <f>(G13-E13)/(E13-F13)</f>
         <v>2.72786885245902</v>
       </c>
-      <c r="K13" s="42">
+      <c r="K13" s="43">
         <f t="shared" si="2"/>
         <v>0.0808375298171216</v>
       </c>
-      <c r="L13" s="43">
+      <c r="L13" s="44">
         <f t="shared" ref="L13:L20" si="5">(G13-E13)/E13</f>
         <v>0.220514179697853</v>
       </c>
@@ -3104,7 +3113,7 @@
       <c r="B14" s="23">
         <v>44525</v>
       </c>
-      <c r="C14" s="60" t="s">
+      <c r="C14" s="61" t="s">
         <v>46</v>
       </c>
       <c r="D14" s="17" t="s">
@@ -3119,27 +3128,27 @@
       <c r="G14" s="24">
         <v>84.94</v>
       </c>
-      <c r="H14" s="37">
+      <c r="H14" s="38">
         <f t="shared" si="0"/>
         <v>410.000000000001</v>
       </c>
-      <c r="I14" s="35">
+      <c r="I14" s="36">
         <f t="shared" si="4"/>
         <v>200</v>
       </c>
-      <c r="J14" s="41">
+      <c r="J14" s="42">
         <f t="shared" ref="J14:J20" si="6">(G14-E14)/(E14-F14)</f>
         <v>3.40487804878048</v>
       </c>
-      <c r="K14" s="42">
+      <c r="K14" s="43">
         <f t="shared" ref="K14:K20" si="7">(E14-F14)/E14</f>
         <v>0.0577627500704425</v>
       </c>
-      <c r="L14" s="44">
+      <c r="L14" s="45">
         <f t="shared" si="5"/>
         <v>0.196675119752043</v>
       </c>
-      <c r="M14" s="56" t="s">
+      <c r="M14" s="57" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3165,27 +3174,27 @@
       <c r="G15" s="24">
         <v>34.93</v>
       </c>
-      <c r="H15" s="37">
+      <c r="H15" s="38">
         <f t="shared" si="0"/>
         <v>205</v>
       </c>
-      <c r="I15" s="35">
+      <c r="I15" s="36">
         <f t="shared" si="4"/>
         <v>400</v>
       </c>
-      <c r="J15" s="41">
+      <c r="J15" s="42">
         <f t="shared" si="6"/>
         <v>2.51707317073171</v>
       </c>
-      <c r="K15" s="45">
+      <c r="K15" s="46">
         <f t="shared" si="7"/>
         <v>0.0688612697346322</v>
       </c>
-      <c r="L15" s="44">
+      <c r="L15" s="45">
         <f t="shared" si="5"/>
         <v>0.173328854551562</v>
       </c>
-      <c r="M15" s="56" t="s">
+      <c r="M15" s="57" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3211,27 +3220,27 @@
       <c r="G16" s="24">
         <v>38.71</v>
       </c>
-      <c r="H16" s="37">
+      <c r="H16" s="38">
         <f t="shared" si="0"/>
         <v>131</v>
       </c>
-      <c r="I16" s="35">
+      <c r="I16" s="36">
         <f t="shared" si="4"/>
         <v>700</v>
       </c>
-      <c r="J16" s="41">
+      <c r="J16" s="42">
         <f t="shared" si="6"/>
         <v>6.14503816793894</v>
       </c>
-      <c r="K16" s="45">
+      <c r="K16" s="46">
         <f t="shared" si="7"/>
         <v>0.042726679712981</v>
       </c>
-      <c r="L16" s="44">
+      <c r="L16" s="45">
         <f t="shared" si="5"/>
         <v>0.262557077625571</v>
       </c>
-      <c r="M16" s="56" t="s">
+      <c r="M16" s="57" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3248,36 +3257,36 @@
       <c r="D17" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="E17" s="37">
+      <c r="E17" s="38">
         <v>26.2</v>
       </c>
-      <c r="F17" s="37">
+      <c r="F17" s="38">
         <v>24.68</v>
       </c>
-      <c r="G17" s="37">
+      <c r="G17" s="38">
         <v>32.49</v>
       </c>
-      <c r="H17" s="37">
+      <c r="H17" s="38">
         <f t="shared" si="0"/>
         <v>152</v>
       </c>
-      <c r="I17" s="35">
+      <c r="I17" s="36">
         <f t="shared" si="4"/>
         <v>600</v>
       </c>
-      <c r="J17" s="41">
+      <c r="J17" s="42">
         <f t="shared" si="6"/>
         <v>4.13815789473685</v>
       </c>
-      <c r="K17" s="45">
+      <c r="K17" s="46">
         <f t="shared" si="7"/>
         <v>0.0580152671755725</v>
       </c>
-      <c r="L17" s="44">
+      <c r="L17" s="45">
         <f t="shared" si="5"/>
         <v>0.240076335877863</v>
       </c>
-      <c r="M17" s="56" t="s">
+      <c r="M17" s="57" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3288,7 +3297,7 @@
       <c r="B18" s="23">
         <v>44533</v>
       </c>
-      <c r="C18" s="60" t="s">
+      <c r="C18" s="61" t="s">
         <v>56</v>
       </c>
       <c r="D18" s="17" t="s">
@@ -3303,27 +3312,27 @@
       <c r="G18" s="24">
         <v>32.36</v>
       </c>
-      <c r="H18" s="37">
+      <c r="H18" s="38">
         <f t="shared" si="0"/>
         <v>251</v>
       </c>
-      <c r="I18" s="35">
+      <c r="I18" s="36">
         <f t="shared" si="4"/>
         <v>300</v>
       </c>
-      <c r="J18" s="41">
+      <c r="J18" s="42">
         <f t="shared" si="6"/>
         <v>1.41035856573705</v>
       </c>
-      <c r="K18" s="45">
+      <c r="K18" s="46">
         <f t="shared" si="7"/>
         <v>0.0870922970159612</v>
       </c>
-      <c r="L18" s="44">
+      <c r="L18" s="45">
         <f t="shared" si="5"/>
         <v>0.122831367106176</v>
       </c>
-      <c r="M18" s="56" t="s">
+      <c r="M18" s="57" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3340,36 +3349,36 @@
       <c r="D19" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E19" s="30">
+      <c r="E19" s="31">
         <v>38.89</v>
       </c>
-      <c r="F19" s="30">
+      <c r="F19" s="31">
         <v>36.65</v>
       </c>
-      <c r="G19" s="30">
+      <c r="G19" s="31">
         <v>40.7</v>
       </c>
-      <c r="H19" s="37">
+      <c r="H19" s="38">
         <f t="shared" si="0"/>
         <v>224</v>
       </c>
-      <c r="I19" s="35">
+      <c r="I19" s="36">
         <f t="shared" si="4"/>
         <v>400</v>
       </c>
-      <c r="J19" s="41">
+      <c r="J19" s="42">
         <f t="shared" si="6"/>
         <v>0.808035714285715</v>
       </c>
-      <c r="K19" s="45">
+      <c r="K19" s="46">
         <f t="shared" si="7"/>
         <v>0.0575983543327334</v>
       </c>
-      <c r="L19" s="44">
+      <c r="L19" s="45">
         <f t="shared" si="5"/>
         <v>0.0465415273849319</v>
       </c>
-      <c r="M19" s="56" t="s">
+      <c r="M19" s="57" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3386,36 +3395,36 @@
       <c r="D20" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="E20" s="30">
+      <c r="E20" s="31">
         <v>27.73</v>
       </c>
-      <c r="F20" s="30">
+      <c r="F20" s="31">
         <v>25.3</v>
       </c>
-      <c r="G20" s="30">
+      <c r="G20" s="31">
         <v>31.94</v>
       </c>
-      <c r="H20" s="37">
+      <c r="H20" s="38">
         <f t="shared" si="0"/>
         <v>243</v>
       </c>
-      <c r="I20" s="35">
+      <c r="I20" s="36">
         <f t="shared" si="4"/>
         <v>400</v>
       </c>
-      <c r="J20" s="41">
+      <c r="J20" s="42">
         <f t="shared" si="6"/>
         <v>1.73251028806584</v>
       </c>
-      <c r="K20" s="45">
+      <c r="K20" s="46">
         <f t="shared" si="7"/>
         <v>0.0876307248467364</v>
       </c>
-      <c r="L20" s="44">
+      <c r="L20" s="45">
         <f t="shared" si="5"/>
         <v>0.151821132347638</v>
       </c>
-      <c r="M20" s="57" t="s">
+      <c r="M20" s="58" t="s">
         <v>28</v>
       </c>
     </row>
@@ -3432,404 +3441,435 @@
       <c r="D21" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="E21" s="30">
+      <c r="E21" s="31">
         <v>11.75</v>
       </c>
-      <c r="F21" s="30">
+      <c r="F21" s="31">
         <v>10.9</v>
       </c>
-      <c r="G21" s="30">
+      <c r="G21" s="31">
         <v>14.54</v>
       </c>
-      <c r="H21" s="37">
+      <c r="H21" s="38">
         <f>(E21-F21)*100</f>
         <v>85</v>
       </c>
-      <c r="I21" s="35">
+      <c r="I21" s="36">
         <f>FLOOR(1000/(E21-F21),100)</f>
         <v>1100</v>
       </c>
-      <c r="J21" s="41">
+      <c r="J21" s="42">
         <f>(G21-E21)/(E21-F21)</f>
         <v>3.28235294117647</v>
       </c>
-      <c r="K21" s="45">
+      <c r="K21" s="46">
         <f>(E21-F21)/E21</f>
         <v>0.0723404255319149</v>
       </c>
-      <c r="L21" s="44">
+      <c r="L21" s="45">
         <f>(G21-E21)/E21</f>
         <v>0.237446808510638</v>
       </c>
-      <c r="M21" s="57" t="s">
+      <c r="M21" s="58" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="22" s="2" customFormat="1" spans="1:13">
-      <c r="A22" s="30"/>
-      <c r="B22" s="26"/>
-      <c r="C22" s="31"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="30"/>
-      <c r="F22" s="30"/>
-      <c r="G22" s="30"/>
-      <c r="H22" s="38"/>
-      <c r="I22" s="30"/>
-      <c r="J22" s="46"/>
-      <c r="K22" s="47"/>
-      <c r="L22" s="48"/>
-      <c r="M22" s="57"/>
+    <row r="22" s="2" customFormat="1" ht="13" spans="1:13">
+      <c r="A22" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="B22" s="26">
+        <v>44546</v>
+      </c>
+      <c r="C22" s="62" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="E22" s="31">
+        <v>74.46</v>
+      </c>
+      <c r="F22" s="31">
+        <v>70.54</v>
+      </c>
+      <c r="G22" s="31">
+        <v>83.27</v>
+      </c>
+      <c r="H22" s="38">
+        <f>(E22-F22)*100</f>
+        <v>391.999999999999</v>
+      </c>
+      <c r="I22" s="36">
+        <f>FLOOR(1000/(E22-F22),100)</f>
+        <v>200</v>
+      </c>
+      <c r="J22" s="42">
+        <f>(G22-E22)/(E22-F22)</f>
+        <v>2.24744897959184</v>
+      </c>
+      <c r="K22" s="46">
+        <f>(E22-F22)/E22</f>
+        <v>0.0526457158205746</v>
+      </c>
+      <c r="L22" s="45">
+        <f>(G22-E22)/E22</f>
+        <v>0.118318560300833</v>
+      </c>
+      <c r="M22" s="58" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="23" s="2" customFormat="1" spans="1:13">
-      <c r="A23" s="30"/>
+      <c r="A23" s="31"/>
       <c r="B23" s="26"/>
-      <c r="C23" s="31"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="30"/>
-      <c r="F23" s="30"/>
-      <c r="G23" s="30"/>
-      <c r="H23" s="38"/>
-      <c r="I23" s="30"/>
-      <c r="J23" s="46"/>
-      <c r="K23" s="47"/>
-      <c r="L23" s="48"/>
-      <c r="M23" s="30"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="31"/>
+      <c r="H23" s="39"/>
+      <c r="I23" s="31"/>
+      <c r="J23" s="47"/>
+      <c r="K23" s="48"/>
+      <c r="L23" s="49"/>
+      <c r="M23" s="31"/>
     </row>
     <row r="24" s="2" customFormat="1" spans="1:13">
-      <c r="A24" s="30"/>
+      <c r="A24" s="31"/>
       <c r="B24" s="26"/>
-      <c r="C24" s="31"/>
-      <c r="D24" s="30"/>
-      <c r="E24" s="30"/>
-      <c r="F24" s="30"/>
-      <c r="G24" s="30"/>
-      <c r="H24" s="38"/>
-      <c r="I24" s="30"/>
-      <c r="J24" s="46"/>
-      <c r="K24" s="47"/>
-      <c r="L24" s="48"/>
-      <c r="M24" s="30"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="39"/>
+      <c r="I24" s="31"/>
+      <c r="J24" s="47"/>
+      <c r="K24" s="48"/>
+      <c r="L24" s="49"/>
+      <c r="M24" s="31"/>
     </row>
     <row r="25" s="2" customFormat="1" spans="1:13">
-      <c r="A25" s="30"/>
+      <c r="A25" s="31"/>
       <c r="B25" s="26"/>
-      <c r="C25" s="31"/>
-      <c r="D25" s="30"/>
-      <c r="E25" s="30"/>
-      <c r="F25" s="30"/>
-      <c r="G25" s="30"/>
-      <c r="H25" s="38"/>
-      <c r="I25" s="30"/>
-      <c r="J25" s="46"/>
-      <c r="K25" s="47"/>
-      <c r="L25" s="48"/>
-      <c r="M25" s="30"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="39"/>
+      <c r="I25" s="31"/>
+      <c r="J25" s="47"/>
+      <c r="K25" s="48"/>
+      <c r="L25" s="49"/>
+      <c r="M25" s="31"/>
     </row>
     <row r="26" s="2" customFormat="1" spans="1:13">
-      <c r="A26" s="30"/>
+      <c r="A26" s="31"/>
       <c r="B26" s="26"/>
-      <c r="C26" s="31"/>
-      <c r="D26" s="30"/>
-      <c r="E26" s="30"/>
-      <c r="F26" s="30"/>
-      <c r="G26" s="30"/>
-      <c r="H26" s="38"/>
-      <c r="I26" s="30"/>
-      <c r="J26" s="46"/>
-      <c r="K26" s="47"/>
-      <c r="L26" s="48"/>
-      <c r="M26" s="30"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="31"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="31"/>
+      <c r="G26" s="31"/>
+      <c r="H26" s="39"/>
+      <c r="I26" s="31"/>
+      <c r="J26" s="47"/>
+      <c r="K26" s="48"/>
+      <c r="L26" s="49"/>
+      <c r="M26" s="31"/>
     </row>
     <row r="27" s="2" customFormat="1" spans="1:13">
-      <c r="A27" s="30"/>
+      <c r="A27" s="31"/>
       <c r="B27" s="26"/>
       <c r="C27" s="24"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="30"/>
-      <c r="G27" s="30"/>
-      <c r="H27" s="38"/>
-      <c r="I27" s="30"/>
-      <c r="J27" s="46"/>
-      <c r="K27" s="47"/>
-      <c r="L27" s="48"/>
-      <c r="M27" s="57"/>
+      <c r="D27" s="31"/>
+      <c r="E27" s="31"/>
+      <c r="F27" s="31"/>
+      <c r="G27" s="31"/>
+      <c r="H27" s="39"/>
+      <c r="I27" s="31"/>
+      <c r="J27" s="47"/>
+      <c r="K27" s="48"/>
+      <c r="L27" s="49"/>
+      <c r="M27" s="58"/>
     </row>
     <row r="28" spans="1:13">
-      <c r="A28" s="32"/>
+      <c r="A28" s="33"/>
       <c r="B28" s="26"/>
-      <c r="C28" s="33"/>
-      <c r="D28" s="32"/>
-      <c r="E28" s="32"/>
-      <c r="F28" s="32"/>
-      <c r="G28" s="32"/>
-      <c r="H28" s="32"/>
-      <c r="I28" s="32"/>
-      <c r="J28" s="32"/>
-      <c r="K28" s="47"/>
-      <c r="L28" s="49"/>
-      <c r="M28" s="57"/>
+      <c r="C28" s="34"/>
+      <c r="D28" s="33"/>
+      <c r="E28" s="33"/>
+      <c r="F28" s="33"/>
+      <c r="G28" s="33"/>
+      <c r="H28" s="33"/>
+      <c r="I28" s="33"/>
+      <c r="J28" s="33"/>
+      <c r="K28" s="48"/>
+      <c r="L28" s="50"/>
+      <c r="M28" s="58"/>
     </row>
     <row r="29" spans="1:13">
-      <c r="A29" s="32"/>
+      <c r="A29" s="33"/>
       <c r="B29" s="26"/>
-      <c r="C29" s="32"/>
-      <c r="D29" s="32"/>
-      <c r="E29" s="32"/>
-      <c r="F29" s="32"/>
-      <c r="G29" s="32"/>
-      <c r="H29" s="32"/>
-      <c r="I29" s="32"/>
-      <c r="J29" s="32"/>
-      <c r="K29" s="47"/>
-      <c r="L29" s="49"/>
-      <c r="M29" s="32"/>
+      <c r="C29" s="33"/>
+      <c r="D29" s="33"/>
+      <c r="E29" s="33"/>
+      <c r="F29" s="33"/>
+      <c r="G29" s="33"/>
+      <c r="H29" s="33"/>
+      <c r="I29" s="33"/>
+      <c r="J29" s="33"/>
+      <c r="K29" s="48"/>
+      <c r="L29" s="50"/>
+      <c r="M29" s="33"/>
     </row>
     <row r="30" spans="1:13">
-      <c r="A30" s="32"/>
-      <c r="B30" s="32"/>
-      <c r="C30" s="32"/>
-      <c r="D30" s="32"/>
-      <c r="E30" s="32"/>
-      <c r="F30" s="32"/>
-      <c r="G30" s="32"/>
-      <c r="H30" s="32"/>
-      <c r="I30" s="32"/>
-      <c r="J30" s="32"/>
-      <c r="K30" s="47"/>
-      <c r="L30" s="49"/>
-      <c r="M30" s="32"/>
+      <c r="A30" s="33"/>
+      <c r="B30" s="33"/>
+      <c r="C30" s="33"/>
+      <c r="D30" s="33"/>
+      <c r="E30" s="33"/>
+      <c r="F30" s="33"/>
+      <c r="G30" s="33"/>
+      <c r="H30" s="33"/>
+      <c r="I30" s="33"/>
+      <c r="J30" s="33"/>
+      <c r="K30" s="48"/>
+      <c r="L30" s="50"/>
+      <c r="M30" s="33"/>
     </row>
     <row r="31" spans="1:13">
-      <c r="A31" s="32"/>
-      <c r="B31" s="32"/>
-      <c r="C31" s="32"/>
-      <c r="D31" s="32"/>
-      <c r="E31" s="32"/>
-      <c r="F31" s="32"/>
-      <c r="G31" s="32"/>
-      <c r="H31" s="32"/>
-      <c r="I31" s="32"/>
-      <c r="J31" s="32"/>
-      <c r="K31" s="47"/>
-      <c r="L31" s="49"/>
-      <c r="M31" s="32"/>
+      <c r="A31" s="33"/>
+      <c r="B31" s="33"/>
+      <c r="C31" s="33"/>
+      <c r="D31" s="33"/>
+      <c r="E31" s="33"/>
+      <c r="F31" s="33"/>
+      <c r="G31" s="33"/>
+      <c r="H31" s="33"/>
+      <c r="I31" s="33"/>
+      <c r="J31" s="33"/>
+      <c r="K31" s="48"/>
+      <c r="L31" s="50"/>
+      <c r="M31" s="33"/>
     </row>
     <row r="32" spans="1:13">
-      <c r="A32" s="32"/>
-      <c r="B32" s="32"/>
-      <c r="C32" s="32"/>
-      <c r="D32" s="32"/>
-      <c r="E32" s="32"/>
-      <c r="F32" s="32"/>
-      <c r="G32" s="32"/>
-      <c r="H32" s="32"/>
-      <c r="I32" s="32"/>
-      <c r="J32" s="32"/>
-      <c r="K32" s="47"/>
-      <c r="L32" s="49"/>
-      <c r="M32" s="32"/>
+      <c r="A32" s="33"/>
+      <c r="B32" s="33"/>
+      <c r="C32" s="33"/>
+      <c r="D32" s="33"/>
+      <c r="E32" s="33"/>
+      <c r="F32" s="33"/>
+      <c r="G32" s="33"/>
+      <c r="H32" s="33"/>
+      <c r="I32" s="33"/>
+      <c r="J32" s="33"/>
+      <c r="K32" s="48"/>
+      <c r="L32" s="50"/>
+      <c r="M32" s="33"/>
     </row>
     <row r="33" spans="1:13">
-      <c r="A33" s="32"/>
-      <c r="B33" s="32"/>
-      <c r="C33" s="32"/>
-      <c r="D33" s="32"/>
-      <c r="E33" s="32"/>
-      <c r="F33" s="32"/>
-      <c r="G33" s="32"/>
-      <c r="H33" s="32"/>
-      <c r="I33" s="32"/>
-      <c r="J33" s="32"/>
-      <c r="K33" s="47"/>
-      <c r="L33" s="49"/>
-      <c r="M33" s="32"/>
+      <c r="A33" s="33"/>
+      <c r="B33" s="33"/>
+      <c r="C33" s="33"/>
+      <c r="D33" s="33"/>
+      <c r="E33" s="33"/>
+      <c r="F33" s="33"/>
+      <c r="G33" s="33"/>
+      <c r="H33" s="33"/>
+      <c r="I33" s="33"/>
+      <c r="J33" s="33"/>
+      <c r="K33" s="48"/>
+      <c r="L33" s="50"/>
+      <c r="M33" s="33"/>
     </row>
     <row r="34" spans="1:13">
-      <c r="A34" s="32"/>
-      <c r="B34" s="32"/>
-      <c r="C34" s="32"/>
-      <c r="D34" s="32"/>
-      <c r="E34" s="32"/>
-      <c r="F34" s="32"/>
-      <c r="G34" s="32"/>
-      <c r="H34" s="32"/>
-      <c r="I34" s="32"/>
-      <c r="J34" s="32"/>
-      <c r="K34" s="47"/>
-      <c r="L34" s="49"/>
-      <c r="M34" s="32"/>
+      <c r="A34" s="33"/>
+      <c r="B34" s="33"/>
+      <c r="C34" s="33"/>
+      <c r="D34" s="33"/>
+      <c r="E34" s="33"/>
+      <c r="F34" s="33"/>
+      <c r="G34" s="33"/>
+      <c r="H34" s="33"/>
+      <c r="I34" s="33"/>
+      <c r="J34" s="33"/>
+      <c r="K34" s="48"/>
+      <c r="L34" s="50"/>
+      <c r="M34" s="33"/>
     </row>
     <row r="35" spans="1:13">
-      <c r="A35" s="32"/>
-      <c r="B35" s="32"/>
-      <c r="C35" s="32"/>
-      <c r="D35" s="32"/>
-      <c r="E35" s="32"/>
-      <c r="F35" s="32"/>
-      <c r="G35" s="32"/>
-      <c r="H35" s="32"/>
-      <c r="I35" s="32"/>
-      <c r="J35" s="32"/>
-      <c r="K35" s="47"/>
-      <c r="L35" s="49"/>
-      <c r="M35" s="32"/>
+      <c r="A35" s="33"/>
+      <c r="B35" s="33"/>
+      <c r="C35" s="33"/>
+      <c r="D35" s="33"/>
+      <c r="E35" s="33"/>
+      <c r="F35" s="33"/>
+      <c r="G35" s="33"/>
+      <c r="H35" s="33"/>
+      <c r="I35" s="33"/>
+      <c r="J35" s="33"/>
+      <c r="K35" s="48"/>
+      <c r="L35" s="50"/>
+      <c r="M35" s="33"/>
     </row>
     <row r="36" spans="1:13">
-      <c r="A36" s="32"/>
-      <c r="B36" s="32"/>
-      <c r="C36" s="32"/>
-      <c r="D36" s="32"/>
-      <c r="E36" s="32"/>
-      <c r="F36" s="32"/>
-      <c r="G36" s="32"/>
-      <c r="H36" s="32"/>
-      <c r="I36" s="32"/>
-      <c r="J36" s="32"/>
-      <c r="K36" s="47"/>
-      <c r="L36" s="49"/>
-      <c r="M36" s="32"/>
+      <c r="A36" s="33"/>
+      <c r="B36" s="33"/>
+      <c r="C36" s="33"/>
+      <c r="D36" s="33"/>
+      <c r="E36" s="33"/>
+      <c r="F36" s="33"/>
+      <c r="G36" s="33"/>
+      <c r="H36" s="33"/>
+      <c r="I36" s="33"/>
+      <c r="J36" s="33"/>
+      <c r="K36" s="48"/>
+      <c r="L36" s="50"/>
+      <c r="M36" s="33"/>
     </row>
     <row r="37" spans="1:13">
-      <c r="A37" s="32"/>
-      <c r="B37" s="32"/>
-      <c r="C37" s="32"/>
-      <c r="D37" s="32"/>
-      <c r="E37" s="32"/>
-      <c r="F37" s="32"/>
-      <c r="G37" s="32"/>
-      <c r="H37" s="32"/>
-      <c r="I37" s="32"/>
-      <c r="J37" s="32"/>
-      <c r="K37" s="47"/>
-      <c r="L37" s="49"/>
-      <c r="M37" s="32"/>
+      <c r="A37" s="33"/>
+      <c r="B37" s="33"/>
+      <c r="C37" s="33"/>
+      <c r="D37" s="33"/>
+      <c r="E37" s="33"/>
+      <c r="F37" s="33"/>
+      <c r="G37" s="33"/>
+      <c r="H37" s="33"/>
+      <c r="I37" s="33"/>
+      <c r="J37" s="33"/>
+      <c r="K37" s="48"/>
+      <c r="L37" s="50"/>
+      <c r="M37" s="33"/>
     </row>
     <row r="38" spans="1:13">
-      <c r="A38" s="32"/>
-      <c r="B38" s="32"/>
-      <c r="C38" s="32"/>
-      <c r="D38" s="32"/>
-      <c r="E38" s="32"/>
-      <c r="F38" s="32"/>
-      <c r="G38" s="32"/>
-      <c r="H38" s="32"/>
-      <c r="I38" s="32"/>
-      <c r="J38" s="32"/>
-      <c r="K38" s="47"/>
-      <c r="L38" s="49"/>
-      <c r="M38" s="32"/>
+      <c r="A38" s="33"/>
+      <c r="B38" s="33"/>
+      <c r="C38" s="33"/>
+      <c r="D38" s="33"/>
+      <c r="E38" s="33"/>
+      <c r="F38" s="33"/>
+      <c r="G38" s="33"/>
+      <c r="H38" s="33"/>
+      <c r="I38" s="33"/>
+      <c r="J38" s="33"/>
+      <c r="K38" s="48"/>
+      <c r="L38" s="50"/>
+      <c r="M38" s="33"/>
     </row>
     <row r="39" spans="1:13">
-      <c r="A39" s="32"/>
-      <c r="B39" s="32"/>
-      <c r="C39" s="32"/>
-      <c r="D39" s="32"/>
-      <c r="E39" s="32"/>
-      <c r="F39" s="32"/>
-      <c r="G39" s="32"/>
-      <c r="H39" s="32"/>
-      <c r="I39" s="32"/>
-      <c r="J39" s="32"/>
-      <c r="K39" s="47"/>
-      <c r="L39" s="49"/>
-      <c r="M39" s="32"/>
+      <c r="A39" s="33"/>
+      <c r="B39" s="33"/>
+      <c r="C39" s="33"/>
+      <c r="D39" s="33"/>
+      <c r="E39" s="33"/>
+      <c r="F39" s="33"/>
+      <c r="G39" s="33"/>
+      <c r="H39" s="33"/>
+      <c r="I39" s="33"/>
+      <c r="J39" s="33"/>
+      <c r="K39" s="48"/>
+      <c r="L39" s="50"/>
+      <c r="M39" s="33"/>
     </row>
     <row r="40" spans="1:13">
-      <c r="A40" s="32"/>
-      <c r="B40" s="32"/>
-      <c r="C40" s="32"/>
-      <c r="D40" s="32"/>
-      <c r="E40" s="32"/>
-      <c r="F40" s="32"/>
-      <c r="G40" s="32"/>
-      <c r="H40" s="32"/>
-      <c r="I40" s="32"/>
-      <c r="J40" s="32"/>
-      <c r="K40" s="47"/>
-      <c r="L40" s="49"/>
-      <c r="M40" s="32"/>
+      <c r="A40" s="33"/>
+      <c r="B40" s="33"/>
+      <c r="C40" s="33"/>
+      <c r="D40" s="33"/>
+      <c r="E40" s="33"/>
+      <c r="F40" s="33"/>
+      <c r="G40" s="33"/>
+      <c r="H40" s="33"/>
+      <c r="I40" s="33"/>
+      <c r="J40" s="33"/>
+      <c r="K40" s="48"/>
+      <c r="L40" s="50"/>
+      <c r="M40" s="33"/>
     </row>
     <row r="41" spans="1:13">
-      <c r="A41" s="32"/>
-      <c r="B41" s="32"/>
-      <c r="C41" s="32"/>
-      <c r="D41" s="32"/>
-      <c r="E41" s="32"/>
-      <c r="F41" s="32"/>
-      <c r="G41" s="32"/>
-      <c r="H41" s="32"/>
-      <c r="I41" s="32"/>
-      <c r="J41" s="32"/>
-      <c r="K41" s="47"/>
-      <c r="L41" s="49"/>
-      <c r="M41" s="32"/>
+      <c r="A41" s="33"/>
+      <c r="B41" s="33"/>
+      <c r="C41" s="33"/>
+      <c r="D41" s="33"/>
+      <c r="E41" s="33"/>
+      <c r="F41" s="33"/>
+      <c r="G41" s="33"/>
+      <c r="H41" s="33"/>
+      <c r="I41" s="33"/>
+      <c r="J41" s="33"/>
+      <c r="K41" s="48"/>
+      <c r="L41" s="50"/>
+      <c r="M41" s="33"/>
     </row>
     <row r="42" spans="1:13">
-      <c r="A42" s="32"/>
-      <c r="B42" s="32"/>
-      <c r="C42" s="32"/>
-      <c r="D42" s="32"/>
-      <c r="E42" s="32"/>
-      <c r="F42" s="32"/>
-      <c r="G42" s="32"/>
-      <c r="H42" s="32"/>
-      <c r="I42" s="32"/>
-      <c r="J42" s="32"/>
-      <c r="K42" s="47"/>
-      <c r="L42" s="49"/>
-      <c r="M42" s="32"/>
+      <c r="A42" s="33"/>
+      <c r="B42" s="33"/>
+      <c r="C42" s="33"/>
+      <c r="D42" s="33"/>
+      <c r="E42" s="33"/>
+      <c r="F42" s="33"/>
+      <c r="G42" s="33"/>
+      <c r="H42" s="33"/>
+      <c r="I42" s="33"/>
+      <c r="J42" s="33"/>
+      <c r="K42" s="48"/>
+      <c r="L42" s="50"/>
+      <c r="M42" s="33"/>
     </row>
     <row r="43" spans="1:13">
-      <c r="A43" s="32"/>
-      <c r="B43" s="32"/>
-      <c r="C43" s="32"/>
-      <c r="D43" s="32"/>
-      <c r="E43" s="32"/>
-      <c r="F43" s="32"/>
-      <c r="G43" s="32"/>
-      <c r="H43" s="32"/>
-      <c r="I43" s="32"/>
-      <c r="J43" s="32"/>
-      <c r="K43" s="47"/>
-      <c r="L43" s="49"/>
-      <c r="M43" s="32"/>
+      <c r="A43" s="33"/>
+      <c r="B43" s="33"/>
+      <c r="C43" s="33"/>
+      <c r="D43" s="33"/>
+      <c r="E43" s="33"/>
+      <c r="F43" s="33"/>
+      <c r="G43" s="33"/>
+      <c r="H43" s="33"/>
+      <c r="I43" s="33"/>
+      <c r="J43" s="33"/>
+      <c r="K43" s="48"/>
+      <c r="L43" s="50"/>
+      <c r="M43" s="33"/>
     </row>
     <row r="44" spans="1:13">
-      <c r="A44" s="32"/>
-      <c r="B44" s="32"/>
-      <c r="C44" s="32"/>
-      <c r="D44" s="32"/>
-      <c r="E44" s="32"/>
-      <c r="F44" s="32"/>
-      <c r="G44" s="32"/>
-      <c r="H44" s="32"/>
-      <c r="I44" s="32"/>
-      <c r="J44" s="32"/>
-      <c r="K44" s="47"/>
-      <c r="L44" s="49"/>
-      <c r="M44" s="32"/>
+      <c r="A44" s="33"/>
+      <c r="B44" s="33"/>
+      <c r="C44" s="33"/>
+      <c r="D44" s="33"/>
+      <c r="E44" s="33"/>
+      <c r="F44" s="33"/>
+      <c r="G44" s="33"/>
+      <c r="H44" s="33"/>
+      <c r="I44" s="33"/>
+      <c r="J44" s="33"/>
+      <c r="K44" s="48"/>
+      <c r="L44" s="50"/>
+      <c r="M44" s="33"/>
     </row>
     <row r="45" spans="1:13">
-      <c r="A45" s="32"/>
-      <c r="B45" s="32"/>
-      <c r="C45" s="32"/>
-      <c r="D45" s="32"/>
-      <c r="E45" s="32"/>
-      <c r="F45" s="32"/>
-      <c r="G45" s="32"/>
-      <c r="H45" s="32"/>
-      <c r="I45" s="32"/>
-      <c r="J45" s="32"/>
-      <c r="K45" s="47"/>
-      <c r="L45" s="49"/>
-      <c r="M45" s="32"/>
+      <c r="A45" s="33"/>
+      <c r="B45" s="33"/>
+      <c r="C45" s="33"/>
+      <c r="D45" s="33"/>
+      <c r="E45" s="33"/>
+      <c r="F45" s="33"/>
+      <c r="G45" s="33"/>
+      <c r="H45" s="33"/>
+      <c r="I45" s="33"/>
+      <c r="J45" s="33"/>
+      <c r="K45" s="48"/>
+      <c r="L45" s="50"/>
+      <c r="M45" s="33"/>
     </row>
     <row r="46" ht="13" spans="1:13">
-      <c r="A46" s="61" t="s">
-        <v>65</v>
-      </c>
-      <c r="B46" s="32"/>
+      <c r="A46" s="63" t="s">
+        <v>66</v>
+      </c>
+      <c r="B46" s="33"/>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
@@ -3837,8 +3877,8 @@
       <c r="H46" s="3"/>
       <c r="I46" s="3"/>
       <c r="J46" s="3"/>
-      <c r="K46" s="50"/>
-      <c r="M46" s="32"/>
+      <c r="K46" s="51"/>
+      <c r="M46" s="33"/>
     </row>
     <row r="47" spans="1:11">
       <c r="A47" s="3"/>
@@ -3850,7 +3890,7 @@
       <c r="H47" s="3"/>
       <c r="I47" s="3"/>
       <c r="J47" s="3"/>
-      <c r="K47" s="50"/>
+      <c r="K47" s="51"/>
     </row>
     <row r="48" spans="1:11">
       <c r="A48" s="3"/>
@@ -3862,7 +3902,7 @@
       <c r="H48" s="3"/>
       <c r="I48" s="3"/>
       <c r="J48" s="3"/>
-      <c r="K48" s="50"/>
+      <c r="K48" s="51"/>
     </row>
     <row r="49" spans="1:11">
       <c r="A49" s="3"/>
@@ -3874,7 +3914,7 @@
       <c r="H49" s="3"/>
       <c r="I49" s="3"/>
       <c r="J49" s="3"/>
-      <c r="K49" s="50"/>
+      <c r="K49" s="51"/>
     </row>
     <row r="50" spans="1:11">
       <c r="A50" s="3"/>
@@ -3886,7 +3926,7 @@
       <c r="H50" s="3"/>
       <c r="I50" s="3"/>
       <c r="J50" s="3"/>
-      <c r="K50" s="50"/>
+      <c r="K50" s="51"/>
     </row>
     <row r="51" spans="1:11">
       <c r="A51" s="3"/>
@@ -3898,7 +3938,7 @@
       <c r="H51" s="3"/>
       <c r="I51" s="3"/>
       <c r="J51" s="3"/>
-      <c r="K51" s="50"/>
+      <c r="K51" s="51"/>
     </row>
     <row r="52" spans="1:11">
       <c r="A52" s="3"/>
@@ -3910,7 +3950,7 @@
       <c r="H52" s="3"/>
       <c r="I52" s="3"/>
       <c r="J52" s="3"/>
-      <c r="K52" s="50"/>
+      <c r="K52" s="51"/>
     </row>
     <row r="53" spans="1:11">
       <c r="A53" s="3"/>
@@ -3922,7 +3962,7 @@
       <c r="H53" s="3"/>
       <c r="I53" s="3"/>
       <c r="J53" s="3"/>
-      <c r="K53" s="50"/>
+      <c r="K53" s="51"/>
     </row>
     <row r="54" spans="1:11">
       <c r="A54" s="3"/>
@@ -3934,7 +3974,7 @@
       <c r="H54" s="3"/>
       <c r="I54" s="3"/>
       <c r="J54" s="3"/>
-      <c r="K54" s="50"/>
+      <c r="K54" s="51"/>
     </row>
     <row r="55" spans="1:11">
       <c r="A55" s="3"/>
@@ -3946,7 +3986,7 @@
       <c r="H55" s="3"/>
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
-      <c r="K55" s="50"/>
+      <c r="K55" s="51"/>
     </row>
     <row r="56" spans="1:11">
       <c r="A56" s="3"/>
@@ -3958,7 +3998,7 @@
       <c r="H56" s="3"/>
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
-      <c r="K56" s="50"/>
+      <c r="K56" s="51"/>
     </row>
     <row r="57" spans="1:11">
       <c r="A57" s="3"/>
@@ -3970,7 +4010,7 @@
       <c r="H57" s="3"/>
       <c r="I57" s="3"/>
       <c r="J57" s="3"/>
-      <c r="K57" s="50"/>
+      <c r="K57" s="51"/>
     </row>
     <row r="58" spans="1:11">
       <c r="A58" s="3"/>
@@ -3982,7 +4022,7 @@
       <c r="H58" s="3"/>
       <c r="I58" s="3"/>
       <c r="J58" s="3"/>
-      <c r="K58" s="50"/>
+      <c r="K58" s="51"/>
     </row>
     <row r="59" spans="1:11">
       <c r="A59" s="3"/>
@@ -3994,7 +4034,7 @@
       <c r="H59" s="3"/>
       <c r="I59" s="3"/>
       <c r="J59" s="3"/>
-      <c r="K59" s="50"/>
+      <c r="K59" s="51"/>
     </row>
     <row r="60" spans="1:11">
       <c r="A60" s="3"/>
@@ -4006,7 +4046,7 @@
       <c r="H60" s="3"/>
       <c r="I60" s="3"/>
       <c r="J60" s="3"/>
-      <c r="K60" s="50"/>
+      <c r="K60" s="51"/>
     </row>
     <row r="61" spans="1:11">
       <c r="A61" s="3"/>
@@ -4018,7 +4058,7 @@
       <c r="H61" s="3"/>
       <c r="I61" s="3"/>
       <c r="J61" s="3"/>
-      <c r="K61" s="50"/>
+      <c r="K61" s="51"/>
     </row>
     <row r="62" spans="1:11">
       <c r="A62" s="3"/>
@@ -4030,7 +4070,7 @@
       <c r="H62" s="3"/>
       <c r="I62" s="3"/>
       <c r="J62" s="3"/>
-      <c r="K62" s="50"/>
+      <c r="K62" s="51"/>
     </row>
     <row r="63" spans="1:11">
       <c r="A63" s="3"/>
@@ -4042,7 +4082,7 @@
       <c r="H63" s="3"/>
       <c r="I63" s="3"/>
       <c r="J63" s="3"/>
-      <c r="K63" s="50"/>
+      <c r="K63" s="51"/>
     </row>
     <row r="64" spans="1:11">
       <c r="A64" s="3"/>
@@ -4054,7 +4094,7 @@
       <c r="H64" s="3"/>
       <c r="I64" s="3"/>
       <c r="J64" s="3"/>
-      <c r="K64" s="50"/>
+      <c r="K64" s="51"/>
     </row>
     <row r="65" spans="1:11">
       <c r="A65" s="3"/>
@@ -4066,7 +4106,7 @@
       <c r="H65" s="3"/>
       <c r="I65" s="3"/>
       <c r="J65" s="3"/>
-      <c r="K65" s="50"/>
+      <c r="K65" s="51"/>
     </row>
     <row r="66" spans="1:11">
       <c r="A66" s="3"/>
@@ -4078,7 +4118,7 @@
       <c r="H66" s="3"/>
       <c r="I66" s="3"/>
       <c r="J66" s="3"/>
-      <c r="K66" s="50"/>
+      <c r="K66" s="51"/>
     </row>
     <row r="67" spans="1:11">
       <c r="A67" s="3"/>
@@ -4090,7 +4130,7 @@
       <c r="H67" s="3"/>
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
-      <c r="K67" s="50"/>
+      <c r="K67" s="51"/>
     </row>
     <row r="68" spans="1:11">
       <c r="A68" s="3"/>
@@ -4102,7 +4142,7 @@
       <c r="H68" s="3"/>
       <c r="I68" s="3"/>
       <c r="J68" s="3"/>
-      <c r="K68" s="50"/>
+      <c r="K68" s="51"/>
     </row>
     <row r="69" spans="1:11">
       <c r="A69" s="3"/>
@@ -4114,7 +4154,7 @@
       <c r="H69" s="3"/>
       <c r="I69" s="3"/>
       <c r="J69" s="3"/>
-      <c r="K69" s="50"/>
+      <c r="K69" s="51"/>
     </row>
     <row r="70" spans="1:11">
       <c r="A70" s="3"/>
@@ -4126,7 +4166,7 @@
       <c r="H70" s="3"/>
       <c r="I70" s="3"/>
       <c r="J70" s="3"/>
-      <c r="K70" s="50"/>
+      <c r="K70" s="51"/>
     </row>
     <row r="71" spans="1:11">
       <c r="A71" s="3"/>
@@ -4138,7 +4178,7 @@
       <c r="H71" s="3"/>
       <c r="I71" s="3"/>
       <c r="J71" s="3"/>
-      <c r="K71" s="50"/>
+      <c r="K71" s="51"/>
     </row>
     <row r="72" spans="1:11">
       <c r="A72" s="3"/>
@@ -4150,7 +4190,7 @@
       <c r="H72" s="3"/>
       <c r="I72" s="3"/>
       <c r="J72" s="3"/>
-      <c r="K72" s="50"/>
+      <c r="K72" s="51"/>
     </row>
     <row r="73" spans="1:11">
       <c r="A73" s="3"/>
@@ -4162,7 +4202,7 @@
       <c r="H73" s="3"/>
       <c r="I73" s="3"/>
       <c r="J73" s="3"/>
-      <c r="K73" s="50"/>
+      <c r="K73" s="51"/>
     </row>
     <row r="74" spans="1:11">
       <c r="A74" s="3"/>
@@ -4174,7 +4214,7 @@
       <c r="H74" s="3"/>
       <c r="I74" s="3"/>
       <c r="J74" s="3"/>
-      <c r="K74" s="50"/>
+      <c r="K74" s="51"/>
     </row>
     <row r="75" spans="1:11">
       <c r="A75" s="3"/>
@@ -4186,7 +4226,7 @@
       <c r="H75" s="3"/>
       <c r="I75" s="3"/>
       <c r="J75" s="3"/>
-      <c r="K75" s="50"/>
+      <c r="K75" s="51"/>
     </row>
     <row r="76" spans="1:11">
       <c r="A76" s="3"/>
@@ -4198,7 +4238,7 @@
       <c r="H76" s="3"/>
       <c r="I76" s="3"/>
       <c r="J76" s="3"/>
-      <c r="K76" s="50"/>
+      <c r="K76" s="51"/>
     </row>
     <row r="77" spans="1:11">
       <c r="A77" s="3"/>
@@ -4210,7 +4250,7 @@
       <c r="H77" s="3"/>
       <c r="I77" s="3"/>
       <c r="J77" s="3"/>
-      <c r="K77" s="50"/>
+      <c r="K77" s="51"/>
     </row>
     <row r="78" spans="1:11">
       <c r="A78" s="3"/>
@@ -4222,7 +4262,7 @@
       <c r="H78" s="3"/>
       <c r="I78" s="3"/>
       <c r="J78" s="3"/>
-      <c r="K78" s="50"/>
+      <c r="K78" s="51"/>
     </row>
     <row r="79" spans="1:11">
       <c r="A79" s="3"/>
@@ -4234,7 +4274,7 @@
       <c r="H79" s="3"/>
       <c r="I79" s="3"/>
       <c r="J79" s="3"/>
-      <c r="K79" s="50"/>
+      <c r="K79" s="51"/>
     </row>
     <row r="80" spans="1:11">
       <c r="A80" s="3"/>
@@ -4246,7 +4286,7 @@
       <c r="H80" s="3"/>
       <c r="I80" s="3"/>
       <c r="J80" s="3"/>
-      <c r="K80" s="50"/>
+      <c r="K80" s="51"/>
     </row>
     <row r="81" spans="1:11">
       <c r="A81" s="3"/>
@@ -4258,7 +4298,7 @@
       <c r="H81" s="3"/>
       <c r="I81" s="3"/>
       <c r="J81" s="3"/>
-      <c r="K81" s="50"/>
+      <c r="K81" s="51"/>
     </row>
     <row r="82" spans="1:11">
       <c r="A82" s="3"/>
@@ -4270,7 +4310,7 @@
       <c r="H82" s="3"/>
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
-      <c r="K82" s="50"/>
+      <c r="K82" s="51"/>
     </row>
     <row r="83" spans="1:11">
       <c r="A83" s="3"/>
@@ -4282,7 +4322,7 @@
       <c r="H83" s="3"/>
       <c r="I83" s="3"/>
       <c r="J83" s="3"/>
-      <c r="K83" s="50"/>
+      <c r="K83" s="51"/>
     </row>
     <row r="84" spans="1:11">
       <c r="A84" s="3"/>
@@ -4294,7 +4334,7 @@
       <c r="H84" s="3"/>
       <c r="I84" s="3"/>
       <c r="J84" s="3"/>
-      <c r="K84" s="50"/>
+      <c r="K84" s="51"/>
     </row>
     <row r="85" spans="1:11">
       <c r="A85" s="3"/>
@@ -4306,7 +4346,7 @@
       <c r="H85" s="3"/>
       <c r="I85" s="3"/>
       <c r="J85" s="3"/>
-      <c r="K85" s="50"/>
+      <c r="K85" s="51"/>
     </row>
     <row r="86" spans="1:11">
       <c r="A86" s="3"/>
@@ -4318,7 +4358,7 @@
       <c r="H86" s="3"/>
       <c r="I86" s="3"/>
       <c r="J86" s="3"/>
-      <c r="K86" s="50"/>
+      <c r="K86" s="51"/>
     </row>
     <row r="87" spans="1:11">
       <c r="A87" s="3"/>
@@ -4330,7 +4370,7 @@
       <c r="H87" s="3"/>
       <c r="I87" s="3"/>
       <c r="J87" s="3"/>
-      <c r="K87" s="50"/>
+      <c r="K87" s="51"/>
     </row>
     <row r="88" spans="1:11">
       <c r="A88" s="3"/>
@@ -4342,7 +4382,7 @@
       <c r="H88" s="3"/>
       <c r="I88" s="3"/>
       <c r="J88" s="3"/>
-      <c r="K88" s="50"/>
+      <c r="K88" s="51"/>
     </row>
     <row r="89" spans="1:11">
       <c r="A89" s="3"/>
@@ -4354,7 +4394,7 @@
       <c r="H89" s="3"/>
       <c r="I89" s="3"/>
       <c r="J89" s="3"/>
-      <c r="K89" s="50"/>
+      <c r="K89" s="51"/>
     </row>
     <row r="90" spans="1:11">
       <c r="A90" s="3"/>
@@ -4366,7 +4406,7 @@
       <c r="H90" s="3"/>
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
-      <c r="K90" s="50"/>
+      <c r="K90" s="51"/>
     </row>
     <row r="91" spans="1:11">
       <c r="A91" s="3"/>
@@ -4378,7 +4418,7 @@
       <c r="H91" s="3"/>
       <c r="I91" s="3"/>
       <c r="J91" s="3"/>
-      <c r="K91" s="50"/>
+      <c r="K91" s="51"/>
     </row>
     <row r="92" spans="1:11">
       <c r="A92" s="3"/>
@@ -4390,7 +4430,7 @@
       <c r="H92" s="3"/>
       <c r="I92" s="3"/>
       <c r="J92" s="3"/>
-      <c r="K92" s="50"/>
+      <c r="K92" s="51"/>
     </row>
     <row r="93" spans="1:11">
       <c r="A93" s="3"/>
@@ -4402,7 +4442,7 @@
       <c r="H93" s="3"/>
       <c r="I93" s="3"/>
       <c r="J93" s="3"/>
-      <c r="K93" s="50"/>
+      <c r="K93" s="51"/>
     </row>
     <row r="94" spans="1:11">
       <c r="A94" s="3"/>
@@ -4414,7 +4454,7 @@
       <c r="H94" s="3"/>
       <c r="I94" s="3"/>
       <c r="J94" s="3"/>
-      <c r="K94" s="50"/>
+      <c r="K94" s="51"/>
     </row>
     <row r="95" spans="1:11">
       <c r="A95" s="3"/>
@@ -4426,7 +4466,7 @@
       <c r="H95" s="3"/>
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
-      <c r="K95" s="50"/>
+      <c r="K95" s="51"/>
     </row>
     <row r="96" spans="1:11">
       <c r="A96" s="3"/>
@@ -4438,7 +4478,7 @@
       <c r="H96" s="3"/>
       <c r="I96" s="3"/>
       <c r="J96" s="3"/>
-      <c r="K96" s="50"/>
+      <c r="K96" s="51"/>
     </row>
     <row r="97" spans="1:11">
       <c r="A97" s="3"/>
@@ -4450,7 +4490,7 @@
       <c r="H97" s="3"/>
       <c r="I97" s="3"/>
       <c r="J97" s="3"/>
-      <c r="K97" s="50"/>
+      <c r="K97" s="51"/>
     </row>
     <row r="98" spans="1:11">
       <c r="A98" s="3"/>
@@ -4462,7 +4502,7 @@
       <c r="H98" s="3"/>
       <c r="I98" s="3"/>
       <c r="J98" s="3"/>
-      <c r="K98" s="50"/>
+      <c r="K98" s="51"/>
     </row>
     <row r="99" spans="1:11">
       <c r="A99" s="3"/>
@@ -4474,7 +4514,7 @@
       <c r="H99" s="3"/>
       <c r="I99" s="3"/>
       <c r="J99" s="3"/>
-      <c r="K99" s="50"/>
+      <c r="K99" s="51"/>
     </row>
     <row r="100" spans="1:11">
       <c r="A100" s="3"/>
@@ -4486,7 +4526,7 @@
       <c r="H100" s="3"/>
       <c r="I100" s="3"/>
       <c r="J100" s="3"/>
-      <c r="K100" s="50"/>
+      <c r="K100" s="51"/>
     </row>
     <row r="101" spans="1:11">
       <c r="A101" s="3"/>
@@ -4498,7 +4538,7 @@
       <c r="H101" s="3"/>
       <c r="I101" s="3"/>
       <c r="J101" s="3"/>
-      <c r="K101" s="50"/>
+      <c r="K101" s="51"/>
     </row>
     <row r="102" spans="1:11">
       <c r="A102" s="3"/>
@@ -4510,7 +4550,7 @@
       <c r="H102" s="3"/>
       <c r="I102" s="3"/>
       <c r="J102" s="3"/>
-      <c r="K102" s="50"/>
+      <c r="K102" s="51"/>
     </row>
     <row r="103" spans="1:11">
       <c r="A103" s="3"/>
@@ -4522,7 +4562,7 @@
       <c r="H103" s="3"/>
       <c r="I103" s="3"/>
       <c r="J103" s="3"/>
-      <c r="K103" s="50"/>
+      <c r="K103" s="51"/>
     </row>
     <row r="104" spans="1:11">
       <c r="A104" s="3"/>
@@ -4534,7 +4574,7 @@
       <c r="H104" s="3"/>
       <c r="I104" s="3"/>
       <c r="J104" s="3"/>
-      <c r="K104" s="50"/>
+      <c r="K104" s="51"/>
     </row>
     <row r="105" spans="1:11">
       <c r="A105" s="3"/>
@@ -4546,7 +4586,7 @@
       <c r="H105" s="3"/>
       <c r="I105" s="3"/>
       <c r="J105" s="3"/>
-      <c r="K105" s="50"/>
+      <c r="K105" s="51"/>
     </row>
     <row r="106" spans="1:11">
       <c r="A106" s="3"/>
@@ -4558,7 +4598,7 @@
       <c r="H106" s="3"/>
       <c r="I106" s="3"/>
       <c r="J106" s="3"/>
-      <c r="K106" s="50"/>
+      <c r="K106" s="51"/>
     </row>
     <row r="107" spans="1:11">
       <c r="A107" s="3"/>
@@ -4570,7 +4610,7 @@
       <c r="H107" s="3"/>
       <c r="I107" s="3"/>
       <c r="J107" s="3"/>
-      <c r="K107" s="50"/>
+      <c r="K107" s="51"/>
     </row>
     <row r="108" spans="1:11">
       <c r="A108" s="3"/>
@@ -4582,7 +4622,7 @@
       <c r="H108" s="3"/>
       <c r="I108" s="3"/>
       <c r="J108" s="3"/>
-      <c r="K108" s="50"/>
+      <c r="K108" s="51"/>
     </row>
     <row r="109" spans="1:11">
       <c r="A109" s="3"/>
@@ -4594,7 +4634,7 @@
       <c r="H109" s="3"/>
       <c r="I109" s="3"/>
       <c r="J109" s="3"/>
-      <c r="K109" s="50"/>
+      <c r="K109" s="51"/>
     </row>
     <row r="110" spans="1:11">
       <c r="A110" s="3"/>
@@ -4606,7 +4646,7 @@
       <c r="H110" s="3"/>
       <c r="I110" s="3"/>
       <c r="J110" s="3"/>
-      <c r="K110" s="50"/>
+      <c r="K110" s="51"/>
     </row>
     <row r="111" spans="1:11">
       <c r="A111" s="3"/>
@@ -4618,7 +4658,7 @@
       <c r="H111" s="3"/>
       <c r="I111" s="3"/>
       <c r="J111" s="3"/>
-      <c r="K111" s="50"/>
+      <c r="K111" s="51"/>
     </row>
     <row r="112" spans="1:11">
       <c r="A112" s="3"/>
@@ -4630,7 +4670,7 @@
       <c r="H112" s="3"/>
       <c r="I112" s="3"/>
       <c r="J112" s="3"/>
-      <c r="K112" s="50"/>
+      <c r="K112" s="51"/>
     </row>
     <row r="113" spans="1:11">
       <c r="A113" s="3"/>
@@ -4642,7 +4682,7 @@
       <c r="H113" s="3"/>
       <c r="I113" s="3"/>
       <c r="J113" s="3"/>
-      <c r="K113" s="50"/>
+      <c r="K113" s="51"/>
     </row>
     <row r="114" spans="1:11">
       <c r="A114" s="3"/>
@@ -4654,7 +4694,7 @@
       <c r="H114" s="3"/>
       <c r="I114" s="3"/>
       <c r="J114" s="3"/>
-      <c r="K114" s="50"/>
+      <c r="K114" s="51"/>
     </row>
     <row r="115" spans="1:11">
       <c r="A115" s="3"/>
@@ -4666,7 +4706,7 @@
       <c r="H115" s="3"/>
       <c r="I115" s="3"/>
       <c r="J115" s="3"/>
-      <c r="K115" s="50"/>
+      <c r="K115" s="51"/>
     </row>
     <row r="116" spans="1:11">
       <c r="A116" s="3"/>
@@ -4678,7 +4718,7 @@
       <c r="H116" s="3"/>
       <c r="I116" s="3"/>
       <c r="J116" s="3"/>
-      <c r="K116" s="50"/>
+      <c r="K116" s="51"/>
     </row>
     <row r="117" spans="1:11">
       <c r="A117" s="3"/>
@@ -4690,7 +4730,7 @@
       <c r="H117" s="3"/>
       <c r="I117" s="3"/>
       <c r="J117" s="3"/>
-      <c r="K117" s="50"/>
+      <c r="K117" s="51"/>
     </row>
     <row r="118" spans="1:11">
       <c r="A118" s="3"/>
@@ -4702,7 +4742,7 @@
       <c r="H118" s="3"/>
       <c r="I118" s="3"/>
       <c r="J118" s="3"/>
-      <c r="K118" s="50"/>
+      <c r="K118" s="51"/>
     </row>
     <row r="119" spans="1:11">
       <c r="A119" s="3"/>
@@ -4714,7 +4754,7 @@
       <c r="H119" s="3"/>
       <c r="I119" s="3"/>
       <c r="J119" s="3"/>
-      <c r="K119" s="50"/>
+      <c r="K119" s="51"/>
     </row>
     <row r="120" spans="1:11">
       <c r="A120" s="3"/>
@@ -4726,7 +4766,7 @@
       <c r="H120" s="3"/>
       <c r="I120" s="3"/>
       <c r="J120" s="3"/>
-      <c r="K120" s="50"/>
+      <c r="K120" s="51"/>
     </row>
     <row r="121" spans="1:11">
       <c r="A121" s="3"/>
@@ -4738,7 +4778,7 @@
       <c r="H121" s="3"/>
       <c r="I121" s="3"/>
       <c r="J121" s="3"/>
-      <c r="K121" s="50"/>
+      <c r="K121" s="51"/>
     </row>
     <row r="122" spans="1:11">
       <c r="A122" s="3"/>
@@ -4750,7 +4790,7 @@
       <c r="H122" s="3"/>
       <c r="I122" s="3"/>
       <c r="J122" s="3"/>
-      <c r="K122" s="50"/>
+      <c r="K122" s="51"/>
     </row>
     <row r="123" spans="1:11">
       <c r="A123" s="3"/>
@@ -4762,7 +4802,7 @@
       <c r="H123" s="3"/>
       <c r="I123" s="3"/>
       <c r="J123" s="3"/>
-      <c r="K123" s="50"/>
+      <c r="K123" s="51"/>
     </row>
     <row r="124" spans="1:11">
       <c r="A124" s="3"/>
@@ -4774,7 +4814,7 @@
       <c r="H124" s="3"/>
       <c r="I124" s="3"/>
       <c r="J124" s="3"/>
-      <c r="K124" s="50"/>
+      <c r="K124" s="51"/>
     </row>
     <row r="125" spans="1:11">
       <c r="A125" s="3"/>
@@ -4786,7 +4826,7 @@
       <c r="H125" s="3"/>
       <c r="I125" s="3"/>
       <c r="J125" s="3"/>
-      <c r="K125" s="50"/>
+      <c r="K125" s="51"/>
     </row>
     <row r="126" spans="1:11">
       <c r="A126" s="3"/>
@@ -4798,7 +4838,7 @@
       <c r="H126" s="3"/>
       <c r="I126" s="3"/>
       <c r="J126" s="3"/>
-      <c r="K126" s="50"/>
+      <c r="K126" s="51"/>
     </row>
     <row r="127" spans="1:11">
       <c r="A127" s="3"/>
@@ -4810,7 +4850,7 @@
       <c r="H127" s="3"/>
       <c r="I127" s="3"/>
       <c r="J127" s="3"/>
-      <c r="K127" s="50"/>
+      <c r="K127" s="51"/>
     </row>
     <row r="128" spans="1:11">
       <c r="A128" s="3"/>
@@ -4822,7 +4862,7 @@
       <c r="H128" s="3"/>
       <c r="I128" s="3"/>
       <c r="J128" s="3"/>
-      <c r="K128" s="50"/>
+      <c r="K128" s="51"/>
     </row>
     <row r="129" spans="1:11">
       <c r="A129" s="3"/>
@@ -4834,7 +4874,7 @@
       <c r="H129" s="3"/>
       <c r="I129" s="3"/>
       <c r="J129" s="3"/>
-      <c r="K129" s="50"/>
+      <c r="K129" s="51"/>
     </row>
     <row r="130" spans="1:11">
       <c r="A130" s="3"/>
@@ -4846,7 +4886,7 @@
       <c r="H130" s="3"/>
       <c r="I130" s="3"/>
       <c r="J130" s="3"/>
-      <c r="K130" s="50"/>
+      <c r="K130" s="51"/>
     </row>
     <row r="131" spans="1:11">
       <c r="A131" s="3"/>
@@ -4858,7 +4898,7 @@
       <c r="H131" s="3"/>
       <c r="I131" s="3"/>
       <c r="J131" s="3"/>
-      <c r="K131" s="50"/>
+      <c r="K131" s="51"/>
     </row>
     <row r="132" spans="1:11">
       <c r="A132" s="3"/>
@@ -4870,7 +4910,7 @@
       <c r="H132" s="3"/>
       <c r="I132" s="3"/>
       <c r="J132" s="3"/>
-      <c r="K132" s="50"/>
+      <c r="K132" s="51"/>
     </row>
     <row r="133" spans="1:11">
       <c r="A133" s="3"/>
@@ -4882,7 +4922,7 @@
       <c r="H133" s="3"/>
       <c r="I133" s="3"/>
       <c r="J133" s="3"/>
-      <c r="K133" s="50"/>
+      <c r="K133" s="51"/>
     </row>
     <row r="134" spans="1:11">
       <c r="A134" s="3"/>
@@ -4894,7 +4934,7 @@
       <c r="H134" s="3"/>
       <c r="I134" s="3"/>
       <c r="J134" s="3"/>
-      <c r="K134" s="50"/>
+      <c r="K134" s="51"/>
     </row>
     <row r="135" spans="1:11">
       <c r="A135" s="3"/>
@@ -4906,7 +4946,7 @@
       <c r="H135" s="3"/>
       <c r="I135" s="3"/>
       <c r="J135" s="3"/>
-      <c r="K135" s="50"/>
+      <c r="K135" s="51"/>
     </row>
     <row r="136" spans="1:11">
       <c r="A136" s="3"/>
@@ -4918,7 +4958,7 @@
       <c r="H136" s="3"/>
       <c r="I136" s="3"/>
       <c r="J136" s="3"/>
-      <c r="K136" s="50"/>
+      <c r="K136" s="51"/>
     </row>
     <row r="137" spans="1:11">
       <c r="A137" s="3"/>
@@ -4930,7 +4970,7 @@
       <c r="H137" s="3"/>
       <c r="I137" s="3"/>
       <c r="J137" s="3"/>
-      <c r="K137" s="50"/>
+      <c r="K137" s="51"/>
     </row>
     <row r="138" spans="1:11">
       <c r="A138" s="3"/>
@@ -4942,7 +4982,7 @@
       <c r="H138" s="3"/>
       <c r="I138" s="3"/>
       <c r="J138" s="3"/>
-      <c r="K138" s="50"/>
+      <c r="K138" s="51"/>
     </row>
     <row r="139" spans="1:11">
       <c r="A139" s="3"/>
@@ -4954,7 +4994,7 @@
       <c r="H139" s="3"/>
       <c r="I139" s="3"/>
       <c r="J139" s="3"/>
-      <c r="K139" s="50"/>
+      <c r="K139" s="51"/>
     </row>
     <row r="140" spans="1:11">
       <c r="A140" s="3"/>
@@ -4966,7 +5006,7 @@
       <c r="H140" s="3"/>
       <c r="I140" s="3"/>
       <c r="J140" s="3"/>
-      <c r="K140" s="50"/>
+      <c r="K140" s="51"/>
     </row>
     <row r="141" spans="1:11">
       <c r="A141" s="3"/>
@@ -4978,7 +5018,7 @@
       <c r="H141" s="3"/>
       <c r="I141" s="3"/>
       <c r="J141" s="3"/>
-      <c r="K141" s="50"/>
+      <c r="K141" s="51"/>
     </row>
     <row r="142" spans="1:11">
       <c r="A142" s="3"/>
@@ -4990,7 +5030,7 @@
       <c r="H142" s="3"/>
       <c r="I142" s="3"/>
       <c r="J142" s="3"/>
-      <c r="K142" s="50"/>
+      <c r="K142" s="51"/>
     </row>
     <row r="143" spans="1:11">
       <c r="A143" s="3"/>
@@ -5002,7 +5042,7 @@
       <c r="H143" s="3"/>
       <c r="I143" s="3"/>
       <c r="J143" s="3"/>
-      <c r="K143" s="50"/>
+      <c r="K143" s="51"/>
     </row>
     <row r="144" spans="1:11">
       <c r="A144" s="3"/>
@@ -5014,7 +5054,7 @@
       <c r="H144" s="3"/>
       <c r="I144" s="3"/>
       <c r="J144" s="3"/>
-      <c r="K144" s="50"/>
+      <c r="K144" s="51"/>
     </row>
     <row r="145" spans="1:11">
       <c r="A145" s="3"/>
@@ -5026,7 +5066,7 @@
       <c r="H145" s="3"/>
       <c r="I145" s="3"/>
       <c r="J145" s="3"/>
-      <c r="K145" s="50"/>
+      <c r="K145" s="51"/>
     </row>
     <row r="146" spans="1:11">
       <c r="A146" s="3"/>
@@ -5038,7 +5078,7 @@
       <c r="H146" s="3"/>
       <c r="I146" s="3"/>
       <c r="J146" s="3"/>
-      <c r="K146" s="50"/>
+      <c r="K146" s="51"/>
     </row>
     <row r="147" spans="1:11">
       <c r="A147" s="3"/>
@@ -5050,7 +5090,7 @@
       <c r="H147" s="3"/>
       <c r="I147" s="3"/>
       <c r="J147" s="3"/>
-      <c r="K147" s="50"/>
+      <c r="K147" s="51"/>
     </row>
     <row r="148" spans="1:11">
       <c r="A148" s="3"/>
@@ -5062,7 +5102,7 @@
       <c r="H148" s="3"/>
       <c r="I148" s="3"/>
       <c r="J148" s="3"/>
-      <c r="K148" s="50"/>
+      <c r="K148" s="51"/>
     </row>
     <row r="149" spans="1:11">
       <c r="A149" s="3"/>
@@ -5074,7 +5114,7 @@
       <c r="H149" s="3"/>
       <c r="I149" s="3"/>
       <c r="J149" s="3"/>
-      <c r="K149" s="50"/>
+      <c r="K149" s="51"/>
     </row>
     <row r="150" spans="1:11">
       <c r="A150" s="3"/>
@@ -5086,7 +5126,7 @@
       <c r="H150" s="3"/>
       <c r="I150" s="3"/>
       <c r="J150" s="3"/>
-      <c r="K150" s="50"/>
+      <c r="K150" s="51"/>
     </row>
     <row r="151" spans="1:11">
       <c r="A151" s="3"/>
@@ -5098,7 +5138,7 @@
       <c r="H151" s="3"/>
       <c r="I151" s="3"/>
       <c r="J151" s="3"/>
-      <c r="K151" s="50"/>
+      <c r="K151" s="51"/>
     </row>
     <row r="152" spans="1:11">
       <c r="A152" s="3"/>
@@ -5110,7 +5150,7 @@
       <c r="H152" s="3"/>
       <c r="I152" s="3"/>
       <c r="J152" s="3"/>
-      <c r="K152" s="50"/>
+      <c r="K152" s="51"/>
     </row>
     <row r="153" spans="1:11">
       <c r="A153" s="3"/>
@@ -5122,7 +5162,7 @@
       <c r="H153" s="3"/>
       <c r="I153" s="3"/>
       <c r="J153" s="3"/>
-      <c r="K153" s="50"/>
+      <c r="K153" s="51"/>
     </row>
     <row r="154" spans="1:11">
       <c r="A154" s="3"/>
@@ -5134,7 +5174,7 @@
       <c r="H154" s="3"/>
       <c r="I154" s="3"/>
       <c r="J154" s="3"/>
-      <c r="K154" s="50"/>
+      <c r="K154" s="51"/>
     </row>
     <row r="155" spans="1:11">
       <c r="A155" s="3"/>
@@ -5146,7 +5186,7 @@
       <c r="H155" s="3"/>
       <c r="I155" s="3"/>
       <c r="J155" s="3"/>
-      <c r="K155" s="50"/>
+      <c r="K155" s="51"/>
     </row>
     <row r="156" spans="1:11">
       <c r="A156" s="3"/>
@@ -5158,7 +5198,7 @@
       <c r="H156" s="3"/>
       <c r="I156" s="3"/>
       <c r="J156" s="3"/>
-      <c r="K156" s="50"/>
+      <c r="K156" s="51"/>
     </row>
     <row r="157" spans="1:11">
       <c r="A157" s="3"/>
@@ -5170,7 +5210,7 @@
       <c r="H157" s="3"/>
       <c r="I157" s="3"/>
       <c r="J157" s="3"/>
-      <c r="K157" s="50"/>
+      <c r="K157" s="51"/>
     </row>
     <row r="158" spans="1:11">
       <c r="A158" s="3"/>
@@ -5182,7 +5222,7 @@
       <c r="H158" s="3"/>
       <c r="I158" s="3"/>
       <c r="J158" s="3"/>
-      <c r="K158" s="50"/>
+      <c r="K158" s="51"/>
     </row>
     <row r="159" spans="1:11">
       <c r="A159" s="3"/>
@@ -5194,7 +5234,7 @@
       <c r="H159" s="3"/>
       <c r="I159" s="3"/>
       <c r="J159" s="3"/>
-      <c r="K159" s="50"/>
+      <c r="K159" s="51"/>
     </row>
     <row r="160" spans="1:11">
       <c r="A160" s="3"/>
@@ -5206,7 +5246,7 @@
       <c r="H160" s="3"/>
       <c r="I160" s="3"/>
       <c r="J160" s="3"/>
-      <c r="K160" s="50"/>
+      <c r="K160" s="51"/>
     </row>
     <row r="161" spans="1:11">
       <c r="A161" s="3"/>
@@ -5218,7 +5258,7 @@
       <c r="H161" s="3"/>
       <c r="I161" s="3"/>
       <c r="J161" s="3"/>
-      <c r="K161" s="50"/>
+      <c r="K161" s="51"/>
     </row>
     <row r="162" spans="1:11">
       <c r="A162" s="3"/>
@@ -5230,7 +5270,7 @@
       <c r="H162" s="3"/>
       <c r="I162" s="3"/>
       <c r="J162" s="3"/>
-      <c r="K162" s="50"/>
+      <c r="K162" s="51"/>
     </row>
     <row r="163" spans="1:11">
       <c r="A163" s="3"/>
@@ -5242,7 +5282,7 @@
       <c r="H163" s="3"/>
       <c r="I163" s="3"/>
       <c r="J163" s="3"/>
-      <c r="K163" s="50"/>
+      <c r="K163" s="51"/>
     </row>
     <row r="164" spans="1:11">
       <c r="A164" s="3"/>
@@ -5254,7 +5294,7 @@
       <c r="H164" s="3"/>
       <c r="I164" s="3"/>
       <c r="J164" s="3"/>
-      <c r="K164" s="50"/>
+      <c r="K164" s="51"/>
     </row>
     <row r="165" spans="1:11">
       <c r="A165" s="3"/>
@@ -5266,7 +5306,7 @@
       <c r="H165" s="3"/>
       <c r="I165" s="3"/>
       <c r="J165" s="3"/>
-      <c r="K165" s="50"/>
+      <c r="K165" s="51"/>
     </row>
     <row r="166" spans="1:11">
       <c r="A166" s="3"/>
@@ -5278,7 +5318,7 @@
       <c r="H166" s="3"/>
       <c r="I166" s="3"/>
       <c r="J166" s="3"/>
-      <c r="K166" s="50"/>
+      <c r="K166" s="51"/>
     </row>
     <row r="167" spans="1:11">
       <c r="A167" s="3"/>
@@ -5290,7 +5330,7 @@
       <c r="H167" s="3"/>
       <c r="I167" s="3"/>
       <c r="J167" s="3"/>
-      <c r="K167" s="50"/>
+      <c r="K167" s="51"/>
     </row>
     <row r="168" spans="1:11">
       <c r="A168" s="3"/>
@@ -5302,7 +5342,7 @@
       <c r="H168" s="3"/>
       <c r="I168" s="3"/>
       <c r="J168" s="3"/>
-      <c r="K168" s="50"/>
+      <c r="K168" s="51"/>
     </row>
     <row r="169" spans="1:11">
       <c r="A169" s="3"/>
@@ -5314,7 +5354,7 @@
       <c r="H169" s="3"/>
       <c r="I169" s="3"/>
       <c r="J169" s="3"/>
-      <c r="K169" s="50"/>
+      <c r="K169" s="51"/>
     </row>
     <row r="170" spans="1:11">
       <c r="A170" s="3"/>
@@ -5326,7 +5366,7 @@
       <c r="H170" s="3"/>
       <c r="I170" s="3"/>
       <c r="J170" s="3"/>
-      <c r="K170" s="50"/>
+      <c r="K170" s="51"/>
     </row>
     <row r="171" spans="1:11">
       <c r="A171" s="3"/>
@@ -5338,7 +5378,7 @@
       <c r="H171" s="3"/>
       <c r="I171" s="3"/>
       <c r="J171" s="3"/>
-      <c r="K171" s="50"/>
+      <c r="K171" s="51"/>
     </row>
     <row r="172" spans="1:11">
       <c r="A172" s="3"/>
@@ -5350,7 +5390,7 @@
       <c r="H172" s="3"/>
       <c r="I172" s="3"/>
       <c r="J172" s="3"/>
-      <c r="K172" s="50"/>
+      <c r="K172" s="51"/>
     </row>
     <row r="173" spans="1:11">
       <c r="A173" s="3"/>
@@ -5362,7 +5402,7 @@
       <c r="H173" s="3"/>
       <c r="I173" s="3"/>
       <c r="J173" s="3"/>
-      <c r="K173" s="50"/>
+      <c r="K173" s="51"/>
     </row>
     <row r="174" spans="1:11">
       <c r="A174" s="3"/>
@@ -5374,7 +5414,7 @@
       <c r="H174" s="3"/>
       <c r="I174" s="3"/>
       <c r="J174" s="3"/>
-      <c r="K174" s="50"/>
+      <c r="K174" s="51"/>
     </row>
     <row r="175" spans="1:11">
       <c r="A175" s="3"/>
@@ -5386,7 +5426,7 @@
       <c r="H175" s="3"/>
       <c r="I175" s="3"/>
       <c r="J175" s="3"/>
-      <c r="K175" s="50"/>
+      <c r="K175" s="51"/>
     </row>
     <row r="176" spans="1:11">
       <c r="A176" s="3"/>
@@ -5398,7 +5438,7 @@
       <c r="H176" s="3"/>
       <c r="I176" s="3"/>
       <c r="J176" s="3"/>
-      <c r="K176" s="50"/>
+      <c r="K176" s="51"/>
     </row>
     <row r="177" spans="1:11">
       <c r="A177" s="3"/>
@@ -5410,7 +5450,7 @@
       <c r="H177" s="3"/>
       <c r="I177" s="3"/>
       <c r="J177" s="3"/>
-      <c r="K177" s="50"/>
+      <c r="K177" s="51"/>
     </row>
     <row r="178" spans="1:11">
       <c r="A178" s="3"/>
@@ -5422,7 +5462,7 @@
       <c r="H178" s="3"/>
       <c r="I178" s="3"/>
       <c r="J178" s="3"/>
-      <c r="K178" s="50"/>
+      <c r="K178" s="51"/>
     </row>
     <row r="179" spans="1:11">
       <c r="A179" s="3"/>
@@ -5434,7 +5474,7 @@
       <c r="H179" s="3"/>
       <c r="I179" s="3"/>
       <c r="J179" s="3"/>
-      <c r="K179" s="50"/>
+      <c r="K179" s="51"/>
     </row>
     <row r="180" spans="1:11">
       <c r="A180" s="3"/>
@@ -5446,7 +5486,7 @@
       <c r="H180" s="3"/>
       <c r="I180" s="3"/>
       <c r="J180" s="3"/>
-      <c r="K180" s="50"/>
+      <c r="K180" s="51"/>
     </row>
     <row r="181" spans="1:11">
       <c r="A181" s="3"/>
@@ -5458,7 +5498,7 @@
       <c r="H181" s="3"/>
       <c r="I181" s="3"/>
       <c r="J181" s="3"/>
-      <c r="K181" s="50"/>
+      <c r="K181" s="51"/>
     </row>
     <row r="182" spans="1:11">
       <c r="A182" s="3"/>
@@ -5470,7 +5510,7 @@
       <c r="H182" s="3"/>
       <c r="I182" s="3"/>
       <c r="J182" s="3"/>
-      <c r="K182" s="50"/>
+      <c r="K182" s="51"/>
     </row>
     <row r="183" spans="1:11">
       <c r="A183" s="3"/>
@@ -5482,7 +5522,7 @@
       <c r="H183" s="3"/>
       <c r="I183" s="3"/>
       <c r="J183" s="3"/>
-      <c r="K183" s="50"/>
+      <c r="K183" s="51"/>
     </row>
     <row r="184" spans="1:11">
       <c r="A184" s="3"/>
@@ -5494,7 +5534,7 @@
       <c r="H184" s="3"/>
       <c r="I184" s="3"/>
       <c r="J184" s="3"/>
-      <c r="K184" s="50"/>
+      <c r="K184" s="51"/>
     </row>
     <row r="185" spans="1:11">
       <c r="A185" s="3"/>
@@ -5506,7 +5546,7 @@
       <c r="H185" s="3"/>
       <c r="I185" s="3"/>
       <c r="J185" s="3"/>
-      <c r="K185" s="50"/>
+      <c r="K185" s="51"/>
     </row>
     <row r="186" spans="1:11">
       <c r="A186" s="3"/>
@@ -5518,7 +5558,7 @@
       <c r="H186" s="3"/>
       <c r="I186" s="3"/>
       <c r="J186" s="3"/>
-      <c r="K186" s="50"/>
+      <c r="K186" s="51"/>
     </row>
     <row r="187" spans="1:11">
       <c r="A187" s="3"/>
@@ -5530,7 +5570,7 @@
       <c r="H187" s="3"/>
       <c r="I187" s="3"/>
       <c r="J187" s="3"/>
-      <c r="K187" s="50"/>
+      <c r="K187" s="51"/>
     </row>
     <row r="188" spans="1:11">
       <c r="A188" s="3"/>
@@ -5542,7 +5582,7 @@
       <c r="H188" s="3"/>
       <c r="I188" s="3"/>
       <c r="J188" s="3"/>
-      <c r="K188" s="50"/>
+      <c r="K188" s="51"/>
     </row>
     <row r="189" spans="1:11">
       <c r="A189" s="3"/>
@@ -5554,7 +5594,7 @@
       <c r="H189" s="3"/>
       <c r="I189" s="3"/>
       <c r="J189" s="3"/>
-      <c r="K189" s="50"/>
+      <c r="K189" s="51"/>
     </row>
     <row r="190" spans="1:11">
       <c r="A190" s="3"/>
@@ -5566,7 +5606,7 @@
       <c r="H190" s="3"/>
       <c r="I190" s="3"/>
       <c r="J190" s="3"/>
-      <c r="K190" s="50"/>
+      <c r="K190" s="51"/>
     </row>
     <row r="191" spans="1:11">
       <c r="A191" s="3"/>
@@ -5578,7 +5618,7 @@
       <c r="H191" s="3"/>
       <c r="I191" s="3"/>
       <c r="J191" s="3"/>
-      <c r="K191" s="50"/>
+      <c r="K191" s="51"/>
     </row>
     <row r="192" spans="1:11">
       <c r="A192" s="3"/>
@@ -5590,7 +5630,7 @@
       <c r="H192" s="3"/>
       <c r="I192" s="3"/>
       <c r="J192" s="3"/>
-      <c r="K192" s="50"/>
+      <c r="K192" s="51"/>
     </row>
     <row r="193" spans="1:11">
       <c r="A193" s="3"/>
@@ -5602,7 +5642,7 @@
       <c r="H193" s="3"/>
       <c r="I193" s="3"/>
       <c r="J193" s="3"/>
-      <c r="K193" s="50"/>
+      <c r="K193" s="51"/>
     </row>
     <row r="194" spans="1:11">
       <c r="A194" s="3"/>
@@ -5614,7 +5654,7 @@
       <c r="H194" s="3"/>
       <c r="I194" s="3"/>
       <c r="J194" s="3"/>
-      <c r="K194" s="50"/>
+      <c r="K194" s="51"/>
     </row>
     <row r="195" spans="1:11">
       <c r="A195" s="3"/>
@@ -5626,7 +5666,7 @@
       <c r="H195" s="3"/>
       <c r="I195" s="3"/>
       <c r="J195" s="3"/>
-      <c r="K195" s="50"/>
+      <c r="K195" s="51"/>
     </row>
     <row r="196" spans="1:11">
       <c r="A196" s="3"/>
@@ -5638,7 +5678,7 @@
       <c r="H196" s="3"/>
       <c r="I196" s="3"/>
       <c r="J196" s="3"/>
-      <c r="K196" s="50"/>
+      <c r="K196" s="51"/>
     </row>
     <row r="197" spans="1:11">
       <c r="A197" s="3"/>
@@ -5650,7 +5690,7 @@
       <c r="H197" s="3"/>
       <c r="I197" s="3"/>
       <c r="J197" s="3"/>
-      <c r="K197" s="50"/>
+      <c r="K197" s="51"/>
     </row>
     <row r="198" spans="1:11">
       <c r="A198" s="3"/>
@@ -5662,7 +5702,7 @@
       <c r="H198" s="3"/>
       <c r="I198" s="3"/>
       <c r="J198" s="3"/>
-      <c r="K198" s="50"/>
+      <c r="K198" s="51"/>
     </row>
     <row r="199" spans="1:11">
       <c r="A199" s="3"/>
@@ -5674,7 +5714,7 @@
       <c r="H199" s="3"/>
       <c r="I199" s="3"/>
       <c r="J199" s="3"/>
-      <c r="K199" s="50"/>
+      <c r="K199" s="51"/>
     </row>
     <row r="200" spans="1:11">
       <c r="A200" s="3"/>
@@ -5686,7 +5726,7 @@
       <c r="H200" s="3"/>
       <c r="I200" s="3"/>
       <c r="J200" s="3"/>
-      <c r="K200" s="50"/>
+      <c r="K200" s="51"/>
     </row>
     <row r="201" spans="1:11">
       <c r="A201" s="3"/>
@@ -5698,7 +5738,7 @@
       <c r="H201" s="3"/>
       <c r="I201" s="3"/>
       <c r="J201" s="3"/>
-      <c r="K201" s="50"/>
+      <c r="K201" s="51"/>
     </row>
     <row r="202" spans="1:11">
       <c r="A202" s="3"/>
@@ -5710,7 +5750,7 @@
       <c r="H202" s="3"/>
       <c r="I202" s="3"/>
       <c r="J202" s="3"/>
-      <c r="K202" s="50"/>
+      <c r="K202" s="51"/>
     </row>
     <row r="203" spans="1:11">
       <c r="A203" s="3"/>
@@ -5722,7 +5762,7 @@
       <c r="H203" s="3"/>
       <c r="I203" s="3"/>
       <c r="J203" s="3"/>
-      <c r="K203" s="50"/>
+      <c r="K203" s="51"/>
     </row>
     <row r="204" spans="1:11">
       <c r="A204" s="3"/>
@@ -5734,7 +5774,7 @@
       <c r="H204" s="3"/>
       <c r="I204" s="3"/>
       <c r="J204" s="3"/>
-      <c r="K204" s="50"/>
+      <c r="K204" s="51"/>
     </row>
     <row r="205" spans="1:11">
       <c r="A205" s="3"/>
@@ -5746,7 +5786,7 @@
       <c r="H205" s="3"/>
       <c r="I205" s="3"/>
       <c r="J205" s="3"/>
-      <c r="K205" s="50"/>
+      <c r="K205" s="51"/>
     </row>
     <row r="206" spans="1:11">
       <c r="A206" s="3"/>
@@ -5758,7 +5798,7 @@
       <c r="H206" s="3"/>
       <c r="I206" s="3"/>
       <c r="J206" s="3"/>
-      <c r="K206" s="50"/>
+      <c r="K206" s="51"/>
     </row>
     <row r="207" spans="1:11">
       <c r="A207" s="3"/>
@@ -5770,7 +5810,7 @@
       <c r="H207" s="3"/>
       <c r="I207" s="3"/>
       <c r="J207" s="3"/>
-      <c r="K207" s="50"/>
+      <c r="K207" s="51"/>
     </row>
     <row r="208" spans="1:11">
       <c r="A208" s="3"/>
@@ -5782,7 +5822,7 @@
       <c r="H208" s="3"/>
       <c r="I208" s="3"/>
       <c r="J208" s="3"/>
-      <c r="K208" s="50"/>
+      <c r="K208" s="51"/>
     </row>
     <row r="209" spans="1:11">
       <c r="A209" s="3"/>
@@ -5794,7 +5834,7 @@
       <c r="H209" s="3"/>
       <c r="I209" s="3"/>
       <c r="J209" s="3"/>
-      <c r="K209" s="50"/>
+      <c r="K209" s="51"/>
     </row>
     <row r="210" spans="1:11">
       <c r="A210" s="3"/>
@@ -5806,7 +5846,7 @@
       <c r="H210" s="3"/>
       <c r="I210" s="3"/>
       <c r="J210" s="3"/>
-      <c r="K210" s="50"/>
+      <c r="K210" s="51"/>
     </row>
     <row r="211" spans="1:11">
       <c r="A211" s="3"/>
@@ -5818,7 +5858,7 @@
       <c r="H211" s="3"/>
       <c r="I211" s="3"/>
       <c r="J211" s="3"/>
-      <c r="K211" s="50"/>
+      <c r="K211" s="51"/>
     </row>
     <row r="212" spans="1:11">
       <c r="A212" s="3"/>
@@ -5830,7 +5870,7 @@
       <c r="H212" s="3"/>
       <c r="I212" s="3"/>
       <c r="J212" s="3"/>
-      <c r="K212" s="50"/>
+      <c r="K212" s="51"/>
     </row>
     <row r="213" spans="1:11">
       <c r="A213" s="3"/>
@@ -5842,7 +5882,7 @@
       <c r="H213" s="3"/>
       <c r="I213" s="3"/>
       <c r="J213" s="3"/>
-      <c r="K213" s="50"/>
+      <c r="K213" s="51"/>
     </row>
     <row r="214" spans="1:11">
       <c r="A214" s="3"/>
@@ -5854,7 +5894,7 @@
       <c r="H214" s="3"/>
       <c r="I214" s="3"/>
       <c r="J214" s="3"/>
-      <c r="K214" s="50"/>
+      <c r="K214" s="51"/>
     </row>
     <row r="215" spans="1:11">
       <c r="A215" s="3"/>
@@ -5866,7 +5906,7 @@
       <c r="H215" s="3"/>
       <c r="I215" s="3"/>
       <c r="J215" s="3"/>
-      <c r="K215" s="50"/>
+      <c r="K215" s="51"/>
     </row>
     <row r="216" spans="1:11">
       <c r="A216" s="3"/>
@@ -5878,7 +5918,7 @@
       <c r="H216" s="3"/>
       <c r="I216" s="3"/>
       <c r="J216" s="3"/>
-      <c r="K216" s="50"/>
+      <c r="K216" s="51"/>
     </row>
     <row r="217" spans="1:11">
       <c r="A217" s="3"/>
@@ -5890,7 +5930,7 @@
       <c r="H217" s="3"/>
       <c r="I217" s="3"/>
       <c r="J217" s="3"/>
-      <c r="K217" s="50"/>
+      <c r="K217" s="51"/>
     </row>
     <row r="218" spans="1:11">
       <c r="A218" s="3"/>
@@ -5902,7 +5942,7 @@
       <c r="H218" s="3"/>
       <c r="I218" s="3"/>
       <c r="J218" s="3"/>
-      <c r="K218" s="50"/>
+      <c r="K218" s="51"/>
     </row>
     <row r="219" spans="1:11">
       <c r="A219" s="3"/>
@@ -5914,7 +5954,7 @@
       <c r="H219" s="3"/>
       <c r="I219" s="3"/>
       <c r="J219" s="3"/>
-      <c r="K219" s="50"/>
+      <c r="K219" s="51"/>
     </row>
     <row r="220" spans="1:11">
       <c r="A220" s="3"/>
@@ -5926,7 +5966,7 @@
       <c r="H220" s="3"/>
       <c r="I220" s="3"/>
       <c r="J220" s="3"/>
-      <c r="K220" s="50"/>
+      <c r="K220" s="51"/>
     </row>
     <row r="221" spans="1:11">
       <c r="A221" s="3"/>
@@ -5938,7 +5978,7 @@
       <c r="H221" s="3"/>
       <c r="I221" s="3"/>
       <c r="J221" s="3"/>
-      <c r="K221" s="50"/>
+      <c r="K221" s="51"/>
     </row>
     <row r="222" spans="1:11">
       <c r="A222" s="3"/>
@@ -5950,7 +5990,7 @@
       <c r="H222" s="3"/>
       <c r="I222" s="3"/>
       <c r="J222" s="3"/>
-      <c r="K222" s="50"/>
+      <c r="K222" s="51"/>
     </row>
     <row r="223" spans="1:11">
       <c r="A223" s="3"/>
@@ -5962,7 +6002,7 @@
       <c r="H223" s="3"/>
       <c r="I223" s="3"/>
       <c r="J223" s="3"/>
-      <c r="K223" s="50"/>
+      <c r="K223" s="51"/>
     </row>
     <row r="224" spans="1:11">
       <c r="A224" s="3"/>
@@ -5974,7 +6014,7 @@
       <c r="H224" s="3"/>
       <c r="I224" s="3"/>
       <c r="J224" s="3"/>
-      <c r="K224" s="50"/>
+      <c r="K224" s="51"/>
     </row>
     <row r="225" spans="1:11">
       <c r="A225" s="3"/>
@@ -5986,7 +6026,7 @@
       <c r="H225" s="3"/>
       <c r="I225" s="3"/>
       <c r="J225" s="3"/>
-      <c r="K225" s="50"/>
+      <c r="K225" s="51"/>
     </row>
     <row r="226" spans="1:11">
       <c r="A226" s="3"/>
@@ -5998,7 +6038,7 @@
       <c r="H226" s="3"/>
       <c r="I226" s="3"/>
       <c r="J226" s="3"/>
-      <c r="K226" s="50"/>
+      <c r="K226" s="51"/>
     </row>
     <row r="227" spans="1:11">
       <c r="A227" s="3"/>
@@ -6010,7 +6050,7 @@
       <c r="H227" s="3"/>
       <c r="I227" s="3"/>
       <c r="J227" s="3"/>
-      <c r="K227" s="50"/>
+      <c r="K227" s="51"/>
     </row>
     <row r="228" spans="1:11">
       <c r="A228" s="3"/>
@@ -6022,7 +6062,7 @@
       <c r="H228" s="3"/>
       <c r="I228" s="3"/>
       <c r="J228" s="3"/>
-      <c r="K228" s="50"/>
+      <c r="K228" s="51"/>
     </row>
     <row r="229" spans="1:11">
       <c r="A229" s="3"/>
@@ -6034,7 +6074,7 @@
       <c r="H229" s="3"/>
       <c r="I229" s="3"/>
       <c r="J229" s="3"/>
-      <c r="K229" s="50"/>
+      <c r="K229" s="51"/>
     </row>
     <row r="230" spans="1:11">
       <c r="A230" s="3"/>
@@ -6046,7 +6086,7 @@
       <c r="H230" s="3"/>
       <c r="I230" s="3"/>
       <c r="J230" s="3"/>
-      <c r="K230" s="50"/>
+      <c r="K230" s="51"/>
     </row>
     <row r="231" spans="1:11">
       <c r="A231" s="3"/>
@@ -6058,7 +6098,7 @@
       <c r="H231" s="3"/>
       <c r="I231" s="3"/>
       <c r="J231" s="3"/>
-      <c r="K231" s="50"/>
+      <c r="K231" s="51"/>
     </row>
     <row r="232" spans="1:11">
       <c r="A232" s="3"/>
@@ -6070,7 +6110,7 @@
       <c r="H232" s="3"/>
       <c r="I232" s="3"/>
       <c r="J232" s="3"/>
-      <c r="K232" s="50"/>
+      <c r="K232" s="51"/>
     </row>
     <row r="233" spans="1:11">
       <c r="A233" s="3"/>
@@ -6082,7 +6122,7 @@
       <c r="H233" s="3"/>
       <c r="I233" s="3"/>
       <c r="J233" s="3"/>
-      <c r="K233" s="50"/>
+      <c r="K233" s="51"/>
     </row>
     <row r="234" spans="1:11">
       <c r="A234" s="3"/>
@@ -6094,7 +6134,7 @@
       <c r="H234" s="3"/>
       <c r="I234" s="3"/>
       <c r="J234" s="3"/>
-      <c r="K234" s="50"/>
+      <c r="K234" s="51"/>
     </row>
     <row r="235" spans="1:11">
       <c r="A235" s="3"/>
@@ -6106,7 +6146,7 @@
       <c r="H235" s="3"/>
       <c r="I235" s="3"/>
       <c r="J235" s="3"/>
-      <c r="K235" s="50"/>
+      <c r="K235" s="51"/>
     </row>
     <row r="236" spans="1:11">
       <c r="A236" s="3"/>
@@ -6118,7 +6158,7 @@
       <c r="H236" s="3"/>
       <c r="I236" s="3"/>
       <c r="J236" s="3"/>
-      <c r="K236" s="50"/>
+      <c r="K236" s="51"/>
     </row>
     <row r="237" spans="1:11">
       <c r="A237" s="3"/>
@@ -6130,7 +6170,7 @@
       <c r="H237" s="3"/>
       <c r="I237" s="3"/>
       <c r="J237" s="3"/>
-      <c r="K237" s="50"/>
+      <c r="K237" s="51"/>
     </row>
     <row r="238" spans="1:11">
       <c r="A238" s="3"/>
@@ -6142,7 +6182,7 @@
       <c r="H238" s="3"/>
       <c r="I238" s="3"/>
       <c r="J238" s="3"/>
-      <c r="K238" s="50"/>
+      <c r="K238" s="51"/>
     </row>
     <row r="239" spans="1:11">
       <c r="A239" s="3"/>
@@ -6154,7 +6194,7 @@
       <c r="H239" s="3"/>
       <c r="I239" s="3"/>
       <c r="J239" s="3"/>
-      <c r="K239" s="50"/>
+      <c r="K239" s="51"/>
     </row>
     <row r="240" spans="1:11">
       <c r="A240" s="3"/>
@@ -6166,7 +6206,7 @@
       <c r="H240" s="3"/>
       <c r="I240" s="3"/>
       <c r="J240" s="3"/>
-      <c r="K240" s="50"/>
+      <c r="K240" s="51"/>
     </row>
     <row r="241" spans="1:11">
       <c r="A241" s="3"/>
@@ -6178,7 +6218,7 @@
       <c r="H241" s="3"/>
       <c r="I241" s="3"/>
       <c r="J241" s="3"/>
-      <c r="K241" s="50"/>
+      <c r="K241" s="51"/>
     </row>
     <row r="242" spans="1:11">
       <c r="A242" s="3"/>
@@ -6190,7 +6230,7 @@
       <c r="H242" s="3"/>
       <c r="I242" s="3"/>
       <c r="J242" s="3"/>
-      <c r="K242" s="50"/>
+      <c r="K242" s="51"/>
     </row>
     <row r="243" spans="1:11">
       <c r="A243" s="3"/>
@@ -6202,7 +6242,7 @@
       <c r="H243" s="3"/>
       <c r="I243" s="3"/>
       <c r="J243" s="3"/>
-      <c r="K243" s="50"/>
+      <c r="K243" s="51"/>
     </row>
     <row r="244" spans="1:11">
       <c r="A244" s="3"/>
@@ -6214,7 +6254,7 @@
       <c r="H244" s="3"/>
       <c r="I244" s="3"/>
       <c r="J244" s="3"/>
-      <c r="K244" s="50"/>
+      <c r="K244" s="51"/>
     </row>
     <row r="245" spans="1:11">
       <c r="A245" s="3"/>
@@ -6226,7 +6266,7 @@
       <c r="H245" s="3"/>
       <c r="I245" s="3"/>
       <c r="J245" s="3"/>
-      <c r="K245" s="50"/>
+      <c r="K245" s="51"/>
     </row>
     <row r="246" spans="1:11">
       <c r="A246" s="3"/>
@@ -6238,7 +6278,7 @@
       <c r="H246" s="3"/>
       <c r="I246" s="3"/>
       <c r="J246" s="3"/>
-      <c r="K246" s="50"/>
+      <c r="K246" s="51"/>
     </row>
     <row r="247" spans="1:11">
       <c r="A247" s="3"/>
@@ -6250,7 +6290,7 @@
       <c r="H247" s="3"/>
       <c r="I247" s="3"/>
       <c r="J247" s="3"/>
-      <c r="K247" s="50"/>
+      <c r="K247" s="51"/>
     </row>
     <row r="248" spans="1:11">
       <c r="A248" s="3"/>
@@ -6262,7 +6302,7 @@
       <c r="H248" s="3"/>
       <c r="I248" s="3"/>
       <c r="J248" s="3"/>
-      <c r="K248" s="50"/>
+      <c r="K248" s="51"/>
     </row>
     <row r="249" spans="1:11">
       <c r="A249" s="3"/>
@@ -6274,7 +6314,7 @@
       <c r="H249" s="3"/>
       <c r="I249" s="3"/>
       <c r="J249" s="3"/>
-      <c r="K249" s="50"/>
+      <c r="K249" s="51"/>
     </row>
     <row r="250" spans="1:11">
       <c r="A250" s="3"/>
@@ -6286,7 +6326,7 @@
       <c r="H250" s="3"/>
       <c r="I250" s="3"/>
       <c r="J250" s="3"/>
-      <c r="K250" s="50"/>
+      <c r="K250" s="51"/>
     </row>
     <row r="251" spans="1:11">
       <c r="A251" s="3"/>
@@ -6298,7 +6338,7 @@
       <c r="H251" s="3"/>
       <c r="I251" s="3"/>
       <c r="J251" s="3"/>
-      <c r="K251" s="50"/>
+      <c r="K251" s="51"/>
     </row>
     <row r="252" spans="1:11">
       <c r="A252" s="3"/>
@@ -6310,7 +6350,7 @@
       <c r="H252" s="3"/>
       <c r="I252" s="3"/>
       <c r="J252" s="3"/>
-      <c r="K252" s="50"/>
+      <c r="K252" s="51"/>
     </row>
     <row r="253" spans="1:11">
       <c r="A253" s="3"/>
@@ -6322,7 +6362,7 @@
       <c r="H253" s="3"/>
       <c r="I253" s="3"/>
       <c r="J253" s="3"/>
-      <c r="K253" s="50"/>
+      <c r="K253" s="51"/>
     </row>
     <row r="254" spans="1:11">
       <c r="A254" s="3"/>
@@ -6334,7 +6374,7 @@
       <c r="H254" s="3"/>
       <c r="I254" s="3"/>
       <c r="J254" s="3"/>
-      <c r="K254" s="50"/>
+      <c r="K254" s="51"/>
     </row>
     <row r="255" spans="1:11">
       <c r="A255" s="3"/>
@@ -6346,7 +6386,7 @@
       <c r="H255" s="3"/>
       <c r="I255" s="3"/>
       <c r="J255" s="3"/>
-      <c r="K255" s="50"/>
+      <c r="K255" s="51"/>
     </row>
     <row r="256" spans="1:11">
       <c r="A256" s="3"/>
@@ -6358,7 +6398,7 @@
       <c r="H256" s="3"/>
       <c r="I256" s="3"/>
       <c r="J256" s="3"/>
-      <c r="K256" s="50"/>
+      <c r="K256" s="51"/>
     </row>
     <row r="257" spans="1:11">
       <c r="A257" s="3"/>
@@ -6370,7 +6410,7 @@
       <c r="H257" s="3"/>
       <c r="I257" s="3"/>
       <c r="J257" s="3"/>
-      <c r="K257" s="50"/>
+      <c r="K257" s="51"/>
     </row>
     <row r="258" spans="1:11">
       <c r="A258" s="3"/>
@@ -6382,7 +6422,7 @@
       <c r="H258" s="3"/>
       <c r="I258" s="3"/>
       <c r="J258" s="3"/>
-      <c r="K258" s="50"/>
+      <c r="K258" s="51"/>
     </row>
     <row r="259" spans="1:11">
       <c r="A259" s="3"/>
@@ -6394,7 +6434,7 @@
       <c r="H259" s="3"/>
       <c r="I259" s="3"/>
       <c r="J259" s="3"/>
-      <c r="K259" s="50"/>
+      <c r="K259" s="51"/>
     </row>
     <row r="260" spans="1:11">
       <c r="A260" s="3"/>
@@ -6406,7 +6446,7 @@
       <c r="H260" s="3"/>
       <c r="I260" s="3"/>
       <c r="J260" s="3"/>
-      <c r="K260" s="50"/>
+      <c r="K260" s="51"/>
     </row>
     <row r="261" spans="1:11">
       <c r="A261" s="3"/>
@@ -6418,7 +6458,7 @@
       <c r="H261" s="3"/>
       <c r="I261" s="3"/>
       <c r="J261" s="3"/>
-      <c r="K261" s="50"/>
+      <c r="K261" s="51"/>
     </row>
     <row r="262" spans="1:11">
       <c r="A262" s="3"/>
@@ -6430,7 +6470,7 @@
       <c r="H262" s="3"/>
       <c r="I262" s="3"/>
       <c r="J262" s="3"/>
-      <c r="K262" s="50"/>
+      <c r="K262" s="51"/>
     </row>
     <row r="263" spans="1:11">
       <c r="A263" s="3"/>
@@ -6442,7 +6482,7 @@
       <c r="H263" s="3"/>
       <c r="I263" s="3"/>
       <c r="J263" s="3"/>
-      <c r="K263" s="50"/>
+      <c r="K263" s="51"/>
     </row>
     <row r="264" spans="1:11">
       <c r="A264" s="3"/>
@@ -6454,7 +6494,7 @@
       <c r="H264" s="3"/>
       <c r="I264" s="3"/>
       <c r="J264" s="3"/>
-      <c r="K264" s="50"/>
+      <c r="K264" s="51"/>
     </row>
     <row r="265" spans="1:11">
       <c r="A265" s="3"/>
@@ -6466,7 +6506,7 @@
       <c r="H265" s="3"/>
       <c r="I265" s="3"/>
       <c r="J265" s="3"/>
-      <c r="K265" s="50"/>
+      <c r="K265" s="51"/>
     </row>
     <row r="266" spans="1:11">
       <c r="A266" s="3"/>
@@ -6478,7 +6518,7 @@
       <c r="H266" s="3"/>
       <c r="I266" s="3"/>
       <c r="J266" s="3"/>
-      <c r="K266" s="50"/>
+      <c r="K266" s="51"/>
     </row>
     <row r="267" spans="1:11">
       <c r="A267" s="3"/>
@@ -6490,7 +6530,7 @@
       <c r="H267" s="3"/>
       <c r="I267" s="3"/>
       <c r="J267" s="3"/>
-      <c r="K267" s="50"/>
+      <c r="K267" s="51"/>
     </row>
     <row r="268" spans="1:11">
       <c r="A268" s="3"/>
@@ -6502,7 +6542,7 @@
       <c r="H268" s="3"/>
       <c r="I268" s="3"/>
       <c r="J268" s="3"/>
-      <c r="K268" s="50"/>
+      <c r="K268" s="51"/>
     </row>
     <row r="269" spans="1:11">
       <c r="A269" s="3"/>
@@ -6514,7 +6554,7 @@
       <c r="H269" s="3"/>
       <c r="I269" s="3"/>
       <c r="J269" s="3"/>
-      <c r="K269" s="50"/>
+      <c r="K269" s="51"/>
     </row>
     <row r="270" spans="1:11">
       <c r="A270" s="3"/>
@@ -6526,7 +6566,7 @@
       <c r="H270" s="3"/>
       <c r="I270" s="3"/>
       <c r="J270" s="3"/>
-      <c r="K270" s="50"/>
+      <c r="K270" s="51"/>
     </row>
     <row r="271" spans="1:11">
       <c r="A271" s="3"/>
@@ -6538,7 +6578,7 @@
       <c r="H271" s="3"/>
       <c r="I271" s="3"/>
       <c r="J271" s="3"/>
-      <c r="K271" s="50"/>
+      <c r="K271" s="51"/>
     </row>
     <row r="272" spans="1:11">
       <c r="A272" s="3"/>
@@ -6550,7 +6590,7 @@
       <c r="H272" s="3"/>
       <c r="I272" s="3"/>
       <c r="J272" s="3"/>
-      <c r="K272" s="50"/>
+      <c r="K272" s="51"/>
     </row>
     <row r="273" spans="1:11">
       <c r="A273" s="3"/>
@@ -6562,7 +6602,7 @@
       <c r="H273" s="3"/>
       <c r="I273" s="3"/>
       <c r="J273" s="3"/>
-      <c r="K273" s="50"/>
+      <c r="K273" s="51"/>
     </row>
     <row r="274" spans="1:11">
       <c r="A274" s="3"/>
@@ -6574,7 +6614,7 @@
       <c r="H274" s="3"/>
       <c r="I274" s="3"/>
       <c r="J274" s="3"/>
-      <c r="K274" s="50"/>
+      <c r="K274" s="51"/>
     </row>
     <row r="275" spans="1:11">
       <c r="A275" s="3"/>
@@ -6586,7 +6626,7 @@
       <c r="H275" s="3"/>
       <c r="I275" s="3"/>
       <c r="J275" s="3"/>
-      <c r="K275" s="50"/>
+      <c r="K275" s="51"/>
     </row>
     <row r="276" spans="1:11">
       <c r="A276" s="3"/>
@@ -6598,7 +6638,7 @@
       <c r="H276" s="3"/>
       <c r="I276" s="3"/>
       <c r="J276" s="3"/>
-      <c r="K276" s="50"/>
+      <c r="K276" s="51"/>
     </row>
     <row r="277" spans="1:11">
       <c r="A277" s="3"/>
@@ -6610,7 +6650,7 @@
       <c r="H277" s="3"/>
       <c r="I277" s="3"/>
       <c r="J277" s="3"/>
-      <c r="K277" s="50"/>
+      <c r="K277" s="51"/>
     </row>
     <row r="278" spans="1:11">
       <c r="A278" s="3"/>
@@ -6622,7 +6662,7 @@
       <c r="H278" s="3"/>
       <c r="I278" s="3"/>
       <c r="J278" s="3"/>
-      <c r="K278" s="50"/>
+      <c r="K278" s="51"/>
     </row>
     <row r="279" spans="1:11">
       <c r="A279" s="3"/>
@@ -6634,7 +6674,7 @@
       <c r="H279" s="3"/>
       <c r="I279" s="3"/>
       <c r="J279" s="3"/>
-      <c r="K279" s="50"/>
+      <c r="K279" s="51"/>
     </row>
     <row r="280" spans="1:11">
       <c r="A280" s="3"/>
@@ -6646,7 +6686,7 @@
       <c r="H280" s="3"/>
       <c r="I280" s="3"/>
       <c r="J280" s="3"/>
-      <c r="K280" s="50"/>
+      <c r="K280" s="51"/>
     </row>
     <row r="281" spans="1:11">
       <c r="A281" s="3"/>
@@ -6658,7 +6698,7 @@
       <c r="H281" s="3"/>
       <c r="I281" s="3"/>
       <c r="J281" s="3"/>
-      <c r="K281" s="50"/>
+      <c r="K281" s="51"/>
     </row>
     <row r="282" spans="1:11">
       <c r="A282" s="3"/>
@@ -6670,7 +6710,7 @@
       <c r="H282" s="3"/>
       <c r="I282" s="3"/>
       <c r="J282" s="3"/>
-      <c r="K282" s="50"/>
+      <c r="K282" s="51"/>
     </row>
     <row r="283" spans="1:11">
       <c r="A283" s="3"/>
@@ -6682,7 +6722,7 @@
       <c r="H283" s="3"/>
       <c r="I283" s="3"/>
       <c r="J283" s="3"/>
-      <c r="K283" s="50"/>
+      <c r="K283" s="51"/>
     </row>
     <row r="284" spans="1:11">
       <c r="A284" s="3"/>
@@ -6694,7 +6734,7 @@
       <c r="H284" s="3"/>
       <c r="I284" s="3"/>
       <c r="J284" s="3"/>
-      <c r="K284" s="50"/>
+      <c r="K284" s="51"/>
     </row>
     <row r="285" spans="1:11">
       <c r="A285" s="3"/>
@@ -6706,7 +6746,7 @@
       <c r="H285" s="3"/>
       <c r="I285" s="3"/>
       <c r="J285" s="3"/>
-      <c r="K285" s="50"/>
+      <c r="K285" s="51"/>
     </row>
     <row r="286" spans="1:11">
       <c r="A286" s="3"/>
@@ -6718,7 +6758,7 @@
       <c r="H286" s="3"/>
       <c r="I286" s="3"/>
       <c r="J286" s="3"/>
-      <c r="K286" s="50"/>
+      <c r="K286" s="51"/>
     </row>
     <row r="287" spans="1:11">
       <c r="A287" s="3"/>
@@ -6730,7 +6770,7 @@
       <c r="H287" s="3"/>
       <c r="I287" s="3"/>
       <c r="J287" s="3"/>
-      <c r="K287" s="50"/>
+      <c r="K287" s="51"/>
     </row>
     <row r="288" spans="1:11">
       <c r="A288" s="3"/>
@@ -6742,7 +6782,7 @@
       <c r="H288" s="3"/>
       <c r="I288" s="3"/>
       <c r="J288" s="3"/>
-      <c r="K288" s="50"/>
+      <c r="K288" s="51"/>
     </row>
     <row r="289" spans="1:11">
       <c r="A289" s="3"/>
@@ -6754,7 +6794,7 @@
       <c r="H289" s="3"/>
       <c r="I289" s="3"/>
       <c r="J289" s="3"/>
-      <c r="K289" s="50"/>
+      <c r="K289" s="51"/>
     </row>
     <row r="290" spans="1:11">
       <c r="A290" s="3"/>
@@ -6766,7 +6806,7 @@
       <c r="H290" s="3"/>
       <c r="I290" s="3"/>
       <c r="J290" s="3"/>
-      <c r="K290" s="50"/>
+      <c r="K290" s="51"/>
     </row>
     <row r="291" spans="1:11">
       <c r="A291" s="3"/>
@@ -6778,7 +6818,7 @@
       <c r="H291" s="3"/>
       <c r="I291" s="3"/>
       <c r="J291" s="3"/>
-      <c r="K291" s="50"/>
+      <c r="K291" s="51"/>
     </row>
     <row r="292" spans="1:11">
       <c r="A292" s="3"/>
@@ -6790,7 +6830,7 @@
       <c r="H292" s="3"/>
       <c r="I292" s="3"/>
       <c r="J292" s="3"/>
-      <c r="K292" s="50"/>
+      <c r="K292" s="51"/>
     </row>
     <row r="293" spans="1:11">
       <c r="A293" s="3"/>
@@ -6802,7 +6842,7 @@
       <c r="H293" s="3"/>
       <c r="I293" s="3"/>
       <c r="J293" s="3"/>
-      <c r="K293" s="50"/>
+      <c r="K293" s="51"/>
     </row>
     <row r="294" spans="1:11">
       <c r="A294" s="3"/>
@@ -6814,7 +6854,7 @@
       <c r="H294" s="3"/>
       <c r="I294" s="3"/>
       <c r="J294" s="3"/>
-      <c r="K294" s="50"/>
+      <c r="K294" s="51"/>
     </row>
     <row r="295" spans="1:11">
       <c r="A295" s="3"/>
@@ -6826,7 +6866,7 @@
       <c r="H295" s="3"/>
       <c r="I295" s="3"/>
       <c r="J295" s="3"/>
-      <c r="K295" s="50"/>
+      <c r="K295" s="51"/>
     </row>
     <row r="296" spans="1:11">
       <c r="A296" s="3"/>
@@ -6838,7 +6878,7 @@
       <c r="H296" s="3"/>
       <c r="I296" s="3"/>
       <c r="J296" s="3"/>
-      <c r="K296" s="50"/>
+      <c r="K296" s="51"/>
     </row>
     <row r="297" spans="1:11">
       <c r="A297" s="3"/>
@@ -6850,7 +6890,7 @@
       <c r="H297" s="3"/>
       <c r="I297" s="3"/>
       <c r="J297" s="3"/>
-      <c r="K297" s="50"/>
+      <c r="K297" s="51"/>
     </row>
     <row r="298" spans="1:11">
       <c r="A298" s="3"/>
@@ -6862,7 +6902,7 @@
       <c r="H298" s="3"/>
       <c r="I298" s="3"/>
       <c r="J298" s="3"/>
-      <c r="K298" s="50"/>
+      <c r="K298" s="51"/>
     </row>
     <row r="299" spans="1:11">
       <c r="A299" s="3"/>
@@ -6874,7 +6914,7 @@
       <c r="H299" s="3"/>
       <c r="I299" s="3"/>
       <c r="J299" s="3"/>
-      <c r="K299" s="50"/>
+      <c r="K299" s="51"/>
     </row>
     <row r="300" spans="1:11">
       <c r="A300" s="3"/>
@@ -6886,7 +6926,7 @@
       <c r="H300" s="3"/>
       <c r="I300" s="3"/>
       <c r="J300" s="3"/>
-      <c r="K300" s="50"/>
+      <c r="K300" s="51"/>
     </row>
     <row r="301" spans="1:11">
       <c r="A301" s="3"/>
@@ -6898,7 +6938,7 @@
       <c r="H301" s="3"/>
       <c r="I301" s="3"/>
       <c r="J301" s="3"/>
-      <c r="K301" s="50"/>
+      <c r="K301" s="51"/>
     </row>
     <row r="302" spans="1:11">
       <c r="A302" s="3"/>
@@ -6910,7 +6950,7 @@
       <c r="H302" s="3"/>
       <c r="I302" s="3"/>
       <c r="J302" s="3"/>
-      <c r="K302" s="50"/>
+      <c r="K302" s="51"/>
     </row>
     <row r="303" spans="1:11">
       <c r="A303" s="3"/>
@@ -6922,7 +6962,7 @@
       <c r="H303" s="3"/>
       <c r="I303" s="3"/>
       <c r="J303" s="3"/>
-      <c r="K303" s="50"/>
+      <c r="K303" s="51"/>
     </row>
     <row r="304" spans="1:11">
       <c r="A304" s="3"/>
@@ -6934,7 +6974,7 @@
       <c r="H304" s="3"/>
       <c r="I304" s="3"/>
       <c r="J304" s="3"/>
-      <c r="K304" s="50"/>
+      <c r="K304" s="51"/>
     </row>
     <row r="305" spans="1:11">
       <c r="A305" s="3"/>
@@ -6946,7 +6986,7 @@
       <c r="H305" s="3"/>
       <c r="I305" s="3"/>
       <c r="J305" s="3"/>
-      <c r="K305" s="50"/>
+      <c r="K305" s="51"/>
     </row>
     <row r="306" spans="1:11">
       <c r="A306" s="3"/>
@@ -6958,7 +6998,7 @@
       <c r="H306" s="3"/>
       <c r="I306" s="3"/>
       <c r="J306" s="3"/>
-      <c r="K306" s="50"/>
+      <c r="K306" s="51"/>
     </row>
     <row r="307" spans="1:11">
       <c r="A307" s="3"/>
@@ -6970,7 +7010,7 @@
       <c r="H307" s="3"/>
       <c r="I307" s="3"/>
       <c r="J307" s="3"/>
-      <c r="K307" s="50"/>
+      <c r="K307" s="51"/>
     </row>
     <row r="308" spans="1:11">
       <c r="A308" s="3"/>
@@ -6982,7 +7022,7 @@
       <c r="H308" s="3"/>
       <c r="I308" s="3"/>
       <c r="J308" s="3"/>
-      <c r="K308" s="50"/>
+      <c r="K308" s="51"/>
     </row>
     <row r="309" spans="1:11">
       <c r="A309" s="3"/>
@@ -6994,7 +7034,7 @@
       <c r="H309" s="3"/>
       <c r="I309" s="3"/>
       <c r="J309" s="3"/>
-      <c r="K309" s="50"/>
+      <c r="K309" s="51"/>
     </row>
     <row r="310" spans="1:11">
       <c r="A310" s="3"/>
@@ -7006,7 +7046,7 @@
       <c r="H310" s="3"/>
       <c r="I310" s="3"/>
       <c r="J310" s="3"/>
-      <c r="K310" s="50"/>
+      <c r="K310" s="51"/>
     </row>
     <row r="311" spans="1:11">
       <c r="A311" s="3"/>
@@ -7018,7 +7058,7 @@
       <c r="H311" s="3"/>
       <c r="I311" s="3"/>
       <c r="J311" s="3"/>
-      <c r="K311" s="50"/>
+      <c r="K311" s="51"/>
     </row>
     <row r="312" spans="1:11">
       <c r="A312" s="3"/>
@@ -7030,7 +7070,7 @@
       <c r="H312" s="3"/>
       <c r="I312" s="3"/>
       <c r="J312" s="3"/>
-      <c r="K312" s="50"/>
+      <c r="K312" s="51"/>
     </row>
     <row r="313" spans="1:11">
       <c r="A313" s="3"/>
@@ -7042,7 +7082,7 @@
       <c r="H313" s="3"/>
       <c r="I313" s="3"/>
       <c r="J313" s="3"/>
-      <c r="K313" s="50"/>
+      <c r="K313" s="51"/>
     </row>
     <row r="314" spans="1:11">
       <c r="A314" s="3"/>
@@ -7054,7 +7094,7 @@
       <c r="H314" s="3"/>
       <c r="I314" s="3"/>
       <c r="J314" s="3"/>
-      <c r="K314" s="50"/>
+      <c r="K314" s="51"/>
     </row>
     <row r="315" spans="1:11">
       <c r="A315" s="3"/>
@@ -7066,7 +7106,7 @@
       <c r="H315" s="3"/>
       <c r="I315" s="3"/>
       <c r="J315" s="3"/>
-      <c r="K315" s="50"/>
+      <c r="K315" s="51"/>
     </row>
     <row r="316" spans="1:11">
       <c r="A316" s="3"/>
@@ -7078,7 +7118,7 @@
       <c r="H316" s="3"/>
       <c r="I316" s="3"/>
       <c r="J316" s="3"/>
-      <c r="K316" s="50"/>
+      <c r="K316" s="51"/>
     </row>
     <row r="317" spans="1:11">
       <c r="A317" s="3"/>
@@ -7090,7 +7130,7 @@
       <c r="H317" s="3"/>
       <c r="I317" s="3"/>
       <c r="J317" s="3"/>
-      <c r="K317" s="50"/>
+      <c r="K317" s="51"/>
     </row>
     <row r="318" spans="1:11">
       <c r="A318" s="3"/>
@@ -7102,7 +7142,7 @@
       <c r="H318" s="3"/>
       <c r="I318" s="3"/>
       <c r="J318" s="3"/>
-      <c r="K318" s="50"/>
+      <c r="K318" s="51"/>
     </row>
     <row r="319" spans="1:11">
       <c r="A319" s="3"/>
@@ -7114,7 +7154,7 @@
       <c r="H319" s="3"/>
       <c r="I319" s="3"/>
       <c r="J319" s="3"/>
-      <c r="K319" s="50"/>
+      <c r="K319" s="51"/>
     </row>
     <row r="320" spans="1:11">
       <c r="A320" s="3"/>
@@ -7126,7 +7166,7 @@
       <c r="H320" s="3"/>
       <c r="I320" s="3"/>
       <c r="J320" s="3"/>
-      <c r="K320" s="50"/>
+      <c r="K320" s="51"/>
     </row>
     <row r="321" spans="1:11">
       <c r="A321" s="3"/>
@@ -7138,7 +7178,7 @@
       <c r="H321" s="3"/>
       <c r="I321" s="3"/>
       <c r="J321" s="3"/>
-      <c r="K321" s="50"/>
+      <c r="K321" s="51"/>
     </row>
     <row r="322" spans="1:11">
       <c r="A322" s="3"/>
@@ -7150,7 +7190,7 @@
       <c r="H322" s="3"/>
       <c r="I322" s="3"/>
       <c r="J322" s="3"/>
-      <c r="K322" s="50"/>
+      <c r="K322" s="51"/>
     </row>
     <row r="323" spans="1:11">
       <c r="A323" s="3"/>
@@ -7162,7 +7202,7 @@
       <c r="H323" s="3"/>
       <c r="I323" s="3"/>
       <c r="J323" s="3"/>
-      <c r="K323" s="50"/>
+      <c r="K323" s="51"/>
     </row>
     <row r="324" spans="1:11">
       <c r="A324" s="3"/>
@@ -7174,7 +7214,7 @@
       <c r="H324" s="3"/>
       <c r="I324" s="3"/>
       <c r="J324" s="3"/>
-      <c r="K324" s="50"/>
+      <c r="K324" s="51"/>
     </row>
     <row r="325" spans="1:11">
       <c r="A325" s="3"/>
@@ -7186,7 +7226,7 @@
       <c r="H325" s="3"/>
       <c r="I325" s="3"/>
       <c r="J325" s="3"/>
-      <c r="K325" s="50"/>
+      <c r="K325" s="51"/>
     </row>
     <row r="326" spans="1:11">
       <c r="A326" s="3"/>
@@ -7198,7 +7238,7 @@
       <c r="H326" s="3"/>
       <c r="I326" s="3"/>
       <c r="J326" s="3"/>
-      <c r="K326" s="50"/>
+      <c r="K326" s="51"/>
     </row>
     <row r="327" spans="1:11">
       <c r="A327" s="3"/>
@@ -7210,7 +7250,7 @@
       <c r="H327" s="3"/>
       <c r="I327" s="3"/>
       <c r="J327" s="3"/>
-      <c r="K327" s="50"/>
+      <c r="K327" s="51"/>
     </row>
     <row r="328" spans="1:11">
       <c r="A328" s="3"/>
@@ -7222,7 +7262,7 @@
       <c r="H328" s="3"/>
       <c r="I328" s="3"/>
       <c r="J328" s="3"/>
-      <c r="K328" s="50"/>
+      <c r="K328" s="51"/>
     </row>
     <row r="329" spans="1:11">
       <c r="A329" s="3"/>
@@ -7234,7 +7274,7 @@
       <c r="H329" s="3"/>
       <c r="I329" s="3"/>
       <c r="J329" s="3"/>
-      <c r="K329" s="50"/>
+      <c r="K329" s="51"/>
     </row>
     <row r="330" spans="1:11">
       <c r="A330" s="3"/>
@@ -7246,7 +7286,7 @@
       <c r="H330" s="3"/>
       <c r="I330" s="3"/>
       <c r="J330" s="3"/>
-      <c r="K330" s="50"/>
+      <c r="K330" s="51"/>
     </row>
     <row r="331" spans="1:11">
       <c r="A331" s="3"/>
@@ -7258,7 +7298,7 @@
       <c r="H331" s="3"/>
       <c r="I331" s="3"/>
       <c r="J331" s="3"/>
-      <c r="K331" s="50"/>
+      <c r="K331" s="51"/>
     </row>
     <row r="332" spans="1:11">
       <c r="A332" s="3"/>
@@ -7270,7 +7310,7 @@
       <c r="H332" s="3"/>
       <c r="I332" s="3"/>
       <c r="J332" s="3"/>
-      <c r="K332" s="50"/>
+      <c r="K332" s="51"/>
     </row>
     <row r="333" spans="1:11">
       <c r="A333" s="3"/>
@@ -7282,7 +7322,7 @@
       <c r="H333" s="3"/>
       <c r="I333" s="3"/>
       <c r="J333" s="3"/>
-      <c r="K333" s="50"/>
+      <c r="K333" s="51"/>
     </row>
     <row r="334" spans="1:11">
       <c r="A334" s="3"/>
@@ -7294,7 +7334,7 @@
       <c r="H334" s="3"/>
       <c r="I334" s="3"/>
       <c r="J334" s="3"/>
-      <c r="K334" s="50"/>
+      <c r="K334" s="51"/>
     </row>
     <row r="335" spans="1:11">
       <c r="A335" s="3"/>
@@ -7306,7 +7346,7 @@
       <c r="H335" s="3"/>
       <c r="I335" s="3"/>
       <c r="J335" s="3"/>
-      <c r="K335" s="50"/>
+      <c r="K335" s="51"/>
     </row>
     <row r="336" spans="1:11">
       <c r="A336" s="3"/>
@@ -7318,7 +7358,7 @@
       <c r="H336" s="3"/>
       <c r="I336" s="3"/>
       <c r="J336" s="3"/>
-      <c r="K336" s="50"/>
+      <c r="K336" s="51"/>
     </row>
     <row r="337" spans="1:11">
       <c r="A337" s="3"/>
@@ -7330,7 +7370,7 @@
       <c r="H337" s="3"/>
       <c r="I337" s="3"/>
       <c r="J337" s="3"/>
-      <c r="K337" s="50"/>
+      <c r="K337" s="51"/>
     </row>
     <row r="338" spans="1:11">
       <c r="A338" s="3"/>
@@ -7342,7 +7382,7 @@
       <c r="H338" s="3"/>
       <c r="I338" s="3"/>
       <c r="J338" s="3"/>
-      <c r="K338" s="50"/>
+      <c r="K338" s="51"/>
     </row>
     <row r="339" spans="1:11">
       <c r="A339" s="3"/>
@@ -7354,7 +7394,7 @@
       <c r="H339" s="3"/>
       <c r="I339" s="3"/>
       <c r="J339" s="3"/>
-      <c r="K339" s="50"/>
+      <c r="K339" s="51"/>
     </row>
     <row r="340" spans="1:11">
       <c r="A340" s="3"/>
@@ -7366,7 +7406,7 @@
       <c r="H340" s="3"/>
       <c r="I340" s="3"/>
       <c r="J340" s="3"/>
-      <c r="K340" s="50"/>
+      <c r="K340" s="51"/>
     </row>
     <row r="341" spans="1:11">
       <c r="A341" s="3"/>
@@ -7378,7 +7418,7 @@
       <c r="H341" s="3"/>
       <c r="I341" s="3"/>
       <c r="J341" s="3"/>
-      <c r="K341" s="50"/>
+      <c r="K341" s="51"/>
     </row>
     <row r="342" spans="1:11">
       <c r="A342" s="3"/>
@@ -7390,7 +7430,7 @@
       <c r="H342" s="3"/>
       <c r="I342" s="3"/>
       <c r="J342" s="3"/>
-      <c r="K342" s="50"/>
+      <c r="K342" s="51"/>
     </row>
     <row r="343" spans="1:11">
       <c r="A343" s="3"/>
@@ -7402,7 +7442,7 @@
       <c r="H343" s="3"/>
       <c r="I343" s="3"/>
       <c r="J343" s="3"/>
-      <c r="K343" s="50"/>
+      <c r="K343" s="51"/>
     </row>
     <row r="344" spans="1:11">
       <c r="A344" s="3"/>
@@ -7414,7 +7454,7 @@
       <c r="H344" s="3"/>
       <c r="I344" s="3"/>
       <c r="J344" s="3"/>
-      <c r="K344" s="50"/>
+      <c r="K344" s="51"/>
     </row>
     <row r="345" spans="1:11">
       <c r="A345" s="3"/>
@@ -7426,7 +7466,7 @@
       <c r="H345" s="3"/>
       <c r="I345" s="3"/>
       <c r="J345" s="3"/>
-      <c r="K345" s="50"/>
+      <c r="K345" s="51"/>
     </row>
     <row r="346" spans="1:11">
       <c r="A346" s="3"/>
@@ -7438,7 +7478,7 @@
       <c r="H346" s="3"/>
       <c r="I346" s="3"/>
       <c r="J346" s="3"/>
-      <c r="K346" s="50"/>
+      <c r="K346" s="51"/>
     </row>
     <row r="347" spans="1:11">
       <c r="A347" s="3"/>
@@ -7450,7 +7490,7 @@
       <c r="H347" s="3"/>
       <c r="I347" s="3"/>
       <c r="J347" s="3"/>
-      <c r="K347" s="50"/>
+      <c r="K347" s="51"/>
     </row>
     <row r="348" spans="1:11">
       <c r="A348" s="3"/>
@@ -7462,7 +7502,7 @@
       <c r="H348" s="3"/>
       <c r="I348" s="3"/>
       <c r="J348" s="3"/>
-      <c r="K348" s="50"/>
+      <c r="K348" s="51"/>
     </row>
     <row r="349" spans="1:11">
       <c r="A349" s="3"/>
@@ -7474,7 +7514,7 @@
       <c r="H349" s="3"/>
       <c r="I349" s="3"/>
       <c r="J349" s="3"/>
-      <c r="K349" s="50"/>
+      <c r="K349" s="51"/>
     </row>
     <row r="350" spans="1:11">
       <c r="A350" s="3"/>
@@ -7486,7 +7526,7 @@
       <c r="H350" s="3"/>
       <c r="I350" s="3"/>
       <c r="J350" s="3"/>
-      <c r="K350" s="50"/>
+      <c r="K350" s="51"/>
     </row>
     <row r="351" spans="1:11">
       <c r="A351" s="3"/>
@@ -7498,7 +7538,7 @@
       <c r="H351" s="3"/>
       <c r="I351" s="3"/>
       <c r="J351" s="3"/>
-      <c r="K351" s="50"/>
+      <c r="K351" s="51"/>
     </row>
     <row r="352" spans="1:11">
       <c r="A352" s="3"/>
@@ -7510,7 +7550,7 @@
       <c r="H352" s="3"/>
       <c r="I352" s="3"/>
       <c r="J352" s="3"/>
-      <c r="K352" s="50"/>
+      <c r="K352" s="51"/>
     </row>
     <row r="353" spans="1:11">
       <c r="A353" s="3"/>
@@ -7522,7 +7562,7 @@
       <c r="H353" s="3"/>
       <c r="I353" s="3"/>
       <c r="J353" s="3"/>
-      <c r="K353" s="50"/>
+      <c r="K353" s="51"/>
     </row>
     <row r="354" spans="1:11">
       <c r="A354" s="3"/>
@@ -7534,7 +7574,7 @@
       <c r="H354" s="3"/>
       <c r="I354" s="3"/>
       <c r="J354" s="3"/>
-      <c r="K354" s="50"/>
+      <c r="K354" s="51"/>
     </row>
     <row r="355" spans="1:11">
       <c r="A355" s="3"/>
@@ -7546,7 +7586,7 @@
       <c r="H355" s="3"/>
       <c r="I355" s="3"/>
       <c r="J355" s="3"/>
-      <c r="K355" s="50"/>
+      <c r="K355" s="51"/>
     </row>
     <row r="356" spans="1:11">
       <c r="A356" s="3"/>
@@ -7558,7 +7598,7 @@
       <c r="H356" s="3"/>
       <c r="I356" s="3"/>
       <c r="J356" s="3"/>
-      <c r="K356" s="50"/>
+      <c r="K356" s="51"/>
     </row>
     <row r="357" spans="1:11">
       <c r="A357" s="3"/>
@@ -7570,7 +7610,7 @@
       <c r="H357" s="3"/>
       <c r="I357" s="3"/>
       <c r="J357" s="3"/>
-      <c r="K357" s="50"/>
+      <c r="K357" s="51"/>
     </row>
     <row r="358" spans="1:11">
       <c r="A358" s="3"/>
@@ -7582,7 +7622,7 @@
       <c r="H358" s="3"/>
       <c r="I358" s="3"/>
       <c r="J358" s="3"/>
-      <c r="K358" s="50"/>
+      <c r="K358" s="51"/>
     </row>
     <row r="359" spans="1:11">
       <c r="A359" s="3"/>
@@ -7594,7 +7634,7 @@
       <c r="H359" s="3"/>
       <c r="I359" s="3"/>
       <c r="J359" s="3"/>
-      <c r="K359" s="50"/>
+      <c r="K359" s="51"/>
     </row>
     <row r="360" spans="1:11">
       <c r="A360" s="3"/>
@@ -7606,7 +7646,7 @@
       <c r="H360" s="3"/>
       <c r="I360" s="3"/>
       <c r="J360" s="3"/>
-      <c r="K360" s="50"/>
+      <c r="K360" s="51"/>
     </row>
     <row r="361" spans="1:11">
       <c r="A361" s="3"/>
@@ -7618,7 +7658,7 @@
       <c r="H361" s="3"/>
       <c r="I361" s="3"/>
       <c r="J361" s="3"/>
-      <c r="K361" s="50"/>
+      <c r="K361" s="51"/>
     </row>
     <row r="362" spans="1:11">
       <c r="A362" s="3"/>
@@ -7630,7 +7670,7 @@
       <c r="H362" s="3"/>
       <c r="I362" s="3"/>
       <c r="J362" s="3"/>
-      <c r="K362" s="50"/>
+      <c r="K362" s="51"/>
     </row>
     <row r="363" spans="1:11">
       <c r="A363" s="3"/>
@@ -7642,7 +7682,7 @@
       <c r="H363" s="3"/>
       <c r="I363" s="3"/>
       <c r="J363" s="3"/>
-      <c r="K363" s="50"/>
+      <c r="K363" s="51"/>
     </row>
     <row r="364" spans="1:11">
       <c r="A364" s="3"/>
@@ -7654,7 +7694,7 @@
       <c r="H364" s="3"/>
       <c r="I364" s="3"/>
       <c r="J364" s="3"/>
-      <c r="K364" s="50"/>
+      <c r="K364" s="51"/>
     </row>
     <row r="365" spans="1:11">
       <c r="A365" s="3"/>
@@ -7666,7 +7706,7 @@
       <c r="H365" s="3"/>
       <c r="I365" s="3"/>
       <c r="J365" s="3"/>
-      <c r="K365" s="50"/>
+      <c r="K365" s="51"/>
     </row>
     <row r="366" spans="1:11">
       <c r="A366" s="3"/>
@@ -7678,7 +7718,7 @@
       <c r="H366" s="3"/>
       <c r="I366" s="3"/>
       <c r="J366" s="3"/>
-      <c r="K366" s="50"/>
+      <c r="K366" s="51"/>
     </row>
     <row r="367" spans="1:11">
       <c r="A367" s="3"/>
@@ -7690,7 +7730,7 @@
       <c r="H367" s="3"/>
       <c r="I367" s="3"/>
       <c r="J367" s="3"/>
-      <c r="K367" s="50"/>
+      <c r="K367" s="51"/>
     </row>
     <row r="368" spans="1:11">
       <c r="A368" s="3"/>
@@ -7702,7 +7742,7 @@
       <c r="H368" s="3"/>
       <c r="I368" s="3"/>
       <c r="J368" s="3"/>
-      <c r="K368" s="50"/>
+      <c r="K368" s="51"/>
     </row>
     <row r="369" spans="1:11">
       <c r="A369" s="3"/>
@@ -7714,7 +7754,7 @@
       <c r="H369" s="3"/>
       <c r="I369" s="3"/>
       <c r="J369" s="3"/>
-      <c r="K369" s="50"/>
+      <c r="K369" s="51"/>
     </row>
     <row r="370" spans="1:11">
       <c r="A370" s="3"/>
@@ -7726,7 +7766,7 @@
       <c r="H370" s="3"/>
       <c r="I370" s="3"/>
       <c r="J370" s="3"/>
-      <c r="K370" s="50"/>
+      <c r="K370" s="51"/>
     </row>
     <row r="371" spans="1:11">
       <c r="A371" s="3"/>
@@ -7738,7 +7778,7 @@
       <c r="H371" s="3"/>
       <c r="I371" s="3"/>
       <c r="J371" s="3"/>
-      <c r="K371" s="50"/>
+      <c r="K371" s="51"/>
     </row>
     <row r="372" spans="1:11">
       <c r="A372" s="3"/>
@@ -7750,7 +7790,7 @@
       <c r="H372" s="3"/>
       <c r="I372" s="3"/>
       <c r="J372" s="3"/>
-      <c r="K372" s="50"/>
+      <c r="K372" s="51"/>
     </row>
     <row r="373" spans="1:11">
       <c r="A373" s="3"/>
@@ -7762,7 +7802,7 @@
       <c r="H373" s="3"/>
       <c r="I373" s="3"/>
       <c r="J373" s="3"/>
-      <c r="K373" s="50"/>
+      <c r="K373" s="51"/>
     </row>
     <row r="374" spans="1:11">
       <c r="A374" s="3"/>
@@ -7774,7 +7814,7 @@
       <c r="H374" s="3"/>
       <c r="I374" s="3"/>
       <c r="J374" s="3"/>
-      <c r="K374" s="50"/>
+      <c r="K374" s="51"/>
     </row>
     <row r="375" spans="1:11">
       <c r="A375" s="3"/>
@@ -7786,7 +7826,7 @@
       <c r="H375" s="3"/>
       <c r="I375" s="3"/>
       <c r="J375" s="3"/>
-      <c r="K375" s="50"/>
+      <c r="K375" s="51"/>
     </row>
     <row r="376" spans="1:11">
       <c r="A376" s="3"/>
@@ -7798,7 +7838,7 @@
       <c r="H376" s="3"/>
       <c r="I376" s="3"/>
       <c r="J376" s="3"/>
-      <c r="K376" s="50"/>
+      <c r="K376" s="51"/>
     </row>
     <row r="377" spans="1:11">
       <c r="A377" s="3"/>
@@ -7810,7 +7850,7 @@
       <c r="H377" s="3"/>
       <c r="I377" s="3"/>
       <c r="J377" s="3"/>
-      <c r="K377" s="50"/>
+      <c r="K377" s="51"/>
     </row>
     <row r="378" spans="1:11">
       <c r="A378" s="3"/>
@@ -7822,7 +7862,7 @@
       <c r="H378" s="3"/>
       <c r="I378" s="3"/>
       <c r="J378" s="3"/>
-      <c r="K378" s="50"/>
+      <c r="K378" s="51"/>
     </row>
     <row r="379" spans="1:11">
       <c r="A379" s="3"/>
@@ -7834,7 +7874,7 @@
       <c r="H379" s="3"/>
       <c r="I379" s="3"/>
       <c r="J379" s="3"/>
-      <c r="K379" s="50"/>
+      <c r="K379" s="51"/>
     </row>
     <row r="380" spans="1:11">
       <c r="A380" s="3"/>
@@ -7846,7 +7886,7 @@
       <c r="H380" s="3"/>
       <c r="I380" s="3"/>
       <c r="J380" s="3"/>
-      <c r="K380" s="50"/>
+      <c r="K380" s="51"/>
     </row>
     <row r="381" spans="1:11">
       <c r="A381" s="3"/>
@@ -7858,7 +7898,7 @@
       <c r="H381" s="3"/>
       <c r="I381" s="3"/>
       <c r="J381" s="3"/>
-      <c r="K381" s="50"/>
+      <c r="K381" s="51"/>
     </row>
     <row r="382" spans="1:11">
       <c r="A382" s="3"/>
@@ -7870,7 +7910,7 @@
       <c r="H382" s="3"/>
       <c r="I382" s="3"/>
       <c r="J382" s="3"/>
-      <c r="K382" s="50"/>
+      <c r="K382" s="51"/>
     </row>
     <row r="383" spans="1:11">
       <c r="A383" s="3"/>
@@ -7882,7 +7922,7 @@
       <c r="H383" s="3"/>
       <c r="I383" s="3"/>
       <c r="J383" s="3"/>
-      <c r="K383" s="50"/>
+      <c r="K383" s="51"/>
     </row>
     <row r="384" spans="1:11">
       <c r="A384" s="3"/>
@@ -7894,7 +7934,7 @@
       <c r="H384" s="3"/>
       <c r="I384" s="3"/>
       <c r="J384" s="3"/>
-      <c r="K384" s="50"/>
+      <c r="K384" s="51"/>
     </row>
     <row r="385" spans="1:11">
       <c r="A385" s="3"/>
@@ -7906,7 +7946,7 @@
       <c r="H385" s="3"/>
       <c r="I385" s="3"/>
       <c r="J385" s="3"/>
-      <c r="K385" s="50"/>
+      <c r="K385" s="51"/>
     </row>
     <row r="386" spans="1:11">
       <c r="A386" s="3"/>
@@ -7918,7 +7958,7 @@
       <c r="H386" s="3"/>
       <c r="I386" s="3"/>
       <c r="J386" s="3"/>
-      <c r="K386" s="50"/>
+      <c r="K386" s="51"/>
     </row>
     <row r="387" spans="1:11">
       <c r="A387" s="3"/>
@@ -7930,7 +7970,7 @@
       <c r="H387" s="3"/>
       <c r="I387" s="3"/>
       <c r="J387" s="3"/>
-      <c r="K387" s="50"/>
+      <c r="K387" s="51"/>
     </row>
     <row r="388" spans="1:11">
       <c r="A388" s="3"/>
@@ -7942,7 +7982,7 @@
       <c r="H388" s="3"/>
       <c r="I388" s="3"/>
       <c r="J388" s="3"/>
-      <c r="K388" s="50"/>
+      <c r="K388" s="51"/>
     </row>
     <row r="389" spans="1:11">
       <c r="A389" s="3"/>
@@ -7954,7 +7994,7 @@
       <c r="H389" s="3"/>
       <c r="I389" s="3"/>
       <c r="J389" s="3"/>
-      <c r="K389" s="50"/>
+      <c r="K389" s="51"/>
     </row>
     <row r="390" spans="1:11">
       <c r="A390" s="3"/>
@@ -7966,7 +8006,7 @@
       <c r="H390" s="3"/>
       <c r="I390" s="3"/>
       <c r="J390" s="3"/>
-      <c r="K390" s="50"/>
+      <c r="K390" s="51"/>
     </row>
     <row r="391" spans="1:11">
       <c r="A391" s="3"/>
@@ -7978,7 +8018,7 @@
       <c r="H391" s="3"/>
       <c r="I391" s="3"/>
       <c r="J391" s="3"/>
-      <c r="K391" s="50"/>
+      <c r="K391" s="51"/>
     </row>
     <row r="392" spans="1:11">
       <c r="A392" s="3"/>
@@ -7990,7 +8030,7 @@
       <c r="H392" s="3"/>
       <c r="I392" s="3"/>
       <c r="J392" s="3"/>
-      <c r="K392" s="50"/>
+      <c r="K392" s="51"/>
     </row>
     <row r="393" spans="1:11">
       <c r="A393" s="3"/>
@@ -8002,7 +8042,7 @@
       <c r="H393" s="3"/>
       <c r="I393" s="3"/>
       <c r="J393" s="3"/>
-      <c r="K393" s="50"/>
+      <c r="K393" s="51"/>
     </row>
     <row r="394" spans="1:11">
       <c r="A394" s="3"/>
@@ -8014,7 +8054,7 @@
       <c r="H394" s="3"/>
       <c r="I394" s="3"/>
       <c r="J394" s="3"/>
-      <c r="K394" s="50"/>
+      <c r="K394" s="51"/>
     </row>
     <row r="395" spans="1:11">
       <c r="A395" s="3"/>
@@ -8026,7 +8066,7 @@
       <c r="H395" s="3"/>
       <c r="I395" s="3"/>
       <c r="J395" s="3"/>
-      <c r="K395" s="50"/>
+      <c r="K395" s="51"/>
     </row>
     <row r="396" spans="1:11">
       <c r="A396" s="3"/>
@@ -8038,7 +8078,7 @@
       <c r="H396" s="3"/>
       <c r="I396" s="3"/>
       <c r="J396" s="3"/>
-      <c r="K396" s="50"/>
+      <c r="K396" s="51"/>
     </row>
     <row r="397" spans="1:11">
       <c r="A397" s="3"/>
@@ -8050,7 +8090,7 @@
       <c r="H397" s="3"/>
       <c r="I397" s="3"/>
       <c r="J397" s="3"/>
-      <c r="K397" s="50"/>
+      <c r="K397" s="51"/>
     </row>
     <row r="398" spans="1:11">
       <c r="A398" s="3"/>
@@ -8062,7 +8102,7 @@
       <c r="H398" s="3"/>
       <c r="I398" s="3"/>
       <c r="J398" s="3"/>
-      <c r="K398" s="50"/>
+      <c r="K398" s="51"/>
     </row>
     <row r="399" spans="1:11">
       <c r="A399" s="3"/>
@@ -8074,7 +8114,7 @@
       <c r="H399" s="3"/>
       <c r="I399" s="3"/>
       <c r="J399" s="3"/>
-      <c r="K399" s="50"/>
+      <c r="K399" s="51"/>
     </row>
     <row r="400" spans="1:11">
       <c r="A400" s="3"/>
@@ -8086,7 +8126,7 @@
       <c r="H400" s="3"/>
       <c r="I400" s="3"/>
       <c r="J400" s="3"/>
-      <c r="K400" s="50"/>
+      <c r="K400" s="51"/>
     </row>
     <row r="401" spans="1:11">
       <c r="A401" s="3"/>
@@ -8098,7 +8138,7 @@
       <c r="H401" s="3"/>
       <c r="I401" s="3"/>
       <c r="J401" s="3"/>
-      <c r="K401" s="50"/>
+      <c r="K401" s="51"/>
     </row>
     <row r="402" spans="1:11">
       <c r="A402" s="3"/>
@@ -8110,7 +8150,7 @@
       <c r="H402" s="3"/>
       <c r="I402" s="3"/>
       <c r="J402" s="3"/>
-      <c r="K402" s="50"/>
+      <c r="K402" s="51"/>
     </row>
     <row r="403" spans="1:11">
       <c r="A403" s="3"/>
@@ -8122,7 +8162,7 @@
       <c r="H403" s="3"/>
       <c r="I403" s="3"/>
       <c r="J403" s="3"/>
-      <c r="K403" s="50"/>
+      <c r="K403" s="51"/>
     </row>
     <row r="404" spans="1:11">
       <c r="A404" s="3"/>
@@ -8134,7 +8174,7 @@
       <c r="H404" s="3"/>
       <c r="I404" s="3"/>
       <c r="J404" s="3"/>
-      <c r="K404" s="50"/>
+      <c r="K404" s="51"/>
     </row>
     <row r="405" spans="1:11">
       <c r="A405" s="3"/>
@@ -8146,7 +8186,7 @@
       <c r="H405" s="3"/>
       <c r="I405" s="3"/>
       <c r="J405" s="3"/>
-      <c r="K405" s="50"/>
+      <c r="K405" s="51"/>
     </row>
     <row r="406" spans="1:11">
       <c r="A406" s="3"/>
@@ -8158,7 +8198,7 @@
       <c r="H406" s="3"/>
       <c r="I406" s="3"/>
       <c r="J406" s="3"/>
-      <c r="K406" s="50"/>
+      <c r="K406" s="51"/>
     </row>
     <row r="407" spans="1:11">
       <c r="A407" s="3"/>
@@ -8170,7 +8210,7 @@
       <c r="H407" s="3"/>
       <c r="I407" s="3"/>
       <c r="J407" s="3"/>
-      <c r="K407" s="50"/>
+      <c r="K407" s="51"/>
     </row>
     <row r="408" spans="1:11">
       <c r="A408" s="3"/>
@@ -8182,7 +8222,7 @@
       <c r="H408" s="3"/>
       <c r="I408" s="3"/>
       <c r="J408" s="3"/>
-      <c r="K408" s="50"/>
+      <c r="K408" s="51"/>
     </row>
     <row r="409" spans="1:11">
       <c r="A409" s="3"/>
@@ -8194,7 +8234,7 @@
       <c r="H409" s="3"/>
       <c r="I409" s="3"/>
       <c r="J409" s="3"/>
-      <c r="K409" s="50"/>
+      <c r="K409" s="51"/>
     </row>
     <row r="410" spans="1:11">
       <c r="A410" s="3"/>
@@ -8206,7 +8246,7 @@
       <c r="H410" s="3"/>
       <c r="I410" s="3"/>
       <c r="J410" s="3"/>
-      <c r="K410" s="50"/>
+      <c r="K410" s="51"/>
     </row>
     <row r="411" spans="1:11">
       <c r="A411" s="3"/>
@@ -8218,7 +8258,7 @@
       <c r="H411" s="3"/>
       <c r="I411" s="3"/>
       <c r="J411" s="3"/>
-      <c r="K411" s="50"/>
+      <c r="K411" s="51"/>
     </row>
     <row r="412" spans="1:11">
       <c r="A412" s="3"/>
@@ -8230,7 +8270,7 @@
       <c r="H412" s="3"/>
       <c r="I412" s="3"/>
       <c r="J412" s="3"/>
-      <c r="K412" s="50"/>
+      <c r="K412" s="51"/>
     </row>
     <row r="413" spans="1:11">
       <c r="A413" s="3"/>
@@ -8242,7 +8282,7 @@
       <c r="H413" s="3"/>
       <c r="I413" s="3"/>
       <c r="J413" s="3"/>
-      <c r="K413" s="50"/>
+      <c r="K413" s="51"/>
     </row>
     <row r="414" spans="1:11">
       <c r="A414" s="3"/>
@@ -8254,7 +8294,7 @@
       <c r="H414" s="3"/>
       <c r="I414" s="3"/>
       <c r="J414" s="3"/>
-      <c r="K414" s="50"/>
+      <c r="K414" s="51"/>
     </row>
     <row r="415" spans="1:11">
       <c r="A415" s="3"/>
@@ -8266,7 +8306,7 @@
       <c r="H415" s="3"/>
       <c r="I415" s="3"/>
       <c r="J415" s="3"/>
-      <c r="K415" s="50"/>
+      <c r="K415" s="51"/>
     </row>
     <row r="416" spans="1:11">
       <c r="A416" s="3"/>
@@ -8278,7 +8318,7 @@
       <c r="H416" s="3"/>
       <c r="I416" s="3"/>
       <c r="J416" s="3"/>
-      <c r="K416" s="50"/>
+      <c r="K416" s="51"/>
     </row>
     <row r="417" spans="1:11">
       <c r="A417" s="3"/>
@@ -8290,7 +8330,7 @@
       <c r="H417" s="3"/>
       <c r="I417" s="3"/>
       <c r="J417" s="3"/>
-      <c r="K417" s="50"/>
+      <c r="K417" s="51"/>
     </row>
     <row r="418" spans="1:11">
       <c r="A418" s="3"/>
@@ -8302,7 +8342,7 @@
       <c r="H418" s="3"/>
       <c r="I418" s="3"/>
       <c r="J418" s="3"/>
-      <c r="K418" s="50"/>
+      <c r="K418" s="51"/>
     </row>
     <row r="419" spans="1:11">
       <c r="A419" s="3"/>
@@ -8314,7 +8354,7 @@
       <c r="H419" s="3"/>
       <c r="I419" s="3"/>
       <c r="J419" s="3"/>
-      <c r="K419" s="50"/>
+      <c r="K419" s="51"/>
     </row>
     <row r="420" spans="1:11">
       <c r="A420" s="3"/>
@@ -8326,7 +8366,7 @@
       <c r="H420" s="3"/>
       <c r="I420" s="3"/>
       <c r="J420" s="3"/>
-      <c r="K420" s="50"/>
+      <c r="K420" s="51"/>
     </row>
     <row r="421" spans="1:11">
       <c r="A421" s="3"/>
@@ -8338,7 +8378,7 @@
       <c r="H421" s="3"/>
       <c r="I421" s="3"/>
       <c r="J421" s="3"/>
-      <c r="K421" s="50"/>
+      <c r="K421" s="51"/>
     </row>
     <row r="422" spans="1:11">
       <c r="A422" s="3"/>
@@ -8350,7 +8390,7 @@
       <c r="H422" s="3"/>
       <c r="I422" s="3"/>
       <c r="J422" s="3"/>
-      <c r="K422" s="50"/>
+      <c r="K422" s="51"/>
     </row>
     <row r="423" spans="1:11">
       <c r="A423" s="3"/>
@@ -8362,7 +8402,7 @@
       <c r="H423" s="3"/>
       <c r="I423" s="3"/>
       <c r="J423" s="3"/>
-      <c r="K423" s="50"/>
+      <c r="K423" s="51"/>
     </row>
     <row r="424" spans="1:11">
       <c r="A424" s="3"/>
@@ -8374,7 +8414,7 @@
       <c r="H424" s="3"/>
       <c r="I424" s="3"/>
       <c r="J424" s="3"/>
-      <c r="K424" s="50"/>
+      <c r="K424" s="51"/>
     </row>
     <row r="425" spans="1:11">
       <c r="A425" s="3"/>
@@ -8386,7 +8426,7 @@
       <c r="H425" s="3"/>
       <c r="I425" s="3"/>
       <c r="J425" s="3"/>
-      <c r="K425" s="50"/>
+      <c r="K425" s="51"/>
     </row>
     <row r="426" spans="1:11">
       <c r="A426" s="3"/>
@@ -8398,7 +8438,7 @@
       <c r="H426" s="3"/>
       <c r="I426" s="3"/>
       <c r="J426" s="3"/>
-      <c r="K426" s="50"/>
+      <c r="K426" s="51"/>
     </row>
     <row r="427" spans="1:11">
       <c r="A427" s="3"/>
@@ -8410,7 +8450,7 @@
       <c r="H427" s="3"/>
       <c r="I427" s="3"/>
       <c r="J427" s="3"/>
-      <c r="K427" s="50"/>
+      <c r="K427" s="51"/>
     </row>
     <row r="428" spans="1:11">
       <c r="A428" s="3"/>
@@ -8422,7 +8462,7 @@
       <c r="H428" s="3"/>
       <c r="I428" s="3"/>
       <c r="J428" s="3"/>
-      <c r="K428" s="50"/>
+      <c r="K428" s="51"/>
     </row>
     <row r="429" spans="1:11">
       <c r="A429" s="3"/>
@@ -8434,7 +8474,7 @@
       <c r="H429" s="3"/>
       <c r="I429" s="3"/>
       <c r="J429" s="3"/>
-      <c r="K429" s="50"/>
+      <c r="K429" s="51"/>
     </row>
     <row r="430" spans="1:11">
       <c r="A430" s="3"/>
@@ -8446,7 +8486,7 @@
       <c r="H430" s="3"/>
       <c r="I430" s="3"/>
       <c r="J430" s="3"/>
-      <c r="K430" s="50"/>
+      <c r="K430" s="51"/>
     </row>
     <row r="431" spans="1:11">
       <c r="A431" s="3"/>
@@ -8458,7 +8498,7 @@
       <c r="H431" s="3"/>
       <c r="I431" s="3"/>
       <c r="J431" s="3"/>
-      <c r="K431" s="50"/>
+      <c r="K431" s="51"/>
     </row>
     <row r="432" spans="1:11">
       <c r="A432" s="3"/>
@@ -8470,7 +8510,7 @@
       <c r="H432" s="3"/>
       <c r="I432" s="3"/>
       <c r="J432" s="3"/>
-      <c r="K432" s="50"/>
+      <c r="K432" s="51"/>
     </row>
     <row r="433" spans="1:11">
       <c r="A433" s="3"/>
@@ -8482,7 +8522,7 @@
       <c r="H433" s="3"/>
       <c r="I433" s="3"/>
       <c r="J433" s="3"/>
-      <c r="K433" s="50"/>
+      <c r="K433" s="51"/>
     </row>
     <row r="434" spans="1:11">
       <c r="A434" s="3"/>
@@ -8494,7 +8534,7 @@
       <c r="H434" s="3"/>
       <c r="I434" s="3"/>
       <c r="J434" s="3"/>
-      <c r="K434" s="50"/>
+      <c r="K434" s="51"/>
     </row>
     <row r="435" spans="1:11">
       <c r="A435" s="3"/>
@@ -8506,7 +8546,7 @@
       <c r="H435" s="3"/>
       <c r="I435" s="3"/>
       <c r="J435" s="3"/>
-      <c r="K435" s="50"/>
+      <c r="K435" s="51"/>
     </row>
     <row r="436" spans="1:11">
       <c r="A436" s="3"/>
@@ -8518,7 +8558,7 @@
       <c r="H436" s="3"/>
       <c r="I436" s="3"/>
       <c r="J436" s="3"/>
-      <c r="K436" s="50"/>
+      <c r="K436" s="51"/>
     </row>
     <row r="437" spans="1:11">
       <c r="A437" s="3"/>
@@ -8530,7 +8570,7 @@
       <c r="H437" s="3"/>
       <c r="I437" s="3"/>
       <c r="J437" s="3"/>
-      <c r="K437" s="50"/>
+      <c r="K437" s="51"/>
     </row>
     <row r="438" spans="1:11">
       <c r="A438" s="3"/>
@@ -8542,7 +8582,7 @@
       <c r="H438" s="3"/>
       <c r="I438" s="3"/>
       <c r="J438" s="3"/>
-      <c r="K438" s="50"/>
+      <c r="K438" s="51"/>
     </row>
     <row r="439" spans="1:11">
       <c r="A439" s="3"/>
@@ -8554,7 +8594,7 @@
       <c r="H439" s="3"/>
       <c r="I439" s="3"/>
       <c r="J439" s="3"/>
-      <c r="K439" s="50"/>
+      <c r="K439" s="51"/>
     </row>
     <row r="440" spans="1:11">
       <c r="A440" s="3"/>
@@ -8566,7 +8606,7 @@
       <c r="H440" s="3"/>
       <c r="I440" s="3"/>
       <c r="J440" s="3"/>
-      <c r="K440" s="50"/>
+      <c r="K440" s="51"/>
     </row>
     <row r="441" spans="1:11">
       <c r="A441" s="3"/>
@@ -8578,7 +8618,7 @@
       <c r="H441" s="3"/>
       <c r="I441" s="3"/>
       <c r="J441" s="3"/>
-      <c r="K441" s="50"/>
+      <c r="K441" s="51"/>
     </row>
     <row r="442" spans="1:11">
       <c r="A442" s="3"/>
@@ -8590,7 +8630,7 @@
       <c r="H442" s="3"/>
       <c r="I442" s="3"/>
       <c r="J442" s="3"/>
-      <c r="K442" s="50"/>
+      <c r="K442" s="51"/>
     </row>
     <row r="443" spans="1:11">
       <c r="A443" s="3"/>
@@ -8602,7 +8642,7 @@
       <c r="H443" s="3"/>
       <c r="I443" s="3"/>
       <c r="J443" s="3"/>
-      <c r="K443" s="50"/>
+      <c r="K443" s="51"/>
     </row>
     <row r="444" spans="1:11">
       <c r="A444" s="3"/>
@@ -8614,7 +8654,7 @@
       <c r="H444" s="3"/>
       <c r="I444" s="3"/>
       <c r="J444" s="3"/>
-      <c r="K444" s="50"/>
+      <c r="K444" s="51"/>
     </row>
     <row r="445" spans="1:11">
       <c r="A445" s="3"/>
@@ -8626,7 +8666,7 @@
       <c r="H445" s="3"/>
       <c r="I445" s="3"/>
       <c r="J445" s="3"/>
-      <c r="K445" s="50"/>
+      <c r="K445" s="51"/>
     </row>
     <row r="446" spans="1:11">
       <c r="A446" s="3"/>
@@ -8638,7 +8678,7 @@
       <c r="H446" s="3"/>
       <c r="I446" s="3"/>
       <c r="J446" s="3"/>
-      <c r="K446" s="50"/>
+      <c r="K446" s="51"/>
     </row>
     <row r="447" spans="1:11">
       <c r="A447" s="3"/>
@@ -8650,7 +8690,7 @@
       <c r="H447" s="3"/>
       <c r="I447" s="3"/>
       <c r="J447" s="3"/>
-      <c r="K447" s="50"/>
+      <c r="K447" s="51"/>
     </row>
     <row r="448" spans="1:11">
       <c r="A448" s="3"/>
@@ -8662,7 +8702,7 @@
       <c r="H448" s="3"/>
       <c r="I448" s="3"/>
       <c r="J448" s="3"/>
-      <c r="K448" s="50"/>
+      <c r="K448" s="51"/>
     </row>
     <row r="449" spans="1:11">
       <c r="A449" s="3"/>
@@ -8674,7 +8714,7 @@
       <c r="H449" s="3"/>
       <c r="I449" s="3"/>
       <c r="J449" s="3"/>
-      <c r="K449" s="50"/>
+      <c r="K449" s="51"/>
     </row>
     <row r="450" spans="1:11">
       <c r="A450" s="3"/>
@@ -8686,7 +8726,7 @@
       <c r="H450" s="3"/>
       <c r="I450" s="3"/>
       <c r="J450" s="3"/>
-      <c r="K450" s="50"/>
+      <c r="K450" s="51"/>
     </row>
     <row r="451" spans="1:11">
       <c r="A451" s="3"/>
@@ -8698,7 +8738,7 @@
       <c r="H451" s="3"/>
       <c r="I451" s="3"/>
       <c r="J451" s="3"/>
-      <c r="K451" s="50"/>
+      <c r="K451" s="51"/>
     </row>
     <row r="452" spans="1:11">
       <c r="A452" s="3"/>
@@ -8710,7 +8750,7 @@
       <c r="H452" s="3"/>
       <c r="I452" s="3"/>
       <c r="J452" s="3"/>
-      <c r="K452" s="50"/>
+      <c r="K452" s="51"/>
     </row>
     <row r="453" spans="1:11">
       <c r="A453" s="3"/>
@@ -8722,7 +8762,7 @@
       <c r="H453" s="3"/>
       <c r="I453" s="3"/>
       <c r="J453" s="3"/>
-      <c r="K453" s="50"/>
+      <c r="K453" s="51"/>
     </row>
     <row r="454" spans="1:11">
       <c r="A454" s="3"/>
@@ -8734,7 +8774,7 @@
       <c r="H454" s="3"/>
       <c r="I454" s="3"/>
       <c r="J454" s="3"/>
-      <c r="K454" s="50"/>
+      <c r="K454" s="51"/>
     </row>
     <row r="455" spans="1:11">
       <c r="A455" s="3"/>
@@ -8746,7 +8786,7 @@
       <c r="H455" s="3"/>
       <c r="I455" s="3"/>
       <c r="J455" s="3"/>
-      <c r="K455" s="50"/>
+      <c r="K455" s="51"/>
     </row>
     <row r="456" spans="1:11">
       <c r="A456" s="3"/>
@@ -8758,7 +8798,7 @@
       <c r="H456" s="3"/>
       <c r="I456" s="3"/>
       <c r="J456" s="3"/>
-      <c r="K456" s="50"/>
+      <c r="K456" s="51"/>
     </row>
     <row r="457" spans="1:11">
       <c r="A457" s="3"/>
@@ -8770,7 +8810,7 @@
       <c r="H457" s="3"/>
       <c r="I457" s="3"/>
       <c r="J457" s="3"/>
-      <c r="K457" s="50"/>
+      <c r="K457" s="51"/>
     </row>
     <row r="458" spans="1:11">
       <c r="A458" s="3"/>
@@ -8782,7 +8822,7 @@
       <c r="H458" s="3"/>
       <c r="I458" s="3"/>
       <c r="J458" s="3"/>
-      <c r="K458" s="50"/>
+      <c r="K458" s="51"/>
     </row>
     <row r="459" spans="1:11">
       <c r="A459" s="3"/>
@@ -8794,7 +8834,7 @@
       <c r="H459" s="3"/>
       <c r="I459" s="3"/>
       <c r="J459" s="3"/>
-      <c r="K459" s="50"/>
+      <c r="K459" s="51"/>
     </row>
     <row r="460" spans="1:11">
       <c r="A460" s="3"/>
@@ -8806,7 +8846,7 @@
       <c r="H460" s="3"/>
       <c r="I460" s="3"/>
       <c r="J460" s="3"/>
-      <c r="K460" s="50"/>
+      <c r="K460" s="51"/>
     </row>
     <row r="461" spans="1:11">
       <c r="A461" s="3"/>
@@ -8818,7 +8858,7 @@
       <c r="H461" s="3"/>
       <c r="I461" s="3"/>
       <c r="J461" s="3"/>
-      <c r="K461" s="50"/>
+      <c r="K461" s="51"/>
     </row>
     <row r="462" spans="1:11">
       <c r="A462" s="3"/>
@@ -8830,7 +8870,7 @@
       <c r="H462" s="3"/>
       <c r="I462" s="3"/>
       <c r="J462" s="3"/>
-      <c r="K462" s="50"/>
+      <c r="K462" s="51"/>
     </row>
     <row r="463" spans="1:11">
       <c r="A463" s="3"/>
@@ -8842,7 +8882,7 @@
       <c r="H463" s="3"/>
       <c r="I463" s="3"/>
       <c r="J463" s="3"/>
-      <c r="K463" s="50"/>
+      <c r="K463" s="51"/>
     </row>
     <row r="464" spans="1:2">
       <c r="A464" s="3"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易计划202112.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易计划202112.xlsx
@@ -2374,11 +2374,11 @@
   <dimension ref="A1:BA543"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="I4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E14" sqref="E14"/>
+      <selection pane="bottomRight" activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.82142857142857" defaultRowHeight="12.4"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易计划202112.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易计划202112.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71">
   <si>
     <t>计划编码</t>
   </si>
@@ -251,6 +251,18 @@
     <t>JH_00020</t>
   </si>
   <si>
+    <t>JH_00021</t>
+  </si>
+  <si>
+    <t>000596</t>
+  </si>
+  <si>
+    <t>古井贡酒</t>
+  </si>
+  <si>
+    <t>待执行</t>
+  </si>
+  <si>
     <t>000069</t>
   </si>
 </sst>
@@ -260,13 +272,13 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="0.00_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="35">
+  <fonts count="36">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -343,6 +355,12 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Helvetica Neue"/>
@@ -376,6 +394,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
@@ -397,21 +422,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Helvetica Neue"/>
@@ -420,7 +430,7 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
@@ -428,25 +438,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -467,14 +462,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -488,11 +476,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Helvetica Neue"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -503,9 +514,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -544,7 +562,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -556,13 +574,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -580,79 +616,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -670,7 +634,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -682,13 +676,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -700,7 +700,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -712,19 +718,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -784,13 +802,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -810,17 +832,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -841,16 +859,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -868,152 +886,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1026,6 +1044,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="10" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1107,33 +1128,60 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="10" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1170,15 +1218,15 @@
     <xf numFmtId="10" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1188,10 +1236,10 @@
     <xf numFmtId="176" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" quotePrefix="1">
@@ -1202,6 +1250,9 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" quotePrefix="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2374,11 +2425,11 @@
   <dimension ref="A1:BA543"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="I4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K20" sqref="K20"/>
+      <selection pane="bottomRight" activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.82142857142857" defaultRowHeight="12.4"/>
@@ -2386,6503 +2437,6534 @@
     <col min="1" max="1" width="13.9910714285714" customWidth="1"/>
     <col min="2" max="2" width="15.0267857142857" customWidth="1"/>
     <col min="3" max="3" width="17.1160714285714" style="3" customWidth="1"/>
-    <col min="5" max="5" width="11.9017857142857" customWidth="1"/>
+    <col min="5" max="5" width="11.9017857142857" style="4" customWidth="1"/>
     <col min="6" max="6" width="13.5357142857143" customWidth="1"/>
     <col min="7" max="7" width="14.1339285714286" customWidth="1"/>
     <col min="8" max="8" width="18.1517857142857" customWidth="1"/>
     <col min="9" max="9" width="14.1339285714286" customWidth="1"/>
     <col min="10" max="10" width="14"/>
-    <col min="11" max="11" width="11.3035714285714" style="4" customWidth="1"/>
-    <col min="12" max="12" width="11.1607142857143" style="5" customWidth="1"/>
+    <col min="11" max="11" width="11.3035714285714" style="5" customWidth="1"/>
+    <col min="12" max="12" width="11.1607142857143" style="6" customWidth="1"/>
     <col min="13" max="13" width="23.9553571428571" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="23.6" spans="1:53">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="40" t="s">
+      <c r="K1" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="41" t="s">
+      <c r="L1" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="52" t="s">
+      <c r="M1" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="53"/>
-      <c r="O1" s="53"/>
-      <c r="P1" s="53"/>
-      <c r="Q1" s="53"/>
-      <c r="R1" s="53"/>
-      <c r="S1" s="53"/>
-      <c r="T1" s="53"/>
-      <c r="V1" s="59"/>
-      <c r="W1" s="59"/>
-      <c r="X1" s="59"/>
-      <c r="Y1" s="59"/>
-      <c r="Z1" s="59"/>
-      <c r="AA1" s="59"/>
-      <c r="AB1" s="59"/>
-      <c r="AC1" s="59"/>
-      <c r="AE1" s="59"/>
-      <c r="AF1" s="59"/>
-      <c r="AG1" s="59"/>
-      <c r="AH1" s="59"/>
-      <c r="AI1" s="59"/>
-      <c r="AJ1" s="59"/>
-      <c r="AK1" s="59"/>
-      <c r="AM1" s="59"/>
-      <c r="AN1" s="59"/>
-      <c r="AO1" s="59"/>
-      <c r="AP1" s="59"/>
-      <c r="AQ1" s="59"/>
-      <c r="AR1" s="59"/>
-      <c r="AS1" s="59"/>
-      <c r="AU1" s="59"/>
-      <c r="AV1" s="59"/>
-      <c r="AW1" s="59"/>
-      <c r="AX1" s="59"/>
-      <c r="AY1" s="59"/>
-      <c r="AZ1" s="59"/>
-      <c r="BA1" s="59"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="63"/>
+      <c r="R1" s="63"/>
+      <c r="S1" s="63"/>
+      <c r="T1" s="63"/>
+      <c r="V1" s="69"/>
+      <c r="W1" s="69"/>
+      <c r="X1" s="69"/>
+      <c r="Y1" s="69"/>
+      <c r="Z1" s="69"/>
+      <c r="AA1" s="69"/>
+      <c r="AB1" s="69"/>
+      <c r="AC1" s="69"/>
+      <c r="AE1" s="69"/>
+      <c r="AF1" s="69"/>
+      <c r="AG1" s="69"/>
+      <c r="AH1" s="69"/>
+      <c r="AI1" s="69"/>
+      <c r="AJ1" s="69"/>
+      <c r="AK1" s="69"/>
+      <c r="AM1" s="69"/>
+      <c r="AN1" s="69"/>
+      <c r="AO1" s="69"/>
+      <c r="AP1" s="69"/>
+      <c r="AQ1" s="69"/>
+      <c r="AR1" s="69"/>
+      <c r="AS1" s="69"/>
+      <c r="AU1" s="69"/>
+      <c r="AV1" s="69"/>
+      <c r="AW1" s="69"/>
+      <c r="AX1" s="69"/>
+      <c r="AY1" s="69"/>
+      <c r="AZ1" s="69"/>
+      <c r="BA1" s="69"/>
     </row>
     <row r="2" ht="23.6" spans="1:53">
-      <c r="A2" s="6"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="54"/>
-      <c r="N2" s="53"/>
-      <c r="O2" s="53"/>
-      <c r="P2" s="53"/>
-      <c r="Q2" s="53"/>
-      <c r="R2" s="53"/>
-      <c r="S2" s="53"/>
-      <c r="T2" s="53"/>
-      <c r="V2" s="59"/>
-      <c r="W2" s="59"/>
-      <c r="X2" s="59"/>
-      <c r="Y2" s="59"/>
-      <c r="Z2" s="59"/>
-      <c r="AA2" s="59"/>
-      <c r="AB2" s="59"/>
-      <c r="AC2" s="59"/>
-      <c r="AE2" s="59"/>
-      <c r="AF2" s="59"/>
-      <c r="AG2" s="59"/>
-      <c r="AH2" s="59"/>
-      <c r="AI2" s="59"/>
-      <c r="AJ2" s="59"/>
-      <c r="AK2" s="59"/>
-      <c r="AM2" s="59"/>
-      <c r="AN2" s="59"/>
-      <c r="AO2" s="59"/>
-      <c r="AP2" s="59"/>
-      <c r="AQ2" s="59"/>
-      <c r="AR2" s="59"/>
-      <c r="AS2" s="59"/>
-      <c r="AU2" s="59"/>
-      <c r="AV2" s="59"/>
-      <c r="AW2" s="59"/>
-      <c r="AX2" s="59"/>
-      <c r="AY2" s="59"/>
-      <c r="AZ2" s="59"/>
-      <c r="BA2" s="59"/>
+      <c r="A2" s="7"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="64"/>
+      <c r="N2" s="63"/>
+      <c r="O2" s="63"/>
+      <c r="P2" s="63"/>
+      <c r="Q2" s="63"/>
+      <c r="R2" s="63"/>
+      <c r="S2" s="63"/>
+      <c r="T2" s="63"/>
+      <c r="V2" s="69"/>
+      <c r="W2" s="69"/>
+      <c r="X2" s="69"/>
+      <c r="Y2" s="69"/>
+      <c r="Z2" s="69"/>
+      <c r="AA2" s="69"/>
+      <c r="AB2" s="69"/>
+      <c r="AC2" s="69"/>
+      <c r="AE2" s="69"/>
+      <c r="AF2" s="69"/>
+      <c r="AG2" s="69"/>
+      <c r="AH2" s="69"/>
+      <c r="AI2" s="69"/>
+      <c r="AJ2" s="69"/>
+      <c r="AK2" s="69"/>
+      <c r="AM2" s="69"/>
+      <c r="AN2" s="69"/>
+      <c r="AO2" s="69"/>
+      <c r="AP2" s="69"/>
+      <c r="AQ2" s="69"/>
+      <c r="AR2" s="69"/>
+      <c r="AS2" s="69"/>
+      <c r="AU2" s="69"/>
+      <c r="AV2" s="69"/>
+      <c r="AW2" s="69"/>
+      <c r="AX2" s="69"/>
+      <c r="AY2" s="69"/>
+      <c r="AZ2" s="69"/>
+      <c r="BA2" s="69"/>
     </row>
     <row r="3" customFormat="1" ht="23.6" spans="1:53">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="36">
+      <c r="E3" s="40">
         <v>34.12</v>
       </c>
-      <c r="F3" s="36">
+      <c r="F3" s="41">
         <v>32.53</v>
       </c>
-      <c r="G3" s="36">
+      <c r="G3" s="41">
         <v>39.33</v>
       </c>
-      <c r="H3" s="36">
-        <f t="shared" ref="H3:H20" si="0">(E3-F3)*100</f>
+      <c r="H3" s="41">
+        <f t="shared" ref="H3:H22" si="0">(E3-F3)*100</f>
         <v>159</v>
       </c>
-      <c r="I3" s="36">
+      <c r="I3" s="41">
         <f>FLOOR(1000/(E3-F3),100)</f>
         <v>600</v>
       </c>
-      <c r="J3" s="42">
+      <c r="J3" s="52">
         <f t="shared" ref="J3:J11" si="1">(G3-E3)/(E3-F3)</f>
         <v>3.27672955974844</v>
       </c>
-      <c r="K3" s="43">
+      <c r="K3" s="53">
         <f t="shared" ref="K3:K14" si="2">(E3-F3)/E3</f>
         <v>0.0466002344665884</v>
       </c>
-      <c r="L3" s="44">
+      <c r="L3" s="54">
         <f t="shared" ref="L3:L11" si="3">(G3-E3)/E3</f>
         <v>0.152696365767878</v>
       </c>
-      <c r="M3" s="17" t="s">
+      <c r="M3" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="N3" s="53"/>
-      <c r="O3" s="53"/>
-      <c r="P3" s="53"/>
-      <c r="Q3" s="53"/>
-      <c r="R3" s="53"/>
-      <c r="S3" s="53"/>
-      <c r="T3" s="53"/>
-      <c r="V3" s="59"/>
-      <c r="W3" s="59"/>
-      <c r="X3" s="59"/>
-      <c r="Y3" s="59"/>
-      <c r="Z3" s="59"/>
-      <c r="AA3" s="59"/>
-      <c r="AB3" s="59"/>
-      <c r="AC3" s="59"/>
-      <c r="AE3" s="59"/>
-      <c r="AF3" s="59"/>
-      <c r="AG3" s="59"/>
-      <c r="AH3" s="59"/>
-      <c r="AI3" s="59"/>
-      <c r="AJ3" s="59"/>
-      <c r="AK3" s="59"/>
-      <c r="AM3" s="59"/>
-      <c r="AN3" s="59"/>
-      <c r="AO3" s="59"/>
-      <c r="AP3" s="59"/>
-      <c r="AQ3" s="59"/>
-      <c r="AR3" s="59"/>
-      <c r="AS3" s="59"/>
-      <c r="AU3" s="59"/>
-      <c r="AV3" s="59"/>
-      <c r="AW3" s="59"/>
-      <c r="AX3" s="59"/>
-      <c r="AY3" s="59"/>
-      <c r="AZ3" s="59"/>
-      <c r="BA3" s="59"/>
+      <c r="N3" s="63"/>
+      <c r="O3" s="63"/>
+      <c r="P3" s="63"/>
+      <c r="Q3" s="63"/>
+      <c r="R3" s="63"/>
+      <c r="S3" s="63"/>
+      <c r="T3" s="63"/>
+      <c r="V3" s="69"/>
+      <c r="W3" s="69"/>
+      <c r="X3" s="69"/>
+      <c r="Y3" s="69"/>
+      <c r="Z3" s="69"/>
+      <c r="AA3" s="69"/>
+      <c r="AB3" s="69"/>
+      <c r="AC3" s="69"/>
+      <c r="AE3" s="69"/>
+      <c r="AF3" s="69"/>
+      <c r="AG3" s="69"/>
+      <c r="AH3" s="69"/>
+      <c r="AI3" s="69"/>
+      <c r="AJ3" s="69"/>
+      <c r="AK3" s="69"/>
+      <c r="AM3" s="69"/>
+      <c r="AN3" s="69"/>
+      <c r="AO3" s="69"/>
+      <c r="AP3" s="69"/>
+      <c r="AQ3" s="69"/>
+      <c r="AR3" s="69"/>
+      <c r="AS3" s="69"/>
+      <c r="AU3" s="69"/>
+      <c r="AV3" s="69"/>
+      <c r="AW3" s="69"/>
+      <c r="AX3" s="69"/>
+      <c r="AY3" s="69"/>
+      <c r="AZ3" s="69"/>
+      <c r="BA3" s="69"/>
     </row>
     <row r="4" customFormat="1" ht="23.6" spans="1:53">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="36">
+      <c r="E4" s="40">
         <v>32.65</v>
       </c>
-      <c r="F4" s="36">
+      <c r="F4" s="41">
         <v>30.89</v>
       </c>
-      <c r="G4" s="36">
+      <c r="G4" s="41">
         <v>36.22</v>
       </c>
-      <c r="H4" s="36">
+      <c r="H4" s="41">
         <f t="shared" si="0"/>
         <v>176</v>
       </c>
-      <c r="I4" s="36">
+      <c r="I4" s="41">
         <f>FLOOR(1000/(E4-F4),100)</f>
         <v>500</v>
       </c>
-      <c r="J4" s="42">
+      <c r="J4" s="52">
         <f t="shared" si="1"/>
         <v>2.02840909090909</v>
       </c>
-      <c r="K4" s="43">
+      <c r="K4" s="53">
         <f t="shared" si="2"/>
         <v>0.0539050535987748</v>
       </c>
-      <c r="L4" s="44">
+      <c r="L4" s="54">
         <f t="shared" si="3"/>
         <v>0.109341500765697</v>
       </c>
-      <c r="M4" s="17" t="s">
+      <c r="M4" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="N4" s="53"/>
-      <c r="O4" s="53"/>
-      <c r="P4" s="53"/>
-      <c r="Q4" s="53"/>
-      <c r="R4" s="53"/>
-      <c r="S4" s="53"/>
-      <c r="T4" s="53"/>
-      <c r="V4" s="59"/>
-      <c r="W4" s="59"/>
-      <c r="X4" s="59"/>
-      <c r="Y4" s="59"/>
-      <c r="Z4" s="59"/>
-      <c r="AA4" s="59"/>
-      <c r="AB4" s="59"/>
-      <c r="AC4" s="59"/>
-      <c r="AE4" s="59"/>
-      <c r="AF4" s="59"/>
-      <c r="AG4" s="59"/>
-      <c r="AH4" s="59"/>
-      <c r="AI4" s="59"/>
-      <c r="AJ4" s="59"/>
-      <c r="AK4" s="59"/>
-      <c r="AM4" s="59"/>
-      <c r="AN4" s="59"/>
-      <c r="AO4" s="59"/>
-      <c r="AP4" s="59"/>
-      <c r="AQ4" s="59"/>
-      <c r="AR4" s="59"/>
-      <c r="AS4" s="59"/>
-      <c r="AU4" s="59"/>
-      <c r="AV4" s="59"/>
-      <c r="AW4" s="59"/>
-      <c r="AX4" s="59"/>
-      <c r="AY4" s="59"/>
-      <c r="AZ4" s="59"/>
-      <c r="BA4" s="59"/>
+      <c r="N4" s="63"/>
+      <c r="O4" s="63"/>
+      <c r="P4" s="63"/>
+      <c r="Q4" s="63"/>
+      <c r="R4" s="63"/>
+      <c r="S4" s="63"/>
+      <c r="T4" s="63"/>
+      <c r="V4" s="69"/>
+      <c r="W4" s="69"/>
+      <c r="X4" s="69"/>
+      <c r="Y4" s="69"/>
+      <c r="Z4" s="69"/>
+      <c r="AA4" s="69"/>
+      <c r="AB4" s="69"/>
+      <c r="AC4" s="69"/>
+      <c r="AE4" s="69"/>
+      <c r="AF4" s="69"/>
+      <c r="AG4" s="69"/>
+      <c r="AH4" s="69"/>
+      <c r="AI4" s="69"/>
+      <c r="AJ4" s="69"/>
+      <c r="AK4" s="69"/>
+      <c r="AM4" s="69"/>
+      <c r="AN4" s="69"/>
+      <c r="AO4" s="69"/>
+      <c r="AP4" s="69"/>
+      <c r="AQ4" s="69"/>
+      <c r="AR4" s="69"/>
+      <c r="AS4" s="69"/>
+      <c r="AU4" s="69"/>
+      <c r="AV4" s="69"/>
+      <c r="AW4" s="69"/>
+      <c r="AX4" s="69"/>
+      <c r="AY4" s="69"/>
+      <c r="AZ4" s="69"/>
+      <c r="BA4" s="69"/>
     </row>
     <row r="5" s="1" customFormat="1" ht="38" spans="1:14">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="15">
+      <c r="B5" s="16">
         <v>44539</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="36">
+      <c r="E5" s="40">
         <v>51.15</v>
       </c>
-      <c r="F5" s="36">
+      <c r="F5" s="41">
         <v>46.61</v>
       </c>
-      <c r="G5" s="36">
+      <c r="G5" s="41">
         <v>59.59</v>
       </c>
-      <c r="H5" s="36">
+      <c r="H5" s="41">
         <f t="shared" si="0"/>
         <v>454</v>
       </c>
-      <c r="I5" s="36">
-        <f t="shared" ref="I5:I20" si="4">FLOOR(1000/(E5-F5),100)</f>
+      <c r="I5" s="41">
+        <f t="shared" ref="I5:I22" si="4">FLOOR(1000/(E5-F5),100)</f>
         <v>200</v>
       </c>
-      <c r="J5" s="42">
+      <c r="J5" s="52">
         <f t="shared" si="1"/>
         <v>1.85903083700441</v>
       </c>
-      <c r="K5" s="43">
+      <c r="K5" s="53">
         <f t="shared" si="2"/>
         <v>0.0887585532746823</v>
       </c>
-      <c r="L5" s="44">
+      <c r="L5" s="54">
         <f t="shared" si="3"/>
         <v>0.165004887585533</v>
       </c>
-      <c r="M5" s="55" t="s">
+      <c r="M5" s="65" t="s">
         <v>25</v>
       </c>
-      <c r="N5" s="56"/>
+      <c r="N5" s="66"/>
     </row>
     <row r="6" s="1" customFormat="1" ht="13" spans="1:14">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="15">
+      <c r="B6" s="16">
         <v>44539</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="12">
         <v>600779</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="37">
+      <c r="E6" s="42">
         <v>143.8</v>
       </c>
-      <c r="F6" s="37">
+      <c r="F6" s="43">
         <v>137.88</v>
       </c>
-      <c r="G6" s="37">
+      <c r="G6" s="43">
         <v>158.48</v>
       </c>
-      <c r="H6" s="36">
+      <c r="H6" s="41">
         <f t="shared" si="0"/>
         <v>592.000000000002</v>
       </c>
-      <c r="I6" s="36">
+      <c r="I6" s="41">
         <f t="shared" si="4"/>
         <v>100</v>
       </c>
-      <c r="J6" s="42">
+      <c r="J6" s="52">
         <f t="shared" si="1"/>
         <v>2.47972972972972</v>
       </c>
-      <c r="K6" s="43">
+      <c r="K6" s="53">
         <f t="shared" si="2"/>
         <v>0.0411682892906816</v>
       </c>
-      <c r="L6" s="44">
+      <c r="L6" s="54">
         <f t="shared" si="3"/>
         <v>0.102086230876217</v>
       </c>
-      <c r="M6" s="17" t="s">
+      <c r="M6" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="N6" s="56"/>
+      <c r="N6" s="66"/>
     </row>
     <row r="7" s="1" customFormat="1" ht="38" spans="1:14">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="15">
+      <c r="B7" s="16">
         <v>44539</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="12">
         <v>600803</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="37">
+      <c r="E7" s="42">
         <v>20.44</v>
       </c>
-      <c r="F7" s="37">
+      <c r="F7" s="43">
         <v>19.09</v>
       </c>
-      <c r="G7" s="37">
+      <c r="G7" s="43">
         <v>23.43</v>
       </c>
-      <c r="H7" s="36">
+      <c r="H7" s="41">
         <f t="shared" si="0"/>
         <v>135</v>
       </c>
-      <c r="I7" s="36">
+      <c r="I7" s="41">
         <f t="shared" si="4"/>
         <v>700</v>
       </c>
-      <c r="J7" s="42">
+      <c r="J7" s="52">
         <f t="shared" si="1"/>
         <v>2.21481481481481</v>
       </c>
-      <c r="K7" s="43">
+      <c r="K7" s="53">
         <f t="shared" si="2"/>
         <v>0.0660469667318983</v>
       </c>
-      <c r="L7" s="44">
+      <c r="L7" s="54">
         <f t="shared" si="3"/>
         <v>0.146281800391389</v>
       </c>
-      <c r="M7" s="55" t="s">
+      <c r="M7" s="65" t="s">
         <v>25</v>
       </c>
-      <c r="N7" s="56"/>
+      <c r="N7" s="66"/>
     </row>
     <row r="8" s="1" customFormat="1" ht="13" spans="1:14">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="15">
+      <c r="B8" s="16">
         <v>44539</v>
       </c>
-      <c r="C8" s="18">
+      <c r="C8" s="19">
         <v>600032</v>
       </c>
-      <c r="D8" s="19" t="s">
+      <c r="D8" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="40">
         <v>17.19</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="12">
         <v>15.5</v>
       </c>
-      <c r="G8" s="11">
+      <c r="G8" s="12">
         <v>20.72</v>
       </c>
-      <c r="H8" s="36">
+      <c r="H8" s="41">
         <f t="shared" si="0"/>
         <v>169</v>
       </c>
-      <c r="I8" s="36">
+      <c r="I8" s="41">
         <f t="shared" si="4"/>
         <v>500</v>
       </c>
-      <c r="J8" s="42">
+      <c r="J8" s="52">
         <f t="shared" si="1"/>
         <v>2.0887573964497</v>
       </c>
-      <c r="K8" s="43">
+      <c r="K8" s="53">
         <f t="shared" si="2"/>
         <v>0.0983129726585225</v>
       </c>
-      <c r="L8" s="44">
+      <c r="L8" s="54">
         <f t="shared" si="3"/>
         <v>0.205351948807446</v>
       </c>
-      <c r="M8" s="17" t="s">
+      <c r="M8" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="N8" s="56"/>
+      <c r="N8" s="66"/>
     </row>
     <row r="9" s="2" customFormat="1" ht="13" spans="1:13">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="15">
+      <c r="B9" s="16">
         <v>44539</v>
       </c>
-      <c r="C9" s="20">
+      <c r="C9" s="21">
         <v>603688</v>
       </c>
-      <c r="D9" s="21" t="s">
+      <c r="D9" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="40">
         <v>64.3</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="12">
         <v>58.51</v>
       </c>
-      <c r="G9" s="11">
+      <c r="G9" s="12">
         <v>65.72</v>
       </c>
-      <c r="H9" s="36">
+      <c r="H9" s="41">
         <f t="shared" si="0"/>
         <v>579</v>
       </c>
-      <c r="I9" s="36">
+      <c r="I9" s="41">
         <f t="shared" si="4"/>
         <v>100</v>
       </c>
-      <c r="J9" s="42">
+      <c r="J9" s="52">
         <f t="shared" si="1"/>
         <v>0.24525043177893</v>
       </c>
-      <c r="K9" s="43">
+      <c r="K9" s="53">
         <f t="shared" si="2"/>
         <v>0.0900466562986003</v>
       </c>
-      <c r="L9" s="44">
+      <c r="L9" s="54">
         <f t="shared" si="3"/>
         <v>0.0220839813374806</v>
       </c>
-      <c r="M9" s="17" t="s">
+      <c r="M9" s="18" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="10" s="2" customFormat="1" ht="13" spans="1:13">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="15">
+      <c r="B10" s="16">
         <v>44539</v>
       </c>
-      <c r="C10" s="18">
+      <c r="C10" s="19">
         <v>601677</v>
       </c>
-      <c r="D10" s="22" t="s">
+      <c r="D10" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10" s="40">
         <v>39.15</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F10" s="12">
         <v>35.91</v>
       </c>
-      <c r="G10" s="11">
+      <c r="G10" s="12">
         <v>44.28</v>
       </c>
-      <c r="H10" s="36">
+      <c r="H10" s="41">
         <f t="shared" si="0"/>
         <v>324</v>
       </c>
-      <c r="I10" s="36">
+      <c r="I10" s="41">
         <f t="shared" si="4"/>
         <v>300</v>
       </c>
-      <c r="J10" s="42">
+      <c r="J10" s="52">
         <f t="shared" si="1"/>
         <v>1.58333333333333</v>
       </c>
-      <c r="K10" s="43">
+      <c r="K10" s="53">
         <f t="shared" si="2"/>
         <v>0.0827586206896552</v>
       </c>
-      <c r="L10" s="44">
+      <c r="L10" s="54">
         <f t="shared" si="3"/>
         <v>0.131034482758621</v>
       </c>
-      <c r="M10" s="17" t="s">
+      <c r="M10" s="18" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" ht="13" spans="1:14">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="B11" s="15">
+      <c r="B11" s="16">
         <v>44539</v>
       </c>
-      <c r="C11" s="60" t="s">
+      <c r="C11" s="70" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="22" t="s">
+      <c r="D11" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="40">
         <v>117.8</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F11" s="12">
         <v>111.17</v>
       </c>
-      <c r="G11" s="11">
+      <c r="G11" s="12">
         <v>131.73</v>
       </c>
-      <c r="H11" s="36">
+      <c r="H11" s="41">
         <f t="shared" si="0"/>
         <v>663</v>
       </c>
-      <c r="I11" s="36">
+      <c r="I11" s="41">
         <f t="shared" si="4"/>
         <v>100</v>
       </c>
-      <c r="J11" s="42">
+      <c r="J11" s="52">
         <f t="shared" si="1"/>
         <v>2.10105580693816</v>
       </c>
-      <c r="K11" s="43">
+      <c r="K11" s="53">
         <f t="shared" si="2"/>
         <v>0.0562818336162988</v>
       </c>
-      <c r="L11" s="44">
+      <c r="L11" s="54">
         <f t="shared" si="3"/>
         <v>0.118251273344652</v>
       </c>
-      <c r="M11" s="17" t="s">
+      <c r="M11" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="N11" s="56"/>
+      <c r="N11" s="66"/>
     </row>
     <row r="12" s="2" customFormat="1" ht="24" spans="1:13">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="B12" s="15">
+      <c r="B12" s="16">
         <v>44542</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C12" s="12">
         <v>600955</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="D12" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E12" s="40">
         <v>49.4</v>
       </c>
-      <c r="F12" s="11">
+      <c r="F12" s="12">
         <v>46.7</v>
       </c>
-      <c r="G12" s="11" t="s">
+      <c r="G12" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="H12" s="36">
+      <c r="H12" s="41">
         <f t="shared" si="0"/>
         <v>270</v>
       </c>
-      <c r="I12" s="36">
+      <c r="I12" s="41">
         <f t="shared" si="4"/>
         <v>300</v>
       </c>
-      <c r="J12" s="42" t="s">
+      <c r="J12" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="K12" s="43">
+      <c r="K12" s="53">
         <f t="shared" si="2"/>
         <v>0.054655870445344</v>
       </c>
-      <c r="L12" s="44" t="s">
+      <c r="L12" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="M12" s="55" t="s">
+      <c r="M12" s="65" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" ht="13" spans="1:13">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="B13" s="15">
+      <c r="B13" s="16">
         <v>44542</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="14" t="s">
+      <c r="D13" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="36">
+      <c r="E13" s="40">
         <v>37.73</v>
       </c>
-      <c r="F13" s="36">
+      <c r="F13" s="41">
         <v>34.68</v>
       </c>
-      <c r="G13" s="36">
+      <c r="G13" s="41">
         <v>46.05</v>
       </c>
-      <c r="H13" s="36">
+      <c r="H13" s="41">
         <f t="shared" si="0"/>
         <v>305</v>
       </c>
-      <c r="I13" s="36">
+      <c r="I13" s="41">
         <f t="shared" si="4"/>
         <v>300</v>
       </c>
-      <c r="J13" s="42">
+      <c r="J13" s="52">
         <f>(G13-E13)/(E13-F13)</f>
         <v>2.72786885245902</v>
       </c>
-      <c r="K13" s="43">
+      <c r="K13" s="53">
         <f t="shared" si="2"/>
         <v>0.0808375298171216</v>
       </c>
-      <c r="L13" s="44">
-        <f t="shared" ref="L13:L20" si="5">(G13-E13)/E13</f>
+      <c r="L13" s="54">
+        <f t="shared" ref="L13:L22" si="5">(G13-E13)/E13</f>
         <v>0.220514179697853</v>
       </c>
-      <c r="M13" s="17" t="s">
+      <c r="M13" s="18" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" ht="13" spans="1:13">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="B14" s="23">
+      <c r="B14" s="24">
         <v>44525</v>
       </c>
-      <c r="C14" s="61" t="s">
+      <c r="C14" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="D14" s="17" t="s">
+      <c r="D14" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="E14" s="24">
+      <c r="E14" s="44">
         <v>70.98</v>
       </c>
-      <c r="F14" s="24">
+      <c r="F14" s="25">
         <v>66.88</v>
       </c>
-      <c r="G14" s="24">
+      <c r="G14" s="25">
         <v>84.94</v>
       </c>
-      <c r="H14" s="38">
+      <c r="H14" s="45">
         <f t="shared" si="0"/>
         <v>410.000000000001</v>
       </c>
-      <c r="I14" s="36">
+      <c r="I14" s="41">
         <f t="shared" si="4"/>
         <v>200</v>
       </c>
-      <c r="J14" s="42">
-        <f t="shared" ref="J14:J20" si="6">(G14-E14)/(E14-F14)</f>
+      <c r="J14" s="52">
+        <f t="shared" ref="J14:J22" si="6">(G14-E14)/(E14-F14)</f>
         <v>3.40487804878048</v>
       </c>
-      <c r="K14" s="43">
-        <f t="shared" ref="K14:K20" si="7">(E14-F14)/E14</f>
+      <c r="K14" s="53">
+        <f t="shared" ref="K14:K22" si="7">(E14-F14)/E14</f>
         <v>0.0577627500704425</v>
       </c>
-      <c r="L14" s="45">
+      <c r="L14" s="55">
         <f t="shared" si="5"/>
         <v>0.196675119752043</v>
       </c>
-      <c r="M14" s="57" t="s">
+      <c r="M14" s="67" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" ht="13" spans="1:13">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="B15" s="23">
+      <c r="B15" s="24">
         <v>44529</v>
       </c>
-      <c r="C15" s="24">
+      <c r="C15" s="25">
         <v>603010</v>
       </c>
-      <c r="D15" s="17" t="s">
+      <c r="D15" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="E15" s="24">
+      <c r="E15" s="44">
         <v>29.77</v>
       </c>
-      <c r="F15" s="24">
+      <c r="F15" s="25">
         <v>27.72</v>
       </c>
-      <c r="G15" s="24">
+      <c r="G15" s="25">
         <v>34.93</v>
       </c>
-      <c r="H15" s="38">
+      <c r="H15" s="45">
         <f t="shared" si="0"/>
         <v>205</v>
       </c>
-      <c r="I15" s="36">
+      <c r="I15" s="41">
         <f t="shared" si="4"/>
         <v>400</v>
       </c>
-      <c r="J15" s="42">
+      <c r="J15" s="52">
         <f t="shared" si="6"/>
         <v>2.51707317073171</v>
       </c>
-      <c r="K15" s="46">
+      <c r="K15" s="56">
         <f t="shared" si="7"/>
         <v>0.0688612697346322</v>
       </c>
-      <c r="L15" s="45">
+      <c r="L15" s="55">
         <f t="shared" si="5"/>
         <v>0.173328854551562</v>
       </c>
-      <c r="M15" s="57" t="s">
+      <c r="M15" s="67" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" ht="13" spans="1:13">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="B16" s="23">
+      <c r="B16" s="24">
         <v>44522</v>
       </c>
-      <c r="C16" s="24">
+      <c r="C16" s="25">
         <v>605016</v>
       </c>
-      <c r="D16" s="17" t="s">
+      <c r="D16" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="E16" s="24">
+      <c r="E16" s="44">
         <v>30.66</v>
       </c>
-      <c r="F16" s="24">
+      <c r="F16" s="25">
         <v>29.35</v>
       </c>
-      <c r="G16" s="24">
+      <c r="G16" s="25">
         <v>38.71</v>
       </c>
-      <c r="H16" s="38">
+      <c r="H16" s="45">
         <f t="shared" si="0"/>
         <v>131</v>
       </c>
-      <c r="I16" s="36">
+      <c r="I16" s="41">
         <f t="shared" si="4"/>
         <v>700</v>
       </c>
-      <c r="J16" s="42">
+      <c r="J16" s="52">
         <f t="shared" si="6"/>
         <v>6.14503816793894</v>
       </c>
-      <c r="K16" s="46">
+      <c r="K16" s="56">
         <f t="shared" si="7"/>
         <v>0.042726679712981</v>
       </c>
-      <c r="L16" s="45">
+      <c r="L16" s="55">
         <f t="shared" si="5"/>
         <v>0.262557077625571</v>
       </c>
-      <c r="M16" s="57" t="s">
+      <c r="M16" s="67" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" ht="13" spans="1:13">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="B17" s="23">
+      <c r="B17" s="24">
         <v>44517</v>
       </c>
-      <c r="C17" s="25" t="s">
+      <c r="C17" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="D17" s="17" t="s">
+      <c r="D17" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="E17" s="38">
+      <c r="E17" s="44">
         <v>26.2</v>
       </c>
-      <c r="F17" s="38">
+      <c r="F17" s="45">
         <v>24.68</v>
       </c>
-      <c r="G17" s="38">
+      <c r="G17" s="45">
         <v>32.49</v>
       </c>
-      <c r="H17" s="38">
+      <c r="H17" s="45">
         <f t="shared" si="0"/>
         <v>152</v>
       </c>
-      <c r="I17" s="36">
+      <c r="I17" s="41">
         <f t="shared" si="4"/>
         <v>600</v>
       </c>
-      <c r="J17" s="42">
+      <c r="J17" s="52">
         <f t="shared" si="6"/>
         <v>4.13815789473685</v>
       </c>
-      <c r="K17" s="46">
+      <c r="K17" s="56">
         <f t="shared" si="7"/>
         <v>0.0580152671755725</v>
       </c>
-      <c r="L17" s="45">
+      <c r="L17" s="55">
         <f t="shared" si="5"/>
         <v>0.240076335877863</v>
       </c>
-      <c r="M17" s="57" t="s">
+      <c r="M17" s="67" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" ht="13" spans="1:13">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="B18" s="23">
+      <c r="B18" s="24">
         <v>44533</v>
       </c>
-      <c r="C18" s="61" t="s">
+      <c r="C18" s="71" t="s">
         <v>56</v>
       </c>
-      <c r="D18" s="17" t="s">
+      <c r="D18" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="E18" s="24">
+      <c r="E18" s="44">
         <v>28.82</v>
       </c>
-      <c r="F18" s="24">
+      <c r="F18" s="25">
         <v>26.31</v>
       </c>
-      <c r="G18" s="24">
+      <c r="G18" s="25">
         <v>32.36</v>
       </c>
-      <c r="H18" s="38">
+      <c r="H18" s="45">
         <f t="shared" si="0"/>
         <v>251</v>
       </c>
-      <c r="I18" s="36">
+      <c r="I18" s="41">
         <f t="shared" si="4"/>
         <v>300</v>
       </c>
-      <c r="J18" s="42">
+      <c r="J18" s="52">
         <f t="shared" si="6"/>
         <v>1.41035856573705</v>
       </c>
-      <c r="K18" s="46">
+      <c r="K18" s="56">
         <f t="shared" si="7"/>
         <v>0.0870922970159612</v>
       </c>
-      <c r="L18" s="45">
+      <c r="L18" s="55">
         <f t="shared" si="5"/>
         <v>0.122831367106176</v>
       </c>
-      <c r="M18" s="57" t="s">
+      <c r="M18" s="67" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="19" s="2" customFormat="1" ht="13" spans="1:13">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C19" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D19" s="14" t="s">
+      <c r="D19" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="E19" s="31">
+      <c r="E19" s="46">
         <v>38.89</v>
       </c>
-      <c r="F19" s="31">
+      <c r="F19" s="33">
         <v>36.65</v>
       </c>
-      <c r="G19" s="31">
+      <c r="G19" s="33">
         <v>40.7</v>
       </c>
-      <c r="H19" s="38">
+      <c r="H19" s="45">
         <f t="shared" si="0"/>
         <v>224</v>
       </c>
-      <c r="I19" s="36">
+      <c r="I19" s="41">
         <f t="shared" si="4"/>
         <v>400</v>
       </c>
-      <c r="J19" s="42">
+      <c r="J19" s="52">
         <f t="shared" si="6"/>
         <v>0.808035714285715</v>
       </c>
-      <c r="K19" s="46">
+      <c r="K19" s="56">
         <f t="shared" si="7"/>
         <v>0.0575983543327334</v>
       </c>
-      <c r="L19" s="45">
+      <c r="L19" s="55">
         <f t="shared" si="5"/>
         <v>0.0465415273849319</v>
       </c>
-      <c r="M19" s="57" t="s">
+      <c r="M19" s="67" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="20" s="2" customFormat="1" ht="13" spans="1:13">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="B20" s="26">
+      <c r="B20" s="27">
         <v>44545</v>
       </c>
-      <c r="C20" s="27" t="s">
+      <c r="C20" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="D20" s="28" t="s">
+      <c r="D20" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="E20" s="31">
+      <c r="E20" s="46">
         <v>27.73</v>
       </c>
-      <c r="F20" s="31">
+      <c r="F20" s="33">
         <v>25.3</v>
       </c>
-      <c r="G20" s="31">
+      <c r="G20" s="33">
         <v>31.94</v>
       </c>
-      <c r="H20" s="38">
+      <c r="H20" s="45">
         <f t="shared" si="0"/>
         <v>243</v>
       </c>
-      <c r="I20" s="36">
+      <c r="I20" s="41">
         <f t="shared" si="4"/>
         <v>400</v>
       </c>
-      <c r="J20" s="42">
+      <c r="J20" s="52">
         <f t="shared" si="6"/>
         <v>1.73251028806584</v>
       </c>
-      <c r="K20" s="46">
+      <c r="K20" s="56">
         <f t="shared" si="7"/>
         <v>0.0876307248467364</v>
       </c>
-      <c r="L20" s="45">
+      <c r="L20" s="55">
         <f t="shared" si="5"/>
         <v>0.151821132347638</v>
       </c>
-      <c r="M20" s="58" t="s">
+      <c r="M20" s="68" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="21" s="2" customFormat="1" ht="13" spans="1:13">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="B21" s="26">
+      <c r="B21" s="27">
         <v>44545</v>
       </c>
-      <c r="C21" s="29">
+      <c r="C21" s="30">
         <v>600821</v>
       </c>
-      <c r="D21" s="28" t="s">
+      <c r="D21" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="E21" s="31">
+      <c r="E21" s="46">
         <v>11.75</v>
       </c>
-      <c r="F21" s="31">
+      <c r="F21" s="33">
         <v>10.9</v>
       </c>
-      <c r="G21" s="31">
+      <c r="G21" s="33">
         <v>14.54</v>
       </c>
-      <c r="H21" s="38">
-        <f>(E21-F21)*100</f>
+      <c r="H21" s="45">
+        <f t="shared" si="0"/>
         <v>85</v>
       </c>
-      <c r="I21" s="36">
-        <f>FLOOR(1000/(E21-F21),100)</f>
+      <c r="I21" s="41">
+        <f t="shared" si="4"/>
         <v>1100</v>
       </c>
-      <c r="J21" s="42">
-        <f>(G21-E21)/(E21-F21)</f>
+      <c r="J21" s="52">
+        <f t="shared" si="6"/>
         <v>3.28235294117647</v>
       </c>
-      <c r="K21" s="46">
-        <f>(E21-F21)/E21</f>
+      <c r="K21" s="56">
+        <f t="shared" si="7"/>
         <v>0.0723404255319149</v>
       </c>
-      <c r="L21" s="45">
-        <f>(G21-E21)/E21</f>
+      <c r="L21" s="55">
+        <f t="shared" si="5"/>
         <v>0.237446808510638</v>
       </c>
-      <c r="M21" s="58" t="s">
+      <c r="M21" s="68" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="22" s="2" customFormat="1" ht="13" spans="1:13">
-      <c r="A22" s="11" t="s">
+      <c r="A22" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="B22" s="26">
+      <c r="B22" s="27">
         <v>44546</v>
       </c>
-      <c r="C22" s="62" t="s">
+      <c r="C22" s="72" t="s">
         <v>46</v>
       </c>
-      <c r="D22" s="30" t="s">
+      <c r="D22" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="E22" s="31">
+      <c r="E22" s="46">
         <v>74.46</v>
       </c>
-      <c r="F22" s="31">
+      <c r="F22" s="33">
         <v>70.54</v>
       </c>
-      <c r="G22" s="31">
+      <c r="G22" s="33">
         <v>83.27</v>
       </c>
-      <c r="H22" s="38">
-        <f>(E22-F22)*100</f>
+      <c r="H22" s="45">
+        <f t="shared" si="0"/>
         <v>391.999999999999</v>
       </c>
-      <c r="I22" s="36">
-        <f>FLOOR(1000/(E22-F22),100)</f>
+      <c r="I22" s="41">
+        <f t="shared" si="4"/>
         <v>200</v>
       </c>
-      <c r="J22" s="42">
-        <f>(G22-E22)/(E22-F22)</f>
+      <c r="J22" s="52">
+        <f t="shared" si="6"/>
         <v>2.24744897959184</v>
       </c>
-      <c r="K22" s="46">
-        <f>(E22-F22)/E22</f>
+      <c r="K22" s="56">
+        <f t="shared" si="7"/>
         <v>0.0526457158205746</v>
       </c>
-      <c r="L22" s="45">
-        <f>(G22-E22)/E22</f>
+      <c r="L22" s="55">
+        <f t="shared" si="5"/>
         <v>0.118318560300833</v>
       </c>
-      <c r="M22" s="58" t="s">
+      <c r="M22" s="68" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="23" s="2" customFormat="1" spans="1:13">
-      <c r="A23" s="31"/>
-      <c r="B23" s="26"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="31"/>
-      <c r="H23" s="39"/>
-      <c r="I23" s="31"/>
-      <c r="J23" s="47"/>
-      <c r="K23" s="48"/>
-      <c r="L23" s="49"/>
-      <c r="M23" s="31"/>
+    <row r="23" s="2" customFormat="1" ht="18" spans="1:13">
+      <c r="A23" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B23" s="27">
+        <v>44546</v>
+      </c>
+      <c r="C23" s="73" t="s">
+        <v>67</v>
+      </c>
+      <c r="D23" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="E23" s="46">
+        <v>278</v>
+      </c>
+      <c r="F23" s="33">
+        <v>260.02</v>
+      </c>
+      <c r="G23" s="33">
+        <v>304.23</v>
+      </c>
+      <c r="H23" s="45">
+        <f>(E23-F23)*100</f>
+        <v>1798</v>
+      </c>
+      <c r="I23" s="41">
+        <f>FLOOR(1000/(E23-F23),100)</f>
+        <v>0</v>
+      </c>
+      <c r="J23" s="52">
+        <f>(G23-E23)/(E23-F23)</f>
+        <v>1.45884315906563</v>
+      </c>
+      <c r="K23" s="56">
+        <f>(E23-F23)/E23</f>
+        <v>0.0646762589928058</v>
+      </c>
+      <c r="L23" s="55">
+        <f>(G23-E23)/E23</f>
+        <v>0.0943525179856116</v>
+      </c>
+      <c r="M23" s="68" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="24" s="2" customFormat="1" spans="1:13">
-      <c r="A24" s="31"/>
-      <c r="B24" s="26"/>
-      <c r="C24" s="32"/>
-      <c r="D24" s="31"/>
-      <c r="E24" s="31"/>
-      <c r="F24" s="31"/>
-      <c r="G24" s="31"/>
-      <c r="H24" s="39"/>
-      <c r="I24" s="31"/>
-      <c r="J24" s="47"/>
-      <c r="K24" s="48"/>
-      <c r="L24" s="49"/>
-      <c r="M24" s="31"/>
+      <c r="A24" s="33"/>
+      <c r="B24" s="27"/>
+      <c r="C24" s="34"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="46"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="33"/>
+      <c r="H24" s="47"/>
+      <c r="I24" s="33"/>
+      <c r="J24" s="57"/>
+      <c r="K24" s="58"/>
+      <c r="L24" s="59"/>
+      <c r="M24" s="33"/>
     </row>
     <row r="25" s="2" customFormat="1" spans="1:13">
-      <c r="A25" s="31"/>
-      <c r="B25" s="26"/>
-      <c r="C25" s="32"/>
-      <c r="D25" s="31"/>
-      <c r="E25" s="31"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="31"/>
-      <c r="H25" s="39"/>
-      <c r="I25" s="31"/>
-      <c r="J25" s="47"/>
-      <c r="K25" s="48"/>
-      <c r="L25" s="49"/>
-      <c r="M25" s="31"/>
+      <c r="A25" s="33"/>
+      <c r="B25" s="27"/>
+      <c r="C25" s="34"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="46"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="33"/>
+      <c r="H25" s="47"/>
+      <c r="I25" s="33"/>
+      <c r="J25" s="57"/>
+      <c r="K25" s="58"/>
+      <c r="L25" s="59"/>
+      <c r="M25" s="33"/>
     </row>
     <row r="26" s="2" customFormat="1" spans="1:13">
-      <c r="A26" s="31"/>
-      <c r="B26" s="26"/>
-      <c r="C26" s="32"/>
-      <c r="D26" s="31"/>
-      <c r="E26" s="31"/>
-      <c r="F26" s="31"/>
-      <c r="G26" s="31"/>
-      <c r="H26" s="39"/>
-      <c r="I26" s="31"/>
-      <c r="J26" s="47"/>
-      <c r="K26" s="48"/>
-      <c r="L26" s="49"/>
-      <c r="M26" s="31"/>
+      <c r="A26" s="33"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="34"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="46"/>
+      <c r="F26" s="33"/>
+      <c r="G26" s="33"/>
+      <c r="H26" s="47"/>
+      <c r="I26" s="33"/>
+      <c r="J26" s="57"/>
+      <c r="K26" s="58"/>
+      <c r="L26" s="59"/>
+      <c r="M26" s="33"/>
     </row>
     <row r="27" s="2" customFormat="1" spans="1:13">
-      <c r="A27" s="31"/>
-      <c r="B27" s="26"/>
-      <c r="C27" s="24"/>
-      <c r="D27" s="31"/>
-      <c r="E27" s="31"/>
-      <c r="F27" s="31"/>
-      <c r="G27" s="31"/>
-      <c r="H27" s="39"/>
-      <c r="I27" s="31"/>
-      <c r="J27" s="47"/>
-      <c r="K27" s="48"/>
-      <c r="L27" s="49"/>
-      <c r="M27" s="58"/>
+      <c r="A27" s="33"/>
+      <c r="B27" s="27"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="46"/>
+      <c r="F27" s="33"/>
+      <c r="G27" s="33"/>
+      <c r="H27" s="47"/>
+      <c r="I27" s="33"/>
+      <c r="J27" s="57"/>
+      <c r="K27" s="58"/>
+      <c r="L27" s="59"/>
+      <c r="M27" s="68"/>
     </row>
     <row r="28" spans="1:13">
-      <c r="A28" s="33"/>
-      <c r="B28" s="26"/>
-      <c r="C28" s="34"/>
-      <c r="D28" s="33"/>
-      <c r="E28" s="33"/>
-      <c r="F28" s="33"/>
-      <c r="G28" s="33"/>
-      <c r="H28" s="33"/>
-      <c r="I28" s="33"/>
-      <c r="J28" s="33"/>
-      <c r="K28" s="48"/>
-      <c r="L28" s="50"/>
-      <c r="M28" s="58"/>
+      <c r="A28" s="35"/>
+      <c r="B28" s="27"/>
+      <c r="C28" s="36"/>
+      <c r="D28" s="35"/>
+      <c r="E28" s="48"/>
+      <c r="F28" s="35"/>
+      <c r="G28" s="35"/>
+      <c r="H28" s="35"/>
+      <c r="I28" s="35"/>
+      <c r="J28" s="35"/>
+      <c r="K28" s="58"/>
+      <c r="L28" s="60"/>
+      <c r="M28" s="68"/>
     </row>
     <row r="29" spans="1:13">
-      <c r="A29" s="33"/>
-      <c r="B29" s="26"/>
-      <c r="C29" s="33"/>
-      <c r="D29" s="33"/>
-      <c r="E29" s="33"/>
-      <c r="F29" s="33"/>
-      <c r="G29" s="33"/>
-      <c r="H29" s="33"/>
-      <c r="I29" s="33"/>
-      <c r="J29" s="33"/>
-      <c r="K29" s="48"/>
-      <c r="L29" s="50"/>
-      <c r="M29" s="33"/>
+      <c r="A29" s="35"/>
+      <c r="B29" s="27"/>
+      <c r="C29" s="35"/>
+      <c r="D29" s="35"/>
+      <c r="E29" s="48"/>
+      <c r="F29" s="35"/>
+      <c r="G29" s="35"/>
+      <c r="H29" s="35"/>
+      <c r="I29" s="35"/>
+      <c r="J29" s="35"/>
+      <c r="K29" s="58"/>
+      <c r="L29" s="60"/>
+      <c r="M29" s="35"/>
     </row>
     <row r="30" spans="1:13">
-      <c r="A30" s="33"/>
-      <c r="B30" s="33"/>
-      <c r="C30" s="33"/>
-      <c r="D30" s="33"/>
-      <c r="E30" s="33"/>
-      <c r="F30" s="33"/>
-      <c r="G30" s="33"/>
-      <c r="H30" s="33"/>
-      <c r="I30" s="33"/>
-      <c r="J30" s="33"/>
-      <c r="K30" s="48"/>
-      <c r="L30" s="50"/>
-      <c r="M30" s="33"/>
+      <c r="A30" s="35"/>
+      <c r="B30" s="35"/>
+      <c r="C30" s="35"/>
+      <c r="D30" s="35"/>
+      <c r="E30" s="48"/>
+      <c r="F30" s="35"/>
+      <c r="G30" s="35"/>
+      <c r="H30" s="35"/>
+      <c r="I30" s="35"/>
+      <c r="J30" s="35"/>
+      <c r="K30" s="58"/>
+      <c r="L30" s="60"/>
+      <c r="M30" s="35"/>
     </row>
     <row r="31" spans="1:13">
-      <c r="A31" s="33"/>
-      <c r="B31" s="33"/>
-      <c r="C31" s="33"/>
-      <c r="D31" s="33"/>
-      <c r="E31" s="33"/>
-      <c r="F31" s="33"/>
-      <c r="G31" s="33"/>
-      <c r="H31" s="33"/>
-      <c r="I31" s="33"/>
-      <c r="J31" s="33"/>
-      <c r="K31" s="48"/>
-      <c r="L31" s="50"/>
-      <c r="M31" s="33"/>
+      <c r="A31" s="35"/>
+      <c r="B31" s="35"/>
+      <c r="C31" s="35"/>
+      <c r="D31" s="35"/>
+      <c r="E31" s="48"/>
+      <c r="F31" s="35"/>
+      <c r="G31" s="35"/>
+      <c r="H31" s="35"/>
+      <c r="I31" s="35"/>
+      <c r="J31" s="35"/>
+      <c r="K31" s="58"/>
+      <c r="L31" s="60"/>
+      <c r="M31" s="35"/>
     </row>
     <row r="32" spans="1:13">
-      <c r="A32" s="33"/>
-      <c r="B32" s="33"/>
-      <c r="C32" s="33"/>
-      <c r="D32" s="33"/>
-      <c r="E32" s="33"/>
-      <c r="F32" s="33"/>
-      <c r="G32" s="33"/>
-      <c r="H32" s="33"/>
-      <c r="I32" s="33"/>
-      <c r="J32" s="33"/>
-      <c r="K32" s="48"/>
-      <c r="L32" s="50"/>
-      <c r="M32" s="33"/>
+      <c r="A32" s="35"/>
+      <c r="B32" s="35"/>
+      <c r="C32" s="35"/>
+      <c r="D32" s="35"/>
+      <c r="E32" s="48"/>
+      <c r="F32" s="35"/>
+      <c r="G32" s="35"/>
+      <c r="H32" s="35"/>
+      <c r="I32" s="35"/>
+      <c r="J32" s="35"/>
+      <c r="K32" s="58"/>
+      <c r="L32" s="60"/>
+      <c r="M32" s="35"/>
     </row>
     <row r="33" spans="1:13">
-      <c r="A33" s="33"/>
-      <c r="B33" s="33"/>
-      <c r="C33" s="33"/>
-      <c r="D33" s="33"/>
-      <c r="E33" s="33"/>
-      <c r="F33" s="33"/>
-      <c r="G33" s="33"/>
-      <c r="H33" s="33"/>
-      <c r="I33" s="33"/>
-      <c r="J33" s="33"/>
-      <c r="K33" s="48"/>
-      <c r="L33" s="50"/>
-      <c r="M33" s="33"/>
+      <c r="A33" s="35"/>
+      <c r="B33" s="35"/>
+      <c r="C33" s="35"/>
+      <c r="D33" s="35"/>
+      <c r="E33" s="48"/>
+      <c r="F33" s="35"/>
+      <c r="G33" s="35"/>
+      <c r="H33" s="35"/>
+      <c r="I33" s="35"/>
+      <c r="J33" s="35"/>
+      <c r="K33" s="58"/>
+      <c r="L33" s="60"/>
+      <c r="M33" s="35"/>
     </row>
     <row r="34" spans="1:13">
-      <c r="A34" s="33"/>
-      <c r="B34" s="33"/>
-      <c r="C34" s="33"/>
-      <c r="D34" s="33"/>
-      <c r="E34" s="33"/>
-      <c r="F34" s="33"/>
-      <c r="G34" s="33"/>
-      <c r="H34" s="33"/>
-      <c r="I34" s="33"/>
-      <c r="J34" s="33"/>
-      <c r="K34" s="48"/>
-      <c r="L34" s="50"/>
-      <c r="M34" s="33"/>
+      <c r="A34" s="35"/>
+      <c r="B34" s="35"/>
+      <c r="C34" s="35"/>
+      <c r="D34" s="35"/>
+      <c r="E34" s="48"/>
+      <c r="F34" s="35"/>
+      <c r="G34" s="35"/>
+      <c r="H34" s="35"/>
+      <c r="I34" s="35"/>
+      <c r="J34" s="35"/>
+      <c r="K34" s="58"/>
+      <c r="L34" s="60"/>
+      <c r="M34" s="35"/>
     </row>
     <row r="35" spans="1:13">
-      <c r="A35" s="33"/>
-      <c r="B35" s="33"/>
-      <c r="C35" s="33"/>
-      <c r="D35" s="33"/>
-      <c r="E35" s="33"/>
-      <c r="F35" s="33"/>
-      <c r="G35" s="33"/>
-      <c r="H35" s="33"/>
-      <c r="I35" s="33"/>
-      <c r="J35" s="33"/>
-      <c r="K35" s="48"/>
-      <c r="L35" s="50"/>
-      <c r="M35" s="33"/>
+      <c r="A35" s="35"/>
+      <c r="B35" s="35"/>
+      <c r="C35" s="35"/>
+      <c r="D35" s="35"/>
+      <c r="E35" s="48"/>
+      <c r="F35" s="35"/>
+      <c r="G35" s="35"/>
+      <c r="H35" s="35"/>
+      <c r="I35" s="35"/>
+      <c r="J35" s="35"/>
+      <c r="K35" s="58"/>
+      <c r="L35" s="60"/>
+      <c r="M35" s="35"/>
     </row>
     <row r="36" spans="1:13">
-      <c r="A36" s="33"/>
-      <c r="B36" s="33"/>
-      <c r="C36" s="33"/>
-      <c r="D36" s="33"/>
-      <c r="E36" s="33"/>
-      <c r="F36" s="33"/>
-      <c r="G36" s="33"/>
-      <c r="H36" s="33"/>
-      <c r="I36" s="33"/>
-      <c r="J36" s="33"/>
-      <c r="K36" s="48"/>
-      <c r="L36" s="50"/>
-      <c r="M36" s="33"/>
+      <c r="A36" s="35"/>
+      <c r="B36" s="35"/>
+      <c r="C36" s="35"/>
+      <c r="D36" s="35"/>
+      <c r="E36" s="48"/>
+      <c r="F36" s="35"/>
+      <c r="G36" s="35"/>
+      <c r="H36" s="35"/>
+      <c r="I36" s="35"/>
+      <c r="J36" s="35"/>
+      <c r="K36" s="58"/>
+      <c r="L36" s="60"/>
+      <c r="M36" s="35"/>
     </row>
     <row r="37" spans="1:13">
-      <c r="A37" s="33"/>
-      <c r="B37" s="33"/>
-      <c r="C37" s="33"/>
-      <c r="D37" s="33"/>
-      <c r="E37" s="33"/>
-      <c r="F37" s="33"/>
-      <c r="G37" s="33"/>
-      <c r="H37" s="33"/>
-      <c r="I37" s="33"/>
-      <c r="J37" s="33"/>
-      <c r="K37" s="48"/>
-      <c r="L37" s="50"/>
-      <c r="M37" s="33"/>
+      <c r="A37" s="35"/>
+      <c r="B37" s="35"/>
+      <c r="C37" s="35"/>
+      <c r="D37" s="35"/>
+      <c r="E37" s="48"/>
+      <c r="F37" s="35"/>
+      <c r="G37" s="35"/>
+      <c r="H37" s="35"/>
+      <c r="I37" s="35"/>
+      <c r="J37" s="35"/>
+      <c r="K37" s="58"/>
+      <c r="L37" s="60"/>
+      <c r="M37" s="35"/>
     </row>
     <row r="38" spans="1:13">
-      <c r="A38" s="33"/>
-      <c r="B38" s="33"/>
-      <c r="C38" s="33"/>
-      <c r="D38" s="33"/>
-      <c r="E38" s="33"/>
-      <c r="F38" s="33"/>
-      <c r="G38" s="33"/>
-      <c r="H38" s="33"/>
-      <c r="I38" s="33"/>
-      <c r="J38" s="33"/>
-      <c r="K38" s="48"/>
-      <c r="L38" s="50"/>
-      <c r="M38" s="33"/>
+      <c r="A38" s="35"/>
+      <c r="B38" s="35"/>
+      <c r="C38" s="35"/>
+      <c r="D38" s="35"/>
+      <c r="E38" s="48"/>
+      <c r="F38" s="35"/>
+      <c r="G38" s="35"/>
+      <c r="H38" s="35"/>
+      <c r="I38" s="35"/>
+      <c r="J38" s="35"/>
+      <c r="K38" s="58"/>
+      <c r="L38" s="60"/>
+      <c r="M38" s="35"/>
     </row>
     <row r="39" spans="1:13">
-      <c r="A39" s="33"/>
-      <c r="B39" s="33"/>
-      <c r="C39" s="33"/>
-      <c r="D39" s="33"/>
-      <c r="E39" s="33"/>
-      <c r="F39" s="33"/>
-      <c r="G39" s="33"/>
-      <c r="H39" s="33"/>
-      <c r="I39" s="33"/>
-      <c r="J39" s="33"/>
-      <c r="K39" s="48"/>
-      <c r="L39" s="50"/>
-      <c r="M39" s="33"/>
+      <c r="A39" s="35"/>
+      <c r="B39" s="35"/>
+      <c r="C39" s="35"/>
+      <c r="D39" s="35"/>
+      <c r="E39" s="48"/>
+      <c r="F39" s="35"/>
+      <c r="G39" s="35"/>
+      <c r="H39" s="35"/>
+      <c r="I39" s="35"/>
+      <c r="J39" s="35"/>
+      <c r="K39" s="58"/>
+      <c r="L39" s="60"/>
+      <c r="M39" s="35"/>
     </row>
     <row r="40" spans="1:13">
-      <c r="A40" s="33"/>
-      <c r="B40" s="33"/>
-      <c r="C40" s="33"/>
-      <c r="D40" s="33"/>
-      <c r="E40" s="33"/>
-      <c r="F40" s="33"/>
-      <c r="G40" s="33"/>
-      <c r="H40" s="33"/>
-      <c r="I40" s="33"/>
-      <c r="J40" s="33"/>
-      <c r="K40" s="48"/>
-      <c r="L40" s="50"/>
-      <c r="M40" s="33"/>
+      <c r="A40" s="35"/>
+      <c r="B40" s="35"/>
+      <c r="C40" s="35"/>
+      <c r="D40" s="35"/>
+      <c r="E40" s="48"/>
+      <c r="F40" s="35"/>
+      <c r="G40" s="35"/>
+      <c r="H40" s="35"/>
+      <c r="I40" s="35"/>
+      <c r="J40" s="35"/>
+      <c r="K40" s="58"/>
+      <c r="L40" s="60"/>
+      <c r="M40" s="35"/>
     </row>
     <row r="41" spans="1:13">
-      <c r="A41" s="33"/>
-      <c r="B41" s="33"/>
-      <c r="C41" s="33"/>
-      <c r="D41" s="33"/>
-      <c r="E41" s="33"/>
-      <c r="F41" s="33"/>
-      <c r="G41" s="33"/>
-      <c r="H41" s="33"/>
-      <c r="I41" s="33"/>
-      <c r="J41" s="33"/>
-      <c r="K41" s="48"/>
-      <c r="L41" s="50"/>
-      <c r="M41" s="33"/>
+      <c r="A41" s="35"/>
+      <c r="B41" s="35"/>
+      <c r="C41" s="35"/>
+      <c r="D41" s="35"/>
+      <c r="E41" s="48"/>
+      <c r="F41" s="35"/>
+      <c r="G41" s="35"/>
+      <c r="H41" s="35"/>
+      <c r="I41" s="35"/>
+      <c r="J41" s="35"/>
+      <c r="K41" s="58"/>
+      <c r="L41" s="60"/>
+      <c r="M41" s="35"/>
     </row>
     <row r="42" spans="1:13">
-      <c r="A42" s="33"/>
-      <c r="B42" s="33"/>
-      <c r="C42" s="33"/>
-      <c r="D42" s="33"/>
-      <c r="E42" s="33"/>
-      <c r="F42" s="33"/>
-      <c r="G42" s="33"/>
-      <c r="H42" s="33"/>
-      <c r="I42" s="33"/>
-      <c r="J42" s="33"/>
-      <c r="K42" s="48"/>
-      <c r="L42" s="50"/>
-      <c r="M42" s="33"/>
+      <c r="A42" s="35"/>
+      <c r="B42" s="35"/>
+      <c r="C42" s="35"/>
+      <c r="D42" s="35"/>
+      <c r="E42" s="48"/>
+      <c r="F42" s="35"/>
+      <c r="G42" s="35"/>
+      <c r="H42" s="35"/>
+      <c r="I42" s="35"/>
+      <c r="J42" s="35"/>
+      <c r="K42" s="58"/>
+      <c r="L42" s="60"/>
+      <c r="M42" s="35"/>
     </row>
     <row r="43" spans="1:13">
-      <c r="A43" s="33"/>
-      <c r="B43" s="33"/>
-      <c r="C43" s="33"/>
-      <c r="D43" s="33"/>
-      <c r="E43" s="33"/>
-      <c r="F43" s="33"/>
-      <c r="G43" s="33"/>
-      <c r="H43" s="33"/>
-      <c r="I43" s="33"/>
-      <c r="J43" s="33"/>
-      <c r="K43" s="48"/>
-      <c r="L43" s="50"/>
-      <c r="M43" s="33"/>
+      <c r="A43" s="35"/>
+      <c r="B43" s="35"/>
+      <c r="C43" s="35"/>
+      <c r="D43" s="35"/>
+      <c r="E43" s="48"/>
+      <c r="F43" s="35"/>
+      <c r="G43" s="35"/>
+      <c r="H43" s="35"/>
+      <c r="I43" s="35"/>
+      <c r="J43" s="35"/>
+      <c r="K43" s="58"/>
+      <c r="L43" s="60"/>
+      <c r="M43" s="35"/>
     </row>
     <row r="44" spans="1:13">
-      <c r="A44" s="33"/>
-      <c r="B44" s="33"/>
-      <c r="C44" s="33"/>
-      <c r="D44" s="33"/>
-      <c r="E44" s="33"/>
-      <c r="F44" s="33"/>
-      <c r="G44" s="33"/>
-      <c r="H44" s="33"/>
-      <c r="I44" s="33"/>
-      <c r="J44" s="33"/>
-      <c r="K44" s="48"/>
-      <c r="L44" s="50"/>
-      <c r="M44" s="33"/>
+      <c r="A44" s="35"/>
+      <c r="B44" s="35"/>
+      <c r="C44" s="35"/>
+      <c r="D44" s="35"/>
+      <c r="E44" s="48"/>
+      <c r="F44" s="35"/>
+      <c r="G44" s="35"/>
+      <c r="H44" s="35"/>
+      <c r="I44" s="35"/>
+      <c r="J44" s="35"/>
+      <c r="K44" s="58"/>
+      <c r="L44" s="60"/>
+      <c r="M44" s="35"/>
     </row>
     <row r="45" spans="1:13">
-      <c r="A45" s="33"/>
-      <c r="B45" s="33"/>
-      <c r="C45" s="33"/>
-      <c r="D45" s="33"/>
-      <c r="E45" s="33"/>
-      <c r="F45" s="33"/>
-      <c r="G45" s="33"/>
-      <c r="H45" s="33"/>
-      <c r="I45" s="33"/>
-      <c r="J45" s="33"/>
-      <c r="K45" s="48"/>
-      <c r="L45" s="50"/>
-      <c r="M45" s="33"/>
+      <c r="A45" s="35"/>
+      <c r="B45" s="35"/>
+      <c r="C45" s="35"/>
+      <c r="D45" s="35"/>
+      <c r="E45" s="48"/>
+      <c r="F45" s="35"/>
+      <c r="G45" s="35"/>
+      <c r="H45" s="35"/>
+      <c r="I45" s="35"/>
+      <c r="J45" s="35"/>
+      <c r="K45" s="58"/>
+      <c r="L45" s="60"/>
+      <c r="M45" s="35"/>
     </row>
     <row r="46" ht="13" spans="1:13">
-      <c r="A46" s="63" t="s">
-        <v>66</v>
-      </c>
-      <c r="B46" s="33"/>
+      <c r="A46" s="74" t="s">
+        <v>70</v>
+      </c>
+      <c r="B46" s="35"/>
       <c r="D46" s="3"/>
-      <c r="E46" s="3"/>
+      <c r="E46" s="49"/>
       <c r="F46" s="3"/>
       <c r="G46" s="3"/>
       <c r="H46" s="3"/>
       <c r="I46" s="3"/>
       <c r="J46" s="3"/>
-      <c r="K46" s="51"/>
-      <c r="M46" s="33"/>
+      <c r="K46" s="61"/>
+      <c r="M46" s="35"/>
     </row>
     <row r="47" spans="1:11">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="D47" s="3"/>
-      <c r="E47" s="3"/>
+      <c r="E47" s="49"/>
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
       <c r="H47" s="3"/>
       <c r="I47" s="3"/>
       <c r="J47" s="3"/>
-      <c r="K47" s="51"/>
+      <c r="K47" s="61"/>
     </row>
     <row r="48" spans="1:11">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="D48" s="3"/>
-      <c r="E48" s="3"/>
+      <c r="E48" s="49"/>
       <c r="F48" s="3"/>
       <c r="G48" s="3"/>
       <c r="H48" s="3"/>
       <c r="I48" s="3"/>
       <c r="J48" s="3"/>
-      <c r="K48" s="51"/>
+      <c r="K48" s="61"/>
     </row>
     <row r="49" spans="1:11">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
       <c r="D49" s="3"/>
-      <c r="E49" s="3"/>
+      <c r="E49" s="49"/>
       <c r="F49" s="3"/>
       <c r="G49" s="3"/>
       <c r="H49" s="3"/>
       <c r="I49" s="3"/>
       <c r="J49" s="3"/>
-      <c r="K49" s="51"/>
+      <c r="K49" s="61"/>
     </row>
     <row r="50" spans="1:11">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
       <c r="D50" s="3"/>
-      <c r="E50" s="3"/>
+      <c r="E50" s="49"/>
       <c r="F50" s="3"/>
       <c r="G50" s="3"/>
       <c r="H50" s="3"/>
       <c r="I50" s="3"/>
       <c r="J50" s="3"/>
-      <c r="K50" s="51"/>
+      <c r="K50" s="61"/>
     </row>
     <row r="51" spans="1:11">
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
       <c r="D51" s="3"/>
-      <c r="E51" s="3"/>
+      <c r="E51" s="49"/>
       <c r="F51" s="3"/>
       <c r="G51" s="3"/>
       <c r="H51" s="3"/>
       <c r="I51" s="3"/>
       <c r="J51" s="3"/>
-      <c r="K51" s="51"/>
+      <c r="K51" s="61"/>
     </row>
     <row r="52" spans="1:11">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="D52" s="3"/>
-      <c r="E52" s="3"/>
+      <c r="E52" s="49"/>
       <c r="F52" s="3"/>
       <c r="G52" s="3"/>
       <c r="H52" s="3"/>
       <c r="I52" s="3"/>
       <c r="J52" s="3"/>
-      <c r="K52" s="51"/>
+      <c r="K52" s="61"/>
     </row>
     <row r="53" spans="1:11">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
       <c r="D53" s="3"/>
-      <c r="E53" s="3"/>
+      <c r="E53" s="49"/>
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
       <c r="H53" s="3"/>
       <c r="I53" s="3"/>
       <c r="J53" s="3"/>
-      <c r="K53" s="51"/>
+      <c r="K53" s="61"/>
     </row>
     <row r="54" spans="1:11">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="D54" s="3"/>
-      <c r="E54" s="3"/>
+      <c r="E54" s="49"/>
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
       <c r="H54" s="3"/>
       <c r="I54" s="3"/>
       <c r="J54" s="3"/>
-      <c r="K54" s="51"/>
+      <c r="K54" s="61"/>
     </row>
     <row r="55" spans="1:11">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="D55" s="3"/>
-      <c r="E55" s="3"/>
+      <c r="E55" s="49"/>
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
       <c r="H55" s="3"/>
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
-      <c r="K55" s="51"/>
+      <c r="K55" s="61"/>
     </row>
     <row r="56" spans="1:11">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
       <c r="D56" s="3"/>
-      <c r="E56" s="3"/>
+      <c r="E56" s="49"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="H56" s="3"/>
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
-      <c r="K56" s="51"/>
+      <c r="K56" s="61"/>
     </row>
     <row r="57" spans="1:11">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
       <c r="D57" s="3"/>
-      <c r="E57" s="3"/>
+      <c r="E57" s="49"/>
       <c r="F57" s="3"/>
       <c r="G57" s="3"/>
       <c r="H57" s="3"/>
       <c r="I57" s="3"/>
       <c r="J57" s="3"/>
-      <c r="K57" s="51"/>
+      <c r="K57" s="61"/>
     </row>
     <row r="58" spans="1:11">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="D58" s="3"/>
-      <c r="E58" s="3"/>
+      <c r="E58" s="49"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="H58" s="3"/>
       <c r="I58" s="3"/>
       <c r="J58" s="3"/>
-      <c r="K58" s="51"/>
+      <c r="K58" s="61"/>
     </row>
     <row r="59" spans="1:11">
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
       <c r="D59" s="3"/>
-      <c r="E59" s="3"/>
+      <c r="E59" s="49"/>
       <c r="F59" s="3"/>
       <c r="G59" s="3"/>
       <c r="H59" s="3"/>
       <c r="I59" s="3"/>
       <c r="J59" s="3"/>
-      <c r="K59" s="51"/>
+      <c r="K59" s="61"/>
     </row>
     <row r="60" spans="1:11">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="D60" s="3"/>
-      <c r="E60" s="3"/>
+      <c r="E60" s="49"/>
       <c r="F60" s="3"/>
       <c r="G60" s="3"/>
       <c r="H60" s="3"/>
       <c r="I60" s="3"/>
       <c r="J60" s="3"/>
-      <c r="K60" s="51"/>
+      <c r="K60" s="61"/>
     </row>
     <row r="61" spans="1:11">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="D61" s="3"/>
-      <c r="E61" s="3"/>
+      <c r="E61" s="49"/>
       <c r="F61" s="3"/>
       <c r="G61" s="3"/>
       <c r="H61" s="3"/>
       <c r="I61" s="3"/>
       <c r="J61" s="3"/>
-      <c r="K61" s="51"/>
+      <c r="K61" s="61"/>
     </row>
     <row r="62" spans="1:11">
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
       <c r="D62" s="3"/>
-      <c r="E62" s="3"/>
+      <c r="E62" s="49"/>
       <c r="F62" s="3"/>
       <c r="G62" s="3"/>
       <c r="H62" s="3"/>
       <c r="I62" s="3"/>
       <c r="J62" s="3"/>
-      <c r="K62" s="51"/>
+      <c r="K62" s="61"/>
     </row>
     <row r="63" spans="1:11">
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
       <c r="D63" s="3"/>
-      <c r="E63" s="3"/>
+      <c r="E63" s="49"/>
       <c r="F63" s="3"/>
       <c r="G63" s="3"/>
       <c r="H63" s="3"/>
       <c r="I63" s="3"/>
       <c r="J63" s="3"/>
-      <c r="K63" s="51"/>
+      <c r="K63" s="61"/>
     </row>
     <row r="64" spans="1:11">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="D64" s="3"/>
-      <c r="E64" s="3"/>
+      <c r="E64" s="49"/>
       <c r="F64" s="3"/>
       <c r="G64" s="3"/>
       <c r="H64" s="3"/>
       <c r="I64" s="3"/>
       <c r="J64" s="3"/>
-      <c r="K64" s="51"/>
+      <c r="K64" s="61"/>
     </row>
     <row r="65" spans="1:11">
       <c r="A65" s="3"/>
       <c r="B65" s="3"/>
       <c r="D65" s="3"/>
-      <c r="E65" s="3"/>
+      <c r="E65" s="49"/>
       <c r="F65" s="3"/>
       <c r="G65" s="3"/>
       <c r="H65" s="3"/>
       <c r="I65" s="3"/>
       <c r="J65" s="3"/>
-      <c r="K65" s="51"/>
+      <c r="K65" s="61"/>
     </row>
     <row r="66" spans="1:11">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
       <c r="D66" s="3"/>
-      <c r="E66" s="3"/>
+      <c r="E66" s="49"/>
       <c r="F66" s="3"/>
       <c r="G66" s="3"/>
       <c r="H66" s="3"/>
       <c r="I66" s="3"/>
       <c r="J66" s="3"/>
-      <c r="K66" s="51"/>
+      <c r="K66" s="61"/>
     </row>
     <row r="67" spans="1:11">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="D67" s="3"/>
-      <c r="E67" s="3"/>
+      <c r="E67" s="49"/>
       <c r="F67" s="3"/>
       <c r="G67" s="3"/>
       <c r="H67" s="3"/>
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
-      <c r="K67" s="51"/>
+      <c r="K67" s="61"/>
     </row>
     <row r="68" spans="1:11">
       <c r="A68" s="3"/>
       <c r="B68" s="3"/>
       <c r="D68" s="3"/>
-      <c r="E68" s="3"/>
+      <c r="E68" s="49"/>
       <c r="F68" s="3"/>
       <c r="G68" s="3"/>
       <c r="H68" s="3"/>
       <c r="I68" s="3"/>
       <c r="J68" s="3"/>
-      <c r="K68" s="51"/>
+      <c r="K68" s="61"/>
     </row>
     <row r="69" spans="1:11">
       <c r="A69" s="3"/>
       <c r="B69" s="3"/>
       <c r="D69" s="3"/>
-      <c r="E69" s="3"/>
+      <c r="E69" s="49"/>
       <c r="F69" s="3"/>
       <c r="G69" s="3"/>
       <c r="H69" s="3"/>
       <c r="I69" s="3"/>
       <c r="J69" s="3"/>
-      <c r="K69" s="51"/>
+      <c r="K69" s="61"/>
     </row>
     <row r="70" spans="1:11">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="D70" s="3"/>
-      <c r="E70" s="3"/>
+      <c r="E70" s="49"/>
       <c r="F70" s="3"/>
       <c r="G70" s="3"/>
       <c r="H70" s="3"/>
       <c r="I70" s="3"/>
       <c r="J70" s="3"/>
-      <c r="K70" s="51"/>
+      <c r="K70" s="61"/>
     </row>
     <row r="71" spans="1:11">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="D71" s="3"/>
-      <c r="E71" s="3"/>
+      <c r="E71" s="49"/>
       <c r="F71" s="3"/>
       <c r="G71" s="3"/>
       <c r="H71" s="3"/>
       <c r="I71" s="3"/>
       <c r="J71" s="3"/>
-      <c r="K71" s="51"/>
+      <c r="K71" s="61"/>
     </row>
     <row r="72" spans="1:11">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="D72" s="3"/>
-      <c r="E72" s="3"/>
+      <c r="E72" s="49"/>
       <c r="F72" s="3"/>
       <c r="G72" s="3"/>
       <c r="H72" s="3"/>
       <c r="I72" s="3"/>
       <c r="J72" s="3"/>
-      <c r="K72" s="51"/>
+      <c r="K72" s="61"/>
     </row>
     <row r="73" spans="1:11">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="D73" s="3"/>
-      <c r="E73" s="3"/>
+      <c r="E73" s="49"/>
       <c r="F73" s="3"/>
       <c r="G73" s="3"/>
       <c r="H73" s="3"/>
       <c r="I73" s="3"/>
       <c r="J73" s="3"/>
-      <c r="K73" s="51"/>
+      <c r="K73" s="61"/>
     </row>
     <row r="74" spans="1:11">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="D74" s="3"/>
-      <c r="E74" s="3"/>
+      <c r="E74" s="49"/>
       <c r="F74" s="3"/>
       <c r="G74" s="3"/>
       <c r="H74" s="3"/>
       <c r="I74" s="3"/>
       <c r="J74" s="3"/>
-      <c r="K74" s="51"/>
+      <c r="K74" s="61"/>
     </row>
     <row r="75" spans="1:11">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="D75" s="3"/>
-      <c r="E75" s="3"/>
+      <c r="E75" s="49"/>
       <c r="F75" s="3"/>
       <c r="G75" s="3"/>
       <c r="H75" s="3"/>
       <c r="I75" s="3"/>
       <c r="J75" s="3"/>
-      <c r="K75" s="51"/>
+      <c r="K75" s="61"/>
     </row>
     <row r="76" spans="1:11">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="D76" s="3"/>
-      <c r="E76" s="3"/>
+      <c r="E76" s="49"/>
       <c r="F76" s="3"/>
       <c r="G76" s="3"/>
       <c r="H76" s="3"/>
       <c r="I76" s="3"/>
       <c r="J76" s="3"/>
-      <c r="K76" s="51"/>
+      <c r="K76" s="61"/>
     </row>
     <row r="77" spans="1:11">
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
       <c r="D77" s="3"/>
-      <c r="E77" s="3"/>
+      <c r="E77" s="49"/>
       <c r="F77" s="3"/>
       <c r="G77" s="3"/>
       <c r="H77" s="3"/>
       <c r="I77" s="3"/>
       <c r="J77" s="3"/>
-      <c r="K77" s="51"/>
+      <c r="K77" s="61"/>
     </row>
     <row r="78" spans="1:11">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="D78" s="3"/>
-      <c r="E78" s="3"/>
+      <c r="E78" s="49"/>
       <c r="F78" s="3"/>
       <c r="G78" s="3"/>
       <c r="H78" s="3"/>
       <c r="I78" s="3"/>
       <c r="J78" s="3"/>
-      <c r="K78" s="51"/>
+      <c r="K78" s="61"/>
     </row>
     <row r="79" spans="1:11">
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="D79" s="3"/>
-      <c r="E79" s="3"/>
+      <c r="E79" s="49"/>
       <c r="F79" s="3"/>
       <c r="G79" s="3"/>
       <c r="H79" s="3"/>
       <c r="I79" s="3"/>
       <c r="J79" s="3"/>
-      <c r="K79" s="51"/>
+      <c r="K79" s="61"/>
     </row>
     <row r="80" spans="1:11">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
       <c r="D80" s="3"/>
-      <c r="E80" s="3"/>
+      <c r="E80" s="49"/>
       <c r="F80" s="3"/>
       <c r="G80" s="3"/>
       <c r="H80" s="3"/>
       <c r="I80" s="3"/>
       <c r="J80" s="3"/>
-      <c r="K80" s="51"/>
+      <c r="K80" s="61"/>
     </row>
     <row r="81" spans="1:11">
       <c r="A81" s="3"/>
       <c r="B81" s="3"/>
       <c r="D81" s="3"/>
-      <c r="E81" s="3"/>
+      <c r="E81" s="49"/>
       <c r="F81" s="3"/>
       <c r="G81" s="3"/>
       <c r="H81" s="3"/>
       <c r="I81" s="3"/>
       <c r="J81" s="3"/>
-      <c r="K81" s="51"/>
+      <c r="K81" s="61"/>
     </row>
     <row r="82" spans="1:11">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
       <c r="D82" s="3"/>
-      <c r="E82" s="3"/>
+      <c r="E82" s="49"/>
       <c r="F82" s="3"/>
       <c r="G82" s="3"/>
       <c r="H82" s="3"/>
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
-      <c r="K82" s="51"/>
+      <c r="K82" s="61"/>
     </row>
     <row r="83" spans="1:11">
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
       <c r="D83" s="3"/>
-      <c r="E83" s="3"/>
+      <c r="E83" s="49"/>
       <c r="F83" s="3"/>
       <c r="G83" s="3"/>
       <c r="H83" s="3"/>
       <c r="I83" s="3"/>
       <c r="J83" s="3"/>
-      <c r="K83" s="51"/>
+      <c r="K83" s="61"/>
     </row>
     <row r="84" spans="1:11">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
       <c r="D84" s="3"/>
-      <c r="E84" s="3"/>
+      <c r="E84" s="49"/>
       <c r="F84" s="3"/>
       <c r="G84" s="3"/>
       <c r="H84" s="3"/>
       <c r="I84" s="3"/>
       <c r="J84" s="3"/>
-      <c r="K84" s="51"/>
+      <c r="K84" s="61"/>
     </row>
     <row r="85" spans="1:11">
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
       <c r="D85" s="3"/>
-      <c r="E85" s="3"/>
+      <c r="E85" s="49"/>
       <c r="F85" s="3"/>
       <c r="G85" s="3"/>
       <c r="H85" s="3"/>
       <c r="I85" s="3"/>
       <c r="J85" s="3"/>
-      <c r="K85" s="51"/>
+      <c r="K85" s="61"/>
     </row>
     <row r="86" spans="1:11">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
       <c r="D86" s="3"/>
-      <c r="E86" s="3"/>
+      <c r="E86" s="49"/>
       <c r="F86" s="3"/>
       <c r="G86" s="3"/>
       <c r="H86" s="3"/>
       <c r="I86" s="3"/>
       <c r="J86" s="3"/>
-      <c r="K86" s="51"/>
+      <c r="K86" s="61"/>
     </row>
     <row r="87" spans="1:11">
       <c r="A87" s="3"/>
       <c r="B87" s="3"/>
       <c r="D87" s="3"/>
-      <c r="E87" s="3"/>
+      <c r="E87" s="49"/>
       <c r="F87" s="3"/>
       <c r="G87" s="3"/>
       <c r="H87" s="3"/>
       <c r="I87" s="3"/>
       <c r="J87" s="3"/>
-      <c r="K87" s="51"/>
+      <c r="K87" s="61"/>
     </row>
     <row r="88" spans="1:11">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
       <c r="D88" s="3"/>
-      <c r="E88" s="3"/>
+      <c r="E88" s="49"/>
       <c r="F88" s="3"/>
       <c r="G88" s="3"/>
       <c r="H88" s="3"/>
       <c r="I88" s="3"/>
       <c r="J88" s="3"/>
-      <c r="K88" s="51"/>
+      <c r="K88" s="61"/>
     </row>
     <row r="89" spans="1:11">
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
       <c r="D89" s="3"/>
-      <c r="E89" s="3"/>
+      <c r="E89" s="49"/>
       <c r="F89" s="3"/>
       <c r="G89" s="3"/>
       <c r="H89" s="3"/>
       <c r="I89" s="3"/>
       <c r="J89" s="3"/>
-      <c r="K89" s="51"/>
+      <c r="K89" s="61"/>
     </row>
     <row r="90" spans="1:11">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
       <c r="D90" s="3"/>
-      <c r="E90" s="3"/>
+      <c r="E90" s="49"/>
       <c r="F90" s="3"/>
       <c r="G90" s="3"/>
       <c r="H90" s="3"/>
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
-      <c r="K90" s="51"/>
+      <c r="K90" s="61"/>
     </row>
     <row r="91" spans="1:11">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
       <c r="D91" s="3"/>
-      <c r="E91" s="3"/>
+      <c r="E91" s="49"/>
       <c r="F91" s="3"/>
       <c r="G91" s="3"/>
       <c r="H91" s="3"/>
       <c r="I91" s="3"/>
       <c r="J91" s="3"/>
-      <c r="K91" s="51"/>
+      <c r="K91" s="61"/>
     </row>
     <row r="92" spans="1:11">
       <c r="A92" s="3"/>
       <c r="B92" s="3"/>
       <c r="D92" s="3"/>
-      <c r="E92" s="3"/>
+      <c r="E92" s="49"/>
       <c r="F92" s="3"/>
       <c r="G92" s="3"/>
       <c r="H92" s="3"/>
       <c r="I92" s="3"/>
       <c r="J92" s="3"/>
-      <c r="K92" s="51"/>
+      <c r="K92" s="61"/>
     </row>
     <row r="93" spans="1:11">
       <c r="A93" s="3"/>
       <c r="B93" s="3"/>
       <c r="D93" s="3"/>
-      <c r="E93" s="3"/>
+      <c r="E93" s="49"/>
       <c r="F93" s="3"/>
       <c r="G93" s="3"/>
       <c r="H93" s="3"/>
       <c r="I93" s="3"/>
       <c r="J93" s="3"/>
-      <c r="K93" s="51"/>
+      <c r="K93" s="61"/>
     </row>
     <row r="94" spans="1:11">
       <c r="A94" s="3"/>
       <c r="B94" s="3"/>
       <c r="D94" s="3"/>
-      <c r="E94" s="3"/>
+      <c r="E94" s="49"/>
       <c r="F94" s="3"/>
       <c r="G94" s="3"/>
       <c r="H94" s="3"/>
       <c r="I94" s="3"/>
       <c r="J94" s="3"/>
-      <c r="K94" s="51"/>
+      <c r="K94" s="61"/>
     </row>
     <row r="95" spans="1:11">
       <c r="A95" s="3"/>
       <c r="B95" s="3"/>
       <c r="D95" s="3"/>
-      <c r="E95" s="3"/>
+      <c r="E95" s="49"/>
       <c r="F95" s="3"/>
       <c r="G95" s="3"/>
       <c r="H95" s="3"/>
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
-      <c r="K95" s="51"/>
+      <c r="K95" s="61"/>
     </row>
     <row r="96" spans="1:11">
       <c r="A96" s="3"/>
       <c r="B96" s="3"/>
       <c r="D96" s="3"/>
-      <c r="E96" s="3"/>
+      <c r="E96" s="49"/>
       <c r="F96" s="3"/>
       <c r="G96" s="3"/>
       <c r="H96" s="3"/>
       <c r="I96" s="3"/>
       <c r="J96" s="3"/>
-      <c r="K96" s="51"/>
+      <c r="K96" s="61"/>
     </row>
     <row r="97" spans="1:11">
       <c r="A97" s="3"/>
       <c r="B97" s="3"/>
       <c r="D97" s="3"/>
-      <c r="E97" s="3"/>
+      <c r="E97" s="49"/>
       <c r="F97" s="3"/>
       <c r="G97" s="3"/>
       <c r="H97" s="3"/>
       <c r="I97" s="3"/>
       <c r="J97" s="3"/>
-      <c r="K97" s="51"/>
+      <c r="K97" s="61"/>
     </row>
     <row r="98" spans="1:11">
       <c r="A98" s="3"/>
       <c r="B98" s="3"/>
       <c r="D98" s="3"/>
-      <c r="E98" s="3"/>
+      <c r="E98" s="49"/>
       <c r="F98" s="3"/>
       <c r="G98" s="3"/>
       <c r="H98" s="3"/>
       <c r="I98" s="3"/>
       <c r="J98" s="3"/>
-      <c r="K98" s="51"/>
+      <c r="K98" s="61"/>
     </row>
     <row r="99" spans="1:11">
       <c r="A99" s="3"/>
       <c r="B99" s="3"/>
       <c r="D99" s="3"/>
-      <c r="E99" s="3"/>
+      <c r="E99" s="49"/>
       <c r="F99" s="3"/>
       <c r="G99" s="3"/>
       <c r="H99" s="3"/>
       <c r="I99" s="3"/>
       <c r="J99" s="3"/>
-      <c r="K99" s="51"/>
+      <c r="K99" s="61"/>
     </row>
     <row r="100" spans="1:11">
       <c r="A100" s="3"/>
       <c r="B100" s="3"/>
       <c r="D100" s="3"/>
-      <c r="E100" s="3"/>
+      <c r="E100" s="49"/>
       <c r="F100" s="3"/>
       <c r="G100" s="3"/>
       <c r="H100" s="3"/>
       <c r="I100" s="3"/>
       <c r="J100" s="3"/>
-      <c r="K100" s="51"/>
+      <c r="K100" s="61"/>
     </row>
     <row r="101" spans="1:11">
       <c r="A101" s="3"/>
       <c r="B101" s="3"/>
       <c r="D101" s="3"/>
-      <c r="E101" s="3"/>
+      <c r="E101" s="49"/>
       <c r="F101" s="3"/>
       <c r="G101" s="3"/>
       <c r="H101" s="3"/>
       <c r="I101" s="3"/>
       <c r="J101" s="3"/>
-      <c r="K101" s="51"/>
+      <c r="K101" s="61"/>
     </row>
     <row r="102" spans="1:11">
       <c r="A102" s="3"/>
       <c r="B102" s="3"/>
       <c r="D102" s="3"/>
-      <c r="E102" s="3"/>
+      <c r="E102" s="49"/>
       <c r="F102" s="3"/>
       <c r="G102" s="3"/>
       <c r="H102" s="3"/>
       <c r="I102" s="3"/>
       <c r="J102" s="3"/>
-      <c r="K102" s="51"/>
+      <c r="K102" s="61"/>
     </row>
     <row r="103" spans="1:11">
       <c r="A103" s="3"/>
       <c r="B103" s="3"/>
       <c r="D103" s="3"/>
-      <c r="E103" s="3"/>
+      <c r="E103" s="49"/>
       <c r="F103" s="3"/>
       <c r="G103" s="3"/>
       <c r="H103" s="3"/>
       <c r="I103" s="3"/>
       <c r="J103" s="3"/>
-      <c r="K103" s="51"/>
+      <c r="K103" s="61"/>
     </row>
     <row r="104" spans="1:11">
       <c r="A104" s="3"/>
       <c r="B104" s="3"/>
       <c r="D104" s="3"/>
-      <c r="E104" s="3"/>
+      <c r="E104" s="49"/>
       <c r="F104" s="3"/>
       <c r="G104" s="3"/>
       <c r="H104" s="3"/>
       <c r="I104" s="3"/>
       <c r="J104" s="3"/>
-      <c r="K104" s="51"/>
+      <c r="K104" s="61"/>
     </row>
     <row r="105" spans="1:11">
       <c r="A105" s="3"/>
       <c r="B105" s="3"/>
       <c r="D105" s="3"/>
-      <c r="E105" s="3"/>
+      <c r="E105" s="49"/>
       <c r="F105" s="3"/>
       <c r="G105" s="3"/>
       <c r="H105" s="3"/>
       <c r="I105" s="3"/>
       <c r="J105" s="3"/>
-      <c r="K105" s="51"/>
+      <c r="K105" s="61"/>
     </row>
     <row r="106" spans="1:11">
       <c r="A106" s="3"/>
       <c r="B106" s="3"/>
       <c r="D106" s="3"/>
-      <c r="E106" s="3"/>
+      <c r="E106" s="49"/>
       <c r="F106" s="3"/>
       <c r="G106" s="3"/>
       <c r="H106" s="3"/>
       <c r="I106" s="3"/>
       <c r="J106" s="3"/>
-      <c r="K106" s="51"/>
+      <c r="K106" s="61"/>
     </row>
     <row r="107" spans="1:11">
       <c r="A107" s="3"/>
       <c r="B107" s="3"/>
       <c r="D107" s="3"/>
-      <c r="E107" s="3"/>
+      <c r="E107" s="49"/>
       <c r="F107" s="3"/>
       <c r="G107" s="3"/>
       <c r="H107" s="3"/>
       <c r="I107" s="3"/>
       <c r="J107" s="3"/>
-      <c r="K107" s="51"/>
+      <c r="K107" s="61"/>
     </row>
     <row r="108" spans="1:11">
       <c r="A108" s="3"/>
       <c r="B108" s="3"/>
       <c r="D108" s="3"/>
-      <c r="E108" s="3"/>
+      <c r="E108" s="49"/>
       <c r="F108" s="3"/>
       <c r="G108" s="3"/>
       <c r="H108" s="3"/>
       <c r="I108" s="3"/>
       <c r="J108" s="3"/>
-      <c r="K108" s="51"/>
+      <c r="K108" s="61"/>
     </row>
     <row r="109" spans="1:11">
       <c r="A109" s="3"/>
       <c r="B109" s="3"/>
       <c r="D109" s="3"/>
-      <c r="E109" s="3"/>
+      <c r="E109" s="49"/>
       <c r="F109" s="3"/>
       <c r="G109" s="3"/>
       <c r="H109" s="3"/>
       <c r="I109" s="3"/>
       <c r="J109" s="3"/>
-      <c r="K109" s="51"/>
+      <c r="K109" s="61"/>
     </row>
     <row r="110" spans="1:11">
       <c r="A110" s="3"/>
       <c r="B110" s="3"/>
       <c r="D110" s="3"/>
-      <c r="E110" s="3"/>
+      <c r="E110" s="49"/>
       <c r="F110" s="3"/>
       <c r="G110" s="3"/>
       <c r="H110" s="3"/>
       <c r="I110" s="3"/>
       <c r="J110" s="3"/>
-      <c r="K110" s="51"/>
+      <c r="K110" s="61"/>
     </row>
     <row r="111" spans="1:11">
       <c r="A111" s="3"/>
       <c r="B111" s="3"/>
       <c r="D111" s="3"/>
-      <c r="E111" s="3"/>
+      <c r="E111" s="49"/>
       <c r="F111" s="3"/>
       <c r="G111" s="3"/>
       <c r="H111" s="3"/>
       <c r="I111" s="3"/>
       <c r="J111" s="3"/>
-      <c r="K111" s="51"/>
+      <c r="K111" s="61"/>
     </row>
     <row r="112" spans="1:11">
       <c r="A112" s="3"/>
       <c r="B112" s="3"/>
       <c r="D112" s="3"/>
-      <c r="E112" s="3"/>
+      <c r="E112" s="49"/>
       <c r="F112" s="3"/>
       <c r="G112" s="3"/>
       <c r="H112" s="3"/>
       <c r="I112" s="3"/>
       <c r="J112" s="3"/>
-      <c r="K112" s="51"/>
+      <c r="K112" s="61"/>
     </row>
     <row r="113" spans="1:11">
       <c r="A113" s="3"/>
       <c r="B113" s="3"/>
       <c r="D113" s="3"/>
-      <c r="E113" s="3"/>
+      <c r="E113" s="49"/>
       <c r="F113" s="3"/>
       <c r="G113" s="3"/>
       <c r="H113" s="3"/>
       <c r="I113" s="3"/>
       <c r="J113" s="3"/>
-      <c r="K113" s="51"/>
+      <c r="K113" s="61"/>
     </row>
     <row r="114" spans="1:11">
       <c r="A114" s="3"/>
       <c r="B114" s="3"/>
       <c r="D114" s="3"/>
-      <c r="E114" s="3"/>
+      <c r="E114" s="49"/>
       <c r="F114" s="3"/>
       <c r="G114" s="3"/>
       <c r="H114" s="3"/>
       <c r="I114" s="3"/>
       <c r="J114" s="3"/>
-      <c r="K114" s="51"/>
+      <c r="K114" s="61"/>
     </row>
     <row r="115" spans="1:11">
       <c r="A115" s="3"/>
       <c r="B115" s="3"/>
       <c r="D115" s="3"/>
-      <c r="E115" s="3"/>
+      <c r="E115" s="49"/>
       <c r="F115" s="3"/>
       <c r="G115" s="3"/>
       <c r="H115" s="3"/>
       <c r="I115" s="3"/>
       <c r="J115" s="3"/>
-      <c r="K115" s="51"/>
+      <c r="K115" s="61"/>
     </row>
     <row r="116" spans="1:11">
       <c r="A116" s="3"/>
       <c r="B116" s="3"/>
       <c r="D116" s="3"/>
-      <c r="E116" s="3"/>
+      <c r="E116" s="49"/>
       <c r="F116" s="3"/>
       <c r="G116" s="3"/>
       <c r="H116" s="3"/>
       <c r="I116" s="3"/>
       <c r="J116" s="3"/>
-      <c r="K116" s="51"/>
+      <c r="K116" s="61"/>
     </row>
     <row r="117" spans="1:11">
       <c r="A117" s="3"/>
       <c r="B117" s="3"/>
       <c r="D117" s="3"/>
-      <c r="E117" s="3"/>
+      <c r="E117" s="49"/>
       <c r="F117" s="3"/>
       <c r="G117" s="3"/>
       <c r="H117" s="3"/>
       <c r="I117" s="3"/>
       <c r="J117" s="3"/>
-      <c r="K117" s="51"/>
+      <c r="K117" s="61"/>
     </row>
     <row r="118" spans="1:11">
       <c r="A118" s="3"/>
       <c r="B118" s="3"/>
       <c r="D118" s="3"/>
-      <c r="E118" s="3"/>
+      <c r="E118" s="49"/>
       <c r="F118" s="3"/>
       <c r="G118" s="3"/>
       <c r="H118" s="3"/>
       <c r="I118" s="3"/>
       <c r="J118" s="3"/>
-      <c r="K118" s="51"/>
+      <c r="K118" s="61"/>
     </row>
     <row r="119" spans="1:11">
       <c r="A119" s="3"/>
       <c r="B119" s="3"/>
       <c r="D119" s="3"/>
-      <c r="E119" s="3"/>
+      <c r="E119" s="49"/>
       <c r="F119" s="3"/>
       <c r="G119" s="3"/>
       <c r="H119" s="3"/>
       <c r="I119" s="3"/>
       <c r="J119" s="3"/>
-      <c r="K119" s="51"/>
+      <c r="K119" s="61"/>
     </row>
     <row r="120" spans="1:11">
       <c r="A120" s="3"/>
       <c r="B120" s="3"/>
       <c r="D120" s="3"/>
-      <c r="E120" s="3"/>
+      <c r="E120" s="49"/>
       <c r="F120" s="3"/>
       <c r="G120" s="3"/>
       <c r="H120" s="3"/>
       <c r="I120" s="3"/>
       <c r="J120" s="3"/>
-      <c r="K120" s="51"/>
+      <c r="K120" s="61"/>
     </row>
     <row r="121" spans="1:11">
       <c r="A121" s="3"/>
       <c r="B121" s="3"/>
       <c r="D121" s="3"/>
-      <c r="E121" s="3"/>
+      <c r="E121" s="49"/>
       <c r="F121" s="3"/>
       <c r="G121" s="3"/>
       <c r="H121" s="3"/>
       <c r="I121" s="3"/>
       <c r="J121" s="3"/>
-      <c r="K121" s="51"/>
+      <c r="K121" s="61"/>
     </row>
     <row r="122" spans="1:11">
       <c r="A122" s="3"/>
       <c r="B122" s="3"/>
       <c r="D122" s="3"/>
-      <c r="E122" s="3"/>
+      <c r="E122" s="49"/>
       <c r="F122" s="3"/>
       <c r="G122" s="3"/>
       <c r="H122" s="3"/>
       <c r="I122" s="3"/>
       <c r="J122" s="3"/>
-      <c r="K122" s="51"/>
+      <c r="K122" s="61"/>
     </row>
     <row r="123" spans="1:11">
       <c r="A123" s="3"/>
       <c r="B123" s="3"/>
       <c r="D123" s="3"/>
-      <c r="E123" s="3"/>
+      <c r="E123" s="49"/>
       <c r="F123" s="3"/>
       <c r="G123" s="3"/>
       <c r="H123" s="3"/>
       <c r="I123" s="3"/>
       <c r="J123" s="3"/>
-      <c r="K123" s="51"/>
+      <c r="K123" s="61"/>
     </row>
     <row r="124" spans="1:11">
       <c r="A124" s="3"/>
       <c r="B124" s="3"/>
       <c r="D124" s="3"/>
-      <c r="E124" s="3"/>
+      <c r="E124" s="49"/>
       <c r="F124" s="3"/>
       <c r="G124" s="3"/>
       <c r="H124" s="3"/>
       <c r="I124" s="3"/>
       <c r="J124" s="3"/>
-      <c r="K124" s="51"/>
+      <c r="K124" s="61"/>
     </row>
     <row r="125" spans="1:11">
       <c r="A125" s="3"/>
       <c r="B125" s="3"/>
       <c r="D125" s="3"/>
-      <c r="E125" s="3"/>
+      <c r="E125" s="49"/>
       <c r="F125" s="3"/>
       <c r="G125" s="3"/>
       <c r="H125" s="3"/>
       <c r="I125" s="3"/>
       <c r="J125" s="3"/>
-      <c r="K125" s="51"/>
+      <c r="K125" s="61"/>
     </row>
     <row r="126" spans="1:11">
       <c r="A126" s="3"/>
       <c r="B126" s="3"/>
       <c r="D126" s="3"/>
-      <c r="E126" s="3"/>
+      <c r="E126" s="49"/>
       <c r="F126" s="3"/>
       <c r="G126" s="3"/>
       <c r="H126" s="3"/>
       <c r="I126" s="3"/>
       <c r="J126" s="3"/>
-      <c r="K126" s="51"/>
+      <c r="K126" s="61"/>
     </row>
     <row r="127" spans="1:11">
       <c r="A127" s="3"/>
       <c r="B127" s="3"/>
       <c r="D127" s="3"/>
-      <c r="E127" s="3"/>
+      <c r="E127" s="49"/>
       <c r="F127" s="3"/>
       <c r="G127" s="3"/>
       <c r="H127" s="3"/>
       <c r="I127" s="3"/>
       <c r="J127" s="3"/>
-      <c r="K127" s="51"/>
+      <c r="K127" s="61"/>
     </row>
     <row r="128" spans="1:11">
       <c r="A128" s="3"/>
       <c r="B128" s="3"/>
       <c r="D128" s="3"/>
-      <c r="E128" s="3"/>
+      <c r="E128" s="49"/>
       <c r="F128" s="3"/>
       <c r="G128" s="3"/>
       <c r="H128" s="3"/>
       <c r="I128" s="3"/>
       <c r="J128" s="3"/>
-      <c r="K128" s="51"/>
+      <c r="K128" s="61"/>
     </row>
     <row r="129" spans="1:11">
       <c r="A129" s="3"/>
       <c r="B129" s="3"/>
       <c r="D129" s="3"/>
-      <c r="E129" s="3"/>
+      <c r="E129" s="49"/>
       <c r="F129" s="3"/>
       <c r="G129" s="3"/>
       <c r="H129" s="3"/>
       <c r="I129" s="3"/>
       <c r="J129" s="3"/>
-      <c r="K129" s="51"/>
+      <c r="K129" s="61"/>
     </row>
     <row r="130" spans="1:11">
       <c r="A130" s="3"/>
       <c r="B130" s="3"/>
       <c r="D130" s="3"/>
-      <c r="E130" s="3"/>
+      <c r="E130" s="49"/>
       <c r="F130" s="3"/>
       <c r="G130" s="3"/>
       <c r="H130" s="3"/>
       <c r="I130" s="3"/>
       <c r="J130" s="3"/>
-      <c r="K130" s="51"/>
+      <c r="K130" s="61"/>
     </row>
     <row r="131" spans="1:11">
       <c r="A131" s="3"/>
       <c r="B131" s="3"/>
       <c r="D131" s="3"/>
-      <c r="E131" s="3"/>
+      <c r="E131" s="49"/>
       <c r="F131" s="3"/>
       <c r="G131" s="3"/>
       <c r="H131" s="3"/>
       <c r="I131" s="3"/>
       <c r="J131" s="3"/>
-      <c r="K131" s="51"/>
+      <c r="K131" s="61"/>
     </row>
     <row r="132" spans="1:11">
       <c r="A132" s="3"/>
       <c r="B132" s="3"/>
       <c r="D132" s="3"/>
-      <c r="E132" s="3"/>
+      <c r="E132" s="49"/>
       <c r="F132" s="3"/>
       <c r="G132" s="3"/>
       <c r="H132" s="3"/>
       <c r="I132" s="3"/>
       <c r="J132" s="3"/>
-      <c r="K132" s="51"/>
+      <c r="K132" s="61"/>
     </row>
     <row r="133" spans="1:11">
       <c r="A133" s="3"/>
       <c r="B133" s="3"/>
       <c r="D133" s="3"/>
-      <c r="E133" s="3"/>
+      <c r="E133" s="49"/>
       <c r="F133" s="3"/>
       <c r="G133" s="3"/>
       <c r="H133" s="3"/>
       <c r="I133" s="3"/>
       <c r="J133" s="3"/>
-      <c r="K133" s="51"/>
+      <c r="K133" s="61"/>
     </row>
     <row r="134" spans="1:11">
       <c r="A134" s="3"/>
       <c r="B134" s="3"/>
       <c r="D134" s="3"/>
-      <c r="E134" s="3"/>
+      <c r="E134" s="49"/>
       <c r="F134" s="3"/>
       <c r="G134" s="3"/>
       <c r="H134" s="3"/>
       <c r="I134" s="3"/>
       <c r="J134" s="3"/>
-      <c r="K134" s="51"/>
+      <c r="K134" s="61"/>
     </row>
     <row r="135" spans="1:11">
       <c r="A135" s="3"/>
       <c r="B135" s="3"/>
       <c r="D135" s="3"/>
-      <c r="E135" s="3"/>
+      <c r="E135" s="49"/>
       <c r="F135" s="3"/>
       <c r="G135" s="3"/>
       <c r="H135" s="3"/>
       <c r="I135" s="3"/>
       <c r="J135" s="3"/>
-      <c r="K135" s="51"/>
+      <c r="K135" s="61"/>
     </row>
     <row r="136" spans="1:11">
       <c r="A136" s="3"/>
       <c r="B136" s="3"/>
       <c r="D136" s="3"/>
-      <c r="E136" s="3"/>
+      <c r="E136" s="49"/>
       <c r="F136" s="3"/>
       <c r="G136" s="3"/>
       <c r="H136" s="3"/>
       <c r="I136" s="3"/>
       <c r="J136" s="3"/>
-      <c r="K136" s="51"/>
+      <c r="K136" s="61"/>
     </row>
     <row r="137" spans="1:11">
       <c r="A137" s="3"/>
       <c r="B137" s="3"/>
       <c r="D137" s="3"/>
-      <c r="E137" s="3"/>
+      <c r="E137" s="49"/>
       <c r="F137" s="3"/>
       <c r="G137" s="3"/>
       <c r="H137" s="3"/>
       <c r="I137" s="3"/>
       <c r="J137" s="3"/>
-      <c r="K137" s="51"/>
+      <c r="K137" s="61"/>
     </row>
     <row r="138" spans="1:11">
       <c r="A138" s="3"/>
       <c r="B138" s="3"/>
       <c r="D138" s="3"/>
-      <c r="E138" s="3"/>
+      <c r="E138" s="49"/>
       <c r="F138" s="3"/>
       <c r="G138" s="3"/>
       <c r="H138" s="3"/>
       <c r="I138" s="3"/>
       <c r="J138" s="3"/>
-      <c r="K138" s="51"/>
+      <c r="K138" s="61"/>
     </row>
     <row r="139" spans="1:11">
       <c r="A139" s="3"/>
       <c r="B139" s="3"/>
       <c r="D139" s="3"/>
-      <c r="E139" s="3"/>
+      <c r="E139" s="49"/>
       <c r="F139" s="3"/>
       <c r="G139" s="3"/>
       <c r="H139" s="3"/>
       <c r="I139" s="3"/>
       <c r="J139" s="3"/>
-      <c r="K139" s="51"/>
+      <c r="K139" s="61"/>
     </row>
     <row r="140" spans="1:11">
       <c r="A140" s="3"/>
       <c r="B140" s="3"/>
       <c r="D140" s="3"/>
-      <c r="E140" s="3"/>
+      <c r="E140" s="49"/>
       <c r="F140" s="3"/>
       <c r="G140" s="3"/>
       <c r="H140" s="3"/>
       <c r="I140" s="3"/>
       <c r="J140" s="3"/>
-      <c r="K140" s="51"/>
+      <c r="K140" s="61"/>
     </row>
     <row r="141" spans="1:11">
       <c r="A141" s="3"/>
       <c r="B141" s="3"/>
       <c r="D141" s="3"/>
-      <c r="E141" s="3"/>
+      <c r="E141" s="49"/>
       <c r="F141" s="3"/>
       <c r="G141" s="3"/>
       <c r="H141" s="3"/>
       <c r="I141" s="3"/>
       <c r="J141" s="3"/>
-      <c r="K141" s="51"/>
+      <c r="K141" s="61"/>
     </row>
     <row r="142" spans="1:11">
       <c r="A142" s="3"/>
       <c r="B142" s="3"/>
       <c r="D142" s="3"/>
-      <c r="E142" s="3"/>
+      <c r="E142" s="49"/>
       <c r="F142" s="3"/>
       <c r="G142" s="3"/>
       <c r="H142" s="3"/>
       <c r="I142" s="3"/>
       <c r="J142" s="3"/>
-      <c r="K142" s="51"/>
+      <c r="K142" s="61"/>
     </row>
     <row r="143" spans="1:11">
       <c r="A143" s="3"/>
       <c r="B143" s="3"/>
       <c r="D143" s="3"/>
-      <c r="E143" s="3"/>
+      <c r="E143" s="49"/>
       <c r="F143" s="3"/>
       <c r="G143" s="3"/>
       <c r="H143" s="3"/>
       <c r="I143" s="3"/>
       <c r="J143" s="3"/>
-      <c r="K143" s="51"/>
+      <c r="K143" s="61"/>
     </row>
     <row r="144" spans="1:11">
       <c r="A144" s="3"/>
       <c r="B144" s="3"/>
       <c r="D144" s="3"/>
-      <c r="E144" s="3"/>
+      <c r="E144" s="49"/>
       <c r="F144" s="3"/>
       <c r="G144" s="3"/>
       <c r="H144" s="3"/>
       <c r="I144" s="3"/>
       <c r="J144" s="3"/>
-      <c r="K144" s="51"/>
+      <c r="K144" s="61"/>
     </row>
     <row r="145" spans="1:11">
       <c r="A145" s="3"/>
       <c r="B145" s="3"/>
       <c r="D145" s="3"/>
-      <c r="E145" s="3"/>
+      <c r="E145" s="49"/>
       <c r="F145" s="3"/>
       <c r="G145" s="3"/>
       <c r="H145" s="3"/>
       <c r="I145" s="3"/>
       <c r="J145" s="3"/>
-      <c r="K145" s="51"/>
+      <c r="K145" s="61"/>
     </row>
     <row r="146" spans="1:11">
       <c r="A146" s="3"/>
       <c r="B146" s="3"/>
       <c r="D146" s="3"/>
-      <c r="E146" s="3"/>
+      <c r="E146" s="49"/>
       <c r="F146" s="3"/>
       <c r="G146" s="3"/>
       <c r="H146" s="3"/>
       <c r="I146" s="3"/>
       <c r="J146" s="3"/>
-      <c r="K146" s="51"/>
+      <c r="K146" s="61"/>
     </row>
     <row r="147" spans="1:11">
       <c r="A147" s="3"/>
       <c r="B147" s="3"/>
       <c r="D147" s="3"/>
-      <c r="E147" s="3"/>
+      <c r="E147" s="49"/>
       <c r="F147" s="3"/>
       <c r="G147" s="3"/>
       <c r="H147" s="3"/>
       <c r="I147" s="3"/>
       <c r="J147" s="3"/>
-      <c r="K147" s="51"/>
+      <c r="K147" s="61"/>
     </row>
     <row r="148" spans="1:11">
       <c r="A148" s="3"/>
       <c r="B148" s="3"/>
       <c r="D148" s="3"/>
-      <c r="E148" s="3"/>
+      <c r="E148" s="49"/>
       <c r="F148" s="3"/>
       <c r="G148" s="3"/>
       <c r="H148" s="3"/>
       <c r="I148" s="3"/>
       <c r="J148" s="3"/>
-      <c r="K148" s="51"/>
+      <c r="K148" s="61"/>
     </row>
     <row r="149" spans="1:11">
       <c r="A149" s="3"/>
       <c r="B149" s="3"/>
       <c r="D149" s="3"/>
-      <c r="E149" s="3"/>
+      <c r="E149" s="49"/>
       <c r="F149" s="3"/>
       <c r="G149" s="3"/>
       <c r="H149" s="3"/>
       <c r="I149" s="3"/>
       <c r="J149" s="3"/>
-      <c r="K149" s="51"/>
+      <c r="K149" s="61"/>
     </row>
     <row r="150" spans="1:11">
       <c r="A150" s="3"/>
       <c r="B150" s="3"/>
       <c r="D150" s="3"/>
-      <c r="E150" s="3"/>
+      <c r="E150" s="49"/>
       <c r="F150" s="3"/>
       <c r="G150" s="3"/>
       <c r="H150" s="3"/>
       <c r="I150" s="3"/>
       <c r="J150" s="3"/>
-      <c r="K150" s="51"/>
+      <c r="K150" s="61"/>
     </row>
     <row r="151" spans="1:11">
       <c r="A151" s="3"/>
       <c r="B151" s="3"/>
       <c r="D151" s="3"/>
-      <c r="E151" s="3"/>
+      <c r="E151" s="49"/>
       <c r="F151" s="3"/>
       <c r="G151" s="3"/>
       <c r="H151" s="3"/>
       <c r="I151" s="3"/>
       <c r="J151" s="3"/>
-      <c r="K151" s="51"/>
+      <c r="K151" s="61"/>
     </row>
     <row r="152" spans="1:11">
       <c r="A152" s="3"/>
       <c r="B152" s="3"/>
       <c r="D152" s="3"/>
-      <c r="E152" s="3"/>
+      <c r="E152" s="49"/>
       <c r="F152" s="3"/>
       <c r="G152" s="3"/>
       <c r="H152" s="3"/>
       <c r="I152" s="3"/>
       <c r="J152" s="3"/>
-      <c r="K152" s="51"/>
+      <c r="K152" s="61"/>
     </row>
     <row r="153" spans="1:11">
       <c r="A153" s="3"/>
       <c r="B153" s="3"/>
       <c r="D153" s="3"/>
-      <c r="E153" s="3"/>
+      <c r="E153" s="49"/>
       <c r="F153" s="3"/>
       <c r="G153" s="3"/>
       <c r="H153" s="3"/>
       <c r="I153" s="3"/>
       <c r="J153" s="3"/>
-      <c r="K153" s="51"/>
+      <c r="K153" s="61"/>
     </row>
     <row r="154" spans="1:11">
       <c r="A154" s="3"/>
       <c r="B154" s="3"/>
       <c r="D154" s="3"/>
-      <c r="E154" s="3"/>
+      <c r="E154" s="49"/>
       <c r="F154" s="3"/>
       <c r="G154" s="3"/>
       <c r="H154" s="3"/>
       <c r="I154" s="3"/>
       <c r="J154" s="3"/>
-      <c r="K154" s="51"/>
+      <c r="K154" s="61"/>
     </row>
     <row r="155" spans="1:11">
       <c r="A155" s="3"/>
       <c r="B155" s="3"/>
       <c r="D155" s="3"/>
-      <c r="E155" s="3"/>
+      <c r="E155" s="49"/>
       <c r="F155" s="3"/>
       <c r="G155" s="3"/>
       <c r="H155" s="3"/>
       <c r="I155" s="3"/>
       <c r="J155" s="3"/>
-      <c r="K155" s="51"/>
+      <c r="K155" s="61"/>
     </row>
     <row r="156" spans="1:11">
       <c r="A156" s="3"/>
       <c r="B156" s="3"/>
       <c r="D156" s="3"/>
-      <c r="E156" s="3"/>
+      <c r="E156" s="49"/>
       <c r="F156" s="3"/>
       <c r="G156" s="3"/>
       <c r="H156" s="3"/>
       <c r="I156" s="3"/>
       <c r="J156" s="3"/>
-      <c r="K156" s="51"/>
+      <c r="K156" s="61"/>
     </row>
     <row r="157" spans="1:11">
       <c r="A157" s="3"/>
       <c r="B157" s="3"/>
       <c r="D157" s="3"/>
-      <c r="E157" s="3"/>
+      <c r="E157" s="49"/>
       <c r="F157" s="3"/>
       <c r="G157" s="3"/>
       <c r="H157" s="3"/>
       <c r="I157" s="3"/>
       <c r="J157" s="3"/>
-      <c r="K157" s="51"/>
+      <c r="K157" s="61"/>
     </row>
     <row r="158" spans="1:11">
       <c r="A158" s="3"/>
       <c r="B158" s="3"/>
       <c r="D158" s="3"/>
-      <c r="E158" s="3"/>
+      <c r="E158" s="49"/>
       <c r="F158" s="3"/>
       <c r="G158" s="3"/>
       <c r="H158" s="3"/>
       <c r="I158" s="3"/>
       <c r="J158" s="3"/>
-      <c r="K158" s="51"/>
+      <c r="K158" s="61"/>
     </row>
     <row r="159" spans="1:11">
       <c r="A159" s="3"/>
       <c r="B159" s="3"/>
       <c r="D159" s="3"/>
-      <c r="E159" s="3"/>
+      <c r="E159" s="49"/>
       <c r="F159" s="3"/>
       <c r="G159" s="3"/>
       <c r="H159" s="3"/>
       <c r="I159" s="3"/>
       <c r="J159" s="3"/>
-      <c r="K159" s="51"/>
+      <c r="K159" s="61"/>
     </row>
     <row r="160" spans="1:11">
       <c r="A160" s="3"/>
       <c r="B160" s="3"/>
       <c r="D160" s="3"/>
-      <c r="E160" s="3"/>
+      <c r="E160" s="49"/>
       <c r="F160" s="3"/>
       <c r="G160" s="3"/>
       <c r="H160" s="3"/>
       <c r="I160" s="3"/>
       <c r="J160" s="3"/>
-      <c r="K160" s="51"/>
+      <c r="K160" s="61"/>
     </row>
     <row r="161" spans="1:11">
       <c r="A161" s="3"/>
       <c r="B161" s="3"/>
       <c r="D161" s="3"/>
-      <c r="E161" s="3"/>
+      <c r="E161" s="49"/>
       <c r="F161" s="3"/>
       <c r="G161" s="3"/>
       <c r="H161" s="3"/>
       <c r="I161" s="3"/>
       <c r="J161" s="3"/>
-      <c r="K161" s="51"/>
+      <c r="K161" s="61"/>
     </row>
     <row r="162" spans="1:11">
       <c r="A162" s="3"/>
       <c r="B162" s="3"/>
       <c r="D162" s="3"/>
-      <c r="E162" s="3"/>
+      <c r="E162" s="49"/>
       <c r="F162" s="3"/>
       <c r="G162" s="3"/>
       <c r="H162" s="3"/>
       <c r="I162" s="3"/>
       <c r="J162" s="3"/>
-      <c r="K162" s="51"/>
+      <c r="K162" s="61"/>
     </row>
     <row r="163" spans="1:11">
       <c r="A163" s="3"/>
       <c r="B163" s="3"/>
       <c r="D163" s="3"/>
-      <c r="E163" s="3"/>
+      <c r="E163" s="49"/>
       <c r="F163" s="3"/>
       <c r="G163" s="3"/>
       <c r="H163" s="3"/>
       <c r="I163" s="3"/>
       <c r="J163" s="3"/>
-      <c r="K163" s="51"/>
+      <c r="K163" s="61"/>
     </row>
     <row r="164" spans="1:11">
       <c r="A164" s="3"/>
       <c r="B164" s="3"/>
       <c r="D164" s="3"/>
-      <c r="E164" s="3"/>
+      <c r="E164" s="49"/>
       <c r="F164" s="3"/>
       <c r="G164" s="3"/>
       <c r="H164" s="3"/>
       <c r="I164" s="3"/>
       <c r="J164" s="3"/>
-      <c r="K164" s="51"/>
+      <c r="K164" s="61"/>
     </row>
     <row r="165" spans="1:11">
       <c r="A165" s="3"/>
       <c r="B165" s="3"/>
       <c r="D165" s="3"/>
-      <c r="E165" s="3"/>
+      <c r="E165" s="49"/>
       <c r="F165" s="3"/>
       <c r="G165" s="3"/>
       <c r="H165" s="3"/>
       <c r="I165" s="3"/>
       <c r="J165" s="3"/>
-      <c r="K165" s="51"/>
+      <c r="K165" s="61"/>
     </row>
     <row r="166" spans="1:11">
       <c r="A166" s="3"/>
       <c r="B166" s="3"/>
       <c r="D166" s="3"/>
-      <c r="E166" s="3"/>
+      <c r="E166" s="49"/>
       <c r="F166" s="3"/>
       <c r="G166" s="3"/>
       <c r="H166" s="3"/>
       <c r="I166" s="3"/>
       <c r="J166" s="3"/>
-      <c r="K166" s="51"/>
+      <c r="K166" s="61"/>
     </row>
     <row r="167" spans="1:11">
       <c r="A167" s="3"/>
       <c r="B167" s="3"/>
       <c r="D167" s="3"/>
-      <c r="E167" s="3"/>
+      <c r="E167" s="49"/>
       <c r="F167" s="3"/>
       <c r="G167" s="3"/>
       <c r="H167" s="3"/>
       <c r="I167" s="3"/>
       <c r="J167" s="3"/>
-      <c r="K167" s="51"/>
+      <c r="K167" s="61"/>
     </row>
     <row r="168" spans="1:11">
       <c r="A168" s="3"/>
       <c r="B168" s="3"/>
       <c r="D168" s="3"/>
-      <c r="E168" s="3"/>
+      <c r="E168" s="49"/>
       <c r="F168" s="3"/>
       <c r="G168" s="3"/>
       <c r="H168" s="3"/>
       <c r="I168" s="3"/>
       <c r="J168" s="3"/>
-      <c r="K168" s="51"/>
+      <c r="K168" s="61"/>
     </row>
     <row r="169" spans="1:11">
       <c r="A169" s="3"/>
       <c r="B169" s="3"/>
       <c r="D169" s="3"/>
-      <c r="E169" s="3"/>
+      <c r="E169" s="49"/>
       <c r="F169" s="3"/>
       <c r="G169" s="3"/>
       <c r="H169" s="3"/>
       <c r="I169" s="3"/>
       <c r="J169" s="3"/>
-      <c r="K169" s="51"/>
+      <c r="K169" s="61"/>
     </row>
     <row r="170" spans="1:11">
       <c r="A170" s="3"/>
       <c r="B170" s="3"/>
       <c r="D170" s="3"/>
-      <c r="E170" s="3"/>
+      <c r="E170" s="49"/>
       <c r="F170" s="3"/>
       <c r="G170" s="3"/>
       <c r="H170" s="3"/>
       <c r="I170" s="3"/>
       <c r="J170" s="3"/>
-      <c r="K170" s="51"/>
+      <c r="K170" s="61"/>
     </row>
     <row r="171" spans="1:11">
       <c r="A171" s="3"/>
       <c r="B171" s="3"/>
       <c r="D171" s="3"/>
-      <c r="E171" s="3"/>
+      <c r="E171" s="49"/>
       <c r="F171" s="3"/>
       <c r="G171" s="3"/>
       <c r="H171" s="3"/>
       <c r="I171" s="3"/>
       <c r="J171" s="3"/>
-      <c r="K171" s="51"/>
+      <c r="K171" s="61"/>
     </row>
     <row r="172" spans="1:11">
       <c r="A172" s="3"/>
       <c r="B172" s="3"/>
       <c r="D172" s="3"/>
-      <c r="E172" s="3"/>
+      <c r="E172" s="49"/>
       <c r="F172" s="3"/>
       <c r="G172" s="3"/>
       <c r="H172" s="3"/>
       <c r="I172" s="3"/>
       <c r="J172" s="3"/>
-      <c r="K172" s="51"/>
+      <c r="K172" s="61"/>
     </row>
     <row r="173" spans="1:11">
       <c r="A173" s="3"/>
       <c r="B173" s="3"/>
       <c r="D173" s="3"/>
-      <c r="E173" s="3"/>
+      <c r="E173" s="49"/>
       <c r="F173" s="3"/>
       <c r="G173" s="3"/>
       <c r="H173" s="3"/>
       <c r="I173" s="3"/>
       <c r="J173" s="3"/>
-      <c r="K173" s="51"/>
+      <c r="K173" s="61"/>
     </row>
     <row r="174" spans="1:11">
       <c r="A174" s="3"/>
       <c r="B174" s="3"/>
       <c r="D174" s="3"/>
-      <c r="E174" s="3"/>
+      <c r="E174" s="49"/>
       <c r="F174" s="3"/>
       <c r="G174" s="3"/>
       <c r="H174" s="3"/>
       <c r="I174" s="3"/>
       <c r="J174" s="3"/>
-      <c r="K174" s="51"/>
+      <c r="K174" s="61"/>
     </row>
     <row r="175" spans="1:11">
       <c r="A175" s="3"/>
       <c r="B175" s="3"/>
       <c r="D175" s="3"/>
-      <c r="E175" s="3"/>
+      <c r="E175" s="49"/>
       <c r="F175" s="3"/>
       <c r="G175" s="3"/>
       <c r="H175" s="3"/>
       <c r="I175" s="3"/>
       <c r="J175" s="3"/>
-      <c r="K175" s="51"/>
+      <c r="K175" s="61"/>
     </row>
     <row r="176" spans="1:11">
       <c r="A176" s="3"/>
       <c r="B176" s="3"/>
       <c r="D176" s="3"/>
-      <c r="E176" s="3"/>
+      <c r="E176" s="49"/>
       <c r="F176" s="3"/>
       <c r="G176" s="3"/>
       <c r="H176" s="3"/>
       <c r="I176" s="3"/>
       <c r="J176" s="3"/>
-      <c r="K176" s="51"/>
+      <c r="K176" s="61"/>
     </row>
     <row r="177" spans="1:11">
       <c r="A177" s="3"/>
       <c r="B177" s="3"/>
       <c r="D177" s="3"/>
-      <c r="E177" s="3"/>
+      <c r="E177" s="49"/>
       <c r="F177" s="3"/>
       <c r="G177" s="3"/>
       <c r="H177" s="3"/>
       <c r="I177" s="3"/>
       <c r="J177" s="3"/>
-      <c r="K177" s="51"/>
+      <c r="K177" s="61"/>
     </row>
     <row r="178" spans="1:11">
       <c r="A178" s="3"/>
       <c r="B178" s="3"/>
       <c r="D178" s="3"/>
-      <c r="E178" s="3"/>
+      <c r="E178" s="49"/>
       <c r="F178" s="3"/>
       <c r="G178" s="3"/>
       <c r="H178" s="3"/>
       <c r="I178" s="3"/>
       <c r="J178" s="3"/>
-      <c r="K178" s="51"/>
+      <c r="K178" s="61"/>
     </row>
     <row r="179" spans="1:11">
       <c r="A179" s="3"/>
       <c r="B179" s="3"/>
       <c r="D179" s="3"/>
-      <c r="E179" s="3"/>
+      <c r="E179" s="49"/>
       <c r="F179" s="3"/>
       <c r="G179" s="3"/>
       <c r="H179" s="3"/>
       <c r="I179" s="3"/>
       <c r="J179" s="3"/>
-      <c r="K179" s="51"/>
+      <c r="K179" s="61"/>
     </row>
     <row r="180" spans="1:11">
       <c r="A180" s="3"/>
       <c r="B180" s="3"/>
       <c r="D180" s="3"/>
-      <c r="E180" s="3"/>
+      <c r="E180" s="49"/>
       <c r="F180" s="3"/>
       <c r="G180" s="3"/>
       <c r="H180" s="3"/>
       <c r="I180" s="3"/>
       <c r="J180" s="3"/>
-      <c r="K180" s="51"/>
+      <c r="K180" s="61"/>
     </row>
     <row r="181" spans="1:11">
       <c r="A181" s="3"/>
       <c r="B181" s="3"/>
       <c r="D181" s="3"/>
-      <c r="E181" s="3"/>
+      <c r="E181" s="49"/>
       <c r="F181" s="3"/>
       <c r="G181" s="3"/>
       <c r="H181" s="3"/>
       <c r="I181" s="3"/>
       <c r="J181" s="3"/>
-      <c r="K181" s="51"/>
+      <c r="K181" s="61"/>
     </row>
     <row r="182" spans="1:11">
       <c r="A182" s="3"/>
       <c r="B182" s="3"/>
       <c r="D182" s="3"/>
-      <c r="E182" s="3"/>
+      <c r="E182" s="49"/>
       <c r="F182" s="3"/>
       <c r="G182" s="3"/>
       <c r="H182" s="3"/>
       <c r="I182" s="3"/>
       <c r="J182" s="3"/>
-      <c r="K182" s="51"/>
+      <c r="K182" s="61"/>
     </row>
     <row r="183" spans="1:11">
       <c r="A183" s="3"/>
       <c r="B183" s="3"/>
       <c r="D183" s="3"/>
-      <c r="E183" s="3"/>
+      <c r="E183" s="49"/>
       <c r="F183" s="3"/>
       <c r="G183" s="3"/>
       <c r="H183" s="3"/>
       <c r="I183" s="3"/>
       <c r="J183" s="3"/>
-      <c r="K183" s="51"/>
+      <c r="K183" s="61"/>
     </row>
     <row r="184" spans="1:11">
       <c r="A184" s="3"/>
       <c r="B184" s="3"/>
       <c r="D184" s="3"/>
-      <c r="E184" s="3"/>
+      <c r="E184" s="49"/>
       <c r="F184" s="3"/>
       <c r="G184" s="3"/>
       <c r="H184" s="3"/>
       <c r="I184" s="3"/>
       <c r="J184" s="3"/>
-      <c r="K184" s="51"/>
+      <c r="K184" s="61"/>
     </row>
     <row r="185" spans="1:11">
       <c r="A185" s="3"/>
       <c r="B185" s="3"/>
       <c r="D185" s="3"/>
-      <c r="E185" s="3"/>
+      <c r="E185" s="49"/>
       <c r="F185" s="3"/>
       <c r="G185" s="3"/>
       <c r="H185" s="3"/>
       <c r="I185" s="3"/>
       <c r="J185" s="3"/>
-      <c r="K185" s="51"/>
+      <c r="K185" s="61"/>
     </row>
     <row r="186" spans="1:11">
       <c r="A186" s="3"/>
       <c r="B186" s="3"/>
       <c r="D186" s="3"/>
-      <c r="E186" s="3"/>
+      <c r="E186" s="49"/>
       <c r="F186" s="3"/>
       <c r="G186" s="3"/>
       <c r="H186" s="3"/>
       <c r="I186" s="3"/>
       <c r="J186" s="3"/>
-      <c r="K186" s="51"/>
+      <c r="K186" s="61"/>
     </row>
     <row r="187" spans="1:11">
       <c r="A187" s="3"/>
       <c r="B187" s="3"/>
       <c r="D187" s="3"/>
-      <c r="E187" s="3"/>
+      <c r="E187" s="49"/>
       <c r="F187" s="3"/>
       <c r="G187" s="3"/>
       <c r="H187" s="3"/>
       <c r="I187" s="3"/>
       <c r="J187" s="3"/>
-      <c r="K187" s="51"/>
+      <c r="K187" s="61"/>
     </row>
     <row r="188" spans="1:11">
       <c r="A188" s="3"/>
       <c r="B188" s="3"/>
       <c r="D188" s="3"/>
-      <c r="E188" s="3"/>
+      <c r="E188" s="49"/>
       <c r="F188" s="3"/>
       <c r="G188" s="3"/>
       <c r="H188" s="3"/>
       <c r="I188" s="3"/>
       <c r="J188" s="3"/>
-      <c r="K188" s="51"/>
+      <c r="K188" s="61"/>
     </row>
     <row r="189" spans="1:11">
       <c r="A189" s="3"/>
       <c r="B189" s="3"/>
       <c r="D189" s="3"/>
-      <c r="E189" s="3"/>
+      <c r="E189" s="49"/>
       <c r="F189" s="3"/>
       <c r="G189" s="3"/>
       <c r="H189" s="3"/>
       <c r="I189" s="3"/>
       <c r="J189" s="3"/>
-      <c r="K189" s="51"/>
+      <c r="K189" s="61"/>
     </row>
     <row r="190" spans="1:11">
       <c r="A190" s="3"/>
       <c r="B190" s="3"/>
       <c r="D190" s="3"/>
-      <c r="E190" s="3"/>
+      <c r="E190" s="49"/>
       <c r="F190" s="3"/>
       <c r="G190" s="3"/>
       <c r="H190" s="3"/>
       <c r="I190" s="3"/>
       <c r="J190" s="3"/>
-      <c r="K190" s="51"/>
+      <c r="K190" s="61"/>
     </row>
     <row r="191" spans="1:11">
       <c r="A191" s="3"/>
       <c r="B191" s="3"/>
       <c r="D191" s="3"/>
-      <c r="E191" s="3"/>
+      <c r="E191" s="49"/>
       <c r="F191" s="3"/>
       <c r="G191" s="3"/>
       <c r="H191" s="3"/>
       <c r="I191" s="3"/>
       <c r="J191" s="3"/>
-      <c r="K191" s="51"/>
+      <c r="K191" s="61"/>
     </row>
     <row r="192" spans="1:11">
       <c r="A192" s="3"/>
       <c r="B192" s="3"/>
       <c r="D192" s="3"/>
-      <c r="E192" s="3"/>
+      <c r="E192" s="49"/>
       <c r="F192" s="3"/>
       <c r="G192" s="3"/>
       <c r="H192" s="3"/>
       <c r="I192" s="3"/>
       <c r="J192" s="3"/>
-      <c r="K192" s="51"/>
+      <c r="K192" s="61"/>
     </row>
     <row r="193" spans="1:11">
       <c r="A193" s="3"/>
       <c r="B193" s="3"/>
       <c r="D193" s="3"/>
-      <c r="E193" s="3"/>
+      <c r="E193" s="49"/>
       <c r="F193" s="3"/>
       <c r="G193" s="3"/>
       <c r="H193" s="3"/>
       <c r="I193" s="3"/>
       <c r="J193" s="3"/>
-      <c r="K193" s="51"/>
+      <c r="K193" s="61"/>
     </row>
     <row r="194" spans="1:11">
       <c r="A194" s="3"/>
       <c r="B194" s="3"/>
       <c r="D194" s="3"/>
-      <c r="E194" s="3"/>
+      <c r="E194" s="49"/>
       <c r="F194" s="3"/>
       <c r="G194" s="3"/>
       <c r="H194" s="3"/>
       <c r="I194" s="3"/>
       <c r="J194" s="3"/>
-      <c r="K194" s="51"/>
+      <c r="K194" s="61"/>
     </row>
     <row r="195" spans="1:11">
       <c r="A195" s="3"/>
       <c r="B195" s="3"/>
       <c r="D195" s="3"/>
-      <c r="E195" s="3"/>
+      <c r="E195" s="49"/>
       <c r="F195" s="3"/>
       <c r="G195" s="3"/>
       <c r="H195" s="3"/>
       <c r="I195" s="3"/>
       <c r="J195" s="3"/>
-      <c r="K195" s="51"/>
+      <c r="K195" s="61"/>
     </row>
     <row r="196" spans="1:11">
       <c r="A196" s="3"/>
       <c r="B196" s="3"/>
       <c r="D196" s="3"/>
-      <c r="E196" s="3"/>
+      <c r="E196" s="49"/>
       <c r="F196" s="3"/>
       <c r="G196" s="3"/>
       <c r="H196" s="3"/>
       <c r="I196" s="3"/>
       <c r="J196" s="3"/>
-      <c r="K196" s="51"/>
+      <c r="K196" s="61"/>
     </row>
     <row r="197" spans="1:11">
       <c r="A197" s="3"/>
       <c r="B197" s="3"/>
       <c r="D197" s="3"/>
-      <c r="E197" s="3"/>
+      <c r="E197" s="49"/>
       <c r="F197" s="3"/>
       <c r="G197" s="3"/>
       <c r="H197" s="3"/>
       <c r="I197" s="3"/>
       <c r="J197" s="3"/>
-      <c r="K197" s="51"/>
+      <c r="K197" s="61"/>
     </row>
     <row r="198" spans="1:11">
       <c r="A198" s="3"/>
       <c r="B198" s="3"/>
       <c r="D198" s="3"/>
-      <c r="E198" s="3"/>
+      <c r="E198" s="49"/>
       <c r="F198" s="3"/>
       <c r="G198" s="3"/>
       <c r="H198" s="3"/>
       <c r="I198" s="3"/>
       <c r="J198" s="3"/>
-      <c r="K198" s="51"/>
+      <c r="K198" s="61"/>
     </row>
     <row r="199" spans="1:11">
       <c r="A199" s="3"/>
       <c r="B199" s="3"/>
       <c r="D199" s="3"/>
-      <c r="E199" s="3"/>
+      <c r="E199" s="49"/>
       <c r="F199" s="3"/>
       <c r="G199" s="3"/>
       <c r="H199" s="3"/>
       <c r="I199" s="3"/>
       <c r="J199" s="3"/>
-      <c r="K199" s="51"/>
+      <c r="K199" s="61"/>
     </row>
     <row r="200" spans="1:11">
       <c r="A200" s="3"/>
       <c r="B200" s="3"/>
       <c r="D200" s="3"/>
-      <c r="E200" s="3"/>
+      <c r="E200" s="49"/>
       <c r="F200" s="3"/>
       <c r="G200" s="3"/>
       <c r="H200" s="3"/>
       <c r="I200" s="3"/>
       <c r="J200" s="3"/>
-      <c r="K200" s="51"/>
+      <c r="K200" s="61"/>
     </row>
     <row r="201" spans="1:11">
       <c r="A201" s="3"/>
       <c r="B201" s="3"/>
       <c r="D201" s="3"/>
-      <c r="E201" s="3"/>
+      <c r="E201" s="49"/>
       <c r="F201" s="3"/>
       <c r="G201" s="3"/>
       <c r="H201" s="3"/>
       <c r="I201" s="3"/>
       <c r="J201" s="3"/>
-      <c r="K201" s="51"/>
+      <c r="K201" s="61"/>
     </row>
     <row r="202" spans="1:11">
       <c r="A202" s="3"/>
       <c r="B202" s="3"/>
       <c r="D202" s="3"/>
-      <c r="E202" s="3"/>
+      <c r="E202" s="49"/>
       <c r="F202" s="3"/>
       <c r="G202" s="3"/>
       <c r="H202" s="3"/>
       <c r="I202" s="3"/>
       <c r="J202" s="3"/>
-      <c r="K202" s="51"/>
+      <c r="K202" s="61"/>
     </row>
     <row r="203" spans="1:11">
       <c r="A203" s="3"/>
       <c r="B203" s="3"/>
       <c r="D203" s="3"/>
-      <c r="E203" s="3"/>
+      <c r="E203" s="49"/>
       <c r="F203" s="3"/>
       <c r="G203" s="3"/>
       <c r="H203" s="3"/>
       <c r="I203" s="3"/>
       <c r="J203" s="3"/>
-      <c r="K203" s="51"/>
+      <c r="K203" s="61"/>
     </row>
     <row r="204" spans="1:11">
       <c r="A204" s="3"/>
       <c r="B204" s="3"/>
       <c r="D204" s="3"/>
-      <c r="E204" s="3"/>
+      <c r="E204" s="49"/>
       <c r="F204" s="3"/>
       <c r="G204" s="3"/>
       <c r="H204" s="3"/>
       <c r="I204" s="3"/>
       <c r="J204" s="3"/>
-      <c r="K204" s="51"/>
+      <c r="K204" s="61"/>
     </row>
     <row r="205" spans="1:11">
       <c r="A205" s="3"/>
       <c r="B205" s="3"/>
       <c r="D205" s="3"/>
-      <c r="E205" s="3"/>
+      <c r="E205" s="49"/>
       <c r="F205" s="3"/>
       <c r="G205" s="3"/>
       <c r="H205" s="3"/>
       <c r="I205" s="3"/>
       <c r="J205" s="3"/>
-      <c r="K205" s="51"/>
+      <c r="K205" s="61"/>
     </row>
     <row r="206" spans="1:11">
       <c r="A206" s="3"/>
       <c r="B206" s="3"/>
       <c r="D206" s="3"/>
-      <c r="E206" s="3"/>
+      <c r="E206" s="49"/>
       <c r="F206" s="3"/>
       <c r="G206" s="3"/>
       <c r="H206" s="3"/>
       <c r="I206" s="3"/>
       <c r="J206" s="3"/>
-      <c r="K206" s="51"/>
+      <c r="K206" s="61"/>
     </row>
     <row r="207" spans="1:11">
       <c r="A207" s="3"/>
       <c r="B207" s="3"/>
       <c r="D207" s="3"/>
-      <c r="E207" s="3"/>
+      <c r="E207" s="49"/>
       <c r="F207" s="3"/>
       <c r="G207" s="3"/>
       <c r="H207" s="3"/>
       <c r="I207" s="3"/>
       <c r="J207" s="3"/>
-      <c r="K207" s="51"/>
+      <c r="K207" s="61"/>
     </row>
     <row r="208" spans="1:11">
       <c r="A208" s="3"/>
       <c r="B208" s="3"/>
       <c r="D208" s="3"/>
-      <c r="E208" s="3"/>
+      <c r="E208" s="49"/>
       <c r="F208" s="3"/>
       <c r="G208" s="3"/>
       <c r="H208" s="3"/>
       <c r="I208" s="3"/>
       <c r="J208" s="3"/>
-      <c r="K208" s="51"/>
+      <c r="K208" s="61"/>
     </row>
     <row r="209" spans="1:11">
       <c r="A209" s="3"/>
       <c r="B209" s="3"/>
       <c r="D209" s="3"/>
-      <c r="E209" s="3"/>
+      <c r="E209" s="49"/>
       <c r="F209" s="3"/>
       <c r="G209" s="3"/>
       <c r="H209" s="3"/>
       <c r="I209" s="3"/>
       <c r="J209" s="3"/>
-      <c r="K209" s="51"/>
+      <c r="K209" s="61"/>
     </row>
     <row r="210" spans="1:11">
       <c r="A210" s="3"/>
       <c r="B210" s="3"/>
       <c r="D210" s="3"/>
-      <c r="E210" s="3"/>
+      <c r="E210" s="49"/>
       <c r="F210" s="3"/>
       <c r="G210" s="3"/>
       <c r="H210" s="3"/>
       <c r="I210" s="3"/>
       <c r="J210" s="3"/>
-      <c r="K210" s="51"/>
+      <c r="K210" s="61"/>
     </row>
     <row r="211" spans="1:11">
       <c r="A211" s="3"/>
       <c r="B211" s="3"/>
       <c r="D211" s="3"/>
-      <c r="E211" s="3"/>
+      <c r="E211" s="49"/>
       <c r="F211" s="3"/>
       <c r="G211" s="3"/>
       <c r="H211" s="3"/>
       <c r="I211" s="3"/>
       <c r="J211" s="3"/>
-      <c r="K211" s="51"/>
+      <c r="K211" s="61"/>
     </row>
     <row r="212" spans="1:11">
       <c r="A212" s="3"/>
       <c r="B212" s="3"/>
       <c r="D212" s="3"/>
-      <c r="E212" s="3"/>
+      <c r="E212" s="49"/>
       <c r="F212" s="3"/>
       <c r="G212" s="3"/>
       <c r="H212" s="3"/>
       <c r="I212" s="3"/>
       <c r="J212" s="3"/>
-      <c r="K212" s="51"/>
+      <c r="K212" s="61"/>
     </row>
     <row r="213" spans="1:11">
       <c r="A213" s="3"/>
       <c r="B213" s="3"/>
       <c r="D213" s="3"/>
-      <c r="E213" s="3"/>
+      <c r="E213" s="49"/>
       <c r="F213" s="3"/>
       <c r="G213" s="3"/>
       <c r="H213" s="3"/>
       <c r="I213" s="3"/>
       <c r="J213" s="3"/>
-      <c r="K213" s="51"/>
+      <c r="K213" s="61"/>
     </row>
     <row r="214" spans="1:11">
       <c r="A214" s="3"/>
       <c r="B214" s="3"/>
       <c r="D214" s="3"/>
-      <c r="E214" s="3"/>
+      <c r="E214" s="49"/>
       <c r="F214" s="3"/>
       <c r="G214" s="3"/>
       <c r="H214" s="3"/>
       <c r="I214" s="3"/>
       <c r="J214" s="3"/>
-      <c r="K214" s="51"/>
+      <c r="K214" s="61"/>
     </row>
     <row r="215" spans="1:11">
       <c r="A215" s="3"/>
       <c r="B215" s="3"/>
       <c r="D215" s="3"/>
-      <c r="E215" s="3"/>
+      <c r="E215" s="49"/>
       <c r="F215" s="3"/>
       <c r="G215" s="3"/>
       <c r="H215" s="3"/>
       <c r="I215" s="3"/>
       <c r="J215" s="3"/>
-      <c r="K215" s="51"/>
+      <c r="K215" s="61"/>
     </row>
     <row r="216" spans="1:11">
       <c r="A216" s="3"/>
       <c r="B216" s="3"/>
       <c r="D216" s="3"/>
-      <c r="E216" s="3"/>
+      <c r="E216" s="49"/>
       <c r="F216" s="3"/>
       <c r="G216" s="3"/>
       <c r="H216" s="3"/>
       <c r="I216" s="3"/>
       <c r="J216" s="3"/>
-      <c r="K216" s="51"/>
+      <c r="K216" s="61"/>
     </row>
     <row r="217" spans="1:11">
       <c r="A217" s="3"/>
       <c r="B217" s="3"/>
       <c r="D217" s="3"/>
-      <c r="E217" s="3"/>
+      <c r="E217" s="49"/>
       <c r="F217" s="3"/>
       <c r="G217" s="3"/>
       <c r="H217" s="3"/>
       <c r="I217" s="3"/>
       <c r="J217" s="3"/>
-      <c r="K217" s="51"/>
+      <c r="K217" s="61"/>
     </row>
     <row r="218" spans="1:11">
       <c r="A218" s="3"/>
       <c r="B218" s="3"/>
       <c r="D218" s="3"/>
-      <c r="E218" s="3"/>
+      <c r="E218" s="49"/>
       <c r="F218" s="3"/>
       <c r="G218" s="3"/>
       <c r="H218" s="3"/>
       <c r="I218" s="3"/>
       <c r="J218" s="3"/>
-      <c r="K218" s="51"/>
+      <c r="K218" s="61"/>
     </row>
     <row r="219" spans="1:11">
       <c r="A219" s="3"/>
       <c r="B219" s="3"/>
       <c r="D219" s="3"/>
-      <c r="E219" s="3"/>
+      <c r="E219" s="49"/>
       <c r="F219" s="3"/>
       <c r="G219" s="3"/>
       <c r="H219" s="3"/>
       <c r="I219" s="3"/>
       <c r="J219" s="3"/>
-      <c r="K219" s="51"/>
+      <c r="K219" s="61"/>
     </row>
     <row r="220" spans="1:11">
       <c r="A220" s="3"/>
       <c r="B220" s="3"/>
       <c r="D220" s="3"/>
-      <c r="E220" s="3"/>
+      <c r="E220" s="49"/>
       <c r="F220" s="3"/>
       <c r="G220" s="3"/>
       <c r="H220" s="3"/>
       <c r="I220" s="3"/>
       <c r="J220" s="3"/>
-      <c r="K220" s="51"/>
+      <c r="K220" s="61"/>
     </row>
     <row r="221" spans="1:11">
       <c r="A221" s="3"/>
       <c r="B221" s="3"/>
       <c r="D221" s="3"/>
-      <c r="E221" s="3"/>
+      <c r="E221" s="49"/>
       <c r="F221" s="3"/>
       <c r="G221" s="3"/>
       <c r="H221" s="3"/>
       <c r="I221" s="3"/>
       <c r="J221" s="3"/>
-      <c r="K221" s="51"/>
+      <c r="K221" s="61"/>
     </row>
     <row r="222" spans="1:11">
       <c r="A222" s="3"/>
       <c r="B222" s="3"/>
       <c r="D222" s="3"/>
-      <c r="E222" s="3"/>
+      <c r="E222" s="49"/>
       <c r="F222" s="3"/>
       <c r="G222" s="3"/>
       <c r="H222" s="3"/>
       <c r="I222" s="3"/>
       <c r="J222" s="3"/>
-      <c r="K222" s="51"/>
+      <c r="K222" s="61"/>
     </row>
     <row r="223" spans="1:11">
       <c r="A223" s="3"/>
       <c r="B223" s="3"/>
       <c r="D223" s="3"/>
-      <c r="E223" s="3"/>
+      <c r="E223" s="49"/>
       <c r="F223" s="3"/>
       <c r="G223" s="3"/>
       <c r="H223" s="3"/>
       <c r="I223" s="3"/>
       <c r="J223" s="3"/>
-      <c r="K223" s="51"/>
+      <c r="K223" s="61"/>
     </row>
     <row r="224" spans="1:11">
       <c r="A224" s="3"/>
       <c r="B224" s="3"/>
       <c r="D224" s="3"/>
-      <c r="E224" s="3"/>
+      <c r="E224" s="49"/>
       <c r="F224" s="3"/>
       <c r="G224" s="3"/>
       <c r="H224" s="3"/>
       <c r="I224" s="3"/>
       <c r="J224" s="3"/>
-      <c r="K224" s="51"/>
+      <c r="K224" s="61"/>
     </row>
     <row r="225" spans="1:11">
       <c r="A225" s="3"/>
       <c r="B225" s="3"/>
       <c r="D225" s="3"/>
-      <c r="E225" s="3"/>
+      <c r="E225" s="49"/>
       <c r="F225" s="3"/>
       <c r="G225" s="3"/>
       <c r="H225" s="3"/>
       <c r="I225" s="3"/>
       <c r="J225" s="3"/>
-      <c r="K225" s="51"/>
+      <c r="K225" s="61"/>
     </row>
     <row r="226" spans="1:11">
       <c r="A226" s="3"/>
       <c r="B226" s="3"/>
       <c r="D226" s="3"/>
-      <c r="E226" s="3"/>
+      <c r="E226" s="49"/>
       <c r="F226" s="3"/>
       <c r="G226" s="3"/>
       <c r="H226" s="3"/>
       <c r="I226" s="3"/>
       <c r="J226" s="3"/>
-      <c r="K226" s="51"/>
+      <c r="K226" s="61"/>
     </row>
     <row r="227" spans="1:11">
       <c r="A227" s="3"/>
       <c r="B227" s="3"/>
       <c r="D227" s="3"/>
-      <c r="E227" s="3"/>
+      <c r="E227" s="49"/>
       <c r="F227" s="3"/>
       <c r="G227" s="3"/>
       <c r="H227" s="3"/>
       <c r="I227" s="3"/>
       <c r="J227" s="3"/>
-      <c r="K227" s="51"/>
+      <c r="K227" s="61"/>
     </row>
     <row r="228" spans="1:11">
       <c r="A228" s="3"/>
       <c r="B228" s="3"/>
       <c r="D228" s="3"/>
-      <c r="E228" s="3"/>
+      <c r="E228" s="49"/>
       <c r="F228" s="3"/>
       <c r="G228" s="3"/>
       <c r="H228" s="3"/>
       <c r="I228" s="3"/>
       <c r="J228" s="3"/>
-      <c r="K228" s="51"/>
+      <c r="K228" s="61"/>
     </row>
     <row r="229" spans="1:11">
       <c r="A229" s="3"/>
       <c r="B229" s="3"/>
       <c r="D229" s="3"/>
-      <c r="E229" s="3"/>
+      <c r="E229" s="49"/>
       <c r="F229" s="3"/>
       <c r="G229" s="3"/>
       <c r="H229" s="3"/>
       <c r="I229" s="3"/>
       <c r="J229" s="3"/>
-      <c r="K229" s="51"/>
+      <c r="K229" s="61"/>
     </row>
     <row r="230" spans="1:11">
       <c r="A230" s="3"/>
       <c r="B230" s="3"/>
       <c r="D230" s="3"/>
-      <c r="E230" s="3"/>
+      <c r="E230" s="49"/>
       <c r="F230" s="3"/>
       <c r="G230" s="3"/>
       <c r="H230" s="3"/>
       <c r="I230" s="3"/>
       <c r="J230" s="3"/>
-      <c r="K230" s="51"/>
+      <c r="K230" s="61"/>
     </row>
     <row r="231" spans="1:11">
       <c r="A231" s="3"/>
       <c r="B231" s="3"/>
       <c r="D231" s="3"/>
-      <c r="E231" s="3"/>
+      <c r="E231" s="49"/>
       <c r="F231" s="3"/>
       <c r="G231" s="3"/>
       <c r="H231" s="3"/>
       <c r="I231" s="3"/>
       <c r="J231" s="3"/>
-      <c r="K231" s="51"/>
+      <c r="K231" s="61"/>
     </row>
     <row r="232" spans="1:11">
       <c r="A232" s="3"/>
       <c r="B232" s="3"/>
       <c r="D232" s="3"/>
-      <c r="E232" s="3"/>
+      <c r="E232" s="49"/>
       <c r="F232" s="3"/>
       <c r="G232" s="3"/>
       <c r="H232" s="3"/>
       <c r="I232" s="3"/>
       <c r="J232" s="3"/>
-      <c r="K232" s="51"/>
+      <c r="K232" s="61"/>
     </row>
     <row r="233" spans="1:11">
       <c r="A233" s="3"/>
       <c r="B233" s="3"/>
       <c r="D233" s="3"/>
-      <c r="E233" s="3"/>
+      <c r="E233" s="49"/>
       <c r="F233" s="3"/>
       <c r="G233" s="3"/>
       <c r="H233" s="3"/>
       <c r="I233" s="3"/>
       <c r="J233" s="3"/>
-      <c r="K233" s="51"/>
+      <c r="K233" s="61"/>
     </row>
     <row r="234" spans="1:11">
       <c r="A234" s="3"/>
       <c r="B234" s="3"/>
       <c r="D234" s="3"/>
-      <c r="E234" s="3"/>
+      <c r="E234" s="49"/>
       <c r="F234" s="3"/>
       <c r="G234" s="3"/>
       <c r="H234" s="3"/>
       <c r="I234" s="3"/>
       <c r="J234" s="3"/>
-      <c r="K234" s="51"/>
+      <c r="K234" s="61"/>
     </row>
     <row r="235" spans="1:11">
       <c r="A235" s="3"/>
       <c r="B235" s="3"/>
       <c r="D235" s="3"/>
-      <c r="E235" s="3"/>
+      <c r="E235" s="49"/>
       <c r="F235" s="3"/>
       <c r="G235" s="3"/>
       <c r="H235" s="3"/>
       <c r="I235" s="3"/>
       <c r="J235" s="3"/>
-      <c r="K235" s="51"/>
+      <c r="K235" s="61"/>
     </row>
     <row r="236" spans="1:11">
       <c r="A236" s="3"/>
       <c r="B236" s="3"/>
       <c r="D236" s="3"/>
-      <c r="E236" s="3"/>
+      <c r="E236" s="49"/>
       <c r="F236" s="3"/>
       <c r="G236" s="3"/>
       <c r="H236" s="3"/>
       <c r="I236" s="3"/>
       <c r="J236" s="3"/>
-      <c r="K236" s="51"/>
+      <c r="K236" s="61"/>
     </row>
     <row r="237" spans="1:11">
       <c r="A237" s="3"/>
       <c r="B237" s="3"/>
       <c r="D237" s="3"/>
-      <c r="E237" s="3"/>
+      <c r="E237" s="49"/>
       <c r="F237" s="3"/>
       <c r="G237" s="3"/>
       <c r="H237" s="3"/>
       <c r="I237" s="3"/>
       <c r="J237" s="3"/>
-      <c r="K237" s="51"/>
+      <c r="K237" s="61"/>
     </row>
     <row r="238" spans="1:11">
       <c r="A238" s="3"/>
       <c r="B238" s="3"/>
       <c r="D238" s="3"/>
-      <c r="E238" s="3"/>
+      <c r="E238" s="49"/>
       <c r="F238" s="3"/>
       <c r="G238" s="3"/>
       <c r="H238" s="3"/>
       <c r="I238" s="3"/>
       <c r="J238" s="3"/>
-      <c r="K238" s="51"/>
+      <c r="K238" s="61"/>
     </row>
     <row r="239" spans="1:11">
       <c r="A239" s="3"/>
       <c r="B239" s="3"/>
       <c r="D239" s="3"/>
-      <c r="E239" s="3"/>
+      <c r="E239" s="49"/>
       <c r="F239" s="3"/>
       <c r="G239" s="3"/>
       <c r="H239" s="3"/>
       <c r="I239" s="3"/>
       <c r="J239" s="3"/>
-      <c r="K239" s="51"/>
+      <c r="K239" s="61"/>
     </row>
     <row r="240" spans="1:11">
       <c r="A240" s="3"/>
       <c r="B240" s="3"/>
       <c r="D240" s="3"/>
-      <c r="E240" s="3"/>
+      <c r="E240" s="49"/>
       <c r="F240" s="3"/>
       <c r="G240" s="3"/>
       <c r="H240" s="3"/>
       <c r="I240" s="3"/>
       <c r="J240" s="3"/>
-      <c r="K240" s="51"/>
+      <c r="K240" s="61"/>
     </row>
     <row r="241" spans="1:11">
       <c r="A241" s="3"/>
       <c r="B241" s="3"/>
       <c r="D241" s="3"/>
-      <c r="E241" s="3"/>
+      <c r="E241" s="49"/>
       <c r="F241" s="3"/>
       <c r="G241" s="3"/>
       <c r="H241" s="3"/>
       <c r="I241" s="3"/>
       <c r="J241" s="3"/>
-      <c r="K241" s="51"/>
+      <c r="K241" s="61"/>
     </row>
     <row r="242" spans="1:11">
       <c r="A242" s="3"/>
       <c r="B242" s="3"/>
       <c r="D242" s="3"/>
-      <c r="E242" s="3"/>
+      <c r="E242" s="49"/>
       <c r="F242" s="3"/>
       <c r="G242" s="3"/>
       <c r="H242" s="3"/>
       <c r="I242" s="3"/>
       <c r="J242" s="3"/>
-      <c r="K242" s="51"/>
+      <c r="K242" s="61"/>
     </row>
     <row r="243" spans="1:11">
       <c r="A243" s="3"/>
       <c r="B243" s="3"/>
       <c r="D243" s="3"/>
-      <c r="E243" s="3"/>
+      <c r="E243" s="49"/>
       <c r="F243" s="3"/>
       <c r="G243" s="3"/>
       <c r="H243" s="3"/>
       <c r="I243" s="3"/>
       <c r="J243" s="3"/>
-      <c r="K243" s="51"/>
+      <c r="K243" s="61"/>
     </row>
     <row r="244" spans="1:11">
       <c r="A244" s="3"/>
       <c r="B244" s="3"/>
       <c r="D244" s="3"/>
-      <c r="E244" s="3"/>
+      <c r="E244" s="49"/>
       <c r="F244" s="3"/>
       <c r="G244" s="3"/>
       <c r="H244" s="3"/>
       <c r="I244" s="3"/>
       <c r="J244" s="3"/>
-      <c r="K244" s="51"/>
+      <c r="K244" s="61"/>
     </row>
     <row r="245" spans="1:11">
       <c r="A245" s="3"/>
       <c r="B245" s="3"/>
       <c r="D245" s="3"/>
-      <c r="E245" s="3"/>
+      <c r="E245" s="49"/>
       <c r="F245" s="3"/>
       <c r="G245" s="3"/>
       <c r="H245" s="3"/>
       <c r="I245" s="3"/>
       <c r="J245" s="3"/>
-      <c r="K245" s="51"/>
+      <c r="K245" s="61"/>
     </row>
     <row r="246" spans="1:11">
       <c r="A246" s="3"/>
       <c r="B246" s="3"/>
       <c r="D246" s="3"/>
-      <c r="E246" s="3"/>
+      <c r="E246" s="49"/>
       <c r="F246" s="3"/>
       <c r="G246" s="3"/>
       <c r="H246" s="3"/>
       <c r="I246" s="3"/>
       <c r="J246" s="3"/>
-      <c r="K246" s="51"/>
+      <c r="K246" s="61"/>
     </row>
     <row r="247" spans="1:11">
       <c r="A247" s="3"/>
       <c r="B247" s="3"/>
       <c r="D247" s="3"/>
-      <c r="E247" s="3"/>
+      <c r="E247" s="49"/>
       <c r="F247" s="3"/>
       <c r="G247" s="3"/>
       <c r="H247" s="3"/>
       <c r="I247" s="3"/>
       <c r="J247" s="3"/>
-      <c r="K247" s="51"/>
+      <c r="K247" s="61"/>
     </row>
     <row r="248" spans="1:11">
       <c r="A248" s="3"/>
       <c r="B248" s="3"/>
       <c r="D248" s="3"/>
-      <c r="E248" s="3"/>
+      <c r="E248" s="49"/>
       <c r="F248" s="3"/>
       <c r="G248" s="3"/>
       <c r="H248" s="3"/>
       <c r="I248" s="3"/>
       <c r="J248" s="3"/>
-      <c r="K248" s="51"/>
+      <c r="K248" s="61"/>
     </row>
     <row r="249" spans="1:11">
       <c r="A249" s="3"/>
       <c r="B249" s="3"/>
       <c r="D249" s="3"/>
-      <c r="E249" s="3"/>
+      <c r="E249" s="49"/>
       <c r="F249" s="3"/>
       <c r="G249" s="3"/>
       <c r="H249" s="3"/>
       <c r="I249" s="3"/>
       <c r="J249" s="3"/>
-      <c r="K249" s="51"/>
+      <c r="K249" s="61"/>
     </row>
     <row r="250" spans="1:11">
       <c r="A250" s="3"/>
       <c r="B250" s="3"/>
       <c r="D250" s="3"/>
-      <c r="E250" s="3"/>
+      <c r="E250" s="49"/>
       <c r="F250" s="3"/>
       <c r="G250" s="3"/>
       <c r="H250" s="3"/>
       <c r="I250" s="3"/>
       <c r="J250" s="3"/>
-      <c r="K250" s="51"/>
+      <c r="K250" s="61"/>
     </row>
     <row r="251" spans="1:11">
       <c r="A251" s="3"/>
       <c r="B251" s="3"/>
       <c r="D251" s="3"/>
-      <c r="E251" s="3"/>
+      <c r="E251" s="49"/>
       <c r="F251" s="3"/>
       <c r="G251" s="3"/>
       <c r="H251" s="3"/>
       <c r="I251" s="3"/>
       <c r="J251" s="3"/>
-      <c r="K251" s="51"/>
+      <c r="K251" s="61"/>
     </row>
     <row r="252" spans="1:11">
       <c r="A252" s="3"/>
       <c r="B252" s="3"/>
       <c r="D252" s="3"/>
-      <c r="E252" s="3"/>
+      <c r="E252" s="49"/>
       <c r="F252" s="3"/>
       <c r="G252" s="3"/>
       <c r="H252" s="3"/>
       <c r="I252" s="3"/>
       <c r="J252" s="3"/>
-      <c r="K252" s="51"/>
+      <c r="K252" s="61"/>
     </row>
     <row r="253" spans="1:11">
       <c r="A253" s="3"/>
       <c r="B253" s="3"/>
       <c r="D253" s="3"/>
-      <c r="E253" s="3"/>
+      <c r="E253" s="49"/>
       <c r="F253" s="3"/>
       <c r="G253" s="3"/>
       <c r="H253" s="3"/>
       <c r="I253" s="3"/>
       <c r="J253" s="3"/>
-      <c r="K253" s="51"/>
+      <c r="K253" s="61"/>
     </row>
     <row r="254" spans="1:11">
       <c r="A254" s="3"/>
       <c r="B254" s="3"/>
       <c r="D254" s="3"/>
-      <c r="E254" s="3"/>
+      <c r="E254" s="49"/>
       <c r="F254" s="3"/>
       <c r="G254" s="3"/>
       <c r="H254" s="3"/>
       <c r="I254" s="3"/>
       <c r="J254" s="3"/>
-      <c r="K254" s="51"/>
+      <c r="K254" s="61"/>
     </row>
     <row r="255" spans="1:11">
       <c r="A255" s="3"/>
       <c r="B255" s="3"/>
       <c r="D255" s="3"/>
-      <c r="E255" s="3"/>
+      <c r="E255" s="49"/>
       <c r="F255" s="3"/>
       <c r="G255" s="3"/>
       <c r="H255" s="3"/>
       <c r="I255" s="3"/>
       <c r="J255" s="3"/>
-      <c r="K255" s="51"/>
+      <c r="K255" s="61"/>
     </row>
     <row r="256" spans="1:11">
       <c r="A256" s="3"/>
       <c r="B256" s="3"/>
       <c r="D256" s="3"/>
-      <c r="E256" s="3"/>
+      <c r="E256" s="49"/>
       <c r="F256" s="3"/>
       <c r="G256" s="3"/>
       <c r="H256" s="3"/>
       <c r="I256" s="3"/>
       <c r="J256" s="3"/>
-      <c r="K256" s="51"/>
+      <c r="K256" s="61"/>
     </row>
     <row r="257" spans="1:11">
       <c r="A257" s="3"/>
       <c r="B257" s="3"/>
       <c r="D257" s="3"/>
-      <c r="E257" s="3"/>
+      <c r="E257" s="49"/>
       <c r="F257" s="3"/>
       <c r="G257" s="3"/>
       <c r="H257" s="3"/>
       <c r="I257" s="3"/>
       <c r="J257" s="3"/>
-      <c r="K257" s="51"/>
+      <c r="K257" s="61"/>
     </row>
     <row r="258" spans="1:11">
       <c r="A258" s="3"/>
       <c r="B258" s="3"/>
       <c r="D258" s="3"/>
-      <c r="E258" s="3"/>
+      <c r="E258" s="49"/>
       <c r="F258" s="3"/>
       <c r="G258" s="3"/>
       <c r="H258" s="3"/>
       <c r="I258" s="3"/>
       <c r="J258" s="3"/>
-      <c r="K258" s="51"/>
+      <c r="K258" s="61"/>
     </row>
     <row r="259" spans="1:11">
       <c r="A259" s="3"/>
       <c r="B259" s="3"/>
       <c r="D259" s="3"/>
-      <c r="E259" s="3"/>
+      <c r="E259" s="49"/>
       <c r="F259" s="3"/>
       <c r="G259" s="3"/>
       <c r="H259" s="3"/>
       <c r="I259" s="3"/>
       <c r="J259" s="3"/>
-      <c r="K259" s="51"/>
+      <c r="K259" s="61"/>
     </row>
     <row r="260" spans="1:11">
       <c r="A260" s="3"/>
       <c r="B260" s="3"/>
       <c r="D260" s="3"/>
-      <c r="E260" s="3"/>
+      <c r="E260" s="49"/>
       <c r="F260" s="3"/>
       <c r="G260" s="3"/>
       <c r="H260" s="3"/>
       <c r="I260" s="3"/>
       <c r="J260" s="3"/>
-      <c r="K260" s="51"/>
+      <c r="K260" s="61"/>
     </row>
     <row r="261" spans="1:11">
       <c r="A261" s="3"/>
       <c r="B261" s="3"/>
       <c r="D261" s="3"/>
-      <c r="E261" s="3"/>
+      <c r="E261" s="49"/>
       <c r="F261" s="3"/>
       <c r="G261" s="3"/>
       <c r="H261" s="3"/>
       <c r="I261" s="3"/>
       <c r="J261" s="3"/>
-      <c r="K261" s="51"/>
+      <c r="K261" s="61"/>
     </row>
     <row r="262" spans="1:11">
       <c r="A262" s="3"/>
       <c r="B262" s="3"/>
       <c r="D262" s="3"/>
-      <c r="E262" s="3"/>
+      <c r="E262" s="49"/>
       <c r="F262" s="3"/>
       <c r="G262" s="3"/>
       <c r="H262" s="3"/>
       <c r="I262" s="3"/>
       <c r="J262" s="3"/>
-      <c r="K262" s="51"/>
+      <c r="K262" s="61"/>
     </row>
     <row r="263" spans="1:11">
       <c r="A263" s="3"/>
       <c r="B263" s="3"/>
       <c r="D263" s="3"/>
-      <c r="E263" s="3"/>
+      <c r="E263" s="49"/>
       <c r="F263" s="3"/>
       <c r="G263" s="3"/>
       <c r="H263" s="3"/>
       <c r="I263" s="3"/>
       <c r="J263" s="3"/>
-      <c r="K263" s="51"/>
+      <c r="K263" s="61"/>
     </row>
     <row r="264" spans="1:11">
       <c r="A264" s="3"/>
       <c r="B264" s="3"/>
       <c r="D264" s="3"/>
-      <c r="E264" s="3"/>
+      <c r="E264" s="49"/>
       <c r="F264" s="3"/>
       <c r="G264" s="3"/>
       <c r="H264" s="3"/>
       <c r="I264" s="3"/>
       <c r="J264" s="3"/>
-      <c r="K264" s="51"/>
+      <c r="K264" s="61"/>
     </row>
     <row r="265" spans="1:11">
       <c r="A265" s="3"/>
       <c r="B265" s="3"/>
       <c r="D265" s="3"/>
-      <c r="E265" s="3"/>
+      <c r="E265" s="49"/>
       <c r="F265" s="3"/>
       <c r="G265" s="3"/>
       <c r="H265" s="3"/>
       <c r="I265" s="3"/>
       <c r="J265" s="3"/>
-      <c r="K265" s="51"/>
+      <c r="K265" s="61"/>
     </row>
     <row r="266" spans="1:11">
       <c r="A266" s="3"/>
       <c r="B266" s="3"/>
       <c r="D266" s="3"/>
-      <c r="E266" s="3"/>
+      <c r="E266" s="49"/>
       <c r="F266" s="3"/>
       <c r="G266" s="3"/>
       <c r="H266" s="3"/>
       <c r="I266" s="3"/>
       <c r="J266" s="3"/>
-      <c r="K266" s="51"/>
+      <c r="K266" s="61"/>
     </row>
     <row r="267" spans="1:11">
       <c r="A267" s="3"/>
       <c r="B267" s="3"/>
       <c r="D267" s="3"/>
-      <c r="E267" s="3"/>
+      <c r="E267" s="49"/>
       <c r="F267" s="3"/>
       <c r="G267" s="3"/>
       <c r="H267" s="3"/>
       <c r="I267" s="3"/>
       <c r="J267" s="3"/>
-      <c r="K267" s="51"/>
+      <c r="K267" s="61"/>
     </row>
     <row r="268" spans="1:11">
       <c r="A268" s="3"/>
       <c r="B268" s="3"/>
       <c r="D268" s="3"/>
-      <c r="E268" s="3"/>
+      <c r="E268" s="49"/>
       <c r="F268" s="3"/>
       <c r="G268" s="3"/>
       <c r="H268" s="3"/>
       <c r="I268" s="3"/>
       <c r="J268" s="3"/>
-      <c r="K268" s="51"/>
+      <c r="K268" s="61"/>
     </row>
     <row r="269" spans="1:11">
       <c r="A269" s="3"/>
       <c r="B269" s="3"/>
       <c r="D269" s="3"/>
-      <c r="E269" s="3"/>
+      <c r="E269" s="49"/>
       <c r="F269" s="3"/>
       <c r="G269" s="3"/>
       <c r="H269" s="3"/>
       <c r="I269" s="3"/>
       <c r="J269" s="3"/>
-      <c r="K269" s="51"/>
+      <c r="K269" s="61"/>
     </row>
     <row r="270" spans="1:11">
       <c r="A270" s="3"/>
       <c r="B270" s="3"/>
       <c r="D270" s="3"/>
-      <c r="E270" s="3"/>
+      <c r="E270" s="49"/>
       <c r="F270" s="3"/>
       <c r="G270" s="3"/>
       <c r="H270" s="3"/>
       <c r="I270" s="3"/>
       <c r="J270" s="3"/>
-      <c r="K270" s="51"/>
+      <c r="K270" s="61"/>
     </row>
     <row r="271" spans="1:11">
       <c r="A271" s="3"/>
       <c r="B271" s="3"/>
       <c r="D271" s="3"/>
-      <c r="E271" s="3"/>
+      <c r="E271" s="49"/>
       <c r="F271" s="3"/>
       <c r="G271" s="3"/>
       <c r="H271" s="3"/>
       <c r="I271" s="3"/>
       <c r="J271" s="3"/>
-      <c r="K271" s="51"/>
+      <c r="K271" s="61"/>
     </row>
     <row r="272" spans="1:11">
       <c r="A272" s="3"/>
       <c r="B272" s="3"/>
       <c r="D272" s="3"/>
-      <c r="E272" s="3"/>
+      <c r="E272" s="49"/>
       <c r="F272" s="3"/>
       <c r="G272" s="3"/>
       <c r="H272" s="3"/>
       <c r="I272" s="3"/>
       <c r="J272" s="3"/>
-      <c r="K272" s="51"/>
+      <c r="K272" s="61"/>
     </row>
     <row r="273" spans="1:11">
       <c r="A273" s="3"/>
       <c r="B273" s="3"/>
       <c r="D273" s="3"/>
-      <c r="E273" s="3"/>
+      <c r="E273" s="49"/>
       <c r="F273" s="3"/>
       <c r="G273" s="3"/>
       <c r="H273" s="3"/>
       <c r="I273" s="3"/>
       <c r="J273" s="3"/>
-      <c r="K273" s="51"/>
+      <c r="K273" s="61"/>
     </row>
     <row r="274" spans="1:11">
       <c r="A274" s="3"/>
       <c r="B274" s="3"/>
       <c r="D274" s="3"/>
-      <c r="E274" s="3"/>
+      <c r="E274" s="49"/>
       <c r="F274" s="3"/>
       <c r="G274" s="3"/>
       <c r="H274" s="3"/>
       <c r="I274" s="3"/>
       <c r="J274" s="3"/>
-      <c r="K274" s="51"/>
+      <c r="K274" s="61"/>
     </row>
     <row r="275" spans="1:11">
       <c r="A275" s="3"/>
       <c r="B275" s="3"/>
       <c r="D275" s="3"/>
-      <c r="E275" s="3"/>
+      <c r="E275" s="49"/>
       <c r="F275" s="3"/>
       <c r="G275" s="3"/>
       <c r="H275" s="3"/>
       <c r="I275" s="3"/>
       <c r="J275" s="3"/>
-      <c r="K275" s="51"/>
+      <c r="K275" s="61"/>
     </row>
     <row r="276" spans="1:11">
       <c r="A276" s="3"/>
       <c r="B276" s="3"/>
       <c r="D276" s="3"/>
-      <c r="E276" s="3"/>
+      <c r="E276" s="49"/>
       <c r="F276" s="3"/>
       <c r="G276" s="3"/>
       <c r="H276" s="3"/>
       <c r="I276" s="3"/>
       <c r="J276" s="3"/>
-      <c r="K276" s="51"/>
+      <c r="K276" s="61"/>
     </row>
     <row r="277" spans="1:11">
       <c r="A277" s="3"/>
       <c r="B277" s="3"/>
       <c r="D277" s="3"/>
-      <c r="E277" s="3"/>
+      <c r="E277" s="49"/>
       <c r="F277" s="3"/>
       <c r="G277" s="3"/>
       <c r="H277" s="3"/>
       <c r="I277" s="3"/>
       <c r="J277" s="3"/>
-      <c r="K277" s="51"/>
+      <c r="K277" s="61"/>
     </row>
     <row r="278" spans="1:11">
       <c r="A278" s="3"/>
       <c r="B278" s="3"/>
       <c r="D278" s="3"/>
-      <c r="E278" s="3"/>
+      <c r="E278" s="49"/>
       <c r="F278" s="3"/>
       <c r="G278" s="3"/>
       <c r="H278" s="3"/>
       <c r="I278" s="3"/>
       <c r="J278" s="3"/>
-      <c r="K278" s="51"/>
+      <c r="K278" s="61"/>
     </row>
     <row r="279" spans="1:11">
       <c r="A279" s="3"/>
       <c r="B279" s="3"/>
       <c r="D279" s="3"/>
-      <c r="E279" s="3"/>
+      <c r="E279" s="49"/>
       <c r="F279" s="3"/>
       <c r="G279" s="3"/>
       <c r="H279" s="3"/>
       <c r="I279" s="3"/>
       <c r="J279" s="3"/>
-      <c r="K279" s="51"/>
+      <c r="K279" s="61"/>
     </row>
     <row r="280" spans="1:11">
       <c r="A280" s="3"/>
       <c r="B280" s="3"/>
       <c r="D280" s="3"/>
-      <c r="E280" s="3"/>
+      <c r="E280" s="49"/>
       <c r="F280" s="3"/>
       <c r="G280" s="3"/>
       <c r="H280" s="3"/>
       <c r="I280" s="3"/>
       <c r="J280" s="3"/>
-      <c r="K280" s="51"/>
+      <c r="K280" s="61"/>
     </row>
     <row r="281" spans="1:11">
       <c r="A281" s="3"/>
       <c r="B281" s="3"/>
       <c r="D281" s="3"/>
-      <c r="E281" s="3"/>
+      <c r="E281" s="49"/>
       <c r="F281" s="3"/>
       <c r="G281" s="3"/>
       <c r="H281" s="3"/>
       <c r="I281" s="3"/>
       <c r="J281" s="3"/>
-      <c r="K281" s="51"/>
+      <c r="K281" s="61"/>
     </row>
     <row r="282" spans="1:11">
       <c r="A282" s="3"/>
       <c r="B282" s="3"/>
       <c r="D282" s="3"/>
-      <c r="E282" s="3"/>
+      <c r="E282" s="49"/>
       <c r="F282" s="3"/>
       <c r="G282" s="3"/>
       <c r="H282" s="3"/>
       <c r="I282" s="3"/>
       <c r="J282" s="3"/>
-      <c r="K282" s="51"/>
+      <c r="K282" s="61"/>
     </row>
     <row r="283" spans="1:11">
       <c r="A283" s="3"/>
       <c r="B283" s="3"/>
       <c r="D283" s="3"/>
-      <c r="E283" s="3"/>
+      <c r="E283" s="49"/>
       <c r="F283" s="3"/>
       <c r="G283" s="3"/>
       <c r="H283" s="3"/>
       <c r="I283" s="3"/>
       <c r="J283" s="3"/>
-      <c r="K283" s="51"/>
+      <c r="K283" s="61"/>
     </row>
     <row r="284" spans="1:11">
       <c r="A284" s="3"/>
       <c r="B284" s="3"/>
       <c r="D284" s="3"/>
-      <c r="E284" s="3"/>
+      <c r="E284" s="49"/>
       <c r="F284" s="3"/>
       <c r="G284" s="3"/>
       <c r="H284" s="3"/>
       <c r="I284" s="3"/>
       <c r="J284" s="3"/>
-      <c r="K284" s="51"/>
+      <c r="K284" s="61"/>
     </row>
     <row r="285" spans="1:11">
       <c r="A285" s="3"/>
       <c r="B285" s="3"/>
       <c r="D285" s="3"/>
-      <c r="E285" s="3"/>
+      <c r="E285" s="49"/>
       <c r="F285" s="3"/>
       <c r="G285" s="3"/>
       <c r="H285" s="3"/>
       <c r="I285" s="3"/>
       <c r="J285" s="3"/>
-      <c r="K285" s="51"/>
+      <c r="K285" s="61"/>
     </row>
     <row r="286" spans="1:11">
       <c r="A286" s="3"/>
       <c r="B286" s="3"/>
       <c r="D286" s="3"/>
-      <c r="E286" s="3"/>
+      <c r="E286" s="49"/>
       <c r="F286" s="3"/>
       <c r="G286" s="3"/>
       <c r="H286" s="3"/>
       <c r="I286" s="3"/>
       <c r="J286" s="3"/>
-      <c r="K286" s="51"/>
+      <c r="K286" s="61"/>
     </row>
     <row r="287" spans="1:11">
       <c r="A287" s="3"/>
       <c r="B287" s="3"/>
       <c r="D287" s="3"/>
-      <c r="E287" s="3"/>
+      <c r="E287" s="49"/>
       <c r="F287" s="3"/>
       <c r="G287" s="3"/>
       <c r="H287" s="3"/>
       <c r="I287" s="3"/>
       <c r="J287" s="3"/>
-      <c r="K287" s="51"/>
+      <c r="K287" s="61"/>
     </row>
     <row r="288" spans="1:11">
       <c r="A288" s="3"/>
       <c r="B288" s="3"/>
       <c r="D288" s="3"/>
-      <c r="E288" s="3"/>
+      <c r="E288" s="49"/>
       <c r="F288" s="3"/>
       <c r="G288" s="3"/>
       <c r="H288" s="3"/>
       <c r="I288" s="3"/>
       <c r="J288" s="3"/>
-      <c r="K288" s="51"/>
+      <c r="K288" s="61"/>
     </row>
     <row r="289" spans="1:11">
       <c r="A289" s="3"/>
       <c r="B289" s="3"/>
       <c r="D289" s="3"/>
-      <c r="E289" s="3"/>
+      <c r="E289" s="49"/>
       <c r="F289" s="3"/>
       <c r="G289" s="3"/>
       <c r="H289" s="3"/>
       <c r="I289" s="3"/>
       <c r="J289" s="3"/>
-      <c r="K289" s="51"/>
+      <c r="K289" s="61"/>
     </row>
     <row r="290" spans="1:11">
       <c r="A290" s="3"/>
       <c r="B290" s="3"/>
       <c r="D290" s="3"/>
-      <c r="E290" s="3"/>
+      <c r="E290" s="49"/>
       <c r="F290" s="3"/>
       <c r="G290" s="3"/>
       <c r="H290" s="3"/>
       <c r="I290" s="3"/>
       <c r="J290" s="3"/>
-      <c r="K290" s="51"/>
+      <c r="K290" s="61"/>
     </row>
     <row r="291" spans="1:11">
       <c r="A291" s="3"/>
       <c r="B291" s="3"/>
       <c r="D291" s="3"/>
-      <c r="E291" s="3"/>
+      <c r="E291" s="49"/>
       <c r="F291" s="3"/>
       <c r="G291" s="3"/>
       <c r="H291" s="3"/>
       <c r="I291" s="3"/>
       <c r="J291" s="3"/>
-      <c r="K291" s="51"/>
+      <c r="K291" s="61"/>
     </row>
     <row r="292" spans="1:11">
       <c r="A292" s="3"/>
       <c r="B292" s="3"/>
       <c r="D292" s="3"/>
-      <c r="E292" s="3"/>
+      <c r="E292" s="49"/>
       <c r="F292" s="3"/>
       <c r="G292" s="3"/>
       <c r="H292" s="3"/>
       <c r="I292" s="3"/>
       <c r="J292" s="3"/>
-      <c r="K292" s="51"/>
+      <c r="K292" s="61"/>
     </row>
     <row r="293" spans="1:11">
       <c r="A293" s="3"/>
       <c r="B293" s="3"/>
       <c r="D293" s="3"/>
-      <c r="E293" s="3"/>
+      <c r="E293" s="49"/>
       <c r="F293" s="3"/>
       <c r="G293" s="3"/>
       <c r="H293" s="3"/>
       <c r="I293" s="3"/>
       <c r="J293" s="3"/>
-      <c r="K293" s="51"/>
+      <c r="K293" s="61"/>
     </row>
     <row r="294" spans="1:11">
       <c r="A294" s="3"/>
       <c r="B294" s="3"/>
       <c r="D294" s="3"/>
-      <c r="E294" s="3"/>
+      <c r="E294" s="49"/>
       <c r="F294" s="3"/>
       <c r="G294" s="3"/>
       <c r="H294" s="3"/>
       <c r="I294" s="3"/>
       <c r="J294" s="3"/>
-      <c r="K294" s="51"/>
+      <c r="K294" s="61"/>
     </row>
     <row r="295" spans="1:11">
       <c r="A295" s="3"/>
       <c r="B295" s="3"/>
       <c r="D295" s="3"/>
-      <c r="E295" s="3"/>
+      <c r="E295" s="49"/>
       <c r="F295" s="3"/>
       <c r="G295" s="3"/>
       <c r="H295" s="3"/>
       <c r="I295" s="3"/>
       <c r="J295" s="3"/>
-      <c r="K295" s="51"/>
+      <c r="K295" s="61"/>
     </row>
     <row r="296" spans="1:11">
       <c r="A296" s="3"/>
       <c r="B296" s="3"/>
       <c r="D296" s="3"/>
-      <c r="E296" s="3"/>
+      <c r="E296" s="49"/>
       <c r="F296" s="3"/>
       <c r="G296" s="3"/>
       <c r="H296" s="3"/>
       <c r="I296" s="3"/>
       <c r="J296" s="3"/>
-      <c r="K296" s="51"/>
+      <c r="K296" s="61"/>
     </row>
     <row r="297" spans="1:11">
       <c r="A297" s="3"/>
       <c r="B297" s="3"/>
       <c r="D297" s="3"/>
-      <c r="E297" s="3"/>
+      <c r="E297" s="49"/>
       <c r="F297" s="3"/>
       <c r="G297" s="3"/>
       <c r="H297" s="3"/>
       <c r="I297" s="3"/>
       <c r="J297" s="3"/>
-      <c r="K297" s="51"/>
+      <c r="K297" s="61"/>
     </row>
     <row r="298" spans="1:11">
       <c r="A298" s="3"/>
       <c r="B298" s="3"/>
       <c r="D298" s="3"/>
-      <c r="E298" s="3"/>
+      <c r="E298" s="49"/>
       <c r="F298" s="3"/>
       <c r="G298" s="3"/>
       <c r="H298" s="3"/>
       <c r="I298" s="3"/>
       <c r="J298" s="3"/>
-      <c r="K298" s="51"/>
+      <c r="K298" s="61"/>
     </row>
     <row r="299" spans="1:11">
       <c r="A299" s="3"/>
       <c r="B299" s="3"/>
       <c r="D299" s="3"/>
-      <c r="E299" s="3"/>
+      <c r="E299" s="49"/>
       <c r="F299" s="3"/>
       <c r="G299" s="3"/>
       <c r="H299" s="3"/>
       <c r="I299" s="3"/>
       <c r="J299" s="3"/>
-      <c r="K299" s="51"/>
+      <c r="K299" s="61"/>
     </row>
     <row r="300" spans="1:11">
       <c r="A300" s="3"/>
       <c r="B300" s="3"/>
       <c r="D300" s="3"/>
-      <c r="E300" s="3"/>
+      <c r="E300" s="49"/>
       <c r="F300" s="3"/>
       <c r="G300" s="3"/>
       <c r="H300" s="3"/>
       <c r="I300" s="3"/>
       <c r="J300" s="3"/>
-      <c r="K300" s="51"/>
+      <c r="K300" s="61"/>
     </row>
     <row r="301" spans="1:11">
       <c r="A301" s="3"/>
       <c r="B301" s="3"/>
       <c r="D301" s="3"/>
-      <c r="E301" s="3"/>
+      <c r="E301" s="49"/>
       <c r="F301" s="3"/>
       <c r="G301" s="3"/>
       <c r="H301" s="3"/>
       <c r="I301" s="3"/>
       <c r="J301" s="3"/>
-      <c r="K301" s="51"/>
+      <c r="K301" s="61"/>
     </row>
     <row r="302" spans="1:11">
       <c r="A302" s="3"/>
       <c r="B302" s="3"/>
       <c r="D302" s="3"/>
-      <c r="E302" s="3"/>
+      <c r="E302" s="49"/>
       <c r="F302" s="3"/>
       <c r="G302" s="3"/>
       <c r="H302" s="3"/>
       <c r="I302" s="3"/>
       <c r="J302" s="3"/>
-      <c r="K302" s="51"/>
+      <c r="K302" s="61"/>
     </row>
     <row r="303" spans="1:11">
       <c r="A303" s="3"/>
       <c r="B303" s="3"/>
       <c r="D303" s="3"/>
-      <c r="E303" s="3"/>
+      <c r="E303" s="49"/>
       <c r="F303" s="3"/>
       <c r="G303" s="3"/>
       <c r="H303" s="3"/>
       <c r="I303" s="3"/>
       <c r="J303" s="3"/>
-      <c r="K303" s="51"/>
+      <c r="K303" s="61"/>
     </row>
     <row r="304" spans="1:11">
       <c r="A304" s="3"/>
       <c r="B304" s="3"/>
       <c r="D304" s="3"/>
-      <c r="E304" s="3"/>
+      <c r="E304" s="49"/>
       <c r="F304" s="3"/>
       <c r="G304" s="3"/>
       <c r="H304" s="3"/>
       <c r="I304" s="3"/>
       <c r="J304" s="3"/>
-      <c r="K304" s="51"/>
+      <c r="K304" s="61"/>
     </row>
     <row r="305" spans="1:11">
       <c r="A305" s="3"/>
       <c r="B305" s="3"/>
       <c r="D305" s="3"/>
-      <c r="E305" s="3"/>
+      <c r="E305" s="49"/>
       <c r="F305" s="3"/>
       <c r="G305" s="3"/>
       <c r="H305" s="3"/>
       <c r="I305" s="3"/>
       <c r="J305" s="3"/>
-      <c r="K305" s="51"/>
+      <c r="K305" s="61"/>
     </row>
     <row r="306" spans="1:11">
       <c r="A306" s="3"/>
       <c r="B306" s="3"/>
       <c r="D306" s="3"/>
-      <c r="E306" s="3"/>
+      <c r="E306" s="49"/>
       <c r="F306" s="3"/>
       <c r="G306" s="3"/>
       <c r="H306" s="3"/>
       <c r="I306" s="3"/>
       <c r="J306" s="3"/>
-      <c r="K306" s="51"/>
+      <c r="K306" s="61"/>
     </row>
     <row r="307" spans="1:11">
       <c r="A307" s="3"/>
       <c r="B307" s="3"/>
       <c r="D307" s="3"/>
-      <c r="E307" s="3"/>
+      <c r="E307" s="49"/>
       <c r="F307" s="3"/>
       <c r="G307" s="3"/>
       <c r="H307" s="3"/>
       <c r="I307" s="3"/>
       <c r="J307" s="3"/>
-      <c r="K307" s="51"/>
+      <c r="K307" s="61"/>
     </row>
     <row r="308" spans="1:11">
       <c r="A308" s="3"/>
       <c r="B308" s="3"/>
       <c r="D308" s="3"/>
-      <c r="E308" s="3"/>
+      <c r="E308" s="49"/>
       <c r="F308" s="3"/>
       <c r="G308" s="3"/>
       <c r="H308" s="3"/>
       <c r="I308" s="3"/>
       <c r="J308" s="3"/>
-      <c r="K308" s="51"/>
+      <c r="K308" s="61"/>
     </row>
     <row r="309" spans="1:11">
       <c r="A309" s="3"/>
       <c r="B309" s="3"/>
       <c r="D309" s="3"/>
-      <c r="E309" s="3"/>
+      <c r="E309" s="49"/>
       <c r="F309" s="3"/>
       <c r="G309" s="3"/>
       <c r="H309" s="3"/>
       <c r="I309" s="3"/>
       <c r="J309" s="3"/>
-      <c r="K309" s="51"/>
+      <c r="K309" s="61"/>
     </row>
     <row r="310" spans="1:11">
       <c r="A310" s="3"/>
       <c r="B310" s="3"/>
       <c r="D310" s="3"/>
-      <c r="E310" s="3"/>
+      <c r="E310" s="49"/>
       <c r="F310" s="3"/>
       <c r="G310" s="3"/>
       <c r="H310" s="3"/>
       <c r="I310" s="3"/>
       <c r="J310" s="3"/>
-      <c r="K310" s="51"/>
+      <c r="K310" s="61"/>
     </row>
     <row r="311" spans="1:11">
       <c r="A311" s="3"/>
       <c r="B311" s="3"/>
       <c r="D311" s="3"/>
-      <c r="E311" s="3"/>
+      <c r="E311" s="49"/>
       <c r="F311" s="3"/>
       <c r="G311" s="3"/>
       <c r="H311" s="3"/>
       <c r="I311" s="3"/>
       <c r="J311" s="3"/>
-      <c r="K311" s="51"/>
+      <c r="K311" s="61"/>
     </row>
     <row r="312" spans="1:11">
       <c r="A312" s="3"/>
       <c r="B312" s="3"/>
       <c r="D312" s="3"/>
-      <c r="E312" s="3"/>
+      <c r="E312" s="49"/>
       <c r="F312" s="3"/>
       <c r="G312" s="3"/>
       <c r="H312" s="3"/>
       <c r="I312" s="3"/>
       <c r="J312" s="3"/>
-      <c r="K312" s="51"/>
+      <c r="K312" s="61"/>
     </row>
     <row r="313" spans="1:11">
       <c r="A313" s="3"/>
       <c r="B313" s="3"/>
       <c r="D313" s="3"/>
-      <c r="E313" s="3"/>
+      <c r="E313" s="49"/>
       <c r="F313" s="3"/>
       <c r="G313" s="3"/>
       <c r="H313" s="3"/>
       <c r="I313" s="3"/>
       <c r="J313" s="3"/>
-      <c r="K313" s="51"/>
+      <c r="K313" s="61"/>
     </row>
     <row r="314" spans="1:11">
       <c r="A314" s="3"/>
       <c r="B314" s="3"/>
       <c r="D314" s="3"/>
-      <c r="E314" s="3"/>
+      <c r="E314" s="49"/>
       <c r="F314" s="3"/>
       <c r="G314" s="3"/>
       <c r="H314" s="3"/>
       <c r="I314" s="3"/>
       <c r="J314" s="3"/>
-      <c r="K314" s="51"/>
+      <c r="K314" s="61"/>
     </row>
     <row r="315" spans="1:11">
       <c r="A315" s="3"/>
       <c r="B315" s="3"/>
       <c r="D315" s="3"/>
-      <c r="E315" s="3"/>
+      <c r="E315" s="49"/>
       <c r="F315" s="3"/>
       <c r="G315" s="3"/>
       <c r="H315" s="3"/>
       <c r="I315" s="3"/>
       <c r="J315" s="3"/>
-      <c r="K315" s="51"/>
+      <c r="K315" s="61"/>
     </row>
     <row r="316" spans="1:11">
       <c r="A316" s="3"/>
       <c r="B316" s="3"/>
       <c r="D316" s="3"/>
-      <c r="E316" s="3"/>
+      <c r="E316" s="49"/>
       <c r="F316" s="3"/>
       <c r="G316" s="3"/>
       <c r="H316" s="3"/>
       <c r="I316" s="3"/>
       <c r="J316" s="3"/>
-      <c r="K316" s="51"/>
+      <c r="K316" s="61"/>
     </row>
     <row r="317" spans="1:11">
       <c r="A317" s="3"/>
       <c r="B317" s="3"/>
       <c r="D317" s="3"/>
-      <c r="E317" s="3"/>
+      <c r="E317" s="49"/>
       <c r="F317" s="3"/>
       <c r="G317" s="3"/>
       <c r="H317" s="3"/>
       <c r="I317" s="3"/>
       <c r="J317" s="3"/>
-      <c r="K317" s="51"/>
+      <c r="K317" s="61"/>
     </row>
     <row r="318" spans="1:11">
       <c r="A318" s="3"/>
       <c r="B318" s="3"/>
       <c r="D318" s="3"/>
-      <c r="E318" s="3"/>
+      <c r="E318" s="49"/>
       <c r="F318" s="3"/>
       <c r="G318" s="3"/>
       <c r="H318" s="3"/>
       <c r="I318" s="3"/>
       <c r="J318" s="3"/>
-      <c r="K318" s="51"/>
+      <c r="K318" s="61"/>
     </row>
     <row r="319" spans="1:11">
       <c r="A319" s="3"/>
       <c r="B319" s="3"/>
       <c r="D319" s="3"/>
-      <c r="E319" s="3"/>
+      <c r="E319" s="49"/>
       <c r="F319" s="3"/>
       <c r="G319" s="3"/>
       <c r="H319" s="3"/>
       <c r="I319" s="3"/>
       <c r="J319" s="3"/>
-      <c r="K319" s="51"/>
+      <c r="K319" s="61"/>
     </row>
     <row r="320" spans="1:11">
       <c r="A320" s="3"/>
       <c r="B320" s="3"/>
       <c r="D320" s="3"/>
-      <c r="E320" s="3"/>
+      <c r="E320" s="49"/>
       <c r="F320" s="3"/>
       <c r="G320" s="3"/>
       <c r="H320" s="3"/>
       <c r="I320" s="3"/>
       <c r="J320" s="3"/>
-      <c r="K320" s="51"/>
+      <c r="K320" s="61"/>
     </row>
     <row r="321" spans="1:11">
       <c r="A321" s="3"/>
       <c r="B321" s="3"/>
       <c r="D321" s="3"/>
-      <c r="E321" s="3"/>
+      <c r="E321" s="49"/>
       <c r="F321" s="3"/>
       <c r="G321" s="3"/>
       <c r="H321" s="3"/>
       <c r="I321" s="3"/>
       <c r="J321" s="3"/>
-      <c r="K321" s="51"/>
+      <c r="K321" s="61"/>
     </row>
     <row r="322" spans="1:11">
       <c r="A322" s="3"/>
       <c r="B322" s="3"/>
       <c r="D322" s="3"/>
-      <c r="E322" s="3"/>
+      <c r="E322" s="49"/>
       <c r="F322" s="3"/>
       <c r="G322" s="3"/>
       <c r="H322" s="3"/>
       <c r="I322" s="3"/>
       <c r="J322" s="3"/>
-      <c r="K322" s="51"/>
+      <c r="K322" s="61"/>
     </row>
     <row r="323" spans="1:11">
       <c r="A323" s="3"/>
       <c r="B323" s="3"/>
       <c r="D323" s="3"/>
-      <c r="E323" s="3"/>
+      <c r="E323" s="49"/>
       <c r="F323" s="3"/>
       <c r="G323" s="3"/>
       <c r="H323" s="3"/>
       <c r="I323" s="3"/>
       <c r="J323" s="3"/>
-      <c r="K323" s="51"/>
+      <c r="K323" s="61"/>
     </row>
     <row r="324" spans="1:11">
       <c r="A324" s="3"/>
       <c r="B324" s="3"/>
       <c r="D324" s="3"/>
-      <c r="E324" s="3"/>
+      <c r="E324" s="49"/>
       <c r="F324" s="3"/>
       <c r="G324" s="3"/>
       <c r="H324" s="3"/>
       <c r="I324" s="3"/>
       <c r="J324" s="3"/>
-      <c r="K324" s="51"/>
+      <c r="K324" s="61"/>
     </row>
     <row r="325" spans="1:11">
       <c r="A325" s="3"/>
       <c r="B325" s="3"/>
       <c r="D325" s="3"/>
-      <c r="E325" s="3"/>
+      <c r="E325" s="49"/>
       <c r="F325" s="3"/>
       <c r="G325" s="3"/>
       <c r="H325" s="3"/>
       <c r="I325" s="3"/>
       <c r="J325" s="3"/>
-      <c r="K325" s="51"/>
+      <c r="K325" s="61"/>
     </row>
     <row r="326" spans="1:11">
       <c r="A326" s="3"/>
       <c r="B326" s="3"/>
       <c r="D326" s="3"/>
-      <c r="E326" s="3"/>
+      <c r="E326" s="49"/>
       <c r="F326" s="3"/>
       <c r="G326" s="3"/>
       <c r="H326" s="3"/>
       <c r="I326" s="3"/>
       <c r="J326" s="3"/>
-      <c r="K326" s="51"/>
+      <c r="K326" s="61"/>
     </row>
     <row r="327" spans="1:11">
       <c r="A327" s="3"/>
       <c r="B327" s="3"/>
       <c r="D327" s="3"/>
-      <c r="E327" s="3"/>
+      <c r="E327" s="49"/>
       <c r="F327" s="3"/>
       <c r="G327" s="3"/>
       <c r="H327" s="3"/>
       <c r="I327" s="3"/>
       <c r="J327" s="3"/>
-      <c r="K327" s="51"/>
+      <c r="K327" s="61"/>
     </row>
     <row r="328" spans="1:11">
       <c r="A328" s="3"/>
       <c r="B328" s="3"/>
       <c r="D328" s="3"/>
-      <c r="E328" s="3"/>
+      <c r="E328" s="49"/>
       <c r="F328" s="3"/>
       <c r="G328" s="3"/>
       <c r="H328" s="3"/>
       <c r="I328" s="3"/>
       <c r="J328" s="3"/>
-      <c r="K328" s="51"/>
+      <c r="K328" s="61"/>
     </row>
     <row r="329" spans="1:11">
       <c r="A329" s="3"/>
       <c r="B329" s="3"/>
       <c r="D329" s="3"/>
-      <c r="E329" s="3"/>
+      <c r="E329" s="49"/>
       <c r="F329" s="3"/>
       <c r="G329" s="3"/>
       <c r="H329" s="3"/>
       <c r="I329" s="3"/>
       <c r="J329" s="3"/>
-      <c r="K329" s="51"/>
+      <c r="K329" s="61"/>
     </row>
     <row r="330" spans="1:11">
       <c r="A330" s="3"/>
       <c r="B330" s="3"/>
       <c r="D330" s="3"/>
-      <c r="E330" s="3"/>
+      <c r="E330" s="49"/>
       <c r="F330" s="3"/>
       <c r="G330" s="3"/>
       <c r="H330" s="3"/>
       <c r="I330" s="3"/>
       <c r="J330" s="3"/>
-      <c r="K330" s="51"/>
+      <c r="K330" s="61"/>
     </row>
     <row r="331" spans="1:11">
       <c r="A331" s="3"/>
       <c r="B331" s="3"/>
       <c r="D331" s="3"/>
-      <c r="E331" s="3"/>
+      <c r="E331" s="49"/>
       <c r="F331" s="3"/>
       <c r="G331" s="3"/>
       <c r="H331" s="3"/>
       <c r="I331" s="3"/>
       <c r="J331" s="3"/>
-      <c r="K331" s="51"/>
+      <c r="K331" s="61"/>
     </row>
     <row r="332" spans="1:11">
       <c r="A332" s="3"/>
       <c r="B332" s="3"/>
       <c r="D332" s="3"/>
-      <c r="E332" s="3"/>
+      <c r="E332" s="49"/>
       <c r="F332" s="3"/>
       <c r="G332" s="3"/>
       <c r="H332" s="3"/>
       <c r="I332" s="3"/>
       <c r="J332" s="3"/>
-      <c r="K332" s="51"/>
+      <c r="K332" s="61"/>
     </row>
     <row r="333" spans="1:11">
       <c r="A333" s="3"/>
       <c r="B333" s="3"/>
       <c r="D333" s="3"/>
-      <c r="E333" s="3"/>
+      <c r="E333" s="49"/>
       <c r="F333" s="3"/>
       <c r="G333" s="3"/>
       <c r="H333" s="3"/>
       <c r="I333" s="3"/>
       <c r="J333" s="3"/>
-      <c r="K333" s="51"/>
+      <c r="K333" s="61"/>
     </row>
     <row r="334" spans="1:11">
       <c r="A334" s="3"/>
       <c r="B334" s="3"/>
       <c r="D334" s="3"/>
-      <c r="E334" s="3"/>
+      <c r="E334" s="49"/>
       <c r="F334" s="3"/>
       <c r="G334" s="3"/>
       <c r="H334" s="3"/>
       <c r="I334" s="3"/>
       <c r="J334" s="3"/>
-      <c r="K334" s="51"/>
+      <c r="K334" s="61"/>
     </row>
     <row r="335" spans="1:11">
       <c r="A335" s="3"/>
       <c r="B335" s="3"/>
       <c r="D335" s="3"/>
-      <c r="E335" s="3"/>
+      <c r="E335" s="49"/>
       <c r="F335" s="3"/>
       <c r="G335" s="3"/>
       <c r="H335" s="3"/>
       <c r="I335" s="3"/>
       <c r="J335" s="3"/>
-      <c r="K335" s="51"/>
+      <c r="K335" s="61"/>
     </row>
     <row r="336" spans="1:11">
       <c r="A336" s="3"/>
       <c r="B336" s="3"/>
       <c r="D336" s="3"/>
-      <c r="E336" s="3"/>
+      <c r="E336" s="49"/>
       <c r="F336" s="3"/>
       <c r="G336" s="3"/>
       <c r="H336" s="3"/>
       <c r="I336" s="3"/>
       <c r="J336" s="3"/>
-      <c r="K336" s="51"/>
+      <c r="K336" s="61"/>
     </row>
     <row r="337" spans="1:11">
       <c r="A337" s="3"/>
       <c r="B337" s="3"/>
       <c r="D337" s="3"/>
-      <c r="E337" s="3"/>
+      <c r="E337" s="49"/>
       <c r="F337" s="3"/>
       <c r="G337" s="3"/>
       <c r="H337" s="3"/>
       <c r="I337" s="3"/>
       <c r="J337" s="3"/>
-      <c r="K337" s="51"/>
+      <c r="K337" s="61"/>
     </row>
     <row r="338" spans="1:11">
       <c r="A338" s="3"/>
       <c r="B338" s="3"/>
       <c r="D338" s="3"/>
-      <c r="E338" s="3"/>
+      <c r="E338" s="49"/>
       <c r="F338" s="3"/>
       <c r="G338" s="3"/>
       <c r="H338" s="3"/>
       <c r="I338" s="3"/>
       <c r="J338" s="3"/>
-      <c r="K338" s="51"/>
+      <c r="K338" s="61"/>
     </row>
     <row r="339" spans="1:11">
       <c r="A339" s="3"/>
       <c r="B339" s="3"/>
       <c r="D339" s="3"/>
-      <c r="E339" s="3"/>
+      <c r="E339" s="49"/>
       <c r="F339" s="3"/>
       <c r="G339" s="3"/>
       <c r="H339" s="3"/>
       <c r="I339" s="3"/>
       <c r="J339" s="3"/>
-      <c r="K339" s="51"/>
+      <c r="K339" s="61"/>
     </row>
     <row r="340" spans="1:11">
       <c r="A340" s="3"/>
       <c r="B340" s="3"/>
       <c r="D340" s="3"/>
-      <c r="E340" s="3"/>
+      <c r="E340" s="49"/>
       <c r="F340" s="3"/>
       <c r="G340" s="3"/>
       <c r="H340" s="3"/>
       <c r="I340" s="3"/>
       <c r="J340" s="3"/>
-      <c r="K340" s="51"/>
+      <c r="K340" s="61"/>
     </row>
     <row r="341" spans="1:11">
       <c r="A341" s="3"/>
       <c r="B341" s="3"/>
       <c r="D341" s="3"/>
-      <c r="E341" s="3"/>
+      <c r="E341" s="49"/>
       <c r="F341" s="3"/>
       <c r="G341" s="3"/>
       <c r="H341" s="3"/>
       <c r="I341" s="3"/>
       <c r="J341" s="3"/>
-      <c r="K341" s="51"/>
+      <c r="K341" s="61"/>
     </row>
     <row r="342" spans="1:11">
       <c r="A342" s="3"/>
       <c r="B342" s="3"/>
       <c r="D342" s="3"/>
-      <c r="E342" s="3"/>
+      <c r="E342" s="49"/>
       <c r="F342" s="3"/>
       <c r="G342" s="3"/>
       <c r="H342" s="3"/>
       <c r="I342" s="3"/>
       <c r="J342" s="3"/>
-      <c r="K342" s="51"/>
+      <c r="K342" s="61"/>
     </row>
     <row r="343" spans="1:11">
       <c r="A343" s="3"/>
       <c r="B343" s="3"/>
       <c r="D343" s="3"/>
-      <c r="E343" s="3"/>
+      <c r="E343" s="49"/>
       <c r="F343" s="3"/>
       <c r="G343" s="3"/>
       <c r="H343" s="3"/>
       <c r="I343" s="3"/>
       <c r="J343" s="3"/>
-      <c r="K343" s="51"/>
+      <c r="K343" s="61"/>
     </row>
     <row r="344" spans="1:11">
       <c r="A344" s="3"/>
       <c r="B344" s="3"/>
       <c r="D344" s="3"/>
-      <c r="E344" s="3"/>
+      <c r="E344" s="49"/>
       <c r="F344" s="3"/>
       <c r="G344" s="3"/>
       <c r="H344" s="3"/>
       <c r="I344" s="3"/>
       <c r="J344" s="3"/>
-      <c r="K344" s="51"/>
+      <c r="K344" s="61"/>
     </row>
     <row r="345" spans="1:11">
       <c r="A345" s="3"/>
       <c r="B345" s="3"/>
       <c r="D345" s="3"/>
-      <c r="E345" s="3"/>
+      <c r="E345" s="49"/>
       <c r="F345" s="3"/>
       <c r="G345" s="3"/>
       <c r="H345" s="3"/>
       <c r="I345" s="3"/>
       <c r="J345" s="3"/>
-      <c r="K345" s="51"/>
+      <c r="K345" s="61"/>
     </row>
     <row r="346" spans="1:11">
       <c r="A346" s="3"/>
       <c r="B346" s="3"/>
       <c r="D346" s="3"/>
-      <c r="E346" s="3"/>
+      <c r="E346" s="49"/>
       <c r="F346" s="3"/>
       <c r="G346" s="3"/>
       <c r="H346" s="3"/>
       <c r="I346" s="3"/>
       <c r="J346" s="3"/>
-      <c r="K346" s="51"/>
+      <c r="K346" s="61"/>
     </row>
     <row r="347" spans="1:11">
       <c r="A347" s="3"/>
       <c r="B347" s="3"/>
       <c r="D347" s="3"/>
-      <c r="E347" s="3"/>
+      <c r="E347" s="49"/>
       <c r="F347" s="3"/>
       <c r="G347" s="3"/>
       <c r="H347" s="3"/>
       <c r="I347" s="3"/>
       <c r="J347" s="3"/>
-      <c r="K347" s="51"/>
+      <c r="K347" s="61"/>
     </row>
     <row r="348" spans="1:11">
       <c r="A348" s="3"/>
       <c r="B348" s="3"/>
       <c r="D348" s="3"/>
-      <c r="E348" s="3"/>
+      <c r="E348" s="49"/>
       <c r="F348" s="3"/>
       <c r="G348" s="3"/>
       <c r="H348" s="3"/>
       <c r="I348" s="3"/>
       <c r="J348" s="3"/>
-      <c r="K348" s="51"/>
+      <c r="K348" s="61"/>
     </row>
     <row r="349" spans="1:11">
       <c r="A349" s="3"/>
       <c r="B349" s="3"/>
       <c r="D349" s="3"/>
-      <c r="E349" s="3"/>
+      <c r="E349" s="49"/>
       <c r="F349" s="3"/>
       <c r="G349" s="3"/>
       <c r="H349" s="3"/>
       <c r="I349" s="3"/>
       <c r="J349" s="3"/>
-      <c r="K349" s="51"/>
+      <c r="K349" s="61"/>
     </row>
     <row r="350" spans="1:11">
       <c r="A350" s="3"/>
       <c r="B350" s="3"/>
       <c r="D350" s="3"/>
-      <c r="E350" s="3"/>
+      <c r="E350" s="49"/>
       <c r="F350" s="3"/>
       <c r="G350" s="3"/>
       <c r="H350" s="3"/>
       <c r="I350" s="3"/>
       <c r="J350" s="3"/>
-      <c r="K350" s="51"/>
+      <c r="K350" s="61"/>
     </row>
     <row r="351" spans="1:11">
       <c r="A351" s="3"/>
       <c r="B351" s="3"/>
       <c r="D351" s="3"/>
-      <c r="E351" s="3"/>
+      <c r="E351" s="49"/>
       <c r="F351" s="3"/>
       <c r="G351" s="3"/>
       <c r="H351" s="3"/>
       <c r="I351" s="3"/>
       <c r="J351" s="3"/>
-      <c r="K351" s="51"/>
+      <c r="K351" s="61"/>
     </row>
     <row r="352" spans="1:11">
       <c r="A352" s="3"/>
       <c r="B352" s="3"/>
       <c r="D352" s="3"/>
-      <c r="E352" s="3"/>
+      <c r="E352" s="49"/>
       <c r="F352" s="3"/>
       <c r="G352" s="3"/>
       <c r="H352" s="3"/>
       <c r="I352" s="3"/>
       <c r="J352" s="3"/>
-      <c r="K352" s="51"/>
+      <c r="K352" s="61"/>
     </row>
     <row r="353" spans="1:11">
       <c r="A353" s="3"/>
       <c r="B353" s="3"/>
       <c r="D353" s="3"/>
-      <c r="E353" s="3"/>
+      <c r="E353" s="49"/>
       <c r="F353" s="3"/>
       <c r="G353" s="3"/>
       <c r="H353" s="3"/>
       <c r="I353" s="3"/>
       <c r="J353" s="3"/>
-      <c r="K353" s="51"/>
+      <c r="K353" s="61"/>
     </row>
     <row r="354" spans="1:11">
       <c r="A354" s="3"/>
       <c r="B354" s="3"/>
       <c r="D354" s="3"/>
-      <c r="E354" s="3"/>
+      <c r="E354" s="49"/>
       <c r="F354" s="3"/>
       <c r="G354" s="3"/>
       <c r="H354" s="3"/>
       <c r="I354" s="3"/>
       <c r="J354" s="3"/>
-      <c r="K354" s="51"/>
+      <c r="K354" s="61"/>
     </row>
     <row r="355" spans="1:11">
       <c r="A355" s="3"/>
       <c r="B355" s="3"/>
       <c r="D355" s="3"/>
-      <c r="E355" s="3"/>
+      <c r="E355" s="49"/>
       <c r="F355" s="3"/>
       <c r="G355" s="3"/>
       <c r="H355" s="3"/>
       <c r="I355" s="3"/>
       <c r="J355" s="3"/>
-      <c r="K355" s="51"/>
+      <c r="K355" s="61"/>
     </row>
     <row r="356" spans="1:11">
       <c r="A356" s="3"/>
       <c r="B356" s="3"/>
       <c r="D356" s="3"/>
-      <c r="E356" s="3"/>
+      <c r="E356" s="49"/>
       <c r="F356" s="3"/>
       <c r="G356" s="3"/>
       <c r="H356" s="3"/>
       <c r="I356" s="3"/>
       <c r="J356" s="3"/>
-      <c r="K356" s="51"/>
+      <c r="K356" s="61"/>
     </row>
     <row r="357" spans="1:11">
       <c r="A357" s="3"/>
       <c r="B357" s="3"/>
       <c r="D357" s="3"/>
-      <c r="E357" s="3"/>
+      <c r="E357" s="49"/>
       <c r="F357" s="3"/>
       <c r="G357" s="3"/>
       <c r="H357" s="3"/>
       <c r="I357" s="3"/>
       <c r="J357" s="3"/>
-      <c r="K357" s="51"/>
+      <c r="K357" s="61"/>
     </row>
     <row r="358" spans="1:11">
       <c r="A358" s="3"/>
       <c r="B358" s="3"/>
       <c r="D358" s="3"/>
-      <c r="E358" s="3"/>
+      <c r="E358" s="49"/>
       <c r="F358" s="3"/>
       <c r="G358" s="3"/>
       <c r="H358" s="3"/>
       <c r="I358" s="3"/>
       <c r="J358" s="3"/>
-      <c r="K358" s="51"/>
+      <c r="K358" s="61"/>
     </row>
     <row r="359" spans="1:11">
       <c r="A359" s="3"/>
       <c r="B359" s="3"/>
       <c r="D359" s="3"/>
-      <c r="E359" s="3"/>
+      <c r="E359" s="49"/>
       <c r="F359" s="3"/>
       <c r="G359" s="3"/>
       <c r="H359" s="3"/>
       <c r="I359" s="3"/>
       <c r="J359" s="3"/>
-      <c r="K359" s="51"/>
+      <c r="K359" s="61"/>
     </row>
     <row r="360" spans="1:11">
       <c r="A360" s="3"/>
       <c r="B360" s="3"/>
       <c r="D360" s="3"/>
-      <c r="E360" s="3"/>
+      <c r="E360" s="49"/>
       <c r="F360" s="3"/>
       <c r="G360" s="3"/>
       <c r="H360" s="3"/>
       <c r="I360" s="3"/>
       <c r="J360" s="3"/>
-      <c r="K360" s="51"/>
+      <c r="K360" s="61"/>
     </row>
     <row r="361" spans="1:11">
       <c r="A361" s="3"/>
       <c r="B361" s="3"/>
       <c r="D361" s="3"/>
-      <c r="E361" s="3"/>
+      <c r="E361" s="49"/>
       <c r="F361" s="3"/>
       <c r="G361" s="3"/>
       <c r="H361" s="3"/>
       <c r="I361" s="3"/>
       <c r="J361" s="3"/>
-      <c r="K361" s="51"/>
+      <c r="K361" s="61"/>
     </row>
     <row r="362" spans="1:11">
       <c r="A362" s="3"/>
       <c r="B362" s="3"/>
       <c r="D362" s="3"/>
-      <c r="E362" s="3"/>
+      <c r="E362" s="49"/>
       <c r="F362" s="3"/>
       <c r="G362" s="3"/>
       <c r="H362" s="3"/>
       <c r="I362" s="3"/>
       <c r="J362" s="3"/>
-      <c r="K362" s="51"/>
+      <c r="K362" s="61"/>
     </row>
     <row r="363" spans="1:11">
       <c r="A363" s="3"/>
       <c r="B363" s="3"/>
       <c r="D363" s="3"/>
-      <c r="E363" s="3"/>
+      <c r="E363" s="49"/>
       <c r="F363" s="3"/>
       <c r="G363" s="3"/>
       <c r="H363" s="3"/>
       <c r="I363" s="3"/>
       <c r="J363" s="3"/>
-      <c r="K363" s="51"/>
+      <c r="K363" s="61"/>
     </row>
     <row r="364" spans="1:11">
       <c r="A364" s="3"/>
       <c r="B364" s="3"/>
       <c r="D364" s="3"/>
-      <c r="E364" s="3"/>
+      <c r="E364" s="49"/>
       <c r="F364" s="3"/>
       <c r="G364" s="3"/>
       <c r="H364" s="3"/>
       <c r="I364" s="3"/>
       <c r="J364" s="3"/>
-      <c r="K364" s="51"/>
+      <c r="K364" s="61"/>
     </row>
     <row r="365" spans="1:11">
       <c r="A365" s="3"/>
       <c r="B365" s="3"/>
       <c r="D365" s="3"/>
-      <c r="E365" s="3"/>
+      <c r="E365" s="49"/>
       <c r="F365" s="3"/>
       <c r="G365" s="3"/>
       <c r="H365" s="3"/>
       <c r="I365" s="3"/>
       <c r="J365" s="3"/>
-      <c r="K365" s="51"/>
+      <c r="K365" s="61"/>
     </row>
     <row r="366" spans="1:11">
       <c r="A366" s="3"/>
       <c r="B366" s="3"/>
       <c r="D366" s="3"/>
-      <c r="E366" s="3"/>
+      <c r="E366" s="49"/>
       <c r="F366" s="3"/>
       <c r="G366" s="3"/>
       <c r="H366" s="3"/>
       <c r="I366" s="3"/>
       <c r="J366" s="3"/>
-      <c r="K366" s="51"/>
+      <c r="K366" s="61"/>
     </row>
     <row r="367" spans="1:11">
       <c r="A367" s="3"/>
       <c r="B367" s="3"/>
       <c r="D367" s="3"/>
-      <c r="E367" s="3"/>
+      <c r="E367" s="49"/>
       <c r="F367" s="3"/>
       <c r="G367" s="3"/>
       <c r="H367" s="3"/>
       <c r="I367" s="3"/>
       <c r="J367" s="3"/>
-      <c r="K367" s="51"/>
+      <c r="K367" s="61"/>
     </row>
     <row r="368" spans="1:11">
       <c r="A368" s="3"/>
       <c r="B368" s="3"/>
       <c r="D368" s="3"/>
-      <c r="E368" s="3"/>
+      <c r="E368" s="49"/>
       <c r="F368" s="3"/>
       <c r="G368" s="3"/>
       <c r="H368" s="3"/>
       <c r="I368" s="3"/>
       <c r="J368" s="3"/>
-      <c r="K368" s="51"/>
+      <c r="K368" s="61"/>
     </row>
     <row r="369" spans="1:11">
       <c r="A369" s="3"/>
       <c r="B369" s="3"/>
       <c r="D369" s="3"/>
-      <c r="E369" s="3"/>
+      <c r="E369" s="49"/>
       <c r="F369" s="3"/>
       <c r="G369" s="3"/>
       <c r="H369" s="3"/>
       <c r="I369" s="3"/>
       <c r="J369" s="3"/>
-      <c r="K369" s="51"/>
+      <c r="K369" s="61"/>
     </row>
     <row r="370" spans="1:11">
       <c r="A370" s="3"/>
       <c r="B370" s="3"/>
       <c r="D370" s="3"/>
-      <c r="E370" s="3"/>
+      <c r="E370" s="49"/>
       <c r="F370" s="3"/>
       <c r="G370" s="3"/>
       <c r="H370" s="3"/>
       <c r="I370" s="3"/>
       <c r="J370" s="3"/>
-      <c r="K370" s="51"/>
+      <c r="K370" s="61"/>
     </row>
     <row r="371" spans="1:11">
       <c r="A371" s="3"/>
       <c r="B371" s="3"/>
       <c r="D371" s="3"/>
-      <c r="E371" s="3"/>
+      <c r="E371" s="49"/>
       <c r="F371" s="3"/>
       <c r="G371" s="3"/>
       <c r="H371" s="3"/>
       <c r="I371" s="3"/>
       <c r="J371" s="3"/>
-      <c r="K371" s="51"/>
+      <c r="K371" s="61"/>
     </row>
     <row r="372" spans="1:11">
       <c r="A372" s="3"/>
       <c r="B372" s="3"/>
       <c r="D372" s="3"/>
-      <c r="E372" s="3"/>
+      <c r="E372" s="49"/>
       <c r="F372" s="3"/>
       <c r="G372" s="3"/>
       <c r="H372" s="3"/>
       <c r="I372" s="3"/>
       <c r="J372" s="3"/>
-      <c r="K372" s="51"/>
+      <c r="K372" s="61"/>
     </row>
     <row r="373" spans="1:11">
       <c r="A373" s="3"/>
       <c r="B373" s="3"/>
       <c r="D373" s="3"/>
-      <c r="E373" s="3"/>
+      <c r="E373" s="49"/>
       <c r="F373" s="3"/>
       <c r="G373" s="3"/>
       <c r="H373" s="3"/>
       <c r="I373" s="3"/>
       <c r="J373" s="3"/>
-      <c r="K373" s="51"/>
+      <c r="K373" s="61"/>
     </row>
     <row r="374" spans="1:11">
       <c r="A374" s="3"/>
       <c r="B374" s="3"/>
       <c r="D374" s="3"/>
-      <c r="E374" s="3"/>
+      <c r="E374" s="49"/>
       <c r="F374" s="3"/>
       <c r="G374" s="3"/>
       <c r="H374" s="3"/>
       <c r="I374" s="3"/>
       <c r="J374" s="3"/>
-      <c r="K374" s="51"/>
+      <c r="K374" s="61"/>
     </row>
     <row r="375" spans="1:11">
       <c r="A375" s="3"/>
       <c r="B375" s="3"/>
       <c r="D375" s="3"/>
-      <c r="E375" s="3"/>
+      <c r="E375" s="49"/>
       <c r="F375" s="3"/>
       <c r="G375" s="3"/>
       <c r="H375" s="3"/>
       <c r="I375" s="3"/>
       <c r="J375" s="3"/>
-      <c r="K375" s="51"/>
+      <c r="K375" s="61"/>
     </row>
     <row r="376" spans="1:11">
       <c r="A376" s="3"/>
       <c r="B376" s="3"/>
       <c r="D376" s="3"/>
-      <c r="E376" s="3"/>
+      <c r="E376" s="49"/>
       <c r="F376" s="3"/>
       <c r="G376" s="3"/>
       <c r="H376" s="3"/>
       <c r="I376" s="3"/>
       <c r="J376" s="3"/>
-      <c r="K376" s="51"/>
+      <c r="K376" s="61"/>
     </row>
     <row r="377" spans="1:11">
       <c r="A377" s="3"/>
       <c r="B377" s="3"/>
       <c r="D377" s="3"/>
-      <c r="E377" s="3"/>
+      <c r="E377" s="49"/>
       <c r="F377" s="3"/>
       <c r="G377" s="3"/>
       <c r="H377" s="3"/>
       <c r="I377" s="3"/>
       <c r="J377" s="3"/>
-      <c r="K377" s="51"/>
+      <c r="K377" s="61"/>
     </row>
     <row r="378" spans="1:11">
       <c r="A378" s="3"/>
       <c r="B378" s="3"/>
       <c r="D378" s="3"/>
-      <c r="E378" s="3"/>
+      <c r="E378" s="49"/>
       <c r="F378" s="3"/>
       <c r="G378" s="3"/>
       <c r="H378" s="3"/>
       <c r="I378" s="3"/>
       <c r="J378" s="3"/>
-      <c r="K378" s="51"/>
+      <c r="K378" s="61"/>
     </row>
     <row r="379" spans="1:11">
       <c r="A379" s="3"/>
       <c r="B379" s="3"/>
       <c r="D379" s="3"/>
-      <c r="E379" s="3"/>
+      <c r="E379" s="49"/>
       <c r="F379" s="3"/>
       <c r="G379" s="3"/>
       <c r="H379" s="3"/>
       <c r="I379" s="3"/>
       <c r="J379" s="3"/>
-      <c r="K379" s="51"/>
+      <c r="K379" s="61"/>
     </row>
     <row r="380" spans="1:11">
       <c r="A380" s="3"/>
       <c r="B380" s="3"/>
       <c r="D380" s="3"/>
-      <c r="E380" s="3"/>
+      <c r="E380" s="49"/>
       <c r="F380" s="3"/>
       <c r="G380" s="3"/>
       <c r="H380" s="3"/>
       <c r="I380" s="3"/>
       <c r="J380" s="3"/>
-      <c r="K380" s="51"/>
+      <c r="K380" s="61"/>
     </row>
     <row r="381" spans="1:11">
       <c r="A381" s="3"/>
       <c r="B381" s="3"/>
       <c r="D381" s="3"/>
-      <c r="E381" s="3"/>
+      <c r="E381" s="49"/>
       <c r="F381" s="3"/>
       <c r="G381" s="3"/>
       <c r="H381" s="3"/>
       <c r="I381" s="3"/>
       <c r="J381" s="3"/>
-      <c r="K381" s="51"/>
+      <c r="K381" s="61"/>
     </row>
     <row r="382" spans="1:11">
       <c r="A382" s="3"/>
       <c r="B382" s="3"/>
       <c r="D382" s="3"/>
-      <c r="E382" s="3"/>
+      <c r="E382" s="49"/>
       <c r="F382" s="3"/>
       <c r="G382" s="3"/>
       <c r="H382" s="3"/>
       <c r="I382" s="3"/>
       <c r="J382" s="3"/>
-      <c r="K382" s="51"/>
+      <c r="K382" s="61"/>
     </row>
     <row r="383" spans="1:11">
       <c r="A383" s="3"/>
       <c r="B383" s="3"/>
       <c r="D383" s="3"/>
-      <c r="E383" s="3"/>
+      <c r="E383" s="49"/>
       <c r="F383" s="3"/>
       <c r="G383" s="3"/>
       <c r="H383" s="3"/>
       <c r="I383" s="3"/>
       <c r="J383" s="3"/>
-      <c r="K383" s="51"/>
+      <c r="K383" s="61"/>
     </row>
     <row r="384" spans="1:11">
       <c r="A384" s="3"/>
       <c r="B384" s="3"/>
       <c r="D384" s="3"/>
-      <c r="E384" s="3"/>
+      <c r="E384" s="49"/>
       <c r="F384" s="3"/>
       <c r="G384" s="3"/>
       <c r="H384" s="3"/>
       <c r="I384" s="3"/>
       <c r="J384" s="3"/>
-      <c r="K384" s="51"/>
+      <c r="K384" s="61"/>
     </row>
     <row r="385" spans="1:11">
       <c r="A385" s="3"/>
       <c r="B385" s="3"/>
       <c r="D385" s="3"/>
-      <c r="E385" s="3"/>
+      <c r="E385" s="49"/>
       <c r="F385" s="3"/>
       <c r="G385" s="3"/>
       <c r="H385" s="3"/>
       <c r="I385" s="3"/>
       <c r="J385" s="3"/>
-      <c r="K385" s="51"/>
+      <c r="K385" s="61"/>
     </row>
     <row r="386" spans="1:11">
       <c r="A386" s="3"/>
       <c r="B386" s="3"/>
       <c r="D386" s="3"/>
-      <c r="E386" s="3"/>
+      <c r="E386" s="49"/>
       <c r="F386" s="3"/>
       <c r="G386" s="3"/>
       <c r="H386" s="3"/>
       <c r="I386" s="3"/>
       <c r="J386" s="3"/>
-      <c r="K386" s="51"/>
+      <c r="K386" s="61"/>
     </row>
     <row r="387" spans="1:11">
       <c r="A387" s="3"/>
       <c r="B387" s="3"/>
       <c r="D387" s="3"/>
-      <c r="E387" s="3"/>
+      <c r="E387" s="49"/>
       <c r="F387" s="3"/>
       <c r="G387" s="3"/>
       <c r="H387" s="3"/>
       <c r="I387" s="3"/>
       <c r="J387" s="3"/>
-      <c r="K387" s="51"/>
+      <c r="K387" s="61"/>
     </row>
     <row r="388" spans="1:11">
       <c r="A388" s="3"/>
       <c r="B388" s="3"/>
       <c r="D388" s="3"/>
-      <c r="E388" s="3"/>
+      <c r="E388" s="49"/>
       <c r="F388" s="3"/>
       <c r="G388" s="3"/>
       <c r="H388" s="3"/>
       <c r="I388" s="3"/>
       <c r="J388" s="3"/>
-      <c r="K388" s="51"/>
+      <c r="K388" s="61"/>
     </row>
     <row r="389" spans="1:11">
       <c r="A389" s="3"/>
       <c r="B389" s="3"/>
       <c r="D389" s="3"/>
-      <c r="E389" s="3"/>
+      <c r="E389" s="49"/>
       <c r="F389" s="3"/>
       <c r="G389" s="3"/>
       <c r="H389" s="3"/>
       <c r="I389" s="3"/>
       <c r="J389" s="3"/>
-      <c r="K389" s="51"/>
+      <c r="K389" s="61"/>
     </row>
     <row r="390" spans="1:11">
       <c r="A390" s="3"/>
       <c r="B390" s="3"/>
       <c r="D390" s="3"/>
-      <c r="E390" s="3"/>
+      <c r="E390" s="49"/>
       <c r="F390" s="3"/>
       <c r="G390" s="3"/>
       <c r="H390" s="3"/>
       <c r="I390" s="3"/>
       <c r="J390" s="3"/>
-      <c r="K390" s="51"/>
+      <c r="K390" s="61"/>
     </row>
     <row r="391" spans="1:11">
       <c r="A391" s="3"/>
       <c r="B391" s="3"/>
       <c r="D391" s="3"/>
-      <c r="E391" s="3"/>
+      <c r="E391" s="49"/>
       <c r="F391" s="3"/>
       <c r="G391" s="3"/>
       <c r="H391" s="3"/>
       <c r="I391" s="3"/>
       <c r="J391" s="3"/>
-      <c r="K391" s="51"/>
+      <c r="K391" s="61"/>
     </row>
     <row r="392" spans="1:11">
       <c r="A392" s="3"/>
       <c r="B392" s="3"/>
       <c r="D392" s="3"/>
-      <c r="E392" s="3"/>
+      <c r="E392" s="49"/>
       <c r="F392" s="3"/>
       <c r="G392" s="3"/>
       <c r="H392" s="3"/>
       <c r="I392" s="3"/>
       <c r="J392" s="3"/>
-      <c r="K392" s="51"/>
+      <c r="K392" s="61"/>
     </row>
     <row r="393" spans="1:11">
       <c r="A393" s="3"/>
       <c r="B393" s="3"/>
       <c r="D393" s="3"/>
-      <c r="E393" s="3"/>
+      <c r="E393" s="49"/>
       <c r="F393" s="3"/>
       <c r="G393" s="3"/>
       <c r="H393" s="3"/>
       <c r="I393" s="3"/>
       <c r="J393" s="3"/>
-      <c r="K393" s="51"/>
+      <c r="K393" s="61"/>
     </row>
     <row r="394" spans="1:11">
       <c r="A394" s="3"/>
       <c r="B394" s="3"/>
       <c r="D394" s="3"/>
-      <c r="E394" s="3"/>
+      <c r="E394" s="49"/>
       <c r="F394" s="3"/>
       <c r="G394" s="3"/>
       <c r="H394" s="3"/>
       <c r="I394" s="3"/>
       <c r="J394" s="3"/>
-      <c r="K394" s="51"/>
+      <c r="K394" s="61"/>
     </row>
     <row r="395" spans="1:11">
       <c r="A395" s="3"/>
       <c r="B395" s="3"/>
       <c r="D395" s="3"/>
-      <c r="E395" s="3"/>
+      <c r="E395" s="49"/>
       <c r="F395" s="3"/>
       <c r="G395" s="3"/>
       <c r="H395" s="3"/>
       <c r="I395" s="3"/>
       <c r="J395" s="3"/>
-      <c r="K395" s="51"/>
+      <c r="K395" s="61"/>
     </row>
     <row r="396" spans="1:11">
       <c r="A396" s="3"/>
       <c r="B396" s="3"/>
       <c r="D396" s="3"/>
-      <c r="E396" s="3"/>
+      <c r="E396" s="49"/>
       <c r="F396" s="3"/>
       <c r="G396" s="3"/>
       <c r="H396" s="3"/>
       <c r="I396" s="3"/>
       <c r="J396" s="3"/>
-      <c r="K396" s="51"/>
+      <c r="K396" s="61"/>
     </row>
     <row r="397" spans="1:11">
       <c r="A397" s="3"/>
       <c r="B397" s="3"/>
       <c r="D397" s="3"/>
-      <c r="E397" s="3"/>
+      <c r="E397" s="49"/>
       <c r="F397" s="3"/>
       <c r="G397" s="3"/>
       <c r="H397" s="3"/>
       <c r="I397" s="3"/>
       <c r="J397" s="3"/>
-      <c r="K397" s="51"/>
+      <c r="K397" s="61"/>
     </row>
     <row r="398" spans="1:11">
       <c r="A398" s="3"/>
       <c r="B398" s="3"/>
       <c r="D398" s="3"/>
-      <c r="E398" s="3"/>
+      <c r="E398" s="49"/>
       <c r="F398" s="3"/>
       <c r="G398" s="3"/>
       <c r="H398" s="3"/>
       <c r="I398" s="3"/>
       <c r="J398" s="3"/>
-      <c r="K398" s="51"/>
+      <c r="K398" s="61"/>
     </row>
     <row r="399" spans="1:11">
       <c r="A399" s="3"/>
       <c r="B399" s="3"/>
       <c r="D399" s="3"/>
-      <c r="E399" s="3"/>
+      <c r="E399" s="49"/>
       <c r="F399" s="3"/>
       <c r="G399" s="3"/>
       <c r="H399" s="3"/>
       <c r="I399" s="3"/>
       <c r="J399" s="3"/>
-      <c r="K399" s="51"/>
+      <c r="K399" s="61"/>
     </row>
     <row r="400" spans="1:11">
       <c r="A400" s="3"/>
       <c r="B400" s="3"/>
       <c r="D400" s="3"/>
-      <c r="E400" s="3"/>
+      <c r="E400" s="49"/>
       <c r="F400" s="3"/>
       <c r="G400" s="3"/>
       <c r="H400" s="3"/>
       <c r="I400" s="3"/>
       <c r="J400" s="3"/>
-      <c r="K400" s="51"/>
+      <c r="K400" s="61"/>
     </row>
     <row r="401" spans="1:11">
       <c r="A401" s="3"/>
       <c r="B401" s="3"/>
       <c r="D401" s="3"/>
-      <c r="E401" s="3"/>
+      <c r="E401" s="49"/>
       <c r="F401" s="3"/>
       <c r="G401" s="3"/>
       <c r="H401" s="3"/>
       <c r="I401" s="3"/>
       <c r="J401" s="3"/>
-      <c r="K401" s="51"/>
+      <c r="K401" s="61"/>
     </row>
     <row r="402" spans="1:11">
       <c r="A402" s="3"/>
       <c r="B402" s="3"/>
       <c r="D402" s="3"/>
-      <c r="E402" s="3"/>
+      <c r="E402" s="49"/>
       <c r="F402" s="3"/>
       <c r="G402" s="3"/>
       <c r="H402" s="3"/>
       <c r="I402" s="3"/>
       <c r="J402" s="3"/>
-      <c r="K402" s="51"/>
+      <c r="K402" s="61"/>
     </row>
     <row r="403" spans="1:11">
       <c r="A403" s="3"/>
       <c r="B403" s="3"/>
       <c r="D403" s="3"/>
-      <c r="E403" s="3"/>
+      <c r="E403" s="49"/>
       <c r="F403" s="3"/>
       <c r="G403" s="3"/>
       <c r="H403" s="3"/>
       <c r="I403" s="3"/>
       <c r="J403" s="3"/>
-      <c r="K403" s="51"/>
+      <c r="K403" s="61"/>
     </row>
     <row r="404" spans="1:11">
       <c r="A404" s="3"/>
       <c r="B404" s="3"/>
       <c r="D404" s="3"/>
-      <c r="E404" s="3"/>
+      <c r="E404" s="49"/>
       <c r="F404" s="3"/>
       <c r="G404" s="3"/>
       <c r="H404" s="3"/>
       <c r="I404" s="3"/>
       <c r="J404" s="3"/>
-      <c r="K404" s="51"/>
+      <c r="K404" s="61"/>
     </row>
     <row r="405" spans="1:11">
       <c r="A405" s="3"/>
       <c r="B405" s="3"/>
       <c r="D405" s="3"/>
-      <c r="E405" s="3"/>
+      <c r="E405" s="49"/>
       <c r="F405" s="3"/>
       <c r="G405" s="3"/>
       <c r="H405" s="3"/>
       <c r="I405" s="3"/>
       <c r="J405" s="3"/>
-      <c r="K405" s="51"/>
+      <c r="K405" s="61"/>
     </row>
     <row r="406" spans="1:11">
       <c r="A406" s="3"/>
       <c r="B406" s="3"/>
       <c r="D406" s="3"/>
-      <c r="E406" s="3"/>
+      <c r="E406" s="49"/>
       <c r="F406" s="3"/>
       <c r="G406" s="3"/>
       <c r="H406" s="3"/>
       <c r="I406" s="3"/>
       <c r="J406" s="3"/>
-      <c r="K406" s="51"/>
+      <c r="K406" s="61"/>
     </row>
     <row r="407" spans="1:11">
       <c r="A407" s="3"/>
       <c r="B407" s="3"/>
       <c r="D407" s="3"/>
-      <c r="E407" s="3"/>
+      <c r="E407" s="49"/>
       <c r="F407" s="3"/>
       <c r="G407" s="3"/>
       <c r="H407" s="3"/>
       <c r="I407" s="3"/>
       <c r="J407" s="3"/>
-      <c r="K407" s="51"/>
+      <c r="K407" s="61"/>
     </row>
     <row r="408" spans="1:11">
       <c r="A408" s="3"/>
       <c r="B408" s="3"/>
       <c r="D408" s="3"/>
-      <c r="E408" s="3"/>
+      <c r="E408" s="49"/>
       <c r="F408" s="3"/>
       <c r="G408" s="3"/>
       <c r="H408" s="3"/>
       <c r="I408" s="3"/>
       <c r="J408" s="3"/>
-      <c r="K408" s="51"/>
+      <c r="K408" s="61"/>
     </row>
     <row r="409" spans="1:11">
       <c r="A409" s="3"/>
       <c r="B409" s="3"/>
       <c r="D409" s="3"/>
-      <c r="E409" s="3"/>
+      <c r="E409" s="49"/>
       <c r="F409" s="3"/>
       <c r="G409" s="3"/>
       <c r="H409" s="3"/>
       <c r="I409" s="3"/>
       <c r="J409" s="3"/>
-      <c r="K409" s="51"/>
+      <c r="K409" s="61"/>
     </row>
     <row r="410" spans="1:11">
       <c r="A410" s="3"/>
       <c r="B410" s="3"/>
       <c r="D410" s="3"/>
-      <c r="E410" s="3"/>
+      <c r="E410" s="49"/>
       <c r="F410" s="3"/>
       <c r="G410" s="3"/>
       <c r="H410" s="3"/>
       <c r="I410" s="3"/>
       <c r="J410" s="3"/>
-      <c r="K410" s="51"/>
+      <c r="K410" s="61"/>
     </row>
     <row r="411" spans="1:11">
       <c r="A411" s="3"/>
       <c r="B411" s="3"/>
       <c r="D411" s="3"/>
-      <c r="E411" s="3"/>
+      <c r="E411" s="49"/>
       <c r="F411" s="3"/>
       <c r="G411" s="3"/>
       <c r="H411" s="3"/>
       <c r="I411" s="3"/>
       <c r="J411" s="3"/>
-      <c r="K411" s="51"/>
+      <c r="K411" s="61"/>
     </row>
     <row r="412" spans="1:11">
       <c r="A412" s="3"/>
       <c r="B412" s="3"/>
       <c r="D412" s="3"/>
-      <c r="E412" s="3"/>
+      <c r="E412" s="49"/>
       <c r="F412" s="3"/>
       <c r="G412" s="3"/>
       <c r="H412" s="3"/>
       <c r="I412" s="3"/>
       <c r="J412" s="3"/>
-      <c r="K412" s="51"/>
+      <c r="K412" s="61"/>
     </row>
     <row r="413" spans="1:11">
       <c r="A413" s="3"/>
       <c r="B413" s="3"/>
       <c r="D413" s="3"/>
-      <c r="E413" s="3"/>
+      <c r="E413" s="49"/>
       <c r="F413" s="3"/>
       <c r="G413" s="3"/>
       <c r="H413" s="3"/>
       <c r="I413" s="3"/>
       <c r="J413" s="3"/>
-      <c r="K413" s="51"/>
+      <c r="K413" s="61"/>
     </row>
     <row r="414" spans="1:11">
       <c r="A414" s="3"/>
       <c r="B414" s="3"/>
       <c r="D414" s="3"/>
-      <c r="E414" s="3"/>
+      <c r="E414" s="49"/>
       <c r="F414" s="3"/>
       <c r="G414" s="3"/>
       <c r="H414" s="3"/>
       <c r="I414" s="3"/>
       <c r="J414" s="3"/>
-      <c r="K414" s="51"/>
+      <c r="K414" s="61"/>
     </row>
     <row r="415" spans="1:11">
       <c r="A415" s="3"/>
       <c r="B415" s="3"/>
       <c r="D415" s="3"/>
-      <c r="E415" s="3"/>
+      <c r="E415" s="49"/>
       <c r="F415" s="3"/>
       <c r="G415" s="3"/>
       <c r="H415" s="3"/>
       <c r="I415" s="3"/>
       <c r="J415" s="3"/>
-      <c r="K415" s="51"/>
+      <c r="K415" s="61"/>
     </row>
     <row r="416" spans="1:11">
       <c r="A416" s="3"/>
       <c r="B416" s="3"/>
       <c r="D416" s="3"/>
-      <c r="E416" s="3"/>
+      <c r="E416" s="49"/>
       <c r="F416" s="3"/>
       <c r="G416" s="3"/>
       <c r="H416" s="3"/>
       <c r="I416" s="3"/>
       <c r="J416" s="3"/>
-      <c r="K416" s="51"/>
+      <c r="K416" s="61"/>
     </row>
     <row r="417" spans="1:11">
       <c r="A417" s="3"/>
       <c r="B417" s="3"/>
       <c r="D417" s="3"/>
-      <c r="E417" s="3"/>
+      <c r="E417" s="49"/>
       <c r="F417" s="3"/>
       <c r="G417" s="3"/>
       <c r="H417" s="3"/>
       <c r="I417" s="3"/>
       <c r="J417" s="3"/>
-      <c r="K417" s="51"/>
+      <c r="K417" s="61"/>
     </row>
     <row r="418" spans="1:11">
       <c r="A418" s="3"/>
       <c r="B418" s="3"/>
       <c r="D418" s="3"/>
-      <c r="E418" s="3"/>
+      <c r="E418" s="49"/>
       <c r="F418" s="3"/>
       <c r="G418" s="3"/>
       <c r="H418" s="3"/>
       <c r="I418" s="3"/>
       <c r="J418" s="3"/>
-      <c r="K418" s="51"/>
+      <c r="K418" s="61"/>
     </row>
     <row r="419" spans="1:11">
       <c r="A419" s="3"/>
       <c r="B419" s="3"/>
       <c r="D419" s="3"/>
-      <c r="E419" s="3"/>
+      <c r="E419" s="49"/>
       <c r="F419" s="3"/>
       <c r="G419" s="3"/>
       <c r="H419" s="3"/>
       <c r="I419" s="3"/>
       <c r="J419" s="3"/>
-      <c r="K419" s="51"/>
+      <c r="K419" s="61"/>
     </row>
     <row r="420" spans="1:11">
       <c r="A420" s="3"/>
       <c r="B420" s="3"/>
       <c r="D420" s="3"/>
-      <c r="E420" s="3"/>
+      <c r="E420" s="49"/>
       <c r="F420" s="3"/>
       <c r="G420" s="3"/>
       <c r="H420" s="3"/>
       <c r="I420" s="3"/>
       <c r="J420" s="3"/>
-      <c r="K420" s="51"/>
+      <c r="K420" s="61"/>
     </row>
     <row r="421" spans="1:11">
       <c r="A421" s="3"/>
       <c r="B421" s="3"/>
       <c r="D421" s="3"/>
-      <c r="E421" s="3"/>
+      <c r="E421" s="49"/>
       <c r="F421" s="3"/>
       <c r="G421" s="3"/>
       <c r="H421" s="3"/>
       <c r="I421" s="3"/>
       <c r="J421" s="3"/>
-      <c r="K421" s="51"/>
+      <c r="K421" s="61"/>
     </row>
     <row r="422" spans="1:11">
       <c r="A422" s="3"/>
       <c r="B422" s="3"/>
       <c r="D422" s="3"/>
-      <c r="E422" s="3"/>
+      <c r="E422" s="49"/>
       <c r="F422" s="3"/>
       <c r="G422" s="3"/>
       <c r="H422" s="3"/>
       <c r="I422" s="3"/>
       <c r="J422" s="3"/>
-      <c r="K422" s="51"/>
+      <c r="K422" s="61"/>
     </row>
     <row r="423" spans="1:11">
       <c r="A423" s="3"/>
       <c r="B423" s="3"/>
       <c r="D423" s="3"/>
-      <c r="E423" s="3"/>
+      <c r="E423" s="49"/>
       <c r="F423" s="3"/>
       <c r="G423" s="3"/>
       <c r="H423" s="3"/>
       <c r="I423" s="3"/>
       <c r="J423" s="3"/>
-      <c r="K423" s="51"/>
+      <c r="K423" s="61"/>
     </row>
     <row r="424" spans="1:11">
       <c r="A424" s="3"/>
       <c r="B424" s="3"/>
       <c r="D424" s="3"/>
-      <c r="E424" s="3"/>
+      <c r="E424" s="49"/>
       <c r="F424" s="3"/>
       <c r="G424" s="3"/>
       <c r="H424" s="3"/>
       <c r="I424" s="3"/>
       <c r="J424" s="3"/>
-      <c r="K424" s="51"/>
+      <c r="K424" s="61"/>
     </row>
     <row r="425" spans="1:11">
       <c r="A425" s="3"/>
       <c r="B425" s="3"/>
       <c r="D425" s="3"/>
-      <c r="E425" s="3"/>
+      <c r="E425" s="49"/>
       <c r="F425" s="3"/>
       <c r="G425" s="3"/>
       <c r="H425" s="3"/>
       <c r="I425" s="3"/>
       <c r="J425" s="3"/>
-      <c r="K425" s="51"/>
+      <c r="K425" s="61"/>
     </row>
     <row r="426" spans="1:11">
       <c r="A426" s="3"/>
       <c r="B426" s="3"/>
       <c r="D426" s="3"/>
-      <c r="E426" s="3"/>
+      <c r="E426" s="49"/>
       <c r="F426" s="3"/>
       <c r="G426" s="3"/>
       <c r="H426" s="3"/>
       <c r="I426" s="3"/>
       <c r="J426" s="3"/>
-      <c r="K426" s="51"/>
+      <c r="K426" s="61"/>
     </row>
     <row r="427" spans="1:11">
       <c r="A427" s="3"/>
       <c r="B427" s="3"/>
       <c r="D427" s="3"/>
-      <c r="E427" s="3"/>
+      <c r="E427" s="49"/>
       <c r="F427" s="3"/>
       <c r="G427" s="3"/>
       <c r="H427" s="3"/>
       <c r="I427" s="3"/>
       <c r="J427" s="3"/>
-      <c r="K427" s="51"/>
+      <c r="K427" s="61"/>
     </row>
     <row r="428" spans="1:11">
       <c r="A428" s="3"/>
       <c r="B428" s="3"/>
       <c r="D428" s="3"/>
-      <c r="E428" s="3"/>
+      <c r="E428" s="49"/>
       <c r="F428" s="3"/>
       <c r="G428" s="3"/>
       <c r="H428" s="3"/>
       <c r="I428" s="3"/>
       <c r="J428" s="3"/>
-      <c r="K428" s="51"/>
+      <c r="K428" s="61"/>
     </row>
     <row r="429" spans="1:11">
       <c r="A429" s="3"/>
       <c r="B429" s="3"/>
       <c r="D429" s="3"/>
-      <c r="E429" s="3"/>
+      <c r="E429" s="49"/>
       <c r="F429" s="3"/>
       <c r="G429" s="3"/>
       <c r="H429" s="3"/>
       <c r="I429" s="3"/>
       <c r="J429" s="3"/>
-      <c r="K429" s="51"/>
+      <c r="K429" s="61"/>
     </row>
     <row r="430" spans="1:11">
       <c r="A430" s="3"/>
       <c r="B430" s="3"/>
       <c r="D430" s="3"/>
-      <c r="E430" s="3"/>
+      <c r="E430" s="49"/>
       <c r="F430" s="3"/>
       <c r="G430" s="3"/>
       <c r="H430" s="3"/>
       <c r="I430" s="3"/>
       <c r="J430" s="3"/>
-      <c r="K430" s="51"/>
+      <c r="K430" s="61"/>
     </row>
     <row r="431" spans="1:11">
       <c r="A431" s="3"/>
       <c r="B431" s="3"/>
       <c r="D431" s="3"/>
-      <c r="E431" s="3"/>
+      <c r="E431" s="49"/>
       <c r="F431" s="3"/>
       <c r="G431" s="3"/>
       <c r="H431" s="3"/>
       <c r="I431" s="3"/>
       <c r="J431" s="3"/>
-      <c r="K431" s="51"/>
+      <c r="K431" s="61"/>
     </row>
     <row r="432" spans="1:11">
       <c r="A432" s="3"/>
       <c r="B432" s="3"/>
       <c r="D432" s="3"/>
-      <c r="E432" s="3"/>
+      <c r="E432" s="49"/>
       <c r="F432" s="3"/>
       <c r="G432" s="3"/>
       <c r="H432" s="3"/>
       <c r="I432" s="3"/>
       <c r="J432" s="3"/>
-      <c r="K432" s="51"/>
+      <c r="K432" s="61"/>
     </row>
     <row r="433" spans="1:11">
       <c r="A433" s="3"/>
       <c r="B433" s="3"/>
       <c r="D433" s="3"/>
-      <c r="E433" s="3"/>
+      <c r="E433" s="49"/>
       <c r="F433" s="3"/>
       <c r="G433" s="3"/>
       <c r="H433" s="3"/>
       <c r="I433" s="3"/>
       <c r="J433" s="3"/>
-      <c r="K433" s="51"/>
+      <c r="K433" s="61"/>
     </row>
     <row r="434" spans="1:11">
       <c r="A434" s="3"/>
       <c r="B434" s="3"/>
       <c r="D434" s="3"/>
-      <c r="E434" s="3"/>
+      <c r="E434" s="49"/>
       <c r="F434" s="3"/>
       <c r="G434" s="3"/>
       <c r="H434" s="3"/>
       <c r="I434" s="3"/>
       <c r="J434" s="3"/>
-      <c r="K434" s="51"/>
+      <c r="K434" s="61"/>
     </row>
     <row r="435" spans="1:11">
       <c r="A435" s="3"/>
       <c r="B435" s="3"/>
       <c r="D435" s="3"/>
-      <c r="E435" s="3"/>
+      <c r="E435" s="49"/>
       <c r="F435" s="3"/>
       <c r="G435" s="3"/>
       <c r="H435" s="3"/>
       <c r="I435" s="3"/>
       <c r="J435" s="3"/>
-      <c r="K435" s="51"/>
+      <c r="K435" s="61"/>
     </row>
     <row r="436" spans="1:11">
       <c r="A436" s="3"/>
       <c r="B436" s="3"/>
       <c r="D436" s="3"/>
-      <c r="E436" s="3"/>
+      <c r="E436" s="49"/>
       <c r="F436" s="3"/>
       <c r="G436" s="3"/>
       <c r="H436" s="3"/>
       <c r="I436" s="3"/>
       <c r="J436" s="3"/>
-      <c r="K436" s="51"/>
+      <c r="K436" s="61"/>
     </row>
     <row r="437" spans="1:11">
       <c r="A437" s="3"/>
       <c r="B437" s="3"/>
       <c r="D437" s="3"/>
-      <c r="E437" s="3"/>
+      <c r="E437" s="49"/>
       <c r="F437" s="3"/>
       <c r="G437" s="3"/>
       <c r="H437" s="3"/>
       <c r="I437" s="3"/>
       <c r="J437" s="3"/>
-      <c r="K437" s="51"/>
+      <c r="K437" s="61"/>
     </row>
     <row r="438" spans="1:11">
       <c r="A438" s="3"/>
       <c r="B438" s="3"/>
       <c r="D438" s="3"/>
-      <c r="E438" s="3"/>
+      <c r="E438" s="49"/>
       <c r="F438" s="3"/>
       <c r="G438" s="3"/>
       <c r="H438" s="3"/>
       <c r="I438" s="3"/>
       <c r="J438" s="3"/>
-      <c r="K438" s="51"/>
+      <c r="K438" s="61"/>
     </row>
     <row r="439" spans="1:11">
       <c r="A439" s="3"/>
       <c r="B439" s="3"/>
       <c r="D439" s="3"/>
-      <c r="E439" s="3"/>
+      <c r="E439" s="49"/>
       <c r="F439" s="3"/>
       <c r="G439" s="3"/>
       <c r="H439" s="3"/>
       <c r="I439" s="3"/>
       <c r="J439" s="3"/>
-      <c r="K439" s="51"/>
+      <c r="K439" s="61"/>
     </row>
     <row r="440" spans="1:11">
       <c r="A440" s="3"/>
       <c r="B440" s="3"/>
       <c r="D440" s="3"/>
-      <c r="E440" s="3"/>
+      <c r="E440" s="49"/>
       <c r="F440" s="3"/>
       <c r="G440" s="3"/>
       <c r="H440" s="3"/>
       <c r="I440" s="3"/>
       <c r="J440" s="3"/>
-      <c r="K440" s="51"/>
+      <c r="K440" s="61"/>
     </row>
     <row r="441" spans="1:11">
       <c r="A441" s="3"/>
       <c r="B441" s="3"/>
       <c r="D441" s="3"/>
-      <c r="E441" s="3"/>
+      <c r="E441" s="49"/>
       <c r="F441" s="3"/>
       <c r="G441" s="3"/>
       <c r="H441" s="3"/>
       <c r="I441" s="3"/>
       <c r="J441" s="3"/>
-      <c r="K441" s="51"/>
+      <c r="K441" s="61"/>
     </row>
     <row r="442" spans="1:11">
       <c r="A442" s="3"/>
       <c r="B442" s="3"/>
       <c r="D442" s="3"/>
-      <c r="E442" s="3"/>
+      <c r="E442" s="49"/>
       <c r="F442" s="3"/>
       <c r="G442" s="3"/>
       <c r="H442" s="3"/>
       <c r="I442" s="3"/>
       <c r="J442" s="3"/>
-      <c r="K442" s="51"/>
+      <c r="K442" s="61"/>
     </row>
     <row r="443" spans="1:11">
       <c r="A443" s="3"/>
       <c r="B443" s="3"/>
       <c r="D443" s="3"/>
-      <c r="E443" s="3"/>
+      <c r="E443" s="49"/>
       <c r="F443" s="3"/>
       <c r="G443" s="3"/>
       <c r="H443" s="3"/>
       <c r="I443" s="3"/>
       <c r="J443" s="3"/>
-      <c r="K443" s="51"/>
+      <c r="K443" s="61"/>
     </row>
     <row r="444" spans="1:11">
       <c r="A444" s="3"/>
       <c r="B444" s="3"/>
       <c r="D444" s="3"/>
-      <c r="E444" s="3"/>
+      <c r="E444" s="49"/>
       <c r="F444" s="3"/>
       <c r="G444" s="3"/>
       <c r="H444" s="3"/>
       <c r="I444" s="3"/>
       <c r="J444" s="3"/>
-      <c r="K444" s="51"/>
+      <c r="K444" s="61"/>
     </row>
     <row r="445" spans="1:11">
       <c r="A445" s="3"/>
       <c r="B445" s="3"/>
       <c r="D445" s="3"/>
-      <c r="E445" s="3"/>
+      <c r="E445" s="49"/>
       <c r="F445" s="3"/>
       <c r="G445" s="3"/>
       <c r="H445" s="3"/>
       <c r="I445" s="3"/>
       <c r="J445" s="3"/>
-      <c r="K445" s="51"/>
+      <c r="K445" s="61"/>
     </row>
     <row r="446" spans="1:11">
       <c r="A446" s="3"/>
       <c r="B446" s="3"/>
       <c r="D446" s="3"/>
-      <c r="E446" s="3"/>
+      <c r="E446" s="49"/>
       <c r="F446" s="3"/>
       <c r="G446" s="3"/>
       <c r="H446" s="3"/>
       <c r="I446" s="3"/>
       <c r="J446" s="3"/>
-      <c r="K446" s="51"/>
+      <c r="K446" s="61"/>
     </row>
     <row r="447" spans="1:11">
       <c r="A447" s="3"/>
       <c r="B447" s="3"/>
       <c r="D447" s="3"/>
-      <c r="E447" s="3"/>
+      <c r="E447" s="49"/>
       <c r="F447" s="3"/>
       <c r="G447" s="3"/>
       <c r="H447" s="3"/>
       <c r="I447" s="3"/>
       <c r="J447" s="3"/>
-      <c r="K447" s="51"/>
+      <c r="K447" s="61"/>
     </row>
     <row r="448" spans="1:11">
       <c r="A448" s="3"/>
       <c r="B448" s="3"/>
       <c r="D448" s="3"/>
-      <c r="E448" s="3"/>
+      <c r="E448" s="49"/>
       <c r="F448" s="3"/>
       <c r="G448" s="3"/>
       <c r="H448" s="3"/>
       <c r="I448" s="3"/>
       <c r="J448" s="3"/>
-      <c r="K448" s="51"/>
+      <c r="K448" s="61"/>
     </row>
     <row r="449" spans="1:11">
       <c r="A449" s="3"/>
       <c r="B449" s="3"/>
       <c r="D449" s="3"/>
-      <c r="E449" s="3"/>
+      <c r="E449" s="49"/>
       <c r="F449" s="3"/>
       <c r="G449" s="3"/>
       <c r="H449" s="3"/>
       <c r="I449" s="3"/>
       <c r="J449" s="3"/>
-      <c r="K449" s="51"/>
+      <c r="K449" s="61"/>
     </row>
     <row r="450" spans="1:11">
       <c r="A450" s="3"/>
       <c r="B450" s="3"/>
       <c r="D450" s="3"/>
-      <c r="E450" s="3"/>
+      <c r="E450" s="49"/>
       <c r="F450" s="3"/>
       <c r="G450" s="3"/>
       <c r="H450" s="3"/>
       <c r="I450" s="3"/>
       <c r="J450" s="3"/>
-      <c r="K450" s="51"/>
+      <c r="K450" s="61"/>
     </row>
     <row r="451" spans="1:11">
       <c r="A451" s="3"/>
       <c r="B451" s="3"/>
       <c r="D451" s="3"/>
-      <c r="E451" s="3"/>
+      <c r="E451" s="49"/>
       <c r="F451" s="3"/>
       <c r="G451" s="3"/>
       <c r="H451" s="3"/>
       <c r="I451" s="3"/>
       <c r="J451" s="3"/>
-      <c r="K451" s="51"/>
+      <c r="K451" s="61"/>
     </row>
     <row r="452" spans="1:11">
       <c r="A452" s="3"/>
       <c r="B452" s="3"/>
       <c r="D452" s="3"/>
-      <c r="E452" s="3"/>
+      <c r="E452" s="49"/>
       <c r="F452" s="3"/>
       <c r="G452" s="3"/>
       <c r="H452" s="3"/>
       <c r="I452" s="3"/>
       <c r="J452" s="3"/>
-      <c r="K452" s="51"/>
+      <c r="K452" s="61"/>
     </row>
     <row r="453" spans="1:11">
       <c r="A453" s="3"/>
       <c r="B453" s="3"/>
       <c r="D453" s="3"/>
-      <c r="E453" s="3"/>
+      <c r="E453" s="49"/>
       <c r="F453" s="3"/>
       <c r="G453" s="3"/>
       <c r="H453" s="3"/>
       <c r="I453" s="3"/>
       <c r="J453" s="3"/>
-      <c r="K453" s="51"/>
+      <c r="K453" s="61"/>
     </row>
     <row r="454" spans="1:11">
       <c r="A454" s="3"/>
       <c r="B454" s="3"/>
       <c r="D454" s="3"/>
-      <c r="E454" s="3"/>
+      <c r="E454" s="49"/>
       <c r="F454" s="3"/>
       <c r="G454" s="3"/>
       <c r="H454" s="3"/>
       <c r="I454" s="3"/>
       <c r="J454" s="3"/>
-      <c r="K454" s="51"/>
+      <c r="K454" s="61"/>
     </row>
     <row r="455" spans="1:11">
       <c r="A455" s="3"/>
       <c r="B455" s="3"/>
       <c r="D455" s="3"/>
-      <c r="E455" s="3"/>
+      <c r="E455" s="49"/>
       <c r="F455" s="3"/>
       <c r="G455" s="3"/>
       <c r="H455" s="3"/>
       <c r="I455" s="3"/>
       <c r="J455" s="3"/>
-      <c r="K455" s="51"/>
+      <c r="K455" s="61"/>
     </row>
     <row r="456" spans="1:11">
       <c r="A456" s="3"/>
       <c r="B456" s="3"/>
       <c r="D456" s="3"/>
-      <c r="E456" s="3"/>
+      <c r="E456" s="49"/>
       <c r="F456" s="3"/>
       <c r="G456" s="3"/>
       <c r="H456" s="3"/>
       <c r="I456" s="3"/>
       <c r="J456" s="3"/>
-      <c r="K456" s="51"/>
+      <c r="K456" s="61"/>
     </row>
     <row r="457" spans="1:11">
       <c r="A457" s="3"/>
       <c r="B457" s="3"/>
       <c r="D457" s="3"/>
-      <c r="E457" s="3"/>
+      <c r="E457" s="49"/>
       <c r="F457" s="3"/>
       <c r="G457" s="3"/>
       <c r="H457" s="3"/>
       <c r="I457" s="3"/>
       <c r="J457" s="3"/>
-      <c r="K457" s="51"/>
+      <c r="K457" s="61"/>
     </row>
     <row r="458" spans="1:11">
       <c r="A458" s="3"/>
       <c r="B458" s="3"/>
       <c r="D458" s="3"/>
-      <c r="E458" s="3"/>
+      <c r="E458" s="49"/>
       <c r="F458" s="3"/>
       <c r="G458" s="3"/>
       <c r="H458" s="3"/>
       <c r="I458" s="3"/>
       <c r="J458" s="3"/>
-      <c r="K458" s="51"/>
+      <c r="K458" s="61"/>
     </row>
     <row r="459" spans="1:11">
       <c r="A459" s="3"/>
       <c r="B459" s="3"/>
       <c r="D459" s="3"/>
-      <c r="E459" s="3"/>
+      <c r="E459" s="49"/>
       <c r="F459" s="3"/>
       <c r="G459" s="3"/>
       <c r="H459" s="3"/>
       <c r="I459" s="3"/>
       <c r="J459" s="3"/>
-      <c r="K459" s="51"/>
+      <c r="K459" s="61"/>
     </row>
     <row r="460" spans="1:11">
       <c r="A460" s="3"/>
       <c r="B460" s="3"/>
       <c r="D460" s="3"/>
-      <c r="E460" s="3"/>
+      <c r="E460" s="49"/>
       <c r="F460" s="3"/>
       <c r="G460" s="3"/>
       <c r="H460" s="3"/>
       <c r="I460" s="3"/>
       <c r="J460" s="3"/>
-      <c r="K460" s="51"/>
+      <c r="K460" s="61"/>
     </row>
     <row r="461" spans="1:11">
       <c r="A461" s="3"/>
       <c r="B461" s="3"/>
       <c r="D461" s="3"/>
-      <c r="E461" s="3"/>
+      <c r="E461" s="49"/>
       <c r="F461" s="3"/>
       <c r="G461" s="3"/>
       <c r="H461" s="3"/>
       <c r="I461" s="3"/>
       <c r="J461" s="3"/>
-      <c r="K461" s="51"/>
+      <c r="K461" s="61"/>
     </row>
     <row r="462" spans="1:11">
       <c r="A462" s="3"/>
       <c r="B462" s="3"/>
       <c r="D462" s="3"/>
-      <c r="E462" s="3"/>
+      <c r="E462" s="49"/>
       <c r="F462" s="3"/>
       <c r="G462" s="3"/>
       <c r="H462" s="3"/>
       <c r="I462" s="3"/>
       <c r="J462" s="3"/>
-      <c r="K462" s="51"/>
+      <c r="K462" s="61"/>
     </row>
     <row r="463" spans="1:11">
       <c r="A463" s="3"/>
       <c r="B463" s="3"/>
       <c r="D463" s="3"/>
-      <c r="E463" s="3"/>
+      <c r="E463" s="49"/>
       <c r="F463" s="3"/>
       <c r="G463" s="3"/>
       <c r="H463" s="3"/>
       <c r="I463" s="3"/>
       <c r="J463" s="3"/>
-      <c r="K463" s="51"/>
+      <c r="K463" s="61"/>
     </row>
     <row r="464" spans="1:2">
       <c r="A464" s="3"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易计划202112.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易计划202112.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73">
   <si>
     <t>计划编码</t>
   </si>
@@ -263,6 +263,12 @@
     <t>待执行</t>
   </si>
   <si>
+    <t>JH_00022</t>
+  </si>
+  <si>
+    <t>片仔癀</t>
+  </si>
+  <si>
     <t>000069</t>
   </si>
 </sst>
@@ -278,7 +284,7 @@
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="36">
+  <fonts count="37">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -357,6 +363,12 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -886,152 +898,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1131,16 +1143,19 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1218,15 +1233,15 @@
     <xf numFmtId="10" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1236,10 +1251,10 @@
     <xf numFmtId="176" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" quotePrefix="1">
@@ -2425,11 +2440,11 @@
   <dimension ref="A1:BA543"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="E6" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E23" sqref="E23"/>
+      <selection pane="bottomRight" activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.82142857142857" defaultRowHeight="12.4"/>
@@ -2461,7 +2476,7 @@
       <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="37" t="s">
+      <c r="E1" s="38" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="10" t="s">
@@ -2479,102 +2494,102 @@
       <c r="J1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="50" t="s">
+      <c r="K1" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="51" t="s">
+      <c r="L1" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="62" t="s">
+      <c r="M1" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
-      <c r="S1" s="63"/>
-      <c r="T1" s="63"/>
-      <c r="V1" s="69"/>
-      <c r="W1" s="69"/>
-      <c r="X1" s="69"/>
-      <c r="Y1" s="69"/>
-      <c r="Z1" s="69"/>
-      <c r="AA1" s="69"/>
-      <c r="AB1" s="69"/>
-      <c r="AC1" s="69"/>
-      <c r="AE1" s="69"/>
-      <c r="AF1" s="69"/>
-      <c r="AG1" s="69"/>
-      <c r="AH1" s="69"/>
-      <c r="AI1" s="69"/>
-      <c r="AJ1" s="69"/>
-      <c r="AK1" s="69"/>
-      <c r="AM1" s="69"/>
-      <c r="AN1" s="69"/>
-      <c r="AO1" s="69"/>
-      <c r="AP1" s="69"/>
-      <c r="AQ1" s="69"/>
-      <c r="AR1" s="69"/>
-      <c r="AS1" s="69"/>
-      <c r="AU1" s="69"/>
-      <c r="AV1" s="69"/>
-      <c r="AW1" s="69"/>
-      <c r="AX1" s="69"/>
-      <c r="AY1" s="69"/>
-      <c r="AZ1" s="69"/>
-      <c r="BA1" s="69"/>
+      <c r="N1" s="64"/>
+      <c r="O1" s="64"/>
+      <c r="P1" s="64"/>
+      <c r="Q1" s="64"/>
+      <c r="R1" s="64"/>
+      <c r="S1" s="64"/>
+      <c r="T1" s="64"/>
+      <c r="V1" s="70"/>
+      <c r="W1" s="70"/>
+      <c r="X1" s="70"/>
+      <c r="Y1" s="70"/>
+      <c r="Z1" s="70"/>
+      <c r="AA1" s="70"/>
+      <c r="AB1" s="70"/>
+      <c r="AC1" s="70"/>
+      <c r="AE1" s="70"/>
+      <c r="AF1" s="70"/>
+      <c r="AG1" s="70"/>
+      <c r="AH1" s="70"/>
+      <c r="AI1" s="70"/>
+      <c r="AJ1" s="70"/>
+      <c r="AK1" s="70"/>
+      <c r="AM1" s="70"/>
+      <c r="AN1" s="70"/>
+      <c r="AO1" s="70"/>
+      <c r="AP1" s="70"/>
+      <c r="AQ1" s="70"/>
+      <c r="AR1" s="70"/>
+      <c r="AS1" s="70"/>
+      <c r="AU1" s="70"/>
+      <c r="AV1" s="70"/>
+      <c r="AW1" s="70"/>
+      <c r="AX1" s="70"/>
+      <c r="AY1" s="70"/>
+      <c r="AZ1" s="70"/>
+      <c r="BA1" s="70"/>
     </row>
     <row r="2" ht="23.6" spans="1:53">
       <c r="A2" s="7"/>
       <c r="B2" s="8"/>
       <c r="C2" s="9"/>
       <c r="D2" s="11"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
       <c r="H2" s="10"/>
       <c r="I2" s="10"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="50"/>
-      <c r="L2" s="51"/>
-      <c r="M2" s="64"/>
-      <c r="N2" s="63"/>
-      <c r="O2" s="63"/>
-      <c r="P2" s="63"/>
-      <c r="Q2" s="63"/>
-      <c r="R2" s="63"/>
-      <c r="S2" s="63"/>
-      <c r="T2" s="63"/>
-      <c r="V2" s="69"/>
-      <c r="W2" s="69"/>
-      <c r="X2" s="69"/>
-      <c r="Y2" s="69"/>
-      <c r="Z2" s="69"/>
-      <c r="AA2" s="69"/>
-      <c r="AB2" s="69"/>
-      <c r="AC2" s="69"/>
-      <c r="AE2" s="69"/>
-      <c r="AF2" s="69"/>
-      <c r="AG2" s="69"/>
-      <c r="AH2" s="69"/>
-      <c r="AI2" s="69"/>
-      <c r="AJ2" s="69"/>
-      <c r="AK2" s="69"/>
-      <c r="AM2" s="69"/>
-      <c r="AN2" s="69"/>
-      <c r="AO2" s="69"/>
-      <c r="AP2" s="69"/>
-      <c r="AQ2" s="69"/>
-      <c r="AR2" s="69"/>
-      <c r="AS2" s="69"/>
-      <c r="AU2" s="69"/>
-      <c r="AV2" s="69"/>
-      <c r="AW2" s="69"/>
-      <c r="AX2" s="69"/>
-      <c r="AY2" s="69"/>
-      <c r="AZ2" s="69"/>
-      <c r="BA2" s="69"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="65"/>
+      <c r="N2" s="64"/>
+      <c r="O2" s="64"/>
+      <c r="P2" s="64"/>
+      <c r="Q2" s="64"/>
+      <c r="R2" s="64"/>
+      <c r="S2" s="64"/>
+      <c r="T2" s="64"/>
+      <c r="V2" s="70"/>
+      <c r="W2" s="70"/>
+      <c r="X2" s="70"/>
+      <c r="Y2" s="70"/>
+      <c r="Z2" s="70"/>
+      <c r="AA2" s="70"/>
+      <c r="AB2" s="70"/>
+      <c r="AC2" s="70"/>
+      <c r="AE2" s="70"/>
+      <c r="AF2" s="70"/>
+      <c r="AG2" s="70"/>
+      <c r="AH2" s="70"/>
+      <c r="AI2" s="70"/>
+      <c r="AJ2" s="70"/>
+      <c r="AK2" s="70"/>
+      <c r="AM2" s="70"/>
+      <c r="AN2" s="70"/>
+      <c r="AO2" s="70"/>
+      <c r="AP2" s="70"/>
+      <c r="AQ2" s="70"/>
+      <c r="AR2" s="70"/>
+      <c r="AS2" s="70"/>
+      <c r="AU2" s="70"/>
+      <c r="AV2" s="70"/>
+      <c r="AW2" s="70"/>
+      <c r="AX2" s="70"/>
+      <c r="AY2" s="70"/>
+      <c r="AZ2" s="70"/>
+      <c r="BA2" s="70"/>
     </row>
     <row r="3" customFormat="1" ht="23.6" spans="1:53">
       <c r="A3" s="12" t="s">
@@ -2589,74 +2604,74 @@
       <c r="D3" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="40">
+      <c r="E3" s="41">
         <v>34.12</v>
       </c>
-      <c r="F3" s="41">
+      <c r="F3" s="42">
         <v>32.53</v>
       </c>
-      <c r="G3" s="41">
+      <c r="G3" s="42">
         <v>39.33</v>
       </c>
-      <c r="H3" s="41">
+      <c r="H3" s="42">
         <f t="shared" ref="H3:H22" si="0">(E3-F3)*100</f>
         <v>159</v>
       </c>
-      <c r="I3" s="41">
+      <c r="I3" s="42">
         <f>FLOOR(1000/(E3-F3),100)</f>
         <v>600</v>
       </c>
-      <c r="J3" s="52">
+      <c r="J3" s="53">
         <f t="shared" ref="J3:J11" si="1">(G3-E3)/(E3-F3)</f>
         <v>3.27672955974844</v>
       </c>
-      <c r="K3" s="53">
+      <c r="K3" s="54">
         <f t="shared" ref="K3:K14" si="2">(E3-F3)/E3</f>
         <v>0.0466002344665884</v>
       </c>
-      <c r="L3" s="54">
+      <c r="L3" s="55">
         <f t="shared" ref="L3:L11" si="3">(G3-E3)/E3</f>
         <v>0.152696365767878</v>
       </c>
       <c r="M3" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="N3" s="63"/>
-      <c r="O3" s="63"/>
-      <c r="P3" s="63"/>
-      <c r="Q3" s="63"/>
-      <c r="R3" s="63"/>
-      <c r="S3" s="63"/>
-      <c r="T3" s="63"/>
-      <c r="V3" s="69"/>
-      <c r="W3" s="69"/>
-      <c r="X3" s="69"/>
-      <c r="Y3" s="69"/>
-      <c r="Z3" s="69"/>
-      <c r="AA3" s="69"/>
-      <c r="AB3" s="69"/>
-      <c r="AC3" s="69"/>
-      <c r="AE3" s="69"/>
-      <c r="AF3" s="69"/>
-      <c r="AG3" s="69"/>
-      <c r="AH3" s="69"/>
-      <c r="AI3" s="69"/>
-      <c r="AJ3" s="69"/>
-      <c r="AK3" s="69"/>
-      <c r="AM3" s="69"/>
-      <c r="AN3" s="69"/>
-      <c r="AO3" s="69"/>
-      <c r="AP3" s="69"/>
-      <c r="AQ3" s="69"/>
-      <c r="AR3" s="69"/>
-      <c r="AS3" s="69"/>
-      <c r="AU3" s="69"/>
-      <c r="AV3" s="69"/>
-      <c r="AW3" s="69"/>
-      <c r="AX3" s="69"/>
-      <c r="AY3" s="69"/>
-      <c r="AZ3" s="69"/>
-      <c r="BA3" s="69"/>
+      <c r="N3" s="64"/>
+      <c r="O3" s="64"/>
+      <c r="P3" s="64"/>
+      <c r="Q3" s="64"/>
+      <c r="R3" s="64"/>
+      <c r="S3" s="64"/>
+      <c r="T3" s="64"/>
+      <c r="V3" s="70"/>
+      <c r="W3" s="70"/>
+      <c r="X3" s="70"/>
+      <c r="Y3" s="70"/>
+      <c r="Z3" s="70"/>
+      <c r="AA3" s="70"/>
+      <c r="AB3" s="70"/>
+      <c r="AC3" s="70"/>
+      <c r="AE3" s="70"/>
+      <c r="AF3" s="70"/>
+      <c r="AG3" s="70"/>
+      <c r="AH3" s="70"/>
+      <c r="AI3" s="70"/>
+      <c r="AJ3" s="70"/>
+      <c r="AK3" s="70"/>
+      <c r="AM3" s="70"/>
+      <c r="AN3" s="70"/>
+      <c r="AO3" s="70"/>
+      <c r="AP3" s="70"/>
+      <c r="AQ3" s="70"/>
+      <c r="AR3" s="70"/>
+      <c r="AS3" s="70"/>
+      <c r="AU3" s="70"/>
+      <c r="AV3" s="70"/>
+      <c r="AW3" s="70"/>
+      <c r="AX3" s="70"/>
+      <c r="AY3" s="70"/>
+      <c r="AZ3" s="70"/>
+      <c r="BA3" s="70"/>
     </row>
     <row r="4" customFormat="1" ht="23.6" spans="1:53">
       <c r="A4" s="12" t="s">
@@ -2671,74 +2686,74 @@
       <c r="D4" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="40">
+      <c r="E4" s="41">
         <v>32.65</v>
       </c>
-      <c r="F4" s="41">
+      <c r="F4" s="42">
         <v>30.89</v>
       </c>
-      <c r="G4" s="41">
+      <c r="G4" s="42">
         <v>36.22</v>
       </c>
-      <c r="H4" s="41">
+      <c r="H4" s="42">
         <f t="shared" si="0"/>
         <v>176</v>
       </c>
-      <c r="I4" s="41">
+      <c r="I4" s="42">
         <f>FLOOR(1000/(E4-F4),100)</f>
         <v>500</v>
       </c>
-      <c r="J4" s="52">
+      <c r="J4" s="53">
         <f t="shared" si="1"/>
         <v>2.02840909090909</v>
       </c>
-      <c r="K4" s="53">
+      <c r="K4" s="54">
         <f t="shared" si="2"/>
         <v>0.0539050535987748</v>
       </c>
-      <c r="L4" s="54">
+      <c r="L4" s="55">
         <f t="shared" si="3"/>
         <v>0.109341500765697</v>
       </c>
       <c r="M4" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="N4" s="63"/>
-      <c r="O4" s="63"/>
-      <c r="P4" s="63"/>
-      <c r="Q4" s="63"/>
-      <c r="R4" s="63"/>
-      <c r="S4" s="63"/>
-      <c r="T4" s="63"/>
-      <c r="V4" s="69"/>
-      <c r="W4" s="69"/>
-      <c r="X4" s="69"/>
-      <c r="Y4" s="69"/>
-      <c r="Z4" s="69"/>
-      <c r="AA4" s="69"/>
-      <c r="AB4" s="69"/>
-      <c r="AC4" s="69"/>
-      <c r="AE4" s="69"/>
-      <c r="AF4" s="69"/>
-      <c r="AG4" s="69"/>
-      <c r="AH4" s="69"/>
-      <c r="AI4" s="69"/>
-      <c r="AJ4" s="69"/>
-      <c r="AK4" s="69"/>
-      <c r="AM4" s="69"/>
-      <c r="AN4" s="69"/>
-      <c r="AO4" s="69"/>
-      <c r="AP4" s="69"/>
-      <c r="AQ4" s="69"/>
-      <c r="AR4" s="69"/>
-      <c r="AS4" s="69"/>
-      <c r="AU4" s="69"/>
-      <c r="AV4" s="69"/>
-      <c r="AW4" s="69"/>
-      <c r="AX4" s="69"/>
-      <c r="AY4" s="69"/>
-      <c r="AZ4" s="69"/>
-      <c r="BA4" s="69"/>
+      <c r="N4" s="64"/>
+      <c r="O4" s="64"/>
+      <c r="P4" s="64"/>
+      <c r="Q4" s="64"/>
+      <c r="R4" s="64"/>
+      <c r="S4" s="64"/>
+      <c r="T4" s="64"/>
+      <c r="V4" s="70"/>
+      <c r="W4" s="70"/>
+      <c r="X4" s="70"/>
+      <c r="Y4" s="70"/>
+      <c r="Z4" s="70"/>
+      <c r="AA4" s="70"/>
+      <c r="AB4" s="70"/>
+      <c r="AC4" s="70"/>
+      <c r="AE4" s="70"/>
+      <c r="AF4" s="70"/>
+      <c r="AG4" s="70"/>
+      <c r="AH4" s="70"/>
+      <c r="AI4" s="70"/>
+      <c r="AJ4" s="70"/>
+      <c r="AK4" s="70"/>
+      <c r="AM4" s="70"/>
+      <c r="AN4" s="70"/>
+      <c r="AO4" s="70"/>
+      <c r="AP4" s="70"/>
+      <c r="AQ4" s="70"/>
+      <c r="AR4" s="70"/>
+      <c r="AS4" s="70"/>
+      <c r="AU4" s="70"/>
+      <c r="AV4" s="70"/>
+      <c r="AW4" s="70"/>
+      <c r="AX4" s="70"/>
+      <c r="AY4" s="70"/>
+      <c r="AZ4" s="70"/>
+      <c r="BA4" s="70"/>
     </row>
     <row r="5" s="1" customFormat="1" ht="38" spans="1:14">
       <c r="A5" s="12" t="s">
@@ -2753,39 +2768,39 @@
       <c r="D5" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="40">
+      <c r="E5" s="41">
         <v>51.15</v>
       </c>
-      <c r="F5" s="41">
+      <c r="F5" s="42">
         <v>46.61</v>
       </c>
-      <c r="G5" s="41">
+      <c r="G5" s="42">
         <v>59.59</v>
       </c>
-      <c r="H5" s="41">
+      <c r="H5" s="42">
         <f t="shared" si="0"/>
         <v>454</v>
       </c>
-      <c r="I5" s="41">
+      <c r="I5" s="42">
         <f t="shared" ref="I5:I22" si="4">FLOOR(1000/(E5-F5),100)</f>
         <v>200</v>
       </c>
-      <c r="J5" s="52">
+      <c r="J5" s="53">
         <f t="shared" si="1"/>
         <v>1.85903083700441</v>
       </c>
-      <c r="K5" s="53">
+      <c r="K5" s="54">
         <f t="shared" si="2"/>
         <v>0.0887585532746823</v>
       </c>
-      <c r="L5" s="54">
+      <c r="L5" s="55">
         <f t="shared" si="3"/>
         <v>0.165004887585533</v>
       </c>
-      <c r="M5" s="65" t="s">
+      <c r="M5" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="N5" s="66"/>
+      <c r="N5" s="67"/>
     </row>
     <row r="6" s="1" customFormat="1" ht="13" spans="1:14">
       <c r="A6" s="12" t="s">
@@ -2800,39 +2815,39 @@
       <c r="D6" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="42">
+      <c r="E6" s="43">
         <v>143.8</v>
       </c>
-      <c r="F6" s="43">
+      <c r="F6" s="44">
         <v>137.88</v>
       </c>
-      <c r="G6" s="43">
+      <c r="G6" s="44">
         <v>158.48</v>
       </c>
-      <c r="H6" s="41">
+      <c r="H6" s="42">
         <f t="shared" si="0"/>
         <v>592.000000000002</v>
       </c>
-      <c r="I6" s="41">
+      <c r="I6" s="42">
         <f t="shared" si="4"/>
         <v>100</v>
       </c>
-      <c r="J6" s="52">
+      <c r="J6" s="53">
         <f t="shared" si="1"/>
         <v>2.47972972972972</v>
       </c>
-      <c r="K6" s="53">
+      <c r="K6" s="54">
         <f t="shared" si="2"/>
         <v>0.0411682892906816</v>
       </c>
-      <c r="L6" s="54">
+      <c r="L6" s="55">
         <f t="shared" si="3"/>
         <v>0.102086230876217</v>
       </c>
       <c r="M6" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="N6" s="66"/>
+      <c r="N6" s="67"/>
     </row>
     <row r="7" s="1" customFormat="1" ht="38" spans="1:14">
       <c r="A7" s="12" t="s">
@@ -2847,39 +2862,39 @@
       <c r="D7" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="42">
+      <c r="E7" s="43">
         <v>20.44</v>
       </c>
-      <c r="F7" s="43">
+      <c r="F7" s="44">
         <v>19.09</v>
       </c>
-      <c r="G7" s="43">
+      <c r="G7" s="44">
         <v>23.43</v>
       </c>
-      <c r="H7" s="41">
+      <c r="H7" s="42">
         <f t="shared" si="0"/>
         <v>135</v>
       </c>
-      <c r="I7" s="41">
+      <c r="I7" s="42">
         <f t="shared" si="4"/>
         <v>700</v>
       </c>
-      <c r="J7" s="52">
+      <c r="J7" s="53">
         <f t="shared" si="1"/>
         <v>2.21481481481481</v>
       </c>
-      <c r="K7" s="53">
+      <c r="K7" s="54">
         <f t="shared" si="2"/>
         <v>0.0660469667318983</v>
       </c>
-      <c r="L7" s="54">
+      <c r="L7" s="55">
         <f t="shared" si="3"/>
         <v>0.146281800391389</v>
       </c>
-      <c r="M7" s="65" t="s">
+      <c r="M7" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="N7" s="66"/>
+      <c r="N7" s="67"/>
     </row>
     <row r="8" s="1" customFormat="1" ht="13" spans="1:14">
       <c r="A8" s="12" t="s">
@@ -2894,7 +2909,7 @@
       <c r="D8" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="40">
+      <c r="E8" s="41">
         <v>17.19</v>
       </c>
       <c r="F8" s="12">
@@ -2903,30 +2918,30 @@
       <c r="G8" s="12">
         <v>20.72</v>
       </c>
-      <c r="H8" s="41">
+      <c r="H8" s="42">
         <f t="shared" si="0"/>
         <v>169</v>
       </c>
-      <c r="I8" s="41">
+      <c r="I8" s="42">
         <f t="shared" si="4"/>
         <v>500</v>
       </c>
-      <c r="J8" s="52">
+      <c r="J8" s="53">
         <f t="shared" si="1"/>
         <v>2.0887573964497</v>
       </c>
-      <c r="K8" s="53">
+      <c r="K8" s="54">
         <f t="shared" si="2"/>
         <v>0.0983129726585225</v>
       </c>
-      <c r="L8" s="54">
+      <c r="L8" s="55">
         <f t="shared" si="3"/>
         <v>0.205351948807446</v>
       </c>
       <c r="M8" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="N8" s="66"/>
+      <c r="N8" s="67"/>
     </row>
     <row r="9" s="2" customFormat="1" ht="13" spans="1:13">
       <c r="A9" s="12" t="s">
@@ -2941,7 +2956,7 @@
       <c r="D9" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="40">
+      <c r="E9" s="41">
         <v>64.3</v>
       </c>
       <c r="F9" s="12">
@@ -2950,23 +2965,23 @@
       <c r="G9" s="12">
         <v>65.72</v>
       </c>
-      <c r="H9" s="41">
+      <c r="H9" s="42">
         <f t="shared" si="0"/>
         <v>579</v>
       </c>
-      <c r="I9" s="41">
+      <c r="I9" s="42">
         <f t="shared" si="4"/>
         <v>100</v>
       </c>
-      <c r="J9" s="52">
+      <c r="J9" s="53">
         <f t="shared" si="1"/>
         <v>0.24525043177893</v>
       </c>
-      <c r="K9" s="53">
+      <c r="K9" s="54">
         <f t="shared" si="2"/>
         <v>0.0900466562986003</v>
       </c>
-      <c r="L9" s="54">
+      <c r="L9" s="55">
         <f t="shared" si="3"/>
         <v>0.0220839813374806</v>
       </c>
@@ -2987,7 +3002,7 @@
       <c r="D10" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="E10" s="40">
+      <c r="E10" s="41">
         <v>39.15</v>
       </c>
       <c r="F10" s="12">
@@ -2996,23 +3011,23 @@
       <c r="G10" s="12">
         <v>44.28</v>
       </c>
-      <c r="H10" s="41">
+      <c r="H10" s="42">
         <f t="shared" si="0"/>
         <v>324</v>
       </c>
-      <c r="I10" s="41">
+      <c r="I10" s="42">
         <f t="shared" si="4"/>
         <v>300</v>
       </c>
-      <c r="J10" s="52">
+      <c r="J10" s="53">
         <f t="shared" si="1"/>
         <v>1.58333333333333</v>
       </c>
-      <c r="K10" s="53">
+      <c r="K10" s="54">
         <f t="shared" si="2"/>
         <v>0.0827586206896552</v>
       </c>
-      <c r="L10" s="54">
+      <c r="L10" s="55">
         <f t="shared" si="3"/>
         <v>0.131034482758621</v>
       </c>
@@ -3027,13 +3042,13 @@
       <c r="B11" s="16">
         <v>44539</v>
       </c>
-      <c r="C11" s="70" t="s">
+      <c r="C11" s="71" t="s">
         <v>38</v>
       </c>
       <c r="D11" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="E11" s="40">
+      <c r="E11" s="41">
         <v>117.8</v>
       </c>
       <c r="F11" s="12">
@@ -3042,30 +3057,30 @@
       <c r="G11" s="12">
         <v>131.73</v>
       </c>
-      <c r="H11" s="41">
+      <c r="H11" s="42">
         <f t="shared" si="0"/>
         <v>663</v>
       </c>
-      <c r="I11" s="41">
+      <c r="I11" s="42">
         <f t="shared" si="4"/>
         <v>100</v>
       </c>
-      <c r="J11" s="52">
+      <c r="J11" s="53">
         <f t="shared" si="1"/>
         <v>2.10105580693816</v>
       </c>
-      <c r="K11" s="53">
+      <c r="K11" s="54">
         <f t="shared" si="2"/>
         <v>0.0562818336162988</v>
       </c>
-      <c r="L11" s="54">
+      <c r="L11" s="55">
         <f t="shared" si="3"/>
         <v>0.118251273344652</v>
       </c>
       <c r="M11" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="N11" s="66"/>
+      <c r="N11" s="67"/>
     </row>
     <row r="12" s="2" customFormat="1" ht="24" spans="1:13">
       <c r="A12" s="12" t="s">
@@ -3080,7 +3095,7 @@
       <c r="D12" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="E12" s="40">
+      <c r="E12" s="41">
         <v>49.4</v>
       </c>
       <c r="F12" s="12">
@@ -3089,25 +3104,25 @@
       <c r="G12" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="H12" s="41">
+      <c r="H12" s="42">
         <f t="shared" si="0"/>
         <v>270</v>
       </c>
-      <c r="I12" s="41">
+      <c r="I12" s="42">
         <f t="shared" si="4"/>
         <v>300</v>
       </c>
-      <c r="J12" s="52" t="s">
+      <c r="J12" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="K12" s="53">
+      <c r="K12" s="54">
         <f t="shared" si="2"/>
         <v>0.054655870445344</v>
       </c>
-      <c r="L12" s="54" t="s">
+      <c r="L12" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="M12" s="65" t="s">
+      <c r="M12" s="66" t="s">
         <v>43</v>
       </c>
     </row>
@@ -3124,32 +3139,32 @@
       <c r="D13" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="40">
+      <c r="E13" s="41">
         <v>37.73</v>
       </c>
-      <c r="F13" s="41">
+      <c r="F13" s="42">
         <v>34.68</v>
       </c>
-      <c r="G13" s="41">
+      <c r="G13" s="42">
         <v>46.05</v>
       </c>
-      <c r="H13" s="41">
+      <c r="H13" s="42">
         <f t="shared" si="0"/>
         <v>305</v>
       </c>
-      <c r="I13" s="41">
+      <c r="I13" s="42">
         <f t="shared" si="4"/>
         <v>300</v>
       </c>
-      <c r="J13" s="52">
+      <c r="J13" s="53">
         <f>(G13-E13)/(E13-F13)</f>
         <v>2.72786885245902</v>
       </c>
-      <c r="K13" s="53">
+      <c r="K13" s="54">
         <f t="shared" si="2"/>
         <v>0.0808375298171216</v>
       </c>
-      <c r="L13" s="54">
+      <c r="L13" s="55">
         <f t="shared" ref="L13:L22" si="5">(G13-E13)/E13</f>
         <v>0.220514179697853</v>
       </c>
@@ -3164,13 +3179,13 @@
       <c r="B14" s="24">
         <v>44525</v>
       </c>
-      <c r="C14" s="71" t="s">
+      <c r="C14" s="72" t="s">
         <v>46</v>
       </c>
       <c r="D14" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="E14" s="44">
+      <c r="E14" s="45">
         <v>70.98</v>
       </c>
       <c r="F14" s="25">
@@ -3179,27 +3194,27 @@
       <c r="G14" s="25">
         <v>84.94</v>
       </c>
-      <c r="H14" s="45">
+      <c r="H14" s="46">
         <f t="shared" si="0"/>
         <v>410.000000000001</v>
       </c>
-      <c r="I14" s="41">
+      <c r="I14" s="42">
         <f t="shared" si="4"/>
         <v>200</v>
       </c>
-      <c r="J14" s="52">
+      <c r="J14" s="53">
         <f t="shared" ref="J14:J22" si="6">(G14-E14)/(E14-F14)</f>
         <v>3.40487804878048</v>
       </c>
-      <c r="K14" s="53">
+      <c r="K14" s="54">
         <f t="shared" ref="K14:K22" si="7">(E14-F14)/E14</f>
         <v>0.0577627500704425</v>
       </c>
-      <c r="L14" s="55">
+      <c r="L14" s="56">
         <f t="shared" si="5"/>
         <v>0.196675119752043</v>
       </c>
-      <c r="M14" s="67" t="s">
+      <c r="M14" s="68" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3216,7 +3231,7 @@
       <c r="D15" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="E15" s="44">
+      <c r="E15" s="45">
         <v>29.77</v>
       </c>
       <c r="F15" s="25">
@@ -3225,27 +3240,27 @@
       <c r="G15" s="25">
         <v>34.93</v>
       </c>
-      <c r="H15" s="45">
+      <c r="H15" s="46">
         <f t="shared" si="0"/>
         <v>205</v>
       </c>
-      <c r="I15" s="41">
+      <c r="I15" s="42">
         <f t="shared" si="4"/>
         <v>400</v>
       </c>
-      <c r="J15" s="52">
+      <c r="J15" s="53">
         <f t="shared" si="6"/>
         <v>2.51707317073171</v>
       </c>
-      <c r="K15" s="56">
+      <c r="K15" s="57">
         <f t="shared" si="7"/>
         <v>0.0688612697346322</v>
       </c>
-      <c r="L15" s="55">
+      <c r="L15" s="56">
         <f t="shared" si="5"/>
         <v>0.173328854551562</v>
       </c>
-      <c r="M15" s="67" t="s">
+      <c r="M15" s="68" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3262,7 +3277,7 @@
       <c r="D16" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="E16" s="44">
+      <c r="E16" s="45">
         <v>30.66</v>
       </c>
       <c r="F16" s="25">
@@ -3271,27 +3286,27 @@
       <c r="G16" s="25">
         <v>38.71</v>
       </c>
-      <c r="H16" s="45">
+      <c r="H16" s="46">
         <f t="shared" si="0"/>
         <v>131</v>
       </c>
-      <c r="I16" s="41">
+      <c r="I16" s="42">
         <f t="shared" si="4"/>
         <v>700</v>
       </c>
-      <c r="J16" s="52">
+      <c r="J16" s="53">
         <f t="shared" si="6"/>
         <v>6.14503816793894</v>
       </c>
-      <c r="K16" s="56">
+      <c r="K16" s="57">
         <f t="shared" si="7"/>
         <v>0.042726679712981</v>
       </c>
-      <c r="L16" s="55">
+      <c r="L16" s="56">
         <f t="shared" si="5"/>
         <v>0.262557077625571</v>
       </c>
-      <c r="M16" s="67" t="s">
+      <c r="M16" s="68" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3308,36 +3323,36 @@
       <c r="D17" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="E17" s="44">
+      <c r="E17" s="45">
         <v>26.2</v>
       </c>
-      <c r="F17" s="45">
+      <c r="F17" s="46">
         <v>24.68</v>
       </c>
-      <c r="G17" s="45">
+      <c r="G17" s="46">
         <v>32.49</v>
       </c>
-      <c r="H17" s="45">
+      <c r="H17" s="46">
         <f t="shared" si="0"/>
         <v>152</v>
       </c>
-      <c r="I17" s="41">
+      <c r="I17" s="42">
         <f t="shared" si="4"/>
         <v>600</v>
       </c>
-      <c r="J17" s="52">
+      <c r="J17" s="53">
         <f t="shared" si="6"/>
         <v>4.13815789473685</v>
       </c>
-      <c r="K17" s="56">
+      <c r="K17" s="57">
         <f t="shared" si="7"/>
         <v>0.0580152671755725</v>
       </c>
-      <c r="L17" s="55">
+      <c r="L17" s="56">
         <f t="shared" si="5"/>
         <v>0.240076335877863</v>
       </c>
-      <c r="M17" s="67" t="s">
+      <c r="M17" s="68" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3348,13 +3363,13 @@
       <c r="B18" s="24">
         <v>44533</v>
       </c>
-      <c r="C18" s="71" t="s">
+      <c r="C18" s="72" t="s">
         <v>56</v>
       </c>
       <c r="D18" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="E18" s="44">
+      <c r="E18" s="45">
         <v>28.82</v>
       </c>
       <c r="F18" s="25">
@@ -3363,27 +3378,27 @@
       <c r="G18" s="25">
         <v>32.36</v>
       </c>
-      <c r="H18" s="45">
+      <c r="H18" s="46">
         <f t="shared" si="0"/>
         <v>251</v>
       </c>
-      <c r="I18" s="41">
+      <c r="I18" s="42">
         <f t="shared" si="4"/>
         <v>300</v>
       </c>
-      <c r="J18" s="52">
+      <c r="J18" s="53">
         <f t="shared" si="6"/>
         <v>1.41035856573705</v>
       </c>
-      <c r="K18" s="56">
+      <c r="K18" s="57">
         <f t="shared" si="7"/>
         <v>0.0870922970159612</v>
       </c>
-      <c r="L18" s="55">
+      <c r="L18" s="56">
         <f t="shared" si="5"/>
         <v>0.122831367106176</v>
       </c>
-      <c r="M18" s="67" t="s">
+      <c r="M18" s="68" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3400,36 +3415,36 @@
       <c r="D19" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="E19" s="46">
+      <c r="E19" s="47">
         <v>38.89</v>
       </c>
-      <c r="F19" s="33">
+      <c r="F19" s="34">
         <v>36.65</v>
       </c>
-      <c r="G19" s="33">
+      <c r="G19" s="34">
         <v>40.7</v>
       </c>
-      <c r="H19" s="45">
+      <c r="H19" s="46">
         <f t="shared" si="0"/>
         <v>224</v>
       </c>
-      <c r="I19" s="41">
+      <c r="I19" s="42">
         <f t="shared" si="4"/>
         <v>400</v>
       </c>
-      <c r="J19" s="52">
+      <c r="J19" s="53">
         <f t="shared" si="6"/>
         <v>0.808035714285715</v>
       </c>
-      <c r="K19" s="56">
+      <c r="K19" s="57">
         <f t="shared" si="7"/>
         <v>0.0575983543327334</v>
       </c>
-      <c r="L19" s="55">
+      <c r="L19" s="56">
         <f t="shared" si="5"/>
         <v>0.0465415273849319</v>
       </c>
-      <c r="M19" s="67" t="s">
+      <c r="M19" s="68" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3446,36 +3461,36 @@
       <c r="D20" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="E20" s="46">
+      <c r="E20" s="47">
         <v>27.73</v>
       </c>
-      <c r="F20" s="33">
+      <c r="F20" s="34">
         <v>25.3</v>
       </c>
-      <c r="G20" s="33">
+      <c r="G20" s="34">
         <v>31.94</v>
       </c>
-      <c r="H20" s="45">
+      <c r="H20" s="46">
         <f t="shared" si="0"/>
         <v>243</v>
       </c>
-      <c r="I20" s="41">
+      <c r="I20" s="42">
         <f t="shared" si="4"/>
         <v>400</v>
       </c>
-      <c r="J20" s="52">
+      <c r="J20" s="53">
         <f t="shared" si="6"/>
         <v>1.73251028806584</v>
       </c>
-      <c r="K20" s="56">
+      <c r="K20" s="57">
         <f t="shared" si="7"/>
         <v>0.0876307248467364</v>
       </c>
-      <c r="L20" s="55">
+      <c r="L20" s="56">
         <f t="shared" si="5"/>
         <v>0.151821132347638</v>
       </c>
-      <c r="M20" s="68" t="s">
+      <c r="M20" s="69" t="s">
         <v>28</v>
       </c>
     </row>
@@ -3492,36 +3507,36 @@
       <c r="D21" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="E21" s="46">
+      <c r="E21" s="47">
         <v>11.75</v>
       </c>
-      <c r="F21" s="33">
+      <c r="F21" s="34">
         <v>10.9</v>
       </c>
-      <c r="G21" s="33">
+      <c r="G21" s="34">
         <v>14.54</v>
       </c>
-      <c r="H21" s="45">
+      <c r="H21" s="46">
         <f t="shared" si="0"/>
         <v>85</v>
       </c>
-      <c r="I21" s="41">
+      <c r="I21" s="42">
         <f t="shared" si="4"/>
         <v>1100</v>
       </c>
-      <c r="J21" s="52">
+      <c r="J21" s="53">
         <f t="shared" si="6"/>
         <v>3.28235294117647</v>
       </c>
-      <c r="K21" s="56">
+      <c r="K21" s="57">
         <f t="shared" si="7"/>
         <v>0.0723404255319149</v>
       </c>
-      <c r="L21" s="55">
+      <c r="L21" s="56">
         <f t="shared" si="5"/>
         <v>0.237446808510638</v>
       </c>
-      <c r="M21" s="68" t="s">
+      <c r="M21" s="69" t="s">
         <v>28</v>
       </c>
     </row>
@@ -3532,42 +3547,42 @@
       <c r="B22" s="27">
         <v>44546</v>
       </c>
-      <c r="C22" s="72" t="s">
+      <c r="C22" s="73" t="s">
         <v>46</v>
       </c>
       <c r="D22" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="E22" s="46">
+      <c r="E22" s="47">
         <v>74.46</v>
       </c>
-      <c r="F22" s="33">
+      <c r="F22" s="34">
         <v>70.54</v>
       </c>
-      <c r="G22" s="33">
+      <c r="G22" s="34">
         <v>83.27</v>
       </c>
-      <c r="H22" s="45">
+      <c r="H22" s="46">
         <f t="shared" si="0"/>
         <v>391.999999999999</v>
       </c>
-      <c r="I22" s="41">
+      <c r="I22" s="42">
         <f t="shared" si="4"/>
         <v>200</v>
       </c>
-      <c r="J22" s="52">
+      <c r="J22" s="53">
         <f t="shared" si="6"/>
         <v>2.24744897959184</v>
       </c>
-      <c r="K22" s="56">
+      <c r="K22" s="57">
         <f t="shared" si="7"/>
         <v>0.0526457158205746</v>
       </c>
-      <c r="L22" s="55">
+      <c r="L22" s="56">
         <f t="shared" si="5"/>
         <v>0.118318560300833</v>
       </c>
-      <c r="M22" s="68" t="s">
+      <c r="M22" s="69" t="s">
         <v>28</v>
       </c>
     </row>
@@ -3578,5393 +3593,5424 @@
       <c r="B23" s="27">
         <v>44546</v>
       </c>
-      <c r="C23" s="73" t="s">
+      <c r="C23" s="74" t="s">
         <v>67</v>
       </c>
       <c r="D23" s="32" t="s">
         <v>68</v>
       </c>
-      <c r="E23" s="46">
+      <c r="E23" s="47">
         <v>278</v>
       </c>
-      <c r="F23" s="33">
+      <c r="F23" s="34">
         <v>260.02</v>
       </c>
-      <c r="G23" s="33">
+      <c r="G23" s="34">
         <v>304.23</v>
       </c>
-      <c r="H23" s="45">
+      <c r="H23" s="46">
         <f>(E23-F23)*100</f>
         <v>1798</v>
       </c>
-      <c r="I23" s="41">
+      <c r="I23" s="42">
         <f>FLOOR(1000/(E23-F23),100)</f>
         <v>0</v>
       </c>
-      <c r="J23" s="52">
+      <c r="J23" s="53">
         <f>(G23-E23)/(E23-F23)</f>
         <v>1.45884315906563</v>
       </c>
-      <c r="K23" s="56">
+      <c r="K23" s="57">
         <f>(E23-F23)/E23</f>
         <v>0.0646762589928058</v>
       </c>
-      <c r="L23" s="55">
+      <c r="L23" s="56">
         <f>(G23-E23)/E23</f>
         <v>0.0943525179856116</v>
       </c>
-      <c r="M23" s="68" t="s">
+      <c r="M23" s="69" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="24" s="2" customFormat="1" spans="1:13">
-      <c r="A24" s="33"/>
-      <c r="B24" s="27"/>
-      <c r="C24" s="34"/>
-      <c r="D24" s="33"/>
-      <c r="E24" s="46"/>
-      <c r="F24" s="33"/>
-      <c r="G24" s="33"/>
-      <c r="H24" s="47"/>
-      <c r="I24" s="33"/>
-      <c r="J24" s="57"/>
-      <c r="K24" s="58"/>
-      <c r="L24" s="59"/>
-      <c r="M24" s="33"/>
+    <row r="24" s="2" customFormat="1" ht="18" spans="1:13">
+      <c r="A24" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="B24" s="27">
+        <v>44546</v>
+      </c>
+      <c r="C24" s="33">
+        <v>600436</v>
+      </c>
+      <c r="D24" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="E24" s="47">
+        <v>472</v>
+      </c>
+      <c r="F24" s="34">
+        <v>449</v>
+      </c>
+      <c r="G24" s="34">
+        <v>491.66</v>
+      </c>
+      <c r="H24" s="46">
+        <f>(E24-F24)*100</f>
+        <v>2300</v>
+      </c>
+      <c r="I24" s="42">
+        <f>FLOOR(1000/(E24-F24),100)</f>
+        <v>0</v>
+      </c>
+      <c r="J24" s="53">
+        <f>(G24-E24)/(E24-F24)</f>
+        <v>0.854782608695653</v>
+      </c>
+      <c r="K24" s="57">
+        <f>(E24-F24)/E24</f>
+        <v>0.048728813559322</v>
+      </c>
+      <c r="L24" s="56">
+        <f>(G24-E24)/E24</f>
+        <v>0.0416525423728814</v>
+      </c>
+      <c r="M24" s="69" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="25" s="2" customFormat="1" spans="1:13">
-      <c r="A25" s="33"/>
+      <c r="A25" s="34"/>
       <c r="B25" s="27"/>
-      <c r="C25" s="34"/>
-      <c r="D25" s="33"/>
-      <c r="E25" s="46"/>
-      <c r="F25" s="33"/>
-      <c r="G25" s="33"/>
-      <c r="H25" s="47"/>
-      <c r="I25" s="33"/>
-      <c r="J25" s="57"/>
-      <c r="K25" s="58"/>
-      <c r="L25" s="59"/>
-      <c r="M25" s="33"/>
+      <c r="C25" s="35"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="47"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="34"/>
+      <c r="H25" s="48"/>
+      <c r="I25" s="34"/>
+      <c r="J25" s="58"/>
+      <c r="K25" s="59"/>
+      <c r="L25" s="60"/>
+      <c r="M25" s="34"/>
     </row>
     <row r="26" s="2" customFormat="1" spans="1:13">
-      <c r="A26" s="33"/>
+      <c r="A26" s="34"/>
       <c r="B26" s="27"/>
-      <c r="C26" s="34"/>
-      <c r="D26" s="33"/>
-      <c r="E26" s="46"/>
-      <c r="F26" s="33"/>
-      <c r="G26" s="33"/>
-      <c r="H26" s="47"/>
-      <c r="I26" s="33"/>
-      <c r="J26" s="57"/>
-      <c r="K26" s="58"/>
-      <c r="L26" s="59"/>
-      <c r="M26" s="33"/>
+      <c r="C26" s="35"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="47"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="48"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="58"/>
+      <c r="K26" s="59"/>
+      <c r="L26" s="60"/>
+      <c r="M26" s="34"/>
     </row>
     <row r="27" s="2" customFormat="1" spans="1:13">
-      <c r="A27" s="33"/>
+      <c r="A27" s="34"/>
       <c r="B27" s="27"/>
       <c r="C27" s="25"/>
-      <c r="D27" s="33"/>
-      <c r="E27" s="46"/>
-      <c r="F27" s="33"/>
-      <c r="G27" s="33"/>
-      <c r="H27" s="47"/>
-      <c r="I27" s="33"/>
-      <c r="J27" s="57"/>
-      <c r="K27" s="58"/>
-      <c r="L27" s="59"/>
-      <c r="M27" s="68"/>
+      <c r="D27" s="34"/>
+      <c r="E27" s="47"/>
+      <c r="F27" s="34"/>
+      <c r="G27" s="34"/>
+      <c r="H27" s="48"/>
+      <c r="I27" s="34"/>
+      <c r="J27" s="58"/>
+      <c r="K27" s="59"/>
+      <c r="L27" s="60"/>
+      <c r="M27" s="69"/>
     </row>
     <row r="28" spans="1:13">
-      <c r="A28" s="35"/>
+      <c r="A28" s="36"/>
       <c r="B28" s="27"/>
-      <c r="C28" s="36"/>
-      <c r="D28" s="35"/>
-      <c r="E28" s="48"/>
-      <c r="F28" s="35"/>
-      <c r="G28" s="35"/>
-      <c r="H28" s="35"/>
-      <c r="I28" s="35"/>
-      <c r="J28" s="35"/>
-      <c r="K28" s="58"/>
-      <c r="L28" s="60"/>
-      <c r="M28" s="68"/>
+      <c r="C28" s="37"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="49"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="36"/>
+      <c r="H28" s="36"/>
+      <c r="I28" s="36"/>
+      <c r="J28" s="36"/>
+      <c r="K28" s="59"/>
+      <c r="L28" s="61"/>
+      <c r="M28" s="69"/>
     </row>
     <row r="29" spans="1:13">
-      <c r="A29" s="35"/>
+      <c r="A29" s="36"/>
       <c r="B29" s="27"/>
-      <c r="C29" s="35"/>
-      <c r="D29" s="35"/>
-      <c r="E29" s="48"/>
-      <c r="F29" s="35"/>
-      <c r="G29" s="35"/>
-      <c r="H29" s="35"/>
-      <c r="I29" s="35"/>
-      <c r="J29" s="35"/>
-      <c r="K29" s="58"/>
-      <c r="L29" s="60"/>
-      <c r="M29" s="35"/>
+      <c r="C29" s="36"/>
+      <c r="D29" s="36"/>
+      <c r="E29" s="49"/>
+      <c r="F29" s="36"/>
+      <c r="G29" s="36"/>
+      <c r="H29" s="36"/>
+      <c r="I29" s="36"/>
+      <c r="J29" s="36"/>
+      <c r="K29" s="59"/>
+      <c r="L29" s="61"/>
+      <c r="M29" s="36"/>
     </row>
     <row r="30" spans="1:13">
-      <c r="A30" s="35"/>
-      <c r="B30" s="35"/>
-      <c r="C30" s="35"/>
-      <c r="D30" s="35"/>
-      <c r="E30" s="48"/>
-      <c r="F30" s="35"/>
-      <c r="G30" s="35"/>
-      <c r="H30" s="35"/>
-      <c r="I30" s="35"/>
-      <c r="J30" s="35"/>
-      <c r="K30" s="58"/>
-      <c r="L30" s="60"/>
-      <c r="M30" s="35"/>
+      <c r="A30" s="36"/>
+      <c r="B30" s="36"/>
+      <c r="C30" s="36"/>
+      <c r="D30" s="36"/>
+      <c r="E30" s="49"/>
+      <c r="F30" s="36"/>
+      <c r="G30" s="36"/>
+      <c r="H30" s="36"/>
+      <c r="I30" s="36"/>
+      <c r="J30" s="36"/>
+      <c r="K30" s="59"/>
+      <c r="L30" s="61"/>
+      <c r="M30" s="36"/>
     </row>
     <row r="31" spans="1:13">
-      <c r="A31" s="35"/>
-      <c r="B31" s="35"/>
-      <c r="C31" s="35"/>
-      <c r="D31" s="35"/>
-      <c r="E31" s="48"/>
-      <c r="F31" s="35"/>
-      <c r="G31" s="35"/>
-      <c r="H31" s="35"/>
-      <c r="I31" s="35"/>
-      <c r="J31" s="35"/>
-      <c r="K31" s="58"/>
-      <c r="L31" s="60"/>
-      <c r="M31" s="35"/>
+      <c r="A31" s="36"/>
+      <c r="B31" s="36"/>
+      <c r="C31" s="36"/>
+      <c r="D31" s="36"/>
+      <c r="E31" s="49"/>
+      <c r="F31" s="36"/>
+      <c r="G31" s="36"/>
+      <c r="H31" s="36"/>
+      <c r="I31" s="36"/>
+      <c r="J31" s="36"/>
+      <c r="K31" s="59"/>
+      <c r="L31" s="61"/>
+      <c r="M31" s="36"/>
     </row>
     <row r="32" spans="1:13">
-      <c r="A32" s="35"/>
-      <c r="B32" s="35"/>
-      <c r="C32" s="35"/>
-      <c r="D32" s="35"/>
-      <c r="E32" s="48"/>
-      <c r="F32" s="35"/>
-      <c r="G32" s="35"/>
-      <c r="H32" s="35"/>
-      <c r="I32" s="35"/>
-      <c r="J32" s="35"/>
-      <c r="K32" s="58"/>
-      <c r="L32" s="60"/>
-      <c r="M32" s="35"/>
+      <c r="A32" s="36"/>
+      <c r="B32" s="36"/>
+      <c r="C32" s="36"/>
+      <c r="D32" s="36"/>
+      <c r="E32" s="49"/>
+      <c r="F32" s="36"/>
+      <c r="G32" s="36"/>
+      <c r="H32" s="36"/>
+      <c r="I32" s="36"/>
+      <c r="J32" s="36"/>
+      <c r="K32" s="59"/>
+      <c r="L32" s="61"/>
+      <c r="M32" s="36"/>
     </row>
     <row r="33" spans="1:13">
-      <c r="A33" s="35"/>
-      <c r="B33" s="35"/>
-      <c r="C33" s="35"/>
-      <c r="D33" s="35"/>
-      <c r="E33" s="48"/>
-      <c r="F33" s="35"/>
-      <c r="G33" s="35"/>
-      <c r="H33" s="35"/>
-      <c r="I33" s="35"/>
-      <c r="J33" s="35"/>
-      <c r="K33" s="58"/>
-      <c r="L33" s="60"/>
-      <c r="M33" s="35"/>
+      <c r="A33" s="36"/>
+      <c r="B33" s="36"/>
+      <c r="C33" s="36"/>
+      <c r="D33" s="36"/>
+      <c r="E33" s="49"/>
+      <c r="F33" s="36"/>
+      <c r="G33" s="36"/>
+      <c r="H33" s="36"/>
+      <c r="I33" s="36"/>
+      <c r="J33" s="36"/>
+      <c r="K33" s="59"/>
+      <c r="L33" s="61"/>
+      <c r="M33" s="36"/>
     </row>
     <row r="34" spans="1:13">
-      <c r="A34" s="35"/>
-      <c r="B34" s="35"/>
-      <c r="C34" s="35"/>
-      <c r="D34" s="35"/>
-      <c r="E34" s="48"/>
-      <c r="F34" s="35"/>
-      <c r="G34" s="35"/>
-      <c r="H34" s="35"/>
-      <c r="I34" s="35"/>
-      <c r="J34" s="35"/>
-      <c r="K34" s="58"/>
-      <c r="L34" s="60"/>
-      <c r="M34" s="35"/>
+      <c r="A34" s="36"/>
+      <c r="B34" s="36"/>
+      <c r="C34" s="36"/>
+      <c r="D34" s="36"/>
+      <c r="E34" s="49"/>
+      <c r="F34" s="36"/>
+      <c r="G34" s="36"/>
+      <c r="H34" s="36"/>
+      <c r="I34" s="36"/>
+      <c r="J34" s="36"/>
+      <c r="K34" s="59"/>
+      <c r="L34" s="61"/>
+      <c r="M34" s="36"/>
     </row>
     <row r="35" spans="1:13">
-      <c r="A35" s="35"/>
-      <c r="B35" s="35"/>
-      <c r="C35" s="35"/>
-      <c r="D35" s="35"/>
-      <c r="E35" s="48"/>
-      <c r="F35" s="35"/>
-      <c r="G35" s="35"/>
-      <c r="H35" s="35"/>
-      <c r="I35" s="35"/>
-      <c r="J35" s="35"/>
-      <c r="K35" s="58"/>
-      <c r="L35" s="60"/>
-      <c r="M35" s="35"/>
+      <c r="A35" s="36"/>
+      <c r="B35" s="36"/>
+      <c r="C35" s="36"/>
+      <c r="D35" s="36"/>
+      <c r="E35" s="49"/>
+      <c r="F35" s="36"/>
+      <c r="G35" s="36"/>
+      <c r="H35" s="36"/>
+      <c r="I35" s="36"/>
+      <c r="J35" s="36"/>
+      <c r="K35" s="59"/>
+      <c r="L35" s="61"/>
+      <c r="M35" s="36"/>
     </row>
     <row r="36" spans="1:13">
-      <c r="A36" s="35"/>
-      <c r="B36" s="35"/>
-      <c r="C36" s="35"/>
-      <c r="D36" s="35"/>
-      <c r="E36" s="48"/>
-      <c r="F36" s="35"/>
-      <c r="G36" s="35"/>
-      <c r="H36" s="35"/>
-      <c r="I36" s="35"/>
-      <c r="J36" s="35"/>
-      <c r="K36" s="58"/>
-      <c r="L36" s="60"/>
-      <c r="M36" s="35"/>
+      <c r="A36" s="36"/>
+      <c r="B36" s="36"/>
+      <c r="C36" s="36"/>
+      <c r="D36" s="36"/>
+      <c r="E36" s="49"/>
+      <c r="F36" s="36"/>
+      <c r="G36" s="36"/>
+      <c r="H36" s="36"/>
+      <c r="I36" s="36"/>
+      <c r="J36" s="36"/>
+      <c r="K36" s="59"/>
+      <c r="L36" s="61"/>
+      <c r="M36" s="36"/>
     </row>
     <row r="37" spans="1:13">
-      <c r="A37" s="35"/>
-      <c r="B37" s="35"/>
-      <c r="C37" s="35"/>
-      <c r="D37" s="35"/>
-      <c r="E37" s="48"/>
-      <c r="F37" s="35"/>
-      <c r="G37" s="35"/>
-      <c r="H37" s="35"/>
-      <c r="I37" s="35"/>
-      <c r="J37" s="35"/>
-      <c r="K37" s="58"/>
-      <c r="L37" s="60"/>
-      <c r="M37" s="35"/>
+      <c r="A37" s="36"/>
+      <c r="B37" s="36"/>
+      <c r="C37" s="36"/>
+      <c r="D37" s="36"/>
+      <c r="E37" s="49"/>
+      <c r="F37" s="36"/>
+      <c r="G37" s="36"/>
+      <c r="H37" s="36"/>
+      <c r="I37" s="36"/>
+      <c r="J37" s="36"/>
+      <c r="K37" s="59"/>
+      <c r="L37" s="61"/>
+      <c r="M37" s="36"/>
     </row>
     <row r="38" spans="1:13">
-      <c r="A38" s="35"/>
-      <c r="B38" s="35"/>
-      <c r="C38" s="35"/>
-      <c r="D38" s="35"/>
-      <c r="E38" s="48"/>
-      <c r="F38" s="35"/>
-      <c r="G38" s="35"/>
-      <c r="H38" s="35"/>
-      <c r="I38" s="35"/>
-      <c r="J38" s="35"/>
-      <c r="K38" s="58"/>
-      <c r="L38" s="60"/>
-      <c r="M38" s="35"/>
+      <c r="A38" s="36"/>
+      <c r="B38" s="36"/>
+      <c r="C38" s="36"/>
+      <c r="D38" s="36"/>
+      <c r="E38" s="49"/>
+      <c r="F38" s="36"/>
+      <c r="G38" s="36"/>
+      <c r="H38" s="36"/>
+      <c r="I38" s="36"/>
+      <c r="J38" s="36"/>
+      <c r="K38" s="59"/>
+      <c r="L38" s="61"/>
+      <c r="M38" s="36"/>
     </row>
     <row r="39" spans="1:13">
-      <c r="A39" s="35"/>
-      <c r="B39" s="35"/>
-      <c r="C39" s="35"/>
-      <c r="D39" s="35"/>
-      <c r="E39" s="48"/>
-      <c r="F39" s="35"/>
-      <c r="G39" s="35"/>
-      <c r="H39" s="35"/>
-      <c r="I39" s="35"/>
-      <c r="J39" s="35"/>
-      <c r="K39" s="58"/>
-      <c r="L39" s="60"/>
-      <c r="M39" s="35"/>
+      <c r="A39" s="36"/>
+      <c r="B39" s="36"/>
+      <c r="C39" s="36"/>
+      <c r="D39" s="36"/>
+      <c r="E39" s="49"/>
+      <c r="F39" s="36"/>
+      <c r="G39" s="36"/>
+      <c r="H39" s="36"/>
+      <c r="I39" s="36"/>
+      <c r="J39" s="36"/>
+      <c r="K39" s="59"/>
+      <c r="L39" s="61"/>
+      <c r="M39" s="36"/>
     </row>
     <row r="40" spans="1:13">
-      <c r="A40" s="35"/>
-      <c r="B40" s="35"/>
-      <c r="C40" s="35"/>
-      <c r="D40" s="35"/>
-      <c r="E40" s="48"/>
-      <c r="F40" s="35"/>
-      <c r="G40" s="35"/>
-      <c r="H40" s="35"/>
-      <c r="I40" s="35"/>
-      <c r="J40" s="35"/>
-      <c r="K40" s="58"/>
-      <c r="L40" s="60"/>
-      <c r="M40" s="35"/>
+      <c r="A40" s="36"/>
+      <c r="B40" s="36"/>
+      <c r="C40" s="36"/>
+      <c r="D40" s="36"/>
+      <c r="E40" s="49"/>
+      <c r="F40" s="36"/>
+      <c r="G40" s="36"/>
+      <c r="H40" s="36"/>
+      <c r="I40" s="36"/>
+      <c r="J40" s="36"/>
+      <c r="K40" s="59"/>
+      <c r="L40" s="61"/>
+      <c r="M40" s="36"/>
     </row>
     <row r="41" spans="1:13">
-      <c r="A41" s="35"/>
-      <c r="B41" s="35"/>
-      <c r="C41" s="35"/>
-      <c r="D41" s="35"/>
-      <c r="E41" s="48"/>
-      <c r="F41" s="35"/>
-      <c r="G41" s="35"/>
-      <c r="H41" s="35"/>
-      <c r="I41" s="35"/>
-      <c r="J41" s="35"/>
-      <c r="K41" s="58"/>
-      <c r="L41" s="60"/>
-      <c r="M41" s="35"/>
+      <c r="A41" s="36"/>
+      <c r="B41" s="36"/>
+      <c r="C41" s="36"/>
+      <c r="D41" s="36"/>
+      <c r="E41" s="49"/>
+      <c r="F41" s="36"/>
+      <c r="G41" s="36"/>
+      <c r="H41" s="36"/>
+      <c r="I41" s="36"/>
+      <c r="J41" s="36"/>
+      <c r="K41" s="59"/>
+      <c r="L41" s="61"/>
+      <c r="M41" s="36"/>
     </row>
     <row r="42" spans="1:13">
-      <c r="A42" s="35"/>
-      <c r="B42" s="35"/>
-      <c r="C42" s="35"/>
-      <c r="D42" s="35"/>
-      <c r="E42" s="48"/>
-      <c r="F42" s="35"/>
-      <c r="G42" s="35"/>
-      <c r="H42" s="35"/>
-      <c r="I42" s="35"/>
-      <c r="J42" s="35"/>
-      <c r="K42" s="58"/>
-      <c r="L42" s="60"/>
-      <c r="M42" s="35"/>
+      <c r="A42" s="36"/>
+      <c r="B42" s="36"/>
+      <c r="C42" s="36"/>
+      <c r="D42" s="36"/>
+      <c r="E42" s="49"/>
+      <c r="F42" s="36"/>
+      <c r="G42" s="36"/>
+      <c r="H42" s="36"/>
+      <c r="I42" s="36"/>
+      <c r="J42" s="36"/>
+      <c r="K42" s="59"/>
+      <c r="L42" s="61"/>
+      <c r="M42" s="36"/>
     </row>
     <row r="43" spans="1:13">
-      <c r="A43" s="35"/>
-      <c r="B43" s="35"/>
-      <c r="C43" s="35"/>
-      <c r="D43" s="35"/>
-      <c r="E43" s="48"/>
-      <c r="F43" s="35"/>
-      <c r="G43" s="35"/>
-      <c r="H43" s="35"/>
-      <c r="I43" s="35"/>
-      <c r="J43" s="35"/>
-      <c r="K43" s="58"/>
-      <c r="L43" s="60"/>
-      <c r="M43" s="35"/>
+      <c r="A43" s="36"/>
+      <c r="B43" s="36"/>
+      <c r="C43" s="36"/>
+      <c r="D43" s="36"/>
+      <c r="E43" s="49"/>
+      <c r="F43" s="36"/>
+      <c r="G43" s="36"/>
+      <c r="H43" s="36"/>
+      <c r="I43" s="36"/>
+      <c r="J43" s="36"/>
+      <c r="K43" s="59"/>
+      <c r="L43" s="61"/>
+      <c r="M43" s="36"/>
     </row>
     <row r="44" spans="1:13">
-      <c r="A44" s="35"/>
-      <c r="B44" s="35"/>
-      <c r="C44" s="35"/>
-      <c r="D44" s="35"/>
-      <c r="E44" s="48"/>
-      <c r="F44" s="35"/>
-      <c r="G44" s="35"/>
-      <c r="H44" s="35"/>
-      <c r="I44" s="35"/>
-      <c r="J44" s="35"/>
-      <c r="K44" s="58"/>
-      <c r="L44" s="60"/>
-      <c r="M44" s="35"/>
+      <c r="A44" s="36"/>
+      <c r="B44" s="36"/>
+      <c r="C44" s="36"/>
+      <c r="D44" s="36"/>
+      <c r="E44" s="49"/>
+      <c r="F44" s="36"/>
+      <c r="G44" s="36"/>
+      <c r="H44" s="36"/>
+      <c r="I44" s="36"/>
+      <c r="J44" s="36"/>
+      <c r="K44" s="59"/>
+      <c r="L44" s="61"/>
+      <c r="M44" s="36"/>
     </row>
     <row r="45" spans="1:13">
-      <c r="A45" s="35"/>
-      <c r="B45" s="35"/>
-      <c r="C45" s="35"/>
-      <c r="D45" s="35"/>
-      <c r="E45" s="48"/>
-      <c r="F45" s="35"/>
-      <c r="G45" s="35"/>
-      <c r="H45" s="35"/>
-      <c r="I45" s="35"/>
-      <c r="J45" s="35"/>
-      <c r="K45" s="58"/>
-      <c r="L45" s="60"/>
-      <c r="M45" s="35"/>
+      <c r="A45" s="36"/>
+      <c r="B45" s="36"/>
+      <c r="C45" s="36"/>
+      <c r="D45" s="36"/>
+      <c r="E45" s="49"/>
+      <c r="F45" s="36"/>
+      <c r="G45" s="36"/>
+      <c r="H45" s="36"/>
+      <c r="I45" s="36"/>
+      <c r="J45" s="36"/>
+      <c r="K45" s="59"/>
+      <c r="L45" s="61"/>
+      <c r="M45" s="36"/>
     </row>
     <row r="46" ht="13" spans="1:13">
-      <c r="A46" s="74" t="s">
-        <v>70</v>
-      </c>
-      <c r="B46" s="35"/>
+      <c r="A46" s="75" t="s">
+        <v>72</v>
+      </c>
+      <c r="B46" s="36"/>
       <c r="D46" s="3"/>
-      <c r="E46" s="49"/>
+      <c r="E46" s="50"/>
       <c r="F46" s="3"/>
       <c r="G46" s="3"/>
       <c r="H46" s="3"/>
       <c r="I46" s="3"/>
       <c r="J46" s="3"/>
-      <c r="K46" s="61"/>
-      <c r="M46" s="35"/>
+      <c r="K46" s="62"/>
+      <c r="M46" s="36"/>
     </row>
     <row r="47" spans="1:11">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="D47" s="3"/>
-      <c r="E47" s="49"/>
+      <c r="E47" s="50"/>
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
       <c r="H47" s="3"/>
       <c r="I47" s="3"/>
       <c r="J47" s="3"/>
-      <c r="K47" s="61"/>
+      <c r="K47" s="62"/>
     </row>
     <row r="48" spans="1:11">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="D48" s="3"/>
-      <c r="E48" s="49"/>
+      <c r="E48" s="50"/>
       <c r="F48" s="3"/>
       <c r="G48" s="3"/>
       <c r="H48" s="3"/>
       <c r="I48" s="3"/>
       <c r="J48" s="3"/>
-      <c r="K48" s="61"/>
+      <c r="K48" s="62"/>
     </row>
     <row r="49" spans="1:11">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
       <c r="D49" s="3"/>
-      <c r="E49" s="49"/>
+      <c r="E49" s="50"/>
       <c r="F49" s="3"/>
       <c r="G49" s="3"/>
       <c r="H49" s="3"/>
       <c r="I49" s="3"/>
       <c r="J49" s="3"/>
-      <c r="K49" s="61"/>
+      <c r="K49" s="62"/>
     </row>
     <row r="50" spans="1:11">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
       <c r="D50" s="3"/>
-      <c r="E50" s="49"/>
+      <c r="E50" s="50"/>
       <c r="F50" s="3"/>
       <c r="G50" s="3"/>
       <c r="H50" s="3"/>
       <c r="I50" s="3"/>
       <c r="J50" s="3"/>
-      <c r="K50" s="61"/>
+      <c r="K50" s="62"/>
     </row>
     <row r="51" spans="1:11">
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
       <c r="D51" s="3"/>
-      <c r="E51" s="49"/>
+      <c r="E51" s="50"/>
       <c r="F51" s="3"/>
       <c r="G51" s="3"/>
       <c r="H51" s="3"/>
       <c r="I51" s="3"/>
       <c r="J51" s="3"/>
-      <c r="K51" s="61"/>
+      <c r="K51" s="62"/>
     </row>
     <row r="52" spans="1:11">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="D52" s="3"/>
-      <c r="E52" s="49"/>
+      <c r="E52" s="50"/>
       <c r="F52" s="3"/>
       <c r="G52" s="3"/>
       <c r="H52" s="3"/>
       <c r="I52" s="3"/>
       <c r="J52" s="3"/>
-      <c r="K52" s="61"/>
+      <c r="K52" s="62"/>
     </row>
     <row r="53" spans="1:11">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
       <c r="D53" s="3"/>
-      <c r="E53" s="49"/>
+      <c r="E53" s="50"/>
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
       <c r="H53" s="3"/>
       <c r="I53" s="3"/>
       <c r="J53" s="3"/>
-      <c r="K53" s="61"/>
+      <c r="K53" s="62"/>
     </row>
     <row r="54" spans="1:11">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="D54" s="3"/>
-      <c r="E54" s="49"/>
+      <c r="E54" s="50"/>
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
       <c r="H54" s="3"/>
       <c r="I54" s="3"/>
       <c r="J54" s="3"/>
-      <c r="K54" s="61"/>
+      <c r="K54" s="62"/>
     </row>
     <row r="55" spans="1:11">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="D55" s="3"/>
-      <c r="E55" s="49"/>
+      <c r="E55" s="50"/>
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
       <c r="H55" s="3"/>
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
-      <c r="K55" s="61"/>
+      <c r="K55" s="62"/>
     </row>
     <row r="56" spans="1:11">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
       <c r="D56" s="3"/>
-      <c r="E56" s="49"/>
+      <c r="E56" s="50"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="H56" s="3"/>
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
-      <c r="K56" s="61"/>
+      <c r="K56" s="62"/>
     </row>
     <row r="57" spans="1:11">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
       <c r="D57" s="3"/>
-      <c r="E57" s="49"/>
+      <c r="E57" s="50"/>
       <c r="F57" s="3"/>
       <c r="G57" s="3"/>
       <c r="H57" s="3"/>
       <c r="I57" s="3"/>
       <c r="J57" s="3"/>
-      <c r="K57" s="61"/>
+      <c r="K57" s="62"/>
     </row>
     <row r="58" spans="1:11">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="D58" s="3"/>
-      <c r="E58" s="49"/>
+      <c r="E58" s="50"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="H58" s="3"/>
       <c r="I58" s="3"/>
       <c r="J58" s="3"/>
-      <c r="K58" s="61"/>
+      <c r="K58" s="62"/>
     </row>
     <row r="59" spans="1:11">
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
       <c r="D59" s="3"/>
-      <c r="E59" s="49"/>
+      <c r="E59" s="50"/>
       <c r="F59" s="3"/>
       <c r="G59" s="3"/>
       <c r="H59" s="3"/>
       <c r="I59" s="3"/>
       <c r="J59" s="3"/>
-      <c r="K59" s="61"/>
+      <c r="K59" s="62"/>
     </row>
     <row r="60" spans="1:11">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="D60" s="3"/>
-      <c r="E60" s="49"/>
+      <c r="E60" s="50"/>
       <c r="F60" s="3"/>
       <c r="G60" s="3"/>
       <c r="H60" s="3"/>
       <c r="I60" s="3"/>
       <c r="J60" s="3"/>
-      <c r="K60" s="61"/>
+      <c r="K60" s="62"/>
     </row>
     <row r="61" spans="1:11">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="D61" s="3"/>
-      <c r="E61" s="49"/>
+      <c r="E61" s="50"/>
       <c r="F61" s="3"/>
       <c r="G61" s="3"/>
       <c r="H61" s="3"/>
       <c r="I61" s="3"/>
       <c r="J61" s="3"/>
-      <c r="K61" s="61"/>
+      <c r="K61" s="62"/>
     </row>
     <row r="62" spans="1:11">
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
       <c r="D62" s="3"/>
-      <c r="E62" s="49"/>
+      <c r="E62" s="50"/>
       <c r="F62" s="3"/>
       <c r="G62" s="3"/>
       <c r="H62" s="3"/>
       <c r="I62" s="3"/>
       <c r="J62" s="3"/>
-      <c r="K62" s="61"/>
+      <c r="K62" s="62"/>
     </row>
     <row r="63" spans="1:11">
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
       <c r="D63" s="3"/>
-      <c r="E63" s="49"/>
+      <c r="E63" s="50"/>
       <c r="F63" s="3"/>
       <c r="G63" s="3"/>
       <c r="H63" s="3"/>
       <c r="I63" s="3"/>
       <c r="J63" s="3"/>
-      <c r="K63" s="61"/>
+      <c r="K63" s="62"/>
     </row>
     <row r="64" spans="1:11">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="D64" s="3"/>
-      <c r="E64" s="49"/>
+      <c r="E64" s="50"/>
       <c r="F64" s="3"/>
       <c r="G64" s="3"/>
       <c r="H64" s="3"/>
       <c r="I64" s="3"/>
       <c r="J64" s="3"/>
-      <c r="K64" s="61"/>
+      <c r="K64" s="62"/>
     </row>
     <row r="65" spans="1:11">
       <c r="A65" s="3"/>
       <c r="B65" s="3"/>
       <c r="D65" s="3"/>
-      <c r="E65" s="49"/>
+      <c r="E65" s="50"/>
       <c r="F65" s="3"/>
       <c r="G65" s="3"/>
       <c r="H65" s="3"/>
       <c r="I65" s="3"/>
       <c r="J65" s="3"/>
-      <c r="K65" s="61"/>
+      <c r="K65" s="62"/>
     </row>
     <row r="66" spans="1:11">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
       <c r="D66" s="3"/>
-      <c r="E66" s="49"/>
+      <c r="E66" s="50"/>
       <c r="F66" s="3"/>
       <c r="G66" s="3"/>
       <c r="H66" s="3"/>
       <c r="I66" s="3"/>
       <c r="J66" s="3"/>
-      <c r="K66" s="61"/>
+      <c r="K66" s="62"/>
     </row>
     <row r="67" spans="1:11">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="D67" s="3"/>
-      <c r="E67" s="49"/>
+      <c r="E67" s="50"/>
       <c r="F67" s="3"/>
       <c r="G67" s="3"/>
       <c r="H67" s="3"/>
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
-      <c r="K67" s="61"/>
+      <c r="K67" s="62"/>
     </row>
     <row r="68" spans="1:11">
       <c r="A68" s="3"/>
       <c r="B68" s="3"/>
       <c r="D68" s="3"/>
-      <c r="E68" s="49"/>
+      <c r="E68" s="50"/>
       <c r="F68" s="3"/>
       <c r="G68" s="3"/>
       <c r="H68" s="3"/>
       <c r="I68" s="3"/>
       <c r="J68" s="3"/>
-      <c r="K68" s="61"/>
+      <c r="K68" s="62"/>
     </row>
     <row r="69" spans="1:11">
       <c r="A69" s="3"/>
       <c r="B69" s="3"/>
       <c r="D69" s="3"/>
-      <c r="E69" s="49"/>
+      <c r="E69" s="50"/>
       <c r="F69" s="3"/>
       <c r="G69" s="3"/>
       <c r="H69" s="3"/>
       <c r="I69" s="3"/>
       <c r="J69" s="3"/>
-      <c r="K69" s="61"/>
+      <c r="K69" s="62"/>
     </row>
     <row r="70" spans="1:11">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="D70" s="3"/>
-      <c r="E70" s="49"/>
+      <c r="E70" s="50"/>
       <c r="F70" s="3"/>
       <c r="G70" s="3"/>
       <c r="H70" s="3"/>
       <c r="I70" s="3"/>
       <c r="J70" s="3"/>
-      <c r="K70" s="61"/>
+      <c r="K70" s="62"/>
     </row>
     <row r="71" spans="1:11">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="D71" s="3"/>
-      <c r="E71" s="49"/>
+      <c r="E71" s="50"/>
       <c r="F71" s="3"/>
       <c r="G71" s="3"/>
       <c r="H71" s="3"/>
       <c r="I71" s="3"/>
       <c r="J71" s="3"/>
-      <c r="K71" s="61"/>
+      <c r="K71" s="62"/>
     </row>
     <row r="72" spans="1:11">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="D72" s="3"/>
-      <c r="E72" s="49"/>
+      <c r="E72" s="50"/>
       <c r="F72" s="3"/>
       <c r="G72" s="3"/>
       <c r="H72" s="3"/>
       <c r="I72" s="3"/>
       <c r="J72" s="3"/>
-      <c r="K72" s="61"/>
+      <c r="K72" s="62"/>
     </row>
     <row r="73" spans="1:11">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="D73" s="3"/>
-      <c r="E73" s="49"/>
+      <c r="E73" s="50"/>
       <c r="F73" s="3"/>
       <c r="G73" s="3"/>
       <c r="H73" s="3"/>
       <c r="I73" s="3"/>
       <c r="J73" s="3"/>
-      <c r="K73" s="61"/>
+      <c r="K73" s="62"/>
     </row>
     <row r="74" spans="1:11">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="D74" s="3"/>
-      <c r="E74" s="49"/>
+      <c r="E74" s="50"/>
       <c r="F74" s="3"/>
       <c r="G74" s="3"/>
       <c r="H74" s="3"/>
       <c r="I74" s="3"/>
       <c r="J74" s="3"/>
-      <c r="K74" s="61"/>
+      <c r="K74" s="62"/>
     </row>
     <row r="75" spans="1:11">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="D75" s="3"/>
-      <c r="E75" s="49"/>
+      <c r="E75" s="50"/>
       <c r="F75" s="3"/>
       <c r="G75" s="3"/>
       <c r="H75" s="3"/>
       <c r="I75" s="3"/>
       <c r="J75" s="3"/>
-      <c r="K75" s="61"/>
+      <c r="K75" s="62"/>
     </row>
     <row r="76" spans="1:11">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="D76" s="3"/>
-      <c r="E76" s="49"/>
+      <c r="E76" s="50"/>
       <c r="F76" s="3"/>
       <c r="G76" s="3"/>
       <c r="H76" s="3"/>
       <c r="I76" s="3"/>
       <c r="J76" s="3"/>
-      <c r="K76" s="61"/>
+      <c r="K76" s="62"/>
     </row>
     <row r="77" spans="1:11">
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
       <c r="D77" s="3"/>
-      <c r="E77" s="49"/>
+      <c r="E77" s="50"/>
       <c r="F77" s="3"/>
       <c r="G77" s="3"/>
       <c r="H77" s="3"/>
       <c r="I77" s="3"/>
       <c r="J77" s="3"/>
-      <c r="K77" s="61"/>
+      <c r="K77" s="62"/>
     </row>
     <row r="78" spans="1:11">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="D78" s="3"/>
-      <c r="E78" s="49"/>
+      <c r="E78" s="50"/>
       <c r="F78" s="3"/>
       <c r="G78" s="3"/>
       <c r="H78" s="3"/>
       <c r="I78" s="3"/>
       <c r="J78" s="3"/>
-      <c r="K78" s="61"/>
+      <c r="K78" s="62"/>
     </row>
     <row r="79" spans="1:11">
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="D79" s="3"/>
-      <c r="E79" s="49"/>
+      <c r="E79" s="50"/>
       <c r="F79" s="3"/>
       <c r="G79" s="3"/>
       <c r="H79" s="3"/>
       <c r="I79" s="3"/>
       <c r="J79" s="3"/>
-      <c r="K79" s="61"/>
+      <c r="K79" s="62"/>
     </row>
     <row r="80" spans="1:11">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
       <c r="D80" s="3"/>
-      <c r="E80" s="49"/>
+      <c r="E80" s="50"/>
       <c r="F80" s="3"/>
       <c r="G80" s="3"/>
       <c r="H80" s="3"/>
       <c r="I80" s="3"/>
       <c r="J80" s="3"/>
-      <c r="K80" s="61"/>
+      <c r="K80" s="62"/>
     </row>
     <row r="81" spans="1:11">
       <c r="A81" s="3"/>
       <c r="B81" s="3"/>
       <c r="D81" s="3"/>
-      <c r="E81" s="49"/>
+      <c r="E81" s="50"/>
       <c r="F81" s="3"/>
       <c r="G81" s="3"/>
       <c r="H81" s="3"/>
       <c r="I81" s="3"/>
       <c r="J81" s="3"/>
-      <c r="K81" s="61"/>
+      <c r="K81" s="62"/>
     </row>
     <row r="82" spans="1:11">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
       <c r="D82" s="3"/>
-      <c r="E82" s="49"/>
+      <c r="E82" s="50"/>
       <c r="F82" s="3"/>
       <c r="G82" s="3"/>
       <c r="H82" s="3"/>
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
-      <c r="K82" s="61"/>
+      <c r="K82" s="62"/>
     </row>
     <row r="83" spans="1:11">
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
       <c r="D83" s="3"/>
-      <c r="E83" s="49"/>
+      <c r="E83" s="50"/>
       <c r="F83" s="3"/>
       <c r="G83" s="3"/>
       <c r="H83" s="3"/>
       <c r="I83" s="3"/>
       <c r="J83" s="3"/>
-      <c r="K83" s="61"/>
+      <c r="K83" s="62"/>
     </row>
     <row r="84" spans="1:11">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
       <c r="D84" s="3"/>
-      <c r="E84" s="49"/>
+      <c r="E84" s="50"/>
       <c r="F84" s="3"/>
       <c r="G84" s="3"/>
       <c r="H84" s="3"/>
       <c r="I84" s="3"/>
       <c r="J84" s="3"/>
-      <c r="K84" s="61"/>
+      <c r="K84" s="62"/>
     </row>
     <row r="85" spans="1:11">
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
       <c r="D85" s="3"/>
-      <c r="E85" s="49"/>
+      <c r="E85" s="50"/>
       <c r="F85" s="3"/>
       <c r="G85" s="3"/>
       <c r="H85" s="3"/>
       <c r="I85" s="3"/>
       <c r="J85" s="3"/>
-      <c r="K85" s="61"/>
+      <c r="K85" s="62"/>
     </row>
     <row r="86" spans="1:11">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
       <c r="D86" s="3"/>
-      <c r="E86" s="49"/>
+      <c r="E86" s="50"/>
       <c r="F86" s="3"/>
       <c r="G86" s="3"/>
       <c r="H86" s="3"/>
       <c r="I86" s="3"/>
       <c r="J86" s="3"/>
-      <c r="K86" s="61"/>
+      <c r="K86" s="62"/>
     </row>
     <row r="87" spans="1:11">
       <c r="A87" s="3"/>
       <c r="B87" s="3"/>
       <c r="D87" s="3"/>
-      <c r="E87" s="49"/>
+      <c r="E87" s="50"/>
       <c r="F87" s="3"/>
       <c r="G87" s="3"/>
       <c r="H87" s="3"/>
       <c r="I87" s="3"/>
       <c r="J87" s="3"/>
-      <c r="K87" s="61"/>
+      <c r="K87" s="62"/>
     </row>
     <row r="88" spans="1:11">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
       <c r="D88" s="3"/>
-      <c r="E88" s="49"/>
+      <c r="E88" s="50"/>
       <c r="F88" s="3"/>
       <c r="G88" s="3"/>
       <c r="H88" s="3"/>
       <c r="I88" s="3"/>
       <c r="J88" s="3"/>
-      <c r="K88" s="61"/>
+      <c r="K88" s="62"/>
     </row>
     <row r="89" spans="1:11">
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
       <c r="D89" s="3"/>
-      <c r="E89" s="49"/>
+      <c r="E89" s="50"/>
       <c r="F89" s="3"/>
       <c r="G89" s="3"/>
       <c r="H89" s="3"/>
       <c r="I89" s="3"/>
       <c r="J89" s="3"/>
-      <c r="K89" s="61"/>
+      <c r="K89" s="62"/>
     </row>
     <row r="90" spans="1:11">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
       <c r="D90" s="3"/>
-      <c r="E90" s="49"/>
+      <c r="E90" s="50"/>
       <c r="F90" s="3"/>
       <c r="G90" s="3"/>
       <c r="H90" s="3"/>
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
-      <c r="K90" s="61"/>
+      <c r="K90" s="62"/>
     </row>
     <row r="91" spans="1:11">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
       <c r="D91" s="3"/>
-      <c r="E91" s="49"/>
+      <c r="E91" s="50"/>
       <c r="F91" s="3"/>
       <c r="G91" s="3"/>
       <c r="H91" s="3"/>
       <c r="I91" s="3"/>
       <c r="J91" s="3"/>
-      <c r="K91" s="61"/>
+      <c r="K91" s="62"/>
     </row>
     <row r="92" spans="1:11">
       <c r="A92" s="3"/>
       <c r="B92" s="3"/>
       <c r="D92" s="3"/>
-      <c r="E92" s="49"/>
+      <c r="E92" s="50"/>
       <c r="F92" s="3"/>
       <c r="G92" s="3"/>
       <c r="H92" s="3"/>
       <c r="I92" s="3"/>
       <c r="J92" s="3"/>
-      <c r="K92" s="61"/>
+      <c r="K92" s="62"/>
     </row>
     <row r="93" spans="1:11">
       <c r="A93" s="3"/>
       <c r="B93" s="3"/>
       <c r="D93" s="3"/>
-      <c r="E93" s="49"/>
+      <c r="E93" s="50"/>
       <c r="F93" s="3"/>
       <c r="G93" s="3"/>
       <c r="H93" s="3"/>
       <c r="I93" s="3"/>
       <c r="J93" s="3"/>
-      <c r="K93" s="61"/>
+      <c r="K93" s="62"/>
     </row>
     <row r="94" spans="1:11">
       <c r="A94" s="3"/>
       <c r="B94" s="3"/>
       <c r="D94" s="3"/>
-      <c r="E94" s="49"/>
+      <c r="E94" s="50"/>
       <c r="F94" s="3"/>
       <c r="G94" s="3"/>
       <c r="H94" s="3"/>
       <c r="I94" s="3"/>
       <c r="J94" s="3"/>
-      <c r="K94" s="61"/>
+      <c r="K94" s="62"/>
     </row>
     <row r="95" spans="1:11">
       <c r="A95" s="3"/>
       <c r="B95" s="3"/>
       <c r="D95" s="3"/>
-      <c r="E95" s="49"/>
+      <c r="E95" s="50"/>
       <c r="F95" s="3"/>
       <c r="G95" s="3"/>
       <c r="H95" s="3"/>
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
-      <c r="K95" s="61"/>
+      <c r="K95" s="62"/>
     </row>
     <row r="96" spans="1:11">
       <c r="A96" s="3"/>
       <c r="B96" s="3"/>
       <c r="D96" s="3"/>
-      <c r="E96" s="49"/>
+      <c r="E96" s="50"/>
       <c r="F96" s="3"/>
       <c r="G96" s="3"/>
       <c r="H96" s="3"/>
       <c r="I96" s="3"/>
       <c r="J96" s="3"/>
-      <c r="K96" s="61"/>
+      <c r="K96" s="62"/>
     </row>
     <row r="97" spans="1:11">
       <c r="A97" s="3"/>
       <c r="B97" s="3"/>
       <c r="D97" s="3"/>
-      <c r="E97" s="49"/>
+      <c r="E97" s="50"/>
       <c r="F97" s="3"/>
       <c r="G97" s="3"/>
       <c r="H97" s="3"/>
       <c r="I97" s="3"/>
       <c r="J97" s="3"/>
-      <c r="K97" s="61"/>
+      <c r="K97" s="62"/>
     </row>
     <row r="98" spans="1:11">
       <c r="A98" s="3"/>
       <c r="B98" s="3"/>
       <c r="D98" s="3"/>
-      <c r="E98" s="49"/>
+      <c r="E98" s="50"/>
       <c r="F98" s="3"/>
       <c r="G98" s="3"/>
       <c r="H98" s="3"/>
       <c r="I98" s="3"/>
       <c r="J98" s="3"/>
-      <c r="K98" s="61"/>
+      <c r="K98" s="62"/>
     </row>
     <row r="99" spans="1:11">
       <c r="A99" s="3"/>
       <c r="B99" s="3"/>
       <c r="D99" s="3"/>
-      <c r="E99" s="49"/>
+      <c r="E99" s="50"/>
       <c r="F99" s="3"/>
       <c r="G99" s="3"/>
       <c r="H99" s="3"/>
       <c r="I99" s="3"/>
       <c r="J99" s="3"/>
-      <c r="K99" s="61"/>
+      <c r="K99" s="62"/>
     </row>
     <row r="100" spans="1:11">
       <c r="A100" s="3"/>
       <c r="B100" s="3"/>
       <c r="D100" s="3"/>
-      <c r="E100" s="49"/>
+      <c r="E100" s="50"/>
       <c r="F100" s="3"/>
       <c r="G100" s="3"/>
       <c r="H100" s="3"/>
       <c r="I100" s="3"/>
       <c r="J100" s="3"/>
-      <c r="K100" s="61"/>
+      <c r="K100" s="62"/>
     </row>
     <row r="101" spans="1:11">
       <c r="A101" s="3"/>
       <c r="B101" s="3"/>
       <c r="D101" s="3"/>
-      <c r="E101" s="49"/>
+      <c r="E101" s="50"/>
       <c r="F101" s="3"/>
       <c r="G101" s="3"/>
       <c r="H101" s="3"/>
       <c r="I101" s="3"/>
       <c r="J101" s="3"/>
-      <c r="K101" s="61"/>
+      <c r="K101" s="62"/>
     </row>
     <row r="102" spans="1:11">
       <c r="A102" s="3"/>
       <c r="B102" s="3"/>
       <c r="D102" s="3"/>
-      <c r="E102" s="49"/>
+      <c r="E102" s="50"/>
       <c r="F102" s="3"/>
       <c r="G102" s="3"/>
       <c r="H102" s="3"/>
       <c r="I102" s="3"/>
       <c r="J102" s="3"/>
-      <c r="K102" s="61"/>
+      <c r="K102" s="62"/>
     </row>
     <row r="103" spans="1:11">
       <c r="A103" s="3"/>
       <c r="B103" s="3"/>
       <c r="D103" s="3"/>
-      <c r="E103" s="49"/>
+      <c r="E103" s="50"/>
       <c r="F103" s="3"/>
       <c r="G103" s="3"/>
       <c r="H103" s="3"/>
       <c r="I103" s="3"/>
       <c r="J103" s="3"/>
-      <c r="K103" s="61"/>
+      <c r="K103" s="62"/>
     </row>
     <row r="104" spans="1:11">
       <c r="A104" s="3"/>
       <c r="B104" s="3"/>
       <c r="D104" s="3"/>
-      <c r="E104" s="49"/>
+      <c r="E104" s="50"/>
       <c r="F104" s="3"/>
       <c r="G104" s="3"/>
       <c r="H104" s="3"/>
       <c r="I104" s="3"/>
       <c r="J104" s="3"/>
-      <c r="K104" s="61"/>
+      <c r="K104" s="62"/>
     </row>
     <row r="105" spans="1:11">
       <c r="A105" s="3"/>
       <c r="B105" s="3"/>
       <c r="D105" s="3"/>
-      <c r="E105" s="49"/>
+      <c r="E105" s="50"/>
       <c r="F105" s="3"/>
       <c r="G105" s="3"/>
       <c r="H105" s="3"/>
       <c r="I105" s="3"/>
       <c r="J105" s="3"/>
-      <c r="K105" s="61"/>
+      <c r="K105" s="62"/>
     </row>
     <row r="106" spans="1:11">
       <c r="A106" s="3"/>
       <c r="B106" s="3"/>
       <c r="D106" s="3"/>
-      <c r="E106" s="49"/>
+      <c r="E106" s="50"/>
       <c r="F106" s="3"/>
       <c r="G106" s="3"/>
       <c r="H106" s="3"/>
       <c r="I106" s="3"/>
       <c r="J106" s="3"/>
-      <c r="K106" s="61"/>
+      <c r="K106" s="62"/>
     </row>
     <row r="107" spans="1:11">
       <c r="A107" s="3"/>
       <c r="B107" s="3"/>
       <c r="D107" s="3"/>
-      <c r="E107" s="49"/>
+      <c r="E107" s="50"/>
       <c r="F107" s="3"/>
       <c r="G107" s="3"/>
       <c r="H107" s="3"/>
       <c r="I107" s="3"/>
       <c r="J107" s="3"/>
-      <c r="K107" s="61"/>
+      <c r="K107" s="62"/>
     </row>
     <row r="108" spans="1:11">
       <c r="A108" s="3"/>
       <c r="B108" s="3"/>
       <c r="D108" s="3"/>
-      <c r="E108" s="49"/>
+      <c r="E108" s="50"/>
       <c r="F108" s="3"/>
       <c r="G108" s="3"/>
       <c r="H108" s="3"/>
       <c r="I108" s="3"/>
       <c r="J108" s="3"/>
-      <c r="K108" s="61"/>
+      <c r="K108" s="62"/>
     </row>
     <row r="109" spans="1:11">
       <c r="A109" s="3"/>
       <c r="B109" s="3"/>
       <c r="D109" s="3"/>
-      <c r="E109" s="49"/>
+      <c r="E109" s="50"/>
       <c r="F109" s="3"/>
       <c r="G109" s="3"/>
       <c r="H109" s="3"/>
       <c r="I109" s="3"/>
       <c r="J109" s="3"/>
-      <c r="K109" s="61"/>
+      <c r="K109" s="62"/>
     </row>
     <row r="110" spans="1:11">
       <c r="A110" s="3"/>
       <c r="B110" s="3"/>
       <c r="D110" s="3"/>
-      <c r="E110" s="49"/>
+      <c r="E110" s="50"/>
       <c r="F110" s="3"/>
       <c r="G110" s="3"/>
       <c r="H110" s="3"/>
       <c r="I110" s="3"/>
       <c r="J110" s="3"/>
-      <c r="K110" s="61"/>
+      <c r="K110" s="62"/>
     </row>
     <row r="111" spans="1:11">
       <c r="A111" s="3"/>
       <c r="B111" s="3"/>
       <c r="D111" s="3"/>
-      <c r="E111" s="49"/>
+      <c r="E111" s="50"/>
       <c r="F111" s="3"/>
       <c r="G111" s="3"/>
       <c r="H111" s="3"/>
       <c r="I111" s="3"/>
       <c r="J111" s="3"/>
-      <c r="K111" s="61"/>
+      <c r="K111" s="62"/>
     </row>
     <row r="112" spans="1:11">
       <c r="A112" s="3"/>
       <c r="B112" s="3"/>
       <c r="D112" s="3"/>
-      <c r="E112" s="49"/>
+      <c r="E112" s="50"/>
       <c r="F112" s="3"/>
       <c r="G112" s="3"/>
       <c r="H112" s="3"/>
       <c r="I112" s="3"/>
       <c r="J112" s="3"/>
-      <c r="K112" s="61"/>
+      <c r="K112" s="62"/>
     </row>
     <row r="113" spans="1:11">
       <c r="A113" s="3"/>
       <c r="B113" s="3"/>
       <c r="D113" s="3"/>
-      <c r="E113" s="49"/>
+      <c r="E113" s="50"/>
       <c r="F113" s="3"/>
       <c r="G113" s="3"/>
       <c r="H113" s="3"/>
       <c r="I113" s="3"/>
       <c r="J113" s="3"/>
-      <c r="K113" s="61"/>
+      <c r="K113" s="62"/>
     </row>
     <row r="114" spans="1:11">
       <c r="A114" s="3"/>
       <c r="B114" s="3"/>
       <c r="D114" s="3"/>
-      <c r="E114" s="49"/>
+      <c r="E114" s="50"/>
       <c r="F114" s="3"/>
       <c r="G114" s="3"/>
       <c r="H114" s="3"/>
       <c r="I114" s="3"/>
       <c r="J114" s="3"/>
-      <c r="K114" s="61"/>
+      <c r="K114" s="62"/>
     </row>
     <row r="115" spans="1:11">
       <c r="A115" s="3"/>
       <c r="B115" s="3"/>
       <c r="D115" s="3"/>
-      <c r="E115" s="49"/>
+      <c r="E115" s="50"/>
       <c r="F115" s="3"/>
       <c r="G115" s="3"/>
       <c r="H115" s="3"/>
       <c r="I115" s="3"/>
       <c r="J115" s="3"/>
-      <c r="K115" s="61"/>
+      <c r="K115" s="62"/>
     </row>
     <row r="116" spans="1:11">
       <c r="A116" s="3"/>
       <c r="B116" s="3"/>
       <c r="D116" s="3"/>
-      <c r="E116" s="49"/>
+      <c r="E116" s="50"/>
       <c r="F116" s="3"/>
       <c r="G116" s="3"/>
       <c r="H116" s="3"/>
       <c r="I116" s="3"/>
       <c r="J116" s="3"/>
-      <c r="K116" s="61"/>
+      <c r="K116" s="62"/>
     </row>
     <row r="117" spans="1:11">
       <c r="A117" s="3"/>
       <c r="B117" s="3"/>
       <c r="D117" s="3"/>
-      <c r="E117" s="49"/>
+      <c r="E117" s="50"/>
       <c r="F117" s="3"/>
       <c r="G117" s="3"/>
       <c r="H117" s="3"/>
       <c r="I117" s="3"/>
       <c r="J117" s="3"/>
-      <c r="K117" s="61"/>
+      <c r="K117" s="62"/>
     </row>
     <row r="118" spans="1:11">
       <c r="A118" s="3"/>
       <c r="B118" s="3"/>
       <c r="D118" s="3"/>
-      <c r="E118" s="49"/>
+      <c r="E118" s="50"/>
       <c r="F118" s="3"/>
       <c r="G118" s="3"/>
       <c r="H118" s="3"/>
       <c r="I118" s="3"/>
       <c r="J118" s="3"/>
-      <c r="K118" s="61"/>
+      <c r="K118" s="62"/>
     </row>
     <row r="119" spans="1:11">
       <c r="A119" s="3"/>
       <c r="B119" s="3"/>
       <c r="D119" s="3"/>
-      <c r="E119" s="49"/>
+      <c r="E119" s="50"/>
       <c r="F119" s="3"/>
       <c r="G119" s="3"/>
       <c r="H119" s="3"/>
       <c r="I119" s="3"/>
       <c r="J119" s="3"/>
-      <c r="K119" s="61"/>
+      <c r="K119" s="62"/>
     </row>
     <row r="120" spans="1:11">
       <c r="A120" s="3"/>
       <c r="B120" s="3"/>
       <c r="D120" s="3"/>
-      <c r="E120" s="49"/>
+      <c r="E120" s="50"/>
       <c r="F120" s="3"/>
       <c r="G120" s="3"/>
       <c r="H120" s="3"/>
       <c r="I120" s="3"/>
       <c r="J120" s="3"/>
-      <c r="K120" s="61"/>
+      <c r="K120" s="62"/>
     </row>
     <row r="121" spans="1:11">
       <c r="A121" s="3"/>
       <c r="B121" s="3"/>
       <c r="D121" s="3"/>
-      <c r="E121" s="49"/>
+      <c r="E121" s="50"/>
       <c r="F121" s="3"/>
       <c r="G121" s="3"/>
       <c r="H121" s="3"/>
       <c r="I121" s="3"/>
       <c r="J121" s="3"/>
-      <c r="K121" s="61"/>
+      <c r="K121" s="62"/>
     </row>
     <row r="122" spans="1:11">
       <c r="A122" s="3"/>
       <c r="B122" s="3"/>
       <c r="D122" s="3"/>
-      <c r="E122" s="49"/>
+      <c r="E122" s="50"/>
       <c r="F122" s="3"/>
       <c r="G122" s="3"/>
       <c r="H122" s="3"/>
       <c r="I122" s="3"/>
       <c r="J122" s="3"/>
-      <c r="K122" s="61"/>
+      <c r="K122" s="62"/>
     </row>
     <row r="123" spans="1:11">
       <c r="A123" s="3"/>
       <c r="B123" s="3"/>
       <c r="D123" s="3"/>
-      <c r="E123" s="49"/>
+      <c r="E123" s="50"/>
       <c r="F123" s="3"/>
       <c r="G123" s="3"/>
       <c r="H123" s="3"/>
       <c r="I123" s="3"/>
       <c r="J123" s="3"/>
-      <c r="K123" s="61"/>
+      <c r="K123" s="62"/>
     </row>
     <row r="124" spans="1:11">
       <c r="A124" s="3"/>
       <c r="B124" s="3"/>
       <c r="D124" s="3"/>
-      <c r="E124" s="49"/>
+      <c r="E124" s="50"/>
       <c r="F124" s="3"/>
       <c r="G124" s="3"/>
       <c r="H124" s="3"/>
       <c r="I124" s="3"/>
       <c r="J124" s="3"/>
-      <c r="K124" s="61"/>
+      <c r="K124" s="62"/>
     </row>
     <row r="125" spans="1:11">
       <c r="A125" s="3"/>
       <c r="B125" s="3"/>
       <c r="D125" s="3"/>
-      <c r="E125" s="49"/>
+      <c r="E125" s="50"/>
       <c r="F125" s="3"/>
       <c r="G125" s="3"/>
       <c r="H125" s="3"/>
       <c r="I125" s="3"/>
       <c r="J125" s="3"/>
-      <c r="K125" s="61"/>
+      <c r="K125" s="62"/>
     </row>
     <row r="126" spans="1:11">
       <c r="A126" s="3"/>
       <c r="B126" s="3"/>
       <c r="D126" s="3"/>
-      <c r="E126" s="49"/>
+      <c r="E126" s="50"/>
       <c r="F126" s="3"/>
       <c r="G126" s="3"/>
       <c r="H126" s="3"/>
       <c r="I126" s="3"/>
       <c r="J126" s="3"/>
-      <c r="K126" s="61"/>
+      <c r="K126" s="62"/>
     </row>
     <row r="127" spans="1:11">
       <c r="A127" s="3"/>
       <c r="B127" s="3"/>
       <c r="D127" s="3"/>
-      <c r="E127" s="49"/>
+      <c r="E127" s="50"/>
       <c r="F127" s="3"/>
       <c r="G127" s="3"/>
       <c r="H127" s="3"/>
       <c r="I127" s="3"/>
       <c r="J127" s="3"/>
-      <c r="K127" s="61"/>
+      <c r="K127" s="62"/>
     </row>
     <row r="128" spans="1:11">
       <c r="A128" s="3"/>
       <c r="B128" s="3"/>
       <c r="D128" s="3"/>
-      <c r="E128" s="49"/>
+      <c r="E128" s="50"/>
       <c r="F128" s="3"/>
       <c r="G128" s="3"/>
       <c r="H128" s="3"/>
       <c r="I128" s="3"/>
       <c r="J128" s="3"/>
-      <c r="K128" s="61"/>
+      <c r="K128" s="62"/>
     </row>
     <row r="129" spans="1:11">
       <c r="A129" s="3"/>
       <c r="B129" s="3"/>
       <c r="D129" s="3"/>
-      <c r="E129" s="49"/>
+      <c r="E129" s="50"/>
       <c r="F129" s="3"/>
       <c r="G129" s="3"/>
       <c r="H129" s="3"/>
       <c r="I129" s="3"/>
       <c r="J129" s="3"/>
-      <c r="K129" s="61"/>
+      <c r="K129" s="62"/>
     </row>
     <row r="130" spans="1:11">
       <c r="A130" s="3"/>
       <c r="B130" s="3"/>
       <c r="D130" s="3"/>
-      <c r="E130" s="49"/>
+      <c r="E130" s="50"/>
       <c r="F130" s="3"/>
       <c r="G130" s="3"/>
       <c r="H130" s="3"/>
       <c r="I130" s="3"/>
       <c r="J130" s="3"/>
-      <c r="K130" s="61"/>
+      <c r="K130" s="62"/>
     </row>
     <row r="131" spans="1:11">
       <c r="A131" s="3"/>
       <c r="B131" s="3"/>
       <c r="D131" s="3"/>
-      <c r="E131" s="49"/>
+      <c r="E131" s="50"/>
       <c r="F131" s="3"/>
       <c r="G131" s="3"/>
       <c r="H131" s="3"/>
       <c r="I131" s="3"/>
       <c r="J131" s="3"/>
-      <c r="K131" s="61"/>
+      <c r="K131" s="62"/>
     </row>
     <row r="132" spans="1:11">
       <c r="A132" s="3"/>
       <c r="B132" s="3"/>
       <c r="D132" s="3"/>
-      <c r="E132" s="49"/>
+      <c r="E132" s="50"/>
       <c r="F132" s="3"/>
       <c r="G132" s="3"/>
       <c r="H132" s="3"/>
       <c r="I132" s="3"/>
       <c r="J132" s="3"/>
-      <c r="K132" s="61"/>
+      <c r="K132" s="62"/>
     </row>
     <row r="133" spans="1:11">
       <c r="A133" s="3"/>
       <c r="B133" s="3"/>
       <c r="D133" s="3"/>
-      <c r="E133" s="49"/>
+      <c r="E133" s="50"/>
       <c r="F133" s="3"/>
       <c r="G133" s="3"/>
       <c r="H133" s="3"/>
       <c r="I133" s="3"/>
       <c r="J133" s="3"/>
-      <c r="K133" s="61"/>
+      <c r="K133" s="62"/>
     </row>
     <row r="134" spans="1:11">
       <c r="A134" s="3"/>
       <c r="B134" s="3"/>
       <c r="D134" s="3"/>
-      <c r="E134" s="49"/>
+      <c r="E134" s="50"/>
       <c r="F134" s="3"/>
       <c r="G134" s="3"/>
       <c r="H134" s="3"/>
       <c r="I134" s="3"/>
       <c r="J134" s="3"/>
-      <c r="K134" s="61"/>
+      <c r="K134" s="62"/>
     </row>
     <row r="135" spans="1:11">
       <c r="A135" s="3"/>
       <c r="B135" s="3"/>
       <c r="D135" s="3"/>
-      <c r="E135" s="49"/>
+      <c r="E135" s="50"/>
       <c r="F135" s="3"/>
       <c r="G135" s="3"/>
       <c r="H135" s="3"/>
       <c r="I135" s="3"/>
       <c r="J135" s="3"/>
-      <c r="K135" s="61"/>
+      <c r="K135" s="62"/>
     </row>
     <row r="136" spans="1:11">
       <c r="A136" s="3"/>
       <c r="B136" s="3"/>
       <c r="D136" s="3"/>
-      <c r="E136" s="49"/>
+      <c r="E136" s="50"/>
       <c r="F136" s="3"/>
       <c r="G136" s="3"/>
       <c r="H136" s="3"/>
       <c r="I136" s="3"/>
       <c r="J136" s="3"/>
-      <c r="K136" s="61"/>
+      <c r="K136" s="62"/>
     </row>
     <row r="137" spans="1:11">
       <c r="A137" s="3"/>
       <c r="B137" s="3"/>
       <c r="D137" s="3"/>
-      <c r="E137" s="49"/>
+      <c r="E137" s="50"/>
       <c r="F137" s="3"/>
       <c r="G137" s="3"/>
       <c r="H137" s="3"/>
       <c r="I137" s="3"/>
       <c r="J137" s="3"/>
-      <c r="K137" s="61"/>
+      <c r="K137" s="62"/>
     </row>
     <row r="138" spans="1:11">
       <c r="A138" s="3"/>
       <c r="B138" s="3"/>
       <c r="D138" s="3"/>
-      <c r="E138" s="49"/>
+      <c r="E138" s="50"/>
       <c r="F138" s="3"/>
       <c r="G138" s="3"/>
       <c r="H138" s="3"/>
       <c r="I138" s="3"/>
       <c r="J138" s="3"/>
-      <c r="K138" s="61"/>
+      <c r="K138" s="62"/>
     </row>
     <row r="139" spans="1:11">
       <c r="A139" s="3"/>
       <c r="B139" s="3"/>
       <c r="D139" s="3"/>
-      <c r="E139" s="49"/>
+      <c r="E139" s="50"/>
       <c r="F139" s="3"/>
       <c r="G139" s="3"/>
       <c r="H139" s="3"/>
       <c r="I139" s="3"/>
       <c r="J139" s="3"/>
-      <c r="K139" s="61"/>
+      <c r="K139" s="62"/>
     </row>
     <row r="140" spans="1:11">
       <c r="A140" s="3"/>
       <c r="B140" s="3"/>
       <c r="D140" s="3"/>
-      <c r="E140" s="49"/>
+      <c r="E140" s="50"/>
       <c r="F140" s="3"/>
       <c r="G140" s="3"/>
       <c r="H140" s="3"/>
       <c r="I140" s="3"/>
       <c r="J140" s="3"/>
-      <c r="K140" s="61"/>
+      <c r="K140" s="62"/>
     </row>
     <row r="141" spans="1:11">
       <c r="A141" s="3"/>
       <c r="B141" s="3"/>
       <c r="D141" s="3"/>
-      <c r="E141" s="49"/>
+      <c r="E141" s="50"/>
       <c r="F141" s="3"/>
       <c r="G141" s="3"/>
       <c r="H141" s="3"/>
       <c r="I141" s="3"/>
       <c r="J141" s="3"/>
-      <c r="K141" s="61"/>
+      <c r="K141" s="62"/>
     </row>
     <row r="142" spans="1:11">
       <c r="A142" s="3"/>
       <c r="B142" s="3"/>
       <c r="D142" s="3"/>
-      <c r="E142" s="49"/>
+      <c r="E142" s="50"/>
       <c r="F142" s="3"/>
       <c r="G142" s="3"/>
       <c r="H142" s="3"/>
       <c r="I142" s="3"/>
       <c r="J142" s="3"/>
-      <c r="K142" s="61"/>
+      <c r="K142" s="62"/>
     </row>
     <row r="143" spans="1:11">
       <c r="A143" s="3"/>
       <c r="B143" s="3"/>
       <c r="D143" s="3"/>
-      <c r="E143" s="49"/>
+      <c r="E143" s="50"/>
       <c r="F143" s="3"/>
       <c r="G143" s="3"/>
       <c r="H143" s="3"/>
       <c r="I143" s="3"/>
       <c r="J143" s="3"/>
-      <c r="K143" s="61"/>
+      <c r="K143" s="62"/>
     </row>
     <row r="144" spans="1:11">
       <c r="A144" s="3"/>
       <c r="B144" s="3"/>
       <c r="D144" s="3"/>
-      <c r="E144" s="49"/>
+      <c r="E144" s="50"/>
       <c r="F144" s="3"/>
       <c r="G144" s="3"/>
       <c r="H144" s="3"/>
       <c r="I144" s="3"/>
       <c r="J144" s="3"/>
-      <c r="K144" s="61"/>
+      <c r="K144" s="62"/>
     </row>
     <row r="145" spans="1:11">
       <c r="A145" s="3"/>
       <c r="B145" s="3"/>
       <c r="D145" s="3"/>
-      <c r="E145" s="49"/>
+      <c r="E145" s="50"/>
       <c r="F145" s="3"/>
       <c r="G145" s="3"/>
       <c r="H145" s="3"/>
       <c r="I145" s="3"/>
       <c r="J145" s="3"/>
-      <c r="K145" s="61"/>
+      <c r="K145" s="62"/>
     </row>
     <row r="146" spans="1:11">
       <c r="A146" s="3"/>
       <c r="B146" s="3"/>
       <c r="D146" s="3"/>
-      <c r="E146" s="49"/>
+      <c r="E146" s="50"/>
       <c r="F146" s="3"/>
       <c r="G146" s="3"/>
       <c r="H146" s="3"/>
       <c r="I146" s="3"/>
       <c r="J146" s="3"/>
-      <c r="K146" s="61"/>
+      <c r="K146" s="62"/>
     </row>
     <row r="147" spans="1:11">
       <c r="A147" s="3"/>
       <c r="B147" s="3"/>
       <c r="D147" s="3"/>
-      <c r="E147" s="49"/>
+      <c r="E147" s="50"/>
       <c r="F147" s="3"/>
       <c r="G147" s="3"/>
       <c r="H147" s="3"/>
       <c r="I147" s="3"/>
       <c r="J147" s="3"/>
-      <c r="K147" s="61"/>
+      <c r="K147" s="62"/>
     </row>
     <row r="148" spans="1:11">
       <c r="A148" s="3"/>
       <c r="B148" s="3"/>
       <c r="D148" s="3"/>
-      <c r="E148" s="49"/>
+      <c r="E148" s="50"/>
       <c r="F148" s="3"/>
       <c r="G148" s="3"/>
       <c r="H148" s="3"/>
       <c r="I148" s="3"/>
       <c r="J148" s="3"/>
-      <c r="K148" s="61"/>
+      <c r="K148" s="62"/>
     </row>
     <row r="149" spans="1:11">
       <c r="A149" s="3"/>
       <c r="B149" s="3"/>
       <c r="D149" s="3"/>
-      <c r="E149" s="49"/>
+      <c r="E149" s="50"/>
       <c r="F149" s="3"/>
       <c r="G149" s="3"/>
       <c r="H149" s="3"/>
       <c r="I149" s="3"/>
       <c r="J149" s="3"/>
-      <c r="K149" s="61"/>
+      <c r="K149" s="62"/>
     </row>
     <row r="150" spans="1:11">
       <c r="A150" s="3"/>
       <c r="B150" s="3"/>
       <c r="D150" s="3"/>
-      <c r="E150" s="49"/>
+      <c r="E150" s="50"/>
       <c r="F150" s="3"/>
       <c r="G150" s="3"/>
       <c r="H150" s="3"/>
       <c r="I150" s="3"/>
       <c r="J150" s="3"/>
-      <c r="K150" s="61"/>
+      <c r="K150" s="62"/>
     </row>
     <row r="151" spans="1:11">
       <c r="A151" s="3"/>
       <c r="B151" s="3"/>
       <c r="D151" s="3"/>
-      <c r="E151" s="49"/>
+      <c r="E151" s="50"/>
       <c r="F151" s="3"/>
       <c r="G151" s="3"/>
       <c r="H151" s="3"/>
       <c r="I151" s="3"/>
       <c r="J151" s="3"/>
-      <c r="K151" s="61"/>
+      <c r="K151" s="62"/>
     </row>
     <row r="152" spans="1:11">
       <c r="A152" s="3"/>
       <c r="B152" s="3"/>
       <c r="D152" s="3"/>
-      <c r="E152" s="49"/>
+      <c r="E152" s="50"/>
       <c r="F152" s="3"/>
       <c r="G152" s="3"/>
       <c r="H152" s="3"/>
       <c r="I152" s="3"/>
       <c r="J152" s="3"/>
-      <c r="K152" s="61"/>
+      <c r="K152" s="62"/>
     </row>
     <row r="153" spans="1:11">
       <c r="A153" s="3"/>
       <c r="B153" s="3"/>
       <c r="D153" s="3"/>
-      <c r="E153" s="49"/>
+      <c r="E153" s="50"/>
       <c r="F153" s="3"/>
       <c r="G153" s="3"/>
       <c r="H153" s="3"/>
       <c r="I153" s="3"/>
       <c r="J153" s="3"/>
-      <c r="K153" s="61"/>
+      <c r="K153" s="62"/>
     </row>
     <row r="154" spans="1:11">
       <c r="A154" s="3"/>
       <c r="B154" s="3"/>
       <c r="D154" s="3"/>
-      <c r="E154" s="49"/>
+      <c r="E154" s="50"/>
       <c r="F154" s="3"/>
       <c r="G154" s="3"/>
       <c r="H154" s="3"/>
       <c r="I154" s="3"/>
       <c r="J154" s="3"/>
-      <c r="K154" s="61"/>
+      <c r="K154" s="62"/>
     </row>
     <row r="155" spans="1:11">
       <c r="A155" s="3"/>
       <c r="B155" s="3"/>
       <c r="D155" s="3"/>
-      <c r="E155" s="49"/>
+      <c r="E155" s="50"/>
       <c r="F155" s="3"/>
       <c r="G155" s="3"/>
       <c r="H155" s="3"/>
       <c r="I155" s="3"/>
       <c r="J155" s="3"/>
-      <c r="K155" s="61"/>
+      <c r="K155" s="62"/>
     </row>
     <row r="156" spans="1:11">
       <c r="A156" s="3"/>
       <c r="B156" s="3"/>
       <c r="D156" s="3"/>
-      <c r="E156" s="49"/>
+      <c r="E156" s="50"/>
       <c r="F156" s="3"/>
       <c r="G156" s="3"/>
       <c r="H156" s="3"/>
       <c r="I156" s="3"/>
       <c r="J156" s="3"/>
-      <c r="K156" s="61"/>
+      <c r="K156" s="62"/>
     </row>
     <row r="157" spans="1:11">
       <c r="A157" s="3"/>
       <c r="B157" s="3"/>
       <c r="D157" s="3"/>
-      <c r="E157" s="49"/>
+      <c r="E157" s="50"/>
       <c r="F157" s="3"/>
       <c r="G157" s="3"/>
       <c r="H157" s="3"/>
       <c r="I157" s="3"/>
       <c r="J157" s="3"/>
-      <c r="K157" s="61"/>
+      <c r="K157" s="62"/>
     </row>
     <row r="158" spans="1:11">
       <c r="A158" s="3"/>
       <c r="B158" s="3"/>
       <c r="D158" s="3"/>
-      <c r="E158" s="49"/>
+      <c r="E158" s="50"/>
       <c r="F158" s="3"/>
       <c r="G158" s="3"/>
       <c r="H158" s="3"/>
       <c r="I158" s="3"/>
       <c r="J158" s="3"/>
-      <c r="K158" s="61"/>
+      <c r="K158" s="62"/>
     </row>
     <row r="159" spans="1:11">
       <c r="A159" s="3"/>
       <c r="B159" s="3"/>
       <c r="D159" s="3"/>
-      <c r="E159" s="49"/>
+      <c r="E159" s="50"/>
       <c r="F159" s="3"/>
       <c r="G159" s="3"/>
       <c r="H159" s="3"/>
       <c r="I159" s="3"/>
       <c r="J159" s="3"/>
-      <c r="K159" s="61"/>
+      <c r="K159" s="62"/>
     </row>
     <row r="160" spans="1:11">
       <c r="A160" s="3"/>
       <c r="B160" s="3"/>
       <c r="D160" s="3"/>
-      <c r="E160" s="49"/>
+      <c r="E160" s="50"/>
       <c r="F160" s="3"/>
       <c r="G160" s="3"/>
       <c r="H160" s="3"/>
       <c r="I160" s="3"/>
       <c r="J160" s="3"/>
-      <c r="K160" s="61"/>
+      <c r="K160" s="62"/>
     </row>
     <row r="161" spans="1:11">
       <c r="A161" s="3"/>
       <c r="B161" s="3"/>
       <c r="D161" s="3"/>
-      <c r="E161" s="49"/>
+      <c r="E161" s="50"/>
       <c r="F161" s="3"/>
       <c r="G161" s="3"/>
       <c r="H161" s="3"/>
       <c r="I161" s="3"/>
       <c r="J161" s="3"/>
-      <c r="K161" s="61"/>
+      <c r="K161" s="62"/>
     </row>
     <row r="162" spans="1:11">
       <c r="A162" s="3"/>
       <c r="B162" s="3"/>
       <c r="D162" s="3"/>
-      <c r="E162" s="49"/>
+      <c r="E162" s="50"/>
       <c r="F162" s="3"/>
       <c r="G162" s="3"/>
       <c r="H162" s="3"/>
       <c r="I162" s="3"/>
       <c r="J162" s="3"/>
-      <c r="K162" s="61"/>
+      <c r="K162" s="62"/>
     </row>
     <row r="163" spans="1:11">
       <c r="A163" s="3"/>
       <c r="B163" s="3"/>
       <c r="D163" s="3"/>
-      <c r="E163" s="49"/>
+      <c r="E163" s="50"/>
       <c r="F163" s="3"/>
       <c r="G163" s="3"/>
       <c r="H163" s="3"/>
       <c r="I163" s="3"/>
       <c r="J163" s="3"/>
-      <c r="K163" s="61"/>
+      <c r="K163" s="62"/>
     </row>
     <row r="164" spans="1:11">
       <c r="A164" s="3"/>
       <c r="B164" s="3"/>
       <c r="D164" s="3"/>
-      <c r="E164" s="49"/>
+      <c r="E164" s="50"/>
       <c r="F164" s="3"/>
       <c r="G164" s="3"/>
       <c r="H164" s="3"/>
       <c r="I164" s="3"/>
       <c r="J164" s="3"/>
-      <c r="K164" s="61"/>
+      <c r="K164" s="62"/>
     </row>
     <row r="165" spans="1:11">
       <c r="A165" s="3"/>
       <c r="B165" s="3"/>
       <c r="D165" s="3"/>
-      <c r="E165" s="49"/>
+      <c r="E165" s="50"/>
       <c r="F165" s="3"/>
       <c r="G165" s="3"/>
       <c r="H165" s="3"/>
       <c r="I165" s="3"/>
       <c r="J165" s="3"/>
-      <c r="K165" s="61"/>
+      <c r="K165" s="62"/>
     </row>
     <row r="166" spans="1:11">
       <c r="A166" s="3"/>
       <c r="B166" s="3"/>
       <c r="D166" s="3"/>
-      <c r="E166" s="49"/>
+      <c r="E166" s="50"/>
       <c r="F166" s="3"/>
       <c r="G166" s="3"/>
       <c r="H166" s="3"/>
       <c r="I166" s="3"/>
       <c r="J166" s="3"/>
-      <c r="K166" s="61"/>
+      <c r="K166" s="62"/>
     </row>
     <row r="167" spans="1:11">
       <c r="A167" s="3"/>
       <c r="B167" s="3"/>
       <c r="D167" s="3"/>
-      <c r="E167" s="49"/>
+      <c r="E167" s="50"/>
       <c r="F167" s="3"/>
       <c r="G167" s="3"/>
       <c r="H167" s="3"/>
       <c r="I167" s="3"/>
       <c r="J167" s="3"/>
-      <c r="K167" s="61"/>
+      <c r="K167" s="62"/>
     </row>
     <row r="168" spans="1:11">
       <c r="A168" s="3"/>
       <c r="B168" s="3"/>
       <c r="D168" s="3"/>
-      <c r="E168" s="49"/>
+      <c r="E168" s="50"/>
       <c r="F168" s="3"/>
       <c r="G168" s="3"/>
       <c r="H168" s="3"/>
       <c r="I168" s="3"/>
       <c r="J168" s="3"/>
-      <c r="K168" s="61"/>
+      <c r="K168" s="62"/>
     </row>
     <row r="169" spans="1:11">
       <c r="A169" s="3"/>
       <c r="B169" s="3"/>
       <c r="D169" s="3"/>
-      <c r="E169" s="49"/>
+      <c r="E169" s="50"/>
       <c r="F169" s="3"/>
       <c r="G169" s="3"/>
       <c r="H169" s="3"/>
       <c r="I169" s="3"/>
       <c r="J169" s="3"/>
-      <c r="K169" s="61"/>
+      <c r="K169" s="62"/>
     </row>
     <row r="170" spans="1:11">
       <c r="A170" s="3"/>
       <c r="B170" s="3"/>
       <c r="D170" s="3"/>
-      <c r="E170" s="49"/>
+      <c r="E170" s="50"/>
       <c r="F170" s="3"/>
       <c r="G170" s="3"/>
       <c r="H170" s="3"/>
       <c r="I170" s="3"/>
       <c r="J170" s="3"/>
-      <c r="K170" s="61"/>
+      <c r="K170" s="62"/>
     </row>
     <row r="171" spans="1:11">
       <c r="A171" s="3"/>
       <c r="B171" s="3"/>
       <c r="D171" s="3"/>
-      <c r="E171" s="49"/>
+      <c r="E171" s="50"/>
       <c r="F171" s="3"/>
       <c r="G171" s="3"/>
       <c r="H171" s="3"/>
       <c r="I171" s="3"/>
       <c r="J171" s="3"/>
-      <c r="K171" s="61"/>
+      <c r="K171" s="62"/>
     </row>
     <row r="172" spans="1:11">
       <c r="A172" s="3"/>
       <c r="B172" s="3"/>
       <c r="D172" s="3"/>
-      <c r="E172" s="49"/>
+      <c r="E172" s="50"/>
       <c r="F172" s="3"/>
       <c r="G172" s="3"/>
       <c r="H172" s="3"/>
       <c r="I172" s="3"/>
       <c r="J172" s="3"/>
-      <c r="K172" s="61"/>
+      <c r="K172" s="62"/>
     </row>
     <row r="173" spans="1:11">
       <c r="A173" s="3"/>
       <c r="B173" s="3"/>
       <c r="D173" s="3"/>
-      <c r="E173" s="49"/>
+      <c r="E173" s="50"/>
       <c r="F173" s="3"/>
       <c r="G173" s="3"/>
       <c r="H173" s="3"/>
       <c r="I173" s="3"/>
       <c r="J173" s="3"/>
-      <c r="K173" s="61"/>
+      <c r="K173" s="62"/>
     </row>
     <row r="174" spans="1:11">
       <c r="A174" s="3"/>
       <c r="B174" s="3"/>
       <c r="D174" s="3"/>
-      <c r="E174" s="49"/>
+      <c r="E174" s="50"/>
       <c r="F174" s="3"/>
       <c r="G174" s="3"/>
       <c r="H174" s="3"/>
       <c r="I174" s="3"/>
       <c r="J174" s="3"/>
-      <c r="K174" s="61"/>
+      <c r="K174" s="62"/>
     </row>
     <row r="175" spans="1:11">
       <c r="A175" s="3"/>
       <c r="B175" s="3"/>
       <c r="D175" s="3"/>
-      <c r="E175" s="49"/>
+      <c r="E175" s="50"/>
       <c r="F175" s="3"/>
       <c r="G175" s="3"/>
       <c r="H175" s="3"/>
       <c r="I175" s="3"/>
       <c r="J175" s="3"/>
-      <c r="K175" s="61"/>
+      <c r="K175" s="62"/>
     </row>
     <row r="176" spans="1:11">
       <c r="A176" s="3"/>
       <c r="B176" s="3"/>
       <c r="D176" s="3"/>
-      <c r="E176" s="49"/>
+      <c r="E176" s="50"/>
       <c r="F176" s="3"/>
       <c r="G176" s="3"/>
       <c r="H176" s="3"/>
       <c r="I176" s="3"/>
       <c r="J176" s="3"/>
-      <c r="K176" s="61"/>
+      <c r="K176" s="62"/>
     </row>
     <row r="177" spans="1:11">
       <c r="A177" s="3"/>
       <c r="B177" s="3"/>
       <c r="D177" s="3"/>
-      <c r="E177" s="49"/>
+      <c r="E177" s="50"/>
       <c r="F177" s="3"/>
       <c r="G177" s="3"/>
       <c r="H177" s="3"/>
       <c r="I177" s="3"/>
       <c r="J177" s="3"/>
-      <c r="K177" s="61"/>
+      <c r="K177" s="62"/>
     </row>
     <row r="178" spans="1:11">
       <c r="A178" s="3"/>
       <c r="B178" s="3"/>
       <c r="D178" s="3"/>
-      <c r="E178" s="49"/>
+      <c r="E178" s="50"/>
       <c r="F178" s="3"/>
       <c r="G178" s="3"/>
       <c r="H178" s="3"/>
       <c r="I178" s="3"/>
       <c r="J178" s="3"/>
-      <c r="K178" s="61"/>
+      <c r="K178" s="62"/>
     </row>
     <row r="179" spans="1:11">
       <c r="A179" s="3"/>
       <c r="B179" s="3"/>
       <c r="D179" s="3"/>
-      <c r="E179" s="49"/>
+      <c r="E179" s="50"/>
       <c r="F179" s="3"/>
       <c r="G179" s="3"/>
       <c r="H179" s="3"/>
       <c r="I179" s="3"/>
       <c r="J179" s="3"/>
-      <c r="K179" s="61"/>
+      <c r="K179" s="62"/>
     </row>
     <row r="180" spans="1:11">
       <c r="A180" s="3"/>
       <c r="B180" s="3"/>
       <c r="D180" s="3"/>
-      <c r="E180" s="49"/>
+      <c r="E180" s="50"/>
       <c r="F180" s="3"/>
       <c r="G180" s="3"/>
       <c r="H180" s="3"/>
       <c r="I180" s="3"/>
       <c r="J180" s="3"/>
-      <c r="K180" s="61"/>
+      <c r="K180" s="62"/>
     </row>
     <row r="181" spans="1:11">
       <c r="A181" s="3"/>
       <c r="B181" s="3"/>
       <c r="D181" s="3"/>
-      <c r="E181" s="49"/>
+      <c r="E181" s="50"/>
       <c r="F181" s="3"/>
       <c r="G181" s="3"/>
       <c r="H181" s="3"/>
       <c r="I181" s="3"/>
       <c r="J181" s="3"/>
-      <c r="K181" s="61"/>
+      <c r="K181" s="62"/>
     </row>
     <row r="182" spans="1:11">
       <c r="A182" s="3"/>
       <c r="B182" s="3"/>
       <c r="D182" s="3"/>
-      <c r="E182" s="49"/>
+      <c r="E182" s="50"/>
       <c r="F182" s="3"/>
       <c r="G182" s="3"/>
       <c r="H182" s="3"/>
       <c r="I182" s="3"/>
       <c r="J182" s="3"/>
-      <c r="K182" s="61"/>
+      <c r="K182" s="62"/>
     </row>
     <row r="183" spans="1:11">
       <c r="A183" s="3"/>
       <c r="B183" s="3"/>
       <c r="D183" s="3"/>
-      <c r="E183" s="49"/>
+      <c r="E183" s="50"/>
       <c r="F183" s="3"/>
       <c r="G183" s="3"/>
       <c r="H183" s="3"/>
       <c r="I183" s="3"/>
       <c r="J183" s="3"/>
-      <c r="K183" s="61"/>
+      <c r="K183" s="62"/>
     </row>
     <row r="184" spans="1:11">
       <c r="A184" s="3"/>
       <c r="B184" s="3"/>
       <c r="D184" s="3"/>
-      <c r="E184" s="49"/>
+      <c r="E184" s="50"/>
       <c r="F184" s="3"/>
       <c r="G184" s="3"/>
       <c r="H184" s="3"/>
       <c r="I184" s="3"/>
       <c r="J184" s="3"/>
-      <c r="K184" s="61"/>
+      <c r="K184" s="62"/>
     </row>
     <row r="185" spans="1:11">
       <c r="A185" s="3"/>
       <c r="B185" s="3"/>
       <c r="D185" s="3"/>
-      <c r="E185" s="49"/>
+      <c r="E185" s="50"/>
       <c r="F185" s="3"/>
       <c r="G185" s="3"/>
       <c r="H185" s="3"/>
       <c r="I185" s="3"/>
       <c r="J185" s="3"/>
-      <c r="K185" s="61"/>
+      <c r="K185" s="62"/>
     </row>
     <row r="186" spans="1:11">
       <c r="A186" s="3"/>
       <c r="B186" s="3"/>
       <c r="D186" s="3"/>
-      <c r="E186" s="49"/>
+      <c r="E186" s="50"/>
       <c r="F186" s="3"/>
       <c r="G186" s="3"/>
       <c r="H186" s="3"/>
       <c r="I186" s="3"/>
       <c r="J186" s="3"/>
-      <c r="K186" s="61"/>
+      <c r="K186" s="62"/>
     </row>
     <row r="187" spans="1:11">
       <c r="A187" s="3"/>
       <c r="B187" s="3"/>
       <c r="D187" s="3"/>
-      <c r="E187" s="49"/>
+      <c r="E187" s="50"/>
       <c r="F187" s="3"/>
       <c r="G187" s="3"/>
       <c r="H187" s="3"/>
       <c r="I187" s="3"/>
       <c r="J187" s="3"/>
-      <c r="K187" s="61"/>
+      <c r="K187" s="62"/>
     </row>
     <row r="188" spans="1:11">
       <c r="A188" s="3"/>
       <c r="B188" s="3"/>
       <c r="D188" s="3"/>
-      <c r="E188" s="49"/>
+      <c r="E188" s="50"/>
       <c r="F188" s="3"/>
       <c r="G188" s="3"/>
       <c r="H188" s="3"/>
       <c r="I188" s="3"/>
       <c r="J188" s="3"/>
-      <c r="K188" s="61"/>
+      <c r="K188" s="62"/>
     </row>
     <row r="189" spans="1:11">
       <c r="A189" s="3"/>
       <c r="B189" s="3"/>
       <c r="D189" s="3"/>
-      <c r="E189" s="49"/>
+      <c r="E189" s="50"/>
       <c r="F189" s="3"/>
       <c r="G189" s="3"/>
       <c r="H189" s="3"/>
       <c r="I189" s="3"/>
       <c r="J189" s="3"/>
-      <c r="K189" s="61"/>
+      <c r="K189" s="62"/>
     </row>
     <row r="190" spans="1:11">
       <c r="A190" s="3"/>
       <c r="B190" s="3"/>
       <c r="D190" s="3"/>
-      <c r="E190" s="49"/>
+      <c r="E190" s="50"/>
       <c r="F190" s="3"/>
       <c r="G190" s="3"/>
       <c r="H190" s="3"/>
       <c r="I190" s="3"/>
       <c r="J190" s="3"/>
-      <c r="K190" s="61"/>
+      <c r="K190" s="62"/>
     </row>
     <row r="191" spans="1:11">
       <c r="A191" s="3"/>
       <c r="B191" s="3"/>
       <c r="D191" s="3"/>
-      <c r="E191" s="49"/>
+      <c r="E191" s="50"/>
       <c r="F191" s="3"/>
       <c r="G191" s="3"/>
       <c r="H191" s="3"/>
       <c r="I191" s="3"/>
       <c r="J191" s="3"/>
-      <c r="K191" s="61"/>
+      <c r="K191" s="62"/>
     </row>
     <row r="192" spans="1:11">
       <c r="A192" s="3"/>
       <c r="B192" s="3"/>
       <c r="D192" s="3"/>
-      <c r="E192" s="49"/>
+      <c r="E192" s="50"/>
       <c r="F192" s="3"/>
       <c r="G192" s="3"/>
       <c r="H192" s="3"/>
       <c r="I192" s="3"/>
       <c r="J192" s="3"/>
-      <c r="K192" s="61"/>
+      <c r="K192" s="62"/>
     </row>
     <row r="193" spans="1:11">
       <c r="A193" s="3"/>
       <c r="B193" s="3"/>
       <c r="D193" s="3"/>
-      <c r="E193" s="49"/>
+      <c r="E193" s="50"/>
       <c r="F193" s="3"/>
       <c r="G193" s="3"/>
       <c r="H193" s="3"/>
       <c r="I193" s="3"/>
       <c r="J193" s="3"/>
-      <c r="K193" s="61"/>
+      <c r="K193" s="62"/>
     </row>
     <row r="194" spans="1:11">
       <c r="A194" s="3"/>
       <c r="B194" s="3"/>
       <c r="D194" s="3"/>
-      <c r="E194" s="49"/>
+      <c r="E194" s="50"/>
       <c r="F194" s="3"/>
       <c r="G194" s="3"/>
       <c r="H194" s="3"/>
       <c r="I194" s="3"/>
       <c r="J194" s="3"/>
-      <c r="K194" s="61"/>
+      <c r="K194" s="62"/>
     </row>
     <row r="195" spans="1:11">
       <c r="A195" s="3"/>
       <c r="B195" s="3"/>
       <c r="D195" s="3"/>
-      <c r="E195" s="49"/>
+      <c r="E195" s="50"/>
       <c r="F195" s="3"/>
       <c r="G195" s="3"/>
       <c r="H195" s="3"/>
       <c r="I195" s="3"/>
       <c r="J195" s="3"/>
-      <c r="K195" s="61"/>
+      <c r="K195" s="62"/>
     </row>
     <row r="196" spans="1:11">
       <c r="A196" s="3"/>
       <c r="B196" s="3"/>
       <c r="D196" s="3"/>
-      <c r="E196" s="49"/>
+      <c r="E196" s="50"/>
       <c r="F196" s="3"/>
       <c r="G196" s="3"/>
       <c r="H196" s="3"/>
       <c r="I196" s="3"/>
       <c r="J196" s="3"/>
-      <c r="K196" s="61"/>
+      <c r="K196" s="62"/>
     </row>
     <row r="197" spans="1:11">
       <c r="A197" s="3"/>
       <c r="B197" s="3"/>
       <c r="D197" s="3"/>
-      <c r="E197" s="49"/>
+      <c r="E197" s="50"/>
       <c r="F197" s="3"/>
       <c r="G197" s="3"/>
       <c r="H197" s="3"/>
       <c r="I197" s="3"/>
       <c r="J197" s="3"/>
-      <c r="K197" s="61"/>
+      <c r="K197" s="62"/>
     </row>
     <row r="198" spans="1:11">
       <c r="A198" s="3"/>
       <c r="B198" s="3"/>
       <c r="D198" s="3"/>
-      <c r="E198" s="49"/>
+      <c r="E198" s="50"/>
       <c r="F198" s="3"/>
       <c r="G198" s="3"/>
       <c r="H198" s="3"/>
       <c r="I198" s="3"/>
       <c r="J198" s="3"/>
-      <c r="K198" s="61"/>
+      <c r="K198" s="62"/>
     </row>
     <row r="199" spans="1:11">
       <c r="A199" s="3"/>
       <c r="B199" s="3"/>
       <c r="D199" s="3"/>
-      <c r="E199" s="49"/>
+      <c r="E199" s="50"/>
       <c r="F199" s="3"/>
       <c r="G199" s="3"/>
       <c r="H199" s="3"/>
       <c r="I199" s="3"/>
       <c r="J199" s="3"/>
-      <c r="K199" s="61"/>
+      <c r="K199" s="62"/>
     </row>
     <row r="200" spans="1:11">
       <c r="A200" s="3"/>
       <c r="B200" s="3"/>
       <c r="D200" s="3"/>
-      <c r="E200" s="49"/>
+      <c r="E200" s="50"/>
       <c r="F200" s="3"/>
       <c r="G200" s="3"/>
       <c r="H200" s="3"/>
       <c r="I200" s="3"/>
       <c r="J200" s="3"/>
-      <c r="K200" s="61"/>
+      <c r="K200" s="62"/>
     </row>
     <row r="201" spans="1:11">
       <c r="A201" s="3"/>
       <c r="B201" s="3"/>
       <c r="D201" s="3"/>
-      <c r="E201" s="49"/>
+      <c r="E201" s="50"/>
       <c r="F201" s="3"/>
       <c r="G201" s="3"/>
       <c r="H201" s="3"/>
       <c r="I201" s="3"/>
       <c r="J201" s="3"/>
-      <c r="K201" s="61"/>
+      <c r="K201" s="62"/>
     </row>
     <row r="202" spans="1:11">
       <c r="A202" s="3"/>
       <c r="B202" s="3"/>
       <c r="D202" s="3"/>
-      <c r="E202" s="49"/>
+      <c r="E202" s="50"/>
       <c r="F202" s="3"/>
       <c r="G202" s="3"/>
       <c r="H202" s="3"/>
       <c r="I202" s="3"/>
       <c r="J202" s="3"/>
-      <c r="K202" s="61"/>
+      <c r="K202" s="62"/>
     </row>
     <row r="203" spans="1:11">
       <c r="A203" s="3"/>
       <c r="B203" s="3"/>
       <c r="D203" s="3"/>
-      <c r="E203" s="49"/>
+      <c r="E203" s="50"/>
       <c r="F203" s="3"/>
       <c r="G203" s="3"/>
       <c r="H203" s="3"/>
       <c r="I203" s="3"/>
       <c r="J203" s="3"/>
-      <c r="K203" s="61"/>
+      <c r="K203" s="62"/>
     </row>
     <row r="204" spans="1:11">
       <c r="A204" s="3"/>
       <c r="B204" s="3"/>
       <c r="D204" s="3"/>
-      <c r="E204" s="49"/>
+      <c r="E204" s="50"/>
       <c r="F204" s="3"/>
       <c r="G204" s="3"/>
       <c r="H204" s="3"/>
       <c r="I204" s="3"/>
       <c r="J204" s="3"/>
-      <c r="K204" s="61"/>
+      <c r="K204" s="62"/>
     </row>
     <row r="205" spans="1:11">
       <c r="A205" s="3"/>
       <c r="B205" s="3"/>
       <c r="D205" s="3"/>
-      <c r="E205" s="49"/>
+      <c r="E205" s="50"/>
       <c r="F205" s="3"/>
       <c r="G205" s="3"/>
       <c r="H205" s="3"/>
       <c r="I205" s="3"/>
       <c r="J205" s="3"/>
-      <c r="K205" s="61"/>
+      <c r="K205" s="62"/>
     </row>
     <row r="206" spans="1:11">
       <c r="A206" s="3"/>
       <c r="B206" s="3"/>
       <c r="D206" s="3"/>
-      <c r="E206" s="49"/>
+      <c r="E206" s="50"/>
       <c r="F206" s="3"/>
       <c r="G206" s="3"/>
       <c r="H206" s="3"/>
       <c r="I206" s="3"/>
       <c r="J206" s="3"/>
-      <c r="K206" s="61"/>
+      <c r="K206" s="62"/>
     </row>
     <row r="207" spans="1:11">
       <c r="A207" s="3"/>
       <c r="B207" s="3"/>
       <c r="D207" s="3"/>
-      <c r="E207" s="49"/>
+      <c r="E207" s="50"/>
       <c r="F207" s="3"/>
       <c r="G207" s="3"/>
       <c r="H207" s="3"/>
       <c r="I207" s="3"/>
       <c r="J207" s="3"/>
-      <c r="K207" s="61"/>
+      <c r="K207" s="62"/>
     </row>
     <row r="208" spans="1:11">
       <c r="A208" s="3"/>
       <c r="B208" s="3"/>
       <c r="D208" s="3"/>
-      <c r="E208" s="49"/>
+      <c r="E208" s="50"/>
       <c r="F208" s="3"/>
       <c r="G208" s="3"/>
       <c r="H208" s="3"/>
       <c r="I208" s="3"/>
       <c r="J208" s="3"/>
-      <c r="K208" s="61"/>
+      <c r="K208" s="62"/>
     </row>
     <row r="209" spans="1:11">
       <c r="A209" s="3"/>
       <c r="B209" s="3"/>
       <c r="D209" s="3"/>
-      <c r="E209" s="49"/>
+      <c r="E209" s="50"/>
       <c r="F209" s="3"/>
       <c r="G209" s="3"/>
       <c r="H209" s="3"/>
       <c r="I209" s="3"/>
       <c r="J209" s="3"/>
-      <c r="K209" s="61"/>
+      <c r="K209" s="62"/>
     </row>
     <row r="210" spans="1:11">
       <c r="A210" s="3"/>
       <c r="B210" s="3"/>
       <c r="D210" s="3"/>
-      <c r="E210" s="49"/>
+      <c r="E210" s="50"/>
       <c r="F210" s="3"/>
       <c r="G210" s="3"/>
       <c r="H210" s="3"/>
       <c r="I210" s="3"/>
       <c r="J210" s="3"/>
-      <c r="K210" s="61"/>
+      <c r="K210" s="62"/>
     </row>
     <row r="211" spans="1:11">
       <c r="A211" s="3"/>
       <c r="B211" s="3"/>
       <c r="D211" s="3"/>
-      <c r="E211" s="49"/>
+      <c r="E211" s="50"/>
       <c r="F211" s="3"/>
       <c r="G211" s="3"/>
       <c r="H211" s="3"/>
       <c r="I211" s="3"/>
       <c r="J211" s="3"/>
-      <c r="K211" s="61"/>
+      <c r="K211" s="62"/>
     </row>
     <row r="212" spans="1:11">
       <c r="A212" s="3"/>
       <c r="B212" s="3"/>
       <c r="D212" s="3"/>
-      <c r="E212" s="49"/>
+      <c r="E212" s="50"/>
       <c r="F212" s="3"/>
       <c r="G212" s="3"/>
       <c r="H212" s="3"/>
       <c r="I212" s="3"/>
       <c r="J212" s="3"/>
-      <c r="K212" s="61"/>
+      <c r="K212" s="62"/>
     </row>
     <row r="213" spans="1:11">
       <c r="A213" s="3"/>
       <c r="B213" s="3"/>
       <c r="D213" s="3"/>
-      <c r="E213" s="49"/>
+      <c r="E213" s="50"/>
       <c r="F213" s="3"/>
       <c r="G213" s="3"/>
       <c r="H213" s="3"/>
       <c r="I213" s="3"/>
       <c r="J213" s="3"/>
-      <c r="K213" s="61"/>
+      <c r="K213" s="62"/>
     </row>
     <row r="214" spans="1:11">
       <c r="A214" s="3"/>
       <c r="B214" s="3"/>
       <c r="D214" s="3"/>
-      <c r="E214" s="49"/>
+      <c r="E214" s="50"/>
       <c r="F214" s="3"/>
       <c r="G214" s="3"/>
       <c r="H214" s="3"/>
       <c r="I214" s="3"/>
       <c r="J214" s="3"/>
-      <c r="K214" s="61"/>
+      <c r="K214" s="62"/>
     </row>
     <row r="215" spans="1:11">
       <c r="A215" s="3"/>
       <c r="B215" s="3"/>
       <c r="D215" s="3"/>
-      <c r="E215" s="49"/>
+      <c r="E215" s="50"/>
       <c r="F215" s="3"/>
       <c r="G215" s="3"/>
       <c r="H215" s="3"/>
       <c r="I215" s="3"/>
       <c r="J215" s="3"/>
-      <c r="K215" s="61"/>
+      <c r="K215" s="62"/>
     </row>
     <row r="216" spans="1:11">
       <c r="A216" s="3"/>
       <c r="B216" s="3"/>
       <c r="D216" s="3"/>
-      <c r="E216" s="49"/>
+      <c r="E216" s="50"/>
       <c r="F216" s="3"/>
       <c r="G216" s="3"/>
       <c r="H216" s="3"/>
       <c r="I216" s="3"/>
       <c r="J216" s="3"/>
-      <c r="K216" s="61"/>
+      <c r="K216" s="62"/>
     </row>
     <row r="217" spans="1:11">
       <c r="A217" s="3"/>
       <c r="B217" s="3"/>
       <c r="D217" s="3"/>
-      <c r="E217" s="49"/>
+      <c r="E217" s="50"/>
       <c r="F217" s="3"/>
       <c r="G217" s="3"/>
       <c r="H217" s="3"/>
       <c r="I217" s="3"/>
       <c r="J217" s="3"/>
-      <c r="K217" s="61"/>
+      <c r="K217" s="62"/>
     </row>
     <row r="218" spans="1:11">
       <c r="A218" s="3"/>
       <c r="B218" s="3"/>
       <c r="D218" s="3"/>
-      <c r="E218" s="49"/>
+      <c r="E218" s="50"/>
       <c r="F218" s="3"/>
       <c r="G218" s="3"/>
       <c r="H218" s="3"/>
       <c r="I218" s="3"/>
       <c r="J218" s="3"/>
-      <c r="K218" s="61"/>
+      <c r="K218" s="62"/>
     </row>
     <row r="219" spans="1:11">
       <c r="A219" s="3"/>
       <c r="B219" s="3"/>
       <c r="D219" s="3"/>
-      <c r="E219" s="49"/>
+      <c r="E219" s="50"/>
       <c r="F219" s="3"/>
       <c r="G219" s="3"/>
       <c r="H219" s="3"/>
       <c r="I219" s="3"/>
       <c r="J219" s="3"/>
-      <c r="K219" s="61"/>
+      <c r="K219" s="62"/>
     </row>
     <row r="220" spans="1:11">
       <c r="A220" s="3"/>
       <c r="B220" s="3"/>
       <c r="D220" s="3"/>
-      <c r="E220" s="49"/>
+      <c r="E220" s="50"/>
       <c r="F220" s="3"/>
       <c r="G220" s="3"/>
       <c r="H220" s="3"/>
       <c r="I220" s="3"/>
       <c r="J220" s="3"/>
-      <c r="K220" s="61"/>
+      <c r="K220" s="62"/>
     </row>
     <row r="221" spans="1:11">
       <c r="A221" s="3"/>
       <c r="B221" s="3"/>
       <c r="D221" s="3"/>
-      <c r="E221" s="49"/>
+      <c r="E221" s="50"/>
       <c r="F221" s="3"/>
       <c r="G221" s="3"/>
       <c r="H221" s="3"/>
       <c r="I221" s="3"/>
       <c r="J221" s="3"/>
-      <c r="K221" s="61"/>
+      <c r="K221" s="62"/>
     </row>
     <row r="222" spans="1:11">
       <c r="A222" s="3"/>
       <c r="B222" s="3"/>
       <c r="D222" s="3"/>
-      <c r="E222" s="49"/>
+      <c r="E222" s="50"/>
       <c r="F222" s="3"/>
       <c r="G222" s="3"/>
       <c r="H222" s="3"/>
       <c r="I222" s="3"/>
       <c r="J222" s="3"/>
-      <c r="K222" s="61"/>
+      <c r="K222" s="62"/>
     </row>
     <row r="223" spans="1:11">
       <c r="A223" s="3"/>
       <c r="B223" s="3"/>
       <c r="D223" s="3"/>
-      <c r="E223" s="49"/>
+      <c r="E223" s="50"/>
       <c r="F223" s="3"/>
       <c r="G223" s="3"/>
       <c r="H223" s="3"/>
       <c r="I223" s="3"/>
       <c r="J223" s="3"/>
-      <c r="K223" s="61"/>
+      <c r="K223" s="62"/>
     </row>
     <row r="224" spans="1:11">
       <c r="A224" s="3"/>
       <c r="B224" s="3"/>
       <c r="D224" s="3"/>
-      <c r="E224" s="49"/>
+      <c r="E224" s="50"/>
       <c r="F224" s="3"/>
       <c r="G224" s="3"/>
       <c r="H224" s="3"/>
       <c r="I224" s="3"/>
       <c r="J224" s="3"/>
-      <c r="K224" s="61"/>
+      <c r="K224" s="62"/>
     </row>
     <row r="225" spans="1:11">
       <c r="A225" s="3"/>
       <c r="B225" s="3"/>
       <c r="D225" s="3"/>
-      <c r="E225" s="49"/>
+      <c r="E225" s="50"/>
       <c r="F225" s="3"/>
       <c r="G225" s="3"/>
       <c r="H225" s="3"/>
       <c r="I225" s="3"/>
       <c r="J225" s="3"/>
-      <c r="K225" s="61"/>
+      <c r="K225" s="62"/>
     </row>
     <row r="226" spans="1:11">
       <c r="A226" s="3"/>
       <c r="B226" s="3"/>
       <c r="D226" s="3"/>
-      <c r="E226" s="49"/>
+      <c r="E226" s="50"/>
       <c r="F226" s="3"/>
       <c r="G226" s="3"/>
       <c r="H226" s="3"/>
       <c r="I226" s="3"/>
       <c r="J226" s="3"/>
-      <c r="K226" s="61"/>
+      <c r="K226" s="62"/>
     </row>
     <row r="227" spans="1:11">
       <c r="A227" s="3"/>
       <c r="B227" s="3"/>
       <c r="D227" s="3"/>
-      <c r="E227" s="49"/>
+      <c r="E227" s="50"/>
       <c r="F227" s="3"/>
       <c r="G227" s="3"/>
       <c r="H227" s="3"/>
       <c r="I227" s="3"/>
       <c r="J227" s="3"/>
-      <c r="K227" s="61"/>
+      <c r="K227" s="62"/>
     </row>
     <row r="228" spans="1:11">
       <c r="A228" s="3"/>
       <c r="B228" s="3"/>
       <c r="D228" s="3"/>
-      <c r="E228" s="49"/>
+      <c r="E228" s="50"/>
       <c r="F228" s="3"/>
       <c r="G228" s="3"/>
       <c r="H228" s="3"/>
       <c r="I228" s="3"/>
       <c r="J228" s="3"/>
-      <c r="K228" s="61"/>
+      <c r="K228" s="62"/>
     </row>
     <row r="229" spans="1:11">
       <c r="A229" s="3"/>
       <c r="B229" s="3"/>
       <c r="D229" s="3"/>
-      <c r="E229" s="49"/>
+      <c r="E229" s="50"/>
       <c r="F229" s="3"/>
       <c r="G229" s="3"/>
       <c r="H229" s="3"/>
       <c r="I229" s="3"/>
       <c r="J229" s="3"/>
-      <c r="K229" s="61"/>
+      <c r="K229" s="62"/>
     </row>
     <row r="230" spans="1:11">
       <c r="A230" s="3"/>
       <c r="B230" s="3"/>
       <c r="D230" s="3"/>
-      <c r="E230" s="49"/>
+      <c r="E230" s="50"/>
       <c r="F230" s="3"/>
       <c r="G230" s="3"/>
       <c r="H230" s="3"/>
       <c r="I230" s="3"/>
       <c r="J230" s="3"/>
-      <c r="K230" s="61"/>
+      <c r="K230" s="62"/>
     </row>
     <row r="231" spans="1:11">
       <c r="A231" s="3"/>
       <c r="B231" s="3"/>
       <c r="D231" s="3"/>
-      <c r="E231" s="49"/>
+      <c r="E231" s="50"/>
       <c r="F231" s="3"/>
       <c r="G231" s="3"/>
       <c r="H231" s="3"/>
       <c r="I231" s="3"/>
       <c r="J231" s="3"/>
-      <c r="K231" s="61"/>
+      <c r="K231" s="62"/>
     </row>
     <row r="232" spans="1:11">
       <c r="A232" s="3"/>
       <c r="B232" s="3"/>
       <c r="D232" s="3"/>
-      <c r="E232" s="49"/>
+      <c r="E232" s="50"/>
       <c r="F232" s="3"/>
       <c r="G232" s="3"/>
       <c r="H232" s="3"/>
       <c r="I232" s="3"/>
       <c r="J232" s="3"/>
-      <c r="K232" s="61"/>
+      <c r="K232" s="62"/>
     </row>
     <row r="233" spans="1:11">
       <c r="A233" s="3"/>
       <c r="B233" s="3"/>
       <c r="D233" s="3"/>
-      <c r="E233" s="49"/>
+      <c r="E233" s="50"/>
       <c r="F233" s="3"/>
       <c r="G233" s="3"/>
       <c r="H233" s="3"/>
       <c r="I233" s="3"/>
       <c r="J233" s="3"/>
-      <c r="K233" s="61"/>
+      <c r="K233" s="62"/>
     </row>
     <row r="234" spans="1:11">
       <c r="A234" s="3"/>
       <c r="B234" s="3"/>
       <c r="D234" s="3"/>
-      <c r="E234" s="49"/>
+      <c r="E234" s="50"/>
       <c r="F234" s="3"/>
       <c r="G234" s="3"/>
       <c r="H234" s="3"/>
       <c r="I234" s="3"/>
       <c r="J234" s="3"/>
-      <c r="K234" s="61"/>
+      <c r="K234" s="62"/>
     </row>
     <row r="235" spans="1:11">
       <c r="A235" s="3"/>
       <c r="B235" s="3"/>
       <c r="D235" s="3"/>
-      <c r="E235" s="49"/>
+      <c r="E235" s="50"/>
       <c r="F235" s="3"/>
       <c r="G235" s="3"/>
       <c r="H235" s="3"/>
       <c r="I235" s="3"/>
       <c r="J235" s="3"/>
-      <c r="K235" s="61"/>
+      <c r="K235" s="62"/>
     </row>
     <row r="236" spans="1:11">
       <c r="A236" s="3"/>
       <c r="B236" s="3"/>
       <c r="D236" s="3"/>
-      <c r="E236" s="49"/>
+      <c r="E236" s="50"/>
       <c r="F236" s="3"/>
       <c r="G236" s="3"/>
       <c r="H236" s="3"/>
       <c r="I236" s="3"/>
       <c r="J236" s="3"/>
-      <c r="K236" s="61"/>
+      <c r="K236" s="62"/>
     </row>
     <row r="237" spans="1:11">
       <c r="A237" s="3"/>
       <c r="B237" s="3"/>
       <c r="D237" s="3"/>
-      <c r="E237" s="49"/>
+      <c r="E237" s="50"/>
       <c r="F237" s="3"/>
       <c r="G237" s="3"/>
       <c r="H237" s="3"/>
       <c r="I237" s="3"/>
       <c r="J237" s="3"/>
-      <c r="K237" s="61"/>
+      <c r="K237" s="62"/>
     </row>
     <row r="238" spans="1:11">
       <c r="A238" s="3"/>
       <c r="B238" s="3"/>
       <c r="D238" s="3"/>
-      <c r="E238" s="49"/>
+      <c r="E238" s="50"/>
       <c r="F238" s="3"/>
       <c r="G238" s="3"/>
       <c r="H238" s="3"/>
       <c r="I238" s="3"/>
       <c r="J238" s="3"/>
-      <c r="K238" s="61"/>
+      <c r="K238" s="62"/>
     </row>
     <row r="239" spans="1:11">
       <c r="A239" s="3"/>
       <c r="B239" s="3"/>
       <c r="D239" s="3"/>
-      <c r="E239" s="49"/>
+      <c r="E239" s="50"/>
       <c r="F239" s="3"/>
       <c r="G239" s="3"/>
       <c r="H239" s="3"/>
       <c r="I239" s="3"/>
       <c r="J239" s="3"/>
-      <c r="K239" s="61"/>
+      <c r="K239" s="62"/>
     </row>
     <row r="240" spans="1:11">
       <c r="A240" s="3"/>
       <c r="B240" s="3"/>
       <c r="D240" s="3"/>
-      <c r="E240" s="49"/>
+      <c r="E240" s="50"/>
       <c r="F240" s="3"/>
       <c r="G240" s="3"/>
       <c r="H240" s="3"/>
       <c r="I240" s="3"/>
       <c r="J240" s="3"/>
-      <c r="K240" s="61"/>
+      <c r="K240" s="62"/>
     </row>
     <row r="241" spans="1:11">
       <c r="A241" s="3"/>
       <c r="B241" s="3"/>
       <c r="D241" s="3"/>
-      <c r="E241" s="49"/>
+      <c r="E241" s="50"/>
       <c r="F241" s="3"/>
       <c r="G241" s="3"/>
       <c r="H241" s="3"/>
       <c r="I241" s="3"/>
       <c r="J241" s="3"/>
-      <c r="K241" s="61"/>
+      <c r="K241" s="62"/>
     </row>
     <row r="242" spans="1:11">
       <c r="A242" s="3"/>
       <c r="B242" s="3"/>
       <c r="D242" s="3"/>
-      <c r="E242" s="49"/>
+      <c r="E242" s="50"/>
       <c r="F242" s="3"/>
       <c r="G242" s="3"/>
       <c r="H242" s="3"/>
       <c r="I242" s="3"/>
       <c r="J242" s="3"/>
-      <c r="K242" s="61"/>
+      <c r="K242" s="62"/>
     </row>
     <row r="243" spans="1:11">
       <c r="A243" s="3"/>
       <c r="B243" s="3"/>
       <c r="D243" s="3"/>
-      <c r="E243" s="49"/>
+      <c r="E243" s="50"/>
       <c r="F243" s="3"/>
       <c r="G243" s="3"/>
       <c r="H243" s="3"/>
       <c r="I243" s="3"/>
       <c r="J243" s="3"/>
-      <c r="K243" s="61"/>
+      <c r="K243" s="62"/>
     </row>
     <row r="244" spans="1:11">
       <c r="A244" s="3"/>
       <c r="B244" s="3"/>
       <c r="D244" s="3"/>
-      <c r="E244" s="49"/>
+      <c r="E244" s="50"/>
       <c r="F244" s="3"/>
       <c r="G244" s="3"/>
       <c r="H244" s="3"/>
       <c r="I244" s="3"/>
       <c r="J244" s="3"/>
-      <c r="K244" s="61"/>
+      <c r="K244" s="62"/>
     </row>
     <row r="245" spans="1:11">
       <c r="A245" s="3"/>
       <c r="B245" s="3"/>
       <c r="D245" s="3"/>
-      <c r="E245" s="49"/>
+      <c r="E245" s="50"/>
       <c r="F245" s="3"/>
       <c r="G245" s="3"/>
       <c r="H245" s="3"/>
       <c r="I245" s="3"/>
       <c r="J245" s="3"/>
-      <c r="K245" s="61"/>
+      <c r="K245" s="62"/>
     </row>
     <row r="246" spans="1:11">
       <c r="A246" s="3"/>
       <c r="B246" s="3"/>
       <c r="D246" s="3"/>
-      <c r="E246" s="49"/>
+      <c r="E246" s="50"/>
       <c r="F246" s="3"/>
       <c r="G246" s="3"/>
       <c r="H246" s="3"/>
       <c r="I246" s="3"/>
       <c r="J246" s="3"/>
-      <c r="K246" s="61"/>
+      <c r="K246" s="62"/>
     </row>
     <row r="247" spans="1:11">
       <c r="A247" s="3"/>
       <c r="B247" s="3"/>
       <c r="D247" s="3"/>
-      <c r="E247" s="49"/>
+      <c r="E247" s="50"/>
       <c r="F247" s="3"/>
       <c r="G247" s="3"/>
       <c r="H247" s="3"/>
       <c r="I247" s="3"/>
       <c r="J247" s="3"/>
-      <c r="K247" s="61"/>
+      <c r="K247" s="62"/>
     </row>
     <row r="248" spans="1:11">
       <c r="A248" s="3"/>
       <c r="B248" s="3"/>
       <c r="D248" s="3"/>
-      <c r="E248" s="49"/>
+      <c r="E248" s="50"/>
       <c r="F248" s="3"/>
       <c r="G248" s="3"/>
       <c r="H248" s="3"/>
       <c r="I248" s="3"/>
       <c r="J248" s="3"/>
-      <c r="K248" s="61"/>
+      <c r="K248" s="62"/>
     </row>
     <row r="249" spans="1:11">
       <c r="A249" s="3"/>
       <c r="B249" s="3"/>
       <c r="D249" s="3"/>
-      <c r="E249" s="49"/>
+      <c r="E249" s="50"/>
       <c r="F249" s="3"/>
       <c r="G249" s="3"/>
       <c r="H249" s="3"/>
       <c r="I249" s="3"/>
       <c r="J249" s="3"/>
-      <c r="K249" s="61"/>
+      <c r="K249" s="62"/>
     </row>
     <row r="250" spans="1:11">
       <c r="A250" s="3"/>
       <c r="B250" s="3"/>
       <c r="D250" s="3"/>
-      <c r="E250" s="49"/>
+      <c r="E250" s="50"/>
       <c r="F250" s="3"/>
       <c r="G250" s="3"/>
       <c r="H250" s="3"/>
       <c r="I250" s="3"/>
       <c r="J250" s="3"/>
-      <c r="K250" s="61"/>
+      <c r="K250" s="62"/>
     </row>
     <row r="251" spans="1:11">
       <c r="A251" s="3"/>
       <c r="B251" s="3"/>
       <c r="D251" s="3"/>
-      <c r="E251" s="49"/>
+      <c r="E251" s="50"/>
       <c r="F251" s="3"/>
       <c r="G251" s="3"/>
       <c r="H251" s="3"/>
       <c r="I251" s="3"/>
       <c r="J251" s="3"/>
-      <c r="K251" s="61"/>
+      <c r="K251" s="62"/>
     </row>
     <row r="252" spans="1:11">
       <c r="A252" s="3"/>
       <c r="B252" s="3"/>
       <c r="D252" s="3"/>
-      <c r="E252" s="49"/>
+      <c r="E252" s="50"/>
       <c r="F252" s="3"/>
       <c r="G252" s="3"/>
       <c r="H252" s="3"/>
       <c r="I252" s="3"/>
       <c r="J252" s="3"/>
-      <c r="K252" s="61"/>
+      <c r="K252" s="62"/>
     </row>
     <row r="253" spans="1:11">
       <c r="A253" s="3"/>
       <c r="B253" s="3"/>
       <c r="D253" s="3"/>
-      <c r="E253" s="49"/>
+      <c r="E253" s="50"/>
       <c r="F253" s="3"/>
       <c r="G253" s="3"/>
       <c r="H253" s="3"/>
       <c r="I253" s="3"/>
       <c r="J253" s="3"/>
-      <c r="K253" s="61"/>
+      <c r="K253" s="62"/>
     </row>
     <row r="254" spans="1:11">
       <c r="A254" s="3"/>
       <c r="B254" s="3"/>
       <c r="D254" s="3"/>
-      <c r="E254" s="49"/>
+      <c r="E254" s="50"/>
       <c r="F254" s="3"/>
       <c r="G254" s="3"/>
       <c r="H254" s="3"/>
       <c r="I254" s="3"/>
       <c r="J254" s="3"/>
-      <c r="K254" s="61"/>
+      <c r="K254" s="62"/>
     </row>
     <row r="255" spans="1:11">
       <c r="A255" s="3"/>
       <c r="B255" s="3"/>
       <c r="D255" s="3"/>
-      <c r="E255" s="49"/>
+      <c r="E255" s="50"/>
       <c r="F255" s="3"/>
       <c r="G255" s="3"/>
       <c r="H255" s="3"/>
       <c r="I255" s="3"/>
       <c r="J255" s="3"/>
-      <c r="K255" s="61"/>
+      <c r="K255" s="62"/>
     </row>
     <row r="256" spans="1:11">
       <c r="A256" s="3"/>
       <c r="B256" s="3"/>
       <c r="D256" s="3"/>
-      <c r="E256" s="49"/>
+      <c r="E256" s="50"/>
       <c r="F256" s="3"/>
       <c r="G256" s="3"/>
       <c r="H256" s="3"/>
       <c r="I256" s="3"/>
       <c r="J256" s="3"/>
-      <c r="K256" s="61"/>
+      <c r="K256" s="62"/>
     </row>
     <row r="257" spans="1:11">
       <c r="A257" s="3"/>
       <c r="B257" s="3"/>
       <c r="D257" s="3"/>
-      <c r="E257" s="49"/>
+      <c r="E257" s="50"/>
       <c r="F257" s="3"/>
       <c r="G257" s="3"/>
       <c r="H257" s="3"/>
       <c r="I257" s="3"/>
       <c r="J257" s="3"/>
-      <c r="K257" s="61"/>
+      <c r="K257" s="62"/>
     </row>
     <row r="258" spans="1:11">
       <c r="A258" s="3"/>
       <c r="B258" s="3"/>
       <c r="D258" s="3"/>
-      <c r="E258" s="49"/>
+      <c r="E258" s="50"/>
       <c r="F258" s="3"/>
       <c r="G258" s="3"/>
       <c r="H258" s="3"/>
       <c r="I258" s="3"/>
       <c r="J258" s="3"/>
-      <c r="K258" s="61"/>
+      <c r="K258" s="62"/>
     </row>
     <row r="259" spans="1:11">
       <c r="A259" s="3"/>
       <c r="B259" s="3"/>
       <c r="D259" s="3"/>
-      <c r="E259" s="49"/>
+      <c r="E259" s="50"/>
       <c r="F259" s="3"/>
       <c r="G259" s="3"/>
       <c r="H259" s="3"/>
       <c r="I259" s="3"/>
       <c r="J259" s="3"/>
-      <c r="K259" s="61"/>
+      <c r="K259" s="62"/>
     </row>
     <row r="260" spans="1:11">
       <c r="A260" s="3"/>
       <c r="B260" s="3"/>
       <c r="D260" s="3"/>
-      <c r="E260" s="49"/>
+      <c r="E260" s="50"/>
       <c r="F260" s="3"/>
       <c r="G260" s="3"/>
       <c r="H260" s="3"/>
       <c r="I260" s="3"/>
       <c r="J260" s="3"/>
-      <c r="K260" s="61"/>
+      <c r="K260" s="62"/>
     </row>
     <row r="261" spans="1:11">
       <c r="A261" s="3"/>
       <c r="B261" s="3"/>
       <c r="D261" s="3"/>
-      <c r="E261" s="49"/>
+      <c r="E261" s="50"/>
       <c r="F261" s="3"/>
       <c r="G261" s="3"/>
       <c r="H261" s="3"/>
       <c r="I261" s="3"/>
       <c r="J261" s="3"/>
-      <c r="K261" s="61"/>
+      <c r="K261" s="62"/>
     </row>
     <row r="262" spans="1:11">
       <c r="A262" s="3"/>
       <c r="B262" s="3"/>
       <c r="D262" s="3"/>
-      <c r="E262" s="49"/>
+      <c r="E262" s="50"/>
       <c r="F262" s="3"/>
       <c r="G262" s="3"/>
       <c r="H262" s="3"/>
       <c r="I262" s="3"/>
       <c r="J262" s="3"/>
-      <c r="K262" s="61"/>
+      <c r="K262" s="62"/>
     </row>
     <row r="263" spans="1:11">
       <c r="A263" s="3"/>
       <c r="B263" s="3"/>
       <c r="D263" s="3"/>
-      <c r="E263" s="49"/>
+      <c r="E263" s="50"/>
       <c r="F263" s="3"/>
       <c r="G263" s="3"/>
       <c r="H263" s="3"/>
       <c r="I263" s="3"/>
       <c r="J263" s="3"/>
-      <c r="K263" s="61"/>
+      <c r="K263" s="62"/>
     </row>
     <row r="264" spans="1:11">
       <c r="A264" s="3"/>
       <c r="B264" s="3"/>
       <c r="D264" s="3"/>
-      <c r="E264" s="49"/>
+      <c r="E264" s="50"/>
       <c r="F264" s="3"/>
       <c r="G264" s="3"/>
       <c r="H264" s="3"/>
       <c r="I264" s="3"/>
       <c r="J264" s="3"/>
-      <c r="K264" s="61"/>
+      <c r="K264" s="62"/>
     </row>
     <row r="265" spans="1:11">
       <c r="A265" s="3"/>
       <c r="B265" s="3"/>
       <c r="D265" s="3"/>
-      <c r="E265" s="49"/>
+      <c r="E265" s="50"/>
       <c r="F265" s="3"/>
       <c r="G265" s="3"/>
       <c r="H265" s="3"/>
       <c r="I265" s="3"/>
       <c r="J265" s="3"/>
-      <c r="K265" s="61"/>
+      <c r="K265" s="62"/>
     </row>
     <row r="266" spans="1:11">
       <c r="A266" s="3"/>
       <c r="B266" s="3"/>
       <c r="D266" s="3"/>
-      <c r="E266" s="49"/>
+      <c r="E266" s="50"/>
       <c r="F266" s="3"/>
       <c r="G266" s="3"/>
       <c r="H266" s="3"/>
       <c r="I266" s="3"/>
       <c r="J266" s="3"/>
-      <c r="K266" s="61"/>
+      <c r="K266" s="62"/>
     </row>
     <row r="267" spans="1:11">
       <c r="A267" s="3"/>
       <c r="B267" s="3"/>
       <c r="D267" s="3"/>
-      <c r="E267" s="49"/>
+      <c r="E267" s="50"/>
       <c r="F267" s="3"/>
       <c r="G267" s="3"/>
       <c r="H267" s="3"/>
       <c r="I267" s="3"/>
       <c r="J267" s="3"/>
-      <c r="K267" s="61"/>
+      <c r="K267" s="62"/>
     </row>
     <row r="268" spans="1:11">
       <c r="A268" s="3"/>
       <c r="B268" s="3"/>
       <c r="D268" s="3"/>
-      <c r="E268" s="49"/>
+      <c r="E268" s="50"/>
       <c r="F268" s="3"/>
       <c r="G268" s="3"/>
       <c r="H268" s="3"/>
       <c r="I268" s="3"/>
       <c r="J268" s="3"/>
-      <c r="K268" s="61"/>
+      <c r="K268" s="62"/>
     </row>
     <row r="269" spans="1:11">
       <c r="A269" s="3"/>
       <c r="B269" s="3"/>
       <c r="D269" s="3"/>
-      <c r="E269" s="49"/>
+      <c r="E269" s="50"/>
       <c r="F269" s="3"/>
       <c r="G269" s="3"/>
       <c r="H269" s="3"/>
       <c r="I269" s="3"/>
       <c r="J269" s="3"/>
-      <c r="K269" s="61"/>
+      <c r="K269" s="62"/>
     </row>
     <row r="270" spans="1:11">
       <c r="A270" s="3"/>
       <c r="B270" s="3"/>
       <c r="D270" s="3"/>
-      <c r="E270" s="49"/>
+      <c r="E270" s="50"/>
       <c r="F270" s="3"/>
       <c r="G270" s="3"/>
       <c r="H270" s="3"/>
       <c r="I270" s="3"/>
       <c r="J270" s="3"/>
-      <c r="K270" s="61"/>
+      <c r="K270" s="62"/>
     </row>
     <row r="271" spans="1:11">
       <c r="A271" s="3"/>
       <c r="B271" s="3"/>
       <c r="D271" s="3"/>
-      <c r="E271" s="49"/>
+      <c r="E271" s="50"/>
       <c r="F271" s="3"/>
       <c r="G271" s="3"/>
       <c r="H271" s="3"/>
       <c r="I271" s="3"/>
       <c r="J271" s="3"/>
-      <c r="K271" s="61"/>
+      <c r="K271" s="62"/>
     </row>
     <row r="272" spans="1:11">
       <c r="A272" s="3"/>
       <c r="B272" s="3"/>
       <c r="D272" s="3"/>
-      <c r="E272" s="49"/>
+      <c r="E272" s="50"/>
       <c r="F272" s="3"/>
       <c r="G272" s="3"/>
       <c r="H272" s="3"/>
       <c r="I272" s="3"/>
       <c r="J272" s="3"/>
-      <c r="K272" s="61"/>
+      <c r="K272" s="62"/>
     </row>
     <row r="273" spans="1:11">
       <c r="A273" s="3"/>
       <c r="B273" s="3"/>
       <c r="D273" s="3"/>
-      <c r="E273" s="49"/>
+      <c r="E273" s="50"/>
       <c r="F273" s="3"/>
       <c r="G273" s="3"/>
       <c r="H273" s="3"/>
       <c r="I273" s="3"/>
       <c r="J273" s="3"/>
-      <c r="K273" s="61"/>
+      <c r="K273" s="62"/>
     </row>
     <row r="274" spans="1:11">
       <c r="A274" s="3"/>
       <c r="B274" s="3"/>
       <c r="D274" s="3"/>
-      <c r="E274" s="49"/>
+      <c r="E274" s="50"/>
       <c r="F274" s="3"/>
       <c r="G274" s="3"/>
       <c r="H274" s="3"/>
       <c r="I274" s="3"/>
       <c r="J274" s="3"/>
-      <c r="K274" s="61"/>
+      <c r="K274" s="62"/>
     </row>
     <row r="275" spans="1:11">
       <c r="A275" s="3"/>
       <c r="B275" s="3"/>
       <c r="D275" s="3"/>
-      <c r="E275" s="49"/>
+      <c r="E275" s="50"/>
       <c r="F275" s="3"/>
       <c r="G275" s="3"/>
       <c r="H275" s="3"/>
       <c r="I275" s="3"/>
       <c r="J275" s="3"/>
-      <c r="K275" s="61"/>
+      <c r="K275" s="62"/>
     </row>
     <row r="276" spans="1:11">
       <c r="A276" s="3"/>
       <c r="B276" s="3"/>
       <c r="D276" s="3"/>
-      <c r="E276" s="49"/>
+      <c r="E276" s="50"/>
       <c r="F276" s="3"/>
       <c r="G276" s="3"/>
       <c r="H276" s="3"/>
       <c r="I276" s="3"/>
       <c r="J276" s="3"/>
-      <c r="K276" s="61"/>
+      <c r="K276" s="62"/>
     </row>
     <row r="277" spans="1:11">
       <c r="A277" s="3"/>
       <c r="B277" s="3"/>
       <c r="D277" s="3"/>
-      <c r="E277" s="49"/>
+      <c r="E277" s="50"/>
       <c r="F277" s="3"/>
       <c r="G277" s="3"/>
       <c r="H277" s="3"/>
       <c r="I277" s="3"/>
       <c r="J277" s="3"/>
-      <c r="K277" s="61"/>
+      <c r="K277" s="62"/>
     </row>
     <row r="278" spans="1:11">
       <c r="A278" s="3"/>
       <c r="B278" s="3"/>
       <c r="D278" s="3"/>
-      <c r="E278" s="49"/>
+      <c r="E278" s="50"/>
       <c r="F278" s="3"/>
       <c r="G278" s="3"/>
       <c r="H278" s="3"/>
       <c r="I278" s="3"/>
       <c r="J278" s="3"/>
-      <c r="K278" s="61"/>
+      <c r="K278" s="62"/>
     </row>
     <row r="279" spans="1:11">
       <c r="A279" s="3"/>
       <c r="B279" s="3"/>
       <c r="D279" s="3"/>
-      <c r="E279" s="49"/>
+      <c r="E279" s="50"/>
       <c r="F279" s="3"/>
       <c r="G279" s="3"/>
       <c r="H279" s="3"/>
       <c r="I279" s="3"/>
       <c r="J279" s="3"/>
-      <c r="K279" s="61"/>
+      <c r="K279" s="62"/>
     </row>
     <row r="280" spans="1:11">
       <c r="A280" s="3"/>
       <c r="B280" s="3"/>
       <c r="D280" s="3"/>
-      <c r="E280" s="49"/>
+      <c r="E280" s="50"/>
       <c r="F280" s="3"/>
       <c r="G280" s="3"/>
       <c r="H280" s="3"/>
       <c r="I280" s="3"/>
       <c r="J280" s="3"/>
-      <c r="K280" s="61"/>
+      <c r="K280" s="62"/>
     </row>
     <row r="281" spans="1:11">
       <c r="A281" s="3"/>
       <c r="B281" s="3"/>
       <c r="D281" s="3"/>
-      <c r="E281" s="49"/>
+      <c r="E281" s="50"/>
       <c r="F281" s="3"/>
       <c r="G281" s="3"/>
       <c r="H281" s="3"/>
       <c r="I281" s="3"/>
       <c r="J281" s="3"/>
-      <c r="K281" s="61"/>
+      <c r="K281" s="62"/>
     </row>
     <row r="282" spans="1:11">
       <c r="A282" s="3"/>
       <c r="B282" s="3"/>
       <c r="D282" s="3"/>
-      <c r="E282" s="49"/>
+      <c r="E282" s="50"/>
       <c r="F282" s="3"/>
       <c r="G282" s="3"/>
       <c r="H282" s="3"/>
       <c r="I282" s="3"/>
       <c r="J282" s="3"/>
-      <c r="K282" s="61"/>
+      <c r="K282" s="62"/>
     </row>
     <row r="283" spans="1:11">
       <c r="A283" s="3"/>
       <c r="B283" s="3"/>
       <c r="D283" s="3"/>
-      <c r="E283" s="49"/>
+      <c r="E283" s="50"/>
       <c r="F283" s="3"/>
       <c r="G283" s="3"/>
       <c r="H283" s="3"/>
       <c r="I283" s="3"/>
       <c r="J283" s="3"/>
-      <c r="K283" s="61"/>
+      <c r="K283" s="62"/>
     </row>
     <row r="284" spans="1:11">
       <c r="A284" s="3"/>
       <c r="B284" s="3"/>
       <c r="D284" s="3"/>
-      <c r="E284" s="49"/>
+      <c r="E284" s="50"/>
       <c r="F284" s="3"/>
       <c r="G284" s="3"/>
       <c r="H284" s="3"/>
       <c r="I284" s="3"/>
       <c r="J284" s="3"/>
-      <c r="K284" s="61"/>
+      <c r="K284" s="62"/>
     </row>
     <row r="285" spans="1:11">
       <c r="A285" s="3"/>
       <c r="B285" s="3"/>
       <c r="D285" s="3"/>
-      <c r="E285" s="49"/>
+      <c r="E285" s="50"/>
       <c r="F285" s="3"/>
       <c r="G285" s="3"/>
       <c r="H285" s="3"/>
       <c r="I285" s="3"/>
       <c r="J285" s="3"/>
-      <c r="K285" s="61"/>
+      <c r="K285" s="62"/>
     </row>
     <row r="286" spans="1:11">
       <c r="A286" s="3"/>
       <c r="B286" s="3"/>
       <c r="D286" s="3"/>
-      <c r="E286" s="49"/>
+      <c r="E286" s="50"/>
       <c r="F286" s="3"/>
       <c r="G286" s="3"/>
       <c r="H286" s="3"/>
       <c r="I286" s="3"/>
       <c r="J286" s="3"/>
-      <c r="K286" s="61"/>
+      <c r="K286" s="62"/>
     </row>
     <row r="287" spans="1:11">
       <c r="A287" s="3"/>
       <c r="B287" s="3"/>
       <c r="D287" s="3"/>
-      <c r="E287" s="49"/>
+      <c r="E287" s="50"/>
       <c r="F287" s="3"/>
       <c r="G287" s="3"/>
       <c r="H287" s="3"/>
       <c r="I287" s="3"/>
       <c r="J287" s="3"/>
-      <c r="K287" s="61"/>
+      <c r="K287" s="62"/>
     </row>
     <row r="288" spans="1:11">
       <c r="A288" s="3"/>
       <c r="B288" s="3"/>
       <c r="D288" s="3"/>
-      <c r="E288" s="49"/>
+      <c r="E288" s="50"/>
       <c r="F288" s="3"/>
       <c r="G288" s="3"/>
       <c r="H288" s="3"/>
       <c r="I288" s="3"/>
       <c r="J288" s="3"/>
-      <c r="K288" s="61"/>
+      <c r="K288" s="62"/>
     </row>
     <row r="289" spans="1:11">
       <c r="A289" s="3"/>
       <c r="B289" s="3"/>
       <c r="D289" s="3"/>
-      <c r="E289" s="49"/>
+      <c r="E289" s="50"/>
       <c r="F289" s="3"/>
       <c r="G289" s="3"/>
       <c r="H289" s="3"/>
       <c r="I289" s="3"/>
       <c r="J289" s="3"/>
-      <c r="K289" s="61"/>
+      <c r="K289" s="62"/>
     </row>
     <row r="290" spans="1:11">
       <c r="A290" s="3"/>
       <c r="B290" s="3"/>
       <c r="D290" s="3"/>
-      <c r="E290" s="49"/>
+      <c r="E290" s="50"/>
       <c r="F290" s="3"/>
       <c r="G290" s="3"/>
       <c r="H290" s="3"/>
       <c r="I290" s="3"/>
       <c r="J290" s="3"/>
-      <c r="K290" s="61"/>
+      <c r="K290" s="62"/>
     </row>
     <row r="291" spans="1:11">
       <c r="A291" s="3"/>
       <c r="B291" s="3"/>
       <c r="D291" s="3"/>
-      <c r="E291" s="49"/>
+      <c r="E291" s="50"/>
       <c r="F291" s="3"/>
       <c r="G291" s="3"/>
       <c r="H291" s="3"/>
       <c r="I291" s="3"/>
       <c r="J291" s="3"/>
-      <c r="K291" s="61"/>
+      <c r="K291" s="62"/>
     </row>
     <row r="292" spans="1:11">
       <c r="A292" s="3"/>
       <c r="B292" s="3"/>
       <c r="D292" s="3"/>
-      <c r="E292" s="49"/>
+      <c r="E292" s="50"/>
       <c r="F292" s="3"/>
       <c r="G292" s="3"/>
       <c r="H292" s="3"/>
       <c r="I292" s="3"/>
       <c r="J292" s="3"/>
-      <c r="K292" s="61"/>
+      <c r="K292" s="62"/>
     </row>
     <row r="293" spans="1:11">
       <c r="A293" s="3"/>
       <c r="B293" s="3"/>
       <c r="D293" s="3"/>
-      <c r="E293" s="49"/>
+      <c r="E293" s="50"/>
       <c r="F293" s="3"/>
       <c r="G293" s="3"/>
       <c r="H293" s="3"/>
       <c r="I293" s="3"/>
       <c r="J293" s="3"/>
-      <c r="K293" s="61"/>
+      <c r="K293" s="62"/>
     </row>
     <row r="294" spans="1:11">
       <c r="A294" s="3"/>
       <c r="B294" s="3"/>
       <c r="D294" s="3"/>
-      <c r="E294" s="49"/>
+      <c r="E294" s="50"/>
       <c r="F294" s="3"/>
       <c r="G294" s="3"/>
       <c r="H294" s="3"/>
       <c r="I294" s="3"/>
       <c r="J294" s="3"/>
-      <c r="K294" s="61"/>
+      <c r="K294" s="62"/>
     </row>
     <row r="295" spans="1:11">
       <c r="A295" s="3"/>
       <c r="B295" s="3"/>
       <c r="D295" s="3"/>
-      <c r="E295" s="49"/>
+      <c r="E295" s="50"/>
       <c r="F295" s="3"/>
       <c r="G295" s="3"/>
       <c r="H295" s="3"/>
       <c r="I295" s="3"/>
       <c r="J295" s="3"/>
-      <c r="K295" s="61"/>
+      <c r="K295" s="62"/>
     </row>
     <row r="296" spans="1:11">
       <c r="A296" s="3"/>
       <c r="B296" s="3"/>
       <c r="D296" s="3"/>
-      <c r="E296" s="49"/>
+      <c r="E296" s="50"/>
       <c r="F296" s="3"/>
       <c r="G296" s="3"/>
       <c r="H296" s="3"/>
       <c r="I296" s="3"/>
       <c r="J296" s="3"/>
-      <c r="K296" s="61"/>
+      <c r="K296" s="62"/>
     </row>
     <row r="297" spans="1:11">
       <c r="A297" s="3"/>
       <c r="B297" s="3"/>
       <c r="D297" s="3"/>
-      <c r="E297" s="49"/>
+      <c r="E297" s="50"/>
       <c r="F297" s="3"/>
       <c r="G297" s="3"/>
       <c r="H297" s="3"/>
       <c r="I297" s="3"/>
       <c r="J297" s="3"/>
-      <c r="K297" s="61"/>
+      <c r="K297" s="62"/>
     </row>
     <row r="298" spans="1:11">
       <c r="A298" s="3"/>
       <c r="B298" s="3"/>
       <c r="D298" s="3"/>
-      <c r="E298" s="49"/>
+      <c r="E298" s="50"/>
       <c r="F298" s="3"/>
       <c r="G298" s="3"/>
       <c r="H298" s="3"/>
       <c r="I298" s="3"/>
       <c r="J298" s="3"/>
-      <c r="K298" s="61"/>
+      <c r="K298" s="62"/>
     </row>
     <row r="299" spans="1:11">
       <c r="A299" s="3"/>
       <c r="B299" s="3"/>
       <c r="D299" s="3"/>
-      <c r="E299" s="49"/>
+      <c r="E299" s="50"/>
       <c r="F299" s="3"/>
       <c r="G299" s="3"/>
       <c r="H299" s="3"/>
       <c r="I299" s="3"/>
       <c r="J299" s="3"/>
-      <c r="K299" s="61"/>
+      <c r="K299" s="62"/>
     </row>
     <row r="300" spans="1:11">
       <c r="A300" s="3"/>
       <c r="B300" s="3"/>
       <c r="D300" s="3"/>
-      <c r="E300" s="49"/>
+      <c r="E300" s="50"/>
       <c r="F300" s="3"/>
       <c r="G300" s="3"/>
       <c r="H300" s="3"/>
       <c r="I300" s="3"/>
       <c r="J300" s="3"/>
-      <c r="K300" s="61"/>
+      <c r="K300" s="62"/>
     </row>
     <row r="301" spans="1:11">
       <c r="A301" s="3"/>
       <c r="B301" s="3"/>
       <c r="D301" s="3"/>
-      <c r="E301" s="49"/>
+      <c r="E301" s="50"/>
       <c r="F301" s="3"/>
       <c r="G301" s="3"/>
       <c r="H301" s="3"/>
       <c r="I301" s="3"/>
       <c r="J301" s="3"/>
-      <c r="K301" s="61"/>
+      <c r="K301" s="62"/>
     </row>
     <row r="302" spans="1:11">
       <c r="A302" s="3"/>
       <c r="B302" s="3"/>
       <c r="D302" s="3"/>
-      <c r="E302" s="49"/>
+      <c r="E302" s="50"/>
       <c r="F302" s="3"/>
       <c r="G302" s="3"/>
       <c r="H302" s="3"/>
       <c r="I302" s="3"/>
       <c r="J302" s="3"/>
-      <c r="K302" s="61"/>
+      <c r="K302" s="62"/>
     </row>
     <row r="303" spans="1:11">
       <c r="A303" s="3"/>
       <c r="B303" s="3"/>
       <c r="D303" s="3"/>
-      <c r="E303" s="49"/>
+      <c r="E303" s="50"/>
       <c r="F303" s="3"/>
       <c r="G303" s="3"/>
       <c r="H303" s="3"/>
       <c r="I303" s="3"/>
       <c r="J303" s="3"/>
-      <c r="K303" s="61"/>
+      <c r="K303" s="62"/>
     </row>
     <row r="304" spans="1:11">
       <c r="A304" s="3"/>
       <c r="B304" s="3"/>
       <c r="D304" s="3"/>
-      <c r="E304" s="49"/>
+      <c r="E304" s="50"/>
       <c r="F304" s="3"/>
       <c r="G304" s="3"/>
       <c r="H304" s="3"/>
       <c r="I304" s="3"/>
       <c r="J304" s="3"/>
-      <c r="K304" s="61"/>
+      <c r="K304" s="62"/>
     </row>
     <row r="305" spans="1:11">
       <c r="A305" s="3"/>
       <c r="B305" s="3"/>
       <c r="D305" s="3"/>
-      <c r="E305" s="49"/>
+      <c r="E305" s="50"/>
       <c r="F305" s="3"/>
       <c r="G305" s="3"/>
       <c r="H305" s="3"/>
       <c r="I305" s="3"/>
       <c r="J305" s="3"/>
-      <c r="K305" s="61"/>
+      <c r="K305" s="62"/>
     </row>
     <row r="306" spans="1:11">
       <c r="A306" s="3"/>
       <c r="B306" s="3"/>
       <c r="D306" s="3"/>
-      <c r="E306" s="49"/>
+      <c r="E306" s="50"/>
       <c r="F306" s="3"/>
       <c r="G306" s="3"/>
       <c r="H306" s="3"/>
       <c r="I306" s="3"/>
       <c r="J306" s="3"/>
-      <c r="K306" s="61"/>
+      <c r="K306" s="62"/>
     </row>
     <row r="307" spans="1:11">
       <c r="A307" s="3"/>
       <c r="B307" s="3"/>
       <c r="D307" s="3"/>
-      <c r="E307" s="49"/>
+      <c r="E307" s="50"/>
       <c r="F307" s="3"/>
       <c r="G307" s="3"/>
       <c r="H307" s="3"/>
       <c r="I307" s="3"/>
       <c r="J307" s="3"/>
-      <c r="K307" s="61"/>
+      <c r="K307" s="62"/>
     </row>
     <row r="308" spans="1:11">
       <c r="A308" s="3"/>
       <c r="B308" s="3"/>
       <c r="D308" s="3"/>
-      <c r="E308" s="49"/>
+      <c r="E308" s="50"/>
       <c r="F308" s="3"/>
       <c r="G308" s="3"/>
       <c r="H308" s="3"/>
       <c r="I308" s="3"/>
       <c r="J308" s="3"/>
-      <c r="K308" s="61"/>
+      <c r="K308" s="62"/>
     </row>
     <row r="309" spans="1:11">
       <c r="A309" s="3"/>
       <c r="B309" s="3"/>
       <c r="D309" s="3"/>
-      <c r="E309" s="49"/>
+      <c r="E309" s="50"/>
       <c r="F309" s="3"/>
       <c r="G309" s="3"/>
       <c r="H309" s="3"/>
       <c r="I309" s="3"/>
       <c r="J309" s="3"/>
-      <c r="K309" s="61"/>
+      <c r="K309" s="62"/>
     </row>
     <row r="310" spans="1:11">
       <c r="A310" s="3"/>
       <c r="B310" s="3"/>
       <c r="D310" s="3"/>
-      <c r="E310" s="49"/>
+      <c r="E310" s="50"/>
       <c r="F310" s="3"/>
       <c r="G310" s="3"/>
       <c r="H310" s="3"/>
       <c r="I310" s="3"/>
       <c r="J310" s="3"/>
-      <c r="K310" s="61"/>
+      <c r="K310" s="62"/>
     </row>
     <row r="311" spans="1:11">
       <c r="A311" s="3"/>
       <c r="B311" s="3"/>
       <c r="D311" s="3"/>
-      <c r="E311" s="49"/>
+      <c r="E311" s="50"/>
       <c r="F311" s="3"/>
       <c r="G311" s="3"/>
       <c r="H311" s="3"/>
       <c r="I311" s="3"/>
       <c r="J311" s="3"/>
-      <c r="K311" s="61"/>
+      <c r="K311" s="62"/>
     </row>
     <row r="312" spans="1:11">
       <c r="A312" s="3"/>
       <c r="B312" s="3"/>
       <c r="D312" s="3"/>
-      <c r="E312" s="49"/>
+      <c r="E312" s="50"/>
       <c r="F312" s="3"/>
       <c r="G312" s="3"/>
       <c r="H312" s="3"/>
       <c r="I312" s="3"/>
       <c r="J312" s="3"/>
-      <c r="K312" s="61"/>
+      <c r="K312" s="62"/>
     </row>
     <row r="313" spans="1:11">
       <c r="A313" s="3"/>
       <c r="B313" s="3"/>
       <c r="D313" s="3"/>
-      <c r="E313" s="49"/>
+      <c r="E313" s="50"/>
       <c r="F313" s="3"/>
       <c r="G313" s="3"/>
       <c r="H313" s="3"/>
       <c r="I313" s="3"/>
       <c r="J313" s="3"/>
-      <c r="K313" s="61"/>
+      <c r="K313" s="62"/>
     </row>
     <row r="314" spans="1:11">
       <c r="A314" s="3"/>
       <c r="B314" s="3"/>
       <c r="D314" s="3"/>
-      <c r="E314" s="49"/>
+      <c r="E314" s="50"/>
       <c r="F314" s="3"/>
       <c r="G314" s="3"/>
       <c r="H314" s="3"/>
       <c r="I314" s="3"/>
       <c r="J314" s="3"/>
-      <c r="K314" s="61"/>
+      <c r="K314" s="62"/>
     </row>
     <row r="315" spans="1:11">
       <c r="A315" s="3"/>
       <c r="B315" s="3"/>
       <c r="D315" s="3"/>
-      <c r="E315" s="49"/>
+      <c r="E315" s="50"/>
       <c r="F315" s="3"/>
       <c r="G315" s="3"/>
       <c r="H315" s="3"/>
       <c r="I315" s="3"/>
       <c r="J315" s="3"/>
-      <c r="K315" s="61"/>
+      <c r="K315" s="62"/>
     </row>
     <row r="316" spans="1:11">
       <c r="A316" s="3"/>
       <c r="B316" s="3"/>
       <c r="D316" s="3"/>
-      <c r="E316" s="49"/>
+      <c r="E316" s="50"/>
       <c r="F316" s="3"/>
       <c r="G316" s="3"/>
       <c r="H316" s="3"/>
       <c r="I316" s="3"/>
       <c r="J316" s="3"/>
-      <c r="K316" s="61"/>
+      <c r="K316" s="62"/>
     </row>
     <row r="317" spans="1:11">
       <c r="A317" s="3"/>
       <c r="B317" s="3"/>
       <c r="D317" s="3"/>
-      <c r="E317" s="49"/>
+      <c r="E317" s="50"/>
       <c r="F317" s="3"/>
       <c r="G317" s="3"/>
       <c r="H317" s="3"/>
       <c r="I317" s="3"/>
       <c r="J317" s="3"/>
-      <c r="K317" s="61"/>
+      <c r="K317" s="62"/>
     </row>
     <row r="318" spans="1:11">
       <c r="A318" s="3"/>
       <c r="B318" s="3"/>
       <c r="D318" s="3"/>
-      <c r="E318" s="49"/>
+      <c r="E318" s="50"/>
       <c r="F318" s="3"/>
       <c r="G318" s="3"/>
       <c r="H318" s="3"/>
       <c r="I318" s="3"/>
       <c r="J318" s="3"/>
-      <c r="K318" s="61"/>
+      <c r="K318" s="62"/>
     </row>
     <row r="319" spans="1:11">
       <c r="A319" s="3"/>
       <c r="B319" s="3"/>
       <c r="D319" s="3"/>
-      <c r="E319" s="49"/>
+      <c r="E319" s="50"/>
       <c r="F319" s="3"/>
       <c r="G319" s="3"/>
       <c r="H319" s="3"/>
       <c r="I319" s="3"/>
       <c r="J319" s="3"/>
-      <c r="K319" s="61"/>
+      <c r="K319" s="62"/>
     </row>
     <row r="320" spans="1:11">
       <c r="A320" s="3"/>
       <c r="B320" s="3"/>
       <c r="D320" s="3"/>
-      <c r="E320" s="49"/>
+      <c r="E320" s="50"/>
       <c r="F320" s="3"/>
       <c r="G320" s="3"/>
       <c r="H320" s="3"/>
       <c r="I320" s="3"/>
       <c r="J320" s="3"/>
-      <c r="K320" s="61"/>
+      <c r="K320" s="62"/>
     </row>
     <row r="321" spans="1:11">
       <c r="A321" s="3"/>
       <c r="B321" s="3"/>
       <c r="D321" s="3"/>
-      <c r="E321" s="49"/>
+      <c r="E321" s="50"/>
       <c r="F321" s="3"/>
       <c r="G321" s="3"/>
       <c r="H321" s="3"/>
       <c r="I321" s="3"/>
       <c r="J321" s="3"/>
-      <c r="K321" s="61"/>
+      <c r="K321" s="62"/>
     </row>
     <row r="322" spans="1:11">
       <c r="A322" s="3"/>
       <c r="B322" s="3"/>
       <c r="D322" s="3"/>
-      <c r="E322" s="49"/>
+      <c r="E322" s="50"/>
       <c r="F322" s="3"/>
       <c r="G322" s="3"/>
       <c r="H322" s="3"/>
       <c r="I322" s="3"/>
       <c r="J322" s="3"/>
-      <c r="K322" s="61"/>
+      <c r="K322" s="62"/>
     </row>
     <row r="323" spans="1:11">
       <c r="A323" s="3"/>
       <c r="B323" s="3"/>
       <c r="D323" s="3"/>
-      <c r="E323" s="49"/>
+      <c r="E323" s="50"/>
       <c r="F323" s="3"/>
       <c r="G323" s="3"/>
       <c r="H323" s="3"/>
       <c r="I323" s="3"/>
       <c r="J323" s="3"/>
-      <c r="K323" s="61"/>
+      <c r="K323" s="62"/>
     </row>
     <row r="324" spans="1:11">
       <c r="A324" s="3"/>
       <c r="B324" s="3"/>
       <c r="D324" s="3"/>
-      <c r="E324" s="49"/>
+      <c r="E324" s="50"/>
       <c r="F324" s="3"/>
       <c r="G324" s="3"/>
       <c r="H324" s="3"/>
       <c r="I324" s="3"/>
       <c r="J324" s="3"/>
-      <c r="K324" s="61"/>
+      <c r="K324" s="62"/>
     </row>
     <row r="325" spans="1:11">
       <c r="A325" s="3"/>
       <c r="B325" s="3"/>
       <c r="D325" s="3"/>
-      <c r="E325" s="49"/>
+      <c r="E325" s="50"/>
       <c r="F325" s="3"/>
       <c r="G325" s="3"/>
       <c r="H325" s="3"/>
       <c r="I325" s="3"/>
       <c r="J325" s="3"/>
-      <c r="K325" s="61"/>
+      <c r="K325" s="62"/>
     </row>
     <row r="326" spans="1:11">
       <c r="A326" s="3"/>
       <c r="B326" s="3"/>
       <c r="D326" s="3"/>
-      <c r="E326" s="49"/>
+      <c r="E326" s="50"/>
       <c r="F326" s="3"/>
       <c r="G326" s="3"/>
       <c r="H326" s="3"/>
       <c r="I326" s="3"/>
       <c r="J326" s="3"/>
-      <c r="K326" s="61"/>
+      <c r="K326" s="62"/>
     </row>
     <row r="327" spans="1:11">
       <c r="A327" s="3"/>
       <c r="B327" s="3"/>
       <c r="D327" s="3"/>
-      <c r="E327" s="49"/>
+      <c r="E327" s="50"/>
       <c r="F327" s="3"/>
       <c r="G327" s="3"/>
       <c r="H327" s="3"/>
       <c r="I327" s="3"/>
       <c r="J327" s="3"/>
-      <c r="K327" s="61"/>
+      <c r="K327" s="62"/>
     </row>
     <row r="328" spans="1:11">
       <c r="A328" s="3"/>
       <c r="B328" s="3"/>
       <c r="D328" s="3"/>
-      <c r="E328" s="49"/>
+      <c r="E328" s="50"/>
       <c r="F328" s="3"/>
       <c r="G328" s="3"/>
       <c r="H328" s="3"/>
       <c r="I328" s="3"/>
       <c r="J328" s="3"/>
-      <c r="K328" s="61"/>
+      <c r="K328" s="62"/>
     </row>
     <row r="329" spans="1:11">
       <c r="A329" s="3"/>
       <c r="B329" s="3"/>
       <c r="D329" s="3"/>
-      <c r="E329" s="49"/>
+      <c r="E329" s="50"/>
       <c r="F329" s="3"/>
       <c r="G329" s="3"/>
       <c r="H329" s="3"/>
       <c r="I329" s="3"/>
       <c r="J329" s="3"/>
-      <c r="K329" s="61"/>
+      <c r="K329" s="62"/>
     </row>
     <row r="330" spans="1:11">
       <c r="A330" s="3"/>
       <c r="B330" s="3"/>
       <c r="D330" s="3"/>
-      <c r="E330" s="49"/>
+      <c r="E330" s="50"/>
       <c r="F330" s="3"/>
       <c r="G330" s="3"/>
       <c r="H330" s="3"/>
       <c r="I330" s="3"/>
       <c r="J330" s="3"/>
-      <c r="K330" s="61"/>
+      <c r="K330" s="62"/>
     </row>
     <row r="331" spans="1:11">
       <c r="A331" s="3"/>
       <c r="B331" s="3"/>
       <c r="D331" s="3"/>
-      <c r="E331" s="49"/>
+      <c r="E331" s="50"/>
       <c r="F331" s="3"/>
       <c r="G331" s="3"/>
       <c r="H331" s="3"/>
       <c r="I331" s="3"/>
       <c r="J331" s="3"/>
-      <c r="K331" s="61"/>
+      <c r="K331" s="62"/>
     </row>
     <row r="332" spans="1:11">
       <c r="A332" s="3"/>
       <c r="B332" s="3"/>
       <c r="D332" s="3"/>
-      <c r="E332" s="49"/>
+      <c r="E332" s="50"/>
       <c r="F332" s="3"/>
       <c r="G332" s="3"/>
       <c r="H332" s="3"/>
       <c r="I332" s="3"/>
       <c r="J332" s="3"/>
-      <c r="K332" s="61"/>
+      <c r="K332" s="62"/>
     </row>
     <row r="333" spans="1:11">
       <c r="A333" s="3"/>
       <c r="B333" s="3"/>
       <c r="D333" s="3"/>
-      <c r="E333" s="49"/>
+      <c r="E333" s="50"/>
       <c r="F333" s="3"/>
       <c r="G333" s="3"/>
       <c r="H333" s="3"/>
       <c r="I333" s="3"/>
       <c r="J333" s="3"/>
-      <c r="K333" s="61"/>
+      <c r="K333" s="62"/>
     </row>
     <row r="334" spans="1:11">
       <c r="A334" s="3"/>
       <c r="B334" s="3"/>
       <c r="D334" s="3"/>
-      <c r="E334" s="49"/>
+      <c r="E334" s="50"/>
       <c r="F334" s="3"/>
       <c r="G334" s="3"/>
       <c r="H334" s="3"/>
       <c r="I334" s="3"/>
       <c r="J334" s="3"/>
-      <c r="K334" s="61"/>
+      <c r="K334" s="62"/>
     </row>
     <row r="335" spans="1:11">
       <c r="A335" s="3"/>
       <c r="B335" s="3"/>
       <c r="D335" s="3"/>
-      <c r="E335" s="49"/>
+      <c r="E335" s="50"/>
       <c r="F335" s="3"/>
       <c r="G335" s="3"/>
       <c r="H335" s="3"/>
       <c r="I335" s="3"/>
       <c r="J335" s="3"/>
-      <c r="K335" s="61"/>
+      <c r="K335" s="62"/>
     </row>
     <row r="336" spans="1:11">
       <c r="A336" s="3"/>
       <c r="B336" s="3"/>
       <c r="D336" s="3"/>
-      <c r="E336" s="49"/>
+      <c r="E336" s="50"/>
       <c r="F336" s="3"/>
       <c r="G336" s="3"/>
       <c r="H336" s="3"/>
       <c r="I336" s="3"/>
       <c r="J336" s="3"/>
-      <c r="K336" s="61"/>
+      <c r="K336" s="62"/>
     </row>
     <row r="337" spans="1:11">
       <c r="A337" s="3"/>
       <c r="B337" s="3"/>
       <c r="D337" s="3"/>
-      <c r="E337" s="49"/>
+      <c r="E337" s="50"/>
       <c r="F337" s="3"/>
       <c r="G337" s="3"/>
       <c r="H337" s="3"/>
       <c r="I337" s="3"/>
       <c r="J337" s="3"/>
-      <c r="K337" s="61"/>
+      <c r="K337" s="62"/>
     </row>
     <row r="338" spans="1:11">
       <c r="A338" s="3"/>
       <c r="B338" s="3"/>
       <c r="D338" s="3"/>
-      <c r="E338" s="49"/>
+      <c r="E338" s="50"/>
       <c r="F338" s="3"/>
       <c r="G338" s="3"/>
       <c r="H338" s="3"/>
       <c r="I338" s="3"/>
       <c r="J338" s="3"/>
-      <c r="K338" s="61"/>
+      <c r="K338" s="62"/>
     </row>
     <row r="339" spans="1:11">
       <c r="A339" s="3"/>
       <c r="B339" s="3"/>
       <c r="D339" s="3"/>
-      <c r="E339" s="49"/>
+      <c r="E339" s="50"/>
       <c r="F339" s="3"/>
       <c r="G339" s="3"/>
       <c r="H339" s="3"/>
       <c r="I339" s="3"/>
       <c r="J339" s="3"/>
-      <c r="K339" s="61"/>
+      <c r="K339" s="62"/>
     </row>
     <row r="340" spans="1:11">
       <c r="A340" s="3"/>
       <c r="B340" s="3"/>
       <c r="D340" s="3"/>
-      <c r="E340" s="49"/>
+      <c r="E340" s="50"/>
       <c r="F340" s="3"/>
       <c r="G340" s="3"/>
       <c r="H340" s="3"/>
       <c r="I340" s="3"/>
       <c r="J340" s="3"/>
-      <c r="K340" s="61"/>
+      <c r="K340" s="62"/>
     </row>
     <row r="341" spans="1:11">
       <c r="A341" s="3"/>
       <c r="B341" s="3"/>
       <c r="D341" s="3"/>
-      <c r="E341" s="49"/>
+      <c r="E341" s="50"/>
       <c r="F341" s="3"/>
       <c r="G341" s="3"/>
       <c r="H341" s="3"/>
       <c r="I341" s="3"/>
       <c r="J341" s="3"/>
-      <c r="K341" s="61"/>
+      <c r="K341" s="62"/>
     </row>
     <row r="342" spans="1:11">
       <c r="A342" s="3"/>
       <c r="B342" s="3"/>
       <c r="D342" s="3"/>
-      <c r="E342" s="49"/>
+      <c r="E342" s="50"/>
       <c r="F342" s="3"/>
       <c r="G342" s="3"/>
       <c r="H342" s="3"/>
       <c r="I342" s="3"/>
       <c r="J342" s="3"/>
-      <c r="K342" s="61"/>
+      <c r="K342" s="62"/>
     </row>
     <row r="343" spans="1:11">
       <c r="A343" s="3"/>
       <c r="B343" s="3"/>
       <c r="D343" s="3"/>
-      <c r="E343" s="49"/>
+      <c r="E343" s="50"/>
       <c r="F343" s="3"/>
       <c r="G343" s="3"/>
       <c r="H343" s="3"/>
       <c r="I343" s="3"/>
       <c r="J343" s="3"/>
-      <c r="K343" s="61"/>
+      <c r="K343" s="62"/>
     </row>
     <row r="344" spans="1:11">
       <c r="A344" s="3"/>
       <c r="B344" s="3"/>
       <c r="D344" s="3"/>
-      <c r="E344" s="49"/>
+      <c r="E344" s="50"/>
       <c r="F344" s="3"/>
       <c r="G344" s="3"/>
       <c r="H344" s="3"/>
       <c r="I344" s="3"/>
       <c r="J344" s="3"/>
-      <c r="K344" s="61"/>
+      <c r="K344" s="62"/>
     </row>
     <row r="345" spans="1:11">
       <c r="A345" s="3"/>
       <c r="B345" s="3"/>
       <c r="D345" s="3"/>
-      <c r="E345" s="49"/>
+      <c r="E345" s="50"/>
       <c r="F345" s="3"/>
       <c r="G345" s="3"/>
       <c r="H345" s="3"/>
       <c r="I345" s="3"/>
       <c r="J345" s="3"/>
-      <c r="K345" s="61"/>
+      <c r="K345" s="62"/>
     </row>
     <row r="346" spans="1:11">
       <c r="A346" s="3"/>
       <c r="B346" s="3"/>
       <c r="D346" s="3"/>
-      <c r="E346" s="49"/>
+      <c r="E346" s="50"/>
       <c r="F346" s="3"/>
       <c r="G346" s="3"/>
       <c r="H346" s="3"/>
       <c r="I346" s="3"/>
       <c r="J346" s="3"/>
-      <c r="K346" s="61"/>
+      <c r="K346" s="62"/>
     </row>
     <row r="347" spans="1:11">
       <c r="A347" s="3"/>
       <c r="B347" s="3"/>
       <c r="D347" s="3"/>
-      <c r="E347" s="49"/>
+      <c r="E347" s="50"/>
       <c r="F347" s="3"/>
       <c r="G347" s="3"/>
       <c r="H347" s="3"/>
       <c r="I347" s="3"/>
       <c r="J347" s="3"/>
-      <c r="K347" s="61"/>
+      <c r="K347" s="62"/>
     </row>
     <row r="348" spans="1:11">
       <c r="A348" s="3"/>
       <c r="B348" s="3"/>
       <c r="D348" s="3"/>
-      <c r="E348" s="49"/>
+      <c r="E348" s="50"/>
       <c r="F348" s="3"/>
       <c r="G348" s="3"/>
       <c r="H348" s="3"/>
       <c r="I348" s="3"/>
       <c r="J348" s="3"/>
-      <c r="K348" s="61"/>
+      <c r="K348" s="62"/>
     </row>
     <row r="349" spans="1:11">
       <c r="A349" s="3"/>
       <c r="B349" s="3"/>
       <c r="D349" s="3"/>
-      <c r="E349" s="49"/>
+      <c r="E349" s="50"/>
       <c r="F349" s="3"/>
       <c r="G349" s="3"/>
       <c r="H349" s="3"/>
       <c r="I349" s="3"/>
       <c r="J349" s="3"/>
-      <c r="K349" s="61"/>
+      <c r="K349" s="62"/>
     </row>
     <row r="350" spans="1:11">
       <c r="A350" s="3"/>
       <c r="B350" s="3"/>
       <c r="D350" s="3"/>
-      <c r="E350" s="49"/>
+      <c r="E350" s="50"/>
       <c r="F350" s="3"/>
       <c r="G350" s="3"/>
       <c r="H350" s="3"/>
       <c r="I350" s="3"/>
       <c r="J350" s="3"/>
-      <c r="K350" s="61"/>
+      <c r="K350" s="62"/>
     </row>
     <row r="351" spans="1:11">
       <c r="A351" s="3"/>
       <c r="B351" s="3"/>
       <c r="D351" s="3"/>
-      <c r="E351" s="49"/>
+      <c r="E351" s="50"/>
       <c r="F351" s="3"/>
       <c r="G351" s="3"/>
       <c r="H351" s="3"/>
       <c r="I351" s="3"/>
       <c r="J351" s="3"/>
-      <c r="K351" s="61"/>
+      <c r="K351" s="62"/>
     </row>
     <row r="352" spans="1:11">
       <c r="A352" s="3"/>
       <c r="B352" s="3"/>
       <c r="D352" s="3"/>
-      <c r="E352" s="49"/>
+      <c r="E352" s="50"/>
       <c r="F352" s="3"/>
       <c r="G352" s="3"/>
       <c r="H352" s="3"/>
       <c r="I352" s="3"/>
       <c r="J352" s="3"/>
-      <c r="K352" s="61"/>
+      <c r="K352" s="62"/>
     </row>
     <row r="353" spans="1:11">
       <c r="A353" s="3"/>
       <c r="B353" s="3"/>
       <c r="D353" s="3"/>
-      <c r="E353" s="49"/>
+      <c r="E353" s="50"/>
       <c r="F353" s="3"/>
       <c r="G353" s="3"/>
       <c r="H353" s="3"/>
       <c r="I353" s="3"/>
       <c r="J353" s="3"/>
-      <c r="K353" s="61"/>
+      <c r="K353" s="62"/>
     </row>
     <row r="354" spans="1:11">
       <c r="A354" s="3"/>
       <c r="B354" s="3"/>
       <c r="D354" s="3"/>
-      <c r="E354" s="49"/>
+      <c r="E354" s="50"/>
       <c r="F354" s="3"/>
       <c r="G354" s="3"/>
       <c r="H354" s="3"/>
       <c r="I354" s="3"/>
       <c r="J354" s="3"/>
-      <c r="K354" s="61"/>
+      <c r="K354" s="62"/>
     </row>
     <row r="355" spans="1:11">
       <c r="A355" s="3"/>
       <c r="B355" s="3"/>
       <c r="D355" s="3"/>
-      <c r="E355" s="49"/>
+      <c r="E355" s="50"/>
       <c r="F355" s="3"/>
       <c r="G355" s="3"/>
       <c r="H355" s="3"/>
       <c r="I355" s="3"/>
       <c r="J355" s="3"/>
-      <c r="K355" s="61"/>
+      <c r="K355" s="62"/>
     </row>
     <row r="356" spans="1:11">
       <c r="A356" s="3"/>
       <c r="B356" s="3"/>
       <c r="D356" s="3"/>
-      <c r="E356" s="49"/>
+      <c r="E356" s="50"/>
       <c r="F356" s="3"/>
       <c r="G356" s="3"/>
       <c r="H356" s="3"/>
       <c r="I356" s="3"/>
       <c r="J356" s="3"/>
-      <c r="K356" s="61"/>
+      <c r="K356" s="62"/>
     </row>
     <row r="357" spans="1:11">
       <c r="A357" s="3"/>
       <c r="B357" s="3"/>
       <c r="D357" s="3"/>
-      <c r="E357" s="49"/>
+      <c r="E357" s="50"/>
       <c r="F357" s="3"/>
       <c r="G357" s="3"/>
       <c r="H357" s="3"/>
       <c r="I357" s="3"/>
       <c r="J357" s="3"/>
-      <c r="K357" s="61"/>
+      <c r="K357" s="62"/>
     </row>
     <row r="358" spans="1:11">
       <c r="A358" s="3"/>
       <c r="B358" s="3"/>
       <c r="D358" s="3"/>
-      <c r="E358" s="49"/>
+      <c r="E358" s="50"/>
       <c r="F358" s="3"/>
       <c r="G358" s="3"/>
       <c r="H358" s="3"/>
       <c r="I358" s="3"/>
       <c r="J358" s="3"/>
-      <c r="K358" s="61"/>
+      <c r="K358" s="62"/>
     </row>
     <row r="359" spans="1:11">
       <c r="A359" s="3"/>
       <c r="B359" s="3"/>
       <c r="D359" s="3"/>
-      <c r="E359" s="49"/>
+      <c r="E359" s="50"/>
       <c r="F359" s="3"/>
       <c r="G359" s="3"/>
       <c r="H359" s="3"/>
       <c r="I359" s="3"/>
       <c r="J359" s="3"/>
-      <c r="K359" s="61"/>
+      <c r="K359" s="62"/>
     </row>
     <row r="360" spans="1:11">
       <c r="A360" s="3"/>
       <c r="B360" s="3"/>
       <c r="D360" s="3"/>
-      <c r="E360" s="49"/>
+      <c r="E360" s="50"/>
       <c r="F360" s="3"/>
       <c r="G360" s="3"/>
       <c r="H360" s="3"/>
       <c r="I360" s="3"/>
       <c r="J360" s="3"/>
-      <c r="K360" s="61"/>
+      <c r="K360" s="62"/>
     </row>
     <row r="361" spans="1:11">
       <c r="A361" s="3"/>
       <c r="B361" s="3"/>
       <c r="D361" s="3"/>
-      <c r="E361" s="49"/>
+      <c r="E361" s="50"/>
       <c r="F361" s="3"/>
       <c r="G361" s="3"/>
       <c r="H361" s="3"/>
       <c r="I361" s="3"/>
       <c r="J361" s="3"/>
-      <c r="K361" s="61"/>
+      <c r="K361" s="62"/>
     </row>
     <row r="362" spans="1:11">
       <c r="A362" s="3"/>
       <c r="B362" s="3"/>
       <c r="D362" s="3"/>
-      <c r="E362" s="49"/>
+      <c r="E362" s="50"/>
       <c r="F362" s="3"/>
       <c r="G362" s="3"/>
       <c r="H362" s="3"/>
       <c r="I362" s="3"/>
       <c r="J362" s="3"/>
-      <c r="K362" s="61"/>
+      <c r="K362" s="62"/>
     </row>
     <row r="363" spans="1:11">
       <c r="A363" s="3"/>
       <c r="B363" s="3"/>
       <c r="D363" s="3"/>
-      <c r="E363" s="49"/>
+      <c r="E363" s="50"/>
       <c r="F363" s="3"/>
       <c r="G363" s="3"/>
       <c r="H363" s="3"/>
       <c r="I363" s="3"/>
       <c r="J363" s="3"/>
-      <c r="K363" s="61"/>
+      <c r="K363" s="62"/>
     </row>
     <row r="364" spans="1:11">
       <c r="A364" s="3"/>
       <c r="B364" s="3"/>
       <c r="D364" s="3"/>
-      <c r="E364" s="49"/>
+      <c r="E364" s="50"/>
       <c r="F364" s="3"/>
       <c r="G364" s="3"/>
       <c r="H364" s="3"/>
       <c r="I364" s="3"/>
       <c r="J364" s="3"/>
-      <c r="K364" s="61"/>
+      <c r="K364" s="62"/>
     </row>
     <row r="365" spans="1:11">
       <c r="A365" s="3"/>
       <c r="B365" s="3"/>
       <c r="D365" s="3"/>
-      <c r="E365" s="49"/>
+      <c r="E365" s="50"/>
       <c r="F365" s="3"/>
       <c r="G365" s="3"/>
       <c r="H365" s="3"/>
       <c r="I365" s="3"/>
       <c r="J365" s="3"/>
-      <c r="K365" s="61"/>
+      <c r="K365" s="62"/>
     </row>
     <row r="366" spans="1:11">
       <c r="A366" s="3"/>
       <c r="B366" s="3"/>
       <c r="D366" s="3"/>
-      <c r="E366" s="49"/>
+      <c r="E366" s="50"/>
       <c r="F366" s="3"/>
       <c r="G366" s="3"/>
       <c r="H366" s="3"/>
       <c r="I366" s="3"/>
       <c r="J366" s="3"/>
-      <c r="K366" s="61"/>
+      <c r="K366" s="62"/>
     </row>
     <row r="367" spans="1:11">
       <c r="A367" s="3"/>
       <c r="B367" s="3"/>
       <c r="D367" s="3"/>
-      <c r="E367" s="49"/>
+      <c r="E367" s="50"/>
       <c r="F367" s="3"/>
       <c r="G367" s="3"/>
       <c r="H367" s="3"/>
       <c r="I367" s="3"/>
       <c r="J367" s="3"/>
-      <c r="K367" s="61"/>
+      <c r="K367" s="62"/>
     </row>
     <row r="368" spans="1:11">
       <c r="A368" s="3"/>
       <c r="B368" s="3"/>
       <c r="D368" s="3"/>
-      <c r="E368" s="49"/>
+      <c r="E368" s="50"/>
       <c r="F368" s="3"/>
       <c r="G368" s="3"/>
       <c r="H368" s="3"/>
       <c r="I368" s="3"/>
       <c r="J368" s="3"/>
-      <c r="K368" s="61"/>
+      <c r="K368" s="62"/>
     </row>
     <row r="369" spans="1:11">
       <c r="A369" s="3"/>
       <c r="B369" s="3"/>
       <c r="D369" s="3"/>
-      <c r="E369" s="49"/>
+      <c r="E369" s="50"/>
       <c r="F369" s="3"/>
       <c r="G369" s="3"/>
       <c r="H369" s="3"/>
       <c r="I369" s="3"/>
       <c r="J369" s="3"/>
-      <c r="K369" s="61"/>
+      <c r="K369" s="62"/>
     </row>
     <row r="370" spans="1:11">
       <c r="A370" s="3"/>
       <c r="B370" s="3"/>
       <c r="D370" s="3"/>
-      <c r="E370" s="49"/>
+      <c r="E370" s="50"/>
       <c r="F370" s="3"/>
       <c r="G370" s="3"/>
       <c r="H370" s="3"/>
       <c r="I370" s="3"/>
       <c r="J370" s="3"/>
-      <c r="K370" s="61"/>
+      <c r="K370" s="62"/>
     </row>
     <row r="371" spans="1:11">
       <c r="A371" s="3"/>
       <c r="B371" s="3"/>
       <c r="D371" s="3"/>
-      <c r="E371" s="49"/>
+      <c r="E371" s="50"/>
       <c r="F371" s="3"/>
       <c r="G371" s="3"/>
       <c r="H371" s="3"/>
       <c r="I371" s="3"/>
       <c r="J371" s="3"/>
-      <c r="K371" s="61"/>
+      <c r="K371" s="62"/>
     </row>
     <row r="372" spans="1:11">
       <c r="A372" s="3"/>
       <c r="B372" s="3"/>
       <c r="D372" s="3"/>
-      <c r="E372" s="49"/>
+      <c r="E372" s="50"/>
       <c r="F372" s="3"/>
       <c r="G372" s="3"/>
       <c r="H372" s="3"/>
       <c r="I372" s="3"/>
       <c r="J372" s="3"/>
-      <c r="K372" s="61"/>
+      <c r="K372" s="62"/>
     </row>
     <row r="373" spans="1:11">
       <c r="A373" s="3"/>
       <c r="B373" s="3"/>
       <c r="D373" s="3"/>
-      <c r="E373" s="49"/>
+      <c r="E373" s="50"/>
       <c r="F373" s="3"/>
       <c r="G373" s="3"/>
       <c r="H373" s="3"/>
       <c r="I373" s="3"/>
       <c r="J373" s="3"/>
-      <c r="K373" s="61"/>
+      <c r="K373" s="62"/>
     </row>
     <row r="374" spans="1:11">
       <c r="A374" s="3"/>
       <c r="B374" s="3"/>
       <c r="D374" s="3"/>
-      <c r="E374" s="49"/>
+      <c r="E374" s="50"/>
       <c r="F374" s="3"/>
       <c r="G374" s="3"/>
       <c r="H374" s="3"/>
       <c r="I374" s="3"/>
       <c r="J374" s="3"/>
-      <c r="K374" s="61"/>
+      <c r="K374" s="62"/>
     </row>
     <row r="375" spans="1:11">
       <c r="A375" s="3"/>
       <c r="B375" s="3"/>
       <c r="D375" s="3"/>
-      <c r="E375" s="49"/>
+      <c r="E375" s="50"/>
       <c r="F375" s="3"/>
       <c r="G375" s="3"/>
       <c r="H375" s="3"/>
       <c r="I375" s="3"/>
       <c r="J375" s="3"/>
-      <c r="K375" s="61"/>
+      <c r="K375" s="62"/>
     </row>
     <row r="376" spans="1:11">
       <c r="A376" s="3"/>
       <c r="B376" s="3"/>
       <c r="D376" s="3"/>
-      <c r="E376" s="49"/>
+      <c r="E376" s="50"/>
       <c r="F376" s="3"/>
       <c r="G376" s="3"/>
       <c r="H376" s="3"/>
       <c r="I376" s="3"/>
       <c r="J376" s="3"/>
-      <c r="K376" s="61"/>
+      <c r="K376" s="62"/>
     </row>
     <row r="377" spans="1:11">
       <c r="A377" s="3"/>
       <c r="B377" s="3"/>
       <c r="D377" s="3"/>
-      <c r="E377" s="49"/>
+      <c r="E377" s="50"/>
       <c r="F377" s="3"/>
       <c r="G377" s="3"/>
       <c r="H377" s="3"/>
       <c r="I377" s="3"/>
       <c r="J377" s="3"/>
-      <c r="K377" s="61"/>
+      <c r="K377" s="62"/>
     </row>
     <row r="378" spans="1:11">
       <c r="A378" s="3"/>
       <c r="B378" s="3"/>
       <c r="D378" s="3"/>
-      <c r="E378" s="49"/>
+      <c r="E378" s="50"/>
       <c r="F378" s="3"/>
       <c r="G378" s="3"/>
       <c r="H378" s="3"/>
       <c r="I378" s="3"/>
       <c r="J378" s="3"/>
-      <c r="K378" s="61"/>
+      <c r="K378" s="62"/>
     </row>
     <row r="379" spans="1:11">
       <c r="A379" s="3"/>
       <c r="B379" s="3"/>
       <c r="D379" s="3"/>
-      <c r="E379" s="49"/>
+      <c r="E379" s="50"/>
       <c r="F379" s="3"/>
       <c r="G379" s="3"/>
       <c r="H379" s="3"/>
       <c r="I379" s="3"/>
       <c r="J379" s="3"/>
-      <c r="K379" s="61"/>
+      <c r="K379" s="62"/>
     </row>
     <row r="380" spans="1:11">
       <c r="A380" s="3"/>
       <c r="B380" s="3"/>
       <c r="D380" s="3"/>
-      <c r="E380" s="49"/>
+      <c r="E380" s="50"/>
       <c r="F380" s="3"/>
       <c r="G380" s="3"/>
       <c r="H380" s="3"/>
       <c r="I380" s="3"/>
       <c r="J380" s="3"/>
-      <c r="K380" s="61"/>
+      <c r="K380" s="62"/>
     </row>
     <row r="381" spans="1:11">
       <c r="A381" s="3"/>
       <c r="B381" s="3"/>
       <c r="D381" s="3"/>
-      <c r="E381" s="49"/>
+      <c r="E381" s="50"/>
       <c r="F381" s="3"/>
       <c r="G381" s="3"/>
       <c r="H381" s="3"/>
       <c r="I381" s="3"/>
       <c r="J381" s="3"/>
-      <c r="K381" s="61"/>
+      <c r="K381" s="62"/>
     </row>
     <row r="382" spans="1:11">
       <c r="A382" s="3"/>
       <c r="B382" s="3"/>
       <c r="D382" s="3"/>
-      <c r="E382" s="49"/>
+      <c r="E382" s="50"/>
       <c r="F382" s="3"/>
       <c r="G382" s="3"/>
       <c r="H382" s="3"/>
       <c r="I382" s="3"/>
       <c r="J382" s="3"/>
-      <c r="K382" s="61"/>
+      <c r="K382" s="62"/>
     </row>
     <row r="383" spans="1:11">
       <c r="A383" s="3"/>
       <c r="B383" s="3"/>
       <c r="D383" s="3"/>
-      <c r="E383" s="49"/>
+      <c r="E383" s="50"/>
       <c r="F383" s="3"/>
       <c r="G383" s="3"/>
       <c r="H383" s="3"/>
       <c r="I383" s="3"/>
       <c r="J383" s="3"/>
-      <c r="K383" s="61"/>
+      <c r="K383" s="62"/>
     </row>
     <row r="384" spans="1:11">
       <c r="A384" s="3"/>
       <c r="B384" s="3"/>
       <c r="D384" s="3"/>
-      <c r="E384" s="49"/>
+      <c r="E384" s="50"/>
       <c r="F384" s="3"/>
       <c r="G384" s="3"/>
       <c r="H384" s="3"/>
       <c r="I384" s="3"/>
       <c r="J384" s="3"/>
-      <c r="K384" s="61"/>
+      <c r="K384" s="62"/>
     </row>
     <row r="385" spans="1:11">
       <c r="A385" s="3"/>
       <c r="B385" s="3"/>
       <c r="D385" s="3"/>
-      <c r="E385" s="49"/>
+      <c r="E385" s="50"/>
       <c r="F385" s="3"/>
       <c r="G385" s="3"/>
       <c r="H385" s="3"/>
       <c r="I385" s="3"/>
       <c r="J385" s="3"/>
-      <c r="K385" s="61"/>
+      <c r="K385" s="62"/>
     </row>
     <row r="386" spans="1:11">
       <c r="A386" s="3"/>
       <c r="B386" s="3"/>
       <c r="D386" s="3"/>
-      <c r="E386" s="49"/>
+      <c r="E386" s="50"/>
       <c r="F386" s="3"/>
       <c r="G386" s="3"/>
       <c r="H386" s="3"/>
       <c r="I386" s="3"/>
       <c r="J386" s="3"/>
-      <c r="K386" s="61"/>
+      <c r="K386" s="62"/>
     </row>
     <row r="387" spans="1:11">
       <c r="A387" s="3"/>
       <c r="B387" s="3"/>
       <c r="D387" s="3"/>
-      <c r="E387" s="49"/>
+      <c r="E387" s="50"/>
       <c r="F387" s="3"/>
       <c r="G387" s="3"/>
       <c r="H387" s="3"/>
       <c r="I387" s="3"/>
       <c r="J387" s="3"/>
-      <c r="K387" s="61"/>
+      <c r="K387" s="62"/>
     </row>
     <row r="388" spans="1:11">
       <c r="A388" s="3"/>
       <c r="B388" s="3"/>
       <c r="D388" s="3"/>
-      <c r="E388" s="49"/>
+      <c r="E388" s="50"/>
       <c r="F388" s="3"/>
       <c r="G388" s="3"/>
       <c r="H388" s="3"/>
       <c r="I388" s="3"/>
       <c r="J388" s="3"/>
-      <c r="K388" s="61"/>
+      <c r="K388" s="62"/>
     </row>
     <row r="389" spans="1:11">
       <c r="A389" s="3"/>
       <c r="B389" s="3"/>
       <c r="D389" s="3"/>
-      <c r="E389" s="49"/>
+      <c r="E389" s="50"/>
       <c r="F389" s="3"/>
       <c r="G389" s="3"/>
       <c r="H389" s="3"/>
       <c r="I389" s="3"/>
       <c r="J389" s="3"/>
-      <c r="K389" s="61"/>
+      <c r="K389" s="62"/>
     </row>
     <row r="390" spans="1:11">
       <c r="A390" s="3"/>
       <c r="B390" s="3"/>
       <c r="D390" s="3"/>
-      <c r="E390" s="49"/>
+      <c r="E390" s="50"/>
       <c r="F390" s="3"/>
       <c r="G390" s="3"/>
       <c r="H390" s="3"/>
       <c r="I390" s="3"/>
       <c r="J390" s="3"/>
-      <c r="K390" s="61"/>
+      <c r="K390" s="62"/>
     </row>
     <row r="391" spans="1:11">
       <c r="A391" s="3"/>
       <c r="B391" s="3"/>
       <c r="D391" s="3"/>
-      <c r="E391" s="49"/>
+      <c r="E391" s="50"/>
       <c r="F391" s="3"/>
       <c r="G391" s="3"/>
       <c r="H391" s="3"/>
       <c r="I391" s="3"/>
       <c r="J391" s="3"/>
-      <c r="K391" s="61"/>
+      <c r="K391" s="62"/>
     </row>
     <row r="392" spans="1:11">
       <c r="A392" s="3"/>
       <c r="B392" s="3"/>
       <c r="D392" s="3"/>
-      <c r="E392" s="49"/>
+      <c r="E392" s="50"/>
       <c r="F392" s="3"/>
       <c r="G392" s="3"/>
       <c r="H392" s="3"/>
       <c r="I392" s="3"/>
       <c r="J392" s="3"/>
-      <c r="K392" s="61"/>
+      <c r="K392" s="62"/>
     </row>
     <row r="393" spans="1:11">
       <c r="A393" s="3"/>
       <c r="B393" s="3"/>
       <c r="D393" s="3"/>
-      <c r="E393" s="49"/>
+      <c r="E393" s="50"/>
       <c r="F393" s="3"/>
       <c r="G393" s="3"/>
       <c r="H393" s="3"/>
       <c r="I393" s="3"/>
       <c r="J393" s="3"/>
-      <c r="K393" s="61"/>
+      <c r="K393" s="62"/>
     </row>
     <row r="394" spans="1:11">
       <c r="A394" s="3"/>
       <c r="B394" s="3"/>
       <c r="D394" s="3"/>
-      <c r="E394" s="49"/>
+      <c r="E394" s="50"/>
       <c r="F394" s="3"/>
       <c r="G394" s="3"/>
       <c r="H394" s="3"/>
       <c r="I394" s="3"/>
       <c r="J394" s="3"/>
-      <c r="K394" s="61"/>
+      <c r="K394" s="62"/>
     </row>
     <row r="395" spans="1:11">
       <c r="A395" s="3"/>
       <c r="B395" s="3"/>
       <c r="D395" s="3"/>
-      <c r="E395" s="49"/>
+      <c r="E395" s="50"/>
       <c r="F395" s="3"/>
       <c r="G395" s="3"/>
       <c r="H395" s="3"/>
       <c r="I395" s="3"/>
       <c r="J395" s="3"/>
-      <c r="K395" s="61"/>
+      <c r="K395" s="62"/>
     </row>
     <row r="396" spans="1:11">
       <c r="A396" s="3"/>
       <c r="B396" s="3"/>
       <c r="D396" s="3"/>
-      <c r="E396" s="49"/>
+      <c r="E396" s="50"/>
       <c r="F396" s="3"/>
       <c r="G396" s="3"/>
       <c r="H396" s="3"/>
       <c r="I396" s="3"/>
       <c r="J396" s="3"/>
-      <c r="K396" s="61"/>
+      <c r="K396" s="62"/>
     </row>
     <row r="397" spans="1:11">
       <c r="A397" s="3"/>
       <c r="B397" s="3"/>
       <c r="D397" s="3"/>
-      <c r="E397" s="49"/>
+      <c r="E397" s="50"/>
       <c r="F397" s="3"/>
       <c r="G397" s="3"/>
       <c r="H397" s="3"/>
       <c r="I397" s="3"/>
       <c r="J397" s="3"/>
-      <c r="K397" s="61"/>
+      <c r="K397" s="62"/>
     </row>
     <row r="398" spans="1:11">
       <c r="A398" s="3"/>
       <c r="B398" s="3"/>
       <c r="D398" s="3"/>
-      <c r="E398" s="49"/>
+      <c r="E398" s="50"/>
       <c r="F398" s="3"/>
       <c r="G398" s="3"/>
       <c r="H398" s="3"/>
       <c r="I398" s="3"/>
       <c r="J398" s="3"/>
-      <c r="K398" s="61"/>
+      <c r="K398" s="62"/>
     </row>
     <row r="399" spans="1:11">
       <c r="A399" s="3"/>
       <c r="B399" s="3"/>
       <c r="D399" s="3"/>
-      <c r="E399" s="49"/>
+      <c r="E399" s="50"/>
       <c r="F399" s="3"/>
       <c r="G399" s="3"/>
       <c r="H399" s="3"/>
       <c r="I399" s="3"/>
       <c r="J399" s="3"/>
-      <c r="K399" s="61"/>
+      <c r="K399" s="62"/>
     </row>
     <row r="400" spans="1:11">
       <c r="A400" s="3"/>
       <c r="B400" s="3"/>
       <c r="D400" s="3"/>
-      <c r="E400" s="49"/>
+      <c r="E400" s="50"/>
       <c r="F400" s="3"/>
       <c r="G400" s="3"/>
       <c r="H400" s="3"/>
       <c r="I400" s="3"/>
       <c r="J400" s="3"/>
-      <c r="K400" s="61"/>
+      <c r="K400" s="62"/>
     </row>
     <row r="401" spans="1:11">
       <c r="A401" s="3"/>
       <c r="B401" s="3"/>
       <c r="D401" s="3"/>
-      <c r="E401" s="49"/>
+      <c r="E401" s="50"/>
       <c r="F401" s="3"/>
       <c r="G401" s="3"/>
       <c r="H401" s="3"/>
       <c r="I401" s="3"/>
       <c r="J401" s="3"/>
-      <c r="K401" s="61"/>
+      <c r="K401" s="62"/>
     </row>
     <row r="402" spans="1:11">
       <c r="A402" s="3"/>
       <c r="B402" s="3"/>
       <c r="D402" s="3"/>
-      <c r="E402" s="49"/>
+      <c r="E402" s="50"/>
       <c r="F402" s="3"/>
       <c r="G402" s="3"/>
       <c r="H402" s="3"/>
       <c r="I402" s="3"/>
       <c r="J402" s="3"/>
-      <c r="K402" s="61"/>
+      <c r="K402" s="62"/>
     </row>
     <row r="403" spans="1:11">
       <c r="A403" s="3"/>
       <c r="B403" s="3"/>
       <c r="D403" s="3"/>
-      <c r="E403" s="49"/>
+      <c r="E403" s="50"/>
       <c r="F403" s="3"/>
       <c r="G403" s="3"/>
       <c r="H403" s="3"/>
       <c r="I403" s="3"/>
       <c r="J403" s="3"/>
-      <c r="K403" s="61"/>
+      <c r="K403" s="62"/>
     </row>
     <row r="404" spans="1:11">
       <c r="A404" s="3"/>
       <c r="B404" s="3"/>
       <c r="D404" s="3"/>
-      <c r="E404" s="49"/>
+      <c r="E404" s="50"/>
       <c r="F404" s="3"/>
       <c r="G404" s="3"/>
       <c r="H404" s="3"/>
       <c r="I404" s="3"/>
       <c r="J404" s="3"/>
-      <c r="K404" s="61"/>
+      <c r="K404" s="62"/>
     </row>
     <row r="405" spans="1:11">
       <c r="A405" s="3"/>
       <c r="B405" s="3"/>
       <c r="D405" s="3"/>
-      <c r="E405" s="49"/>
+      <c r="E405" s="50"/>
       <c r="F405" s="3"/>
       <c r="G405" s="3"/>
       <c r="H405" s="3"/>
       <c r="I405" s="3"/>
       <c r="J405" s="3"/>
-      <c r="K405" s="61"/>
+      <c r="K405" s="62"/>
     </row>
     <row r="406" spans="1:11">
       <c r="A406" s="3"/>
       <c r="B406" s="3"/>
       <c r="D406" s="3"/>
-      <c r="E406" s="49"/>
+      <c r="E406" s="50"/>
       <c r="F406" s="3"/>
       <c r="G406" s="3"/>
       <c r="H406" s="3"/>
       <c r="I406" s="3"/>
       <c r="J406" s="3"/>
-      <c r="K406" s="61"/>
+      <c r="K406" s="62"/>
     </row>
     <row r="407" spans="1:11">
       <c r="A407" s="3"/>
       <c r="B407" s="3"/>
       <c r="D407" s="3"/>
-      <c r="E407" s="49"/>
+      <c r="E407" s="50"/>
       <c r="F407" s="3"/>
       <c r="G407" s="3"/>
       <c r="H407" s="3"/>
       <c r="I407" s="3"/>
       <c r="J407" s="3"/>
-      <c r="K407" s="61"/>
+      <c r="K407" s="62"/>
     </row>
     <row r="408" spans="1:11">
       <c r="A408" s="3"/>
       <c r="B408" s="3"/>
       <c r="D408" s="3"/>
-      <c r="E408" s="49"/>
+      <c r="E408" s="50"/>
       <c r="F408" s="3"/>
       <c r="G408" s="3"/>
       <c r="H408" s="3"/>
       <c r="I408" s="3"/>
       <c r="J408" s="3"/>
-      <c r="K408" s="61"/>
+      <c r="K408" s="62"/>
     </row>
     <row r="409" spans="1:11">
       <c r="A409" s="3"/>
       <c r="B409" s="3"/>
       <c r="D409" s="3"/>
-      <c r="E409" s="49"/>
+      <c r="E409" s="50"/>
       <c r="F409" s="3"/>
       <c r="G409" s="3"/>
       <c r="H409" s="3"/>
       <c r="I409" s="3"/>
       <c r="J409" s="3"/>
-      <c r="K409" s="61"/>
+      <c r="K409" s="62"/>
     </row>
     <row r="410" spans="1:11">
       <c r="A410" s="3"/>
       <c r="B410" s="3"/>
       <c r="D410" s="3"/>
-      <c r="E410" s="49"/>
+      <c r="E410" s="50"/>
       <c r="F410" s="3"/>
       <c r="G410" s="3"/>
       <c r="H410" s="3"/>
       <c r="I410" s="3"/>
       <c r="J410" s="3"/>
-      <c r="K410" s="61"/>
+      <c r="K410" s="62"/>
     </row>
     <row r="411" spans="1:11">
       <c r="A411" s="3"/>
       <c r="B411" s="3"/>
       <c r="D411" s="3"/>
-      <c r="E411" s="49"/>
+      <c r="E411" s="50"/>
       <c r="F411" s="3"/>
       <c r="G411" s="3"/>
       <c r="H411" s="3"/>
       <c r="I411" s="3"/>
       <c r="J411" s="3"/>
-      <c r="K411" s="61"/>
+      <c r="K411" s="62"/>
     </row>
     <row r="412" spans="1:11">
       <c r="A412" s="3"/>
       <c r="B412" s="3"/>
       <c r="D412" s="3"/>
-      <c r="E412" s="49"/>
+      <c r="E412" s="50"/>
       <c r="F412" s="3"/>
       <c r="G412" s="3"/>
       <c r="H412" s="3"/>
       <c r="I412" s="3"/>
       <c r="J412" s="3"/>
-      <c r="K412" s="61"/>
+      <c r="K412" s="62"/>
     </row>
     <row r="413" spans="1:11">
       <c r="A413" s="3"/>
       <c r="B413" s="3"/>
       <c r="D413" s="3"/>
-      <c r="E413" s="49"/>
+      <c r="E413" s="50"/>
       <c r="F413" s="3"/>
       <c r="G413" s="3"/>
       <c r="H413" s="3"/>
       <c r="I413" s="3"/>
       <c r="J413" s="3"/>
-      <c r="K413" s="61"/>
+      <c r="K413" s="62"/>
     </row>
     <row r="414" spans="1:11">
       <c r="A414" s="3"/>
       <c r="B414" s="3"/>
       <c r="D414" s="3"/>
-      <c r="E414" s="49"/>
+      <c r="E414" s="50"/>
       <c r="F414" s="3"/>
       <c r="G414" s="3"/>
       <c r="H414" s="3"/>
       <c r="I414" s="3"/>
       <c r="J414" s="3"/>
-      <c r="K414" s="61"/>
+      <c r="K414" s="62"/>
     </row>
     <row r="415" spans="1:11">
       <c r="A415" s="3"/>
       <c r="B415" s="3"/>
       <c r="D415" s="3"/>
-      <c r="E415" s="49"/>
+      <c r="E415" s="50"/>
       <c r="F415" s="3"/>
       <c r="G415" s="3"/>
       <c r="H415" s="3"/>
       <c r="I415" s="3"/>
       <c r="J415" s="3"/>
-      <c r="K415" s="61"/>
+      <c r="K415" s="62"/>
     </row>
     <row r="416" spans="1:11">
       <c r="A416" s="3"/>
       <c r="B416" s="3"/>
       <c r="D416" s="3"/>
-      <c r="E416" s="49"/>
+      <c r="E416" s="50"/>
       <c r="F416" s="3"/>
       <c r="G416" s="3"/>
       <c r="H416" s="3"/>
       <c r="I416" s="3"/>
       <c r="J416" s="3"/>
-      <c r="K416" s="61"/>
+      <c r="K416" s="62"/>
     </row>
     <row r="417" spans="1:11">
       <c r="A417" s="3"/>
       <c r="B417" s="3"/>
       <c r="D417" s="3"/>
-      <c r="E417" s="49"/>
+      <c r="E417" s="50"/>
       <c r="F417" s="3"/>
       <c r="G417" s="3"/>
       <c r="H417" s="3"/>
       <c r="I417" s="3"/>
       <c r="J417" s="3"/>
-      <c r="K417" s="61"/>
+      <c r="K417" s="62"/>
     </row>
     <row r="418" spans="1:11">
       <c r="A418" s="3"/>
       <c r="B418" s="3"/>
       <c r="D418" s="3"/>
-      <c r="E418" s="49"/>
+      <c r="E418" s="50"/>
       <c r="F418" s="3"/>
       <c r="G418" s="3"/>
       <c r="H418" s="3"/>
       <c r="I418" s="3"/>
       <c r="J418" s="3"/>
-      <c r="K418" s="61"/>
+      <c r="K418" s="62"/>
     </row>
     <row r="419" spans="1:11">
       <c r="A419" s="3"/>
       <c r="B419" s="3"/>
       <c r="D419" s="3"/>
-      <c r="E419" s="49"/>
+      <c r="E419" s="50"/>
       <c r="F419" s="3"/>
       <c r="G419" s="3"/>
       <c r="H419" s="3"/>
       <c r="I419" s="3"/>
       <c r="J419" s="3"/>
-      <c r="K419" s="61"/>
+      <c r="K419" s="62"/>
     </row>
     <row r="420" spans="1:11">
       <c r="A420" s="3"/>
       <c r="B420" s="3"/>
       <c r="D420" s="3"/>
-      <c r="E420" s="49"/>
+      <c r="E420" s="50"/>
       <c r="F420" s="3"/>
       <c r="G420" s="3"/>
       <c r="H420" s="3"/>
       <c r="I420" s="3"/>
       <c r="J420" s="3"/>
-      <c r="K420" s="61"/>
+      <c r="K420" s="62"/>
     </row>
     <row r="421" spans="1:11">
       <c r="A421" s="3"/>
       <c r="B421" s="3"/>
       <c r="D421" s="3"/>
-      <c r="E421" s="49"/>
+      <c r="E421" s="50"/>
       <c r="F421" s="3"/>
       <c r="G421" s="3"/>
       <c r="H421" s="3"/>
       <c r="I421" s="3"/>
       <c r="J421" s="3"/>
-      <c r="K421" s="61"/>
+      <c r="K421" s="62"/>
     </row>
     <row r="422" spans="1:11">
       <c r="A422" s="3"/>
       <c r="B422" s="3"/>
       <c r="D422" s="3"/>
-      <c r="E422" s="49"/>
+      <c r="E422" s="50"/>
       <c r="F422" s="3"/>
       <c r="G422" s="3"/>
       <c r="H422" s="3"/>
       <c r="I422" s="3"/>
       <c r="J422" s="3"/>
-      <c r="K422" s="61"/>
+      <c r="K422" s="62"/>
     </row>
     <row r="423" spans="1:11">
       <c r="A423" s="3"/>
       <c r="B423" s="3"/>
       <c r="D423" s="3"/>
-      <c r="E423" s="49"/>
+      <c r="E423" s="50"/>
       <c r="F423" s="3"/>
       <c r="G423" s="3"/>
       <c r="H423" s="3"/>
       <c r="I423" s="3"/>
       <c r="J423" s="3"/>
-      <c r="K423" s="61"/>
+      <c r="K423" s="62"/>
     </row>
     <row r="424" spans="1:11">
       <c r="A424" s="3"/>
       <c r="B424" s="3"/>
       <c r="D424" s="3"/>
-      <c r="E424" s="49"/>
+      <c r="E424" s="50"/>
       <c r="F424" s="3"/>
       <c r="G424" s="3"/>
       <c r="H424" s="3"/>
       <c r="I424" s="3"/>
       <c r="J424" s="3"/>
-      <c r="K424" s="61"/>
+      <c r="K424" s="62"/>
     </row>
     <row r="425" spans="1:11">
       <c r="A425" s="3"/>
       <c r="B425" s="3"/>
       <c r="D425" s="3"/>
-      <c r="E425" s="49"/>
+      <c r="E425" s="50"/>
       <c r="F425" s="3"/>
       <c r="G425" s="3"/>
       <c r="H425" s="3"/>
       <c r="I425" s="3"/>
       <c r="J425" s="3"/>
-      <c r="K425" s="61"/>
+      <c r="K425" s="62"/>
     </row>
     <row r="426" spans="1:11">
       <c r="A426" s="3"/>
       <c r="B426" s="3"/>
       <c r="D426" s="3"/>
-      <c r="E426" s="49"/>
+      <c r="E426" s="50"/>
       <c r="F426" s="3"/>
       <c r="G426" s="3"/>
       <c r="H426" s="3"/>
       <c r="I426" s="3"/>
       <c r="J426" s="3"/>
-      <c r="K426" s="61"/>
+      <c r="K426" s="62"/>
     </row>
     <row r="427" spans="1:11">
       <c r="A427" s="3"/>
       <c r="B427" s="3"/>
       <c r="D427" s="3"/>
-      <c r="E427" s="49"/>
+      <c r="E427" s="50"/>
       <c r="F427" s="3"/>
       <c r="G427" s="3"/>
       <c r="H427" s="3"/>
       <c r="I427" s="3"/>
       <c r="J427" s="3"/>
-      <c r="K427" s="61"/>
+      <c r="K427" s="62"/>
     </row>
     <row r="428" spans="1:11">
       <c r="A428" s="3"/>
       <c r="B428" s="3"/>
       <c r="D428" s="3"/>
-      <c r="E428" s="49"/>
+      <c r="E428" s="50"/>
       <c r="F428" s="3"/>
       <c r="G428" s="3"/>
       <c r="H428" s="3"/>
       <c r="I428" s="3"/>
       <c r="J428" s="3"/>
-      <c r="K428" s="61"/>
+      <c r="K428" s="62"/>
     </row>
     <row r="429" spans="1:11">
       <c r="A429" s="3"/>
       <c r="B429" s="3"/>
       <c r="D429" s="3"/>
-      <c r="E429" s="49"/>
+      <c r="E429" s="50"/>
       <c r="F429" s="3"/>
       <c r="G429" s="3"/>
       <c r="H429" s="3"/>
       <c r="I429" s="3"/>
       <c r="J429" s="3"/>
-      <c r="K429" s="61"/>
+      <c r="K429" s="62"/>
     </row>
     <row r="430" spans="1:11">
       <c r="A430" s="3"/>
       <c r="B430" s="3"/>
       <c r="D430" s="3"/>
-      <c r="E430" s="49"/>
+      <c r="E430" s="50"/>
       <c r="F430" s="3"/>
       <c r="G430" s="3"/>
       <c r="H430" s="3"/>
       <c r="I430" s="3"/>
       <c r="J430" s="3"/>
-      <c r="K430" s="61"/>
+      <c r="K430" s="62"/>
     </row>
     <row r="431" spans="1:11">
       <c r="A431" s="3"/>
       <c r="B431" s="3"/>
       <c r="D431" s="3"/>
-      <c r="E431" s="49"/>
+      <c r="E431" s="50"/>
       <c r="F431" s="3"/>
       <c r="G431" s="3"/>
       <c r="H431" s="3"/>
       <c r="I431" s="3"/>
       <c r="J431" s="3"/>
-      <c r="K431" s="61"/>
+      <c r="K431" s="62"/>
     </row>
     <row r="432" spans="1:11">
       <c r="A432" s="3"/>
       <c r="B432" s="3"/>
       <c r="D432" s="3"/>
-      <c r="E432" s="49"/>
+      <c r="E432" s="50"/>
       <c r="F432" s="3"/>
       <c r="G432" s="3"/>
       <c r="H432" s="3"/>
       <c r="I432" s="3"/>
       <c r="J432" s="3"/>
-      <c r="K432" s="61"/>
+      <c r="K432" s="62"/>
     </row>
     <row r="433" spans="1:11">
       <c r="A433" s="3"/>
       <c r="B433" s="3"/>
       <c r="D433" s="3"/>
-      <c r="E433" s="49"/>
+      <c r="E433" s="50"/>
       <c r="F433" s="3"/>
       <c r="G433" s="3"/>
       <c r="H433" s="3"/>
       <c r="I433" s="3"/>
       <c r="J433" s="3"/>
-      <c r="K433" s="61"/>
+      <c r="K433" s="62"/>
     </row>
     <row r="434" spans="1:11">
       <c r="A434" s="3"/>
       <c r="B434" s="3"/>
       <c r="D434" s="3"/>
-      <c r="E434" s="49"/>
+      <c r="E434" s="50"/>
       <c r="F434" s="3"/>
       <c r="G434" s="3"/>
       <c r="H434" s="3"/>
       <c r="I434" s="3"/>
       <c r="J434" s="3"/>
-      <c r="K434" s="61"/>
+      <c r="K434" s="62"/>
     </row>
     <row r="435" spans="1:11">
       <c r="A435" s="3"/>
       <c r="B435" s="3"/>
       <c r="D435" s="3"/>
-      <c r="E435" s="49"/>
+      <c r="E435" s="50"/>
       <c r="F435" s="3"/>
       <c r="G435" s="3"/>
       <c r="H435" s="3"/>
       <c r="I435" s="3"/>
       <c r="J435" s="3"/>
-      <c r="K435" s="61"/>
+      <c r="K435" s="62"/>
     </row>
     <row r="436" spans="1:11">
       <c r="A436" s="3"/>
       <c r="B436" s="3"/>
       <c r="D436" s="3"/>
-      <c r="E436" s="49"/>
+      <c r="E436" s="50"/>
       <c r="F436" s="3"/>
       <c r="G436" s="3"/>
       <c r="H436" s="3"/>
       <c r="I436" s="3"/>
       <c r="J436" s="3"/>
-      <c r="K436" s="61"/>
+      <c r="K436" s="62"/>
     </row>
     <row r="437" spans="1:11">
       <c r="A437" s="3"/>
       <c r="B437" s="3"/>
       <c r="D437" s="3"/>
-      <c r="E437" s="49"/>
+      <c r="E437" s="50"/>
       <c r="F437" s="3"/>
       <c r="G437" s="3"/>
       <c r="H437" s="3"/>
       <c r="I437" s="3"/>
       <c r="J437" s="3"/>
-      <c r="K437" s="61"/>
+      <c r="K437" s="62"/>
     </row>
     <row r="438" spans="1:11">
       <c r="A438" s="3"/>
       <c r="B438" s="3"/>
       <c r="D438" s="3"/>
-      <c r="E438" s="49"/>
+      <c r="E438" s="50"/>
       <c r="F438" s="3"/>
       <c r="G438" s="3"/>
       <c r="H438" s="3"/>
       <c r="I438" s="3"/>
       <c r="J438" s="3"/>
-      <c r="K438" s="61"/>
+      <c r="K438" s="62"/>
     </row>
     <row r="439" spans="1:11">
       <c r="A439" s="3"/>
       <c r="B439" s="3"/>
       <c r="D439" s="3"/>
-      <c r="E439" s="49"/>
+      <c r="E439" s="50"/>
       <c r="F439" s="3"/>
       <c r="G439" s="3"/>
       <c r="H439" s="3"/>
       <c r="I439" s="3"/>
       <c r="J439" s="3"/>
-      <c r="K439" s="61"/>
+      <c r="K439" s="62"/>
     </row>
     <row r="440" spans="1:11">
       <c r="A440" s="3"/>
       <c r="B440" s="3"/>
       <c r="D440" s="3"/>
-      <c r="E440" s="49"/>
+      <c r="E440" s="50"/>
       <c r="F440" s="3"/>
       <c r="G440" s="3"/>
       <c r="H440" s="3"/>
       <c r="I440" s="3"/>
       <c r="J440" s="3"/>
-      <c r="K440" s="61"/>
+      <c r="K440" s="62"/>
     </row>
     <row r="441" spans="1:11">
       <c r="A441" s="3"/>
       <c r="B441" s="3"/>
       <c r="D441" s="3"/>
-      <c r="E441" s="49"/>
+      <c r="E441" s="50"/>
       <c r="F441" s="3"/>
       <c r="G441" s="3"/>
       <c r="H441" s="3"/>
       <c r="I441" s="3"/>
       <c r="J441" s="3"/>
-      <c r="K441" s="61"/>
+      <c r="K441" s="62"/>
     </row>
     <row r="442" spans="1:11">
       <c r="A442" s="3"/>
       <c r="B442" s="3"/>
       <c r="D442" s="3"/>
-      <c r="E442" s="49"/>
+      <c r="E442" s="50"/>
       <c r="F442" s="3"/>
       <c r="G442" s="3"/>
       <c r="H442" s="3"/>
       <c r="I442" s="3"/>
       <c r="J442" s="3"/>
-      <c r="K442" s="61"/>
+      <c r="K442" s="62"/>
     </row>
     <row r="443" spans="1:11">
       <c r="A443" s="3"/>
       <c r="B443" s="3"/>
       <c r="D443" s="3"/>
-      <c r="E443" s="49"/>
+      <c r="E443" s="50"/>
       <c r="F443" s="3"/>
       <c r="G443" s="3"/>
       <c r="H443" s="3"/>
       <c r="I443" s="3"/>
       <c r="J443" s="3"/>
-      <c r="K443" s="61"/>
+      <c r="K443" s="62"/>
     </row>
     <row r="444" spans="1:11">
       <c r="A444" s="3"/>
       <c r="B444" s="3"/>
       <c r="D444" s="3"/>
-      <c r="E444" s="49"/>
+      <c r="E444" s="50"/>
       <c r="F444" s="3"/>
       <c r="G444" s="3"/>
       <c r="H444" s="3"/>
       <c r="I444" s="3"/>
       <c r="J444" s="3"/>
-      <c r="K444" s="61"/>
+      <c r="K444" s="62"/>
     </row>
     <row r="445" spans="1:11">
       <c r="A445" s="3"/>
       <c r="B445" s="3"/>
       <c r="D445" s="3"/>
-      <c r="E445" s="49"/>
+      <c r="E445" s="50"/>
       <c r="F445" s="3"/>
       <c r="G445" s="3"/>
       <c r="H445" s="3"/>
       <c r="I445" s="3"/>
       <c r="J445" s="3"/>
-      <c r="K445" s="61"/>
+      <c r="K445" s="62"/>
     </row>
     <row r="446" spans="1:11">
       <c r="A446" s="3"/>
       <c r="B446" s="3"/>
       <c r="D446" s="3"/>
-      <c r="E446" s="49"/>
+      <c r="E446" s="50"/>
       <c r="F446" s="3"/>
       <c r="G446" s="3"/>
       <c r="H446" s="3"/>
       <c r="I446" s="3"/>
       <c r="J446" s="3"/>
-      <c r="K446" s="61"/>
+      <c r="K446" s="62"/>
     </row>
     <row r="447" spans="1:11">
       <c r="A447" s="3"/>
       <c r="B447" s="3"/>
       <c r="D447" s="3"/>
-      <c r="E447" s="49"/>
+      <c r="E447" s="50"/>
       <c r="F447" s="3"/>
       <c r="G447" s="3"/>
       <c r="H447" s="3"/>
       <c r="I447" s="3"/>
       <c r="J447" s="3"/>
-      <c r="K447" s="61"/>
+      <c r="K447" s="62"/>
     </row>
     <row r="448" spans="1:11">
       <c r="A448" s="3"/>
       <c r="B448" s="3"/>
       <c r="D448" s="3"/>
-      <c r="E448" s="49"/>
+      <c r="E448" s="50"/>
       <c r="F448" s="3"/>
       <c r="G448" s="3"/>
       <c r="H448" s="3"/>
       <c r="I448" s="3"/>
       <c r="J448" s="3"/>
-      <c r="K448" s="61"/>
+      <c r="K448" s="62"/>
     </row>
     <row r="449" spans="1:11">
       <c r="A449" s="3"/>
       <c r="B449" s="3"/>
       <c r="D449" s="3"/>
-      <c r="E449" s="49"/>
+      <c r="E449" s="50"/>
       <c r="F449" s="3"/>
       <c r="G449" s="3"/>
       <c r="H449" s="3"/>
       <c r="I449" s="3"/>
       <c r="J449" s="3"/>
-      <c r="K449" s="61"/>
+      <c r="K449" s="62"/>
     </row>
     <row r="450" spans="1:11">
       <c r="A450" s="3"/>
       <c r="B450" s="3"/>
       <c r="D450" s="3"/>
-      <c r="E450" s="49"/>
+      <c r="E450" s="50"/>
       <c r="F450" s="3"/>
       <c r="G450" s="3"/>
       <c r="H450" s="3"/>
       <c r="I450" s="3"/>
       <c r="J450" s="3"/>
-      <c r="K450" s="61"/>
+      <c r="K450" s="62"/>
     </row>
     <row r="451" spans="1:11">
       <c r="A451" s="3"/>
       <c r="B451" s="3"/>
       <c r="D451" s="3"/>
-      <c r="E451" s="49"/>
+      <c r="E451" s="50"/>
       <c r="F451" s="3"/>
       <c r="G451" s="3"/>
       <c r="H451" s="3"/>
       <c r="I451" s="3"/>
       <c r="J451" s="3"/>
-      <c r="K451" s="61"/>
+      <c r="K451" s="62"/>
     </row>
     <row r="452" spans="1:11">
       <c r="A452" s="3"/>
       <c r="B452" s="3"/>
       <c r="D452" s="3"/>
-      <c r="E452" s="49"/>
+      <c r="E452" s="50"/>
       <c r="F452" s="3"/>
       <c r="G452" s="3"/>
       <c r="H452" s="3"/>
       <c r="I452" s="3"/>
       <c r="J452" s="3"/>
-      <c r="K452" s="61"/>
+      <c r="K452" s="62"/>
     </row>
     <row r="453" spans="1:11">
       <c r="A453" s="3"/>
       <c r="B453" s="3"/>
       <c r="D453" s="3"/>
-      <c r="E453" s="49"/>
+      <c r="E453" s="50"/>
       <c r="F453" s="3"/>
       <c r="G453" s="3"/>
       <c r="H453" s="3"/>
       <c r="I453" s="3"/>
       <c r="J453" s="3"/>
-      <c r="K453" s="61"/>
+      <c r="K453" s="62"/>
     </row>
     <row r="454" spans="1:11">
       <c r="A454" s="3"/>
       <c r="B454" s="3"/>
       <c r="D454" s="3"/>
-      <c r="E454" s="49"/>
+      <c r="E454" s="50"/>
       <c r="F454" s="3"/>
       <c r="G454" s="3"/>
       <c r="H454" s="3"/>
       <c r="I454" s="3"/>
       <c r="J454" s="3"/>
-      <c r="K454" s="61"/>
+      <c r="K454" s="62"/>
     </row>
     <row r="455" spans="1:11">
       <c r="A455" s="3"/>
       <c r="B455" s="3"/>
       <c r="D455" s="3"/>
-      <c r="E455" s="49"/>
+      <c r="E455" s="50"/>
       <c r="F455" s="3"/>
       <c r="G455" s="3"/>
       <c r="H455" s="3"/>
       <c r="I455" s="3"/>
       <c r="J455" s="3"/>
-      <c r="K455" s="61"/>
+      <c r="K455" s="62"/>
     </row>
     <row r="456" spans="1:11">
       <c r="A456" s="3"/>
       <c r="B456" s="3"/>
       <c r="D456" s="3"/>
-      <c r="E456" s="49"/>
+      <c r="E456" s="50"/>
       <c r="F456" s="3"/>
       <c r="G456" s="3"/>
       <c r="H456" s="3"/>
       <c r="I456" s="3"/>
       <c r="J456" s="3"/>
-      <c r="K456" s="61"/>
+      <c r="K456" s="62"/>
     </row>
     <row r="457" spans="1:11">
       <c r="A457" s="3"/>
       <c r="B457" s="3"/>
       <c r="D457" s="3"/>
-      <c r="E457" s="49"/>
+      <c r="E457" s="50"/>
       <c r="F457" s="3"/>
       <c r="G457" s="3"/>
       <c r="H457" s="3"/>
       <c r="I457" s="3"/>
       <c r="J457" s="3"/>
-      <c r="K457" s="61"/>
+      <c r="K457" s="62"/>
     </row>
     <row r="458" spans="1:11">
       <c r="A458" s="3"/>
       <c r="B458" s="3"/>
       <c r="D458" s="3"/>
-      <c r="E458" s="49"/>
+      <c r="E458" s="50"/>
       <c r="F458" s="3"/>
       <c r="G458" s="3"/>
       <c r="H458" s="3"/>
       <c r="I458" s="3"/>
       <c r="J458" s="3"/>
-      <c r="K458" s="61"/>
+      <c r="K458" s="62"/>
     </row>
     <row r="459" spans="1:11">
       <c r="A459" s="3"/>
       <c r="B459" s="3"/>
       <c r="D459" s="3"/>
-      <c r="E459" s="49"/>
+      <c r="E459" s="50"/>
       <c r="F459" s="3"/>
       <c r="G459" s="3"/>
       <c r="H459" s="3"/>
       <c r="I459" s="3"/>
       <c r="J459" s="3"/>
-      <c r="K459" s="61"/>
+      <c r="K459" s="62"/>
     </row>
     <row r="460" spans="1:11">
       <c r="A460" s="3"/>
       <c r="B460" s="3"/>
       <c r="D460" s="3"/>
-      <c r="E460" s="49"/>
+      <c r="E460" s="50"/>
       <c r="F460" s="3"/>
       <c r="G460" s="3"/>
       <c r="H460" s="3"/>
       <c r="I460" s="3"/>
       <c r="J460" s="3"/>
-      <c r="K460" s="61"/>
+      <c r="K460" s="62"/>
     </row>
     <row r="461" spans="1:11">
       <c r="A461" s="3"/>
       <c r="B461" s="3"/>
       <c r="D461" s="3"/>
-      <c r="E461" s="49"/>
+      <c r="E461" s="50"/>
       <c r="F461" s="3"/>
       <c r="G461" s="3"/>
       <c r="H461" s="3"/>
       <c r="I461" s="3"/>
       <c r="J461" s="3"/>
-      <c r="K461" s="61"/>
+      <c r="K461" s="62"/>
     </row>
     <row r="462" spans="1:11">
       <c r="A462" s="3"/>
       <c r="B462" s="3"/>
       <c r="D462" s="3"/>
-      <c r="E462" s="49"/>
+      <c r="E462" s="50"/>
       <c r="F462" s="3"/>
       <c r="G462" s="3"/>
       <c r="H462" s="3"/>
       <c r="I462" s="3"/>
       <c r="J462" s="3"/>
-      <c r="K462" s="61"/>
+      <c r="K462" s="62"/>
     </row>
     <row r="463" spans="1:11">
       <c r="A463" s="3"/>
       <c r="B463" s="3"/>
       <c r="D463" s="3"/>
-      <c r="E463" s="49"/>
+      <c r="E463" s="50"/>
       <c r="F463" s="3"/>
       <c r="G463" s="3"/>
       <c r="H463" s="3"/>
       <c r="I463" s="3"/>
       <c r="J463" s="3"/>
-      <c r="K463" s="61"/>
+      <c r="K463" s="62"/>
     </row>
     <row r="464" spans="1:2">
       <c r="A464" s="3"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易计划202112.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易计划202112.xlsx
@@ -2473,11 +2473,11 @@
   <dimension ref="A1:BA542"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="H13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="E11" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A23" sqref="$A23:$XFD23"/>
+      <selection pane="bottomRight" activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.82142857142857" defaultRowHeight="12.4"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易计划202112.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易计划202112.xlsx
@@ -236,6 +236,10 @@
     <t>科力尔</t>
   </si>
   <si>
+    <t>执行失败
+（已错过最佳时机）</t>
+  </si>
+  <si>
     <t>JH_00019</t>
   </si>
   <si>
@@ -254,9 +258,6 @@
     <t>古井贡酒</t>
   </si>
   <si>
-    <t>待执行</t>
-  </si>
-  <si>
     <t>000069</t>
   </si>
 </sst>
@@ -272,7 +273,7 @@
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="41">
+  <fonts count="40">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -395,12 +396,6 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="方正书宋_GBK"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Helvetica Neue Regular"/>
       <charset val="134"/>
     </font>
     <font>
@@ -910,152 +905,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1284,13 +1279,10 @@
     <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" quotePrefix="1">
@@ -2473,11 +2465,11 @@
   <dimension ref="A1:BA542"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="E11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="E15" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G23" sqref="G23"/>
+      <selection pane="bottomRight" activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.82142857142857" defaultRowHeight="12.4"/>
@@ -2543,35 +2535,35 @@
       <c r="R1" s="70"/>
       <c r="S1" s="70"/>
       <c r="T1" s="70"/>
-      <c r="V1" s="78"/>
-      <c r="W1" s="78"/>
-      <c r="X1" s="78"/>
-      <c r="Y1" s="78"/>
-      <c r="Z1" s="78"/>
-      <c r="AA1" s="78"/>
-      <c r="AB1" s="78"/>
-      <c r="AC1" s="78"/>
-      <c r="AE1" s="78"/>
-      <c r="AF1" s="78"/>
-      <c r="AG1" s="78"/>
-      <c r="AH1" s="78"/>
-      <c r="AI1" s="78"/>
-      <c r="AJ1" s="78"/>
-      <c r="AK1" s="78"/>
-      <c r="AM1" s="78"/>
-      <c r="AN1" s="78"/>
-      <c r="AO1" s="78"/>
-      <c r="AP1" s="78"/>
-      <c r="AQ1" s="78"/>
-      <c r="AR1" s="78"/>
-      <c r="AS1" s="78"/>
-      <c r="AU1" s="78"/>
-      <c r="AV1" s="78"/>
-      <c r="AW1" s="78"/>
-      <c r="AX1" s="78"/>
-      <c r="AY1" s="78"/>
-      <c r="AZ1" s="78"/>
-      <c r="BA1" s="78"/>
+      <c r="V1" s="77"/>
+      <c r="W1" s="77"/>
+      <c r="X1" s="77"/>
+      <c r="Y1" s="77"/>
+      <c r="Z1" s="77"/>
+      <c r="AA1" s="77"/>
+      <c r="AB1" s="77"/>
+      <c r="AC1" s="77"/>
+      <c r="AE1" s="77"/>
+      <c r="AF1" s="77"/>
+      <c r="AG1" s="77"/>
+      <c r="AH1" s="77"/>
+      <c r="AI1" s="77"/>
+      <c r="AJ1" s="77"/>
+      <c r="AK1" s="77"/>
+      <c r="AM1" s="77"/>
+      <c r="AN1" s="77"/>
+      <c r="AO1" s="77"/>
+      <c r="AP1" s="77"/>
+      <c r="AQ1" s="77"/>
+      <c r="AR1" s="77"/>
+      <c r="AS1" s="77"/>
+      <c r="AU1" s="77"/>
+      <c r="AV1" s="77"/>
+      <c r="AW1" s="77"/>
+      <c r="AX1" s="77"/>
+      <c r="AY1" s="77"/>
+      <c r="AZ1" s="77"/>
+      <c r="BA1" s="77"/>
     </row>
     <row r="2" ht="23.6" spans="1:53">
       <c r="A2" s="8"/>
@@ -2594,35 +2586,35 @@
       <c r="R2" s="70"/>
       <c r="S2" s="70"/>
       <c r="T2" s="70"/>
-      <c r="V2" s="78"/>
-      <c r="W2" s="78"/>
-      <c r="X2" s="78"/>
-      <c r="Y2" s="78"/>
-      <c r="Z2" s="78"/>
-      <c r="AA2" s="78"/>
-      <c r="AB2" s="78"/>
-      <c r="AC2" s="78"/>
-      <c r="AE2" s="78"/>
-      <c r="AF2" s="78"/>
-      <c r="AG2" s="78"/>
-      <c r="AH2" s="78"/>
-      <c r="AI2" s="78"/>
-      <c r="AJ2" s="78"/>
-      <c r="AK2" s="78"/>
-      <c r="AM2" s="78"/>
-      <c r="AN2" s="78"/>
-      <c r="AO2" s="78"/>
-      <c r="AP2" s="78"/>
-      <c r="AQ2" s="78"/>
-      <c r="AR2" s="78"/>
-      <c r="AS2" s="78"/>
-      <c r="AU2" s="78"/>
-      <c r="AV2" s="78"/>
-      <c r="AW2" s="78"/>
-      <c r="AX2" s="78"/>
-      <c r="AY2" s="78"/>
-      <c r="AZ2" s="78"/>
-      <c r="BA2" s="78"/>
+      <c r="V2" s="77"/>
+      <c r="W2" s="77"/>
+      <c r="X2" s="77"/>
+      <c r="Y2" s="77"/>
+      <c r="Z2" s="77"/>
+      <c r="AA2" s="77"/>
+      <c r="AB2" s="77"/>
+      <c r="AC2" s="77"/>
+      <c r="AE2" s="77"/>
+      <c r="AF2" s="77"/>
+      <c r="AG2" s="77"/>
+      <c r="AH2" s="77"/>
+      <c r="AI2" s="77"/>
+      <c r="AJ2" s="77"/>
+      <c r="AK2" s="77"/>
+      <c r="AM2" s="77"/>
+      <c r="AN2" s="77"/>
+      <c r="AO2" s="77"/>
+      <c r="AP2" s="77"/>
+      <c r="AQ2" s="77"/>
+      <c r="AR2" s="77"/>
+      <c r="AS2" s="77"/>
+      <c r="AU2" s="77"/>
+      <c r="AV2" s="77"/>
+      <c r="AW2" s="77"/>
+      <c r="AX2" s="77"/>
+      <c r="AY2" s="77"/>
+      <c r="AZ2" s="77"/>
+      <c r="BA2" s="77"/>
     </row>
     <row r="3" customFormat="1" ht="23.6" spans="1:53">
       <c r="A3" s="13" t="s">
@@ -2676,35 +2668,35 @@
       <c r="R3" s="70"/>
       <c r="S3" s="70"/>
       <c r="T3" s="70"/>
-      <c r="V3" s="78"/>
-      <c r="W3" s="78"/>
-      <c r="X3" s="78"/>
-      <c r="Y3" s="78"/>
-      <c r="Z3" s="78"/>
-      <c r="AA3" s="78"/>
-      <c r="AB3" s="78"/>
-      <c r="AC3" s="78"/>
-      <c r="AE3" s="78"/>
-      <c r="AF3" s="78"/>
-      <c r="AG3" s="78"/>
-      <c r="AH3" s="78"/>
-      <c r="AI3" s="78"/>
-      <c r="AJ3" s="78"/>
-      <c r="AK3" s="78"/>
-      <c r="AM3" s="78"/>
-      <c r="AN3" s="78"/>
-      <c r="AO3" s="78"/>
-      <c r="AP3" s="78"/>
-      <c r="AQ3" s="78"/>
-      <c r="AR3" s="78"/>
-      <c r="AS3" s="78"/>
-      <c r="AU3" s="78"/>
-      <c r="AV3" s="78"/>
-      <c r="AW3" s="78"/>
-      <c r="AX3" s="78"/>
-      <c r="AY3" s="78"/>
-      <c r="AZ3" s="78"/>
-      <c r="BA3" s="78"/>
+      <c r="V3" s="77"/>
+      <c r="W3" s="77"/>
+      <c r="X3" s="77"/>
+      <c r="Y3" s="77"/>
+      <c r="Z3" s="77"/>
+      <c r="AA3" s="77"/>
+      <c r="AB3" s="77"/>
+      <c r="AC3" s="77"/>
+      <c r="AE3" s="77"/>
+      <c r="AF3" s="77"/>
+      <c r="AG3" s="77"/>
+      <c r="AH3" s="77"/>
+      <c r="AI3" s="77"/>
+      <c r="AJ3" s="77"/>
+      <c r="AK3" s="77"/>
+      <c r="AM3" s="77"/>
+      <c r="AN3" s="77"/>
+      <c r="AO3" s="77"/>
+      <c r="AP3" s="77"/>
+      <c r="AQ3" s="77"/>
+      <c r="AR3" s="77"/>
+      <c r="AS3" s="77"/>
+      <c r="AU3" s="77"/>
+      <c r="AV3" s="77"/>
+      <c r="AW3" s="77"/>
+      <c r="AX3" s="77"/>
+      <c r="AY3" s="77"/>
+      <c r="AZ3" s="77"/>
+      <c r="BA3" s="77"/>
     </row>
     <row r="4" customFormat="1" ht="23.6" spans="1:53">
       <c r="A4" s="13" t="s">
@@ -2758,35 +2750,35 @@
       <c r="R4" s="70"/>
       <c r="S4" s="70"/>
       <c r="T4" s="70"/>
-      <c r="V4" s="78"/>
-      <c r="W4" s="78"/>
-      <c r="X4" s="78"/>
-      <c r="Y4" s="78"/>
-      <c r="Z4" s="78"/>
-      <c r="AA4" s="78"/>
-      <c r="AB4" s="78"/>
-      <c r="AC4" s="78"/>
-      <c r="AE4" s="78"/>
-      <c r="AF4" s="78"/>
-      <c r="AG4" s="78"/>
-      <c r="AH4" s="78"/>
-      <c r="AI4" s="78"/>
-      <c r="AJ4" s="78"/>
-      <c r="AK4" s="78"/>
-      <c r="AM4" s="78"/>
-      <c r="AN4" s="78"/>
-      <c r="AO4" s="78"/>
-      <c r="AP4" s="78"/>
-      <c r="AQ4" s="78"/>
-      <c r="AR4" s="78"/>
-      <c r="AS4" s="78"/>
-      <c r="AU4" s="78"/>
-      <c r="AV4" s="78"/>
-      <c r="AW4" s="78"/>
-      <c r="AX4" s="78"/>
-      <c r="AY4" s="78"/>
-      <c r="AZ4" s="78"/>
-      <c r="BA4" s="78"/>
+      <c r="V4" s="77"/>
+      <c r="W4" s="77"/>
+      <c r="X4" s="77"/>
+      <c r="Y4" s="77"/>
+      <c r="Z4" s="77"/>
+      <c r="AA4" s="77"/>
+      <c r="AB4" s="77"/>
+      <c r="AC4" s="77"/>
+      <c r="AE4" s="77"/>
+      <c r="AF4" s="77"/>
+      <c r="AG4" s="77"/>
+      <c r="AH4" s="77"/>
+      <c r="AI4" s="77"/>
+      <c r="AJ4" s="77"/>
+      <c r="AK4" s="77"/>
+      <c r="AM4" s="77"/>
+      <c r="AN4" s="77"/>
+      <c r="AO4" s="77"/>
+      <c r="AP4" s="77"/>
+      <c r="AQ4" s="77"/>
+      <c r="AR4" s="77"/>
+      <c r="AS4" s="77"/>
+      <c r="AU4" s="77"/>
+      <c r="AV4" s="77"/>
+      <c r="AW4" s="77"/>
+      <c r="AX4" s="77"/>
+      <c r="AY4" s="77"/>
+      <c r="AZ4" s="77"/>
+      <c r="BA4" s="77"/>
     </row>
     <row r="5" s="1" customFormat="1" ht="59" spans="1:14">
       <c r="A5" s="13" t="s">
@@ -3075,7 +3067,7 @@
       <c r="B11" s="17">
         <v>44539</v>
       </c>
-      <c r="C11" s="79" t="s">
+      <c r="C11" s="78" t="s">
         <v>38</v>
       </c>
       <c r="D11" s="24" t="s">
@@ -3212,7 +3204,7 @@
       <c r="B14" s="25">
         <v>44525</v>
       </c>
-      <c r="C14" s="80" t="s">
+      <c r="C14" s="79" t="s">
         <v>46</v>
       </c>
       <c r="D14" s="19" t="s">
@@ -3396,7 +3388,7 @@
       <c r="B18" s="25">
         <v>44533</v>
       </c>
-      <c r="C18" s="80" t="s">
+      <c r="C18" s="79" t="s">
         <v>56</v>
       </c>
       <c r="D18" s="19" t="s">
@@ -3481,7 +3473,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" s="2" customFormat="1" ht="15" spans="1:13">
+    <row r="20" s="2" customFormat="1" ht="29" spans="1:13">
       <c r="A20" s="13" t="s">
         <v>60</v>
       </c>
@@ -3524,12 +3516,12 @@
         <v>0.151821132347638</v>
       </c>
       <c r="M20" s="75" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="21" s="2" customFormat="1" ht="15" spans="1:13">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" s="2" customFormat="1" ht="29" spans="1:13">
       <c r="A21" s="13" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B21" s="28">
         <v>44545</v>
@@ -3538,7 +3530,7 @@
         <v>600821</v>
       </c>
       <c r="D21" s="30" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E21" s="49">
         <v>11.75</v>
@@ -3570,17 +3562,17 @@
         <v>0.237446808510638</v>
       </c>
       <c r="M21" s="75" t="s">
-        <v>28</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" s="2" customFormat="1" ht="15" spans="1:13">
       <c r="A22" s="13" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B22" s="28">
         <v>44546</v>
       </c>
-      <c r="C22" s="81" t="s">
+      <c r="C22" s="80" t="s">
         <v>46</v>
       </c>
       <c r="D22" s="30" t="s">
@@ -3621,16 +3613,16 @@
     </row>
     <row r="23" s="3" customFormat="1" ht="15" spans="1:13">
       <c r="A23" s="13" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B23" s="33">
         <v>44546</v>
       </c>
-      <c r="C23" s="79" t="s">
-        <v>67</v>
+      <c r="C23" s="78" t="s">
+        <v>68</v>
       </c>
       <c r="D23" s="20" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E23" s="51">
         <v>278</v>
@@ -3661,8 +3653,8 @@
         <f>(G23-E23)/E23</f>
         <v>0.0943525179856116</v>
       </c>
-      <c r="M23" s="76" t="s">
-        <v>69</v>
+      <c r="M23" s="75" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="24" s="2" customFormat="1" spans="1:13">
@@ -3708,7 +3700,7 @@
       <c r="J26" s="64"/>
       <c r="K26" s="65"/>
       <c r="L26" s="66"/>
-      <c r="M26" s="77"/>
+      <c r="M26" s="76"/>
     </row>
     <row r="27" spans="1:13">
       <c r="A27" s="38"/>
@@ -3723,7 +3715,7 @@
       <c r="J27" s="38"/>
       <c r="K27" s="65"/>
       <c r="L27" s="67"/>
-      <c r="M27" s="77"/>
+      <c r="M27" s="76"/>
     </row>
     <row r="28" spans="1:13">
       <c r="A28" s="38"/>
@@ -3981,7 +3973,7 @@
       <c r="M44" s="38"/>
     </row>
     <row r="45" ht="13" spans="1:13">
-      <c r="A45" s="82" t="s">
+      <c r="A45" s="81" t="s">
         <v>70</v>
       </c>
       <c r="B45" s="38"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易计划202112.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易计划202112.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73">
   <si>
     <t>计划编码</t>
   </si>
@@ -92,6 +92,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
       <t>执行失败</t>
     </r>
     <r>
@@ -258,6 +264,12 @@
     <t>古井贡酒</t>
   </si>
   <si>
+    <t>JH_00022</t>
+  </si>
+  <si>
+    <t>健民集团</t>
+  </si>
+  <si>
     <t>000069</t>
   </si>
 </sst>
@@ -266,14 +278,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="0.00_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="40">
+  <fonts count="42">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -368,6 +380,18 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FF152122"/>
+      <name val="Helvetica Neue Regular"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF152122"/>
+      <name val="方正书宋_GBK"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Helvetica Neue"/>
@@ -413,14 +437,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -434,8 +465,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -456,11 +496,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -488,39 +551,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -535,14 +567,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -581,19 +605,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -605,37 +653,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -653,7 +683,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -665,13 +695,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -683,13 +737,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -701,7 +749,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -713,55 +779,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -836,6 +860,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -862,36 +916,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -905,94 +929,94 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1001,56 +1025,56 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1066,7 +1090,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1153,99 +1177,105 @@
     <xf numFmtId="14" fontId="14" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="177" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="14" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="176" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="14" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="9" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="9" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="10" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1258,13 +1288,13 @@
     <xf numFmtId="10" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1273,16 +1303,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" quotePrefix="1">
@@ -2469,7 +2499,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="M23" sqref="M23"/>
+      <selection pane="bottomRight" activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.82142857142857" defaultRowHeight="12.4"/>
@@ -2501,7 +2531,7 @@
       <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="40" t="s">
+      <c r="E1" s="42" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="11" t="s">
@@ -2519,102 +2549,102 @@
       <c r="J1" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="57" t="s">
+      <c r="K1" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="58" t="s">
+      <c r="L1" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="69" t="s">
+      <c r="M1" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="70"/>
-      <c r="O1" s="70"/>
-      <c r="P1" s="70"/>
-      <c r="Q1" s="70"/>
-      <c r="R1" s="70"/>
-      <c r="S1" s="70"/>
-      <c r="T1" s="70"/>
-      <c r="V1" s="77"/>
-      <c r="W1" s="77"/>
-      <c r="X1" s="77"/>
-      <c r="Y1" s="77"/>
-      <c r="Z1" s="77"/>
-      <c r="AA1" s="77"/>
-      <c r="AB1" s="77"/>
-      <c r="AC1" s="77"/>
-      <c r="AE1" s="77"/>
-      <c r="AF1" s="77"/>
-      <c r="AG1" s="77"/>
-      <c r="AH1" s="77"/>
-      <c r="AI1" s="77"/>
-      <c r="AJ1" s="77"/>
-      <c r="AK1" s="77"/>
-      <c r="AM1" s="77"/>
-      <c r="AN1" s="77"/>
-      <c r="AO1" s="77"/>
-      <c r="AP1" s="77"/>
-      <c r="AQ1" s="77"/>
-      <c r="AR1" s="77"/>
-      <c r="AS1" s="77"/>
-      <c r="AU1" s="77"/>
-      <c r="AV1" s="77"/>
-      <c r="AW1" s="77"/>
-      <c r="AX1" s="77"/>
-      <c r="AY1" s="77"/>
-      <c r="AZ1" s="77"/>
-      <c r="BA1" s="77"/>
+      <c r="N1" s="72"/>
+      <c r="O1" s="72"/>
+      <c r="P1" s="72"/>
+      <c r="Q1" s="72"/>
+      <c r="R1" s="72"/>
+      <c r="S1" s="72"/>
+      <c r="T1" s="72"/>
+      <c r="V1" s="79"/>
+      <c r="W1" s="79"/>
+      <c r="X1" s="79"/>
+      <c r="Y1" s="79"/>
+      <c r="Z1" s="79"/>
+      <c r="AA1" s="79"/>
+      <c r="AB1" s="79"/>
+      <c r="AC1" s="79"/>
+      <c r="AE1" s="79"/>
+      <c r="AF1" s="79"/>
+      <c r="AG1" s="79"/>
+      <c r="AH1" s="79"/>
+      <c r="AI1" s="79"/>
+      <c r="AJ1" s="79"/>
+      <c r="AK1" s="79"/>
+      <c r="AM1" s="79"/>
+      <c r="AN1" s="79"/>
+      <c r="AO1" s="79"/>
+      <c r="AP1" s="79"/>
+      <c r="AQ1" s="79"/>
+      <c r="AR1" s="79"/>
+      <c r="AS1" s="79"/>
+      <c r="AU1" s="79"/>
+      <c r="AV1" s="79"/>
+      <c r="AW1" s="79"/>
+      <c r="AX1" s="79"/>
+      <c r="AY1" s="79"/>
+      <c r="AZ1" s="79"/>
+      <c r="BA1" s="79"/>
     </row>
     <row r="2" ht="23.6" spans="1:53">
       <c r="A2" s="8"/>
       <c r="B2" s="9"/>
       <c r="C2" s="10"/>
       <c r="D2" s="12"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
       <c r="H2" s="11"/>
       <c r="I2" s="11"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="57"/>
-      <c r="L2" s="58"/>
-      <c r="M2" s="71"/>
-      <c r="N2" s="70"/>
-      <c r="O2" s="70"/>
-      <c r="P2" s="70"/>
-      <c r="Q2" s="70"/>
-      <c r="R2" s="70"/>
-      <c r="S2" s="70"/>
-      <c r="T2" s="70"/>
-      <c r="V2" s="77"/>
-      <c r="W2" s="77"/>
-      <c r="X2" s="77"/>
-      <c r="Y2" s="77"/>
-      <c r="Z2" s="77"/>
-      <c r="AA2" s="77"/>
-      <c r="AB2" s="77"/>
-      <c r="AC2" s="77"/>
-      <c r="AE2" s="77"/>
-      <c r="AF2" s="77"/>
-      <c r="AG2" s="77"/>
-      <c r="AH2" s="77"/>
-      <c r="AI2" s="77"/>
-      <c r="AJ2" s="77"/>
-      <c r="AK2" s="77"/>
-      <c r="AM2" s="77"/>
-      <c r="AN2" s="77"/>
-      <c r="AO2" s="77"/>
-      <c r="AP2" s="77"/>
-      <c r="AQ2" s="77"/>
-      <c r="AR2" s="77"/>
-      <c r="AS2" s="77"/>
-      <c r="AU2" s="77"/>
-      <c r="AV2" s="77"/>
-      <c r="AW2" s="77"/>
-      <c r="AX2" s="77"/>
-      <c r="AY2" s="77"/>
-      <c r="AZ2" s="77"/>
-      <c r="BA2" s="77"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="73"/>
+      <c r="N2" s="72"/>
+      <c r="O2" s="72"/>
+      <c r="P2" s="72"/>
+      <c r="Q2" s="72"/>
+      <c r="R2" s="72"/>
+      <c r="S2" s="72"/>
+      <c r="T2" s="72"/>
+      <c r="V2" s="79"/>
+      <c r="W2" s="79"/>
+      <c r="X2" s="79"/>
+      <c r="Y2" s="79"/>
+      <c r="Z2" s="79"/>
+      <c r="AA2" s="79"/>
+      <c r="AB2" s="79"/>
+      <c r="AC2" s="79"/>
+      <c r="AE2" s="79"/>
+      <c r="AF2" s="79"/>
+      <c r="AG2" s="79"/>
+      <c r="AH2" s="79"/>
+      <c r="AI2" s="79"/>
+      <c r="AJ2" s="79"/>
+      <c r="AK2" s="79"/>
+      <c r="AM2" s="79"/>
+      <c r="AN2" s="79"/>
+      <c r="AO2" s="79"/>
+      <c r="AP2" s="79"/>
+      <c r="AQ2" s="79"/>
+      <c r="AR2" s="79"/>
+      <c r="AS2" s="79"/>
+      <c r="AU2" s="79"/>
+      <c r="AV2" s="79"/>
+      <c r="AW2" s="79"/>
+      <c r="AX2" s="79"/>
+      <c r="AY2" s="79"/>
+      <c r="AZ2" s="79"/>
+      <c r="BA2" s="79"/>
     </row>
     <row r="3" customFormat="1" ht="23.6" spans="1:53">
       <c r="A3" s="13" t="s">
@@ -2629,74 +2659,74 @@
       <c r="D3" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="43">
+      <c r="E3" s="45">
         <v>34.12</v>
       </c>
-      <c r="F3" s="44">
+      <c r="F3" s="46">
         <v>32.53</v>
       </c>
-      <c r="G3" s="44">
+      <c r="G3" s="46">
         <v>39.33</v>
       </c>
-      <c r="H3" s="44">
-        <f t="shared" ref="H3:H22" si="0">(E3-F3)*100</f>
+      <c r="H3" s="46">
+        <f t="shared" ref="H3:H23" si="0">(E3-F3)*100</f>
         <v>159</v>
       </c>
-      <c r="I3" s="44">
+      <c r="I3" s="46">
         <f>FLOOR(1000/(E3-F3),100)</f>
         <v>600</v>
       </c>
-      <c r="J3" s="59">
+      <c r="J3" s="61">
         <f t="shared" ref="J3:J11" si="1">(G3-E3)/(E3-F3)</f>
         <v>3.27672955974844</v>
       </c>
-      <c r="K3" s="60">
+      <c r="K3" s="62">
         <f t="shared" ref="K3:K14" si="2">(E3-F3)/E3</f>
         <v>0.0466002344665884</v>
       </c>
-      <c r="L3" s="61">
+      <c r="L3" s="63">
         <f t="shared" ref="L3:L11" si="3">(G3-E3)/E3</f>
         <v>0.152696365767878</v>
       </c>
       <c r="M3" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="N3" s="70"/>
-      <c r="O3" s="70"/>
-      <c r="P3" s="70"/>
-      <c r="Q3" s="70"/>
-      <c r="R3" s="70"/>
-      <c r="S3" s="70"/>
-      <c r="T3" s="70"/>
-      <c r="V3" s="77"/>
-      <c r="W3" s="77"/>
-      <c r="X3" s="77"/>
-      <c r="Y3" s="77"/>
-      <c r="Z3" s="77"/>
-      <c r="AA3" s="77"/>
-      <c r="AB3" s="77"/>
-      <c r="AC3" s="77"/>
-      <c r="AE3" s="77"/>
-      <c r="AF3" s="77"/>
-      <c r="AG3" s="77"/>
-      <c r="AH3" s="77"/>
-      <c r="AI3" s="77"/>
-      <c r="AJ3" s="77"/>
-      <c r="AK3" s="77"/>
-      <c r="AM3" s="77"/>
-      <c r="AN3" s="77"/>
-      <c r="AO3" s="77"/>
-      <c r="AP3" s="77"/>
-      <c r="AQ3" s="77"/>
-      <c r="AR3" s="77"/>
-      <c r="AS3" s="77"/>
-      <c r="AU3" s="77"/>
-      <c r="AV3" s="77"/>
-      <c r="AW3" s="77"/>
-      <c r="AX3" s="77"/>
-      <c r="AY3" s="77"/>
-      <c r="AZ3" s="77"/>
-      <c r="BA3" s="77"/>
+      <c r="N3" s="72"/>
+      <c r="O3" s="72"/>
+      <c r="P3" s="72"/>
+      <c r="Q3" s="72"/>
+      <c r="R3" s="72"/>
+      <c r="S3" s="72"/>
+      <c r="T3" s="72"/>
+      <c r="V3" s="79"/>
+      <c r="W3" s="79"/>
+      <c r="X3" s="79"/>
+      <c r="Y3" s="79"/>
+      <c r="Z3" s="79"/>
+      <c r="AA3" s="79"/>
+      <c r="AB3" s="79"/>
+      <c r="AC3" s="79"/>
+      <c r="AE3" s="79"/>
+      <c r="AF3" s="79"/>
+      <c r="AG3" s="79"/>
+      <c r="AH3" s="79"/>
+      <c r="AI3" s="79"/>
+      <c r="AJ3" s="79"/>
+      <c r="AK3" s="79"/>
+      <c r="AM3" s="79"/>
+      <c r="AN3" s="79"/>
+      <c r="AO3" s="79"/>
+      <c r="AP3" s="79"/>
+      <c r="AQ3" s="79"/>
+      <c r="AR3" s="79"/>
+      <c r="AS3" s="79"/>
+      <c r="AU3" s="79"/>
+      <c r="AV3" s="79"/>
+      <c r="AW3" s="79"/>
+      <c r="AX3" s="79"/>
+      <c r="AY3" s="79"/>
+      <c r="AZ3" s="79"/>
+      <c r="BA3" s="79"/>
     </row>
     <row r="4" customFormat="1" ht="23.6" spans="1:53">
       <c r="A4" s="13" t="s">
@@ -2711,74 +2741,74 @@
       <c r="D4" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="43">
+      <c r="E4" s="45">
         <v>32.65</v>
       </c>
-      <c r="F4" s="44">
+      <c r="F4" s="46">
         <v>30.89</v>
       </c>
-      <c r="G4" s="44">
+      <c r="G4" s="46">
         <v>36.22</v>
       </c>
-      <c r="H4" s="44">
+      <c r="H4" s="46">
         <f t="shared" si="0"/>
         <v>176</v>
       </c>
-      <c r="I4" s="44">
+      <c r="I4" s="46">
         <f>FLOOR(1000/(E4-F4),100)</f>
         <v>500</v>
       </c>
-      <c r="J4" s="59">
+      <c r="J4" s="61">
         <f t="shared" si="1"/>
         <v>2.02840909090909</v>
       </c>
-      <c r="K4" s="60">
+      <c r="K4" s="62">
         <f t="shared" si="2"/>
         <v>0.0539050535987748</v>
       </c>
-      <c r="L4" s="61">
+      <c r="L4" s="63">
         <f t="shared" si="3"/>
         <v>0.109341500765697</v>
       </c>
       <c r="M4" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="N4" s="70"/>
-      <c r="O4" s="70"/>
-      <c r="P4" s="70"/>
-      <c r="Q4" s="70"/>
-      <c r="R4" s="70"/>
-      <c r="S4" s="70"/>
-      <c r="T4" s="70"/>
-      <c r="V4" s="77"/>
-      <c r="W4" s="77"/>
-      <c r="X4" s="77"/>
-      <c r="Y4" s="77"/>
-      <c r="Z4" s="77"/>
-      <c r="AA4" s="77"/>
-      <c r="AB4" s="77"/>
-      <c r="AC4" s="77"/>
-      <c r="AE4" s="77"/>
-      <c r="AF4" s="77"/>
-      <c r="AG4" s="77"/>
-      <c r="AH4" s="77"/>
-      <c r="AI4" s="77"/>
-      <c r="AJ4" s="77"/>
-      <c r="AK4" s="77"/>
-      <c r="AM4" s="77"/>
-      <c r="AN4" s="77"/>
-      <c r="AO4" s="77"/>
-      <c r="AP4" s="77"/>
-      <c r="AQ4" s="77"/>
-      <c r="AR4" s="77"/>
-      <c r="AS4" s="77"/>
-      <c r="AU4" s="77"/>
-      <c r="AV4" s="77"/>
-      <c r="AW4" s="77"/>
-      <c r="AX4" s="77"/>
-      <c r="AY4" s="77"/>
-      <c r="AZ4" s="77"/>
-      <c r="BA4" s="77"/>
+      <c r="N4" s="72"/>
+      <c r="O4" s="72"/>
+      <c r="P4" s="72"/>
+      <c r="Q4" s="72"/>
+      <c r="R4" s="72"/>
+      <c r="S4" s="72"/>
+      <c r="T4" s="72"/>
+      <c r="V4" s="79"/>
+      <c r="W4" s="79"/>
+      <c r="X4" s="79"/>
+      <c r="Y4" s="79"/>
+      <c r="Z4" s="79"/>
+      <c r="AA4" s="79"/>
+      <c r="AB4" s="79"/>
+      <c r="AC4" s="79"/>
+      <c r="AE4" s="79"/>
+      <c r="AF4" s="79"/>
+      <c r="AG4" s="79"/>
+      <c r="AH4" s="79"/>
+      <c r="AI4" s="79"/>
+      <c r="AJ4" s="79"/>
+      <c r="AK4" s="79"/>
+      <c r="AM4" s="79"/>
+      <c r="AN4" s="79"/>
+      <c r="AO4" s="79"/>
+      <c r="AP4" s="79"/>
+      <c r="AQ4" s="79"/>
+      <c r="AR4" s="79"/>
+      <c r="AS4" s="79"/>
+      <c r="AU4" s="79"/>
+      <c r="AV4" s="79"/>
+      <c r="AW4" s="79"/>
+      <c r="AX4" s="79"/>
+      <c r="AY4" s="79"/>
+      <c r="AZ4" s="79"/>
+      <c r="BA4" s="79"/>
     </row>
     <row r="5" s="1" customFormat="1" ht="59" spans="1:14">
       <c r="A5" s="13" t="s">
@@ -2793,39 +2823,39 @@
       <c r="D5" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="43">
+      <c r="E5" s="45">
         <v>51.15</v>
       </c>
-      <c r="F5" s="44">
+      <c r="F5" s="46">
         <v>46.61</v>
       </c>
-      <c r="G5" s="44">
+      <c r="G5" s="46">
         <v>59.59</v>
       </c>
-      <c r="H5" s="44">
+      <c r="H5" s="46">
         <f t="shared" si="0"/>
         <v>454</v>
       </c>
-      <c r="I5" s="44">
-        <f t="shared" ref="I5:I22" si="4">FLOOR(1000/(E5-F5),100)</f>
+      <c r="I5" s="46">
+        <f t="shared" ref="I5:I23" si="4">FLOOR(1000/(E5-F5),100)</f>
         <v>200</v>
       </c>
-      <c r="J5" s="59">
+      <c r="J5" s="61">
         <f t="shared" si="1"/>
         <v>1.85903083700441</v>
       </c>
-      <c r="K5" s="60">
+      <c r="K5" s="62">
         <f t="shared" si="2"/>
         <v>0.0887585532746823</v>
       </c>
-      <c r="L5" s="61">
+      <c r="L5" s="63">
         <f t="shared" si="3"/>
         <v>0.165004887585533</v>
       </c>
-      <c r="M5" s="72" t="s">
+      <c r="M5" s="74" t="s">
         <v>25</v>
       </c>
-      <c r="N5" s="73"/>
+      <c r="N5" s="75"/>
     </row>
     <row r="6" s="1" customFormat="1" ht="15" spans="1:14">
       <c r="A6" s="13" t="s">
@@ -2840,39 +2870,39 @@
       <c r="D6" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="45">
+      <c r="E6" s="47">
         <v>143.8</v>
       </c>
-      <c r="F6" s="46">
+      <c r="F6" s="48">
         <v>137.88</v>
       </c>
-      <c r="G6" s="46">
+      <c r="G6" s="48">
         <v>158.48</v>
       </c>
-      <c r="H6" s="44">
+      <c r="H6" s="46">
         <f t="shared" si="0"/>
         <v>592.000000000002</v>
       </c>
-      <c r="I6" s="44">
+      <c r="I6" s="46">
         <f t="shared" si="4"/>
         <v>100</v>
       </c>
-      <c r="J6" s="59">
+      <c r="J6" s="61">
         <f t="shared" si="1"/>
         <v>2.47972972972972</v>
       </c>
-      <c r="K6" s="60">
+      <c r="K6" s="62">
         <f t="shared" si="2"/>
         <v>0.0411682892906816</v>
       </c>
-      <c r="L6" s="61">
+      <c r="L6" s="63">
         <f t="shared" si="3"/>
         <v>0.102086230876217</v>
       </c>
       <c r="M6" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="N6" s="73"/>
+      <c r="N6" s="75"/>
     </row>
     <row r="7" s="1" customFormat="1" ht="59" spans="1:14">
       <c r="A7" s="13" t="s">
@@ -2887,39 +2917,39 @@
       <c r="D7" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="45">
+      <c r="E7" s="47">
         <v>20.44</v>
       </c>
-      <c r="F7" s="46">
+      <c r="F7" s="48">
         <v>19.09</v>
       </c>
-      <c r="G7" s="46">
+      <c r="G7" s="48">
         <v>23.43</v>
       </c>
-      <c r="H7" s="44">
+      <c r="H7" s="46">
         <f t="shared" si="0"/>
         <v>135</v>
       </c>
-      <c r="I7" s="44">
+      <c r="I7" s="46">
         <f t="shared" si="4"/>
         <v>700</v>
       </c>
-      <c r="J7" s="59">
+      <c r="J7" s="61">
         <f t="shared" si="1"/>
         <v>2.21481481481481</v>
       </c>
-      <c r="K7" s="60">
+      <c r="K7" s="62">
         <f t="shared" si="2"/>
         <v>0.0660469667318983</v>
       </c>
-      <c r="L7" s="61">
+      <c r="L7" s="63">
         <f t="shared" si="3"/>
         <v>0.146281800391389</v>
       </c>
-      <c r="M7" s="72" t="s">
+      <c r="M7" s="74" t="s">
         <v>25</v>
       </c>
-      <c r="N7" s="73"/>
+      <c r="N7" s="75"/>
     </row>
     <row r="8" s="1" customFormat="1" ht="15" spans="1:14">
       <c r="A8" s="13" t="s">
@@ -2934,7 +2964,7 @@
       <c r="D8" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="43">
+      <c r="E8" s="45">
         <v>17.19</v>
       </c>
       <c r="F8" s="13">
@@ -2943,30 +2973,30 @@
       <c r="G8" s="13">
         <v>20.72</v>
       </c>
-      <c r="H8" s="44">
+      <c r="H8" s="46">
         <f t="shared" si="0"/>
         <v>169</v>
       </c>
-      <c r="I8" s="44">
+      <c r="I8" s="46">
         <f t="shared" si="4"/>
         <v>500</v>
       </c>
-      <c r="J8" s="59">
+      <c r="J8" s="61">
         <f t="shared" si="1"/>
         <v>2.0887573964497</v>
       </c>
-      <c r="K8" s="60">
+      <c r="K8" s="62">
         <f t="shared" si="2"/>
         <v>0.0983129726585225</v>
       </c>
-      <c r="L8" s="61">
+      <c r="L8" s="63">
         <f t="shared" si="3"/>
         <v>0.205351948807446</v>
       </c>
       <c r="M8" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="N8" s="73"/>
+      <c r="N8" s="75"/>
     </row>
     <row r="9" s="2" customFormat="1" ht="15" spans="1:13">
       <c r="A9" s="13" t="s">
@@ -2981,7 +3011,7 @@
       <c r="D9" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="43">
+      <c r="E9" s="45">
         <v>64.3</v>
       </c>
       <c r="F9" s="13">
@@ -2990,23 +3020,23 @@
       <c r="G9" s="13">
         <v>65.72</v>
       </c>
-      <c r="H9" s="44">
+      <c r="H9" s="46">
         <f t="shared" si="0"/>
         <v>579</v>
       </c>
-      <c r="I9" s="44">
+      <c r="I9" s="46">
         <f t="shared" si="4"/>
         <v>100</v>
       </c>
-      <c r="J9" s="59">
+      <c r="J9" s="61">
         <f t="shared" si="1"/>
         <v>0.24525043177893</v>
       </c>
-      <c r="K9" s="60">
+      <c r="K9" s="62">
         <f t="shared" si="2"/>
         <v>0.0900466562986003</v>
       </c>
-      <c r="L9" s="61">
+      <c r="L9" s="63">
         <f t="shared" si="3"/>
         <v>0.0220839813374806</v>
       </c>
@@ -3027,7 +3057,7 @@
       <c r="D10" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="E10" s="43">
+      <c r="E10" s="45">
         <v>39.15</v>
       </c>
       <c r="F10" s="13">
@@ -3036,23 +3066,23 @@
       <c r="G10" s="13">
         <v>44.28</v>
       </c>
-      <c r="H10" s="44">
+      <c r="H10" s="46">
         <f t="shared" si="0"/>
         <v>324</v>
       </c>
-      <c r="I10" s="44">
+      <c r="I10" s="46">
         <f t="shared" si="4"/>
         <v>300</v>
       </c>
-      <c r="J10" s="59">
+      <c r="J10" s="61">
         <f t="shared" si="1"/>
         <v>1.58333333333333</v>
       </c>
-      <c r="K10" s="60">
+      <c r="K10" s="62">
         <f t="shared" si="2"/>
         <v>0.0827586206896552</v>
       </c>
-      <c r="L10" s="61">
+      <c r="L10" s="63">
         <f t="shared" si="3"/>
         <v>0.131034482758621</v>
       </c>
@@ -3067,13 +3097,13 @@
       <c r="B11" s="17">
         <v>44539</v>
       </c>
-      <c r="C11" s="78" t="s">
+      <c r="C11" s="80" t="s">
         <v>38</v>
       </c>
       <c r="D11" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="E11" s="43">
+      <c r="E11" s="45">
         <v>117.8</v>
       </c>
       <c r="F11" s="13">
@@ -3082,30 +3112,30 @@
       <c r="G11" s="13">
         <v>131.73</v>
       </c>
-      <c r="H11" s="44">
+      <c r="H11" s="46">
         <f t="shared" si="0"/>
         <v>663</v>
       </c>
-      <c r="I11" s="44">
+      <c r="I11" s="46">
         <f t="shared" si="4"/>
         <v>100</v>
       </c>
-      <c r="J11" s="59">
+      <c r="J11" s="61">
         <f t="shared" si="1"/>
         <v>2.10105580693816</v>
       </c>
-      <c r="K11" s="60">
+      <c r="K11" s="62">
         <f t="shared" si="2"/>
         <v>0.0562818336162988</v>
       </c>
-      <c r="L11" s="61">
+      <c r="L11" s="63">
         <f t="shared" si="3"/>
         <v>0.118251273344652</v>
       </c>
       <c r="M11" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="N11" s="73"/>
+      <c r="N11" s="75"/>
     </row>
     <row r="12" s="2" customFormat="1" ht="29" spans="1:13">
       <c r="A12" s="13" t="s">
@@ -3120,7 +3150,7 @@
       <c r="D12" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="E12" s="43">
+      <c r="E12" s="45">
         <v>49.4</v>
       </c>
       <c r="F12" s="13">
@@ -3129,25 +3159,25 @@
       <c r="G12" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="H12" s="44">
+      <c r="H12" s="46">
         <f t="shared" si="0"/>
         <v>270</v>
       </c>
-      <c r="I12" s="44">
+      <c r="I12" s="46">
         <f t="shared" si="4"/>
         <v>300</v>
       </c>
-      <c r="J12" s="59" t="s">
+      <c r="J12" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="K12" s="60">
+      <c r="K12" s="62">
         <f t="shared" si="2"/>
         <v>0.054655870445344</v>
       </c>
-      <c r="L12" s="61" t="s">
+      <c r="L12" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="M12" s="72" t="s">
+      <c r="M12" s="74" t="s">
         <v>43</v>
       </c>
     </row>
@@ -3164,33 +3194,33 @@
       <c r="D13" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="43">
+      <c r="E13" s="45">
         <v>37.73</v>
       </c>
-      <c r="F13" s="44">
+      <c r="F13" s="46">
         <v>34.68</v>
       </c>
-      <c r="G13" s="44">
+      <c r="G13" s="46">
         <v>46.05</v>
       </c>
-      <c r="H13" s="44">
+      <c r="H13" s="46">
         <f t="shared" si="0"/>
         <v>305</v>
       </c>
-      <c r="I13" s="44">
+      <c r="I13" s="46">
         <f t="shared" si="4"/>
         <v>300</v>
       </c>
-      <c r="J13" s="59">
+      <c r="J13" s="61">
         <f>(G13-E13)/(E13-F13)</f>
         <v>2.72786885245902</v>
       </c>
-      <c r="K13" s="60">
+      <c r="K13" s="62">
         <f t="shared" si="2"/>
         <v>0.0808375298171216</v>
       </c>
-      <c r="L13" s="61">
-        <f t="shared" ref="L13:L22" si="5">(G13-E13)/E13</f>
+      <c r="L13" s="63">
+        <f t="shared" ref="L13:L23" si="5">(G13-E13)/E13</f>
         <v>0.220514179697853</v>
       </c>
       <c r="M13" s="19" t="s">
@@ -3204,13 +3234,13 @@
       <c r="B14" s="25">
         <v>44525</v>
       </c>
-      <c r="C14" s="79" t="s">
+      <c r="C14" s="81" t="s">
         <v>46</v>
       </c>
       <c r="D14" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="E14" s="47">
+      <c r="E14" s="49">
         <v>70.98</v>
       </c>
       <c r="F14" s="26">
@@ -3219,27 +3249,27 @@
       <c r="G14" s="26">
         <v>84.94</v>
       </c>
-      <c r="H14" s="48">
+      <c r="H14" s="50">
         <f t="shared" si="0"/>
         <v>410.000000000001</v>
       </c>
-      <c r="I14" s="44">
+      <c r="I14" s="46">
         <f t="shared" si="4"/>
         <v>200</v>
       </c>
-      <c r="J14" s="59">
-        <f t="shared" ref="J14:J22" si="6">(G14-E14)/(E14-F14)</f>
+      <c r="J14" s="61">
+        <f t="shared" ref="J14:J23" si="6">(G14-E14)/(E14-F14)</f>
         <v>3.40487804878048</v>
       </c>
-      <c r="K14" s="60">
-        <f t="shared" ref="K14:K22" si="7">(E14-F14)/E14</f>
+      <c r="K14" s="62">
+        <f t="shared" ref="K14:K23" si="7">(E14-F14)/E14</f>
         <v>0.0577627500704425</v>
       </c>
-      <c r="L14" s="62">
+      <c r="L14" s="64">
         <f t="shared" si="5"/>
         <v>0.196675119752043</v>
       </c>
-      <c r="M14" s="74" t="s">
+      <c r="M14" s="76" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3256,7 +3286,7 @@
       <c r="D15" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="E15" s="47">
+      <c r="E15" s="49">
         <v>29.77</v>
       </c>
       <c r="F15" s="26">
@@ -3265,27 +3295,27 @@
       <c r="G15" s="26">
         <v>34.93</v>
       </c>
-      <c r="H15" s="48">
+      <c r="H15" s="50">
         <f t="shared" si="0"/>
         <v>205</v>
       </c>
-      <c r="I15" s="44">
+      <c r="I15" s="46">
         <f t="shared" si="4"/>
         <v>400</v>
       </c>
-      <c r="J15" s="59">
+      <c r="J15" s="61">
         <f t="shared" si="6"/>
         <v>2.51707317073171</v>
       </c>
-      <c r="K15" s="63">
+      <c r="K15" s="65">
         <f t="shared" si="7"/>
         <v>0.0688612697346322</v>
       </c>
-      <c r="L15" s="62">
+      <c r="L15" s="64">
         <f t="shared" si="5"/>
         <v>0.173328854551562</v>
       </c>
-      <c r="M15" s="74" t="s">
+      <c r="M15" s="76" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3302,7 +3332,7 @@
       <c r="D16" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="E16" s="47">
+      <c r="E16" s="49">
         <v>30.66</v>
       </c>
       <c r="F16" s="26">
@@ -3311,27 +3341,27 @@
       <c r="G16" s="26">
         <v>38.71</v>
       </c>
-      <c r="H16" s="48">
+      <c r="H16" s="50">
         <f t="shared" si="0"/>
         <v>131</v>
       </c>
-      <c r="I16" s="44">
+      <c r="I16" s="46">
         <f t="shared" si="4"/>
         <v>700</v>
       </c>
-      <c r="J16" s="59">
+      <c r="J16" s="61">
         <f t="shared" si="6"/>
         <v>6.14503816793894</v>
       </c>
-      <c r="K16" s="63">
+      <c r="K16" s="65">
         <f t="shared" si="7"/>
         <v>0.042726679712981</v>
       </c>
-      <c r="L16" s="62">
+      <c r="L16" s="64">
         <f t="shared" si="5"/>
         <v>0.262557077625571</v>
       </c>
-      <c r="M16" s="74" t="s">
+      <c r="M16" s="76" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3348,36 +3378,36 @@
       <c r="D17" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="E17" s="47">
+      <c r="E17" s="49">
         <v>26.2</v>
       </c>
-      <c r="F17" s="48">
+      <c r="F17" s="50">
         <v>24.68</v>
       </c>
-      <c r="G17" s="48">
+      <c r="G17" s="50">
         <v>32.49</v>
       </c>
-      <c r="H17" s="48">
+      <c r="H17" s="50">
         <f t="shared" si="0"/>
         <v>152</v>
       </c>
-      <c r="I17" s="44">
+      <c r="I17" s="46">
         <f t="shared" si="4"/>
         <v>600</v>
       </c>
-      <c r="J17" s="59">
+      <c r="J17" s="61">
         <f t="shared" si="6"/>
         <v>4.13815789473685</v>
       </c>
-      <c r="K17" s="63">
+      <c r="K17" s="65">
         <f t="shared" si="7"/>
         <v>0.0580152671755725</v>
       </c>
-      <c r="L17" s="62">
+      <c r="L17" s="64">
         <f t="shared" si="5"/>
         <v>0.240076335877863</v>
       </c>
-      <c r="M17" s="74" t="s">
+      <c r="M17" s="76" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3388,13 +3418,13 @@
       <c r="B18" s="25">
         <v>44533</v>
       </c>
-      <c r="C18" s="79" t="s">
+      <c r="C18" s="81" t="s">
         <v>56</v>
       </c>
       <c r="D18" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="E18" s="47">
+      <c r="E18" s="49">
         <v>28.82</v>
       </c>
       <c r="F18" s="26">
@@ -3403,27 +3433,27 @@
       <c r="G18" s="26">
         <v>32.36</v>
       </c>
-      <c r="H18" s="48">
+      <c r="H18" s="50">
         <f t="shared" si="0"/>
         <v>251</v>
       </c>
-      <c r="I18" s="44">
+      <c r="I18" s="46">
         <f t="shared" si="4"/>
         <v>300</v>
       </c>
-      <c r="J18" s="59">
+      <c r="J18" s="61">
         <f t="shared" si="6"/>
         <v>1.41035856573705</v>
       </c>
-      <c r="K18" s="63">
+      <c r="K18" s="65">
         <f t="shared" si="7"/>
         <v>0.0870922970159612</v>
       </c>
-      <c r="L18" s="62">
+      <c r="L18" s="64">
         <f t="shared" si="5"/>
         <v>0.122831367106176</v>
       </c>
-      <c r="M18" s="74" t="s">
+      <c r="M18" s="76" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3440,36 +3470,36 @@
       <c r="D19" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="E19" s="49">
+      <c r="E19" s="51">
         <v>38.89</v>
       </c>
-      <c r="F19" s="50">
+      <c r="F19" s="52">
         <v>36.65</v>
       </c>
-      <c r="G19" s="50">
+      <c r="G19" s="52">
         <v>40.7</v>
       </c>
-      <c r="H19" s="48">
+      <c r="H19" s="50">
         <f t="shared" si="0"/>
         <v>224</v>
       </c>
-      <c r="I19" s="44">
+      <c r="I19" s="46">
         <f t="shared" si="4"/>
         <v>400</v>
       </c>
-      <c r="J19" s="59">
+      <c r="J19" s="61">
         <f t="shared" si="6"/>
         <v>0.808035714285715</v>
       </c>
-      <c r="K19" s="63">
+      <c r="K19" s="65">
         <f t="shared" si="7"/>
         <v>0.0575983543327334</v>
       </c>
-      <c r="L19" s="62">
+      <c r="L19" s="64">
         <f t="shared" si="5"/>
         <v>0.0465415273849319</v>
       </c>
-      <c r="M19" s="74" t="s">
+      <c r="M19" s="76" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3486,36 +3516,36 @@
       <c r="D20" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="E20" s="49">
+      <c r="E20" s="51">
         <v>27.73</v>
       </c>
-      <c r="F20" s="50">
+      <c r="F20" s="52">
         <v>25.3</v>
       </c>
-      <c r="G20" s="50">
+      <c r="G20" s="52">
         <v>31.94</v>
       </c>
-      <c r="H20" s="48">
+      <c r="H20" s="50">
         <f t="shared" si="0"/>
         <v>243</v>
       </c>
-      <c r="I20" s="44">
+      <c r="I20" s="46">
         <f t="shared" si="4"/>
         <v>400</v>
       </c>
-      <c r="J20" s="59">
+      <c r="J20" s="61">
         <f t="shared" si="6"/>
         <v>1.73251028806584</v>
       </c>
-      <c r="K20" s="63">
+      <c r="K20" s="65">
         <f t="shared" si="7"/>
         <v>0.0876307248467364</v>
       </c>
-      <c r="L20" s="62">
+      <c r="L20" s="64">
         <f t="shared" si="5"/>
         <v>0.151821132347638</v>
       </c>
-      <c r="M20" s="75" t="s">
+      <c r="M20" s="77" t="s">
         <v>63</v>
       </c>
     </row>
@@ -3532,36 +3562,36 @@
       <c r="D21" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="E21" s="49">
+      <c r="E21" s="51">
         <v>11.75</v>
       </c>
-      <c r="F21" s="50">
+      <c r="F21" s="52">
         <v>10.9</v>
       </c>
-      <c r="G21" s="50">
+      <c r="G21" s="52">
         <v>14.54</v>
       </c>
-      <c r="H21" s="48">
+      <c r="H21" s="50">
         <f t="shared" si="0"/>
         <v>85</v>
       </c>
-      <c r="I21" s="44">
+      <c r="I21" s="46">
         <f t="shared" si="4"/>
         <v>1100</v>
       </c>
-      <c r="J21" s="59">
+      <c r="J21" s="61">
         <f t="shared" si="6"/>
         <v>3.28235294117647</v>
       </c>
-      <c r="K21" s="63">
+      <c r="K21" s="65">
         <f t="shared" si="7"/>
         <v>0.0723404255319149</v>
       </c>
-      <c r="L21" s="62">
+      <c r="L21" s="64">
         <f t="shared" si="5"/>
         <v>0.237446808510638</v>
       </c>
-      <c r="M21" s="75" t="s">
+      <c r="M21" s="77" t="s">
         <v>63</v>
       </c>
     </row>
@@ -3572,42 +3602,42 @@
       <c r="B22" s="28">
         <v>44546</v>
       </c>
-      <c r="C22" s="80" t="s">
+      <c r="C22" s="82" t="s">
         <v>46</v>
       </c>
       <c r="D22" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="E22" s="49">
+      <c r="E22" s="51">
         <v>74.46</v>
       </c>
-      <c r="F22" s="50">
+      <c r="F22" s="52">
         <v>70.54</v>
       </c>
-      <c r="G22" s="50">
+      <c r="G22" s="52">
         <v>83.27</v>
       </c>
-      <c r="H22" s="48">
+      <c r="H22" s="50">
         <f t="shared" si="0"/>
         <v>391.999999999999</v>
       </c>
-      <c r="I22" s="44">
+      <c r="I22" s="46">
         <f t="shared" si="4"/>
         <v>200</v>
       </c>
-      <c r="J22" s="59">
+      <c r="J22" s="61">
         <f t="shared" si="6"/>
         <v>2.24744897959184</v>
       </c>
-      <c r="K22" s="63">
+      <c r="K22" s="65">
         <f t="shared" si="7"/>
         <v>0.0526457158205746</v>
       </c>
-      <c r="L22" s="62">
+      <c r="L22" s="64">
         <f t="shared" si="5"/>
         <v>0.118318560300833</v>
       </c>
-      <c r="M22" s="75" t="s">
+      <c r="M22" s="77" t="s">
         <v>28</v>
       </c>
     </row>
@@ -3618,5378 +3648,5409 @@
       <c r="B23" s="33">
         <v>44546</v>
       </c>
-      <c r="C23" s="78" t="s">
+      <c r="C23" s="80" t="s">
         <v>68</v>
       </c>
       <c r="D23" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="E23" s="51">
+      <c r="E23" s="53">
         <v>278</v>
       </c>
-      <c r="F23" s="52">
+      <c r="F23" s="54">
         <v>260.02</v>
       </c>
-      <c r="G23" s="52">
+      <c r="G23" s="54">
         <v>304.23</v>
       </c>
-      <c r="H23" s="44">
-        <f>(E23-F23)*100</f>
+      <c r="H23" s="46">
+        <f t="shared" si="0"/>
         <v>1798</v>
       </c>
-      <c r="I23" s="44">
-        <f>FLOOR(1000/(E23-F23),100)</f>
+      <c r="I23" s="46">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J23" s="59">
-        <f>(G23-E23)/(E23-F23)</f>
+      <c r="J23" s="61">
+        <f t="shared" si="6"/>
         <v>1.45884315906563</v>
       </c>
-      <c r="K23" s="60">
-        <f>(E23-F23)/E23</f>
+      <c r="K23" s="62">
+        <f t="shared" si="7"/>
         <v>0.0646762589928058</v>
       </c>
-      <c r="L23" s="61">
-        <f>(G23-E23)/E23</f>
+      <c r="L23" s="63">
+        <f t="shared" si="5"/>
         <v>0.0943525179856116</v>
       </c>
-      <c r="M23" s="75" t="s">
+      <c r="M23" s="77" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="24" s="2" customFormat="1" spans="1:13">
-      <c r="A24" s="34"/>
-      <c r="B24" s="35"/>
-      <c r="C24" s="36"/>
-      <c r="D24" s="34"/>
-      <c r="E24" s="53"/>
-      <c r="F24" s="34"/>
-      <c r="G24" s="34"/>
-      <c r="H24" s="54"/>
-      <c r="I24" s="34"/>
-      <c r="J24" s="64"/>
-      <c r="K24" s="65"/>
-      <c r="L24" s="66"/>
-      <c r="M24" s="34"/>
+    <row r="24" s="2" customFormat="1" ht="15" spans="1:13">
+      <c r="A24" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="B24" s="33">
+        <v>44547</v>
+      </c>
+      <c r="C24" s="34">
+        <v>600976</v>
+      </c>
+      <c r="D24" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="E24" s="55">
+        <v>64.68</v>
+      </c>
+      <c r="F24" s="36">
+        <v>59.29</v>
+      </c>
+      <c r="G24" s="36">
+        <v>67.16</v>
+      </c>
+      <c r="H24" s="46">
+        <f>(E24-F24)*100</f>
+        <v>539.000000000001</v>
+      </c>
+      <c r="I24" s="46">
+        <f>FLOOR(1000/(E24-F24),100)</f>
+        <v>100</v>
+      </c>
+      <c r="J24" s="61">
+        <f>(G24-E24)/(E24-F24)</f>
+        <v>0.460111317254172</v>
+      </c>
+      <c r="K24" s="62">
+        <f>(E24-F24)/E24</f>
+        <v>0.0833333333333334</v>
+      </c>
+      <c r="L24" s="63">
+        <f>(G24-E24)/E24</f>
+        <v>0.038342609771181</v>
+      </c>
+      <c r="M24" s="78" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="25" s="2" customFormat="1" spans="1:13">
-      <c r="A25" s="34"/>
-      <c r="B25" s="35"/>
-      <c r="C25" s="36"/>
-      <c r="D25" s="34"/>
-      <c r="E25" s="53"/>
-      <c r="F25" s="34"/>
-      <c r="G25" s="34"/>
-      <c r="H25" s="54"/>
-      <c r="I25" s="34"/>
-      <c r="J25" s="64"/>
-      <c r="K25" s="65"/>
-      <c r="L25" s="66"/>
-      <c r="M25" s="34"/>
+      <c r="A25" s="36"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="38"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="55"/>
+      <c r="F25" s="36"/>
+      <c r="G25" s="36"/>
+      <c r="H25" s="56"/>
+      <c r="I25" s="36"/>
+      <c r="J25" s="66"/>
+      <c r="K25" s="67"/>
+      <c r="L25" s="68"/>
+      <c r="M25" s="36"/>
     </row>
     <row r="26" s="2" customFormat="1" spans="1:13">
-      <c r="A26" s="34"/>
-      <c r="B26" s="35"/>
-      <c r="C26" s="37"/>
-      <c r="D26" s="34"/>
-      <c r="E26" s="53"/>
-      <c r="F26" s="34"/>
-      <c r="G26" s="34"/>
-      <c r="H26" s="54"/>
-      <c r="I26" s="34"/>
-      <c r="J26" s="64"/>
-      <c r="K26" s="65"/>
-      <c r="L26" s="66"/>
-      <c r="M26" s="76"/>
+      <c r="A26" s="36"/>
+      <c r="B26" s="37"/>
+      <c r="C26" s="39"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="55"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="36"/>
+      <c r="H26" s="56"/>
+      <c r="I26" s="36"/>
+      <c r="J26" s="66"/>
+      <c r="K26" s="67"/>
+      <c r="L26" s="68"/>
+      <c r="M26" s="78"/>
     </row>
     <row r="27" spans="1:13">
-      <c r="A27" s="38"/>
-      <c r="B27" s="35"/>
-      <c r="C27" s="39"/>
-      <c r="D27" s="38"/>
-      <c r="E27" s="55"/>
-      <c r="F27" s="38"/>
-      <c r="G27" s="38"/>
-      <c r="H27" s="38"/>
-      <c r="I27" s="38"/>
-      <c r="J27" s="38"/>
-      <c r="K27" s="65"/>
-      <c r="L27" s="67"/>
-      <c r="M27" s="76"/>
+      <c r="A27" s="40"/>
+      <c r="B27" s="37"/>
+      <c r="C27" s="41"/>
+      <c r="D27" s="40"/>
+      <c r="E27" s="57"/>
+      <c r="F27" s="40"/>
+      <c r="G27" s="40"/>
+      <c r="H27" s="40"/>
+      <c r="I27" s="40"/>
+      <c r="J27" s="40"/>
+      <c r="K27" s="67"/>
+      <c r="L27" s="69"/>
+      <c r="M27" s="78"/>
     </row>
     <row r="28" spans="1:13">
-      <c r="A28" s="38"/>
-      <c r="B28" s="35"/>
-      <c r="C28" s="38"/>
-      <c r="D28" s="38"/>
-      <c r="E28" s="55"/>
-      <c r="F28" s="38"/>
-      <c r="G28" s="38"/>
-      <c r="H28" s="38"/>
-      <c r="I28" s="38"/>
-      <c r="J28" s="38"/>
-      <c r="K28" s="65"/>
-      <c r="L28" s="67"/>
-      <c r="M28" s="38"/>
+      <c r="A28" s="40"/>
+      <c r="B28" s="37"/>
+      <c r="C28" s="40"/>
+      <c r="D28" s="40"/>
+      <c r="E28" s="57"/>
+      <c r="F28" s="40"/>
+      <c r="G28" s="40"/>
+      <c r="H28" s="40"/>
+      <c r="I28" s="40"/>
+      <c r="J28" s="40"/>
+      <c r="K28" s="67"/>
+      <c r="L28" s="69"/>
+      <c r="M28" s="40"/>
     </row>
     <row r="29" spans="1:13">
-      <c r="A29" s="38"/>
-      <c r="B29" s="38"/>
-      <c r="C29" s="38"/>
-      <c r="D29" s="38"/>
-      <c r="E29" s="55"/>
-      <c r="F29" s="38"/>
-      <c r="G29" s="38"/>
-      <c r="H29" s="38"/>
-      <c r="I29" s="38"/>
-      <c r="J29" s="38"/>
-      <c r="K29" s="65"/>
-      <c r="L29" s="67"/>
-      <c r="M29" s="38"/>
+      <c r="A29" s="40"/>
+      <c r="B29" s="40"/>
+      <c r="C29" s="40"/>
+      <c r="D29" s="40"/>
+      <c r="E29" s="57"/>
+      <c r="F29" s="40"/>
+      <c r="G29" s="40"/>
+      <c r="H29" s="40"/>
+      <c r="I29" s="40"/>
+      <c r="J29" s="40"/>
+      <c r="K29" s="67"/>
+      <c r="L29" s="69"/>
+      <c r="M29" s="40"/>
     </row>
     <row r="30" spans="1:13">
-      <c r="A30" s="38"/>
-      <c r="B30" s="38"/>
-      <c r="C30" s="38"/>
-      <c r="D30" s="38"/>
-      <c r="E30" s="55"/>
-      <c r="F30" s="38"/>
-      <c r="G30" s="38"/>
-      <c r="H30" s="38"/>
-      <c r="I30" s="38"/>
-      <c r="J30" s="38"/>
-      <c r="K30" s="65"/>
-      <c r="L30" s="67"/>
-      <c r="M30" s="38"/>
+      <c r="A30" s="40"/>
+      <c r="B30" s="40"/>
+      <c r="C30" s="40"/>
+      <c r="D30" s="40"/>
+      <c r="E30" s="57"/>
+      <c r="F30" s="40"/>
+      <c r="G30" s="40"/>
+      <c r="H30" s="40"/>
+      <c r="I30" s="40"/>
+      <c r="J30" s="40"/>
+      <c r="K30" s="67"/>
+      <c r="L30" s="69"/>
+      <c r="M30" s="40"/>
     </row>
     <row r="31" spans="1:13">
-      <c r="A31" s="38"/>
-      <c r="B31" s="38"/>
-      <c r="C31" s="38"/>
-      <c r="D31" s="38"/>
-      <c r="E31" s="55"/>
-      <c r="F31" s="38"/>
-      <c r="G31" s="38"/>
-      <c r="H31" s="38"/>
-      <c r="I31" s="38"/>
-      <c r="J31" s="38"/>
-      <c r="K31" s="65"/>
-      <c r="L31" s="67"/>
-      <c r="M31" s="38"/>
+      <c r="A31" s="40"/>
+      <c r="B31" s="40"/>
+      <c r="C31" s="40"/>
+      <c r="D31" s="40"/>
+      <c r="E31" s="57"/>
+      <c r="F31" s="40"/>
+      <c r="G31" s="40"/>
+      <c r="H31" s="40"/>
+      <c r="I31" s="40"/>
+      <c r="J31" s="40"/>
+      <c r="K31" s="67"/>
+      <c r="L31" s="69"/>
+      <c r="M31" s="40"/>
     </row>
     <row r="32" spans="1:13">
-      <c r="A32" s="38"/>
-      <c r="B32" s="38"/>
-      <c r="C32" s="38"/>
-      <c r="D32" s="38"/>
-      <c r="E32" s="55"/>
-      <c r="F32" s="38"/>
-      <c r="G32" s="38"/>
-      <c r="H32" s="38"/>
-      <c r="I32" s="38"/>
-      <c r="J32" s="38"/>
-      <c r="K32" s="65"/>
-      <c r="L32" s="67"/>
-      <c r="M32" s="38"/>
+      <c r="A32" s="40"/>
+      <c r="B32" s="40"/>
+      <c r="C32" s="40"/>
+      <c r="D32" s="40"/>
+      <c r="E32" s="57"/>
+      <c r="F32" s="40"/>
+      <c r="G32" s="40"/>
+      <c r="H32" s="40"/>
+      <c r="I32" s="40"/>
+      <c r="J32" s="40"/>
+      <c r="K32" s="67"/>
+      <c r="L32" s="69"/>
+      <c r="M32" s="40"/>
     </row>
     <row r="33" spans="1:13">
-      <c r="A33" s="38"/>
-      <c r="B33" s="38"/>
-      <c r="C33" s="38"/>
-      <c r="D33" s="38"/>
-      <c r="E33" s="55"/>
-      <c r="F33" s="38"/>
-      <c r="G33" s="38"/>
-      <c r="H33" s="38"/>
-      <c r="I33" s="38"/>
-      <c r="J33" s="38"/>
-      <c r="K33" s="65"/>
-      <c r="L33" s="67"/>
-      <c r="M33" s="38"/>
+      <c r="A33" s="40"/>
+      <c r="B33" s="40"/>
+      <c r="C33" s="40"/>
+      <c r="D33" s="40"/>
+      <c r="E33" s="57"/>
+      <c r="F33" s="40"/>
+      <c r="G33" s="40"/>
+      <c r="H33" s="40"/>
+      <c r="I33" s="40"/>
+      <c r="J33" s="40"/>
+      <c r="K33" s="67"/>
+      <c r="L33" s="69"/>
+      <c r="M33" s="40"/>
     </row>
     <row r="34" spans="1:13">
-      <c r="A34" s="38"/>
-      <c r="B34" s="38"/>
-      <c r="C34" s="38"/>
-      <c r="D34" s="38"/>
-      <c r="E34" s="55"/>
-      <c r="F34" s="38"/>
-      <c r="G34" s="38"/>
-      <c r="H34" s="38"/>
-      <c r="I34" s="38"/>
-      <c r="J34" s="38"/>
-      <c r="K34" s="65"/>
-      <c r="L34" s="67"/>
-      <c r="M34" s="38"/>
+      <c r="A34" s="40"/>
+      <c r="B34" s="40"/>
+      <c r="C34" s="40"/>
+      <c r="D34" s="40"/>
+      <c r="E34" s="57"/>
+      <c r="F34" s="40"/>
+      <c r="G34" s="40"/>
+      <c r="H34" s="40"/>
+      <c r="I34" s="40"/>
+      <c r="J34" s="40"/>
+      <c r="K34" s="67"/>
+      <c r="L34" s="69"/>
+      <c r="M34" s="40"/>
     </row>
     <row r="35" spans="1:13">
-      <c r="A35" s="38"/>
-      <c r="B35" s="38"/>
-      <c r="C35" s="38"/>
-      <c r="D35" s="38"/>
-      <c r="E35" s="55"/>
-      <c r="F35" s="38"/>
-      <c r="G35" s="38"/>
-      <c r="H35" s="38"/>
-      <c r="I35" s="38"/>
-      <c r="J35" s="38"/>
-      <c r="K35" s="65"/>
-      <c r="L35" s="67"/>
-      <c r="M35" s="38"/>
+      <c r="A35" s="40"/>
+      <c r="B35" s="40"/>
+      <c r="C35" s="40"/>
+      <c r="D35" s="40"/>
+      <c r="E35" s="57"/>
+      <c r="F35" s="40"/>
+      <c r="G35" s="40"/>
+      <c r="H35" s="40"/>
+      <c r="I35" s="40"/>
+      <c r="J35" s="40"/>
+      <c r="K35" s="67"/>
+      <c r="L35" s="69"/>
+      <c r="M35" s="40"/>
     </row>
     <row r="36" spans="1:13">
-      <c r="A36" s="38"/>
-      <c r="B36" s="38"/>
-      <c r="C36" s="38"/>
-      <c r="D36" s="38"/>
-      <c r="E36" s="55"/>
-      <c r="F36" s="38"/>
-      <c r="G36" s="38"/>
-      <c r="H36" s="38"/>
-      <c r="I36" s="38"/>
-      <c r="J36" s="38"/>
-      <c r="K36" s="65"/>
-      <c r="L36" s="67"/>
-      <c r="M36" s="38"/>
+      <c r="A36" s="40"/>
+      <c r="B36" s="40"/>
+      <c r="C36" s="40"/>
+      <c r="D36" s="40"/>
+      <c r="E36" s="57"/>
+      <c r="F36" s="40"/>
+      <c r="G36" s="40"/>
+      <c r="H36" s="40"/>
+      <c r="I36" s="40"/>
+      <c r="J36" s="40"/>
+      <c r="K36" s="67"/>
+      <c r="L36" s="69"/>
+      <c r="M36" s="40"/>
     </row>
     <row r="37" spans="1:13">
-      <c r="A37" s="38"/>
-      <c r="B37" s="38"/>
-      <c r="C37" s="38"/>
-      <c r="D37" s="38"/>
-      <c r="E37" s="55"/>
-      <c r="F37" s="38"/>
-      <c r="G37" s="38"/>
-      <c r="H37" s="38"/>
-      <c r="I37" s="38"/>
-      <c r="J37" s="38"/>
-      <c r="K37" s="65"/>
-      <c r="L37" s="67"/>
-      <c r="M37" s="38"/>
+      <c r="A37" s="40"/>
+      <c r="B37" s="40"/>
+      <c r="C37" s="40"/>
+      <c r="D37" s="40"/>
+      <c r="E37" s="57"/>
+      <c r="F37" s="40"/>
+      <c r="G37" s="40"/>
+      <c r="H37" s="40"/>
+      <c r="I37" s="40"/>
+      <c r="J37" s="40"/>
+      <c r="K37" s="67"/>
+      <c r="L37" s="69"/>
+      <c r="M37" s="40"/>
     </row>
     <row r="38" spans="1:13">
-      <c r="A38" s="38"/>
-      <c r="B38" s="38"/>
-      <c r="C38" s="38"/>
-      <c r="D38" s="38"/>
-      <c r="E38" s="55"/>
-      <c r="F38" s="38"/>
-      <c r="G38" s="38"/>
-      <c r="H38" s="38"/>
-      <c r="I38" s="38"/>
-      <c r="J38" s="38"/>
-      <c r="K38" s="65"/>
-      <c r="L38" s="67"/>
-      <c r="M38" s="38"/>
+      <c r="A38" s="40"/>
+      <c r="B38" s="40"/>
+      <c r="C38" s="40"/>
+      <c r="D38" s="40"/>
+      <c r="E38" s="57"/>
+      <c r="F38" s="40"/>
+      <c r="G38" s="40"/>
+      <c r="H38" s="40"/>
+      <c r="I38" s="40"/>
+      <c r="J38" s="40"/>
+      <c r="K38" s="67"/>
+      <c r="L38" s="69"/>
+      <c r="M38" s="40"/>
     </row>
     <row r="39" spans="1:13">
-      <c r="A39" s="38"/>
-      <c r="B39" s="38"/>
-      <c r="C39" s="38"/>
-      <c r="D39" s="38"/>
-      <c r="E39" s="55"/>
-      <c r="F39" s="38"/>
-      <c r="G39" s="38"/>
-      <c r="H39" s="38"/>
-      <c r="I39" s="38"/>
-      <c r="J39" s="38"/>
-      <c r="K39" s="65"/>
-      <c r="L39" s="67"/>
-      <c r="M39" s="38"/>
+      <c r="A39" s="40"/>
+      <c r="B39" s="40"/>
+      <c r="C39" s="40"/>
+      <c r="D39" s="40"/>
+      <c r="E39" s="57"/>
+      <c r="F39" s="40"/>
+      <c r="G39" s="40"/>
+      <c r="H39" s="40"/>
+      <c r="I39" s="40"/>
+      <c r="J39" s="40"/>
+      <c r="K39" s="67"/>
+      <c r="L39" s="69"/>
+      <c r="M39" s="40"/>
     </row>
     <row r="40" spans="1:13">
-      <c r="A40" s="38"/>
-      <c r="B40" s="38"/>
-      <c r="C40" s="38"/>
-      <c r="D40" s="38"/>
-      <c r="E40" s="55"/>
-      <c r="F40" s="38"/>
-      <c r="G40" s="38"/>
-      <c r="H40" s="38"/>
-      <c r="I40" s="38"/>
-      <c r="J40" s="38"/>
-      <c r="K40" s="65"/>
-      <c r="L40" s="67"/>
-      <c r="M40" s="38"/>
+      <c r="A40" s="40"/>
+      <c r="B40" s="40"/>
+      <c r="C40" s="40"/>
+      <c r="D40" s="40"/>
+      <c r="E40" s="57"/>
+      <c r="F40" s="40"/>
+      <c r="G40" s="40"/>
+      <c r="H40" s="40"/>
+      <c r="I40" s="40"/>
+      <c r="J40" s="40"/>
+      <c r="K40" s="67"/>
+      <c r="L40" s="69"/>
+      <c r="M40" s="40"/>
     </row>
     <row r="41" spans="1:13">
-      <c r="A41" s="38"/>
-      <c r="B41" s="38"/>
-      <c r="C41" s="38"/>
-      <c r="D41" s="38"/>
-      <c r="E41" s="55"/>
-      <c r="F41" s="38"/>
-      <c r="G41" s="38"/>
-      <c r="H41" s="38"/>
-      <c r="I41" s="38"/>
-      <c r="J41" s="38"/>
-      <c r="K41" s="65"/>
-      <c r="L41" s="67"/>
-      <c r="M41" s="38"/>
+      <c r="A41" s="40"/>
+      <c r="B41" s="40"/>
+      <c r="C41" s="40"/>
+      <c r="D41" s="40"/>
+      <c r="E41" s="57"/>
+      <c r="F41" s="40"/>
+      <c r="G41" s="40"/>
+      <c r="H41" s="40"/>
+      <c r="I41" s="40"/>
+      <c r="J41" s="40"/>
+      <c r="K41" s="67"/>
+      <c r="L41" s="69"/>
+      <c r="M41" s="40"/>
     </row>
     <row r="42" spans="1:13">
-      <c r="A42" s="38"/>
-      <c r="B42" s="38"/>
-      <c r="C42" s="38"/>
-      <c r="D42" s="38"/>
-      <c r="E42" s="55"/>
-      <c r="F42" s="38"/>
-      <c r="G42" s="38"/>
-      <c r="H42" s="38"/>
-      <c r="I42" s="38"/>
-      <c r="J42" s="38"/>
-      <c r="K42" s="65"/>
-      <c r="L42" s="67"/>
-      <c r="M42" s="38"/>
+      <c r="A42" s="40"/>
+      <c r="B42" s="40"/>
+      <c r="C42" s="40"/>
+      <c r="D42" s="40"/>
+      <c r="E42" s="57"/>
+      <c r="F42" s="40"/>
+      <c r="G42" s="40"/>
+      <c r="H42" s="40"/>
+      <c r="I42" s="40"/>
+      <c r="J42" s="40"/>
+      <c r="K42" s="67"/>
+      <c r="L42" s="69"/>
+      <c r="M42" s="40"/>
     </row>
     <row r="43" spans="1:13">
-      <c r="A43" s="38"/>
-      <c r="B43" s="38"/>
-      <c r="C43" s="38"/>
-      <c r="D43" s="38"/>
-      <c r="E43" s="55"/>
-      <c r="F43" s="38"/>
-      <c r="G43" s="38"/>
-      <c r="H43" s="38"/>
-      <c r="I43" s="38"/>
-      <c r="J43" s="38"/>
-      <c r="K43" s="65"/>
-      <c r="L43" s="67"/>
-      <c r="M43" s="38"/>
+      <c r="A43" s="40"/>
+      <c r="B43" s="40"/>
+      <c r="C43" s="40"/>
+      <c r="D43" s="40"/>
+      <c r="E43" s="57"/>
+      <c r="F43" s="40"/>
+      <c r="G43" s="40"/>
+      <c r="H43" s="40"/>
+      <c r="I43" s="40"/>
+      <c r="J43" s="40"/>
+      <c r="K43" s="67"/>
+      <c r="L43" s="69"/>
+      <c r="M43" s="40"/>
     </row>
     <row r="44" spans="1:13">
-      <c r="A44" s="38"/>
-      <c r="B44" s="38"/>
-      <c r="C44" s="38"/>
-      <c r="D44" s="38"/>
-      <c r="E44" s="55"/>
-      <c r="F44" s="38"/>
-      <c r="G44" s="38"/>
-      <c r="H44" s="38"/>
-      <c r="I44" s="38"/>
-      <c r="J44" s="38"/>
-      <c r="K44" s="65"/>
-      <c r="L44" s="67"/>
-      <c r="M44" s="38"/>
+      <c r="A44" s="40"/>
+      <c r="B44" s="40"/>
+      <c r="C44" s="40"/>
+      <c r="D44" s="40"/>
+      <c r="E44" s="57"/>
+      <c r="F44" s="40"/>
+      <c r="G44" s="40"/>
+      <c r="H44" s="40"/>
+      <c r="I44" s="40"/>
+      <c r="J44" s="40"/>
+      <c r="K44" s="67"/>
+      <c r="L44" s="69"/>
+      <c r="M44" s="40"/>
     </row>
     <row r="45" ht="13" spans="1:13">
-      <c r="A45" s="81" t="s">
-        <v>70</v>
-      </c>
-      <c r="B45" s="38"/>
+      <c r="A45" s="83" t="s">
+        <v>72</v>
+      </c>
+      <c r="B45" s="40"/>
       <c r="D45" s="4"/>
-      <c r="E45" s="56"/>
+      <c r="E45" s="58"/>
       <c r="F45" s="4"/>
       <c r="G45" s="4"/>
       <c r="H45" s="4"/>
       <c r="I45" s="4"/>
       <c r="J45" s="4"/>
-      <c r="K45" s="68"/>
-      <c r="M45" s="38"/>
+      <c r="K45" s="70"/>
+      <c r="M45" s="40"/>
     </row>
     <row r="46" spans="1:11">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="D46" s="4"/>
-      <c r="E46" s="56"/>
+      <c r="E46" s="58"/>
       <c r="F46" s="4"/>
       <c r="G46" s="4"/>
       <c r="H46" s="4"/>
       <c r="I46" s="4"/>
       <c r="J46" s="4"/>
-      <c r="K46" s="68"/>
+      <c r="K46" s="70"/>
     </row>
     <row r="47" spans="1:11">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
       <c r="D47" s="4"/>
-      <c r="E47" s="56"/>
+      <c r="E47" s="58"/>
       <c r="F47" s="4"/>
       <c r="G47" s="4"/>
       <c r="H47" s="4"/>
       <c r="I47" s="4"/>
       <c r="J47" s="4"/>
-      <c r="K47" s="68"/>
+      <c r="K47" s="70"/>
     </row>
     <row r="48" spans="1:11">
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
       <c r="D48" s="4"/>
-      <c r="E48" s="56"/>
+      <c r="E48" s="58"/>
       <c r="F48" s="4"/>
       <c r="G48" s="4"/>
       <c r="H48" s="4"/>
       <c r="I48" s="4"/>
       <c r="J48" s="4"/>
-      <c r="K48" s="68"/>
+      <c r="K48" s="70"/>
     </row>
     <row r="49" spans="1:11">
       <c r="A49" s="4"/>
       <c r="B49" s="4"/>
       <c r="D49" s="4"/>
-      <c r="E49" s="56"/>
+      <c r="E49" s="58"/>
       <c r="F49" s="4"/>
       <c r="G49" s="4"/>
       <c r="H49" s="4"/>
       <c r="I49" s="4"/>
       <c r="J49" s="4"/>
-      <c r="K49" s="68"/>
+      <c r="K49" s="70"/>
     </row>
     <row r="50" spans="1:11">
       <c r="A50" s="4"/>
       <c r="B50" s="4"/>
       <c r="D50" s="4"/>
-      <c r="E50" s="56"/>
+      <c r="E50" s="58"/>
       <c r="F50" s="4"/>
       <c r="G50" s="4"/>
       <c r="H50" s="4"/>
       <c r="I50" s="4"/>
       <c r="J50" s="4"/>
-      <c r="K50" s="68"/>
+      <c r="K50" s="70"/>
     </row>
     <row r="51" spans="1:11">
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
       <c r="D51" s="4"/>
-      <c r="E51" s="56"/>
+      <c r="E51" s="58"/>
       <c r="F51" s="4"/>
       <c r="G51" s="4"/>
       <c r="H51" s="4"/>
       <c r="I51" s="4"/>
       <c r="J51" s="4"/>
-      <c r="K51" s="68"/>
+      <c r="K51" s="70"/>
     </row>
     <row r="52" spans="1:11">
       <c r="A52" s="4"/>
       <c r="B52" s="4"/>
       <c r="D52" s="4"/>
-      <c r="E52" s="56"/>
+      <c r="E52" s="58"/>
       <c r="F52" s="4"/>
       <c r="G52" s="4"/>
       <c r="H52" s="4"/>
       <c r="I52" s="4"/>
       <c r="J52" s="4"/>
-      <c r="K52" s="68"/>
+      <c r="K52" s="70"/>
     </row>
     <row r="53" spans="1:11">
       <c r="A53" s="4"/>
       <c r="B53" s="4"/>
       <c r="D53" s="4"/>
-      <c r="E53" s="56"/>
+      <c r="E53" s="58"/>
       <c r="F53" s="4"/>
       <c r="G53" s="4"/>
       <c r="H53" s="4"/>
       <c r="I53" s="4"/>
       <c r="J53" s="4"/>
-      <c r="K53" s="68"/>
+      <c r="K53" s="70"/>
     </row>
     <row r="54" spans="1:11">
       <c r="A54" s="4"/>
       <c r="B54" s="4"/>
       <c r="D54" s="4"/>
-      <c r="E54" s="56"/>
+      <c r="E54" s="58"/>
       <c r="F54" s="4"/>
       <c r="G54" s="4"/>
       <c r="H54" s="4"/>
       <c r="I54" s="4"/>
       <c r="J54" s="4"/>
-      <c r="K54" s="68"/>
+      <c r="K54" s="70"/>
     </row>
     <row r="55" spans="1:11">
       <c r="A55" s="4"/>
       <c r="B55" s="4"/>
       <c r="D55" s="4"/>
-      <c r="E55" s="56"/>
+      <c r="E55" s="58"/>
       <c r="F55" s="4"/>
       <c r="G55" s="4"/>
       <c r="H55" s="4"/>
       <c r="I55" s="4"/>
       <c r="J55" s="4"/>
-      <c r="K55" s="68"/>
+      <c r="K55" s="70"/>
     </row>
     <row r="56" spans="1:11">
       <c r="A56" s="4"/>
       <c r="B56" s="4"/>
       <c r="D56" s="4"/>
-      <c r="E56" s="56"/>
+      <c r="E56" s="58"/>
       <c r="F56" s="4"/>
       <c r="G56" s="4"/>
       <c r="H56" s="4"/>
       <c r="I56" s="4"/>
       <c r="J56" s="4"/>
-      <c r="K56" s="68"/>
+      <c r="K56" s="70"/>
     </row>
     <row r="57" spans="1:11">
       <c r="A57" s="4"/>
       <c r="B57" s="4"/>
       <c r="D57" s="4"/>
-      <c r="E57" s="56"/>
+      <c r="E57" s="58"/>
       <c r="F57" s="4"/>
       <c r="G57" s="4"/>
       <c r="H57" s="4"/>
       <c r="I57" s="4"/>
       <c r="J57" s="4"/>
-      <c r="K57" s="68"/>
+      <c r="K57" s="70"/>
     </row>
     <row r="58" spans="1:11">
       <c r="A58" s="4"/>
       <c r="B58" s="4"/>
       <c r="D58" s="4"/>
-      <c r="E58" s="56"/>
+      <c r="E58" s="58"/>
       <c r="F58" s="4"/>
       <c r="G58" s="4"/>
       <c r="H58" s="4"/>
       <c r="I58" s="4"/>
       <c r="J58" s="4"/>
-      <c r="K58" s="68"/>
+      <c r="K58" s="70"/>
     </row>
     <row r="59" spans="1:11">
       <c r="A59" s="4"/>
       <c r="B59" s="4"/>
       <c r="D59" s="4"/>
-      <c r="E59" s="56"/>
+      <c r="E59" s="58"/>
       <c r="F59" s="4"/>
       <c r="G59" s="4"/>
       <c r="H59" s="4"/>
       <c r="I59" s="4"/>
       <c r="J59" s="4"/>
-      <c r="K59" s="68"/>
+      <c r="K59" s="70"/>
     </row>
     <row r="60" spans="1:11">
       <c r="A60" s="4"/>
       <c r="B60" s="4"/>
       <c r="D60" s="4"/>
-      <c r="E60" s="56"/>
+      <c r="E60" s="58"/>
       <c r="F60" s="4"/>
       <c r="G60" s="4"/>
       <c r="H60" s="4"/>
       <c r="I60" s="4"/>
       <c r="J60" s="4"/>
-      <c r="K60" s="68"/>
+      <c r="K60" s="70"/>
     </row>
     <row r="61" spans="1:11">
       <c r="A61" s="4"/>
       <c r="B61" s="4"/>
       <c r="D61" s="4"/>
-      <c r="E61" s="56"/>
+      <c r="E61" s="58"/>
       <c r="F61" s="4"/>
       <c r="G61" s="4"/>
       <c r="H61" s="4"/>
       <c r="I61" s="4"/>
       <c r="J61" s="4"/>
-      <c r="K61" s="68"/>
+      <c r="K61" s="70"/>
     </row>
     <row r="62" spans="1:11">
       <c r="A62" s="4"/>
       <c r="B62" s="4"/>
       <c r="D62" s="4"/>
-      <c r="E62" s="56"/>
+      <c r="E62" s="58"/>
       <c r="F62" s="4"/>
       <c r="G62" s="4"/>
       <c r="H62" s="4"/>
       <c r="I62" s="4"/>
       <c r="J62" s="4"/>
-      <c r="K62" s="68"/>
+      <c r="K62" s="70"/>
     </row>
     <row r="63" spans="1:11">
       <c r="A63" s="4"/>
       <c r="B63" s="4"/>
       <c r="D63" s="4"/>
-      <c r="E63" s="56"/>
+      <c r="E63" s="58"/>
       <c r="F63" s="4"/>
       <c r="G63" s="4"/>
       <c r="H63" s="4"/>
       <c r="I63" s="4"/>
       <c r="J63" s="4"/>
-      <c r="K63" s="68"/>
+      <c r="K63" s="70"/>
     </row>
     <row r="64" spans="1:11">
       <c r="A64" s="4"/>
       <c r="B64" s="4"/>
       <c r="D64" s="4"/>
-      <c r="E64" s="56"/>
+      <c r="E64" s="58"/>
       <c r="F64" s="4"/>
       <c r="G64" s="4"/>
       <c r="H64" s="4"/>
       <c r="I64" s="4"/>
       <c r="J64" s="4"/>
-      <c r="K64" s="68"/>
+      <c r="K64" s="70"/>
     </row>
     <row r="65" spans="1:11">
       <c r="A65" s="4"/>
       <c r="B65" s="4"/>
       <c r="D65" s="4"/>
-      <c r="E65" s="56"/>
+      <c r="E65" s="58"/>
       <c r="F65" s="4"/>
       <c r="G65" s="4"/>
       <c r="H65" s="4"/>
       <c r="I65" s="4"/>
       <c r="J65" s="4"/>
-      <c r="K65" s="68"/>
+      <c r="K65" s="70"/>
     </row>
     <row r="66" spans="1:11">
       <c r="A66" s="4"/>
       <c r="B66" s="4"/>
       <c r="D66" s="4"/>
-      <c r="E66" s="56"/>
+      <c r="E66" s="58"/>
       <c r="F66" s="4"/>
       <c r="G66" s="4"/>
       <c r="H66" s="4"/>
       <c r="I66" s="4"/>
       <c r="J66" s="4"/>
-      <c r="K66" s="68"/>
+      <c r="K66" s="70"/>
     </row>
     <row r="67" spans="1:11">
       <c r="A67" s="4"/>
       <c r="B67" s="4"/>
       <c r="D67" s="4"/>
-      <c r="E67" s="56"/>
+      <c r="E67" s="58"/>
       <c r="F67" s="4"/>
       <c r="G67" s="4"/>
       <c r="H67" s="4"/>
       <c r="I67" s="4"/>
       <c r="J67" s="4"/>
-      <c r="K67" s="68"/>
+      <c r="K67" s="70"/>
     </row>
     <row r="68" spans="1:11">
       <c r="A68" s="4"/>
       <c r="B68" s="4"/>
       <c r="D68" s="4"/>
-      <c r="E68" s="56"/>
+      <c r="E68" s="58"/>
       <c r="F68" s="4"/>
       <c r="G68" s="4"/>
       <c r="H68" s="4"/>
       <c r="I68" s="4"/>
       <c r="J68" s="4"/>
-      <c r="K68" s="68"/>
+      <c r="K68" s="70"/>
     </row>
     <row r="69" spans="1:11">
       <c r="A69" s="4"/>
       <c r="B69" s="4"/>
       <c r="D69" s="4"/>
-      <c r="E69" s="56"/>
+      <c r="E69" s="58"/>
       <c r="F69" s="4"/>
       <c r="G69" s="4"/>
       <c r="H69" s="4"/>
       <c r="I69" s="4"/>
       <c r="J69" s="4"/>
-      <c r="K69" s="68"/>
+      <c r="K69" s="70"/>
     </row>
     <row r="70" spans="1:11">
       <c r="A70" s="4"/>
       <c r="B70" s="4"/>
       <c r="D70" s="4"/>
-      <c r="E70" s="56"/>
+      <c r="E70" s="58"/>
       <c r="F70" s="4"/>
       <c r="G70" s="4"/>
       <c r="H70" s="4"/>
       <c r="I70" s="4"/>
       <c r="J70" s="4"/>
-      <c r="K70" s="68"/>
+      <c r="K70" s="70"/>
     </row>
     <row r="71" spans="1:11">
       <c r="A71" s="4"/>
       <c r="B71" s="4"/>
       <c r="D71" s="4"/>
-      <c r="E71" s="56"/>
+      <c r="E71" s="58"/>
       <c r="F71" s="4"/>
       <c r="G71" s="4"/>
       <c r="H71" s="4"/>
       <c r="I71" s="4"/>
       <c r="J71" s="4"/>
-      <c r="K71" s="68"/>
+      <c r="K71" s="70"/>
     </row>
     <row r="72" spans="1:11">
       <c r="A72" s="4"/>
       <c r="B72" s="4"/>
       <c r="D72" s="4"/>
-      <c r="E72" s="56"/>
+      <c r="E72" s="58"/>
       <c r="F72" s="4"/>
       <c r="G72" s="4"/>
       <c r="H72" s="4"/>
       <c r="I72" s="4"/>
       <c r="J72" s="4"/>
-      <c r="K72" s="68"/>
+      <c r="K72" s="70"/>
     </row>
     <row r="73" spans="1:11">
       <c r="A73" s="4"/>
       <c r="B73" s="4"/>
       <c r="D73" s="4"/>
-      <c r="E73" s="56"/>
+      <c r="E73" s="58"/>
       <c r="F73" s="4"/>
       <c r="G73" s="4"/>
       <c r="H73" s="4"/>
       <c r="I73" s="4"/>
       <c r="J73" s="4"/>
-      <c r="K73" s="68"/>
+      <c r="K73" s="70"/>
     </row>
     <row r="74" spans="1:11">
       <c r="A74" s="4"/>
       <c r="B74" s="4"/>
       <c r="D74" s="4"/>
-      <c r="E74" s="56"/>
+      <c r="E74" s="58"/>
       <c r="F74" s="4"/>
       <c r="G74" s="4"/>
       <c r="H74" s="4"/>
       <c r="I74" s="4"/>
       <c r="J74" s="4"/>
-      <c r="K74" s="68"/>
+      <c r="K74" s="70"/>
     </row>
     <row r="75" spans="1:11">
       <c r="A75" s="4"/>
       <c r="B75" s="4"/>
       <c r="D75" s="4"/>
-      <c r="E75" s="56"/>
+      <c r="E75" s="58"/>
       <c r="F75" s="4"/>
       <c r="G75" s="4"/>
       <c r="H75" s="4"/>
       <c r="I75" s="4"/>
       <c r="J75" s="4"/>
-      <c r="K75" s="68"/>
+      <c r="K75" s="70"/>
     </row>
     <row r="76" spans="1:11">
       <c r="A76" s="4"/>
       <c r="B76" s="4"/>
       <c r="D76" s="4"/>
-      <c r="E76" s="56"/>
+      <c r="E76" s="58"/>
       <c r="F76" s="4"/>
       <c r="G76" s="4"/>
       <c r="H76" s="4"/>
       <c r="I76" s="4"/>
       <c r="J76" s="4"/>
-      <c r="K76" s="68"/>
+      <c r="K76" s="70"/>
     </row>
     <row r="77" spans="1:11">
       <c r="A77" s="4"/>
       <c r="B77" s="4"/>
       <c r="D77" s="4"/>
-      <c r="E77" s="56"/>
+      <c r="E77" s="58"/>
       <c r="F77" s="4"/>
       <c r="G77" s="4"/>
       <c r="H77" s="4"/>
       <c r="I77" s="4"/>
       <c r="J77" s="4"/>
-      <c r="K77" s="68"/>
+      <c r="K77" s="70"/>
     </row>
     <row r="78" spans="1:11">
       <c r="A78" s="4"/>
       <c r="B78" s="4"/>
       <c r="D78" s="4"/>
-      <c r="E78" s="56"/>
+      <c r="E78" s="58"/>
       <c r="F78" s="4"/>
       <c r="G78" s="4"/>
       <c r="H78" s="4"/>
       <c r="I78" s="4"/>
       <c r="J78" s="4"/>
-      <c r="K78" s="68"/>
+      <c r="K78" s="70"/>
     </row>
     <row r="79" spans="1:11">
       <c r="A79" s="4"/>
       <c r="B79" s="4"/>
       <c r="D79" s="4"/>
-      <c r="E79" s="56"/>
+      <c r="E79" s="58"/>
       <c r="F79" s="4"/>
       <c r="G79" s="4"/>
       <c r="H79" s="4"/>
       <c r="I79" s="4"/>
       <c r="J79" s="4"/>
-      <c r="K79" s="68"/>
+      <c r="K79" s="70"/>
     </row>
     <row r="80" spans="1:11">
       <c r="A80" s="4"/>
       <c r="B80" s="4"/>
       <c r="D80" s="4"/>
-      <c r="E80" s="56"/>
+      <c r="E80" s="58"/>
       <c r="F80" s="4"/>
       <c r="G80" s="4"/>
       <c r="H80" s="4"/>
       <c r="I80" s="4"/>
       <c r="J80" s="4"/>
-      <c r="K80" s="68"/>
+      <c r="K80" s="70"/>
     </row>
     <row r="81" spans="1:11">
       <c r="A81" s="4"/>
       <c r="B81" s="4"/>
       <c r="D81" s="4"/>
-      <c r="E81" s="56"/>
+      <c r="E81" s="58"/>
       <c r="F81" s="4"/>
       <c r="G81" s="4"/>
       <c r="H81" s="4"/>
       <c r="I81" s="4"/>
       <c r="J81" s="4"/>
-      <c r="K81" s="68"/>
+      <c r="K81" s="70"/>
     </row>
     <row r="82" spans="1:11">
       <c r="A82" s="4"/>
       <c r="B82" s="4"/>
       <c r="D82" s="4"/>
-      <c r="E82" s="56"/>
+      <c r="E82" s="58"/>
       <c r="F82" s="4"/>
       <c r="G82" s="4"/>
       <c r="H82" s="4"/>
       <c r="I82" s="4"/>
       <c r="J82" s="4"/>
-      <c r="K82" s="68"/>
+      <c r="K82" s="70"/>
     </row>
     <row r="83" spans="1:11">
       <c r="A83" s="4"/>
       <c r="B83" s="4"/>
       <c r="D83" s="4"/>
-      <c r="E83" s="56"/>
+      <c r="E83" s="58"/>
       <c r="F83" s="4"/>
       <c r="G83" s="4"/>
       <c r="H83" s="4"/>
       <c r="I83" s="4"/>
       <c r="J83" s="4"/>
-      <c r="K83" s="68"/>
+      <c r="K83" s="70"/>
     </row>
     <row r="84" spans="1:11">
       <c r="A84" s="4"/>
       <c r="B84" s="4"/>
       <c r="D84" s="4"/>
-      <c r="E84" s="56"/>
+      <c r="E84" s="58"/>
       <c r="F84" s="4"/>
       <c r="G84" s="4"/>
       <c r="H84" s="4"/>
       <c r="I84" s="4"/>
       <c r="J84" s="4"/>
-      <c r="K84" s="68"/>
+      <c r="K84" s="70"/>
     </row>
     <row r="85" spans="1:11">
       <c r="A85" s="4"/>
       <c r="B85" s="4"/>
       <c r="D85" s="4"/>
-      <c r="E85" s="56"/>
+      <c r="E85" s="58"/>
       <c r="F85" s="4"/>
       <c r="G85" s="4"/>
       <c r="H85" s="4"/>
       <c r="I85" s="4"/>
       <c r="J85" s="4"/>
-      <c r="K85" s="68"/>
+      <c r="K85" s="70"/>
     </row>
     <row r="86" spans="1:11">
       <c r="A86" s="4"/>
       <c r="B86" s="4"/>
       <c r="D86" s="4"/>
-      <c r="E86" s="56"/>
+      <c r="E86" s="58"/>
       <c r="F86" s="4"/>
       <c r="G86" s="4"/>
       <c r="H86" s="4"/>
       <c r="I86" s="4"/>
       <c r="J86" s="4"/>
-      <c r="K86" s="68"/>
+      <c r="K86" s="70"/>
     </row>
     <row r="87" spans="1:11">
       <c r="A87" s="4"/>
       <c r="B87" s="4"/>
       <c r="D87" s="4"/>
-      <c r="E87" s="56"/>
+      <c r="E87" s="58"/>
       <c r="F87" s="4"/>
       <c r="G87" s="4"/>
       <c r="H87" s="4"/>
       <c r="I87" s="4"/>
       <c r="J87" s="4"/>
-      <c r="K87" s="68"/>
+      <c r="K87" s="70"/>
     </row>
     <row r="88" spans="1:11">
       <c r="A88" s="4"/>
       <c r="B88" s="4"/>
       <c r="D88" s="4"/>
-      <c r="E88" s="56"/>
+      <c r="E88" s="58"/>
       <c r="F88" s="4"/>
       <c r="G88" s="4"/>
       <c r="H88" s="4"/>
       <c r="I88" s="4"/>
       <c r="J88" s="4"/>
-      <c r="K88" s="68"/>
+      <c r="K88" s="70"/>
     </row>
     <row r="89" spans="1:11">
       <c r="A89" s="4"/>
       <c r="B89" s="4"/>
       <c r="D89" s="4"/>
-      <c r="E89" s="56"/>
+      <c r="E89" s="58"/>
       <c r="F89" s="4"/>
       <c r="G89" s="4"/>
       <c r="H89" s="4"/>
       <c r="I89" s="4"/>
       <c r="J89" s="4"/>
-      <c r="K89" s="68"/>
+      <c r="K89" s="70"/>
     </row>
     <row r="90" spans="1:11">
       <c r="A90" s="4"/>
       <c r="B90" s="4"/>
       <c r="D90" s="4"/>
-      <c r="E90" s="56"/>
+      <c r="E90" s="58"/>
       <c r="F90" s="4"/>
       <c r="G90" s="4"/>
       <c r="H90" s="4"/>
       <c r="I90" s="4"/>
       <c r="J90" s="4"/>
-      <c r="K90" s="68"/>
+      <c r="K90" s="70"/>
     </row>
     <row r="91" spans="1:11">
       <c r="A91" s="4"/>
       <c r="B91" s="4"/>
       <c r="D91" s="4"/>
-      <c r="E91" s="56"/>
+      <c r="E91" s="58"/>
       <c r="F91" s="4"/>
       <c r="G91" s="4"/>
       <c r="H91" s="4"/>
       <c r="I91" s="4"/>
       <c r="J91" s="4"/>
-      <c r="K91" s="68"/>
+      <c r="K91" s="70"/>
     </row>
     <row r="92" spans="1:11">
       <c r="A92" s="4"/>
       <c r="B92" s="4"/>
       <c r="D92" s="4"/>
-      <c r="E92" s="56"/>
+      <c r="E92" s="58"/>
       <c r="F92" s="4"/>
       <c r="G92" s="4"/>
       <c r="H92" s="4"/>
       <c r="I92" s="4"/>
       <c r="J92" s="4"/>
-      <c r="K92" s="68"/>
+      <c r="K92" s="70"/>
     </row>
     <row r="93" spans="1:11">
       <c r="A93" s="4"/>
       <c r="B93" s="4"/>
       <c r="D93" s="4"/>
-      <c r="E93" s="56"/>
+      <c r="E93" s="58"/>
       <c r="F93" s="4"/>
       <c r="G93" s="4"/>
       <c r="H93" s="4"/>
       <c r="I93" s="4"/>
       <c r="J93" s="4"/>
-      <c r="K93" s="68"/>
+      <c r="K93" s="70"/>
     </row>
     <row r="94" spans="1:11">
       <c r="A94" s="4"/>
       <c r="B94" s="4"/>
       <c r="D94" s="4"/>
-      <c r="E94" s="56"/>
+      <c r="E94" s="58"/>
       <c r="F94" s="4"/>
       <c r="G94" s="4"/>
       <c r="H94" s="4"/>
       <c r="I94" s="4"/>
       <c r="J94" s="4"/>
-      <c r="K94" s="68"/>
+      <c r="K94" s="70"/>
     </row>
     <row r="95" spans="1:11">
       <c r="A95" s="4"/>
       <c r="B95" s="4"/>
       <c r="D95" s="4"/>
-      <c r="E95" s="56"/>
+      <c r="E95" s="58"/>
       <c r="F95" s="4"/>
       <c r="G95" s="4"/>
       <c r="H95" s="4"/>
       <c r="I95" s="4"/>
       <c r="J95" s="4"/>
-      <c r="K95" s="68"/>
+      <c r="K95" s="70"/>
     </row>
     <row r="96" spans="1:11">
       <c r="A96" s="4"/>
       <c r="B96" s="4"/>
       <c r="D96" s="4"/>
-      <c r="E96" s="56"/>
+      <c r="E96" s="58"/>
       <c r="F96" s="4"/>
       <c r="G96" s="4"/>
       <c r="H96" s="4"/>
       <c r="I96" s="4"/>
       <c r="J96" s="4"/>
-      <c r="K96" s="68"/>
+      <c r="K96" s="70"/>
     </row>
     <row r="97" spans="1:11">
       <c r="A97" s="4"/>
       <c r="B97" s="4"/>
       <c r="D97" s="4"/>
-      <c r="E97" s="56"/>
+      <c r="E97" s="58"/>
       <c r="F97" s="4"/>
       <c r="G97" s="4"/>
       <c r="H97" s="4"/>
       <c r="I97" s="4"/>
       <c r="J97" s="4"/>
-      <c r="K97" s="68"/>
+      <c r="K97" s="70"/>
     </row>
     <row r="98" spans="1:11">
       <c r="A98" s="4"/>
       <c r="B98" s="4"/>
       <c r="D98" s="4"/>
-      <c r="E98" s="56"/>
+      <c r="E98" s="58"/>
       <c r="F98" s="4"/>
       <c r="G98" s="4"/>
       <c r="H98" s="4"/>
       <c r="I98" s="4"/>
       <c r="J98" s="4"/>
-      <c r="K98" s="68"/>
+      <c r="K98" s="70"/>
     </row>
     <row r="99" spans="1:11">
       <c r="A99" s="4"/>
       <c r="B99" s="4"/>
       <c r="D99" s="4"/>
-      <c r="E99" s="56"/>
+      <c r="E99" s="58"/>
       <c r="F99" s="4"/>
       <c r="G99" s="4"/>
       <c r="H99" s="4"/>
       <c r="I99" s="4"/>
       <c r="J99" s="4"/>
-      <c r="K99" s="68"/>
+      <c r="K99" s="70"/>
     </row>
     <row r="100" spans="1:11">
       <c r="A100" s="4"/>
       <c r="B100" s="4"/>
       <c r="D100" s="4"/>
-      <c r="E100" s="56"/>
+      <c r="E100" s="58"/>
       <c r="F100" s="4"/>
       <c r="G100" s="4"/>
       <c r="H100" s="4"/>
       <c r="I100" s="4"/>
       <c r="J100" s="4"/>
-      <c r="K100" s="68"/>
+      <c r="K100" s="70"/>
     </row>
     <row r="101" spans="1:11">
       <c r="A101" s="4"/>
       <c r="B101" s="4"/>
       <c r="D101" s="4"/>
-      <c r="E101" s="56"/>
+      <c r="E101" s="58"/>
       <c r="F101" s="4"/>
       <c r="G101" s="4"/>
       <c r="H101" s="4"/>
       <c r="I101" s="4"/>
       <c r="J101" s="4"/>
-      <c r="K101" s="68"/>
+      <c r="K101" s="70"/>
     </row>
     <row r="102" spans="1:11">
       <c r="A102" s="4"/>
       <c r="B102" s="4"/>
       <c r="D102" s="4"/>
-      <c r="E102" s="56"/>
+      <c r="E102" s="58"/>
       <c r="F102" s="4"/>
       <c r="G102" s="4"/>
       <c r="H102" s="4"/>
       <c r="I102" s="4"/>
       <c r="J102" s="4"/>
-      <c r="K102" s="68"/>
+      <c r="K102" s="70"/>
     </row>
     <row r="103" spans="1:11">
       <c r="A103" s="4"/>
       <c r="B103" s="4"/>
       <c r="D103" s="4"/>
-      <c r="E103" s="56"/>
+      <c r="E103" s="58"/>
       <c r="F103" s="4"/>
       <c r="G103" s="4"/>
       <c r="H103" s="4"/>
       <c r="I103" s="4"/>
       <c r="J103" s="4"/>
-      <c r="K103" s="68"/>
+      <c r="K103" s="70"/>
     </row>
     <row r="104" spans="1:11">
       <c r="A104" s="4"/>
       <c r="B104" s="4"/>
       <c r="D104" s="4"/>
-      <c r="E104" s="56"/>
+      <c r="E104" s="58"/>
       <c r="F104" s="4"/>
       <c r="G104" s="4"/>
       <c r="H104" s="4"/>
       <c r="I104" s="4"/>
       <c r="J104" s="4"/>
-      <c r="K104" s="68"/>
+      <c r="K104" s="70"/>
     </row>
     <row r="105" spans="1:11">
       <c r="A105" s="4"/>
       <c r="B105" s="4"/>
       <c r="D105" s="4"/>
-      <c r="E105" s="56"/>
+      <c r="E105" s="58"/>
       <c r="F105" s="4"/>
       <c r="G105" s="4"/>
       <c r="H105" s="4"/>
       <c r="I105" s="4"/>
       <c r="J105" s="4"/>
-      <c r="K105" s="68"/>
+      <c r="K105" s="70"/>
     </row>
     <row r="106" spans="1:11">
       <c r="A106" s="4"/>
       <c r="B106" s="4"/>
       <c r="D106" s="4"/>
-      <c r="E106" s="56"/>
+      <c r="E106" s="58"/>
       <c r="F106" s="4"/>
       <c r="G106" s="4"/>
       <c r="H106" s="4"/>
       <c r="I106" s="4"/>
       <c r="J106" s="4"/>
-      <c r="K106" s="68"/>
+      <c r="K106" s="70"/>
     </row>
     <row r="107" spans="1:11">
       <c r="A107" s="4"/>
       <c r="B107" s="4"/>
       <c r="D107" s="4"/>
-      <c r="E107" s="56"/>
+      <c r="E107" s="58"/>
       <c r="F107" s="4"/>
       <c r="G107" s="4"/>
       <c r="H107" s="4"/>
       <c r="I107" s="4"/>
       <c r="J107" s="4"/>
-      <c r="K107" s="68"/>
+      <c r="K107" s="70"/>
     </row>
     <row r="108" spans="1:11">
       <c r="A108" s="4"/>
       <c r="B108" s="4"/>
       <c r="D108" s="4"/>
-      <c r="E108" s="56"/>
+      <c r="E108" s="58"/>
       <c r="F108" s="4"/>
       <c r="G108" s="4"/>
       <c r="H108" s="4"/>
       <c r="I108" s="4"/>
       <c r="J108" s="4"/>
-      <c r="K108" s="68"/>
+      <c r="K108" s="70"/>
     </row>
     <row r="109" spans="1:11">
       <c r="A109" s="4"/>
       <c r="B109" s="4"/>
       <c r="D109" s="4"/>
-      <c r="E109" s="56"/>
+      <c r="E109" s="58"/>
       <c r="F109" s="4"/>
       <c r="G109" s="4"/>
       <c r="H109" s="4"/>
       <c r="I109" s="4"/>
       <c r="J109" s="4"/>
-      <c r="K109" s="68"/>
+      <c r="K109" s="70"/>
     </row>
     <row r="110" spans="1:11">
       <c r="A110" s="4"/>
       <c r="B110" s="4"/>
       <c r="D110" s="4"/>
-      <c r="E110" s="56"/>
+      <c r="E110" s="58"/>
       <c r="F110" s="4"/>
       <c r="G110" s="4"/>
       <c r="H110" s="4"/>
       <c r="I110" s="4"/>
       <c r="J110" s="4"/>
-      <c r="K110" s="68"/>
+      <c r="K110" s="70"/>
     </row>
     <row r="111" spans="1:11">
       <c r="A111" s="4"/>
       <c r="B111" s="4"/>
       <c r="D111" s="4"/>
-      <c r="E111" s="56"/>
+      <c r="E111" s="58"/>
       <c r="F111" s="4"/>
       <c r="G111" s="4"/>
       <c r="H111" s="4"/>
       <c r="I111" s="4"/>
       <c r="J111" s="4"/>
-      <c r="K111" s="68"/>
+      <c r="K111" s="70"/>
     </row>
     <row r="112" spans="1:11">
       <c r="A112" s="4"/>
       <c r="B112" s="4"/>
       <c r="D112" s="4"/>
-      <c r="E112" s="56"/>
+      <c r="E112" s="58"/>
       <c r="F112" s="4"/>
       <c r="G112" s="4"/>
       <c r="H112" s="4"/>
       <c r="I112" s="4"/>
       <c r="J112" s="4"/>
-      <c r="K112" s="68"/>
+      <c r="K112" s="70"/>
     </row>
     <row r="113" spans="1:11">
       <c r="A113" s="4"/>
       <c r="B113" s="4"/>
       <c r="D113" s="4"/>
-      <c r="E113" s="56"/>
+      <c r="E113" s="58"/>
       <c r="F113" s="4"/>
       <c r="G113" s="4"/>
       <c r="H113" s="4"/>
       <c r="I113" s="4"/>
       <c r="J113" s="4"/>
-      <c r="K113" s="68"/>
+      <c r="K113" s="70"/>
     </row>
     <row r="114" spans="1:11">
       <c r="A114" s="4"/>
       <c r="B114" s="4"/>
       <c r="D114" s="4"/>
-      <c r="E114" s="56"/>
+      <c r="E114" s="58"/>
       <c r="F114" s="4"/>
       <c r="G114" s="4"/>
       <c r="H114" s="4"/>
       <c r="I114" s="4"/>
       <c r="J114" s="4"/>
-      <c r="K114" s="68"/>
+      <c r="K114" s="70"/>
     </row>
     <row r="115" spans="1:11">
       <c r="A115" s="4"/>
       <c r="B115" s="4"/>
       <c r="D115" s="4"/>
-      <c r="E115" s="56"/>
+      <c r="E115" s="58"/>
       <c r="F115" s="4"/>
       <c r="G115" s="4"/>
       <c r="H115" s="4"/>
       <c r="I115" s="4"/>
       <c r="J115" s="4"/>
-      <c r="K115" s="68"/>
+      <c r="K115" s="70"/>
     </row>
     <row r="116" spans="1:11">
       <c r="A116" s="4"/>
       <c r="B116" s="4"/>
       <c r="D116" s="4"/>
-      <c r="E116" s="56"/>
+      <c r="E116" s="58"/>
       <c r="F116" s="4"/>
       <c r="G116" s="4"/>
       <c r="H116" s="4"/>
       <c r="I116" s="4"/>
       <c r="J116" s="4"/>
-      <c r="K116" s="68"/>
+      <c r="K116" s="70"/>
     </row>
     <row r="117" spans="1:11">
       <c r="A117" s="4"/>
       <c r="B117" s="4"/>
       <c r="D117" s="4"/>
-      <c r="E117" s="56"/>
+      <c r="E117" s="58"/>
       <c r="F117" s="4"/>
       <c r="G117" s="4"/>
       <c r="H117" s="4"/>
       <c r="I117" s="4"/>
       <c r="J117" s="4"/>
-      <c r="K117" s="68"/>
+      <c r="K117" s="70"/>
     </row>
     <row r="118" spans="1:11">
       <c r="A118" s="4"/>
       <c r="B118" s="4"/>
       <c r="D118" s="4"/>
-      <c r="E118" s="56"/>
+      <c r="E118" s="58"/>
       <c r="F118" s="4"/>
       <c r="G118" s="4"/>
       <c r="H118" s="4"/>
       <c r="I118" s="4"/>
       <c r="J118" s="4"/>
-      <c r="K118" s="68"/>
+      <c r="K118" s="70"/>
     </row>
     <row r="119" spans="1:11">
       <c r="A119" s="4"/>
       <c r="B119" s="4"/>
       <c r="D119" s="4"/>
-      <c r="E119" s="56"/>
+      <c r="E119" s="58"/>
       <c r="F119" s="4"/>
       <c r="G119" s="4"/>
       <c r="H119" s="4"/>
       <c r="I119" s="4"/>
       <c r="J119" s="4"/>
-      <c r="K119" s="68"/>
+      <c r="K119" s="70"/>
     </row>
     <row r="120" spans="1:11">
       <c r="A120" s="4"/>
       <c r="B120" s="4"/>
       <c r="D120" s="4"/>
-      <c r="E120" s="56"/>
+      <c r="E120" s="58"/>
       <c r="F120" s="4"/>
       <c r="G120" s="4"/>
       <c r="H120" s="4"/>
       <c r="I120" s="4"/>
       <c r="J120" s="4"/>
-      <c r="K120" s="68"/>
+      <c r="K120" s="70"/>
     </row>
     <row r="121" spans="1:11">
       <c r="A121" s="4"/>
       <c r="B121" s="4"/>
       <c r="D121" s="4"/>
-      <c r="E121" s="56"/>
+      <c r="E121" s="58"/>
       <c r="F121" s="4"/>
       <c r="G121" s="4"/>
       <c r="H121" s="4"/>
       <c r="I121" s="4"/>
       <c r="J121" s="4"/>
-      <c r="K121" s="68"/>
+      <c r="K121" s="70"/>
     </row>
     <row r="122" spans="1:11">
       <c r="A122" s="4"/>
       <c r="B122" s="4"/>
       <c r="D122" s="4"/>
-      <c r="E122" s="56"/>
+      <c r="E122" s="58"/>
       <c r="F122" s="4"/>
       <c r="G122" s="4"/>
       <c r="H122" s="4"/>
       <c r="I122" s="4"/>
       <c r="J122" s="4"/>
-      <c r="K122" s="68"/>
+      <c r="K122" s="70"/>
     </row>
     <row r="123" spans="1:11">
       <c r="A123" s="4"/>
       <c r="B123" s="4"/>
       <c r="D123" s="4"/>
-      <c r="E123" s="56"/>
+      <c r="E123" s="58"/>
       <c r="F123" s="4"/>
       <c r="G123" s="4"/>
       <c r="H123" s="4"/>
       <c r="I123" s="4"/>
       <c r="J123" s="4"/>
-      <c r="K123" s="68"/>
+      <c r="K123" s="70"/>
     </row>
     <row r="124" spans="1:11">
       <c r="A124" s="4"/>
       <c r="B124" s="4"/>
       <c r="D124" s="4"/>
-      <c r="E124" s="56"/>
+      <c r="E124" s="58"/>
       <c r="F124" s="4"/>
       <c r="G124" s="4"/>
       <c r="H124" s="4"/>
       <c r="I124" s="4"/>
       <c r="J124" s="4"/>
-      <c r="K124" s="68"/>
+      <c r="K124" s="70"/>
     </row>
     <row r="125" spans="1:11">
       <c r="A125" s="4"/>
       <c r="B125" s="4"/>
       <c r="D125" s="4"/>
-      <c r="E125" s="56"/>
+      <c r="E125" s="58"/>
       <c r="F125" s="4"/>
       <c r="G125" s="4"/>
       <c r="H125" s="4"/>
       <c r="I125" s="4"/>
       <c r="J125" s="4"/>
-      <c r="K125" s="68"/>
+      <c r="K125" s="70"/>
     </row>
     <row r="126" spans="1:11">
       <c r="A126" s="4"/>
       <c r="B126" s="4"/>
       <c r="D126" s="4"/>
-      <c r="E126" s="56"/>
+      <c r="E126" s="58"/>
       <c r="F126" s="4"/>
       <c r="G126" s="4"/>
       <c r="H126" s="4"/>
       <c r="I126" s="4"/>
       <c r="J126" s="4"/>
-      <c r="K126" s="68"/>
+      <c r="K126" s="70"/>
     </row>
     <row r="127" spans="1:11">
       <c r="A127" s="4"/>
       <c r="B127" s="4"/>
       <c r="D127" s="4"/>
-      <c r="E127" s="56"/>
+      <c r="E127" s="58"/>
       <c r="F127" s="4"/>
       <c r="G127" s="4"/>
       <c r="H127" s="4"/>
       <c r="I127" s="4"/>
       <c r="J127" s="4"/>
-      <c r="K127" s="68"/>
+      <c r="K127" s="70"/>
     </row>
     <row r="128" spans="1:11">
       <c r="A128" s="4"/>
       <c r="B128" s="4"/>
       <c r="D128" s="4"/>
-      <c r="E128" s="56"/>
+      <c r="E128" s="58"/>
       <c r="F128" s="4"/>
       <c r="G128" s="4"/>
       <c r="H128" s="4"/>
       <c r="I128" s="4"/>
       <c r="J128" s="4"/>
-      <c r="K128" s="68"/>
+      <c r="K128" s="70"/>
     </row>
     <row r="129" spans="1:11">
       <c r="A129" s="4"/>
       <c r="B129" s="4"/>
       <c r="D129" s="4"/>
-      <c r="E129" s="56"/>
+      <c r="E129" s="58"/>
       <c r="F129" s="4"/>
       <c r="G129" s="4"/>
       <c r="H129" s="4"/>
       <c r="I129" s="4"/>
       <c r="J129" s="4"/>
-      <c r="K129" s="68"/>
+      <c r="K129" s="70"/>
     </row>
     <row r="130" spans="1:11">
       <c r="A130" s="4"/>
       <c r="B130" s="4"/>
       <c r="D130" s="4"/>
-      <c r="E130" s="56"/>
+      <c r="E130" s="58"/>
       <c r="F130" s="4"/>
       <c r="G130" s="4"/>
       <c r="H130" s="4"/>
       <c r="I130" s="4"/>
       <c r="J130" s="4"/>
-      <c r="K130" s="68"/>
+      <c r="K130" s="70"/>
     </row>
     <row r="131" spans="1:11">
       <c r="A131" s="4"/>
       <c r="B131" s="4"/>
       <c r="D131" s="4"/>
-      <c r="E131" s="56"/>
+      <c r="E131" s="58"/>
       <c r="F131" s="4"/>
       <c r="G131" s="4"/>
       <c r="H131" s="4"/>
       <c r="I131" s="4"/>
       <c r="J131" s="4"/>
-      <c r="K131" s="68"/>
+      <c r="K131" s="70"/>
     </row>
     <row r="132" spans="1:11">
       <c r="A132" s="4"/>
       <c r="B132" s="4"/>
       <c r="D132" s="4"/>
-      <c r="E132" s="56"/>
+      <c r="E132" s="58"/>
       <c r="F132" s="4"/>
       <c r="G132" s="4"/>
       <c r="H132" s="4"/>
       <c r="I132" s="4"/>
       <c r="J132" s="4"/>
-      <c r="K132" s="68"/>
+      <c r="K132" s="70"/>
     </row>
     <row r="133" spans="1:11">
       <c r="A133" s="4"/>
       <c r="B133" s="4"/>
       <c r="D133" s="4"/>
-      <c r="E133" s="56"/>
+      <c r="E133" s="58"/>
       <c r="F133" s="4"/>
       <c r="G133" s="4"/>
       <c r="H133" s="4"/>
       <c r="I133" s="4"/>
       <c r="J133" s="4"/>
-      <c r="K133" s="68"/>
+      <c r="K133" s="70"/>
     </row>
     <row r="134" spans="1:11">
       <c r="A134" s="4"/>
       <c r="B134" s="4"/>
       <c r="D134" s="4"/>
-      <c r="E134" s="56"/>
+      <c r="E134" s="58"/>
       <c r="F134" s="4"/>
       <c r="G134" s="4"/>
       <c r="H134" s="4"/>
       <c r="I134" s="4"/>
       <c r="J134" s="4"/>
-      <c r="K134" s="68"/>
+      <c r="K134" s="70"/>
     </row>
     <row r="135" spans="1:11">
       <c r="A135" s="4"/>
       <c r="B135" s="4"/>
       <c r="D135" s="4"/>
-      <c r="E135" s="56"/>
+      <c r="E135" s="58"/>
       <c r="F135" s="4"/>
       <c r="G135" s="4"/>
       <c r="H135" s="4"/>
       <c r="I135" s="4"/>
       <c r="J135" s="4"/>
-      <c r="K135" s="68"/>
+      <c r="K135" s="70"/>
     </row>
     <row r="136" spans="1:11">
       <c r="A136" s="4"/>
       <c r="B136" s="4"/>
       <c r="D136" s="4"/>
-      <c r="E136" s="56"/>
+      <c r="E136" s="58"/>
       <c r="F136" s="4"/>
       <c r="G136" s="4"/>
       <c r="H136" s="4"/>
       <c r="I136" s="4"/>
       <c r="J136" s="4"/>
-      <c r="K136" s="68"/>
+      <c r="K136" s="70"/>
     </row>
     <row r="137" spans="1:11">
       <c r="A137" s="4"/>
       <c r="B137" s="4"/>
       <c r="D137" s="4"/>
-      <c r="E137" s="56"/>
+      <c r="E137" s="58"/>
       <c r="F137" s="4"/>
       <c r="G137" s="4"/>
       <c r="H137" s="4"/>
       <c r="I137" s="4"/>
       <c r="J137" s="4"/>
-      <c r="K137" s="68"/>
+      <c r="K137" s="70"/>
     </row>
     <row r="138" spans="1:11">
       <c r="A138" s="4"/>
       <c r="B138" s="4"/>
       <c r="D138" s="4"/>
-      <c r="E138" s="56"/>
+      <c r="E138" s="58"/>
       <c r="F138" s="4"/>
       <c r="G138" s="4"/>
       <c r="H138" s="4"/>
       <c r="I138" s="4"/>
       <c r="J138" s="4"/>
-      <c r="K138" s="68"/>
+      <c r="K138" s="70"/>
     </row>
     <row r="139" spans="1:11">
       <c r="A139" s="4"/>
       <c r="B139" s="4"/>
       <c r="D139" s="4"/>
-      <c r="E139" s="56"/>
+      <c r="E139" s="58"/>
       <c r="F139" s="4"/>
       <c r="G139" s="4"/>
       <c r="H139" s="4"/>
       <c r="I139" s="4"/>
       <c r="J139" s="4"/>
-      <c r="K139" s="68"/>
+      <c r="K139" s="70"/>
     </row>
     <row r="140" spans="1:11">
       <c r="A140" s="4"/>
       <c r="B140" s="4"/>
       <c r="D140" s="4"/>
-      <c r="E140" s="56"/>
+      <c r="E140" s="58"/>
       <c r="F140" s="4"/>
       <c r="G140" s="4"/>
       <c r="H140" s="4"/>
       <c r="I140" s="4"/>
       <c r="J140" s="4"/>
-      <c r="K140" s="68"/>
+      <c r="K140" s="70"/>
     </row>
     <row r="141" spans="1:11">
       <c r="A141" s="4"/>
       <c r="B141" s="4"/>
       <c r="D141" s="4"/>
-      <c r="E141" s="56"/>
+      <c r="E141" s="58"/>
       <c r="F141" s="4"/>
       <c r="G141" s="4"/>
       <c r="H141" s="4"/>
       <c r="I141" s="4"/>
       <c r="J141" s="4"/>
-      <c r="K141" s="68"/>
+      <c r="K141" s="70"/>
     </row>
     <row r="142" spans="1:11">
       <c r="A142" s="4"/>
       <c r="B142" s="4"/>
       <c r="D142" s="4"/>
-      <c r="E142" s="56"/>
+      <c r="E142" s="58"/>
       <c r="F142" s="4"/>
       <c r="G142" s="4"/>
       <c r="H142" s="4"/>
       <c r="I142" s="4"/>
       <c r="J142" s="4"/>
-      <c r="K142" s="68"/>
+      <c r="K142" s="70"/>
     </row>
     <row r="143" spans="1:11">
       <c r="A143" s="4"/>
       <c r="B143" s="4"/>
       <c r="D143" s="4"/>
-      <c r="E143" s="56"/>
+      <c r="E143" s="58"/>
       <c r="F143" s="4"/>
       <c r="G143" s="4"/>
       <c r="H143" s="4"/>
       <c r="I143" s="4"/>
       <c r="J143" s="4"/>
-      <c r="K143" s="68"/>
+      <c r="K143" s="70"/>
     </row>
     <row r="144" spans="1:11">
       <c r="A144" s="4"/>
       <c r="B144" s="4"/>
       <c r="D144" s="4"/>
-      <c r="E144" s="56"/>
+      <c r="E144" s="58"/>
       <c r="F144" s="4"/>
       <c r="G144" s="4"/>
       <c r="H144" s="4"/>
       <c r="I144" s="4"/>
       <c r="J144" s="4"/>
-      <c r="K144" s="68"/>
+      <c r="K144" s="70"/>
     </row>
     <row r="145" spans="1:11">
       <c r="A145" s="4"/>
       <c r="B145" s="4"/>
       <c r="D145" s="4"/>
-      <c r="E145" s="56"/>
+      <c r="E145" s="58"/>
       <c r="F145" s="4"/>
       <c r="G145" s="4"/>
       <c r="H145" s="4"/>
       <c r="I145" s="4"/>
       <c r="J145" s="4"/>
-      <c r="K145" s="68"/>
+      <c r="K145" s="70"/>
     </row>
     <row r="146" spans="1:11">
       <c r="A146" s="4"/>
       <c r="B146" s="4"/>
       <c r="D146" s="4"/>
-      <c r="E146" s="56"/>
+      <c r="E146" s="58"/>
       <c r="F146" s="4"/>
       <c r="G146" s="4"/>
       <c r="H146" s="4"/>
       <c r="I146" s="4"/>
       <c r="J146" s="4"/>
-      <c r="K146" s="68"/>
+      <c r="K146" s="70"/>
     </row>
     <row r="147" spans="1:11">
       <c r="A147" s="4"/>
       <c r="B147" s="4"/>
       <c r="D147" s="4"/>
-      <c r="E147" s="56"/>
+      <c r="E147" s="58"/>
       <c r="F147" s="4"/>
       <c r="G147" s="4"/>
       <c r="H147" s="4"/>
       <c r="I147" s="4"/>
       <c r="J147" s="4"/>
-      <c r="K147" s="68"/>
+      <c r="K147" s="70"/>
     </row>
     <row r="148" spans="1:11">
       <c r="A148" s="4"/>
       <c r="B148" s="4"/>
       <c r="D148" s="4"/>
-      <c r="E148" s="56"/>
+      <c r="E148" s="58"/>
       <c r="F148" s="4"/>
       <c r="G148" s="4"/>
       <c r="H148" s="4"/>
       <c r="I148" s="4"/>
       <c r="J148" s="4"/>
-      <c r="K148" s="68"/>
+      <c r="K148" s="70"/>
     </row>
     <row r="149" spans="1:11">
       <c r="A149" s="4"/>
       <c r="B149" s="4"/>
       <c r="D149" s="4"/>
-      <c r="E149" s="56"/>
+      <c r="E149" s="58"/>
       <c r="F149" s="4"/>
       <c r="G149" s="4"/>
       <c r="H149" s="4"/>
       <c r="I149" s="4"/>
       <c r="J149" s="4"/>
-      <c r="K149" s="68"/>
+      <c r="K149" s="70"/>
     </row>
     <row r="150" spans="1:11">
       <c r="A150" s="4"/>
       <c r="B150" s="4"/>
       <c r="D150" s="4"/>
-      <c r="E150" s="56"/>
+      <c r="E150" s="58"/>
       <c r="F150" s="4"/>
       <c r="G150" s="4"/>
       <c r="H150" s="4"/>
       <c r="I150" s="4"/>
       <c r="J150" s="4"/>
-      <c r="K150" s="68"/>
+      <c r="K150" s="70"/>
     </row>
     <row r="151" spans="1:11">
       <c r="A151" s="4"/>
       <c r="B151" s="4"/>
       <c r="D151" s="4"/>
-      <c r="E151" s="56"/>
+      <c r="E151" s="58"/>
       <c r="F151" s="4"/>
       <c r="G151" s="4"/>
       <c r="H151" s="4"/>
       <c r="I151" s="4"/>
       <c r="J151" s="4"/>
-      <c r="K151" s="68"/>
+      <c r="K151" s="70"/>
     </row>
     <row r="152" spans="1:11">
       <c r="A152" s="4"/>
       <c r="B152" s="4"/>
       <c r="D152" s="4"/>
-      <c r="E152" s="56"/>
+      <c r="E152" s="58"/>
       <c r="F152" s="4"/>
       <c r="G152" s="4"/>
       <c r="H152" s="4"/>
       <c r="I152" s="4"/>
       <c r="J152" s="4"/>
-      <c r="K152" s="68"/>
+      <c r="K152" s="70"/>
     </row>
     <row r="153" spans="1:11">
       <c r="A153" s="4"/>
       <c r="B153" s="4"/>
       <c r="D153" s="4"/>
-      <c r="E153" s="56"/>
+      <c r="E153" s="58"/>
       <c r="F153" s="4"/>
       <c r="G153" s="4"/>
       <c r="H153" s="4"/>
       <c r="I153" s="4"/>
       <c r="J153" s="4"/>
-      <c r="K153" s="68"/>
+      <c r="K153" s="70"/>
     </row>
     <row r="154" spans="1:11">
       <c r="A154" s="4"/>
       <c r="B154" s="4"/>
       <c r="D154" s="4"/>
-      <c r="E154" s="56"/>
+      <c r="E154" s="58"/>
       <c r="F154" s="4"/>
       <c r="G154" s="4"/>
       <c r="H154" s="4"/>
       <c r="I154" s="4"/>
       <c r="J154" s="4"/>
-      <c r="K154" s="68"/>
+      <c r="K154" s="70"/>
     </row>
     <row r="155" spans="1:11">
       <c r="A155" s="4"/>
       <c r="B155" s="4"/>
       <c r="D155" s="4"/>
-      <c r="E155" s="56"/>
+      <c r="E155" s="58"/>
       <c r="F155" s="4"/>
       <c r="G155" s="4"/>
       <c r="H155" s="4"/>
       <c r="I155" s="4"/>
       <c r="J155" s="4"/>
-      <c r="K155" s="68"/>
+      <c r="K155" s="70"/>
     </row>
     <row r="156" spans="1:11">
       <c r="A156" s="4"/>
       <c r="B156" s="4"/>
       <c r="D156" s="4"/>
-      <c r="E156" s="56"/>
+      <c r="E156" s="58"/>
       <c r="F156" s="4"/>
       <c r="G156" s="4"/>
       <c r="H156" s="4"/>
       <c r="I156" s="4"/>
       <c r="J156" s="4"/>
-      <c r="K156" s="68"/>
+      <c r="K156" s="70"/>
     </row>
     <row r="157" spans="1:11">
       <c r="A157" s="4"/>
       <c r="B157" s="4"/>
       <c r="D157" s="4"/>
-      <c r="E157" s="56"/>
+      <c r="E157" s="58"/>
       <c r="F157" s="4"/>
       <c r="G157" s="4"/>
       <c r="H157" s="4"/>
       <c r="I157" s="4"/>
       <c r="J157" s="4"/>
-      <c r="K157" s="68"/>
+      <c r="K157" s="70"/>
     </row>
     <row r="158" spans="1:11">
       <c r="A158" s="4"/>
       <c r="B158" s="4"/>
       <c r="D158" s="4"/>
-      <c r="E158" s="56"/>
+      <c r="E158" s="58"/>
       <c r="F158" s="4"/>
       <c r="G158" s="4"/>
       <c r="H158" s="4"/>
       <c r="I158" s="4"/>
       <c r="J158" s="4"/>
-      <c r="K158" s="68"/>
+      <c r="K158" s="70"/>
     </row>
     <row r="159" spans="1:11">
       <c r="A159" s="4"/>
       <c r="B159" s="4"/>
       <c r="D159" s="4"/>
-      <c r="E159" s="56"/>
+      <c r="E159" s="58"/>
       <c r="F159" s="4"/>
       <c r="G159" s="4"/>
       <c r="H159" s="4"/>
       <c r="I159" s="4"/>
       <c r="J159" s="4"/>
-      <c r="K159" s="68"/>
+      <c r="K159" s="70"/>
     </row>
     <row r="160" spans="1:11">
       <c r="A160" s="4"/>
       <c r="B160" s="4"/>
       <c r="D160" s="4"/>
-      <c r="E160" s="56"/>
+      <c r="E160" s="58"/>
       <c r="F160" s="4"/>
       <c r="G160" s="4"/>
       <c r="H160" s="4"/>
       <c r="I160" s="4"/>
       <c r="J160" s="4"/>
-      <c r="K160" s="68"/>
+      <c r="K160" s="70"/>
     </row>
     <row r="161" spans="1:11">
       <c r="A161" s="4"/>
       <c r="B161" s="4"/>
       <c r="D161" s="4"/>
-      <c r="E161" s="56"/>
+      <c r="E161" s="58"/>
       <c r="F161" s="4"/>
       <c r="G161" s="4"/>
       <c r="H161" s="4"/>
       <c r="I161" s="4"/>
       <c r="J161" s="4"/>
-      <c r="K161" s="68"/>
+      <c r="K161" s="70"/>
     </row>
     <row r="162" spans="1:11">
       <c r="A162" s="4"/>
       <c r="B162" s="4"/>
       <c r="D162" s="4"/>
-      <c r="E162" s="56"/>
+      <c r="E162" s="58"/>
       <c r="F162" s="4"/>
       <c r="G162" s="4"/>
       <c r="H162" s="4"/>
       <c r="I162" s="4"/>
       <c r="J162" s="4"/>
-      <c r="K162" s="68"/>
+      <c r="K162" s="70"/>
     </row>
     <row r="163" spans="1:11">
       <c r="A163" s="4"/>
       <c r="B163" s="4"/>
       <c r="D163" s="4"/>
-      <c r="E163" s="56"/>
+      <c r="E163" s="58"/>
       <c r="F163" s="4"/>
       <c r="G163" s="4"/>
       <c r="H163" s="4"/>
       <c r="I163" s="4"/>
       <c r="J163" s="4"/>
-      <c r="K163" s="68"/>
+      <c r="K163" s="70"/>
     </row>
     <row r="164" spans="1:11">
       <c r="A164" s="4"/>
       <c r="B164" s="4"/>
       <c r="D164" s="4"/>
-      <c r="E164" s="56"/>
+      <c r="E164" s="58"/>
       <c r="F164" s="4"/>
       <c r="G164" s="4"/>
       <c r="H164" s="4"/>
       <c r="I164" s="4"/>
       <c r="J164" s="4"/>
-      <c r="K164" s="68"/>
+      <c r="K164" s="70"/>
     </row>
     <row r="165" spans="1:11">
       <c r="A165" s="4"/>
       <c r="B165" s="4"/>
       <c r="D165" s="4"/>
-      <c r="E165" s="56"/>
+      <c r="E165" s="58"/>
       <c r="F165" s="4"/>
       <c r="G165" s="4"/>
       <c r="H165" s="4"/>
       <c r="I165" s="4"/>
       <c r="J165" s="4"/>
-      <c r="K165" s="68"/>
+      <c r="K165" s="70"/>
     </row>
     <row r="166" spans="1:11">
       <c r="A166" s="4"/>
       <c r="B166" s="4"/>
       <c r="D166" s="4"/>
-      <c r="E166" s="56"/>
+      <c r="E166" s="58"/>
       <c r="F166" s="4"/>
       <c r="G166" s="4"/>
       <c r="H166" s="4"/>
       <c r="I166" s="4"/>
       <c r="J166" s="4"/>
-      <c r="K166" s="68"/>
+      <c r="K166" s="70"/>
     </row>
     <row r="167" spans="1:11">
       <c r="A167" s="4"/>
       <c r="B167" s="4"/>
       <c r="D167" s="4"/>
-      <c r="E167" s="56"/>
+      <c r="E167" s="58"/>
       <c r="F167" s="4"/>
       <c r="G167" s="4"/>
       <c r="H167" s="4"/>
       <c r="I167" s="4"/>
       <c r="J167" s="4"/>
-      <c r="K167" s="68"/>
+      <c r="K167" s="70"/>
     </row>
     <row r="168" spans="1:11">
       <c r="A168" s="4"/>
       <c r="B168" s="4"/>
       <c r="D168" s="4"/>
-      <c r="E168" s="56"/>
+      <c r="E168" s="58"/>
       <c r="F168" s="4"/>
       <c r="G168" s="4"/>
       <c r="H168" s="4"/>
       <c r="I168" s="4"/>
       <c r="J168" s="4"/>
-      <c r="K168" s="68"/>
+      <c r="K168" s="70"/>
     </row>
     <row r="169" spans="1:11">
       <c r="A169" s="4"/>
       <c r="B169" s="4"/>
       <c r="D169" s="4"/>
-      <c r="E169" s="56"/>
+      <c r="E169" s="58"/>
       <c r="F169" s="4"/>
       <c r="G169" s="4"/>
       <c r="H169" s="4"/>
       <c r="I169" s="4"/>
       <c r="J169" s="4"/>
-      <c r="K169" s="68"/>
+      <c r="K169" s="70"/>
     </row>
     <row r="170" spans="1:11">
       <c r="A170" s="4"/>
       <c r="B170" s="4"/>
       <c r="D170" s="4"/>
-      <c r="E170" s="56"/>
+      <c r="E170" s="58"/>
       <c r="F170" s="4"/>
       <c r="G170" s="4"/>
       <c r="H170" s="4"/>
       <c r="I170" s="4"/>
       <c r="J170" s="4"/>
-      <c r="K170" s="68"/>
+      <c r="K170" s="70"/>
     </row>
     <row r="171" spans="1:11">
       <c r="A171" s="4"/>
       <c r="B171" s="4"/>
       <c r="D171" s="4"/>
-      <c r="E171" s="56"/>
+      <c r="E171" s="58"/>
       <c r="F171" s="4"/>
       <c r="G171" s="4"/>
       <c r="H171" s="4"/>
       <c r="I171" s="4"/>
       <c r="J171" s="4"/>
-      <c r="K171" s="68"/>
+      <c r="K171" s="70"/>
     </row>
     <row r="172" spans="1:11">
       <c r="A172" s="4"/>
       <c r="B172" s="4"/>
       <c r="D172" s="4"/>
-      <c r="E172" s="56"/>
+      <c r="E172" s="58"/>
       <c r="F172" s="4"/>
       <c r="G172" s="4"/>
       <c r="H172" s="4"/>
       <c r="I172" s="4"/>
       <c r="J172" s="4"/>
-      <c r="K172" s="68"/>
+      <c r="K172" s="70"/>
     </row>
     <row r="173" spans="1:11">
       <c r="A173" s="4"/>
       <c r="B173" s="4"/>
       <c r="D173" s="4"/>
-      <c r="E173" s="56"/>
+      <c r="E173" s="58"/>
       <c r="F173" s="4"/>
       <c r="G173" s="4"/>
       <c r="H173" s="4"/>
       <c r="I173" s="4"/>
       <c r="J173" s="4"/>
-      <c r="K173" s="68"/>
+      <c r="K173" s="70"/>
     </row>
     <row r="174" spans="1:11">
       <c r="A174" s="4"/>
       <c r="B174" s="4"/>
       <c r="D174" s="4"/>
-      <c r="E174" s="56"/>
+      <c r="E174" s="58"/>
       <c r="F174" s="4"/>
       <c r="G174" s="4"/>
       <c r="H174" s="4"/>
       <c r="I174" s="4"/>
       <c r="J174" s="4"/>
-      <c r="K174" s="68"/>
+      <c r="K174" s="70"/>
     </row>
     <row r="175" spans="1:11">
       <c r="A175" s="4"/>
       <c r="B175" s="4"/>
       <c r="D175" s="4"/>
-      <c r="E175" s="56"/>
+      <c r="E175" s="58"/>
       <c r="F175" s="4"/>
       <c r="G175" s="4"/>
       <c r="H175" s="4"/>
       <c r="I175" s="4"/>
       <c r="J175" s="4"/>
-      <c r="K175" s="68"/>
+      <c r="K175" s="70"/>
     </row>
     <row r="176" spans="1:11">
       <c r="A176" s="4"/>
       <c r="B176" s="4"/>
       <c r="D176" s="4"/>
-      <c r="E176" s="56"/>
+      <c r="E176" s="58"/>
       <c r="F176" s="4"/>
       <c r="G176" s="4"/>
       <c r="H176" s="4"/>
       <c r="I176" s="4"/>
       <c r="J176" s="4"/>
-      <c r="K176" s="68"/>
+      <c r="K176" s="70"/>
     </row>
     <row r="177" spans="1:11">
       <c r="A177" s="4"/>
       <c r="B177" s="4"/>
       <c r="D177" s="4"/>
-      <c r="E177" s="56"/>
+      <c r="E177" s="58"/>
       <c r="F177" s="4"/>
       <c r="G177" s="4"/>
       <c r="H177" s="4"/>
       <c r="I177" s="4"/>
       <c r="J177" s="4"/>
-      <c r="K177" s="68"/>
+      <c r="K177" s="70"/>
     </row>
     <row r="178" spans="1:11">
       <c r="A178" s="4"/>
       <c r="B178" s="4"/>
       <c r="D178" s="4"/>
-      <c r="E178" s="56"/>
+      <c r="E178" s="58"/>
       <c r="F178" s="4"/>
       <c r="G178" s="4"/>
       <c r="H178" s="4"/>
       <c r="I178" s="4"/>
       <c r="J178" s="4"/>
-      <c r="K178" s="68"/>
+      <c r="K178" s="70"/>
     </row>
     <row r="179" spans="1:11">
       <c r="A179" s="4"/>
       <c r="B179" s="4"/>
       <c r="D179" s="4"/>
-      <c r="E179" s="56"/>
+      <c r="E179" s="58"/>
       <c r="F179" s="4"/>
       <c r="G179" s="4"/>
       <c r="H179" s="4"/>
       <c r="I179" s="4"/>
       <c r="J179" s="4"/>
-      <c r="K179" s="68"/>
+      <c r="K179" s="70"/>
     </row>
     <row r="180" spans="1:11">
       <c r="A180" s="4"/>
       <c r="B180" s="4"/>
       <c r="D180" s="4"/>
-      <c r="E180" s="56"/>
+      <c r="E180" s="58"/>
       <c r="F180" s="4"/>
       <c r="G180" s="4"/>
       <c r="H180" s="4"/>
       <c r="I180" s="4"/>
       <c r="J180" s="4"/>
-      <c r="K180" s="68"/>
+      <c r="K180" s="70"/>
     </row>
     <row r="181" spans="1:11">
       <c r="A181" s="4"/>
       <c r="B181" s="4"/>
       <c r="D181" s="4"/>
-      <c r="E181" s="56"/>
+      <c r="E181" s="58"/>
       <c r="F181" s="4"/>
       <c r="G181" s="4"/>
       <c r="H181" s="4"/>
       <c r="I181" s="4"/>
       <c r="J181" s="4"/>
-      <c r="K181" s="68"/>
+      <c r="K181" s="70"/>
     </row>
     <row r="182" spans="1:11">
       <c r="A182" s="4"/>
       <c r="B182" s="4"/>
       <c r="D182" s="4"/>
-      <c r="E182" s="56"/>
+      <c r="E182" s="58"/>
       <c r="F182" s="4"/>
       <c r="G182" s="4"/>
       <c r="H182" s="4"/>
       <c r="I182" s="4"/>
       <c r="J182" s="4"/>
-      <c r="K182" s="68"/>
+      <c r="K182" s="70"/>
     </row>
     <row r="183" spans="1:11">
       <c r="A183" s="4"/>
       <c r="B183" s="4"/>
       <c r="D183" s="4"/>
-      <c r="E183" s="56"/>
+      <c r="E183" s="58"/>
       <c r="F183" s="4"/>
       <c r="G183" s="4"/>
       <c r="H183" s="4"/>
       <c r="I183" s="4"/>
       <c r="J183" s="4"/>
-      <c r="K183" s="68"/>
+      <c r="K183" s="70"/>
     </row>
     <row r="184" spans="1:11">
       <c r="A184" s="4"/>
       <c r="B184" s="4"/>
       <c r="D184" s="4"/>
-      <c r="E184" s="56"/>
+      <c r="E184" s="58"/>
       <c r="F184" s="4"/>
       <c r="G184" s="4"/>
       <c r="H184" s="4"/>
       <c r="I184" s="4"/>
       <c r="J184" s="4"/>
-      <c r="K184" s="68"/>
+      <c r="K184" s="70"/>
     </row>
     <row r="185" spans="1:11">
       <c r="A185" s="4"/>
       <c r="B185" s="4"/>
       <c r="D185" s="4"/>
-      <c r="E185" s="56"/>
+      <c r="E185" s="58"/>
       <c r="F185" s="4"/>
       <c r="G185" s="4"/>
       <c r="H185" s="4"/>
       <c r="I185" s="4"/>
       <c r="J185" s="4"/>
-      <c r="K185" s="68"/>
+      <c r="K185" s="70"/>
     </row>
     <row r="186" spans="1:11">
       <c r="A186" s="4"/>
       <c r="B186" s="4"/>
       <c r="D186" s="4"/>
-      <c r="E186" s="56"/>
+      <c r="E186" s="58"/>
       <c r="F186" s="4"/>
       <c r="G186" s="4"/>
       <c r="H186" s="4"/>
       <c r="I186" s="4"/>
       <c r="J186" s="4"/>
-      <c r="K186" s="68"/>
+      <c r="K186" s="70"/>
     </row>
     <row r="187" spans="1:11">
       <c r="A187" s="4"/>
       <c r="B187" s="4"/>
       <c r="D187" s="4"/>
-      <c r="E187" s="56"/>
+      <c r="E187" s="58"/>
       <c r="F187" s="4"/>
       <c r="G187" s="4"/>
       <c r="H187" s="4"/>
       <c r="I187" s="4"/>
       <c r="J187" s="4"/>
-      <c r="K187" s="68"/>
+      <c r="K187" s="70"/>
     </row>
     <row r="188" spans="1:11">
       <c r="A188" s="4"/>
       <c r="B188" s="4"/>
       <c r="D188" s="4"/>
-      <c r="E188" s="56"/>
+      <c r="E188" s="58"/>
       <c r="F188" s="4"/>
       <c r="G188" s="4"/>
       <c r="H188" s="4"/>
       <c r="I188" s="4"/>
       <c r="J188" s="4"/>
-      <c r="K188" s="68"/>
+      <c r="K188" s="70"/>
     </row>
     <row r="189" spans="1:11">
       <c r="A189" s="4"/>
       <c r="B189" s="4"/>
       <c r="D189" s="4"/>
-      <c r="E189" s="56"/>
+      <c r="E189" s="58"/>
       <c r="F189" s="4"/>
       <c r="G189" s="4"/>
       <c r="H189" s="4"/>
       <c r="I189" s="4"/>
       <c r="J189" s="4"/>
-      <c r="K189" s="68"/>
+      <c r="K189" s="70"/>
     </row>
     <row r="190" spans="1:11">
       <c r="A190" s="4"/>
       <c r="B190" s="4"/>
       <c r="D190" s="4"/>
-      <c r="E190" s="56"/>
+      <c r="E190" s="58"/>
       <c r="F190" s="4"/>
       <c r="G190" s="4"/>
       <c r="H190" s="4"/>
       <c r="I190" s="4"/>
       <c r="J190" s="4"/>
-      <c r="K190" s="68"/>
+      <c r="K190" s="70"/>
     </row>
     <row r="191" spans="1:11">
       <c r="A191" s="4"/>
       <c r="B191" s="4"/>
       <c r="D191" s="4"/>
-      <c r="E191" s="56"/>
+      <c r="E191" s="58"/>
       <c r="F191" s="4"/>
       <c r="G191" s="4"/>
       <c r="H191" s="4"/>
       <c r="I191" s="4"/>
       <c r="J191" s="4"/>
-      <c r="K191" s="68"/>
+      <c r="K191" s="70"/>
     </row>
     <row r="192" spans="1:11">
       <c r="A192" s="4"/>
       <c r="B192" s="4"/>
       <c r="D192" s="4"/>
-      <c r="E192" s="56"/>
+      <c r="E192" s="58"/>
       <c r="F192" s="4"/>
       <c r="G192" s="4"/>
       <c r="H192" s="4"/>
       <c r="I192" s="4"/>
       <c r="J192" s="4"/>
-      <c r="K192" s="68"/>
+      <c r="K192" s="70"/>
     </row>
     <row r="193" spans="1:11">
       <c r="A193" s="4"/>
       <c r="B193" s="4"/>
       <c r="D193" s="4"/>
-      <c r="E193" s="56"/>
+      <c r="E193" s="58"/>
       <c r="F193" s="4"/>
       <c r="G193" s="4"/>
       <c r="H193" s="4"/>
       <c r="I193" s="4"/>
       <c r="J193" s="4"/>
-      <c r="K193" s="68"/>
+      <c r="K193" s="70"/>
     </row>
     <row r="194" spans="1:11">
       <c r="A194" s="4"/>
       <c r="B194" s="4"/>
       <c r="D194" s="4"/>
-      <c r="E194" s="56"/>
+      <c r="E194" s="58"/>
       <c r="F194" s="4"/>
       <c r="G194" s="4"/>
       <c r="H194" s="4"/>
       <c r="I194" s="4"/>
       <c r="J194" s="4"/>
-      <c r="K194" s="68"/>
+      <c r="K194" s="70"/>
     </row>
     <row r="195" spans="1:11">
       <c r="A195" s="4"/>
       <c r="B195" s="4"/>
       <c r="D195" s="4"/>
-      <c r="E195" s="56"/>
+      <c r="E195" s="58"/>
       <c r="F195" s="4"/>
       <c r="G195" s="4"/>
       <c r="H195" s="4"/>
       <c r="I195" s="4"/>
       <c r="J195" s="4"/>
-      <c r="K195" s="68"/>
+      <c r="K195" s="70"/>
     </row>
     <row r="196" spans="1:11">
       <c r="A196" s="4"/>
       <c r="B196" s="4"/>
       <c r="D196" s="4"/>
-      <c r="E196" s="56"/>
+      <c r="E196" s="58"/>
       <c r="F196" s="4"/>
       <c r="G196" s="4"/>
       <c r="H196" s="4"/>
       <c r="I196" s="4"/>
       <c r="J196" s="4"/>
-      <c r="K196" s="68"/>
+      <c r="K196" s="70"/>
     </row>
     <row r="197" spans="1:11">
       <c r="A197" s="4"/>
       <c r="B197" s="4"/>
       <c r="D197" s="4"/>
-      <c r="E197" s="56"/>
+      <c r="E197" s="58"/>
       <c r="F197" s="4"/>
       <c r="G197" s="4"/>
       <c r="H197" s="4"/>
       <c r="I197" s="4"/>
       <c r="J197" s="4"/>
-      <c r="K197" s="68"/>
+      <c r="K197" s="70"/>
     </row>
     <row r="198" spans="1:11">
       <c r="A198" s="4"/>
       <c r="B198" s="4"/>
       <c r="D198" s="4"/>
-      <c r="E198" s="56"/>
+      <c r="E198" s="58"/>
       <c r="F198" s="4"/>
       <c r="G198" s="4"/>
       <c r="H198" s="4"/>
       <c r="I198" s="4"/>
       <c r="J198" s="4"/>
-      <c r="K198" s="68"/>
+      <c r="K198" s="70"/>
     </row>
     <row r="199" spans="1:11">
       <c r="A199" s="4"/>
       <c r="B199" s="4"/>
       <c r="D199" s="4"/>
-      <c r="E199" s="56"/>
+      <c r="E199" s="58"/>
       <c r="F199" s="4"/>
       <c r="G199" s="4"/>
       <c r="H199" s="4"/>
       <c r="I199" s="4"/>
       <c r="J199" s="4"/>
-      <c r="K199" s="68"/>
+      <c r="K199" s="70"/>
     </row>
     <row r="200" spans="1:11">
       <c r="A200" s="4"/>
       <c r="B200" s="4"/>
       <c r="D200" s="4"/>
-      <c r="E200" s="56"/>
+      <c r="E200" s="58"/>
       <c r="F200" s="4"/>
       <c r="G200" s="4"/>
       <c r="H200" s="4"/>
       <c r="I200" s="4"/>
       <c r="J200" s="4"/>
-      <c r="K200" s="68"/>
+      <c r="K200" s="70"/>
     </row>
     <row r="201" spans="1:11">
       <c r="A201" s="4"/>
       <c r="B201" s="4"/>
       <c r="D201" s="4"/>
-      <c r="E201" s="56"/>
+      <c r="E201" s="58"/>
       <c r="F201" s="4"/>
       <c r="G201" s="4"/>
       <c r="H201" s="4"/>
       <c r="I201" s="4"/>
       <c r="J201" s="4"/>
-      <c r="K201" s="68"/>
+      <c r="K201" s="70"/>
     </row>
     <row r="202" spans="1:11">
       <c r="A202" s="4"/>
       <c r="B202" s="4"/>
       <c r="D202" s="4"/>
-      <c r="E202" s="56"/>
+      <c r="E202" s="58"/>
       <c r="F202" s="4"/>
       <c r="G202" s="4"/>
       <c r="H202" s="4"/>
       <c r="I202" s="4"/>
       <c r="J202" s="4"/>
-      <c r="K202" s="68"/>
+      <c r="K202" s="70"/>
     </row>
     <row r="203" spans="1:11">
       <c r="A203" s="4"/>
       <c r="B203" s="4"/>
       <c r="D203" s="4"/>
-      <c r="E203" s="56"/>
+      <c r="E203" s="58"/>
       <c r="F203" s="4"/>
       <c r="G203" s="4"/>
       <c r="H203" s="4"/>
       <c r="I203" s="4"/>
       <c r="J203" s="4"/>
-      <c r="K203" s="68"/>
+      <c r="K203" s="70"/>
     </row>
     <row r="204" spans="1:11">
       <c r="A204" s="4"/>
       <c r="B204" s="4"/>
       <c r="D204" s="4"/>
-      <c r="E204" s="56"/>
+      <c r="E204" s="58"/>
       <c r="F204" s="4"/>
       <c r="G204" s="4"/>
       <c r="H204" s="4"/>
       <c r="I204" s="4"/>
       <c r="J204" s="4"/>
-      <c r="K204" s="68"/>
+      <c r="K204" s="70"/>
     </row>
     <row r="205" spans="1:11">
       <c r="A205" s="4"/>
       <c r="B205" s="4"/>
       <c r="D205" s="4"/>
-      <c r="E205" s="56"/>
+      <c r="E205" s="58"/>
       <c r="F205" s="4"/>
       <c r="G205" s="4"/>
       <c r="H205" s="4"/>
       <c r="I205" s="4"/>
       <c r="J205" s="4"/>
-      <c r="K205" s="68"/>
+      <c r="K205" s="70"/>
     </row>
     <row r="206" spans="1:11">
       <c r="A206" s="4"/>
       <c r="B206" s="4"/>
       <c r="D206" s="4"/>
-      <c r="E206" s="56"/>
+      <c r="E206" s="58"/>
       <c r="F206" s="4"/>
       <c r="G206" s="4"/>
       <c r="H206" s="4"/>
       <c r="I206" s="4"/>
       <c r="J206" s="4"/>
-      <c r="K206" s="68"/>
+      <c r="K206" s="70"/>
     </row>
     <row r="207" spans="1:11">
       <c r="A207" s="4"/>
       <c r="B207" s="4"/>
       <c r="D207" s="4"/>
-      <c r="E207" s="56"/>
+      <c r="E207" s="58"/>
       <c r="F207" s="4"/>
       <c r="G207" s="4"/>
       <c r="H207" s="4"/>
       <c r="I207" s="4"/>
       <c r="J207" s="4"/>
-      <c r="K207" s="68"/>
+      <c r="K207" s="70"/>
     </row>
     <row r="208" spans="1:11">
       <c r="A208" s="4"/>
       <c r="B208" s="4"/>
       <c r="D208" s="4"/>
-      <c r="E208" s="56"/>
+      <c r="E208" s="58"/>
       <c r="F208" s="4"/>
       <c r="G208" s="4"/>
       <c r="H208" s="4"/>
       <c r="I208" s="4"/>
       <c r="J208" s="4"/>
-      <c r="K208" s="68"/>
+      <c r="K208" s="70"/>
     </row>
     <row r="209" spans="1:11">
       <c r="A209" s="4"/>
       <c r="B209" s="4"/>
       <c r="D209" s="4"/>
-      <c r="E209" s="56"/>
+      <c r="E209" s="58"/>
       <c r="F209" s="4"/>
       <c r="G209" s="4"/>
       <c r="H209" s="4"/>
       <c r="I209" s="4"/>
       <c r="J209" s="4"/>
-      <c r="K209" s="68"/>
+      <c r="K209" s="70"/>
     </row>
     <row r="210" spans="1:11">
       <c r="A210" s="4"/>
       <c r="B210" s="4"/>
       <c r="D210" s="4"/>
-      <c r="E210" s="56"/>
+      <c r="E210" s="58"/>
       <c r="F210" s="4"/>
       <c r="G210" s="4"/>
       <c r="H210" s="4"/>
       <c r="I210" s="4"/>
       <c r="J210" s="4"/>
-      <c r="K210" s="68"/>
+      <c r="K210" s="70"/>
     </row>
     <row r="211" spans="1:11">
       <c r="A211" s="4"/>
       <c r="B211" s="4"/>
       <c r="D211" s="4"/>
-      <c r="E211" s="56"/>
+      <c r="E211" s="58"/>
       <c r="F211" s="4"/>
       <c r="G211" s="4"/>
       <c r="H211" s="4"/>
       <c r="I211" s="4"/>
       <c r="J211" s="4"/>
-      <c r="K211" s="68"/>
+      <c r="K211" s="70"/>
     </row>
     <row r="212" spans="1:11">
       <c r="A212" s="4"/>
       <c r="B212" s="4"/>
       <c r="D212" s="4"/>
-      <c r="E212" s="56"/>
+      <c r="E212" s="58"/>
       <c r="F212" s="4"/>
       <c r="G212" s="4"/>
       <c r="H212" s="4"/>
       <c r="I212" s="4"/>
       <c r="J212" s="4"/>
-      <c r="K212" s="68"/>
+      <c r="K212" s="70"/>
     </row>
     <row r="213" spans="1:11">
       <c r="A213" s="4"/>
       <c r="B213" s="4"/>
       <c r="D213" s="4"/>
-      <c r="E213" s="56"/>
+      <c r="E213" s="58"/>
       <c r="F213" s="4"/>
       <c r="G213" s="4"/>
       <c r="H213" s="4"/>
       <c r="I213" s="4"/>
       <c r="J213" s="4"/>
-      <c r="K213" s="68"/>
+      <c r="K213" s="70"/>
     </row>
     <row r="214" spans="1:11">
       <c r="A214" s="4"/>
       <c r="B214" s="4"/>
       <c r="D214" s="4"/>
-      <c r="E214" s="56"/>
+      <c r="E214" s="58"/>
       <c r="F214" s="4"/>
       <c r="G214" s="4"/>
       <c r="H214" s="4"/>
       <c r="I214" s="4"/>
       <c r="J214" s="4"/>
-      <c r="K214" s="68"/>
+      <c r="K214" s="70"/>
     </row>
     <row r="215" spans="1:11">
       <c r="A215" s="4"/>
       <c r="B215" s="4"/>
       <c r="D215" s="4"/>
-      <c r="E215" s="56"/>
+      <c r="E215" s="58"/>
       <c r="F215" s="4"/>
       <c r="G215" s="4"/>
       <c r="H215" s="4"/>
       <c r="I215" s="4"/>
       <c r="J215" s="4"/>
-      <c r="K215" s="68"/>
+      <c r="K215" s="70"/>
     </row>
     <row r="216" spans="1:11">
       <c r="A216" s="4"/>
       <c r="B216" s="4"/>
       <c r="D216" s="4"/>
-      <c r="E216" s="56"/>
+      <c r="E216" s="58"/>
       <c r="F216" s="4"/>
       <c r="G216" s="4"/>
       <c r="H216" s="4"/>
       <c r="I216" s="4"/>
       <c r="J216" s="4"/>
-      <c r="K216" s="68"/>
+      <c r="K216" s="70"/>
     </row>
     <row r="217" spans="1:11">
       <c r="A217" s="4"/>
       <c r="B217" s="4"/>
       <c r="D217" s="4"/>
-      <c r="E217" s="56"/>
+      <c r="E217" s="58"/>
       <c r="F217" s="4"/>
       <c r="G217" s="4"/>
       <c r="H217" s="4"/>
       <c r="I217" s="4"/>
       <c r="J217" s="4"/>
-      <c r="K217" s="68"/>
+      <c r="K217" s="70"/>
     </row>
     <row r="218" spans="1:11">
       <c r="A218" s="4"/>
       <c r="B218" s="4"/>
       <c r="D218" s="4"/>
-      <c r="E218" s="56"/>
+      <c r="E218" s="58"/>
       <c r="F218" s="4"/>
       <c r="G218" s="4"/>
       <c r="H218" s="4"/>
       <c r="I218" s="4"/>
       <c r="J218" s="4"/>
-      <c r="K218" s="68"/>
+      <c r="K218" s="70"/>
     </row>
     <row r="219" spans="1:11">
       <c r="A219" s="4"/>
       <c r="B219" s="4"/>
       <c r="D219" s="4"/>
-      <c r="E219" s="56"/>
+      <c r="E219" s="58"/>
       <c r="F219" s="4"/>
       <c r="G219" s="4"/>
       <c r="H219" s="4"/>
       <c r="I219" s="4"/>
       <c r="J219" s="4"/>
-      <c r="K219" s="68"/>
+      <c r="K219" s="70"/>
     </row>
     <row r="220" spans="1:11">
       <c r="A220" s="4"/>
       <c r="B220" s="4"/>
       <c r="D220" s="4"/>
-      <c r="E220" s="56"/>
+      <c r="E220" s="58"/>
       <c r="F220" s="4"/>
       <c r="G220" s="4"/>
       <c r="H220" s="4"/>
       <c r="I220" s="4"/>
       <c r="J220" s="4"/>
-      <c r="K220" s="68"/>
+      <c r="K220" s="70"/>
     </row>
     <row r="221" spans="1:11">
       <c r="A221" s="4"/>
       <c r="B221" s="4"/>
       <c r="D221" s="4"/>
-      <c r="E221" s="56"/>
+      <c r="E221" s="58"/>
       <c r="F221" s="4"/>
       <c r="G221" s="4"/>
       <c r="H221" s="4"/>
       <c r="I221" s="4"/>
       <c r="J221" s="4"/>
-      <c r="K221" s="68"/>
+      <c r="K221" s="70"/>
     </row>
     <row r="222" spans="1:11">
       <c r="A222" s="4"/>
       <c r="B222" s="4"/>
       <c r="D222" s="4"/>
-      <c r="E222" s="56"/>
+      <c r="E222" s="58"/>
       <c r="F222" s="4"/>
       <c r="G222" s="4"/>
       <c r="H222" s="4"/>
       <c r="I222" s="4"/>
       <c r="J222" s="4"/>
-      <c r="K222" s="68"/>
+      <c r="K222" s="70"/>
     </row>
     <row r="223" spans="1:11">
       <c r="A223" s="4"/>
       <c r="B223" s="4"/>
       <c r="D223" s="4"/>
-      <c r="E223" s="56"/>
+      <c r="E223" s="58"/>
       <c r="F223" s="4"/>
       <c r="G223" s="4"/>
       <c r="H223" s="4"/>
       <c r="I223" s="4"/>
       <c r="J223" s="4"/>
-      <c r="K223" s="68"/>
+      <c r="K223" s="70"/>
     </row>
     <row r="224" spans="1:11">
       <c r="A224" s="4"/>
       <c r="B224" s="4"/>
       <c r="D224" s="4"/>
-      <c r="E224" s="56"/>
+      <c r="E224" s="58"/>
       <c r="F224" s="4"/>
       <c r="G224" s="4"/>
       <c r="H224" s="4"/>
       <c r="I224" s="4"/>
       <c r="J224" s="4"/>
-      <c r="K224" s="68"/>
+      <c r="K224" s="70"/>
     </row>
     <row r="225" spans="1:11">
       <c r="A225" s="4"/>
       <c r="B225" s="4"/>
       <c r="D225" s="4"/>
-      <c r="E225" s="56"/>
+      <c r="E225" s="58"/>
       <c r="F225" s="4"/>
       <c r="G225" s="4"/>
       <c r="H225" s="4"/>
       <c r="I225" s="4"/>
       <c r="J225" s="4"/>
-      <c r="K225" s="68"/>
+      <c r="K225" s="70"/>
     </row>
     <row r="226" spans="1:11">
       <c r="A226" s="4"/>
       <c r="B226" s="4"/>
       <c r="D226" s="4"/>
-      <c r="E226" s="56"/>
+      <c r="E226" s="58"/>
       <c r="F226" s="4"/>
       <c r="G226" s="4"/>
       <c r="H226" s="4"/>
       <c r="I226" s="4"/>
       <c r="J226" s="4"/>
-      <c r="K226" s="68"/>
+      <c r="K226" s="70"/>
     </row>
     <row r="227" spans="1:11">
       <c r="A227" s="4"/>
       <c r="B227" s="4"/>
       <c r="D227" s="4"/>
-      <c r="E227" s="56"/>
+      <c r="E227" s="58"/>
       <c r="F227" s="4"/>
       <c r="G227" s="4"/>
       <c r="H227" s="4"/>
       <c r="I227" s="4"/>
       <c r="J227" s="4"/>
-      <c r="K227" s="68"/>
+      <c r="K227" s="70"/>
     </row>
     <row r="228" spans="1:11">
       <c r="A228" s="4"/>
       <c r="B228" s="4"/>
       <c r="D228" s="4"/>
-      <c r="E228" s="56"/>
+      <c r="E228" s="58"/>
       <c r="F228" s="4"/>
       <c r="G228" s="4"/>
       <c r="H228" s="4"/>
       <c r="I228" s="4"/>
       <c r="J228" s="4"/>
-      <c r="K228" s="68"/>
+      <c r="K228" s="70"/>
     </row>
     <row r="229" spans="1:11">
       <c r="A229" s="4"/>
       <c r="B229" s="4"/>
       <c r="D229" s="4"/>
-      <c r="E229" s="56"/>
+      <c r="E229" s="58"/>
       <c r="F229" s="4"/>
       <c r="G229" s="4"/>
       <c r="H229" s="4"/>
       <c r="I229" s="4"/>
       <c r="J229" s="4"/>
-      <c r="K229" s="68"/>
+      <c r="K229" s="70"/>
     </row>
     <row r="230" spans="1:11">
       <c r="A230" s="4"/>
       <c r="B230" s="4"/>
       <c r="D230" s="4"/>
-      <c r="E230" s="56"/>
+      <c r="E230" s="58"/>
       <c r="F230" s="4"/>
       <c r="G230" s="4"/>
       <c r="H230" s="4"/>
       <c r="I230" s="4"/>
       <c r="J230" s="4"/>
-      <c r="K230" s="68"/>
+      <c r="K230" s="70"/>
     </row>
     <row r="231" spans="1:11">
       <c r="A231" s="4"/>
       <c r="B231" s="4"/>
       <c r="D231" s="4"/>
-      <c r="E231" s="56"/>
+      <c r="E231" s="58"/>
       <c r="F231" s="4"/>
       <c r="G231" s="4"/>
       <c r="H231" s="4"/>
       <c r="I231" s="4"/>
       <c r="J231" s="4"/>
-      <c r="K231" s="68"/>
+      <c r="K231" s="70"/>
     </row>
     <row r="232" spans="1:11">
       <c r="A232" s="4"/>
       <c r="B232" s="4"/>
       <c r="D232" s="4"/>
-      <c r="E232" s="56"/>
+      <c r="E232" s="58"/>
       <c r="F232" s="4"/>
       <c r="G232" s="4"/>
       <c r="H232" s="4"/>
       <c r="I232" s="4"/>
       <c r="J232" s="4"/>
-      <c r="K232" s="68"/>
+      <c r="K232" s="70"/>
     </row>
     <row r="233" spans="1:11">
       <c r="A233" s="4"/>
       <c r="B233" s="4"/>
       <c r="D233" s="4"/>
-      <c r="E233" s="56"/>
+      <c r="E233" s="58"/>
       <c r="F233" s="4"/>
       <c r="G233" s="4"/>
       <c r="H233" s="4"/>
       <c r="I233" s="4"/>
       <c r="J233" s="4"/>
-      <c r="K233" s="68"/>
+      <c r="K233" s="70"/>
     </row>
     <row r="234" spans="1:11">
       <c r="A234" s="4"/>
       <c r="B234" s="4"/>
       <c r="D234" s="4"/>
-      <c r="E234" s="56"/>
+      <c r="E234" s="58"/>
       <c r="F234" s="4"/>
       <c r="G234" s="4"/>
       <c r="H234" s="4"/>
       <c r="I234" s="4"/>
       <c r="J234" s="4"/>
-      <c r="K234" s="68"/>
+      <c r="K234" s="70"/>
     </row>
     <row r="235" spans="1:11">
       <c r="A235" s="4"/>
       <c r="B235" s="4"/>
       <c r="D235" s="4"/>
-      <c r="E235" s="56"/>
+      <c r="E235" s="58"/>
       <c r="F235" s="4"/>
       <c r="G235" s="4"/>
       <c r="H235" s="4"/>
       <c r="I235" s="4"/>
       <c r="J235" s="4"/>
-      <c r="K235" s="68"/>
+      <c r="K235" s="70"/>
     </row>
     <row r="236" spans="1:11">
       <c r="A236" s="4"/>
       <c r="B236" s="4"/>
       <c r="D236" s="4"/>
-      <c r="E236" s="56"/>
+      <c r="E236" s="58"/>
       <c r="F236" s="4"/>
       <c r="G236" s="4"/>
       <c r="H236" s="4"/>
       <c r="I236" s="4"/>
       <c r="J236" s="4"/>
-      <c r="K236" s="68"/>
+      <c r="K236" s="70"/>
     </row>
     <row r="237" spans="1:11">
       <c r="A237" s="4"/>
       <c r="B237" s="4"/>
       <c r="D237" s="4"/>
-      <c r="E237" s="56"/>
+      <c r="E237" s="58"/>
       <c r="F237" s="4"/>
       <c r="G237" s="4"/>
       <c r="H237" s="4"/>
       <c r="I237" s="4"/>
       <c r="J237" s="4"/>
-      <c r="K237" s="68"/>
+      <c r="K237" s="70"/>
     </row>
     <row r="238" spans="1:11">
       <c r="A238" s="4"/>
       <c r="B238" s="4"/>
       <c r="D238" s="4"/>
-      <c r="E238" s="56"/>
+      <c r="E238" s="58"/>
       <c r="F238" s="4"/>
       <c r="G238" s="4"/>
       <c r="H238" s="4"/>
       <c r="I238" s="4"/>
       <c r="J238" s="4"/>
-      <c r="K238" s="68"/>
+      <c r="K238" s="70"/>
     </row>
     <row r="239" spans="1:11">
       <c r="A239" s="4"/>
       <c r="B239" s="4"/>
       <c r="D239" s="4"/>
-      <c r="E239" s="56"/>
+      <c r="E239" s="58"/>
       <c r="F239" s="4"/>
       <c r="G239" s="4"/>
       <c r="H239" s="4"/>
       <c r="I239" s="4"/>
       <c r="J239" s="4"/>
-      <c r="K239" s="68"/>
+      <c r="K239" s="70"/>
     </row>
     <row r="240" spans="1:11">
       <c r="A240" s="4"/>
       <c r="B240" s="4"/>
       <c r="D240" s="4"/>
-      <c r="E240" s="56"/>
+      <c r="E240" s="58"/>
       <c r="F240" s="4"/>
       <c r="G240" s="4"/>
       <c r="H240" s="4"/>
       <c r="I240" s="4"/>
       <c r="J240" s="4"/>
-      <c r="K240" s="68"/>
+      <c r="K240" s="70"/>
     </row>
     <row r="241" spans="1:11">
       <c r="A241" s="4"/>
       <c r="B241" s="4"/>
       <c r="D241" s="4"/>
-      <c r="E241" s="56"/>
+      <c r="E241" s="58"/>
       <c r="F241" s="4"/>
       <c r="G241" s="4"/>
       <c r="H241" s="4"/>
       <c r="I241" s="4"/>
       <c r="J241" s="4"/>
-      <c r="K241" s="68"/>
+      <c r="K241" s="70"/>
     </row>
     <row r="242" spans="1:11">
       <c r="A242" s="4"/>
       <c r="B242" s="4"/>
       <c r="D242" s="4"/>
-      <c r="E242" s="56"/>
+      <c r="E242" s="58"/>
       <c r="F242" s="4"/>
       <c r="G242" s="4"/>
       <c r="H242" s="4"/>
       <c r="I242" s="4"/>
       <c r="J242" s="4"/>
-      <c r="K242" s="68"/>
+      <c r="K242" s="70"/>
     </row>
     <row r="243" spans="1:11">
       <c r="A243" s="4"/>
       <c r="B243" s="4"/>
       <c r="D243" s="4"/>
-      <c r="E243" s="56"/>
+      <c r="E243" s="58"/>
       <c r="F243" s="4"/>
       <c r="G243" s="4"/>
       <c r="H243" s="4"/>
       <c r="I243" s="4"/>
       <c r="J243" s="4"/>
-      <c r="K243" s="68"/>
+      <c r="K243" s="70"/>
     </row>
     <row r="244" spans="1:11">
       <c r="A244" s="4"/>
       <c r="B244" s="4"/>
       <c r="D244" s="4"/>
-      <c r="E244" s="56"/>
+      <c r="E244" s="58"/>
       <c r="F244" s="4"/>
       <c r="G244" s="4"/>
       <c r="H244" s="4"/>
       <c r="I244" s="4"/>
       <c r="J244" s="4"/>
-      <c r="K244" s="68"/>
+      <c r="K244" s="70"/>
     </row>
     <row r="245" spans="1:11">
       <c r="A245" s="4"/>
       <c r="B245" s="4"/>
       <c r="D245" s="4"/>
-      <c r="E245" s="56"/>
+      <c r="E245" s="58"/>
       <c r="F245" s="4"/>
       <c r="G245" s="4"/>
       <c r="H245" s="4"/>
       <c r="I245" s="4"/>
       <c r="J245" s="4"/>
-      <c r="K245" s="68"/>
+      <c r="K245" s="70"/>
     </row>
     <row r="246" spans="1:11">
       <c r="A246" s="4"/>
       <c r="B246" s="4"/>
       <c r="D246" s="4"/>
-      <c r="E246" s="56"/>
+      <c r="E246" s="58"/>
       <c r="F246" s="4"/>
       <c r="G246" s="4"/>
       <c r="H246" s="4"/>
       <c r="I246" s="4"/>
       <c r="J246" s="4"/>
-      <c r="K246" s="68"/>
+      <c r="K246" s="70"/>
     </row>
     <row r="247" spans="1:11">
       <c r="A247" s="4"/>
       <c r="B247" s="4"/>
       <c r="D247" s="4"/>
-      <c r="E247" s="56"/>
+      <c r="E247" s="58"/>
       <c r="F247" s="4"/>
       <c r="G247" s="4"/>
       <c r="H247" s="4"/>
       <c r="I247" s="4"/>
       <c r="J247" s="4"/>
-      <c r="K247" s="68"/>
+      <c r="K247" s="70"/>
     </row>
     <row r="248" spans="1:11">
       <c r="A248" s="4"/>
       <c r="B248" s="4"/>
       <c r="D248" s="4"/>
-      <c r="E248" s="56"/>
+      <c r="E248" s="58"/>
       <c r="F248" s="4"/>
       <c r="G248" s="4"/>
       <c r="H248" s="4"/>
       <c r="I248" s="4"/>
       <c r="J248" s="4"/>
-      <c r="K248" s="68"/>
+      <c r="K248" s="70"/>
     </row>
     <row r="249" spans="1:11">
       <c r="A249" s="4"/>
       <c r="B249" s="4"/>
       <c r="D249" s="4"/>
-      <c r="E249" s="56"/>
+      <c r="E249" s="58"/>
       <c r="F249" s="4"/>
       <c r="G249" s="4"/>
       <c r="H249" s="4"/>
       <c r="I249" s="4"/>
       <c r="J249" s="4"/>
-      <c r="K249" s="68"/>
+      <c r="K249" s="70"/>
     </row>
     <row r="250" spans="1:11">
       <c r="A250" s="4"/>
       <c r="B250" s="4"/>
       <c r="D250" s="4"/>
-      <c r="E250" s="56"/>
+      <c r="E250" s="58"/>
       <c r="F250" s="4"/>
       <c r="G250" s="4"/>
       <c r="H250" s="4"/>
       <c r="I250" s="4"/>
       <c r="J250" s="4"/>
-      <c r="K250" s="68"/>
+      <c r="K250" s="70"/>
     </row>
     <row r="251" spans="1:11">
       <c r="A251" s="4"/>
       <c r="B251" s="4"/>
       <c r="D251" s="4"/>
-      <c r="E251" s="56"/>
+      <c r="E251" s="58"/>
       <c r="F251" s="4"/>
       <c r="G251" s="4"/>
       <c r="H251" s="4"/>
       <c r="I251" s="4"/>
       <c r="J251" s="4"/>
-      <c r="K251" s="68"/>
+      <c r="K251" s="70"/>
     </row>
     <row r="252" spans="1:11">
       <c r="A252" s="4"/>
       <c r="B252" s="4"/>
       <c r="D252" s="4"/>
-      <c r="E252" s="56"/>
+      <c r="E252" s="58"/>
       <c r="F252" s="4"/>
       <c r="G252" s="4"/>
       <c r="H252" s="4"/>
       <c r="I252" s="4"/>
       <c r="J252" s="4"/>
-      <c r="K252" s="68"/>
+      <c r="K252" s="70"/>
     </row>
     <row r="253" spans="1:11">
       <c r="A253" s="4"/>
       <c r="B253" s="4"/>
       <c r="D253" s="4"/>
-      <c r="E253" s="56"/>
+      <c r="E253" s="58"/>
       <c r="F253" s="4"/>
       <c r="G253" s="4"/>
       <c r="H253" s="4"/>
       <c r="I253" s="4"/>
       <c r="J253" s="4"/>
-      <c r="K253" s="68"/>
+      <c r="K253" s="70"/>
     </row>
     <row r="254" spans="1:11">
       <c r="A254" s="4"/>
       <c r="B254" s="4"/>
       <c r="D254" s="4"/>
-      <c r="E254" s="56"/>
+      <c r="E254" s="58"/>
       <c r="F254" s="4"/>
       <c r="G254" s="4"/>
       <c r="H254" s="4"/>
       <c r="I254" s="4"/>
       <c r="J254" s="4"/>
-      <c r="K254" s="68"/>
+      <c r="K254" s="70"/>
     </row>
     <row r="255" spans="1:11">
       <c r="A255" s="4"/>
       <c r="B255" s="4"/>
       <c r="D255" s="4"/>
-      <c r="E255" s="56"/>
+      <c r="E255" s="58"/>
       <c r="F255" s="4"/>
       <c r="G255" s="4"/>
       <c r="H255" s="4"/>
       <c r="I255" s="4"/>
       <c r="J255" s="4"/>
-      <c r="K255" s="68"/>
+      <c r="K255" s="70"/>
     </row>
     <row r="256" spans="1:11">
       <c r="A256" s="4"/>
       <c r="B256" s="4"/>
       <c r="D256" s="4"/>
-      <c r="E256" s="56"/>
+      <c r="E256" s="58"/>
       <c r="F256" s="4"/>
       <c r="G256" s="4"/>
       <c r="H256" s="4"/>
       <c r="I256" s="4"/>
       <c r="J256" s="4"/>
-      <c r="K256" s="68"/>
+      <c r="K256" s="70"/>
     </row>
     <row r="257" spans="1:11">
       <c r="A257" s="4"/>
       <c r="B257" s="4"/>
       <c r="D257" s="4"/>
-      <c r="E257" s="56"/>
+      <c r="E257" s="58"/>
       <c r="F257" s="4"/>
       <c r="G257" s="4"/>
       <c r="H257" s="4"/>
       <c r="I257" s="4"/>
       <c r="J257" s="4"/>
-      <c r="K257" s="68"/>
+      <c r="K257" s="70"/>
     </row>
     <row r="258" spans="1:11">
       <c r="A258" s="4"/>
       <c r="B258" s="4"/>
       <c r="D258" s="4"/>
-      <c r="E258" s="56"/>
+      <c r="E258" s="58"/>
       <c r="F258" s="4"/>
       <c r="G258" s="4"/>
       <c r="H258" s="4"/>
       <c r="I258" s="4"/>
       <c r="J258" s="4"/>
-      <c r="K258" s="68"/>
+      <c r="K258" s="70"/>
     </row>
     <row r="259" spans="1:11">
       <c r="A259" s="4"/>
       <c r="B259" s="4"/>
       <c r="D259" s="4"/>
-      <c r="E259" s="56"/>
+      <c r="E259" s="58"/>
       <c r="F259" s="4"/>
       <c r="G259" s="4"/>
       <c r="H259" s="4"/>
       <c r="I259" s="4"/>
       <c r="J259" s="4"/>
-      <c r="K259" s="68"/>
+      <c r="K259" s="70"/>
     </row>
     <row r="260" spans="1:11">
       <c r="A260" s="4"/>
       <c r="B260" s="4"/>
       <c r="D260" s="4"/>
-      <c r="E260" s="56"/>
+      <c r="E260" s="58"/>
       <c r="F260" s="4"/>
       <c r="G260" s="4"/>
       <c r="H260" s="4"/>
       <c r="I260" s="4"/>
       <c r="J260" s="4"/>
-      <c r="K260" s="68"/>
+      <c r="K260" s="70"/>
     </row>
     <row r="261" spans="1:11">
       <c r="A261" s="4"/>
       <c r="B261" s="4"/>
       <c r="D261" s="4"/>
-      <c r="E261" s="56"/>
+      <c r="E261" s="58"/>
       <c r="F261" s="4"/>
       <c r="G261" s="4"/>
       <c r="H261" s="4"/>
       <c r="I261" s="4"/>
       <c r="J261" s="4"/>
-      <c r="K261" s="68"/>
+      <c r="K261" s="70"/>
     </row>
     <row r="262" spans="1:11">
       <c r="A262" s="4"/>
       <c r="B262" s="4"/>
       <c r="D262" s="4"/>
-      <c r="E262" s="56"/>
+      <c r="E262" s="58"/>
       <c r="F262" s="4"/>
       <c r="G262" s="4"/>
       <c r="H262" s="4"/>
       <c r="I262" s="4"/>
       <c r="J262" s="4"/>
-      <c r="K262" s="68"/>
+      <c r="K262" s="70"/>
     </row>
     <row r="263" spans="1:11">
       <c r="A263" s="4"/>
       <c r="B263" s="4"/>
       <c r="D263" s="4"/>
-      <c r="E263" s="56"/>
+      <c r="E263" s="58"/>
       <c r="F263" s="4"/>
       <c r="G263" s="4"/>
       <c r="H263" s="4"/>
       <c r="I263" s="4"/>
       <c r="J263" s="4"/>
-      <c r="K263" s="68"/>
+      <c r="K263" s="70"/>
     </row>
     <row r="264" spans="1:11">
       <c r="A264" s="4"/>
       <c r="B264" s="4"/>
       <c r="D264" s="4"/>
-      <c r="E264" s="56"/>
+      <c r="E264" s="58"/>
       <c r="F264" s="4"/>
       <c r="G264" s="4"/>
       <c r="H264" s="4"/>
       <c r="I264" s="4"/>
       <c r="J264" s="4"/>
-      <c r="K264" s="68"/>
+      <c r="K264" s="70"/>
     </row>
     <row r="265" spans="1:11">
       <c r="A265" s="4"/>
       <c r="B265" s="4"/>
       <c r="D265" s="4"/>
-      <c r="E265" s="56"/>
+      <c r="E265" s="58"/>
       <c r="F265" s="4"/>
       <c r="G265" s="4"/>
       <c r="H265" s="4"/>
       <c r="I265" s="4"/>
       <c r="J265" s="4"/>
-      <c r="K265" s="68"/>
+      <c r="K265" s="70"/>
     </row>
     <row r="266" spans="1:11">
       <c r="A266" s="4"/>
       <c r="B266" s="4"/>
       <c r="D266" s="4"/>
-      <c r="E266" s="56"/>
+      <c r="E266" s="58"/>
       <c r="F266" s="4"/>
       <c r="G266" s="4"/>
       <c r="H266" s="4"/>
       <c r="I266" s="4"/>
       <c r="J266" s="4"/>
-      <c r="K266" s="68"/>
+      <c r="K266" s="70"/>
     </row>
     <row r="267" spans="1:11">
       <c r="A267" s="4"/>
       <c r="B267" s="4"/>
       <c r="D267" s="4"/>
-      <c r="E267" s="56"/>
+      <c r="E267" s="58"/>
       <c r="F267" s="4"/>
       <c r="G267" s="4"/>
       <c r="H267" s="4"/>
       <c r="I267" s="4"/>
       <c r="J267" s="4"/>
-      <c r="K267" s="68"/>
+      <c r="K267" s="70"/>
     </row>
     <row r="268" spans="1:11">
       <c r="A268" s="4"/>
       <c r="B268" s="4"/>
       <c r="D268" s="4"/>
-      <c r="E268" s="56"/>
+      <c r="E268" s="58"/>
       <c r="F268" s="4"/>
       <c r="G268" s="4"/>
       <c r="H268" s="4"/>
       <c r="I268" s="4"/>
       <c r="J268" s="4"/>
-      <c r="K268" s="68"/>
+      <c r="K268" s="70"/>
     </row>
     <row r="269" spans="1:11">
       <c r="A269" s="4"/>
       <c r="B269" s="4"/>
       <c r="D269" s="4"/>
-      <c r="E269" s="56"/>
+      <c r="E269" s="58"/>
       <c r="F269" s="4"/>
       <c r="G269" s="4"/>
       <c r="H269" s="4"/>
       <c r="I269" s="4"/>
       <c r="J269" s="4"/>
-      <c r="K269" s="68"/>
+      <c r="K269" s="70"/>
     </row>
     <row r="270" spans="1:11">
       <c r="A270" s="4"/>
       <c r="B270" s="4"/>
       <c r="D270" s="4"/>
-      <c r="E270" s="56"/>
+      <c r="E270" s="58"/>
       <c r="F270" s="4"/>
       <c r="G270" s="4"/>
       <c r="H270" s="4"/>
       <c r="I270" s="4"/>
       <c r="J270" s="4"/>
-      <c r="K270" s="68"/>
+      <c r="K270" s="70"/>
     </row>
     <row r="271" spans="1:11">
       <c r="A271" s="4"/>
       <c r="B271" s="4"/>
       <c r="D271" s="4"/>
-      <c r="E271" s="56"/>
+      <c r="E271" s="58"/>
       <c r="F271" s="4"/>
       <c r="G271" s="4"/>
       <c r="H271" s="4"/>
       <c r="I271" s="4"/>
       <c r="J271" s="4"/>
-      <c r="K271" s="68"/>
+      <c r="K271" s="70"/>
     </row>
     <row r="272" spans="1:11">
       <c r="A272" s="4"/>
       <c r="B272" s="4"/>
       <c r="D272" s="4"/>
-      <c r="E272" s="56"/>
+      <c r="E272" s="58"/>
       <c r="F272" s="4"/>
       <c r="G272" s="4"/>
       <c r="H272" s="4"/>
       <c r="I272" s="4"/>
       <c r="J272" s="4"/>
-      <c r="K272" s="68"/>
+      <c r="K272" s="70"/>
     </row>
     <row r="273" spans="1:11">
       <c r="A273" s="4"/>
       <c r="B273" s="4"/>
       <c r="D273" s="4"/>
-      <c r="E273" s="56"/>
+      <c r="E273" s="58"/>
       <c r="F273" s="4"/>
       <c r="G273" s="4"/>
       <c r="H273" s="4"/>
       <c r="I273" s="4"/>
       <c r="J273" s="4"/>
-      <c r="K273" s="68"/>
+      <c r="K273" s="70"/>
     </row>
     <row r="274" spans="1:11">
       <c r="A274" s="4"/>
       <c r="B274" s="4"/>
       <c r="D274" s="4"/>
-      <c r="E274" s="56"/>
+      <c r="E274" s="58"/>
       <c r="F274" s="4"/>
       <c r="G274" s="4"/>
       <c r="H274" s="4"/>
       <c r="I274" s="4"/>
       <c r="J274" s="4"/>
-      <c r="K274" s="68"/>
+      <c r="K274" s="70"/>
     </row>
     <row r="275" spans="1:11">
       <c r="A275" s="4"/>
       <c r="B275" s="4"/>
       <c r="D275" s="4"/>
-      <c r="E275" s="56"/>
+      <c r="E275" s="58"/>
       <c r="F275" s="4"/>
       <c r="G275" s="4"/>
       <c r="H275" s="4"/>
       <c r="I275" s="4"/>
       <c r="J275" s="4"/>
-      <c r="K275" s="68"/>
+      <c r="K275" s="70"/>
     </row>
     <row r="276" spans="1:11">
       <c r="A276" s="4"/>
       <c r="B276" s="4"/>
       <c r="D276" s="4"/>
-      <c r="E276" s="56"/>
+      <c r="E276" s="58"/>
       <c r="F276" s="4"/>
       <c r="G276" s="4"/>
       <c r="H276" s="4"/>
       <c r="I276" s="4"/>
       <c r="J276" s="4"/>
-      <c r="K276" s="68"/>
+      <c r="K276" s="70"/>
     </row>
     <row r="277" spans="1:11">
       <c r="A277" s="4"/>
       <c r="B277" s="4"/>
       <c r="D277" s="4"/>
-      <c r="E277" s="56"/>
+      <c r="E277" s="58"/>
       <c r="F277" s="4"/>
       <c r="G277" s="4"/>
       <c r="H277" s="4"/>
       <c r="I277" s="4"/>
       <c r="J277" s="4"/>
-      <c r="K277" s="68"/>
+      <c r="K277" s="70"/>
     </row>
     <row r="278" spans="1:11">
       <c r="A278" s="4"/>
       <c r="B278" s="4"/>
       <c r="D278" s="4"/>
-      <c r="E278" s="56"/>
+      <c r="E278" s="58"/>
       <c r="F278" s="4"/>
       <c r="G278" s="4"/>
       <c r="H278" s="4"/>
       <c r="I278" s="4"/>
       <c r="J278" s="4"/>
-      <c r="K278" s="68"/>
+      <c r="K278" s="70"/>
     </row>
     <row r="279" spans="1:11">
       <c r="A279" s="4"/>
       <c r="B279" s="4"/>
       <c r="D279" s="4"/>
-      <c r="E279" s="56"/>
+      <c r="E279" s="58"/>
       <c r="F279" s="4"/>
       <c r="G279" s="4"/>
       <c r="H279" s="4"/>
       <c r="I279" s="4"/>
       <c r="J279" s="4"/>
-      <c r="K279" s="68"/>
+      <c r="K279" s="70"/>
     </row>
     <row r="280" spans="1:11">
       <c r="A280" s="4"/>
       <c r="B280" s="4"/>
       <c r="D280" s="4"/>
-      <c r="E280" s="56"/>
+      <c r="E280" s="58"/>
       <c r="F280" s="4"/>
       <c r="G280" s="4"/>
       <c r="H280" s="4"/>
       <c r="I280" s="4"/>
       <c r="J280" s="4"/>
-      <c r="K280" s="68"/>
+      <c r="K280" s="70"/>
     </row>
     <row r="281" spans="1:11">
       <c r="A281" s="4"/>
       <c r="B281" s="4"/>
       <c r="D281" s="4"/>
-      <c r="E281" s="56"/>
+      <c r="E281" s="58"/>
       <c r="F281" s="4"/>
       <c r="G281" s="4"/>
       <c r="H281" s="4"/>
       <c r="I281" s="4"/>
       <c r="J281" s="4"/>
-      <c r="K281" s="68"/>
+      <c r="K281" s="70"/>
     </row>
     <row r="282" spans="1:11">
       <c r="A282" s="4"/>
       <c r="B282" s="4"/>
       <c r="D282" s="4"/>
-      <c r="E282" s="56"/>
+      <c r="E282" s="58"/>
       <c r="F282" s="4"/>
       <c r="G282" s="4"/>
       <c r="H282" s="4"/>
       <c r="I282" s="4"/>
       <c r="J282" s="4"/>
-      <c r="K282" s="68"/>
+      <c r="K282" s="70"/>
     </row>
     <row r="283" spans="1:11">
       <c r="A283" s="4"/>
       <c r="B283" s="4"/>
       <c r="D283" s="4"/>
-      <c r="E283" s="56"/>
+      <c r="E283" s="58"/>
       <c r="F283" s="4"/>
       <c r="G283" s="4"/>
       <c r="H283" s="4"/>
       <c r="I283" s="4"/>
       <c r="J283" s="4"/>
-      <c r="K283" s="68"/>
+      <c r="K283" s="70"/>
     </row>
     <row r="284" spans="1:11">
       <c r="A284" s="4"/>
       <c r="B284" s="4"/>
       <c r="D284" s="4"/>
-      <c r="E284" s="56"/>
+      <c r="E284" s="58"/>
       <c r="F284" s="4"/>
       <c r="G284" s="4"/>
       <c r="H284" s="4"/>
       <c r="I284" s="4"/>
       <c r="J284" s="4"/>
-      <c r="K284" s="68"/>
+      <c r="K284" s="70"/>
     </row>
     <row r="285" spans="1:11">
       <c r="A285" s="4"/>
       <c r="B285" s="4"/>
       <c r="D285" s="4"/>
-      <c r="E285" s="56"/>
+      <c r="E285" s="58"/>
       <c r="F285" s="4"/>
       <c r="G285" s="4"/>
       <c r="H285" s="4"/>
       <c r="I285" s="4"/>
       <c r="J285" s="4"/>
-      <c r="K285" s="68"/>
+      <c r="K285" s="70"/>
     </row>
     <row r="286" spans="1:11">
       <c r="A286" s="4"/>
       <c r="B286" s="4"/>
       <c r="D286" s="4"/>
-      <c r="E286" s="56"/>
+      <c r="E286" s="58"/>
       <c r="F286" s="4"/>
       <c r="G286" s="4"/>
       <c r="H286" s="4"/>
       <c r="I286" s="4"/>
       <c r="J286" s="4"/>
-      <c r="K286" s="68"/>
+      <c r="K286" s="70"/>
     </row>
     <row r="287" spans="1:11">
       <c r="A287" s="4"/>
       <c r="B287" s="4"/>
       <c r="D287" s="4"/>
-      <c r="E287" s="56"/>
+      <c r="E287" s="58"/>
       <c r="F287" s="4"/>
       <c r="G287" s="4"/>
       <c r="H287" s="4"/>
       <c r="I287" s="4"/>
       <c r="J287" s="4"/>
-      <c r="K287" s="68"/>
+      <c r="K287" s="70"/>
     </row>
     <row r="288" spans="1:11">
       <c r="A288" s="4"/>
       <c r="B288" s="4"/>
       <c r="D288" s="4"/>
-      <c r="E288" s="56"/>
+      <c r="E288" s="58"/>
       <c r="F288" s="4"/>
       <c r="G288" s="4"/>
       <c r="H288" s="4"/>
       <c r="I288" s="4"/>
       <c r="J288" s="4"/>
-      <c r="K288" s="68"/>
+      <c r="K288" s="70"/>
     </row>
     <row r="289" spans="1:11">
       <c r="A289" s="4"/>
       <c r="B289" s="4"/>
       <c r="D289" s="4"/>
-      <c r="E289" s="56"/>
+      <c r="E289" s="58"/>
       <c r="F289" s="4"/>
       <c r="G289" s="4"/>
       <c r="H289" s="4"/>
       <c r="I289" s="4"/>
       <c r="J289" s="4"/>
-      <c r="K289" s="68"/>
+      <c r="K289" s="70"/>
     </row>
     <row r="290" spans="1:11">
       <c r="A290" s="4"/>
       <c r="B290" s="4"/>
       <c r="D290" s="4"/>
-      <c r="E290" s="56"/>
+      <c r="E290" s="58"/>
       <c r="F290" s="4"/>
       <c r="G290" s="4"/>
       <c r="H290" s="4"/>
       <c r="I290" s="4"/>
       <c r="J290" s="4"/>
-      <c r="K290" s="68"/>
+      <c r="K290" s="70"/>
     </row>
     <row r="291" spans="1:11">
       <c r="A291" s="4"/>
       <c r="B291" s="4"/>
       <c r="D291" s="4"/>
-      <c r="E291" s="56"/>
+      <c r="E291" s="58"/>
       <c r="F291" s="4"/>
       <c r="G291" s="4"/>
       <c r="H291" s="4"/>
       <c r="I291" s="4"/>
       <c r="J291" s="4"/>
-      <c r="K291" s="68"/>
+      <c r="K291" s="70"/>
     </row>
     <row r="292" spans="1:11">
       <c r="A292" s="4"/>
       <c r="B292" s="4"/>
       <c r="D292" s="4"/>
-      <c r="E292" s="56"/>
+      <c r="E292" s="58"/>
       <c r="F292" s="4"/>
       <c r="G292" s="4"/>
       <c r="H292" s="4"/>
       <c r="I292" s="4"/>
       <c r="J292" s="4"/>
-      <c r="K292" s="68"/>
+      <c r="K292" s="70"/>
     </row>
     <row r="293" spans="1:11">
       <c r="A293" s="4"/>
       <c r="B293" s="4"/>
       <c r="D293" s="4"/>
-      <c r="E293" s="56"/>
+      <c r="E293" s="58"/>
       <c r="F293" s="4"/>
       <c r="G293" s="4"/>
       <c r="H293" s="4"/>
       <c r="I293" s="4"/>
       <c r="J293" s="4"/>
-      <c r="K293" s="68"/>
+      <c r="K293" s="70"/>
     </row>
     <row r="294" spans="1:11">
       <c r="A294" s="4"/>
       <c r="B294" s="4"/>
       <c r="D294" s="4"/>
-      <c r="E294" s="56"/>
+      <c r="E294" s="58"/>
       <c r="F294" s="4"/>
       <c r="G294" s="4"/>
       <c r="H294" s="4"/>
       <c r="I294" s="4"/>
       <c r="J294" s="4"/>
-      <c r="K294" s="68"/>
+      <c r="K294" s="70"/>
     </row>
     <row r="295" spans="1:11">
       <c r="A295" s="4"/>
       <c r="B295" s="4"/>
       <c r="D295" s="4"/>
-      <c r="E295" s="56"/>
+      <c r="E295" s="58"/>
       <c r="F295" s="4"/>
       <c r="G295" s="4"/>
       <c r="H295" s="4"/>
       <c r="I295" s="4"/>
       <c r="J295" s="4"/>
-      <c r="K295" s="68"/>
+      <c r="K295" s="70"/>
     </row>
     <row r="296" spans="1:11">
       <c r="A296" s="4"/>
       <c r="B296" s="4"/>
       <c r="D296" s="4"/>
-      <c r="E296" s="56"/>
+      <c r="E296" s="58"/>
       <c r="F296" s="4"/>
       <c r="G296" s="4"/>
       <c r="H296" s="4"/>
       <c r="I296" s="4"/>
       <c r="J296" s="4"/>
-      <c r="K296" s="68"/>
+      <c r="K296" s="70"/>
     </row>
     <row r="297" spans="1:11">
       <c r="A297" s="4"/>
       <c r="B297" s="4"/>
       <c r="D297" s="4"/>
-      <c r="E297" s="56"/>
+      <c r="E297" s="58"/>
       <c r="F297" s="4"/>
       <c r="G297" s="4"/>
       <c r="H297" s="4"/>
       <c r="I297" s="4"/>
       <c r="J297" s="4"/>
-      <c r="K297" s="68"/>
+      <c r="K297" s="70"/>
     </row>
     <row r="298" spans="1:11">
       <c r="A298" s="4"/>
       <c r="B298" s="4"/>
       <c r="D298" s="4"/>
-      <c r="E298" s="56"/>
+      <c r="E298" s="58"/>
       <c r="F298" s="4"/>
       <c r="G298" s="4"/>
       <c r="H298" s="4"/>
       <c r="I298" s="4"/>
       <c r="J298" s="4"/>
-      <c r="K298" s="68"/>
+      <c r="K298" s="70"/>
     </row>
     <row r="299" spans="1:11">
       <c r="A299" s="4"/>
       <c r="B299" s="4"/>
       <c r="D299" s="4"/>
-      <c r="E299" s="56"/>
+      <c r="E299" s="58"/>
       <c r="F299" s="4"/>
       <c r="G299" s="4"/>
       <c r="H299" s="4"/>
       <c r="I299" s="4"/>
       <c r="J299" s="4"/>
-      <c r="K299" s="68"/>
+      <c r="K299" s="70"/>
     </row>
     <row r="300" spans="1:11">
       <c r="A300" s="4"/>
       <c r="B300" s="4"/>
       <c r="D300" s="4"/>
-      <c r="E300" s="56"/>
+      <c r="E300" s="58"/>
       <c r="F300" s="4"/>
       <c r="G300" s="4"/>
       <c r="H300" s="4"/>
       <c r="I300" s="4"/>
       <c r="J300" s="4"/>
-      <c r="K300" s="68"/>
+      <c r="K300" s="70"/>
     </row>
     <row r="301" spans="1:11">
       <c r="A301" s="4"/>
       <c r="B301" s="4"/>
       <c r="D301" s="4"/>
-      <c r="E301" s="56"/>
+      <c r="E301" s="58"/>
       <c r="F301" s="4"/>
       <c r="G301" s="4"/>
       <c r="H301" s="4"/>
       <c r="I301" s="4"/>
       <c r="J301" s="4"/>
-      <c r="K301" s="68"/>
+      <c r="K301" s="70"/>
     </row>
     <row r="302" spans="1:11">
       <c r="A302" s="4"/>
       <c r="B302" s="4"/>
       <c r="D302" s="4"/>
-      <c r="E302" s="56"/>
+      <c r="E302" s="58"/>
       <c r="F302" s="4"/>
       <c r="G302" s="4"/>
       <c r="H302" s="4"/>
       <c r="I302" s="4"/>
       <c r="J302" s="4"/>
-      <c r="K302" s="68"/>
+      <c r="K302" s="70"/>
     </row>
     <row r="303" spans="1:11">
       <c r="A303" s="4"/>
       <c r="B303" s="4"/>
       <c r="D303" s="4"/>
-      <c r="E303" s="56"/>
+      <c r="E303" s="58"/>
       <c r="F303" s="4"/>
       <c r="G303" s="4"/>
       <c r="H303" s="4"/>
       <c r="I303" s="4"/>
       <c r="J303" s="4"/>
-      <c r="K303" s="68"/>
+      <c r="K303" s="70"/>
     </row>
     <row r="304" spans="1:11">
       <c r="A304" s="4"/>
       <c r="B304" s="4"/>
       <c r="D304" s="4"/>
-      <c r="E304" s="56"/>
+      <c r="E304" s="58"/>
       <c r="F304" s="4"/>
       <c r="G304" s="4"/>
       <c r="H304" s="4"/>
       <c r="I304" s="4"/>
       <c r="J304" s="4"/>
-      <c r="K304" s="68"/>
+      <c r="K304" s="70"/>
     </row>
     <row r="305" spans="1:11">
       <c r="A305" s="4"/>
       <c r="B305" s="4"/>
       <c r="D305" s="4"/>
-      <c r="E305" s="56"/>
+      <c r="E305" s="58"/>
       <c r="F305" s="4"/>
       <c r="G305" s="4"/>
       <c r="H305" s="4"/>
       <c r="I305" s="4"/>
       <c r="J305" s="4"/>
-      <c r="K305" s="68"/>
+      <c r="K305" s="70"/>
     </row>
     <row r="306" spans="1:11">
       <c r="A306" s="4"/>
       <c r="B306" s="4"/>
       <c r="D306" s="4"/>
-      <c r="E306" s="56"/>
+      <c r="E306" s="58"/>
       <c r="F306" s="4"/>
       <c r="G306" s="4"/>
       <c r="H306" s="4"/>
       <c r="I306" s="4"/>
       <c r="J306" s="4"/>
-      <c r="K306" s="68"/>
+      <c r="K306" s="70"/>
     </row>
     <row r="307" spans="1:11">
       <c r="A307" s="4"/>
       <c r="B307" s="4"/>
       <c r="D307" s="4"/>
-      <c r="E307" s="56"/>
+      <c r="E307" s="58"/>
       <c r="F307" s="4"/>
       <c r="G307" s="4"/>
       <c r="H307" s="4"/>
       <c r="I307" s="4"/>
       <c r="J307" s="4"/>
-      <c r="K307" s="68"/>
+      <c r="K307" s="70"/>
     </row>
     <row r="308" spans="1:11">
       <c r="A308" s="4"/>
       <c r="B308" s="4"/>
       <c r="D308" s="4"/>
-      <c r="E308" s="56"/>
+      <c r="E308" s="58"/>
       <c r="F308" s="4"/>
       <c r="G308" s="4"/>
       <c r="H308" s="4"/>
       <c r="I308" s="4"/>
       <c r="J308" s="4"/>
-      <c r="K308" s="68"/>
+      <c r="K308" s="70"/>
     </row>
     <row r="309" spans="1:11">
       <c r="A309" s="4"/>
       <c r="B309" s="4"/>
       <c r="D309" s="4"/>
-      <c r="E309" s="56"/>
+      <c r="E309" s="58"/>
       <c r="F309" s="4"/>
       <c r="G309" s="4"/>
       <c r="H309" s="4"/>
       <c r="I309" s="4"/>
       <c r="J309" s="4"/>
-      <c r="K309" s="68"/>
+      <c r="K309" s="70"/>
     </row>
     <row r="310" spans="1:11">
       <c r="A310" s="4"/>
       <c r="B310" s="4"/>
       <c r="D310" s="4"/>
-      <c r="E310" s="56"/>
+      <c r="E310" s="58"/>
       <c r="F310" s="4"/>
       <c r="G310" s="4"/>
       <c r="H310" s="4"/>
       <c r="I310" s="4"/>
       <c r="J310" s="4"/>
-      <c r="K310" s="68"/>
+      <c r="K310" s="70"/>
     </row>
     <row r="311" spans="1:11">
       <c r="A311" s="4"/>
       <c r="B311" s="4"/>
       <c r="D311" s="4"/>
-      <c r="E311" s="56"/>
+      <c r="E311" s="58"/>
       <c r="F311" s="4"/>
       <c r="G311" s="4"/>
       <c r="H311" s="4"/>
       <c r="I311" s="4"/>
       <c r="J311" s="4"/>
-      <c r="K311" s="68"/>
+      <c r="K311" s="70"/>
     </row>
     <row r="312" spans="1:11">
       <c r="A312" s="4"/>
       <c r="B312" s="4"/>
       <c r="D312" s="4"/>
-      <c r="E312" s="56"/>
+      <c r="E312" s="58"/>
       <c r="F312" s="4"/>
       <c r="G312" s="4"/>
       <c r="H312" s="4"/>
       <c r="I312" s="4"/>
       <c r="J312" s="4"/>
-      <c r="K312" s="68"/>
+      <c r="K312" s="70"/>
     </row>
     <row r="313" spans="1:11">
       <c r="A313" s="4"/>
       <c r="B313" s="4"/>
       <c r="D313" s="4"/>
-      <c r="E313" s="56"/>
+      <c r="E313" s="58"/>
       <c r="F313" s="4"/>
       <c r="G313" s="4"/>
       <c r="H313" s="4"/>
       <c r="I313" s="4"/>
       <c r="J313" s="4"/>
-      <c r="K313" s="68"/>
+      <c r="K313" s="70"/>
     </row>
     <row r="314" spans="1:11">
       <c r="A314" s="4"/>
       <c r="B314" s="4"/>
       <c r="D314" s="4"/>
-      <c r="E314" s="56"/>
+      <c r="E314" s="58"/>
       <c r="F314" s="4"/>
       <c r="G314" s="4"/>
       <c r="H314" s="4"/>
       <c r="I314" s="4"/>
       <c r="J314" s="4"/>
-      <c r="K314" s="68"/>
+      <c r="K314" s="70"/>
     </row>
     <row r="315" spans="1:11">
       <c r="A315" s="4"/>
       <c r="B315" s="4"/>
       <c r="D315" s="4"/>
-      <c r="E315" s="56"/>
+      <c r="E315" s="58"/>
       <c r="F315" s="4"/>
       <c r="G315" s="4"/>
       <c r="H315" s="4"/>
       <c r="I315" s="4"/>
       <c r="J315" s="4"/>
-      <c r="K315" s="68"/>
+      <c r="K315" s="70"/>
     </row>
     <row r="316" spans="1:11">
       <c r="A316" s="4"/>
       <c r="B316" s="4"/>
       <c r="D316" s="4"/>
-      <c r="E316" s="56"/>
+      <c r="E316" s="58"/>
       <c r="F316" s="4"/>
       <c r="G316" s="4"/>
       <c r="H316" s="4"/>
       <c r="I316" s="4"/>
       <c r="J316" s="4"/>
-      <c r="K316" s="68"/>
+      <c r="K316" s="70"/>
     </row>
     <row r="317" spans="1:11">
       <c r="A317" s="4"/>
       <c r="B317" s="4"/>
       <c r="D317" s="4"/>
-      <c r="E317" s="56"/>
+      <c r="E317" s="58"/>
       <c r="F317" s="4"/>
       <c r="G317" s="4"/>
       <c r="H317" s="4"/>
       <c r="I317" s="4"/>
       <c r="J317" s="4"/>
-      <c r="K317" s="68"/>
+      <c r="K317" s="70"/>
     </row>
     <row r="318" spans="1:11">
       <c r="A318" s="4"/>
       <c r="B318" s="4"/>
       <c r="D318" s="4"/>
-      <c r="E318" s="56"/>
+      <c r="E318" s="58"/>
       <c r="F318" s="4"/>
       <c r="G318" s="4"/>
       <c r="H318" s="4"/>
       <c r="I318" s="4"/>
       <c r="J318" s="4"/>
-      <c r="K318" s="68"/>
+      <c r="K318" s="70"/>
     </row>
     <row r="319" spans="1:11">
       <c r="A319" s="4"/>
       <c r="B319" s="4"/>
       <c r="D319" s="4"/>
-      <c r="E319" s="56"/>
+      <c r="E319" s="58"/>
       <c r="F319" s="4"/>
       <c r="G319" s="4"/>
       <c r="H319" s="4"/>
       <c r="I319" s="4"/>
       <c r="J319" s="4"/>
-      <c r="K319" s="68"/>
+      <c r="K319" s="70"/>
     </row>
     <row r="320" spans="1:11">
       <c r="A320" s="4"/>
       <c r="B320" s="4"/>
       <c r="D320" s="4"/>
-      <c r="E320" s="56"/>
+      <c r="E320" s="58"/>
       <c r="F320" s="4"/>
       <c r="G320" s="4"/>
       <c r="H320" s="4"/>
       <c r="I320" s="4"/>
       <c r="J320" s="4"/>
-      <c r="K320" s="68"/>
+      <c r="K320" s="70"/>
     </row>
     <row r="321" spans="1:11">
       <c r="A321" s="4"/>
       <c r="B321" s="4"/>
       <c r="D321" s="4"/>
-      <c r="E321" s="56"/>
+      <c r="E321" s="58"/>
       <c r="F321" s="4"/>
       <c r="G321" s="4"/>
       <c r="H321" s="4"/>
       <c r="I321" s="4"/>
       <c r="J321" s="4"/>
-      <c r="K321" s="68"/>
+      <c r="K321" s="70"/>
     </row>
     <row r="322" spans="1:11">
       <c r="A322" s="4"/>
       <c r="B322" s="4"/>
       <c r="D322" s="4"/>
-      <c r="E322" s="56"/>
+      <c r="E322" s="58"/>
       <c r="F322" s="4"/>
       <c r="G322" s="4"/>
       <c r="H322" s="4"/>
       <c r="I322" s="4"/>
       <c r="J322" s="4"/>
-      <c r="K322" s="68"/>
+      <c r="K322" s="70"/>
     </row>
     <row r="323" spans="1:11">
       <c r="A323" s="4"/>
       <c r="B323" s="4"/>
       <c r="D323" s="4"/>
-      <c r="E323" s="56"/>
+      <c r="E323" s="58"/>
       <c r="F323" s="4"/>
       <c r="G323" s="4"/>
       <c r="H323" s="4"/>
       <c r="I323" s="4"/>
       <c r="J323" s="4"/>
-      <c r="K323" s="68"/>
+      <c r="K323" s="70"/>
     </row>
     <row r="324" spans="1:11">
       <c r="A324" s="4"/>
       <c r="B324" s="4"/>
       <c r="D324" s="4"/>
-      <c r="E324" s="56"/>
+      <c r="E324" s="58"/>
       <c r="F324" s="4"/>
       <c r="G324" s="4"/>
       <c r="H324" s="4"/>
       <c r="I324" s="4"/>
       <c r="J324" s="4"/>
-      <c r="K324" s="68"/>
+      <c r="K324" s="70"/>
     </row>
     <row r="325" spans="1:11">
       <c r="A325" s="4"/>
       <c r="B325" s="4"/>
       <c r="D325" s="4"/>
-      <c r="E325" s="56"/>
+      <c r="E325" s="58"/>
       <c r="F325" s="4"/>
       <c r="G325" s="4"/>
       <c r="H325" s="4"/>
       <c r="I325" s="4"/>
       <c r="J325" s="4"/>
-      <c r="K325" s="68"/>
+      <c r="K325" s="70"/>
     </row>
     <row r="326" spans="1:11">
       <c r="A326" s="4"/>
       <c r="B326" s="4"/>
       <c r="D326" s="4"/>
-      <c r="E326" s="56"/>
+      <c r="E326" s="58"/>
       <c r="F326" s="4"/>
       <c r="G326" s="4"/>
       <c r="H326" s="4"/>
       <c r="I326" s="4"/>
       <c r="J326" s="4"/>
-      <c r="K326" s="68"/>
+      <c r="K326" s="70"/>
     </row>
     <row r="327" spans="1:11">
       <c r="A327" s="4"/>
       <c r="B327" s="4"/>
       <c r="D327" s="4"/>
-      <c r="E327" s="56"/>
+      <c r="E327" s="58"/>
       <c r="F327" s="4"/>
       <c r="G327" s="4"/>
       <c r="H327" s="4"/>
       <c r="I327" s="4"/>
       <c r="J327" s="4"/>
-      <c r="K327" s="68"/>
+      <c r="K327" s="70"/>
     </row>
     <row r="328" spans="1:11">
       <c r="A328" s="4"/>
       <c r="B328" s="4"/>
       <c r="D328" s="4"/>
-      <c r="E328" s="56"/>
+      <c r="E328" s="58"/>
       <c r="F328" s="4"/>
       <c r="G328" s="4"/>
       <c r="H328" s="4"/>
       <c r="I328" s="4"/>
       <c r="J328" s="4"/>
-      <c r="K328" s="68"/>
+      <c r="K328" s="70"/>
     </row>
     <row r="329" spans="1:11">
       <c r="A329" s="4"/>
       <c r="B329" s="4"/>
       <c r="D329" s="4"/>
-      <c r="E329" s="56"/>
+      <c r="E329" s="58"/>
       <c r="F329" s="4"/>
       <c r="G329" s="4"/>
       <c r="H329" s="4"/>
       <c r="I329" s="4"/>
       <c r="J329" s="4"/>
-      <c r="K329" s="68"/>
+      <c r="K329" s="70"/>
     </row>
     <row r="330" spans="1:11">
       <c r="A330" s="4"/>
       <c r="B330" s="4"/>
       <c r="D330" s="4"/>
-      <c r="E330" s="56"/>
+      <c r="E330" s="58"/>
       <c r="F330" s="4"/>
       <c r="G330" s="4"/>
       <c r="H330" s="4"/>
       <c r="I330" s="4"/>
       <c r="J330" s="4"/>
-      <c r="K330" s="68"/>
+      <c r="K330" s="70"/>
     </row>
     <row r="331" spans="1:11">
       <c r="A331" s="4"/>
       <c r="B331" s="4"/>
       <c r="D331" s="4"/>
-      <c r="E331" s="56"/>
+      <c r="E331" s="58"/>
       <c r="F331" s="4"/>
       <c r="G331" s="4"/>
       <c r="H331" s="4"/>
       <c r="I331" s="4"/>
       <c r="J331" s="4"/>
-      <c r="K331" s="68"/>
+      <c r="K331" s="70"/>
     </row>
     <row r="332" spans="1:11">
       <c r="A332" s="4"/>
       <c r="B332" s="4"/>
       <c r="D332" s="4"/>
-      <c r="E332" s="56"/>
+      <c r="E332" s="58"/>
       <c r="F332" s="4"/>
       <c r="G332" s="4"/>
       <c r="H332" s="4"/>
       <c r="I332" s="4"/>
       <c r="J332" s="4"/>
-      <c r="K332" s="68"/>
+      <c r="K332" s="70"/>
     </row>
     <row r="333" spans="1:11">
       <c r="A333" s="4"/>
       <c r="B333" s="4"/>
       <c r="D333" s="4"/>
-      <c r="E333" s="56"/>
+      <c r="E333" s="58"/>
       <c r="F333" s="4"/>
       <c r="G333" s="4"/>
       <c r="H333" s="4"/>
       <c r="I333" s="4"/>
       <c r="J333" s="4"/>
-      <c r="K333" s="68"/>
+      <c r="K333" s="70"/>
     </row>
     <row r="334" spans="1:11">
       <c r="A334" s="4"/>
       <c r="B334" s="4"/>
       <c r="D334" s="4"/>
-      <c r="E334" s="56"/>
+      <c r="E334" s="58"/>
       <c r="F334" s="4"/>
       <c r="G334" s="4"/>
       <c r="H334" s="4"/>
       <c r="I334" s="4"/>
       <c r="J334" s="4"/>
-      <c r="K334" s="68"/>
+      <c r="K334" s="70"/>
     </row>
     <row r="335" spans="1:11">
       <c r="A335" s="4"/>
       <c r="B335" s="4"/>
       <c r="D335" s="4"/>
-      <c r="E335" s="56"/>
+      <c r="E335" s="58"/>
       <c r="F335" s="4"/>
       <c r="G335" s="4"/>
       <c r="H335" s="4"/>
       <c r="I335" s="4"/>
       <c r="J335" s="4"/>
-      <c r="K335" s="68"/>
+      <c r="K335" s="70"/>
     </row>
     <row r="336" spans="1:11">
       <c r="A336" s="4"/>
       <c r="B336" s="4"/>
       <c r="D336" s="4"/>
-      <c r="E336" s="56"/>
+      <c r="E336" s="58"/>
       <c r="F336" s="4"/>
       <c r="G336" s="4"/>
       <c r="H336" s="4"/>
       <c r="I336" s="4"/>
       <c r="J336" s="4"/>
-      <c r="K336" s="68"/>
+      <c r="K336" s="70"/>
     </row>
     <row r="337" spans="1:11">
       <c r="A337" s="4"/>
       <c r="B337" s="4"/>
       <c r="D337" s="4"/>
-      <c r="E337" s="56"/>
+      <c r="E337" s="58"/>
       <c r="F337" s="4"/>
       <c r="G337" s="4"/>
       <c r="H337" s="4"/>
       <c r="I337" s="4"/>
       <c r="J337" s="4"/>
-      <c r="K337" s="68"/>
+      <c r="K337" s="70"/>
     </row>
     <row r="338" spans="1:11">
       <c r="A338" s="4"/>
       <c r="B338" s="4"/>
       <c r="D338" s="4"/>
-      <c r="E338" s="56"/>
+      <c r="E338" s="58"/>
       <c r="F338" s="4"/>
       <c r="G338" s="4"/>
       <c r="H338" s="4"/>
       <c r="I338" s="4"/>
       <c r="J338" s="4"/>
-      <c r="K338" s="68"/>
+      <c r="K338" s="70"/>
     </row>
     <row r="339" spans="1:11">
       <c r="A339" s="4"/>
       <c r="B339" s="4"/>
       <c r="D339" s="4"/>
-      <c r="E339" s="56"/>
+      <c r="E339" s="58"/>
       <c r="F339" s="4"/>
       <c r="G339" s="4"/>
       <c r="H339" s="4"/>
       <c r="I339" s="4"/>
       <c r="J339" s="4"/>
-      <c r="K339" s="68"/>
+      <c r="K339" s="70"/>
     </row>
     <row r="340" spans="1:11">
       <c r="A340" s="4"/>
       <c r="B340" s="4"/>
       <c r="D340" s="4"/>
-      <c r="E340" s="56"/>
+      <c r="E340" s="58"/>
       <c r="F340" s="4"/>
       <c r="G340" s="4"/>
       <c r="H340" s="4"/>
       <c r="I340" s="4"/>
       <c r="J340" s="4"/>
-      <c r="K340" s="68"/>
+      <c r="K340" s="70"/>
     </row>
     <row r="341" spans="1:11">
       <c r="A341" s="4"/>
       <c r="B341" s="4"/>
       <c r="D341" s="4"/>
-      <c r="E341" s="56"/>
+      <c r="E341" s="58"/>
       <c r="F341" s="4"/>
       <c r="G341" s="4"/>
       <c r="H341" s="4"/>
       <c r="I341" s="4"/>
       <c r="J341" s="4"/>
-      <c r="K341" s="68"/>
+      <c r="K341" s="70"/>
     </row>
     <row r="342" spans="1:11">
       <c r="A342" s="4"/>
       <c r="B342" s="4"/>
       <c r="D342" s="4"/>
-      <c r="E342" s="56"/>
+      <c r="E342" s="58"/>
       <c r="F342" s="4"/>
       <c r="G342" s="4"/>
       <c r="H342" s="4"/>
       <c r="I342" s="4"/>
       <c r="J342" s="4"/>
-      <c r="K342" s="68"/>
+      <c r="K342" s="70"/>
     </row>
     <row r="343" spans="1:11">
       <c r="A343" s="4"/>
       <c r="B343" s="4"/>
       <c r="D343" s="4"/>
-      <c r="E343" s="56"/>
+      <c r="E343" s="58"/>
       <c r="F343" s="4"/>
       <c r="G343" s="4"/>
       <c r="H343" s="4"/>
       <c r="I343" s="4"/>
       <c r="J343" s="4"/>
-      <c r="K343" s="68"/>
+      <c r="K343" s="70"/>
     </row>
     <row r="344" spans="1:11">
       <c r="A344" s="4"/>
       <c r="B344" s="4"/>
       <c r="D344" s="4"/>
-      <c r="E344" s="56"/>
+      <c r="E344" s="58"/>
       <c r="F344" s="4"/>
       <c r="G344" s="4"/>
       <c r="H344" s="4"/>
       <c r="I344" s="4"/>
       <c r="J344" s="4"/>
-      <c r="K344" s="68"/>
+      <c r="K344" s="70"/>
     </row>
     <row r="345" spans="1:11">
       <c r="A345" s="4"/>
       <c r="B345" s="4"/>
       <c r="D345" s="4"/>
-      <c r="E345" s="56"/>
+      <c r="E345" s="58"/>
       <c r="F345" s="4"/>
       <c r="G345" s="4"/>
       <c r="H345" s="4"/>
       <c r="I345" s="4"/>
       <c r="J345" s="4"/>
-      <c r="K345" s="68"/>
+      <c r="K345" s="70"/>
     </row>
     <row r="346" spans="1:11">
       <c r="A346" s="4"/>
       <c r="B346" s="4"/>
       <c r="D346" s="4"/>
-      <c r="E346" s="56"/>
+      <c r="E346" s="58"/>
       <c r="F346" s="4"/>
       <c r="G346" s="4"/>
       <c r="H346" s="4"/>
       <c r="I346" s="4"/>
       <c r="J346" s="4"/>
-      <c r="K346" s="68"/>
+      <c r="K346" s="70"/>
     </row>
     <row r="347" spans="1:11">
       <c r="A347" s="4"/>
       <c r="B347" s="4"/>
       <c r="D347" s="4"/>
-      <c r="E347" s="56"/>
+      <c r="E347" s="58"/>
       <c r="F347" s="4"/>
       <c r="G347" s="4"/>
       <c r="H347" s="4"/>
       <c r="I347" s="4"/>
       <c r="J347" s="4"/>
-      <c r="K347" s="68"/>
+      <c r="K347" s="70"/>
     </row>
     <row r="348" spans="1:11">
       <c r="A348" s="4"/>
       <c r="B348" s="4"/>
       <c r="D348" s="4"/>
-      <c r="E348" s="56"/>
+      <c r="E348" s="58"/>
       <c r="F348" s="4"/>
       <c r="G348" s="4"/>
       <c r="H348" s="4"/>
       <c r="I348" s="4"/>
       <c r="J348" s="4"/>
-      <c r="K348" s="68"/>
+      <c r="K348" s="70"/>
     </row>
     <row r="349" spans="1:11">
       <c r="A349" s="4"/>
       <c r="B349" s="4"/>
       <c r="D349" s="4"/>
-      <c r="E349" s="56"/>
+      <c r="E349" s="58"/>
       <c r="F349" s="4"/>
       <c r="G349" s="4"/>
       <c r="H349" s="4"/>
       <c r="I349" s="4"/>
       <c r="J349" s="4"/>
-      <c r="K349" s="68"/>
+      <c r="K349" s="70"/>
     </row>
     <row r="350" spans="1:11">
       <c r="A350" s="4"/>
       <c r="B350" s="4"/>
       <c r="D350" s="4"/>
-      <c r="E350" s="56"/>
+      <c r="E350" s="58"/>
       <c r="F350" s="4"/>
       <c r="G350" s="4"/>
       <c r="H350" s="4"/>
       <c r="I350" s="4"/>
       <c r="J350" s="4"/>
-      <c r="K350" s="68"/>
+      <c r="K350" s="70"/>
     </row>
     <row r="351" spans="1:11">
       <c r="A351" s="4"/>
       <c r="B351" s="4"/>
       <c r="D351" s="4"/>
-      <c r="E351" s="56"/>
+      <c r="E351" s="58"/>
       <c r="F351" s="4"/>
       <c r="G351" s="4"/>
       <c r="H351" s="4"/>
       <c r="I351" s="4"/>
       <c r="J351" s="4"/>
-      <c r="K351" s="68"/>
+      <c r="K351" s="70"/>
     </row>
     <row r="352" spans="1:11">
       <c r="A352" s="4"/>
       <c r="B352" s="4"/>
       <c r="D352" s="4"/>
-      <c r="E352" s="56"/>
+      <c r="E352" s="58"/>
       <c r="F352" s="4"/>
       <c r="G352" s="4"/>
       <c r="H352" s="4"/>
       <c r="I352" s="4"/>
       <c r="J352" s="4"/>
-      <c r="K352" s="68"/>
+      <c r="K352" s="70"/>
     </row>
     <row r="353" spans="1:11">
       <c r="A353" s="4"/>
       <c r="B353" s="4"/>
       <c r="D353" s="4"/>
-      <c r="E353" s="56"/>
+      <c r="E353" s="58"/>
       <c r="F353" s="4"/>
       <c r="G353" s="4"/>
       <c r="H353" s="4"/>
       <c r="I353" s="4"/>
       <c r="J353" s="4"/>
-      <c r="K353" s="68"/>
+      <c r="K353" s="70"/>
     </row>
     <row r="354" spans="1:11">
       <c r="A354" s="4"/>
       <c r="B354" s="4"/>
       <c r="D354" s="4"/>
-      <c r="E354" s="56"/>
+      <c r="E354" s="58"/>
       <c r="F354" s="4"/>
       <c r="G354" s="4"/>
       <c r="H354" s="4"/>
       <c r="I354" s="4"/>
       <c r="J354" s="4"/>
-      <c r="K354" s="68"/>
+      <c r="K354" s="70"/>
     </row>
     <row r="355" spans="1:11">
       <c r="A355" s="4"/>
       <c r="B355" s="4"/>
       <c r="D355" s="4"/>
-      <c r="E355" s="56"/>
+      <c r="E355" s="58"/>
       <c r="F355" s="4"/>
       <c r="G355" s="4"/>
       <c r="H355" s="4"/>
       <c r="I355" s="4"/>
       <c r="J355" s="4"/>
-      <c r="K355" s="68"/>
+      <c r="K355" s="70"/>
     </row>
     <row r="356" spans="1:11">
       <c r="A356" s="4"/>
       <c r="B356" s="4"/>
       <c r="D356" s="4"/>
-      <c r="E356" s="56"/>
+      <c r="E356" s="58"/>
       <c r="F356" s="4"/>
       <c r="G356" s="4"/>
       <c r="H356" s="4"/>
       <c r="I356" s="4"/>
       <c r="J356" s="4"/>
-      <c r="K356" s="68"/>
+      <c r="K356" s="70"/>
     </row>
     <row r="357" spans="1:11">
       <c r="A357" s="4"/>
       <c r="B357" s="4"/>
       <c r="D357" s="4"/>
-      <c r="E357" s="56"/>
+      <c r="E357" s="58"/>
       <c r="F357" s="4"/>
       <c r="G357" s="4"/>
       <c r="H357" s="4"/>
       <c r="I357" s="4"/>
       <c r="J357" s="4"/>
-      <c r="K357" s="68"/>
+      <c r="K357" s="70"/>
     </row>
     <row r="358" spans="1:11">
       <c r="A358" s="4"/>
       <c r="B358" s="4"/>
       <c r="D358" s="4"/>
-      <c r="E358" s="56"/>
+      <c r="E358" s="58"/>
       <c r="F358" s="4"/>
       <c r="G358" s="4"/>
       <c r="H358" s="4"/>
       <c r="I358" s="4"/>
       <c r="J358" s="4"/>
-      <c r="K358" s="68"/>
+      <c r="K358" s="70"/>
     </row>
     <row r="359" spans="1:11">
       <c r="A359" s="4"/>
       <c r="B359" s="4"/>
       <c r="D359" s="4"/>
-      <c r="E359" s="56"/>
+      <c r="E359" s="58"/>
       <c r="F359" s="4"/>
       <c r="G359" s="4"/>
       <c r="H359" s="4"/>
       <c r="I359" s="4"/>
       <c r="J359" s="4"/>
-      <c r="K359" s="68"/>
+      <c r="K359" s="70"/>
     </row>
     <row r="360" spans="1:11">
       <c r="A360" s="4"/>
       <c r="B360" s="4"/>
       <c r="D360" s="4"/>
-      <c r="E360" s="56"/>
+      <c r="E360" s="58"/>
       <c r="F360" s="4"/>
       <c r="G360" s="4"/>
       <c r="H360" s="4"/>
       <c r="I360" s="4"/>
       <c r="J360" s="4"/>
-      <c r="K360" s="68"/>
+      <c r="K360" s="70"/>
     </row>
     <row r="361" spans="1:11">
       <c r="A361" s="4"/>
       <c r="B361" s="4"/>
       <c r="D361" s="4"/>
-      <c r="E361" s="56"/>
+      <c r="E361" s="58"/>
       <c r="F361" s="4"/>
       <c r="G361" s="4"/>
       <c r="H361" s="4"/>
       <c r="I361" s="4"/>
       <c r="J361" s="4"/>
-      <c r="K361" s="68"/>
+      <c r="K361" s="70"/>
     </row>
     <row r="362" spans="1:11">
       <c r="A362" s="4"/>
       <c r="B362" s="4"/>
       <c r="D362" s="4"/>
-      <c r="E362" s="56"/>
+      <c r="E362" s="58"/>
       <c r="F362" s="4"/>
       <c r="G362" s="4"/>
       <c r="H362" s="4"/>
       <c r="I362" s="4"/>
       <c r="J362" s="4"/>
-      <c r="K362" s="68"/>
+      <c r="K362" s="70"/>
     </row>
     <row r="363" spans="1:11">
       <c r="A363" s="4"/>
       <c r="B363" s="4"/>
       <c r="D363" s="4"/>
-      <c r="E363" s="56"/>
+      <c r="E363" s="58"/>
       <c r="F363" s="4"/>
       <c r="G363" s="4"/>
       <c r="H363" s="4"/>
       <c r="I363" s="4"/>
       <c r="J363" s="4"/>
-      <c r="K363" s="68"/>
+      <c r="K363" s="70"/>
     </row>
     <row r="364" spans="1:11">
       <c r="A364" s="4"/>
       <c r="B364" s="4"/>
       <c r="D364" s="4"/>
-      <c r="E364" s="56"/>
+      <c r="E364" s="58"/>
       <c r="F364" s="4"/>
       <c r="G364" s="4"/>
       <c r="H364" s="4"/>
       <c r="I364" s="4"/>
       <c r="J364" s="4"/>
-      <c r="K364" s="68"/>
+      <c r="K364" s="70"/>
     </row>
     <row r="365" spans="1:11">
       <c r="A365" s="4"/>
       <c r="B365" s="4"/>
       <c r="D365" s="4"/>
-      <c r="E365" s="56"/>
+      <c r="E365" s="58"/>
       <c r="F365" s="4"/>
       <c r="G365" s="4"/>
       <c r="H365" s="4"/>
       <c r="I365" s="4"/>
       <c r="J365" s="4"/>
-      <c r="K365" s="68"/>
+      <c r="K365" s="70"/>
     </row>
     <row r="366" spans="1:11">
       <c r="A366" s="4"/>
       <c r="B366" s="4"/>
       <c r="D366" s="4"/>
-      <c r="E366" s="56"/>
+      <c r="E366" s="58"/>
       <c r="F366" s="4"/>
       <c r="G366" s="4"/>
       <c r="H366" s="4"/>
       <c r="I366" s="4"/>
       <c r="J366" s="4"/>
-      <c r="K366" s="68"/>
+      <c r="K366" s="70"/>
     </row>
     <row r="367" spans="1:11">
       <c r="A367" s="4"/>
       <c r="B367" s="4"/>
       <c r="D367" s="4"/>
-      <c r="E367" s="56"/>
+      <c r="E367" s="58"/>
       <c r="F367" s="4"/>
       <c r="G367" s="4"/>
       <c r="H367" s="4"/>
       <c r="I367" s="4"/>
       <c r="J367" s="4"/>
-      <c r="K367" s="68"/>
+      <c r="K367" s="70"/>
     </row>
     <row r="368" spans="1:11">
       <c r="A368" s="4"/>
       <c r="B368" s="4"/>
       <c r="D368" s="4"/>
-      <c r="E368" s="56"/>
+      <c r="E368" s="58"/>
       <c r="F368" s="4"/>
       <c r="G368" s="4"/>
       <c r="H368" s="4"/>
       <c r="I368" s="4"/>
       <c r="J368" s="4"/>
-      <c r="K368" s="68"/>
+      <c r="K368" s="70"/>
     </row>
     <row r="369" spans="1:11">
       <c r="A369" s="4"/>
       <c r="B369" s="4"/>
       <c r="D369" s="4"/>
-      <c r="E369" s="56"/>
+      <c r="E369" s="58"/>
       <c r="F369" s="4"/>
       <c r="G369" s="4"/>
       <c r="H369" s="4"/>
       <c r="I369" s="4"/>
       <c r="J369" s="4"/>
-      <c r="K369" s="68"/>
+      <c r="K369" s="70"/>
     </row>
     <row r="370" spans="1:11">
       <c r="A370" s="4"/>
       <c r="B370" s="4"/>
       <c r="D370" s="4"/>
-      <c r="E370" s="56"/>
+      <c r="E370" s="58"/>
       <c r="F370" s="4"/>
       <c r="G370" s="4"/>
       <c r="H370" s="4"/>
       <c r="I370" s="4"/>
       <c r="J370" s="4"/>
-      <c r="K370" s="68"/>
+      <c r="K370" s="70"/>
     </row>
     <row r="371" spans="1:11">
       <c r="A371" s="4"/>
       <c r="B371" s="4"/>
       <c r="D371" s="4"/>
-      <c r="E371" s="56"/>
+      <c r="E371" s="58"/>
       <c r="F371" s="4"/>
       <c r="G371" s="4"/>
       <c r="H371" s="4"/>
       <c r="I371" s="4"/>
       <c r="J371" s="4"/>
-      <c r="K371" s="68"/>
+      <c r="K371" s="70"/>
     </row>
     <row r="372" spans="1:11">
       <c r="A372" s="4"/>
       <c r="B372" s="4"/>
       <c r="D372" s="4"/>
-      <c r="E372" s="56"/>
+      <c r="E372" s="58"/>
       <c r="F372" s="4"/>
       <c r="G372" s="4"/>
       <c r="H372" s="4"/>
       <c r="I372" s="4"/>
       <c r="J372" s="4"/>
-      <c r="K372" s="68"/>
+      <c r="K372" s="70"/>
     </row>
     <row r="373" spans="1:11">
       <c r="A373" s="4"/>
       <c r="B373" s="4"/>
       <c r="D373" s="4"/>
-      <c r="E373" s="56"/>
+      <c r="E373" s="58"/>
       <c r="F373" s="4"/>
       <c r="G373" s="4"/>
       <c r="H373" s="4"/>
       <c r="I373" s="4"/>
       <c r="J373" s="4"/>
-      <c r="K373" s="68"/>
+      <c r="K373" s="70"/>
     </row>
     <row r="374" spans="1:11">
       <c r="A374" s="4"/>
       <c r="B374" s="4"/>
       <c r="D374" s="4"/>
-      <c r="E374" s="56"/>
+      <c r="E374" s="58"/>
       <c r="F374" s="4"/>
       <c r="G374" s="4"/>
       <c r="H374" s="4"/>
       <c r="I374" s="4"/>
       <c r="J374" s="4"/>
-      <c r="K374" s="68"/>
+      <c r="K374" s="70"/>
     </row>
     <row r="375" spans="1:11">
       <c r="A375" s="4"/>
       <c r="B375" s="4"/>
       <c r="D375" s="4"/>
-      <c r="E375" s="56"/>
+      <c r="E375" s="58"/>
       <c r="F375" s="4"/>
       <c r="G375" s="4"/>
       <c r="H375" s="4"/>
       <c r="I375" s="4"/>
       <c r="J375" s="4"/>
-      <c r="K375" s="68"/>
+      <c r="K375" s="70"/>
     </row>
     <row r="376" spans="1:11">
       <c r="A376" s="4"/>
       <c r="B376" s="4"/>
       <c r="D376" s="4"/>
-      <c r="E376" s="56"/>
+      <c r="E376" s="58"/>
       <c r="F376" s="4"/>
       <c r="G376" s="4"/>
       <c r="H376" s="4"/>
       <c r="I376" s="4"/>
       <c r="J376" s="4"/>
-      <c r="K376" s="68"/>
+      <c r="K376" s="70"/>
     </row>
     <row r="377" spans="1:11">
       <c r="A377" s="4"/>
       <c r="B377" s="4"/>
       <c r="D377" s="4"/>
-      <c r="E377" s="56"/>
+      <c r="E377" s="58"/>
       <c r="F377" s="4"/>
       <c r="G377" s="4"/>
       <c r="H377" s="4"/>
       <c r="I377" s="4"/>
       <c r="J377" s="4"/>
-      <c r="K377" s="68"/>
+      <c r="K377" s="70"/>
     </row>
     <row r="378" spans="1:11">
       <c r="A378" s="4"/>
       <c r="B378" s="4"/>
       <c r="D378" s="4"/>
-      <c r="E378" s="56"/>
+      <c r="E378" s="58"/>
       <c r="F378" s="4"/>
       <c r="G378" s="4"/>
       <c r="H378" s="4"/>
       <c r="I378" s="4"/>
       <c r="J378" s="4"/>
-      <c r="K378" s="68"/>
+      <c r="K378" s="70"/>
     </row>
     <row r="379" spans="1:11">
       <c r="A379" s="4"/>
       <c r="B379" s="4"/>
       <c r="D379" s="4"/>
-      <c r="E379" s="56"/>
+      <c r="E379" s="58"/>
       <c r="F379" s="4"/>
       <c r="G379" s="4"/>
       <c r="H379" s="4"/>
       <c r="I379" s="4"/>
       <c r="J379" s="4"/>
-      <c r="K379" s="68"/>
+      <c r="K379" s="70"/>
     </row>
     <row r="380" spans="1:11">
       <c r="A380" s="4"/>
       <c r="B380" s="4"/>
       <c r="D380" s="4"/>
-      <c r="E380" s="56"/>
+      <c r="E380" s="58"/>
       <c r="F380" s="4"/>
       <c r="G380" s="4"/>
       <c r="H380" s="4"/>
       <c r="I380" s="4"/>
       <c r="J380" s="4"/>
-      <c r="K380" s="68"/>
+      <c r="K380" s="70"/>
     </row>
     <row r="381" spans="1:11">
       <c r="A381" s="4"/>
       <c r="B381" s="4"/>
       <c r="D381" s="4"/>
-      <c r="E381" s="56"/>
+      <c r="E381" s="58"/>
       <c r="F381" s="4"/>
       <c r="G381" s="4"/>
       <c r="H381" s="4"/>
       <c r="I381" s="4"/>
       <c r="J381" s="4"/>
-      <c r="K381" s="68"/>
+      <c r="K381" s="70"/>
     </row>
     <row r="382" spans="1:11">
       <c r="A382" s="4"/>
       <c r="B382" s="4"/>
       <c r="D382" s="4"/>
-      <c r="E382" s="56"/>
+      <c r="E382" s="58"/>
       <c r="F382" s="4"/>
       <c r="G382" s="4"/>
       <c r="H382" s="4"/>
       <c r="I382" s="4"/>
       <c r="J382" s="4"/>
-      <c r="K382" s="68"/>
+      <c r="K382" s="70"/>
     </row>
     <row r="383" spans="1:11">
       <c r="A383" s="4"/>
       <c r="B383" s="4"/>
       <c r="D383" s="4"/>
-      <c r="E383" s="56"/>
+      <c r="E383" s="58"/>
       <c r="F383" s="4"/>
       <c r="G383" s="4"/>
       <c r="H383" s="4"/>
       <c r="I383" s="4"/>
       <c r="J383" s="4"/>
-      <c r="K383" s="68"/>
+      <c r="K383" s="70"/>
     </row>
     <row r="384" spans="1:11">
       <c r="A384" s="4"/>
       <c r="B384" s="4"/>
       <c r="D384" s="4"/>
-      <c r="E384" s="56"/>
+      <c r="E384" s="58"/>
       <c r="F384" s="4"/>
       <c r="G384" s="4"/>
       <c r="H384" s="4"/>
       <c r="I384" s="4"/>
       <c r="J384" s="4"/>
-      <c r="K384" s="68"/>
+      <c r="K384" s="70"/>
     </row>
     <row r="385" spans="1:11">
       <c r="A385" s="4"/>
       <c r="B385" s="4"/>
       <c r="D385" s="4"/>
-      <c r="E385" s="56"/>
+      <c r="E385" s="58"/>
       <c r="F385" s="4"/>
       <c r="G385" s="4"/>
       <c r="H385" s="4"/>
       <c r="I385" s="4"/>
       <c r="J385" s="4"/>
-      <c r="K385" s="68"/>
+      <c r="K385" s="70"/>
     </row>
     <row r="386" spans="1:11">
       <c r="A386" s="4"/>
       <c r="B386" s="4"/>
       <c r="D386" s="4"/>
-      <c r="E386" s="56"/>
+      <c r="E386" s="58"/>
       <c r="F386" s="4"/>
       <c r="G386" s="4"/>
       <c r="H386" s="4"/>
       <c r="I386" s="4"/>
       <c r="J386" s="4"/>
-      <c r="K386" s="68"/>
+      <c r="K386" s="70"/>
     </row>
     <row r="387" spans="1:11">
       <c r="A387" s="4"/>
       <c r="B387" s="4"/>
       <c r="D387" s="4"/>
-      <c r="E387" s="56"/>
+      <c r="E387" s="58"/>
       <c r="F387" s="4"/>
       <c r="G387" s="4"/>
       <c r="H387" s="4"/>
       <c r="I387" s="4"/>
       <c r="J387" s="4"/>
-      <c r="K387" s="68"/>
+      <c r="K387" s="70"/>
     </row>
     <row r="388" spans="1:11">
       <c r="A388" s="4"/>
       <c r="B388" s="4"/>
       <c r="D388" s="4"/>
-      <c r="E388" s="56"/>
+      <c r="E388" s="58"/>
       <c r="F388" s="4"/>
       <c r="G388" s="4"/>
       <c r="H388" s="4"/>
       <c r="I388" s="4"/>
       <c r="J388" s="4"/>
-      <c r="K388" s="68"/>
+      <c r="K388" s="70"/>
     </row>
     <row r="389" spans="1:11">
       <c r="A389" s="4"/>
       <c r="B389" s="4"/>
       <c r="D389" s="4"/>
-      <c r="E389" s="56"/>
+      <c r="E389" s="58"/>
       <c r="F389" s="4"/>
       <c r="G389" s="4"/>
       <c r="H389" s="4"/>
       <c r="I389" s="4"/>
       <c r="J389" s="4"/>
-      <c r="K389" s="68"/>
+      <c r="K389" s="70"/>
     </row>
     <row r="390" spans="1:11">
       <c r="A390" s="4"/>
       <c r="B390" s="4"/>
       <c r="D390" s="4"/>
-      <c r="E390" s="56"/>
+      <c r="E390" s="58"/>
       <c r="F390" s="4"/>
       <c r="G390" s="4"/>
       <c r="H390" s="4"/>
       <c r="I390" s="4"/>
       <c r="J390" s="4"/>
-      <c r="K390" s="68"/>
+      <c r="K390" s="70"/>
     </row>
     <row r="391" spans="1:11">
       <c r="A391" s="4"/>
       <c r="B391" s="4"/>
       <c r="D391" s="4"/>
-      <c r="E391" s="56"/>
+      <c r="E391" s="58"/>
       <c r="F391" s="4"/>
       <c r="G391" s="4"/>
       <c r="H391" s="4"/>
       <c r="I391" s="4"/>
       <c r="J391" s="4"/>
-      <c r="K391" s="68"/>
+      <c r="K391" s="70"/>
     </row>
     <row r="392" spans="1:11">
       <c r="A392" s="4"/>
       <c r="B392" s="4"/>
       <c r="D392" s="4"/>
-      <c r="E392" s="56"/>
+      <c r="E392" s="58"/>
       <c r="F392" s="4"/>
       <c r="G392" s="4"/>
       <c r="H392" s="4"/>
       <c r="I392" s="4"/>
       <c r="J392" s="4"/>
-      <c r="K392" s="68"/>
+      <c r="K392" s="70"/>
     </row>
     <row r="393" spans="1:11">
       <c r="A393" s="4"/>
       <c r="B393" s="4"/>
       <c r="D393" s="4"/>
-      <c r="E393" s="56"/>
+      <c r="E393" s="58"/>
       <c r="F393" s="4"/>
       <c r="G393" s="4"/>
       <c r="H393" s="4"/>
       <c r="I393" s="4"/>
       <c r="J393" s="4"/>
-      <c r="K393" s="68"/>
+      <c r="K393" s="70"/>
     </row>
     <row r="394" spans="1:11">
       <c r="A394" s="4"/>
       <c r="B394" s="4"/>
       <c r="D394" s="4"/>
-      <c r="E394" s="56"/>
+      <c r="E394" s="58"/>
       <c r="F394" s="4"/>
       <c r="G394" s="4"/>
       <c r="H394" s="4"/>
       <c r="I394" s="4"/>
       <c r="J394" s="4"/>
-      <c r="K394" s="68"/>
+      <c r="K394" s="70"/>
     </row>
     <row r="395" spans="1:11">
       <c r="A395" s="4"/>
       <c r="B395" s="4"/>
       <c r="D395" s="4"/>
-      <c r="E395" s="56"/>
+      <c r="E395" s="58"/>
       <c r="F395" s="4"/>
       <c r="G395" s="4"/>
       <c r="H395" s="4"/>
       <c r="I395" s="4"/>
       <c r="J395" s="4"/>
-      <c r="K395" s="68"/>
+      <c r="K395" s="70"/>
     </row>
     <row r="396" spans="1:11">
       <c r="A396" s="4"/>
       <c r="B396" s="4"/>
       <c r="D396" s="4"/>
-      <c r="E396" s="56"/>
+      <c r="E396" s="58"/>
       <c r="F396" s="4"/>
       <c r="G396" s="4"/>
       <c r="H396" s="4"/>
       <c r="I396" s="4"/>
       <c r="J396" s="4"/>
-      <c r="K396" s="68"/>
+      <c r="K396" s="70"/>
     </row>
     <row r="397" spans="1:11">
       <c r="A397" s="4"/>
       <c r="B397" s="4"/>
       <c r="D397" s="4"/>
-      <c r="E397" s="56"/>
+      <c r="E397" s="58"/>
       <c r="F397" s="4"/>
       <c r="G397" s="4"/>
       <c r="H397" s="4"/>
       <c r="I397" s="4"/>
       <c r="J397" s="4"/>
-      <c r="K397" s="68"/>
+      <c r="K397" s="70"/>
     </row>
     <row r="398" spans="1:11">
       <c r="A398" s="4"/>
       <c r="B398" s="4"/>
       <c r="D398" s="4"/>
-      <c r="E398" s="56"/>
+      <c r="E398" s="58"/>
       <c r="F398" s="4"/>
       <c r="G398" s="4"/>
       <c r="H398" s="4"/>
       <c r="I398" s="4"/>
       <c r="J398" s="4"/>
-      <c r="K398" s="68"/>
+      <c r="K398" s="70"/>
     </row>
     <row r="399" spans="1:11">
       <c r="A399" s="4"/>
       <c r="B399" s="4"/>
       <c r="D399" s="4"/>
-      <c r="E399" s="56"/>
+      <c r="E399" s="58"/>
       <c r="F399" s="4"/>
       <c r="G399" s="4"/>
       <c r="H399" s="4"/>
       <c r="I399" s="4"/>
       <c r="J399" s="4"/>
-      <c r="K399" s="68"/>
+      <c r="K399" s="70"/>
     </row>
     <row r="400" spans="1:11">
       <c r="A400" s="4"/>
       <c r="B400" s="4"/>
       <c r="D400" s="4"/>
-      <c r="E400" s="56"/>
+      <c r="E400" s="58"/>
       <c r="F400" s="4"/>
       <c r="G400" s="4"/>
       <c r="H400" s="4"/>
       <c r="I400" s="4"/>
       <c r="J400" s="4"/>
-      <c r="K400" s="68"/>
+      <c r="K400" s="70"/>
     </row>
     <row r="401" spans="1:11">
       <c r="A401" s="4"/>
       <c r="B401" s="4"/>
       <c r="D401" s="4"/>
-      <c r="E401" s="56"/>
+      <c r="E401" s="58"/>
       <c r="F401" s="4"/>
       <c r="G401" s="4"/>
       <c r="H401" s="4"/>
       <c r="I401" s="4"/>
       <c r="J401" s="4"/>
-      <c r="K401" s="68"/>
+      <c r="K401" s="70"/>
     </row>
     <row r="402" spans="1:11">
       <c r="A402" s="4"/>
       <c r="B402" s="4"/>
       <c r="D402" s="4"/>
-      <c r="E402" s="56"/>
+      <c r="E402" s="58"/>
       <c r="F402" s="4"/>
       <c r="G402" s="4"/>
       <c r="H402" s="4"/>
       <c r="I402" s="4"/>
       <c r="J402" s="4"/>
-      <c r="K402" s="68"/>
+      <c r="K402" s="70"/>
     </row>
     <row r="403" spans="1:11">
       <c r="A403" s="4"/>
       <c r="B403" s="4"/>
       <c r="D403" s="4"/>
-      <c r="E403" s="56"/>
+      <c r="E403" s="58"/>
       <c r="F403" s="4"/>
       <c r="G403" s="4"/>
       <c r="H403" s="4"/>
       <c r="I403" s="4"/>
       <c r="J403" s="4"/>
-      <c r="K403" s="68"/>
+      <c r="K403" s="70"/>
     </row>
     <row r="404" spans="1:11">
       <c r="A404" s="4"/>
       <c r="B404" s="4"/>
       <c r="D404" s="4"/>
-      <c r="E404" s="56"/>
+      <c r="E404" s="58"/>
       <c r="F404" s="4"/>
       <c r="G404" s="4"/>
       <c r="H404" s="4"/>
       <c r="I404" s="4"/>
       <c r="J404" s="4"/>
-      <c r="K404" s="68"/>
+      <c r="K404" s="70"/>
     </row>
     <row r="405" spans="1:11">
       <c r="A405" s="4"/>
       <c r="B405" s="4"/>
       <c r="D405" s="4"/>
-      <c r="E405" s="56"/>
+      <c r="E405" s="58"/>
       <c r="F405" s="4"/>
       <c r="G405" s="4"/>
       <c r="H405" s="4"/>
       <c r="I405" s="4"/>
       <c r="J405" s="4"/>
-      <c r="K405" s="68"/>
+      <c r="K405" s="70"/>
     </row>
     <row r="406" spans="1:11">
       <c r="A406" s="4"/>
       <c r="B406" s="4"/>
       <c r="D406" s="4"/>
-      <c r="E406" s="56"/>
+      <c r="E406" s="58"/>
       <c r="F406" s="4"/>
       <c r="G406" s="4"/>
       <c r="H406" s="4"/>
       <c r="I406" s="4"/>
       <c r="J406" s="4"/>
-      <c r="K406" s="68"/>
+      <c r="K406" s="70"/>
     </row>
     <row r="407" spans="1:11">
       <c r="A407" s="4"/>
       <c r="B407" s="4"/>
       <c r="D407" s="4"/>
-      <c r="E407" s="56"/>
+      <c r="E407" s="58"/>
       <c r="F407" s="4"/>
       <c r="G407" s="4"/>
       <c r="H407" s="4"/>
       <c r="I407" s="4"/>
       <c r="J407" s="4"/>
-      <c r="K407" s="68"/>
+      <c r="K407" s="70"/>
     </row>
     <row r="408" spans="1:11">
       <c r="A408" s="4"/>
       <c r="B408" s="4"/>
       <c r="D408" s="4"/>
-      <c r="E408" s="56"/>
+      <c r="E408" s="58"/>
       <c r="F408" s="4"/>
       <c r="G408" s="4"/>
       <c r="H408" s="4"/>
       <c r="I408" s="4"/>
       <c r="J408" s="4"/>
-      <c r="K408" s="68"/>
+      <c r="K408" s="70"/>
     </row>
     <row r="409" spans="1:11">
       <c r="A409" s="4"/>
       <c r="B409" s="4"/>
       <c r="D409" s="4"/>
-      <c r="E409" s="56"/>
+      <c r="E409" s="58"/>
       <c r="F409" s="4"/>
       <c r="G409" s="4"/>
       <c r="H409" s="4"/>
       <c r="I409" s="4"/>
       <c r="J409" s="4"/>
-      <c r="K409" s="68"/>
+      <c r="K409" s="70"/>
     </row>
     <row r="410" spans="1:11">
       <c r="A410" s="4"/>
       <c r="B410" s="4"/>
       <c r="D410" s="4"/>
-      <c r="E410" s="56"/>
+      <c r="E410" s="58"/>
       <c r="F410" s="4"/>
       <c r="G410" s="4"/>
       <c r="H410" s="4"/>
       <c r="I410" s="4"/>
       <c r="J410" s="4"/>
-      <c r="K410" s="68"/>
+      <c r="K410" s="70"/>
     </row>
     <row r="411" spans="1:11">
       <c r="A411" s="4"/>
       <c r="B411" s="4"/>
       <c r="D411" s="4"/>
-      <c r="E411" s="56"/>
+      <c r="E411" s="58"/>
       <c r="F411" s="4"/>
       <c r="G411" s="4"/>
       <c r="H411" s="4"/>
       <c r="I411" s="4"/>
       <c r="J411" s="4"/>
-      <c r="K411" s="68"/>
+      <c r="K411" s="70"/>
     </row>
     <row r="412" spans="1:11">
       <c r="A412" s="4"/>
       <c r="B412" s="4"/>
       <c r="D412" s="4"/>
-      <c r="E412" s="56"/>
+      <c r="E412" s="58"/>
       <c r="F412" s="4"/>
       <c r="G412" s="4"/>
       <c r="H412" s="4"/>
       <c r="I412" s="4"/>
       <c r="J412" s="4"/>
-      <c r="K412" s="68"/>
+      <c r="K412" s="70"/>
     </row>
     <row r="413" spans="1:11">
       <c r="A413" s="4"/>
       <c r="B413" s="4"/>
       <c r="D413" s="4"/>
-      <c r="E413" s="56"/>
+      <c r="E413" s="58"/>
       <c r="F413" s="4"/>
       <c r="G413" s="4"/>
       <c r="H413" s="4"/>
       <c r="I413" s="4"/>
       <c r="J413" s="4"/>
-      <c r="K413" s="68"/>
+      <c r="K413" s="70"/>
     </row>
     <row r="414" spans="1:11">
       <c r="A414" s="4"/>
       <c r="B414" s="4"/>
       <c r="D414" s="4"/>
-      <c r="E414" s="56"/>
+      <c r="E414" s="58"/>
       <c r="F414" s="4"/>
       <c r="G414" s="4"/>
       <c r="H414" s="4"/>
       <c r="I414" s="4"/>
       <c r="J414" s="4"/>
-      <c r="K414" s="68"/>
+      <c r="K414" s="70"/>
     </row>
     <row r="415" spans="1:11">
       <c r="A415" s="4"/>
       <c r="B415" s="4"/>
       <c r="D415" s="4"/>
-      <c r="E415" s="56"/>
+      <c r="E415" s="58"/>
       <c r="F415" s="4"/>
       <c r="G415" s="4"/>
       <c r="H415" s="4"/>
       <c r="I415" s="4"/>
       <c r="J415" s="4"/>
-      <c r="K415" s="68"/>
+      <c r="K415" s="70"/>
     </row>
     <row r="416" spans="1:11">
       <c r="A416" s="4"/>
       <c r="B416" s="4"/>
       <c r="D416" s="4"/>
-      <c r="E416" s="56"/>
+      <c r="E416" s="58"/>
       <c r="F416" s="4"/>
       <c r="G416" s="4"/>
       <c r="H416" s="4"/>
       <c r="I416" s="4"/>
       <c r="J416" s="4"/>
-      <c r="K416" s="68"/>
+      <c r="K416" s="70"/>
     </row>
     <row r="417" spans="1:11">
       <c r="A417" s="4"/>
       <c r="B417" s="4"/>
       <c r="D417" s="4"/>
-      <c r="E417" s="56"/>
+      <c r="E417" s="58"/>
       <c r="F417" s="4"/>
       <c r="G417" s="4"/>
       <c r="H417" s="4"/>
       <c r="I417" s="4"/>
       <c r="J417" s="4"/>
-      <c r="K417" s="68"/>
+      <c r="K417" s="70"/>
     </row>
     <row r="418" spans="1:11">
       <c r="A418" s="4"/>
       <c r="B418" s="4"/>
       <c r="D418" s="4"/>
-      <c r="E418" s="56"/>
+      <c r="E418" s="58"/>
       <c r="F418" s="4"/>
       <c r="G418" s="4"/>
       <c r="H418" s="4"/>
       <c r="I418" s="4"/>
       <c r="J418" s="4"/>
-      <c r="K418" s="68"/>
+      <c r="K418" s="70"/>
     </row>
     <row r="419" spans="1:11">
       <c r="A419" s="4"/>
       <c r="B419" s="4"/>
       <c r="D419" s="4"/>
-      <c r="E419" s="56"/>
+      <c r="E419" s="58"/>
    